--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,19 +53,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择的号码号码不应该是自己想要的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永远不要选自己觉得会出的号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>固守某些规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不要受制于定势 惯性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择的号码号码不应该是自己想要的   n+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永远不要选自己觉得会出的号码     n+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,15 +222,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Adobe 黑体 Std R"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -275,8 +266,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Adobe 黑体 Std R"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Adobe 黑体 Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Adobe 黑体 Std R"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +318,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -314,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -416,19 +439,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -738,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO102"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T56" sqref="T56"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -3957,7 +3985,7 @@
       <c r="T32" s="7">
         <v>12</v>
       </c>
-      <c r="U32" s="26">
+      <c r="U32" s="7">
         <v>3</v>
       </c>
       <c r="V32" s="7">
@@ -4058,7 +4086,7 @@
       <c r="T33" s="7">
         <v>9</v>
       </c>
-      <c r="U33" s="26">
+      <c r="U33" s="7">
         <v>0</v>
       </c>
       <c r="V33" s="7">
@@ -4073,7 +4101,7 @@
       <c r="Y33" s="7">
         <v>2</v>
       </c>
-      <c r="Z33" s="26">
+      <c r="Z33" s="7">
         <v>3</v>
       </c>
       <c r="AA33" s="7">
@@ -4159,7 +4187,7 @@
       <c r="T34" s="7">
         <v>4</v>
       </c>
-      <c r="U34" s="26">
+      <c r="U34" s="7">
         <v>16</v>
       </c>
       <c r="V34" s="7">
@@ -4174,7 +4202,7 @@
       <c r="Y34" s="7">
         <v>1</v>
       </c>
-      <c r="Z34" s="26">
+      <c r="Z34" s="7">
         <v>0</v>
       </c>
       <c r="AA34" s="7">
@@ -4260,7 +4288,7 @@
       <c r="T35" s="7">
         <v>2</v>
       </c>
-      <c r="U35" s="26">
+      <c r="U35" s="7">
         <v>2</v>
       </c>
       <c r="V35" s="7">
@@ -4275,7 +4303,7 @@
       <c r="Y35" s="7">
         <v>1</v>
       </c>
-      <c r="Z35" s="26">
+      <c r="Z35" s="7">
         <v>0</v>
       </c>
       <c r="AA35" s="7">
@@ -4376,7 +4404,7 @@
       <c r="Y36" s="7">
         <v>10</v>
       </c>
-      <c r="Z36" s="26">
+      <c r="Z36" s="7">
         <v>5</v>
       </c>
       <c r="AA36" s="7">
@@ -4477,7 +4505,7 @@
       <c r="Y37" s="7">
         <v>6</v>
       </c>
-      <c r="Z37" s="26">
+      <c r="Z37" s="7">
         <v>3</v>
       </c>
       <c r="AA37" s="7">
@@ -4650,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q39" s="7">
         <v>7</v>
@@ -4747,7 +4775,7 @@
       <c r="N40" s="7">
         <v>17</v>
       </c>
-      <c r="O40" s="26">
+      <c r="O40" s="7">
         <v>1</v>
       </c>
       <c r="P40" s="25"/>
@@ -4846,7 +4874,7 @@
       <c r="N41" s="7">
         <v>1</v>
       </c>
-      <c r="O41" s="26">
+      <c r="O41" s="7">
         <v>0</v>
       </c>
       <c r="P41" s="25"/>
@@ -4945,7 +4973,7 @@
       <c r="N42" s="7">
         <v>1</v>
       </c>
-      <c r="O42" s="26">
+      <c r="O42" s="7">
         <v>0</v>
       </c>
       <c r="P42" s="25"/>
@@ -5044,7 +5072,7 @@
       <c r="N43" s="7">
         <v>0</v>
       </c>
-      <c r="O43" s="26">
+      <c r="O43" s="7">
         <v>2</v>
       </c>
       <c r="P43" s="25"/>
@@ -5129,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K44" s="7">
         <v>0</v>
@@ -5143,7 +5171,7 @@
       <c r="N44" s="7">
         <v>4</v>
       </c>
-      <c r="O44" s="26">
+      <c r="O44" s="7">
         <v>0</v>
       </c>
       <c r="P44" s="25"/>
@@ -5168,7 +5196,7 @@
       <c r="W44" s="7">
         <v>0</v>
       </c>
-      <c r="X44" s="28">
+      <c r="X44" s="51">
         <v>1</v>
       </c>
       <c r="Y44" s="7">
@@ -5265,11 +5293,11 @@
       <c r="W45" s="7">
         <v>2</v>
       </c>
-      <c r="X45" s="28">
+      <c r="X45" s="51">
         <v>4</v>
       </c>
       <c r="Y45" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z45" s="7">
         <v>1</v>
@@ -5362,7 +5390,7 @@
       <c r="W46" s="7">
         <v>4</v>
       </c>
-      <c r="X46" s="28">
+      <c r="X46" s="51">
         <v>5</v>
       </c>
       <c r="Y46" s="7"/>
@@ -5421,7 +5449,7 @@
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L47" s="7">
         <v>2</v>
@@ -5440,7 +5468,7 @@
         <v>7</v>
       </c>
       <c r="R47" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S47" s="7">
         <v>1</v>
@@ -5455,9 +5483,9 @@
         <v>2</v>
       </c>
       <c r="W47" s="7">
-        <v>4</v>
-      </c>
-      <c r="X47" s="28">
+        <v>5</v>
+      </c>
+      <c r="X47" s="51">
         <v>5</v>
       </c>
       <c r="Y47" s="7"/>
@@ -5477,7 +5505,7 @@
         <v>9</v>
       </c>
       <c r="AE47" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF47" s="7">
         <v>3</v>
@@ -5546,7 +5574,7 @@
         <v>11</v>
       </c>
       <c r="W48" s="25"/>
-      <c r="X48" s="28">
+      <c r="X48" s="51">
         <v>0</v>
       </c>
       <c r="Y48" s="7"/>
@@ -5554,7 +5582,7 @@
         <v>13</v>
       </c>
       <c r="AA48" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB48" s="7">
         <v>0</v>
@@ -5563,19 +5591,19 @@
         <v>1</v>
       </c>
       <c r="AD48" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE48" s="39"/>
       <c r="AF48" s="7">
         <v>0</v>
       </c>
       <c r="AG48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:33" s="3" customFormat="1">
       <c r="A49" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B49" s="7">
         <v>0</v>
@@ -5627,13 +5655,13 @@
         <v>0</v>
       </c>
       <c r="U49" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V49" s="7">
         <v>2</v>
       </c>
       <c r="W49" s="25"/>
-      <c r="X49" s="28">
+      <c r="X49" s="51">
         <v>16</v>
       </c>
       <c r="Y49" s="7"/>
@@ -5700,7 +5728,7 @@
       </c>
       <c r="R50" s="25"/>
       <c r="S50" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T50" s="7">
         <v>2</v>
@@ -5710,7 +5738,7 @@
         <v>5</v>
       </c>
       <c r="W50" s="25"/>
-      <c r="X50" s="28">
+      <c r="X50" s="51">
         <v>0</v>
       </c>
       <c r="Y50" s="7"/>
@@ -5737,7 +5765,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="7">
         <v>1</v>
@@ -5766,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="N51" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O51" s="26">
         <v>2</v>
@@ -5789,7 +5817,7 @@
         <v>9</v>
       </c>
       <c r="Y51" s="7"/>
-      <c r="Z51" s="26">
+      <c r="Z51" s="7">
         <v>0</v>
       </c>
       <c r="AA51" s="7"/>
@@ -5819,13 +5847,13 @@
         <v>6</v>
       </c>
       <c r="F52" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52" s="7">
         <v>5</v>
       </c>
       <c r="H52" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I52" s="7">
         <v>7</v>
@@ -5848,7 +5876,9 @@
       </c>
       <c r="R52" s="7"/>
       <c r="S52" s="25"/>
-      <c r="T52" s="7"/>
+      <c r="T52" s="7">
+        <v>0</v>
+      </c>
       <c r="U52" s="7"/>
       <c r="V52" s="7">
         <v>1</v>
@@ -5858,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="7"/>
-      <c r="Z52" s="26">
+      <c r="Z52" s="7">
         <v>0</v>
       </c>
       <c r="AA52" s="7"/>
@@ -5866,7 +5896,7 @@
         <v>6</v>
       </c>
       <c r="AC52" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD52" s="25"/>
       <c r="AE52" s="7"/>
@@ -5893,7 +5923,7 @@
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -5923,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="Y53" s="7"/>
-      <c r="Z53" s="26">
+      <c r="Z53" s="7">
         <v>6</v>
       </c>
       <c r="AA53" s="7"/>
@@ -5952,14 +5982,14 @@
       </c>
       <c r="F54" s="25"/>
       <c r="G54" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -5984,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="7"/>
-      <c r="Z54" s="26">
+      <c r="Z54" s="7">
         <v>5</v>
       </c>
       <c r="AA54" s="7"/>
@@ -6041,7 +6071,7 @@
         <v>17</v>
       </c>
       <c r="Y55" s="7"/>
-      <c r="Z55" s="26">
+      <c r="Z55" s="7">
         <v>0</v>
       </c>
       <c r="AA55" s="7"/>
@@ -6051,7 +6081,9 @@
       <c r="AC55" s="7"/>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
-      <c r="AF55" s="7"/>
+      <c r="AF55" s="7">
+        <v>0</v>
+      </c>
       <c r="AG55" s="7"/>
     </row>
     <row r="56" spans="1:33" s="26" customFormat="1">
@@ -6077,7 +6109,9 @@
         <v>0</v>
       </c>
       <c r="N56" s="25"/>
-      <c r="O56" s="7"/>
+      <c r="O56" s="7">
+        <v>0</v>
+      </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="7">
         <v>2</v>
@@ -6094,7 +6128,7 @@
         <v>3</v>
       </c>
       <c r="Y56" s="3"/>
-      <c r="Z56" s="26">
+      <c r="Z56" s="7">
         <v>4</v>
       </c>
       <c r="AA56" s="7"/>
@@ -6190,10 +6224,12 @@
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
+      <c r="V58" s="7">
+        <v>0</v>
+      </c>
       <c r="W58" s="7"/>
       <c r="X58" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y58" s="26"/>
       <c r="Z58" s="7">
@@ -6211,11 +6247,11 @@
     </row>
     <row r="59" spans="1:33" s="7" customFormat="1">
       <c r="B59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E59" s="7">
         <v>0</v>
@@ -6242,14 +6278,16 @@
         <v>16</v>
       </c>
       <c r="M60" s="7">
-        <v>1</v>
-      </c>
-      <c r="O60" s="3"/>
+        <v>2</v>
+      </c>
       <c r="Q60" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="7">
         <v>0</v>
       </c>
       <c r="AB60" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG60" s="3"/>
     </row>
@@ -6258,7 +6296,9 @@
       <c r="B61" s="7"/>
       <c r="C61" s="26"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="4"/>
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
       <c r="F61" s="28"/>
       <c r="G61" s="7"/>
       <c r="H61" s="26"/>
@@ -6268,7 +6308,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="27"/>
-      <c r="O61" s="26"/>
+      <c r="O61" s="3"/>
       <c r="P61" s="26"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="26"/>
@@ -6291,7 +6331,7 @@
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="14"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="26"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -6301,7 +6341,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="26"/>
-      <c r="O62" s="7"/>
+      <c r="O62" s="26"/>
       <c r="P62" s="26"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
@@ -6312,7 +6352,7 @@
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
       <c r="Y62" s="4"/>
-      <c r="Z62" s="28"/>
+      <c r="Z62" s="7"/>
       <c r="AA62" s="26"/>
       <c r="AB62" s="7"/>
       <c r="AC62" s="7"/>
@@ -6325,7 +6365,7 @@
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="7"/>
@@ -6333,16 +6373,16 @@
       <c r="L63" s="7"/>
       <c r="M63" s="14"/>
       <c r="N63" s="4"/>
-      <c r="O63" s="14"/>
+      <c r="O63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
-      <c r="T63" s="3"/>
+      <c r="T63" s="7"/>
       <c r="U63" s="3"/>
       <c r="V63" s="7"/>
       <c r="W63" s="4"/>
-      <c r="Z63" s="26"/>
+      <c r="Z63" s="28"/>
       <c r="AA63" s="26"/>
       <c r="AB63" s="12"/>
       <c r="AD63" s="4"/>
@@ -6361,70 +6401,42 @@
       <c r="L64" s="7"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
+      <c r="O64" s="14"/>
       <c r="Q64" s="26"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="3"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
+      <c r="V64" s="7"/>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
-      <c r="Z64" s="4"/>
+      <c r="Z64" s="26"/>
       <c r="AA64" s="4"/>
       <c r="AB64" s="12"/>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
-      <c r="AF64" s="3"/>
+      <c r="AF64" s="7"/>
       <c r="AG64" s="26"/>
     </row>
     <row r="65" spans="1:33" s="45" customFormat="1">
-      <c r="A65" s="50"/>
-      <c r="E65" s="45" t="s">
+      <c r="A65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="J65" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="K65" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="N65" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="P65" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q65" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="R65" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="T65" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="V65" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z65" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB65" s="51"/>
+      <c r="AB65" s="50"/>
     </row>
     <row r="66" spans="1:33">
       <c r="D66" s="3"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
+      <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="3"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
@@ -6433,20 +6445,23 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AB66" s="12"/>
       <c r="AD66" s="4"/>
       <c r="AF66" s="3"/>
     </row>
     <row r="67" spans="1:33">
+      <c r="C67" s="5"/>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="F67" s="7"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
+      <c r="N67" s="26"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
@@ -6459,35 +6474,35 @@
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
-      <c r="AB67" s="12"/>
-      <c r="AD67" s="4"/>
+      <c r="AB67" s="7"/>
+      <c r="AD67" s="7"/>
+      <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
+      <c r="AG67" s="5"/>
     </row>
     <row r="68" spans="1:33">
-      <c r="C68" s="5"/>
       <c r="D68" s="3"/>
       <c r="E68" s="14"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="4"/>
       <c r="H68" s="4"/>
-      <c r="J68" s="3"/>
+      <c r="I68" s="4"/>
       <c r="K68" s="3"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="26"/>
+      <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
       <c r="T68" s="7"/>
-      <c r="U68" s="4"/>
+      <c r="U68" s="42"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
-      <c r="AB68" s="7"/>
-      <c r="AD68" s="7"/>
+      <c r="AB68" s="12"/>
+      <c r="AD68" s="4"/>
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
       <c r="AG68" s="5"/>
@@ -6503,12 +6518,11 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
+      <c r="Q69" s="40"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="3"/>
-      <c r="U69" s="42"/>
+      <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
@@ -6525,12 +6539,12 @@
       <c r="F70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="K70" s="3"/>
+      <c r="J70" s="3"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
-      <c r="Q70" s="40"/>
+      <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
       <c r="T70" s="3"/>
@@ -6543,7 +6557,7 @@
       <c r="AD70" s="4"/>
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
-      <c r="AG70" s="5"/>
+      <c r="AG70" s="3"/>
     </row>
     <row r="71" spans="1:33">
       <c r="D71" s="3"/>
@@ -6564,24 +6578,25 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
       <c r="AB71" s="12"/>
       <c r="AD71" s="4"/>
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
-      <c r="AG71" s="3"/>
+      <c r="AG71" s="40"/>
     </row>
     <row r="72" spans="1:33">
       <c r="D72" s="3"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="3"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
@@ -6594,16 +6609,14 @@
       <c r="Z72" s="4"/>
       <c r="AB72" s="12"/>
       <c r="AD72" s="4"/>
-      <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
-      <c r="AG72" s="40"/>
     </row>
     <row r="73" spans="1:33">
       <c r="D73" s="3"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
+      <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="3"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -6624,11 +6637,14 @@
       <c r="AF73" s="3"/>
     </row>
     <row r="74" spans="1:33">
+      <c r="A74" s="5"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -6642,11 +6658,11 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
       <c r="AB74" s="12"/>
       <c r="AD74" s="4"/>
       <c r="AF74" s="3"/>
+      <c r="AG74" s="5"/>
     </row>
     <row r="75" spans="1:33">
       <c r="A75" s="5"/>
@@ -6656,20 +6672,16 @@
       <c r="H75" s="4"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
       <c r="S75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
-      <c r="AB75" s="12"/>
       <c r="AD75" s="4"/>
       <c r="AF75" s="3"/>
       <c r="AG75" s="5"/>
@@ -6680,37 +6692,36 @@
       <c r="D76" s="3"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="H76" s="4"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
+      <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
-      <c r="S76" s="4"/>
       <c r="T76" s="3"/>
-      <c r="U76" s="4"/>
       <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
       <c r="Y76" s="4"/>
-      <c r="AD76" s="4"/>
       <c r="AF76" s="3"/>
       <c r="AG76" s="5"/>
     </row>
     <row r="77" spans="1:33">
       <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="3"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
+      <c r="I77" s="4"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="T77" s="3"/>
+      <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
@@ -6726,11 +6737,13 @@
       <c r="F78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
+      <c r="S78" s="4"/>
       <c r="T78" s="3"/>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
@@ -6744,17 +6757,18 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="3"/>
-      <c r="F79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
-      <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="U79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
       <c r="AG79" s="5"/>
@@ -6764,8 +6778,7 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="3"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="3"/>
+      <c r="H80" s="4"/>
       <c r="K80" s="3"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
@@ -6773,7 +6786,6 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-      <c r="U80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
@@ -6783,36 +6795,34 @@
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="3"/>
       <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
       <c r="AG81" s="5"/>
     </row>
     <row r="82" spans="1:33">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
+      <c r="D82" s="3"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
       <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="Y82" s="4"/>
       <c r="AG82" s="5"/>
     </row>
     <row r="83" spans="1:33">
@@ -6821,17 +6831,22 @@
       <c r="C83" s="5"/>
       <c r="D83" s="3"/>
       <c r="E83" s="4"/>
-      <c r="H83" s="4"/>
+      <c r="F83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
+      <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
       <c r="S83" s="4"/>
       <c r="T83" s="3"/>
       <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
       <c r="AG83" s="5"/>
     </row>
@@ -6842,17 +6857,15 @@
       <c r="D84" s="3"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
+      <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
       <c r="T84" s="3"/>
+      <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
@@ -6869,6 +6882,7 @@
       <c r="F85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
+      <c r="K85" s="3"/>
       <c r="L85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -6880,7 +6894,6 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
       <c r="AG85" s="5"/>
     </row>
@@ -6889,14 +6902,11 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="3"/>
-      <c r="F86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="K86" s="3"/>
-      <c r="L86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
       <c r="U86" s="4"/>
@@ -6911,15 +6921,15 @@
       <c r="C87" s="5"/>
       <c r="D87" s="3"/>
       <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
       <c r="K87" s="3"/>
+      <c r="L87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
       <c r="T87" s="3"/>
-      <c r="U87" s="4"/>
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="4"/>
@@ -6929,17 +6939,17 @@
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="3"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="H88" s="4"/>
-      <c r="K88" s="3"/>
+      <c r="I88" s="4"/>
       <c r="L88" s="4"/>
-      <c r="N88" s="4"/>
+      <c r="M88" s="4"/>
       <c r="O88" s="4"/>
+      <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
       <c r="T88" s="3"/>
+      <c r="U88" s="4"/>
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="4"/>
@@ -6950,20 +6960,20 @@
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
+      <c r="D89" s="3"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
       <c r="T89" s="3"/>
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
-      <c r="W89" s="4"/>
-      <c r="X89" s="4"/>
       <c r="Z89" s="4"/>
       <c r="AG89" s="5"/>
     </row>
@@ -6974,18 +6984,21 @@
       <c r="D90" s="3"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
       <c r="S90" s="4"/>
       <c r="T90" s="3"/>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
       <c r="Z90" s="4"/>
+      <c r="AC90" s="5"/>
       <c r="AG90" s="5"/>
     </row>
     <row r="91" spans="1:33">
@@ -6995,11 +7008,9 @@
       <c r="D91" s="3"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="I91" s="4"/>
+      <c r="H91" s="4"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
       <c r="N91" s="4"/>
-      <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
       <c r="T91" s="3"/>
@@ -7015,21 +7026,22 @@
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="3"/>
+      <c r="D92" s="5"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="H92" s="4"/>
       <c r="L92" s="4"/>
-      <c r="N92" s="4"/>
+      <c r="M92" s="4"/>
       <c r="O92" s="4"/>
+      <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
       <c r="T92" s="3"/>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
       <c r="Z92" s="4"/>
+      <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
       <c r="AG92" s="5"/>
     </row>
@@ -7038,16 +7050,11 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
-      <c r="F93" s="4"/>
       <c r="H93" s="4"/>
-      <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="O93" s="4"/>
       <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
       <c r="U93" s="4"/>
-      <c r="W93" s="4"/>
-      <c r="X93" s="4"/>
       <c r="Z93" s="4"/>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
@@ -7059,12 +7066,12 @@
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="4"/>
-      <c r="H94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="O94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="T94" s="3"/>
-      <c r="U94" s="4"/>
       <c r="V94" s="4"/>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
@@ -7082,6 +7089,7 @@
       <c r="M95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="T95" s="3"/>
+      <c r="U95" s="4"/>
       <c r="V95" s="4"/>
       <c r="Z95" s="4"/>
       <c r="AB95" s="5"/>
@@ -7113,8 +7121,6 @@
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="F97" s="4"/>
-      <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="U97" s="4"/>
@@ -7129,23 +7135,18 @@
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="M98" s="4"/>
-      <c r="Q98" s="4"/>
-      <c r="U98" s="4"/>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
       <c r="AF98" s="5"/>
       <c r="AG98" s="5"/>
     </row>
     <row r="99" spans="1:33">
-      <c r="A99" s="5"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
       <c r="D99" s="5"/>
+      <c r="M99" s="4"/>
+      <c r="Q99" s="4"/>
       <c r="AB99" s="5"/>
-      <c r="AC99" s="5"/>
       <c r="AF99" s="5"/>
-      <c r="AG99" s="5"/>
     </row>
     <row r="100" spans="1:33">
       <c r="B100" s="5"/>
@@ -7157,16 +7158,11 @@
     </row>
     <row r="101" spans="1:33">
       <c r="B101" s="5"/>
-      <c r="D101" s="5"/>
       <c r="M101" s="4"/>
       <c r="Q101" s="4"/>
-      <c r="AB101" s="5"/>
       <c r="AF101" s="5"/>
     </row>
     <row r="102" spans="1:33">
-      <c r="B102" s="5"/>
-      <c r="M102" s="4"/>
-      <c r="Q102" s="4"/>
       <c r="AF102" s="5"/>
     </row>
   </sheetData>
@@ -7178,10 +7174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD815"/>
+  <dimension ref="A1:AD814"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S125" sqref="S125"/>
+    <sheetView topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N126" sqref="N126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -13231,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="S81" s="20">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T81" s="19">
         <v>0</v>
@@ -14462,7 +14458,7 @@
         <v>3</v>
       </c>
       <c r="V97" s="20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W97" s="20"/>
       <c r="X97" s="19">
@@ -14531,7 +14527,7 @@
         <v>4</v>
       </c>
       <c r="T98" s="20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U98" s="19">
         <v>0</v>
@@ -14683,7 +14679,7 @@
         <v>4</v>
       </c>
       <c r="T100" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U100" s="19">
         <v>1</v>
@@ -14831,7 +14827,7 @@
       <c r="R102" s="19">
         <v>0</v>
       </c>
-      <c r="S102" s="20">
+      <c r="S102" s="19">
         <v>16</v>
       </c>
       <c r="T102" s="19">
@@ -14859,7 +14855,9 @@
       <c r="AB102" s="22">
         <v>8</v>
       </c>
-      <c r="AC102" s="20"/>
+      <c r="AC102" s="19">
+        <v>16</v>
+      </c>
       <c r="AD102" s="18"/>
     </row>
     <row r="103" spans="1:30">
@@ -14914,7 +14912,7 @@
       <c r="U103" s="19">
         <v>6</v>
       </c>
-      <c r="V103" s="20">
+      <c r="V103" s="19">
         <v>15</v>
       </c>
       <c r="W103" s="20"/>
@@ -14933,7 +14931,9 @@
       <c r="AB103" s="22">
         <v>8</v>
       </c>
-      <c r="AC103" s="20"/>
+      <c r="AC103" s="19">
+        <v>15</v>
+      </c>
       <c r="AD103" s="18"/>
     </row>
     <row r="104" spans="1:30">
@@ -15135,7 +15135,7 @@
         <v>2</v>
       </c>
       <c r="T106" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U106" s="19">
         <v>0</v>
@@ -15285,7 +15285,7 @@
         <v>3</v>
       </c>
       <c r="T108" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U108" s="19">
         <v>3</v>
@@ -15440,7 +15440,7 @@
         <v>3</v>
       </c>
       <c r="U110" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V110" s="22">
         <v>5</v>
@@ -15515,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="U111" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V111" s="22">
         <v>1</v>
@@ -15578,7 +15578,7 @@
       </c>
       <c r="P112" s="22"/>
       <c r="Q112" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R112" s="22">
         <v>1</v>
@@ -15593,7 +15593,7 @@
         <v>5</v>
       </c>
       <c r="V112" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W112" s="23"/>
       <c r="X112" s="22">
@@ -15608,9 +15608,7 @@
       <c r="AA112" s="22">
         <v>5</v>
       </c>
-      <c r="AB112" s="23">
-        <v>6</v>
-      </c>
+      <c r="AB112" s="23"/>
       <c r="AC112" s="23"/>
       <c r="AD112" s="22"/>
     </row>
@@ -15656,10 +15654,10 @@
         <v>0</v>
       </c>
       <c r="R113" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S113" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T113" s="22">
         <v>0</v>
@@ -15683,9 +15681,7 @@
       <c r="AA113" s="19">
         <v>3</v>
       </c>
-      <c r="AB113" s="23">
-        <v>5</v>
-      </c>
+      <c r="AB113" s="23"/>
       <c r="AC113" s="23"/>
       <c r="AD113" s="22"/>
     </row>
@@ -15728,10 +15724,10 @@
       </c>
       <c r="P114" s="22"/>
       <c r="Q114" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R114" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S114" s="22">
         <v>0</v>
@@ -15740,7 +15736,7 @@
         <v>1</v>
       </c>
       <c r="U114" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V114" s="22">
         <v>1</v>
@@ -15805,13 +15801,13 @@
         <v>0</v>
       </c>
       <c r="S115" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T115" s="22">
         <v>2</v>
       </c>
       <c r="U115" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V115" s="22">
         <v>1</v>
@@ -15829,9 +15825,7 @@
       <c r="AA115" s="22">
         <v>2</v>
       </c>
-      <c r="AB115" s="23">
-        <v>3</v>
-      </c>
+      <c r="AB115" s="23"/>
       <c r="AC115" s="23"/>
       <c r="AD115" s="22"/>
     </row>
@@ -15876,13 +15870,13 @@
       <c r="Q116" s="22">
         <v>0</v>
       </c>
-      <c r="R116" s="23">
+      <c r="R116" s="22">
         <v>2</v>
       </c>
       <c r="S116" s="23">
-        <v>2</v>
-      </c>
-      <c r="T116" s="23">
+        <v>3</v>
+      </c>
+      <c r="T116" s="22">
         <v>2</v>
       </c>
       <c r="U116" s="22">
@@ -15901,8 +15895,12 @@
       <c r="Z116" s="22">
         <v>1</v>
       </c>
-      <c r="AA116" s="23"/>
-      <c r="AB116" s="23"/>
+      <c r="AA116" s="19">
+        <v>2</v>
+      </c>
+      <c r="AB116" s="19">
+        <v>2</v>
+      </c>
       <c r="AC116" s="23"/>
       <c r="AD116" s="22"/>
     </row>
@@ -15945,19 +15943,19 @@
       </c>
       <c r="P117" s="22"/>
       <c r="Q117" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R117" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S117" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T117" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U117" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V117" s="22">
         <v>0</v>
@@ -15966,12 +15964,8 @@
       <c r="X117" s="21">
         <v>0</v>
       </c>
-      <c r="Y117" s="43">
-        <v>1</v>
-      </c>
-      <c r="Z117" s="43">
-        <v>1</v>
-      </c>
+      <c r="Y117" s="43"/>
+      <c r="Z117" s="43"/>
       <c r="AA117" s="43"/>
       <c r="AB117" s="23"/>
       <c r="AC117" s="23"/>
@@ -16015,58 +16009,90 @@
         <v>6</v>
       </c>
       <c r="Q118" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R118" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S118" s="23">
-        <v>0</v>
-      </c>
-      <c r="T118" s="23">
-        <v>0</v>
-      </c>
-      <c r="U118" s="23">
+        <v>1</v>
+      </c>
+      <c r="T118" s="22">
+        <v>0</v>
+      </c>
+      <c r="U118" s="22">
         <v>0</v>
       </c>
       <c r="V118" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W118" s="23"/>
-      <c r="X118" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y118" s="43"/>
+      <c r="X118" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y118" s="16">
+        <v>0</v>
+      </c>
       <c r="Z118" s="43"/>
       <c r="AA118" s="43"/>
       <c r="AB118" s="43"/>
       <c r="AC118" s="43"/>
     </row>
     <row r="119" spans="1:30" s="21" customFormat="1">
+      <c r="A119" s="21">
+        <v>16</v>
+      </c>
+      <c r="B119" s="21">
+        <v>2</v>
+      </c>
+      <c r="C119" s="21">
+        <v>15</v>
+      </c>
+      <c r="D119" s="21">
+        <v>0</v>
+      </c>
+      <c r="E119" s="21">
+        <v>2</v>
+      </c>
+      <c r="F119" s="21">
+        <v>0</v>
+      </c>
       <c r="I119" s="21">
         <v>0</v>
       </c>
       <c r="J119" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L119" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M119" s="21">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N119" s="21">
-        <v>6</v>
-      </c>
-      <c r="Q119" s="23"/>
-      <c r="R119" s="23"/>
-      <c r="S119" s="23"/>
-      <c r="T119" s="23"/>
-      <c r="U119" s="23"/>
-      <c r="V119" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="Q119" s="23">
+        <v>0</v>
+      </c>
+      <c r="R119" s="23">
+        <v>0</v>
+      </c>
+      <c r="S119" s="23">
+        <v>0</v>
+      </c>
+      <c r="T119" s="23">
+        <v>0</v>
+      </c>
+      <c r="U119" s="23">
+        <v>0</v>
+      </c>
+      <c r="V119" s="23">
+        <v>0</v>
+      </c>
       <c r="W119" s="23"/>
       <c r="X119" s="43"/>
       <c r="Y119" s="43"/>
@@ -16112,7 +16138,7 @@
       <c r="T122" s="23"/>
       <c r="U122" s="23"/>
       <c r="V122" s="23"/>
-      <c r="W122" s="43"/>
+      <c r="W122" s="23"/>
       <c r="X122" s="43"/>
       <c r="Y122" s="43"/>
       <c r="Z122" s="43"/>
@@ -16127,7 +16153,7 @@
       <c r="T123" s="23"/>
       <c r="U123" s="23"/>
       <c r="V123" s="23"/>
-      <c r="W123" s="23"/>
+      <c r="W123" s="43"/>
       <c r="X123" s="43"/>
       <c r="Y123" s="43"/>
       <c r="Z123" s="43"/>
@@ -16142,31 +16168,31 @@
       <c r="T124" s="23"/>
       <c r="U124" s="23"/>
       <c r="V124" s="23"/>
-      <c r="W124" s="43"/>
+      <c r="W124" s="23"/>
       <c r="X124" s="43"/>
       <c r="Y124" s="43"/>
-      <c r="Z124" s="43"/>
-      <c r="AA124" s="43"/>
-      <c r="AB124" s="43"/>
-      <c r="AC124" s="43"/>
+      <c r="Z124" s="23"/>
+      <c r="AA124" s="23"/>
+      <c r="AB124" s="23"/>
+      <c r="AC124" s="23"/>
     </row>
     <row r="125" spans="1:30" s="21" customFormat="1">
+      <c r="P125" s="22"/>
       <c r="Q125" s="23"/>
       <c r="R125" s="23"/>
       <c r="S125" s="23"/>
       <c r="T125" s="23"/>
       <c r="U125" s="23"/>
       <c r="V125" s="23"/>
-      <c r="W125" s="23"/>
+      <c r="W125" s="43"/>
       <c r="X125" s="43"/>
       <c r="Y125" s="43"/>
-      <c r="Z125" s="23"/>
-      <c r="AA125" s="23"/>
-      <c r="AB125" s="23"/>
-      <c r="AC125" s="23"/>
+      <c r="Z125" s="43"/>
+      <c r="AA125" s="43"/>
+      <c r="AB125" s="43"/>
+      <c r="AC125" s="43"/>
     </row>
     <row r="126" spans="1:30" s="21" customFormat="1">
-      <c r="P126" s="22"/>
       <c r="Q126" s="23"/>
       <c r="R126" s="23"/>
       <c r="S126" s="23"/>
@@ -16188,13 +16214,13 @@
       <c r="T127" s="23"/>
       <c r="U127" s="23"/>
       <c r="V127" s="23"/>
-      <c r="W127" s="43"/>
+      <c r="W127" s="23"/>
       <c r="X127" s="43"/>
       <c r="Y127" s="43"/>
-      <c r="Z127" s="43"/>
-      <c r="AA127" s="43"/>
-      <c r="AB127" s="43"/>
-      <c r="AC127" s="43"/>
+      <c r="Z127" s="23"/>
+      <c r="AA127" s="23"/>
+      <c r="AB127" s="23"/>
+      <c r="AC127" s="23"/>
     </row>
     <row r="128" spans="1:30" s="21" customFormat="1">
       <c r="Q128" s="23"/>
@@ -16206,19 +16232,20 @@
       <c r="W128" s="23"/>
       <c r="X128" s="43"/>
       <c r="Y128" s="43"/>
-      <c r="Z128" s="23"/>
-      <c r="AA128" s="23"/>
-      <c r="AB128" s="23"/>
-      <c r="AC128" s="23"/>
-    </row>
-    <row r="129" spans="9:29" s="21" customFormat="1">
+      <c r="Z128" s="43"/>
+      <c r="AA128" s="43"/>
+      <c r="AB128" s="43"/>
+      <c r="AC128" s="43"/>
+    </row>
+    <row r="129" spans="16:29" s="21" customFormat="1">
+      <c r="P129" s="22"/>
       <c r="Q129" s="23"/>
       <c r="R129" s="23"/>
       <c r="S129" s="23"/>
       <c r="T129" s="23"/>
       <c r="U129" s="23"/>
       <c r="V129" s="23"/>
-      <c r="W129" s="23"/>
+      <c r="W129" s="43"/>
       <c r="X129" s="43"/>
       <c r="Y129" s="43"/>
       <c r="Z129" s="43"/>
@@ -16226,23 +16253,22 @@
       <c r="AB129" s="43"/>
       <c r="AC129" s="43"/>
     </row>
-    <row r="130" spans="9:29" s="21" customFormat="1">
-      <c r="P130" s="22"/>
+    <row r="130" spans="16:29" s="21" customFormat="1">
       <c r="Q130" s="23"/>
       <c r="R130" s="23"/>
       <c r="S130" s="23"/>
       <c r="T130" s="23"/>
       <c r="U130" s="23"/>
       <c r="V130" s="23"/>
-      <c r="W130" s="43"/>
+      <c r="W130" s="23"/>
       <c r="X130" s="43"/>
       <c r="Y130" s="43"/>
-      <c r="Z130" s="43"/>
-      <c r="AA130" s="43"/>
-      <c r="AB130" s="43"/>
-      <c r="AC130" s="43"/>
-    </row>
-    <row r="131" spans="9:29" s="21" customFormat="1">
+      <c r="Z130" s="23"/>
+      <c r="AA130" s="23"/>
+      <c r="AB130" s="23"/>
+      <c r="AC130" s="23"/>
+    </row>
+    <row r="131" spans="16:29" s="21" customFormat="1">
       <c r="Q131" s="23"/>
       <c r="R131" s="23"/>
       <c r="S131" s="23"/>
@@ -16252,12 +16278,12 @@
       <c r="W131" s="23"/>
       <c r="X131" s="43"/>
       <c r="Y131" s="43"/>
-      <c r="Z131" s="23"/>
-      <c r="AA131" s="23"/>
-      <c r="AB131" s="23"/>
-      <c r="AC131" s="23"/>
-    </row>
-    <row r="132" spans="9:29" s="21" customFormat="1">
+      <c r="Z131" s="43"/>
+      <c r="AA131" s="43"/>
+      <c r="AB131" s="43"/>
+      <c r="AC131" s="43"/>
+    </row>
+    <row r="132" spans="16:29" s="21" customFormat="1">
       <c r="Q132" s="23"/>
       <c r="R132" s="23"/>
       <c r="S132" s="23"/>
@@ -16272,7 +16298,7 @@
       <c r="AB132" s="43"/>
       <c r="AC132" s="43"/>
     </row>
-    <row r="133" spans="9:29" s="21" customFormat="1">
+    <row r="133" spans="16:29" s="21" customFormat="1">
       <c r="Q133" s="23"/>
       <c r="R133" s="23"/>
       <c r="S133" s="23"/>
@@ -16287,7 +16313,7 @@
       <c r="AB133" s="43"/>
       <c r="AC133" s="43"/>
     </row>
-    <row r="134" spans="9:29" s="21" customFormat="1">
+    <row r="134" spans="16:29" s="21" customFormat="1">
       <c r="Q134" s="23"/>
       <c r="R134" s="23"/>
       <c r="S134" s="23"/>
@@ -16302,14 +16328,14 @@
       <c r="AB134" s="43"/>
       <c r="AC134" s="43"/>
     </row>
-    <row r="135" spans="9:29" s="21" customFormat="1">
+    <row r="135" spans="16:29" s="21" customFormat="1">
       <c r="Q135" s="23"/>
       <c r="R135" s="23"/>
       <c r="S135" s="23"/>
       <c r="T135" s="23"/>
       <c r="U135" s="23"/>
       <c r="V135" s="23"/>
-      <c r="W135" s="23"/>
+      <c r="W135" s="43"/>
       <c r="X135" s="43"/>
       <c r="Y135" s="43"/>
       <c r="Z135" s="43"/>
@@ -16317,14 +16343,14 @@
       <c r="AB135" s="43"/>
       <c r="AC135" s="43"/>
     </row>
-    <row r="136" spans="9:29" s="21" customFormat="1">
+    <row r="136" spans="16:29" s="21" customFormat="1">
       <c r="Q136" s="23"/>
       <c r="R136" s="23"/>
       <c r="S136" s="23"/>
       <c r="T136" s="23"/>
       <c r="U136" s="23"/>
       <c r="V136" s="23"/>
-      <c r="W136" s="43"/>
+      <c r="W136" s="23"/>
       <c r="X136" s="43"/>
       <c r="Y136" s="43"/>
       <c r="Z136" s="43"/>
@@ -16332,14 +16358,14 @@
       <c r="AB136" s="43"/>
       <c r="AC136" s="43"/>
     </row>
-    <row r="137" spans="9:29" s="21" customFormat="1">
+    <row r="137" spans="16:29" s="21" customFormat="1">
       <c r="Q137" s="23"/>
       <c r="R137" s="23"/>
       <c r="S137" s="23"/>
       <c r="T137" s="23"/>
       <c r="U137" s="23"/>
       <c r="V137" s="23"/>
-      <c r="W137" s="23"/>
+      <c r="W137" s="43"/>
       <c r="X137" s="43"/>
       <c r="Y137" s="43"/>
       <c r="Z137" s="43"/>
@@ -16347,38 +16373,38 @@
       <c r="AB137" s="43"/>
       <c r="AC137" s="43"/>
     </row>
-    <row r="138" spans="9:29" s="21" customFormat="1">
+    <row r="138" spans="16:29" s="21" customFormat="1">
       <c r="Q138" s="23"/>
       <c r="R138" s="23"/>
       <c r="S138" s="23"/>
       <c r="T138" s="23"/>
       <c r="U138" s="23"/>
       <c r="V138" s="23"/>
-      <c r="W138" s="43"/>
+      <c r="W138" s="23"/>
       <c r="X138" s="43"/>
       <c r="Y138" s="43"/>
-      <c r="Z138" s="43"/>
-      <c r="AA138" s="43"/>
-      <c r="AB138" s="43"/>
-      <c r="AC138" s="43"/>
-    </row>
-    <row r="139" spans="9:29" s="21" customFormat="1">
+      <c r="Z138" s="23"/>
+      <c r="AA138" s="23"/>
+      <c r="AB138" s="23"/>
+      <c r="AC138" s="23"/>
+    </row>
+    <row r="139" spans="16:29" s="21" customFormat="1">
+      <c r="P139" s="22"/>
       <c r="Q139" s="23"/>
       <c r="R139" s="23"/>
       <c r="S139" s="23"/>
       <c r="T139" s="23"/>
       <c r="U139" s="23"/>
       <c r="V139" s="23"/>
-      <c r="W139" s="23"/>
+      <c r="W139" s="43"/>
       <c r="X139" s="43"/>
       <c r="Y139" s="43"/>
-      <c r="Z139" s="23"/>
-      <c r="AA139" s="23"/>
-      <c r="AB139" s="23"/>
-      <c r="AC139" s="23"/>
-    </row>
-    <row r="140" spans="9:29" s="21" customFormat="1">
-      <c r="P140" s="22"/>
+      <c r="Z139" s="43"/>
+      <c r="AA139" s="43"/>
+      <c r="AB139" s="43"/>
+      <c r="AC139" s="43"/>
+    </row>
+    <row r="140" spans="16:29" s="21" customFormat="1">
       <c r="Q140" s="23"/>
       <c r="R140" s="23"/>
       <c r="S140" s="23"/>
@@ -16393,40 +16419,22 @@
       <c r="AB140" s="43"/>
       <c r="AC140" s="43"/>
     </row>
-    <row r="141" spans="9:29" s="21" customFormat="1">
+    <row r="141" spans="16:29" s="21" customFormat="1">
       <c r="Q141" s="23"/>
       <c r="R141" s="23"/>
       <c r="S141" s="23"/>
       <c r="T141" s="23"/>
       <c r="U141" s="23"/>
       <c r="V141" s="23"/>
-      <c r="W141" s="43"/>
+      <c r="W141" s="23"/>
       <c r="X141" s="43"/>
       <c r="Y141" s="43"/>
-      <c r="Z141" s="43"/>
-      <c r="AA141" s="43"/>
-      <c r="AB141" s="43"/>
-      <c r="AC141" s="43"/>
-    </row>
-    <row r="142" spans="9:29" s="21" customFormat="1">
-      <c r="I142" s="21">
-        <v>0</v>
-      </c>
-      <c r="J142" s="21">
-        <v>0</v>
-      </c>
-      <c r="K142" s="21">
-        <v>2</v>
-      </c>
-      <c r="L142" s="21">
-        <v>4</v>
-      </c>
-      <c r="M142" s="21">
-        <v>6</v>
-      </c>
-      <c r="N142" s="21">
-        <v>6</v>
-      </c>
+      <c r="Z141" s="23"/>
+      <c r="AA141" s="23"/>
+      <c r="AB141" s="23"/>
+      <c r="AC141" s="23"/>
+    </row>
+    <row r="142" spans="16:29" s="21" customFormat="1">
       <c r="Q142" s="23"/>
       <c r="R142" s="23"/>
       <c r="S142" s="23"/>
@@ -16436,19 +16444,19 @@
       <c r="W142" s="23"/>
       <c r="X142" s="43"/>
       <c r="Y142" s="43"/>
-      <c r="Z142" s="23"/>
-      <c r="AA142" s="23"/>
-      <c r="AB142" s="23"/>
-      <c r="AC142" s="23"/>
-    </row>
-    <row r="143" spans="9:29" s="21" customFormat="1">
+      <c r="Z142" s="43"/>
+      <c r="AA142" s="43"/>
+      <c r="AB142" s="43"/>
+      <c r="AC142" s="43"/>
+    </row>
+    <row r="143" spans="16:29" s="21" customFormat="1">
       <c r="Q143" s="23"/>
       <c r="R143" s="23"/>
       <c r="S143" s="23"/>
       <c r="T143" s="23"/>
       <c r="U143" s="23"/>
       <c r="V143" s="23"/>
-      <c r="W143" s="23"/>
+      <c r="W143" s="43"/>
       <c r="X143" s="43"/>
       <c r="Y143" s="43"/>
       <c r="Z143" s="43"/>
@@ -16456,32 +16464,14 @@
       <c r="AB143" s="43"/>
       <c r="AC143" s="43"/>
     </row>
-    <row r="144" spans="9:29" s="21" customFormat="1">
-      <c r="I144" s="21">
-        <v>0</v>
-      </c>
-      <c r="J144" s="21">
-        <v>0</v>
-      </c>
-      <c r="K144" s="21">
-        <v>2</v>
-      </c>
-      <c r="L144" s="21">
-        <v>4</v>
-      </c>
-      <c r="M144" s="21">
-        <v>12</v>
-      </c>
-      <c r="N144" s="21">
-        <v>37</v>
-      </c>
+    <row r="144" spans="16:29" s="21" customFormat="1">
       <c r="Q144" s="23"/>
       <c r="R144" s="23"/>
       <c r="S144" s="23"/>
       <c r="T144" s="23"/>
       <c r="U144" s="23"/>
       <c r="V144" s="23"/>
-      <c r="W144" s="43"/>
+      <c r="W144" s="23"/>
       <c r="X144" s="43"/>
       <c r="Y144" s="43"/>
       <c r="Z144" s="43"/>
@@ -16489,7 +16479,7 @@
       <c r="AB144" s="43"/>
       <c r="AC144" s="43"/>
     </row>
-    <row r="145" spans="9:29" s="21" customFormat="1">
+    <row r="145" spans="16:29" s="21" customFormat="1">
       <c r="Q145" s="23"/>
       <c r="R145" s="23"/>
       <c r="S145" s="23"/>
@@ -16504,25 +16494,7 @@
       <c r="AB145" s="43"/>
       <c r="AC145" s="43"/>
     </row>
-    <row r="146" spans="9:29" s="21" customFormat="1">
-      <c r="I146" s="21">
-        <v>0</v>
-      </c>
-      <c r="J146" s="21">
-        <v>1</v>
-      </c>
-      <c r="K146" s="21">
-        <v>4</v>
-      </c>
-      <c r="L146" s="21">
-        <v>6</v>
-      </c>
-      <c r="M146" s="21">
-        <v>20</v>
-      </c>
-      <c r="N146" s="21">
-        <v>21</v>
-      </c>
+    <row r="146" spans="16:29" s="21" customFormat="1">
       <c r="Q146" s="23"/>
       <c r="R146" s="23"/>
       <c r="S146" s="23"/>
@@ -16537,14 +16509,14 @@
       <c r="AB146" s="43"/>
       <c r="AC146" s="43"/>
     </row>
-    <row r="147" spans="9:29" s="21" customFormat="1">
+    <row r="147" spans="16:29" s="21" customFormat="1">
       <c r="Q147" s="23"/>
       <c r="R147" s="23"/>
       <c r="S147" s="23"/>
       <c r="T147" s="23"/>
       <c r="U147" s="23"/>
       <c r="V147" s="23"/>
-      <c r="W147" s="23"/>
+      <c r="W147" s="43"/>
       <c r="X147" s="43"/>
       <c r="Y147" s="43"/>
       <c r="Z147" s="43"/>
@@ -16552,14 +16524,14 @@
       <c r="AB147" s="43"/>
       <c r="AC147" s="43"/>
     </row>
-    <row r="148" spans="9:29" s="21" customFormat="1">
+    <row r="148" spans="16:29" s="21" customFormat="1">
       <c r="Q148" s="23"/>
       <c r="R148" s="23"/>
       <c r="S148" s="23"/>
       <c r="T148" s="23"/>
       <c r="U148" s="23"/>
       <c r="V148" s="23"/>
-      <c r="W148" s="43"/>
+      <c r="W148" s="23"/>
       <c r="X148" s="43"/>
       <c r="Y148" s="43"/>
       <c r="Z148" s="43"/>
@@ -16567,14 +16539,15 @@
       <c r="AB148" s="43"/>
       <c r="AC148" s="43"/>
     </row>
-    <row r="149" spans="9:29" s="21" customFormat="1">
+    <row r="149" spans="16:29" s="21" customFormat="1">
+      <c r="P149" s="22"/>
       <c r="Q149" s="23"/>
       <c r="R149" s="23"/>
       <c r="S149" s="23"/>
       <c r="T149" s="23"/>
       <c r="U149" s="23"/>
       <c r="V149" s="23"/>
-      <c r="W149" s="23"/>
+      <c r="W149" s="43"/>
       <c r="X149" s="43"/>
       <c r="Y149" s="43"/>
       <c r="Z149" s="43"/>
@@ -16582,23 +16555,22 @@
       <c r="AB149" s="43"/>
       <c r="AC149" s="43"/>
     </row>
-    <row r="150" spans="9:29" s="21" customFormat="1">
-      <c r="P150" s="22"/>
+    <row r="150" spans="16:29" s="21" customFormat="1">
       <c r="Q150" s="23"/>
       <c r="R150" s="23"/>
       <c r="S150" s="23"/>
       <c r="T150" s="23"/>
       <c r="U150" s="23"/>
       <c r="V150" s="23"/>
-      <c r="W150" s="43"/>
+      <c r="W150" s="23"/>
       <c r="X150" s="43"/>
       <c r="Y150" s="43"/>
-      <c r="Z150" s="43"/>
-      <c r="AA150" s="43"/>
-      <c r="AB150" s="43"/>
-      <c r="AC150" s="43"/>
-    </row>
-    <row r="151" spans="9:29" s="21" customFormat="1">
+      <c r="Z150" s="23"/>
+      <c r="AA150" s="23"/>
+      <c r="AB150" s="23"/>
+      <c r="AC150" s="23"/>
+    </row>
+    <row r="151" spans="16:29" s="21" customFormat="1">
       <c r="Q151" s="23"/>
       <c r="R151" s="23"/>
       <c r="S151" s="23"/>
@@ -16608,12 +16580,12 @@
       <c r="W151" s="23"/>
       <c r="X151" s="43"/>
       <c r="Y151" s="43"/>
-      <c r="Z151" s="23"/>
-      <c r="AA151" s="23"/>
-      <c r="AB151" s="23"/>
-      <c r="AC151" s="23"/>
-    </row>
-    <row r="152" spans="9:29" s="21" customFormat="1">
+      <c r="Z151" s="43"/>
+      <c r="AA151" s="43"/>
+      <c r="AB151" s="43"/>
+      <c r="AC151" s="43"/>
+    </row>
+    <row r="152" spans="16:29" s="21" customFormat="1">
       <c r="Q152" s="23"/>
       <c r="R152" s="23"/>
       <c r="S152" s="23"/>
@@ -16628,7 +16600,7 @@
       <c r="AB152" s="43"/>
       <c r="AC152" s="43"/>
     </row>
-    <row r="153" spans="9:29" s="21" customFormat="1">
+    <row r="153" spans="16:29" s="21" customFormat="1">
       <c r="Q153" s="23"/>
       <c r="R153" s="23"/>
       <c r="S153" s="23"/>
@@ -16643,7 +16615,7 @@
       <c r="AB153" s="43"/>
       <c r="AC153" s="43"/>
     </row>
-    <row r="154" spans="9:29" s="21" customFormat="1">
+    <row r="154" spans="16:29" s="21" customFormat="1">
       <c r="Q154" s="23"/>
       <c r="R154" s="23"/>
       <c r="S154" s="23"/>
@@ -16658,14 +16630,14 @@
       <c r="AB154" s="43"/>
       <c r="AC154" s="43"/>
     </row>
-    <row r="155" spans="9:29" s="21" customFormat="1">
+    <row r="155" spans="16:29" s="21" customFormat="1">
       <c r="Q155" s="23"/>
       <c r="R155" s="23"/>
       <c r="S155" s="23"/>
       <c r="T155" s="23"/>
       <c r="U155" s="23"/>
       <c r="V155" s="23"/>
-      <c r="W155" s="23"/>
+      <c r="W155" s="43"/>
       <c r="X155" s="43"/>
       <c r="Y155" s="43"/>
       <c r="Z155" s="43"/>
@@ -16673,14 +16645,14 @@
       <c r="AB155" s="43"/>
       <c r="AC155" s="43"/>
     </row>
-    <row r="156" spans="9:29" s="21" customFormat="1">
+    <row r="156" spans="16:29" s="21" customFormat="1">
       <c r="Q156" s="23"/>
       <c r="R156" s="23"/>
       <c r="S156" s="23"/>
       <c r="T156" s="23"/>
       <c r="U156" s="23"/>
       <c r="V156" s="23"/>
-      <c r="W156" s="43"/>
+      <c r="W156" s="23"/>
       <c r="X156" s="43"/>
       <c r="Y156" s="43"/>
       <c r="Z156" s="43"/>
@@ -16688,14 +16660,14 @@
       <c r="AB156" s="43"/>
       <c r="AC156" s="43"/>
     </row>
-    <row r="157" spans="9:29" s="21" customFormat="1">
+    <row r="157" spans="16:29" s="21" customFormat="1">
       <c r="Q157" s="23"/>
       <c r="R157" s="23"/>
       <c r="S157" s="23"/>
       <c r="T157" s="23"/>
       <c r="U157" s="23"/>
       <c r="V157" s="23"/>
-      <c r="W157" s="23"/>
+      <c r="W157" s="43"/>
       <c r="X157" s="43"/>
       <c r="Y157" s="43"/>
       <c r="Z157" s="43"/>
@@ -16703,38 +16675,38 @@
       <c r="AB157" s="43"/>
       <c r="AC157" s="43"/>
     </row>
-    <row r="158" spans="9:29" s="21" customFormat="1">
+    <row r="158" spans="16:29" s="21" customFormat="1">
       <c r="Q158" s="23"/>
       <c r="R158" s="23"/>
       <c r="S158" s="23"/>
       <c r="T158" s="23"/>
       <c r="U158" s="23"/>
       <c r="V158" s="23"/>
-      <c r="W158" s="43"/>
+      <c r="W158" s="23"/>
       <c r="X158" s="43"/>
       <c r="Y158" s="43"/>
-      <c r="Z158" s="43"/>
-      <c r="AA158" s="43"/>
-      <c r="AB158" s="43"/>
-      <c r="AC158" s="43"/>
-    </row>
-    <row r="159" spans="9:29" s="21" customFormat="1">
+      <c r="Z158" s="23"/>
+      <c r="AA158" s="23"/>
+      <c r="AB158" s="23"/>
+      <c r="AC158" s="23"/>
+    </row>
+    <row r="159" spans="16:29" s="21" customFormat="1">
+      <c r="P159" s="22"/>
       <c r="Q159" s="23"/>
       <c r="R159" s="23"/>
       <c r="S159" s="23"/>
       <c r="T159" s="23"/>
       <c r="U159" s="23"/>
       <c r="V159" s="23"/>
-      <c r="W159" s="23"/>
+      <c r="W159" s="43"/>
       <c r="X159" s="43"/>
       <c r="Y159" s="43"/>
-      <c r="Z159" s="23"/>
-      <c r="AA159" s="23"/>
-      <c r="AB159" s="23"/>
-      <c r="AC159" s="23"/>
-    </row>
-    <row r="160" spans="9:29" s="21" customFormat="1">
-      <c r="P160" s="22"/>
+      <c r="Z159" s="43"/>
+      <c r="AA159" s="43"/>
+      <c r="AB159" s="43"/>
+      <c r="AC159" s="43"/>
+    </row>
+    <row r="160" spans="16:29" s="21" customFormat="1">
       <c r="Q160" s="23"/>
       <c r="R160" s="23"/>
       <c r="S160" s="23"/>
@@ -16756,13 +16728,13 @@
       <c r="T161" s="23"/>
       <c r="U161" s="23"/>
       <c r="V161" s="23"/>
-      <c r="W161" s="43"/>
+      <c r="W161" s="23"/>
       <c r="X161" s="43"/>
       <c r="Y161" s="43"/>
-      <c r="Z161" s="43"/>
-      <c r="AA161" s="43"/>
-      <c r="AB161" s="43"/>
-      <c r="AC161" s="43"/>
+      <c r="Z161" s="23"/>
+      <c r="AA161" s="23"/>
+      <c r="AB161" s="23"/>
+      <c r="AC161" s="23"/>
     </row>
     <row r="162" spans="16:29" s="21" customFormat="1">
       <c r="Q162" s="23"/>
@@ -16774,10 +16746,10 @@
       <c r="W162" s="23"/>
       <c r="X162" s="43"/>
       <c r="Y162" s="43"/>
-      <c r="Z162" s="23"/>
-      <c r="AA162" s="23"/>
-      <c r="AB162" s="23"/>
-      <c r="AC162" s="23"/>
+      <c r="Z162" s="43"/>
+      <c r="AA162" s="43"/>
+      <c r="AB162" s="43"/>
+      <c r="AC162" s="43"/>
     </row>
     <row r="163" spans="16:29" s="21" customFormat="1">
       <c r="Q163" s="23"/>
@@ -16786,7 +16758,7 @@
       <c r="T163" s="23"/>
       <c r="U163" s="23"/>
       <c r="V163" s="23"/>
-      <c r="W163" s="23"/>
+      <c r="W163" s="43"/>
       <c r="X163" s="43"/>
       <c r="Y163" s="43"/>
       <c r="Z163" s="43"/>
@@ -16801,7 +16773,7 @@
       <c r="T164" s="23"/>
       <c r="U164" s="23"/>
       <c r="V164" s="23"/>
-      <c r="W164" s="43"/>
+      <c r="W164" s="23"/>
       <c r="X164" s="43"/>
       <c r="Y164" s="43"/>
       <c r="Z164" s="43"/>
@@ -16816,7 +16788,7 @@
       <c r="T165" s="23"/>
       <c r="U165" s="23"/>
       <c r="V165" s="23"/>
-      <c r="W165" s="23"/>
+      <c r="W165" s="43"/>
       <c r="X165" s="43"/>
       <c r="Y165" s="43"/>
       <c r="Z165" s="43"/>
@@ -16825,6 +16797,7 @@
       <c r="AC165" s="43"/>
     </row>
     <row r="166" spans="16:29" s="21" customFormat="1">
+      <c r="P166" s="22"/>
       <c r="Q166" s="23"/>
       <c r="R166" s="23"/>
       <c r="S166" s="23"/>
@@ -16840,7 +16813,6 @@
       <c r="AC166" s="43"/>
     </row>
     <row r="167" spans="16:29" s="21" customFormat="1">
-      <c r="P167" s="22"/>
       <c r="Q167" s="23"/>
       <c r="R167" s="23"/>
       <c r="S167" s="23"/>
@@ -16877,7 +16849,7 @@
       <c r="T169" s="23"/>
       <c r="U169" s="23"/>
       <c r="V169" s="23"/>
-      <c r="W169" s="43"/>
+      <c r="W169" s="23"/>
       <c r="X169" s="43"/>
       <c r="Y169" s="43"/>
       <c r="Z169" s="43"/>
@@ -16931,13 +16903,13 @@
       <c r="AC172" s="43"/>
     </row>
     <row r="173" spans="16:29" s="21" customFormat="1">
-      <c r="Q173" s="23"/>
-      <c r="R173" s="23"/>
-      <c r="S173" s="23"/>
-      <c r="T173" s="23"/>
-      <c r="U173" s="23"/>
-      <c r="V173" s="23"/>
-      <c r="W173" s="23"/>
+      <c r="Q173" s="43"/>
+      <c r="R173" s="43"/>
+      <c r="S173" s="43"/>
+      <c r="T173" s="43"/>
+      <c r="U173" s="43"/>
+      <c r="V173" s="43"/>
+      <c r="W173" s="43"/>
       <c r="X173" s="43"/>
       <c r="Y173" s="43"/>
       <c r="Z173" s="43"/>
@@ -16946,13 +16918,13 @@
       <c r="AC173" s="43"/>
     </row>
     <row r="174" spans="16:29" s="21" customFormat="1">
-      <c r="Q174" s="43"/>
-      <c r="R174" s="43"/>
-      <c r="S174" s="43"/>
-      <c r="T174" s="43"/>
-      <c r="U174" s="43"/>
-      <c r="V174" s="43"/>
-      <c r="W174" s="43"/>
+      <c r="Q174" s="23"/>
+      <c r="R174" s="23"/>
+      <c r="S174" s="23"/>
+      <c r="T174" s="23"/>
+      <c r="U174" s="23"/>
+      <c r="V174" s="23"/>
+      <c r="W174" s="23"/>
       <c r="X174" s="43"/>
       <c r="Y174" s="43"/>
       <c r="Z174" s="43"/>
@@ -16961,13 +16933,13 @@
       <c r="AC174" s="43"/>
     </row>
     <row r="175" spans="16:29" s="21" customFormat="1">
-      <c r="Q175" s="23"/>
-      <c r="R175" s="23"/>
-      <c r="S175" s="23"/>
-      <c r="T175" s="23"/>
-      <c r="U175" s="23"/>
-      <c r="V175" s="23"/>
-      <c r="W175" s="23"/>
+      <c r="Q175" s="43"/>
+      <c r="R175" s="43"/>
+      <c r="S175" s="43"/>
+      <c r="T175" s="43"/>
+      <c r="U175" s="43"/>
+      <c r="V175" s="43"/>
+      <c r="W175" s="43"/>
       <c r="X175" s="43"/>
       <c r="Y175" s="43"/>
       <c r="Z175" s="43"/>
@@ -16976,12 +16948,12 @@
       <c r="AC175" s="43"/>
     </row>
     <row r="176" spans="16:29" s="21" customFormat="1">
-      <c r="Q176" s="43"/>
-      <c r="R176" s="43"/>
-      <c r="S176" s="43"/>
-      <c r="T176" s="43"/>
-      <c r="U176" s="43"/>
-      <c r="V176" s="43"/>
+      <c r="Q176" s="23"/>
+      <c r="R176" s="23"/>
+      <c r="S176" s="23"/>
+      <c r="T176" s="23"/>
+      <c r="U176" s="23"/>
+      <c r="V176" s="23"/>
       <c r="W176" s="43"/>
       <c r="X176" s="43"/>
       <c r="Y176" s="43"/>
@@ -16997,13 +16969,13 @@
       <c r="T177" s="23"/>
       <c r="U177" s="23"/>
       <c r="V177" s="23"/>
-      <c r="W177" s="43"/>
+      <c r="W177" s="23"/>
       <c r="X177" s="43"/>
       <c r="Y177" s="43"/>
-      <c r="Z177" s="43"/>
-      <c r="AA177" s="43"/>
-      <c r="AB177" s="43"/>
-      <c r="AC177" s="43"/>
+      <c r="Z177" s="23"/>
+      <c r="AA177" s="23"/>
+      <c r="AB177" s="23"/>
+      <c r="AC177" s="23"/>
     </row>
     <row r="178" spans="16:29" s="21" customFormat="1">
       <c r="Q178" s="23"/>
@@ -17015,10 +16987,10 @@
       <c r="W178" s="23"/>
       <c r="X178" s="43"/>
       <c r="Y178" s="43"/>
-      <c r="Z178" s="23"/>
-      <c r="AA178" s="23"/>
-      <c r="AB178" s="23"/>
-      <c r="AC178" s="23"/>
+      <c r="Z178" s="43"/>
+      <c r="AA178" s="43"/>
+      <c r="AB178" s="43"/>
+      <c r="AC178" s="43"/>
     </row>
     <row r="179" spans="16:29" s="21" customFormat="1">
       <c r="Q179" s="23"/>
@@ -17027,7 +16999,7 @@
       <c r="T179" s="23"/>
       <c r="U179" s="23"/>
       <c r="V179" s="23"/>
-      <c r="W179" s="23"/>
+      <c r="W179" s="43"/>
       <c r="X179" s="43"/>
       <c r="Y179" s="43"/>
       <c r="Z179" s="43"/>
@@ -17036,13 +17008,14 @@
       <c r="AC179" s="43"/>
     </row>
     <row r="180" spans="16:29" s="21" customFormat="1">
+      <c r="P180" s="22"/>
       <c r="Q180" s="23"/>
       <c r="R180" s="23"/>
       <c r="S180" s="23"/>
       <c r="T180" s="23"/>
       <c r="U180" s="23"/>
       <c r="V180" s="23"/>
-      <c r="W180" s="43"/>
+      <c r="W180" s="23"/>
       <c r="X180" s="43"/>
       <c r="Y180" s="43"/>
       <c r="Z180" s="43"/>
@@ -17058,7 +17031,7 @@
       <c r="T181" s="23"/>
       <c r="U181" s="23"/>
       <c r="V181" s="23"/>
-      <c r="W181" s="23"/>
+      <c r="W181" s="43"/>
       <c r="X181" s="43"/>
       <c r="Y181" s="43"/>
       <c r="Z181" s="43"/>
@@ -17083,20 +17056,19 @@
       <c r="AC182" s="43"/>
     </row>
     <row r="183" spans="16:29" s="21" customFormat="1">
-      <c r="P183" s="22"/>
       <c r="Q183" s="23"/>
       <c r="R183" s="23"/>
       <c r="S183" s="23"/>
       <c r="T183" s="23"/>
       <c r="U183" s="23"/>
       <c r="V183" s="23"/>
-      <c r="W183" s="43"/>
+      <c r="W183" s="23"/>
       <c r="X183" s="43"/>
       <c r="Y183" s="43"/>
-      <c r="Z183" s="43"/>
-      <c r="AA183" s="43"/>
-      <c r="AB183" s="43"/>
-      <c r="AC183" s="43"/>
+      <c r="Z183" s="23"/>
+      <c r="AA183" s="23"/>
+      <c r="AB183" s="23"/>
+      <c r="AC183" s="23"/>
     </row>
     <row r="184" spans="16:29" s="21" customFormat="1">
       <c r="Q184" s="23"/>
@@ -17108,10 +17080,10 @@
       <c r="W184" s="23"/>
       <c r="X184" s="43"/>
       <c r="Y184" s="43"/>
-      <c r="Z184" s="23"/>
-      <c r="AA184" s="23"/>
-      <c r="AB184" s="23"/>
-      <c r="AC184" s="23"/>
+      <c r="Z184" s="43"/>
+      <c r="AA184" s="43"/>
+      <c r="AB184" s="43"/>
+      <c r="AC184" s="43"/>
     </row>
     <row r="185" spans="16:29" s="21" customFormat="1">
       <c r="Q185" s="23"/>
@@ -17150,7 +17122,7 @@
       <c r="T187" s="23"/>
       <c r="U187" s="23"/>
       <c r="V187" s="23"/>
-      <c r="W187" s="23"/>
+      <c r="W187" s="43"/>
       <c r="X187" s="43"/>
       <c r="Y187" s="43"/>
       <c r="Z187" s="43"/>
@@ -17165,7 +17137,7 @@
       <c r="T188" s="23"/>
       <c r="U188" s="23"/>
       <c r="V188" s="23"/>
-      <c r="W188" s="43"/>
+      <c r="W188" s="23"/>
       <c r="X188" s="43"/>
       <c r="Y188" s="43"/>
       <c r="Z188" s="43"/>
@@ -17180,7 +17152,7 @@
       <c r="T189" s="23"/>
       <c r="U189" s="23"/>
       <c r="V189" s="23"/>
-      <c r="W189" s="23"/>
+      <c r="W189" s="43"/>
       <c r="X189" s="43"/>
       <c r="Y189" s="43"/>
       <c r="Z189" s="43"/>
@@ -17225,7 +17197,7 @@
       <c r="T192" s="23"/>
       <c r="U192" s="23"/>
       <c r="V192" s="23"/>
-      <c r="W192" s="43"/>
+      <c r="W192" s="23"/>
       <c r="X192" s="43"/>
       <c r="Y192" s="43"/>
       <c r="Z192" s="43"/>
@@ -17249,13 +17221,13 @@
       <c r="AC193" s="43"/>
     </row>
     <row r="194" spans="17:29" s="21" customFormat="1">
-      <c r="Q194" s="23"/>
-      <c r="R194" s="23"/>
-      <c r="S194" s="23"/>
-      <c r="T194" s="23"/>
-      <c r="U194" s="23"/>
-      <c r="V194" s="23"/>
-      <c r="W194" s="23"/>
+      <c r="Q194" s="43"/>
+      <c r="R194" s="43"/>
+      <c r="S194" s="43"/>
+      <c r="T194" s="43"/>
+      <c r="U194" s="43"/>
+      <c r="V194" s="43"/>
+      <c r="W194" s="43"/>
       <c r="X194" s="43"/>
       <c r="Y194" s="43"/>
       <c r="Z194" s="43"/>
@@ -17264,13 +17236,13 @@
       <c r="AC194" s="43"/>
     </row>
     <row r="195" spans="17:29" s="21" customFormat="1">
-      <c r="Q195" s="43"/>
-      <c r="R195" s="43"/>
-      <c r="S195" s="43"/>
-      <c r="T195" s="43"/>
-      <c r="U195" s="43"/>
-      <c r="V195" s="43"/>
-      <c r="W195" s="43"/>
+      <c r="Q195" s="23"/>
+      <c r="R195" s="23"/>
+      <c r="S195" s="23"/>
+      <c r="T195" s="23"/>
+      <c r="U195" s="23"/>
+      <c r="V195" s="23"/>
+      <c r="W195" s="23"/>
       <c r="X195" s="43"/>
       <c r="Y195" s="43"/>
       <c r="Z195" s="43"/>
@@ -17279,13 +17251,13 @@
       <c r="AC195" s="43"/>
     </row>
     <row r="196" spans="17:29" s="21" customFormat="1">
-      <c r="Q196" s="23"/>
-      <c r="R196" s="23"/>
-      <c r="S196" s="23"/>
-      <c r="T196" s="23"/>
-      <c r="U196" s="23"/>
-      <c r="V196" s="23"/>
-      <c r="W196" s="23"/>
+      <c r="Q196" s="43"/>
+      <c r="R196" s="43"/>
+      <c r="S196" s="43"/>
+      <c r="T196" s="43"/>
+      <c r="U196" s="43"/>
+      <c r="V196" s="43"/>
+      <c r="W196" s="43"/>
       <c r="X196" s="43"/>
       <c r="Y196" s="43"/>
       <c r="Z196" s="43"/>
@@ -17294,12 +17266,12 @@
       <c r="AC196" s="43"/>
     </row>
     <row r="197" spans="17:29" s="21" customFormat="1">
-      <c r="Q197" s="43"/>
-      <c r="R197" s="43"/>
-      <c r="S197" s="43"/>
-      <c r="T197" s="43"/>
-      <c r="U197" s="43"/>
-      <c r="V197" s="43"/>
+      <c r="Q197" s="23"/>
+      <c r="R197" s="23"/>
+      <c r="S197" s="23"/>
+      <c r="T197" s="23"/>
+      <c r="U197" s="23"/>
+      <c r="V197" s="23"/>
       <c r="W197" s="43"/>
       <c r="X197" s="43"/>
       <c r="Y197" s="43"/>
@@ -17315,13 +17287,13 @@
       <c r="T198" s="23"/>
       <c r="U198" s="23"/>
       <c r="V198" s="23"/>
-      <c r="W198" s="43"/>
+      <c r="W198" s="23"/>
       <c r="X198" s="43"/>
       <c r="Y198" s="43"/>
-      <c r="Z198" s="43"/>
-      <c r="AA198" s="43"/>
-      <c r="AB198" s="43"/>
-      <c r="AC198" s="43"/>
+      <c r="Z198" s="23"/>
+      <c r="AA198" s="23"/>
+      <c r="AB198" s="23"/>
+      <c r="AC198" s="23"/>
     </row>
     <row r="199" spans="17:29" s="21" customFormat="1">
       <c r="Q199" s="23"/>
@@ -17330,13 +17302,13 @@
       <c r="T199" s="23"/>
       <c r="U199" s="23"/>
       <c r="V199" s="23"/>
-      <c r="W199" s="23"/>
+      <c r="W199" s="43"/>
       <c r="X199" s="43"/>
       <c r="Y199" s="43"/>
-      <c r="Z199" s="23"/>
-      <c r="AA199" s="23"/>
-      <c r="AB199" s="23"/>
-      <c r="AC199" s="23"/>
+      <c r="Z199" s="43"/>
+      <c r="AA199" s="43"/>
+      <c r="AB199" s="43"/>
+      <c r="AC199" s="43"/>
     </row>
     <row r="200" spans="17:29" s="21" customFormat="1">
       <c r="Q200" s="23"/>
@@ -17345,7 +17317,7 @@
       <c r="T200" s="23"/>
       <c r="U200" s="23"/>
       <c r="V200" s="23"/>
-      <c r="W200" s="43"/>
+      <c r="W200" s="23"/>
       <c r="X200" s="43"/>
       <c r="Y200" s="43"/>
       <c r="Z200" s="43"/>
@@ -17363,10 +17335,10 @@
       <c r="W201" s="23"/>
       <c r="X201" s="43"/>
       <c r="Y201" s="43"/>
-      <c r="Z201" s="43"/>
-      <c r="AA201" s="43"/>
-      <c r="AB201" s="43"/>
-      <c r="AC201" s="43"/>
+      <c r="Z201" s="23"/>
+      <c r="AA201" s="23"/>
+      <c r="AB201" s="23"/>
+      <c r="AC201" s="23"/>
     </row>
     <row r="202" spans="17:29" s="21" customFormat="1">
       <c r="Q202" s="23"/>
@@ -17375,13 +17347,13 @@
       <c r="T202" s="23"/>
       <c r="U202" s="23"/>
       <c r="V202" s="23"/>
-      <c r="W202" s="23"/>
+      <c r="W202" s="43"/>
       <c r="X202" s="43"/>
       <c r="Y202" s="43"/>
-      <c r="Z202" s="23"/>
-      <c r="AA202" s="23"/>
-      <c r="AB202" s="23"/>
-      <c r="AC202" s="23"/>
+      <c r="Z202" s="43"/>
+      <c r="AA202" s="43"/>
+      <c r="AB202" s="43"/>
+      <c r="AC202" s="43"/>
     </row>
     <row r="203" spans="17:29" s="21" customFormat="1">
       <c r="Q203" s="23"/>
@@ -17420,7 +17392,7 @@
       <c r="T205" s="23"/>
       <c r="U205" s="23"/>
       <c r="V205" s="23"/>
-      <c r="W205" s="43"/>
+      <c r="W205" s="23"/>
       <c r="X205" s="43"/>
       <c r="Y205" s="43"/>
       <c r="Z205" s="43"/>
@@ -17435,7 +17407,7 @@
       <c r="T206" s="23"/>
       <c r="U206" s="23"/>
       <c r="V206" s="23"/>
-      <c r="W206" s="23"/>
+      <c r="W206" s="43"/>
       <c r="X206" s="43"/>
       <c r="Y206" s="43"/>
       <c r="Z206" s="43"/>
@@ -17444,12 +17416,12 @@
       <c r="AC206" s="43"/>
     </row>
     <row r="207" spans="17:29" s="21" customFormat="1">
-      <c r="Q207" s="23"/>
-      <c r="R207" s="23"/>
-      <c r="S207" s="23"/>
-      <c r="T207" s="23"/>
-      <c r="U207" s="23"/>
-      <c r="V207" s="23"/>
+      <c r="Q207" s="43"/>
+      <c r="R207" s="43"/>
+      <c r="S207" s="43"/>
+      <c r="T207" s="43"/>
+      <c r="U207" s="43"/>
+      <c r="V207" s="43"/>
       <c r="W207" s="43"/>
       <c r="X207" s="43"/>
       <c r="Y207" s="43"/>
@@ -17459,12 +17431,12 @@
       <c r="AC207" s="43"/>
     </row>
     <row r="208" spans="17:29" s="21" customFormat="1">
-      <c r="Q208" s="43"/>
-      <c r="R208" s="43"/>
-      <c r="S208" s="43"/>
-      <c r="T208" s="43"/>
-      <c r="U208" s="43"/>
-      <c r="V208" s="43"/>
+      <c r="Q208" s="23"/>
+      <c r="R208" s="23"/>
+      <c r="S208" s="23"/>
+      <c r="T208" s="23"/>
+      <c r="U208" s="23"/>
+      <c r="V208" s="23"/>
       <c r="W208" s="43"/>
       <c r="X208" s="43"/>
       <c r="Y208" s="43"/>
@@ -17495,13 +17467,13 @@
       <c r="T210" s="23"/>
       <c r="U210" s="23"/>
       <c r="V210" s="23"/>
-      <c r="W210" s="43"/>
+      <c r="W210" s="23"/>
       <c r="X210" s="43"/>
       <c r="Y210" s="43"/>
-      <c r="Z210" s="43"/>
-      <c r="AA210" s="43"/>
-      <c r="AB210" s="43"/>
-      <c r="AC210" s="43"/>
+      <c r="Z210" s="23"/>
+      <c r="AA210" s="23"/>
+      <c r="AB210" s="23"/>
+      <c r="AC210" s="23"/>
     </row>
     <row r="211" spans="17:29" s="21" customFormat="1">
       <c r="Q211" s="23"/>
@@ -17510,13 +17482,13 @@
       <c r="T211" s="23"/>
       <c r="U211" s="23"/>
       <c r="V211" s="23"/>
-      <c r="W211" s="23"/>
+      <c r="W211" s="43"/>
       <c r="X211" s="43"/>
       <c r="Y211" s="43"/>
-      <c r="Z211" s="23"/>
-      <c r="AA211" s="23"/>
-      <c r="AB211" s="23"/>
-      <c r="AC211" s="23"/>
+      <c r="Z211" s="43"/>
+      <c r="AA211" s="43"/>
+      <c r="AB211" s="43"/>
+      <c r="AC211" s="43"/>
     </row>
     <row r="212" spans="17:29" s="21" customFormat="1">
       <c r="Q212" s="23"/>
@@ -17525,7 +17497,7 @@
       <c r="T212" s="23"/>
       <c r="U212" s="23"/>
       <c r="V212" s="23"/>
-      <c r="W212" s="43"/>
+      <c r="W212" s="23"/>
       <c r="X212" s="43"/>
       <c r="Y212" s="43"/>
       <c r="Z212" s="43"/>
@@ -17600,7 +17572,7 @@
       <c r="T217" s="23"/>
       <c r="U217" s="23"/>
       <c r="V217" s="23"/>
-      <c r="W217" s="23"/>
+      <c r="W217" s="43"/>
       <c r="X217" s="43"/>
       <c r="Y217" s="43"/>
       <c r="Z217" s="43"/>
@@ -17609,12 +17581,12 @@
       <c r="AC217" s="43"/>
     </row>
     <row r="218" spans="17:29" s="21" customFormat="1">
-      <c r="Q218" s="23"/>
-      <c r="R218" s="23"/>
-      <c r="S218" s="23"/>
-      <c r="T218" s="23"/>
-      <c r="U218" s="23"/>
-      <c r="V218" s="23"/>
+      <c r="Q218" s="43"/>
+      <c r="R218" s="43"/>
+      <c r="S218" s="43"/>
+      <c r="T218" s="43"/>
+      <c r="U218" s="43"/>
+      <c r="V218" s="43"/>
       <c r="W218" s="43"/>
       <c r="X218" s="43"/>
       <c r="Y218" s="43"/>
@@ -17624,13 +17596,13 @@
       <c r="AC218" s="43"/>
     </row>
     <row r="219" spans="17:29" s="21" customFormat="1">
-      <c r="Q219" s="43"/>
-      <c r="R219" s="43"/>
-      <c r="S219" s="43"/>
-      <c r="T219" s="43"/>
-      <c r="U219" s="43"/>
-      <c r="V219" s="43"/>
-      <c r="W219" s="43"/>
+      <c r="Q219" s="23"/>
+      <c r="R219" s="23"/>
+      <c r="S219" s="23"/>
+      <c r="T219" s="23"/>
+      <c r="U219" s="23"/>
+      <c r="V219" s="23"/>
+      <c r="W219" s="23"/>
       <c r="X219" s="43"/>
       <c r="Y219" s="43"/>
       <c r="Z219" s="43"/>
@@ -17675,7 +17647,7 @@
       <c r="T222" s="23"/>
       <c r="U222" s="23"/>
       <c r="V222" s="23"/>
-      <c r="W222" s="23"/>
+      <c r="W222" s="43"/>
       <c r="X222" s="43"/>
       <c r="Y222" s="43"/>
       <c r="Z222" s="43"/>
@@ -17705,7 +17677,7 @@
       <c r="T224" s="23"/>
       <c r="U224" s="23"/>
       <c r="V224" s="23"/>
-      <c r="W224" s="43"/>
+      <c r="W224" s="23"/>
       <c r="X224" s="43"/>
       <c r="Y224" s="43"/>
       <c r="Z224" s="43"/>
@@ -17720,7 +17692,7 @@
       <c r="T225" s="23"/>
       <c r="U225" s="23"/>
       <c r="V225" s="23"/>
-      <c r="W225" s="23"/>
+      <c r="W225" s="43"/>
       <c r="X225" s="43"/>
       <c r="Y225" s="43"/>
       <c r="Z225" s="43"/>
@@ -17780,7 +17752,7 @@
       <c r="T229" s="23"/>
       <c r="U229" s="23"/>
       <c r="V229" s="23"/>
-      <c r="W229" s="43"/>
+      <c r="W229" s="23"/>
       <c r="X229" s="43"/>
       <c r="Y229" s="43"/>
       <c r="Z229" s="43"/>
@@ -17795,7 +17767,7 @@
       <c r="T230" s="23"/>
       <c r="U230" s="23"/>
       <c r="V230" s="23"/>
-      <c r="W230" s="23"/>
+      <c r="W230" s="43"/>
       <c r="X230" s="43"/>
       <c r="Y230" s="43"/>
       <c r="Z230" s="43"/>
@@ -17840,7 +17812,7 @@
       <c r="T233" s="23"/>
       <c r="U233" s="23"/>
       <c r="V233" s="23"/>
-      <c r="W233" s="43"/>
+      <c r="W233" s="23"/>
       <c r="X233" s="43"/>
       <c r="Y233" s="43"/>
       <c r="Z233" s="43"/>
@@ -17864,13 +17836,13 @@
       <c r="AC234" s="43"/>
     </row>
     <row r="235" spans="17:29" s="21" customFormat="1">
-      <c r="Q235" s="23"/>
-      <c r="R235" s="23"/>
-      <c r="S235" s="23"/>
-      <c r="T235" s="23"/>
-      <c r="U235" s="23"/>
-      <c r="V235" s="23"/>
-      <c r="W235" s="23"/>
+      <c r="Q235" s="43"/>
+      <c r="R235" s="43"/>
+      <c r="S235" s="43"/>
+      <c r="T235" s="43"/>
+      <c r="U235" s="43"/>
+      <c r="V235" s="43"/>
+      <c r="W235" s="43"/>
       <c r="X235" s="43"/>
       <c r="Y235" s="43"/>
       <c r="Z235" s="43"/>
@@ -17879,12 +17851,12 @@
       <c r="AC235" s="43"/>
     </row>
     <row r="236" spans="17:29" s="21" customFormat="1">
-      <c r="Q236" s="43"/>
-      <c r="R236" s="43"/>
-      <c r="S236" s="43"/>
-      <c r="T236" s="43"/>
-      <c r="U236" s="43"/>
-      <c r="V236" s="43"/>
+      <c r="Q236" s="23"/>
+      <c r="R236" s="23"/>
+      <c r="S236" s="23"/>
+      <c r="T236" s="23"/>
+      <c r="U236" s="23"/>
+      <c r="V236" s="23"/>
       <c r="W236" s="43"/>
       <c r="X236" s="43"/>
       <c r="Y236" s="43"/>
@@ -17900,13 +17872,13 @@
       <c r="T237" s="23"/>
       <c r="U237" s="23"/>
       <c r="V237" s="23"/>
-      <c r="W237" s="43"/>
+      <c r="W237" s="23"/>
       <c r="X237" s="43"/>
       <c r="Y237" s="43"/>
-      <c r="Z237" s="43"/>
-      <c r="AA237" s="43"/>
-      <c r="AB237" s="43"/>
-      <c r="AC237" s="43"/>
+      <c r="Z237" s="23"/>
+      <c r="AA237" s="23"/>
+      <c r="AB237" s="23"/>
+      <c r="AC237" s="23"/>
     </row>
     <row r="238" spans="17:29" s="21" customFormat="1">
       <c r="Q238" s="23"/>
@@ -17930,13 +17902,13 @@
       <c r="T239" s="23"/>
       <c r="U239" s="23"/>
       <c r="V239" s="23"/>
-      <c r="W239" s="23"/>
+      <c r="W239" s="43"/>
       <c r="X239" s="43"/>
       <c r="Y239" s="43"/>
-      <c r="Z239" s="23"/>
-      <c r="AA239" s="23"/>
-      <c r="AB239" s="23"/>
-      <c r="AC239" s="23"/>
+      <c r="Z239" s="43"/>
+      <c r="AA239" s="43"/>
+      <c r="AB239" s="43"/>
+      <c r="AC239" s="43"/>
     </row>
     <row r="240" spans="17:29" s="21" customFormat="1">
       <c r="Q240" s="23"/>
@@ -17945,7 +17917,7 @@
       <c r="T240" s="23"/>
       <c r="U240" s="23"/>
       <c r="V240" s="23"/>
-      <c r="W240" s="43"/>
+      <c r="W240" s="23"/>
       <c r="X240" s="43"/>
       <c r="Y240" s="43"/>
       <c r="Z240" s="43"/>
@@ -17990,7 +17962,7 @@
       <c r="T243" s="23"/>
       <c r="U243" s="23"/>
       <c r="V243" s="23"/>
-      <c r="W243" s="23"/>
+      <c r="W243" s="43"/>
       <c r="X243" s="43"/>
       <c r="Y243" s="43"/>
       <c r="Z243" s="43"/>
@@ -18005,7 +17977,7 @@
       <c r="T244" s="23"/>
       <c r="U244" s="23"/>
       <c r="V244" s="23"/>
-      <c r="W244" s="43"/>
+      <c r="W244" s="23"/>
       <c r="X244" s="43"/>
       <c r="Y244" s="43"/>
       <c r="Z244" s="43"/>
@@ -18035,7 +18007,7 @@
       <c r="T246" s="23"/>
       <c r="U246" s="23"/>
       <c r="V246" s="23"/>
-      <c r="W246" s="23"/>
+      <c r="W246" s="43"/>
       <c r="X246" s="43"/>
       <c r="Y246" s="43"/>
       <c r="Z246" s="43"/>
@@ -18080,7 +18052,7 @@
       <c r="T249" s="23"/>
       <c r="U249" s="23"/>
       <c r="V249" s="23"/>
-      <c r="W249" s="43"/>
+      <c r="W249" s="23"/>
       <c r="X249" s="43"/>
       <c r="Y249" s="43"/>
       <c r="Z249" s="43"/>
@@ -18104,13 +18076,13 @@
       <c r="AC250" s="43"/>
     </row>
     <row r="251" spans="17:29" s="21" customFormat="1">
-      <c r="Q251" s="23"/>
-      <c r="R251" s="23"/>
-      <c r="S251" s="23"/>
-      <c r="T251" s="23"/>
-      <c r="U251" s="23"/>
-      <c r="V251" s="23"/>
-      <c r="W251" s="23"/>
+      <c r="Q251" s="43"/>
+      <c r="R251" s="43"/>
+      <c r="S251" s="43"/>
+      <c r="T251" s="43"/>
+      <c r="U251" s="43"/>
+      <c r="V251" s="43"/>
+      <c r="W251" s="43"/>
       <c r="X251" s="43"/>
       <c r="Y251" s="43"/>
       <c r="Z251" s="43"/>
@@ -18119,12 +18091,12 @@
       <c r="AC251" s="43"/>
     </row>
     <row r="252" spans="17:29" s="21" customFormat="1">
-      <c r="Q252" s="43"/>
-      <c r="R252" s="43"/>
-      <c r="S252" s="43"/>
-      <c r="T252" s="43"/>
-      <c r="U252" s="43"/>
-      <c r="V252" s="43"/>
+      <c r="Q252" s="23"/>
+      <c r="R252" s="23"/>
+      <c r="S252" s="23"/>
+      <c r="T252" s="23"/>
+      <c r="U252" s="23"/>
+      <c r="V252" s="23"/>
       <c r="W252" s="43"/>
       <c r="X252" s="43"/>
       <c r="Y252" s="43"/>
@@ -18140,13 +18112,13 @@
       <c r="T253" s="23"/>
       <c r="U253" s="23"/>
       <c r="V253" s="23"/>
-      <c r="W253" s="43"/>
+      <c r="W253" s="23"/>
       <c r="X253" s="43"/>
       <c r="Y253" s="43"/>
-      <c r="Z253" s="43"/>
-      <c r="AA253" s="43"/>
-      <c r="AB253" s="43"/>
-      <c r="AC253" s="43"/>
+      <c r="Z253" s="23"/>
+      <c r="AA253" s="23"/>
+      <c r="AB253" s="23"/>
+      <c r="AC253" s="23"/>
     </row>
     <row r="254" spans="17:29" s="21" customFormat="1">
       <c r="Q254" s="23"/>
@@ -18158,10 +18130,10 @@
       <c r="W254" s="23"/>
       <c r="X254" s="43"/>
       <c r="Y254" s="43"/>
-      <c r="Z254" s="23"/>
-      <c r="AA254" s="23"/>
-      <c r="AB254" s="23"/>
-      <c r="AC254" s="23"/>
+      <c r="Z254" s="43"/>
+      <c r="AA254" s="43"/>
+      <c r="AB254" s="43"/>
+      <c r="AC254" s="43"/>
     </row>
     <row r="255" spans="17:29" s="21" customFormat="1">
       <c r="Q255" s="23"/>
@@ -18200,7 +18172,7 @@
       <c r="T257" s="23"/>
       <c r="U257" s="23"/>
       <c r="V257" s="23"/>
-      <c r="W257" s="23"/>
+      <c r="W257" s="43"/>
       <c r="X257" s="43"/>
       <c r="Y257" s="43"/>
       <c r="Z257" s="43"/>
@@ -18230,13 +18202,13 @@
       <c r="T259" s="23"/>
       <c r="U259" s="23"/>
       <c r="V259" s="23"/>
-      <c r="W259" s="43"/>
+      <c r="W259" s="23"/>
       <c r="X259" s="43"/>
       <c r="Y259" s="43"/>
-      <c r="Z259" s="43"/>
-      <c r="AA259" s="43"/>
-      <c r="AB259" s="43"/>
-      <c r="AC259" s="43"/>
+      <c r="Z259" s="23"/>
+      <c r="AA259" s="23"/>
+      <c r="AB259" s="23"/>
+      <c r="AC259" s="23"/>
     </row>
     <row r="260" spans="17:29" s="21" customFormat="1">
       <c r="Q260" s="23"/>
@@ -18245,13 +18217,13 @@
       <c r="T260" s="23"/>
       <c r="U260" s="23"/>
       <c r="V260" s="23"/>
-      <c r="W260" s="23"/>
+      <c r="W260" s="43"/>
       <c r="X260" s="43"/>
       <c r="Y260" s="43"/>
-      <c r="Z260" s="23"/>
-      <c r="AA260" s="23"/>
-      <c r="AB260" s="23"/>
-      <c r="AC260" s="23"/>
+      <c r="Z260" s="43"/>
+      <c r="AA260" s="43"/>
+      <c r="AB260" s="43"/>
+      <c r="AC260" s="43"/>
     </row>
     <row r="261" spans="17:29" s="21" customFormat="1">
       <c r="Q261" s="23"/>
@@ -18260,7 +18232,7 @@
       <c r="T261" s="23"/>
       <c r="U261" s="23"/>
       <c r="V261" s="23"/>
-      <c r="W261" s="43"/>
+      <c r="W261" s="23"/>
       <c r="X261" s="43"/>
       <c r="Y261" s="43"/>
       <c r="Z261" s="43"/>
@@ -18275,7 +18247,7 @@
       <c r="T262" s="23"/>
       <c r="U262" s="23"/>
       <c r="V262" s="23"/>
-      <c r="W262" s="23"/>
+      <c r="W262" s="43"/>
       <c r="X262" s="43"/>
       <c r="Y262" s="43"/>
       <c r="Z262" s="43"/>
@@ -18320,7 +18292,7 @@
       <c r="T265" s="23"/>
       <c r="U265" s="23"/>
       <c r="V265" s="23"/>
-      <c r="W265" s="43"/>
+      <c r="W265" s="23"/>
       <c r="X265" s="43"/>
       <c r="Y265" s="43"/>
       <c r="Z265" s="43"/>
@@ -18350,7 +18322,7 @@
       <c r="T267" s="23"/>
       <c r="U267" s="23"/>
       <c r="V267" s="23"/>
-      <c r="W267" s="23"/>
+      <c r="W267" s="43"/>
       <c r="X267" s="43"/>
       <c r="Y267" s="43"/>
       <c r="Z267" s="43"/>
@@ -18395,7 +18367,7 @@
       <c r="T270" s="23"/>
       <c r="U270" s="23"/>
       <c r="V270" s="23"/>
-      <c r="W270" s="43"/>
+      <c r="W270" s="23"/>
       <c r="X270" s="43"/>
       <c r="Y270" s="43"/>
       <c r="Z270" s="43"/>
@@ -18419,13 +18391,13 @@
       <c r="AC271" s="43"/>
     </row>
     <row r="272" spans="17:29" s="21" customFormat="1">
-      <c r="Q272" s="23"/>
-      <c r="R272" s="23"/>
-      <c r="S272" s="23"/>
-      <c r="T272" s="23"/>
-      <c r="U272" s="23"/>
-      <c r="V272" s="23"/>
-      <c r="W272" s="23"/>
+      <c r="Q272" s="43"/>
+      <c r="R272" s="43"/>
+      <c r="S272" s="43"/>
+      <c r="T272" s="43"/>
+      <c r="U272" s="43"/>
+      <c r="V272" s="43"/>
+      <c r="W272" s="43"/>
       <c r="X272" s="43"/>
       <c r="Y272" s="43"/>
       <c r="Z272" s="43"/>
@@ -18433,13 +18405,13 @@
       <c r="AB272" s="43"/>
       <c r="AC272" s="43"/>
     </row>
-    <row r="273" spans="17:29" s="21" customFormat="1">
-      <c r="Q273" s="43"/>
-      <c r="R273" s="43"/>
-      <c r="S273" s="43"/>
-      <c r="T273" s="43"/>
-      <c r="U273" s="43"/>
-      <c r="V273" s="43"/>
+    <row r="273" spans="10:29" s="21" customFormat="1">
+      <c r="Q273" s="23"/>
+      <c r="R273" s="23"/>
+      <c r="S273" s="23"/>
+      <c r="T273" s="23"/>
+      <c r="U273" s="23"/>
+      <c r="V273" s="23"/>
       <c r="W273" s="43"/>
       <c r="X273" s="43"/>
       <c r="Y273" s="43"/>
@@ -18448,37 +18420,37 @@
       <c r="AB273" s="43"/>
       <c r="AC273" s="43"/>
     </row>
-    <row r="274" spans="17:29" s="21" customFormat="1">
+    <row r="274" spans="10:29" s="21" customFormat="1">
       <c r="Q274" s="23"/>
       <c r="R274" s="23"/>
       <c r="S274" s="23"/>
       <c r="T274" s="23"/>
       <c r="U274" s="23"/>
       <c r="V274" s="23"/>
-      <c r="W274" s="43"/>
+      <c r="W274" s="23"/>
       <c r="X274" s="43"/>
       <c r="Y274" s="43"/>
-      <c r="Z274" s="43"/>
-      <c r="AA274" s="43"/>
-      <c r="AB274" s="43"/>
-      <c r="AC274" s="43"/>
-    </row>
-    <row r="275" spans="17:29" s="21" customFormat="1">
+      <c r="Z274" s="23"/>
+      <c r="AA274" s="23"/>
+      <c r="AB274" s="23"/>
+      <c r="AC274" s="23"/>
+    </row>
+    <row r="275" spans="10:29" s="21" customFormat="1">
       <c r="Q275" s="23"/>
       <c r="R275" s="23"/>
       <c r="S275" s="23"/>
       <c r="T275" s="23"/>
       <c r="U275" s="23"/>
       <c r="V275" s="23"/>
-      <c r="W275" s="23"/>
+      <c r="W275" s="43"/>
       <c r="X275" s="43"/>
       <c r="Y275" s="43"/>
-      <c r="Z275" s="23"/>
-      <c r="AA275" s="23"/>
-      <c r="AB275" s="23"/>
-      <c r="AC275" s="23"/>
-    </row>
-    <row r="276" spans="17:29" s="21" customFormat="1">
+      <c r="Z275" s="43"/>
+      <c r="AA275" s="43"/>
+      <c r="AB275" s="43"/>
+      <c r="AC275" s="43"/>
+    </row>
+    <row r="276" spans="10:29" s="21" customFormat="1">
       <c r="Q276" s="23"/>
       <c r="R276" s="23"/>
       <c r="S276" s="23"/>
@@ -18493,7 +18465,7 @@
       <c r="AB276" s="43"/>
       <c r="AC276" s="43"/>
     </row>
-    <row r="277" spans="17:29" s="21" customFormat="1">
+    <row r="277" spans="10:29" s="21" customFormat="1">
       <c r="Q277" s="23"/>
       <c r="R277" s="23"/>
       <c r="S277" s="23"/>
@@ -18508,13 +18480,13 @@
       <c r="AB277" s="43"/>
       <c r="AC277" s="43"/>
     </row>
-    <row r="278" spans="17:29" s="21" customFormat="1">
-      <c r="Q278" s="23"/>
-      <c r="R278" s="23"/>
-      <c r="S278" s="23"/>
-      <c r="T278" s="23"/>
-      <c r="U278" s="23"/>
-      <c r="V278" s="23"/>
+    <row r="278" spans="10:29" s="21" customFormat="1">
+      <c r="Q278" s="43"/>
+      <c r="R278" s="43"/>
+      <c r="S278" s="43"/>
+      <c r="T278" s="43"/>
+      <c r="U278" s="43"/>
+      <c r="V278" s="43"/>
       <c r="W278" s="43"/>
       <c r="X278" s="43"/>
       <c r="Y278" s="43"/>
@@ -18523,14 +18495,14 @@
       <c r="AB278" s="43"/>
       <c r="AC278" s="43"/>
     </row>
-    <row r="279" spans="17:29" s="21" customFormat="1">
-      <c r="Q279" s="43"/>
-      <c r="R279" s="43"/>
-      <c r="S279" s="43"/>
-      <c r="T279" s="43"/>
-      <c r="U279" s="43"/>
-      <c r="V279" s="43"/>
-      <c r="W279" s="43"/>
+    <row r="279" spans="10:29" s="21" customFormat="1">
+      <c r="Q279" s="23"/>
+      <c r="R279" s="23"/>
+      <c r="S279" s="23"/>
+      <c r="T279" s="23"/>
+      <c r="U279" s="23"/>
+      <c r="V279" s="23"/>
+      <c r="W279" s="23"/>
       <c r="X279" s="43"/>
       <c r="Y279" s="43"/>
       <c r="Z279" s="43"/>
@@ -18538,14 +18510,14 @@
       <c r="AB279" s="43"/>
       <c r="AC279" s="43"/>
     </row>
-    <row r="280" spans="17:29" s="21" customFormat="1">
-      <c r="Q280" s="23"/>
-      <c r="R280" s="23"/>
-      <c r="S280" s="23"/>
-      <c r="T280" s="23"/>
-      <c r="U280" s="23"/>
-      <c r="V280" s="23"/>
-      <c r="W280" s="23"/>
+    <row r="280" spans="10:29" s="21" customFormat="1">
+      <c r="Q280" s="43"/>
+      <c r="R280" s="43"/>
+      <c r="S280" s="43"/>
+      <c r="T280" s="43"/>
+      <c r="U280" s="43"/>
+      <c r="V280" s="43"/>
+      <c r="W280" s="43"/>
       <c r="X280" s="43"/>
       <c r="Y280" s="43"/>
       <c r="Z280" s="43"/>
@@ -18553,14 +18525,14 @@
       <c r="AB280" s="43"/>
       <c r="AC280" s="43"/>
     </row>
-    <row r="281" spans="17:29" s="21" customFormat="1">
-      <c r="Q281" s="43"/>
-      <c r="R281" s="43"/>
-      <c r="S281" s="43"/>
-      <c r="T281" s="43"/>
-      <c r="U281" s="43"/>
-      <c r="V281" s="43"/>
-      <c r="W281" s="43"/>
+    <row r="281" spans="10:29" s="21" customFormat="1">
+      <c r="Q281" s="23"/>
+      <c r="R281" s="23"/>
+      <c r="S281" s="23"/>
+      <c r="T281" s="23"/>
+      <c r="U281" s="23"/>
+      <c r="V281" s="23"/>
+      <c r="W281" s="23"/>
       <c r="X281" s="43"/>
       <c r="Y281" s="43"/>
       <c r="Z281" s="43"/>
@@ -18568,14 +18540,14 @@
       <c r="AB281" s="43"/>
       <c r="AC281" s="43"/>
     </row>
-    <row r="282" spans="17:29" s="21" customFormat="1">
-      <c r="Q282" s="23"/>
-      <c r="R282" s="23"/>
-      <c r="S282" s="23"/>
-      <c r="T282" s="23"/>
-      <c r="U282" s="23"/>
-      <c r="V282" s="23"/>
-      <c r="W282" s="23"/>
+    <row r="282" spans="10:29" s="21" customFormat="1">
+      <c r="Q282" s="43"/>
+      <c r="R282" s="43"/>
+      <c r="S282" s="43"/>
+      <c r="T282" s="43"/>
+      <c r="U282" s="43"/>
+      <c r="V282" s="43"/>
+      <c r="W282" s="43"/>
       <c r="X282" s="43"/>
       <c r="Y282" s="43"/>
       <c r="Z282" s="43"/>
@@ -18583,13 +18555,13 @@
       <c r="AB282" s="43"/>
       <c r="AC282" s="43"/>
     </row>
-    <row r="283" spans="17:29" s="21" customFormat="1">
-      <c r="Q283" s="43"/>
-      <c r="R283" s="43"/>
-      <c r="S283" s="43"/>
-      <c r="T283" s="43"/>
-      <c r="U283" s="43"/>
-      <c r="V283" s="43"/>
+    <row r="283" spans="10:29" s="21" customFormat="1">
+      <c r="Q283" s="23"/>
+      <c r="R283" s="23"/>
+      <c r="S283" s="23"/>
+      <c r="T283" s="23"/>
+      <c r="U283" s="23"/>
+      <c r="V283" s="23"/>
       <c r="W283" s="43"/>
       <c r="X283" s="43"/>
       <c r="Y283" s="43"/>
@@ -18598,37 +18570,37 @@
       <c r="AB283" s="43"/>
       <c r="AC283" s="43"/>
     </row>
-    <row r="284" spans="17:29" s="21" customFormat="1">
+    <row r="284" spans="10:29" s="21" customFormat="1">
       <c r="Q284" s="23"/>
       <c r="R284" s="23"/>
       <c r="S284" s="23"/>
       <c r="T284" s="23"/>
       <c r="U284" s="23"/>
       <c r="V284" s="23"/>
-      <c r="W284" s="43"/>
+      <c r="W284" s="23"/>
       <c r="X284" s="43"/>
       <c r="Y284" s="43"/>
-      <c r="Z284" s="43"/>
-      <c r="AA284" s="43"/>
-      <c r="AB284" s="43"/>
-      <c r="AC284" s="43"/>
-    </row>
-    <row r="285" spans="17:29" s="21" customFormat="1">
+      <c r="Z284" s="23"/>
+      <c r="AA284" s="23"/>
+      <c r="AB284" s="23"/>
+      <c r="AC284" s="23"/>
+    </row>
+    <row r="285" spans="10:29" s="21" customFormat="1">
       <c r="Q285" s="23"/>
       <c r="R285" s="23"/>
       <c r="S285" s="23"/>
       <c r="T285" s="23"/>
       <c r="U285" s="23"/>
       <c r="V285" s="23"/>
-      <c r="W285" s="23"/>
+      <c r="W285" s="43"/>
       <c r="X285" s="43"/>
       <c r="Y285" s="43"/>
-      <c r="Z285" s="23"/>
-      <c r="AA285" s="23"/>
-      <c r="AB285" s="23"/>
-      <c r="AC285" s="23"/>
-    </row>
-    <row r="286" spans="17:29" s="21" customFormat="1">
+      <c r="Z285" s="43"/>
+      <c r="AA285" s="43"/>
+      <c r="AB285" s="43"/>
+      <c r="AC285" s="43"/>
+    </row>
+    <row r="286" spans="10:29" s="21" customFormat="1">
       <c r="Q286" s="23"/>
       <c r="R286" s="23"/>
       <c r="S286" s="23"/>
@@ -18643,7 +18615,7 @@
       <c r="AB286" s="43"/>
       <c r="AC286" s="43"/>
     </row>
-    <row r="287" spans="17:29" s="21" customFormat="1">
+    <row r="287" spans="10:29" s="21" customFormat="1">
       <c r="Q287" s="23"/>
       <c r="R287" s="23"/>
       <c r="S287" s="23"/>
@@ -18658,14 +18630,35 @@
       <c r="AB287" s="43"/>
       <c r="AC287" s="43"/>
     </row>
-    <row r="288" spans="17:29" s="21" customFormat="1">
+    <row r="288" spans="10:29" s="21" customFormat="1">
+      <c r="J288" s="21">
+        <v>8</v>
+      </c>
+      <c r="K288" s="21">
+        <v>11</v>
+      </c>
+      <c r="L288" s="21">
+        <v>12</v>
+      </c>
+      <c r="M288" s="21">
+        <v>14</v>
+      </c>
+      <c r="N288" s="21">
+        <v>15</v>
+      </c>
+      <c r="O288" s="21">
+        <v>16</v>
+      </c>
+      <c r="P288" s="21">
+        <v>17</v>
+      </c>
       <c r="Q288" s="23"/>
       <c r="R288" s="23"/>
       <c r="S288" s="23"/>
       <c r="T288" s="23"/>
       <c r="U288" s="23"/>
       <c r="V288" s="23"/>
-      <c r="W288" s="43"/>
+      <c r="W288" s="23"/>
       <c r="X288" s="43"/>
       <c r="Y288" s="43"/>
       <c r="Z288" s="43"/>
@@ -18673,35 +18666,14 @@
       <c r="AB288" s="43"/>
       <c r="AC288" s="43"/>
     </row>
-    <row r="289" spans="10:29" s="21" customFormat="1">
-      <c r="J289" s="21">
-        <v>8</v>
-      </c>
-      <c r="K289" s="21">
-        <v>11</v>
-      </c>
-      <c r="L289" s="21">
-        <v>12</v>
-      </c>
-      <c r="M289" s="21">
-        <v>14</v>
-      </c>
-      <c r="N289" s="21">
-        <v>15</v>
-      </c>
-      <c r="O289" s="21">
-        <v>16</v>
-      </c>
-      <c r="P289" s="21">
-        <v>17</v>
-      </c>
-      <c r="Q289" s="23"/>
-      <c r="R289" s="23"/>
-      <c r="S289" s="23"/>
-      <c r="T289" s="23"/>
-      <c r="U289" s="23"/>
-      <c r="V289" s="23"/>
-      <c r="W289" s="23"/>
+    <row r="289" spans="17:29" s="21" customFormat="1">
+      <c r="Q289" s="43"/>
+      <c r="R289" s="43"/>
+      <c r="S289" s="43"/>
+      <c r="T289" s="43"/>
+      <c r="U289" s="43"/>
+      <c r="V289" s="43"/>
+      <c r="W289" s="43"/>
       <c r="X289" s="43"/>
       <c r="Y289" s="43"/>
       <c r="Z289" s="43"/>
@@ -18709,37 +18681,37 @@
       <c r="AB289" s="43"/>
       <c r="AC289" s="43"/>
     </row>
-    <row r="290" spans="10:29" s="21" customFormat="1">
-      <c r="Q290" s="43"/>
-      <c r="R290" s="43"/>
-      <c r="S290" s="43"/>
-      <c r="T290" s="43"/>
-      <c r="U290" s="43"/>
-      <c r="V290" s="43"/>
-      <c r="W290" s="43"/>
+    <row r="290" spans="17:29" s="21" customFormat="1">
+      <c r="Q290" s="23"/>
+      <c r="R290" s="23"/>
+      <c r="S290" s="23"/>
+      <c r="T290" s="23"/>
+      <c r="U290" s="23"/>
+      <c r="V290" s="23"/>
+      <c r="W290" s="23"/>
       <c r="X290" s="43"/>
       <c r="Y290" s="43"/>
-      <c r="Z290" s="43"/>
-      <c r="AA290" s="43"/>
-      <c r="AB290" s="43"/>
-      <c r="AC290" s="43"/>
-    </row>
-    <row r="291" spans="10:29" s="21" customFormat="1">
+      <c r="Z290" s="23"/>
+      <c r="AA290" s="23"/>
+      <c r="AB290" s="23"/>
+      <c r="AC290" s="23"/>
+    </row>
+    <row r="291" spans="17:29" s="21" customFormat="1">
       <c r="Q291" s="23"/>
       <c r="R291" s="23"/>
       <c r="S291" s="23"/>
       <c r="T291" s="23"/>
       <c r="U291" s="23"/>
       <c r="V291" s="23"/>
-      <c r="W291" s="23"/>
+      <c r="W291" s="43"/>
       <c r="X291" s="43"/>
       <c r="Y291" s="43"/>
-      <c r="Z291" s="23"/>
-      <c r="AA291" s="23"/>
-      <c r="AB291" s="23"/>
-      <c r="AC291" s="23"/>
-    </row>
-    <row r="292" spans="10:29" s="21" customFormat="1">
+      <c r="Z291" s="43"/>
+      <c r="AA291" s="43"/>
+      <c r="AB291" s="43"/>
+      <c r="AC291" s="43"/>
+    </row>
+    <row r="292" spans="17:29" s="21" customFormat="1">
       <c r="Q292" s="23"/>
       <c r="R292" s="23"/>
       <c r="S292" s="23"/>
@@ -18754,44 +18726,44 @@
       <c r="AB292" s="43"/>
       <c r="AC292" s="43"/>
     </row>
-    <row r="293" spans="10:29" s="21" customFormat="1">
+    <row r="293" spans="17:29" s="21" customFormat="1">
       <c r="Q293" s="23"/>
       <c r="R293" s="23"/>
       <c r="S293" s="23"/>
       <c r="T293" s="23"/>
       <c r="U293" s="23"/>
       <c r="V293" s="23"/>
-      <c r="W293" s="43"/>
+      <c r="W293" s="23"/>
       <c r="X293" s="43"/>
       <c r="Y293" s="43"/>
-      <c r="Z293" s="43"/>
-      <c r="AA293" s="43"/>
-      <c r="AB293" s="43"/>
-      <c r="AC293" s="43"/>
-    </row>
-    <row r="294" spans="10:29" s="21" customFormat="1">
+      <c r="Z293" s="23"/>
+      <c r="AA293" s="23"/>
+      <c r="AB293" s="23"/>
+      <c r="AC293" s="23"/>
+    </row>
+    <row r="294" spans="17:29" s="21" customFormat="1">
       <c r="Q294" s="23"/>
       <c r="R294" s="23"/>
       <c r="S294" s="23"/>
       <c r="T294" s="23"/>
       <c r="U294" s="23"/>
       <c r="V294" s="23"/>
-      <c r="W294" s="23"/>
+      <c r="W294" s="43"/>
       <c r="X294" s="43"/>
       <c r="Y294" s="43"/>
-      <c r="Z294" s="23"/>
-      <c r="AA294" s="23"/>
-      <c r="AB294" s="23"/>
-      <c r="AC294" s="23"/>
-    </row>
-    <row r="295" spans="10:29" s="21" customFormat="1">
+      <c r="Z294" s="43"/>
+      <c r="AA294" s="43"/>
+      <c r="AB294" s="43"/>
+      <c r="AC294" s="43"/>
+    </row>
+    <row r="295" spans="17:29" s="21" customFormat="1">
       <c r="Q295" s="23"/>
       <c r="R295" s="23"/>
       <c r="S295" s="23"/>
       <c r="T295" s="23"/>
       <c r="U295" s="23"/>
       <c r="V295" s="23"/>
-      <c r="W295" s="43"/>
+      <c r="W295" s="23"/>
       <c r="X295" s="43"/>
       <c r="Y295" s="43"/>
       <c r="Z295" s="43"/>
@@ -18799,14 +18771,14 @@
       <c r="AB295" s="43"/>
       <c r="AC295" s="43"/>
     </row>
-    <row r="296" spans="10:29" s="21" customFormat="1">
+    <row r="296" spans="17:29" s="21" customFormat="1">
       <c r="Q296" s="23"/>
       <c r="R296" s="23"/>
       <c r="S296" s="23"/>
       <c r="T296" s="23"/>
       <c r="U296" s="23"/>
       <c r="V296" s="23"/>
-      <c r="W296" s="23"/>
+      <c r="W296" s="43"/>
       <c r="X296" s="43"/>
       <c r="Y296" s="43"/>
       <c r="Z296" s="43"/>
@@ -18814,14 +18786,14 @@
       <c r="AB296" s="43"/>
       <c r="AC296" s="43"/>
     </row>
-    <row r="297" spans="10:29" s="21" customFormat="1">
+    <row r="297" spans="17:29" s="21" customFormat="1">
       <c r="Q297" s="23"/>
       <c r="R297" s="23"/>
       <c r="S297" s="23"/>
       <c r="T297" s="23"/>
       <c r="U297" s="23"/>
       <c r="V297" s="23"/>
-      <c r="W297" s="43"/>
+      <c r="W297" s="23"/>
       <c r="X297" s="43"/>
       <c r="Y297" s="43"/>
       <c r="Z297" s="43"/>
@@ -18829,14 +18801,14 @@
       <c r="AB297" s="43"/>
       <c r="AC297" s="43"/>
     </row>
-    <row r="298" spans="10:29" s="21" customFormat="1">
+    <row r="298" spans="17:29" s="21" customFormat="1">
       <c r="Q298" s="23"/>
       <c r="R298" s="23"/>
       <c r="S298" s="23"/>
       <c r="T298" s="23"/>
       <c r="U298" s="23"/>
       <c r="V298" s="23"/>
-      <c r="W298" s="23"/>
+      <c r="W298" s="43"/>
       <c r="X298" s="43"/>
       <c r="Y298" s="43"/>
       <c r="Z298" s="43"/>
@@ -18844,7 +18816,7 @@
       <c r="AB298" s="43"/>
       <c r="AC298" s="43"/>
     </row>
-    <row r="299" spans="10:29" s="21" customFormat="1">
+    <row r="299" spans="17:29" s="21" customFormat="1">
       <c r="Q299" s="23"/>
       <c r="R299" s="23"/>
       <c r="S299" s="23"/>
@@ -18859,7 +18831,7 @@
       <c r="AB299" s="43"/>
       <c r="AC299" s="43"/>
     </row>
-    <row r="300" spans="10:29" s="21" customFormat="1">
+    <row r="300" spans="17:29" s="21" customFormat="1">
       <c r="Q300" s="23"/>
       <c r="R300" s="23"/>
       <c r="S300" s="23"/>
@@ -18874,14 +18846,14 @@
       <c r="AB300" s="43"/>
       <c r="AC300" s="43"/>
     </row>
-    <row r="301" spans="10:29" s="21" customFormat="1">
+    <row r="301" spans="17:29" s="21" customFormat="1">
       <c r="Q301" s="23"/>
       <c r="R301" s="23"/>
       <c r="S301" s="23"/>
       <c r="T301" s="23"/>
       <c r="U301" s="23"/>
       <c r="V301" s="23"/>
-      <c r="W301" s="43"/>
+      <c r="W301" s="23"/>
       <c r="X301" s="43"/>
       <c r="Y301" s="43"/>
       <c r="Z301" s="43"/>
@@ -18889,14 +18861,14 @@
       <c r="AB301" s="43"/>
       <c r="AC301" s="43"/>
     </row>
-    <row r="302" spans="10:29" s="21" customFormat="1">
-      <c r="Q302" s="23"/>
-      <c r="R302" s="23"/>
-      <c r="S302" s="23"/>
-      <c r="T302" s="23"/>
-      <c r="U302" s="23"/>
-      <c r="V302" s="23"/>
-      <c r="W302" s="23"/>
+    <row r="302" spans="17:29" s="21" customFormat="1">
+      <c r="Q302" s="43"/>
+      <c r="R302" s="43"/>
+      <c r="S302" s="43"/>
+      <c r="T302" s="43"/>
+      <c r="U302" s="43"/>
+      <c r="V302" s="43"/>
+      <c r="W302" s="43"/>
       <c r="X302" s="43"/>
       <c r="Y302" s="43"/>
       <c r="Z302" s="43"/>
@@ -18904,13 +18876,13 @@
       <c r="AB302" s="43"/>
       <c r="AC302" s="43"/>
     </row>
-    <row r="303" spans="10:29" s="21" customFormat="1">
-      <c r="Q303" s="43"/>
-      <c r="R303" s="43"/>
-      <c r="S303" s="43"/>
-      <c r="T303" s="43"/>
-      <c r="U303" s="43"/>
-      <c r="V303" s="43"/>
+    <row r="303" spans="17:29" s="21" customFormat="1">
+      <c r="Q303" s="23"/>
+      <c r="R303" s="23"/>
+      <c r="S303" s="23"/>
+      <c r="T303" s="23"/>
+      <c r="U303" s="23"/>
+      <c r="V303" s="23"/>
       <c r="W303" s="43"/>
       <c r="X303" s="43"/>
       <c r="Y303" s="43"/>
@@ -18919,20 +18891,20 @@
       <c r="AB303" s="43"/>
       <c r="AC303" s="43"/>
     </row>
-    <row r="304" spans="10:29" s="21" customFormat="1">
+    <row r="304" spans="17:29" s="21" customFormat="1">
       <c r="Q304" s="23"/>
       <c r="R304" s="23"/>
       <c r="S304" s="23"/>
       <c r="T304" s="23"/>
       <c r="U304" s="23"/>
       <c r="V304" s="23"/>
-      <c r="W304" s="43"/>
+      <c r="W304" s="23"/>
       <c r="X304" s="43"/>
       <c r="Y304" s="43"/>
-      <c r="Z304" s="43"/>
-      <c r="AA304" s="43"/>
-      <c r="AB304" s="43"/>
-      <c r="AC304" s="43"/>
+      <c r="Z304" s="23"/>
+      <c r="AA304" s="23"/>
+      <c r="AB304" s="23"/>
+      <c r="AC304" s="23"/>
     </row>
     <row r="305" spans="17:29" s="21" customFormat="1">
       <c r="Q305" s="23"/>
@@ -18941,13 +18913,13 @@
       <c r="T305" s="23"/>
       <c r="U305" s="23"/>
       <c r="V305" s="23"/>
-      <c r="W305" s="23"/>
+      <c r="W305" s="43"/>
       <c r="X305" s="43"/>
       <c r="Y305" s="43"/>
-      <c r="Z305" s="23"/>
-      <c r="AA305" s="23"/>
-      <c r="AB305" s="23"/>
-      <c r="AC305" s="23"/>
+      <c r="Z305" s="43"/>
+      <c r="AA305" s="43"/>
+      <c r="AB305" s="43"/>
+      <c r="AC305" s="43"/>
     </row>
     <row r="306" spans="17:29" s="21" customFormat="1">
       <c r="Q306" s="23"/>
@@ -18956,13 +18928,13 @@
       <c r="T306" s="23"/>
       <c r="U306" s="23"/>
       <c r="V306" s="23"/>
-      <c r="W306" s="43"/>
+      <c r="W306" s="23"/>
       <c r="X306" s="43"/>
       <c r="Y306" s="43"/>
-      <c r="Z306" s="43"/>
-      <c r="AA306" s="43"/>
-      <c r="AB306" s="43"/>
-      <c r="AC306" s="43"/>
+      <c r="Z306" s="23"/>
+      <c r="AA306" s="23"/>
+      <c r="AB306" s="23"/>
+      <c r="AC306" s="23"/>
     </row>
     <row r="307" spans="17:29" s="21" customFormat="1">
       <c r="Q307" s="23"/>
@@ -18971,13 +18943,13 @@
       <c r="T307" s="23"/>
       <c r="U307" s="23"/>
       <c r="V307" s="23"/>
-      <c r="W307" s="23"/>
+      <c r="W307" s="43"/>
       <c r="X307" s="43"/>
       <c r="Y307" s="43"/>
-      <c r="Z307" s="23"/>
-      <c r="AA307" s="23"/>
-      <c r="AB307" s="23"/>
-      <c r="AC307" s="23"/>
+      <c r="Z307" s="43"/>
+      <c r="AA307" s="43"/>
+      <c r="AB307" s="43"/>
+      <c r="AC307" s="43"/>
     </row>
     <row r="308" spans="17:29" s="21" customFormat="1">
       <c r="Q308" s="23"/>
@@ -18986,7 +18958,7 @@
       <c r="T308" s="23"/>
       <c r="U308" s="23"/>
       <c r="V308" s="23"/>
-      <c r="W308" s="43"/>
+      <c r="W308" s="23"/>
       <c r="X308" s="43"/>
       <c r="Y308" s="43"/>
       <c r="Z308" s="43"/>
@@ -19001,7 +18973,7 @@
       <c r="T309" s="23"/>
       <c r="U309" s="23"/>
       <c r="V309" s="23"/>
-      <c r="W309" s="23"/>
+      <c r="W309" s="43"/>
       <c r="X309" s="43"/>
       <c r="Y309" s="43"/>
       <c r="Z309" s="43"/>
@@ -19016,7 +18988,7 @@
       <c r="T310" s="23"/>
       <c r="U310" s="23"/>
       <c r="V310" s="23"/>
-      <c r="W310" s="43"/>
+      <c r="W310" s="23"/>
       <c r="X310" s="43"/>
       <c r="Y310" s="43"/>
       <c r="Z310" s="43"/>
@@ -19025,13 +18997,13 @@
       <c r="AC310" s="43"/>
     </row>
     <row r="311" spans="17:29" s="21" customFormat="1">
-      <c r="Q311" s="23"/>
-      <c r="R311" s="23"/>
-      <c r="S311" s="23"/>
-      <c r="T311" s="23"/>
-      <c r="U311" s="23"/>
-      <c r="V311" s="23"/>
-      <c r="W311" s="23"/>
+      <c r="Q311" s="43"/>
+      <c r="R311" s="43"/>
+      <c r="S311" s="43"/>
+      <c r="T311" s="43"/>
+      <c r="U311" s="43"/>
+      <c r="V311" s="43"/>
+      <c r="W311" s="43"/>
       <c r="X311" s="43"/>
       <c r="Y311" s="43"/>
       <c r="Z311" s="43"/>
@@ -19040,13 +19012,13 @@
       <c r="AC311" s="43"/>
     </row>
     <row r="312" spans="17:29" s="21" customFormat="1">
-      <c r="Q312" s="43"/>
-      <c r="R312" s="43"/>
-      <c r="S312" s="43"/>
-      <c r="T312" s="43"/>
-      <c r="U312" s="43"/>
-      <c r="V312" s="43"/>
-      <c r="W312" s="43"/>
+      <c r="Q312" s="23"/>
+      <c r="R312" s="23"/>
+      <c r="S312" s="23"/>
+      <c r="T312" s="23"/>
+      <c r="U312" s="23"/>
+      <c r="V312" s="23"/>
+      <c r="W312" s="23"/>
       <c r="X312" s="43"/>
       <c r="Y312" s="43"/>
       <c r="Z312" s="43"/>
@@ -19061,7 +19033,7 @@
       <c r="T313" s="23"/>
       <c r="U313" s="23"/>
       <c r="V313" s="23"/>
-      <c r="W313" s="23"/>
+      <c r="W313" s="43"/>
       <c r="X313" s="43"/>
       <c r="Y313" s="43"/>
       <c r="Z313" s="43"/>
@@ -19121,7 +19093,7 @@
       <c r="T317" s="23"/>
       <c r="U317" s="23"/>
       <c r="V317" s="23"/>
-      <c r="W317" s="43"/>
+      <c r="W317" s="23"/>
       <c r="X317" s="43"/>
       <c r="Y317" s="43"/>
       <c r="Z317" s="43"/>
@@ -19130,13 +19102,13 @@
       <c r="AC317" s="43"/>
     </row>
     <row r="318" spans="17:29" s="21" customFormat="1">
-      <c r="Q318" s="23"/>
-      <c r="R318" s="23"/>
-      <c r="S318" s="23"/>
-      <c r="T318" s="23"/>
-      <c r="U318" s="23"/>
-      <c r="V318" s="23"/>
-      <c r="W318" s="23"/>
+      <c r="Q318" s="43"/>
+      <c r="R318" s="43"/>
+      <c r="S318" s="43"/>
+      <c r="T318" s="43"/>
+      <c r="U318" s="43"/>
+      <c r="V318" s="43"/>
+      <c r="W318" s="43"/>
       <c r="X318" s="43"/>
       <c r="Y318" s="43"/>
       <c r="Z318" s="43"/>
@@ -19145,12 +19117,12 @@
       <c r="AC318" s="43"/>
     </row>
     <row r="319" spans="17:29" s="21" customFormat="1">
-      <c r="Q319" s="43"/>
-      <c r="R319" s="43"/>
-      <c r="S319" s="43"/>
-      <c r="T319" s="43"/>
-      <c r="U319" s="43"/>
-      <c r="V319" s="43"/>
+      <c r="Q319" s="23"/>
+      <c r="R319" s="23"/>
+      <c r="S319" s="23"/>
+      <c r="T319" s="23"/>
+      <c r="U319" s="23"/>
+      <c r="V319" s="23"/>
       <c r="W319" s="43"/>
       <c r="X319" s="43"/>
       <c r="Y319" s="43"/>
@@ -19166,13 +19138,13 @@
       <c r="T320" s="23"/>
       <c r="U320" s="23"/>
       <c r="V320" s="23"/>
-      <c r="W320" s="43"/>
+      <c r="W320" s="23"/>
       <c r="X320" s="43"/>
       <c r="Y320" s="43"/>
-      <c r="Z320" s="43"/>
-      <c r="AA320" s="43"/>
-      <c r="AB320" s="43"/>
-      <c r="AC320" s="43"/>
+      <c r="Z320" s="23"/>
+      <c r="AA320" s="23"/>
+      <c r="AB320" s="23"/>
+      <c r="AC320" s="23"/>
     </row>
     <row r="321" spans="17:30" s="21" customFormat="1">
       <c r="Q321" s="23"/>
@@ -19181,13 +19153,13 @@
       <c r="T321" s="23"/>
       <c r="U321" s="23"/>
       <c r="V321" s="23"/>
-      <c r="W321" s="23"/>
+      <c r="W321" s="43"/>
       <c r="X321" s="43"/>
       <c r="Y321" s="43"/>
-      <c r="Z321" s="23"/>
-      <c r="AA321" s="23"/>
-      <c r="AB321" s="23"/>
-      <c r="AC321" s="23"/>
+      <c r="Z321" s="43"/>
+      <c r="AA321" s="43"/>
+      <c r="AB321" s="43"/>
+      <c r="AC321" s="43"/>
     </row>
     <row r="322" spans="17:30" s="21" customFormat="1">
       <c r="Q322" s="23"/>
@@ -19196,13 +19168,13 @@
       <c r="T322" s="23"/>
       <c r="U322" s="23"/>
       <c r="V322" s="23"/>
-      <c r="W322" s="43"/>
+      <c r="W322" s="23"/>
       <c r="X322" s="43"/>
       <c r="Y322" s="43"/>
-      <c r="Z322" s="43"/>
-      <c r="AA322" s="43"/>
-      <c r="AB322" s="43"/>
-      <c r="AC322" s="43"/>
+      <c r="Z322" s="23"/>
+      <c r="AA322" s="23"/>
+      <c r="AB322" s="23"/>
+      <c r="AC322" s="23"/>
     </row>
     <row r="323" spans="17:30" s="21" customFormat="1">
       <c r="Q323" s="23"/>
@@ -19211,13 +19183,13 @@
       <c r="T323" s="23"/>
       <c r="U323" s="23"/>
       <c r="V323" s="23"/>
-      <c r="W323" s="23"/>
+      <c r="W323" s="43"/>
       <c r="X323" s="43"/>
       <c r="Y323" s="43"/>
-      <c r="Z323" s="23"/>
-      <c r="AA323" s="23"/>
-      <c r="AB323" s="23"/>
-      <c r="AC323" s="23"/>
+      <c r="Z323" s="43"/>
+      <c r="AA323" s="43"/>
+      <c r="AB323" s="43"/>
+      <c r="AC323" s="43"/>
     </row>
     <row r="324" spans="17:30" s="21" customFormat="1">
       <c r="Q324" s="23"/>
@@ -19226,7 +19198,7 @@
       <c r="T324" s="23"/>
       <c r="U324" s="23"/>
       <c r="V324" s="23"/>
-      <c r="W324" s="43"/>
+      <c r="W324" s="23"/>
       <c r="X324" s="43"/>
       <c r="Y324" s="43"/>
       <c r="Z324" s="43"/>
@@ -19241,7 +19213,7 @@
       <c r="T325" s="23"/>
       <c r="U325" s="23"/>
       <c r="V325" s="23"/>
-      <c r="W325" s="23"/>
+      <c r="W325" s="43"/>
       <c r="X325" s="43"/>
       <c r="Y325" s="43"/>
       <c r="Z325" s="43"/>
@@ -19256,13 +19228,13 @@
       <c r="T326" s="23"/>
       <c r="U326" s="23"/>
       <c r="V326" s="23"/>
-      <c r="W326" s="43"/>
+      <c r="W326" s="23"/>
       <c r="X326" s="43"/>
       <c r="Y326" s="43"/>
-      <c r="Z326" s="43"/>
-      <c r="AA326" s="43"/>
-      <c r="AB326" s="43"/>
-      <c r="AC326" s="43"/>
+      <c r="Z326" s="23"/>
+      <c r="AA326" s="23"/>
+      <c r="AB326" s="23"/>
+      <c r="AC326" s="23"/>
     </row>
     <row r="327" spans="17:30" s="21" customFormat="1">
       <c r="Q327" s="23"/>
@@ -19271,13 +19243,13 @@
       <c r="T327" s="23"/>
       <c r="U327" s="23"/>
       <c r="V327" s="23"/>
-      <c r="W327" s="23"/>
+      <c r="W327" s="43"/>
       <c r="X327" s="43"/>
       <c r="Y327" s="43"/>
-      <c r="Z327" s="23"/>
-      <c r="AA327" s="23"/>
-      <c r="AB327" s="23"/>
-      <c r="AC327" s="23"/>
+      <c r="Z327" s="43"/>
+      <c r="AA327" s="43"/>
+      <c r="AB327" s="43"/>
+      <c r="AC327" s="43"/>
     </row>
     <row r="328" spans="17:30" s="21" customFormat="1">
       <c r="Q328" s="23"/>
@@ -19286,13 +19258,13 @@
       <c r="T328" s="23"/>
       <c r="U328" s="23"/>
       <c r="V328" s="23"/>
-      <c r="W328" s="43"/>
+      <c r="W328" s="23"/>
       <c r="X328" s="43"/>
       <c r="Y328" s="43"/>
-      <c r="Z328" s="43"/>
-      <c r="AA328" s="43"/>
-      <c r="AB328" s="43"/>
-      <c r="AC328" s="43"/>
+      <c r="Z328" s="23"/>
+      <c r="AA328" s="23"/>
+      <c r="AB328" s="23"/>
+      <c r="AC328" s="23"/>
     </row>
     <row r="329" spans="17:30" s="21" customFormat="1">
       <c r="Q329" s="23"/>
@@ -19301,13 +19273,13 @@
       <c r="T329" s="23"/>
       <c r="U329" s="23"/>
       <c r="V329" s="23"/>
-      <c r="W329" s="23"/>
+      <c r="W329" s="43"/>
       <c r="X329" s="43"/>
       <c r="Y329" s="43"/>
-      <c r="Z329" s="23"/>
-      <c r="AA329" s="23"/>
-      <c r="AB329" s="23"/>
-      <c r="AC329" s="23"/>
+      <c r="Z329" s="43"/>
+      <c r="AA329" s="43"/>
+      <c r="AB329" s="43"/>
+      <c r="AC329" s="43"/>
     </row>
     <row r="330" spans="17:30" s="21" customFormat="1">
       <c r="Q330" s="23"/>
@@ -19331,7 +19303,7 @@
       <c r="T331" s="23"/>
       <c r="U331" s="23"/>
       <c r="V331" s="23"/>
-      <c r="W331" s="43"/>
+      <c r="W331" s="23"/>
       <c r="X331" s="43"/>
       <c r="Y331" s="43"/>
       <c r="Z331" s="43"/>
@@ -19346,7 +19318,7 @@
       <c r="T332" s="23"/>
       <c r="U332" s="23"/>
       <c r="V332" s="23"/>
-      <c r="W332" s="23"/>
+      <c r="W332" s="43"/>
       <c r="X332" s="43"/>
       <c r="Y332" s="43"/>
       <c r="Z332" s="43"/>
@@ -19376,13 +19348,13 @@
       <c r="T334" s="23"/>
       <c r="U334" s="23"/>
       <c r="V334" s="23"/>
-      <c r="W334" s="43"/>
+      <c r="W334" s="23"/>
       <c r="X334" s="43"/>
       <c r="Y334" s="43"/>
-      <c r="Z334" s="43"/>
-      <c r="AA334" s="43"/>
-      <c r="AB334" s="43"/>
-      <c r="AC334" s="43"/>
+      <c r="Z334" s="23"/>
+      <c r="AA334" s="23"/>
+      <c r="AB334" s="23"/>
+      <c r="AC334" s="23"/>
     </row>
     <row r="335" spans="17:30" s="21" customFormat="1">
       <c r="Q335" s="23"/>
@@ -19393,42 +19365,43 @@
       <c r="V335" s="23"/>
       <c r="W335" s="23"/>
       <c r="X335" s="43"/>
-      <c r="Y335" s="43"/>
+      <c r="Y335" s="23"/>
       <c r="Z335" s="23"/>
       <c r="AA335" s="23"/>
       <c r="AB335" s="23"/>
       <c r="AC335" s="23"/>
+      <c r="AD335" s="22"/>
     </row>
     <row r="336" spans="17:30" s="21" customFormat="1">
-      <c r="Q336" s="23"/>
-      <c r="R336" s="23"/>
-      <c r="S336" s="23"/>
-      <c r="T336" s="23"/>
-      <c r="U336" s="23"/>
-      <c r="V336" s="23"/>
-      <c r="W336" s="23"/>
+      <c r="Q336" s="43"/>
+      <c r="R336" s="43"/>
+      <c r="S336" s="43"/>
+      <c r="T336" s="43"/>
+      <c r="U336" s="43"/>
+      <c r="V336" s="43"/>
+      <c r="W336" s="43"/>
       <c r="X336" s="43"/>
-      <c r="Y336" s="23"/>
-      <c r="Z336" s="23"/>
-      <c r="AA336" s="23"/>
-      <c r="AB336" s="23"/>
-      <c r="AC336" s="23"/>
-      <c r="AD336" s="22"/>
+      <c r="Y336" s="43"/>
+      <c r="Z336" s="43"/>
+      <c r="AA336" s="43"/>
+      <c r="AB336" s="43"/>
+      <c r="AC336" s="43"/>
     </row>
     <row r="337" spans="17:30" s="21" customFormat="1">
-      <c r="Q337" s="43"/>
-      <c r="R337" s="43"/>
-      <c r="S337" s="43"/>
-      <c r="T337" s="43"/>
-      <c r="U337" s="43"/>
-      <c r="V337" s="43"/>
-      <c r="W337" s="43"/>
+      <c r="Q337" s="23"/>
+      <c r="R337" s="23"/>
+      <c r="S337" s="23"/>
+      <c r="T337" s="23"/>
+      <c r="U337" s="23"/>
+      <c r="V337" s="23"/>
+      <c r="W337" s="23"/>
       <c r="X337" s="43"/>
-      <c r="Y337" s="43"/>
-      <c r="Z337" s="43"/>
-      <c r="AA337" s="43"/>
-      <c r="AB337" s="43"/>
-      <c r="AC337" s="43"/>
+      <c r="Y337" s="23"/>
+      <c r="Z337" s="23"/>
+      <c r="AA337" s="23"/>
+      <c r="AB337" s="23"/>
+      <c r="AC337" s="23"/>
+      <c r="AD337" s="22"/>
     </row>
     <row r="338" spans="17:30" s="21" customFormat="1">
       <c r="Q338" s="23"/>
@@ -19453,14 +19426,13 @@
       <c r="T339" s="23"/>
       <c r="U339" s="23"/>
       <c r="V339" s="23"/>
-      <c r="W339" s="23"/>
+      <c r="W339" s="43"/>
       <c r="X339" s="43"/>
-      <c r="Y339" s="23"/>
-      <c r="Z339" s="23"/>
-      <c r="AA339" s="23"/>
-      <c r="AB339" s="23"/>
-      <c r="AC339" s="23"/>
-      <c r="AD339" s="22"/>
+      <c r="Y339" s="43"/>
+      <c r="Z339" s="43"/>
+      <c r="AA339" s="43"/>
+      <c r="AB339" s="43"/>
+      <c r="AC339" s="43"/>
     </row>
     <row r="340" spans="17:30" s="21" customFormat="1">
       <c r="Q340" s="23"/>
@@ -19469,7 +19441,7 @@
       <c r="T340" s="23"/>
       <c r="U340" s="23"/>
       <c r="V340" s="23"/>
-      <c r="W340" s="43"/>
+      <c r="W340" s="23"/>
       <c r="X340" s="43"/>
       <c r="Y340" s="43"/>
       <c r="Z340" s="43"/>
@@ -19478,13 +19450,13 @@
       <c r="AC340" s="43"/>
     </row>
     <row r="341" spans="17:30" s="21" customFormat="1">
-      <c r="Q341" s="23"/>
-      <c r="R341" s="23"/>
-      <c r="S341" s="23"/>
-      <c r="T341" s="23"/>
-      <c r="U341" s="23"/>
-      <c r="V341" s="23"/>
-      <c r="W341" s="23"/>
+      <c r="Q341" s="43"/>
+      <c r="R341" s="43"/>
+      <c r="S341" s="43"/>
+      <c r="T341" s="43"/>
+      <c r="U341" s="43"/>
+      <c r="V341" s="43"/>
+      <c r="W341" s="43"/>
       <c r="X341" s="43"/>
       <c r="Y341" s="43"/>
       <c r="Z341" s="43"/>
@@ -19493,12 +19465,12 @@
       <c r="AC341" s="43"/>
     </row>
     <row r="342" spans="17:30" s="21" customFormat="1">
-      <c r="Q342" s="43"/>
-      <c r="R342" s="43"/>
-      <c r="S342" s="43"/>
-      <c r="T342" s="43"/>
-      <c r="U342" s="43"/>
-      <c r="V342" s="43"/>
+      <c r="Q342" s="23"/>
+      <c r="R342" s="23"/>
+      <c r="S342" s="23"/>
+      <c r="T342" s="23"/>
+      <c r="U342" s="23"/>
+      <c r="V342" s="23"/>
       <c r="W342" s="43"/>
       <c r="X342" s="43"/>
       <c r="Y342" s="43"/>
@@ -19514,44 +19486,44 @@
       <c r="T343" s="23"/>
       <c r="U343" s="23"/>
       <c r="V343" s="23"/>
-      <c r="W343" s="43"/>
+      <c r="W343" s="23"/>
       <c r="X343" s="43"/>
-      <c r="Y343" s="43"/>
-      <c r="Z343" s="43"/>
-      <c r="AA343" s="43"/>
-      <c r="AB343" s="43"/>
-      <c r="AC343" s="43"/>
+      <c r="Y343" s="23"/>
+      <c r="Z343" s="23"/>
+      <c r="AA343" s="23"/>
+      <c r="AB343" s="23"/>
+      <c r="AC343" s="23"/>
+      <c r="AD343" s="22"/>
     </row>
     <row r="344" spans="17:30" s="21" customFormat="1">
-      <c r="Q344" s="23"/>
-      <c r="R344" s="23"/>
-      <c r="S344" s="23"/>
-      <c r="T344" s="23"/>
-      <c r="U344" s="23"/>
-      <c r="V344" s="23"/>
-      <c r="W344" s="23"/>
+      <c r="Q344" s="43"/>
+      <c r="R344" s="43"/>
+      <c r="S344" s="43"/>
+      <c r="T344" s="43"/>
+      <c r="U344" s="43"/>
+      <c r="V344" s="43"/>
+      <c r="W344" s="43"/>
       <c r="X344" s="43"/>
-      <c r="Y344" s="23"/>
-      <c r="Z344" s="23"/>
-      <c r="AA344" s="23"/>
-      <c r="AB344" s="23"/>
-      <c r="AC344" s="23"/>
-      <c r="AD344" s="22"/>
+      <c r="Y344" s="43"/>
+      <c r="Z344" s="43"/>
+      <c r="AA344" s="43"/>
+      <c r="AB344" s="43"/>
+      <c r="AC344" s="43"/>
     </row>
     <row r="345" spans="17:30" s="21" customFormat="1">
-      <c r="Q345" s="43"/>
-      <c r="R345" s="43"/>
-      <c r="S345" s="43"/>
-      <c r="T345" s="43"/>
-      <c r="U345" s="43"/>
-      <c r="V345" s="43"/>
-      <c r="W345" s="43"/>
+      <c r="Q345" s="23"/>
+      <c r="R345" s="23"/>
+      <c r="S345" s="23"/>
+      <c r="T345" s="23"/>
+      <c r="U345" s="23"/>
+      <c r="V345" s="23"/>
+      <c r="W345" s="23"/>
       <c r="X345" s="43"/>
       <c r="Y345" s="43"/>
-      <c r="Z345" s="43"/>
-      <c r="AA345" s="43"/>
-      <c r="AB345" s="43"/>
-      <c r="AC345" s="43"/>
+      <c r="Z345" s="23"/>
+      <c r="AA345" s="23"/>
+      <c r="AB345" s="23"/>
+      <c r="AC345" s="23"/>
     </row>
     <row r="346" spans="17:30" s="21" customFormat="1">
       <c r="Q346" s="23"/>
@@ -19562,11 +19534,12 @@
       <c r="V346" s="23"/>
       <c r="W346" s="23"/>
       <c r="X346" s="43"/>
-      <c r="Y346" s="43"/>
+      <c r="Y346" s="23"/>
       <c r="Z346" s="23"/>
       <c r="AA346" s="23"/>
       <c r="AB346" s="23"/>
       <c r="AC346" s="23"/>
+      <c r="AD346" s="22"/>
     </row>
     <row r="347" spans="17:30" s="21" customFormat="1">
       <c r="Q347" s="23"/>
@@ -19575,22 +19548,21 @@
       <c r="T347" s="23"/>
       <c r="U347" s="23"/>
       <c r="V347" s="23"/>
-      <c r="W347" s="23"/>
+      <c r="W347" s="43"/>
       <c r="X347" s="43"/>
-      <c r="Y347" s="23"/>
-      <c r="Z347" s="23"/>
-      <c r="AA347" s="23"/>
-      <c r="AB347" s="23"/>
-      <c r="AC347" s="23"/>
-      <c r="AD347" s="22"/>
+      <c r="Y347" s="43"/>
+      <c r="Z347" s="43"/>
+      <c r="AA347" s="43"/>
+      <c r="AB347" s="43"/>
+      <c r="AC347" s="43"/>
     </row>
     <row r="348" spans="17:30" s="21" customFormat="1">
-      <c r="Q348" s="23"/>
-      <c r="R348" s="23"/>
-      <c r="S348" s="23"/>
-      <c r="T348" s="23"/>
-      <c r="U348" s="23"/>
-      <c r="V348" s="23"/>
+      <c r="Q348" s="43"/>
+      <c r="R348" s="43"/>
+      <c r="S348" s="43"/>
+      <c r="T348" s="43"/>
+      <c r="U348" s="43"/>
+      <c r="V348" s="43"/>
       <c r="W348" s="43"/>
       <c r="X348" s="43"/>
       <c r="Y348" s="43"/>
@@ -19615,12 +19587,12 @@
       <c r="AC349" s="43"/>
     </row>
     <row r="350" spans="17:30" s="21" customFormat="1">
-      <c r="Q350" s="43"/>
-      <c r="R350" s="43"/>
-      <c r="S350" s="43"/>
-      <c r="T350" s="43"/>
-      <c r="U350" s="43"/>
-      <c r="V350" s="43"/>
+      <c r="Q350" s="23"/>
+      <c r="R350" s="23"/>
+      <c r="S350" s="23"/>
+      <c r="T350" s="23"/>
+      <c r="U350" s="23"/>
+      <c r="V350" s="23"/>
       <c r="W350" s="43"/>
       <c r="X350" s="43"/>
       <c r="Y350" s="43"/>
@@ -19651,13 +19623,13 @@
       <c r="T352" s="23"/>
       <c r="U352" s="23"/>
       <c r="V352" s="23"/>
-      <c r="W352" s="43"/>
+      <c r="W352" s="23"/>
       <c r="X352" s="43"/>
       <c r="Y352" s="43"/>
-      <c r="Z352" s="43"/>
-      <c r="AA352" s="43"/>
-      <c r="AB352" s="43"/>
-      <c r="AC352" s="43"/>
+      <c r="Z352" s="23"/>
+      <c r="AA352" s="23"/>
+      <c r="AB352" s="23"/>
+      <c r="AC352" s="23"/>
     </row>
     <row r="353" spans="17:30" s="21" customFormat="1">
       <c r="Q353" s="23"/>
@@ -19668,35 +19640,35 @@
       <c r="V353" s="23"/>
       <c r="W353" s="23"/>
       <c r="X353" s="43"/>
-      <c r="Y353" s="43"/>
+      <c r="Y353" s="23"/>
       <c r="Z353" s="23"/>
       <c r="AA353" s="23"/>
       <c r="AB353" s="23"/>
       <c r="AC353" s="23"/>
+      <c r="AD353" s="22"/>
     </row>
     <row r="354" spans="17:30" s="21" customFormat="1">
-      <c r="Q354" s="23"/>
-      <c r="R354" s="23"/>
-      <c r="S354" s="23"/>
-      <c r="T354" s="23"/>
-      <c r="U354" s="23"/>
-      <c r="V354" s="23"/>
-      <c r="W354" s="23"/>
+      <c r="Q354" s="43"/>
+      <c r="R354" s="43"/>
+      <c r="S354" s="43"/>
+      <c r="T354" s="43"/>
+      <c r="U354" s="43"/>
+      <c r="V354" s="43"/>
+      <c r="W354" s="43"/>
       <c r="X354" s="43"/>
-      <c r="Y354" s="23"/>
-      <c r="Z354" s="23"/>
-      <c r="AA354" s="23"/>
-      <c r="AB354" s="23"/>
-      <c r="AC354" s="23"/>
-      <c r="AD354" s="22"/>
+      <c r="Y354" s="43"/>
+      <c r="Z354" s="43"/>
+      <c r="AA354" s="43"/>
+      <c r="AB354" s="43"/>
+      <c r="AC354" s="43"/>
     </row>
     <row r="355" spans="17:30" s="21" customFormat="1">
-      <c r="Q355" s="43"/>
-      <c r="R355" s="43"/>
-      <c r="S355" s="43"/>
-      <c r="T355" s="43"/>
-      <c r="U355" s="43"/>
-      <c r="V355" s="43"/>
+      <c r="Q355" s="23"/>
+      <c r="R355" s="23"/>
+      <c r="S355" s="23"/>
+      <c r="T355" s="23"/>
+      <c r="U355" s="23"/>
+      <c r="V355" s="23"/>
       <c r="W355" s="43"/>
       <c r="X355" s="43"/>
       <c r="Y355" s="43"/>
@@ -19742,7 +19714,7 @@
       <c r="T358" s="23"/>
       <c r="U358" s="23"/>
       <c r="V358" s="23"/>
-      <c r="W358" s="43"/>
+      <c r="W358" s="23"/>
       <c r="X358" s="43"/>
       <c r="Y358" s="43"/>
       <c r="Z358" s="43"/>
@@ -19760,10 +19732,10 @@
       <c r="W359" s="23"/>
       <c r="X359" s="43"/>
       <c r="Y359" s="43"/>
-      <c r="Z359" s="43"/>
-      <c r="AA359" s="43"/>
-      <c r="AB359" s="43"/>
-      <c r="AC359" s="43"/>
+      <c r="Z359" s="23"/>
+      <c r="AA359" s="23"/>
+      <c r="AB359" s="23"/>
+      <c r="AC359" s="23"/>
     </row>
     <row r="360" spans="17:30" s="21" customFormat="1">
       <c r="Q360" s="23"/>
@@ -19774,11 +19746,12 @@
       <c r="V360" s="23"/>
       <c r="W360" s="23"/>
       <c r="X360" s="43"/>
-      <c r="Y360" s="43"/>
+      <c r="Y360" s="23"/>
       <c r="Z360" s="23"/>
       <c r="AA360" s="23"/>
       <c r="AB360" s="23"/>
       <c r="AC360" s="23"/>
+      <c r="AD360" s="22"/>
     </row>
     <row r="361" spans="17:30" s="21" customFormat="1">
       <c r="Q361" s="23"/>
@@ -19789,21 +19762,20 @@
       <c r="V361" s="23"/>
       <c r="W361" s="23"/>
       <c r="X361" s="43"/>
-      <c r="Y361" s="23"/>
-      <c r="Z361" s="23"/>
-      <c r="AA361" s="23"/>
-      <c r="AB361" s="23"/>
-      <c r="AC361" s="23"/>
-      <c r="AD361" s="22"/>
+      <c r="Y361" s="43"/>
+      <c r="Z361" s="43"/>
+      <c r="AA361" s="43"/>
+      <c r="AB361" s="43"/>
+      <c r="AC361" s="43"/>
     </row>
     <row r="362" spans="17:30" s="21" customFormat="1">
-      <c r="Q362" s="23"/>
-      <c r="R362" s="23"/>
-      <c r="S362" s="23"/>
-      <c r="T362" s="23"/>
-      <c r="U362" s="23"/>
-      <c r="V362" s="23"/>
-      <c r="W362" s="23"/>
+      <c r="Q362" s="43"/>
+      <c r="R362" s="43"/>
+      <c r="S362" s="43"/>
+      <c r="T362" s="43"/>
+      <c r="U362" s="43"/>
+      <c r="V362" s="43"/>
+      <c r="W362" s="43"/>
       <c r="X362" s="43"/>
       <c r="Y362" s="43"/>
       <c r="Z362" s="43"/>
@@ -19812,43 +19784,43 @@
       <c r="AC362" s="43"/>
     </row>
     <row r="363" spans="17:30" s="21" customFormat="1">
-      <c r="Q363" s="43"/>
-      <c r="R363" s="43"/>
-      <c r="S363" s="43"/>
-      <c r="T363" s="43"/>
-      <c r="U363" s="43"/>
-      <c r="V363" s="43"/>
-      <c r="W363" s="43"/>
+      <c r="Q363" s="23"/>
+      <c r="R363" s="23"/>
+      <c r="S363" s="23"/>
+      <c r="T363" s="23"/>
+      <c r="U363" s="23"/>
+      <c r="V363" s="23"/>
+      <c r="W363" s="23"/>
       <c r="X363" s="43"/>
-      <c r="Y363" s="43"/>
-      <c r="Z363" s="43"/>
-      <c r="AA363" s="43"/>
-      <c r="AB363" s="43"/>
-      <c r="AC363" s="43"/>
+      <c r="Y363" s="23"/>
+      <c r="Z363" s="23"/>
+      <c r="AA363" s="23"/>
+      <c r="AB363" s="23"/>
+      <c r="AC363" s="23"/>
+      <c r="AD363" s="22"/>
     </row>
     <row r="364" spans="17:30" s="21" customFormat="1">
-      <c r="Q364" s="23"/>
-      <c r="R364" s="23"/>
-      <c r="S364" s="23"/>
-      <c r="T364" s="23"/>
-      <c r="U364" s="23"/>
-      <c r="V364" s="23"/>
-      <c r="W364" s="23"/>
+      <c r="Q364" s="43"/>
+      <c r="R364" s="43"/>
+      <c r="S364" s="43"/>
+      <c r="T364" s="43"/>
+      <c r="U364" s="43"/>
+      <c r="V364" s="43"/>
+      <c r="W364" s="43"/>
       <c r="X364" s="43"/>
-      <c r="Y364" s="23"/>
-      <c r="Z364" s="23"/>
-      <c r="AA364" s="23"/>
-      <c r="AB364" s="23"/>
-      <c r="AC364" s="23"/>
-      <c r="AD364" s="22"/>
+      <c r="Y364" s="43"/>
+      <c r="Z364" s="43"/>
+      <c r="AA364" s="43"/>
+      <c r="AB364" s="43"/>
+      <c r="AC364" s="43"/>
     </row>
     <row r="365" spans="17:30" s="21" customFormat="1">
-      <c r="Q365" s="43"/>
-      <c r="R365" s="43"/>
-      <c r="S365" s="43"/>
-      <c r="T365" s="43"/>
-      <c r="U365" s="43"/>
-      <c r="V365" s="43"/>
+      <c r="Q365" s="23"/>
+      <c r="R365" s="23"/>
+      <c r="S365" s="23"/>
+      <c r="T365" s="23"/>
+      <c r="U365" s="23"/>
+      <c r="V365" s="23"/>
       <c r="W365" s="43"/>
       <c r="X365" s="43"/>
       <c r="Y365" s="43"/>
@@ -19879,13 +19851,13 @@
       <c r="T367" s="23"/>
       <c r="U367" s="23"/>
       <c r="V367" s="23"/>
-      <c r="W367" s="43"/>
+      <c r="W367" s="23"/>
       <c r="X367" s="43"/>
       <c r="Y367" s="43"/>
-      <c r="Z367" s="43"/>
-      <c r="AA367" s="43"/>
-      <c r="AB367" s="43"/>
-      <c r="AC367" s="43"/>
+      <c r="Z367" s="23"/>
+      <c r="AA367" s="23"/>
+      <c r="AB367" s="23"/>
+      <c r="AC367" s="23"/>
     </row>
     <row r="368" spans="17:30" s="21" customFormat="1">
       <c r="Q368" s="23"/>
@@ -19896,35 +19868,35 @@
       <c r="V368" s="23"/>
       <c r="W368" s="23"/>
       <c r="X368" s="43"/>
-      <c r="Y368" s="43"/>
+      <c r="Y368" s="23"/>
       <c r="Z368" s="23"/>
       <c r="AA368" s="23"/>
       <c r="AB368" s="23"/>
       <c r="AC368" s="23"/>
+      <c r="AD368" s="22"/>
     </row>
     <row r="369" spans="17:30" s="21" customFormat="1">
-      <c r="Q369" s="23"/>
-      <c r="R369" s="23"/>
-      <c r="S369" s="23"/>
-      <c r="T369" s="23"/>
-      <c r="U369" s="23"/>
-      <c r="V369" s="23"/>
-      <c r="W369" s="23"/>
+      <c r="Q369" s="43"/>
+      <c r="R369" s="43"/>
+      <c r="S369" s="43"/>
+      <c r="T369" s="43"/>
+      <c r="U369" s="43"/>
+      <c r="V369" s="43"/>
+      <c r="W369" s="43"/>
       <c r="X369" s="43"/>
-      <c r="Y369" s="23"/>
-      <c r="Z369" s="23"/>
-      <c r="AA369" s="23"/>
-      <c r="AB369" s="23"/>
-      <c r="AC369" s="23"/>
-      <c r="AD369" s="22"/>
+      <c r="Y369" s="43"/>
+      <c r="Z369" s="43"/>
+      <c r="AA369" s="43"/>
+      <c r="AB369" s="43"/>
+      <c r="AC369" s="43"/>
     </row>
     <row r="370" spans="17:30" s="21" customFormat="1">
-      <c r="Q370" s="43"/>
-      <c r="R370" s="43"/>
-      <c r="S370" s="43"/>
-      <c r="T370" s="43"/>
-      <c r="U370" s="43"/>
-      <c r="V370" s="43"/>
+      <c r="Q370" s="23"/>
+      <c r="R370" s="23"/>
+      <c r="S370" s="23"/>
+      <c r="T370" s="23"/>
+      <c r="U370" s="23"/>
+      <c r="V370" s="23"/>
       <c r="W370" s="43"/>
       <c r="X370" s="43"/>
       <c r="Y370" s="43"/>
@@ -19970,7 +19942,7 @@
       <c r="T373" s="23"/>
       <c r="U373" s="23"/>
       <c r="V373" s="23"/>
-      <c r="W373" s="43"/>
+      <c r="W373" s="23"/>
       <c r="X373" s="43"/>
       <c r="Y373" s="43"/>
       <c r="Z373" s="43"/>
@@ -19988,10 +19960,10 @@
       <c r="W374" s="23"/>
       <c r="X374" s="43"/>
       <c r="Y374" s="43"/>
-      <c r="Z374" s="43"/>
-      <c r="AA374" s="43"/>
-      <c r="AB374" s="43"/>
-      <c r="AC374" s="43"/>
+      <c r="Z374" s="23"/>
+      <c r="AA374" s="23"/>
+      <c r="AB374" s="23"/>
+      <c r="AC374" s="23"/>
     </row>
     <row r="375" spans="17:30" s="21" customFormat="1">
       <c r="Q375" s="23"/>
@@ -20002,11 +19974,12 @@
       <c r="V375" s="23"/>
       <c r="W375" s="23"/>
       <c r="X375" s="43"/>
-      <c r="Y375" s="43"/>
+      <c r="Y375" s="23"/>
       <c r="Z375" s="23"/>
       <c r="AA375" s="23"/>
       <c r="AB375" s="23"/>
       <c r="AC375" s="23"/>
+      <c r="AD375" s="22"/>
     </row>
     <row r="376" spans="17:30" s="21" customFormat="1">
       <c r="Q376" s="23"/>
@@ -20017,21 +19990,20 @@
       <c r="V376" s="23"/>
       <c r="W376" s="23"/>
       <c r="X376" s="43"/>
-      <c r="Y376" s="23"/>
-      <c r="Z376" s="23"/>
-      <c r="AA376" s="23"/>
-      <c r="AB376" s="23"/>
-      <c r="AC376" s="23"/>
-      <c r="AD376" s="22"/>
+      <c r="Y376" s="43"/>
+      <c r="Z376" s="43"/>
+      <c r="AA376" s="43"/>
+      <c r="AB376" s="43"/>
+      <c r="AC376" s="43"/>
     </row>
     <row r="377" spans="17:30" s="21" customFormat="1">
-      <c r="Q377" s="23"/>
-      <c r="R377" s="23"/>
-      <c r="S377" s="23"/>
-      <c r="T377" s="23"/>
-      <c r="U377" s="23"/>
-      <c r="V377" s="23"/>
-      <c r="W377" s="23"/>
+      <c r="Q377" s="43"/>
+      <c r="R377" s="43"/>
+      <c r="S377" s="43"/>
+      <c r="T377" s="43"/>
+      <c r="U377" s="43"/>
+      <c r="V377" s="43"/>
+      <c r="W377" s="43"/>
       <c r="X377" s="43"/>
       <c r="Y377" s="43"/>
       <c r="Z377" s="43"/>
@@ -20040,44 +20012,44 @@
       <c r="AC377" s="43"/>
     </row>
     <row r="378" spans="17:30" s="21" customFormat="1">
-      <c r="Q378" s="43"/>
-      <c r="R378" s="43"/>
-      <c r="S378" s="43"/>
-      <c r="T378" s="43"/>
-      <c r="U378" s="43"/>
-      <c r="V378" s="43"/>
+      <c r="Q378" s="23"/>
+      <c r="R378" s="23"/>
+      <c r="S378" s="23"/>
+      <c r="T378" s="23"/>
+      <c r="U378" s="23"/>
+      <c r="V378" s="23"/>
       <c r="W378" s="43"/>
-      <c r="X378" s="43"/>
-      <c r="Y378" s="43"/>
-      <c r="Z378" s="43"/>
-      <c r="AA378" s="43"/>
-      <c r="AB378" s="43"/>
-      <c r="AC378" s="43"/>
+      <c r="X378" s="23"/>
+      <c r="Y378" s="23"/>
+      <c r="Z378" s="23"/>
+      <c r="AA378" s="23"/>
+      <c r="AB378" s="23"/>
+      <c r="AC378" s="23"/>
+      <c r="AD378" s="22"/>
     </row>
     <row r="379" spans="17:30" s="21" customFormat="1">
-      <c r="Q379" s="23"/>
-      <c r="R379" s="23"/>
-      <c r="S379" s="23"/>
-      <c r="T379" s="23"/>
-      <c r="U379" s="23"/>
-      <c r="V379" s="23"/>
+      <c r="Q379" s="43"/>
+      <c r="R379" s="43"/>
+      <c r="S379" s="43"/>
+      <c r="T379" s="43"/>
+      <c r="U379" s="43"/>
+      <c r="V379" s="43"/>
       <c r="W379" s="43"/>
-      <c r="X379" s="23"/>
-      <c r="Y379" s="23"/>
-      <c r="Z379" s="23"/>
-      <c r="AA379" s="23"/>
-      <c r="AB379" s="23"/>
-      <c r="AC379" s="23"/>
-      <c r="AD379" s="22"/>
+      <c r="X379" s="43"/>
+      <c r="Y379" s="43"/>
+      <c r="Z379" s="43"/>
+      <c r="AA379" s="43"/>
+      <c r="AB379" s="43"/>
+      <c r="AC379" s="43"/>
     </row>
     <row r="380" spans="17:30" s="21" customFormat="1">
-      <c r="Q380" s="43"/>
-      <c r="R380" s="43"/>
-      <c r="S380" s="43"/>
-      <c r="T380" s="43"/>
-      <c r="U380" s="43"/>
-      <c r="V380" s="43"/>
-      <c r="W380" s="43"/>
+      <c r="Q380" s="23"/>
+      <c r="R380" s="23"/>
+      <c r="S380" s="23"/>
+      <c r="T380" s="23"/>
+      <c r="U380" s="23"/>
+      <c r="V380" s="23"/>
+      <c r="W380" s="23"/>
       <c r="X380" s="43"/>
       <c r="Y380" s="43"/>
       <c r="Z380" s="43"/>
@@ -20116,27 +20088,28 @@
       <c r="AC382" s="43"/>
     </row>
     <row r="383" spans="17:30" s="21" customFormat="1">
-      <c r="Q383" s="23"/>
-      <c r="R383" s="23"/>
-      <c r="S383" s="23"/>
-      <c r="T383" s="23"/>
-      <c r="U383" s="23"/>
-      <c r="V383" s="23"/>
-      <c r="W383" s="23"/>
-      <c r="X383" s="43"/>
-      <c r="Y383" s="43"/>
-      <c r="Z383" s="43"/>
-      <c r="AA383" s="43"/>
-      <c r="AB383" s="43"/>
-      <c r="AC383" s="43"/>
+      <c r="Q383" s="43"/>
+      <c r="R383" s="43"/>
+      <c r="S383" s="43"/>
+      <c r="T383" s="43"/>
+      <c r="U383" s="43"/>
+      <c r="V383" s="43"/>
+      <c r="W383" s="43"/>
+      <c r="X383" s="23"/>
+      <c r="Y383" s="23"/>
+      <c r="Z383" s="23"/>
+      <c r="AA383" s="23"/>
+      <c r="AB383" s="23"/>
+      <c r="AC383" s="23"/>
+      <c r="AD383" s="22"/>
     </row>
     <row r="384" spans="17:30" s="21" customFormat="1">
-      <c r="Q384" s="43"/>
-      <c r="R384" s="43"/>
-      <c r="S384" s="43"/>
-      <c r="T384" s="43"/>
-      <c r="U384" s="43"/>
-      <c r="V384" s="43"/>
+      <c r="Q384" s="23"/>
+      <c r="R384" s="23"/>
+      <c r="S384" s="23"/>
+      <c r="T384" s="23"/>
+      <c r="U384" s="23"/>
+      <c r="V384" s="23"/>
       <c r="W384" s="43"/>
       <c r="X384" s="23"/>
       <c r="Y384" s="23"/>
@@ -20153,14 +20126,13 @@
       <c r="T385" s="23"/>
       <c r="U385" s="23"/>
       <c r="V385" s="23"/>
-      <c r="W385" s="43"/>
-      <c r="X385" s="23"/>
-      <c r="Y385" s="23"/>
+      <c r="W385" s="23"/>
+      <c r="X385" s="43"/>
+      <c r="Y385" s="43"/>
       <c r="Z385" s="23"/>
       <c r="AA385" s="23"/>
       <c r="AB385" s="23"/>
       <c r="AC385" s="23"/>
-      <c r="AD385" s="22"/>
     </row>
     <row r="386" spans="9:30" s="21" customFormat="1">
       <c r="Q386" s="23"/>
@@ -20199,13 +20171,13 @@
       <c r="T388" s="23"/>
       <c r="U388" s="23"/>
       <c r="V388" s="23"/>
-      <c r="W388" s="23"/>
+      <c r="W388" s="43"/>
       <c r="X388" s="43"/>
       <c r="Y388" s="43"/>
-      <c r="Z388" s="23"/>
-      <c r="AA388" s="23"/>
-      <c r="AB388" s="23"/>
-      <c r="AC388" s="23"/>
+      <c r="Z388" s="43"/>
+      <c r="AA388" s="43"/>
+      <c r="AB388" s="43"/>
+      <c r="AC388" s="43"/>
     </row>
     <row r="389" spans="9:30" s="21" customFormat="1">
       <c r="Q389" s="23"/>
@@ -20229,39 +20201,42 @@
       <c r="T390" s="23"/>
       <c r="U390" s="23"/>
       <c r="V390" s="23"/>
-      <c r="W390" s="43"/>
+      <c r="W390" s="23"/>
       <c r="X390" s="43"/>
-      <c r="Y390" s="43"/>
-      <c r="Z390" s="43"/>
-      <c r="AA390" s="43"/>
-      <c r="AB390" s="43"/>
-      <c r="AC390" s="43"/>
+      <c r="Y390" s="23"/>
+      <c r="Z390" s="23"/>
+      <c r="AA390" s="23"/>
+      <c r="AB390" s="23"/>
+      <c r="AC390" s="23"/>
+      <c r="AD390" s="22"/>
     </row>
     <row r="391" spans="9:30" s="21" customFormat="1">
-      <c r="Q391" s="23"/>
-      <c r="R391" s="23"/>
-      <c r="S391" s="23"/>
-      <c r="T391" s="23"/>
-      <c r="U391" s="23"/>
-      <c r="V391" s="23"/>
-      <c r="W391" s="23"/>
+      <c r="J391" s="38"/>
+      <c r="K391" s="38"/>
+      <c r="Q391" s="43"/>
+      <c r="R391" s="43"/>
+      <c r="S391" s="43"/>
+      <c r="T391" s="43"/>
+      <c r="U391" s="43"/>
+      <c r="V391" s="43"/>
+      <c r="W391" s="43"/>
       <c r="X391" s="43"/>
-      <c r="Y391" s="23"/>
-      <c r="Z391" s="23"/>
-      <c r="AA391" s="23"/>
-      <c r="AB391" s="23"/>
-      <c r="AC391" s="23"/>
-      <c r="AD391" s="22"/>
+      <c r="Y391" s="43"/>
+      <c r="Z391" s="43"/>
+      <c r="AA391" s="43"/>
+      <c r="AB391" s="43"/>
+      <c r="AC391" s="43"/>
     </row>
     <row r="392" spans="9:30" s="21" customFormat="1">
-      <c r="J392" s="38"/>
-      <c r="K392" s="38"/>
-      <c r="Q392" s="43"/>
-      <c r="R392" s="43"/>
-      <c r="S392" s="43"/>
-      <c r="T392" s="43"/>
-      <c r="U392" s="43"/>
-      <c r="V392" s="43"/>
+      <c r="I392" s="38"/>
+      <c r="L392" s="38"/>
+      <c r="M392" s="38"/>
+      <c r="Q392" s="23"/>
+      <c r="R392" s="23"/>
+      <c r="S392" s="23"/>
+      <c r="T392" s="23"/>
+      <c r="U392" s="23"/>
+      <c r="V392" s="23"/>
       <c r="W392" s="43"/>
       <c r="X392" s="43"/>
       <c r="Y392" s="43"/>
@@ -20271,15 +20246,12 @@
       <c r="AC392" s="43"/>
     </row>
     <row r="393" spans="9:30" s="21" customFormat="1">
-      <c r="I393" s="38"/>
-      <c r="L393" s="38"/>
-      <c r="M393" s="38"/>
-      <c r="Q393" s="23"/>
-      <c r="R393" s="23"/>
-      <c r="S393" s="23"/>
-      <c r="T393" s="23"/>
-      <c r="U393" s="23"/>
-      <c r="V393" s="23"/>
+      <c r="Q393" s="43"/>
+      <c r="R393" s="43"/>
+      <c r="S393" s="43"/>
+      <c r="T393" s="43"/>
+      <c r="U393" s="43"/>
+      <c r="V393" s="43"/>
       <c r="W393" s="43"/>
       <c r="X393" s="43"/>
       <c r="Y393" s="43"/>
@@ -20289,19 +20261,19 @@
       <c r="AC393" s="43"/>
     </row>
     <row r="394" spans="9:30" s="21" customFormat="1">
-      <c r="Q394" s="43"/>
-      <c r="R394" s="43"/>
-      <c r="S394" s="43"/>
-      <c r="T394" s="43"/>
-      <c r="U394" s="43"/>
-      <c r="V394" s="43"/>
-      <c r="W394" s="43"/>
+      <c r="Q394" s="23"/>
+      <c r="R394" s="23"/>
+      <c r="S394" s="23"/>
+      <c r="T394" s="23"/>
+      <c r="U394" s="23"/>
+      <c r="V394" s="23"/>
+      <c r="W394" s="23"/>
       <c r="X394" s="43"/>
       <c r="Y394" s="43"/>
-      <c r="Z394" s="43"/>
-      <c r="AA394" s="43"/>
-      <c r="AB394" s="43"/>
-      <c r="AC394" s="43"/>
+      <c r="Z394" s="23"/>
+      <c r="AA394" s="23"/>
+      <c r="AB394" s="23"/>
+      <c r="AC394" s="23"/>
     </row>
     <row r="395" spans="9:30" s="21" customFormat="1">
       <c r="Q395" s="23"/>
@@ -20312,35 +20284,35 @@
       <c r="V395" s="23"/>
       <c r="W395" s="23"/>
       <c r="X395" s="43"/>
-      <c r="Y395" s="43"/>
+      <c r="Y395" s="23"/>
       <c r="Z395" s="23"/>
       <c r="AA395" s="23"/>
       <c r="AB395" s="23"/>
       <c r="AC395" s="23"/>
+      <c r="AD395" s="22"/>
     </row>
     <row r="396" spans="9:30" s="21" customFormat="1">
-      <c r="Q396" s="23"/>
-      <c r="R396" s="23"/>
-      <c r="S396" s="23"/>
-      <c r="T396" s="23"/>
-      <c r="U396" s="23"/>
-      <c r="V396" s="23"/>
-      <c r="W396" s="23"/>
+      <c r="Q396" s="43"/>
+      <c r="R396" s="43"/>
+      <c r="S396" s="43"/>
+      <c r="T396" s="43"/>
+      <c r="U396" s="43"/>
+      <c r="V396" s="43"/>
+      <c r="W396" s="43"/>
       <c r="X396" s="43"/>
-      <c r="Y396" s="23"/>
-      <c r="Z396" s="23"/>
-      <c r="AA396" s="23"/>
-      <c r="AB396" s="23"/>
-      <c r="AC396" s="23"/>
-      <c r="AD396" s="22"/>
+      <c r="Y396" s="43"/>
+      <c r="Z396" s="43"/>
+      <c r="AA396" s="43"/>
+      <c r="AB396" s="43"/>
+      <c r="AC396" s="43"/>
     </row>
     <row r="397" spans="9:30" s="21" customFormat="1">
-      <c r="Q397" s="43"/>
-      <c r="R397" s="43"/>
-      <c r="S397" s="43"/>
-      <c r="T397" s="43"/>
-      <c r="U397" s="43"/>
-      <c r="V397" s="43"/>
+      <c r="Q397" s="23"/>
+      <c r="R397" s="23"/>
+      <c r="S397" s="23"/>
+      <c r="T397" s="23"/>
+      <c r="U397" s="23"/>
+      <c r="V397" s="23"/>
       <c r="W397" s="43"/>
       <c r="X397" s="43"/>
       <c r="Y397" s="43"/>
@@ -20371,7 +20343,7 @@
       <c r="T399" s="23"/>
       <c r="U399" s="23"/>
       <c r="V399" s="23"/>
-      <c r="W399" s="43"/>
+      <c r="W399" s="23"/>
       <c r="X399" s="43"/>
       <c r="Y399" s="43"/>
       <c r="Z399" s="43"/>
@@ -20395,13 +20367,13 @@
       <c r="AC400" s="43"/>
     </row>
     <row r="401" spans="16:30" s="21" customFormat="1">
-      <c r="Q401" s="23"/>
-      <c r="R401" s="23"/>
-      <c r="S401" s="23"/>
-      <c r="T401" s="23"/>
-      <c r="U401" s="23"/>
-      <c r="V401" s="23"/>
-      <c r="W401" s="23"/>
+      <c r="Q401" s="43"/>
+      <c r="R401" s="43"/>
+      <c r="S401" s="43"/>
+      <c r="T401" s="43"/>
+      <c r="U401" s="43"/>
+      <c r="V401" s="43"/>
+      <c r="W401" s="43"/>
       <c r="X401" s="43"/>
       <c r="Y401" s="43"/>
       <c r="Z401" s="43"/>
@@ -20410,19 +20382,20 @@
       <c r="AC401" s="43"/>
     </row>
     <row r="402" spans="16:30" s="21" customFormat="1">
-      <c r="Q402" s="43"/>
-      <c r="R402" s="43"/>
-      <c r="S402" s="43"/>
-      <c r="T402" s="43"/>
-      <c r="U402" s="43"/>
-      <c r="V402" s="43"/>
+      <c r="Q402" s="23"/>
+      <c r="R402" s="23"/>
+      <c r="S402" s="23"/>
+      <c r="T402" s="23"/>
+      <c r="U402" s="23"/>
+      <c r="V402" s="23"/>
       <c r="W402" s="43"/>
-      <c r="X402" s="43"/>
-      <c r="Y402" s="43"/>
-      <c r="Z402" s="43"/>
-      <c r="AA402" s="43"/>
-      <c r="AB402" s="43"/>
-      <c r="AC402" s="43"/>
+      <c r="X402" s="23"/>
+      <c r="Y402" s="23"/>
+      <c r="Z402" s="23"/>
+      <c r="AA402" s="23"/>
+      <c r="AB402" s="23"/>
+      <c r="AC402" s="23"/>
+      <c r="AD402" s="22"/>
     </row>
     <row r="403" spans="16:30" s="21" customFormat="1">
       <c r="Q403" s="23"/>
@@ -20431,14 +20404,13 @@
       <c r="T403" s="23"/>
       <c r="U403" s="23"/>
       <c r="V403" s="23"/>
-      <c r="W403" s="43"/>
-      <c r="X403" s="23"/>
-      <c r="Y403" s="23"/>
-      <c r="Z403" s="23"/>
-      <c r="AA403" s="23"/>
-      <c r="AB403" s="23"/>
-      <c r="AC403" s="23"/>
-      <c r="AD403" s="22"/>
+      <c r="W403" s="23"/>
+      <c r="X403" s="43"/>
+      <c r="Y403" s="43"/>
+      <c r="Z403" s="43"/>
+      <c r="AA403" s="43"/>
+      <c r="AB403" s="43"/>
+      <c r="AC403" s="43"/>
     </row>
     <row r="404" spans="16:30" s="21" customFormat="1">
       <c r="Q404" s="23"/>
@@ -20471,34 +20443,34 @@
       <c r="AC405" s="43"/>
     </row>
     <row r="406" spans="16:30" s="21" customFormat="1">
+      <c r="P406" s="22"/>
       <c r="Q406" s="23"/>
       <c r="R406" s="23"/>
       <c r="S406" s="23"/>
       <c r="T406" s="23"/>
       <c r="U406" s="23"/>
       <c r="V406" s="23"/>
-      <c r="W406" s="23"/>
+      <c r="W406" s="43"/>
       <c r="X406" s="43"/>
       <c r="Y406" s="43"/>
       <c r="Z406" s="43"/>
       <c r="AA406" s="43"/>
       <c r="AB406" s="43"/>
-      <c r="AC406" s="43"/>
     </row>
     <row r="407" spans="16:30" s="21" customFormat="1">
-      <c r="P407" s="22"/>
       <c r="Q407" s="23"/>
       <c r="R407" s="23"/>
       <c r="S407" s="23"/>
       <c r="T407" s="23"/>
       <c r="U407" s="23"/>
       <c r="V407" s="23"/>
-      <c r="W407" s="43"/>
+      <c r="W407" s="23"/>
       <c r="X407" s="43"/>
       <c r="Y407" s="43"/>
       <c r="Z407" s="43"/>
       <c r="AA407" s="43"/>
       <c r="AB407" s="43"/>
+      <c r="AC407" s="43"/>
     </row>
     <row r="408" spans="16:30" s="21" customFormat="1">
       <c r="Q408" s="23"/>
@@ -20507,7 +20479,7 @@
       <c r="T408" s="23"/>
       <c r="U408" s="23"/>
       <c r="V408" s="23"/>
-      <c r="W408" s="23"/>
+      <c r="W408" s="43"/>
       <c r="X408" s="43"/>
       <c r="Y408" s="43"/>
       <c r="Z408" s="43"/>
@@ -20537,13 +20509,13 @@
       <c r="T410" s="23"/>
       <c r="U410" s="23"/>
       <c r="V410" s="23"/>
-      <c r="W410" s="43"/>
+      <c r="W410" s="23"/>
       <c r="X410" s="43"/>
       <c r="Y410" s="43"/>
-      <c r="Z410" s="43"/>
-      <c r="AA410" s="43"/>
-      <c r="AB410" s="43"/>
-      <c r="AC410" s="43"/>
+      <c r="Z410" s="23"/>
+      <c r="AA410" s="23"/>
+      <c r="AB410" s="23"/>
+      <c r="AC410" s="23"/>
     </row>
     <row r="411" spans="16:30" s="21" customFormat="1">
       <c r="Q411" s="23"/>
@@ -20569,35 +20541,35 @@
       <c r="V412" s="23"/>
       <c r="W412" s="23"/>
       <c r="X412" s="43"/>
-      <c r="Y412" s="43"/>
+      <c r="Y412" s="23"/>
       <c r="Z412" s="23"/>
       <c r="AA412" s="23"/>
       <c r="AB412" s="23"/>
       <c r="AC412" s="23"/>
+      <c r="AD412" s="22"/>
     </row>
     <row r="413" spans="16:30" s="21" customFormat="1">
-      <c r="Q413" s="23"/>
-      <c r="R413" s="23"/>
-      <c r="S413" s="23"/>
-      <c r="T413" s="23"/>
-      <c r="U413" s="23"/>
-      <c r="V413" s="23"/>
-      <c r="W413" s="23"/>
+      <c r="Q413" s="43"/>
+      <c r="R413" s="43"/>
+      <c r="S413" s="43"/>
+      <c r="T413" s="43"/>
+      <c r="U413" s="43"/>
+      <c r="V413" s="43"/>
+      <c r="W413" s="43"/>
       <c r="X413" s="43"/>
-      <c r="Y413" s="23"/>
-      <c r="Z413" s="23"/>
-      <c r="AA413" s="23"/>
-      <c r="AB413" s="23"/>
-      <c r="AC413" s="23"/>
-      <c r="AD413" s="22"/>
+      <c r="Y413" s="43"/>
+      <c r="Z413" s="43"/>
+      <c r="AA413" s="43"/>
+      <c r="AB413" s="43"/>
+      <c r="AC413" s="43"/>
     </row>
     <row r="414" spans="16:30" s="21" customFormat="1">
-      <c r="Q414" s="43"/>
-      <c r="R414" s="43"/>
-      <c r="S414" s="43"/>
-      <c r="T414" s="43"/>
-      <c r="U414" s="43"/>
-      <c r="V414" s="43"/>
+      <c r="Q414" s="23"/>
+      <c r="R414" s="23"/>
+      <c r="S414" s="23"/>
+      <c r="T414" s="23"/>
+      <c r="U414" s="23"/>
+      <c r="V414" s="23"/>
       <c r="W414" s="43"/>
       <c r="X414" s="43"/>
       <c r="Y414" s="43"/>
@@ -20628,7 +20600,7 @@
       <c r="T416" s="23"/>
       <c r="U416" s="23"/>
       <c r="V416" s="23"/>
-      <c r="W416" s="43"/>
+      <c r="W416" s="23"/>
       <c r="X416" s="43"/>
       <c r="Y416" s="43"/>
       <c r="Z416" s="43"/>
@@ -20652,13 +20624,13 @@
       <c r="AC417" s="43"/>
     </row>
     <row r="418" spans="9:29" s="21" customFormat="1">
-      <c r="Q418" s="23"/>
-      <c r="R418" s="23"/>
-      <c r="S418" s="23"/>
-      <c r="T418" s="23"/>
-      <c r="U418" s="23"/>
-      <c r="V418" s="23"/>
-      <c r="W418" s="23"/>
+      <c r="Q418" s="43"/>
+      <c r="R418" s="43"/>
+      <c r="S418" s="43"/>
+      <c r="T418" s="43"/>
+      <c r="U418" s="43"/>
+      <c r="V418" s="43"/>
+      <c r="W418" s="43"/>
       <c r="X418" s="43"/>
       <c r="Y418" s="43"/>
       <c r="Z418" s="43"/>
@@ -20667,12 +20639,12 @@
       <c r="AC418" s="43"/>
     </row>
     <row r="419" spans="9:29" s="21" customFormat="1">
-      <c r="Q419" s="43"/>
-      <c r="R419" s="43"/>
-      <c r="S419" s="43"/>
-      <c r="T419" s="43"/>
-      <c r="U419" s="43"/>
-      <c r="V419" s="43"/>
+      <c r="Q419" s="23"/>
+      <c r="R419" s="23"/>
+      <c r="S419" s="23"/>
+      <c r="T419" s="23"/>
+      <c r="U419" s="23"/>
+      <c r="V419" s="23"/>
       <c r="W419" s="43"/>
       <c r="X419" s="43"/>
       <c r="Y419" s="43"/>
@@ -20697,6 +20669,8 @@
       <c r="AC420" s="43"/>
     </row>
     <row r="421" spans="9:29" s="21" customFormat="1">
+      <c r="J421" s="1"/>
+      <c r="K421" s="1"/>
       <c r="Q421" s="23"/>
       <c r="R421" s="23"/>
       <c r="S421" s="23"/>
@@ -20711,26 +20685,26 @@
       <c r="AB421" s="43"/>
       <c r="AC421" s="43"/>
     </row>
-    <row r="422" spans="9:29" s="21" customFormat="1">
-      <c r="J422" s="1"/>
-      <c r="K422" s="1"/>
-      <c r="Q422" s="23"/>
-      <c r="R422" s="23"/>
-      <c r="S422" s="23"/>
-      <c r="T422" s="23"/>
-      <c r="U422" s="23"/>
-      <c r="V422" s="23"/>
-      <c r="W422" s="43"/>
-      <c r="X422" s="43"/>
-      <c r="Y422" s="43"/>
-      <c r="Z422" s="43"/>
-      <c r="AA422" s="43"/>
-      <c r="AB422" s="43"/>
-      <c r="AC422" s="43"/>
+    <row r="422" spans="9:29">
+      <c r="J422" s="38"/>
+      <c r="K422" s="38"/>
+      <c r="Q422" s="20"/>
+      <c r="R422" s="20"/>
+      <c r="S422" s="20"/>
+      <c r="T422" s="20"/>
+      <c r="U422" s="20"/>
+      <c r="V422" s="20"/>
+      <c r="W422" s="20"/>
+      <c r="X422" s="15"/>
+      <c r="Y422" s="15"/>
+      <c r="Z422" s="15"/>
+      <c r="AA422" s="15"/>
+      <c r="AB422" s="15"/>
+      <c r="AC422" s="15"/>
     </row>
     <row r="423" spans="9:29">
-      <c r="J423" s="38"/>
-      <c r="K423" s="38"/>
+      <c r="I423" s="38"/>
+      <c r="L423" s="38"/>
       <c r="Q423" s="20"/>
       <c r="R423" s="20"/>
       <c r="S423" s="20"/>
@@ -20746,8 +20720,8 @@
       <c r="AC423" s="15"/>
     </row>
     <row r="424" spans="9:29">
-      <c r="I424" s="38"/>
-      <c r="L424" s="38"/>
+      <c r="J424" s="38"/>
+      <c r="K424" s="38"/>
       <c r="Q424" s="20"/>
       <c r="R424" s="20"/>
       <c r="S424" s="20"/>
@@ -20763,8 +20737,8 @@
       <c r="AC424" s="15"/>
     </row>
     <row r="425" spans="9:29">
-      <c r="J425" s="38"/>
-      <c r="K425" s="38"/>
+      <c r="I425" s="38"/>
+      <c r="L425" s="38"/>
       <c r="Q425" s="20"/>
       <c r="R425" s="20"/>
       <c r="S425" s="20"/>
@@ -20780,15 +20754,13 @@
       <c r="AC425" s="15"/>
     </row>
     <row r="426" spans="9:29">
-      <c r="I426" s="38"/>
-      <c r="L426" s="38"/>
       <c r="Q426" s="20"/>
       <c r="R426" s="20"/>
       <c r="S426" s="20"/>
       <c r="T426" s="20"/>
       <c r="U426" s="20"/>
       <c r="V426" s="20"/>
-      <c r="W426" s="20"/>
+      <c r="W426" s="15"/>
       <c r="X426" s="15"/>
       <c r="Y426" s="15"/>
       <c r="Z426" s="15"/>
@@ -20803,7 +20775,7 @@
       <c r="T427" s="20"/>
       <c r="U427" s="20"/>
       <c r="V427" s="20"/>
-      <c r="W427" s="15"/>
+      <c r="W427" s="20"/>
       <c r="X427" s="15"/>
       <c r="Y427" s="15"/>
       <c r="Z427" s="15"/>
@@ -20818,7 +20790,7 @@
       <c r="T428" s="20"/>
       <c r="U428" s="20"/>
       <c r="V428" s="20"/>
-      <c r="W428" s="20"/>
+      <c r="W428" s="15"/>
       <c r="X428" s="15"/>
       <c r="Y428" s="15"/>
       <c r="Z428" s="15"/>
@@ -20827,6 +20799,7 @@
       <c r="AC428" s="15"/>
     </row>
     <row r="429" spans="9:29">
+      <c r="L429" s="18"/>
       <c r="Q429" s="20"/>
       <c r="R429" s="20"/>
       <c r="S429" s="20"/>
@@ -20842,7 +20815,6 @@
       <c r="AC429" s="15"/>
     </row>
     <row r="430" spans="9:29">
-      <c r="L430" s="18"/>
       <c r="Q430" s="20"/>
       <c r="R430" s="20"/>
       <c r="S430" s="20"/>
@@ -20864,7 +20836,7 @@
       <c r="T431" s="20"/>
       <c r="U431" s="20"/>
       <c r="V431" s="20"/>
-      <c r="W431" s="15"/>
+      <c r="W431" s="20"/>
       <c r="X431" s="15"/>
       <c r="Y431" s="15"/>
       <c r="Z431" s="15"/>
@@ -20879,9 +20851,9 @@
       <c r="T432" s="20"/>
       <c r="U432" s="20"/>
       <c r="V432" s="20"/>
-      <c r="W432" s="20"/>
+      <c r="W432" s="15"/>
       <c r="X432" s="15"/>
-      <c r="Y432" s="15"/>
+      <c r="Y432" s="20"/>
       <c r="Z432" s="15"/>
       <c r="AA432" s="15"/>
       <c r="AB432" s="15"/>
@@ -20896,7 +20868,7 @@
       <c r="V433" s="20"/>
       <c r="W433" s="15"/>
       <c r="X433" s="15"/>
-      <c r="Y433" s="20"/>
+      <c r="Y433" s="15"/>
       <c r="Z433" s="15"/>
       <c r="AA433" s="15"/>
       <c r="AB433" s="15"/>
@@ -20909,7 +20881,7 @@
       <c r="T434" s="20"/>
       <c r="U434" s="20"/>
       <c r="V434" s="20"/>
-      <c r="W434" s="15"/>
+      <c r="W434" s="20"/>
       <c r="X434" s="15"/>
       <c r="Y434" s="15"/>
       <c r="Z434" s="15"/>
@@ -20924,7 +20896,7 @@
       <c r="T435" s="20"/>
       <c r="U435" s="20"/>
       <c r="V435" s="20"/>
-      <c r="W435" s="20"/>
+      <c r="W435" s="15"/>
       <c r="X435" s="15"/>
       <c r="Y435" s="15"/>
       <c r="Z435" s="15"/>
@@ -20933,6 +20905,7 @@
       <c r="AC435" s="15"/>
     </row>
     <row r="436" spans="9:29">
+      <c r="L436" s="18"/>
       <c r="Q436" s="20"/>
       <c r="R436" s="20"/>
       <c r="S436" s="20"/>
@@ -20948,14 +20921,13 @@
       <c r="AC436" s="15"/>
     </row>
     <row r="437" spans="9:29">
-      <c r="L437" s="18"/>
       <c r="Q437" s="20"/>
       <c r="R437" s="20"/>
       <c r="S437" s="20"/>
       <c r="T437" s="20"/>
       <c r="U437" s="20"/>
       <c r="V437" s="20"/>
-      <c r="W437" s="15"/>
+      <c r="W437" s="20"/>
       <c r="X437" s="15"/>
       <c r="Y437" s="15"/>
       <c r="Z437" s="15"/>
@@ -20985,9 +20957,9 @@
       <c r="T439" s="20"/>
       <c r="U439" s="20"/>
       <c r="V439" s="20"/>
-      <c r="W439" s="20"/>
+      <c r="W439" s="15"/>
       <c r="X439" s="15"/>
-      <c r="Y439" s="15"/>
+      <c r="Y439" s="20"/>
       <c r="Z439" s="15"/>
       <c r="AA439" s="15"/>
       <c r="AB439" s="15"/>
@@ -21002,13 +20974,14 @@
       <c r="V440" s="20"/>
       <c r="W440" s="15"/>
       <c r="X440" s="15"/>
-      <c r="Y440" s="20"/>
+      <c r="Y440" s="15"/>
       <c r="Z440" s="15"/>
       <c r="AA440" s="15"/>
       <c r="AB440" s="15"/>
       <c r="AC440" s="15"/>
     </row>
     <row r="441" spans="9:29">
+      <c r="L441" s="18"/>
       <c r="Q441" s="20"/>
       <c r="R441" s="20"/>
       <c r="S441" s="20"/>
@@ -21024,7 +20997,6 @@
       <c r="AC441" s="15"/>
     </row>
     <row r="442" spans="9:29">
-      <c r="L442" s="18"/>
       <c r="Q442" s="20"/>
       <c r="R442" s="20"/>
       <c r="S442" s="20"/>
@@ -21046,7 +21018,7 @@
       <c r="T443" s="20"/>
       <c r="U443" s="20"/>
       <c r="V443" s="20"/>
-      <c r="W443" s="15"/>
+      <c r="W443" s="20"/>
       <c r="X443" s="15"/>
       <c r="Y443" s="15"/>
       <c r="Z443" s="15"/>
@@ -21055,6 +21027,8 @@
       <c r="AC443" s="15"/>
     </row>
     <row r="444" spans="9:29">
+      <c r="J444" s="38"/>
+      <c r="K444" s="38"/>
       <c r="Q444" s="20"/>
       <c r="R444" s="20"/>
       <c r="S444" s="20"/>
@@ -21070,8 +21044,8 @@
       <c r="AC444" s="15"/>
     </row>
     <row r="445" spans="9:29">
-      <c r="J445" s="38"/>
-      <c r="K445" s="38"/>
+      <c r="I445" s="38"/>
+      <c r="L445" s="38"/>
       <c r="Q445" s="20"/>
       <c r="R445" s="20"/>
       <c r="S445" s="20"/>
@@ -21087,15 +21061,13 @@
       <c r="AC445" s="15"/>
     </row>
     <row r="446" spans="9:29">
-      <c r="I446" s="38"/>
-      <c r="L446" s="38"/>
       <c r="Q446" s="20"/>
       <c r="R446" s="20"/>
       <c r="S446" s="20"/>
       <c r="T446" s="20"/>
       <c r="U446" s="20"/>
       <c r="V446" s="20"/>
-      <c r="W446" s="20"/>
+      <c r="W446" s="15"/>
       <c r="X446" s="15"/>
       <c r="Y446" s="15"/>
       <c r="Z446" s="15"/>
@@ -21110,7 +21082,7 @@
       <c r="T447" s="20"/>
       <c r="U447" s="20"/>
       <c r="V447" s="20"/>
-      <c r="W447" s="15"/>
+      <c r="W447" s="20"/>
       <c r="X447" s="15"/>
       <c r="Y447" s="15"/>
       <c r="Z447" s="15"/>
@@ -21119,13 +21091,13 @@
       <c r="AC447" s="15"/>
     </row>
     <row r="448" spans="9:29">
-      <c r="Q448" s="20"/>
-      <c r="R448" s="20"/>
-      <c r="S448" s="20"/>
-      <c r="T448" s="20"/>
-      <c r="U448" s="20"/>
-      <c r="V448" s="20"/>
-      <c r="W448" s="20"/>
+      <c r="Q448" s="15"/>
+      <c r="R448" s="15"/>
+      <c r="S448" s="15"/>
+      <c r="T448" s="15"/>
+      <c r="U448" s="15"/>
+      <c r="V448" s="15"/>
+      <c r="W448" s="15"/>
       <c r="X448" s="15"/>
       <c r="Y448" s="15"/>
       <c r="Z448" s="15"/>
@@ -21134,12 +21106,12 @@
       <c r="AC448" s="15"/>
     </row>
     <row r="449" spans="9:29">
-      <c r="Q449" s="15"/>
-      <c r="R449" s="15"/>
-      <c r="S449" s="15"/>
-      <c r="T449" s="15"/>
-      <c r="U449" s="15"/>
-      <c r="V449" s="15"/>
+      <c r="Q449" s="20"/>
+      <c r="R449" s="20"/>
+      <c r="S449" s="20"/>
+      <c r="T449" s="20"/>
+      <c r="U449" s="20"/>
+      <c r="V449" s="20"/>
       <c r="W449" s="15"/>
       <c r="X449" s="15"/>
       <c r="Y449" s="15"/>
@@ -21185,7 +21157,7 @@
       <c r="T452" s="20"/>
       <c r="U452" s="20"/>
       <c r="V452" s="20"/>
-      <c r="W452" s="15"/>
+      <c r="W452" s="20"/>
       <c r="X452" s="15"/>
       <c r="Y452" s="15"/>
       <c r="Z452" s="15"/>
@@ -21194,6 +21166,8 @@
       <c r="AC452" s="15"/>
     </row>
     <row r="453" spans="9:29">
+      <c r="J453" s="38"/>
+      <c r="K453" s="38"/>
       <c r="Q453" s="20"/>
       <c r="R453" s="20"/>
       <c r="S453" s="20"/>
@@ -21209,8 +21183,8 @@
       <c r="AC453" s="15"/>
     </row>
     <row r="454" spans="9:29">
-      <c r="J454" s="38"/>
-      <c r="K454" s="38"/>
+      <c r="I454" s="38"/>
+      <c r="L454" s="38"/>
       <c r="Q454" s="20"/>
       <c r="R454" s="20"/>
       <c r="S454" s="20"/>
@@ -21226,15 +21200,13 @@
       <c r="AC454" s="15"/>
     </row>
     <row r="455" spans="9:29">
-      <c r="I455" s="38"/>
-      <c r="L455" s="38"/>
       <c r="Q455" s="20"/>
       <c r="R455" s="20"/>
       <c r="S455" s="20"/>
       <c r="T455" s="20"/>
       <c r="U455" s="20"/>
       <c r="V455" s="20"/>
-      <c r="W455" s="20"/>
+      <c r="W455" s="15"/>
       <c r="X455" s="15"/>
       <c r="Y455" s="15"/>
       <c r="Z455" s="15"/>
@@ -21249,7 +21221,7 @@
       <c r="T456" s="20"/>
       <c r="U456" s="20"/>
       <c r="V456" s="20"/>
-      <c r="W456" s="15"/>
+      <c r="W456" s="20"/>
       <c r="X456" s="15"/>
       <c r="Y456" s="15"/>
       <c r="Z456" s="15"/>
@@ -21258,13 +21230,13 @@
       <c r="AC456" s="15"/>
     </row>
     <row r="457" spans="9:29">
-      <c r="Q457" s="20"/>
-      <c r="R457" s="20"/>
-      <c r="S457" s="20"/>
-      <c r="T457" s="20"/>
-      <c r="U457" s="20"/>
-      <c r="V457" s="20"/>
-      <c r="W457" s="20"/>
+      <c r="Q457" s="15"/>
+      <c r="R457" s="15"/>
+      <c r="S457" s="15"/>
+      <c r="T457" s="15"/>
+      <c r="U457" s="15"/>
+      <c r="V457" s="15"/>
+      <c r="W457" s="15"/>
       <c r="X457" s="15"/>
       <c r="Y457" s="15"/>
       <c r="Z457" s="15"/>
@@ -21273,13 +21245,13 @@
       <c r="AC457" s="15"/>
     </row>
     <row r="458" spans="9:29">
-      <c r="Q458" s="15"/>
-      <c r="R458" s="15"/>
-      <c r="S458" s="15"/>
-      <c r="T458" s="15"/>
-      <c r="U458" s="15"/>
-      <c r="V458" s="15"/>
-      <c r="W458" s="15"/>
+      <c r="Q458" s="20"/>
+      <c r="R458" s="20"/>
+      <c r="S458" s="20"/>
+      <c r="T458" s="20"/>
+      <c r="U458" s="20"/>
+      <c r="V458" s="20"/>
+      <c r="W458" s="20"/>
       <c r="X458" s="15"/>
       <c r="Y458" s="15"/>
       <c r="Z458" s="15"/>
@@ -21288,6 +21260,8 @@
       <c r="AC458" s="15"/>
     </row>
     <row r="459" spans="9:29">
+      <c r="J459" s="38"/>
+      <c r="K459" s="38"/>
       <c r="Q459" s="20"/>
       <c r="R459" s="20"/>
       <c r="S459" s="20"/>
@@ -21303,8 +21277,8 @@
       <c r="AC459" s="15"/>
     </row>
     <row r="460" spans="9:29">
-      <c r="J460" s="38"/>
-      <c r="K460" s="38"/>
+      <c r="I460" s="38"/>
+      <c r="L460" s="38"/>
       <c r="Q460" s="20"/>
       <c r="R460" s="20"/>
       <c r="S460" s="20"/>
@@ -21320,8 +21294,6 @@
       <c r="AC460" s="15"/>
     </row>
     <row r="461" spans="9:29">
-      <c r="I461" s="38"/>
-      <c r="L461" s="38"/>
       <c r="Q461" s="20"/>
       <c r="R461" s="20"/>
       <c r="S461" s="20"/>
@@ -21343,7 +21315,7 @@
       <c r="T462" s="20"/>
       <c r="U462" s="20"/>
       <c r="V462" s="20"/>
-      <c r="W462" s="20"/>
+      <c r="W462" s="15"/>
       <c r="X462" s="15"/>
       <c r="Y462" s="15"/>
       <c r="Z462" s="15"/>
@@ -21352,12 +21324,12 @@
       <c r="AC462" s="15"/>
     </row>
     <row r="463" spans="9:29">
-      <c r="Q463" s="20"/>
-      <c r="R463" s="20"/>
-      <c r="S463" s="20"/>
-      <c r="T463" s="20"/>
-      <c r="U463" s="20"/>
-      <c r="V463" s="20"/>
+      <c r="Q463" s="15"/>
+      <c r="R463" s="15"/>
+      <c r="S463" s="15"/>
+      <c r="T463" s="15"/>
+      <c r="U463" s="15"/>
+      <c r="V463" s="15"/>
       <c r="W463" s="15"/>
       <c r="X463" s="15"/>
       <c r="Y463" s="15"/>
@@ -21367,13 +21339,13 @@
       <c r="AC463" s="15"/>
     </row>
     <row r="464" spans="9:29">
-      <c r="Q464" s="15"/>
-      <c r="R464" s="15"/>
-      <c r="S464" s="15"/>
-      <c r="T464" s="15"/>
-      <c r="U464" s="15"/>
-      <c r="V464" s="15"/>
-      <c r="W464" s="15"/>
+      <c r="Q464" s="20"/>
+      <c r="R464" s="20"/>
+      <c r="S464" s="20"/>
+      <c r="T464" s="20"/>
+      <c r="U464" s="20"/>
+      <c r="V464" s="20"/>
+      <c r="W464" s="20"/>
       <c r="X464" s="15"/>
       <c r="Y464" s="15"/>
       <c r="Z464" s="15"/>
@@ -21397,13 +21369,13 @@
       <c r="AC465" s="15"/>
     </row>
     <row r="466" spans="9:29">
-      <c r="Q466" s="20"/>
-      <c r="R466" s="20"/>
-      <c r="S466" s="20"/>
-      <c r="T466" s="20"/>
-      <c r="U466" s="20"/>
-      <c r="V466" s="20"/>
-      <c r="W466" s="20"/>
+      <c r="Q466" s="15"/>
+      <c r="R466" s="15"/>
+      <c r="S466" s="15"/>
+      <c r="T466" s="15"/>
+      <c r="U466" s="15"/>
+      <c r="V466" s="15"/>
+      <c r="W466" s="15"/>
       <c r="X466" s="15"/>
       <c r="Y466" s="15"/>
       <c r="Z466" s="15"/>
@@ -21412,12 +21384,12 @@
       <c r="AC466" s="15"/>
     </row>
     <row r="467" spans="9:29">
-      <c r="Q467" s="15"/>
-      <c r="R467" s="15"/>
-      <c r="S467" s="15"/>
-      <c r="T467" s="15"/>
-      <c r="U467" s="15"/>
-      <c r="V467" s="15"/>
+      <c r="Q467" s="20"/>
+      <c r="R467" s="20"/>
+      <c r="S467" s="20"/>
+      <c r="T467" s="20"/>
+      <c r="U467" s="20"/>
+      <c r="V467" s="20"/>
       <c r="W467" s="15"/>
       <c r="X467" s="15"/>
       <c r="Y467" s="15"/>
@@ -21433,7 +21405,7 @@
       <c r="T468" s="20"/>
       <c r="U468" s="20"/>
       <c r="V468" s="20"/>
-      <c r="W468" s="15"/>
+      <c r="W468" s="20"/>
       <c r="X468" s="15"/>
       <c r="Y468" s="15"/>
       <c r="Z468" s="15"/>
@@ -21493,7 +21465,7 @@
       <c r="T472" s="20"/>
       <c r="U472" s="20"/>
       <c r="V472" s="20"/>
-      <c r="W472" s="20"/>
+      <c r="W472" s="15"/>
       <c r="X472" s="15"/>
       <c r="Y472" s="15"/>
       <c r="Z472" s="15"/>
@@ -21502,13 +21474,15 @@
       <c r="AC472" s="15"/>
     </row>
     <row r="473" spans="9:29">
+      <c r="J473" s="38"/>
+      <c r="K473" s="38"/>
       <c r="Q473" s="20"/>
       <c r="R473" s="20"/>
       <c r="S473" s="20"/>
       <c r="T473" s="20"/>
       <c r="U473" s="20"/>
       <c r="V473" s="20"/>
-      <c r="W473" s="15"/>
+      <c r="W473" s="20"/>
       <c r="X473" s="15"/>
       <c r="Y473" s="15"/>
       <c r="Z473" s="15"/>
@@ -21517,8 +21491,8 @@
       <c r="AC473" s="15"/>
     </row>
     <row r="474" spans="9:29">
-      <c r="J474" s="38"/>
-      <c r="K474" s="38"/>
+      <c r="I474" s="38"/>
+      <c r="L474" s="38"/>
       <c r="Q474" s="20"/>
       <c r="R474" s="20"/>
       <c r="S474" s="20"/>
@@ -21534,8 +21508,8 @@
       <c r="AC474" s="15"/>
     </row>
     <row r="475" spans="9:29">
-      <c r="I475" s="38"/>
-      <c r="L475" s="38"/>
+      <c r="J475" s="38"/>
+      <c r="K475" s="38"/>
       <c r="Q475" s="20"/>
       <c r="R475" s="20"/>
       <c r="S475" s="20"/>
@@ -21551,8 +21525,8 @@
       <c r="AC475" s="15"/>
     </row>
     <row r="476" spans="9:29">
-      <c r="J476" s="38"/>
-      <c r="K476" s="38"/>
+      <c r="I476" s="38"/>
+      <c r="L476" s="38"/>
       <c r="Q476" s="20"/>
       <c r="R476" s="20"/>
       <c r="S476" s="20"/>
@@ -21568,15 +21542,13 @@
       <c r="AC476" s="15"/>
     </row>
     <row r="477" spans="9:29">
-      <c r="I477" s="38"/>
-      <c r="L477" s="38"/>
       <c r="Q477" s="20"/>
       <c r="R477" s="20"/>
       <c r="S477" s="20"/>
       <c r="T477" s="20"/>
       <c r="U477" s="20"/>
       <c r="V477" s="20"/>
-      <c r="W477" s="20"/>
+      <c r="W477" s="15"/>
       <c r="X477" s="15"/>
       <c r="Y477" s="15"/>
       <c r="Z477" s="15"/>
@@ -21621,7 +21593,7 @@
       <c r="T480" s="20"/>
       <c r="U480" s="20"/>
       <c r="V480" s="20"/>
-      <c r="W480" s="15"/>
+      <c r="W480" s="20"/>
       <c r="X480" s="15"/>
       <c r="Y480" s="15"/>
       <c r="Z480" s="15"/>
@@ -21645,13 +21617,13 @@
       <c r="AC481" s="15"/>
     </row>
     <row r="482" spans="9:29">
-      <c r="Q482" s="20"/>
-      <c r="R482" s="20"/>
-      <c r="S482" s="20"/>
-      <c r="T482" s="20"/>
-      <c r="U482" s="20"/>
-      <c r="V482" s="20"/>
-      <c r="W482" s="20"/>
+      <c r="Q482" s="15"/>
+      <c r="R482" s="15"/>
+      <c r="S482" s="15"/>
+      <c r="T482" s="15"/>
+      <c r="U482" s="15"/>
+      <c r="V482" s="15"/>
+      <c r="W482" s="15"/>
       <c r="X482" s="15"/>
       <c r="Y482" s="15"/>
       <c r="Z482" s="15"/>
@@ -21675,14 +21647,15 @@
       <c r="AC483" s="15"/>
     </row>
     <row r="484" spans="9:29">
-      <c r="Q484" s="15"/>
-      <c r="R484" s="15"/>
-      <c r="S484" s="15"/>
-      <c r="T484" s="15"/>
-      <c r="U484" s="15"/>
-      <c r="V484" s="15"/>
-      <c r="W484" s="15"/>
-      <c r="X484" s="15"/>
+      <c r="P484" s="18"/>
+      <c r="Q484" s="20"/>
+      <c r="R484" s="20"/>
+      <c r="S484" s="20"/>
+      <c r="T484" s="20"/>
+      <c r="U484" s="20"/>
+      <c r="V484" s="20"/>
+      <c r="W484" s="20"/>
+      <c r="X484" s="20"/>
       <c r="Y484" s="15"/>
       <c r="Z484" s="15"/>
       <c r="AA484" s="15"/>
@@ -21690,15 +21663,14 @@
       <c r="AC484" s="15"/>
     </row>
     <row r="485" spans="9:29">
-      <c r="P485" s="18"/>
       <c r="Q485" s="20"/>
       <c r="R485" s="20"/>
       <c r="S485" s="20"/>
       <c r="T485" s="20"/>
       <c r="U485" s="20"/>
       <c r="V485" s="20"/>
-      <c r="W485" s="20"/>
-      <c r="X485" s="20"/>
+      <c r="W485" s="15"/>
+      <c r="X485" s="15"/>
       <c r="Y485" s="15"/>
       <c r="Z485" s="15"/>
       <c r="AA485" s="15"/>
@@ -21727,7 +21699,7 @@
       <c r="T487" s="20"/>
       <c r="U487" s="20"/>
       <c r="V487" s="20"/>
-      <c r="W487" s="15"/>
+      <c r="W487" s="20"/>
       <c r="X487" s="15"/>
       <c r="Y487" s="15"/>
       <c r="Z487" s="15"/>
@@ -21736,6 +21708,8 @@
       <c r="AC487" s="15"/>
     </row>
     <row r="488" spans="9:29">
+      <c r="J488" s="38"/>
+      <c r="K488" s="38"/>
       <c r="Q488" s="20"/>
       <c r="R488" s="20"/>
       <c r="S488" s="20"/>
@@ -21751,8 +21725,8 @@
       <c r="AC488" s="15"/>
     </row>
     <row r="489" spans="9:29">
-      <c r="J489" s="38"/>
-      <c r="K489" s="38"/>
+      <c r="I489" s="38"/>
+      <c r="L489" s="38"/>
       <c r="Q489" s="20"/>
       <c r="R489" s="20"/>
       <c r="S489" s="20"/>
@@ -21768,15 +21742,13 @@
       <c r="AC489" s="15"/>
     </row>
     <row r="490" spans="9:29">
-      <c r="I490" s="38"/>
-      <c r="L490" s="38"/>
       <c r="Q490" s="20"/>
       <c r="R490" s="20"/>
       <c r="S490" s="20"/>
       <c r="T490" s="20"/>
       <c r="U490" s="20"/>
       <c r="V490" s="20"/>
-      <c r="W490" s="20"/>
+      <c r="W490" s="15"/>
       <c r="X490" s="15"/>
       <c r="Y490" s="15"/>
       <c r="Z490" s="15"/>
@@ -21791,7 +21763,7 @@
       <c r="T491" s="20"/>
       <c r="U491" s="20"/>
       <c r="V491" s="20"/>
-      <c r="W491" s="15"/>
+      <c r="W491" s="20"/>
       <c r="X491" s="15"/>
       <c r="Y491" s="15"/>
       <c r="Z491" s="15"/>
@@ -21800,13 +21772,13 @@
       <c r="AC491" s="15"/>
     </row>
     <row r="492" spans="9:29">
-      <c r="Q492" s="20"/>
-      <c r="R492" s="20"/>
-      <c r="S492" s="20"/>
-      <c r="T492" s="20"/>
-      <c r="U492" s="20"/>
-      <c r="V492" s="20"/>
-      <c r="W492" s="20"/>
+      <c r="Q492" s="15"/>
+      <c r="R492" s="15"/>
+      <c r="S492" s="15"/>
+      <c r="T492" s="15"/>
+      <c r="U492" s="15"/>
+      <c r="V492" s="15"/>
+      <c r="W492" s="15"/>
       <c r="X492" s="15"/>
       <c r="Y492" s="15"/>
       <c r="Z492" s="15"/>
@@ -21815,14 +21787,15 @@
       <c r="AC492" s="15"/>
     </row>
     <row r="493" spans="9:29">
-      <c r="Q493" s="15"/>
-      <c r="R493" s="15"/>
-      <c r="S493" s="15"/>
-      <c r="T493" s="15"/>
-      <c r="U493" s="15"/>
-      <c r="V493" s="15"/>
-      <c r="W493" s="15"/>
-      <c r="X493" s="15"/>
+      <c r="P493" s="18"/>
+      <c r="Q493" s="20"/>
+      <c r="R493" s="20"/>
+      <c r="S493" s="20"/>
+      <c r="T493" s="20"/>
+      <c r="U493" s="20"/>
+      <c r="V493" s="20"/>
+      <c r="W493" s="20"/>
+      <c r="X493" s="20"/>
       <c r="Y493" s="15"/>
       <c r="Z493" s="15"/>
       <c r="AA493" s="15"/>
@@ -21830,15 +21803,14 @@
       <c r="AC493" s="15"/>
     </row>
     <row r="494" spans="9:29">
-      <c r="P494" s="18"/>
       <c r="Q494" s="20"/>
       <c r="R494" s="20"/>
       <c r="S494" s="20"/>
       <c r="T494" s="20"/>
       <c r="U494" s="20"/>
       <c r="V494" s="20"/>
-      <c r="W494" s="20"/>
-      <c r="X494" s="20"/>
+      <c r="W494" s="15"/>
+      <c r="X494" s="15"/>
       <c r="Y494" s="15"/>
       <c r="Z494" s="15"/>
       <c r="AA494" s="15"/>
@@ -21867,7 +21839,7 @@
       <c r="T496" s="20"/>
       <c r="U496" s="20"/>
       <c r="V496" s="20"/>
-      <c r="W496" s="15"/>
+      <c r="W496" s="20"/>
       <c r="X496" s="15"/>
       <c r="Y496" s="15"/>
       <c r="Z496" s="15"/>
@@ -21897,7 +21869,7 @@
       <c r="T498" s="20"/>
       <c r="U498" s="20"/>
       <c r="V498" s="20"/>
-      <c r="W498" s="20"/>
+      <c r="W498" s="15"/>
       <c r="X498" s="15"/>
       <c r="Y498" s="15"/>
       <c r="Z498" s="15"/>
@@ -21912,7 +21884,7 @@
       <c r="T499" s="20"/>
       <c r="U499" s="20"/>
       <c r="V499" s="20"/>
-      <c r="W499" s="15"/>
+      <c r="W499" s="20"/>
       <c r="X499" s="15"/>
       <c r="Y499" s="15"/>
       <c r="Z499" s="15"/>
@@ -21921,13 +21893,13 @@
       <c r="AC499" s="15"/>
     </row>
     <row r="500" spans="16:29">
-      <c r="Q500" s="20"/>
-      <c r="R500" s="20"/>
-      <c r="S500" s="20"/>
-      <c r="T500" s="20"/>
-      <c r="U500" s="20"/>
-      <c r="V500" s="20"/>
-      <c r="W500" s="20"/>
+      <c r="Q500" s="15"/>
+      <c r="R500" s="15"/>
+      <c r="S500" s="15"/>
+      <c r="T500" s="15"/>
+      <c r="U500" s="15"/>
+      <c r="V500" s="15"/>
+      <c r="W500" s="15"/>
       <c r="X500" s="15"/>
       <c r="Y500" s="15"/>
       <c r="Z500" s="15"/>
@@ -21936,14 +21908,15 @@
       <c r="AC500" s="15"/>
     </row>
     <row r="501" spans="16:29">
-      <c r="Q501" s="15"/>
-      <c r="R501" s="15"/>
-      <c r="S501" s="15"/>
-      <c r="T501" s="15"/>
-      <c r="U501" s="15"/>
-      <c r="V501" s="15"/>
-      <c r="W501" s="15"/>
-      <c r="X501" s="15"/>
+      <c r="P501" s="18"/>
+      <c r="Q501" s="20"/>
+      <c r="R501" s="20"/>
+      <c r="S501" s="20"/>
+      <c r="T501" s="20"/>
+      <c r="U501" s="20"/>
+      <c r="V501" s="20"/>
+      <c r="W501" s="20"/>
+      <c r="X501" s="20"/>
       <c r="Y501" s="15"/>
       <c r="Z501" s="15"/>
       <c r="AA501" s="15"/>
@@ -21951,15 +21924,14 @@
       <c r="AC501" s="15"/>
     </row>
     <row r="502" spans="16:29">
-      <c r="P502" s="18"/>
       <c r="Q502" s="20"/>
       <c r="R502" s="20"/>
       <c r="S502" s="20"/>
       <c r="T502" s="20"/>
       <c r="U502" s="20"/>
       <c r="V502" s="20"/>
-      <c r="W502" s="20"/>
-      <c r="X502" s="20"/>
+      <c r="W502" s="15"/>
+      <c r="X502" s="15"/>
       <c r="Y502" s="15"/>
       <c r="Z502" s="15"/>
       <c r="AA502" s="15"/>
@@ -21973,7 +21945,7 @@
       <c r="T503" s="20"/>
       <c r="U503" s="20"/>
       <c r="V503" s="20"/>
-      <c r="W503" s="15"/>
+      <c r="W503" s="20"/>
       <c r="X503" s="15"/>
       <c r="Y503" s="15"/>
       <c r="Z503" s="15"/>
@@ -22003,7 +21975,7 @@
       <c r="T505" s="20"/>
       <c r="U505" s="20"/>
       <c r="V505" s="20"/>
-      <c r="W505" s="20"/>
+      <c r="W505" s="15"/>
       <c r="X505" s="15"/>
       <c r="Y505" s="15"/>
       <c r="Z505" s="15"/>
@@ -22042,12 +22014,12 @@
       <c r="AC507" s="15"/>
     </row>
     <row r="508" spans="16:29">
-      <c r="Q508" s="20"/>
-      <c r="R508" s="20"/>
-      <c r="S508" s="20"/>
-      <c r="T508" s="20"/>
-      <c r="U508" s="20"/>
-      <c r="V508" s="20"/>
+      <c r="Q508" s="15"/>
+      <c r="R508" s="15"/>
+      <c r="S508" s="15"/>
+      <c r="T508" s="15"/>
+      <c r="U508" s="15"/>
+      <c r="V508" s="15"/>
       <c r="W508" s="15"/>
       <c r="X508" s="15"/>
       <c r="Y508" s="15"/>
@@ -22057,12 +22029,12 @@
       <c r="AC508" s="15"/>
     </row>
     <row r="509" spans="16:29">
-      <c r="Q509" s="15"/>
-      <c r="R509" s="15"/>
-      <c r="S509" s="15"/>
-      <c r="T509" s="15"/>
-      <c r="U509" s="15"/>
-      <c r="V509" s="15"/>
+      <c r="Q509" s="20"/>
+      <c r="R509" s="20"/>
+      <c r="S509" s="20"/>
+      <c r="T509" s="20"/>
+      <c r="U509" s="20"/>
+      <c r="V509" s="20"/>
       <c r="W509" s="15"/>
       <c r="X509" s="15"/>
       <c r="Y509" s="15"/>
@@ -22087,14 +22059,15 @@
       <c r="AC510" s="15"/>
     </row>
     <row r="511" spans="16:29">
+      <c r="P511" s="18"/>
       <c r="Q511" s="20"/>
       <c r="R511" s="20"/>
       <c r="S511" s="20"/>
       <c r="T511" s="20"/>
       <c r="U511" s="20"/>
       <c r="V511" s="20"/>
-      <c r="W511" s="15"/>
-      <c r="X511" s="15"/>
+      <c r="W511" s="20"/>
+      <c r="X511" s="20"/>
       <c r="Y511" s="15"/>
       <c r="Z511" s="15"/>
       <c r="AA511" s="15"/>
@@ -22102,15 +22075,14 @@
       <c r="AC511" s="15"/>
     </row>
     <row r="512" spans="16:29">
-      <c r="P512" s="18"/>
       <c r="Q512" s="20"/>
       <c r="R512" s="20"/>
       <c r="S512" s="20"/>
       <c r="T512" s="20"/>
       <c r="U512" s="20"/>
       <c r="V512" s="20"/>
-      <c r="W512" s="20"/>
-      <c r="X512" s="20"/>
+      <c r="W512" s="15"/>
+      <c r="X512" s="15"/>
       <c r="Y512" s="15"/>
       <c r="Z512" s="15"/>
       <c r="AA512" s="15"/>
@@ -22124,7 +22096,7 @@
       <c r="T513" s="20"/>
       <c r="U513" s="20"/>
       <c r="V513" s="20"/>
-      <c r="W513" s="15"/>
+      <c r="W513" s="20"/>
       <c r="X513" s="15"/>
       <c r="Y513" s="15"/>
       <c r="Z513" s="15"/>
@@ -22139,7 +22111,7 @@
       <c r="T514" s="20"/>
       <c r="U514" s="20"/>
       <c r="V514" s="20"/>
-      <c r="W514" s="20"/>
+      <c r="W514" s="15"/>
       <c r="X514" s="15"/>
       <c r="Y514" s="15"/>
       <c r="Z514" s="15"/>
@@ -22169,7 +22141,7 @@
       <c r="T516" s="20"/>
       <c r="U516" s="20"/>
       <c r="V516" s="20"/>
-      <c r="W516" s="15"/>
+      <c r="W516" s="20"/>
       <c r="X516" s="15"/>
       <c r="Y516" s="15"/>
       <c r="Z516" s="15"/>
@@ -22184,7 +22156,7 @@
       <c r="T517" s="20"/>
       <c r="U517" s="20"/>
       <c r="V517" s="20"/>
-      <c r="W517" s="20"/>
+      <c r="W517" s="15"/>
       <c r="X517" s="15"/>
       <c r="Y517" s="15"/>
       <c r="Z517" s="15"/>
@@ -22193,14 +22165,15 @@
       <c r="AC517" s="15"/>
     </row>
     <row r="518" spans="16:29">
+      <c r="P518" s="18"/>
       <c r="Q518" s="20"/>
       <c r="R518" s="20"/>
       <c r="S518" s="20"/>
       <c r="T518" s="20"/>
       <c r="U518" s="20"/>
       <c r="V518" s="20"/>
-      <c r="W518" s="15"/>
-      <c r="X518" s="15"/>
+      <c r="W518" s="20"/>
+      <c r="X518" s="20"/>
       <c r="Y518" s="15"/>
       <c r="Z518" s="15"/>
       <c r="AA518" s="15"/>
@@ -22208,15 +22181,14 @@
       <c r="AC518" s="15"/>
     </row>
     <row r="519" spans="16:29">
-      <c r="P519" s="18"/>
       <c r="Q519" s="20"/>
       <c r="R519" s="20"/>
       <c r="S519" s="20"/>
       <c r="T519" s="20"/>
       <c r="U519" s="20"/>
       <c r="V519" s="20"/>
-      <c r="W519" s="20"/>
-      <c r="X519" s="20"/>
+      <c r="W519" s="15"/>
+      <c r="X519" s="15"/>
       <c r="Y519" s="15"/>
       <c r="Z519" s="15"/>
       <c r="AA519" s="15"/>
@@ -22230,7 +22202,7 @@
       <c r="T520" s="20"/>
       <c r="U520" s="20"/>
       <c r="V520" s="20"/>
-      <c r="W520" s="15"/>
+      <c r="W520" s="20"/>
       <c r="X520" s="15"/>
       <c r="Y520" s="15"/>
       <c r="Z520" s="15"/>
@@ -22245,7 +22217,7 @@
       <c r="T521" s="20"/>
       <c r="U521" s="20"/>
       <c r="V521" s="20"/>
-      <c r="W521" s="20"/>
+      <c r="W521" s="15"/>
       <c r="X521" s="15"/>
       <c r="Y521" s="15"/>
       <c r="Z521" s="15"/>
@@ -22260,7 +22232,7 @@
       <c r="T522" s="20"/>
       <c r="U522" s="20"/>
       <c r="V522" s="20"/>
-      <c r="W522" s="15"/>
+      <c r="W522" s="20"/>
       <c r="X522" s="15"/>
       <c r="Y522" s="15"/>
       <c r="Z522" s="15"/>
@@ -22275,7 +22247,7 @@
       <c r="T523" s="20"/>
       <c r="U523" s="20"/>
       <c r="V523" s="20"/>
-      <c r="W523" s="20"/>
+      <c r="W523" s="15"/>
       <c r="X523" s="15"/>
       <c r="Y523" s="15"/>
       <c r="Z523" s="15"/>
@@ -22290,7 +22262,7 @@
       <c r="T524" s="20"/>
       <c r="U524" s="20"/>
       <c r="V524" s="20"/>
-      <c r="W524" s="15"/>
+      <c r="W524" s="20"/>
       <c r="X524" s="15"/>
       <c r="Y524" s="15"/>
       <c r="Z524" s="15"/>
@@ -22305,7 +22277,7 @@
       <c r="T525" s="20"/>
       <c r="U525" s="20"/>
       <c r="V525" s="20"/>
-      <c r="W525" s="20"/>
+      <c r="W525" s="15"/>
       <c r="X525" s="15"/>
       <c r="Y525" s="15"/>
       <c r="Z525" s="15"/>
@@ -22329,12 +22301,12 @@
       <c r="AC526" s="15"/>
     </row>
     <row r="527" spans="16:29">
-      <c r="Q527" s="20"/>
-      <c r="R527" s="20"/>
-      <c r="S527" s="20"/>
-      <c r="T527" s="20"/>
-      <c r="U527" s="20"/>
-      <c r="V527" s="20"/>
+      <c r="Q527" s="15"/>
+      <c r="R527" s="15"/>
+      <c r="S527" s="15"/>
+      <c r="T527" s="15"/>
+      <c r="U527" s="15"/>
+      <c r="V527" s="15"/>
       <c r="W527" s="15"/>
       <c r="X527" s="15"/>
       <c r="Y527" s="15"/>
@@ -22344,14 +22316,15 @@
       <c r="AC527" s="15"/>
     </row>
     <row r="528" spans="16:29">
-      <c r="Q528" s="15"/>
-      <c r="R528" s="15"/>
-      <c r="S528" s="15"/>
-      <c r="T528" s="15"/>
-      <c r="U528" s="15"/>
-      <c r="V528" s="15"/>
-      <c r="W528" s="15"/>
-      <c r="X528" s="15"/>
+      <c r="P528" s="18"/>
+      <c r="Q528" s="20"/>
+      <c r="R528" s="20"/>
+      <c r="S528" s="20"/>
+      <c r="T528" s="20"/>
+      <c r="U528" s="20"/>
+      <c r="V528" s="20"/>
+      <c r="W528" s="20"/>
+      <c r="X528" s="20"/>
       <c r="Y528" s="15"/>
       <c r="Z528" s="15"/>
       <c r="AA528" s="15"/>
@@ -22359,15 +22332,14 @@
       <c r="AC528" s="15"/>
     </row>
     <row r="529" spans="16:29">
-      <c r="P529" s="18"/>
       <c r="Q529" s="20"/>
       <c r="R529" s="20"/>
       <c r="S529" s="20"/>
       <c r="T529" s="20"/>
       <c r="U529" s="20"/>
       <c r="V529" s="20"/>
-      <c r="W529" s="20"/>
-      <c r="X529" s="20"/>
+      <c r="W529" s="15"/>
+      <c r="X529" s="15"/>
       <c r="Y529" s="15"/>
       <c r="Z529" s="15"/>
       <c r="AA529" s="15"/>
@@ -22375,14 +22347,15 @@
       <c r="AC529" s="15"/>
     </row>
     <row r="530" spans="16:29">
+      <c r="P530" s="18"/>
       <c r="Q530" s="20"/>
       <c r="R530" s="20"/>
       <c r="S530" s="20"/>
       <c r="T530" s="20"/>
       <c r="U530" s="20"/>
       <c r="V530" s="20"/>
-      <c r="W530" s="15"/>
-      <c r="X530" s="15"/>
+      <c r="W530" s="20"/>
+      <c r="X530" s="20"/>
       <c r="Y530" s="15"/>
       <c r="Z530" s="15"/>
       <c r="AA530" s="15"/>
@@ -22406,15 +22379,14 @@
       <c r="AC531" s="15"/>
     </row>
     <row r="532" spans="16:29">
-      <c r="P532" s="18"/>
       <c r="Q532" s="20"/>
       <c r="R532" s="20"/>
       <c r="S532" s="20"/>
       <c r="T532" s="20"/>
       <c r="U532" s="20"/>
       <c r="V532" s="20"/>
-      <c r="W532" s="20"/>
-      <c r="X532" s="20"/>
+      <c r="W532" s="15"/>
+      <c r="X532" s="15"/>
       <c r="Y532" s="15"/>
       <c r="Z532" s="15"/>
       <c r="AA532" s="15"/>
@@ -22443,7 +22415,7 @@
       <c r="T534" s="20"/>
       <c r="U534" s="20"/>
       <c r="V534" s="20"/>
-      <c r="W534" s="15"/>
+      <c r="W534" s="20"/>
       <c r="X534" s="15"/>
       <c r="Y534" s="15"/>
       <c r="Z534" s="15"/>
@@ -22452,6 +22424,7 @@
       <c r="AC534" s="15"/>
     </row>
     <row r="535" spans="16:29">
+      <c r="P535" s="18"/>
       <c r="Q535" s="20"/>
       <c r="R535" s="20"/>
       <c r="S535" s="20"/>
@@ -22459,7 +22432,7 @@
       <c r="U535" s="20"/>
       <c r="V535" s="20"/>
       <c r="W535" s="20"/>
-      <c r="X535" s="15"/>
+      <c r="X535" s="20"/>
       <c r="Y535" s="15"/>
       <c r="Z535" s="15"/>
       <c r="AA535" s="15"/>
@@ -22483,7 +22456,6 @@
       <c r="AC536" s="15"/>
     </row>
     <row r="537" spans="16:29">
-      <c r="P537" s="18"/>
       <c r="Q537" s="20"/>
       <c r="R537" s="20"/>
       <c r="S537" s="20"/>
@@ -22491,7 +22463,7 @@
       <c r="U537" s="20"/>
       <c r="V537" s="20"/>
       <c r="W537" s="20"/>
-      <c r="X537" s="20"/>
+      <c r="X537" s="15"/>
       <c r="Y537" s="15"/>
       <c r="Z537" s="15"/>
       <c r="AA537" s="15"/>
@@ -22499,6 +22471,7 @@
       <c r="AC537" s="15"/>
     </row>
     <row r="538" spans="16:29">
+      <c r="P538" s="18"/>
       <c r="Q538" s="20"/>
       <c r="R538" s="20"/>
       <c r="S538" s="20"/>
@@ -22506,7 +22479,7 @@
       <c r="U538" s="20"/>
       <c r="V538" s="20"/>
       <c r="W538" s="20"/>
-      <c r="X538" s="15"/>
+      <c r="X538" s="20"/>
       <c r="Y538" s="15"/>
       <c r="Z538" s="15"/>
       <c r="AA538" s="15"/>
@@ -22562,15 +22535,14 @@
       <c r="AC541" s="15"/>
     </row>
     <row r="542" spans="16:29">
-      <c r="P542" s="18"/>
       <c r="Q542" s="20"/>
       <c r="R542" s="20"/>
       <c r="S542" s="20"/>
       <c r="T542" s="20"/>
       <c r="U542" s="20"/>
       <c r="V542" s="20"/>
-      <c r="W542" s="20"/>
-      <c r="X542" s="20"/>
+      <c r="W542" s="15"/>
+      <c r="X542" s="15"/>
       <c r="Y542" s="15"/>
       <c r="Z542" s="15"/>
       <c r="AA542" s="15"/>
@@ -22584,7 +22556,7 @@
       <c r="T543" s="20"/>
       <c r="U543" s="20"/>
       <c r="V543" s="20"/>
-      <c r="W543" s="15"/>
+      <c r="W543" s="20"/>
       <c r="X543" s="15"/>
       <c r="Y543" s="15"/>
       <c r="Z543" s="15"/>
@@ -22599,7 +22571,7 @@
       <c r="T544" s="20"/>
       <c r="U544" s="20"/>
       <c r="V544" s="20"/>
-      <c r="W544" s="20"/>
+      <c r="W544" s="15"/>
       <c r="X544" s="15"/>
       <c r="Y544" s="15"/>
       <c r="Z544" s="15"/>
@@ -22614,7 +22586,7 @@
       <c r="T545" s="20"/>
       <c r="U545" s="20"/>
       <c r="V545" s="20"/>
-      <c r="W545" s="15"/>
+      <c r="W545" s="20"/>
       <c r="X545" s="15"/>
       <c r="Y545" s="15"/>
       <c r="Z545" s="15"/>
@@ -22629,7 +22601,7 @@
       <c r="T546" s="20"/>
       <c r="U546" s="20"/>
       <c r="V546" s="20"/>
-      <c r="W546" s="20"/>
+      <c r="W546" s="15"/>
       <c r="X546" s="15"/>
       <c r="Y546" s="15"/>
       <c r="Z546" s="15"/>
@@ -22638,12 +22610,12 @@
       <c r="AC546" s="15"/>
     </row>
     <row r="547" spans="17:29">
-      <c r="Q547" s="20"/>
-      <c r="R547" s="20"/>
-      <c r="S547" s="20"/>
-      <c r="T547" s="20"/>
-      <c r="U547" s="20"/>
-      <c r="V547" s="20"/>
+      <c r="Q547" s="15"/>
+      <c r="R547" s="15"/>
+      <c r="S547" s="15"/>
+      <c r="T547" s="15"/>
+      <c r="U547" s="15"/>
+      <c r="V547" s="15"/>
       <c r="W547" s="15"/>
       <c r="X547" s="15"/>
       <c r="Y547" s="15"/>
@@ -22653,12 +22625,12 @@
       <c r="AC547" s="15"/>
     </row>
     <row r="548" spans="17:29">
-      <c r="Q548" s="15"/>
-      <c r="R548" s="15"/>
-      <c r="S548" s="15"/>
-      <c r="T548" s="15"/>
-      <c r="U548" s="15"/>
-      <c r="V548" s="15"/>
+      <c r="Q548" s="20"/>
+      <c r="R548" s="20"/>
+      <c r="S548" s="20"/>
+      <c r="T548" s="20"/>
+      <c r="U548" s="20"/>
+      <c r="V548" s="20"/>
       <c r="W548" s="15"/>
       <c r="X548" s="15"/>
       <c r="Y548" s="15"/>
@@ -22689,7 +22661,7 @@
       <c r="T550" s="20"/>
       <c r="U550" s="20"/>
       <c r="V550" s="20"/>
-      <c r="W550" s="15"/>
+      <c r="W550" s="20"/>
       <c r="X550" s="15"/>
       <c r="Y550" s="15"/>
       <c r="Z550" s="15"/>
@@ -22719,7 +22691,7 @@
       <c r="T552" s="20"/>
       <c r="U552" s="20"/>
       <c r="V552" s="20"/>
-      <c r="W552" s="20"/>
+      <c r="W552" s="15"/>
       <c r="X552" s="15"/>
       <c r="Y552" s="15"/>
       <c r="Z552" s="15"/>
@@ -22734,7 +22706,7 @@
       <c r="T553" s="20"/>
       <c r="U553" s="20"/>
       <c r="V553" s="20"/>
-      <c r="W553" s="15"/>
+      <c r="W553" s="20"/>
       <c r="X553" s="15"/>
       <c r="Y553" s="15"/>
       <c r="Z553" s="15"/>
@@ -22749,7 +22721,7 @@
       <c r="T554" s="20"/>
       <c r="U554" s="20"/>
       <c r="V554" s="20"/>
-      <c r="W554" s="20"/>
+      <c r="W554" s="15"/>
       <c r="X554" s="15"/>
       <c r="Y554" s="15"/>
       <c r="Z554" s="15"/>
@@ -22764,7 +22736,7 @@
       <c r="T555" s="20"/>
       <c r="U555" s="20"/>
       <c r="V555" s="20"/>
-      <c r="W555" s="15"/>
+      <c r="W555" s="20"/>
       <c r="X555" s="15"/>
       <c r="Y555" s="15"/>
       <c r="Z555" s="15"/>
@@ -22794,7 +22766,7 @@
       <c r="T557" s="20"/>
       <c r="U557" s="20"/>
       <c r="V557" s="20"/>
-      <c r="W557" s="20"/>
+      <c r="W557" s="15"/>
       <c r="X557" s="15"/>
       <c r="Y557" s="15"/>
       <c r="Z557" s="15"/>
@@ -22818,12 +22790,12 @@
       <c r="AC558" s="15"/>
     </row>
     <row r="559" spans="17:29">
-      <c r="Q559" s="20"/>
-      <c r="R559" s="20"/>
-      <c r="S559" s="20"/>
-      <c r="T559" s="20"/>
-      <c r="U559" s="20"/>
-      <c r="V559" s="20"/>
+      <c r="Q559" s="15"/>
+      <c r="R559" s="15"/>
+      <c r="S559" s="15"/>
+      <c r="T559" s="15"/>
+      <c r="U559" s="15"/>
+      <c r="V559" s="15"/>
       <c r="W559" s="15"/>
       <c r="X559" s="15"/>
       <c r="Y559" s="15"/>
@@ -22833,12 +22805,12 @@
       <c r="AC559" s="15"/>
     </row>
     <row r="560" spans="17:29">
-      <c r="Q560" s="15"/>
-      <c r="R560" s="15"/>
-      <c r="S560" s="15"/>
-      <c r="T560" s="15"/>
-      <c r="U560" s="15"/>
-      <c r="V560" s="15"/>
+      <c r="Q560" s="20"/>
+      <c r="R560" s="20"/>
+      <c r="S560" s="20"/>
+      <c r="T560" s="20"/>
+      <c r="U560" s="20"/>
+      <c r="V560" s="20"/>
       <c r="W560" s="15"/>
       <c r="X560" s="15"/>
       <c r="Y560" s="15"/>
@@ -22869,7 +22841,7 @@
       <c r="T562" s="20"/>
       <c r="U562" s="20"/>
       <c r="V562" s="20"/>
-      <c r="W562" s="15"/>
+      <c r="W562" s="20"/>
       <c r="X562" s="15"/>
       <c r="Y562" s="15"/>
       <c r="Z562" s="15"/>
@@ -22899,7 +22871,7 @@
       <c r="T564" s="20"/>
       <c r="U564" s="20"/>
       <c r="V564" s="20"/>
-      <c r="W564" s="20"/>
+      <c r="W564" s="15"/>
       <c r="X564" s="15"/>
       <c r="Y564" s="15"/>
       <c r="Z564" s="15"/>
@@ -22914,7 +22886,7 @@
       <c r="T565" s="20"/>
       <c r="U565" s="20"/>
       <c r="V565" s="20"/>
-      <c r="W565" s="15"/>
+      <c r="W565" s="20"/>
       <c r="X565" s="15"/>
       <c r="Y565" s="15"/>
       <c r="Z565" s="15"/>
@@ -22929,7 +22901,7 @@
       <c r="T566" s="20"/>
       <c r="U566" s="20"/>
       <c r="V566" s="20"/>
-      <c r="W566" s="20"/>
+      <c r="W566" s="15"/>
       <c r="X566" s="15"/>
       <c r="Y566" s="15"/>
       <c r="Z566" s="15"/>
@@ -22944,7 +22916,7 @@
       <c r="T567" s="20"/>
       <c r="U567" s="20"/>
       <c r="V567" s="20"/>
-      <c r="W567" s="15"/>
+      <c r="W567" s="20"/>
       <c r="X567" s="15"/>
       <c r="Y567" s="15"/>
       <c r="Z567" s="15"/>
@@ -23004,7 +22976,7 @@
       <c r="T571" s="20"/>
       <c r="U571" s="20"/>
       <c r="V571" s="20"/>
-      <c r="W571" s="20"/>
+      <c r="W571" s="15"/>
       <c r="X571" s="15"/>
       <c r="Y571" s="15"/>
       <c r="Z571" s="15"/>
@@ -23019,7 +22991,7 @@
       <c r="T572" s="20"/>
       <c r="U572" s="20"/>
       <c r="V572" s="20"/>
-      <c r="W572" s="15"/>
+      <c r="W572" s="20"/>
       <c r="X572" s="15"/>
       <c r="Y572" s="15"/>
       <c r="Z572" s="15"/>
@@ -23034,7 +23006,7 @@
       <c r="T573" s="20"/>
       <c r="U573" s="20"/>
       <c r="V573" s="20"/>
-      <c r="W573" s="20"/>
+      <c r="W573" s="15"/>
       <c r="X573" s="15"/>
       <c r="Y573" s="15"/>
       <c r="Z573" s="15"/>
@@ -23058,12 +23030,12 @@
       <c r="AC574" s="15"/>
     </row>
     <row r="575" spans="17:29">
-      <c r="Q575" s="20"/>
-      <c r="R575" s="20"/>
-      <c r="S575" s="20"/>
-      <c r="T575" s="20"/>
-      <c r="U575" s="20"/>
-      <c r="V575" s="20"/>
+      <c r="Q575" s="15"/>
+      <c r="R575" s="15"/>
+      <c r="S575" s="15"/>
+      <c r="T575" s="15"/>
+      <c r="U575" s="15"/>
+      <c r="V575" s="15"/>
       <c r="W575" s="15"/>
       <c r="X575" s="15"/>
       <c r="Y575" s="15"/>
@@ -23073,12 +23045,12 @@
       <c r="AC575" s="15"/>
     </row>
     <row r="576" spans="17:29">
-      <c r="Q576" s="15"/>
-      <c r="R576" s="15"/>
-      <c r="S576" s="15"/>
-      <c r="T576" s="15"/>
-      <c r="U576" s="15"/>
-      <c r="V576" s="15"/>
+      <c r="Q576" s="20"/>
+      <c r="R576" s="20"/>
+      <c r="S576" s="20"/>
+      <c r="T576" s="20"/>
+      <c r="U576" s="20"/>
+      <c r="V576" s="20"/>
       <c r="W576" s="15"/>
       <c r="X576" s="15"/>
       <c r="Y576" s="15"/>
@@ -23289,7 +23261,7 @@
       <c r="T590" s="20"/>
       <c r="U590" s="20"/>
       <c r="V590" s="20"/>
-      <c r="W590" s="15"/>
+      <c r="W590" s="20"/>
       <c r="X590" s="15"/>
       <c r="Y590" s="15"/>
       <c r="Z590" s="15"/>
@@ -23304,7 +23276,7 @@
       <c r="T591" s="20"/>
       <c r="U591" s="20"/>
       <c r="V591" s="20"/>
-      <c r="W591" s="20"/>
+      <c r="W591" s="15"/>
       <c r="X591" s="15"/>
       <c r="Y591" s="15"/>
       <c r="Z591" s="15"/>
@@ -23313,12 +23285,12 @@
       <c r="AC591" s="15"/>
     </row>
     <row r="592" spans="17:29">
-      <c r="Q592" s="20"/>
-      <c r="R592" s="20"/>
-      <c r="S592" s="20"/>
-      <c r="T592" s="20"/>
-      <c r="U592" s="20"/>
-      <c r="V592" s="20"/>
+      <c r="Q592" s="15"/>
+      <c r="R592" s="15"/>
+      <c r="S592" s="15"/>
+      <c r="T592" s="15"/>
+      <c r="U592" s="15"/>
+      <c r="V592" s="15"/>
       <c r="W592" s="15"/>
       <c r="X592" s="15"/>
       <c r="Y592" s="15"/>
@@ -23328,12 +23300,12 @@
       <c r="AC592" s="15"/>
     </row>
     <row r="593" spans="17:29">
-      <c r="Q593" s="15"/>
-      <c r="R593" s="15"/>
-      <c r="S593" s="15"/>
-      <c r="T593" s="15"/>
-      <c r="U593" s="15"/>
-      <c r="V593" s="15"/>
+      <c r="Q593" s="20"/>
+      <c r="R593" s="20"/>
+      <c r="S593" s="20"/>
+      <c r="T593" s="20"/>
+      <c r="U593" s="20"/>
+      <c r="V593" s="20"/>
       <c r="W593" s="15"/>
       <c r="X593" s="15"/>
       <c r="Y593" s="15"/>
@@ -23364,7 +23336,7 @@
       <c r="T595" s="20"/>
       <c r="U595" s="20"/>
       <c r="V595" s="20"/>
-      <c r="W595" s="15"/>
+      <c r="W595" s="20"/>
       <c r="X595" s="15"/>
       <c r="Y595" s="15"/>
       <c r="Z595" s="15"/>
@@ -23409,7 +23381,7 @@
       <c r="T598" s="20"/>
       <c r="U598" s="20"/>
       <c r="V598" s="20"/>
-      <c r="W598" s="20"/>
+      <c r="W598" s="15"/>
       <c r="X598" s="15"/>
       <c r="Y598" s="15"/>
       <c r="Z598" s="15"/>
@@ -23418,12 +23390,12 @@
       <c r="AC598" s="15"/>
     </row>
     <row r="599" spans="17:29">
-      <c r="Q599" s="20"/>
-      <c r="R599" s="20"/>
-      <c r="S599" s="20"/>
-      <c r="T599" s="20"/>
-      <c r="U599" s="20"/>
-      <c r="V599" s="20"/>
+      <c r="Q599" s="15"/>
+      <c r="R599" s="15"/>
+      <c r="S599" s="15"/>
+      <c r="T599" s="15"/>
+      <c r="U599" s="15"/>
+      <c r="V599" s="15"/>
       <c r="W599" s="15"/>
       <c r="X599" s="15"/>
       <c r="Y599" s="15"/>
@@ -23433,12 +23405,12 @@
       <c r="AC599" s="15"/>
     </row>
     <row r="600" spans="17:29">
-      <c r="Q600" s="15"/>
-      <c r="R600" s="15"/>
-      <c r="S600" s="15"/>
-      <c r="T600" s="15"/>
-      <c r="U600" s="15"/>
-      <c r="V600" s="15"/>
+      <c r="Q600" s="20"/>
+      <c r="R600" s="20"/>
+      <c r="S600" s="20"/>
+      <c r="T600" s="20"/>
+      <c r="U600" s="20"/>
+      <c r="V600" s="20"/>
       <c r="W600" s="15"/>
       <c r="X600" s="15"/>
       <c r="Y600" s="15"/>
@@ -23478,12 +23450,12 @@
       <c r="AC602" s="15"/>
     </row>
     <row r="603" spans="17:29">
-      <c r="Q603" s="20"/>
-      <c r="R603" s="20"/>
-      <c r="S603" s="20"/>
-      <c r="T603" s="20"/>
-      <c r="U603" s="20"/>
-      <c r="V603" s="20"/>
+      <c r="Q603" s="15"/>
+      <c r="R603" s="15"/>
+      <c r="S603" s="15"/>
+      <c r="T603" s="15"/>
+      <c r="U603" s="15"/>
+      <c r="V603" s="15"/>
       <c r="W603" s="15"/>
       <c r="X603" s="15"/>
       <c r="Y603" s="15"/>
@@ -23493,13 +23465,13 @@
       <c r="AC603" s="15"/>
     </row>
     <row r="604" spans="17:29">
-      <c r="Q604" s="15"/>
-      <c r="R604" s="15"/>
-      <c r="S604" s="15"/>
-      <c r="T604" s="15"/>
-      <c r="U604" s="15"/>
-      <c r="V604" s="15"/>
-      <c r="W604" s="15"/>
+      <c r="Q604" s="20"/>
+      <c r="R604" s="20"/>
+      <c r="S604" s="20"/>
+      <c r="T604" s="20"/>
+      <c r="U604" s="20"/>
+      <c r="V604" s="20"/>
+      <c r="W604" s="20"/>
       <c r="X604" s="15"/>
       <c r="Y604" s="15"/>
       <c r="Z604" s="15"/>
@@ -23514,7 +23486,7 @@
       <c r="T605" s="20"/>
       <c r="U605" s="20"/>
       <c r="V605" s="20"/>
-      <c r="W605" s="20"/>
+      <c r="W605" s="15"/>
       <c r="X605" s="15"/>
       <c r="Y605" s="15"/>
       <c r="Z605" s="15"/>
@@ -23523,12 +23495,12 @@
       <c r="AC605" s="15"/>
     </row>
     <row r="606" spans="17:29">
-      <c r="Q606" s="20"/>
-      <c r="R606" s="20"/>
-      <c r="S606" s="20"/>
-      <c r="T606" s="20"/>
-      <c r="U606" s="20"/>
-      <c r="V606" s="20"/>
+      <c r="Q606" s="15"/>
+      <c r="R606" s="15"/>
+      <c r="S606" s="15"/>
+      <c r="T606" s="15"/>
+      <c r="U606" s="15"/>
+      <c r="V606" s="15"/>
       <c r="W606" s="15"/>
       <c r="X606" s="15"/>
       <c r="Y606" s="15"/>
@@ -23538,12 +23510,12 @@
       <c r="AC606" s="15"/>
     </row>
     <row r="607" spans="17:29">
-      <c r="Q607" s="15"/>
-      <c r="R607" s="15"/>
-      <c r="S607" s="15"/>
-      <c r="T607" s="15"/>
-      <c r="U607" s="15"/>
-      <c r="V607" s="15"/>
+      <c r="Q607" s="20"/>
+      <c r="R607" s="20"/>
+      <c r="S607" s="20"/>
+      <c r="T607" s="20"/>
+      <c r="U607" s="20"/>
+      <c r="V607" s="20"/>
       <c r="W607" s="15"/>
       <c r="X607" s="15"/>
       <c r="Y607" s="15"/>
@@ -23559,7 +23531,7 @@
       <c r="T608" s="20"/>
       <c r="U608" s="20"/>
       <c r="V608" s="20"/>
-      <c r="W608" s="15"/>
+      <c r="W608" s="20"/>
       <c r="X608" s="15"/>
       <c r="Y608" s="15"/>
       <c r="Z608" s="15"/>
@@ -23574,7 +23546,7 @@
       <c r="T609" s="20"/>
       <c r="U609" s="20"/>
       <c r="V609" s="20"/>
-      <c r="W609" s="20"/>
+      <c r="W609" s="15"/>
       <c r="X609" s="15"/>
       <c r="Y609" s="15"/>
       <c r="Z609" s="15"/>
@@ -23589,7 +23561,7 @@
       <c r="T610" s="20"/>
       <c r="U610" s="20"/>
       <c r="V610" s="20"/>
-      <c r="W610" s="15"/>
+      <c r="W610" s="20"/>
       <c r="X610" s="15"/>
       <c r="Y610" s="15"/>
       <c r="Z610" s="15"/>
@@ -23604,7 +23576,7 @@
       <c r="T611" s="20"/>
       <c r="U611" s="20"/>
       <c r="V611" s="20"/>
-      <c r="W611" s="20"/>
+      <c r="W611" s="15"/>
       <c r="X611" s="15"/>
       <c r="Y611" s="15"/>
       <c r="Z611" s="15"/>
@@ -23634,7 +23606,7 @@
       <c r="T613" s="20"/>
       <c r="U613" s="20"/>
       <c r="V613" s="20"/>
-      <c r="W613" s="15"/>
+      <c r="W613" s="20"/>
       <c r="X613" s="15"/>
       <c r="Y613" s="15"/>
       <c r="Z613" s="15"/>
@@ -23643,13 +23615,13 @@
       <c r="AC613" s="15"/>
     </row>
     <row r="614" spans="17:29">
-      <c r="Q614" s="20"/>
-      <c r="R614" s="20"/>
-      <c r="S614" s="20"/>
-      <c r="T614" s="20"/>
-      <c r="U614" s="20"/>
-      <c r="V614" s="20"/>
-      <c r="W614" s="20"/>
+      <c r="Q614" s="15"/>
+      <c r="R614" s="15"/>
+      <c r="S614" s="15"/>
+      <c r="T614" s="15"/>
+      <c r="U614" s="15"/>
+      <c r="V614" s="15"/>
+      <c r="W614" s="15"/>
       <c r="X614" s="15"/>
       <c r="Y614" s="15"/>
       <c r="Z614" s="15"/>
@@ -23658,12 +23630,12 @@
       <c r="AC614" s="15"/>
     </row>
     <row r="615" spans="17:29">
-      <c r="Q615" s="15"/>
-      <c r="R615" s="15"/>
-      <c r="S615" s="15"/>
-      <c r="T615" s="15"/>
-      <c r="U615" s="15"/>
-      <c r="V615" s="15"/>
+      <c r="Q615" s="20"/>
+      <c r="R615" s="20"/>
+      <c r="S615" s="20"/>
+      <c r="T615" s="20"/>
+      <c r="U615" s="20"/>
+      <c r="V615" s="20"/>
       <c r="W615" s="15"/>
       <c r="X615" s="15"/>
       <c r="Y615" s="15"/>
@@ -23673,12 +23645,12 @@
       <c r="AC615" s="15"/>
     </row>
     <row r="616" spans="17:29">
-      <c r="Q616" s="20"/>
-      <c r="R616" s="20"/>
-      <c r="S616" s="20"/>
-      <c r="T616" s="20"/>
-      <c r="U616" s="20"/>
-      <c r="V616" s="20"/>
+      <c r="Q616" s="15"/>
+      <c r="R616" s="15"/>
+      <c r="S616" s="15"/>
+      <c r="T616" s="15"/>
+      <c r="U616" s="15"/>
+      <c r="V616" s="15"/>
       <c r="W616" s="15"/>
       <c r="X616" s="15"/>
       <c r="Y616" s="15"/>
@@ -23688,12 +23660,12 @@
       <c r="AC616" s="15"/>
     </row>
     <row r="617" spans="17:29">
-      <c r="Q617" s="15"/>
-      <c r="R617" s="15"/>
-      <c r="S617" s="15"/>
-      <c r="T617" s="15"/>
-      <c r="U617" s="15"/>
-      <c r="V617" s="15"/>
+      <c r="Q617" s="20"/>
+      <c r="R617" s="20"/>
+      <c r="S617" s="20"/>
+      <c r="T617" s="20"/>
+      <c r="U617" s="20"/>
+      <c r="V617" s="20"/>
       <c r="W617" s="15"/>
       <c r="X617" s="15"/>
       <c r="Y617" s="15"/>
@@ -23733,12 +23705,12 @@
       <c r="AC619" s="15"/>
     </row>
     <row r="620" spans="17:29">
-      <c r="Q620" s="20"/>
-      <c r="R620" s="20"/>
-      <c r="S620" s="20"/>
-      <c r="T620" s="20"/>
-      <c r="U620" s="20"/>
-      <c r="V620" s="20"/>
+      <c r="Q620" s="15"/>
+      <c r="R620" s="15"/>
+      <c r="S620" s="15"/>
+      <c r="T620" s="15"/>
+      <c r="U620" s="15"/>
+      <c r="V620" s="15"/>
       <c r="W620" s="15"/>
       <c r="X620" s="15"/>
       <c r="Y620" s="15"/>
@@ -23748,12 +23720,12 @@
       <c r="AC620" s="15"/>
     </row>
     <row r="621" spans="17:29">
-      <c r="Q621" s="15"/>
-      <c r="R621" s="15"/>
-      <c r="S621" s="15"/>
-      <c r="T621" s="15"/>
-      <c r="U621" s="15"/>
-      <c r="V621" s="15"/>
+      <c r="Q621" s="20"/>
+      <c r="R621" s="20"/>
+      <c r="S621" s="20"/>
+      <c r="T621" s="20"/>
+      <c r="U621" s="20"/>
+      <c r="V621" s="20"/>
       <c r="W621" s="15"/>
       <c r="X621" s="15"/>
       <c r="Y621" s="15"/>
@@ -23793,12 +23765,12 @@
       <c r="AC623" s="15"/>
     </row>
     <row r="624" spans="17:29">
-      <c r="Q624" s="20"/>
-      <c r="R624" s="20"/>
-      <c r="S624" s="20"/>
-      <c r="T624" s="20"/>
-      <c r="U624" s="20"/>
-      <c r="V624" s="20"/>
+      <c r="Q624" s="15"/>
+      <c r="R624" s="15"/>
+      <c r="S624" s="15"/>
+      <c r="T624" s="15"/>
+      <c r="U624" s="15"/>
+      <c r="V624" s="15"/>
       <c r="W624" s="15"/>
       <c r="X624" s="15"/>
       <c r="Y624" s="15"/>
@@ -23823,12 +23795,12 @@
       <c r="AC625" s="15"/>
     </row>
     <row r="626" spans="17:29">
-      <c r="Q626" s="15"/>
-      <c r="R626" s="15"/>
-      <c r="S626" s="15"/>
-      <c r="T626" s="15"/>
-      <c r="U626" s="15"/>
-      <c r="V626" s="15"/>
+      <c r="Q626" s="20"/>
+      <c r="R626" s="20"/>
+      <c r="S626" s="20"/>
+      <c r="T626" s="20"/>
+      <c r="U626" s="20"/>
+      <c r="V626" s="20"/>
       <c r="W626" s="15"/>
       <c r="X626" s="15"/>
       <c r="Y626" s="15"/>
@@ -23868,12 +23840,12 @@
       <c r="AC628" s="15"/>
     </row>
     <row r="629" spans="17:29">
-      <c r="Q629" s="20"/>
-      <c r="R629" s="20"/>
-      <c r="S629" s="20"/>
-      <c r="T629" s="20"/>
-      <c r="U629" s="20"/>
-      <c r="V629" s="20"/>
+      <c r="Q629" s="15"/>
+      <c r="R629" s="15"/>
+      <c r="S629" s="15"/>
+      <c r="T629" s="15"/>
+      <c r="U629" s="15"/>
+      <c r="V629" s="15"/>
       <c r="W629" s="15"/>
       <c r="X629" s="15"/>
       <c r="Y629" s="15"/>
@@ -23883,12 +23855,12 @@
       <c r="AC629" s="15"/>
     </row>
     <row r="630" spans="17:29">
-      <c r="Q630" s="15"/>
-      <c r="R630" s="15"/>
-      <c r="S630" s="15"/>
-      <c r="T630" s="15"/>
-      <c r="U630" s="15"/>
-      <c r="V630" s="15"/>
+      <c r="Q630" s="20"/>
+      <c r="R630" s="20"/>
+      <c r="S630" s="20"/>
+      <c r="T630" s="20"/>
+      <c r="U630" s="20"/>
+      <c r="V630" s="20"/>
       <c r="W630" s="15"/>
       <c r="X630" s="15"/>
       <c r="Y630" s="15"/>
@@ -23919,7 +23891,7 @@
       <c r="T632" s="20"/>
       <c r="U632" s="20"/>
       <c r="V632" s="20"/>
-      <c r="W632" s="15"/>
+      <c r="W632" s="20"/>
       <c r="X632" s="15"/>
       <c r="Y632" s="15"/>
       <c r="Z632" s="15"/>
@@ -23964,7 +23936,7 @@
       <c r="T635" s="20"/>
       <c r="U635" s="20"/>
       <c r="V635" s="20"/>
-      <c r="W635" s="20"/>
+      <c r="W635" s="15"/>
       <c r="X635" s="15"/>
       <c r="Y635" s="15"/>
       <c r="Z635" s="15"/>
@@ -23979,7 +23951,7 @@
       <c r="T636" s="20"/>
       <c r="U636" s="20"/>
       <c r="V636" s="20"/>
-      <c r="W636" s="15"/>
+      <c r="W636" s="20"/>
       <c r="X636" s="15"/>
       <c r="Y636" s="15"/>
       <c r="Z636" s="15"/>
@@ -23988,13 +23960,13 @@
       <c r="AC636" s="15"/>
     </row>
     <row r="637" spans="17:29">
-      <c r="Q637" s="20"/>
-      <c r="R637" s="20"/>
-      <c r="S637" s="20"/>
-      <c r="T637" s="20"/>
-      <c r="U637" s="20"/>
-      <c r="V637" s="20"/>
-      <c r="W637" s="20"/>
+      <c r="Q637" s="15"/>
+      <c r="R637" s="15"/>
+      <c r="S637" s="15"/>
+      <c r="T637" s="15"/>
+      <c r="U637" s="15"/>
+      <c r="V637" s="15"/>
+      <c r="W637" s="15"/>
       <c r="X637" s="15"/>
       <c r="Y637" s="15"/>
       <c r="Z637" s="15"/>
@@ -24033,12 +24005,12 @@
       <c r="AC639" s="15"/>
     </row>
     <row r="640" spans="17:29">
-      <c r="Q640" s="15"/>
-      <c r="R640" s="15"/>
-      <c r="S640" s="15"/>
-      <c r="T640" s="15"/>
-      <c r="U640" s="15"/>
-      <c r="V640" s="15"/>
+      <c r="Q640" s="20"/>
+      <c r="R640" s="20"/>
+      <c r="S640" s="20"/>
+      <c r="T640" s="20"/>
+      <c r="U640" s="20"/>
+      <c r="V640" s="20"/>
       <c r="W640" s="15"/>
       <c r="X640" s="15"/>
       <c r="Y640" s="15"/>
@@ -24063,12 +24035,12 @@
       <c r="AC641" s="15"/>
     </row>
     <row r="642" spans="17:29">
-      <c r="Q642" s="20"/>
-      <c r="R642" s="20"/>
-      <c r="S642" s="20"/>
-      <c r="T642" s="20"/>
-      <c r="U642" s="20"/>
-      <c r="V642" s="20"/>
+      <c r="Q642" s="15"/>
+      <c r="R642" s="15"/>
+      <c r="S642" s="15"/>
+      <c r="T642" s="15"/>
+      <c r="U642" s="15"/>
+      <c r="V642" s="15"/>
       <c r="W642" s="15"/>
       <c r="X642" s="15"/>
       <c r="Y642" s="15"/>
@@ -24078,12 +24050,12 @@
       <c r="AC642" s="15"/>
     </row>
     <row r="643" spans="17:29">
-      <c r="Q643" s="15"/>
-      <c r="R643" s="15"/>
-      <c r="S643" s="15"/>
-      <c r="T643" s="15"/>
-      <c r="U643" s="15"/>
-      <c r="V643" s="15"/>
+      <c r="Q643" s="20"/>
+      <c r="R643" s="20"/>
+      <c r="S643" s="20"/>
+      <c r="T643" s="20"/>
+      <c r="U643" s="20"/>
+      <c r="V643" s="20"/>
       <c r="W643" s="15"/>
       <c r="X643" s="15"/>
       <c r="Y643" s="15"/>
@@ -24123,12 +24095,12 @@
       <c r="AC645" s="15"/>
     </row>
     <row r="646" spans="17:29">
-      <c r="Q646" s="20"/>
-      <c r="R646" s="20"/>
-      <c r="S646" s="20"/>
-      <c r="T646" s="20"/>
-      <c r="U646" s="20"/>
-      <c r="V646" s="20"/>
+      <c r="Q646" s="15"/>
+      <c r="R646" s="15"/>
+      <c r="S646" s="15"/>
+      <c r="T646" s="15"/>
+      <c r="U646" s="15"/>
+      <c r="V646" s="15"/>
       <c r="W646" s="15"/>
       <c r="X646" s="15"/>
       <c r="Y646" s="15"/>
@@ -24138,12 +24110,12 @@
       <c r="AC646" s="15"/>
     </row>
     <row r="647" spans="17:29">
-      <c r="Q647" s="15"/>
-      <c r="R647" s="15"/>
-      <c r="S647" s="15"/>
-      <c r="T647" s="15"/>
-      <c r="U647" s="15"/>
-      <c r="V647" s="15"/>
+      <c r="Q647" s="20"/>
+      <c r="R647" s="20"/>
+      <c r="S647" s="20"/>
+      <c r="T647" s="20"/>
+      <c r="U647" s="20"/>
+      <c r="V647" s="20"/>
       <c r="W647" s="15"/>
       <c r="X647" s="15"/>
       <c r="Y647" s="15"/>
@@ -24183,12 +24155,12 @@
       <c r="AC649" s="15"/>
     </row>
     <row r="650" spans="17:29">
-      <c r="Q650" s="20"/>
-      <c r="R650" s="20"/>
-      <c r="S650" s="20"/>
-      <c r="T650" s="20"/>
-      <c r="U650" s="20"/>
-      <c r="V650" s="20"/>
+      <c r="Q650" s="15"/>
+      <c r="R650" s="15"/>
+      <c r="S650" s="15"/>
+      <c r="T650" s="15"/>
+      <c r="U650" s="15"/>
+      <c r="V650" s="15"/>
       <c r="W650" s="15"/>
       <c r="X650" s="15"/>
       <c r="Y650" s="15"/>
@@ -24273,12 +24245,12 @@
       <c r="AC655" s="15"/>
     </row>
     <row r="656" spans="17:29">
-      <c r="Q656" s="15"/>
-      <c r="R656" s="15"/>
-      <c r="S656" s="15"/>
-      <c r="T656" s="15"/>
-      <c r="U656" s="15"/>
-      <c r="V656" s="15"/>
+      <c r="Q656" s="20"/>
+      <c r="R656" s="20"/>
+      <c r="S656" s="20"/>
+      <c r="T656" s="20"/>
+      <c r="U656" s="20"/>
+      <c r="V656" s="20"/>
       <c r="W656" s="15"/>
       <c r="X656" s="15"/>
       <c r="Y656" s="15"/>
@@ -24318,12 +24290,12 @@
       <c r="AC658" s="15"/>
     </row>
     <row r="659" spans="17:29">
-      <c r="Q659" s="20"/>
-      <c r="R659" s="20"/>
-      <c r="S659" s="20"/>
-      <c r="T659" s="20"/>
-      <c r="U659" s="20"/>
-      <c r="V659" s="20"/>
+      <c r="Q659" s="15"/>
+      <c r="R659" s="15"/>
+      <c r="S659" s="15"/>
+      <c r="T659" s="15"/>
+      <c r="U659" s="15"/>
+      <c r="V659" s="15"/>
       <c r="W659" s="15"/>
       <c r="X659" s="15"/>
       <c r="Y659" s="15"/>
@@ -24348,12 +24320,12 @@
       <c r="AC660" s="15"/>
     </row>
     <row r="661" spans="17:29">
-      <c r="Q661" s="15"/>
-      <c r="R661" s="15"/>
-      <c r="S661" s="15"/>
-      <c r="T661" s="15"/>
-      <c r="U661" s="15"/>
-      <c r="V661" s="15"/>
+      <c r="Q661" s="20"/>
+      <c r="R661" s="20"/>
+      <c r="S661" s="20"/>
+      <c r="T661" s="20"/>
+      <c r="U661" s="20"/>
+      <c r="V661" s="20"/>
       <c r="W661" s="15"/>
       <c r="X661" s="15"/>
       <c r="Y661" s="15"/>
@@ -24378,12 +24350,12 @@
       <c r="AC662" s="15"/>
     </row>
     <row r="663" spans="17:29">
-      <c r="Q663" s="20"/>
-      <c r="R663" s="20"/>
-      <c r="S663" s="20"/>
-      <c r="T663" s="20"/>
-      <c r="U663" s="20"/>
-      <c r="V663" s="20"/>
+      <c r="Q663" s="15"/>
+      <c r="R663" s="15"/>
+      <c r="S663" s="15"/>
+      <c r="T663" s="15"/>
+      <c r="U663" s="15"/>
+      <c r="V663" s="15"/>
       <c r="W663" s="15"/>
       <c r="X663" s="15"/>
       <c r="Y663" s="15"/>
@@ -24393,12 +24365,12 @@
       <c r="AC663" s="15"/>
     </row>
     <row r="664" spans="17:29">
-      <c r="Q664" s="15"/>
-      <c r="R664" s="15"/>
-      <c r="S664" s="15"/>
-      <c r="T664" s="15"/>
-      <c r="U664" s="15"/>
-      <c r="V664" s="15"/>
+      <c r="Q664" s="20"/>
+      <c r="R664" s="20"/>
+      <c r="S664" s="20"/>
+      <c r="T664" s="20"/>
+      <c r="U664" s="20"/>
+      <c r="V664" s="20"/>
       <c r="W664" s="15"/>
       <c r="X664" s="15"/>
       <c r="Y664" s="15"/>
@@ -24408,12 +24380,12 @@
       <c r="AC664" s="15"/>
     </row>
     <row r="665" spans="17:29">
-      <c r="Q665" s="20"/>
-      <c r="R665" s="20"/>
-      <c r="S665" s="20"/>
-      <c r="T665" s="20"/>
-      <c r="U665" s="20"/>
-      <c r="V665" s="20"/>
+      <c r="Q665" s="15"/>
+      <c r="R665" s="15"/>
+      <c r="S665" s="15"/>
+      <c r="T665" s="15"/>
+      <c r="U665" s="15"/>
+      <c r="V665" s="15"/>
       <c r="W665" s="15"/>
       <c r="X665" s="15"/>
       <c r="Y665" s="15"/>
@@ -24438,12 +24410,12 @@
       <c r="AC666" s="15"/>
     </row>
     <row r="667" spans="17:29">
-      <c r="Q667" s="15"/>
-      <c r="R667" s="15"/>
-      <c r="S667" s="15"/>
-      <c r="T667" s="15"/>
-      <c r="U667" s="15"/>
-      <c r="V667" s="15"/>
+      <c r="Q667" s="20"/>
+      <c r="R667" s="20"/>
+      <c r="S667" s="20"/>
+      <c r="T667" s="20"/>
+      <c r="U667" s="20"/>
+      <c r="V667" s="20"/>
       <c r="W667" s="15"/>
       <c r="X667" s="15"/>
       <c r="Y667" s="15"/>
@@ -24453,12 +24425,12 @@
       <c r="AC667" s="15"/>
     </row>
     <row r="668" spans="17:29">
-      <c r="Q668" s="20"/>
-      <c r="R668" s="20"/>
-      <c r="S668" s="20"/>
-      <c r="T668" s="20"/>
-      <c r="U668" s="20"/>
-      <c r="V668" s="20"/>
+      <c r="Q668" s="15"/>
+      <c r="R668" s="15"/>
+      <c r="S668" s="15"/>
+      <c r="T668" s="15"/>
+      <c r="U668" s="15"/>
+      <c r="V668" s="15"/>
       <c r="W668" s="15"/>
       <c r="X668" s="15"/>
       <c r="Y668" s="15"/>
@@ -24498,12 +24470,12 @@
       <c r="AC670" s="15"/>
     </row>
     <row r="671" spans="17:29">
-      <c r="Q671" s="15"/>
-      <c r="R671" s="15"/>
-      <c r="S671" s="15"/>
-      <c r="T671" s="15"/>
-      <c r="U671" s="15"/>
-      <c r="V671" s="15"/>
+      <c r="Q671" s="20"/>
+      <c r="R671" s="20"/>
+      <c r="S671" s="20"/>
+      <c r="T671" s="20"/>
+      <c r="U671" s="20"/>
+      <c r="V671" s="20"/>
       <c r="W671" s="15"/>
       <c r="X671" s="15"/>
       <c r="Y671" s="15"/>
@@ -24528,12 +24500,12 @@
       <c r="AC672" s="15"/>
     </row>
     <row r="673" spans="17:29">
-      <c r="Q673" s="20"/>
-      <c r="R673" s="20"/>
-      <c r="S673" s="20"/>
-      <c r="T673" s="20"/>
-      <c r="U673" s="20"/>
-      <c r="V673" s="20"/>
+      <c r="Q673" s="15"/>
+      <c r="R673" s="15"/>
+      <c r="S673" s="15"/>
+      <c r="T673" s="15"/>
+      <c r="U673" s="15"/>
+      <c r="V673" s="15"/>
       <c r="W673" s="15"/>
       <c r="X673" s="15"/>
       <c r="Y673" s="15"/>
@@ -24543,12 +24515,12 @@
       <c r="AC673" s="15"/>
     </row>
     <row r="674" spans="17:29">
-      <c r="Q674" s="15"/>
-      <c r="R674" s="15"/>
-      <c r="S674" s="15"/>
-      <c r="T674" s="15"/>
-      <c r="U674" s="15"/>
-      <c r="V674" s="15"/>
+      <c r="Q674" s="20"/>
+      <c r="R674" s="20"/>
+      <c r="S674" s="20"/>
+      <c r="T674" s="20"/>
+      <c r="U674" s="20"/>
+      <c r="V674" s="20"/>
       <c r="W674" s="15"/>
       <c r="X674" s="15"/>
       <c r="Y674" s="15"/>
@@ -24558,12 +24530,12 @@
       <c r="AC674" s="15"/>
     </row>
     <row r="675" spans="17:29">
-      <c r="Q675" s="20"/>
-      <c r="R675" s="20"/>
-      <c r="S675" s="20"/>
-      <c r="T675" s="20"/>
-      <c r="U675" s="20"/>
-      <c r="V675" s="20"/>
+      <c r="Q675" s="15"/>
+      <c r="R675" s="15"/>
+      <c r="S675" s="15"/>
+      <c r="T675" s="15"/>
+      <c r="U675" s="15"/>
+      <c r="V675" s="15"/>
       <c r="W675" s="15"/>
       <c r="X675" s="15"/>
       <c r="Y675" s="15"/>
@@ -24588,12 +24560,12 @@
       <c r="AC676" s="15"/>
     </row>
     <row r="677" spans="17:29">
-      <c r="Q677" s="15"/>
-      <c r="R677" s="15"/>
-      <c r="S677" s="15"/>
-      <c r="T677" s="15"/>
-      <c r="U677" s="15"/>
-      <c r="V677" s="15"/>
+      <c r="Q677" s="20"/>
+      <c r="R677" s="20"/>
+      <c r="S677" s="20"/>
+      <c r="T677" s="20"/>
+      <c r="U677" s="20"/>
+      <c r="V677" s="20"/>
       <c r="W677" s="15"/>
       <c r="X677" s="15"/>
       <c r="Y677" s="15"/>
@@ -24603,12 +24575,12 @@
       <c r="AC677" s="15"/>
     </row>
     <row r="678" spans="17:29">
-      <c r="Q678" s="20"/>
-      <c r="R678" s="20"/>
-      <c r="S678" s="20"/>
-      <c r="T678" s="20"/>
-      <c r="U678" s="20"/>
-      <c r="V678" s="20"/>
+      <c r="Q678" s="15"/>
+      <c r="R678" s="15"/>
+      <c r="S678" s="15"/>
+      <c r="T678" s="15"/>
+      <c r="U678" s="15"/>
+      <c r="V678" s="15"/>
       <c r="W678" s="15"/>
       <c r="X678" s="15"/>
       <c r="Y678" s="15"/>
@@ -24618,12 +24590,12 @@
       <c r="AC678" s="15"/>
     </row>
     <row r="679" spans="17:29">
-      <c r="Q679" s="15"/>
-      <c r="R679" s="15"/>
-      <c r="S679" s="15"/>
-      <c r="T679" s="15"/>
-      <c r="U679" s="15"/>
-      <c r="V679" s="15"/>
+      <c r="Q679" s="20"/>
+      <c r="R679" s="20"/>
+      <c r="S679" s="20"/>
+      <c r="T679" s="20"/>
+      <c r="U679" s="20"/>
+      <c r="V679" s="20"/>
       <c r="W679" s="15"/>
       <c r="X679" s="15"/>
       <c r="Y679" s="15"/>
@@ -24633,12 +24605,12 @@
       <c r="AC679" s="15"/>
     </row>
     <row r="680" spans="17:29">
-      <c r="Q680" s="20"/>
-      <c r="R680" s="20"/>
-      <c r="S680" s="20"/>
-      <c r="T680" s="20"/>
-      <c r="U680" s="20"/>
-      <c r="V680" s="20"/>
+      <c r="Q680" s="15"/>
+      <c r="R680" s="15"/>
+      <c r="S680" s="15"/>
+      <c r="T680" s="15"/>
+      <c r="U680" s="15"/>
+      <c r="V680" s="15"/>
       <c r="W680" s="15"/>
       <c r="X680" s="15"/>
       <c r="Y680" s="15"/>
@@ -24648,12 +24620,12 @@
       <c r="AC680" s="15"/>
     </row>
     <row r="681" spans="17:29">
-      <c r="Q681" s="15"/>
-      <c r="R681" s="15"/>
-      <c r="S681" s="15"/>
-      <c r="T681" s="15"/>
-      <c r="U681" s="15"/>
-      <c r="V681" s="15"/>
+      <c r="Q681" s="20"/>
+      <c r="R681" s="20"/>
+      <c r="S681" s="20"/>
+      <c r="T681" s="20"/>
+      <c r="U681" s="20"/>
+      <c r="V681" s="20"/>
       <c r="W681" s="15"/>
       <c r="X681" s="15"/>
       <c r="Y681" s="15"/>
@@ -24723,12 +24695,12 @@
       <c r="AC685" s="15"/>
     </row>
     <row r="686" spans="17:29">
-      <c r="Q686" s="20"/>
-      <c r="R686" s="20"/>
-      <c r="S686" s="20"/>
-      <c r="T686" s="20"/>
-      <c r="U686" s="20"/>
-      <c r="V686" s="20"/>
+      <c r="Q686" s="15"/>
+      <c r="R686" s="15"/>
+      <c r="S686" s="15"/>
+      <c r="T686" s="15"/>
+      <c r="U686" s="15"/>
+      <c r="V686" s="15"/>
       <c r="W686" s="15"/>
       <c r="X686" s="15"/>
       <c r="Y686" s="15"/>
@@ -24738,12 +24710,12 @@
       <c r="AC686" s="15"/>
     </row>
     <row r="687" spans="17:29">
-      <c r="Q687" s="15"/>
-      <c r="R687" s="15"/>
-      <c r="S687" s="15"/>
-      <c r="T687" s="15"/>
-      <c r="U687" s="15"/>
-      <c r="V687" s="15"/>
+      <c r="Q687" s="20"/>
+      <c r="R687" s="20"/>
+      <c r="S687" s="20"/>
+      <c r="T687" s="20"/>
+      <c r="U687" s="20"/>
+      <c r="V687" s="20"/>
       <c r="W687" s="15"/>
       <c r="X687" s="15"/>
       <c r="Y687" s="15"/>
@@ -24753,12 +24725,12 @@
       <c r="AC687" s="15"/>
     </row>
     <row r="688" spans="17:29">
-      <c r="Q688" s="20"/>
-      <c r="R688" s="20"/>
-      <c r="S688" s="20"/>
-      <c r="T688" s="20"/>
-      <c r="U688" s="20"/>
-      <c r="V688" s="20"/>
+      <c r="Q688" s="15"/>
+      <c r="R688" s="15"/>
+      <c r="S688" s="15"/>
+      <c r="T688" s="15"/>
+      <c r="U688" s="15"/>
+      <c r="V688" s="15"/>
       <c r="W688" s="15"/>
       <c r="X688" s="15"/>
       <c r="Y688" s="15"/>
@@ -24768,12 +24740,12 @@
       <c r="AC688" s="15"/>
     </row>
     <row r="689" spans="17:29">
-      <c r="Q689" s="15"/>
-      <c r="R689" s="15"/>
-      <c r="S689" s="15"/>
-      <c r="T689" s="15"/>
-      <c r="U689" s="15"/>
-      <c r="V689" s="15"/>
+      <c r="Q689" s="20"/>
+      <c r="R689" s="20"/>
+      <c r="S689" s="20"/>
+      <c r="T689" s="20"/>
+      <c r="U689" s="20"/>
+      <c r="V689" s="20"/>
       <c r="W689" s="15"/>
       <c r="X689" s="15"/>
       <c r="Y689" s="15"/>
@@ -24798,12 +24770,12 @@
       <c r="AC690" s="15"/>
     </row>
     <row r="691" spans="17:29">
-      <c r="Q691" s="20"/>
-      <c r="R691" s="20"/>
-      <c r="S691" s="20"/>
-      <c r="T691" s="20"/>
-      <c r="U691" s="20"/>
-      <c r="V691" s="20"/>
+      <c r="Q691" s="15"/>
+      <c r="R691" s="15"/>
+      <c r="S691" s="15"/>
+      <c r="T691" s="15"/>
+      <c r="U691" s="15"/>
+      <c r="V691" s="15"/>
       <c r="W691" s="15"/>
       <c r="X691" s="15"/>
       <c r="Y691" s="15"/>
@@ -24828,12 +24800,12 @@
       <c r="AC692" s="15"/>
     </row>
     <row r="693" spans="17:29">
-      <c r="Q693" s="15"/>
-      <c r="R693" s="15"/>
-      <c r="S693" s="15"/>
-      <c r="T693" s="15"/>
-      <c r="U693" s="15"/>
-      <c r="V693" s="15"/>
+      <c r="Q693" s="20"/>
+      <c r="R693" s="20"/>
+      <c r="S693" s="20"/>
+      <c r="T693" s="20"/>
+      <c r="U693" s="20"/>
+      <c r="V693" s="20"/>
       <c r="W693" s="15"/>
       <c r="X693" s="15"/>
       <c r="Y693" s="15"/>
@@ -24843,12 +24815,12 @@
       <c r="AC693" s="15"/>
     </row>
     <row r="694" spans="17:29">
-      <c r="Q694" s="20"/>
-      <c r="R694" s="20"/>
-      <c r="S694" s="20"/>
-      <c r="T694" s="20"/>
-      <c r="U694" s="20"/>
-      <c r="V694" s="20"/>
+      <c r="Q694" s="15"/>
+      <c r="R694" s="15"/>
+      <c r="S694" s="15"/>
+      <c r="T694" s="15"/>
+      <c r="U694" s="15"/>
+      <c r="V694" s="15"/>
       <c r="W694" s="15"/>
       <c r="X694" s="15"/>
       <c r="Y694" s="15"/>
@@ -24888,12 +24860,12 @@
       <c r="AC696" s="15"/>
     </row>
     <row r="697" spans="17:29">
-      <c r="Q697" s="15"/>
-      <c r="R697" s="15"/>
-      <c r="S697" s="15"/>
-      <c r="T697" s="15"/>
-      <c r="U697" s="15"/>
-      <c r="V697" s="15"/>
+      <c r="Q697" s="20"/>
+      <c r="R697" s="20"/>
+      <c r="S697" s="20"/>
+      <c r="T697" s="20"/>
+      <c r="U697" s="20"/>
+      <c r="V697" s="20"/>
       <c r="W697" s="15"/>
       <c r="X697" s="15"/>
       <c r="Y697" s="15"/>
@@ -24933,12 +24905,12 @@
       <c r="AC699" s="15"/>
     </row>
     <row r="700" spans="17:29">
-      <c r="Q700" s="20"/>
-      <c r="R700" s="20"/>
-      <c r="S700" s="20"/>
-      <c r="T700" s="20"/>
-      <c r="U700" s="20"/>
-      <c r="V700" s="20"/>
+      <c r="Q700" s="15"/>
+      <c r="R700" s="15"/>
+      <c r="S700" s="15"/>
+      <c r="T700" s="15"/>
+      <c r="U700" s="15"/>
+      <c r="V700" s="15"/>
       <c r="W700" s="15"/>
       <c r="X700" s="15"/>
       <c r="Y700" s="15"/>
@@ -24948,12 +24920,12 @@
       <c r="AC700" s="15"/>
     </row>
     <row r="701" spans="17:29">
-      <c r="Q701" s="15"/>
-      <c r="R701" s="15"/>
-      <c r="S701" s="15"/>
-      <c r="T701" s="15"/>
-      <c r="U701" s="15"/>
-      <c r="V701" s="15"/>
+      <c r="Q701" s="20"/>
+      <c r="R701" s="20"/>
+      <c r="S701" s="20"/>
+      <c r="T701" s="20"/>
+      <c r="U701" s="20"/>
+      <c r="V701" s="20"/>
       <c r="W701" s="15"/>
       <c r="X701" s="15"/>
       <c r="Y701" s="15"/>
@@ -24963,12 +24935,12 @@
       <c r="AC701" s="15"/>
     </row>
     <row r="702" spans="17:29">
-      <c r="Q702" s="20"/>
-      <c r="R702" s="20"/>
-      <c r="S702" s="20"/>
-      <c r="T702" s="20"/>
-      <c r="U702" s="20"/>
-      <c r="V702" s="20"/>
+      <c r="Q702" s="15"/>
+      <c r="R702" s="15"/>
+      <c r="S702" s="15"/>
+      <c r="T702" s="15"/>
+      <c r="U702" s="15"/>
+      <c r="V702" s="15"/>
       <c r="W702" s="15"/>
       <c r="X702" s="15"/>
       <c r="Y702" s="15"/>
@@ -24993,12 +24965,12 @@
       <c r="AC703" s="15"/>
     </row>
     <row r="704" spans="17:29">
-      <c r="Q704" s="15"/>
-      <c r="R704" s="15"/>
-      <c r="S704" s="15"/>
-      <c r="T704" s="15"/>
-      <c r="U704" s="15"/>
-      <c r="V704" s="15"/>
+      <c r="Q704" s="20"/>
+      <c r="R704" s="20"/>
+      <c r="S704" s="20"/>
+      <c r="T704" s="20"/>
+      <c r="U704" s="20"/>
+      <c r="V704" s="20"/>
       <c r="W704" s="15"/>
       <c r="X704" s="15"/>
       <c r="Y704" s="15"/>
@@ -25008,12 +24980,12 @@
       <c r="AC704" s="15"/>
     </row>
     <row r="705" spans="17:29">
-      <c r="Q705" s="20"/>
-      <c r="R705" s="20"/>
-      <c r="S705" s="20"/>
-      <c r="T705" s="20"/>
-      <c r="U705" s="20"/>
-      <c r="V705" s="20"/>
+      <c r="Q705" s="15"/>
+      <c r="R705" s="15"/>
+      <c r="S705" s="15"/>
+      <c r="T705" s="15"/>
+      <c r="U705" s="15"/>
+      <c r="V705" s="15"/>
       <c r="W705" s="15"/>
       <c r="X705" s="15"/>
       <c r="Y705" s="15"/>
@@ -25023,12 +24995,12 @@
       <c r="AC705" s="15"/>
     </row>
     <row r="706" spans="17:29">
-      <c r="Q706" s="15"/>
-      <c r="R706" s="15"/>
-      <c r="S706" s="15"/>
-      <c r="T706" s="15"/>
-      <c r="U706" s="15"/>
-      <c r="V706" s="15"/>
+      <c r="Q706" s="20"/>
+      <c r="R706" s="20"/>
+      <c r="S706" s="20"/>
+      <c r="T706" s="20"/>
+      <c r="U706" s="20"/>
+      <c r="V706" s="20"/>
       <c r="W706" s="15"/>
       <c r="X706" s="15"/>
       <c r="Y706" s="15"/>
@@ -25068,12 +25040,12 @@
       <c r="AC708" s="15"/>
     </row>
     <row r="709" spans="17:29">
-      <c r="Q709" s="20"/>
-      <c r="R709" s="20"/>
-      <c r="S709" s="20"/>
-      <c r="T709" s="20"/>
-      <c r="U709" s="20"/>
-      <c r="V709" s="20"/>
+      <c r="Q709" s="15"/>
+      <c r="R709" s="15"/>
+      <c r="S709" s="15"/>
+      <c r="T709" s="15"/>
+      <c r="U709" s="15"/>
+      <c r="V709" s="15"/>
       <c r="W709" s="15"/>
       <c r="X709" s="15"/>
       <c r="Y709" s="15"/>
@@ -25083,12 +25055,12 @@
       <c r="AC709" s="15"/>
     </row>
     <row r="710" spans="17:29">
-      <c r="Q710" s="15"/>
-      <c r="R710" s="15"/>
-      <c r="S710" s="15"/>
-      <c r="T710" s="15"/>
-      <c r="U710" s="15"/>
-      <c r="V710" s="15"/>
+      <c r="Q710" s="20"/>
+      <c r="R710" s="20"/>
+      <c r="S710" s="20"/>
+      <c r="T710" s="20"/>
+      <c r="U710" s="20"/>
+      <c r="V710" s="20"/>
       <c r="W710" s="15"/>
       <c r="X710" s="15"/>
       <c r="Y710" s="15"/>
@@ -25098,12 +25070,12 @@
       <c r="AC710" s="15"/>
     </row>
     <row r="711" spans="17:29">
-      <c r="Q711" s="20"/>
-      <c r="R711" s="20"/>
-      <c r="S711" s="20"/>
-      <c r="T711" s="20"/>
-      <c r="U711" s="20"/>
-      <c r="V711" s="20"/>
+      <c r="Q711" s="15"/>
+      <c r="R711" s="15"/>
+      <c r="S711" s="15"/>
+      <c r="T711" s="15"/>
+      <c r="U711" s="15"/>
+      <c r="V711" s="15"/>
       <c r="W711" s="15"/>
       <c r="X711" s="15"/>
       <c r="Y711" s="15"/>
@@ -25158,12 +25130,12 @@
       <c r="AC714" s="15"/>
     </row>
     <row r="715" spans="17:29">
-      <c r="Q715" s="15"/>
-      <c r="R715" s="15"/>
-      <c r="S715" s="15"/>
-      <c r="T715" s="15"/>
-      <c r="U715" s="15"/>
-      <c r="V715" s="15"/>
+      <c r="Q715" s="20"/>
+      <c r="R715" s="20"/>
+      <c r="S715" s="20"/>
+      <c r="T715" s="20"/>
+      <c r="U715" s="20"/>
+      <c r="V715" s="20"/>
       <c r="W715" s="15"/>
       <c r="X715" s="15"/>
       <c r="Y715" s="15"/>
@@ -25173,12 +25145,12 @@
       <c r="AC715" s="15"/>
     </row>
     <row r="716" spans="17:29">
-      <c r="Q716" s="20"/>
-      <c r="R716" s="20"/>
-      <c r="S716" s="20"/>
-      <c r="T716" s="20"/>
-      <c r="U716" s="20"/>
-      <c r="V716" s="20"/>
+      <c r="Q716" s="15"/>
+      <c r="R716" s="15"/>
+      <c r="S716" s="15"/>
+      <c r="T716" s="15"/>
+      <c r="U716" s="15"/>
+      <c r="V716" s="15"/>
       <c r="W716" s="15"/>
       <c r="X716" s="15"/>
       <c r="Y716" s="15"/>
@@ -25308,12 +25280,12 @@
       <c r="AC724" s="15"/>
     </row>
     <row r="725" spans="17:29">
-      <c r="Q725" s="15"/>
-      <c r="R725" s="15"/>
-      <c r="S725" s="15"/>
-      <c r="T725" s="15"/>
-      <c r="U725" s="15"/>
-      <c r="V725" s="15"/>
+      <c r="Q725" s="20"/>
+      <c r="R725" s="20"/>
+      <c r="S725" s="20"/>
+      <c r="T725" s="20"/>
+      <c r="U725" s="20"/>
+      <c r="V725" s="20"/>
       <c r="W725" s="15"/>
       <c r="X725" s="15"/>
       <c r="Y725" s="15"/>
@@ -25353,12 +25325,12 @@
       <c r="AC727" s="15"/>
     </row>
     <row r="728" spans="17:29">
-      <c r="Q728" s="20"/>
-      <c r="R728" s="20"/>
-      <c r="S728" s="20"/>
-      <c r="T728" s="20"/>
-      <c r="U728" s="20"/>
-      <c r="V728" s="20"/>
+      <c r="Q728" s="15"/>
+      <c r="R728" s="15"/>
+      <c r="S728" s="15"/>
+      <c r="T728" s="15"/>
+      <c r="U728" s="15"/>
+      <c r="V728" s="15"/>
       <c r="W728" s="15"/>
       <c r="X728" s="15"/>
       <c r="Y728" s="15"/>
@@ -25368,12 +25340,12 @@
       <c r="AC728" s="15"/>
     </row>
     <row r="729" spans="17:29">
-      <c r="Q729" s="15"/>
-      <c r="R729" s="15"/>
-      <c r="S729" s="15"/>
-      <c r="T729" s="15"/>
-      <c r="U729" s="15"/>
-      <c r="V729" s="15"/>
+      <c r="Q729" s="20"/>
+      <c r="R729" s="20"/>
+      <c r="S729" s="20"/>
+      <c r="T729" s="20"/>
+      <c r="U729" s="20"/>
+      <c r="V729" s="20"/>
       <c r="W729" s="15"/>
       <c r="X729" s="15"/>
       <c r="Y729" s="15"/>
@@ -25383,12 +25355,12 @@
       <c r="AC729" s="15"/>
     </row>
     <row r="730" spans="17:29">
-      <c r="Q730" s="20"/>
-      <c r="R730" s="20"/>
-      <c r="S730" s="20"/>
-      <c r="T730" s="20"/>
-      <c r="U730" s="20"/>
-      <c r="V730" s="20"/>
+      <c r="Q730" s="15"/>
+      <c r="R730" s="15"/>
+      <c r="S730" s="15"/>
+      <c r="T730" s="15"/>
+      <c r="U730" s="15"/>
+      <c r="V730" s="15"/>
       <c r="W730" s="15"/>
       <c r="X730" s="15"/>
       <c r="Y730" s="15"/>
@@ -25413,12 +25385,12 @@
       <c r="AC731" s="15"/>
     </row>
     <row r="732" spans="17:29">
-      <c r="Q732" s="15"/>
-      <c r="R732" s="15"/>
-      <c r="S732" s="15"/>
-      <c r="T732" s="15"/>
-      <c r="U732" s="15"/>
-      <c r="V732" s="15"/>
+      <c r="Q732" s="20"/>
+      <c r="R732" s="20"/>
+      <c r="S732" s="20"/>
+      <c r="T732" s="20"/>
+      <c r="U732" s="20"/>
+      <c r="V732" s="20"/>
       <c r="W732" s="15"/>
       <c r="X732" s="15"/>
       <c r="Y732" s="15"/>
@@ -25428,12 +25400,12 @@
       <c r="AC732" s="15"/>
     </row>
     <row r="733" spans="17:29">
-      <c r="Q733" s="20"/>
-      <c r="R733" s="20"/>
-      <c r="S733" s="20"/>
-      <c r="T733" s="20"/>
-      <c r="U733" s="20"/>
-      <c r="V733" s="20"/>
+      <c r="Q733" s="15"/>
+      <c r="R733" s="15"/>
+      <c r="S733" s="15"/>
+      <c r="T733" s="15"/>
+      <c r="U733" s="15"/>
+      <c r="V733" s="15"/>
       <c r="W733" s="15"/>
       <c r="X733" s="15"/>
       <c r="Y733" s="15"/>
@@ -25473,12 +25445,12 @@
       <c r="AC735" s="15"/>
     </row>
     <row r="736" spans="17:29">
-      <c r="Q736" s="15"/>
-      <c r="R736" s="15"/>
-      <c r="S736" s="15"/>
-      <c r="T736" s="15"/>
-      <c r="U736" s="15"/>
-      <c r="V736" s="15"/>
+      <c r="Q736" s="20"/>
+      <c r="R736" s="20"/>
+      <c r="S736" s="20"/>
+      <c r="T736" s="20"/>
+      <c r="U736" s="20"/>
+      <c r="V736" s="20"/>
       <c r="W736" s="15"/>
       <c r="X736" s="15"/>
       <c r="Y736" s="15"/>
@@ -25518,12 +25490,12 @@
       <c r="AC738" s="15"/>
     </row>
     <row r="739" spans="17:29">
-      <c r="Q739" s="20"/>
-      <c r="R739" s="20"/>
-      <c r="S739" s="20"/>
-      <c r="T739" s="20"/>
-      <c r="U739" s="20"/>
-      <c r="V739" s="20"/>
+      <c r="Q739" s="15"/>
+      <c r="R739" s="15"/>
+      <c r="S739" s="15"/>
+      <c r="T739" s="15"/>
+      <c r="U739" s="15"/>
+      <c r="V739" s="15"/>
       <c r="W739" s="15"/>
       <c r="X739" s="15"/>
       <c r="Y739" s="15"/>
@@ -25623,12 +25595,12 @@
       <c r="AC745" s="15"/>
     </row>
     <row r="746" spans="17:29">
-      <c r="Q746" s="15"/>
-      <c r="R746" s="15"/>
-      <c r="S746" s="15"/>
-      <c r="T746" s="15"/>
-      <c r="U746" s="15"/>
-      <c r="V746" s="15"/>
+      <c r="Q746" s="20"/>
+      <c r="R746" s="20"/>
+      <c r="S746" s="20"/>
+      <c r="T746" s="20"/>
+      <c r="U746" s="20"/>
+      <c r="V746" s="20"/>
       <c r="W746" s="15"/>
       <c r="X746" s="15"/>
       <c r="Y746" s="15"/>
@@ -25653,12 +25625,12 @@
       <c r="AC747" s="15"/>
     </row>
     <row r="748" spans="17:29">
-      <c r="Q748" s="20"/>
-      <c r="R748" s="20"/>
-      <c r="S748" s="20"/>
-      <c r="T748" s="20"/>
-      <c r="U748" s="20"/>
-      <c r="V748" s="20"/>
+      <c r="Q748" s="15"/>
+      <c r="R748" s="15"/>
+      <c r="S748" s="15"/>
+      <c r="T748" s="15"/>
+      <c r="U748" s="15"/>
+      <c r="V748" s="15"/>
       <c r="W748" s="15"/>
       <c r="X748" s="15"/>
       <c r="Y748" s="15"/>
@@ -25803,12 +25775,12 @@
       <c r="AC757" s="15"/>
     </row>
     <row r="758" spans="17:29">
-      <c r="Q758" s="15"/>
-      <c r="R758" s="15"/>
-      <c r="S758" s="15"/>
-      <c r="T758" s="15"/>
-      <c r="U758" s="15"/>
-      <c r="V758" s="15"/>
+      <c r="Q758" s="20"/>
+      <c r="R758" s="20"/>
+      <c r="S758" s="20"/>
+      <c r="T758" s="20"/>
+      <c r="U758" s="20"/>
+      <c r="V758" s="20"/>
       <c r="W758" s="15"/>
       <c r="X758" s="15"/>
       <c r="Y758" s="15"/>
@@ -25818,12 +25790,12 @@
       <c r="AC758" s="15"/>
     </row>
     <row r="759" spans="17:29">
-      <c r="Q759" s="20"/>
-      <c r="R759" s="20"/>
-      <c r="S759" s="20"/>
-      <c r="T759" s="20"/>
-      <c r="U759" s="20"/>
-      <c r="V759" s="20"/>
+      <c r="Q759" s="15"/>
+      <c r="R759" s="15"/>
+      <c r="S759" s="15"/>
+      <c r="T759" s="15"/>
+      <c r="U759" s="15"/>
+      <c r="V759" s="15"/>
       <c r="W759" s="15"/>
       <c r="X759" s="15"/>
       <c r="Y759" s="15"/>
@@ -25908,12 +25880,12 @@
       <c r="AC764" s="15"/>
     </row>
     <row r="765" spans="17:29">
-      <c r="Q765" s="15"/>
-      <c r="R765" s="15"/>
-      <c r="S765" s="15"/>
-      <c r="T765" s="15"/>
-      <c r="U765" s="15"/>
-      <c r="V765" s="15"/>
+      <c r="Q765" s="20"/>
+      <c r="R765" s="20"/>
+      <c r="S765" s="20"/>
+      <c r="T765" s="20"/>
+      <c r="U765" s="20"/>
+      <c r="V765" s="20"/>
       <c r="W765" s="15"/>
       <c r="X765" s="15"/>
       <c r="Y765" s="15"/>
@@ -25953,12 +25925,12 @@
       <c r="AC767" s="15"/>
     </row>
     <row r="768" spans="17:29">
-      <c r="Q768" s="20"/>
-      <c r="R768" s="20"/>
-      <c r="S768" s="20"/>
-      <c r="T768" s="20"/>
-      <c r="U768" s="20"/>
-      <c r="V768" s="20"/>
+      <c r="Q768" s="15"/>
+      <c r="R768" s="15"/>
+      <c r="S768" s="15"/>
+      <c r="T768" s="15"/>
+      <c r="U768" s="15"/>
+      <c r="V768" s="15"/>
       <c r="W768" s="15"/>
       <c r="X768" s="15"/>
       <c r="Y768" s="15"/>
@@ -26028,12 +26000,12 @@
       <c r="AC772" s="15"/>
     </row>
     <row r="773" spans="17:29">
-      <c r="Q773" s="15"/>
-      <c r="R773" s="15"/>
-      <c r="S773" s="15"/>
-      <c r="T773" s="15"/>
-      <c r="U773" s="15"/>
-      <c r="V773" s="15"/>
+      <c r="Q773" s="20"/>
+      <c r="R773" s="20"/>
+      <c r="S773" s="20"/>
+      <c r="T773" s="20"/>
+      <c r="U773" s="20"/>
+      <c r="V773" s="20"/>
       <c r="W773" s="15"/>
       <c r="X773" s="15"/>
       <c r="Y773" s="15"/>
@@ -26043,12 +26015,12 @@
       <c r="AC773" s="15"/>
     </row>
     <row r="774" spans="17:29">
-      <c r="Q774" s="20"/>
-      <c r="R774" s="20"/>
-      <c r="S774" s="20"/>
-      <c r="T774" s="20"/>
-      <c r="U774" s="20"/>
-      <c r="V774" s="20"/>
+      <c r="Q774" s="15"/>
+      <c r="R774" s="15"/>
+      <c r="S774" s="15"/>
+      <c r="T774" s="15"/>
+      <c r="U774" s="15"/>
+      <c r="V774" s="15"/>
       <c r="W774" s="15"/>
       <c r="X774" s="15"/>
       <c r="Y774" s="15"/>
@@ -26103,12 +26075,12 @@
       <c r="AC777" s="15"/>
     </row>
     <row r="778" spans="17:29">
-      <c r="Q778" s="15"/>
-      <c r="R778" s="15"/>
-      <c r="S778" s="15"/>
-      <c r="T778" s="15"/>
-      <c r="U778" s="15"/>
-      <c r="V778" s="15"/>
+      <c r="Q778" s="20"/>
+      <c r="R778" s="20"/>
+      <c r="S778" s="20"/>
+      <c r="T778" s="20"/>
+      <c r="U778" s="20"/>
+      <c r="V778" s="20"/>
       <c r="W778" s="15"/>
       <c r="X778" s="15"/>
       <c r="Y778" s="15"/>
@@ -26133,12 +26105,12 @@
       <c r="AC779" s="15"/>
     </row>
     <row r="780" spans="17:29">
-      <c r="Q780" s="20"/>
-      <c r="R780" s="20"/>
-      <c r="S780" s="20"/>
-      <c r="T780" s="20"/>
-      <c r="U780" s="20"/>
-      <c r="V780" s="20"/>
+      <c r="Q780" s="15"/>
+      <c r="R780" s="15"/>
+      <c r="S780" s="15"/>
+      <c r="T780" s="15"/>
+      <c r="U780" s="15"/>
+      <c r="V780" s="15"/>
       <c r="W780" s="15"/>
       <c r="X780" s="15"/>
       <c r="Y780" s="15"/>
@@ -26223,12 +26195,12 @@
       <c r="AC785" s="15"/>
     </row>
     <row r="786" spans="17:29">
-      <c r="Q786" s="15"/>
-      <c r="R786" s="15"/>
-      <c r="S786" s="15"/>
-      <c r="T786" s="15"/>
-      <c r="U786" s="15"/>
-      <c r="V786" s="15"/>
+      <c r="Q786" s="20"/>
+      <c r="R786" s="20"/>
+      <c r="S786" s="20"/>
+      <c r="T786" s="20"/>
+      <c r="U786" s="20"/>
+      <c r="V786" s="20"/>
       <c r="W786" s="15"/>
       <c r="X786" s="15"/>
       <c r="Y786" s="15"/>
@@ -26283,12 +26255,12 @@
       <c r="AC789" s="15"/>
     </row>
     <row r="790" spans="17:29">
-      <c r="Q790" s="20"/>
-      <c r="R790" s="20"/>
-      <c r="S790" s="20"/>
-      <c r="T790" s="20"/>
-      <c r="U790" s="20"/>
-      <c r="V790" s="20"/>
+      <c r="Q790" s="15"/>
+      <c r="R790" s="15"/>
+      <c r="S790" s="15"/>
+      <c r="T790" s="15"/>
+      <c r="U790" s="15"/>
+      <c r="V790" s="15"/>
       <c r="W790" s="15"/>
       <c r="X790" s="15"/>
       <c r="Y790" s="15"/>
@@ -26298,12 +26270,12 @@
       <c r="AC790" s="15"/>
     </row>
     <row r="791" spans="17:29">
-      <c r="Q791" s="15"/>
-      <c r="R791" s="15"/>
-      <c r="S791" s="15"/>
-      <c r="T791" s="15"/>
-      <c r="U791" s="15"/>
-      <c r="V791" s="15"/>
+      <c r="Q791" s="20"/>
+      <c r="R791" s="20"/>
+      <c r="S791" s="20"/>
+      <c r="T791" s="20"/>
+      <c r="U791" s="20"/>
+      <c r="V791" s="20"/>
       <c r="W791" s="15"/>
       <c r="X791" s="15"/>
       <c r="Y791" s="15"/>
@@ -26358,12 +26330,12 @@
       <c r="AC794" s="15"/>
     </row>
     <row r="795" spans="17:29">
-      <c r="Q795" s="20"/>
-      <c r="R795" s="20"/>
-      <c r="S795" s="20"/>
-      <c r="T795" s="20"/>
-      <c r="U795" s="20"/>
-      <c r="V795" s="20"/>
+      <c r="Q795" s="15"/>
+      <c r="R795" s="15"/>
+      <c r="S795" s="15"/>
+      <c r="T795" s="15"/>
+      <c r="U795" s="15"/>
+      <c r="V795" s="15"/>
       <c r="W795" s="15"/>
       <c r="X795" s="15"/>
       <c r="Y795" s="15"/>
@@ -26373,12 +26345,12 @@
       <c r="AC795" s="15"/>
     </row>
     <row r="796" spans="17:29">
-      <c r="Q796" s="15"/>
-      <c r="R796" s="15"/>
-      <c r="S796" s="15"/>
-      <c r="T796" s="15"/>
-      <c r="U796" s="15"/>
-      <c r="V796" s="15"/>
+      <c r="Q796" s="20"/>
+      <c r="R796" s="20"/>
+      <c r="S796" s="20"/>
+      <c r="T796" s="20"/>
+      <c r="U796" s="20"/>
+      <c r="V796" s="20"/>
       <c r="W796" s="15"/>
       <c r="X796" s="15"/>
       <c r="Y796" s="15"/>
@@ -26433,12 +26405,12 @@
       <c r="AC799" s="15"/>
     </row>
     <row r="800" spans="17:29">
-      <c r="Q800" s="20"/>
-      <c r="R800" s="20"/>
-      <c r="S800" s="20"/>
-      <c r="T800" s="20"/>
-      <c r="U800" s="20"/>
-      <c r="V800" s="20"/>
+      <c r="Q800" s="15"/>
+      <c r="R800" s="15"/>
+      <c r="S800" s="15"/>
+      <c r="T800" s="15"/>
+      <c r="U800" s="15"/>
+      <c r="V800" s="15"/>
       <c r="W800" s="15"/>
       <c r="X800" s="15"/>
       <c r="Y800" s="15"/>
@@ -26643,22 +26615,7 @@
       <c r="AC813" s="15"/>
     </row>
     <row r="814" spans="17:29">
-      <c r="Q814" s="15"/>
-      <c r="R814" s="15"/>
-      <c r="S814" s="15"/>
-      <c r="T814" s="15"/>
-      <c r="U814" s="15"/>
-      <c r="V814" s="15"/>
-      <c r="W814" s="15"/>
-      <c r="X814" s="15"/>
-      <c r="Y814" s="15"/>
-      <c r="Z814" s="15"/>
       <c r="AA814" s="15"/>
-      <c r="AB814" s="15"/>
-      <c r="AC814" s="15"/>
-    </row>
-    <row r="815" spans="17:29">
-      <c r="AA815" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -26671,8 +26628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -29042,25 +28999,27 @@
       <c r="R118" s="10"/>
     </row>
     <row r="119" spans="1:19">
-      <c r="A119" s="9">
-        <v>1</v>
-      </c>
-      <c r="B119" s="11">
-        <v>2</v>
-      </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="9">
-        <v>1</v>
-      </c>
+      <c r="A119" s="11">
+        <v>2</v>
+      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="11">
+        <v>2</v>
+      </c>
+      <c r="D119" s="10"/>
       <c r="E119" s="10"/>
-      <c r="F119" s="9">
-        <v>1</v>
-      </c>
-      <c r="G119" s="9">
-        <v>1</v>
-      </c>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="10"/>
+      <c r="P119" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="10"/>
@@ -29432,8 +29391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S151"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="N124" sqref="N124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -31257,13 +31216,49 @@
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B119" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C119" s="1">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1</v>
+      </c>
+      <c r="H119" s="1">
+        <v>1</v>
+      </c>
+      <c r="I119" s="1">
+        <v>2</v>
+      </c>
+      <c r="J119" s="1">
+        <v>1</v>
+      </c>
+      <c r="K119" s="1">
+        <v>1</v>
+      </c>
+      <c r="N119" s="18">
+        <v>0</v>
+      </c>
+      <c r="O119" s="18">
+        <v>1</v>
+      </c>
+      <c r="P119" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q119" s="18">
+        <v>5</v>
+      </c>
+      <c r="R119" s="18">
+        <v>5</v>
+      </c>
+      <c r="S119" s="18">
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -31282,7 +31277,7 @@
       <c r="R123" s="18"/>
       <c r="S123" s="18"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="14:19">
       <c r="N129" s="18"/>
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
@@ -31290,50 +31285,13 @@
       <c r="R129" s="18"/>
       <c r="S129" s="18"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="14:19">
       <c r="N131" s="18"/>
       <c r="O131" s="18"/>
       <c r="P131" s="18"/>
       <c r="Q131" s="18"/>
       <c r="R131" s="18"/>
       <c r="S131" s="18"/>
-    </row>
-    <row r="138" spans="1:19">
-      <c r="A138" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19">
-      <c r="A139" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19">
-      <c r="A140" s="1">
-        <v>1</v>
-      </c>
-      <c r="B140" s="1">
-        <v>0</v>
-      </c>
-      <c r="C140" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19">
-      <c r="B141" s="1">
-        <v>1</v>
-      </c>
-      <c r="C141" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19">
-      <c r="B142" s="1">
-        <v>2</v>
-      </c>
-      <c r="C142" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="149" spans="14:19">
       <c r="N149" s="18"/>
@@ -31363,7 +31321,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -31439,7 +31397,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="18">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="18">
         <v>1</v>
@@ -31527,7 +31485,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="44">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="44">
         <v>2</v>
@@ -31551,7 +31509,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="44">
         <v>34</v>
@@ -31574,7 +31532,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="44">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="18">
         <v>23</v>
@@ -31589,7 +31547,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="18">
         <v>11</v>
@@ -31642,7 +31600,7 @@
         <v>12</v>
       </c>
       <c r="O6" s="44">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -31677,7 +31635,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -31700,7 +31658,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="18">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="44">
         <v>0</v>
@@ -31714,25 +31672,25 @@
         <v>14</v>
       </c>
       <c r="E9" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="44">
         <v>0</v>
       </c>
       <c r="G9" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
       </c>
       <c r="K9" s="44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M9" s="44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N9" s="44">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -31748,10 +31706,13 @@
     </row>
     <row r="11" spans="1:16">
       <c r="C11" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="44">
         <v>11</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -31766,7 +31727,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="F14" s="44">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -31779,13 +31740,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="63.875" customWidth="1"/>
+    <col min="5" max="5" width="108.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:13" ht="20.25">
@@ -31836,9 +31797,9 @@
       <c r="L5" s="31"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="5:13" ht="29.25" customHeight="1">
-      <c r="E6" s="46" t="s">
-        <v>8</v>
+    <row r="6" spans="5:13" ht="42" customHeight="1">
+      <c r="E6" s="52" t="s">
+        <v>10</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
@@ -31849,7 +31810,7 @@
       <c r="L6" s="31"/>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="5:13" ht="18" customHeight="1">
+    <row r="7" spans="5:13" ht="2.25" hidden="1" customHeight="1">
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
@@ -31887,7 +31848,7 @@
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="5:13" ht="33" customHeight="1">
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="47" t="s">
         <v>7</v>
       </c>
     </row>
@@ -31905,24 +31866,24 @@
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="5:13" ht="31.5" customHeight="1">
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="48" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="5:13" ht="14.25" customHeight="1"/>
-    <row r="14" spans="5:13" ht="27" customHeight="1">
-      <c r="E14" s="47" t="s">
+    <row r="14" spans="5:13" s="53" customFormat="1" ht="36" customHeight="1">
+      <c r="E14" s="54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" ht="21" customHeight="1">
+      <c r="E16" s="46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" ht="20.25" customHeight="1">
+      <c r="E18" s="46" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="5:13" ht="21" customHeight="1">
-      <c r="E16" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" ht="20.25" customHeight="1">
-      <c r="E18" s="47" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7315,8 +7315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M128" sqref="M128"/>
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X127" sqref="X127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -15993,9 +15993,7 @@
       <c r="AB115" s="22">
         <v>4</v>
       </c>
-      <c r="AC115" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="AC115" s="23"/>
       <c r="AD115" s="22"/>
     </row>
     <row r="116" spans="1:30" s="21" customFormat="1">
@@ -16286,9 +16284,7 @@
       <c r="Z119" s="21">
         <v>2</v>
       </c>
-      <c r="AA119" s="43" t="s">
-        <v>13</v>
-      </c>
+      <c r="AA119" s="43"/>
       <c r="AB119" s="43"/>
       <c r="AC119" s="43"/>
     </row>
@@ -16433,9 +16429,7 @@
       <c r="AA121" s="21">
         <v>1</v>
       </c>
-      <c r="AB121" s="43" t="s">
-        <v>13</v>
-      </c>
+      <c r="AB121" s="43"/>
       <c r="AC121" s="43"/>
     </row>
     <row r="122" spans="1:30" s="21" customFormat="1">
@@ -29079,7 +29073,7 @@
   <dimension ref="A1:AO180"/>
   <sheetViews>
     <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N131" sqref="N131"/>
+      <selection activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -31581,14 +31575,17 @@
       <c r="F124" s="9">
         <v>1</v>
       </c>
-      <c r="G124" s="9">
+      <c r="G124" s="10"/>
+      <c r="H124" s="9">
         <v>1</v>
       </c>
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
       <c r="L124" s="10"/>
       <c r="M124" s="10"/>
-      <c r="N124" s="10"/>
+      <c r="N124" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:41">
       <c r="A125" s="10"/>
@@ -31597,6 +31594,7 @@
       <c r="D125" s="10"/>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
+      <c r="N125" s="10"/>
     </row>
     <row r="126" spans="1:41">
       <c r="A126" s="10"/>
@@ -36149,8 +36147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -36159,13 +36157,15 @@
     <col min="2" max="2" width="6.625" style="18" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="59" customWidth="1"/>
     <col min="4" max="4" width="6.625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="59" customWidth="1"/>
     <col min="6" max="6" width="6.625" style="58" customWidth="1"/>
-    <col min="7" max="11" width="6.625" style="57" customWidth="1"/>
-    <col min="12" max="12" width="6.625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="57" customWidth="1"/>
+    <col min="8" max="9" width="6.625" style="59" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="57" customWidth="1"/>
+    <col min="11" max="12" width="6.625" style="59" customWidth="1"/>
     <col min="13" max="13" width="6.625" style="57" customWidth="1"/>
-    <col min="14" max="15" width="6.625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="6.625" style="57" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="18" customWidth="1"/>
+    <col min="15" max="16" width="6.625" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -36181,7 +36181,7 @@
       <c r="D1" s="18">
         <v>47</v>
       </c>
-      <c r="E1" s="57">
+      <c r="E1" s="59">
         <v>41</v>
       </c>
       <c r="F1" s="58">
@@ -36190,19 +36190,19 @@
       <c r="G1" s="57">
         <v>23</v>
       </c>
-      <c r="H1" s="57">
+      <c r="H1" s="59">
         <v>10</v>
       </c>
-      <c r="I1" s="57">
+      <c r="I1" s="59">
         <v>3</v>
       </c>
       <c r="J1" s="57">
         <v>40</v>
       </c>
-      <c r="K1" s="57">
+      <c r="K1" s="59">
         <v>38</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="59">
         <v>16</v>
       </c>
       <c r="M1" s="57">
@@ -36211,10 +36211,10 @@
       <c r="N1" s="18">
         <v>52</v>
       </c>
-      <c r="O1" s="18">
+      <c r="O1" s="59">
         <v>15</v>
       </c>
-      <c r="P1" s="57">
+      <c r="P1" s="59">
         <v>61</v>
       </c>
     </row>
@@ -36231,7 +36231,7 @@
       <c r="D2" s="18">
         <v>75</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="59">
         <v>1</v>
       </c>
       <c r="F2" s="58">
@@ -36240,19 +36240,19 @@
       <c r="G2" s="57">
         <v>43</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="59">
         <v>64</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="59">
         <v>6</v>
       </c>
       <c r="J2" s="57">
         <v>50</v>
       </c>
-      <c r="K2" s="57">
-        <v>4</v>
-      </c>
-      <c r="L2" s="18">
+      <c r="K2" s="59">
+        <v>4</v>
+      </c>
+      <c r="L2" s="59">
         <v>1</v>
       </c>
       <c r="M2" s="57">
@@ -36261,10 +36261,10 @@
       <c r="N2" s="18">
         <v>11</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="59">
         <v>6</v>
       </c>
-      <c r="P2" s="57">
+      <c r="P2" s="59">
         <v>12</v>
       </c>
     </row>
@@ -36278,7 +36278,7 @@
       <c r="C3" s="59">
         <v>9</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="59">
         <v>4</v>
       </c>
       <c r="F3" s="58">
@@ -36287,19 +36287,19 @@
       <c r="G3" s="57">
         <v>27</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="59">
         <v>18</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="59">
         <v>9</v>
       </c>
       <c r="J3" s="57">
         <v>3</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="59">
         <v>11</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="59">
         <v>15</v>
       </c>
       <c r="M3" s="57">
@@ -36308,10 +36308,10 @@
       <c r="N3" s="18">
         <v>3</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="59">
         <v>44</v>
       </c>
-      <c r="P3" s="57">
+      <c r="P3" s="59">
         <v>23</v>
       </c>
     </row>
@@ -36325,7 +36325,7 @@
       <c r="C4" s="59">
         <v>7</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="59">
         <v>17</v>
       </c>
       <c r="F4" s="58">
@@ -36334,19 +36334,19 @@
       <c r="G4" s="57">
         <v>2</v>
       </c>
-      <c r="H4" s="57">
-        <v>5</v>
-      </c>
-      <c r="I4" s="57">
+      <c r="H4" s="59">
+        <v>5</v>
+      </c>
+      <c r="I4" s="59">
         <v>24</v>
       </c>
       <c r="J4" s="57">
         <v>28</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="59">
         <v>34</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="59">
         <v>1</v>
       </c>
       <c r="M4" s="57">
@@ -36355,10 +36355,10 @@
       <c r="N4" s="18">
         <v>0</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="59">
         <v>17</v>
       </c>
-      <c r="P4" s="57">
+      <c r="P4" s="59">
         <v>4</v>
       </c>
     </row>
@@ -36369,7 +36369,7 @@
       <c r="C5" s="59">
         <v>23</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="59">
         <v>15</v>
       </c>
       <c r="F5" s="58">
@@ -36378,16 +36378,16 @@
       <c r="G5" s="57">
         <v>5</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="59">
         <v>8</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="59">
         <v>11</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="59">
         <v>12</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="59">
         <v>13</v>
       </c>
       <c r="M5" s="57">
@@ -36396,10 +36396,10 @@
       <c r="N5" s="18">
         <v>20</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="59">
         <v>17</v>
       </c>
-      <c r="P5" s="57">
+      <c r="P5" s="59">
         <v>31</v>
       </c>
     </row>
@@ -36410,7 +36410,7 @@
       <c r="C6" s="59">
         <v>1</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="59">
         <v>0</v>
       </c>
       <c r="F6" s="58">
@@ -36419,13 +36419,13 @@
       <c r="G6" s="57">
         <v>8</v>
       </c>
-      <c r="I6" s="57">
-        <v>0</v>
-      </c>
-      <c r="K6" s="57">
+      <c r="I6" s="59">
+        <v>0</v>
+      </c>
+      <c r="K6" s="59">
         <v>13</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="59">
         <v>1</v>
       </c>
       <c r="M6" s="57">
@@ -36434,10 +36434,10 @@
       <c r="N6" s="18">
         <v>12</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="59">
         <v>27</v>
       </c>
-      <c r="P6" s="57">
+      <c r="P6" s="59">
         <v>0</v>
       </c>
     </row>
@@ -36445,7 +36445,7 @@
       <c r="C7" s="59">
         <v>0</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="59">
         <v>28</v>
       </c>
       <c r="F7" s="58">
@@ -36454,13 +36454,13 @@
       <c r="G7" s="57">
         <v>1</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="59">
         <v>10</v>
       </c>
-      <c r="K7" s="57">
-        <v>3</v>
-      </c>
-      <c r="L7" s="18">
+      <c r="K7" s="59">
+        <v>3</v>
+      </c>
+      <c r="L7" s="59">
         <v>0</v>
       </c>
       <c r="M7" s="57">
@@ -36469,7 +36469,7 @@
       <c r="N7" s="18">
         <v>4</v>
       </c>
-      <c r="P7" s="57">
+      <c r="P7" s="59">
         <v>5</v>
       </c>
     </row>
@@ -36477,7 +36477,7 @@
       <c r="C8" s="59">
         <v>6</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="59">
         <v>20</v>
       </c>
       <c r="F8" s="58">
@@ -36486,13 +36486,13 @@
       <c r="G8" s="57">
         <v>1</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="59">
         <v>21</v>
       </c>
-      <c r="K8" s="57">
-        <v>2</v>
-      </c>
-      <c r="L8" s="18">
+      <c r="K8" s="59">
+        <v>2</v>
+      </c>
+      <c r="L8" s="59">
         <v>59</v>
       </c>
       <c r="M8" s="57">
@@ -36506,7 +36506,7 @@
       <c r="C9" s="59">
         <v>14</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="59">
         <v>15</v>
       </c>
       <c r="F9" s="58">
@@ -36515,10 +36515,10 @@
       <c r="G9" s="57">
         <v>4</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="59">
         <v>7</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="59">
         <v>12</v>
       </c>
       <c r="M9" s="57">
@@ -36538,10 +36538,10 @@
       <c r="G10" s="57">
         <v>2</v>
       </c>
-      <c r="I10" s="57">
-        <v>5</v>
-      </c>
-      <c r="K10" s="57">
+      <c r="I10" s="59">
+        <v>5</v>
+      </c>
+      <c r="K10" s="59">
         <v>1</v>
       </c>
     </row>
@@ -36552,10 +36552,10 @@
       <c r="F11" s="58">
         <v>11</v>
       </c>
-      <c r="I11" s="57">
-        <v>4</v>
-      </c>
-      <c r="K11" s="57">
+      <c r="I11" s="59">
+        <v>4</v>
+      </c>
+      <c r="K11" s="59">
         <v>1</v>
       </c>
     </row>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH76" sqref="AH76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5484,7 +5484,7 @@
         <v>11</v>
       </c>
       <c r="P46" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q46" s="7">
         <v>9</v>
@@ -5765,7 +5765,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K49" s="7">
         <v>2</v>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="7">
         <v>0</v>
@@ -6184,13 +6184,13 @@
         <v>4</v>
       </c>
       <c r="U53" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V53" s="7">
         <v>0</v>
       </c>
       <c r="W53" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X53" s="7">
         <v>1</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="AD53" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE53" s="7">
         <v>5</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="54" spans="1:33" s="27" customFormat="1">
       <c r="A54" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" s="7">
         <v>5</v>
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="AG54" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:33" s="27" customFormat="1">
@@ -6357,7 +6357,7 @@
         <v>2</v>
       </c>
       <c r="R55" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S55" s="7">
         <v>2</v>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF55" s="7">
         <v>23</v>
@@ -6418,7 +6418,7 @@
         <v>5</v>
       </c>
       <c r="H56" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" s="7">
         <v>1</v>
@@ -6483,7 +6483,9 @@
       <c r="B57" s="7">
         <v>6</v>
       </c>
-      <c r="C57" s="7"/>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
       <c r="D57" s="7">
         <v>8</v>
       </c>
@@ -6508,7 +6510,7 @@
         <v>15</v>
       </c>
       <c r="N57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="7">
         <v>1</v>
@@ -6518,10 +6520,12 @@
         <v>0</v>
       </c>
       <c r="R57" s="7"/>
-      <c r="S57" s="25">
-        <v>2</v>
-      </c>
-      <c r="T57" s="7"/>
+      <c r="S57" s="7">
+        <v>2</v>
+      </c>
+      <c r="T57" s="7">
+        <v>0</v>
+      </c>
       <c r="U57" s="7"/>
       <c r="V57" s="7">
         <v>0</v>
@@ -6570,7 +6574,9 @@
         <v>5</v>
       </c>
       <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
       <c r="J58" s="25"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7">
@@ -6588,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="7"/>
-      <c r="S58" s="25">
+      <c r="S58" s="7">
         <v>3</v>
       </c>
       <c r="T58" s="7"/>
@@ -6601,7 +6607,7 @@
         <v>17</v>
       </c>
       <c r="Y58" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z58" s="7">
         <v>16</v>
@@ -6618,7 +6624,7 @@
       <c r="AD58" s="27"/>
       <c r="AE58" s="7"/>
       <c r="AF58" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG58" s="7"/>
     </row>
@@ -6652,7 +6658,7 @@
       <c r="Q59" s="7">
         <v>2</v>
       </c>
-      <c r="S59" s="25">
+      <c r="S59" s="7">
         <v>2</v>
       </c>
       <c r="V59" s="7">
@@ -6665,7 +6671,13 @@
       <c r="Z59" s="7">
         <v>2</v>
       </c>
+      <c r="AA59" s="7">
+        <v>0</v>
+      </c>
       <c r="AB59" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="7">
         <v>0</v>
       </c>
       <c r="AD59" s="25"/>
@@ -6700,7 +6712,7 @@
         <v>4</v>
       </c>
       <c r="S60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V60" s="7">
         <v>0</v>
@@ -6733,14 +6745,14 @@
         <v>3</v>
       </c>
       <c r="G61" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -6779,7 +6791,7 @@
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
@@ -6789,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -6852,7 +6864,9 @@
         <v>0</v>
       </c>
       <c r="N63" s="25"/>
-      <c r="O63" s="4"/>
+      <c r="O63" s="4">
+        <v>0</v>
+      </c>
       <c r="P63" s="4"/>
       <c r="Q63" s="4">
         <v>2</v>
@@ -6866,7 +6880,7 @@
       </c>
       <c r="W63" s="7"/>
       <c r="X63" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4">
@@ -6916,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="AB64" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
@@ -6950,13 +6964,13 @@
       <c r="T65" s="3"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB65" s="7"/>
       <c r="AD65" s="7"/>
@@ -7004,7 +7018,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" s="4"/>
       <c r="H67" s="4"/>
@@ -7018,7 +7032,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
@@ -7045,7 +7059,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -7066,7 +7080,7 @@
     </row>
     <row r="69" spans="1:33">
       <c r="D69" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -7741,8 +7755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT972"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q163" sqref="Q163"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I158" sqref="I158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -19087,7 +19101,7 @@
         <v>5</v>
       </c>
       <c r="S143" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T143" s="19">
         <v>4</v>
@@ -19181,7 +19195,7 @@
       </c>
       <c r="P144" s="22"/>
       <c r="Q144" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R144" s="19">
         <v>9</v>
@@ -19192,11 +19206,11 @@
       <c r="T144" s="19">
         <v>2</v>
       </c>
-      <c r="U144" s="20">
+      <c r="U144" s="19">
         <v>10</v>
       </c>
       <c r="V144" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W144" s="20"/>
       <c r="X144" s="22">
@@ -19208,7 +19222,9 @@
       <c r="Z144" s="19">
         <v>9</v>
       </c>
-      <c r="AA144" s="20"/>
+      <c r="AA144" s="19">
+        <v>10</v>
+      </c>
       <c r="AB144" s="20"/>
       <c r="AC144" s="20"/>
       <c r="AD144" s="20"/>
@@ -19286,7 +19302,7 @@
         <v>1</v>
       </c>
       <c r="U145" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V145" s="19">
         <v>8</v>
@@ -19376,7 +19392,7 @@
       <c r="Q146" s="19">
         <v>6</v>
       </c>
-      <c r="R146" s="20">
+      <c r="R146" s="19">
         <v>8</v>
       </c>
       <c r="S146" s="19">
@@ -19407,7 +19423,9 @@
       <c r="AB146" s="19">
         <v>6</v>
       </c>
-      <c r="AC146" s="20"/>
+      <c r="AC146" s="19">
+        <v>8</v>
+      </c>
       <c r="AD146" s="20"/>
       <c r="AF146" s="40"/>
       <c r="AH146" s="21">
@@ -19474,7 +19492,7 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R147" s="19">
         <v>2</v>
@@ -19583,16 +19601,16 @@
         <v>4</v>
       </c>
       <c r="S148" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T148" s="19">
         <v>3</v>
       </c>
       <c r="U148" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V148" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W148" s="20"/>
       <c r="X148" s="19">
@@ -19685,10 +19703,10 @@
         <v>0</v>
       </c>
       <c r="U149" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V149" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W149" s="20"/>
       <c r="X149" s="19">
@@ -19771,19 +19789,19 @@
       </c>
       <c r="P150" s="22"/>
       <c r="Q150" s="20">
-        <v>4</v>
-      </c>
-      <c r="R150" s="20">
+        <v>5</v>
+      </c>
+      <c r="R150" s="19">
         <v>4</v>
       </c>
       <c r="S150" s="19">
         <v>1</v>
       </c>
       <c r="T150" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U150" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V150" s="19">
         <v>1</v>
@@ -19795,7 +19813,9 @@
       <c r="Y150" s="19">
         <v>1</v>
       </c>
-      <c r="Z150" s="20"/>
+      <c r="Z150" s="19">
+        <v>4</v>
+      </c>
       <c r="AA150" s="20"/>
       <c r="AB150" s="20"/>
       <c r="AC150" s="20"/>
@@ -19861,14 +19881,14 @@
         <v>12</v>
       </c>
       <c r="P151" s="22"/>
-      <c r="Q151" s="20">
-        <v>3</v>
-      </c>
-      <c r="R151" s="20">
+      <c r="Q151" s="19">
+        <v>3</v>
+      </c>
+      <c r="R151" s="19">
         <v>3</v>
       </c>
       <c r="S151" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T151" s="19">
         <v>2</v>
@@ -19889,8 +19909,12 @@
       <c r="Z151" s="19">
         <v>2</v>
       </c>
-      <c r="AA151" s="20"/>
-      <c r="AB151" s="20"/>
+      <c r="AA151" s="19">
+        <v>3</v>
+      </c>
+      <c r="AB151" s="19">
+        <v>3</v>
+      </c>
       <c r="AC151" s="20"/>
       <c r="AD151" s="20"/>
       <c r="AF151" s="40"/>
@@ -19961,16 +19985,16 @@
       </c>
       <c r="P152" s="22"/>
       <c r="Q152" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R152" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S152" s="19">
         <v>1</v>
       </c>
       <c r="T152" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U152" s="19">
         <v>0</v>
@@ -20054,22 +20078,22 @@
       </c>
       <c r="P153" s="22"/>
       <c r="Q153" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R153" s="19">
         <v>0</v>
       </c>
       <c r="S153" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T153" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U153" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V153" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W153" s="20"/>
       <c r="X153" s="19">
@@ -20146,40 +20170,115 @@
       </c>
       <c r="P154" s="22"/>
       <c r="Q154" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R154" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S154" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T154" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U154" s="20">
-        <v>0</v>
-      </c>
-      <c r="V154" s="20">
-        <v>0</v>
-      </c>
-      <c r="W154" s="15"/>
-      <c r="X154" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="V154" s="19">
+        <v>0</v>
+      </c>
+      <c r="W154" s="20"/>
+      <c r="X154" s="19">
+        <v>0</v>
+      </c>
       <c r="Y154" s="20"/>
       <c r="Z154" s="20"/>
       <c r="AA154" s="20"/>
       <c r="AB154" s="20"/>
       <c r="AC154" s="20"/>
-      <c r="AD154" s="15"/>
+      <c r="AD154" s="20"/>
       <c r="AF154" s="40"/>
+      <c r="AH154" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI154" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ154" s="21">
+        <v>2</v>
+      </c>
+      <c r="AK154" s="21">
+        <v>8</v>
+      </c>
+      <c r="AL154" s="21">
+        <v>9</v>
+      </c>
+      <c r="AO154" s="21">
+        <v>2</v>
+      </c>
+      <c r="AP154" s="21">
+        <v>2</v>
+      </c>
+      <c r="AQ154" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:43" s="21" customFormat="1">
-      <c r="Q155" s="20"/>
-      <c r="R155" s="20"/>
-      <c r="S155" s="20"/>
-      <c r="T155" s="20"/>
-      <c r="U155" s="20"/>
-      <c r="V155" s="20"/>
+      <c r="A155" s="21">
+        <v>3</v>
+      </c>
+      <c r="B155" s="21">
+        <v>3</v>
+      </c>
+      <c r="C155" s="21">
+        <v>4</v>
+      </c>
+      <c r="D155" s="21">
+        <v>8</v>
+      </c>
+      <c r="E155" s="21">
+        <v>10</v>
+      </c>
+      <c r="F155" s="21">
+        <v>0</v>
+      </c>
+      <c r="I155" s="21">
+        <v>0</v>
+      </c>
+      <c r="J155" s="21">
+        <v>3</v>
+      </c>
+      <c r="K155" s="21">
+        <v>3</v>
+      </c>
+      <c r="L155" s="21">
+        <v>4</v>
+      </c>
+      <c r="M155" s="21">
+        <v>8</v>
+      </c>
+      <c r="N155" s="21">
+        <v>10</v>
+      </c>
+      <c r="P155" s="22"/>
+      <c r="Q155" s="20">
+        <v>0</v>
+      </c>
+      <c r="R155" s="20">
+        <v>0</v>
+      </c>
+      <c r="S155" s="20">
+        <v>0</v>
+      </c>
+      <c r="T155" s="20">
+        <v>0</v>
+      </c>
+      <c r="U155" s="20">
+        <v>0</v>
+      </c>
+      <c r="V155" s="20">
+        <v>0</v>
+      </c>
       <c r="W155" s="20"/>
       <c r="X155" s="20"/>
       <c r="Y155" s="20"/>
@@ -20187,7 +20286,7 @@
       <c r="AA155" s="20"/>
       <c r="AB155" s="20"/>
       <c r="AC155" s="20"/>
-      <c r="AD155" s="15"/>
+      <c r="AD155" s="20"/>
       <c r="AF155" s="40"/>
     </row>
     <row r="156" spans="1:43" s="21" customFormat="1">
@@ -20198,14 +20297,14 @@
       <c r="T156" s="20"/>
       <c r="U156" s="20"/>
       <c r="V156" s="20"/>
-      <c r="W156" s="15"/>
+      <c r="W156" s="20"/>
       <c r="X156" s="20"/>
       <c r="Y156" s="20"/>
       <c r="Z156" s="20"/>
       <c r="AA156" s="20"/>
       <c r="AB156" s="20"/>
       <c r="AC156" s="20"/>
-      <c r="AD156" s="15"/>
+      <c r="AD156" s="20"/>
       <c r="AF156" s="40"/>
     </row>
     <row r="157" spans="1:43" s="21" customFormat="1">
@@ -20223,7 +20322,7 @@
       <c r="AA157" s="20"/>
       <c r="AB157" s="20"/>
       <c r="AC157" s="20"/>
-      <c r="AD157" s="15"/>
+      <c r="AD157" s="20"/>
       <c r="AF157" s="40"/>
     </row>
     <row r="158" spans="1:43" s="21" customFormat="1">
@@ -20234,14 +20333,14 @@
       <c r="T158" s="20"/>
       <c r="U158" s="20"/>
       <c r="V158" s="20"/>
-      <c r="W158" s="15"/>
+      <c r="W158" s="20"/>
       <c r="X158" s="20"/>
       <c r="Y158" s="20"/>
       <c r="Z158" s="20"/>
       <c r="AA158" s="20"/>
       <c r="AB158" s="20"/>
       <c r="AC158" s="20"/>
-      <c r="AD158" s="15"/>
+      <c r="AD158" s="20"/>
       <c r="AF158" s="40"/>
     </row>
     <row r="159" spans="1:43" s="21" customFormat="1">
@@ -20259,7 +20358,7 @@
       <c r="AA159" s="20"/>
       <c r="AB159" s="20"/>
       <c r="AC159" s="20"/>
-      <c r="AD159" s="15"/>
+      <c r="AD159" s="20"/>
       <c r="AF159" s="40"/>
     </row>
     <row r="160" spans="1:43" s="21" customFormat="1">
@@ -20271,155 +20370,139 @@
       <c r="U160" s="20"/>
       <c r="V160" s="20"/>
       <c r="W160" s="20"/>
-      <c r="X160" s="20"/>
-      <c r="Y160" s="20"/>
-      <c r="Z160" s="20"/>
-      <c r="AA160" s="20"/>
-      <c r="AB160" s="20"/>
-      <c r="AC160" s="20"/>
+      <c r="X160" s="15"/>
+      <c r="Y160" s="15"/>
+      <c r="Z160" s="15"/>
+      <c r="AA160" s="15"/>
+      <c r="AB160" s="15"/>
+      <c r="AC160" s="15"/>
       <c r="AD160" s="15"/>
       <c r="AF160" s="40"/>
     </row>
-    <row r="161" spans="16:38" s="21" customFormat="1">
+    <row r="161" spans="16:32" s="21" customFormat="1">
       <c r="P161" s="22"/>
-      <c r="Q161" s="20"/>
-      <c r="R161" s="20"/>
-      <c r="S161" s="20"/>
-      <c r="T161" s="20"/>
-      <c r="U161" s="20"/>
-      <c r="V161" s="20"/>
-      <c r="W161" s="20"/>
-      <c r="X161" s="15"/>
-      <c r="Y161" s="15"/>
-      <c r="Z161" s="15"/>
-      <c r="AA161" s="15"/>
-      <c r="AB161" s="15"/>
-      <c r="AC161" s="15"/>
-      <c r="AD161" s="15"/>
+      <c r="Q161" s="23"/>
+      <c r="R161" s="23"/>
+      <c r="S161" s="23"/>
+      <c r="T161" s="23"/>
+      <c r="U161" s="23"/>
+      <c r="V161" s="23"/>
+      <c r="W161" s="23"/>
+      <c r="X161" s="40"/>
+      <c r="Y161" s="40"/>
+      <c r="Z161" s="23"/>
+      <c r="AA161" s="23"/>
+      <c r="AB161" s="23"/>
+      <c r="AC161" s="23"/>
+      <c r="AD161" s="40"/>
       <c r="AF161" s="40"/>
     </row>
-    <row r="162" spans="16:38" s="21" customFormat="1">
-      <c r="P162" s="22"/>
-      <c r="Q162" s="20"/>
-      <c r="R162" s="20"/>
-      <c r="S162" s="20"/>
-      <c r="T162" s="20"/>
-      <c r="U162" s="20"/>
-      <c r="V162" s="20"/>
-      <c r="W162" s="15"/>
-      <c r="X162" s="15"/>
-      <c r="Y162" s="15"/>
-      <c r="Z162" s="15"/>
-      <c r="AA162" s="15"/>
-      <c r="AB162" s="15"/>
-      <c r="AC162" s="15"/>
-      <c r="AD162" s="15"/>
+    <row r="162" spans="16:32" s="21" customFormat="1">
+      <c r="Q162" s="23"/>
+      <c r="R162" s="23"/>
+      <c r="S162" s="23"/>
+      <c r="T162" s="23"/>
+      <c r="U162" s="23"/>
+      <c r="V162" s="23"/>
+      <c r="W162" s="23"/>
+      <c r="X162" s="40"/>
+      <c r="Y162" s="40"/>
+      <c r="Z162" s="23"/>
+      <c r="AA162" s="23"/>
+      <c r="AB162" s="23"/>
+      <c r="AC162" s="23"/>
+      <c r="AD162" s="40"/>
       <c r="AF162" s="40"/>
     </row>
-    <row r="163" spans="16:38" s="21" customFormat="1">
-      <c r="Q163" s="20"/>
-      <c r="R163" s="20"/>
-      <c r="S163" s="20"/>
-      <c r="T163" s="20"/>
-      <c r="U163" s="20"/>
-      <c r="V163" s="20"/>
-      <c r="W163" s="15"/>
-      <c r="X163" s="15"/>
-      <c r="Y163" s="15"/>
-      <c r="Z163" s="15"/>
-      <c r="AA163" s="15"/>
-      <c r="AB163" s="15"/>
-      <c r="AC163" s="15"/>
-      <c r="AD163" s="15"/>
+    <row r="163" spans="16:32" s="21" customFormat="1">
+      <c r="Q163" s="23"/>
+      <c r="R163" s="23"/>
+      <c r="S163" s="23"/>
+      <c r="T163" s="23"/>
+      <c r="U163" s="23"/>
+      <c r="V163" s="23"/>
+      <c r="W163" s="23"/>
+      <c r="X163" s="40"/>
+      <c r="Y163" s="40"/>
+      <c r="Z163" s="40"/>
+      <c r="AA163" s="40"/>
+      <c r="AB163" s="40"/>
+      <c r="AC163" s="40"/>
+      <c r="AD163" s="40"/>
       <c r="AF163" s="40"/>
     </row>
-    <row r="164" spans="16:38">
-      <c r="P164" s="18"/>
-      <c r="Q164" s="20"/>
-      <c r="R164" s="20"/>
-      <c r="S164" s="20"/>
-      <c r="T164" s="20"/>
-      <c r="U164" s="20"/>
-      <c r="V164" s="20"/>
-      <c r="W164" s="15"/>
-      <c r="X164" s="20"/>
-      <c r="Y164" s="20"/>
-      <c r="Z164" s="20"/>
-      <c r="AA164" s="20"/>
-      <c r="AB164" s="20"/>
-      <c r="AC164" s="20"/>
-      <c r="AD164" s="20"/>
-      <c r="AH164" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI164" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ164" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK164" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL164" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="16:38" s="21" customFormat="1">
+    <row r="164" spans="16:32" s="21" customFormat="1">
+      <c r="Q164" s="23"/>
+      <c r="R164" s="23"/>
+      <c r="S164" s="23"/>
+      <c r="T164" s="23"/>
+      <c r="U164" s="23"/>
+      <c r="V164" s="23"/>
+      <c r="W164" s="23"/>
+      <c r="X164" s="40"/>
+      <c r="Y164" s="40"/>
+      <c r="Z164" s="23"/>
+      <c r="AA164" s="23"/>
+      <c r="AB164" s="23"/>
+      <c r="AC164" s="23"/>
+      <c r="AD164" s="40"/>
+      <c r="AF164" s="40"/>
+    </row>
+    <row r="165" spans="16:32" s="21" customFormat="1">
       <c r="P165" s="22"/>
-      <c r="Q165" s="20"/>
-      <c r="R165" s="20"/>
-      <c r="S165" s="20"/>
-      <c r="T165" s="20"/>
-      <c r="U165" s="20"/>
-      <c r="V165" s="20"/>
-      <c r="W165" s="20"/>
-      <c r="X165" s="20"/>
-      <c r="Y165" s="20"/>
-      <c r="Z165" s="20"/>
-      <c r="AA165" s="20"/>
-      <c r="AB165" s="20"/>
-      <c r="AC165" s="20"/>
-      <c r="AD165" s="20"/>
-      <c r="AF165" s="23"/>
-    </row>
-    <row r="166" spans="16:38" s="21" customFormat="1">
+      <c r="Q165" s="23"/>
+      <c r="R165" s="23"/>
+      <c r="S165" s="23"/>
+      <c r="T165" s="23"/>
+      <c r="U165" s="23"/>
+      <c r="V165" s="23"/>
+      <c r="W165" s="23"/>
+      <c r="X165" s="40"/>
+      <c r="Y165" s="40"/>
+      <c r="Z165" s="40"/>
+      <c r="AA165" s="40"/>
+      <c r="AB165" s="40"/>
+      <c r="AC165" s="40"/>
+      <c r="AD165" s="40"/>
+      <c r="AF165" s="40"/>
+    </row>
+    <row r="166" spans="16:32" s="21" customFormat="1">
       <c r="P166" s="22"/>
-      <c r="Q166" s="20"/>
-      <c r="R166" s="20"/>
-      <c r="S166" s="20"/>
-      <c r="T166" s="20"/>
-      <c r="U166" s="20"/>
-      <c r="V166" s="20"/>
-      <c r="W166" s="20"/>
-      <c r="X166" s="15"/>
-      <c r="Y166" s="15"/>
-      <c r="Z166" s="20"/>
-      <c r="AA166" s="20"/>
-      <c r="AB166" s="20"/>
-      <c r="AC166" s="20"/>
-      <c r="AD166" s="15"/>
+      <c r="Q166" s="23"/>
+      <c r="R166" s="23"/>
+      <c r="S166" s="23"/>
+      <c r="T166" s="23"/>
+      <c r="U166" s="23"/>
+      <c r="V166" s="23"/>
+      <c r="W166" s="23"/>
+      <c r="X166" s="40"/>
+      <c r="Y166" s="40"/>
+      <c r="Z166" s="23"/>
+      <c r="AA166" s="23"/>
+      <c r="AB166" s="23"/>
+      <c r="AC166" s="23"/>
+      <c r="AD166" s="40"/>
       <c r="AF166" s="40"/>
     </row>
-    <row r="167" spans="16:38" s="21" customFormat="1">
+    <row r="167" spans="16:32" s="21" customFormat="1">
       <c r="P167" s="22"/>
-      <c r="Q167" s="20"/>
-      <c r="R167" s="20"/>
-      <c r="S167" s="20"/>
-      <c r="T167" s="20"/>
-      <c r="U167" s="20"/>
-      <c r="V167" s="20"/>
-      <c r="W167" s="15"/>
-      <c r="X167" s="15"/>
-      <c r="Y167" s="15"/>
-      <c r="Z167" s="15"/>
-      <c r="AA167" s="15"/>
-      <c r="AB167" s="15"/>
-      <c r="AC167" s="15"/>
-      <c r="AD167" s="15"/>
+      <c r="Q167" s="23"/>
+      <c r="R167" s="23"/>
+      <c r="S167" s="23"/>
+      <c r="T167" s="23"/>
+      <c r="U167" s="23"/>
+      <c r="V167" s="23"/>
+      <c r="W167" s="23"/>
+      <c r="X167" s="40"/>
+      <c r="Y167" s="40"/>
+      <c r="Z167" s="40"/>
+      <c r="AA167" s="40"/>
+      <c r="AB167" s="40"/>
+      <c r="AC167" s="40"/>
+      <c r="AD167" s="40"/>
       <c r="AF167" s="40"/>
     </row>
-    <row r="168" spans="16:38" s="21" customFormat="1">
+    <row r="168" spans="16:32" s="21" customFormat="1">
       <c r="P168" s="22"/>
       <c r="Q168" s="20"/>
       <c r="R168" s="20"/>
@@ -20434,10 +20517,10 @@
       <c r="AA168" s="20"/>
       <c r="AB168" s="20"/>
       <c r="AC168" s="20"/>
-      <c r="AD168" s="20"/>
+      <c r="AD168" s="15"/>
       <c r="AF168" s="40"/>
     </row>
-    <row r="169" spans="16:38" s="21" customFormat="1">
+    <row r="169" spans="16:32" s="21" customFormat="1">
       <c r="P169" s="22"/>
       <c r="Q169" s="20"/>
       <c r="R169" s="20"/>
@@ -20445,17 +20528,17 @@
       <c r="T169" s="20"/>
       <c r="U169" s="20"/>
       <c r="V169" s="20"/>
-      <c r="W169" s="20"/>
-      <c r="X169" s="15"/>
-      <c r="Y169" s="15"/>
-      <c r="Z169" s="15"/>
-      <c r="AA169" s="15"/>
-      <c r="AB169" s="15"/>
-      <c r="AC169" s="15"/>
+      <c r="W169" s="15"/>
+      <c r="X169" s="20"/>
+      <c r="Y169" s="20"/>
+      <c r="Z169" s="20"/>
+      <c r="AA169" s="20"/>
+      <c r="AB169" s="20"/>
+      <c r="AC169" s="20"/>
       <c r="AD169" s="15"/>
       <c r="AF169" s="40"/>
     </row>
-    <row r="170" spans="16:38" s="21" customFormat="1">
+    <row r="170" spans="16:32" s="21" customFormat="1">
       <c r="P170" s="22"/>
       <c r="Q170" s="20"/>
       <c r="R170" s="20"/>
@@ -20470,10 +20553,10 @@
       <c r="AA170" s="20"/>
       <c r="AB170" s="20"/>
       <c r="AC170" s="20"/>
-      <c r="AD170" s="20"/>
+      <c r="AD170" s="15"/>
       <c r="AF170" s="40"/>
     </row>
-    <row r="171" spans="16:38" s="21" customFormat="1">
+    <row r="171" spans="16:32" s="21" customFormat="1">
       <c r="P171" s="22"/>
       <c r="Q171" s="20"/>
       <c r="R171" s="20"/>
@@ -20482,16 +20565,16 @@
       <c r="U171" s="20"/>
       <c r="V171" s="20"/>
       <c r="W171" s="20"/>
-      <c r="X171" s="15"/>
-      <c r="Y171" s="15"/>
-      <c r="Z171" s="15"/>
-      <c r="AA171" s="15"/>
-      <c r="AB171" s="15"/>
-      <c r="AC171" s="15"/>
+      <c r="X171" s="20"/>
+      <c r="Y171" s="20"/>
+      <c r="Z171" s="20"/>
+      <c r="AA171" s="20"/>
+      <c r="AB171" s="20"/>
+      <c r="AC171" s="20"/>
       <c r="AD171" s="15"/>
       <c r="AF171" s="40"/>
     </row>
-    <row r="172" spans="16:38" s="21" customFormat="1">
+    <row r="172" spans="16:32" s="21" customFormat="1">
       <c r="P172" s="22"/>
       <c r="Q172" s="20"/>
       <c r="R172" s="20"/>
@@ -20500,16 +20583,16 @@
       <c r="U172" s="20"/>
       <c r="V172" s="20"/>
       <c r="W172" s="20"/>
-      <c r="X172" s="20"/>
-      <c r="Y172" s="20"/>
-      <c r="Z172" s="20"/>
-      <c r="AA172" s="20"/>
-      <c r="AB172" s="20"/>
-      <c r="AC172" s="20"/>
-      <c r="AD172" s="20"/>
+      <c r="X172" s="15"/>
+      <c r="Y172" s="15"/>
+      <c r="Z172" s="15"/>
+      <c r="AA172" s="15"/>
+      <c r="AB172" s="15"/>
+      <c r="AC172" s="15"/>
+      <c r="AD172" s="15"/>
       <c r="AF172" s="40"/>
     </row>
-    <row r="173" spans="16:38" s="21" customFormat="1">
+    <row r="173" spans="16:32" s="21" customFormat="1">
       <c r="P173" s="22"/>
       <c r="Q173" s="20"/>
       <c r="R173" s="20"/>
@@ -20517,52 +20600,51 @@
       <c r="T173" s="20"/>
       <c r="U173" s="20"/>
       <c r="V173" s="20"/>
-      <c r="W173" s="20"/>
-      <c r="X173" s="20"/>
-      <c r="Y173" s="20"/>
-      <c r="Z173" s="20"/>
-      <c r="AA173" s="20"/>
-      <c r="AB173" s="20"/>
-      <c r="AC173" s="20"/>
+      <c r="W173" s="15"/>
+      <c r="X173" s="15"/>
+      <c r="Y173" s="15"/>
+      <c r="Z173" s="15"/>
+      <c r="AA173" s="15"/>
+      <c r="AB173" s="15"/>
+      <c r="AC173" s="15"/>
       <c r="AD173" s="15"/>
       <c r="AF173" s="40"/>
     </row>
-    <row r="174" spans="16:38" s="21" customFormat="1">
+    <row r="174" spans="16:32" s="21" customFormat="1">
       <c r="Q174" s="20"/>
       <c r="R174" s="20"/>
       <c r="S174" s="20"/>
       <c r="T174" s="20"/>
       <c r="U174" s="20"/>
       <c r="V174" s="20"/>
-      <c r="W174" s="20"/>
+      <c r="W174" s="15"/>
       <c r="X174" s="15"/>
       <c r="Y174" s="15"/>
-      <c r="Z174" s="20"/>
-      <c r="AA174" s="20"/>
-      <c r="AB174" s="20"/>
-      <c r="AC174" s="20"/>
+      <c r="Z174" s="15"/>
+      <c r="AA174" s="15"/>
+      <c r="AB174" s="15"/>
+      <c r="AC174" s="15"/>
       <c r="AD174" s="15"/>
       <c r="AF174" s="40"/>
     </row>
-    <row r="175" spans="16:38" s="21" customFormat="1">
-      <c r="P175" s="22"/>
+    <row r="175" spans="16:32">
+      <c r="P175" s="18"/>
       <c r="Q175" s="20"/>
       <c r="R175" s="20"/>
       <c r="S175" s="20"/>
       <c r="T175" s="20"/>
       <c r="U175" s="20"/>
       <c r="V175" s="20"/>
-      <c r="W175" s="20"/>
-      <c r="X175" s="15"/>
-      <c r="Y175" s="15"/>
+      <c r="W175" s="15"/>
+      <c r="X175" s="20"/>
+      <c r="Y175" s="20"/>
       <c r="Z175" s="20"/>
       <c r="AA175" s="20"/>
       <c r="AB175" s="20"/>
       <c r="AC175" s="20"/>
-      <c r="AD175" s="15"/>
-      <c r="AF175" s="40"/>
-    </row>
-    <row r="176" spans="16:38" s="21" customFormat="1">
+      <c r="AD175" s="20"/>
+    </row>
+    <row r="176" spans="16:32" s="21" customFormat="1">
       <c r="P176" s="22"/>
       <c r="Q176" s="20"/>
       <c r="R176" s="20"/>
@@ -20571,136 +20653,138 @@
       <c r="U176" s="20"/>
       <c r="V176" s="20"/>
       <c r="W176" s="20"/>
-      <c r="X176" s="15"/>
-      <c r="Y176" s="15"/>
-      <c r="Z176" s="15"/>
-      <c r="AA176" s="15"/>
-      <c r="AB176" s="15"/>
-      <c r="AC176" s="15"/>
-      <c r="AD176" s="15"/>
-      <c r="AF176" s="40"/>
+      <c r="X176" s="20"/>
+      <c r="Y176" s="20"/>
+      <c r="Z176" s="20"/>
+      <c r="AA176" s="20"/>
+      <c r="AB176" s="20"/>
+      <c r="AC176" s="20"/>
+      <c r="AD176" s="20"/>
+      <c r="AF176" s="23"/>
     </row>
     <row r="177" spans="16:32" s="21" customFormat="1">
       <c r="P177" s="22"/>
-      <c r="Q177" s="23"/>
-      <c r="R177" s="23"/>
-      <c r="S177" s="23"/>
-      <c r="T177" s="23"/>
-      <c r="U177" s="23"/>
-      <c r="V177" s="23"/>
-      <c r="W177" s="23"/>
-      <c r="X177" s="40"/>
-      <c r="Y177" s="40"/>
-      <c r="Z177" s="23"/>
-      <c r="AA177" s="23"/>
-      <c r="AB177" s="23"/>
-      <c r="AC177" s="23"/>
-      <c r="AD177" s="40"/>
+      <c r="Q177" s="20"/>
+      <c r="R177" s="20"/>
+      <c r="S177" s="20"/>
+      <c r="T177" s="20"/>
+      <c r="U177" s="20"/>
+      <c r="V177" s="20"/>
+      <c r="W177" s="20"/>
+      <c r="X177" s="15"/>
+      <c r="Y177" s="15"/>
+      <c r="Z177" s="20"/>
+      <c r="AA177" s="20"/>
+      <c r="AB177" s="20"/>
+      <c r="AC177" s="20"/>
+      <c r="AD177" s="15"/>
       <c r="AF177" s="40"/>
     </row>
     <row r="178" spans="16:32" s="21" customFormat="1">
-      <c r="Q178" s="23"/>
-      <c r="R178" s="23"/>
-      <c r="S178" s="23"/>
-      <c r="T178" s="23"/>
-      <c r="U178" s="23"/>
-      <c r="V178" s="23"/>
-      <c r="W178" s="23"/>
-      <c r="X178" s="40"/>
-      <c r="Y178" s="40"/>
-      <c r="Z178" s="23"/>
-      <c r="AA178" s="23"/>
-      <c r="AB178" s="23"/>
-      <c r="AC178" s="23"/>
-      <c r="AD178" s="40"/>
+      <c r="P178" s="22"/>
+      <c r="Q178" s="20"/>
+      <c r="R178" s="20"/>
+      <c r="S178" s="20"/>
+      <c r="T178" s="20"/>
+      <c r="U178" s="20"/>
+      <c r="V178" s="20"/>
+      <c r="W178" s="15"/>
+      <c r="X178" s="15"/>
+      <c r="Y178" s="15"/>
+      <c r="Z178" s="15"/>
+      <c r="AA178" s="15"/>
+      <c r="AB178" s="15"/>
+      <c r="AC178" s="15"/>
+      <c r="AD178" s="15"/>
       <c r="AF178" s="40"/>
     </row>
     <row r="179" spans="16:32" s="21" customFormat="1">
-      <c r="Q179" s="23"/>
-      <c r="R179" s="23"/>
-      <c r="S179" s="23"/>
-      <c r="T179" s="23"/>
-      <c r="U179" s="23"/>
-      <c r="V179" s="23"/>
-      <c r="W179" s="23"/>
-      <c r="X179" s="40"/>
-      <c r="Y179" s="40"/>
-      <c r="Z179" s="40"/>
-      <c r="AA179" s="40"/>
-      <c r="AB179" s="40"/>
-      <c r="AC179" s="40"/>
-      <c r="AD179" s="40"/>
+      <c r="P179" s="22"/>
+      <c r="Q179" s="20"/>
+      <c r="R179" s="20"/>
+      <c r="S179" s="20"/>
+      <c r="T179" s="20"/>
+      <c r="U179" s="20"/>
+      <c r="V179" s="20"/>
+      <c r="W179" s="20"/>
+      <c r="X179" s="20"/>
+      <c r="Y179" s="20"/>
+      <c r="Z179" s="20"/>
+      <c r="AA179" s="20"/>
+      <c r="AB179" s="20"/>
+      <c r="AC179" s="20"/>
+      <c r="AD179" s="20"/>
       <c r="AF179" s="40"/>
     </row>
     <row r="180" spans="16:32" s="21" customFormat="1">
-      <c r="Q180" s="23"/>
-      <c r="R180" s="23"/>
-      <c r="S180" s="23"/>
-      <c r="T180" s="23"/>
-      <c r="U180" s="23"/>
-      <c r="V180" s="23"/>
-      <c r="W180" s="23"/>
-      <c r="X180" s="40"/>
-      <c r="Y180" s="40"/>
-      <c r="Z180" s="23"/>
-      <c r="AA180" s="23"/>
-      <c r="AB180" s="23"/>
-      <c r="AC180" s="23"/>
-      <c r="AD180" s="40"/>
+      <c r="P180" s="22"/>
+      <c r="Q180" s="20"/>
+      <c r="R180" s="20"/>
+      <c r="S180" s="20"/>
+      <c r="T180" s="20"/>
+      <c r="U180" s="20"/>
+      <c r="V180" s="20"/>
+      <c r="W180" s="20"/>
+      <c r="X180" s="15"/>
+      <c r="Y180" s="15"/>
+      <c r="Z180" s="15"/>
+      <c r="AA180" s="15"/>
+      <c r="AB180" s="15"/>
+      <c r="AC180" s="15"/>
+      <c r="AD180" s="15"/>
       <c r="AF180" s="40"/>
     </row>
     <row r="181" spans="16:32" s="21" customFormat="1">
-      <c r="P181" s="22"/>
-      <c r="Q181" s="23"/>
-      <c r="R181" s="23"/>
-      <c r="S181" s="23"/>
-      <c r="T181" s="23"/>
-      <c r="U181" s="23"/>
-      <c r="V181" s="23"/>
-      <c r="W181" s="23"/>
-      <c r="X181" s="40"/>
-      <c r="Y181" s="40"/>
-      <c r="Z181" s="40"/>
-      <c r="AA181" s="40"/>
-      <c r="AB181" s="40"/>
-      <c r="AC181" s="40"/>
-      <c r="AD181" s="40"/>
+      <c r="Q181" s="20"/>
+      <c r="R181" s="20"/>
+      <c r="S181" s="20"/>
+      <c r="T181" s="20"/>
+      <c r="U181" s="20"/>
+      <c r="V181" s="20"/>
+      <c r="W181" s="20"/>
+      <c r="X181" s="20"/>
+      <c r="Y181" s="20"/>
+      <c r="Z181" s="20"/>
+      <c r="AA181" s="20"/>
+      <c r="AB181" s="20"/>
+      <c r="AC181" s="20"/>
+      <c r="AD181" s="15"/>
       <c r="AF181" s="40"/>
     </row>
     <row r="182" spans="16:32" s="21" customFormat="1">
       <c r="P182" s="22"/>
-      <c r="Q182" s="23"/>
-      <c r="R182" s="23"/>
-      <c r="S182" s="23"/>
-      <c r="T182" s="23"/>
-      <c r="U182" s="23"/>
-      <c r="V182" s="23"/>
-      <c r="W182" s="23"/>
-      <c r="X182" s="40"/>
-      <c r="Y182" s="40"/>
-      <c r="Z182" s="23"/>
-      <c r="AA182" s="23"/>
-      <c r="AB182" s="23"/>
-      <c r="AC182" s="23"/>
-      <c r="AD182" s="40"/>
+      <c r="Q182" s="20"/>
+      <c r="R182" s="20"/>
+      <c r="S182" s="20"/>
+      <c r="T182" s="20"/>
+      <c r="U182" s="20"/>
+      <c r="V182" s="20"/>
+      <c r="W182" s="20"/>
+      <c r="X182" s="20"/>
+      <c r="Y182" s="20"/>
+      <c r="Z182" s="20"/>
+      <c r="AA182" s="20"/>
+      <c r="AB182" s="20"/>
+      <c r="AC182" s="20"/>
+      <c r="AD182" s="20"/>
       <c r="AF182" s="40"/>
     </row>
     <row r="183" spans="16:32" s="21" customFormat="1">
       <c r="P183" s="22"/>
-      <c r="Q183" s="23"/>
-      <c r="R183" s="23"/>
-      <c r="S183" s="23"/>
-      <c r="T183" s="23"/>
-      <c r="U183" s="23"/>
-      <c r="V183" s="23"/>
-      <c r="W183" s="23"/>
-      <c r="X183" s="40"/>
-      <c r="Y183" s="40"/>
-      <c r="Z183" s="40"/>
-      <c r="AA183" s="40"/>
-      <c r="AB183" s="40"/>
-      <c r="AC183" s="40"/>
-      <c r="AD183" s="40"/>
+      <c r="Q183" s="20"/>
+      <c r="R183" s="20"/>
+      <c r="S183" s="20"/>
+      <c r="T183" s="20"/>
+      <c r="U183" s="20"/>
+      <c r="V183" s="20"/>
+      <c r="W183" s="20"/>
+      <c r="X183" s="15"/>
+      <c r="Y183" s="15"/>
+      <c r="Z183" s="15"/>
+      <c r="AA183" s="15"/>
+      <c r="AB183" s="15"/>
+      <c r="AC183" s="15"/>
+      <c r="AD183" s="15"/>
       <c r="AF183" s="40"/>
     </row>
     <row r="184" spans="16:32" s="21" customFormat="1">
@@ -24719,7 +24803,7 @@
       <c r="AB432" s="23"/>
       <c r="AC432" s="23"/>
     </row>
-    <row r="433" spans="10:29" s="21" customFormat="1">
+    <row r="433" spans="17:29" s="21" customFormat="1">
       <c r="Q433" s="23"/>
       <c r="R433" s="23"/>
       <c r="S433" s="23"/>
@@ -24734,7 +24818,7 @@
       <c r="AB433" s="40"/>
       <c r="AC433" s="40"/>
     </row>
-    <row r="434" spans="10:29" s="21" customFormat="1">
+    <row r="434" spans="17:29" s="21" customFormat="1">
       <c r="Q434" s="23"/>
       <c r="R434" s="23"/>
       <c r="S434" s="23"/>
@@ -24749,7 +24833,7 @@
       <c r="AB434" s="40"/>
       <c r="AC434" s="40"/>
     </row>
-    <row r="435" spans="10:29" s="21" customFormat="1">
+    <row r="435" spans="17:29" s="21" customFormat="1">
       <c r="Q435" s="23"/>
       <c r="R435" s="23"/>
       <c r="S435" s="23"/>
@@ -24764,7 +24848,7 @@
       <c r="AB435" s="40"/>
       <c r="AC435" s="40"/>
     </row>
-    <row r="436" spans="10:29" s="21" customFormat="1">
+    <row r="436" spans="17:29" s="21" customFormat="1">
       <c r="Q436" s="40"/>
       <c r="R436" s="40"/>
       <c r="S436" s="40"/>
@@ -24779,7 +24863,7 @@
       <c r="AB436" s="40"/>
       <c r="AC436" s="40"/>
     </row>
-    <row r="437" spans="10:29" s="21" customFormat="1">
+    <row r="437" spans="17:29" s="21" customFormat="1">
       <c r="Q437" s="23"/>
       <c r="R437" s="23"/>
       <c r="S437" s="23"/>
@@ -24794,7 +24878,7 @@
       <c r="AB437" s="40"/>
       <c r="AC437" s="40"/>
     </row>
-    <row r="438" spans="10:29" s="21" customFormat="1">
+    <row r="438" spans="17:29" s="21" customFormat="1">
       <c r="Q438" s="40"/>
       <c r="R438" s="40"/>
       <c r="S438" s="40"/>
@@ -24809,7 +24893,7 @@
       <c r="AB438" s="40"/>
       <c r="AC438" s="40"/>
     </row>
-    <row r="439" spans="10:29" s="21" customFormat="1">
+    <row r="439" spans="17:29" s="21" customFormat="1">
       <c r="Q439" s="23"/>
       <c r="R439" s="23"/>
       <c r="S439" s="23"/>
@@ -24824,7 +24908,7 @@
       <c r="AB439" s="40"/>
       <c r="AC439" s="40"/>
     </row>
-    <row r="440" spans="10:29" s="21" customFormat="1">
+    <row r="440" spans="17:29" s="21" customFormat="1">
       <c r="Q440" s="40"/>
       <c r="R440" s="40"/>
       <c r="S440" s="40"/>
@@ -24839,7 +24923,7 @@
       <c r="AB440" s="40"/>
       <c r="AC440" s="40"/>
     </row>
-    <row r="441" spans="10:29" s="21" customFormat="1">
+    <row r="441" spans="17:29" s="21" customFormat="1">
       <c r="Q441" s="23"/>
       <c r="R441" s="23"/>
       <c r="S441" s="23"/>
@@ -24854,7 +24938,7 @@
       <c r="AB441" s="40"/>
       <c r="AC441" s="40"/>
     </row>
-    <row r="442" spans="10:29" s="21" customFormat="1">
+    <row r="442" spans="17:29" s="21" customFormat="1">
       <c r="Q442" s="23"/>
       <c r="R442" s="23"/>
       <c r="S442" s="23"/>
@@ -24869,7 +24953,7 @@
       <c r="AB442" s="23"/>
       <c r="AC442" s="23"/>
     </row>
-    <row r="443" spans="10:29" s="21" customFormat="1">
+    <row r="443" spans="17:29" s="21" customFormat="1">
       <c r="Q443" s="23"/>
       <c r="R443" s="23"/>
       <c r="S443" s="23"/>
@@ -24884,7 +24968,7 @@
       <c r="AB443" s="40"/>
       <c r="AC443" s="40"/>
     </row>
-    <row r="444" spans="10:29" s="21" customFormat="1">
+    <row r="444" spans="17:29" s="21" customFormat="1">
       <c r="Q444" s="23"/>
       <c r="R444" s="23"/>
       <c r="S444" s="23"/>
@@ -24899,7 +24983,7 @@
       <c r="AB444" s="40"/>
       <c r="AC444" s="40"/>
     </row>
-    <row r="445" spans="10:29" s="21" customFormat="1">
+    <row r="445" spans="17:29" s="21" customFormat="1">
       <c r="Q445" s="23"/>
       <c r="R445" s="23"/>
       <c r="S445" s="23"/>
@@ -24914,28 +24998,7 @@
       <c r="AB445" s="40"/>
       <c r="AC445" s="40"/>
     </row>
-    <row r="446" spans="10:29" s="21" customFormat="1">
-      <c r="J446" s="21">
-        <v>8</v>
-      </c>
-      <c r="K446" s="21">
-        <v>11</v>
-      </c>
-      <c r="L446" s="21">
-        <v>12</v>
-      </c>
-      <c r="M446" s="21">
-        <v>14</v>
-      </c>
-      <c r="N446" s="21">
-        <v>15</v>
-      </c>
-      <c r="O446" s="21">
-        <v>16</v>
-      </c>
-      <c r="P446" s="21">
-        <v>17</v>
-      </c>
+    <row r="446" spans="17:29" s="21" customFormat="1">
       <c r="Q446" s="23"/>
       <c r="R446" s="23"/>
       <c r="S446" s="23"/>
@@ -24950,7 +25013,7 @@
       <c r="AB446" s="40"/>
       <c r="AC446" s="40"/>
     </row>
-    <row r="447" spans="10:29" s="21" customFormat="1">
+    <row r="447" spans="17:29" s="21" customFormat="1">
       <c r="Q447" s="40"/>
       <c r="R447" s="40"/>
       <c r="S447" s="40"/>
@@ -24965,7 +25028,7 @@
       <c r="AB447" s="40"/>
       <c r="AC447" s="40"/>
     </row>
-    <row r="448" spans="10:29" s="21" customFormat="1">
+    <row r="448" spans="17:29" s="21" customFormat="1">
       <c r="Q448" s="23"/>
       <c r="R448" s="23"/>
       <c r="S448" s="23"/>
@@ -32927,10 +32990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO222"/>
+  <dimension ref="A1:AO224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G162" sqref="G162"/>
+    <sheetView topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -36153,12 +36216,27 @@
       </c>
     </row>
     <row r="155" spans="1:20">
-      <c r="A155" s="10"/>
+      <c r="A155" s="9">
+        <v>1</v>
+      </c>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
+      <c r="D155" s="11">
+        <v>2</v>
+      </c>
+      <c r="E155" s="9">
+        <v>1</v>
+      </c>
       <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="9">
+        <v>1</v>
+      </c>
+      <c r="J155" s="10"/>
+      <c r="K155" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:20">
       <c r="A156" s="10"/>
@@ -36167,6 +36245,11 @@
       <c r="D156" s="10"/>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="18"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="10"/>
     </row>
     <row r="157" spans="1:20">
       <c r="A157" s="10"/>
@@ -36175,6 +36258,8 @@
       <c r="D157" s="10"/>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="K157" s="18"/>
     </row>
     <row r="158" spans="1:20">
       <c r="A158" s="10"/>
@@ -36357,6 +36442,7 @@
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
       <c r="F180" s="10"/>
     </row>
     <row r="181" spans="1:6">
@@ -36364,6 +36450,7 @@
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
       <c r="F181" s="10"/>
     </row>
     <row r="182" spans="1:6">
@@ -36371,6 +36458,7 @@
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
       <c r="F182" s="10"/>
     </row>
     <row r="183" spans="1:6">
@@ -36378,6 +36466,7 @@
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
       <c r="F183" s="10"/>
     </row>
     <row r="184" spans="1:6">
@@ -36480,6 +36569,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
       <c r="F198" s="10"/>
@@ -36536,55 +36626,63 @@
       <c r="C208" s="10"/>
       <c r="D208" s="10"/>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:4">
       <c r="A209" s="10"/>
       <c r="C209" s="10"/>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="D209" s="10"/>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" s="10"/>
       <c r="C210" s="10"/>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:4">
       <c r="A211" s="10"/>
       <c r="C211" s="10"/>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:4">
       <c r="A212" s="10"/>
       <c r="C212" s="10"/>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:4">
       <c r="A213" s="10"/>
       <c r="C213" s="10"/>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:4">
       <c r="A214" s="10"/>
       <c r="C214" s="10"/>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:4">
       <c r="A215" s="10"/>
       <c r="C215" s="10"/>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:4">
       <c r="A216" s="10"/>
       <c r="C216" s="10"/>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:4">
+      <c r="A217" s="10"/>
       <c r="C217" s="10"/>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:4">
       <c r="C218" s="10"/>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:4">
       <c r="C219" s="10"/>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:4">
       <c r="C220" s="10"/>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:4">
       <c r="C221" s="10"/>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:4">
       <c r="C222" s="10"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="C223" s="10"/>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="C224" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -36598,7 +36696,7 @@
   <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+      <selection activeCell="K164" sqref="K164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -39485,7 +39583,7 @@
       <c r="B141" s="1">
         <v>1</v>
       </c>
-      <c r="C141" s="15">
+      <c r="C141" s="16">
         <v>4</v>
       </c>
       <c r="F141" s="1">
@@ -39532,7 +39630,7 @@
       <c r="B142" s="1">
         <v>1</v>
       </c>
-      <c r="C142" s="15">
+      <c r="C142" s="16">
         <v>5</v>
       </c>
       <c r="F142" s="1">
@@ -39579,7 +39677,7 @@
       <c r="B143" s="1">
         <v>1</v>
       </c>
-      <c r="C143" s="15">
+      <c r="C143" s="16">
         <v>3</v>
       </c>
       <c r="F143" s="1">
@@ -39626,7 +39724,7 @@
       <c r="B144" s="1">
         <v>2</v>
       </c>
-      <c r="C144" s="15">
+      <c r="C144" s="16">
         <v>2</v>
       </c>
       <c r="F144" s="1">
@@ -40141,25 +40239,55 @@
       </c>
     </row>
     <row r="155" spans="1:19" customFormat="1">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
+      <c r="A155" s="1">
+        <v>1</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2</v>
+      </c>
+      <c r="C155" s="1">
+        <v>3</v>
+      </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
+      <c r="G155" s="1">
+        <v>3</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+      <c r="J155" s="1">
+        <v>1</v>
+      </c>
+      <c r="K155" s="1">
+        <v>1</v>
+      </c>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
-      <c r="N155" s="18"/>
-      <c r="O155" s="18"/>
-      <c r="P155" s="18"/>
-      <c r="Q155" s="18"/>
-      <c r="R155" s="18"/>
-      <c r="S155" s="18"/>
+      <c r="N155" s="18">
+        <v>0</v>
+      </c>
+      <c r="O155" s="18">
+        <v>1</v>
+      </c>
+      <c r="P155" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q155" s="18">
+        <v>2</v>
+      </c>
+      <c r="R155" s="18">
+        <v>3</v>
+      </c>
+      <c r="S155" s="18">
+        <v>9</v>
+      </c>
     </row>
     <row r="157" spans="1:19" customFormat="1">
       <c r="A157" s="1"/>
@@ -40320,10 +40448,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN154"/>
+  <dimension ref="A100:AN155"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="J165" sqref="J165"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="U162" sqref="U162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -42941,6 +43069,44 @@
         <v>5</v>
       </c>
     </row>
+    <row r="155" spans="1:19">
+      <c r="C155" s="9">
+        <v>1</v>
+      </c>
+      <c r="E155" s="9">
+        <v>1</v>
+      </c>
+      <c r="G155" s="9">
+        <v>1</v>
+      </c>
+      <c r="I155" s="11">
+        <v>2</v>
+      </c>
+      <c r="J155" s="9">
+        <v>1</v>
+      </c>
+      <c r="L155" s="16">
+        <v>0</v>
+      </c>
+      <c r="M155" s="16">
+        <v>3</v>
+      </c>
+      <c r="N155" s="16">
+        <v>5</v>
+      </c>
+      <c r="O155" s="16">
+        <v>7</v>
+      </c>
+      <c r="P155" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q155" s="16">
+        <v>9</v>
+      </c>
+      <c r="S155" s="16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42950,10 +43116,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -42963,6 +43129,7 @@
     <col min="4" max="5" width="6.625" style="18" customWidth="1"/>
     <col min="6" max="6" width="6.625" style="19" customWidth="1"/>
     <col min="7" max="16" width="6.625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -43076,7 +43243,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="18">
         <v>4</v>
@@ -43261,7 +43428,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -43297,13 +43464,16 @@
         <v>4</v>
       </c>
       <c r="O7" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P7" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:16">
+      <c r="A8" s="18">
+        <v>0</v>
+      </c>
       <c r="C8" s="19">
         <v>6</v>
       </c>
@@ -43355,13 +43525,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
       </c>
       <c r="J9" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="18">
         <v>12</v>
@@ -43370,13 +43540,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -43399,7 +43569,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -43410,13 +43580,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -43430,7 +43600,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -43442,7 +43612,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -43450,10 +43620,10 @@
         <v>13</v>
       </c>
       <c r="I13" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -43463,7 +43633,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -43477,7 +43647,7 @@
   <dimension ref="A2:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH76" sqref="AH76"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5484,7 +5484,7 @@
         <v>11</v>
       </c>
       <c r="P46" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q46" s="7">
         <v>9</v>
@@ -5765,7 +5765,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K49" s="7">
         <v>2</v>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53" s="7">
         <v>0</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="AD53" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE53" s="7">
         <v>5</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="54" spans="1:33" s="27" customFormat="1">
       <c r="A54" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54" s="7">
         <v>5</v>
@@ -6278,11 +6278,15 @@
       <c r="T54" s="7">
         <v>9</v>
       </c>
-      <c r="U54" s="7"/>
+      <c r="U54" s="7">
+        <v>0</v>
+      </c>
       <c r="V54" s="7">
         <v>10</v>
       </c>
-      <c r="W54" s="7"/>
+      <c r="W54" s="7">
+        <v>0</v>
+      </c>
       <c r="X54" s="7">
         <v>0</v>
       </c>
@@ -6357,7 +6361,7 @@
         <v>2</v>
       </c>
       <c r="R55" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S55" s="7">
         <v>2</v>
@@ -6395,7 +6399,9 @@
       <c r="AF55" s="7">
         <v>23</v>
       </c>
-      <c r="AG55" s="7"/>
+      <c r="AG55" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:33" s="25" customFormat="1">
       <c r="A56" s="7"/>
@@ -6418,7 +6424,7 @@
         <v>5</v>
       </c>
       <c r="H56" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56" s="7">
         <v>1</v>
@@ -6472,7 +6478,9 @@
         <v>1</v>
       </c>
       <c r="AD56" s="7"/>
-      <c r="AE56" s="7"/>
+      <c r="AE56" s="7">
+        <v>0</v>
+      </c>
       <c r="AF56" s="7">
         <v>2</v>
       </c>
@@ -6484,7 +6492,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="7">
         <v>8</v>
@@ -6510,7 +6518,7 @@
         <v>15</v>
       </c>
       <c r="N57" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O57" s="7">
         <v>1</v>
@@ -6524,7 +6532,7 @@
         <v>2</v>
       </c>
       <c r="T57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="7"/>
       <c r="V57" s="7">
@@ -6575,7 +6583,7 @@
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="25"/>
       <c r="K58" s="7"/>
@@ -6607,7 +6615,7 @@
         <v>17</v>
       </c>
       <c r="Y58" s="41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z58" s="7">
         <v>16</v>
@@ -6672,15 +6680,18 @@
         <v>2</v>
       </c>
       <c r="AA59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB59" s="7">
         <v>0</v>
       </c>
       <c r="AC59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" s="25"/>
+      <c r="AF59" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:33" s="7" customFormat="1">
       <c r="B60" s="7">
@@ -6712,7 +6723,7 @@
         <v>4</v>
       </c>
       <c r="S60" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V60" s="7">
         <v>0</v>
@@ -6745,14 +6756,14 @@
         <v>3</v>
       </c>
       <c r="G61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -6791,7 +6802,7 @@
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
@@ -6801,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -6865,7 +6876,7 @@
       </c>
       <c r="N63" s="25"/>
       <c r="O63" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="4"/>
       <c r="Q63" s="4">
@@ -6880,7 +6891,7 @@
       </c>
       <c r="W63" s="7"/>
       <c r="X63" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4">
@@ -6930,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AB64" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
@@ -6964,13 +6975,13 @@
       <c r="T65" s="3"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB65" s="7"/>
       <c r="AD65" s="7"/>
@@ -7018,7 +7029,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" s="4"/>
       <c r="H67" s="4"/>
@@ -7032,7 +7043,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
@@ -7059,7 +7070,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -7108,7 +7119,9 @@
     </row>
     <row r="70" spans="1:33">
       <c r="C70" s="5"/>
-      <c r="D70" s="3"/>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
       <c r="E70" s="4"/>
       <c r="F70" s="7"/>
       <c r="H70" s="4"/>
@@ -7755,8 +7768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I158" sqref="I158"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K165" sqref="K165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -19100,7 +19113,7 @@
       <c r="R143" s="19">
         <v>5</v>
       </c>
-      <c r="S143" s="20">
+      <c r="S143" s="19">
         <v>12</v>
       </c>
       <c r="T143" s="19">
@@ -19128,7 +19141,9 @@
       <c r="AB143" s="19">
         <v>5</v>
       </c>
-      <c r="AC143" s="20"/>
+      <c r="AC143" s="19">
+        <v>12</v>
+      </c>
       <c r="AD143" s="20"/>
       <c r="AF143" s="23"/>
       <c r="AH143" s="21">
@@ -19195,7 +19210,7 @@
       </c>
       <c r="P144" s="22"/>
       <c r="Q144" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R144" s="19">
         <v>9</v>
@@ -19209,7 +19224,7 @@
       <c r="U144" s="19">
         <v>10</v>
       </c>
-      <c r="V144" s="20">
+      <c r="V144" s="19">
         <v>11</v>
       </c>
       <c r="W144" s="20"/>
@@ -19225,7 +19240,9 @@
       <c r="AA144" s="19">
         <v>10</v>
       </c>
-      <c r="AB144" s="20"/>
+      <c r="AB144" s="19">
+        <v>11</v>
+      </c>
       <c r="AC144" s="20"/>
       <c r="AD144" s="20"/>
       <c r="AF144" s="40"/>
@@ -19301,7 +19318,7 @@
       <c r="T145" s="19">
         <v>1</v>
       </c>
-      <c r="U145" s="20">
+      <c r="U145" s="19">
         <v>10</v>
       </c>
       <c r="V145" s="19">
@@ -19323,7 +19340,9 @@
       <c r="AB145" s="19">
         <v>8</v>
       </c>
-      <c r="AC145" s="20"/>
+      <c r="AC145" s="19">
+        <v>10</v>
+      </c>
       <c r="AD145" s="20"/>
       <c r="AF145" s="40"/>
       <c r="AH145" s="21">
@@ -19492,7 +19511,7 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R147" s="19">
         <v>2</v>
@@ -19601,16 +19620,16 @@
         <v>4</v>
       </c>
       <c r="S148" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T148" s="19">
         <v>3</v>
       </c>
       <c r="U148" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V148" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W148" s="20"/>
       <c r="X148" s="19">
@@ -19703,9 +19722,9 @@
         <v>0</v>
       </c>
       <c r="U149" s="20">
-        <v>6</v>
-      </c>
-      <c r="V149" s="20">
+        <v>7</v>
+      </c>
+      <c r="V149" s="19">
         <v>6</v>
       </c>
       <c r="W149" s="20"/>
@@ -19721,7 +19740,9 @@
       <c r="AA149" s="19">
         <v>2</v>
       </c>
-      <c r="AB149" s="20"/>
+      <c r="AB149" s="19">
+        <v>6</v>
+      </c>
       <c r="AC149" s="20"/>
       <c r="AD149" s="20"/>
       <c r="AF149" s="40"/>
@@ -19789,7 +19810,7 @@
       </c>
       <c r="P150" s="22"/>
       <c r="Q150" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R150" s="19">
         <v>4</v>
@@ -19798,10 +19819,10 @@
         <v>1</v>
       </c>
       <c r="T150" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U150" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V150" s="19">
         <v>1</v>
@@ -19888,7 +19909,7 @@
         <v>3</v>
       </c>
       <c r="S151" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T151" s="19">
         <v>2</v>
@@ -19984,17 +20005,17 @@
         <v>10</v>
       </c>
       <c r="P152" s="22"/>
-      <c r="Q152" s="20">
+      <c r="Q152" s="19">
         <v>3</v>
       </c>
       <c r="R152" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S152" s="19">
         <v>1</v>
       </c>
       <c r="T152" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U152" s="19">
         <v>0</v>
@@ -20012,7 +20033,9 @@
       <c r="Z152" s="19">
         <v>1</v>
       </c>
-      <c r="AA152" s="20"/>
+      <c r="AA152" s="19">
+        <v>3</v>
+      </c>
       <c r="AB152" s="20"/>
       <c r="AC152" s="20"/>
       <c r="AD152" s="20"/>
@@ -20078,28 +20101,30 @@
       </c>
       <c r="P153" s="22"/>
       <c r="Q153" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R153" s="19">
         <v>0</v>
       </c>
       <c r="S153" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T153" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U153" s="20">
-        <v>2</v>
-      </c>
-      <c r="V153" s="20">
+        <v>3</v>
+      </c>
+      <c r="V153" s="19">
         <v>2</v>
       </c>
       <c r="W153" s="20"/>
       <c r="X153" s="19">
         <v>0</v>
       </c>
-      <c r="Y153" s="20"/>
+      <c r="Y153" s="19">
+        <v>2</v>
+      </c>
       <c r="Z153" s="20"/>
       <c r="AA153" s="20"/>
       <c r="AB153" s="20"/>
@@ -20170,19 +20195,19 @@
       </c>
       <c r="P154" s="22"/>
       <c r="Q154" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R154" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S154" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T154" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U154" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V154" s="19">
         <v>0</v>
@@ -20262,22 +20287,22 @@
       </c>
       <c r="P155" s="22"/>
       <c r="Q155" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R155" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S155" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T155" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U155" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V155" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W155" s="20"/>
       <c r="X155" s="20"/>
@@ -20288,15 +20313,87 @@
       <c r="AC155" s="20"/>
       <c r="AD155" s="20"/>
       <c r="AF155" s="40"/>
+      <c r="AH155" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI155" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ155" s="21">
+        <v>4</v>
+      </c>
+      <c r="AK155" s="21">
+        <v>8</v>
+      </c>
+      <c r="AL155" s="21">
+        <v>10</v>
+      </c>
+      <c r="AO155" s="21">
+        <v>2</v>
+      </c>
+      <c r="AP155" s="21">
+        <v>2</v>
+      </c>
+      <c r="AQ155" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:43" s="21" customFormat="1">
+      <c r="A156" s="21">
+        <v>3</v>
+      </c>
+      <c r="B156" s="21">
+        <v>12</v>
+      </c>
+      <c r="C156" s="21">
+        <v>10</v>
+      </c>
+      <c r="D156" s="21">
+        <v>11</v>
+      </c>
+      <c r="E156" s="21">
+        <v>6</v>
+      </c>
+      <c r="F156" s="21">
+        <v>2</v>
+      </c>
+      <c r="I156" s="21">
+        <v>2</v>
+      </c>
+      <c r="J156" s="21">
+        <v>3</v>
+      </c>
+      <c r="K156" s="21">
+        <v>6</v>
+      </c>
+      <c r="L156" s="21">
+        <v>10</v>
+      </c>
+      <c r="M156" s="21">
+        <v>11</v>
+      </c>
+      <c r="N156" s="21">
+        <v>12</v>
+      </c>
       <c r="P156" s="22"/>
-      <c r="Q156" s="20"/>
-      <c r="R156" s="20"/>
-      <c r="S156" s="20"/>
-      <c r="T156" s="20"/>
-      <c r="U156" s="20"/>
-      <c r="V156" s="20"/>
+      <c r="Q156" s="20">
+        <v>0</v>
+      </c>
+      <c r="R156" s="20">
+        <v>0</v>
+      </c>
+      <c r="S156" s="20">
+        <v>0</v>
+      </c>
+      <c r="T156" s="20">
+        <v>0</v>
+      </c>
+      <c r="U156" s="20">
+        <v>0</v>
+      </c>
+      <c r="V156" s="20">
+        <v>0</v>
+      </c>
       <c r="W156" s="20"/>
       <c r="X156" s="20"/>
       <c r="Y156" s="20"/>
@@ -32990,10 +33087,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO224"/>
+  <dimension ref="A1:AO225"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F161" sqref="F161"/>
+    <sheetView topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I163" sqref="I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -36241,15 +36338,29 @@
     <row r="156" spans="1:20">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
+      <c r="C156" s="9">
+        <v>1</v>
+      </c>
+      <c r="D156" s="9">
+        <v>1</v>
+      </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="18"/>
+      <c r="G156" s="9">
+        <v>1</v>
+      </c>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
       <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
+      <c r="K156" s="9">
+        <v>1</v>
+      </c>
+      <c r="L156" s="9">
+        <v>1</v>
+      </c>
+      <c r="M156" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:20">
       <c r="A157" s="10"/>
@@ -36259,7 +36370,10 @@
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
-      <c r="K157" s="18"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
+      <c r="K157" s="10"/>
+      <c r="L157" s="10"/>
     </row>
     <row r="158" spans="1:20">
       <c r="A158" s="10"/>
@@ -36268,6 +36382,8 @@
       <c r="D158" s="10"/>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="K158" s="18"/>
     </row>
     <row r="159" spans="1:20">
       <c r="A159" s="10"/>
@@ -36276,6 +36392,7 @@
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
     </row>
     <row r="160" spans="1:20">
       <c r="A160" s="10"/>
@@ -36576,6 +36693,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="10"/>
+      <c r="B199" s="10"/>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
       <c r="F199" s="18"/>
@@ -36634,10 +36752,12 @@
     <row r="210" spans="1:4">
       <c r="A210" s="10"/>
       <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="10"/>
       <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="10"/>
@@ -36664,6 +36784,7 @@
       <c r="C217" s="10"/>
     </row>
     <row r="218" spans="1:4">
+      <c r="A218" s="10"/>
       <c r="C218" s="10"/>
     </row>
     <row r="219" spans="1:4">
@@ -36683,6 +36804,9 @@
     </row>
     <row r="224" spans="1:4">
       <c r="C224" s="10"/>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -36695,8 +36819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="K164" sqref="K164"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40287,6 +40411,53 @@
       </c>
       <c r="S155" s="18">
         <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
+      <c r="A156" s="1">
+        <v>0</v>
+      </c>
+      <c r="B156" s="1">
+        <v>2</v>
+      </c>
+      <c r="C156" s="1">
+        <v>4</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0</v>
+      </c>
+      <c r="H156" s="1">
+        <v>1</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>1</v>
+      </c>
+      <c r="K156" s="1">
+        <v>3</v>
+      </c>
+      <c r="N156" s="1">
+        <v>1</v>
+      </c>
+      <c r="O156" s="1">
+        <v>2</v>
+      </c>
+      <c r="P156" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>2</v>
+      </c>
+      <c r="R156" s="1">
+        <v>7</v>
+      </c>
+      <c r="S156" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:19" customFormat="1">
@@ -40448,10 +40619,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN155"/>
+  <dimension ref="A100:AN156"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="U162" sqref="U162"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="I161" sqref="I161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43107,6 +43278,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="156" spans="1:19">
+      <c r="A156" s="11">
+        <v>2</v>
+      </c>
+      <c r="B156" s="9">
+        <v>1</v>
+      </c>
+      <c r="C156" s="11">
+        <v>2</v>
+      </c>
+      <c r="D156" s="9">
+        <v>1</v>
+      </c>
+      <c r="L156" s="16">
+        <v>1</v>
+      </c>
+      <c r="M156" s="16">
+        <v>1</v>
+      </c>
+      <c r="N156" s="16">
+        <v>2</v>
+      </c>
+      <c r="O156" s="16">
+        <v>3</v>
+      </c>
+      <c r="P156" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q156" s="16">
+        <v>4</v>
+      </c>
+      <c r="S156" s="16">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43119,7 +43325,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43292,6 +43498,9 @@
       <c r="C4" s="19">
         <v>7</v>
       </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
       <c r="E4" s="18">
         <v>17</v>
       </c>
@@ -43428,7 +43637,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -43464,7 +43673,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P7" s="18">
         <v>6</v>
@@ -43472,7 +43681,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -43525,13 +43734,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
       </c>
       <c r="J9" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" s="18">
         <v>12</v>
@@ -43540,13 +43749,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -43569,7 +43778,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -43580,13 +43789,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -43600,7 +43809,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -43612,7 +43821,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -43620,10 +43829,10 @@
         <v>13</v>
       </c>
       <c r="I13" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -43633,7 +43842,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q71" sqref="Q71"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5484,7 +5484,7 @@
         <v>11</v>
       </c>
       <c r="P46" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q46" s="7">
         <v>9</v>
@@ -5863,7 +5863,9 @@
       <c r="I50" s="7">
         <v>0</v>
       </c>
-      <c r="J50" s="7"/>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
       <c r="K50" s="7">
         <v>5</v>
       </c>
@@ -6225,7 +6227,7 @@
     </row>
     <row r="54" spans="1:33" s="27" customFormat="1">
       <c r="A54" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B54" s="7">
         <v>5</v>
@@ -6252,7 +6254,9 @@
         <v>10</v>
       </c>
       <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
       <c r="L54" s="7">
         <v>13</v>
       </c>
@@ -6279,13 +6283,13 @@
         <v>9</v>
       </c>
       <c r="U54" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54" s="7">
         <v>10</v>
       </c>
       <c r="W54" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="7">
         <v>0</v>
@@ -6305,7 +6309,9 @@
       <c r="AC54" s="7">
         <v>6</v>
       </c>
-      <c r="AD54" s="7"/>
+      <c r="AD54" s="7">
+        <v>0</v>
+      </c>
       <c r="AE54" s="7">
         <v>2</v>
       </c>
@@ -6361,7 +6367,7 @@
         <v>2</v>
       </c>
       <c r="R55" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S55" s="7">
         <v>2</v>
@@ -6424,7 +6430,7 @@
         <v>5</v>
       </c>
       <c r="H56" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I56" s="7">
         <v>1</v>
@@ -6479,12 +6485,14 @@
       </c>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF56" s="7">
         <v>2</v>
       </c>
-      <c r="AG56" s="7"/>
+      <c r="AG56" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:33" s="25" customFormat="1">
       <c r="A57" s="7"/>
@@ -6492,7 +6500,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" s="7">
         <v>8</v>
@@ -6518,7 +6526,7 @@
         <v>15</v>
       </c>
       <c r="N57" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O57" s="7">
         <v>1</v>
@@ -6532,7 +6540,7 @@
         <v>2</v>
       </c>
       <c r="T57" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U57" s="7"/>
       <c r="V57" s="7">
@@ -6583,7 +6591,7 @@
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" s="25"/>
       <c r="K58" s="7"/>
@@ -6615,7 +6623,7 @@
         <v>17</v>
       </c>
       <c r="Y58" s="41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z58" s="7">
         <v>16</v>
@@ -6680,17 +6688,17 @@
         <v>2</v>
       </c>
       <c r="AA59" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB59" s="7">
         <v>0</v>
       </c>
       <c r="AC59" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD59" s="25"/>
       <c r="AF59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:33" s="7" customFormat="1">
@@ -6723,7 +6731,7 @@
         <v>4</v>
       </c>
       <c r="S60" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V60" s="7">
         <v>0</v>
@@ -6756,14 +6764,14 @@
         <v>3</v>
       </c>
       <c r="G61" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -6802,7 +6810,7 @@
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
@@ -6865,7 +6873,9 @@
       <c r="E63" s="7">
         <v>7</v>
       </c>
-      <c r="F63" s="27"/>
+      <c r="F63" s="41">
+        <v>0</v>
+      </c>
       <c r="G63" s="7"/>
       <c r="H63" s="4"/>
       <c r="J63" s="3"/>
@@ -6876,7 +6886,7 @@
       </c>
       <c r="N63" s="25"/>
       <c r="O63" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P63" s="4"/>
       <c r="Q63" s="4">
@@ -6891,7 +6901,7 @@
       </c>
       <c r="W63" s="7"/>
       <c r="X63" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4">
@@ -6975,15 +6985,17 @@
       <c r="T65" s="3"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>6</v>
-      </c>
-      <c r="AB65" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="AB65" s="7">
+        <v>0</v>
+      </c>
       <c r="AD65" s="7"/>
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
@@ -7029,7 +7041,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F67" s="4"/>
       <c r="H67" s="4"/>
@@ -7043,7 +7055,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
@@ -7070,7 +7082,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -7120,7 +7132,7 @@
     <row r="70" spans="1:33">
       <c r="C70" s="5"/>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="7"/>
@@ -7766,10 +7778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT972"/>
+  <dimension ref="A1:AT971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K165" sqref="K165"/>
+    <sheetView topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z164" sqref="Z164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -19210,7 +19222,7 @@
       </c>
       <c r="P144" s="22"/>
       <c r="Q144" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R144" s="19">
         <v>9</v>
@@ -19511,7 +19523,7 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R147" s="19">
         <v>2</v>
@@ -19620,16 +19632,16 @@
         <v>4</v>
       </c>
       <c r="S148" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T148" s="19">
         <v>3</v>
       </c>
       <c r="U148" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V148" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W148" s="20"/>
       <c r="X148" s="19">
@@ -19721,7 +19733,7 @@
       <c r="T149" s="19">
         <v>0</v>
       </c>
-      <c r="U149" s="20">
+      <c r="U149" s="19">
         <v>7</v>
       </c>
       <c r="V149" s="19">
@@ -19743,7 +19755,9 @@
       <c r="AB149" s="19">
         <v>6</v>
       </c>
-      <c r="AC149" s="20"/>
+      <c r="AC149" s="19">
+        <v>7</v>
+      </c>
       <c r="AD149" s="20"/>
       <c r="AF149" s="40"/>
       <c r="AH149" s="21">
@@ -19810,7 +19824,7 @@
       </c>
       <c r="P150" s="22"/>
       <c r="Q150" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R150" s="19">
         <v>4</v>
@@ -19819,10 +19833,10 @@
         <v>1</v>
       </c>
       <c r="T150" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U150" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V150" s="19">
         <v>1</v>
@@ -19908,7 +19922,7 @@
       <c r="R151" s="19">
         <v>3</v>
       </c>
-      <c r="S151" s="20">
+      <c r="S151" s="19">
         <v>5</v>
       </c>
       <c r="T151" s="19">
@@ -19936,7 +19950,9 @@
       <c r="AB151" s="19">
         <v>3</v>
       </c>
-      <c r="AC151" s="20"/>
+      <c r="AC151" s="19">
+        <v>5</v>
+      </c>
       <c r="AD151" s="20"/>
       <c r="AF151" s="40"/>
       <c r="AH151" s="21">
@@ -20008,14 +20024,14 @@
       <c r="Q152" s="19">
         <v>3</v>
       </c>
-      <c r="R152" s="20">
+      <c r="R152" s="19">
         <v>4</v>
       </c>
       <c r="S152" s="19">
         <v>1</v>
       </c>
       <c r="T152" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U152" s="19">
         <v>0</v>
@@ -20036,7 +20052,9 @@
       <c r="AA152" s="19">
         <v>3</v>
       </c>
-      <c r="AB152" s="20"/>
+      <c r="AB152" s="19">
+        <v>4</v>
+      </c>
       <c r="AC152" s="20"/>
       <c r="AD152" s="20"/>
       <c r="AF152" s="40"/>
@@ -20101,18 +20119,18 @@
       </c>
       <c r="P153" s="22"/>
       <c r="Q153" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R153" s="19">
         <v>0</v>
       </c>
       <c r="S153" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T153" s="20">
-        <v>3</v>
-      </c>
-      <c r="U153" s="20">
+        <v>4</v>
+      </c>
+      <c r="U153" s="19">
         <v>3</v>
       </c>
       <c r="V153" s="19">
@@ -20125,7 +20143,9 @@
       <c r="Y153" s="19">
         <v>2</v>
       </c>
-      <c r="Z153" s="20"/>
+      <c r="Z153" s="19">
+        <v>3</v>
+      </c>
       <c r="AA153" s="20"/>
       <c r="AB153" s="20"/>
       <c r="AC153" s="20"/>
@@ -20195,19 +20215,19 @@
       </c>
       <c r="P154" s="22"/>
       <c r="Q154" s="20">
-        <v>2</v>
-      </c>
-      <c r="R154" s="20">
+        <v>3</v>
+      </c>
+      <c r="R154" s="19">
         <v>2</v>
       </c>
       <c r="S154" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T154" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U154" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V154" s="19">
         <v>0</v>
@@ -20216,7 +20236,9 @@
       <c r="X154" s="19">
         <v>0</v>
       </c>
-      <c r="Y154" s="20"/>
+      <c r="Y154" s="19">
+        <v>2</v>
+      </c>
       <c r="Z154" s="20"/>
       <c r="AA154" s="20"/>
       <c r="AB154" s="20"/>
@@ -20287,22 +20309,22 @@
       </c>
       <c r="P155" s="22"/>
       <c r="Q155" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R155" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S155" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T155" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U155" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V155" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W155" s="20"/>
       <c r="X155" s="20"/>
@@ -20377,25 +20399,27 @@
       </c>
       <c r="P156" s="22"/>
       <c r="Q156" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R156" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S156" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T156" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U156" s="20">
-        <v>0</v>
-      </c>
-      <c r="V156" s="20">
+        <v>1</v>
+      </c>
+      <c r="V156" s="19">
         <v>0</v>
       </c>
       <c r="W156" s="20"/>
-      <c r="X156" s="20"/>
+      <c r="X156" s="19">
+        <v>0</v>
+      </c>
       <c r="Y156" s="20"/>
       <c r="Z156" s="20"/>
       <c r="AA156" s="20"/>
@@ -20403,15 +20427,90 @@
       <c r="AC156" s="20"/>
       <c r="AD156" s="20"/>
       <c r="AF156" s="40"/>
+      <c r="AH156" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI156" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ156" s="21">
+        <v>6</v>
+      </c>
+      <c r="AK156" s="21">
+        <v>10</v>
+      </c>
+      <c r="AL156" s="21">
+        <v>11</v>
+      </c>
+      <c r="AM156" s="21">
+        <v>12</v>
+      </c>
+      <c r="AO156" s="21">
+        <v>2</v>
+      </c>
+      <c r="AP156" s="21">
+        <v>2</v>
+      </c>
+      <c r="AQ156" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="157" spans="1:43" s="21" customFormat="1">
+      <c r="A157" s="21">
+        <v>4</v>
+      </c>
+      <c r="B157" s="21">
+        <v>5</v>
+      </c>
+      <c r="C157" s="21">
+        <v>2</v>
+      </c>
+      <c r="D157" s="21">
+        <v>3</v>
+      </c>
+      <c r="E157" s="21">
+        <v>7</v>
+      </c>
+      <c r="F157" s="21">
+        <v>0</v>
+      </c>
+      <c r="I157" s="21">
+        <v>0</v>
+      </c>
+      <c r="J157" s="21">
+        <v>2</v>
+      </c>
+      <c r="K157" s="21">
+        <v>3</v>
+      </c>
+      <c r="L157" s="21">
+        <v>4</v>
+      </c>
+      <c r="M157" s="21">
+        <v>5</v>
+      </c>
+      <c r="N157" s="21">
+        <v>7</v>
+      </c>
       <c r="P157" s="22"/>
-      <c r="Q157" s="20"/>
-      <c r="R157" s="20"/>
-      <c r="S157" s="20"/>
-      <c r="T157" s="20"/>
-      <c r="U157" s="20"/>
-      <c r="V157" s="20"/>
+      <c r="Q157" s="20">
+        <v>0</v>
+      </c>
+      <c r="R157" s="20">
+        <v>0</v>
+      </c>
+      <c r="S157" s="20">
+        <v>0</v>
+      </c>
+      <c r="T157" s="20">
+        <v>0</v>
+      </c>
+      <c r="U157" s="20">
+        <v>0</v>
+      </c>
+      <c r="V157" s="20">
+        <v>0</v>
+      </c>
       <c r="W157" s="20"/>
       <c r="X157" s="20"/>
       <c r="Y157" s="20"/>
@@ -20421,6 +20520,33 @@
       <c r="AC157" s="20"/>
       <c r="AD157" s="20"/>
       <c r="AF157" s="40"/>
+      <c r="AH157" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI157" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ157" s="21">
+        <v>3</v>
+      </c>
+      <c r="AK157" s="21">
+        <v>4</v>
+      </c>
+      <c r="AL157" s="21">
+        <v>5</v>
+      </c>
+      <c r="AM157" s="21">
+        <v>7</v>
+      </c>
+      <c r="AO157" s="21">
+        <v>2</v>
+      </c>
+      <c r="AP157" s="21">
+        <v>3</v>
+      </c>
+      <c r="AQ157" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:43" s="21" customFormat="1">
       <c r="P158" s="22"/>
@@ -20449,35 +20575,34 @@
       <c r="U159" s="20"/>
       <c r="V159" s="20"/>
       <c r="W159" s="20"/>
-      <c r="X159" s="20"/>
-      <c r="Y159" s="20"/>
-      <c r="Z159" s="20"/>
-      <c r="AA159" s="20"/>
-      <c r="AB159" s="20"/>
-      <c r="AC159" s="20"/>
-      <c r="AD159" s="20"/>
+      <c r="X159" s="15"/>
+      <c r="Y159" s="15"/>
+      <c r="Z159" s="15"/>
+      <c r="AA159" s="15"/>
+      <c r="AB159" s="15"/>
+      <c r="AC159" s="15"/>
+      <c r="AD159" s="15"/>
       <c r="AF159" s="40"/>
     </row>
     <row r="160" spans="1:43" s="21" customFormat="1">
       <c r="P160" s="22"/>
-      <c r="Q160" s="20"/>
-      <c r="R160" s="20"/>
-      <c r="S160" s="20"/>
-      <c r="T160" s="20"/>
-      <c r="U160" s="20"/>
-      <c r="V160" s="20"/>
-      <c r="W160" s="20"/>
-      <c r="X160" s="15"/>
-      <c r="Y160" s="15"/>
-      <c r="Z160" s="15"/>
-      <c r="AA160" s="15"/>
-      <c r="AB160" s="15"/>
-      <c r="AC160" s="15"/>
-      <c r="AD160" s="15"/>
+      <c r="Q160" s="23"/>
+      <c r="R160" s="23"/>
+      <c r="S160" s="23"/>
+      <c r="T160" s="23"/>
+      <c r="U160" s="23"/>
+      <c r="V160" s="23"/>
+      <c r="W160" s="23"/>
+      <c r="X160" s="40"/>
+      <c r="Y160" s="40"/>
+      <c r="Z160" s="23"/>
+      <c r="AA160" s="23"/>
+      <c r="AB160" s="23"/>
+      <c r="AC160" s="23"/>
+      <c r="AD160" s="40"/>
       <c r="AF160" s="40"/>
     </row>
     <row r="161" spans="16:32" s="21" customFormat="1">
-      <c r="P161" s="22"/>
       <c r="Q161" s="23"/>
       <c r="R161" s="23"/>
       <c r="S161" s="23"/>
@@ -20504,10 +20629,10 @@
       <c r="W162" s="23"/>
       <c r="X162" s="40"/>
       <c r="Y162" s="40"/>
-      <c r="Z162" s="23"/>
-      <c r="AA162" s="23"/>
-      <c r="AB162" s="23"/>
-      <c r="AC162" s="23"/>
+      <c r="Z162" s="40"/>
+      <c r="AA162" s="40"/>
+      <c r="AB162" s="40"/>
+      <c r="AC162" s="40"/>
       <c r="AD162" s="40"/>
       <c r="AF162" s="40"/>
     </row>
@@ -20521,14 +20646,15 @@
       <c r="W163" s="23"/>
       <c r="X163" s="40"/>
       <c r="Y163" s="40"/>
-      <c r="Z163" s="40"/>
-      <c r="AA163" s="40"/>
-      <c r="AB163" s="40"/>
-      <c r="AC163" s="40"/>
+      <c r="Z163" s="23"/>
+      <c r="AA163" s="23"/>
+      <c r="AB163" s="23"/>
+      <c r="AC163" s="23"/>
       <c r="AD163" s="40"/>
       <c r="AF163" s="40"/>
     </row>
     <row r="164" spans="16:32" s="21" customFormat="1">
+      <c r="P164" s="22"/>
       <c r="Q164" s="23"/>
       <c r="R164" s="23"/>
       <c r="S164" s="23"/>
@@ -20538,10 +20664,10 @@
       <c r="W164" s="23"/>
       <c r="X164" s="40"/>
       <c r="Y164" s="40"/>
-      <c r="Z164" s="23"/>
-      <c r="AA164" s="23"/>
-      <c r="AB164" s="23"/>
-      <c r="AC164" s="23"/>
+      <c r="Z164" s="40"/>
+      <c r="AA164" s="40"/>
+      <c r="AB164" s="40"/>
+      <c r="AC164" s="40"/>
       <c r="AD164" s="40"/>
       <c r="AF164" s="40"/>
     </row>
@@ -20556,10 +20682,10 @@
       <c r="W165" s="23"/>
       <c r="X165" s="40"/>
       <c r="Y165" s="40"/>
-      <c r="Z165" s="40"/>
-      <c r="AA165" s="40"/>
-      <c r="AB165" s="40"/>
-      <c r="AC165" s="40"/>
+      <c r="Z165" s="23"/>
+      <c r="AA165" s="23"/>
+      <c r="AB165" s="23"/>
+      <c r="AC165" s="23"/>
       <c r="AD165" s="40"/>
       <c r="AF165" s="40"/>
     </row>
@@ -20574,29 +20700,29 @@
       <c r="W166" s="23"/>
       <c r="X166" s="40"/>
       <c r="Y166" s="40"/>
-      <c r="Z166" s="23"/>
-      <c r="AA166" s="23"/>
-      <c r="AB166" s="23"/>
-      <c r="AC166" s="23"/>
+      <c r="Z166" s="40"/>
+      <c r="AA166" s="40"/>
+      <c r="AB166" s="40"/>
+      <c r="AC166" s="40"/>
       <c r="AD166" s="40"/>
       <c r="AF166" s="40"/>
     </row>
     <row r="167" spans="16:32" s="21" customFormat="1">
       <c r="P167" s="22"/>
-      <c r="Q167" s="23"/>
-      <c r="R167" s="23"/>
-      <c r="S167" s="23"/>
-      <c r="T167" s="23"/>
-      <c r="U167" s="23"/>
-      <c r="V167" s="23"/>
-      <c r="W167" s="23"/>
-      <c r="X167" s="40"/>
-      <c r="Y167" s="40"/>
-      <c r="Z167" s="40"/>
-      <c r="AA167" s="40"/>
-      <c r="AB167" s="40"/>
-      <c r="AC167" s="40"/>
-      <c r="AD167" s="40"/>
+      <c r="Q167" s="20"/>
+      <c r="R167" s="20"/>
+      <c r="S167" s="20"/>
+      <c r="T167" s="20"/>
+      <c r="U167" s="20"/>
+      <c r="V167" s="20"/>
+      <c r="W167" s="20"/>
+      <c r="X167" s="20"/>
+      <c r="Y167" s="20"/>
+      <c r="Z167" s="20"/>
+      <c r="AA167" s="20"/>
+      <c r="AB167" s="20"/>
+      <c r="AC167" s="20"/>
+      <c r="AD167" s="15"/>
       <c r="AF167" s="40"/>
     </row>
     <row r="168" spans="16:32" s="21" customFormat="1">
@@ -20607,7 +20733,7 @@
       <c r="T168" s="20"/>
       <c r="U168" s="20"/>
       <c r="V168" s="20"/>
-      <c r="W168" s="20"/>
+      <c r="W168" s="15"/>
       <c r="X168" s="20"/>
       <c r="Y168" s="20"/>
       <c r="Z168" s="20"/>
@@ -20625,7 +20751,7 @@
       <c r="T169" s="20"/>
       <c r="U169" s="20"/>
       <c r="V169" s="20"/>
-      <c r="W169" s="15"/>
+      <c r="W169" s="20"/>
       <c r="X169" s="20"/>
       <c r="Y169" s="20"/>
       <c r="Z169" s="20"/>
@@ -20662,12 +20788,12 @@
       <c r="U171" s="20"/>
       <c r="V171" s="20"/>
       <c r="W171" s="20"/>
-      <c r="X171" s="20"/>
-      <c r="Y171" s="20"/>
-      <c r="Z171" s="20"/>
-      <c r="AA171" s="20"/>
-      <c r="AB171" s="20"/>
-      <c r="AC171" s="20"/>
+      <c r="X171" s="15"/>
+      <c r="Y171" s="15"/>
+      <c r="Z171" s="15"/>
+      <c r="AA171" s="15"/>
+      <c r="AB171" s="15"/>
+      <c r="AC171" s="15"/>
       <c r="AD171" s="15"/>
       <c r="AF171" s="40"/>
     </row>
@@ -20679,7 +20805,7 @@
       <c r="T172" s="20"/>
       <c r="U172" s="20"/>
       <c r="V172" s="20"/>
-      <c r="W172" s="20"/>
+      <c r="W172" s="15"/>
       <c r="X172" s="15"/>
       <c r="Y172" s="15"/>
       <c r="Z172" s="15"/>
@@ -20690,7 +20816,6 @@
       <c r="AF172" s="40"/>
     </row>
     <row r="173" spans="16:32" s="21" customFormat="1">
-      <c r="P173" s="22"/>
       <c r="Q173" s="20"/>
       <c r="R173" s="20"/>
       <c r="S173" s="20"/>
@@ -20707,7 +20832,8 @@
       <c r="AD173" s="15"/>
       <c r="AF173" s="40"/>
     </row>
-    <row r="174" spans="16:32" s="21" customFormat="1">
+    <row r="174" spans="16:32">
+      <c r="P174" s="18"/>
       <c r="Q174" s="20"/>
       <c r="R174" s="20"/>
       <c r="S174" s="20"/>
@@ -20715,24 +20841,23 @@
       <c r="U174" s="20"/>
       <c r="V174" s="20"/>
       <c r="W174" s="15"/>
-      <c r="X174" s="15"/>
-      <c r="Y174" s="15"/>
-      <c r="Z174" s="15"/>
-      <c r="AA174" s="15"/>
-      <c r="AB174" s="15"/>
-      <c r="AC174" s="15"/>
-      <c r="AD174" s="15"/>
-      <c r="AF174" s="40"/>
-    </row>
-    <row r="175" spans="16:32">
-      <c r="P175" s="18"/>
+      <c r="X174" s="20"/>
+      <c r="Y174" s="20"/>
+      <c r="Z174" s="20"/>
+      <c r="AA174" s="20"/>
+      <c r="AB174" s="20"/>
+      <c r="AC174" s="20"/>
+      <c r="AD174" s="20"/>
+    </row>
+    <row r="175" spans="16:32" s="21" customFormat="1">
+      <c r="P175" s="22"/>
       <c r="Q175" s="20"/>
       <c r="R175" s="20"/>
       <c r="S175" s="20"/>
       <c r="T175" s="20"/>
       <c r="U175" s="20"/>
       <c r="V175" s="20"/>
-      <c r="W175" s="15"/>
+      <c r="W175" s="20"/>
       <c r="X175" s="20"/>
       <c r="Y175" s="20"/>
       <c r="Z175" s="20"/>
@@ -20740,6 +20865,7 @@
       <c r="AB175" s="20"/>
       <c r="AC175" s="20"/>
       <c r="AD175" s="20"/>
+      <c r="AF175" s="23"/>
     </row>
     <row r="176" spans="16:32" s="21" customFormat="1">
       <c r="P176" s="22"/>
@@ -20750,14 +20876,14 @@
       <c r="U176" s="20"/>
       <c r="V176" s="20"/>
       <c r="W176" s="20"/>
-      <c r="X176" s="20"/>
-      <c r="Y176" s="20"/>
+      <c r="X176" s="15"/>
+      <c r="Y176" s="15"/>
       <c r="Z176" s="20"/>
       <c r="AA176" s="20"/>
       <c r="AB176" s="20"/>
       <c r="AC176" s="20"/>
-      <c r="AD176" s="20"/>
-      <c r="AF176" s="23"/>
+      <c r="AD176" s="15"/>
+      <c r="AF176" s="40"/>
     </row>
     <row r="177" spans="16:32" s="21" customFormat="1">
       <c r="P177" s="22"/>
@@ -20767,13 +20893,13 @@
       <c r="T177" s="20"/>
       <c r="U177" s="20"/>
       <c r="V177" s="20"/>
-      <c r="W177" s="20"/>
+      <c r="W177" s="15"/>
       <c r="X177" s="15"/>
       <c r="Y177" s="15"/>
-      <c r="Z177" s="20"/>
-      <c r="AA177" s="20"/>
-      <c r="AB177" s="20"/>
-      <c r="AC177" s="20"/>
+      <c r="Z177" s="15"/>
+      <c r="AA177" s="15"/>
+      <c r="AB177" s="15"/>
+      <c r="AC177" s="15"/>
       <c r="AD177" s="15"/>
       <c r="AF177" s="40"/>
     </row>
@@ -20785,14 +20911,14 @@
       <c r="T178" s="20"/>
       <c r="U178" s="20"/>
       <c r="V178" s="20"/>
-      <c r="W178" s="15"/>
-      <c r="X178" s="15"/>
-      <c r="Y178" s="15"/>
-      <c r="Z178" s="15"/>
-      <c r="AA178" s="15"/>
-      <c r="AB178" s="15"/>
-      <c r="AC178" s="15"/>
-      <c r="AD178" s="15"/>
+      <c r="W178" s="20"/>
+      <c r="X178" s="20"/>
+      <c r="Y178" s="20"/>
+      <c r="Z178" s="20"/>
+      <c r="AA178" s="20"/>
+      <c r="AB178" s="20"/>
+      <c r="AC178" s="20"/>
+      <c r="AD178" s="20"/>
       <c r="AF178" s="40"/>
     </row>
     <row r="179" spans="16:32" s="21" customFormat="1">
@@ -20804,17 +20930,16 @@
       <c r="U179" s="20"/>
       <c r="V179" s="20"/>
       <c r="W179" s="20"/>
-      <c r="X179" s="20"/>
-      <c r="Y179" s="20"/>
-      <c r="Z179" s="20"/>
-      <c r="AA179" s="20"/>
-      <c r="AB179" s="20"/>
-      <c r="AC179" s="20"/>
-      <c r="AD179" s="20"/>
+      <c r="X179" s="15"/>
+      <c r="Y179" s="15"/>
+      <c r="Z179" s="15"/>
+      <c r="AA179" s="15"/>
+      <c r="AB179" s="15"/>
+      <c r="AC179" s="15"/>
+      <c r="AD179" s="15"/>
       <c r="AF179" s="40"/>
     </row>
     <row r="180" spans="16:32" s="21" customFormat="1">
-      <c r="P180" s="22"/>
       <c r="Q180" s="20"/>
       <c r="R180" s="20"/>
       <c r="S180" s="20"/>
@@ -20822,16 +20947,17 @@
       <c r="U180" s="20"/>
       <c r="V180" s="20"/>
       <c r="W180" s="20"/>
-      <c r="X180" s="15"/>
-      <c r="Y180" s="15"/>
-      <c r="Z180" s="15"/>
-      <c r="AA180" s="15"/>
-      <c r="AB180" s="15"/>
-      <c r="AC180" s="15"/>
+      <c r="X180" s="20"/>
+      <c r="Y180" s="20"/>
+      <c r="Z180" s="20"/>
+      <c r="AA180" s="20"/>
+      <c r="AB180" s="20"/>
+      <c r="AC180" s="20"/>
       <c r="AD180" s="15"/>
       <c r="AF180" s="40"/>
     </row>
     <row r="181" spans="16:32" s="21" customFormat="1">
+      <c r="P181" s="22"/>
       <c r="Q181" s="20"/>
       <c r="R181" s="20"/>
       <c r="S181" s="20"/>
@@ -20845,7 +20971,7 @@
       <c r="AA181" s="20"/>
       <c r="AB181" s="20"/>
       <c r="AC181" s="20"/>
-      <c r="AD181" s="15"/>
+      <c r="AD181" s="20"/>
       <c r="AF181" s="40"/>
     </row>
     <row r="182" spans="16:32" s="21" customFormat="1">
@@ -20857,31 +20983,31 @@
       <c r="U182" s="20"/>
       <c r="V182" s="20"/>
       <c r="W182" s="20"/>
-      <c r="X182" s="20"/>
-      <c r="Y182" s="20"/>
-      <c r="Z182" s="20"/>
-      <c r="AA182" s="20"/>
-      <c r="AB182" s="20"/>
-      <c r="AC182" s="20"/>
-      <c r="AD182" s="20"/>
+      <c r="X182" s="15"/>
+      <c r="Y182" s="15"/>
+      <c r="Z182" s="15"/>
+      <c r="AA182" s="15"/>
+      <c r="AB182" s="15"/>
+      <c r="AC182" s="15"/>
+      <c r="AD182" s="15"/>
       <c r="AF182" s="40"/>
     </row>
     <row r="183" spans="16:32" s="21" customFormat="1">
       <c r="P183" s="22"/>
-      <c r="Q183" s="20"/>
-      <c r="R183" s="20"/>
-      <c r="S183" s="20"/>
-      <c r="T183" s="20"/>
-      <c r="U183" s="20"/>
-      <c r="V183" s="20"/>
-      <c r="W183" s="20"/>
-      <c r="X183" s="15"/>
-      <c r="Y183" s="15"/>
-      <c r="Z183" s="15"/>
-      <c r="AA183" s="15"/>
-      <c r="AB183" s="15"/>
-      <c r="AC183" s="15"/>
-      <c r="AD183" s="15"/>
+      <c r="Q183" s="23"/>
+      <c r="R183" s="23"/>
+      <c r="S183" s="23"/>
+      <c r="T183" s="23"/>
+      <c r="U183" s="23"/>
+      <c r="V183" s="23"/>
+      <c r="W183" s="23"/>
+      <c r="X183" s="40"/>
+      <c r="Y183" s="40"/>
+      <c r="Z183" s="23"/>
+      <c r="AA183" s="23"/>
+      <c r="AB183" s="23"/>
+      <c r="AC183" s="23"/>
+      <c r="AD183" s="40"/>
       <c r="AF183" s="40"/>
     </row>
     <row r="184" spans="16:32" s="21" customFormat="1">
@@ -20892,18 +21018,17 @@
       <c r="T184" s="23"/>
       <c r="U184" s="23"/>
       <c r="V184" s="23"/>
-      <c r="W184" s="23"/>
+      <c r="W184" s="40"/>
       <c r="X184" s="40"/>
       <c r="Y184" s="40"/>
-      <c r="Z184" s="23"/>
-      <c r="AA184" s="23"/>
-      <c r="AB184" s="23"/>
-      <c r="AC184" s="23"/>
+      <c r="Z184" s="40"/>
+      <c r="AA184" s="40"/>
+      <c r="AB184" s="40"/>
+      <c r="AC184" s="40"/>
       <c r="AD184" s="40"/>
       <c r="AF184" s="40"/>
     </row>
     <row r="185" spans="16:32" s="21" customFormat="1">
-      <c r="P185" s="22"/>
       <c r="Q185" s="23"/>
       <c r="R185" s="23"/>
       <c r="S185" s="23"/>
@@ -20927,30 +21052,31 @@
       <c r="T186" s="23"/>
       <c r="U186" s="23"/>
       <c r="V186" s="23"/>
-      <c r="W186" s="40"/>
+      <c r="W186" s="23"/>
       <c r="X186" s="40"/>
       <c r="Y186" s="40"/>
-      <c r="Z186" s="40"/>
-      <c r="AA186" s="40"/>
-      <c r="AB186" s="40"/>
-      <c r="AC186" s="40"/>
+      <c r="Z186" s="23"/>
+      <c r="AA186" s="23"/>
+      <c r="AB186" s="23"/>
+      <c r="AC186" s="23"/>
       <c r="AD186" s="40"/>
       <c r="AF186" s="40"/>
     </row>
     <row r="187" spans="16:32" s="21" customFormat="1">
+      <c r="P187" s="22"/>
       <c r="Q187" s="23"/>
       <c r="R187" s="23"/>
       <c r="S187" s="23"/>
       <c r="T187" s="23"/>
       <c r="U187" s="23"/>
       <c r="V187" s="23"/>
-      <c r="W187" s="23"/>
+      <c r="W187" s="40"/>
       <c r="X187" s="40"/>
       <c r="Y187" s="40"/>
-      <c r="Z187" s="23"/>
-      <c r="AA187" s="23"/>
-      <c r="AB187" s="23"/>
-      <c r="AC187" s="23"/>
+      <c r="Z187" s="40"/>
+      <c r="AA187" s="40"/>
+      <c r="AB187" s="40"/>
+      <c r="AC187" s="40"/>
       <c r="AD187" s="40"/>
       <c r="AF187" s="40"/>
     </row>
@@ -20991,7 +21117,6 @@
       <c r="AF189" s="40"/>
     </row>
     <row r="190" spans="16:32" s="21" customFormat="1">
-      <c r="P190" s="22"/>
       <c r="Q190" s="23"/>
       <c r="R190" s="23"/>
       <c r="S190" s="23"/>
@@ -21032,13 +21157,13 @@
       <c r="T192" s="23"/>
       <c r="U192" s="23"/>
       <c r="V192" s="23"/>
-      <c r="W192" s="40"/>
+      <c r="W192" s="23"/>
       <c r="X192" s="40"/>
       <c r="Y192" s="40"/>
-      <c r="Z192" s="40"/>
-      <c r="AA192" s="40"/>
-      <c r="AB192" s="40"/>
-      <c r="AC192" s="40"/>
+      <c r="Z192" s="23"/>
+      <c r="AA192" s="23"/>
+      <c r="AB192" s="23"/>
+      <c r="AC192" s="23"/>
       <c r="AD192" s="40"/>
       <c r="AF192" s="40"/>
     </row>
@@ -21052,14 +21177,15 @@
       <c r="W193" s="23"/>
       <c r="X193" s="40"/>
       <c r="Y193" s="40"/>
-      <c r="Z193" s="23"/>
-      <c r="AA193" s="23"/>
-      <c r="AB193" s="23"/>
-      <c r="AC193" s="23"/>
+      <c r="Z193" s="40"/>
+      <c r="AA193" s="40"/>
+      <c r="AB193" s="40"/>
+      <c r="AC193" s="40"/>
       <c r="AD193" s="40"/>
       <c r="AF193" s="40"/>
     </row>
     <row r="194" spans="16:32" s="21" customFormat="1">
+      <c r="P194" s="22"/>
       <c r="Q194" s="23"/>
       <c r="R194" s="23"/>
       <c r="S194" s="23"/>
@@ -21069,15 +21195,14 @@
       <c r="W194" s="23"/>
       <c r="X194" s="40"/>
       <c r="Y194" s="40"/>
-      <c r="Z194" s="40"/>
-      <c r="AA194" s="40"/>
-      <c r="AB194" s="40"/>
-      <c r="AC194" s="40"/>
+      <c r="Z194" s="23"/>
+      <c r="AA194" s="23"/>
+      <c r="AB194" s="23"/>
+      <c r="AC194" s="23"/>
       <c r="AD194" s="40"/>
       <c r="AF194" s="40"/>
     </row>
     <row r="195" spans="16:32" s="21" customFormat="1">
-      <c r="P195" s="22"/>
       <c r="Q195" s="23"/>
       <c r="R195" s="23"/>
       <c r="S195" s="23"/>
@@ -21095,6 +21220,7 @@
       <c r="AF195" s="40"/>
     </row>
     <row r="196" spans="16:32" s="21" customFormat="1">
+      <c r="P196" s="22"/>
       <c r="Q196" s="23"/>
       <c r="R196" s="23"/>
       <c r="S196" s="23"/>
@@ -21104,10 +21230,10 @@
       <c r="W196" s="23"/>
       <c r="X196" s="40"/>
       <c r="Y196" s="40"/>
-      <c r="Z196" s="23"/>
-      <c r="AA196" s="23"/>
-      <c r="AB196" s="23"/>
-      <c r="AC196" s="23"/>
+      <c r="Z196" s="40"/>
+      <c r="AA196" s="40"/>
+      <c r="AB196" s="40"/>
+      <c r="AC196" s="40"/>
       <c r="AD196" s="40"/>
       <c r="AF196" s="40"/>
     </row>
@@ -21122,10 +21248,10 @@
       <c r="W197" s="23"/>
       <c r="X197" s="40"/>
       <c r="Y197" s="40"/>
-      <c r="Z197" s="40"/>
-      <c r="AA197" s="40"/>
-      <c r="AB197" s="40"/>
-      <c r="AC197" s="40"/>
+      <c r="Z197" s="23"/>
+      <c r="AA197" s="23"/>
+      <c r="AB197" s="23"/>
+      <c r="AC197" s="23"/>
       <c r="AD197" s="40"/>
       <c r="AF197" s="40"/>
     </row>
@@ -21140,10 +21266,10 @@
       <c r="W198" s="23"/>
       <c r="X198" s="40"/>
       <c r="Y198" s="40"/>
-      <c r="Z198" s="23"/>
-      <c r="AA198" s="23"/>
-      <c r="AB198" s="23"/>
-      <c r="AC198" s="23"/>
+      <c r="Z198" s="40"/>
+      <c r="AA198" s="40"/>
+      <c r="AB198" s="40"/>
+      <c r="AC198" s="40"/>
       <c r="AD198" s="40"/>
       <c r="AF198" s="40"/>
     </row>
@@ -21158,10 +21284,10 @@
       <c r="W199" s="23"/>
       <c r="X199" s="40"/>
       <c r="Y199" s="40"/>
-      <c r="Z199" s="40"/>
-      <c r="AA199" s="40"/>
-      <c r="AB199" s="40"/>
-      <c r="AC199" s="40"/>
+      <c r="Z199" s="23"/>
+      <c r="AA199" s="23"/>
+      <c r="AB199" s="23"/>
+      <c r="AC199" s="23"/>
       <c r="AD199" s="40"/>
       <c r="AF199" s="40"/>
     </row>
@@ -21173,18 +21299,17 @@
       <c r="T200" s="23"/>
       <c r="U200" s="23"/>
       <c r="V200" s="23"/>
-      <c r="W200" s="23"/>
+      <c r="W200" s="40"/>
       <c r="X200" s="40"/>
       <c r="Y200" s="40"/>
-      <c r="Z200" s="23"/>
-      <c r="AA200" s="23"/>
-      <c r="AB200" s="23"/>
-      <c r="AC200" s="23"/>
+      <c r="Z200" s="40"/>
+      <c r="AA200" s="40"/>
+      <c r="AB200" s="40"/>
+      <c r="AC200" s="40"/>
       <c r="AD200" s="40"/>
       <c r="AF200" s="40"/>
     </row>
     <row r="201" spans="16:32" s="21" customFormat="1">
-      <c r="P201" s="22"/>
       <c r="Q201" s="23"/>
       <c r="R201" s="23"/>
       <c r="S201" s="23"/>
@@ -21202,6 +21327,7 @@
       <c r="AF201" s="40"/>
     </row>
     <row r="202" spans="16:32" s="21" customFormat="1">
+      <c r="P202" s="22"/>
       <c r="Q202" s="23"/>
       <c r="R202" s="23"/>
       <c r="S202" s="23"/>
@@ -21219,7 +21345,6 @@
       <c r="AF202" s="40"/>
     </row>
     <row r="203" spans="16:32" s="21" customFormat="1">
-      <c r="P203" s="22"/>
       <c r="Q203" s="23"/>
       <c r="R203" s="23"/>
       <c r="S203" s="23"/>
@@ -21243,52 +21368,53 @@
       <c r="T204" s="23"/>
       <c r="U204" s="23"/>
       <c r="V204" s="23"/>
-      <c r="W204" s="40"/>
+      <c r="W204" s="23"/>
       <c r="X204" s="40"/>
       <c r="Y204" s="40"/>
-      <c r="Z204" s="40"/>
-      <c r="AA204" s="40"/>
-      <c r="AB204" s="40"/>
-      <c r="AC204" s="40"/>
+      <c r="Z204" s="23"/>
+      <c r="AA204" s="23"/>
+      <c r="AB204" s="23"/>
+      <c r="AC204" s="23"/>
       <c r="AD204" s="40"/>
       <c r="AF204" s="40"/>
     </row>
     <row r="205" spans="16:32" s="21" customFormat="1">
+      <c r="P205" s="22"/>
       <c r="Q205" s="23"/>
       <c r="R205" s="23"/>
       <c r="S205" s="23"/>
       <c r="T205" s="23"/>
       <c r="U205" s="23"/>
       <c r="V205" s="23"/>
-      <c r="W205" s="23"/>
+      <c r="W205" s="40"/>
       <c r="X205" s="40"/>
       <c r="Y205" s="40"/>
-      <c r="Z205" s="23"/>
-      <c r="AA205" s="23"/>
-      <c r="AB205" s="23"/>
-      <c r="AC205" s="23"/>
+      <c r="Z205" s="40"/>
+      <c r="AA205" s="40"/>
+      <c r="AB205" s="40"/>
+      <c r="AC205" s="40"/>
       <c r="AD205" s="40"/>
       <c r="AF205" s="40"/>
     </row>
     <row r="206" spans="16:32" s="21" customFormat="1">
-      <c r="P206" s="22"/>
       <c r="Q206" s="23"/>
       <c r="R206" s="23"/>
       <c r="S206" s="23"/>
       <c r="T206" s="23"/>
       <c r="U206" s="23"/>
       <c r="V206" s="23"/>
-      <c r="W206" s="40"/>
+      <c r="W206" s="23"/>
       <c r="X206" s="40"/>
       <c r="Y206" s="40"/>
-      <c r="Z206" s="40"/>
-      <c r="AA206" s="40"/>
-      <c r="AB206" s="40"/>
-      <c r="AC206" s="40"/>
+      <c r="Z206" s="23"/>
+      <c r="AA206" s="23"/>
+      <c r="AB206" s="23"/>
+      <c r="AC206" s="23"/>
       <c r="AD206" s="40"/>
       <c r="AF206" s="40"/>
     </row>
     <row r="207" spans="16:32" s="21" customFormat="1">
+      <c r="P207" s="22"/>
       <c r="Q207" s="23"/>
       <c r="R207" s="23"/>
       <c r="S207" s="23"/>
@@ -21298,10 +21424,10 @@
       <c r="W207" s="23"/>
       <c r="X207" s="40"/>
       <c r="Y207" s="40"/>
-      <c r="Z207" s="23"/>
-      <c r="AA207" s="23"/>
-      <c r="AB207" s="23"/>
-      <c r="AC207" s="23"/>
+      <c r="Z207" s="40"/>
+      <c r="AA207" s="40"/>
+      <c r="AB207" s="40"/>
+      <c r="AC207" s="40"/>
       <c r="AD207" s="40"/>
       <c r="AF207" s="40"/>
     </row>
@@ -21313,7 +21439,7 @@
       <c r="T208" s="23"/>
       <c r="U208" s="23"/>
       <c r="V208" s="23"/>
-      <c r="W208" s="23"/>
+      <c r="W208" s="40"/>
       <c r="X208" s="40"/>
       <c r="Y208" s="40"/>
       <c r="Z208" s="40"/>
@@ -21342,7 +21468,6 @@
       <c r="AF209" s="40"/>
     </row>
     <row r="210" spans="16:32" s="21" customFormat="1">
-      <c r="P210" s="22"/>
       <c r="Q210" s="23"/>
       <c r="R210" s="23"/>
       <c r="S210" s="23"/>
@@ -21366,40 +21491,41 @@
       <c r="T211" s="23"/>
       <c r="U211" s="23"/>
       <c r="V211" s="23"/>
-      <c r="W211" s="40"/>
+      <c r="W211" s="23"/>
       <c r="X211" s="40"/>
       <c r="Y211" s="40"/>
-      <c r="Z211" s="40"/>
-      <c r="AA211" s="40"/>
-      <c r="AB211" s="40"/>
-      <c r="AC211" s="40"/>
+      <c r="Z211" s="23"/>
+      <c r="AA211" s="23"/>
+      <c r="AB211" s="23"/>
+      <c r="AC211" s="23"/>
       <c r="AD211" s="40"/>
       <c r="AF211" s="40"/>
     </row>
-    <row r="212" spans="16:32" s="21" customFormat="1">
-      <c r="Q212" s="23"/>
-      <c r="R212" s="23"/>
-      <c r="S212" s="23"/>
-      <c r="T212" s="23"/>
-      <c r="U212" s="23"/>
-      <c r="V212" s="23"/>
-      <c r="W212" s="23"/>
+    <row r="212" spans="16:32">
+      <c r="Q212" s="40"/>
+      <c r="R212" s="40"/>
+      <c r="S212" s="40"/>
+      <c r="T212" s="40"/>
+      <c r="U212" s="40"/>
+      <c r="V212" s="40"/>
+      <c r="W212" s="40"/>
       <c r="X212" s="40"/>
       <c r="Y212" s="40"/>
-      <c r="Z212" s="23"/>
-      <c r="AA212" s="23"/>
-      <c r="AB212" s="23"/>
-      <c r="AC212" s="23"/>
+      <c r="Z212" s="40"/>
+      <c r="AA212" s="40"/>
+      <c r="AB212" s="40"/>
+      <c r="AC212" s="40"/>
       <c r="AD212" s="40"/>
       <c r="AF212" s="40"/>
     </row>
-    <row r="213" spans="16:32">
-      <c r="Q213" s="40"/>
-      <c r="R213" s="40"/>
-      <c r="S213" s="40"/>
-      <c r="T213" s="40"/>
-      <c r="U213" s="40"/>
-      <c r="V213" s="40"/>
+    <row r="213" spans="16:32" s="21" customFormat="1">
+      <c r="P213" s="22"/>
+      <c r="Q213" s="23"/>
+      <c r="R213" s="23"/>
+      <c r="S213" s="23"/>
+      <c r="T213" s="23"/>
+      <c r="U213" s="23"/>
+      <c r="V213" s="23"/>
       <c r="W213" s="40"/>
       <c r="X213" s="40"/>
       <c r="Y213" s="40"/>
@@ -21411,20 +21537,19 @@
       <c r="AF213" s="40"/>
     </row>
     <row r="214" spans="16:32" s="21" customFormat="1">
-      <c r="P214" s="22"/>
       <c r="Q214" s="23"/>
       <c r="R214" s="23"/>
       <c r="S214" s="23"/>
       <c r="T214" s="23"/>
       <c r="U214" s="23"/>
       <c r="V214" s="23"/>
-      <c r="W214" s="40"/>
+      <c r="W214" s="23"/>
       <c r="X214" s="40"/>
       <c r="Y214" s="40"/>
-      <c r="Z214" s="40"/>
-      <c r="AA214" s="40"/>
-      <c r="AB214" s="40"/>
-      <c r="AC214" s="40"/>
+      <c r="Z214" s="23"/>
+      <c r="AA214" s="23"/>
+      <c r="AB214" s="23"/>
+      <c r="AC214" s="23"/>
       <c r="AD214" s="40"/>
       <c r="AF214" s="40"/>
     </row>
@@ -21438,10 +21563,10 @@
       <c r="W215" s="23"/>
       <c r="X215" s="40"/>
       <c r="Y215" s="40"/>
-      <c r="Z215" s="23"/>
-      <c r="AA215" s="23"/>
-      <c r="AB215" s="23"/>
-      <c r="AC215" s="23"/>
+      <c r="Z215" s="40"/>
+      <c r="AA215" s="40"/>
+      <c r="AB215" s="40"/>
+      <c r="AC215" s="40"/>
       <c r="AD215" s="40"/>
       <c r="AF215" s="40"/>
     </row>
@@ -21452,7 +21577,7 @@
       <c r="T216" s="23"/>
       <c r="U216" s="23"/>
       <c r="V216" s="23"/>
-      <c r="W216" s="23"/>
+      <c r="W216" s="40"/>
       <c r="X216" s="40"/>
       <c r="Y216" s="40"/>
       <c r="Z216" s="40"/>
@@ -21469,17 +21594,18 @@
       <c r="T217" s="23"/>
       <c r="U217" s="23"/>
       <c r="V217" s="23"/>
-      <c r="W217" s="40"/>
+      <c r="W217" s="23"/>
       <c r="X217" s="40"/>
       <c r="Y217" s="40"/>
-      <c r="Z217" s="40"/>
-      <c r="AA217" s="40"/>
-      <c r="AB217" s="40"/>
-      <c r="AC217" s="40"/>
+      <c r="Z217" s="23"/>
+      <c r="AA217" s="23"/>
+      <c r="AB217" s="23"/>
+      <c r="AC217" s="23"/>
       <c r="AD217" s="40"/>
       <c r="AF217" s="40"/>
     </row>
     <row r="218" spans="16:32" s="21" customFormat="1">
+      <c r="P218" s="22"/>
       <c r="Q218" s="23"/>
       <c r="R218" s="23"/>
       <c r="S218" s="23"/>
@@ -21489,22 +21615,21 @@
       <c r="W218" s="23"/>
       <c r="X218" s="40"/>
       <c r="Y218" s="40"/>
-      <c r="Z218" s="23"/>
-      <c r="AA218" s="23"/>
-      <c r="AB218" s="23"/>
-      <c r="AC218" s="23"/>
+      <c r="Z218" s="40"/>
+      <c r="AA218" s="40"/>
+      <c r="AB218" s="40"/>
+      <c r="AC218" s="40"/>
       <c r="AD218" s="40"/>
       <c r="AF218" s="40"/>
     </row>
     <row r="219" spans="16:32" s="21" customFormat="1">
-      <c r="P219" s="22"/>
       <c r="Q219" s="23"/>
       <c r="R219" s="23"/>
       <c r="S219" s="23"/>
       <c r="T219" s="23"/>
       <c r="U219" s="23"/>
       <c r="V219" s="23"/>
-      <c r="W219" s="23"/>
+      <c r="W219" s="40"/>
       <c r="X219" s="40"/>
       <c r="Y219" s="40"/>
       <c r="Z219" s="40"/>
@@ -21521,7 +21646,7 @@
       <c r="T220" s="23"/>
       <c r="U220" s="23"/>
       <c r="V220" s="23"/>
-      <c r="W220" s="40"/>
+      <c r="W220" s="23"/>
       <c r="X220" s="40"/>
       <c r="Y220" s="40"/>
       <c r="Z220" s="40"/>
@@ -21541,14 +21666,15 @@
       <c r="W221" s="23"/>
       <c r="X221" s="40"/>
       <c r="Y221" s="40"/>
-      <c r="Z221" s="40"/>
-      <c r="AA221" s="40"/>
-      <c r="AB221" s="40"/>
-      <c r="AC221" s="40"/>
+      <c r="Z221" s="23"/>
+      <c r="AA221" s="23"/>
+      <c r="AB221" s="23"/>
+      <c r="AC221" s="23"/>
       <c r="AD221" s="40"/>
       <c r="AF221" s="40"/>
     </row>
     <row r="222" spans="16:32" s="21" customFormat="1">
+      <c r="P222" s="22"/>
       <c r="Q222" s="23"/>
       <c r="R222" s="23"/>
       <c r="S222" s="23"/>
@@ -21558,10 +21684,10 @@
       <c r="W222" s="23"/>
       <c r="X222" s="40"/>
       <c r="Y222" s="40"/>
-      <c r="Z222" s="23"/>
-      <c r="AA222" s="23"/>
-      <c r="AB222" s="23"/>
-      <c r="AC222" s="23"/>
+      <c r="Z222" s="40"/>
+      <c r="AA222" s="40"/>
+      <c r="AB222" s="40"/>
+      <c r="AC222" s="40"/>
       <c r="AD222" s="40"/>
       <c r="AF222" s="40"/>
     </row>
@@ -21576,10 +21702,10 @@
       <c r="W223" s="23"/>
       <c r="X223" s="40"/>
       <c r="Y223" s="40"/>
-      <c r="Z223" s="40"/>
-      <c r="AA223" s="40"/>
-      <c r="AB223" s="40"/>
-      <c r="AC223" s="40"/>
+      <c r="Z223" s="23"/>
+      <c r="AA223" s="23"/>
+      <c r="AB223" s="23"/>
+      <c r="AC223" s="23"/>
       <c r="AD223" s="40"/>
       <c r="AF223" s="40"/>
     </row>
@@ -21594,10 +21720,10 @@
       <c r="W224" s="23"/>
       <c r="X224" s="40"/>
       <c r="Y224" s="40"/>
-      <c r="Z224" s="23"/>
-      <c r="AA224" s="23"/>
-      <c r="AB224" s="23"/>
-      <c r="AC224" s="23"/>
+      <c r="Z224" s="40"/>
+      <c r="AA224" s="40"/>
+      <c r="AB224" s="40"/>
+      <c r="AC224" s="40"/>
       <c r="AD224" s="40"/>
       <c r="AF224" s="40"/>
     </row>
@@ -21612,10 +21738,10 @@
       <c r="W225" s="23"/>
       <c r="X225" s="40"/>
       <c r="Y225" s="40"/>
-      <c r="Z225" s="40"/>
-      <c r="AA225" s="40"/>
-      <c r="AB225" s="40"/>
-      <c r="AC225" s="40"/>
+      <c r="Z225" s="23"/>
+      <c r="AA225" s="23"/>
+      <c r="AB225" s="23"/>
+      <c r="AC225" s="23"/>
       <c r="AD225" s="40"/>
       <c r="AF225" s="40"/>
     </row>
@@ -21627,18 +21753,17 @@
       <c r="T226" s="23"/>
       <c r="U226" s="23"/>
       <c r="V226" s="23"/>
-      <c r="W226" s="23"/>
+      <c r="W226" s="40"/>
       <c r="X226" s="40"/>
       <c r="Y226" s="40"/>
-      <c r="Z226" s="23"/>
-      <c r="AA226" s="23"/>
-      <c r="AB226" s="23"/>
-      <c r="AC226" s="23"/>
+      <c r="Z226" s="40"/>
+      <c r="AA226" s="40"/>
+      <c r="AB226" s="40"/>
+      <c r="AC226" s="40"/>
       <c r="AD226" s="40"/>
       <c r="AF226" s="40"/>
     </row>
     <row r="227" spans="16:32" s="21" customFormat="1">
-      <c r="P227" s="22"/>
       <c r="Q227" s="23"/>
       <c r="R227" s="23"/>
       <c r="S227" s="23"/>
@@ -21662,30 +21787,31 @@
       <c r="T228" s="23"/>
       <c r="U228" s="23"/>
       <c r="V228" s="23"/>
-      <c r="W228" s="40"/>
+      <c r="W228" s="23"/>
       <c r="X228" s="40"/>
       <c r="Y228" s="40"/>
-      <c r="Z228" s="40"/>
-      <c r="AA228" s="40"/>
-      <c r="AB228" s="40"/>
-      <c r="AC228" s="40"/>
+      <c r="Z228" s="23"/>
+      <c r="AA228" s="23"/>
+      <c r="AB228" s="23"/>
+      <c r="AC228" s="23"/>
       <c r="AD228" s="40"/>
       <c r="AF228" s="40"/>
     </row>
     <row r="229" spans="16:32" s="21" customFormat="1">
+      <c r="P229" s="22"/>
       <c r="Q229" s="23"/>
       <c r="R229" s="23"/>
       <c r="S229" s="23"/>
       <c r="T229" s="23"/>
       <c r="U229" s="23"/>
       <c r="V229" s="23"/>
-      <c r="W229" s="23"/>
+      <c r="W229" s="40"/>
       <c r="X229" s="40"/>
       <c r="Y229" s="40"/>
-      <c r="Z229" s="23"/>
-      <c r="AA229" s="23"/>
-      <c r="AB229" s="23"/>
-      <c r="AC229" s="23"/>
+      <c r="Z229" s="40"/>
+      <c r="AA229" s="40"/>
+      <c r="AB229" s="40"/>
+      <c r="AC229" s="40"/>
       <c r="AD229" s="40"/>
       <c r="AF229" s="40"/>
     </row>
@@ -21708,7 +21834,6 @@
       <c r="AF230" s="40"/>
     </row>
     <row r="231" spans="16:32" s="21" customFormat="1">
-      <c r="P231" s="22"/>
       <c r="Q231" s="23"/>
       <c r="R231" s="23"/>
       <c r="S231" s="23"/>
@@ -21732,48 +21857,48 @@
       <c r="T232" s="23"/>
       <c r="U232" s="23"/>
       <c r="V232" s="23"/>
-      <c r="W232" s="40"/>
+      <c r="W232" s="23"/>
       <c r="X232" s="40"/>
       <c r="Y232" s="40"/>
-      <c r="Z232" s="40"/>
-      <c r="AA232" s="40"/>
-      <c r="AB232" s="40"/>
-      <c r="AC232" s="40"/>
+      <c r="Z232" s="23"/>
+      <c r="AA232" s="23"/>
+      <c r="AB232" s="23"/>
+      <c r="AC232" s="23"/>
       <c r="AD232" s="40"/>
       <c r="AF232" s="40"/>
     </row>
     <row r="233" spans="16:32" s="21" customFormat="1">
+      <c r="P233" s="22"/>
       <c r="Q233" s="23"/>
       <c r="R233" s="23"/>
       <c r="S233" s="23"/>
       <c r="T233" s="23"/>
       <c r="U233" s="23"/>
       <c r="V233" s="23"/>
-      <c r="W233" s="23"/>
+      <c r="W233" s="40"/>
       <c r="X233" s="40"/>
       <c r="Y233" s="40"/>
-      <c r="Z233" s="23"/>
-      <c r="AA233" s="23"/>
-      <c r="AB233" s="23"/>
-      <c r="AC233" s="23"/>
+      <c r="Z233" s="40"/>
+      <c r="AA233" s="40"/>
+      <c r="AB233" s="40"/>
+      <c r="AC233" s="40"/>
       <c r="AD233" s="40"/>
       <c r="AF233" s="40"/>
     </row>
     <row r="234" spans="16:32" s="21" customFormat="1">
-      <c r="P234" s="22"/>
       <c r="Q234" s="23"/>
       <c r="R234" s="23"/>
       <c r="S234" s="23"/>
       <c r="T234" s="23"/>
       <c r="U234" s="23"/>
       <c r="V234" s="23"/>
-      <c r="W234" s="40"/>
+      <c r="W234" s="23"/>
       <c r="X234" s="40"/>
       <c r="Y234" s="40"/>
-      <c r="Z234" s="40"/>
-      <c r="AA234" s="40"/>
-      <c r="AB234" s="40"/>
-      <c r="AC234" s="40"/>
+      <c r="Z234" s="23"/>
+      <c r="AA234" s="23"/>
+      <c r="AB234" s="23"/>
+      <c r="AC234" s="23"/>
       <c r="AD234" s="40"/>
       <c r="AF234" s="40"/>
     </row>
@@ -21787,10 +21912,10 @@
       <c r="W235" s="23"/>
       <c r="X235" s="40"/>
       <c r="Y235" s="40"/>
-      <c r="Z235" s="23"/>
-      <c r="AA235" s="23"/>
-      <c r="AB235" s="23"/>
-      <c r="AC235" s="23"/>
+      <c r="Z235" s="40"/>
+      <c r="AA235" s="40"/>
+      <c r="AB235" s="40"/>
+      <c r="AC235" s="40"/>
       <c r="AD235" s="40"/>
       <c r="AF235" s="40"/>
     </row>
@@ -21801,7 +21926,7 @@
       <c r="T236" s="23"/>
       <c r="U236" s="23"/>
       <c r="V236" s="23"/>
-      <c r="W236" s="23"/>
+      <c r="W236" s="40"/>
       <c r="X236" s="40"/>
       <c r="Y236" s="40"/>
       <c r="Z236" s="40"/>
@@ -21818,35 +21943,35 @@
       <c r="T237" s="23"/>
       <c r="U237" s="23"/>
       <c r="V237" s="23"/>
-      <c r="W237" s="40"/>
+      <c r="W237" s="23"/>
       <c r="X237" s="40"/>
       <c r="Y237" s="40"/>
-      <c r="Z237" s="40"/>
-      <c r="AA237" s="40"/>
-      <c r="AB237" s="40"/>
-      <c r="AC237" s="40"/>
+      <c r="Z237" s="23"/>
+      <c r="AA237" s="23"/>
+      <c r="AB237" s="23"/>
+      <c r="AC237" s="23"/>
       <c r="AD237" s="40"/>
       <c r="AF237" s="40"/>
     </row>
     <row r="238" spans="16:32" s="21" customFormat="1">
+      <c r="P238" s="22"/>
       <c r="Q238" s="23"/>
       <c r="R238" s="23"/>
       <c r="S238" s="23"/>
       <c r="T238" s="23"/>
       <c r="U238" s="23"/>
       <c r="V238" s="23"/>
-      <c r="W238" s="23"/>
+      <c r="W238" s="40"/>
       <c r="X238" s="40"/>
       <c r="Y238" s="40"/>
-      <c r="Z238" s="23"/>
-      <c r="AA238" s="23"/>
-      <c r="AB238" s="23"/>
-      <c r="AC238" s="23"/>
+      <c r="Z238" s="40"/>
+      <c r="AA238" s="40"/>
+      <c r="AB238" s="40"/>
+      <c r="AC238" s="40"/>
       <c r="AD238" s="40"/>
       <c r="AF238" s="40"/>
     </row>
     <row r="239" spans="16:32" s="21" customFormat="1">
-      <c r="P239" s="22"/>
       <c r="Q239" s="23"/>
       <c r="R239" s="23"/>
       <c r="S239" s="23"/>
@@ -21870,7 +21995,7 @@
       <c r="T240" s="23"/>
       <c r="U240" s="23"/>
       <c r="V240" s="23"/>
-      <c r="W240" s="40"/>
+      <c r="W240" s="23"/>
       <c r="X240" s="40"/>
       <c r="Y240" s="40"/>
       <c r="Z240" s="40"/>
@@ -21890,10 +22015,10 @@
       <c r="W241" s="23"/>
       <c r="X241" s="40"/>
       <c r="Y241" s="40"/>
-      <c r="Z241" s="40"/>
-      <c r="AA241" s="40"/>
-      <c r="AB241" s="40"/>
-      <c r="AC241" s="40"/>
+      <c r="Z241" s="23"/>
+      <c r="AA241" s="23"/>
+      <c r="AB241" s="23"/>
+      <c r="AC241" s="23"/>
       <c r="AD241" s="40"/>
       <c r="AF241" s="40"/>
     </row>
@@ -21907,10 +22032,10 @@
       <c r="W242" s="23"/>
       <c r="X242" s="40"/>
       <c r="Y242" s="40"/>
-      <c r="Z242" s="23"/>
-      <c r="AA242" s="23"/>
-      <c r="AB242" s="23"/>
-      <c r="AC242" s="23"/>
+      <c r="Z242" s="40"/>
+      <c r="AA242" s="40"/>
+      <c r="AB242" s="40"/>
+      <c r="AC242" s="40"/>
       <c r="AD242" s="40"/>
       <c r="AF242" s="40"/>
     </row>
@@ -21938,7 +22063,7 @@
       <c r="T244" s="23"/>
       <c r="U244" s="23"/>
       <c r="V244" s="23"/>
-      <c r="W244" s="23"/>
+      <c r="W244" s="40"/>
       <c r="X244" s="40"/>
       <c r="Y244" s="40"/>
       <c r="Z244" s="40"/>
@@ -21955,7 +22080,7 @@
       <c r="T245" s="23"/>
       <c r="U245" s="23"/>
       <c r="V245" s="23"/>
-      <c r="W245" s="40"/>
+      <c r="W245" s="23"/>
       <c r="X245" s="40"/>
       <c r="Y245" s="40"/>
       <c r="Z245" s="40"/>
@@ -21972,7 +22097,7 @@
       <c r="T246" s="23"/>
       <c r="U246" s="23"/>
       <c r="V246" s="23"/>
-      <c r="W246" s="23"/>
+      <c r="W246" s="40"/>
       <c r="X246" s="40"/>
       <c r="Y246" s="40"/>
       <c r="Z246" s="40"/>
@@ -21989,13 +22114,13 @@
       <c r="T247" s="23"/>
       <c r="U247" s="23"/>
       <c r="V247" s="23"/>
-      <c r="W247" s="40"/>
+      <c r="W247" s="23"/>
       <c r="X247" s="40"/>
       <c r="Y247" s="40"/>
-      <c r="Z247" s="40"/>
-      <c r="AA247" s="40"/>
-      <c r="AB247" s="40"/>
-      <c r="AC247" s="40"/>
+      <c r="Z247" s="23"/>
+      <c r="AA247" s="23"/>
+      <c r="AB247" s="23"/>
+      <c r="AC247" s="23"/>
       <c r="AD247" s="40"/>
       <c r="AF247" s="40"/>
     </row>
@@ -22017,24 +22142,24 @@
       <c r="AF248" s="40"/>
     </row>
     <row r="249" spans="16:32" s="21" customFormat="1">
+      <c r="P249" s="22"/>
       <c r="Q249" s="23"/>
       <c r="R249" s="23"/>
       <c r="S249" s="23"/>
       <c r="T249" s="23"/>
       <c r="U249" s="23"/>
       <c r="V249" s="23"/>
-      <c r="W249" s="23"/>
+      <c r="W249" s="40"/>
       <c r="X249" s="40"/>
       <c r="Y249" s="40"/>
-      <c r="Z249" s="23"/>
-      <c r="AA249" s="23"/>
-      <c r="AB249" s="23"/>
-      <c r="AC249" s="23"/>
+      <c r="Z249" s="40"/>
+      <c r="AA249" s="40"/>
+      <c r="AB249" s="40"/>
+      <c r="AC249" s="40"/>
       <c r="AD249" s="40"/>
       <c r="AF249" s="40"/>
     </row>
     <row r="250" spans="16:32" s="21" customFormat="1">
-      <c r="P250" s="22"/>
       <c r="Q250" s="23"/>
       <c r="R250" s="23"/>
       <c r="S250" s="23"/>
@@ -22058,35 +22183,35 @@
       <c r="T251" s="23"/>
       <c r="U251" s="23"/>
       <c r="V251" s="23"/>
-      <c r="W251" s="40"/>
+      <c r="W251" s="23"/>
       <c r="X251" s="40"/>
       <c r="Y251" s="40"/>
-      <c r="Z251" s="40"/>
-      <c r="AA251" s="40"/>
-      <c r="AB251" s="40"/>
-      <c r="AC251" s="40"/>
+      <c r="Z251" s="23"/>
+      <c r="AA251" s="23"/>
+      <c r="AB251" s="23"/>
+      <c r="AC251" s="23"/>
       <c r="AD251" s="40"/>
       <c r="AF251" s="40"/>
     </row>
     <row r="252" spans="16:32" s="21" customFormat="1">
+      <c r="P252" s="22"/>
       <c r="Q252" s="23"/>
       <c r="R252" s="23"/>
       <c r="S252" s="23"/>
       <c r="T252" s="23"/>
       <c r="U252" s="23"/>
       <c r="V252" s="23"/>
-      <c r="W252" s="23"/>
+      <c r="W252" s="40"/>
       <c r="X252" s="40"/>
       <c r="Y252" s="40"/>
-      <c r="Z252" s="23"/>
-      <c r="AA252" s="23"/>
-      <c r="AB252" s="23"/>
-      <c r="AC252" s="23"/>
+      <c r="Z252" s="40"/>
+      <c r="AA252" s="40"/>
+      <c r="AB252" s="40"/>
+      <c r="AC252" s="40"/>
       <c r="AD252" s="40"/>
       <c r="AF252" s="40"/>
     </row>
     <row r="253" spans="16:32" s="21" customFormat="1">
-      <c r="P253" s="22"/>
       <c r="Q253" s="23"/>
       <c r="R253" s="23"/>
       <c r="S253" s="23"/>
@@ -22110,30 +22235,31 @@
       <c r="T254" s="23"/>
       <c r="U254" s="23"/>
       <c r="V254" s="23"/>
-      <c r="W254" s="40"/>
+      <c r="W254" s="23"/>
       <c r="X254" s="40"/>
       <c r="Y254" s="40"/>
-      <c r="Z254" s="40"/>
-      <c r="AA254" s="40"/>
-      <c r="AB254" s="40"/>
-      <c r="AC254" s="40"/>
+      <c r="Z254" s="23"/>
+      <c r="AA254" s="23"/>
+      <c r="AB254" s="23"/>
+      <c r="AC254" s="23"/>
       <c r="AD254" s="40"/>
       <c r="AF254" s="40"/>
     </row>
     <row r="255" spans="16:32" s="21" customFormat="1">
+      <c r="P255" s="22"/>
       <c r="Q255" s="23"/>
       <c r="R255" s="23"/>
       <c r="S255" s="23"/>
       <c r="T255" s="23"/>
       <c r="U255" s="23"/>
       <c r="V255" s="23"/>
-      <c r="W255" s="23"/>
+      <c r="W255" s="40"/>
       <c r="X255" s="40"/>
       <c r="Y255" s="40"/>
-      <c r="Z255" s="23"/>
-      <c r="AA255" s="23"/>
-      <c r="AB255" s="23"/>
-      <c r="AC255" s="23"/>
+      <c r="Z255" s="40"/>
+      <c r="AA255" s="40"/>
+      <c r="AB255" s="40"/>
+      <c r="AC255" s="40"/>
       <c r="AD255" s="40"/>
       <c r="AF255" s="40"/>
     </row>
@@ -22156,7 +22282,6 @@
       <c r="AF256" s="40"/>
     </row>
     <row r="257" spans="16:32" s="21" customFormat="1">
-      <c r="P257" s="22"/>
       <c r="Q257" s="23"/>
       <c r="R257" s="23"/>
       <c r="S257" s="23"/>
@@ -22180,48 +22305,48 @@
       <c r="T258" s="23"/>
       <c r="U258" s="23"/>
       <c r="V258" s="23"/>
-      <c r="W258" s="40"/>
+      <c r="W258" s="23"/>
       <c r="X258" s="40"/>
       <c r="Y258" s="40"/>
-      <c r="Z258" s="40"/>
-      <c r="AA258" s="40"/>
-      <c r="AB258" s="40"/>
-      <c r="AC258" s="40"/>
+      <c r="Z258" s="23"/>
+      <c r="AA258" s="23"/>
+      <c r="AB258" s="23"/>
+      <c r="AC258" s="23"/>
       <c r="AD258" s="40"/>
       <c r="AF258" s="40"/>
     </row>
     <row r="259" spans="16:32" s="21" customFormat="1">
+      <c r="P259" s="22"/>
       <c r="Q259" s="23"/>
       <c r="R259" s="23"/>
       <c r="S259" s="23"/>
       <c r="T259" s="23"/>
       <c r="U259" s="23"/>
       <c r="V259" s="23"/>
-      <c r="W259" s="23"/>
+      <c r="W259" s="40"/>
       <c r="X259" s="40"/>
       <c r="Y259" s="40"/>
-      <c r="Z259" s="23"/>
-      <c r="AA259" s="23"/>
-      <c r="AB259" s="23"/>
-      <c r="AC259" s="23"/>
+      <c r="Z259" s="40"/>
+      <c r="AA259" s="40"/>
+      <c r="AB259" s="40"/>
+      <c r="AC259" s="40"/>
       <c r="AD259" s="40"/>
       <c r="AF259" s="40"/>
     </row>
     <row r="260" spans="16:32" s="21" customFormat="1">
-      <c r="P260" s="22"/>
       <c r="Q260" s="23"/>
       <c r="R260" s="23"/>
       <c r="S260" s="23"/>
       <c r="T260" s="23"/>
       <c r="U260" s="23"/>
       <c r="V260" s="23"/>
-      <c r="W260" s="40"/>
+      <c r="W260" s="23"/>
       <c r="X260" s="40"/>
       <c r="Y260" s="40"/>
-      <c r="Z260" s="40"/>
-      <c r="AA260" s="40"/>
-      <c r="AB260" s="40"/>
-      <c r="AC260" s="40"/>
+      <c r="Z260" s="23"/>
+      <c r="AA260" s="23"/>
+      <c r="AB260" s="23"/>
+      <c r="AC260" s="23"/>
       <c r="AD260" s="40"/>
       <c r="AF260" s="40"/>
     </row>
@@ -22235,10 +22360,10 @@
       <c r="W261" s="23"/>
       <c r="X261" s="40"/>
       <c r="Y261" s="40"/>
-      <c r="Z261" s="23"/>
-      <c r="AA261" s="23"/>
-      <c r="AB261" s="23"/>
-      <c r="AC261" s="23"/>
+      <c r="Z261" s="40"/>
+      <c r="AA261" s="40"/>
+      <c r="AB261" s="40"/>
+      <c r="AC261" s="40"/>
       <c r="AD261" s="40"/>
       <c r="AF261" s="40"/>
     </row>
@@ -22300,7 +22425,7 @@
       <c r="T265" s="23"/>
       <c r="U265" s="23"/>
       <c r="V265" s="23"/>
-      <c r="W265" s="23"/>
+      <c r="W265" s="40"/>
       <c r="X265" s="40"/>
       <c r="Y265" s="40"/>
       <c r="Z265" s="40"/>
@@ -22317,7 +22442,7 @@
       <c r="T266" s="23"/>
       <c r="U266" s="23"/>
       <c r="V266" s="23"/>
-      <c r="W266" s="40"/>
+      <c r="W266" s="23"/>
       <c r="X266" s="40"/>
       <c r="Y266" s="40"/>
       <c r="Z266" s="40"/>
@@ -22334,7 +22459,7 @@
       <c r="T267" s="23"/>
       <c r="U267" s="23"/>
       <c r="V267" s="23"/>
-      <c r="W267" s="23"/>
+      <c r="W267" s="40"/>
       <c r="X267" s="40"/>
       <c r="Y267" s="40"/>
       <c r="Z267" s="40"/>
@@ -22351,13 +22476,13 @@
       <c r="T268" s="23"/>
       <c r="U268" s="23"/>
       <c r="V268" s="23"/>
-      <c r="W268" s="40"/>
+      <c r="W268" s="23"/>
       <c r="X268" s="40"/>
       <c r="Y268" s="40"/>
-      <c r="Z268" s="40"/>
-      <c r="AA268" s="40"/>
-      <c r="AB268" s="40"/>
-      <c r="AC268" s="40"/>
+      <c r="Z268" s="23"/>
+      <c r="AA268" s="23"/>
+      <c r="AB268" s="23"/>
+      <c r="AC268" s="23"/>
       <c r="AD268" s="40"/>
       <c r="AF268" s="40"/>
     </row>
@@ -22371,10 +22496,10 @@
       <c r="W269" s="23"/>
       <c r="X269" s="40"/>
       <c r="Y269" s="40"/>
-      <c r="Z269" s="23"/>
-      <c r="AA269" s="23"/>
-      <c r="AB269" s="23"/>
-      <c r="AC269" s="23"/>
+      <c r="Z269" s="40"/>
+      <c r="AA269" s="40"/>
+      <c r="AB269" s="40"/>
+      <c r="AC269" s="40"/>
       <c r="AD269" s="40"/>
       <c r="AF269" s="40"/>
     </row>
@@ -22439,39 +22564,39 @@
       <c r="W273" s="23"/>
       <c r="X273" s="40"/>
       <c r="Y273" s="40"/>
-      <c r="Z273" s="40"/>
-      <c r="AA273" s="40"/>
-      <c r="AB273" s="40"/>
-      <c r="AC273" s="40"/>
+      <c r="Z273" s="23"/>
+      <c r="AA273" s="23"/>
+      <c r="AB273" s="23"/>
+      <c r="AC273" s="23"/>
       <c r="AD273" s="40"/>
       <c r="AF273" s="40"/>
     </row>
     <row r="274" spans="16:32" s="21" customFormat="1">
+      <c r="P274" s="22"/>
       <c r="Q274" s="23"/>
       <c r="R274" s="23"/>
       <c r="S274" s="23"/>
       <c r="T274" s="23"/>
       <c r="U274" s="23"/>
       <c r="V274" s="23"/>
-      <c r="W274" s="23"/>
+      <c r="W274" s="40"/>
       <c r="X274" s="40"/>
       <c r="Y274" s="40"/>
-      <c r="Z274" s="23"/>
-      <c r="AA274" s="23"/>
-      <c r="AB274" s="23"/>
-      <c r="AC274" s="23"/>
+      <c r="Z274" s="40"/>
+      <c r="AA274" s="40"/>
+      <c r="AB274" s="40"/>
+      <c r="AC274" s="40"/>
       <c r="AD274" s="40"/>
       <c r="AF274" s="40"/>
     </row>
     <row r="275" spans="16:32" s="21" customFormat="1">
-      <c r="P275" s="22"/>
       <c r="Q275" s="23"/>
       <c r="R275" s="23"/>
       <c r="S275" s="23"/>
       <c r="T275" s="23"/>
       <c r="U275" s="23"/>
       <c r="V275" s="23"/>
-      <c r="W275" s="40"/>
+      <c r="W275" s="23"/>
       <c r="X275" s="40"/>
       <c r="Y275" s="40"/>
       <c r="Z275" s="40"/>
@@ -22508,32 +22633,32 @@
       <c r="W277" s="23"/>
       <c r="X277" s="40"/>
       <c r="Y277" s="40"/>
-      <c r="Z277" s="40"/>
-      <c r="AA277" s="40"/>
-      <c r="AB277" s="40"/>
-      <c r="AC277" s="40"/>
+      <c r="Z277" s="23"/>
+      <c r="AA277" s="23"/>
+      <c r="AB277" s="23"/>
+      <c r="AC277" s="23"/>
       <c r="AD277" s="40"/>
       <c r="AF277" s="40"/>
     </row>
     <row r="278" spans="16:32" s="21" customFormat="1">
+      <c r="P278" s="22"/>
       <c r="Q278" s="23"/>
       <c r="R278" s="23"/>
       <c r="S278" s="23"/>
       <c r="T278" s="23"/>
       <c r="U278" s="23"/>
       <c r="V278" s="23"/>
-      <c r="W278" s="23"/>
+      <c r="W278" s="40"/>
       <c r="X278" s="40"/>
       <c r="Y278" s="40"/>
-      <c r="Z278" s="23"/>
-      <c r="AA278" s="23"/>
-      <c r="AB278" s="23"/>
-      <c r="AC278" s="23"/>
+      <c r="Z278" s="40"/>
+      <c r="AA278" s="40"/>
+      <c r="AB278" s="40"/>
+      <c r="AC278" s="40"/>
       <c r="AD278" s="40"/>
       <c r="AF278" s="40"/>
     </row>
     <row r="279" spans="16:32" s="21" customFormat="1">
-      <c r="P279" s="22"/>
       <c r="Q279" s="23"/>
       <c r="R279" s="23"/>
       <c r="S279" s="23"/>
@@ -22550,13 +22675,13 @@
       <c r="AD279" s="40"/>
       <c r="AF279" s="40"/>
     </row>
-    <row r="280" spans="16:32" s="21" customFormat="1">
-      <c r="Q280" s="23"/>
-      <c r="R280" s="23"/>
-      <c r="S280" s="23"/>
-      <c r="T280" s="23"/>
-      <c r="U280" s="23"/>
-      <c r="V280" s="23"/>
+    <row r="280" spans="16:32">
+      <c r="Q280" s="40"/>
+      <c r="R280" s="40"/>
+      <c r="S280" s="40"/>
+      <c r="T280" s="40"/>
+      <c r="U280" s="40"/>
+      <c r="V280" s="40"/>
       <c r="W280" s="40"/>
       <c r="X280" s="40"/>
       <c r="Y280" s="40"/>
@@ -22567,13 +22692,13 @@
       <c r="AD280" s="40"/>
       <c r="AF280" s="40"/>
     </row>
-    <row r="281" spans="16:32">
-      <c r="Q281" s="40"/>
-      <c r="R281" s="40"/>
-      <c r="S281" s="40"/>
-      <c r="T281" s="40"/>
-      <c r="U281" s="40"/>
-      <c r="V281" s="40"/>
+    <row r="281" spans="16:32" s="21" customFormat="1">
+      <c r="Q281" s="23"/>
+      <c r="R281" s="23"/>
+      <c r="S281" s="23"/>
+      <c r="T281" s="23"/>
+      <c r="U281" s="23"/>
+      <c r="V281" s="23"/>
       <c r="W281" s="40"/>
       <c r="X281" s="40"/>
       <c r="Y281" s="40"/>
@@ -22591,13 +22716,13 @@
       <c r="T282" s="23"/>
       <c r="U282" s="23"/>
       <c r="V282" s="23"/>
-      <c r="W282" s="40"/>
+      <c r="W282" s="23"/>
       <c r="X282" s="40"/>
       <c r="Y282" s="40"/>
-      <c r="Z282" s="40"/>
-      <c r="AA282" s="40"/>
-      <c r="AB282" s="40"/>
-      <c r="AC282" s="40"/>
+      <c r="Z282" s="23"/>
+      <c r="AA282" s="23"/>
+      <c r="AB282" s="23"/>
+      <c r="AC282" s="23"/>
       <c r="AD282" s="40"/>
       <c r="AF282" s="40"/>
     </row>
@@ -22611,21 +22736,22 @@
       <c r="W283" s="23"/>
       <c r="X283" s="40"/>
       <c r="Y283" s="40"/>
-      <c r="Z283" s="23"/>
-      <c r="AA283" s="23"/>
-      <c r="AB283" s="23"/>
-      <c r="AC283" s="23"/>
+      <c r="Z283" s="40"/>
+      <c r="AA283" s="40"/>
+      <c r="AB283" s="40"/>
+      <c r="AC283" s="40"/>
       <c r="AD283" s="40"/>
       <c r="AF283" s="40"/>
     </row>
     <row r="284" spans="16:32" s="21" customFormat="1">
+      <c r="P284" s="22"/>
       <c r="Q284" s="23"/>
       <c r="R284" s="23"/>
       <c r="S284" s="23"/>
       <c r="T284" s="23"/>
       <c r="U284" s="23"/>
       <c r="V284" s="23"/>
-      <c r="W284" s="23"/>
+      <c r="W284" s="40"/>
       <c r="X284" s="40"/>
       <c r="Y284" s="40"/>
       <c r="Z284" s="40"/>
@@ -22636,20 +22762,19 @@
       <c r="AF284" s="40"/>
     </row>
     <row r="285" spans="16:32" s="21" customFormat="1">
-      <c r="P285" s="22"/>
       <c r="Q285" s="23"/>
       <c r="R285" s="23"/>
       <c r="S285" s="23"/>
       <c r="T285" s="23"/>
       <c r="U285" s="23"/>
       <c r="V285" s="23"/>
-      <c r="W285" s="40"/>
+      <c r="W285" s="23"/>
       <c r="X285" s="40"/>
       <c r="Y285" s="40"/>
-      <c r="Z285" s="40"/>
-      <c r="AA285" s="40"/>
-      <c r="AB285" s="40"/>
-      <c r="AC285" s="40"/>
+      <c r="Z285" s="23"/>
+      <c r="AA285" s="23"/>
+      <c r="AB285" s="23"/>
+      <c r="AC285" s="23"/>
       <c r="AD285" s="40"/>
       <c r="AF285" s="40"/>
     </row>
@@ -22671,24 +22796,24 @@
       <c r="AF286" s="40"/>
     </row>
     <row r="287" spans="16:32" s="21" customFormat="1">
+      <c r="P287" s="22"/>
       <c r="Q287" s="23"/>
       <c r="R287" s="23"/>
       <c r="S287" s="23"/>
       <c r="T287" s="23"/>
       <c r="U287" s="23"/>
       <c r="V287" s="23"/>
-      <c r="W287" s="23"/>
+      <c r="W287" s="40"/>
       <c r="X287" s="40"/>
       <c r="Y287" s="40"/>
-      <c r="Z287" s="23"/>
-      <c r="AA287" s="23"/>
-      <c r="AB287" s="23"/>
-      <c r="AC287" s="23"/>
+      <c r="Z287" s="40"/>
+      <c r="AA287" s="40"/>
+      <c r="AB287" s="40"/>
+      <c r="AC287" s="40"/>
       <c r="AD287" s="40"/>
       <c r="AF287" s="40"/>
     </row>
     <row r="288" spans="16:32" s="21" customFormat="1">
-      <c r="P288" s="22"/>
       <c r="Q288" s="23"/>
       <c r="R288" s="23"/>
       <c r="S288" s="23"/>
@@ -22729,7 +22854,7 @@
       <c r="T290" s="23"/>
       <c r="U290" s="23"/>
       <c r="V290" s="23"/>
-      <c r="W290" s="40"/>
+      <c r="W290" s="23"/>
       <c r="X290" s="40"/>
       <c r="Y290" s="40"/>
       <c r="Z290" s="40"/>
@@ -22763,7 +22888,7 @@
       <c r="T292" s="23"/>
       <c r="U292" s="23"/>
       <c r="V292" s="23"/>
-      <c r="W292" s="23"/>
+      <c r="W292" s="40"/>
       <c r="X292" s="40"/>
       <c r="Y292" s="40"/>
       <c r="Z292" s="40"/>
@@ -22780,7 +22905,7 @@
       <c r="T293" s="23"/>
       <c r="U293" s="23"/>
       <c r="V293" s="23"/>
-      <c r="W293" s="40"/>
+      <c r="W293" s="23"/>
       <c r="X293" s="40"/>
       <c r="Y293" s="40"/>
       <c r="Z293" s="40"/>
@@ -22797,7 +22922,7 @@
       <c r="T294" s="23"/>
       <c r="U294" s="23"/>
       <c r="V294" s="23"/>
-      <c r="W294" s="23"/>
+      <c r="W294" s="40"/>
       <c r="X294" s="40"/>
       <c r="Y294" s="40"/>
       <c r="Z294" s="40"/>
@@ -22814,35 +22939,35 @@
       <c r="T295" s="23"/>
       <c r="U295" s="23"/>
       <c r="V295" s="23"/>
-      <c r="W295" s="40"/>
+      <c r="W295" s="23"/>
       <c r="X295" s="40"/>
       <c r="Y295" s="40"/>
-      <c r="Z295" s="40"/>
-      <c r="AA295" s="40"/>
-      <c r="AB295" s="40"/>
-      <c r="AC295" s="40"/>
+      <c r="Z295" s="23"/>
+      <c r="AA295" s="23"/>
+      <c r="AB295" s="23"/>
+      <c r="AC295" s="23"/>
       <c r="AD295" s="40"/>
       <c r="AF295" s="40"/>
     </row>
     <row r="296" spans="16:32" s="21" customFormat="1">
+      <c r="P296" s="22"/>
       <c r="Q296" s="23"/>
       <c r="R296" s="23"/>
       <c r="S296" s="23"/>
       <c r="T296" s="23"/>
       <c r="U296" s="23"/>
       <c r="V296" s="23"/>
-      <c r="W296" s="23"/>
+      <c r="W296" s="40"/>
       <c r="X296" s="40"/>
       <c r="Y296" s="40"/>
-      <c r="Z296" s="23"/>
-      <c r="AA296" s="23"/>
-      <c r="AB296" s="23"/>
-      <c r="AC296" s="23"/>
+      <c r="Z296" s="40"/>
+      <c r="AA296" s="40"/>
+      <c r="AB296" s="40"/>
+      <c r="AC296" s="40"/>
       <c r="AD296" s="40"/>
       <c r="AF296" s="40"/>
     </row>
     <row r="297" spans="16:32" s="21" customFormat="1">
-      <c r="P297" s="22"/>
       <c r="Q297" s="23"/>
       <c r="R297" s="23"/>
       <c r="S297" s="23"/>
@@ -22866,13 +22991,13 @@
       <c r="T298" s="23"/>
       <c r="U298" s="23"/>
       <c r="V298" s="23"/>
-      <c r="W298" s="40"/>
+      <c r="W298" s="23"/>
       <c r="X298" s="40"/>
       <c r="Y298" s="40"/>
-      <c r="Z298" s="40"/>
-      <c r="AA298" s="40"/>
-      <c r="AB298" s="40"/>
-      <c r="AC298" s="40"/>
+      <c r="Z298" s="23"/>
+      <c r="AA298" s="23"/>
+      <c r="AB298" s="23"/>
+      <c r="AC298" s="23"/>
       <c r="AD298" s="40"/>
       <c r="AF298" s="40"/>
     </row>
@@ -22886,10 +23011,10 @@
       <c r="W299" s="23"/>
       <c r="X299" s="40"/>
       <c r="Y299" s="40"/>
-      <c r="Z299" s="23"/>
-      <c r="AA299" s="23"/>
-      <c r="AB299" s="23"/>
-      <c r="AC299" s="23"/>
+      <c r="Z299" s="40"/>
+      <c r="AA299" s="40"/>
+      <c r="AB299" s="40"/>
+      <c r="AC299" s="40"/>
       <c r="AD299" s="40"/>
       <c r="AF299" s="40"/>
     </row>
@@ -22900,7 +23025,7 @@
       <c r="T300" s="23"/>
       <c r="U300" s="23"/>
       <c r="V300" s="23"/>
-      <c r="W300" s="23"/>
+      <c r="W300" s="40"/>
       <c r="X300" s="40"/>
       <c r="Y300" s="40"/>
       <c r="Z300" s="40"/>
@@ -22917,7 +23042,7 @@
       <c r="T301" s="23"/>
       <c r="U301" s="23"/>
       <c r="V301" s="23"/>
-      <c r="W301" s="40"/>
+      <c r="W301" s="23"/>
       <c r="X301" s="40"/>
       <c r="Y301" s="40"/>
       <c r="Z301" s="40"/>
@@ -22941,8 +23066,6 @@
       <c r="AA302" s="40"/>
       <c r="AB302" s="40"/>
       <c r="AC302" s="40"/>
-      <c r="AD302" s="40"/>
-      <c r="AF302" s="40"/>
     </row>
     <row r="303" spans="16:32" s="21" customFormat="1">
       <c r="Q303" s="23"/>
@@ -22966,7 +23089,7 @@
       <c r="T304" s="23"/>
       <c r="U304" s="23"/>
       <c r="V304" s="23"/>
-      <c r="W304" s="23"/>
+      <c r="W304" s="40"/>
       <c r="X304" s="40"/>
       <c r="Y304" s="40"/>
       <c r="Z304" s="40"/>
@@ -22981,7 +23104,7 @@
       <c r="T305" s="23"/>
       <c r="U305" s="23"/>
       <c r="V305" s="23"/>
-      <c r="W305" s="40"/>
+      <c r="W305" s="23"/>
       <c r="X305" s="40"/>
       <c r="Y305" s="40"/>
       <c r="Z305" s="40"/>
@@ -22990,13 +23113,14 @@
       <c r="AC305" s="40"/>
     </row>
     <row r="306" spans="16:29" s="21" customFormat="1">
+      <c r="P306" s="22"/>
       <c r="Q306" s="23"/>
       <c r="R306" s="23"/>
       <c r="S306" s="23"/>
       <c r="T306" s="23"/>
       <c r="U306" s="23"/>
       <c r="V306" s="23"/>
-      <c r="W306" s="23"/>
+      <c r="W306" s="40"/>
       <c r="X306" s="40"/>
       <c r="Y306" s="40"/>
       <c r="Z306" s="40"/>
@@ -23005,20 +23129,19 @@
       <c r="AC306" s="40"/>
     </row>
     <row r="307" spans="16:29" s="21" customFormat="1">
-      <c r="P307" s="22"/>
       <c r="Q307" s="23"/>
       <c r="R307" s="23"/>
       <c r="S307" s="23"/>
       <c r="T307" s="23"/>
       <c r="U307" s="23"/>
       <c r="V307" s="23"/>
-      <c r="W307" s="40"/>
+      <c r="W307" s="23"/>
       <c r="X307" s="40"/>
       <c r="Y307" s="40"/>
-      <c r="Z307" s="40"/>
-      <c r="AA307" s="40"/>
-      <c r="AB307" s="40"/>
-      <c r="AC307" s="40"/>
+      <c r="Z307" s="23"/>
+      <c r="AA307" s="23"/>
+      <c r="AB307" s="23"/>
+      <c r="AC307" s="23"/>
     </row>
     <row r="308" spans="16:29" s="21" customFormat="1">
       <c r="Q308" s="23"/>
@@ -23030,10 +23153,10 @@
       <c r="W308" s="23"/>
       <c r="X308" s="40"/>
       <c r="Y308" s="40"/>
-      <c r="Z308" s="23"/>
-      <c r="AA308" s="23"/>
-      <c r="AB308" s="23"/>
-      <c r="AC308" s="23"/>
+      <c r="Z308" s="40"/>
+      <c r="AA308" s="40"/>
+      <c r="AB308" s="40"/>
+      <c r="AC308" s="40"/>
     </row>
     <row r="309" spans="16:29" s="21" customFormat="1">
       <c r="Q309" s="23"/>
@@ -23087,7 +23210,7 @@
       <c r="T312" s="23"/>
       <c r="U312" s="23"/>
       <c r="V312" s="23"/>
-      <c r="W312" s="23"/>
+      <c r="W312" s="40"/>
       <c r="X312" s="40"/>
       <c r="Y312" s="40"/>
       <c r="Z312" s="40"/>
@@ -23102,7 +23225,7 @@
       <c r="T313" s="23"/>
       <c r="U313" s="23"/>
       <c r="V313" s="23"/>
-      <c r="W313" s="40"/>
+      <c r="W313" s="23"/>
       <c r="X313" s="40"/>
       <c r="Y313" s="40"/>
       <c r="Z313" s="40"/>
@@ -23117,7 +23240,7 @@
       <c r="T314" s="23"/>
       <c r="U314" s="23"/>
       <c r="V314" s="23"/>
-      <c r="W314" s="23"/>
+      <c r="W314" s="40"/>
       <c r="X314" s="40"/>
       <c r="Y314" s="40"/>
       <c r="Z314" s="40"/>
@@ -23132,31 +23255,31 @@
       <c r="T315" s="23"/>
       <c r="U315" s="23"/>
       <c r="V315" s="23"/>
-      <c r="W315" s="40"/>
+      <c r="W315" s="23"/>
       <c r="X315" s="40"/>
       <c r="Y315" s="40"/>
-      <c r="Z315" s="40"/>
-      <c r="AA315" s="40"/>
-      <c r="AB315" s="40"/>
-      <c r="AC315" s="40"/>
+      <c r="Z315" s="23"/>
+      <c r="AA315" s="23"/>
+      <c r="AB315" s="23"/>
+      <c r="AC315" s="23"/>
     </row>
     <row r="316" spans="16:29" s="21" customFormat="1">
+      <c r="P316" s="22"/>
       <c r="Q316" s="23"/>
       <c r="R316" s="23"/>
       <c r="S316" s="23"/>
       <c r="T316" s="23"/>
       <c r="U316" s="23"/>
       <c r="V316" s="23"/>
-      <c r="W316" s="23"/>
+      <c r="W316" s="40"/>
       <c r="X316" s="40"/>
       <c r="Y316" s="40"/>
-      <c r="Z316" s="23"/>
-      <c r="AA316" s="23"/>
-      <c r="AB316" s="23"/>
-      <c r="AC316" s="23"/>
+      <c r="Z316" s="40"/>
+      <c r="AA316" s="40"/>
+      <c r="AB316" s="40"/>
+      <c r="AC316" s="40"/>
     </row>
     <row r="317" spans="16:29" s="21" customFormat="1">
-      <c r="P317" s="22"/>
       <c r="Q317" s="23"/>
       <c r="R317" s="23"/>
       <c r="S317" s="23"/>
@@ -23178,13 +23301,13 @@
       <c r="T318" s="23"/>
       <c r="U318" s="23"/>
       <c r="V318" s="23"/>
-      <c r="W318" s="40"/>
+      <c r="W318" s="23"/>
       <c r="X318" s="40"/>
       <c r="Y318" s="40"/>
-      <c r="Z318" s="40"/>
-      <c r="AA318" s="40"/>
-      <c r="AB318" s="40"/>
-      <c r="AC318" s="40"/>
+      <c r="Z318" s="23"/>
+      <c r="AA318" s="23"/>
+      <c r="AB318" s="23"/>
+      <c r="AC318" s="23"/>
     </row>
     <row r="319" spans="16:29" s="21" customFormat="1">
       <c r="Q319" s="23"/>
@@ -23196,10 +23319,10 @@
       <c r="W319" s="23"/>
       <c r="X319" s="40"/>
       <c r="Y319" s="40"/>
-      <c r="Z319" s="23"/>
-      <c r="AA319" s="23"/>
-      <c r="AB319" s="23"/>
-      <c r="AC319" s="23"/>
+      <c r="Z319" s="40"/>
+      <c r="AA319" s="40"/>
+      <c r="AB319" s="40"/>
+      <c r="AC319" s="40"/>
     </row>
     <row r="320" spans="16:29" s="21" customFormat="1">
       <c r="Q320" s="23"/>
@@ -23208,7 +23331,7 @@
       <c r="T320" s="23"/>
       <c r="U320" s="23"/>
       <c r="V320" s="23"/>
-      <c r="W320" s="23"/>
+      <c r="W320" s="40"/>
       <c r="X320" s="40"/>
       <c r="Y320" s="40"/>
       <c r="Z320" s="40"/>
@@ -23223,7 +23346,7 @@
       <c r="T321" s="23"/>
       <c r="U321" s="23"/>
       <c r="V321" s="23"/>
-      <c r="W321" s="40"/>
+      <c r="W321" s="23"/>
       <c r="X321" s="40"/>
       <c r="Y321" s="40"/>
       <c r="Z321" s="40"/>
@@ -23238,7 +23361,7 @@
       <c r="T322" s="23"/>
       <c r="U322" s="23"/>
       <c r="V322" s="23"/>
-      <c r="W322" s="23"/>
+      <c r="W322" s="40"/>
       <c r="X322" s="40"/>
       <c r="Y322" s="40"/>
       <c r="Z322" s="40"/>
@@ -23247,6 +23370,7 @@
       <c r="AC322" s="40"/>
     </row>
     <row r="323" spans="16:29" s="21" customFormat="1">
+      <c r="P323" s="22"/>
       <c r="Q323" s="23"/>
       <c r="R323" s="23"/>
       <c r="S323" s="23"/>
@@ -23262,7 +23386,6 @@
       <c r="AC323" s="40"/>
     </row>
     <row r="324" spans="16:29" s="21" customFormat="1">
-      <c r="P324" s="22"/>
       <c r="Q324" s="23"/>
       <c r="R324" s="23"/>
       <c r="S324" s="23"/>
@@ -23299,7 +23422,7 @@
       <c r="T326" s="23"/>
       <c r="U326" s="23"/>
       <c r="V326" s="23"/>
-      <c r="W326" s="40"/>
+      <c r="W326" s="23"/>
       <c r="X326" s="40"/>
       <c r="Y326" s="40"/>
       <c r="Z326" s="40"/>
@@ -23353,13 +23476,13 @@
       <c r="AC329" s="40"/>
     </row>
     <row r="330" spans="16:29" s="21" customFormat="1">
-      <c r="Q330" s="23"/>
-      <c r="R330" s="23"/>
-      <c r="S330" s="23"/>
-      <c r="T330" s="23"/>
-      <c r="U330" s="23"/>
-      <c r="V330" s="23"/>
-      <c r="W330" s="23"/>
+      <c r="Q330" s="40"/>
+      <c r="R330" s="40"/>
+      <c r="S330" s="40"/>
+      <c r="T330" s="40"/>
+      <c r="U330" s="40"/>
+      <c r="V330" s="40"/>
+      <c r="W330" s="40"/>
       <c r="X330" s="40"/>
       <c r="Y330" s="40"/>
       <c r="Z330" s="40"/>
@@ -23368,13 +23491,13 @@
       <c r="AC330" s="40"/>
     </row>
     <row r="331" spans="16:29" s="21" customFormat="1">
-      <c r="Q331" s="40"/>
-      <c r="R331" s="40"/>
-      <c r="S331" s="40"/>
-      <c r="T331" s="40"/>
-      <c r="U331" s="40"/>
-      <c r="V331" s="40"/>
-      <c r="W331" s="40"/>
+      <c r="Q331" s="23"/>
+      <c r="R331" s="23"/>
+      <c r="S331" s="23"/>
+      <c r="T331" s="23"/>
+      <c r="U331" s="23"/>
+      <c r="V331" s="23"/>
+      <c r="W331" s="23"/>
       <c r="X331" s="40"/>
       <c r="Y331" s="40"/>
       <c r="Z331" s="40"/>
@@ -23383,13 +23506,13 @@
       <c r="AC331" s="40"/>
     </row>
     <row r="332" spans="16:29" s="21" customFormat="1">
-      <c r="Q332" s="23"/>
-      <c r="R332" s="23"/>
-      <c r="S332" s="23"/>
-      <c r="T332" s="23"/>
-      <c r="U332" s="23"/>
-      <c r="V332" s="23"/>
-      <c r="W332" s="23"/>
+      <c r="Q332" s="40"/>
+      <c r="R332" s="40"/>
+      <c r="S332" s="40"/>
+      <c r="T332" s="40"/>
+      <c r="U332" s="40"/>
+      <c r="V332" s="40"/>
+      <c r="W332" s="40"/>
       <c r="X332" s="40"/>
       <c r="Y332" s="40"/>
       <c r="Z332" s="40"/>
@@ -23398,12 +23521,12 @@
       <c r="AC332" s="40"/>
     </row>
     <row r="333" spans="16:29" s="21" customFormat="1">
-      <c r="Q333" s="40"/>
-      <c r="R333" s="40"/>
-      <c r="S333" s="40"/>
-      <c r="T333" s="40"/>
-      <c r="U333" s="40"/>
-      <c r="V333" s="40"/>
+      <c r="Q333" s="23"/>
+      <c r="R333" s="23"/>
+      <c r="S333" s="23"/>
+      <c r="T333" s="23"/>
+      <c r="U333" s="23"/>
+      <c r="V333" s="23"/>
       <c r="W333" s="40"/>
       <c r="X333" s="40"/>
       <c r="Y333" s="40"/>
@@ -23419,13 +23542,13 @@
       <c r="T334" s="23"/>
       <c r="U334" s="23"/>
       <c r="V334" s="23"/>
-      <c r="W334" s="40"/>
+      <c r="W334" s="23"/>
       <c r="X334" s="40"/>
       <c r="Y334" s="40"/>
-      <c r="Z334" s="40"/>
-      <c r="AA334" s="40"/>
-      <c r="AB334" s="40"/>
-      <c r="AC334" s="40"/>
+      <c r="Z334" s="23"/>
+      <c r="AA334" s="23"/>
+      <c r="AB334" s="23"/>
+      <c r="AC334" s="23"/>
     </row>
     <row r="335" spans="16:29" s="21" customFormat="1">
       <c r="Q335" s="23"/>
@@ -23437,10 +23560,10 @@
       <c r="W335" s="23"/>
       <c r="X335" s="40"/>
       <c r="Y335" s="40"/>
-      <c r="Z335" s="23"/>
-      <c r="AA335" s="23"/>
-      <c r="AB335" s="23"/>
-      <c r="AC335" s="23"/>
+      <c r="Z335" s="40"/>
+      <c r="AA335" s="40"/>
+      <c r="AB335" s="40"/>
+      <c r="AC335" s="40"/>
     </row>
     <row r="336" spans="16:29" s="21" customFormat="1">
       <c r="Q336" s="23"/>
@@ -23449,7 +23572,7 @@
       <c r="T336" s="23"/>
       <c r="U336" s="23"/>
       <c r="V336" s="23"/>
-      <c r="W336" s="23"/>
+      <c r="W336" s="40"/>
       <c r="X336" s="40"/>
       <c r="Y336" s="40"/>
       <c r="Z336" s="40"/>
@@ -23458,13 +23581,14 @@
       <c r="AC336" s="40"/>
     </row>
     <row r="337" spans="16:29" s="21" customFormat="1">
+      <c r="P337" s="22"/>
       <c r="Q337" s="23"/>
       <c r="R337" s="23"/>
       <c r="S337" s="23"/>
       <c r="T337" s="23"/>
       <c r="U337" s="23"/>
       <c r="V337" s="23"/>
-      <c r="W337" s="40"/>
+      <c r="W337" s="23"/>
       <c r="X337" s="40"/>
       <c r="Y337" s="40"/>
       <c r="Z337" s="40"/>
@@ -23480,7 +23604,7 @@
       <c r="T338" s="23"/>
       <c r="U338" s="23"/>
       <c r="V338" s="23"/>
-      <c r="W338" s="23"/>
+      <c r="W338" s="40"/>
       <c r="X338" s="40"/>
       <c r="Y338" s="40"/>
       <c r="Z338" s="40"/>
@@ -23505,20 +23629,19 @@
       <c r="AC339" s="40"/>
     </row>
     <row r="340" spans="16:29" s="21" customFormat="1">
-      <c r="P340" s="22"/>
       <c r="Q340" s="23"/>
       <c r="R340" s="23"/>
       <c r="S340" s="23"/>
       <c r="T340" s="23"/>
       <c r="U340" s="23"/>
       <c r="V340" s="23"/>
-      <c r="W340" s="40"/>
+      <c r="W340" s="23"/>
       <c r="X340" s="40"/>
       <c r="Y340" s="40"/>
-      <c r="Z340" s="40"/>
-      <c r="AA340" s="40"/>
-      <c r="AB340" s="40"/>
-      <c r="AC340" s="40"/>
+      <c r="Z340" s="23"/>
+      <c r="AA340" s="23"/>
+      <c r="AB340" s="23"/>
+      <c r="AC340" s="23"/>
     </row>
     <row r="341" spans="16:29" s="21" customFormat="1">
       <c r="Q341" s="23"/>
@@ -23530,10 +23653,10 @@
       <c r="W341" s="23"/>
       <c r="X341" s="40"/>
       <c r="Y341" s="40"/>
-      <c r="Z341" s="23"/>
-      <c r="AA341" s="23"/>
-      <c r="AB341" s="23"/>
-      <c r="AC341" s="23"/>
+      <c r="Z341" s="40"/>
+      <c r="AA341" s="40"/>
+      <c r="AB341" s="40"/>
+      <c r="AC341" s="40"/>
     </row>
     <row r="342" spans="16:29" s="21" customFormat="1">
       <c r="Q342" s="23"/>
@@ -23572,7 +23695,7 @@
       <c r="T344" s="23"/>
       <c r="U344" s="23"/>
       <c r="V344" s="23"/>
-      <c r="W344" s="23"/>
+      <c r="W344" s="40"/>
       <c r="X344" s="40"/>
       <c r="Y344" s="40"/>
       <c r="Z344" s="40"/>
@@ -23587,7 +23710,7 @@
       <c r="T345" s="23"/>
       <c r="U345" s="23"/>
       <c r="V345" s="23"/>
-      <c r="W345" s="40"/>
+      <c r="W345" s="23"/>
       <c r="X345" s="40"/>
       <c r="Y345" s="40"/>
       <c r="Z345" s="40"/>
@@ -23602,7 +23725,7 @@
       <c r="T346" s="23"/>
       <c r="U346" s="23"/>
       <c r="V346" s="23"/>
-      <c r="W346" s="23"/>
+      <c r="W346" s="40"/>
       <c r="X346" s="40"/>
       <c r="Y346" s="40"/>
       <c r="Z346" s="40"/>
@@ -23647,7 +23770,7 @@
       <c r="T349" s="23"/>
       <c r="U349" s="23"/>
       <c r="V349" s="23"/>
-      <c r="W349" s="40"/>
+      <c r="W349" s="23"/>
       <c r="X349" s="40"/>
       <c r="Y349" s="40"/>
       <c r="Z349" s="40"/>
@@ -23671,13 +23794,13 @@
       <c r="AC350" s="40"/>
     </row>
     <row r="351" spans="16:29" s="21" customFormat="1">
-      <c r="Q351" s="23"/>
-      <c r="R351" s="23"/>
-      <c r="S351" s="23"/>
-      <c r="T351" s="23"/>
-      <c r="U351" s="23"/>
-      <c r="V351" s="23"/>
-      <c r="W351" s="23"/>
+      <c r="Q351" s="40"/>
+      <c r="R351" s="40"/>
+      <c r="S351" s="40"/>
+      <c r="T351" s="40"/>
+      <c r="U351" s="40"/>
+      <c r="V351" s="40"/>
+      <c r="W351" s="40"/>
       <c r="X351" s="40"/>
       <c r="Y351" s="40"/>
       <c r="Z351" s="40"/>
@@ -23686,13 +23809,13 @@
       <c r="AC351" s="40"/>
     </row>
     <row r="352" spans="16:29" s="21" customFormat="1">
-      <c r="Q352" s="40"/>
-      <c r="R352" s="40"/>
-      <c r="S352" s="40"/>
-      <c r="T352" s="40"/>
-      <c r="U352" s="40"/>
-      <c r="V352" s="40"/>
-      <c r="W352" s="40"/>
+      <c r="Q352" s="23"/>
+      <c r="R352" s="23"/>
+      <c r="S352" s="23"/>
+      <c r="T352" s="23"/>
+      <c r="U352" s="23"/>
+      <c r="V352" s="23"/>
+      <c r="W352" s="23"/>
       <c r="X352" s="40"/>
       <c r="Y352" s="40"/>
       <c r="Z352" s="40"/>
@@ -23701,13 +23824,13 @@
       <c r="AC352" s="40"/>
     </row>
     <row r="353" spans="17:29" s="21" customFormat="1">
-      <c r="Q353" s="23"/>
-      <c r="R353" s="23"/>
-      <c r="S353" s="23"/>
-      <c r="T353" s="23"/>
-      <c r="U353" s="23"/>
-      <c r="V353" s="23"/>
-      <c r="W353" s="23"/>
+      <c r="Q353" s="40"/>
+      <c r="R353" s="40"/>
+      <c r="S353" s="40"/>
+      <c r="T353" s="40"/>
+      <c r="U353" s="40"/>
+      <c r="V353" s="40"/>
+      <c r="W353" s="40"/>
       <c r="X353" s="40"/>
       <c r="Y353" s="40"/>
       <c r="Z353" s="40"/>
@@ -23716,12 +23839,12 @@
       <c r="AC353" s="40"/>
     </row>
     <row r="354" spans="17:29" s="21" customFormat="1">
-      <c r="Q354" s="40"/>
-      <c r="R354" s="40"/>
-      <c r="S354" s="40"/>
-      <c r="T354" s="40"/>
-      <c r="U354" s="40"/>
-      <c r="V354" s="40"/>
+      <c r="Q354" s="23"/>
+      <c r="R354" s="23"/>
+      <c r="S354" s="23"/>
+      <c r="T354" s="23"/>
+      <c r="U354" s="23"/>
+      <c r="V354" s="23"/>
       <c r="W354" s="40"/>
       <c r="X354" s="40"/>
       <c r="Y354" s="40"/>
@@ -23737,13 +23860,13 @@
       <c r="T355" s="23"/>
       <c r="U355" s="23"/>
       <c r="V355" s="23"/>
-      <c r="W355" s="40"/>
+      <c r="W355" s="23"/>
       <c r="X355" s="40"/>
       <c r="Y355" s="40"/>
-      <c r="Z355" s="40"/>
-      <c r="AA355" s="40"/>
-      <c r="AB355" s="40"/>
-      <c r="AC355" s="40"/>
+      <c r="Z355" s="23"/>
+      <c r="AA355" s="23"/>
+      <c r="AB355" s="23"/>
+      <c r="AC355" s="23"/>
     </row>
     <row r="356" spans="17:29" s="21" customFormat="1">
       <c r="Q356" s="23"/>
@@ -23752,13 +23875,13 @@
       <c r="T356" s="23"/>
       <c r="U356" s="23"/>
       <c r="V356" s="23"/>
-      <c r="W356" s="23"/>
+      <c r="W356" s="40"/>
       <c r="X356" s="40"/>
       <c r="Y356" s="40"/>
-      <c r="Z356" s="23"/>
-      <c r="AA356" s="23"/>
-      <c r="AB356" s="23"/>
-      <c r="AC356" s="23"/>
+      <c r="Z356" s="40"/>
+      <c r="AA356" s="40"/>
+      <c r="AB356" s="40"/>
+      <c r="AC356" s="40"/>
     </row>
     <row r="357" spans="17:29" s="21" customFormat="1">
       <c r="Q357" s="23"/>
@@ -23767,7 +23890,7 @@
       <c r="T357" s="23"/>
       <c r="U357" s="23"/>
       <c r="V357" s="23"/>
-      <c r="W357" s="40"/>
+      <c r="W357" s="23"/>
       <c r="X357" s="40"/>
       <c r="Y357" s="40"/>
       <c r="Z357" s="40"/>
@@ -23785,10 +23908,10 @@
       <c r="W358" s="23"/>
       <c r="X358" s="40"/>
       <c r="Y358" s="40"/>
-      <c r="Z358" s="40"/>
-      <c r="AA358" s="40"/>
-      <c r="AB358" s="40"/>
-      <c r="AC358" s="40"/>
+      <c r="Z358" s="23"/>
+      <c r="AA358" s="23"/>
+      <c r="AB358" s="23"/>
+      <c r="AC358" s="23"/>
     </row>
     <row r="359" spans="17:29" s="21" customFormat="1">
       <c r="Q359" s="23"/>
@@ -23797,13 +23920,13 @@
       <c r="T359" s="23"/>
       <c r="U359" s="23"/>
       <c r="V359" s="23"/>
-      <c r="W359" s="23"/>
+      <c r="W359" s="40"/>
       <c r="X359" s="40"/>
       <c r="Y359" s="40"/>
-      <c r="Z359" s="23"/>
-      <c r="AA359" s="23"/>
-      <c r="AB359" s="23"/>
-      <c r="AC359" s="23"/>
+      <c r="Z359" s="40"/>
+      <c r="AA359" s="40"/>
+      <c r="AB359" s="40"/>
+      <c r="AC359" s="40"/>
     </row>
     <row r="360" spans="17:29" s="21" customFormat="1">
       <c r="Q360" s="23"/>
@@ -23842,7 +23965,7 @@
       <c r="T362" s="23"/>
       <c r="U362" s="23"/>
       <c r="V362" s="23"/>
-      <c r="W362" s="40"/>
+      <c r="W362" s="23"/>
       <c r="X362" s="40"/>
       <c r="Y362" s="40"/>
       <c r="Z362" s="40"/>
@@ -23857,7 +23980,7 @@
       <c r="T363" s="23"/>
       <c r="U363" s="23"/>
       <c r="V363" s="23"/>
-      <c r="W363" s="23"/>
+      <c r="W363" s="40"/>
       <c r="X363" s="40"/>
       <c r="Y363" s="40"/>
       <c r="Z363" s="40"/>
@@ -23866,12 +23989,12 @@
       <c r="AC363" s="40"/>
     </row>
     <row r="364" spans="17:29" s="21" customFormat="1">
-      <c r="Q364" s="23"/>
-      <c r="R364" s="23"/>
-      <c r="S364" s="23"/>
-      <c r="T364" s="23"/>
-      <c r="U364" s="23"/>
-      <c r="V364" s="23"/>
+      <c r="Q364" s="40"/>
+      <c r="R364" s="40"/>
+      <c r="S364" s="40"/>
+      <c r="T364" s="40"/>
+      <c r="U364" s="40"/>
+      <c r="V364" s="40"/>
       <c r="W364" s="40"/>
       <c r="X364" s="40"/>
       <c r="Y364" s="40"/>
@@ -23881,12 +24004,12 @@
       <c r="AC364" s="40"/>
     </row>
     <row r="365" spans="17:29" s="21" customFormat="1">
-      <c r="Q365" s="40"/>
-      <c r="R365" s="40"/>
-      <c r="S365" s="40"/>
-      <c r="T365" s="40"/>
-      <c r="U365" s="40"/>
-      <c r="V365" s="40"/>
+      <c r="Q365" s="23"/>
+      <c r="R365" s="23"/>
+      <c r="S365" s="23"/>
+      <c r="T365" s="23"/>
+      <c r="U365" s="23"/>
+      <c r="V365" s="23"/>
       <c r="W365" s="40"/>
       <c r="X365" s="40"/>
       <c r="Y365" s="40"/>
@@ -23917,13 +24040,13 @@
       <c r="T367" s="23"/>
       <c r="U367" s="23"/>
       <c r="V367" s="23"/>
-      <c r="W367" s="40"/>
+      <c r="W367" s="23"/>
       <c r="X367" s="40"/>
       <c r="Y367" s="40"/>
-      <c r="Z367" s="40"/>
-      <c r="AA367" s="40"/>
-      <c r="AB367" s="40"/>
-      <c r="AC367" s="40"/>
+      <c r="Z367" s="23"/>
+      <c r="AA367" s="23"/>
+      <c r="AB367" s="23"/>
+      <c r="AC367" s="23"/>
     </row>
     <row r="368" spans="17:29" s="21" customFormat="1">
       <c r="Q368" s="23"/>
@@ -23932,13 +24055,13 @@
       <c r="T368" s="23"/>
       <c r="U368" s="23"/>
       <c r="V368" s="23"/>
-      <c r="W368" s="23"/>
+      <c r="W368" s="40"/>
       <c r="X368" s="40"/>
       <c r="Y368" s="40"/>
-      <c r="Z368" s="23"/>
-      <c r="AA368" s="23"/>
-      <c r="AB368" s="23"/>
-      <c r="AC368" s="23"/>
+      <c r="Z368" s="40"/>
+      <c r="AA368" s="40"/>
+      <c r="AB368" s="40"/>
+      <c r="AC368" s="40"/>
     </row>
     <row r="369" spans="17:29" s="21" customFormat="1">
       <c r="Q369" s="23"/>
@@ -23947,7 +24070,7 @@
       <c r="T369" s="23"/>
       <c r="U369" s="23"/>
       <c r="V369" s="23"/>
-      <c r="W369" s="40"/>
+      <c r="W369" s="23"/>
       <c r="X369" s="40"/>
       <c r="Y369" s="40"/>
       <c r="Z369" s="40"/>
@@ -24022,7 +24145,7 @@
       <c r="T374" s="23"/>
       <c r="U374" s="23"/>
       <c r="V374" s="23"/>
-      <c r="W374" s="23"/>
+      <c r="W374" s="40"/>
       <c r="X374" s="40"/>
       <c r="Y374" s="40"/>
       <c r="Z374" s="40"/>
@@ -24031,12 +24154,12 @@
       <c r="AC374" s="40"/>
     </row>
     <row r="375" spans="17:29" s="21" customFormat="1">
-      <c r="Q375" s="23"/>
-      <c r="R375" s="23"/>
-      <c r="S375" s="23"/>
-      <c r="T375" s="23"/>
-      <c r="U375" s="23"/>
-      <c r="V375" s="23"/>
+      <c r="Q375" s="40"/>
+      <c r="R375" s="40"/>
+      <c r="S375" s="40"/>
+      <c r="T375" s="40"/>
+      <c r="U375" s="40"/>
+      <c r="V375" s="40"/>
       <c r="W375" s="40"/>
       <c r="X375" s="40"/>
       <c r="Y375" s="40"/>
@@ -24046,13 +24169,13 @@
       <c r="AC375" s="40"/>
     </row>
     <row r="376" spans="17:29" s="21" customFormat="1">
-      <c r="Q376" s="40"/>
-      <c r="R376" s="40"/>
-      <c r="S376" s="40"/>
-      <c r="T376" s="40"/>
-      <c r="U376" s="40"/>
-      <c r="V376" s="40"/>
-      <c r="W376" s="40"/>
+      <c r="Q376" s="23"/>
+      <c r="R376" s="23"/>
+      <c r="S376" s="23"/>
+      <c r="T376" s="23"/>
+      <c r="U376" s="23"/>
+      <c r="V376" s="23"/>
+      <c r="W376" s="23"/>
       <c r="X376" s="40"/>
       <c r="Y376" s="40"/>
       <c r="Z376" s="40"/>
@@ -24097,7 +24220,7 @@
       <c r="T379" s="23"/>
       <c r="U379" s="23"/>
       <c r="V379" s="23"/>
-      <c r="W379" s="23"/>
+      <c r="W379" s="40"/>
       <c r="X379" s="40"/>
       <c r="Y379" s="40"/>
       <c r="Z379" s="40"/>
@@ -24127,7 +24250,7 @@
       <c r="T381" s="23"/>
       <c r="U381" s="23"/>
       <c r="V381" s="23"/>
-      <c r="W381" s="40"/>
+      <c r="W381" s="23"/>
       <c r="X381" s="40"/>
       <c r="Y381" s="40"/>
       <c r="Z381" s="40"/>
@@ -24142,7 +24265,7 @@
       <c r="T382" s="23"/>
       <c r="U382" s="23"/>
       <c r="V382" s="23"/>
-      <c r="W382" s="23"/>
+      <c r="W382" s="40"/>
       <c r="X382" s="40"/>
       <c r="Y382" s="40"/>
       <c r="Z382" s="40"/>
@@ -24202,7 +24325,7 @@
       <c r="T386" s="23"/>
       <c r="U386" s="23"/>
       <c r="V386" s="23"/>
-      <c r="W386" s="40"/>
+      <c r="W386" s="23"/>
       <c r="X386" s="40"/>
       <c r="Y386" s="40"/>
       <c r="Z386" s="40"/>
@@ -24217,7 +24340,7 @@
       <c r="T387" s="23"/>
       <c r="U387" s="23"/>
       <c r="V387" s="23"/>
-      <c r="W387" s="23"/>
+      <c r="W387" s="40"/>
       <c r="X387" s="40"/>
       <c r="Y387" s="40"/>
       <c r="Z387" s="40"/>
@@ -24262,7 +24385,7 @@
       <c r="T390" s="23"/>
       <c r="U390" s="23"/>
       <c r="V390" s="23"/>
-      <c r="W390" s="40"/>
+      <c r="W390" s="23"/>
       <c r="X390" s="40"/>
       <c r="Y390" s="40"/>
       <c r="Z390" s="40"/>
@@ -24286,13 +24409,13 @@
       <c r="AC391" s="40"/>
     </row>
     <row r="392" spans="17:29" s="21" customFormat="1">
-      <c r="Q392" s="23"/>
-      <c r="R392" s="23"/>
-      <c r="S392" s="23"/>
-      <c r="T392" s="23"/>
-      <c r="U392" s="23"/>
-      <c r="V392" s="23"/>
-      <c r="W392" s="23"/>
+      <c r="Q392" s="40"/>
+      <c r="R392" s="40"/>
+      <c r="S392" s="40"/>
+      <c r="T392" s="40"/>
+      <c r="U392" s="40"/>
+      <c r="V392" s="40"/>
+      <c r="W392" s="40"/>
       <c r="X392" s="40"/>
       <c r="Y392" s="40"/>
       <c r="Z392" s="40"/>
@@ -24301,12 +24424,12 @@
       <c r="AC392" s="40"/>
     </row>
     <row r="393" spans="17:29" s="21" customFormat="1">
-      <c r="Q393" s="40"/>
-      <c r="R393" s="40"/>
-      <c r="S393" s="40"/>
-      <c r="T393" s="40"/>
-      <c r="U393" s="40"/>
-      <c r="V393" s="40"/>
+      <c r="Q393" s="23"/>
+      <c r="R393" s="23"/>
+      <c r="S393" s="23"/>
+      <c r="T393" s="23"/>
+      <c r="U393" s="23"/>
+      <c r="V393" s="23"/>
       <c r="W393" s="40"/>
       <c r="X393" s="40"/>
       <c r="Y393" s="40"/>
@@ -24322,13 +24445,13 @@
       <c r="T394" s="23"/>
       <c r="U394" s="23"/>
       <c r="V394" s="23"/>
-      <c r="W394" s="40"/>
+      <c r="W394" s="23"/>
       <c r="X394" s="40"/>
       <c r="Y394" s="40"/>
-      <c r="Z394" s="40"/>
-      <c r="AA394" s="40"/>
-      <c r="AB394" s="40"/>
-      <c r="AC394" s="40"/>
+      <c r="Z394" s="23"/>
+      <c r="AA394" s="23"/>
+      <c r="AB394" s="23"/>
+      <c r="AC394" s="23"/>
     </row>
     <row r="395" spans="17:29" s="21" customFormat="1">
       <c r="Q395" s="23"/>
@@ -24352,13 +24475,13 @@
       <c r="T396" s="23"/>
       <c r="U396" s="23"/>
       <c r="V396" s="23"/>
-      <c r="W396" s="23"/>
+      <c r="W396" s="40"/>
       <c r="X396" s="40"/>
       <c r="Y396" s="40"/>
-      <c r="Z396" s="23"/>
-      <c r="AA396" s="23"/>
-      <c r="AB396" s="23"/>
-      <c r="AC396" s="23"/>
+      <c r="Z396" s="40"/>
+      <c r="AA396" s="40"/>
+      <c r="AB396" s="40"/>
+      <c r="AC396" s="40"/>
     </row>
     <row r="397" spans="17:29" s="21" customFormat="1">
       <c r="Q397" s="23"/>
@@ -24367,7 +24490,7 @@
       <c r="T397" s="23"/>
       <c r="U397" s="23"/>
       <c r="V397" s="23"/>
-      <c r="W397" s="40"/>
+      <c r="W397" s="23"/>
       <c r="X397" s="40"/>
       <c r="Y397" s="40"/>
       <c r="Z397" s="40"/>
@@ -24412,7 +24535,7 @@
       <c r="T400" s="23"/>
       <c r="U400" s="23"/>
       <c r="V400" s="23"/>
-      <c r="W400" s="23"/>
+      <c r="W400" s="40"/>
       <c r="X400" s="40"/>
       <c r="Y400" s="40"/>
       <c r="Z400" s="40"/>
@@ -24427,7 +24550,7 @@
       <c r="T401" s="23"/>
       <c r="U401" s="23"/>
       <c r="V401" s="23"/>
-      <c r="W401" s="40"/>
+      <c r="W401" s="23"/>
       <c r="X401" s="40"/>
       <c r="Y401" s="40"/>
       <c r="Z401" s="40"/>
@@ -24457,7 +24580,7 @@
       <c r="T403" s="23"/>
       <c r="U403" s="23"/>
       <c r="V403" s="23"/>
-      <c r="W403" s="23"/>
+      <c r="W403" s="40"/>
       <c r="X403" s="40"/>
       <c r="Y403" s="40"/>
       <c r="Z403" s="40"/>
@@ -24502,7 +24625,7 @@
       <c r="T406" s="23"/>
       <c r="U406" s="23"/>
       <c r="V406" s="23"/>
-      <c r="W406" s="40"/>
+      <c r="W406" s="23"/>
       <c r="X406" s="40"/>
       <c r="Y406" s="40"/>
       <c r="Z406" s="40"/>
@@ -24526,13 +24649,13 @@
       <c r="AC407" s="40"/>
     </row>
     <row r="408" spans="17:29" s="21" customFormat="1">
-      <c r="Q408" s="23"/>
-      <c r="R408" s="23"/>
-      <c r="S408" s="23"/>
-      <c r="T408" s="23"/>
-      <c r="U408" s="23"/>
-      <c r="V408" s="23"/>
-      <c r="W408" s="23"/>
+      <c r="Q408" s="40"/>
+      <c r="R408" s="40"/>
+      <c r="S408" s="40"/>
+      <c r="T408" s="40"/>
+      <c r="U408" s="40"/>
+      <c r="V408" s="40"/>
+      <c r="W408" s="40"/>
       <c r="X408" s="40"/>
       <c r="Y408" s="40"/>
       <c r="Z408" s="40"/>
@@ -24541,12 +24664,12 @@
       <c r="AC408" s="40"/>
     </row>
     <row r="409" spans="17:29" s="21" customFormat="1">
-      <c r="Q409" s="40"/>
-      <c r="R409" s="40"/>
-      <c r="S409" s="40"/>
-      <c r="T409" s="40"/>
-      <c r="U409" s="40"/>
-      <c r="V409" s="40"/>
+      <c r="Q409" s="23"/>
+      <c r="R409" s="23"/>
+      <c r="S409" s="23"/>
+      <c r="T409" s="23"/>
+      <c r="U409" s="23"/>
+      <c r="V409" s="23"/>
       <c r="W409" s="40"/>
       <c r="X409" s="40"/>
       <c r="Y409" s="40"/>
@@ -24562,13 +24685,13 @@
       <c r="T410" s="23"/>
       <c r="U410" s="23"/>
       <c r="V410" s="23"/>
-      <c r="W410" s="40"/>
+      <c r="W410" s="23"/>
       <c r="X410" s="40"/>
       <c r="Y410" s="40"/>
-      <c r="Z410" s="40"/>
-      <c r="AA410" s="40"/>
-      <c r="AB410" s="40"/>
-      <c r="AC410" s="40"/>
+      <c r="Z410" s="23"/>
+      <c r="AA410" s="23"/>
+      <c r="AB410" s="23"/>
+      <c r="AC410" s="23"/>
     </row>
     <row r="411" spans="17:29" s="21" customFormat="1">
       <c r="Q411" s="23"/>
@@ -24580,10 +24703,10 @@
       <c r="W411" s="23"/>
       <c r="X411" s="40"/>
       <c r="Y411" s="40"/>
-      <c r="Z411" s="23"/>
-      <c r="AA411" s="23"/>
-      <c r="AB411" s="23"/>
-      <c r="AC411" s="23"/>
+      <c r="Z411" s="40"/>
+      <c r="AA411" s="40"/>
+      <c r="AB411" s="40"/>
+      <c r="AC411" s="40"/>
     </row>
     <row r="412" spans="17:29" s="21" customFormat="1">
       <c r="Q412" s="23"/>
@@ -24622,7 +24745,7 @@
       <c r="T414" s="23"/>
       <c r="U414" s="23"/>
       <c r="V414" s="23"/>
-      <c r="W414" s="23"/>
+      <c r="W414" s="40"/>
       <c r="X414" s="40"/>
       <c r="Y414" s="40"/>
       <c r="Z414" s="40"/>
@@ -24652,13 +24775,13 @@
       <c r="T416" s="23"/>
       <c r="U416" s="23"/>
       <c r="V416" s="23"/>
-      <c r="W416" s="40"/>
+      <c r="W416" s="23"/>
       <c r="X416" s="40"/>
       <c r="Y416" s="40"/>
-      <c r="Z416" s="40"/>
-      <c r="AA416" s="40"/>
-      <c r="AB416" s="40"/>
-      <c r="AC416" s="40"/>
+      <c r="Z416" s="23"/>
+      <c r="AA416" s="23"/>
+      <c r="AB416" s="23"/>
+      <c r="AC416" s="23"/>
     </row>
     <row r="417" spans="17:29" s="21" customFormat="1">
       <c r="Q417" s="23"/>
@@ -24667,13 +24790,13 @@
       <c r="T417" s="23"/>
       <c r="U417" s="23"/>
       <c r="V417" s="23"/>
-      <c r="W417" s="23"/>
+      <c r="W417" s="40"/>
       <c r="X417" s="40"/>
       <c r="Y417" s="40"/>
-      <c r="Z417" s="23"/>
-      <c r="AA417" s="23"/>
-      <c r="AB417" s="23"/>
-      <c r="AC417" s="23"/>
+      <c r="Z417" s="40"/>
+      <c r="AA417" s="40"/>
+      <c r="AB417" s="40"/>
+      <c r="AC417" s="40"/>
     </row>
     <row r="418" spans="17:29" s="21" customFormat="1">
       <c r="Q418" s="23"/>
@@ -24682,7 +24805,7 @@
       <c r="T418" s="23"/>
       <c r="U418" s="23"/>
       <c r="V418" s="23"/>
-      <c r="W418" s="40"/>
+      <c r="W418" s="23"/>
       <c r="X418" s="40"/>
       <c r="Y418" s="40"/>
       <c r="Z418" s="40"/>
@@ -24697,7 +24820,7 @@
       <c r="T419" s="23"/>
       <c r="U419" s="23"/>
       <c r="V419" s="23"/>
-      <c r="W419" s="23"/>
+      <c r="W419" s="40"/>
       <c r="X419" s="40"/>
       <c r="Y419" s="40"/>
       <c r="Z419" s="40"/>
@@ -24742,7 +24865,7 @@
       <c r="T422" s="23"/>
       <c r="U422" s="23"/>
       <c r="V422" s="23"/>
-      <c r="W422" s="40"/>
+      <c r="W422" s="23"/>
       <c r="X422" s="40"/>
       <c r="Y422" s="40"/>
       <c r="Z422" s="40"/>
@@ -24772,7 +24895,7 @@
       <c r="T424" s="23"/>
       <c r="U424" s="23"/>
       <c r="V424" s="23"/>
-      <c r="W424" s="23"/>
+      <c r="W424" s="40"/>
       <c r="X424" s="40"/>
       <c r="Y424" s="40"/>
       <c r="Z424" s="40"/>
@@ -24817,7 +24940,7 @@
       <c r="T427" s="23"/>
       <c r="U427" s="23"/>
       <c r="V427" s="23"/>
-      <c r="W427" s="40"/>
+      <c r="W427" s="23"/>
       <c r="X427" s="40"/>
       <c r="Y427" s="40"/>
       <c r="Z427" s="40"/>
@@ -24841,13 +24964,13 @@
       <c r="AC428" s="40"/>
     </row>
     <row r="429" spans="17:29" s="21" customFormat="1">
-      <c r="Q429" s="23"/>
-      <c r="R429" s="23"/>
-      <c r="S429" s="23"/>
-      <c r="T429" s="23"/>
-      <c r="U429" s="23"/>
-      <c r="V429" s="23"/>
-      <c r="W429" s="23"/>
+      <c r="Q429" s="40"/>
+      <c r="R429" s="40"/>
+      <c r="S429" s="40"/>
+      <c r="T429" s="40"/>
+      <c r="U429" s="40"/>
+      <c r="V429" s="40"/>
+      <c r="W429" s="40"/>
       <c r="X429" s="40"/>
       <c r="Y429" s="40"/>
       <c r="Z429" s="40"/>
@@ -24856,12 +24979,12 @@
       <c r="AC429" s="40"/>
     </row>
     <row r="430" spans="17:29" s="21" customFormat="1">
-      <c r="Q430" s="40"/>
-      <c r="R430" s="40"/>
-      <c r="S430" s="40"/>
-      <c r="T430" s="40"/>
-      <c r="U430" s="40"/>
-      <c r="V430" s="40"/>
+      <c r="Q430" s="23"/>
+      <c r="R430" s="23"/>
+      <c r="S430" s="23"/>
+      <c r="T430" s="23"/>
+      <c r="U430" s="23"/>
+      <c r="V430" s="23"/>
       <c r="W430" s="40"/>
       <c r="X430" s="40"/>
       <c r="Y430" s="40"/>
@@ -24877,13 +25000,13 @@
       <c r="T431" s="23"/>
       <c r="U431" s="23"/>
       <c r="V431" s="23"/>
-      <c r="W431" s="40"/>
+      <c r="W431" s="23"/>
       <c r="X431" s="40"/>
       <c r="Y431" s="40"/>
-      <c r="Z431" s="40"/>
-      <c r="AA431" s="40"/>
-      <c r="AB431" s="40"/>
-      <c r="AC431" s="40"/>
+      <c r="Z431" s="23"/>
+      <c r="AA431" s="23"/>
+      <c r="AB431" s="23"/>
+      <c r="AC431" s="23"/>
     </row>
     <row r="432" spans="17:29" s="21" customFormat="1">
       <c r="Q432" s="23"/>
@@ -24892,13 +25015,13 @@
       <c r="T432" s="23"/>
       <c r="U432" s="23"/>
       <c r="V432" s="23"/>
-      <c r="W432" s="23"/>
+      <c r="W432" s="40"/>
       <c r="X432" s="40"/>
       <c r="Y432" s="40"/>
-      <c r="Z432" s="23"/>
-      <c r="AA432" s="23"/>
-      <c r="AB432" s="23"/>
-      <c r="AC432" s="23"/>
+      <c r="Z432" s="40"/>
+      <c r="AA432" s="40"/>
+      <c r="AB432" s="40"/>
+      <c r="AC432" s="40"/>
     </row>
     <row r="433" spans="17:29" s="21" customFormat="1">
       <c r="Q433" s="23"/>
@@ -24931,12 +25054,12 @@
       <c r="AC434" s="40"/>
     </row>
     <row r="435" spans="17:29" s="21" customFormat="1">
-      <c r="Q435" s="23"/>
-      <c r="R435" s="23"/>
-      <c r="S435" s="23"/>
-      <c r="T435" s="23"/>
-      <c r="U435" s="23"/>
-      <c r="V435" s="23"/>
+      <c r="Q435" s="40"/>
+      <c r="R435" s="40"/>
+      <c r="S435" s="40"/>
+      <c r="T435" s="40"/>
+      <c r="U435" s="40"/>
+      <c r="V435" s="40"/>
       <c r="W435" s="40"/>
       <c r="X435" s="40"/>
       <c r="Y435" s="40"/>
@@ -24946,13 +25069,13 @@
       <c r="AC435" s="40"/>
     </row>
     <row r="436" spans="17:29" s="21" customFormat="1">
-      <c r="Q436" s="40"/>
-      <c r="R436" s="40"/>
-      <c r="S436" s="40"/>
-      <c r="T436" s="40"/>
-      <c r="U436" s="40"/>
-      <c r="V436" s="40"/>
-      <c r="W436" s="40"/>
+      <c r="Q436" s="23"/>
+      <c r="R436" s="23"/>
+      <c r="S436" s="23"/>
+      <c r="T436" s="23"/>
+      <c r="U436" s="23"/>
+      <c r="V436" s="23"/>
+      <c r="W436" s="23"/>
       <c r="X436" s="40"/>
       <c r="Y436" s="40"/>
       <c r="Z436" s="40"/>
@@ -24961,13 +25084,13 @@
       <c r="AC436" s="40"/>
     </row>
     <row r="437" spans="17:29" s="21" customFormat="1">
-      <c r="Q437" s="23"/>
-      <c r="R437" s="23"/>
-      <c r="S437" s="23"/>
-      <c r="T437" s="23"/>
-      <c r="U437" s="23"/>
-      <c r="V437" s="23"/>
-      <c r="W437" s="23"/>
+      <c r="Q437" s="40"/>
+      <c r="R437" s="40"/>
+      <c r="S437" s="40"/>
+      <c r="T437" s="40"/>
+      <c r="U437" s="40"/>
+      <c r="V437" s="40"/>
+      <c r="W437" s="40"/>
       <c r="X437" s="40"/>
       <c r="Y437" s="40"/>
       <c r="Z437" s="40"/>
@@ -24976,13 +25099,13 @@
       <c r="AC437" s="40"/>
     </row>
     <row r="438" spans="17:29" s="21" customFormat="1">
-      <c r="Q438" s="40"/>
-      <c r="R438" s="40"/>
-      <c r="S438" s="40"/>
-      <c r="T438" s="40"/>
-      <c r="U438" s="40"/>
-      <c r="V438" s="40"/>
-      <c r="W438" s="40"/>
+      <c r="Q438" s="23"/>
+      <c r="R438" s="23"/>
+      <c r="S438" s="23"/>
+      <c r="T438" s="23"/>
+      <c r="U438" s="23"/>
+      <c r="V438" s="23"/>
+      <c r="W438" s="23"/>
       <c r="X438" s="40"/>
       <c r="Y438" s="40"/>
       <c r="Z438" s="40"/>
@@ -24991,13 +25114,13 @@
       <c r="AC438" s="40"/>
     </row>
     <row r="439" spans="17:29" s="21" customFormat="1">
-      <c r="Q439" s="23"/>
-      <c r="R439" s="23"/>
-      <c r="S439" s="23"/>
-      <c r="T439" s="23"/>
-      <c r="U439" s="23"/>
-      <c r="V439" s="23"/>
-      <c r="W439" s="23"/>
+      <c r="Q439" s="40"/>
+      <c r="R439" s="40"/>
+      <c r="S439" s="40"/>
+      <c r="T439" s="40"/>
+      <c r="U439" s="40"/>
+      <c r="V439" s="40"/>
+      <c r="W439" s="40"/>
       <c r="X439" s="40"/>
       <c r="Y439" s="40"/>
       <c r="Z439" s="40"/>
@@ -25006,12 +25129,12 @@
       <c r="AC439" s="40"/>
     </row>
     <row r="440" spans="17:29" s="21" customFormat="1">
-      <c r="Q440" s="40"/>
-      <c r="R440" s="40"/>
-      <c r="S440" s="40"/>
-      <c r="T440" s="40"/>
-      <c r="U440" s="40"/>
-      <c r="V440" s="40"/>
+      <c r="Q440" s="23"/>
+      <c r="R440" s="23"/>
+      <c r="S440" s="23"/>
+      <c r="T440" s="23"/>
+      <c r="U440" s="23"/>
+      <c r="V440" s="23"/>
       <c r="W440" s="40"/>
       <c r="X440" s="40"/>
       <c r="Y440" s="40"/>
@@ -25027,13 +25150,13 @@
       <c r="T441" s="23"/>
       <c r="U441" s="23"/>
       <c r="V441" s="23"/>
-      <c r="W441" s="40"/>
+      <c r="W441" s="23"/>
       <c r="X441" s="40"/>
       <c r="Y441" s="40"/>
-      <c r="Z441" s="40"/>
-      <c r="AA441" s="40"/>
-      <c r="AB441" s="40"/>
-      <c r="AC441" s="40"/>
+      <c r="Z441" s="23"/>
+      <c r="AA441" s="23"/>
+      <c r="AB441" s="23"/>
+      <c r="AC441" s="23"/>
     </row>
     <row r="442" spans="17:29" s="21" customFormat="1">
       <c r="Q442" s="23"/>
@@ -25042,13 +25165,13 @@
       <c r="T442" s="23"/>
       <c r="U442" s="23"/>
       <c r="V442" s="23"/>
-      <c r="W442" s="23"/>
+      <c r="W442" s="40"/>
       <c r="X442" s="40"/>
       <c r="Y442" s="40"/>
-      <c r="Z442" s="23"/>
-      <c r="AA442" s="23"/>
-      <c r="AB442" s="23"/>
-      <c r="AC442" s="23"/>
+      <c r="Z442" s="40"/>
+      <c r="AA442" s="40"/>
+      <c r="AB442" s="40"/>
+      <c r="AC442" s="40"/>
     </row>
     <row r="443" spans="17:29" s="21" customFormat="1">
       <c r="Q443" s="23"/>
@@ -25087,7 +25210,7 @@
       <c r="T445" s="23"/>
       <c r="U445" s="23"/>
       <c r="V445" s="23"/>
-      <c r="W445" s="40"/>
+      <c r="W445" s="23"/>
       <c r="X445" s="40"/>
       <c r="Y445" s="40"/>
       <c r="Z445" s="40"/>
@@ -25096,13 +25219,13 @@
       <c r="AC445" s="40"/>
     </row>
     <row r="446" spans="17:29" s="21" customFormat="1">
-      <c r="Q446" s="23"/>
-      <c r="R446" s="23"/>
-      <c r="S446" s="23"/>
-      <c r="T446" s="23"/>
-      <c r="U446" s="23"/>
-      <c r="V446" s="23"/>
-      <c r="W446" s="23"/>
+      <c r="Q446" s="40"/>
+      <c r="R446" s="40"/>
+      <c r="S446" s="40"/>
+      <c r="T446" s="40"/>
+      <c r="U446" s="40"/>
+      <c r="V446" s="40"/>
+      <c r="W446" s="40"/>
       <c r="X446" s="40"/>
       <c r="Y446" s="40"/>
       <c r="Z446" s="40"/>
@@ -25111,19 +25234,19 @@
       <c r="AC446" s="40"/>
     </row>
     <row r="447" spans="17:29" s="21" customFormat="1">
-      <c r="Q447" s="40"/>
-      <c r="R447" s="40"/>
-      <c r="S447" s="40"/>
-      <c r="T447" s="40"/>
-      <c r="U447" s="40"/>
-      <c r="V447" s="40"/>
-      <c r="W447" s="40"/>
+      <c r="Q447" s="23"/>
+      <c r="R447" s="23"/>
+      <c r="S447" s="23"/>
+      <c r="T447" s="23"/>
+      <c r="U447" s="23"/>
+      <c r="V447" s="23"/>
+      <c r="W447" s="23"/>
       <c r="X447" s="40"/>
       <c r="Y447" s="40"/>
-      <c r="Z447" s="40"/>
-      <c r="AA447" s="40"/>
-      <c r="AB447" s="40"/>
-      <c r="AC447" s="40"/>
+      <c r="Z447" s="23"/>
+      <c r="AA447" s="23"/>
+      <c r="AB447" s="23"/>
+      <c r="AC447" s="23"/>
     </row>
     <row r="448" spans="17:29" s="21" customFormat="1">
       <c r="Q448" s="23"/>
@@ -25132,13 +25255,13 @@
       <c r="T448" s="23"/>
       <c r="U448" s="23"/>
       <c r="V448" s="23"/>
-      <c r="W448" s="23"/>
+      <c r="W448" s="40"/>
       <c r="X448" s="40"/>
       <c r="Y448" s="40"/>
-      <c r="Z448" s="23"/>
-      <c r="AA448" s="23"/>
-      <c r="AB448" s="23"/>
-      <c r="AC448" s="23"/>
+      <c r="Z448" s="40"/>
+      <c r="AA448" s="40"/>
+      <c r="AB448" s="40"/>
+      <c r="AC448" s="40"/>
     </row>
     <row r="449" spans="17:29" s="21" customFormat="1">
       <c r="Q449" s="23"/>
@@ -25162,13 +25285,13 @@
       <c r="T450" s="23"/>
       <c r="U450" s="23"/>
       <c r="V450" s="23"/>
-      <c r="W450" s="40"/>
+      <c r="W450" s="23"/>
       <c r="X450" s="40"/>
       <c r="Y450" s="40"/>
-      <c r="Z450" s="40"/>
-      <c r="AA450" s="40"/>
-      <c r="AB450" s="40"/>
-      <c r="AC450" s="40"/>
+      <c r="Z450" s="23"/>
+      <c r="AA450" s="23"/>
+      <c r="AB450" s="23"/>
+      <c r="AC450" s="23"/>
     </row>
     <row r="451" spans="17:29" s="21" customFormat="1">
       <c r="Q451" s="23"/>
@@ -25177,13 +25300,13 @@
       <c r="T451" s="23"/>
       <c r="U451" s="23"/>
       <c r="V451" s="23"/>
-      <c r="W451" s="23"/>
+      <c r="W451" s="40"/>
       <c r="X451" s="40"/>
       <c r="Y451" s="40"/>
-      <c r="Z451" s="23"/>
-      <c r="AA451" s="23"/>
-      <c r="AB451" s="23"/>
-      <c r="AC451" s="23"/>
+      <c r="Z451" s="40"/>
+      <c r="AA451" s="40"/>
+      <c r="AB451" s="40"/>
+      <c r="AC451" s="40"/>
     </row>
     <row r="452" spans="17:29" s="21" customFormat="1">
       <c r="Q452" s="23"/>
@@ -25192,7 +25315,7 @@
       <c r="T452" s="23"/>
       <c r="U452" s="23"/>
       <c r="V452" s="23"/>
-      <c r="W452" s="40"/>
+      <c r="W452" s="23"/>
       <c r="X452" s="40"/>
       <c r="Y452" s="40"/>
       <c r="Z452" s="40"/>
@@ -25207,7 +25330,7 @@
       <c r="T453" s="23"/>
       <c r="U453" s="23"/>
       <c r="V453" s="23"/>
-      <c r="W453" s="23"/>
+      <c r="W453" s="40"/>
       <c r="X453" s="40"/>
       <c r="Y453" s="40"/>
       <c r="Z453" s="40"/>
@@ -25222,7 +25345,7 @@
       <c r="T454" s="23"/>
       <c r="U454" s="23"/>
       <c r="V454" s="23"/>
-      <c r="W454" s="40"/>
+      <c r="W454" s="23"/>
       <c r="X454" s="40"/>
       <c r="Y454" s="40"/>
       <c r="Z454" s="40"/>
@@ -25237,7 +25360,7 @@
       <c r="T455" s="23"/>
       <c r="U455" s="23"/>
       <c r="V455" s="23"/>
-      <c r="W455" s="23"/>
+      <c r="W455" s="40"/>
       <c r="X455" s="40"/>
       <c r="Y455" s="40"/>
       <c r="Z455" s="40"/>
@@ -25282,7 +25405,7 @@
       <c r="T458" s="23"/>
       <c r="U458" s="23"/>
       <c r="V458" s="23"/>
-      <c r="W458" s="40"/>
+      <c r="W458" s="23"/>
       <c r="X458" s="40"/>
       <c r="Y458" s="40"/>
       <c r="Z458" s="40"/>
@@ -25291,13 +25414,13 @@
       <c r="AC458" s="40"/>
     </row>
     <row r="459" spans="17:29" s="21" customFormat="1">
-      <c r="Q459" s="23"/>
-      <c r="R459" s="23"/>
-      <c r="S459" s="23"/>
-      <c r="T459" s="23"/>
-      <c r="U459" s="23"/>
-      <c r="V459" s="23"/>
-      <c r="W459" s="23"/>
+      <c r="Q459" s="40"/>
+      <c r="R459" s="40"/>
+      <c r="S459" s="40"/>
+      <c r="T459" s="40"/>
+      <c r="U459" s="40"/>
+      <c r="V459" s="40"/>
+      <c r="W459" s="40"/>
       <c r="X459" s="40"/>
       <c r="Y459" s="40"/>
       <c r="Z459" s="40"/>
@@ -25306,12 +25429,12 @@
       <c r="AC459" s="40"/>
     </row>
     <row r="460" spans="17:29" s="21" customFormat="1">
-      <c r="Q460" s="40"/>
-      <c r="R460" s="40"/>
-      <c r="S460" s="40"/>
-      <c r="T460" s="40"/>
-      <c r="U460" s="40"/>
-      <c r="V460" s="40"/>
+      <c r="Q460" s="23"/>
+      <c r="R460" s="23"/>
+      <c r="S460" s="23"/>
+      <c r="T460" s="23"/>
+      <c r="U460" s="23"/>
+      <c r="V460" s="23"/>
       <c r="W460" s="40"/>
       <c r="X460" s="40"/>
       <c r="Y460" s="40"/>
@@ -25327,13 +25450,13 @@
       <c r="T461" s="23"/>
       <c r="U461" s="23"/>
       <c r="V461" s="23"/>
-      <c r="W461" s="40"/>
+      <c r="W461" s="23"/>
       <c r="X461" s="40"/>
       <c r="Y461" s="40"/>
-      <c r="Z461" s="40"/>
-      <c r="AA461" s="40"/>
-      <c r="AB461" s="40"/>
-      <c r="AC461" s="40"/>
+      <c r="Z461" s="23"/>
+      <c r="AA461" s="23"/>
+      <c r="AB461" s="23"/>
+      <c r="AC461" s="23"/>
     </row>
     <row r="462" spans="17:29" s="21" customFormat="1">
       <c r="Q462" s="23"/>
@@ -25342,13 +25465,13 @@
       <c r="T462" s="23"/>
       <c r="U462" s="23"/>
       <c r="V462" s="23"/>
-      <c r="W462" s="23"/>
+      <c r="W462" s="40"/>
       <c r="X462" s="40"/>
       <c r="Y462" s="40"/>
-      <c r="Z462" s="23"/>
-      <c r="AA462" s="23"/>
-      <c r="AB462" s="23"/>
-      <c r="AC462" s="23"/>
+      <c r="Z462" s="40"/>
+      <c r="AA462" s="40"/>
+      <c r="AB462" s="40"/>
+      <c r="AC462" s="40"/>
     </row>
     <row r="463" spans="17:29" s="21" customFormat="1">
       <c r="Q463" s="23"/>
@@ -25357,13 +25480,13 @@
       <c r="T463" s="23"/>
       <c r="U463" s="23"/>
       <c r="V463" s="23"/>
-      <c r="W463" s="40"/>
+      <c r="W463" s="23"/>
       <c r="X463" s="40"/>
       <c r="Y463" s="40"/>
-      <c r="Z463" s="40"/>
-      <c r="AA463" s="40"/>
-      <c r="AB463" s="40"/>
-      <c r="AC463" s="40"/>
+      <c r="Z463" s="23"/>
+      <c r="AA463" s="23"/>
+      <c r="AB463" s="23"/>
+      <c r="AC463" s="23"/>
     </row>
     <row r="464" spans="17:29" s="21" customFormat="1">
       <c r="Q464" s="23"/>
@@ -25372,13 +25495,13 @@
       <c r="T464" s="23"/>
       <c r="U464" s="23"/>
       <c r="V464" s="23"/>
-      <c r="W464" s="23"/>
+      <c r="W464" s="40"/>
       <c r="X464" s="40"/>
       <c r="Y464" s="40"/>
-      <c r="Z464" s="23"/>
-      <c r="AA464" s="23"/>
-      <c r="AB464" s="23"/>
-      <c r="AC464" s="23"/>
+      <c r="Z464" s="40"/>
+      <c r="AA464" s="40"/>
+      <c r="AB464" s="40"/>
+      <c r="AC464" s="40"/>
     </row>
     <row r="465" spans="17:29" s="21" customFormat="1">
       <c r="Q465" s="23"/>
@@ -25387,7 +25510,7 @@
       <c r="T465" s="23"/>
       <c r="U465" s="23"/>
       <c r="V465" s="23"/>
-      <c r="W465" s="40"/>
+      <c r="W465" s="23"/>
       <c r="X465" s="40"/>
       <c r="Y465" s="40"/>
       <c r="Z465" s="40"/>
@@ -25402,7 +25525,7 @@
       <c r="T466" s="23"/>
       <c r="U466" s="23"/>
       <c r="V466" s="23"/>
-      <c r="W466" s="23"/>
+      <c r="W466" s="40"/>
       <c r="X466" s="40"/>
       <c r="Y466" s="40"/>
       <c r="Z466" s="40"/>
@@ -25417,7 +25540,7 @@
       <c r="T467" s="23"/>
       <c r="U467" s="23"/>
       <c r="V467" s="23"/>
-      <c r="W467" s="40"/>
+      <c r="W467" s="23"/>
       <c r="X467" s="40"/>
       <c r="Y467" s="40"/>
       <c r="Z467" s="40"/>
@@ -25426,13 +25549,13 @@
       <c r="AC467" s="40"/>
     </row>
     <row r="468" spans="17:29" s="21" customFormat="1">
-      <c r="Q468" s="23"/>
-      <c r="R468" s="23"/>
-      <c r="S468" s="23"/>
-      <c r="T468" s="23"/>
-      <c r="U468" s="23"/>
-      <c r="V468" s="23"/>
-      <c r="W468" s="23"/>
+      <c r="Q468" s="40"/>
+      <c r="R468" s="40"/>
+      <c r="S468" s="40"/>
+      <c r="T468" s="40"/>
+      <c r="U468" s="40"/>
+      <c r="V468" s="40"/>
+      <c r="W468" s="40"/>
       <c r="X468" s="40"/>
       <c r="Y468" s="40"/>
       <c r="Z468" s="40"/>
@@ -25441,13 +25564,13 @@
       <c r="AC468" s="40"/>
     </row>
     <row r="469" spans="17:29" s="21" customFormat="1">
-      <c r="Q469" s="40"/>
-      <c r="R469" s="40"/>
-      <c r="S469" s="40"/>
-      <c r="T469" s="40"/>
-      <c r="U469" s="40"/>
-      <c r="V469" s="40"/>
-      <c r="W469" s="40"/>
+      <c r="Q469" s="23"/>
+      <c r="R469" s="23"/>
+      <c r="S469" s="23"/>
+      <c r="T469" s="23"/>
+      <c r="U469" s="23"/>
+      <c r="V469" s="23"/>
+      <c r="W469" s="23"/>
       <c r="X469" s="40"/>
       <c r="Y469" s="40"/>
       <c r="Z469" s="40"/>
@@ -25462,7 +25585,7 @@
       <c r="T470" s="23"/>
       <c r="U470" s="23"/>
       <c r="V470" s="23"/>
-      <c r="W470" s="23"/>
+      <c r="W470" s="40"/>
       <c r="X470" s="40"/>
       <c r="Y470" s="40"/>
       <c r="Z470" s="40"/>
@@ -25522,7 +25645,7 @@
       <c r="T474" s="23"/>
       <c r="U474" s="23"/>
       <c r="V474" s="23"/>
-      <c r="W474" s="40"/>
+      <c r="W474" s="23"/>
       <c r="X474" s="40"/>
       <c r="Y474" s="40"/>
       <c r="Z474" s="40"/>
@@ -25531,13 +25654,13 @@
       <c r="AC474" s="40"/>
     </row>
     <row r="475" spans="17:29" s="21" customFormat="1">
-      <c r="Q475" s="23"/>
-      <c r="R475" s="23"/>
-      <c r="S475" s="23"/>
-      <c r="T475" s="23"/>
-      <c r="U475" s="23"/>
-      <c r="V475" s="23"/>
-      <c r="W475" s="23"/>
+      <c r="Q475" s="40"/>
+      <c r="R475" s="40"/>
+      <c r="S475" s="40"/>
+      <c r="T475" s="40"/>
+      <c r="U475" s="40"/>
+      <c r="V475" s="40"/>
+      <c r="W475" s="40"/>
       <c r="X475" s="40"/>
       <c r="Y475" s="40"/>
       <c r="Z475" s="40"/>
@@ -25546,12 +25669,12 @@
       <c r="AC475" s="40"/>
     </row>
     <row r="476" spans="17:29" s="21" customFormat="1">
-      <c r="Q476" s="40"/>
-      <c r="R476" s="40"/>
-      <c r="S476" s="40"/>
-      <c r="T476" s="40"/>
-      <c r="U476" s="40"/>
-      <c r="V476" s="40"/>
+      <c r="Q476" s="23"/>
+      <c r="R476" s="23"/>
+      <c r="S476" s="23"/>
+      <c r="T476" s="23"/>
+      <c r="U476" s="23"/>
+      <c r="V476" s="23"/>
       <c r="W476" s="40"/>
       <c r="X476" s="40"/>
       <c r="Y476" s="40"/>
@@ -25567,13 +25690,13 @@
       <c r="T477" s="23"/>
       <c r="U477" s="23"/>
       <c r="V477" s="23"/>
-      <c r="W477" s="40"/>
+      <c r="W477" s="23"/>
       <c r="X477" s="40"/>
       <c r="Y477" s="40"/>
-      <c r="Z477" s="40"/>
-      <c r="AA477" s="40"/>
-      <c r="AB477" s="40"/>
-      <c r="AC477" s="40"/>
+      <c r="Z477" s="23"/>
+      <c r="AA477" s="23"/>
+      <c r="AB477" s="23"/>
+      <c r="AC477" s="23"/>
     </row>
     <row r="478" spans="17:29" s="21" customFormat="1">
       <c r="Q478" s="23"/>
@@ -25582,13 +25705,13 @@
       <c r="T478" s="23"/>
       <c r="U478" s="23"/>
       <c r="V478" s="23"/>
-      <c r="W478" s="23"/>
+      <c r="W478" s="40"/>
       <c r="X478" s="40"/>
       <c r="Y478" s="40"/>
-      <c r="Z478" s="23"/>
-      <c r="AA478" s="23"/>
-      <c r="AB478" s="23"/>
-      <c r="AC478" s="23"/>
+      <c r="Z478" s="40"/>
+      <c r="AA478" s="40"/>
+      <c r="AB478" s="40"/>
+      <c r="AC478" s="40"/>
     </row>
     <row r="479" spans="17:29" s="21" customFormat="1">
       <c r="Q479" s="23"/>
@@ -25597,13 +25720,13 @@
       <c r="T479" s="23"/>
       <c r="U479" s="23"/>
       <c r="V479" s="23"/>
-      <c r="W479" s="40"/>
+      <c r="W479" s="23"/>
       <c r="X479" s="40"/>
       <c r="Y479" s="40"/>
-      <c r="Z479" s="40"/>
-      <c r="AA479" s="40"/>
-      <c r="AB479" s="40"/>
-      <c r="AC479" s="40"/>
+      <c r="Z479" s="23"/>
+      <c r="AA479" s="23"/>
+      <c r="AB479" s="23"/>
+      <c r="AC479" s="23"/>
     </row>
     <row r="480" spans="17:29" s="21" customFormat="1">
       <c r="Q480" s="23"/>
@@ -25612,13 +25735,13 @@
       <c r="T480" s="23"/>
       <c r="U480" s="23"/>
       <c r="V480" s="23"/>
-      <c r="W480" s="23"/>
+      <c r="W480" s="40"/>
       <c r="X480" s="40"/>
       <c r="Y480" s="40"/>
-      <c r="Z480" s="23"/>
-      <c r="AA480" s="23"/>
-      <c r="AB480" s="23"/>
-      <c r="AC480" s="23"/>
+      <c r="Z480" s="40"/>
+      <c r="AA480" s="40"/>
+      <c r="AB480" s="40"/>
+      <c r="AC480" s="40"/>
     </row>
     <row r="481" spans="17:32" s="21" customFormat="1">
       <c r="Q481" s="23"/>
@@ -25627,7 +25750,7 @@
       <c r="T481" s="23"/>
       <c r="U481" s="23"/>
       <c r="V481" s="23"/>
-      <c r="W481" s="40"/>
+      <c r="W481" s="23"/>
       <c r="X481" s="40"/>
       <c r="Y481" s="40"/>
       <c r="Z481" s="40"/>
@@ -25642,7 +25765,7 @@
       <c r="T482" s="23"/>
       <c r="U482" s="23"/>
       <c r="V482" s="23"/>
-      <c r="W482" s="23"/>
+      <c r="W482" s="40"/>
       <c r="X482" s="40"/>
       <c r="Y482" s="40"/>
       <c r="Z482" s="40"/>
@@ -25657,13 +25780,13 @@
       <c r="T483" s="23"/>
       <c r="U483" s="23"/>
       <c r="V483" s="23"/>
-      <c r="W483" s="40"/>
+      <c r="W483" s="23"/>
       <c r="X483" s="40"/>
       <c r="Y483" s="40"/>
-      <c r="Z483" s="40"/>
-      <c r="AA483" s="40"/>
-      <c r="AB483" s="40"/>
-      <c r="AC483" s="40"/>
+      <c r="Z483" s="23"/>
+      <c r="AA483" s="23"/>
+      <c r="AB483" s="23"/>
+      <c r="AC483" s="23"/>
     </row>
     <row r="484" spans="17:32" s="21" customFormat="1">
       <c r="Q484" s="23"/>
@@ -25672,13 +25795,13 @@
       <c r="T484" s="23"/>
       <c r="U484" s="23"/>
       <c r="V484" s="23"/>
-      <c r="W484" s="23"/>
+      <c r="W484" s="40"/>
       <c r="X484" s="40"/>
       <c r="Y484" s="40"/>
-      <c r="Z484" s="23"/>
-      <c r="AA484" s="23"/>
-      <c r="AB484" s="23"/>
-      <c r="AC484" s="23"/>
+      <c r="Z484" s="40"/>
+      <c r="AA484" s="40"/>
+      <c r="AB484" s="40"/>
+      <c r="AC484" s="40"/>
     </row>
     <row r="485" spans="17:32" s="21" customFormat="1">
       <c r="Q485" s="23"/>
@@ -25687,13 +25810,13 @@
       <c r="T485" s="23"/>
       <c r="U485" s="23"/>
       <c r="V485" s="23"/>
-      <c r="W485" s="40"/>
+      <c r="W485" s="23"/>
       <c r="X485" s="40"/>
       <c r="Y485" s="40"/>
-      <c r="Z485" s="40"/>
-      <c r="AA485" s="40"/>
-      <c r="AB485" s="40"/>
-      <c r="AC485" s="40"/>
+      <c r="Z485" s="23"/>
+      <c r="AA485" s="23"/>
+      <c r="AB485" s="23"/>
+      <c r="AC485" s="23"/>
     </row>
     <row r="486" spans="17:32" s="21" customFormat="1">
       <c r="Q486" s="23"/>
@@ -25702,13 +25825,13 @@
       <c r="T486" s="23"/>
       <c r="U486" s="23"/>
       <c r="V486" s="23"/>
-      <c r="W486" s="23"/>
+      <c r="W486" s="40"/>
       <c r="X486" s="40"/>
       <c r="Y486" s="40"/>
-      <c r="Z486" s="23"/>
-      <c r="AA486" s="23"/>
-      <c r="AB486" s="23"/>
-      <c r="AC486" s="23"/>
+      <c r="Z486" s="40"/>
+      <c r="AA486" s="40"/>
+      <c r="AB486" s="40"/>
+      <c r="AC486" s="40"/>
     </row>
     <row r="487" spans="17:32" s="21" customFormat="1">
       <c r="Q487" s="23"/>
@@ -25732,7 +25855,7 @@
       <c r="T488" s="23"/>
       <c r="U488" s="23"/>
       <c r="V488" s="23"/>
-      <c r="W488" s="40"/>
+      <c r="W488" s="23"/>
       <c r="X488" s="40"/>
       <c r="Y488" s="40"/>
       <c r="Z488" s="40"/>
@@ -25747,7 +25870,7 @@
       <c r="T489" s="23"/>
       <c r="U489" s="23"/>
       <c r="V489" s="23"/>
-      <c r="W489" s="23"/>
+      <c r="W489" s="40"/>
       <c r="X489" s="40"/>
       <c r="Y489" s="40"/>
       <c r="Z489" s="40"/>
@@ -25777,13 +25900,13 @@
       <c r="T491" s="23"/>
       <c r="U491" s="23"/>
       <c r="V491" s="23"/>
-      <c r="W491" s="40"/>
+      <c r="W491" s="23"/>
       <c r="X491" s="40"/>
       <c r="Y491" s="40"/>
-      <c r="Z491" s="40"/>
-      <c r="AA491" s="40"/>
-      <c r="AB491" s="40"/>
-      <c r="AC491" s="40"/>
+      <c r="Z491" s="23"/>
+      <c r="AA491" s="23"/>
+      <c r="AB491" s="23"/>
+      <c r="AC491" s="23"/>
     </row>
     <row r="492" spans="17:32" s="21" customFormat="1">
       <c r="Q492" s="23"/>
@@ -25794,43 +25917,45 @@
       <c r="V492" s="23"/>
       <c r="W492" s="23"/>
       <c r="X492" s="40"/>
-      <c r="Y492" s="40"/>
+      <c r="Y492" s="23"/>
       <c r="Z492" s="23"/>
       <c r="AA492" s="23"/>
       <c r="AB492" s="23"/>
       <c r="AC492" s="23"/>
+      <c r="AD492" s="22"/>
+      <c r="AF492" s="22"/>
     </row>
     <row r="493" spans="17:32" s="21" customFormat="1">
-      <c r="Q493" s="23"/>
-      <c r="R493" s="23"/>
-      <c r="S493" s="23"/>
-      <c r="T493" s="23"/>
-      <c r="U493" s="23"/>
-      <c r="V493" s="23"/>
-      <c r="W493" s="23"/>
+      <c r="Q493" s="40"/>
+      <c r="R493" s="40"/>
+      <c r="S493" s="40"/>
+      <c r="T493" s="40"/>
+      <c r="U493" s="40"/>
+      <c r="V493" s="40"/>
+      <c r="W493" s="40"/>
       <c r="X493" s="40"/>
-      <c r="Y493" s="23"/>
-      <c r="Z493" s="23"/>
-      <c r="AA493" s="23"/>
-      <c r="AB493" s="23"/>
-      <c r="AC493" s="23"/>
-      <c r="AD493" s="22"/>
-      <c r="AF493" s="22"/>
+      <c r="Y493" s="40"/>
+      <c r="Z493" s="40"/>
+      <c r="AA493" s="40"/>
+      <c r="AB493" s="40"/>
+      <c r="AC493" s="40"/>
     </row>
     <row r="494" spans="17:32" s="21" customFormat="1">
-      <c r="Q494" s="40"/>
-      <c r="R494" s="40"/>
-      <c r="S494" s="40"/>
-      <c r="T494" s="40"/>
-      <c r="U494" s="40"/>
-      <c r="V494" s="40"/>
-      <c r="W494" s="40"/>
+      <c r="Q494" s="23"/>
+      <c r="R494" s="23"/>
+      <c r="S494" s="23"/>
+      <c r="T494" s="23"/>
+      <c r="U494" s="23"/>
+      <c r="V494" s="23"/>
+      <c r="W494" s="23"/>
       <c r="X494" s="40"/>
-      <c r="Y494" s="40"/>
-      <c r="Z494" s="40"/>
-      <c r="AA494" s="40"/>
-      <c r="AB494" s="40"/>
-      <c r="AC494" s="40"/>
+      <c r="Y494" s="23"/>
+      <c r="Z494" s="23"/>
+      <c r="AA494" s="23"/>
+      <c r="AB494" s="23"/>
+      <c r="AC494" s="23"/>
+      <c r="AD494" s="22"/>
+      <c r="AF494" s="22"/>
     </row>
     <row r="495" spans="17:32" s="21" customFormat="1">
       <c r="Q495" s="23"/>
@@ -25856,15 +25981,13 @@
       <c r="T496" s="23"/>
       <c r="U496" s="23"/>
       <c r="V496" s="23"/>
-      <c r="W496" s="23"/>
+      <c r="W496" s="40"/>
       <c r="X496" s="40"/>
-      <c r="Y496" s="23"/>
-      <c r="Z496" s="23"/>
-      <c r="AA496" s="23"/>
-      <c r="AB496" s="23"/>
-      <c r="AC496" s="23"/>
-      <c r="AD496" s="22"/>
-      <c r="AF496" s="22"/>
+      <c r="Y496" s="40"/>
+      <c r="Z496" s="40"/>
+      <c r="AA496" s="40"/>
+      <c r="AB496" s="40"/>
+      <c r="AC496" s="40"/>
     </row>
     <row r="497" spans="17:32" s="21" customFormat="1">
       <c r="Q497" s="23"/>
@@ -25873,7 +25996,7 @@
       <c r="T497" s="23"/>
       <c r="U497" s="23"/>
       <c r="V497" s="23"/>
-      <c r="W497" s="40"/>
+      <c r="W497" s="23"/>
       <c r="X497" s="40"/>
       <c r="Y497" s="40"/>
       <c r="Z497" s="40"/>
@@ -25882,13 +26005,13 @@
       <c r="AC497" s="40"/>
     </row>
     <row r="498" spans="17:32" s="21" customFormat="1">
-      <c r="Q498" s="23"/>
-      <c r="R498" s="23"/>
-      <c r="S498" s="23"/>
-      <c r="T498" s="23"/>
-      <c r="U498" s="23"/>
-      <c r="V498" s="23"/>
-      <c r="W498" s="23"/>
+      <c r="Q498" s="40"/>
+      <c r="R498" s="40"/>
+      <c r="S498" s="40"/>
+      <c r="T498" s="40"/>
+      <c r="U498" s="40"/>
+      <c r="V498" s="40"/>
+      <c r="W498" s="40"/>
       <c r="X498" s="40"/>
       <c r="Y498" s="40"/>
       <c r="Z498" s="40"/>
@@ -25897,12 +26020,12 @@
       <c r="AC498" s="40"/>
     </row>
     <row r="499" spans="17:32" s="21" customFormat="1">
-      <c r="Q499" s="40"/>
-      <c r="R499" s="40"/>
-      <c r="S499" s="40"/>
-      <c r="T499" s="40"/>
-      <c r="U499" s="40"/>
-      <c r="V499" s="40"/>
+      <c r="Q499" s="23"/>
+      <c r="R499" s="23"/>
+      <c r="S499" s="23"/>
+      <c r="T499" s="23"/>
+      <c r="U499" s="23"/>
+      <c r="V499" s="23"/>
       <c r="W499" s="40"/>
       <c r="X499" s="40"/>
       <c r="Y499" s="40"/>
@@ -25918,45 +26041,45 @@
       <c r="T500" s="23"/>
       <c r="U500" s="23"/>
       <c r="V500" s="23"/>
-      <c r="W500" s="40"/>
+      <c r="W500" s="23"/>
       <c r="X500" s="40"/>
-      <c r="Y500" s="40"/>
-      <c r="Z500" s="40"/>
-      <c r="AA500" s="40"/>
-      <c r="AB500" s="40"/>
-      <c r="AC500" s="40"/>
+      <c r="Y500" s="23"/>
+      <c r="Z500" s="23"/>
+      <c r="AA500" s="23"/>
+      <c r="AB500" s="23"/>
+      <c r="AC500" s="23"/>
+      <c r="AD500" s="22"/>
+      <c r="AF500" s="22"/>
     </row>
     <row r="501" spans="17:32" s="21" customFormat="1">
-      <c r="Q501" s="23"/>
-      <c r="R501" s="23"/>
-      <c r="S501" s="23"/>
-      <c r="T501" s="23"/>
-      <c r="U501" s="23"/>
-      <c r="V501" s="23"/>
-      <c r="W501" s="23"/>
+      <c r="Q501" s="40"/>
+      <c r="R501" s="40"/>
+      <c r="S501" s="40"/>
+      <c r="T501" s="40"/>
+      <c r="U501" s="40"/>
+      <c r="V501" s="40"/>
+      <c r="W501" s="40"/>
       <c r="X501" s="40"/>
-      <c r="Y501" s="23"/>
-      <c r="Z501" s="23"/>
-      <c r="AA501" s="23"/>
-      <c r="AB501" s="23"/>
-      <c r="AC501" s="23"/>
-      <c r="AD501" s="22"/>
-      <c r="AF501" s="22"/>
+      <c r="Y501" s="40"/>
+      <c r="Z501" s="40"/>
+      <c r="AA501" s="40"/>
+      <c r="AB501" s="40"/>
+      <c r="AC501" s="40"/>
     </row>
     <row r="502" spans="17:32" s="21" customFormat="1">
-      <c r="Q502" s="40"/>
-      <c r="R502" s="40"/>
-      <c r="S502" s="40"/>
-      <c r="T502" s="40"/>
-      <c r="U502" s="40"/>
-      <c r="V502" s="40"/>
-      <c r="W502" s="40"/>
+      <c r="Q502" s="23"/>
+      <c r="R502" s="23"/>
+      <c r="S502" s="23"/>
+      <c r="T502" s="23"/>
+      <c r="U502" s="23"/>
+      <c r="V502" s="23"/>
+      <c r="W502" s="23"/>
       <c r="X502" s="40"/>
       <c r="Y502" s="40"/>
-      <c r="Z502" s="40"/>
-      <c r="AA502" s="40"/>
-      <c r="AB502" s="40"/>
-      <c r="AC502" s="40"/>
+      <c r="Z502" s="23"/>
+      <c r="AA502" s="23"/>
+      <c r="AB502" s="23"/>
+      <c r="AC502" s="23"/>
     </row>
     <row r="503" spans="17:32" s="21" customFormat="1">
       <c r="Q503" s="23"/>
@@ -25967,11 +26090,13 @@
       <c r="V503" s="23"/>
       <c r="W503" s="23"/>
       <c r="X503" s="40"/>
-      <c r="Y503" s="40"/>
+      <c r="Y503" s="23"/>
       <c r="Z503" s="23"/>
       <c r="AA503" s="23"/>
       <c r="AB503" s="23"/>
       <c r="AC503" s="23"/>
+      <c r="AD503" s="22"/>
+      <c r="AF503" s="22"/>
     </row>
     <row r="504" spans="17:32" s="21" customFormat="1">
       <c r="Q504" s="23"/>
@@ -25980,23 +26105,21 @@
       <c r="T504" s="23"/>
       <c r="U504" s="23"/>
       <c r="V504" s="23"/>
-      <c r="W504" s="23"/>
+      <c r="W504" s="40"/>
       <c r="X504" s="40"/>
-      <c r="Y504" s="23"/>
-      <c r="Z504" s="23"/>
-      <c r="AA504" s="23"/>
-      <c r="AB504" s="23"/>
-      <c r="AC504" s="23"/>
-      <c r="AD504" s="22"/>
-      <c r="AF504" s="22"/>
+      <c r="Y504" s="40"/>
+      <c r="Z504" s="40"/>
+      <c r="AA504" s="40"/>
+      <c r="AB504" s="40"/>
+      <c r="AC504" s="40"/>
     </row>
     <row r="505" spans="17:32" s="21" customFormat="1">
-      <c r="Q505" s="23"/>
-      <c r="R505" s="23"/>
-      <c r="S505" s="23"/>
-      <c r="T505" s="23"/>
-      <c r="U505" s="23"/>
-      <c r="V505" s="23"/>
+      <c r="Q505" s="40"/>
+      <c r="R505" s="40"/>
+      <c r="S505" s="40"/>
+      <c r="T505" s="40"/>
+      <c r="U505" s="40"/>
+      <c r="V505" s="40"/>
       <c r="W505" s="40"/>
       <c r="X505" s="40"/>
       <c r="Y505" s="40"/>
@@ -26021,12 +26144,12 @@
       <c r="AC506" s="40"/>
     </row>
     <row r="507" spans="17:32" s="21" customFormat="1">
-      <c r="Q507" s="40"/>
-      <c r="R507" s="40"/>
-      <c r="S507" s="40"/>
-      <c r="T507" s="40"/>
-      <c r="U507" s="40"/>
-      <c r="V507" s="40"/>
+      <c r="Q507" s="23"/>
+      <c r="R507" s="23"/>
+      <c r="S507" s="23"/>
+      <c r="T507" s="23"/>
+      <c r="U507" s="23"/>
+      <c r="V507" s="23"/>
       <c r="W507" s="40"/>
       <c r="X507" s="40"/>
       <c r="Y507" s="40"/>
@@ -26057,13 +26180,13 @@
       <c r="T509" s="23"/>
       <c r="U509" s="23"/>
       <c r="V509" s="23"/>
-      <c r="W509" s="40"/>
+      <c r="W509" s="23"/>
       <c r="X509" s="40"/>
       <c r="Y509" s="40"/>
-      <c r="Z509" s="40"/>
-      <c r="AA509" s="40"/>
-      <c r="AB509" s="40"/>
-      <c r="AC509" s="40"/>
+      <c r="Z509" s="23"/>
+      <c r="AA509" s="23"/>
+      <c r="AB509" s="23"/>
+      <c r="AC509" s="23"/>
     </row>
     <row r="510" spans="17:32" s="21" customFormat="1">
       <c r="Q510" s="23"/>
@@ -26074,36 +26197,36 @@
       <c r="V510" s="23"/>
       <c r="W510" s="23"/>
       <c r="X510" s="40"/>
-      <c r="Y510" s="40"/>
+      <c r="Y510" s="23"/>
       <c r="Z510" s="23"/>
       <c r="AA510" s="23"/>
       <c r="AB510" s="23"/>
       <c r="AC510" s="23"/>
+      <c r="AD510" s="22"/>
+      <c r="AF510" s="22"/>
     </row>
     <row r="511" spans="17:32" s="21" customFormat="1">
-      <c r="Q511" s="23"/>
-      <c r="R511" s="23"/>
-      <c r="S511" s="23"/>
-      <c r="T511" s="23"/>
-      <c r="U511" s="23"/>
-      <c r="V511" s="23"/>
-      <c r="W511" s="23"/>
+      <c r="Q511" s="40"/>
+      <c r="R511" s="40"/>
+      <c r="S511" s="40"/>
+      <c r="T511" s="40"/>
+      <c r="U511" s="40"/>
+      <c r="V511" s="40"/>
+      <c r="W511" s="40"/>
       <c r="X511" s="40"/>
-      <c r="Y511" s="23"/>
-      <c r="Z511" s="23"/>
-      <c r="AA511" s="23"/>
-      <c r="AB511" s="23"/>
-      <c r="AC511" s="23"/>
-      <c r="AD511" s="22"/>
-      <c r="AF511" s="22"/>
+      <c r="Y511" s="40"/>
+      <c r="Z511" s="40"/>
+      <c r="AA511" s="40"/>
+      <c r="AB511" s="40"/>
+      <c r="AC511" s="40"/>
     </row>
     <row r="512" spans="17:32" s="21" customFormat="1">
-      <c r="Q512" s="40"/>
-      <c r="R512" s="40"/>
-      <c r="S512" s="40"/>
-      <c r="T512" s="40"/>
-      <c r="U512" s="40"/>
-      <c r="V512" s="40"/>
+      <c r="Q512" s="23"/>
+      <c r="R512" s="23"/>
+      <c r="S512" s="23"/>
+      <c r="T512" s="23"/>
+      <c r="U512" s="23"/>
+      <c r="V512" s="23"/>
       <c r="W512" s="40"/>
       <c r="X512" s="40"/>
       <c r="Y512" s="40"/>
@@ -26149,7 +26272,7 @@
       <c r="T515" s="23"/>
       <c r="U515" s="23"/>
       <c r="V515" s="23"/>
-      <c r="W515" s="40"/>
+      <c r="W515" s="23"/>
       <c r="X515" s="40"/>
       <c r="Y515" s="40"/>
       <c r="Z515" s="40"/>
@@ -26167,10 +26290,10 @@
       <c r="W516" s="23"/>
       <c r="X516" s="40"/>
       <c r="Y516" s="40"/>
-      <c r="Z516" s="40"/>
-      <c r="AA516" s="40"/>
-      <c r="AB516" s="40"/>
-      <c r="AC516" s="40"/>
+      <c r="Z516" s="23"/>
+      <c r="AA516" s="23"/>
+      <c r="AB516" s="23"/>
+      <c r="AC516" s="23"/>
     </row>
     <row r="517" spans="17:32" s="21" customFormat="1">
       <c r="Q517" s="23"/>
@@ -26181,11 +26304,13 @@
       <c r="V517" s="23"/>
       <c r="W517" s="23"/>
       <c r="X517" s="40"/>
-      <c r="Y517" s="40"/>
+      <c r="Y517" s="23"/>
       <c r="Z517" s="23"/>
       <c r="AA517" s="23"/>
       <c r="AB517" s="23"/>
       <c r="AC517" s="23"/>
+      <c r="AD517" s="22"/>
+      <c r="AF517" s="22"/>
     </row>
     <row r="518" spans="17:32" s="21" customFormat="1">
       <c r="Q518" s="23"/>
@@ -26196,22 +26321,20 @@
       <c r="V518" s="23"/>
       <c r="W518" s="23"/>
       <c r="X518" s="40"/>
-      <c r="Y518" s="23"/>
-      <c r="Z518" s="23"/>
-      <c r="AA518" s="23"/>
-      <c r="AB518" s="23"/>
-      <c r="AC518" s="23"/>
-      <c r="AD518" s="22"/>
-      <c r="AF518" s="22"/>
+      <c r="Y518" s="40"/>
+      <c r="Z518" s="40"/>
+      <c r="AA518" s="40"/>
+      <c r="AB518" s="40"/>
+      <c r="AC518" s="40"/>
     </row>
     <row r="519" spans="17:32" s="21" customFormat="1">
-      <c r="Q519" s="23"/>
-      <c r="R519" s="23"/>
-      <c r="S519" s="23"/>
-      <c r="T519" s="23"/>
-      <c r="U519" s="23"/>
-      <c r="V519" s="23"/>
-      <c r="W519" s="23"/>
+      <c r="Q519" s="40"/>
+      <c r="R519" s="40"/>
+      <c r="S519" s="40"/>
+      <c r="T519" s="40"/>
+      <c r="U519" s="40"/>
+      <c r="V519" s="40"/>
+      <c r="W519" s="40"/>
       <c r="X519" s="40"/>
       <c r="Y519" s="40"/>
       <c r="Z519" s="40"/>
@@ -26220,44 +26343,44 @@
       <c r="AC519" s="40"/>
     </row>
     <row r="520" spans="17:32" s="21" customFormat="1">
-      <c r="Q520" s="40"/>
-      <c r="R520" s="40"/>
-      <c r="S520" s="40"/>
-      <c r="T520" s="40"/>
-      <c r="U520" s="40"/>
-      <c r="V520" s="40"/>
-      <c r="W520" s="40"/>
+      <c r="Q520" s="23"/>
+      <c r="R520" s="23"/>
+      <c r="S520" s="23"/>
+      <c r="T520" s="23"/>
+      <c r="U520" s="23"/>
+      <c r="V520" s="23"/>
+      <c r="W520" s="23"/>
       <c r="X520" s="40"/>
-      <c r="Y520" s="40"/>
-      <c r="Z520" s="40"/>
-      <c r="AA520" s="40"/>
-      <c r="AB520" s="40"/>
-      <c r="AC520" s="40"/>
+      <c r="Y520" s="23"/>
+      <c r="Z520" s="23"/>
+      <c r="AA520" s="23"/>
+      <c r="AB520" s="23"/>
+      <c r="AC520" s="23"/>
+      <c r="AD520" s="22"/>
+      <c r="AF520" s="22"/>
     </row>
     <row r="521" spans="17:32" s="21" customFormat="1">
-      <c r="Q521" s="23"/>
-      <c r="R521" s="23"/>
-      <c r="S521" s="23"/>
-      <c r="T521" s="23"/>
-      <c r="U521" s="23"/>
-      <c r="V521" s="23"/>
-      <c r="W521" s="23"/>
+      <c r="Q521" s="40"/>
+      <c r="R521" s="40"/>
+      <c r="S521" s="40"/>
+      <c r="T521" s="40"/>
+      <c r="U521" s="40"/>
+      <c r="V521" s="40"/>
+      <c r="W521" s="40"/>
       <c r="X521" s="40"/>
-      <c r="Y521" s="23"/>
-      <c r="Z521" s="23"/>
-      <c r="AA521" s="23"/>
-      <c r="AB521" s="23"/>
-      <c r="AC521" s="23"/>
-      <c r="AD521" s="22"/>
-      <c r="AF521" s="22"/>
+      <c r="Y521" s="40"/>
+      <c r="Z521" s="40"/>
+      <c r="AA521" s="40"/>
+      <c r="AB521" s="40"/>
+      <c r="AC521" s="40"/>
     </row>
     <row r="522" spans="17:32" s="21" customFormat="1">
-      <c r="Q522" s="40"/>
-      <c r="R522" s="40"/>
-      <c r="S522" s="40"/>
-      <c r="T522" s="40"/>
-      <c r="U522" s="40"/>
-      <c r="V522" s="40"/>
+      <c r="Q522" s="23"/>
+      <c r="R522" s="23"/>
+      <c r="S522" s="23"/>
+      <c r="T522" s="23"/>
+      <c r="U522" s="23"/>
+      <c r="V522" s="23"/>
       <c r="W522" s="40"/>
       <c r="X522" s="40"/>
       <c r="Y522" s="40"/>
@@ -26288,13 +26411,13 @@
       <c r="T524" s="23"/>
       <c r="U524" s="23"/>
       <c r="V524" s="23"/>
-      <c r="W524" s="40"/>
+      <c r="W524" s="23"/>
       <c r="X524" s="40"/>
       <c r="Y524" s="40"/>
-      <c r="Z524" s="40"/>
-      <c r="AA524" s="40"/>
-      <c r="AB524" s="40"/>
-      <c r="AC524" s="40"/>
+      <c r="Z524" s="23"/>
+      <c r="AA524" s="23"/>
+      <c r="AB524" s="23"/>
+      <c r="AC524" s="23"/>
     </row>
     <row r="525" spans="17:32" s="21" customFormat="1">
       <c r="Q525" s="23"/>
@@ -26305,36 +26428,36 @@
       <c r="V525" s="23"/>
       <c r="W525" s="23"/>
       <c r="X525" s="40"/>
-      <c r="Y525" s="40"/>
+      <c r="Y525" s="23"/>
       <c r="Z525" s="23"/>
       <c r="AA525" s="23"/>
       <c r="AB525" s="23"/>
       <c r="AC525" s="23"/>
+      <c r="AD525" s="22"/>
+      <c r="AF525" s="22"/>
     </row>
     <row r="526" spans="17:32" s="21" customFormat="1">
-      <c r="Q526" s="23"/>
-      <c r="R526" s="23"/>
-      <c r="S526" s="23"/>
-      <c r="T526" s="23"/>
-      <c r="U526" s="23"/>
-      <c r="V526" s="23"/>
-      <c r="W526" s="23"/>
+      <c r="Q526" s="40"/>
+      <c r="R526" s="40"/>
+      <c r="S526" s="40"/>
+      <c r="T526" s="40"/>
+      <c r="U526" s="40"/>
+      <c r="V526" s="40"/>
+      <c r="W526" s="40"/>
       <c r="X526" s="40"/>
-      <c r="Y526" s="23"/>
-      <c r="Z526" s="23"/>
-      <c r="AA526" s="23"/>
-      <c r="AB526" s="23"/>
-      <c r="AC526" s="23"/>
-      <c r="AD526" s="22"/>
-      <c r="AF526" s="22"/>
+      <c r="Y526" s="40"/>
+      <c r="Z526" s="40"/>
+      <c r="AA526" s="40"/>
+      <c r="AB526" s="40"/>
+      <c r="AC526" s="40"/>
     </row>
     <row r="527" spans="17:32" s="21" customFormat="1">
-      <c r="Q527" s="40"/>
-      <c r="R527" s="40"/>
-      <c r="S527" s="40"/>
-      <c r="T527" s="40"/>
-      <c r="U527" s="40"/>
-      <c r="V527" s="40"/>
+      <c r="Q527" s="23"/>
+      <c r="R527" s="23"/>
+      <c r="S527" s="23"/>
+      <c r="T527" s="23"/>
+      <c r="U527" s="23"/>
+      <c r="V527" s="23"/>
       <c r="W527" s="40"/>
       <c r="X527" s="40"/>
       <c r="Y527" s="40"/>
@@ -26380,7 +26503,7 @@
       <c r="T530" s="23"/>
       <c r="U530" s="23"/>
       <c r="V530" s="23"/>
-      <c r="W530" s="40"/>
+      <c r="W530" s="23"/>
       <c r="X530" s="40"/>
       <c r="Y530" s="40"/>
       <c r="Z530" s="40"/>
@@ -26398,10 +26521,10 @@
       <c r="W531" s="23"/>
       <c r="X531" s="40"/>
       <c r="Y531" s="40"/>
-      <c r="Z531" s="40"/>
-      <c r="AA531" s="40"/>
-      <c r="AB531" s="40"/>
-      <c r="AC531" s="40"/>
+      <c r="Z531" s="23"/>
+      <c r="AA531" s="23"/>
+      <c r="AB531" s="23"/>
+      <c r="AC531" s="23"/>
     </row>
     <row r="532" spans="17:32" s="21" customFormat="1">
       <c r="Q532" s="23"/>
@@ -26412,11 +26535,13 @@
       <c r="V532" s="23"/>
       <c r="W532" s="23"/>
       <c r="X532" s="40"/>
-      <c r="Y532" s="40"/>
+      <c r="Y532" s="23"/>
       <c r="Z532" s="23"/>
       <c r="AA532" s="23"/>
       <c r="AB532" s="23"/>
       <c r="AC532" s="23"/>
+      <c r="AD532" s="22"/>
+      <c r="AF532" s="22"/>
     </row>
     <row r="533" spans="17:32" s="21" customFormat="1">
       <c r="Q533" s="23"/>
@@ -26427,22 +26552,20 @@
       <c r="V533" s="23"/>
       <c r="W533" s="23"/>
       <c r="X533" s="40"/>
-      <c r="Y533" s="23"/>
-      <c r="Z533" s="23"/>
-      <c r="AA533" s="23"/>
-      <c r="AB533" s="23"/>
-      <c r="AC533" s="23"/>
-      <c r="AD533" s="22"/>
-      <c r="AF533" s="22"/>
+      <c r="Y533" s="40"/>
+      <c r="Z533" s="40"/>
+      <c r="AA533" s="40"/>
+      <c r="AB533" s="40"/>
+      <c r="AC533" s="40"/>
     </row>
     <row r="534" spans="17:32" s="21" customFormat="1">
-      <c r="Q534" s="23"/>
-      <c r="R534" s="23"/>
-      <c r="S534" s="23"/>
-      <c r="T534" s="23"/>
-      <c r="U534" s="23"/>
-      <c r="V534" s="23"/>
-      <c r="W534" s="23"/>
+      <c r="Q534" s="40"/>
+      <c r="R534" s="40"/>
+      <c r="S534" s="40"/>
+      <c r="T534" s="40"/>
+      <c r="U534" s="40"/>
+      <c r="V534" s="40"/>
+      <c r="W534" s="40"/>
       <c r="X534" s="40"/>
       <c r="Y534" s="40"/>
       <c r="Z534" s="40"/>
@@ -26451,45 +26574,45 @@
       <c r="AC534" s="40"/>
     </row>
     <row r="535" spans="17:32" s="21" customFormat="1">
-      <c r="Q535" s="40"/>
-      <c r="R535" s="40"/>
-      <c r="S535" s="40"/>
-      <c r="T535" s="40"/>
-      <c r="U535" s="40"/>
-      <c r="V535" s="40"/>
+      <c r="Q535" s="23"/>
+      <c r="R535" s="23"/>
+      <c r="S535" s="23"/>
+      <c r="T535" s="23"/>
+      <c r="U535" s="23"/>
+      <c r="V535" s="23"/>
       <c r="W535" s="40"/>
-      <c r="X535" s="40"/>
-      <c r="Y535" s="40"/>
-      <c r="Z535" s="40"/>
-      <c r="AA535" s="40"/>
-      <c r="AB535" s="40"/>
-      <c r="AC535" s="40"/>
+      <c r="X535" s="23"/>
+      <c r="Y535" s="23"/>
+      <c r="Z535" s="23"/>
+      <c r="AA535" s="23"/>
+      <c r="AB535" s="23"/>
+      <c r="AC535" s="23"/>
+      <c r="AD535" s="22"/>
+      <c r="AF535" s="22"/>
     </row>
     <row r="536" spans="17:32" s="21" customFormat="1">
-      <c r="Q536" s="23"/>
-      <c r="R536" s="23"/>
-      <c r="S536" s="23"/>
-      <c r="T536" s="23"/>
-      <c r="U536" s="23"/>
-      <c r="V536" s="23"/>
+      <c r="Q536" s="40"/>
+      <c r="R536" s="40"/>
+      <c r="S536" s="40"/>
+      <c r="T536" s="40"/>
+      <c r="U536" s="40"/>
+      <c r="V536" s="40"/>
       <c r="W536" s="40"/>
-      <c r="X536" s="23"/>
-      <c r="Y536" s="23"/>
-      <c r="Z536" s="23"/>
-      <c r="AA536" s="23"/>
-      <c r="AB536" s="23"/>
-      <c r="AC536" s="23"/>
-      <c r="AD536" s="22"/>
-      <c r="AF536" s="22"/>
+      <c r="X536" s="40"/>
+      <c r="Y536" s="40"/>
+      <c r="Z536" s="40"/>
+      <c r="AA536" s="40"/>
+      <c r="AB536" s="40"/>
+      <c r="AC536" s="40"/>
     </row>
     <row r="537" spans="17:32" s="21" customFormat="1">
-      <c r="Q537" s="40"/>
-      <c r="R537" s="40"/>
-      <c r="S537" s="40"/>
-      <c r="T537" s="40"/>
-      <c r="U537" s="40"/>
-      <c r="V537" s="40"/>
-      <c r="W537" s="40"/>
+      <c r="Q537" s="23"/>
+      <c r="R537" s="23"/>
+      <c r="S537" s="23"/>
+      <c r="T537" s="23"/>
+      <c r="U537" s="23"/>
+      <c r="V537" s="23"/>
+      <c r="W537" s="23"/>
       <c r="X537" s="40"/>
       <c r="Y537" s="40"/>
       <c r="Z537" s="40"/>
@@ -26528,27 +26651,29 @@
       <c r="AC539" s="40"/>
     </row>
     <row r="540" spans="17:32" s="21" customFormat="1">
-      <c r="Q540" s="23"/>
-      <c r="R540" s="23"/>
-      <c r="S540" s="23"/>
-      <c r="T540" s="23"/>
-      <c r="U540" s="23"/>
-      <c r="V540" s="23"/>
-      <c r="W540" s="23"/>
-      <c r="X540" s="40"/>
-      <c r="Y540" s="40"/>
-      <c r="Z540" s="40"/>
-      <c r="AA540" s="40"/>
-      <c r="AB540" s="40"/>
-      <c r="AC540" s="40"/>
+      <c r="Q540" s="40"/>
+      <c r="R540" s="40"/>
+      <c r="S540" s="40"/>
+      <c r="T540" s="40"/>
+      <c r="U540" s="40"/>
+      <c r="V540" s="40"/>
+      <c r="W540" s="40"/>
+      <c r="X540" s="23"/>
+      <c r="Y540" s="23"/>
+      <c r="Z540" s="23"/>
+      <c r="AA540" s="23"/>
+      <c r="AB540" s="23"/>
+      <c r="AC540" s="23"/>
+      <c r="AD540" s="22"/>
+      <c r="AF540" s="22"/>
     </row>
     <row r="541" spans="17:32" s="21" customFormat="1">
-      <c r="Q541" s="40"/>
-      <c r="R541" s="40"/>
-      <c r="S541" s="40"/>
-      <c r="T541" s="40"/>
-      <c r="U541" s="40"/>
-      <c r="V541" s="40"/>
+      <c r="Q541" s="23"/>
+      <c r="R541" s="23"/>
+      <c r="S541" s="23"/>
+      <c r="T541" s="23"/>
+      <c r="U541" s="23"/>
+      <c r="V541" s="23"/>
       <c r="W541" s="40"/>
       <c r="X541" s="23"/>
       <c r="Y541" s="23"/>
@@ -26566,15 +26691,13 @@
       <c r="T542" s="23"/>
       <c r="U542" s="23"/>
       <c r="V542" s="23"/>
-      <c r="W542" s="40"/>
-      <c r="X542" s="23"/>
-      <c r="Y542" s="23"/>
+      <c r="W542" s="23"/>
+      <c r="X542" s="40"/>
+      <c r="Y542" s="40"/>
       <c r="Z542" s="23"/>
       <c r="AA542" s="23"/>
       <c r="AB542" s="23"/>
       <c r="AC542" s="23"/>
-      <c r="AD542" s="22"/>
-      <c r="AF542" s="22"/>
     </row>
     <row r="543" spans="17:32" s="21" customFormat="1">
       <c r="Q543" s="23"/>
@@ -26613,13 +26736,13 @@
       <c r="T545" s="23"/>
       <c r="U545" s="23"/>
       <c r="V545" s="23"/>
-      <c r="W545" s="23"/>
+      <c r="W545" s="40"/>
       <c r="X545" s="40"/>
       <c r="Y545" s="40"/>
-      <c r="Z545" s="23"/>
-      <c r="AA545" s="23"/>
-      <c r="AB545" s="23"/>
-      <c r="AC545" s="23"/>
+      <c r="Z545" s="40"/>
+      <c r="AA545" s="40"/>
+      <c r="AB545" s="40"/>
+      <c r="AC545" s="40"/>
     </row>
     <row r="546" spans="9:32" s="21" customFormat="1">
       <c r="Q546" s="23"/>
@@ -26643,40 +26766,43 @@
       <c r="T547" s="23"/>
       <c r="U547" s="23"/>
       <c r="V547" s="23"/>
-      <c r="W547" s="40"/>
+      <c r="W547" s="23"/>
       <c r="X547" s="40"/>
-      <c r="Y547" s="40"/>
-      <c r="Z547" s="40"/>
-      <c r="AA547" s="40"/>
-      <c r="AB547" s="40"/>
-      <c r="AC547" s="40"/>
+      <c r="Y547" s="23"/>
+      <c r="Z547" s="23"/>
+      <c r="AA547" s="23"/>
+      <c r="AB547" s="23"/>
+      <c r="AC547" s="23"/>
+      <c r="AD547" s="22"/>
+      <c r="AF547" s="22"/>
     </row>
     <row r="548" spans="9:32" s="21" customFormat="1">
-      <c r="Q548" s="23"/>
-      <c r="R548" s="23"/>
-      <c r="S548" s="23"/>
-      <c r="T548" s="23"/>
-      <c r="U548" s="23"/>
-      <c r="V548" s="23"/>
-      <c r="W548" s="23"/>
+      <c r="J548" s="36"/>
+      <c r="K548" s="36"/>
+      <c r="Q548" s="40"/>
+      <c r="R548" s="40"/>
+      <c r="S548" s="40"/>
+      <c r="T548" s="40"/>
+      <c r="U548" s="40"/>
+      <c r="V548" s="40"/>
+      <c r="W548" s="40"/>
       <c r="X548" s="40"/>
-      <c r="Y548" s="23"/>
-      <c r="Z548" s="23"/>
-      <c r="AA548" s="23"/>
-      <c r="AB548" s="23"/>
-      <c r="AC548" s="23"/>
-      <c r="AD548" s="22"/>
-      <c r="AF548" s="22"/>
+      <c r="Y548" s="40"/>
+      <c r="Z548" s="40"/>
+      <c r="AA548" s="40"/>
+      <c r="AB548" s="40"/>
+      <c r="AC548" s="40"/>
     </row>
     <row r="549" spans="9:32" s="21" customFormat="1">
-      <c r="J549" s="36"/>
-      <c r="K549" s="36"/>
-      <c r="Q549" s="40"/>
-      <c r="R549" s="40"/>
-      <c r="S549" s="40"/>
-      <c r="T549" s="40"/>
-      <c r="U549" s="40"/>
-      <c r="V549" s="40"/>
+      <c r="I549" s="36"/>
+      <c r="L549" s="36"/>
+      <c r="M549" s="36"/>
+      <c r="Q549" s="23"/>
+      <c r="R549" s="23"/>
+      <c r="S549" s="23"/>
+      <c r="T549" s="23"/>
+      <c r="U549" s="23"/>
+      <c r="V549" s="23"/>
       <c r="W549" s="40"/>
       <c r="X549" s="40"/>
       <c r="Y549" s="40"/>
@@ -26686,15 +26812,12 @@
       <c r="AC549" s="40"/>
     </row>
     <row r="550" spans="9:32" s="21" customFormat="1">
-      <c r="I550" s="36"/>
-      <c r="L550" s="36"/>
-      <c r="M550" s="36"/>
-      <c r="Q550" s="23"/>
-      <c r="R550" s="23"/>
-      <c r="S550" s="23"/>
-      <c r="T550" s="23"/>
-      <c r="U550" s="23"/>
-      <c r="V550" s="23"/>
+      <c r="Q550" s="40"/>
+      <c r="R550" s="40"/>
+      <c r="S550" s="40"/>
+      <c r="T550" s="40"/>
+      <c r="U550" s="40"/>
+      <c r="V550" s="40"/>
       <c r="W550" s="40"/>
       <c r="X550" s="40"/>
       <c r="Y550" s="40"/>
@@ -26704,19 +26827,19 @@
       <c r="AC550" s="40"/>
     </row>
     <row r="551" spans="9:32" s="21" customFormat="1">
-      <c r="Q551" s="40"/>
-      <c r="R551" s="40"/>
-      <c r="S551" s="40"/>
-      <c r="T551" s="40"/>
-      <c r="U551" s="40"/>
-      <c r="V551" s="40"/>
-      <c r="W551" s="40"/>
+      <c r="Q551" s="23"/>
+      <c r="R551" s="23"/>
+      <c r="S551" s="23"/>
+      <c r="T551" s="23"/>
+      <c r="U551" s="23"/>
+      <c r="V551" s="23"/>
+      <c r="W551" s="23"/>
       <c r="X551" s="40"/>
       <c r="Y551" s="40"/>
-      <c r="Z551" s="40"/>
-      <c r="AA551" s="40"/>
-      <c r="AB551" s="40"/>
-      <c r="AC551" s="40"/>
+      <c r="Z551" s="23"/>
+      <c r="AA551" s="23"/>
+      <c r="AB551" s="23"/>
+      <c r="AC551" s="23"/>
     </row>
     <row r="552" spans="9:32" s="21" customFormat="1">
       <c r="Q552" s="23"/>
@@ -26727,36 +26850,36 @@
       <c r="V552" s="23"/>
       <c r="W552" s="23"/>
       <c r="X552" s="40"/>
-      <c r="Y552" s="40"/>
+      <c r="Y552" s="23"/>
       <c r="Z552" s="23"/>
       <c r="AA552" s="23"/>
       <c r="AB552" s="23"/>
       <c r="AC552" s="23"/>
+      <c r="AD552" s="22"/>
+      <c r="AF552" s="22"/>
     </row>
     <row r="553" spans="9:32" s="21" customFormat="1">
-      <c r="Q553" s="23"/>
-      <c r="R553" s="23"/>
-      <c r="S553" s="23"/>
-      <c r="T553" s="23"/>
-      <c r="U553" s="23"/>
-      <c r="V553" s="23"/>
-      <c r="W553" s="23"/>
+      <c r="Q553" s="40"/>
+      <c r="R553" s="40"/>
+      <c r="S553" s="40"/>
+      <c r="T553" s="40"/>
+      <c r="U553" s="40"/>
+      <c r="V553" s="40"/>
+      <c r="W553" s="40"/>
       <c r="X553" s="40"/>
-      <c r="Y553" s="23"/>
-      <c r="Z553" s="23"/>
-      <c r="AA553" s="23"/>
-      <c r="AB553" s="23"/>
-      <c r="AC553" s="23"/>
-      <c r="AD553" s="22"/>
-      <c r="AF553" s="22"/>
+      <c r="Y553" s="40"/>
+      <c r="Z553" s="40"/>
+      <c r="AA553" s="40"/>
+      <c r="AB553" s="40"/>
+      <c r="AC553" s="40"/>
     </row>
     <row r="554" spans="9:32" s="21" customFormat="1">
-      <c r="Q554" s="40"/>
-      <c r="R554" s="40"/>
-      <c r="S554" s="40"/>
-      <c r="T554" s="40"/>
-      <c r="U554" s="40"/>
-      <c r="V554" s="40"/>
+      <c r="Q554" s="23"/>
+      <c r="R554" s="23"/>
+      <c r="S554" s="23"/>
+      <c r="T554" s="23"/>
+      <c r="U554" s="23"/>
+      <c r="V554" s="23"/>
       <c r="W554" s="40"/>
       <c r="X554" s="40"/>
       <c r="Y554" s="40"/>
@@ -26787,7 +26910,7 @@
       <c r="T556" s="23"/>
       <c r="U556" s="23"/>
       <c r="V556" s="23"/>
-      <c r="W556" s="40"/>
+      <c r="W556" s="23"/>
       <c r="X556" s="40"/>
       <c r="Y556" s="40"/>
       <c r="Z556" s="40"/>
@@ -26811,13 +26934,13 @@
       <c r="AC557" s="40"/>
     </row>
     <row r="558" spans="9:32" s="21" customFormat="1">
-      <c r="Q558" s="23"/>
-      <c r="R558" s="23"/>
-      <c r="S558" s="23"/>
-      <c r="T558" s="23"/>
-      <c r="U558" s="23"/>
-      <c r="V558" s="23"/>
-      <c r="W558" s="23"/>
+      <c r="Q558" s="40"/>
+      <c r="R558" s="40"/>
+      <c r="S558" s="40"/>
+      <c r="T558" s="40"/>
+      <c r="U558" s="40"/>
+      <c r="V558" s="40"/>
+      <c r="W558" s="40"/>
       <c r="X558" s="40"/>
       <c r="Y558" s="40"/>
       <c r="Z558" s="40"/>
@@ -26826,19 +26949,21 @@
       <c r="AC558" s="40"/>
     </row>
     <row r="559" spans="9:32" s="21" customFormat="1">
-      <c r="Q559" s="40"/>
-      <c r="R559" s="40"/>
-      <c r="S559" s="40"/>
-      <c r="T559" s="40"/>
-      <c r="U559" s="40"/>
-      <c r="V559" s="40"/>
+      <c r="Q559" s="23"/>
+      <c r="R559" s="23"/>
+      <c r="S559" s="23"/>
+      <c r="T559" s="23"/>
+      <c r="U559" s="23"/>
+      <c r="V559" s="23"/>
       <c r="W559" s="40"/>
-      <c r="X559" s="40"/>
-      <c r="Y559" s="40"/>
-      <c r="Z559" s="40"/>
-      <c r="AA559" s="40"/>
-      <c r="AB559" s="40"/>
-      <c r="AC559" s="40"/>
+      <c r="X559" s="23"/>
+      <c r="Y559" s="23"/>
+      <c r="Z559" s="23"/>
+      <c r="AA559" s="23"/>
+      <c r="AB559" s="23"/>
+      <c r="AC559" s="23"/>
+      <c r="AD559" s="22"/>
+      <c r="AF559" s="22"/>
     </row>
     <row r="560" spans="9:32" s="21" customFormat="1">
       <c r="Q560" s="23"/>
@@ -26847,15 +26972,13 @@
       <c r="T560" s="23"/>
       <c r="U560" s="23"/>
       <c r="V560" s="23"/>
-      <c r="W560" s="40"/>
-      <c r="X560" s="23"/>
-      <c r="Y560" s="23"/>
-      <c r="Z560" s="23"/>
-      <c r="AA560" s="23"/>
-      <c r="AB560" s="23"/>
-      <c r="AC560" s="23"/>
-      <c r="AD560" s="22"/>
-      <c r="AF560" s="22"/>
+      <c r="W560" s="23"/>
+      <c r="X560" s="40"/>
+      <c r="Y560" s="40"/>
+      <c r="Z560" s="40"/>
+      <c r="AA560" s="40"/>
+      <c r="AB560" s="40"/>
+      <c r="AC560" s="40"/>
     </row>
     <row r="561" spans="16:32" s="21" customFormat="1">
       <c r="Q561" s="23"/>
@@ -26888,34 +27011,34 @@
       <c r="AC562" s="40"/>
     </row>
     <row r="563" spans="16:32" s="21" customFormat="1">
+      <c r="P563" s="22"/>
       <c r="Q563" s="23"/>
       <c r="R563" s="23"/>
       <c r="S563" s="23"/>
       <c r="T563" s="23"/>
       <c r="U563" s="23"/>
       <c r="V563" s="23"/>
-      <c r="W563" s="23"/>
+      <c r="W563" s="40"/>
       <c r="X563" s="40"/>
       <c r="Y563" s="40"/>
       <c r="Z563" s="40"/>
       <c r="AA563" s="40"/>
       <c r="AB563" s="40"/>
-      <c r="AC563" s="40"/>
     </row>
     <row r="564" spans="16:32" s="21" customFormat="1">
-      <c r="P564" s="22"/>
       <c r="Q564" s="23"/>
       <c r="R564" s="23"/>
       <c r="S564" s="23"/>
       <c r="T564" s="23"/>
       <c r="U564" s="23"/>
       <c r="V564" s="23"/>
-      <c r="W564" s="40"/>
+      <c r="W564" s="23"/>
       <c r="X564" s="40"/>
       <c r="Y564" s="40"/>
       <c r="Z564" s="40"/>
       <c r="AA564" s="40"/>
       <c r="AB564" s="40"/>
+      <c r="AC564" s="40"/>
     </row>
     <row r="565" spans="16:32" s="21" customFormat="1">
       <c r="Q565" s="23"/>
@@ -26924,7 +27047,7 @@
       <c r="T565" s="23"/>
       <c r="U565" s="23"/>
       <c r="V565" s="23"/>
-      <c r="W565" s="23"/>
+      <c r="W565" s="40"/>
       <c r="X565" s="40"/>
       <c r="Y565" s="40"/>
       <c r="Z565" s="40"/>
@@ -26954,13 +27077,13 @@
       <c r="T567" s="23"/>
       <c r="U567" s="23"/>
       <c r="V567" s="23"/>
-      <c r="W567" s="40"/>
+      <c r="W567" s="23"/>
       <c r="X567" s="40"/>
       <c r="Y567" s="40"/>
-      <c r="Z567" s="40"/>
-      <c r="AA567" s="40"/>
-      <c r="AB567" s="40"/>
-      <c r="AC567" s="40"/>
+      <c r="Z567" s="23"/>
+      <c r="AA567" s="23"/>
+      <c r="AB567" s="23"/>
+      <c r="AC567" s="23"/>
     </row>
     <row r="568" spans="16:32" s="21" customFormat="1">
       <c r="Q568" s="23"/>
@@ -26986,36 +27109,36 @@
       <c r="V569" s="23"/>
       <c r="W569" s="23"/>
       <c r="X569" s="40"/>
-      <c r="Y569" s="40"/>
+      <c r="Y569" s="23"/>
       <c r="Z569" s="23"/>
       <c r="AA569" s="23"/>
       <c r="AB569" s="23"/>
       <c r="AC569" s="23"/>
+      <c r="AD569" s="22"/>
+      <c r="AF569" s="22"/>
     </row>
     <row r="570" spans="16:32" s="21" customFormat="1">
-      <c r="Q570" s="23"/>
-      <c r="R570" s="23"/>
-      <c r="S570" s="23"/>
-      <c r="T570" s="23"/>
-      <c r="U570" s="23"/>
-      <c r="V570" s="23"/>
-      <c r="W570" s="23"/>
+      <c r="Q570" s="40"/>
+      <c r="R570" s="40"/>
+      <c r="S570" s="40"/>
+      <c r="T570" s="40"/>
+      <c r="U570" s="40"/>
+      <c r="V570" s="40"/>
+      <c r="W570" s="40"/>
       <c r="X570" s="40"/>
-      <c r="Y570" s="23"/>
-      <c r="Z570" s="23"/>
-      <c r="AA570" s="23"/>
-      <c r="AB570" s="23"/>
-      <c r="AC570" s="23"/>
-      <c r="AD570" s="22"/>
-      <c r="AF570" s="22"/>
+      <c r="Y570" s="40"/>
+      <c r="Z570" s="40"/>
+      <c r="AA570" s="40"/>
+      <c r="AB570" s="40"/>
+      <c r="AC570" s="40"/>
     </row>
     <row r="571" spans="16:32" s="21" customFormat="1">
-      <c r="Q571" s="40"/>
-      <c r="R571" s="40"/>
-      <c r="S571" s="40"/>
-      <c r="T571" s="40"/>
-      <c r="U571" s="40"/>
-      <c r="V571" s="40"/>
+      <c r="Q571" s="23"/>
+      <c r="R571" s="23"/>
+      <c r="S571" s="23"/>
+      <c r="T571" s="23"/>
+      <c r="U571" s="23"/>
+      <c r="V571" s="23"/>
       <c r="W571" s="40"/>
       <c r="X571" s="40"/>
       <c r="Y571" s="40"/>
@@ -27046,7 +27169,7 @@
       <c r="T573" s="23"/>
       <c r="U573" s="23"/>
       <c r="V573" s="23"/>
-      <c r="W573" s="40"/>
+      <c r="W573" s="23"/>
       <c r="X573" s="40"/>
       <c r="Y573" s="40"/>
       <c r="Z573" s="40"/>
@@ -27070,13 +27193,13 @@
       <c r="AC574" s="40"/>
     </row>
     <row r="575" spans="16:32" s="21" customFormat="1">
-      <c r="Q575" s="23"/>
-      <c r="R575" s="23"/>
-      <c r="S575" s="23"/>
-      <c r="T575" s="23"/>
-      <c r="U575" s="23"/>
-      <c r="V575" s="23"/>
-      <c r="W575" s="23"/>
+      <c r="Q575" s="40"/>
+      <c r="R575" s="40"/>
+      <c r="S575" s="40"/>
+      <c r="T575" s="40"/>
+      <c r="U575" s="40"/>
+      <c r="V575" s="40"/>
+      <c r="W575" s="40"/>
       <c r="X575" s="40"/>
       <c r="Y575" s="40"/>
       <c r="Z575" s="40"/>
@@ -27085,12 +27208,12 @@
       <c r="AC575" s="40"/>
     </row>
     <row r="576" spans="16:32" s="21" customFormat="1">
-      <c r="Q576" s="40"/>
-      <c r="R576" s="40"/>
-      <c r="S576" s="40"/>
-      <c r="T576" s="40"/>
-      <c r="U576" s="40"/>
-      <c r="V576" s="40"/>
+      <c r="Q576" s="23"/>
+      <c r="R576" s="23"/>
+      <c r="S576" s="23"/>
+      <c r="T576" s="23"/>
+      <c r="U576" s="23"/>
+      <c r="V576" s="23"/>
       <c r="W576" s="40"/>
       <c r="X576" s="40"/>
       <c r="Y576" s="40"/>
@@ -27115,6 +27238,8 @@
       <c r="AC577" s="40"/>
     </row>
     <row r="578" spans="9:29" s="21" customFormat="1">
+      <c r="J578" s="1"/>
+      <c r="K578" s="1"/>
       <c r="Q578" s="23"/>
       <c r="R578" s="23"/>
       <c r="S578" s="23"/>
@@ -27129,26 +27254,26 @@
       <c r="AB578" s="40"/>
       <c r="AC578" s="40"/>
     </row>
-    <row r="579" spans="9:29" s="21" customFormat="1">
-      <c r="J579" s="1"/>
-      <c r="K579" s="1"/>
-      <c r="Q579" s="23"/>
-      <c r="R579" s="23"/>
-      <c r="S579" s="23"/>
-      <c r="T579" s="23"/>
-      <c r="U579" s="23"/>
-      <c r="V579" s="23"/>
-      <c r="W579" s="40"/>
-      <c r="X579" s="40"/>
-      <c r="Y579" s="40"/>
-      <c r="Z579" s="40"/>
-      <c r="AA579" s="40"/>
-      <c r="AB579" s="40"/>
-      <c r="AC579" s="40"/>
+    <row r="579" spans="9:29">
+      <c r="J579" s="36"/>
+      <c r="K579" s="36"/>
+      <c r="Q579" s="20"/>
+      <c r="R579" s="20"/>
+      <c r="S579" s="20"/>
+      <c r="T579" s="20"/>
+      <c r="U579" s="20"/>
+      <c r="V579" s="20"/>
+      <c r="W579" s="20"/>
+      <c r="X579" s="15"/>
+      <c r="Y579" s="15"/>
+      <c r="Z579" s="15"/>
+      <c r="AA579" s="15"/>
+      <c r="AB579" s="15"/>
+      <c r="AC579" s="15"/>
     </row>
     <row r="580" spans="9:29">
-      <c r="J580" s="36"/>
-      <c r="K580" s="36"/>
+      <c r="I580" s="36"/>
+      <c r="L580" s="36"/>
       <c r="Q580" s="20"/>
       <c r="R580" s="20"/>
       <c r="S580" s="20"/>
@@ -27164,8 +27289,8 @@
       <c r="AC580" s="15"/>
     </row>
     <row r="581" spans="9:29">
-      <c r="I581" s="36"/>
-      <c r="L581" s="36"/>
+      <c r="J581" s="36"/>
+      <c r="K581" s="36"/>
       <c r="Q581" s="20"/>
       <c r="R581" s="20"/>
       <c r="S581" s="20"/>
@@ -27181,8 +27306,8 @@
       <c r="AC581" s="15"/>
     </row>
     <row r="582" spans="9:29">
-      <c r="J582" s="36"/>
-      <c r="K582" s="36"/>
+      <c r="I582" s="36"/>
+      <c r="L582" s="36"/>
       <c r="Q582" s="20"/>
       <c r="R582" s="20"/>
       <c r="S582" s="20"/>
@@ -27198,15 +27323,13 @@
       <c r="AC582" s="15"/>
     </row>
     <row r="583" spans="9:29">
-      <c r="I583" s="36"/>
-      <c r="L583" s="36"/>
       <c r="Q583" s="20"/>
       <c r="R583" s="20"/>
       <c r="S583" s="20"/>
       <c r="T583" s="20"/>
       <c r="U583" s="20"/>
       <c r="V583" s="20"/>
-      <c r="W583" s="20"/>
+      <c r="W583" s="15"/>
       <c r="X583" s="15"/>
       <c r="Y583" s="15"/>
       <c r="Z583" s="15"/>
@@ -27221,7 +27344,7 @@
       <c r="T584" s="20"/>
       <c r="U584" s="20"/>
       <c r="V584" s="20"/>
-      <c r="W584" s="15"/>
+      <c r="W584" s="20"/>
       <c r="X584" s="15"/>
       <c r="Y584" s="15"/>
       <c r="Z584" s="15"/>
@@ -27236,7 +27359,7 @@
       <c r="T585" s="20"/>
       <c r="U585" s="20"/>
       <c r="V585" s="20"/>
-      <c r="W585" s="20"/>
+      <c r="W585" s="15"/>
       <c r="X585" s="15"/>
       <c r="Y585" s="15"/>
       <c r="Z585" s="15"/>
@@ -27245,6 +27368,7 @@
       <c r="AC585" s="15"/>
     </row>
     <row r="586" spans="9:29">
+      <c r="L586" s="18"/>
       <c r="Q586" s="20"/>
       <c r="R586" s="20"/>
       <c r="S586" s="20"/>
@@ -27260,7 +27384,6 @@
       <c r="AC586" s="15"/>
     </row>
     <row r="587" spans="9:29">
-      <c r="L587" s="18"/>
       <c r="Q587" s="20"/>
       <c r="R587" s="20"/>
       <c r="S587" s="20"/>
@@ -27282,7 +27405,7 @@
       <c r="T588" s="20"/>
       <c r="U588" s="20"/>
       <c r="V588" s="20"/>
-      <c r="W588" s="15"/>
+      <c r="W588" s="20"/>
       <c r="X588" s="15"/>
       <c r="Y588" s="15"/>
       <c r="Z588" s="15"/>
@@ -27297,9 +27420,9 @@
       <c r="T589" s="20"/>
       <c r="U589" s="20"/>
       <c r="V589" s="20"/>
-      <c r="W589" s="20"/>
+      <c r="W589" s="15"/>
       <c r="X589" s="15"/>
-      <c r="Y589" s="15"/>
+      <c r="Y589" s="20"/>
       <c r="Z589" s="15"/>
       <c r="AA589" s="15"/>
       <c r="AB589" s="15"/>
@@ -27314,7 +27437,7 @@
       <c r="V590" s="20"/>
       <c r="W590" s="15"/>
       <c r="X590" s="15"/>
-      <c r="Y590" s="20"/>
+      <c r="Y590" s="15"/>
       <c r="Z590" s="15"/>
       <c r="AA590" s="15"/>
       <c r="AB590" s="15"/>
@@ -27327,7 +27450,7 @@
       <c r="T591" s="20"/>
       <c r="U591" s="20"/>
       <c r="V591" s="20"/>
-      <c r="W591" s="15"/>
+      <c r="W591" s="20"/>
       <c r="X591" s="15"/>
       <c r="Y591" s="15"/>
       <c r="Z591" s="15"/>
@@ -27342,7 +27465,7 @@
       <c r="T592" s="20"/>
       <c r="U592" s="20"/>
       <c r="V592" s="20"/>
-      <c r="W592" s="20"/>
+      <c r="W592" s="15"/>
       <c r="X592" s="15"/>
       <c r="Y592" s="15"/>
       <c r="Z592" s="15"/>
@@ -27351,6 +27474,7 @@
       <c r="AC592" s="15"/>
     </row>
     <row r="593" spans="9:29">
+      <c r="L593" s="18"/>
       <c r="Q593" s="20"/>
       <c r="R593" s="20"/>
       <c r="S593" s="20"/>
@@ -27366,14 +27490,13 @@
       <c r="AC593" s="15"/>
     </row>
     <row r="594" spans="9:29">
-      <c r="L594" s="18"/>
       <c r="Q594" s="20"/>
       <c r="R594" s="20"/>
       <c r="S594" s="20"/>
       <c r="T594" s="20"/>
       <c r="U594" s="20"/>
       <c r="V594" s="20"/>
-      <c r="W594" s="15"/>
+      <c r="W594" s="20"/>
       <c r="X594" s="15"/>
       <c r="Y594" s="15"/>
       <c r="Z594" s="15"/>
@@ -27403,9 +27526,9 @@
       <c r="T596" s="20"/>
       <c r="U596" s="20"/>
       <c r="V596" s="20"/>
-      <c r="W596" s="20"/>
+      <c r="W596" s="15"/>
       <c r="X596" s="15"/>
-      <c r="Y596" s="15"/>
+      <c r="Y596" s="20"/>
       <c r="Z596" s="15"/>
       <c r="AA596" s="15"/>
       <c r="AB596" s="15"/>
@@ -27420,13 +27543,14 @@
       <c r="V597" s="20"/>
       <c r="W597" s="15"/>
       <c r="X597" s="15"/>
-      <c r="Y597" s="20"/>
+      <c r="Y597" s="15"/>
       <c r="Z597" s="15"/>
       <c r="AA597" s="15"/>
       <c r="AB597" s="15"/>
       <c r="AC597" s="15"/>
     </row>
     <row r="598" spans="9:29">
+      <c r="L598" s="18"/>
       <c r="Q598" s="20"/>
       <c r="R598" s="20"/>
       <c r="S598" s="20"/>
@@ -27442,7 +27566,6 @@
       <c r="AC598" s="15"/>
     </row>
     <row r="599" spans="9:29">
-      <c r="L599" s="18"/>
       <c r="Q599" s="20"/>
       <c r="R599" s="20"/>
       <c r="S599" s="20"/>
@@ -27464,7 +27587,7 @@
       <c r="T600" s="20"/>
       <c r="U600" s="20"/>
       <c r="V600" s="20"/>
-      <c r="W600" s="15"/>
+      <c r="W600" s="20"/>
       <c r="X600" s="15"/>
       <c r="Y600" s="15"/>
       <c r="Z600" s="15"/>
@@ -27473,6 +27596,8 @@
       <c r="AC600" s="15"/>
     </row>
     <row r="601" spans="9:29">
+      <c r="J601" s="36"/>
+      <c r="K601" s="36"/>
       <c r="Q601" s="20"/>
       <c r="R601" s="20"/>
       <c r="S601" s="20"/>
@@ -27488,8 +27613,8 @@
       <c r="AC601" s="15"/>
     </row>
     <row r="602" spans="9:29">
-      <c r="J602" s="36"/>
-      <c r="K602" s="36"/>
+      <c r="I602" s="36"/>
+      <c r="L602" s="36"/>
       <c r="Q602" s="20"/>
       <c r="R602" s="20"/>
       <c r="S602" s="20"/>
@@ -27505,15 +27630,13 @@
       <c r="AC602" s="15"/>
     </row>
     <row r="603" spans="9:29">
-      <c r="I603" s="36"/>
-      <c r="L603" s="36"/>
       <c r="Q603" s="20"/>
       <c r="R603" s="20"/>
       <c r="S603" s="20"/>
       <c r="T603" s="20"/>
       <c r="U603" s="20"/>
       <c r="V603" s="20"/>
-      <c r="W603" s="20"/>
+      <c r="W603" s="15"/>
       <c r="X603" s="15"/>
       <c r="Y603" s="15"/>
       <c r="Z603" s="15"/>
@@ -27528,7 +27651,7 @@
       <c r="T604" s="20"/>
       <c r="U604" s="20"/>
       <c r="V604" s="20"/>
-      <c r="W604" s="15"/>
+      <c r="W604" s="20"/>
       <c r="X604" s="15"/>
       <c r="Y604" s="15"/>
       <c r="Z604" s="15"/>
@@ -27537,13 +27660,13 @@
       <c r="AC604" s="15"/>
     </row>
     <row r="605" spans="9:29">
-      <c r="Q605" s="20"/>
-      <c r="R605" s="20"/>
-      <c r="S605" s="20"/>
-      <c r="T605" s="20"/>
-      <c r="U605" s="20"/>
-      <c r="V605" s="20"/>
-      <c r="W605" s="20"/>
+      <c r="Q605" s="15"/>
+      <c r="R605" s="15"/>
+      <c r="S605" s="15"/>
+      <c r="T605" s="15"/>
+      <c r="U605" s="15"/>
+      <c r="V605" s="15"/>
+      <c r="W605" s="15"/>
       <c r="X605" s="15"/>
       <c r="Y605" s="15"/>
       <c r="Z605" s="15"/>
@@ -27552,12 +27675,12 @@
       <c r="AC605" s="15"/>
     </row>
     <row r="606" spans="9:29">
-      <c r="Q606" s="15"/>
-      <c r="R606" s="15"/>
-      <c r="S606" s="15"/>
-      <c r="T606" s="15"/>
-      <c r="U606" s="15"/>
-      <c r="V606" s="15"/>
+      <c r="Q606" s="20"/>
+      <c r="R606" s="20"/>
+      <c r="S606" s="20"/>
+      <c r="T606" s="20"/>
+      <c r="U606" s="20"/>
+      <c r="V606" s="20"/>
       <c r="W606" s="15"/>
       <c r="X606" s="15"/>
       <c r="Y606" s="15"/>
@@ -27603,7 +27726,7 @@
       <c r="T609" s="20"/>
       <c r="U609" s="20"/>
       <c r="V609" s="20"/>
-      <c r="W609" s="15"/>
+      <c r="W609" s="20"/>
       <c r="X609" s="15"/>
       <c r="Y609" s="15"/>
       <c r="Z609" s="15"/>
@@ -27612,6 +27735,8 @@
       <c r="AC609" s="15"/>
     </row>
     <row r="610" spans="9:29">
+      <c r="J610" s="36"/>
+      <c r="K610" s="36"/>
       <c r="Q610" s="20"/>
       <c r="R610" s="20"/>
       <c r="S610" s="20"/>
@@ -27627,8 +27752,8 @@
       <c r="AC610" s="15"/>
     </row>
     <row r="611" spans="9:29">
-      <c r="J611" s="36"/>
-      <c r="K611" s="36"/>
+      <c r="I611" s="36"/>
+      <c r="L611" s="36"/>
       <c r="Q611" s="20"/>
       <c r="R611" s="20"/>
       <c r="S611" s="20"/>
@@ -27644,15 +27769,13 @@
       <c r="AC611" s="15"/>
     </row>
     <row r="612" spans="9:29">
-      <c r="I612" s="36"/>
-      <c r="L612" s="36"/>
       <c r="Q612" s="20"/>
       <c r="R612" s="20"/>
       <c r="S612" s="20"/>
       <c r="T612" s="20"/>
       <c r="U612" s="20"/>
       <c r="V612" s="20"/>
-      <c r="W612" s="20"/>
+      <c r="W612" s="15"/>
       <c r="X612" s="15"/>
       <c r="Y612" s="15"/>
       <c r="Z612" s="15"/>
@@ -27667,7 +27790,7 @@
       <c r="T613" s="20"/>
       <c r="U613" s="20"/>
       <c r="V613" s="20"/>
-      <c r="W613" s="15"/>
+      <c r="W613" s="20"/>
       <c r="X613" s="15"/>
       <c r="Y613" s="15"/>
       <c r="Z613" s="15"/>
@@ -27676,13 +27799,13 @@
       <c r="AC613" s="15"/>
     </row>
     <row r="614" spans="9:29">
-      <c r="Q614" s="20"/>
-      <c r="R614" s="20"/>
-      <c r="S614" s="20"/>
-      <c r="T614" s="20"/>
-      <c r="U614" s="20"/>
-      <c r="V614" s="20"/>
-      <c r="W614" s="20"/>
+      <c r="Q614" s="15"/>
+      <c r="R614" s="15"/>
+      <c r="S614" s="15"/>
+      <c r="T614" s="15"/>
+      <c r="U614" s="15"/>
+      <c r="V614" s="15"/>
+      <c r="W614" s="15"/>
       <c r="X614" s="15"/>
       <c r="Y614" s="15"/>
       <c r="Z614" s="15"/>
@@ -27691,13 +27814,13 @@
       <c r="AC614" s="15"/>
     </row>
     <row r="615" spans="9:29">
-      <c r="Q615" s="15"/>
-      <c r="R615" s="15"/>
-      <c r="S615" s="15"/>
-      <c r="T615" s="15"/>
-      <c r="U615" s="15"/>
-      <c r="V615" s="15"/>
-      <c r="W615" s="15"/>
+      <c r="Q615" s="20"/>
+      <c r="R615" s="20"/>
+      <c r="S615" s="20"/>
+      <c r="T615" s="20"/>
+      <c r="U615" s="20"/>
+      <c r="V615" s="20"/>
+      <c r="W615" s="20"/>
       <c r="X615" s="15"/>
       <c r="Y615" s="15"/>
       <c r="Z615" s="15"/>
@@ -27706,6 +27829,8 @@
       <c r="AC615" s="15"/>
     </row>
     <row r="616" spans="9:29">
+      <c r="J616" s="36"/>
+      <c r="K616" s="36"/>
       <c r="Q616" s="20"/>
       <c r="R616" s="20"/>
       <c r="S616" s="20"/>
@@ -27721,8 +27846,8 @@
       <c r="AC616" s="15"/>
     </row>
     <row r="617" spans="9:29">
-      <c r="J617" s="36"/>
-      <c r="K617" s="36"/>
+      <c r="I617" s="36"/>
+      <c r="L617" s="36"/>
       <c r="Q617" s="20"/>
       <c r="R617" s="20"/>
       <c r="S617" s="20"/>
@@ -27738,8 +27863,6 @@
       <c r="AC617" s="15"/>
     </row>
     <row r="618" spans="9:29">
-      <c r="I618" s="36"/>
-      <c r="L618" s="36"/>
       <c r="Q618" s="20"/>
       <c r="R618" s="20"/>
       <c r="S618" s="20"/>
@@ -27761,7 +27884,7 @@
       <c r="T619" s="20"/>
       <c r="U619" s="20"/>
       <c r="V619" s="20"/>
-      <c r="W619" s="20"/>
+      <c r="W619" s="15"/>
       <c r="X619" s="15"/>
       <c r="Y619" s="15"/>
       <c r="Z619" s="15"/>
@@ -27770,12 +27893,12 @@
       <c r="AC619" s="15"/>
     </row>
     <row r="620" spans="9:29">
-      <c r="Q620" s="20"/>
-      <c r="R620" s="20"/>
-      <c r="S620" s="20"/>
-      <c r="T620" s="20"/>
-      <c r="U620" s="20"/>
-      <c r="V620" s="20"/>
+      <c r="Q620" s="15"/>
+      <c r="R620" s="15"/>
+      <c r="S620" s="15"/>
+      <c r="T620" s="15"/>
+      <c r="U620" s="15"/>
+      <c r="V620" s="15"/>
       <c r="W620" s="15"/>
       <c r="X620" s="15"/>
       <c r="Y620" s="15"/>
@@ -27785,13 +27908,13 @@
       <c r="AC620" s="15"/>
     </row>
     <row r="621" spans="9:29">
-      <c r="Q621" s="15"/>
-      <c r="R621" s="15"/>
-      <c r="S621" s="15"/>
-      <c r="T621" s="15"/>
-      <c r="U621" s="15"/>
-      <c r="V621" s="15"/>
-      <c r="W621" s="15"/>
+      <c r="Q621" s="20"/>
+      <c r="R621" s="20"/>
+      <c r="S621" s="20"/>
+      <c r="T621" s="20"/>
+      <c r="U621" s="20"/>
+      <c r="V621" s="20"/>
+      <c r="W621" s="20"/>
       <c r="X621" s="15"/>
       <c r="Y621" s="15"/>
       <c r="Z621" s="15"/>
@@ -27815,13 +27938,13 @@
       <c r="AC622" s="15"/>
     </row>
     <row r="623" spans="9:29">
-      <c r="Q623" s="20"/>
-      <c r="R623" s="20"/>
-      <c r="S623" s="20"/>
-      <c r="T623" s="20"/>
-      <c r="U623" s="20"/>
-      <c r="V623" s="20"/>
-      <c r="W623" s="20"/>
+      <c r="Q623" s="15"/>
+      <c r="R623" s="15"/>
+      <c r="S623" s="15"/>
+      <c r="T623" s="15"/>
+      <c r="U623" s="15"/>
+      <c r="V623" s="15"/>
+      <c r="W623" s="15"/>
       <c r="X623" s="15"/>
       <c r="Y623" s="15"/>
       <c r="Z623" s="15"/>
@@ -27830,12 +27953,12 @@
       <c r="AC623" s="15"/>
     </row>
     <row r="624" spans="9:29">
-      <c r="Q624" s="15"/>
-      <c r="R624" s="15"/>
-      <c r="S624" s="15"/>
-      <c r="T624" s="15"/>
-      <c r="U624" s="15"/>
-      <c r="V624" s="15"/>
+      <c r="Q624" s="20"/>
+      <c r="R624" s="20"/>
+      <c r="S624" s="20"/>
+      <c r="T624" s="20"/>
+      <c r="U624" s="20"/>
+      <c r="V624" s="20"/>
       <c r="W624" s="15"/>
       <c r="X624" s="15"/>
       <c r="Y624" s="15"/>
@@ -27851,7 +27974,7 @@
       <c r="T625" s="20"/>
       <c r="U625" s="20"/>
       <c r="V625" s="20"/>
-      <c r="W625" s="15"/>
+      <c r="W625" s="20"/>
       <c r="X625" s="15"/>
       <c r="Y625" s="15"/>
       <c r="Z625" s="15"/>
@@ -27911,7 +28034,7 @@
       <c r="T629" s="20"/>
       <c r="U629" s="20"/>
       <c r="V629" s="20"/>
-      <c r="W629" s="20"/>
+      <c r="W629" s="15"/>
       <c r="X629" s="15"/>
       <c r="Y629" s="15"/>
       <c r="Z629" s="15"/>
@@ -27920,13 +28043,15 @@
       <c r="AC629" s="15"/>
     </row>
     <row r="630" spans="9:29">
+      <c r="J630" s="36"/>
+      <c r="K630" s="36"/>
       <c r="Q630" s="20"/>
       <c r="R630" s="20"/>
       <c r="S630" s="20"/>
       <c r="T630" s="20"/>
       <c r="U630" s="20"/>
       <c r="V630" s="20"/>
-      <c r="W630" s="15"/>
+      <c r="W630" s="20"/>
       <c r="X630" s="15"/>
       <c r="Y630" s="15"/>
       <c r="Z630" s="15"/>
@@ -27935,8 +28060,8 @@
       <c r="AC630" s="15"/>
     </row>
     <row r="631" spans="9:29">
-      <c r="J631" s="36"/>
-      <c r="K631" s="36"/>
+      <c r="I631" s="36"/>
+      <c r="L631" s="36"/>
       <c r="Q631" s="20"/>
       <c r="R631" s="20"/>
       <c r="S631" s="20"/>
@@ -27952,8 +28077,8 @@
       <c r="AC631" s="15"/>
     </row>
     <row r="632" spans="9:29">
-      <c r="I632" s="36"/>
-      <c r="L632" s="36"/>
+      <c r="J632" s="36"/>
+      <c r="K632" s="36"/>
       <c r="Q632" s="20"/>
       <c r="R632" s="20"/>
       <c r="S632" s="20"/>
@@ -27969,8 +28094,8 @@
       <c r="AC632" s="15"/>
     </row>
     <row r="633" spans="9:29">
-      <c r="J633" s="36"/>
-      <c r="K633" s="36"/>
+      <c r="I633" s="36"/>
+      <c r="L633" s="36"/>
       <c r="Q633" s="20"/>
       <c r="R633" s="20"/>
       <c r="S633" s="20"/>
@@ -27986,15 +28111,13 @@
       <c r="AC633" s="15"/>
     </row>
     <row r="634" spans="9:29">
-      <c r="I634" s="36"/>
-      <c r="L634" s="36"/>
       <c r="Q634" s="20"/>
       <c r="R634" s="20"/>
       <c r="S634" s="20"/>
       <c r="T634" s="20"/>
       <c r="U634" s="20"/>
       <c r="V634" s="20"/>
-      <c r="W634" s="20"/>
+      <c r="W634" s="15"/>
       <c r="X634" s="15"/>
       <c r="Y634" s="15"/>
       <c r="Z634" s="15"/>
@@ -28039,7 +28162,7 @@
       <c r="T637" s="20"/>
       <c r="U637" s="20"/>
       <c r="V637" s="20"/>
-      <c r="W637" s="15"/>
+      <c r="W637" s="20"/>
       <c r="X637" s="15"/>
       <c r="Y637" s="15"/>
       <c r="Z637" s="15"/>
@@ -28063,13 +28186,13 @@
       <c r="AC638" s="15"/>
     </row>
     <row r="639" spans="9:29">
-      <c r="Q639" s="20"/>
-      <c r="R639" s="20"/>
-      <c r="S639" s="20"/>
-      <c r="T639" s="20"/>
-      <c r="U639" s="20"/>
-      <c r="V639" s="20"/>
-      <c r="W639" s="20"/>
+      <c r="Q639" s="15"/>
+      <c r="R639" s="15"/>
+      <c r="S639" s="15"/>
+      <c r="T639" s="15"/>
+      <c r="U639" s="15"/>
+      <c r="V639" s="15"/>
+      <c r="W639" s="15"/>
       <c r="X639" s="15"/>
       <c r="Y639" s="15"/>
       <c r="Z639" s="15"/>
@@ -28093,14 +28216,15 @@
       <c r="AC640" s="15"/>
     </row>
     <row r="641" spans="9:29">
-      <c r="Q641" s="15"/>
-      <c r="R641" s="15"/>
-      <c r="S641" s="15"/>
-      <c r="T641" s="15"/>
-      <c r="U641" s="15"/>
-      <c r="V641" s="15"/>
-      <c r="W641" s="15"/>
-      <c r="X641" s="15"/>
+      <c r="P641" s="18"/>
+      <c r="Q641" s="20"/>
+      <c r="R641" s="20"/>
+      <c r="S641" s="20"/>
+      <c r="T641" s="20"/>
+      <c r="U641" s="20"/>
+      <c r="V641" s="20"/>
+      <c r="W641" s="20"/>
+      <c r="X641" s="20"/>
       <c r="Y641" s="15"/>
       <c r="Z641" s="15"/>
       <c r="AA641" s="15"/>
@@ -28108,15 +28232,14 @@
       <c r="AC641" s="15"/>
     </row>
     <row r="642" spans="9:29">
-      <c r="P642" s="18"/>
       <c r="Q642" s="20"/>
       <c r="R642" s="20"/>
       <c r="S642" s="20"/>
       <c r="T642" s="20"/>
       <c r="U642" s="20"/>
       <c r="V642" s="20"/>
-      <c r="W642" s="20"/>
-      <c r="X642" s="20"/>
+      <c r="W642" s="15"/>
+      <c r="X642" s="15"/>
       <c r="Y642" s="15"/>
       <c r="Z642" s="15"/>
       <c r="AA642" s="15"/>
@@ -28145,7 +28268,7 @@
       <c r="T644" s="20"/>
       <c r="U644" s="20"/>
       <c r="V644" s="20"/>
-      <c r="W644" s="15"/>
+      <c r="W644" s="20"/>
       <c r="X644" s="15"/>
       <c r="Y644" s="15"/>
       <c r="Z644" s="15"/>
@@ -28154,6 +28277,8 @@
       <c r="AC644" s="15"/>
     </row>
     <row r="645" spans="9:29">
+      <c r="J645" s="36"/>
+      <c r="K645" s="36"/>
       <c r="Q645" s="20"/>
       <c r="R645" s="20"/>
       <c r="S645" s="20"/>
@@ -28169,8 +28294,8 @@
       <c r="AC645" s="15"/>
     </row>
     <row r="646" spans="9:29">
-      <c r="J646" s="36"/>
-      <c r="K646" s="36"/>
+      <c r="I646" s="36"/>
+      <c r="L646" s="36"/>
       <c r="Q646" s="20"/>
       <c r="R646" s="20"/>
       <c r="S646" s="20"/>
@@ -28186,15 +28311,13 @@
       <c r="AC646" s="15"/>
     </row>
     <row r="647" spans="9:29">
-      <c r="I647" s="36"/>
-      <c r="L647" s="36"/>
       <c r="Q647" s="20"/>
       <c r="R647" s="20"/>
       <c r="S647" s="20"/>
       <c r="T647" s="20"/>
       <c r="U647" s="20"/>
       <c r="V647" s="20"/>
-      <c r="W647" s="20"/>
+      <c r="W647" s="15"/>
       <c r="X647" s="15"/>
       <c r="Y647" s="15"/>
       <c r="Z647" s="15"/>
@@ -28209,7 +28332,7 @@
       <c r="T648" s="20"/>
       <c r="U648" s="20"/>
       <c r="V648" s="20"/>
-      <c r="W648" s="15"/>
+      <c r="W648" s="20"/>
       <c r="X648" s="15"/>
       <c r="Y648" s="15"/>
       <c r="Z648" s="15"/>
@@ -28218,13 +28341,13 @@
       <c r="AC648" s="15"/>
     </row>
     <row r="649" spans="9:29">
-      <c r="Q649" s="20"/>
-      <c r="R649" s="20"/>
-      <c r="S649" s="20"/>
-      <c r="T649" s="20"/>
-      <c r="U649" s="20"/>
-      <c r="V649" s="20"/>
-      <c r="W649" s="20"/>
+      <c r="Q649" s="15"/>
+      <c r="R649" s="15"/>
+      <c r="S649" s="15"/>
+      <c r="T649" s="15"/>
+      <c r="U649" s="15"/>
+      <c r="V649" s="15"/>
+      <c r="W649" s="15"/>
       <c r="X649" s="15"/>
       <c r="Y649" s="15"/>
       <c r="Z649" s="15"/>
@@ -28233,14 +28356,15 @@
       <c r="AC649" s="15"/>
     </row>
     <row r="650" spans="9:29">
-      <c r="Q650" s="15"/>
-      <c r="R650" s="15"/>
-      <c r="S650" s="15"/>
-      <c r="T650" s="15"/>
-      <c r="U650" s="15"/>
-      <c r="V650" s="15"/>
-      <c r="W650" s="15"/>
-      <c r="X650" s="15"/>
+      <c r="P650" s="18"/>
+      <c r="Q650" s="20"/>
+      <c r="R650" s="20"/>
+      <c r="S650" s="20"/>
+      <c r="T650" s="20"/>
+      <c r="U650" s="20"/>
+      <c r="V650" s="20"/>
+      <c r="W650" s="20"/>
+      <c r="X650" s="20"/>
       <c r="Y650" s="15"/>
       <c r="Z650" s="15"/>
       <c r="AA650" s="15"/>
@@ -28248,15 +28372,14 @@
       <c r="AC650" s="15"/>
     </row>
     <row r="651" spans="9:29">
-      <c r="P651" s="18"/>
       <c r="Q651" s="20"/>
       <c r="R651" s="20"/>
       <c r="S651" s="20"/>
       <c r="T651" s="20"/>
       <c r="U651" s="20"/>
       <c r="V651" s="20"/>
-      <c r="W651" s="20"/>
-      <c r="X651" s="20"/>
+      <c r="W651" s="15"/>
+      <c r="X651" s="15"/>
       <c r="Y651" s="15"/>
       <c r="Z651" s="15"/>
       <c r="AA651" s="15"/>
@@ -28285,7 +28408,7 @@
       <c r="T653" s="20"/>
       <c r="U653" s="20"/>
       <c r="V653" s="20"/>
-      <c r="W653" s="15"/>
+      <c r="W653" s="20"/>
       <c r="X653" s="15"/>
       <c r="Y653" s="15"/>
       <c r="Z653" s="15"/>
@@ -28315,7 +28438,7 @@
       <c r="T655" s="20"/>
       <c r="U655" s="20"/>
       <c r="V655" s="20"/>
-      <c r="W655" s="20"/>
+      <c r="W655" s="15"/>
       <c r="X655" s="15"/>
       <c r="Y655" s="15"/>
       <c r="Z655" s="15"/>
@@ -28330,7 +28453,7 @@
       <c r="T656" s="20"/>
       <c r="U656" s="20"/>
       <c r="V656" s="20"/>
-      <c r="W656" s="15"/>
+      <c r="W656" s="20"/>
       <c r="X656" s="15"/>
       <c r="Y656" s="15"/>
       <c r="Z656" s="15"/>
@@ -28339,13 +28462,13 @@
       <c r="AC656" s="15"/>
     </row>
     <row r="657" spans="16:29">
-      <c r="Q657" s="20"/>
-      <c r="R657" s="20"/>
-      <c r="S657" s="20"/>
-      <c r="T657" s="20"/>
-      <c r="U657" s="20"/>
-      <c r="V657" s="20"/>
-      <c r="W657" s="20"/>
+      <c r="Q657" s="15"/>
+      <c r="R657" s="15"/>
+      <c r="S657" s="15"/>
+      <c r="T657" s="15"/>
+      <c r="U657" s="15"/>
+      <c r="V657" s="15"/>
+      <c r="W657" s="15"/>
       <c r="X657" s="15"/>
       <c r="Y657" s="15"/>
       <c r="Z657" s="15"/>
@@ -28354,14 +28477,15 @@
       <c r="AC657" s="15"/>
     </row>
     <row r="658" spans="16:29">
-      <c r="Q658" s="15"/>
-      <c r="R658" s="15"/>
-      <c r="S658" s="15"/>
-      <c r="T658" s="15"/>
-      <c r="U658" s="15"/>
-      <c r="V658" s="15"/>
-      <c r="W658" s="15"/>
-      <c r="X658" s="15"/>
+      <c r="P658" s="18"/>
+      <c r="Q658" s="20"/>
+      <c r="R658" s="20"/>
+      <c r="S658" s="20"/>
+      <c r="T658" s="20"/>
+      <c r="U658" s="20"/>
+      <c r="V658" s="20"/>
+      <c r="W658" s="20"/>
+      <c r="X658" s="20"/>
       <c r="Y658" s="15"/>
       <c r="Z658" s="15"/>
       <c r="AA658" s="15"/>
@@ -28369,15 +28493,14 @@
       <c r="AC658" s="15"/>
     </row>
     <row r="659" spans="16:29">
-      <c r="P659" s="18"/>
       <c r="Q659" s="20"/>
       <c r="R659" s="20"/>
       <c r="S659" s="20"/>
       <c r="T659" s="20"/>
       <c r="U659" s="20"/>
       <c r="V659" s="20"/>
-      <c r="W659" s="20"/>
-      <c r="X659" s="20"/>
+      <c r="W659" s="15"/>
+      <c r="X659" s="15"/>
       <c r="Y659" s="15"/>
       <c r="Z659" s="15"/>
       <c r="AA659" s="15"/>
@@ -28391,7 +28514,7 @@
       <c r="T660" s="20"/>
       <c r="U660" s="20"/>
       <c r="V660" s="20"/>
-      <c r="W660" s="15"/>
+      <c r="W660" s="20"/>
       <c r="X660" s="15"/>
       <c r="Y660" s="15"/>
       <c r="Z660" s="15"/>
@@ -28421,7 +28544,7 @@
       <c r="T662" s="20"/>
       <c r="U662" s="20"/>
       <c r="V662" s="20"/>
-      <c r="W662" s="20"/>
+      <c r="W662" s="15"/>
       <c r="X662" s="15"/>
       <c r="Y662" s="15"/>
       <c r="Z662" s="15"/>
@@ -28460,12 +28583,12 @@
       <c r="AC664" s="15"/>
     </row>
     <row r="665" spans="16:29">
-      <c r="Q665" s="20"/>
-      <c r="R665" s="20"/>
-      <c r="S665" s="20"/>
-      <c r="T665" s="20"/>
-      <c r="U665" s="20"/>
-      <c r="V665" s="20"/>
+      <c r="Q665" s="15"/>
+      <c r="R665" s="15"/>
+      <c r="S665" s="15"/>
+      <c r="T665" s="15"/>
+      <c r="U665" s="15"/>
+      <c r="V665" s="15"/>
       <c r="W665" s="15"/>
       <c r="X665" s="15"/>
       <c r="Y665" s="15"/>
@@ -28475,12 +28598,12 @@
       <c r="AC665" s="15"/>
     </row>
     <row r="666" spans="16:29">
-      <c r="Q666" s="15"/>
-      <c r="R666" s="15"/>
-      <c r="S666" s="15"/>
-      <c r="T666" s="15"/>
-      <c r="U666" s="15"/>
-      <c r="V666" s="15"/>
+      <c r="Q666" s="20"/>
+      <c r="R666" s="20"/>
+      <c r="S666" s="20"/>
+      <c r="T666" s="20"/>
+      <c r="U666" s="20"/>
+      <c r="V666" s="20"/>
       <c r="W666" s="15"/>
       <c r="X666" s="15"/>
       <c r="Y666" s="15"/>
@@ -28505,14 +28628,15 @@
       <c r="AC667" s="15"/>
     </row>
     <row r="668" spans="16:29">
+      <c r="P668" s="18"/>
       <c r="Q668" s="20"/>
       <c r="R668" s="20"/>
       <c r="S668" s="20"/>
       <c r="T668" s="20"/>
       <c r="U668" s="20"/>
       <c r="V668" s="20"/>
-      <c r="W668" s="15"/>
-      <c r="X668" s="15"/>
+      <c r="W668" s="20"/>
+      <c r="X668" s="20"/>
       <c r="Y668" s="15"/>
       <c r="Z668" s="15"/>
       <c r="AA668" s="15"/>
@@ -28520,15 +28644,14 @@
       <c r="AC668" s="15"/>
     </row>
     <row r="669" spans="16:29">
-      <c r="P669" s="18"/>
       <c r="Q669" s="20"/>
       <c r="R669" s="20"/>
       <c r="S669" s="20"/>
       <c r="T669" s="20"/>
       <c r="U669" s="20"/>
       <c r="V669" s="20"/>
-      <c r="W669" s="20"/>
-      <c r="X669" s="20"/>
+      <c r="W669" s="15"/>
+      <c r="X669" s="15"/>
       <c r="Y669" s="15"/>
       <c r="Z669" s="15"/>
       <c r="AA669" s="15"/>
@@ -28542,7 +28665,7 @@
       <c r="T670" s="20"/>
       <c r="U670" s="20"/>
       <c r="V670" s="20"/>
-      <c r="W670" s="15"/>
+      <c r="W670" s="20"/>
       <c r="X670" s="15"/>
       <c r="Y670" s="15"/>
       <c r="Z670" s="15"/>
@@ -28557,7 +28680,7 @@
       <c r="T671" s="20"/>
       <c r="U671" s="20"/>
       <c r="V671" s="20"/>
-      <c r="W671" s="20"/>
+      <c r="W671" s="15"/>
       <c r="X671" s="15"/>
       <c r="Y671" s="15"/>
       <c r="Z671" s="15"/>
@@ -28587,7 +28710,7 @@
       <c r="T673" s="20"/>
       <c r="U673" s="20"/>
       <c r="V673" s="20"/>
-      <c r="W673" s="15"/>
+      <c r="W673" s="20"/>
       <c r="X673" s="15"/>
       <c r="Y673" s="15"/>
       <c r="Z673" s="15"/>
@@ -28602,7 +28725,7 @@
       <c r="T674" s="20"/>
       <c r="U674" s="20"/>
       <c r="V674" s="20"/>
-      <c r="W674" s="20"/>
+      <c r="W674" s="15"/>
       <c r="X674" s="15"/>
       <c r="Y674" s="15"/>
       <c r="Z674" s="15"/>
@@ -28611,14 +28734,15 @@
       <c r="AC674" s="15"/>
     </row>
     <row r="675" spans="16:29">
+      <c r="P675" s="18"/>
       <c r="Q675" s="20"/>
       <c r="R675" s="20"/>
       <c r="S675" s="20"/>
       <c r="T675" s="20"/>
       <c r="U675" s="20"/>
       <c r="V675" s="20"/>
-      <c r="W675" s="15"/>
-      <c r="X675" s="15"/>
+      <c r="W675" s="20"/>
+      <c r="X675" s="20"/>
       <c r="Y675" s="15"/>
       <c r="Z675" s="15"/>
       <c r="AA675" s="15"/>
@@ -28626,15 +28750,14 @@
       <c r="AC675" s="15"/>
     </row>
     <row r="676" spans="16:29">
-      <c r="P676" s="18"/>
       <c r="Q676" s="20"/>
       <c r="R676" s="20"/>
       <c r="S676" s="20"/>
       <c r="T676" s="20"/>
       <c r="U676" s="20"/>
       <c r="V676" s="20"/>
-      <c r="W676" s="20"/>
-      <c r="X676" s="20"/>
+      <c r="W676" s="15"/>
+      <c r="X676" s="15"/>
       <c r="Y676" s="15"/>
       <c r="Z676" s="15"/>
       <c r="AA676" s="15"/>
@@ -28648,7 +28771,7 @@
       <c r="T677" s="20"/>
       <c r="U677" s="20"/>
       <c r="V677" s="20"/>
-      <c r="W677" s="15"/>
+      <c r="W677" s="20"/>
       <c r="X677" s="15"/>
       <c r="Y677" s="15"/>
       <c r="Z677" s="15"/>
@@ -28663,7 +28786,7 @@
       <c r="T678" s="20"/>
       <c r="U678" s="20"/>
       <c r="V678" s="20"/>
-      <c r="W678" s="20"/>
+      <c r="W678" s="15"/>
       <c r="X678" s="15"/>
       <c r="Y678" s="15"/>
       <c r="Z678" s="15"/>
@@ -28678,7 +28801,7 @@
       <c r="T679" s="20"/>
       <c r="U679" s="20"/>
       <c r="V679" s="20"/>
-      <c r="W679" s="15"/>
+      <c r="W679" s="20"/>
       <c r="X679" s="15"/>
       <c r="Y679" s="15"/>
       <c r="Z679" s="15"/>
@@ -28693,7 +28816,7 @@
       <c r="T680" s="20"/>
       <c r="U680" s="20"/>
       <c r="V680" s="20"/>
-      <c r="W680" s="20"/>
+      <c r="W680" s="15"/>
       <c r="X680" s="15"/>
       <c r="Y680" s="15"/>
       <c r="Z680" s="15"/>
@@ -28708,7 +28831,7 @@
       <c r="T681" s="20"/>
       <c r="U681" s="20"/>
       <c r="V681" s="20"/>
-      <c r="W681" s="15"/>
+      <c r="W681" s="20"/>
       <c r="X681" s="15"/>
       <c r="Y681" s="15"/>
       <c r="Z681" s="15"/>
@@ -28723,7 +28846,7 @@
       <c r="T682" s="20"/>
       <c r="U682" s="20"/>
       <c r="V682" s="20"/>
-      <c r="W682" s="20"/>
+      <c r="W682" s="15"/>
       <c r="X682" s="15"/>
       <c r="Y682" s="15"/>
       <c r="Z682" s="15"/>
@@ -28747,12 +28870,12 @@
       <c r="AC683" s="15"/>
     </row>
     <row r="684" spans="16:29">
-      <c r="Q684" s="20"/>
-      <c r="R684" s="20"/>
-      <c r="S684" s="20"/>
-      <c r="T684" s="20"/>
-      <c r="U684" s="20"/>
-      <c r="V684" s="20"/>
+      <c r="Q684" s="15"/>
+      <c r="R684" s="15"/>
+      <c r="S684" s="15"/>
+      <c r="T684" s="15"/>
+      <c r="U684" s="15"/>
+      <c r="V684" s="15"/>
       <c r="W684" s="15"/>
       <c r="X684" s="15"/>
       <c r="Y684" s="15"/>
@@ -28762,14 +28885,15 @@
       <c r="AC684" s="15"/>
     </row>
     <row r="685" spans="16:29">
-      <c r="Q685" s="15"/>
-      <c r="R685" s="15"/>
-      <c r="S685" s="15"/>
-      <c r="T685" s="15"/>
-      <c r="U685" s="15"/>
-      <c r="V685" s="15"/>
-      <c r="W685" s="15"/>
-      <c r="X685" s="15"/>
+      <c r="P685" s="18"/>
+      <c r="Q685" s="20"/>
+      <c r="R685" s="20"/>
+      <c r="S685" s="20"/>
+      <c r="T685" s="20"/>
+      <c r="U685" s="20"/>
+      <c r="V685" s="20"/>
+      <c r="W685" s="20"/>
+      <c r="X685" s="20"/>
       <c r="Y685" s="15"/>
       <c r="Z685" s="15"/>
       <c r="AA685" s="15"/>
@@ -28777,15 +28901,14 @@
       <c r="AC685" s="15"/>
     </row>
     <row r="686" spans="16:29">
-      <c r="P686" s="18"/>
       <c r="Q686" s="20"/>
       <c r="R686" s="20"/>
       <c r="S686" s="20"/>
       <c r="T686" s="20"/>
       <c r="U686" s="20"/>
       <c r="V686" s="20"/>
-      <c r="W686" s="20"/>
-      <c r="X686" s="20"/>
+      <c r="W686" s="15"/>
+      <c r="X686" s="15"/>
       <c r="Y686" s="15"/>
       <c r="Z686" s="15"/>
       <c r="AA686" s="15"/>
@@ -28793,14 +28916,15 @@
       <c r="AC686" s="15"/>
     </row>
     <row r="687" spans="16:29">
+      <c r="P687" s="18"/>
       <c r="Q687" s="20"/>
       <c r="R687" s="20"/>
       <c r="S687" s="20"/>
       <c r="T687" s="20"/>
       <c r="U687" s="20"/>
       <c r="V687" s="20"/>
-      <c r="W687" s="15"/>
-      <c r="X687" s="15"/>
+      <c r="W687" s="20"/>
+      <c r="X687" s="20"/>
       <c r="Y687" s="15"/>
       <c r="Z687" s="15"/>
       <c r="AA687" s="15"/>
@@ -28824,15 +28948,14 @@
       <c r="AC688" s="15"/>
     </row>
     <row r="689" spans="16:29">
-      <c r="P689" s="18"/>
       <c r="Q689" s="20"/>
       <c r="R689" s="20"/>
       <c r="S689" s="20"/>
       <c r="T689" s="20"/>
       <c r="U689" s="20"/>
       <c r="V689" s="20"/>
-      <c r="W689" s="20"/>
-      <c r="X689" s="20"/>
+      <c r="W689" s="15"/>
+      <c r="X689" s="15"/>
       <c r="Y689" s="15"/>
       <c r="Z689" s="15"/>
       <c r="AA689" s="15"/>
@@ -28861,7 +28984,7 @@
       <c r="T691" s="20"/>
       <c r="U691" s="20"/>
       <c r="V691" s="20"/>
-      <c r="W691" s="15"/>
+      <c r="W691" s="20"/>
       <c r="X691" s="15"/>
       <c r="Y691" s="15"/>
       <c r="Z691" s="15"/>
@@ -28870,6 +28993,7 @@
       <c r="AC691" s="15"/>
     </row>
     <row r="692" spans="16:29">
+      <c r="P692" s="18"/>
       <c r="Q692" s="20"/>
       <c r="R692" s="20"/>
       <c r="S692" s="20"/>
@@ -28877,7 +29001,7 @@
       <c r="U692" s="20"/>
       <c r="V692" s="20"/>
       <c r="W692" s="20"/>
-      <c r="X692" s="15"/>
+      <c r="X692" s="20"/>
       <c r="Y692" s="15"/>
       <c r="Z692" s="15"/>
       <c r="AA692" s="15"/>
@@ -28901,7 +29025,6 @@
       <c r="AC693" s="15"/>
     </row>
     <row r="694" spans="16:29">
-      <c r="P694" s="18"/>
       <c r="Q694" s="20"/>
       <c r="R694" s="20"/>
       <c r="S694" s="20"/>
@@ -28909,7 +29032,7 @@
       <c r="U694" s="20"/>
       <c r="V694" s="20"/>
       <c r="W694" s="20"/>
-      <c r="X694" s="20"/>
+      <c r="X694" s="15"/>
       <c r="Y694" s="15"/>
       <c r="Z694" s="15"/>
       <c r="AA694" s="15"/>
@@ -28917,6 +29040,7 @@
       <c r="AC694" s="15"/>
     </row>
     <row r="695" spans="16:29">
+      <c r="P695" s="18"/>
       <c r="Q695" s="20"/>
       <c r="R695" s="20"/>
       <c r="S695" s="20"/>
@@ -28924,7 +29048,7 @@
       <c r="U695" s="20"/>
       <c r="V695" s="20"/>
       <c r="W695" s="20"/>
-      <c r="X695" s="15"/>
+      <c r="X695" s="20"/>
       <c r="Y695" s="15"/>
       <c r="Z695" s="15"/>
       <c r="AA695" s="15"/>
@@ -28980,15 +29104,14 @@
       <c r="AC698" s="15"/>
     </row>
     <row r="699" spans="16:29">
-      <c r="P699" s="18"/>
       <c r="Q699" s="20"/>
       <c r="R699" s="20"/>
       <c r="S699" s="20"/>
       <c r="T699" s="20"/>
       <c r="U699" s="20"/>
       <c r="V699" s="20"/>
-      <c r="W699" s="20"/>
-      <c r="X699" s="20"/>
+      <c r="W699" s="15"/>
+      <c r="X699" s="15"/>
       <c r="Y699" s="15"/>
       <c r="Z699" s="15"/>
       <c r="AA699" s="15"/>
@@ -29002,7 +29125,7 @@
       <c r="T700" s="20"/>
       <c r="U700" s="20"/>
       <c r="V700" s="20"/>
-      <c r="W700" s="15"/>
+      <c r="W700" s="20"/>
       <c r="X700" s="15"/>
       <c r="Y700" s="15"/>
       <c r="Z700" s="15"/>
@@ -29017,7 +29140,7 @@
       <c r="T701" s="20"/>
       <c r="U701" s="20"/>
       <c r="V701" s="20"/>
-      <c r="W701" s="20"/>
+      <c r="W701" s="15"/>
       <c r="X701" s="15"/>
       <c r="Y701" s="15"/>
       <c r="Z701" s="15"/>
@@ -29032,7 +29155,7 @@
       <c r="T702" s="20"/>
       <c r="U702" s="20"/>
       <c r="V702" s="20"/>
-      <c r="W702" s="15"/>
+      <c r="W702" s="20"/>
       <c r="X702" s="15"/>
       <c r="Y702" s="15"/>
       <c r="Z702" s="15"/>
@@ -29047,7 +29170,7 @@
       <c r="T703" s="20"/>
       <c r="U703" s="20"/>
       <c r="V703" s="20"/>
-      <c r="W703" s="20"/>
+      <c r="W703" s="15"/>
       <c r="X703" s="15"/>
       <c r="Y703" s="15"/>
       <c r="Z703" s="15"/>
@@ -29056,12 +29179,12 @@
       <c r="AC703" s="15"/>
     </row>
     <row r="704" spans="16:29">
-      <c r="Q704" s="20"/>
-      <c r="R704" s="20"/>
-      <c r="S704" s="20"/>
-      <c r="T704" s="20"/>
-      <c r="U704" s="20"/>
-      <c r="V704" s="20"/>
+      <c r="Q704" s="15"/>
+      <c r="R704" s="15"/>
+      <c r="S704" s="15"/>
+      <c r="T704" s="15"/>
+      <c r="U704" s="15"/>
+      <c r="V704" s="15"/>
       <c r="W704" s="15"/>
       <c r="X704" s="15"/>
       <c r="Y704" s="15"/>
@@ -29071,12 +29194,12 @@
       <c r="AC704" s="15"/>
     </row>
     <row r="705" spans="17:29">
-      <c r="Q705" s="15"/>
-      <c r="R705" s="15"/>
-      <c r="S705" s="15"/>
-      <c r="T705" s="15"/>
-      <c r="U705" s="15"/>
-      <c r="V705" s="15"/>
+      <c r="Q705" s="20"/>
+      <c r="R705" s="20"/>
+      <c r="S705" s="20"/>
+      <c r="T705" s="20"/>
+      <c r="U705" s="20"/>
+      <c r="V705" s="20"/>
       <c r="W705" s="15"/>
       <c r="X705" s="15"/>
       <c r="Y705" s="15"/>
@@ -29107,7 +29230,7 @@
       <c r="T707" s="20"/>
       <c r="U707" s="20"/>
       <c r="V707" s="20"/>
-      <c r="W707" s="15"/>
+      <c r="W707" s="20"/>
       <c r="X707" s="15"/>
       <c r="Y707" s="15"/>
       <c r="Z707" s="15"/>
@@ -29137,7 +29260,7 @@
       <c r="T709" s="20"/>
       <c r="U709" s="20"/>
       <c r="V709" s="20"/>
-      <c r="W709" s="20"/>
+      <c r="W709" s="15"/>
       <c r="X709" s="15"/>
       <c r="Y709" s="15"/>
       <c r="Z709" s="15"/>
@@ -29152,7 +29275,7 @@
       <c r="T710" s="20"/>
       <c r="U710" s="20"/>
       <c r="V710" s="20"/>
-      <c r="W710" s="15"/>
+      <c r="W710" s="20"/>
       <c r="X710" s="15"/>
       <c r="Y710" s="15"/>
       <c r="Z710" s="15"/>
@@ -29167,7 +29290,7 @@
       <c r="T711" s="20"/>
       <c r="U711" s="20"/>
       <c r="V711" s="20"/>
-      <c r="W711" s="20"/>
+      <c r="W711" s="15"/>
       <c r="X711" s="15"/>
       <c r="Y711" s="15"/>
       <c r="Z711" s="15"/>
@@ -29182,7 +29305,7 @@
       <c r="T712" s="20"/>
       <c r="U712" s="20"/>
       <c r="V712" s="20"/>
-      <c r="W712" s="15"/>
+      <c r="W712" s="20"/>
       <c r="X712" s="15"/>
       <c r="Y712" s="15"/>
       <c r="Z712" s="15"/>
@@ -29212,7 +29335,7 @@
       <c r="T714" s="20"/>
       <c r="U714" s="20"/>
       <c r="V714" s="20"/>
-      <c r="W714" s="20"/>
+      <c r="W714" s="15"/>
       <c r="X714" s="15"/>
       <c r="Y714" s="15"/>
       <c r="Z714" s="15"/>
@@ -29236,12 +29359,12 @@
       <c r="AC715" s="15"/>
     </row>
     <row r="716" spans="17:29">
-      <c r="Q716" s="20"/>
-      <c r="R716" s="20"/>
-      <c r="S716" s="20"/>
-      <c r="T716" s="20"/>
-      <c r="U716" s="20"/>
-      <c r="V716" s="20"/>
+      <c r="Q716" s="15"/>
+      <c r="R716" s="15"/>
+      <c r="S716" s="15"/>
+      <c r="T716" s="15"/>
+      <c r="U716" s="15"/>
+      <c r="V716" s="15"/>
       <c r="W716" s="15"/>
       <c r="X716" s="15"/>
       <c r="Y716" s="15"/>
@@ -29251,12 +29374,12 @@
       <c r="AC716" s="15"/>
     </row>
     <row r="717" spans="17:29">
-      <c r="Q717" s="15"/>
-      <c r="R717" s="15"/>
-      <c r="S717" s="15"/>
-      <c r="T717" s="15"/>
-      <c r="U717" s="15"/>
-      <c r="V717" s="15"/>
+      <c r="Q717" s="20"/>
+      <c r="R717" s="20"/>
+      <c r="S717" s="20"/>
+      <c r="T717" s="20"/>
+      <c r="U717" s="20"/>
+      <c r="V717" s="20"/>
       <c r="W717" s="15"/>
       <c r="X717" s="15"/>
       <c r="Y717" s="15"/>
@@ -29287,7 +29410,7 @@
       <c r="T719" s="20"/>
       <c r="U719" s="20"/>
       <c r="V719" s="20"/>
-      <c r="W719" s="15"/>
+      <c r="W719" s="20"/>
       <c r="X719" s="15"/>
       <c r="Y719" s="15"/>
       <c r="Z719" s="15"/>
@@ -29317,7 +29440,7 @@
       <c r="T721" s="20"/>
       <c r="U721" s="20"/>
       <c r="V721" s="20"/>
-      <c r="W721" s="20"/>
+      <c r="W721" s="15"/>
       <c r="X721" s="15"/>
       <c r="Y721" s="15"/>
       <c r="Z721" s="15"/>
@@ -29332,7 +29455,7 @@
       <c r="T722" s="20"/>
       <c r="U722" s="20"/>
       <c r="V722" s="20"/>
-      <c r="W722" s="15"/>
+      <c r="W722" s="20"/>
       <c r="X722" s="15"/>
       <c r="Y722" s="15"/>
       <c r="Z722" s="15"/>
@@ -29347,7 +29470,7 @@
       <c r="T723" s="20"/>
       <c r="U723" s="20"/>
       <c r="V723" s="20"/>
-      <c r="W723" s="20"/>
+      <c r="W723" s="15"/>
       <c r="X723" s="15"/>
       <c r="Y723" s="15"/>
       <c r="Z723" s="15"/>
@@ -29362,7 +29485,7 @@
       <c r="T724" s="20"/>
       <c r="U724" s="20"/>
       <c r="V724" s="20"/>
-      <c r="W724" s="15"/>
+      <c r="W724" s="20"/>
       <c r="X724" s="15"/>
       <c r="Y724" s="15"/>
       <c r="Z724" s="15"/>
@@ -29422,7 +29545,7 @@
       <c r="T728" s="20"/>
       <c r="U728" s="20"/>
       <c r="V728" s="20"/>
-      <c r="W728" s="20"/>
+      <c r="W728" s="15"/>
       <c r="X728" s="15"/>
       <c r="Y728" s="15"/>
       <c r="Z728" s="15"/>
@@ -29437,7 +29560,7 @@
       <c r="T729" s="20"/>
       <c r="U729" s="20"/>
       <c r="V729" s="20"/>
-      <c r="W729" s="15"/>
+      <c r="W729" s="20"/>
       <c r="X729" s="15"/>
       <c r="Y729" s="15"/>
       <c r="Z729" s="15"/>
@@ -29452,7 +29575,7 @@
       <c r="T730" s="20"/>
       <c r="U730" s="20"/>
       <c r="V730" s="20"/>
-      <c r="W730" s="20"/>
+      <c r="W730" s="15"/>
       <c r="X730" s="15"/>
       <c r="Y730" s="15"/>
       <c r="Z730" s="15"/>
@@ -29476,12 +29599,12 @@
       <c r="AC731" s="15"/>
     </row>
     <row r="732" spans="17:29">
-      <c r="Q732" s="20"/>
-      <c r="R732" s="20"/>
-      <c r="S732" s="20"/>
-      <c r="T732" s="20"/>
-      <c r="U732" s="20"/>
-      <c r="V732" s="20"/>
+      <c r="Q732" s="15"/>
+      <c r="R732" s="15"/>
+      <c r="S732" s="15"/>
+      <c r="T732" s="15"/>
+      <c r="U732" s="15"/>
+      <c r="V732" s="15"/>
       <c r="W732" s="15"/>
       <c r="X732" s="15"/>
       <c r="Y732" s="15"/>
@@ -29491,12 +29614,12 @@
       <c r="AC732" s="15"/>
     </row>
     <row r="733" spans="17:29">
-      <c r="Q733" s="15"/>
-      <c r="R733" s="15"/>
-      <c r="S733" s="15"/>
-      <c r="T733" s="15"/>
-      <c r="U733" s="15"/>
-      <c r="V733" s="15"/>
+      <c r="Q733" s="20"/>
+      <c r="R733" s="20"/>
+      <c r="S733" s="20"/>
+      <c r="T733" s="20"/>
+      <c r="U733" s="20"/>
+      <c r="V733" s="20"/>
       <c r="W733" s="15"/>
       <c r="X733" s="15"/>
       <c r="Y733" s="15"/>
@@ -29707,7 +29830,7 @@
       <c r="T747" s="20"/>
       <c r="U747" s="20"/>
       <c r="V747" s="20"/>
-      <c r="W747" s="15"/>
+      <c r="W747" s="20"/>
       <c r="X747" s="15"/>
       <c r="Y747" s="15"/>
       <c r="Z747" s="15"/>
@@ -29722,7 +29845,7 @@
       <c r="T748" s="20"/>
       <c r="U748" s="20"/>
       <c r="V748" s="20"/>
-      <c r="W748" s="20"/>
+      <c r="W748" s="15"/>
       <c r="X748" s="15"/>
       <c r="Y748" s="15"/>
       <c r="Z748" s="15"/>
@@ -29731,12 +29854,12 @@
       <c r="AC748" s="15"/>
     </row>
     <row r="749" spans="17:29">
-      <c r="Q749" s="20"/>
-      <c r="R749" s="20"/>
-      <c r="S749" s="20"/>
-      <c r="T749" s="20"/>
-      <c r="U749" s="20"/>
-      <c r="V749" s="20"/>
+      <c r="Q749" s="15"/>
+      <c r="R749" s="15"/>
+      <c r="S749" s="15"/>
+      <c r="T749" s="15"/>
+      <c r="U749" s="15"/>
+      <c r="V749" s="15"/>
       <c r="W749" s="15"/>
       <c r="X749" s="15"/>
       <c r="Y749" s="15"/>
@@ -29746,12 +29869,12 @@
       <c r="AC749" s="15"/>
     </row>
     <row r="750" spans="17:29">
-      <c r="Q750" s="15"/>
-      <c r="R750" s="15"/>
-      <c r="S750" s="15"/>
-      <c r="T750" s="15"/>
-      <c r="U750" s="15"/>
-      <c r="V750" s="15"/>
+      <c r="Q750" s="20"/>
+      <c r="R750" s="20"/>
+      <c r="S750" s="20"/>
+      <c r="T750" s="20"/>
+      <c r="U750" s="20"/>
+      <c r="V750" s="20"/>
       <c r="W750" s="15"/>
       <c r="X750" s="15"/>
       <c r="Y750" s="15"/>
@@ -29782,7 +29905,7 @@
       <c r="T752" s="20"/>
       <c r="U752" s="20"/>
       <c r="V752" s="20"/>
-      <c r="W752" s="15"/>
+      <c r="W752" s="20"/>
       <c r="X752" s="15"/>
       <c r="Y752" s="15"/>
       <c r="Z752" s="15"/>
@@ -29827,7 +29950,7 @@
       <c r="T755" s="20"/>
       <c r="U755" s="20"/>
       <c r="V755" s="20"/>
-      <c r="W755" s="20"/>
+      <c r="W755" s="15"/>
       <c r="X755" s="15"/>
       <c r="Y755" s="15"/>
       <c r="Z755" s="15"/>
@@ -29836,12 +29959,12 @@
       <c r="AC755" s="15"/>
     </row>
     <row r="756" spans="17:29">
-      <c r="Q756" s="20"/>
-      <c r="R756" s="20"/>
-      <c r="S756" s="20"/>
-      <c r="T756" s="20"/>
-      <c r="U756" s="20"/>
-      <c r="V756" s="20"/>
+      <c r="Q756" s="15"/>
+      <c r="R756" s="15"/>
+      <c r="S756" s="15"/>
+      <c r="T756" s="15"/>
+      <c r="U756" s="15"/>
+      <c r="V756" s="15"/>
       <c r="W756" s="15"/>
       <c r="X756" s="15"/>
       <c r="Y756" s="15"/>
@@ -29851,12 +29974,12 @@
       <c r="AC756" s="15"/>
     </row>
     <row r="757" spans="17:29">
-      <c r="Q757" s="15"/>
-      <c r="R757" s="15"/>
-      <c r="S757" s="15"/>
-      <c r="T757" s="15"/>
-      <c r="U757" s="15"/>
-      <c r="V757" s="15"/>
+      <c r="Q757" s="20"/>
+      <c r="R757" s="20"/>
+      <c r="S757" s="20"/>
+      <c r="T757" s="20"/>
+      <c r="U757" s="20"/>
+      <c r="V757" s="20"/>
       <c r="W757" s="15"/>
       <c r="X757" s="15"/>
       <c r="Y757" s="15"/>
@@ -29896,12 +30019,12 @@
       <c r="AC759" s="15"/>
     </row>
     <row r="760" spans="17:29">
-      <c r="Q760" s="20"/>
-      <c r="R760" s="20"/>
-      <c r="S760" s="20"/>
-      <c r="T760" s="20"/>
-      <c r="U760" s="20"/>
-      <c r="V760" s="20"/>
+      <c r="Q760" s="15"/>
+      <c r="R760" s="15"/>
+      <c r="S760" s="15"/>
+      <c r="T760" s="15"/>
+      <c r="U760" s="15"/>
+      <c r="V760" s="15"/>
       <c r="W760" s="15"/>
       <c r="X760" s="15"/>
       <c r="Y760" s="15"/>
@@ -29911,13 +30034,13 @@
       <c r="AC760" s="15"/>
     </row>
     <row r="761" spans="17:29">
-      <c r="Q761" s="15"/>
-      <c r="R761" s="15"/>
-      <c r="S761" s="15"/>
-      <c r="T761" s="15"/>
-      <c r="U761" s="15"/>
-      <c r="V761" s="15"/>
-      <c r="W761" s="15"/>
+      <c r="Q761" s="20"/>
+      <c r="R761" s="20"/>
+      <c r="S761" s="20"/>
+      <c r="T761" s="20"/>
+      <c r="U761" s="20"/>
+      <c r="V761" s="20"/>
+      <c r="W761" s="20"/>
       <c r="X761" s="15"/>
       <c r="Y761" s="15"/>
       <c r="Z761" s="15"/>
@@ -29932,7 +30055,7 @@
       <c r="T762" s="20"/>
       <c r="U762" s="20"/>
       <c r="V762" s="20"/>
-      <c r="W762" s="20"/>
+      <c r="W762" s="15"/>
       <c r="X762" s="15"/>
       <c r="Y762" s="15"/>
       <c r="Z762" s="15"/>
@@ -29941,12 +30064,12 @@
       <c r="AC762" s="15"/>
     </row>
     <row r="763" spans="17:29">
-      <c r="Q763" s="20"/>
-      <c r="R763" s="20"/>
-      <c r="S763" s="20"/>
-      <c r="T763" s="20"/>
-      <c r="U763" s="20"/>
-      <c r="V763" s="20"/>
+      <c r="Q763" s="15"/>
+      <c r="R763" s="15"/>
+      <c r="S763" s="15"/>
+      <c r="T763" s="15"/>
+      <c r="U763" s="15"/>
+      <c r="V763" s="15"/>
       <c r="W763" s="15"/>
       <c r="X763" s="15"/>
       <c r="Y763" s="15"/>
@@ -29956,12 +30079,12 @@
       <c r="AC763" s="15"/>
     </row>
     <row r="764" spans="17:29">
-      <c r="Q764" s="15"/>
-      <c r="R764" s="15"/>
-      <c r="S764" s="15"/>
-      <c r="T764" s="15"/>
-      <c r="U764" s="15"/>
-      <c r="V764" s="15"/>
+      <c r="Q764" s="20"/>
+      <c r="R764" s="20"/>
+      <c r="S764" s="20"/>
+      <c r="T764" s="20"/>
+      <c r="U764" s="20"/>
+      <c r="V764" s="20"/>
       <c r="W764" s="15"/>
       <c r="X764" s="15"/>
       <c r="Y764" s="15"/>
@@ -29977,7 +30100,7 @@
       <c r="T765" s="20"/>
       <c r="U765" s="20"/>
       <c r="V765" s="20"/>
-      <c r="W765" s="15"/>
+      <c r="W765" s="20"/>
       <c r="X765" s="15"/>
       <c r="Y765" s="15"/>
       <c r="Z765" s="15"/>
@@ -29992,7 +30115,7 @@
       <c r="T766" s="20"/>
       <c r="U766" s="20"/>
       <c r="V766" s="20"/>
-      <c r="W766" s="20"/>
+      <c r="W766" s="15"/>
       <c r="X766" s="15"/>
       <c r="Y766" s="15"/>
       <c r="Z766" s="15"/>
@@ -30007,7 +30130,7 @@
       <c r="T767" s="20"/>
       <c r="U767" s="20"/>
       <c r="V767" s="20"/>
-      <c r="W767" s="15"/>
+      <c r="W767" s="20"/>
       <c r="X767" s="15"/>
       <c r="Y767" s="15"/>
       <c r="Z767" s="15"/>
@@ -30022,7 +30145,7 @@
       <c r="T768" s="20"/>
       <c r="U768" s="20"/>
       <c r="V768" s="20"/>
-      <c r="W768" s="20"/>
+      <c r="W768" s="15"/>
       <c r="X768" s="15"/>
       <c r="Y768" s="15"/>
       <c r="Z768" s="15"/>
@@ -30052,7 +30175,7 @@
       <c r="T770" s="20"/>
       <c r="U770" s="20"/>
       <c r="V770" s="20"/>
-      <c r="W770" s="15"/>
+      <c r="W770" s="20"/>
       <c r="X770" s="15"/>
       <c r="Y770" s="15"/>
       <c r="Z770" s="15"/>
@@ -30061,13 +30184,13 @@
       <c r="AC770" s="15"/>
     </row>
     <row r="771" spans="17:29">
-      <c r="Q771" s="20"/>
-      <c r="R771" s="20"/>
-      <c r="S771" s="20"/>
-      <c r="T771" s="20"/>
-      <c r="U771" s="20"/>
-      <c r="V771" s="20"/>
-      <c r="W771" s="20"/>
+      <c r="Q771" s="15"/>
+      <c r="R771" s="15"/>
+      <c r="S771" s="15"/>
+      <c r="T771" s="15"/>
+      <c r="U771" s="15"/>
+      <c r="V771" s="15"/>
+      <c r="W771" s="15"/>
       <c r="X771" s="15"/>
       <c r="Y771" s="15"/>
       <c r="Z771" s="15"/>
@@ -30076,12 +30199,12 @@
       <c r="AC771" s="15"/>
     </row>
     <row r="772" spans="17:29">
-      <c r="Q772" s="15"/>
-      <c r="R772" s="15"/>
-      <c r="S772" s="15"/>
-      <c r="T772" s="15"/>
-      <c r="U772" s="15"/>
-      <c r="V772" s="15"/>
+      <c r="Q772" s="20"/>
+      <c r="R772" s="20"/>
+      <c r="S772" s="20"/>
+      <c r="T772" s="20"/>
+      <c r="U772" s="20"/>
+      <c r="V772" s="20"/>
       <c r="W772" s="15"/>
       <c r="X772" s="15"/>
       <c r="Y772" s="15"/>
@@ -30091,12 +30214,12 @@
       <c r="AC772" s="15"/>
     </row>
     <row r="773" spans="17:29">
-      <c r="Q773" s="20"/>
-      <c r="R773" s="20"/>
-      <c r="S773" s="20"/>
-      <c r="T773" s="20"/>
-      <c r="U773" s="20"/>
-      <c r="V773" s="20"/>
+      <c r="Q773" s="15"/>
+      <c r="R773" s="15"/>
+      <c r="S773" s="15"/>
+      <c r="T773" s="15"/>
+      <c r="U773" s="15"/>
+      <c r="V773" s="15"/>
       <c r="W773" s="15"/>
       <c r="X773" s="15"/>
       <c r="Y773" s="15"/>
@@ -30106,12 +30229,12 @@
       <c r="AC773" s="15"/>
     </row>
     <row r="774" spans="17:29">
-      <c r="Q774" s="15"/>
-      <c r="R774" s="15"/>
-      <c r="S774" s="15"/>
-      <c r="T774" s="15"/>
-      <c r="U774" s="15"/>
-      <c r="V774" s="15"/>
+      <c r="Q774" s="20"/>
+      <c r="R774" s="20"/>
+      <c r="S774" s="20"/>
+      <c r="T774" s="20"/>
+      <c r="U774" s="20"/>
+      <c r="V774" s="20"/>
       <c r="W774" s="15"/>
       <c r="X774" s="15"/>
       <c r="Y774" s="15"/>
@@ -30151,12 +30274,12 @@
       <c r="AC776" s="15"/>
     </row>
     <row r="777" spans="17:29">
-      <c r="Q777" s="20"/>
-      <c r="R777" s="20"/>
-      <c r="S777" s="20"/>
-      <c r="T777" s="20"/>
-      <c r="U777" s="20"/>
-      <c r="V777" s="20"/>
+      <c r="Q777" s="15"/>
+      <c r="R777" s="15"/>
+      <c r="S777" s="15"/>
+      <c r="T777" s="15"/>
+      <c r="U777" s="15"/>
+      <c r="V777" s="15"/>
       <c r="W777" s="15"/>
       <c r="X777" s="15"/>
       <c r="Y777" s="15"/>
@@ -30166,12 +30289,12 @@
       <c r="AC777" s="15"/>
     </row>
     <row r="778" spans="17:29">
-      <c r="Q778" s="15"/>
-      <c r="R778" s="15"/>
-      <c r="S778" s="15"/>
-      <c r="T778" s="15"/>
-      <c r="U778" s="15"/>
-      <c r="V778" s="15"/>
+      <c r="Q778" s="20"/>
+      <c r="R778" s="20"/>
+      <c r="S778" s="20"/>
+      <c r="T778" s="20"/>
+      <c r="U778" s="20"/>
+      <c r="V778" s="20"/>
       <c r="W778" s="15"/>
       <c r="X778" s="15"/>
       <c r="Y778" s="15"/>
@@ -30211,12 +30334,12 @@
       <c r="AC780" s="15"/>
     </row>
     <row r="781" spans="17:29">
-      <c r="Q781" s="20"/>
-      <c r="R781" s="20"/>
-      <c r="S781" s="20"/>
-      <c r="T781" s="20"/>
-      <c r="U781" s="20"/>
-      <c r="V781" s="20"/>
+      <c r="Q781" s="15"/>
+      <c r="R781" s="15"/>
+      <c r="S781" s="15"/>
+      <c r="T781" s="15"/>
+      <c r="U781" s="15"/>
+      <c r="V781" s="15"/>
       <c r="W781" s="15"/>
       <c r="X781" s="15"/>
       <c r="Y781" s="15"/>
@@ -30241,12 +30364,12 @@
       <c r="AC782" s="15"/>
     </row>
     <row r="783" spans="17:29">
-      <c r="Q783" s="15"/>
-      <c r="R783" s="15"/>
-      <c r="S783" s="15"/>
-      <c r="T783" s="15"/>
-      <c r="U783" s="15"/>
-      <c r="V783" s="15"/>
+      <c r="Q783" s="20"/>
+      <c r="R783" s="20"/>
+      <c r="S783" s="20"/>
+      <c r="T783" s="20"/>
+      <c r="U783" s="20"/>
+      <c r="V783" s="20"/>
       <c r="W783" s="15"/>
       <c r="X783" s="15"/>
       <c r="Y783" s="15"/>
@@ -30286,12 +30409,12 @@
       <c r="AC785" s="15"/>
     </row>
     <row r="786" spans="17:29">
-      <c r="Q786" s="20"/>
-      <c r="R786" s="20"/>
-      <c r="S786" s="20"/>
-      <c r="T786" s="20"/>
-      <c r="U786" s="20"/>
-      <c r="V786" s="20"/>
+      <c r="Q786" s="15"/>
+      <c r="R786" s="15"/>
+      <c r="S786" s="15"/>
+      <c r="T786" s="15"/>
+      <c r="U786" s="15"/>
+      <c r="V786" s="15"/>
       <c r="W786" s="15"/>
       <c r="X786" s="15"/>
       <c r="Y786" s="15"/>
@@ -30301,12 +30424,12 @@
       <c r="AC786" s="15"/>
     </row>
     <row r="787" spans="17:29">
-      <c r="Q787" s="15"/>
-      <c r="R787" s="15"/>
-      <c r="S787" s="15"/>
-      <c r="T787" s="15"/>
-      <c r="U787" s="15"/>
-      <c r="V787" s="15"/>
+      <c r="Q787" s="20"/>
+      <c r="R787" s="20"/>
+      <c r="S787" s="20"/>
+      <c r="T787" s="20"/>
+      <c r="U787" s="20"/>
+      <c r="V787" s="20"/>
       <c r="W787" s="15"/>
       <c r="X787" s="15"/>
       <c r="Y787" s="15"/>
@@ -30337,7 +30460,7 @@
       <c r="T789" s="20"/>
       <c r="U789" s="20"/>
       <c r="V789" s="20"/>
-      <c r="W789" s="15"/>
+      <c r="W789" s="20"/>
       <c r="X789" s="15"/>
       <c r="Y789" s="15"/>
       <c r="Z789" s="15"/>
@@ -30382,7 +30505,7 @@
       <c r="T792" s="20"/>
       <c r="U792" s="20"/>
       <c r="V792" s="20"/>
-      <c r="W792" s="20"/>
+      <c r="W792" s="15"/>
       <c r="X792" s="15"/>
       <c r="Y792" s="15"/>
       <c r="Z792" s="15"/>
@@ -30397,7 +30520,7 @@
       <c r="T793" s="20"/>
       <c r="U793" s="20"/>
       <c r="V793" s="20"/>
-      <c r="W793" s="15"/>
+      <c r="W793" s="20"/>
       <c r="X793" s="15"/>
       <c r="Y793" s="15"/>
       <c r="Z793" s="15"/>
@@ -30406,13 +30529,13 @@
       <c r="AC793" s="15"/>
     </row>
     <row r="794" spans="17:29">
-      <c r="Q794" s="20"/>
-      <c r="R794" s="20"/>
-      <c r="S794" s="20"/>
-      <c r="T794" s="20"/>
-      <c r="U794" s="20"/>
-      <c r="V794" s="20"/>
-      <c r="W794" s="20"/>
+      <c r="Q794" s="15"/>
+      <c r="R794" s="15"/>
+      <c r="S794" s="15"/>
+      <c r="T794" s="15"/>
+      <c r="U794" s="15"/>
+      <c r="V794" s="15"/>
+      <c r="W794" s="15"/>
       <c r="X794" s="15"/>
       <c r="Y794" s="15"/>
       <c r="Z794" s="15"/>
@@ -30451,12 +30574,12 @@
       <c r="AC796" s="15"/>
     </row>
     <row r="797" spans="17:29">
-      <c r="Q797" s="15"/>
-      <c r="R797" s="15"/>
-      <c r="S797" s="15"/>
-      <c r="T797" s="15"/>
-      <c r="U797" s="15"/>
-      <c r="V797" s="15"/>
+      <c r="Q797" s="20"/>
+      <c r="R797" s="20"/>
+      <c r="S797" s="20"/>
+      <c r="T797" s="20"/>
+      <c r="U797" s="20"/>
+      <c r="V797" s="20"/>
       <c r="W797" s="15"/>
       <c r="X797" s="15"/>
       <c r="Y797" s="15"/>
@@ -30481,12 +30604,12 @@
       <c r="AC798" s="15"/>
     </row>
     <row r="799" spans="17:29">
-      <c r="Q799" s="20"/>
-      <c r="R799" s="20"/>
-      <c r="S799" s="20"/>
-      <c r="T799" s="20"/>
-      <c r="U799" s="20"/>
-      <c r="V799" s="20"/>
+      <c r="Q799" s="15"/>
+      <c r="R799" s="15"/>
+      <c r="S799" s="15"/>
+      <c r="T799" s="15"/>
+      <c r="U799" s="15"/>
+      <c r="V799" s="15"/>
       <c r="W799" s="15"/>
       <c r="X799" s="15"/>
       <c r="Y799" s="15"/>
@@ -30496,12 +30619,12 @@
       <c r="AC799" s="15"/>
     </row>
     <row r="800" spans="17:29">
-      <c r="Q800" s="15"/>
-      <c r="R800" s="15"/>
-      <c r="S800" s="15"/>
-      <c r="T800" s="15"/>
-      <c r="U800" s="15"/>
-      <c r="V800" s="15"/>
+      <c r="Q800" s="20"/>
+      <c r="R800" s="20"/>
+      <c r="S800" s="20"/>
+      <c r="T800" s="20"/>
+      <c r="U800" s="20"/>
+      <c r="V800" s="20"/>
       <c r="W800" s="15"/>
       <c r="X800" s="15"/>
       <c r="Y800" s="15"/>
@@ -30541,12 +30664,12 @@
       <c r="AC802" s="15"/>
     </row>
     <row r="803" spans="17:29">
-      <c r="Q803" s="20"/>
-      <c r="R803" s="20"/>
-      <c r="S803" s="20"/>
-      <c r="T803" s="20"/>
-      <c r="U803" s="20"/>
-      <c r="V803" s="20"/>
+      <c r="Q803" s="15"/>
+      <c r="R803" s="15"/>
+      <c r="S803" s="15"/>
+      <c r="T803" s="15"/>
+      <c r="U803" s="15"/>
+      <c r="V803" s="15"/>
       <c r="W803" s="15"/>
       <c r="X803" s="15"/>
       <c r="Y803" s="15"/>
@@ -30556,12 +30679,12 @@
       <c r="AC803" s="15"/>
     </row>
     <row r="804" spans="17:29">
-      <c r="Q804" s="15"/>
-      <c r="R804" s="15"/>
-      <c r="S804" s="15"/>
-      <c r="T804" s="15"/>
-      <c r="U804" s="15"/>
-      <c r="V804" s="15"/>
+      <c r="Q804" s="20"/>
+      <c r="R804" s="20"/>
+      <c r="S804" s="20"/>
+      <c r="T804" s="20"/>
+      <c r="U804" s="20"/>
+      <c r="V804" s="20"/>
       <c r="W804" s="15"/>
       <c r="X804" s="15"/>
       <c r="Y804" s="15"/>
@@ -30601,12 +30724,12 @@
       <c r="AC806" s="15"/>
     </row>
     <row r="807" spans="17:29">
-      <c r="Q807" s="20"/>
-      <c r="R807" s="20"/>
-      <c r="S807" s="20"/>
-      <c r="T807" s="20"/>
-      <c r="U807" s="20"/>
-      <c r="V807" s="20"/>
+      <c r="Q807" s="15"/>
+      <c r="R807" s="15"/>
+      <c r="S807" s="15"/>
+      <c r="T807" s="15"/>
+      <c r="U807" s="15"/>
+      <c r="V807" s="15"/>
       <c r="W807" s="15"/>
       <c r="X807" s="15"/>
       <c r="Y807" s="15"/>
@@ -30691,12 +30814,12 @@
       <c r="AC812" s="15"/>
     </row>
     <row r="813" spans="17:29">
-      <c r="Q813" s="15"/>
-      <c r="R813" s="15"/>
-      <c r="S813" s="15"/>
-      <c r="T813" s="15"/>
-      <c r="U813" s="15"/>
-      <c r="V813" s="15"/>
+      <c r="Q813" s="20"/>
+      <c r="R813" s="20"/>
+      <c r="S813" s="20"/>
+      <c r="T813" s="20"/>
+      <c r="U813" s="20"/>
+      <c r="V813" s="20"/>
       <c r="W813" s="15"/>
       <c r="X813" s="15"/>
       <c r="Y813" s="15"/>
@@ -30736,12 +30859,12 @@
       <c r="AC815" s="15"/>
     </row>
     <row r="816" spans="17:29">
-      <c r="Q816" s="20"/>
-      <c r="R816" s="20"/>
-      <c r="S816" s="20"/>
-      <c r="T816" s="20"/>
-      <c r="U816" s="20"/>
-      <c r="V816" s="20"/>
+      <c r="Q816" s="15"/>
+      <c r="R816" s="15"/>
+      <c r="S816" s="15"/>
+      <c r="T816" s="15"/>
+      <c r="U816" s="15"/>
+      <c r="V816" s="15"/>
       <c r="W816" s="15"/>
       <c r="X816" s="15"/>
       <c r="Y816" s="15"/>
@@ -30766,12 +30889,12 @@
       <c r="AC817" s="15"/>
     </row>
     <row r="818" spans="17:29">
-      <c r="Q818" s="15"/>
-      <c r="R818" s="15"/>
-      <c r="S818" s="15"/>
-      <c r="T818" s="15"/>
-      <c r="U818" s="15"/>
-      <c r="V818" s="15"/>
+      <c r="Q818" s="20"/>
+      <c r="R818" s="20"/>
+      <c r="S818" s="20"/>
+      <c r="T818" s="20"/>
+      <c r="U818" s="20"/>
+      <c r="V818" s="20"/>
       <c r="W818" s="15"/>
       <c r="X818" s="15"/>
       <c r="Y818" s="15"/>
@@ -30796,12 +30919,12 @@
       <c r="AC819" s="15"/>
     </row>
     <row r="820" spans="17:29">
-      <c r="Q820" s="20"/>
-      <c r="R820" s="20"/>
-      <c r="S820" s="20"/>
-      <c r="T820" s="20"/>
-      <c r="U820" s="20"/>
-      <c r="V820" s="20"/>
+      <c r="Q820" s="15"/>
+      <c r="R820" s="15"/>
+      <c r="S820" s="15"/>
+      <c r="T820" s="15"/>
+      <c r="U820" s="15"/>
+      <c r="V820" s="15"/>
       <c r="W820" s="15"/>
       <c r="X820" s="15"/>
       <c r="Y820" s="15"/>
@@ -30811,12 +30934,12 @@
       <c r="AC820" s="15"/>
     </row>
     <row r="821" spans="17:29">
-      <c r="Q821" s="15"/>
-      <c r="R821" s="15"/>
-      <c r="S821" s="15"/>
-      <c r="T821" s="15"/>
-      <c r="U821" s="15"/>
-      <c r="V821" s="15"/>
+      <c r="Q821" s="20"/>
+      <c r="R821" s="20"/>
+      <c r="S821" s="20"/>
+      <c r="T821" s="20"/>
+      <c r="U821" s="20"/>
+      <c r="V821" s="20"/>
       <c r="W821" s="15"/>
       <c r="X821" s="15"/>
       <c r="Y821" s="15"/>
@@ -30826,12 +30949,12 @@
       <c r="AC821" s="15"/>
     </row>
     <row r="822" spans="17:29">
-      <c r="Q822" s="20"/>
-      <c r="R822" s="20"/>
-      <c r="S822" s="20"/>
-      <c r="T822" s="20"/>
-      <c r="U822" s="20"/>
-      <c r="V822" s="20"/>
+      <c r="Q822" s="15"/>
+      <c r="R822" s="15"/>
+      <c r="S822" s="15"/>
+      <c r="T822" s="15"/>
+      <c r="U822" s="15"/>
+      <c r="V822" s="15"/>
       <c r="W822" s="15"/>
       <c r="X822" s="15"/>
       <c r="Y822" s="15"/>
@@ -30856,12 +30979,12 @@
       <c r="AC823" s="15"/>
     </row>
     <row r="824" spans="17:29">
-      <c r="Q824" s="15"/>
-      <c r="R824" s="15"/>
-      <c r="S824" s="15"/>
-      <c r="T824" s="15"/>
-      <c r="U824" s="15"/>
-      <c r="V824" s="15"/>
+      <c r="Q824" s="20"/>
+      <c r="R824" s="20"/>
+      <c r="S824" s="20"/>
+      <c r="T824" s="20"/>
+      <c r="U824" s="20"/>
+      <c r="V824" s="20"/>
       <c r="W824" s="15"/>
       <c r="X824" s="15"/>
       <c r="Y824" s="15"/>
@@ -30871,12 +30994,12 @@
       <c r="AC824" s="15"/>
     </row>
     <row r="825" spans="17:29">
-      <c r="Q825" s="20"/>
-      <c r="R825" s="20"/>
-      <c r="S825" s="20"/>
-      <c r="T825" s="20"/>
-      <c r="U825" s="20"/>
-      <c r="V825" s="20"/>
+      <c r="Q825" s="15"/>
+      <c r="R825" s="15"/>
+      <c r="S825" s="15"/>
+      <c r="T825" s="15"/>
+      <c r="U825" s="15"/>
+      <c r="V825" s="15"/>
       <c r="W825" s="15"/>
       <c r="X825" s="15"/>
       <c r="Y825" s="15"/>
@@ -30916,12 +31039,12 @@
       <c r="AC827" s="15"/>
     </row>
     <row r="828" spans="17:29">
-      <c r="Q828" s="15"/>
-      <c r="R828" s="15"/>
-      <c r="S828" s="15"/>
-      <c r="T828" s="15"/>
-      <c r="U828" s="15"/>
-      <c r="V828" s="15"/>
+      <c r="Q828" s="20"/>
+      <c r="R828" s="20"/>
+      <c r="S828" s="20"/>
+      <c r="T828" s="20"/>
+      <c r="U828" s="20"/>
+      <c r="V828" s="20"/>
       <c r="W828" s="15"/>
       <c r="X828" s="15"/>
       <c r="Y828" s="15"/>
@@ -30946,12 +31069,12 @@
       <c r="AC829" s="15"/>
     </row>
     <row r="830" spans="17:29">
-      <c r="Q830" s="20"/>
-      <c r="R830" s="20"/>
-      <c r="S830" s="20"/>
-      <c r="T830" s="20"/>
-      <c r="U830" s="20"/>
-      <c r="V830" s="20"/>
+      <c r="Q830" s="15"/>
+      <c r="R830" s="15"/>
+      <c r="S830" s="15"/>
+      <c r="T830" s="15"/>
+      <c r="U830" s="15"/>
+      <c r="V830" s="15"/>
       <c r="W830" s="15"/>
       <c r="X830" s="15"/>
       <c r="Y830" s="15"/>
@@ -30961,12 +31084,12 @@
       <c r="AC830" s="15"/>
     </row>
     <row r="831" spans="17:29">
-      <c r="Q831" s="15"/>
-      <c r="R831" s="15"/>
-      <c r="S831" s="15"/>
-      <c r="T831" s="15"/>
-      <c r="U831" s="15"/>
-      <c r="V831" s="15"/>
+      <c r="Q831" s="20"/>
+      <c r="R831" s="20"/>
+      <c r="S831" s="20"/>
+      <c r="T831" s="20"/>
+      <c r="U831" s="20"/>
+      <c r="V831" s="20"/>
       <c r="W831" s="15"/>
       <c r="X831" s="15"/>
       <c r="Y831" s="15"/>
@@ -30976,12 +31099,12 @@
       <c r="AC831" s="15"/>
     </row>
     <row r="832" spans="17:29">
-      <c r="Q832" s="20"/>
-      <c r="R832" s="20"/>
-      <c r="S832" s="20"/>
-      <c r="T832" s="20"/>
-      <c r="U832" s="20"/>
-      <c r="V832" s="20"/>
+      <c r="Q832" s="15"/>
+      <c r="R832" s="15"/>
+      <c r="S832" s="15"/>
+      <c r="T832" s="15"/>
+      <c r="U832" s="15"/>
+      <c r="V832" s="15"/>
       <c r="W832" s="15"/>
       <c r="X832" s="15"/>
       <c r="Y832" s="15"/>
@@ -31006,12 +31129,12 @@
       <c r="AC833" s="15"/>
     </row>
     <row r="834" spans="17:29">
-      <c r="Q834" s="15"/>
-      <c r="R834" s="15"/>
-      <c r="S834" s="15"/>
-      <c r="T834" s="15"/>
-      <c r="U834" s="15"/>
-      <c r="V834" s="15"/>
+      <c r="Q834" s="20"/>
+      <c r="R834" s="20"/>
+      <c r="S834" s="20"/>
+      <c r="T834" s="20"/>
+      <c r="U834" s="20"/>
+      <c r="V834" s="20"/>
       <c r="W834" s="15"/>
       <c r="X834" s="15"/>
       <c r="Y834" s="15"/>
@@ -31021,12 +31144,12 @@
       <c r="AC834" s="15"/>
     </row>
     <row r="835" spans="17:29">
-      <c r="Q835" s="20"/>
-      <c r="R835" s="20"/>
-      <c r="S835" s="20"/>
-      <c r="T835" s="20"/>
-      <c r="U835" s="20"/>
-      <c r="V835" s="20"/>
+      <c r="Q835" s="15"/>
+      <c r="R835" s="15"/>
+      <c r="S835" s="15"/>
+      <c r="T835" s="15"/>
+      <c r="U835" s="15"/>
+      <c r="V835" s="15"/>
       <c r="W835" s="15"/>
       <c r="X835" s="15"/>
       <c r="Y835" s="15"/>
@@ -31036,12 +31159,12 @@
       <c r="AC835" s="15"/>
     </row>
     <row r="836" spans="17:29">
-      <c r="Q836" s="15"/>
-      <c r="R836" s="15"/>
-      <c r="S836" s="15"/>
-      <c r="T836" s="15"/>
-      <c r="U836" s="15"/>
-      <c r="V836" s="15"/>
+      <c r="Q836" s="20"/>
+      <c r="R836" s="20"/>
+      <c r="S836" s="20"/>
+      <c r="T836" s="20"/>
+      <c r="U836" s="20"/>
+      <c r="V836" s="20"/>
       <c r="W836" s="15"/>
       <c r="X836" s="15"/>
       <c r="Y836" s="15"/>
@@ -31051,12 +31174,12 @@
       <c r="AC836" s="15"/>
     </row>
     <row r="837" spans="17:29">
-      <c r="Q837" s="20"/>
-      <c r="R837" s="20"/>
-      <c r="S837" s="20"/>
-      <c r="T837" s="20"/>
-      <c r="U837" s="20"/>
-      <c r="V837" s="20"/>
+      <c r="Q837" s="15"/>
+      <c r="R837" s="15"/>
+      <c r="S837" s="15"/>
+      <c r="T837" s="15"/>
+      <c r="U837" s="15"/>
+      <c r="V837" s="15"/>
       <c r="W837" s="15"/>
       <c r="X837" s="15"/>
       <c r="Y837" s="15"/>
@@ -31066,12 +31189,12 @@
       <c r="AC837" s="15"/>
     </row>
     <row r="838" spans="17:29">
-      <c r="Q838" s="15"/>
-      <c r="R838" s="15"/>
-      <c r="S838" s="15"/>
-      <c r="T838" s="15"/>
-      <c r="U838" s="15"/>
-      <c r="V838" s="15"/>
+      <c r="Q838" s="20"/>
+      <c r="R838" s="20"/>
+      <c r="S838" s="20"/>
+      <c r="T838" s="20"/>
+      <c r="U838" s="20"/>
+      <c r="V838" s="20"/>
       <c r="W838" s="15"/>
       <c r="X838" s="15"/>
       <c r="Y838" s="15"/>
@@ -31141,12 +31264,12 @@
       <c r="AC842" s="15"/>
     </row>
     <row r="843" spans="17:29">
-      <c r="Q843" s="20"/>
-      <c r="R843" s="20"/>
-      <c r="S843" s="20"/>
-      <c r="T843" s="20"/>
-      <c r="U843" s="20"/>
-      <c r="V843" s="20"/>
+      <c r="Q843" s="15"/>
+      <c r="R843" s="15"/>
+      <c r="S843" s="15"/>
+      <c r="T843" s="15"/>
+      <c r="U843" s="15"/>
+      <c r="V843" s="15"/>
       <c r="W843" s="15"/>
       <c r="X843" s="15"/>
       <c r="Y843" s="15"/>
@@ -31156,12 +31279,12 @@
       <c r="AC843" s="15"/>
     </row>
     <row r="844" spans="17:29">
-      <c r="Q844" s="15"/>
-      <c r="R844" s="15"/>
-      <c r="S844" s="15"/>
-      <c r="T844" s="15"/>
-      <c r="U844" s="15"/>
-      <c r="V844" s="15"/>
+      <c r="Q844" s="20"/>
+      <c r="R844" s="20"/>
+      <c r="S844" s="20"/>
+      <c r="T844" s="20"/>
+      <c r="U844" s="20"/>
+      <c r="V844" s="20"/>
       <c r="W844" s="15"/>
       <c r="X844" s="15"/>
       <c r="Y844" s="15"/>
@@ -31171,12 +31294,12 @@
       <c r="AC844" s="15"/>
     </row>
     <row r="845" spans="17:29">
-      <c r="Q845" s="20"/>
-      <c r="R845" s="20"/>
-      <c r="S845" s="20"/>
-      <c r="T845" s="20"/>
-      <c r="U845" s="20"/>
-      <c r="V845" s="20"/>
+      <c r="Q845" s="15"/>
+      <c r="R845" s="15"/>
+      <c r="S845" s="15"/>
+      <c r="T845" s="15"/>
+      <c r="U845" s="15"/>
+      <c r="V845" s="15"/>
       <c r="W845" s="15"/>
       <c r="X845" s="15"/>
       <c r="Y845" s="15"/>
@@ -31186,12 +31309,12 @@
       <c r="AC845" s="15"/>
     </row>
     <row r="846" spans="17:29">
-      <c r="Q846" s="15"/>
-      <c r="R846" s="15"/>
-      <c r="S846" s="15"/>
-      <c r="T846" s="15"/>
-      <c r="U846" s="15"/>
-      <c r="V846" s="15"/>
+      <c r="Q846" s="20"/>
+      <c r="R846" s="20"/>
+      <c r="S846" s="20"/>
+      <c r="T846" s="20"/>
+      <c r="U846" s="20"/>
+      <c r="V846" s="20"/>
       <c r="W846" s="15"/>
       <c r="X846" s="15"/>
       <c r="Y846" s="15"/>
@@ -31216,12 +31339,12 @@
       <c r="AC847" s="15"/>
     </row>
     <row r="848" spans="17:29">
-      <c r="Q848" s="20"/>
-      <c r="R848" s="20"/>
-      <c r="S848" s="20"/>
-      <c r="T848" s="20"/>
-      <c r="U848" s="20"/>
-      <c r="V848" s="20"/>
+      <c r="Q848" s="15"/>
+      <c r="R848" s="15"/>
+      <c r="S848" s="15"/>
+      <c r="T848" s="15"/>
+      <c r="U848" s="15"/>
+      <c r="V848" s="15"/>
       <c r="W848" s="15"/>
       <c r="X848" s="15"/>
       <c r="Y848" s="15"/>
@@ -31246,12 +31369,12 @@
       <c r="AC849" s="15"/>
     </row>
     <row r="850" spans="17:29">
-      <c r="Q850" s="15"/>
-      <c r="R850" s="15"/>
-      <c r="S850" s="15"/>
-      <c r="T850" s="15"/>
-      <c r="U850" s="15"/>
-      <c r="V850" s="15"/>
+      <c r="Q850" s="20"/>
+      <c r="R850" s="20"/>
+      <c r="S850" s="20"/>
+      <c r="T850" s="20"/>
+      <c r="U850" s="20"/>
+      <c r="V850" s="20"/>
       <c r="W850" s="15"/>
       <c r="X850" s="15"/>
       <c r="Y850" s="15"/>
@@ -31261,12 +31384,12 @@
       <c r="AC850" s="15"/>
     </row>
     <row r="851" spans="17:29">
-      <c r="Q851" s="20"/>
-      <c r="R851" s="20"/>
-      <c r="S851" s="20"/>
-      <c r="T851" s="20"/>
-      <c r="U851" s="20"/>
-      <c r="V851" s="20"/>
+      <c r="Q851" s="15"/>
+      <c r="R851" s="15"/>
+      <c r="S851" s="15"/>
+      <c r="T851" s="15"/>
+      <c r="U851" s="15"/>
+      <c r="V851" s="15"/>
       <c r="W851" s="15"/>
       <c r="X851" s="15"/>
       <c r="Y851" s="15"/>
@@ -31306,12 +31429,12 @@
       <c r="AC853" s="15"/>
     </row>
     <row r="854" spans="17:29">
-      <c r="Q854" s="15"/>
-      <c r="R854" s="15"/>
-      <c r="S854" s="15"/>
-      <c r="T854" s="15"/>
-      <c r="U854" s="15"/>
-      <c r="V854" s="15"/>
+      <c r="Q854" s="20"/>
+      <c r="R854" s="20"/>
+      <c r="S854" s="20"/>
+      <c r="T854" s="20"/>
+      <c r="U854" s="20"/>
+      <c r="V854" s="20"/>
       <c r="W854" s="15"/>
       <c r="X854" s="15"/>
       <c r="Y854" s="15"/>
@@ -31351,12 +31474,12 @@
       <c r="AC856" s="15"/>
     </row>
     <row r="857" spans="17:29">
-      <c r="Q857" s="20"/>
-      <c r="R857" s="20"/>
-      <c r="S857" s="20"/>
-      <c r="T857" s="20"/>
-      <c r="U857" s="20"/>
-      <c r="V857" s="20"/>
+      <c r="Q857" s="15"/>
+      <c r="R857" s="15"/>
+      <c r="S857" s="15"/>
+      <c r="T857" s="15"/>
+      <c r="U857" s="15"/>
+      <c r="V857" s="15"/>
       <c r="W857" s="15"/>
       <c r="X857" s="15"/>
       <c r="Y857" s="15"/>
@@ -31366,12 +31489,12 @@
       <c r="AC857" s="15"/>
     </row>
     <row r="858" spans="17:29">
-      <c r="Q858" s="15"/>
-      <c r="R858" s="15"/>
-      <c r="S858" s="15"/>
-      <c r="T858" s="15"/>
-      <c r="U858" s="15"/>
-      <c r="V858" s="15"/>
+      <c r="Q858" s="20"/>
+      <c r="R858" s="20"/>
+      <c r="S858" s="20"/>
+      <c r="T858" s="20"/>
+      <c r="U858" s="20"/>
+      <c r="V858" s="20"/>
       <c r="W858" s="15"/>
       <c r="X858" s="15"/>
       <c r="Y858" s="15"/>
@@ -31381,12 +31504,12 @@
       <c r="AC858" s="15"/>
     </row>
     <row r="859" spans="17:29">
-      <c r="Q859" s="20"/>
-      <c r="R859" s="20"/>
-      <c r="S859" s="20"/>
-      <c r="T859" s="20"/>
-      <c r="U859" s="20"/>
-      <c r="V859" s="20"/>
+      <c r="Q859" s="15"/>
+      <c r="R859" s="15"/>
+      <c r="S859" s="15"/>
+      <c r="T859" s="15"/>
+      <c r="U859" s="15"/>
+      <c r="V859" s="15"/>
       <c r="W859" s="15"/>
       <c r="X859" s="15"/>
       <c r="Y859" s="15"/>
@@ -31411,12 +31534,12 @@
       <c r="AC860" s="15"/>
     </row>
     <row r="861" spans="17:29">
-      <c r="Q861" s="15"/>
-      <c r="R861" s="15"/>
-      <c r="S861" s="15"/>
-      <c r="T861" s="15"/>
-      <c r="U861" s="15"/>
-      <c r="V861" s="15"/>
+      <c r="Q861" s="20"/>
+      <c r="R861" s="20"/>
+      <c r="S861" s="20"/>
+      <c r="T861" s="20"/>
+      <c r="U861" s="20"/>
+      <c r="V861" s="20"/>
       <c r="W861" s="15"/>
       <c r="X861" s="15"/>
       <c r="Y861" s="15"/>
@@ -31426,12 +31549,12 @@
       <c r="AC861" s="15"/>
     </row>
     <row r="862" spans="17:29">
-      <c r="Q862" s="20"/>
-      <c r="R862" s="20"/>
-      <c r="S862" s="20"/>
-      <c r="T862" s="20"/>
-      <c r="U862" s="20"/>
-      <c r="V862" s="20"/>
+      <c r="Q862" s="15"/>
+      <c r="R862" s="15"/>
+      <c r="S862" s="15"/>
+      <c r="T862" s="15"/>
+      <c r="U862" s="15"/>
+      <c r="V862" s="15"/>
       <c r="W862" s="15"/>
       <c r="X862" s="15"/>
       <c r="Y862" s="15"/>
@@ -31441,12 +31564,12 @@
       <c r="AC862" s="15"/>
     </row>
     <row r="863" spans="17:29">
-      <c r="Q863" s="15"/>
-      <c r="R863" s="15"/>
-      <c r="S863" s="15"/>
-      <c r="T863" s="15"/>
-      <c r="U863" s="15"/>
-      <c r="V863" s="15"/>
+      <c r="Q863" s="20"/>
+      <c r="R863" s="20"/>
+      <c r="S863" s="20"/>
+      <c r="T863" s="20"/>
+      <c r="U863" s="20"/>
+      <c r="V863" s="20"/>
       <c r="W863" s="15"/>
       <c r="X863" s="15"/>
       <c r="Y863" s="15"/>
@@ -31486,12 +31609,12 @@
       <c r="AC865" s="15"/>
     </row>
     <row r="866" spans="17:29">
-      <c r="Q866" s="20"/>
-      <c r="R866" s="20"/>
-      <c r="S866" s="20"/>
-      <c r="T866" s="20"/>
-      <c r="U866" s="20"/>
-      <c r="V866" s="20"/>
+      <c r="Q866" s="15"/>
+      <c r="R866" s="15"/>
+      <c r="S866" s="15"/>
+      <c r="T866" s="15"/>
+      <c r="U866" s="15"/>
+      <c r="V866" s="15"/>
       <c r="W866" s="15"/>
       <c r="X866" s="15"/>
       <c r="Y866" s="15"/>
@@ -31501,12 +31624,12 @@
       <c r="AC866" s="15"/>
     </row>
     <row r="867" spans="17:29">
-      <c r="Q867" s="15"/>
-      <c r="R867" s="15"/>
-      <c r="S867" s="15"/>
-      <c r="T867" s="15"/>
-      <c r="U867" s="15"/>
-      <c r="V867" s="15"/>
+      <c r="Q867" s="20"/>
+      <c r="R867" s="20"/>
+      <c r="S867" s="20"/>
+      <c r="T867" s="20"/>
+      <c r="U867" s="20"/>
+      <c r="V867" s="20"/>
       <c r="W867" s="15"/>
       <c r="X867" s="15"/>
       <c r="Y867" s="15"/>
@@ -31516,12 +31639,12 @@
       <c r="AC867" s="15"/>
     </row>
     <row r="868" spans="17:29">
-      <c r="Q868" s="20"/>
-      <c r="R868" s="20"/>
-      <c r="S868" s="20"/>
-      <c r="T868" s="20"/>
-      <c r="U868" s="20"/>
-      <c r="V868" s="20"/>
+      <c r="Q868" s="15"/>
+      <c r="R868" s="15"/>
+      <c r="S868" s="15"/>
+      <c r="T868" s="15"/>
+      <c r="U868" s="15"/>
+      <c r="V868" s="15"/>
       <c r="W868" s="15"/>
       <c r="X868" s="15"/>
       <c r="Y868" s="15"/>
@@ -31576,12 +31699,12 @@
       <c r="AC871" s="15"/>
     </row>
     <row r="872" spans="17:29">
-      <c r="Q872" s="15"/>
-      <c r="R872" s="15"/>
-      <c r="S872" s="15"/>
-      <c r="T872" s="15"/>
-      <c r="U872" s="15"/>
-      <c r="V872" s="15"/>
+      <c r="Q872" s="20"/>
+      <c r="R872" s="20"/>
+      <c r="S872" s="20"/>
+      <c r="T872" s="20"/>
+      <c r="U872" s="20"/>
+      <c r="V872" s="20"/>
       <c r="W872" s="15"/>
       <c r="X872" s="15"/>
       <c r="Y872" s="15"/>
@@ -31591,12 +31714,12 @@
       <c r="AC872" s="15"/>
     </row>
     <row r="873" spans="17:29">
-      <c r="Q873" s="20"/>
-      <c r="R873" s="20"/>
-      <c r="S873" s="20"/>
-      <c r="T873" s="20"/>
-      <c r="U873" s="20"/>
-      <c r="V873" s="20"/>
+      <c r="Q873" s="15"/>
+      <c r="R873" s="15"/>
+      <c r="S873" s="15"/>
+      <c r="T873" s="15"/>
+      <c r="U873" s="15"/>
+      <c r="V873" s="15"/>
       <c r="W873" s="15"/>
       <c r="X873" s="15"/>
       <c r="Y873" s="15"/>
@@ -31726,12 +31849,12 @@
       <c r="AC881" s="15"/>
     </row>
     <row r="882" spans="17:29">
-      <c r="Q882" s="15"/>
-      <c r="R882" s="15"/>
-      <c r="S882" s="15"/>
-      <c r="T882" s="15"/>
-      <c r="U882" s="15"/>
-      <c r="V882" s="15"/>
+      <c r="Q882" s="20"/>
+      <c r="R882" s="20"/>
+      <c r="S882" s="20"/>
+      <c r="T882" s="20"/>
+      <c r="U882" s="20"/>
+      <c r="V882" s="20"/>
       <c r="W882" s="15"/>
       <c r="X882" s="15"/>
       <c r="Y882" s="15"/>
@@ -31771,12 +31894,12 @@
       <c r="AC884" s="15"/>
     </row>
     <row r="885" spans="17:29">
-      <c r="Q885" s="20"/>
-      <c r="R885" s="20"/>
-      <c r="S885" s="20"/>
-      <c r="T885" s="20"/>
-      <c r="U885" s="20"/>
-      <c r="V885" s="20"/>
+      <c r="Q885" s="15"/>
+      <c r="R885" s="15"/>
+      <c r="S885" s="15"/>
+      <c r="T885" s="15"/>
+      <c r="U885" s="15"/>
+      <c r="V885" s="15"/>
       <c r="W885" s="15"/>
       <c r="X885" s="15"/>
       <c r="Y885" s="15"/>
@@ -31786,12 +31909,12 @@
       <c r="AC885" s="15"/>
     </row>
     <row r="886" spans="17:29">
-      <c r="Q886" s="15"/>
-      <c r="R886" s="15"/>
-      <c r="S886" s="15"/>
-      <c r="T886" s="15"/>
-      <c r="U886" s="15"/>
-      <c r="V886" s="15"/>
+      <c r="Q886" s="20"/>
+      <c r="R886" s="20"/>
+      <c r="S886" s="20"/>
+      <c r="T886" s="20"/>
+      <c r="U886" s="20"/>
+      <c r="V886" s="20"/>
       <c r="W886" s="15"/>
       <c r="X886" s="15"/>
       <c r="Y886" s="15"/>
@@ -31801,12 +31924,12 @@
       <c r="AC886" s="15"/>
     </row>
     <row r="887" spans="17:29">
-      <c r="Q887" s="20"/>
-      <c r="R887" s="20"/>
-      <c r="S887" s="20"/>
-      <c r="T887" s="20"/>
-      <c r="U887" s="20"/>
-      <c r="V887" s="20"/>
+      <c r="Q887" s="15"/>
+      <c r="R887" s="15"/>
+      <c r="S887" s="15"/>
+      <c r="T887" s="15"/>
+      <c r="U887" s="15"/>
+      <c r="V887" s="15"/>
       <c r="W887" s="15"/>
       <c r="X887" s="15"/>
       <c r="Y887" s="15"/>
@@ -31831,12 +31954,12 @@
       <c r="AC888" s="15"/>
     </row>
     <row r="889" spans="17:29">
-      <c r="Q889" s="15"/>
-      <c r="R889" s="15"/>
-      <c r="S889" s="15"/>
-      <c r="T889" s="15"/>
-      <c r="U889" s="15"/>
-      <c r="V889" s="15"/>
+      <c r="Q889" s="20"/>
+      <c r="R889" s="20"/>
+      <c r="S889" s="20"/>
+      <c r="T889" s="20"/>
+      <c r="U889" s="20"/>
+      <c r="V889" s="20"/>
       <c r="W889" s="15"/>
       <c r="X889" s="15"/>
       <c r="Y889" s="15"/>
@@ -31846,12 +31969,12 @@
       <c r="AC889" s="15"/>
     </row>
     <row r="890" spans="17:29">
-      <c r="Q890" s="20"/>
-      <c r="R890" s="20"/>
-      <c r="S890" s="20"/>
-      <c r="T890" s="20"/>
-      <c r="U890" s="20"/>
-      <c r="V890" s="20"/>
+      <c r="Q890" s="15"/>
+      <c r="R890" s="15"/>
+      <c r="S890" s="15"/>
+      <c r="T890" s="15"/>
+      <c r="U890" s="15"/>
+      <c r="V890" s="15"/>
       <c r="W890" s="15"/>
       <c r="X890" s="15"/>
       <c r="Y890" s="15"/>
@@ -31891,12 +32014,12 @@
       <c r="AC892" s="15"/>
     </row>
     <row r="893" spans="17:29">
-      <c r="Q893" s="15"/>
-      <c r="R893" s="15"/>
-      <c r="S893" s="15"/>
-      <c r="T893" s="15"/>
-      <c r="U893" s="15"/>
-      <c r="V893" s="15"/>
+      <c r="Q893" s="20"/>
+      <c r="R893" s="20"/>
+      <c r="S893" s="20"/>
+      <c r="T893" s="20"/>
+      <c r="U893" s="20"/>
+      <c r="V893" s="20"/>
       <c r="W893" s="15"/>
       <c r="X893" s="15"/>
       <c r="Y893" s="15"/>
@@ -31936,12 +32059,12 @@
       <c r="AC895" s="15"/>
     </row>
     <row r="896" spans="17:29">
-      <c r="Q896" s="20"/>
-      <c r="R896" s="20"/>
-      <c r="S896" s="20"/>
-      <c r="T896" s="20"/>
-      <c r="U896" s="20"/>
-      <c r="V896" s="20"/>
+      <c r="Q896" s="15"/>
+      <c r="R896" s="15"/>
+      <c r="S896" s="15"/>
+      <c r="T896" s="15"/>
+      <c r="U896" s="15"/>
+      <c r="V896" s="15"/>
       <c r="W896" s="15"/>
       <c r="X896" s="15"/>
       <c r="Y896" s="15"/>
@@ -32041,12 +32164,12 @@
       <c r="AC902" s="15"/>
     </row>
     <row r="903" spans="17:29">
-      <c r="Q903" s="15"/>
-      <c r="R903" s="15"/>
-      <c r="S903" s="15"/>
-      <c r="T903" s="15"/>
-      <c r="U903" s="15"/>
-      <c r="V903" s="15"/>
+      <c r="Q903" s="20"/>
+      <c r="R903" s="20"/>
+      <c r="S903" s="20"/>
+      <c r="T903" s="20"/>
+      <c r="U903" s="20"/>
+      <c r="V903" s="20"/>
       <c r="W903" s="15"/>
       <c r="X903" s="15"/>
       <c r="Y903" s="15"/>
@@ -32071,12 +32194,12 @@
       <c r="AC904" s="15"/>
     </row>
     <row r="905" spans="17:29">
-      <c r="Q905" s="20"/>
-      <c r="R905" s="20"/>
-      <c r="S905" s="20"/>
-      <c r="T905" s="20"/>
-      <c r="U905" s="20"/>
-      <c r="V905" s="20"/>
+      <c r="Q905" s="15"/>
+      <c r="R905" s="15"/>
+      <c r="S905" s="15"/>
+      <c r="T905" s="15"/>
+      <c r="U905" s="15"/>
+      <c r="V905" s="15"/>
       <c r="W905" s="15"/>
       <c r="X905" s="15"/>
       <c r="Y905" s="15"/>
@@ -32221,12 +32344,12 @@
       <c r="AC914" s="15"/>
     </row>
     <row r="915" spans="17:29">
-      <c r="Q915" s="15"/>
-      <c r="R915" s="15"/>
-      <c r="S915" s="15"/>
-      <c r="T915" s="15"/>
-      <c r="U915" s="15"/>
-      <c r="V915" s="15"/>
+      <c r="Q915" s="20"/>
+      <c r="R915" s="20"/>
+      <c r="S915" s="20"/>
+      <c r="T915" s="20"/>
+      <c r="U915" s="20"/>
+      <c r="V915" s="20"/>
       <c r="W915" s="15"/>
       <c r="X915" s="15"/>
       <c r="Y915" s="15"/>
@@ -32236,12 +32359,12 @@
       <c r="AC915" s="15"/>
     </row>
     <row r="916" spans="17:29">
-      <c r="Q916" s="20"/>
-      <c r="R916" s="20"/>
-      <c r="S916" s="20"/>
-      <c r="T916" s="20"/>
-      <c r="U916" s="20"/>
-      <c r="V916" s="20"/>
+      <c r="Q916" s="15"/>
+      <c r="R916" s="15"/>
+      <c r="S916" s="15"/>
+      <c r="T916" s="15"/>
+      <c r="U916" s="15"/>
+      <c r="V916" s="15"/>
       <c r="W916" s="15"/>
       <c r="X916" s="15"/>
       <c r="Y916" s="15"/>
@@ -32326,12 +32449,12 @@
       <c r="AC921" s="15"/>
     </row>
     <row r="922" spans="17:29">
-      <c r="Q922" s="15"/>
-      <c r="R922" s="15"/>
-      <c r="S922" s="15"/>
-      <c r="T922" s="15"/>
-      <c r="U922" s="15"/>
-      <c r="V922" s="15"/>
+      <c r="Q922" s="20"/>
+      <c r="R922" s="20"/>
+      <c r="S922" s="20"/>
+      <c r="T922" s="20"/>
+      <c r="U922" s="20"/>
+      <c r="V922" s="20"/>
       <c r="W922" s="15"/>
       <c r="X922" s="15"/>
       <c r="Y922" s="15"/>
@@ -32371,12 +32494,12 @@
       <c r="AC924" s="15"/>
     </row>
     <row r="925" spans="17:29">
-      <c r="Q925" s="20"/>
-      <c r="R925" s="20"/>
-      <c r="S925" s="20"/>
-      <c r="T925" s="20"/>
-      <c r="U925" s="20"/>
-      <c r="V925" s="20"/>
+      <c r="Q925" s="15"/>
+      <c r="R925" s="15"/>
+      <c r="S925" s="15"/>
+      <c r="T925" s="15"/>
+      <c r="U925" s="15"/>
+      <c r="V925" s="15"/>
       <c r="W925" s="15"/>
       <c r="X925" s="15"/>
       <c r="Y925" s="15"/>
@@ -32446,12 +32569,12 @@
       <c r="AC929" s="15"/>
     </row>
     <row r="930" spans="17:29">
-      <c r="Q930" s="15"/>
-      <c r="R930" s="15"/>
-      <c r="S930" s="15"/>
-      <c r="T930" s="15"/>
-      <c r="U930" s="15"/>
-      <c r="V930" s="15"/>
+      <c r="Q930" s="20"/>
+      <c r="R930" s="20"/>
+      <c r="S930" s="20"/>
+      <c r="T930" s="20"/>
+      <c r="U930" s="20"/>
+      <c r="V930" s="20"/>
       <c r="W930" s="15"/>
       <c r="X930" s="15"/>
       <c r="Y930" s="15"/>
@@ -32461,12 +32584,12 @@
       <c r="AC930" s="15"/>
     </row>
     <row r="931" spans="17:29">
-      <c r="Q931" s="20"/>
-      <c r="R931" s="20"/>
-      <c r="S931" s="20"/>
-      <c r="T931" s="20"/>
-      <c r="U931" s="20"/>
-      <c r="V931" s="20"/>
+      <c r="Q931" s="15"/>
+      <c r="R931" s="15"/>
+      <c r="S931" s="15"/>
+      <c r="T931" s="15"/>
+      <c r="U931" s="15"/>
+      <c r="V931" s="15"/>
       <c r="W931" s="15"/>
       <c r="X931" s="15"/>
       <c r="Y931" s="15"/>
@@ -32521,12 +32644,12 @@
       <c r="AC934" s="15"/>
     </row>
     <row r="935" spans="17:29">
-      <c r="Q935" s="15"/>
-      <c r="R935" s="15"/>
-      <c r="S935" s="15"/>
-      <c r="T935" s="15"/>
-      <c r="U935" s="15"/>
-      <c r="V935" s="15"/>
+      <c r="Q935" s="20"/>
+      <c r="R935" s="20"/>
+      <c r="S935" s="20"/>
+      <c r="T935" s="20"/>
+      <c r="U935" s="20"/>
+      <c r="V935" s="20"/>
       <c r="W935" s="15"/>
       <c r="X935" s="15"/>
       <c r="Y935" s="15"/>
@@ -32551,12 +32674,12 @@
       <c r="AC936" s="15"/>
     </row>
     <row r="937" spans="17:29">
-      <c r="Q937" s="20"/>
-      <c r="R937" s="20"/>
-      <c r="S937" s="20"/>
-      <c r="T937" s="20"/>
-      <c r="U937" s="20"/>
-      <c r="V937" s="20"/>
+      <c r="Q937" s="15"/>
+      <c r="R937" s="15"/>
+      <c r="S937" s="15"/>
+      <c r="T937" s="15"/>
+      <c r="U937" s="15"/>
+      <c r="V937" s="15"/>
       <c r="W937" s="15"/>
       <c r="X937" s="15"/>
       <c r="Y937" s="15"/>
@@ -32641,12 +32764,12 @@
       <c r="AC942" s="15"/>
     </row>
     <row r="943" spans="17:29">
-      <c r="Q943" s="15"/>
-      <c r="R943" s="15"/>
-      <c r="S943" s="15"/>
-      <c r="T943" s="15"/>
-      <c r="U943" s="15"/>
-      <c r="V943" s="15"/>
+      <c r="Q943" s="20"/>
+      <c r="R943" s="20"/>
+      <c r="S943" s="20"/>
+      <c r="T943" s="20"/>
+      <c r="U943" s="20"/>
+      <c r="V943" s="20"/>
       <c r="W943" s="15"/>
       <c r="X943" s="15"/>
       <c r="Y943" s="15"/>
@@ -32701,12 +32824,12 @@
       <c r="AC946" s="15"/>
     </row>
     <row r="947" spans="17:29">
-      <c r="Q947" s="20"/>
-      <c r="R947" s="20"/>
-      <c r="S947" s="20"/>
-      <c r="T947" s="20"/>
-      <c r="U947" s="20"/>
-      <c r="V947" s="20"/>
+      <c r="Q947" s="15"/>
+      <c r="R947" s="15"/>
+      <c r="S947" s="15"/>
+      <c r="T947" s="15"/>
+      <c r="U947" s="15"/>
+      <c r="V947" s="15"/>
       <c r="W947" s="15"/>
       <c r="X947" s="15"/>
       <c r="Y947" s="15"/>
@@ -32716,12 +32839,12 @@
       <c r="AC947" s="15"/>
     </row>
     <row r="948" spans="17:29">
-      <c r="Q948" s="15"/>
-      <c r="R948" s="15"/>
-      <c r="S948" s="15"/>
-      <c r="T948" s="15"/>
-      <c r="U948" s="15"/>
-      <c r="V948" s="15"/>
+      <c r="Q948" s="20"/>
+      <c r="R948" s="20"/>
+      <c r="S948" s="20"/>
+      <c r="T948" s="20"/>
+      <c r="U948" s="20"/>
+      <c r="V948" s="20"/>
       <c r="W948" s="15"/>
       <c r="X948" s="15"/>
       <c r="Y948" s="15"/>
@@ -32776,12 +32899,12 @@
       <c r="AC951" s="15"/>
     </row>
     <row r="952" spans="17:29">
-      <c r="Q952" s="20"/>
-      <c r="R952" s="20"/>
-      <c r="S952" s="20"/>
-      <c r="T952" s="20"/>
-      <c r="U952" s="20"/>
-      <c r="V952" s="20"/>
+      <c r="Q952" s="15"/>
+      <c r="R952" s="15"/>
+      <c r="S952" s="15"/>
+      <c r="T952" s="15"/>
+      <c r="U952" s="15"/>
+      <c r="V952" s="15"/>
       <c r="W952" s="15"/>
       <c r="X952" s="15"/>
       <c r="Y952" s="15"/>
@@ -32791,12 +32914,12 @@
       <c r="AC952" s="15"/>
     </row>
     <row r="953" spans="17:29">
-      <c r="Q953" s="15"/>
-      <c r="R953" s="15"/>
-      <c r="S953" s="15"/>
-      <c r="T953" s="15"/>
-      <c r="U953" s="15"/>
-      <c r="V953" s="15"/>
+      <c r="Q953" s="20"/>
+      <c r="R953" s="20"/>
+      <c r="S953" s="20"/>
+      <c r="T953" s="20"/>
+      <c r="U953" s="20"/>
+      <c r="V953" s="20"/>
       <c r="W953" s="15"/>
       <c r="X953" s="15"/>
       <c r="Y953" s="15"/>
@@ -32851,12 +32974,12 @@
       <c r="AC956" s="15"/>
     </row>
     <row r="957" spans="17:29">
-      <c r="Q957" s="20"/>
-      <c r="R957" s="20"/>
-      <c r="S957" s="20"/>
-      <c r="T957" s="20"/>
-      <c r="U957" s="20"/>
-      <c r="V957" s="20"/>
+      <c r="Q957" s="15"/>
+      <c r="R957" s="15"/>
+      <c r="S957" s="15"/>
+      <c r="T957" s="15"/>
+      <c r="U957" s="15"/>
+      <c r="V957" s="15"/>
       <c r="W957" s="15"/>
       <c r="X957" s="15"/>
       <c r="Y957" s="15"/>
@@ -33061,22 +33184,7 @@
       <c r="AC970" s="15"/>
     </row>
     <row r="971" spans="17:29">
-      <c r="Q971" s="15"/>
-      <c r="R971" s="15"/>
-      <c r="S971" s="15"/>
-      <c r="T971" s="15"/>
-      <c r="U971" s="15"/>
-      <c r="V971" s="15"/>
-      <c r="W971" s="15"/>
-      <c r="X971" s="15"/>
-      <c r="Y971" s="15"/>
-      <c r="Z971" s="15"/>
       <c r="AA971" s="15"/>
-      <c r="AB971" s="15"/>
-      <c r="AC971" s="15"/>
-    </row>
-    <row r="972" spans="17:29">
-      <c r="AA972" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -33087,10 +33195,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO225"/>
+  <dimension ref="A1:AO226"/>
   <sheetViews>
     <sheetView topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I163" sqref="I163"/>
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -36363,15 +36471,28 @@
       </c>
     </row>
     <row r="157" spans="1:20">
-      <c r="A157" s="10"/>
+      <c r="A157" s="9">
+        <v>1</v>
+      </c>
       <c r="B157" s="10"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
+      <c r="C157" s="9">
+        <v>1</v>
+      </c>
+      <c r="D157" s="9">
+        <v>1</v>
+      </c>
+      <c r="E157" s="9">
+        <v>1</v>
+      </c>
+      <c r="F157" s="9">
+        <v>1</v>
+      </c>
       <c r="G157" s="10"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="18"/>
+      <c r="H157" s="9">
+        <v>1</v>
+      </c>
+      <c r="I157" s="10"/>
+      <c r="J157" s="10"/>
       <c r="K157" s="10"/>
       <c r="L157" s="10"/>
     </row>
@@ -36383,6 +36504,9 @@
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="10"/>
       <c r="K158" s="18"/>
     </row>
     <row r="159" spans="1:20">
@@ -36393,6 +36517,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
+      <c r="H159" s="18"/>
     </row>
     <row r="160" spans="1:20">
       <c r="A160" s="10"/>
@@ -36401,6 +36526,7 @@
       <c r="D160" s="10"/>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="10"/>
@@ -36591,6 +36717,7 @@
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
       <c r="F184" s="10"/>
     </row>
     <row r="185" spans="1:6">
@@ -36598,6 +36725,7 @@
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
       <c r="F185" s="10"/>
     </row>
     <row r="186" spans="1:6">
@@ -36696,21 +36824,25 @@
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
-      <c r="F199" s="18"/>
+      <c r="F199" s="10"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
       <c r="F200" s="18"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
+      <c r="F201" s="18"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
     </row>
@@ -36762,14 +36894,17 @@
     <row r="212" spans="1:4">
       <c r="A212" s="10"/>
       <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="10"/>
       <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="10"/>
       <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="10"/>
@@ -36788,9 +36923,11 @@
       <c r="C218" s="10"/>
     </row>
     <row r="219" spans="1:4">
+      <c r="A219" s="10"/>
       <c r="C219" s="10"/>
     </row>
     <row r="220" spans="1:4">
+      <c r="A220" s="10"/>
       <c r="C220" s="10"/>
     </row>
     <row r="221" spans="1:4">
@@ -36807,6 +36944,9 @@
     </row>
     <row r="225" spans="3:3">
       <c r="C225" s="10"/>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -36819,8 +36959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="I166" sqref="I166"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40461,25 +40601,55 @@
       </c>
     </row>
     <row r="157" spans="1:19" customFormat="1">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
+      <c r="A157" s="1">
+        <v>1</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1">
+        <v>4</v>
+      </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1">
+        <v>2</v>
+      </c>
+      <c r="H157" s="1">
+        <v>1</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0</v>
+      </c>
+      <c r="J157" s="1">
+        <v>2</v>
+      </c>
+      <c r="K157" s="1">
+        <v>1</v>
+      </c>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
-      <c r="Q157" s="1"/>
-      <c r="R157" s="1"/>
-      <c r="S157" s="18"/>
+      <c r="N157" s="1">
+        <v>0</v>
+      </c>
+      <c r="O157" s="1">
+        <v>1</v>
+      </c>
+      <c r="P157" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>2</v>
+      </c>
+      <c r="R157" s="1">
+        <v>3</v>
+      </c>
+      <c r="S157" s="18">
+        <v>5</v>
+      </c>
     </row>
     <row r="158" spans="1:19" customFormat="1">
       <c r="A158" s="1"/>
@@ -40619,10 +40789,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN156"/>
+  <dimension ref="A100:AN157"/>
   <sheetViews>
     <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+      <selection activeCell="P160" sqref="P160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -42354,7 +42524,7 @@
       <c r="P131" s="16">
         <v>7</v>
       </c>
-      <c r="Q131" s="15">
+      <c r="Q131" s="16">
         <v>9</v>
       </c>
       <c r="S131" s="16">
@@ -42399,7 +42569,7 @@
       <c r="P132" s="16">
         <v>5</v>
       </c>
-      <c r="Q132" s="15">
+      <c r="Q132" s="16">
         <v>7</v>
       </c>
       <c r="S132" s="16">
@@ -42440,7 +42610,7 @@
       <c r="P133" s="16">
         <v>7</v>
       </c>
-      <c r="Q133" s="15">
+      <c r="Q133" s="16">
         <v>9</v>
       </c>
       <c r="S133" s="16">
@@ -42481,7 +42651,7 @@
       <c r="P134" s="16">
         <v>9</v>
       </c>
-      <c r="Q134" s="15">
+      <c r="Q134" s="16">
         <v>9</v>
       </c>
       <c r="S134" s="16">
@@ -42523,7 +42693,7 @@
       <c r="P135" s="16">
         <v>9</v>
       </c>
-      <c r="Q135" s="15">
+      <c r="Q135" s="16">
         <v>9</v>
       </c>
       <c r="S135" s="16">
@@ -43311,6 +43481,44 @@
       </c>
       <c r="S156" s="16">
         <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19">
+      <c r="A157" s="9">
+        <v>1</v>
+      </c>
+      <c r="C157" s="9">
+        <v>1</v>
+      </c>
+      <c r="F157" s="9">
+        <v>1</v>
+      </c>
+      <c r="H157" s="9">
+        <v>1</v>
+      </c>
+      <c r="J157" s="11">
+        <v>2</v>
+      </c>
+      <c r="L157" s="16">
+        <v>0</v>
+      </c>
+      <c r="M157" s="16">
+        <v>0</v>
+      </c>
+      <c r="N157" s="16">
+        <v>1</v>
+      </c>
+      <c r="O157" s="16">
+        <v>3</v>
+      </c>
+      <c r="P157" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q157" s="16">
+        <v>8</v>
+      </c>
+      <c r="S157" s="16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -43324,8 +43532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43499,7 +43707,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="18">
         <v>17</v>
@@ -43637,7 +43845,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -43673,7 +43881,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="18">
         <v>6</v>
@@ -43681,7 +43889,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -43734,13 +43942,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
       </c>
       <c r="J9" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="18">
         <v>12</v>
@@ -43749,13 +43957,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -43789,13 +43997,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -43803,13 +44011,16 @@
       <c r="K11" s="18">
         <v>20</v>
       </c>
+      <c r="L11" s="18">
+        <v>0</v>
+      </c>
       <c r="N11" s="18">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -43821,7 +44032,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -43829,10 +44040,10 @@
         <v>13</v>
       </c>
       <c r="I13" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K13" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -43842,7 +44053,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -420,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,6 +556,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -866,7 +867,7 @@
   <dimension ref="A1:AO105"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+      <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5484,7 +5485,7 @@
         <v>11</v>
       </c>
       <c r="P46" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q46" s="7">
         <v>9</v>
@@ -5864,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="7">
         <v>5</v>
@@ -6182,7 +6183,7 @@
       <c r="S53" s="7">
         <v>1</v>
       </c>
-      <c r="T53" s="7">
+      <c r="T53" s="25">
         <v>4</v>
       </c>
       <c r="U53" s="7">
@@ -6255,7 +6256,7 @@
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="7">
         <v>13</v>
@@ -6279,17 +6280,17 @@
       <c r="S54" s="7">
         <v>0</v>
       </c>
-      <c r="T54" s="7">
+      <c r="T54" s="25">
         <v>9</v>
       </c>
       <c r="U54" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V54" s="7">
         <v>10</v>
       </c>
       <c r="W54" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X54" s="7">
         <v>0</v>
@@ -6310,7 +6311,7 @@
         <v>6</v>
       </c>
       <c r="AD54" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE54" s="7">
         <v>2</v>
@@ -6323,7 +6324,9 @@
       </c>
     </row>
     <row r="55" spans="1:33" s="27" customFormat="1">
-      <c r="A55" s="7"/>
+      <c r="A55" s="7">
+        <v>0</v>
+      </c>
       <c r="B55" s="7">
         <v>0</v>
       </c>
@@ -6367,12 +6370,12 @@
         <v>2</v>
       </c>
       <c r="R55" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S55" s="7">
         <v>2</v>
       </c>
-      <c r="T55" s="7">
+      <c r="T55" s="25">
         <v>3</v>
       </c>
       <c r="U55" s="7"/>
@@ -6430,7 +6433,7 @@
         <v>5</v>
       </c>
       <c r="H56" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I56" s="7">
         <v>1</v>
@@ -6485,13 +6488,13 @@
       </c>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF56" s="7">
         <v>2</v>
       </c>
       <c r="AG56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:33" s="25" customFormat="1">
@@ -6500,7 +6503,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" s="7">
         <v>8</v>
@@ -6526,7 +6529,7 @@
         <v>15</v>
       </c>
       <c r="N57" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O57" s="7">
         <v>1</v>
@@ -6540,7 +6543,7 @@
         <v>2</v>
       </c>
       <c r="T57" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U57" s="7"/>
       <c r="V57" s="7">
@@ -6591,7 +6594,7 @@
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" s="25"/>
       <c r="K58" s="7"/>
@@ -6683,22 +6686,24 @@
       <c r="X59" s="7">
         <v>1</v>
       </c>
-      <c r="Y59" s="25"/>
+      <c r="Y59" s="7">
+        <v>0</v>
+      </c>
       <c r="Z59" s="7">
         <v>2</v>
       </c>
       <c r="AA59" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB59" s="7">
         <v>0</v>
       </c>
       <c r="AC59" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD59" s="25"/>
       <c r="AF59" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:33" s="7" customFormat="1">
@@ -6764,14 +6769,14 @@
         <v>3</v>
       </c>
       <c r="G61" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -6785,6 +6790,9 @@
         <v>4</v>
       </c>
       <c r="R61" s="7"/>
+      <c r="S61" s="14">
+        <v>0</v>
+      </c>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7">
@@ -6810,10 +6818,10 @@
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C62" s="7"/>
-      <c r="D62" s="7">
+      <c r="D62" s="25">
         <v>4</v>
       </c>
       <c r="E62" s="7">
@@ -6867,14 +6875,14 @@
     <row r="63" spans="1:33">
       <c r="A63" s="25"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="7">
+      <c r="D63" s="25">
         <v>1</v>
       </c>
       <c r="E63" s="7">
         <v>7</v>
       </c>
       <c r="F63" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="4"/>
@@ -6886,7 +6894,7 @@
       </c>
       <c r="N63" s="25"/>
       <c r="O63" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P63" s="4"/>
       <c r="Q63" s="4">
@@ -6917,7 +6925,7 @@
       <c r="AG63" s="5"/>
     </row>
     <row r="64" spans="1:33">
-      <c r="D64" s="3">
+      <c r="D64" s="25">
         <v>2</v>
       </c>
       <c r="E64" s="4">
@@ -6945,7 +6953,9 @@
         <v>4</v>
       </c>
       <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
+      <c r="X64" s="4">
+        <v>0</v>
+      </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4">
         <v>0</v>
@@ -6960,7 +6970,7 @@
     </row>
     <row r="65" spans="1:33">
       <c r="C65" s="5"/>
-      <c r="D65" s="3">
+      <c r="D65" s="25">
         <v>0</v>
       </c>
       <c r="E65" s="4">
@@ -6991,10 +7001,10 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB65" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD65" s="7"/>
       <c r="AE65" s="3"/>
@@ -7002,7 +7012,7 @@
       <c r="AG65" s="5"/>
     </row>
     <row r="66" spans="1:33">
-      <c r="D66" s="3">
+      <c r="D66" s="25">
         <v>0</v>
       </c>
       <c r="E66" s="4">
@@ -7025,7 +7035,9 @@
       <c r="S66" s="4"/>
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
+      <c r="V66" s="4">
+        <v>0</v>
+      </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
@@ -7041,7 +7053,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F67" s="4"/>
       <c r="H67" s="4"/>
@@ -7055,7 +7067,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
@@ -7082,7 +7094,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -7161,7 +7173,9 @@
       <c r="AG70" s="5"/>
     </row>
     <row r="71" spans="1:33">
-      <c r="D71" s="3"/>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="H71" s="4"/>
@@ -7780,8 +7794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT971"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z164" sqref="Z164"/>
+    <sheetView topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V162" sqref="V162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -19222,7 +19236,7 @@
       </c>
       <c r="P144" s="22"/>
       <c r="Q144" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R144" s="19">
         <v>9</v>
@@ -19523,7 +19537,7 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R147" s="19">
         <v>2</v>
@@ -19632,15 +19646,15 @@
         <v>4</v>
       </c>
       <c r="S148" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T148" s="19">
         <v>3</v>
       </c>
       <c r="U148" s="20">
-        <v>9</v>
-      </c>
-      <c r="V148" s="20">
+        <v>10</v>
+      </c>
+      <c r="V148" s="19">
         <v>9</v>
       </c>
       <c r="W148" s="20"/>
@@ -19653,7 +19667,9 @@
       <c r="Z148" s="19">
         <v>4</v>
       </c>
-      <c r="AA148" s="20"/>
+      <c r="AA148" s="20">
+        <v>9</v>
+      </c>
       <c r="AB148" s="20"/>
       <c r="AC148" s="20"/>
       <c r="AD148" s="20"/>
@@ -19823,7 +19839,7 @@
         <v>9</v>
       </c>
       <c r="P150" s="22"/>
-      <c r="Q150" s="20">
+      <c r="Q150" s="19">
         <v>7</v>
       </c>
       <c r="R150" s="19">
@@ -19832,11 +19848,11 @@
       <c r="S150" s="19">
         <v>1</v>
       </c>
-      <c r="T150" s="20">
+      <c r="T150" s="19">
         <v>7</v>
       </c>
       <c r="U150" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V150" s="19">
         <v>1</v>
@@ -19851,8 +19867,12 @@
       <c r="Z150" s="19">
         <v>4</v>
       </c>
-      <c r="AA150" s="20"/>
-      <c r="AB150" s="20"/>
+      <c r="AA150" s="20">
+        <v>7</v>
+      </c>
+      <c r="AB150" s="20">
+        <v>7</v>
+      </c>
       <c r="AC150" s="20"/>
       <c r="AD150" s="20"/>
       <c r="AF150" s="40"/>
@@ -20031,7 +20051,7 @@
         <v>1</v>
       </c>
       <c r="T152" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U152" s="19">
         <v>0</v>
@@ -20119,16 +20139,16 @@
       </c>
       <c r="P153" s="22"/>
       <c r="Q153" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R153" s="19">
         <v>0</v>
       </c>
       <c r="S153" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T153" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U153" s="19">
         <v>3</v>
@@ -20215,18 +20235,18 @@
       </c>
       <c r="P154" s="22"/>
       <c r="Q154" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R154" s="19">
         <v>2</v>
       </c>
       <c r="S154" s="20">
-        <v>3</v>
-      </c>
-      <c r="T154" s="20">
-        <v>3</v>
-      </c>
-      <c r="U154" s="20">
+        <v>4</v>
+      </c>
+      <c r="T154" s="19">
+        <v>3</v>
+      </c>
+      <c r="U154" s="19">
         <v>3</v>
       </c>
       <c r="V154" s="19">
@@ -20239,8 +20259,12 @@
       <c r="Y154" s="19">
         <v>2</v>
       </c>
-      <c r="Z154" s="20"/>
-      <c r="AA154" s="20"/>
+      <c r="Z154" s="20">
+        <v>3</v>
+      </c>
+      <c r="AA154" s="20">
+        <v>3</v>
+      </c>
       <c r="AB154" s="20"/>
       <c r="AC154" s="20"/>
       <c r="AD154" s="20"/>
@@ -20309,22 +20333,22 @@
       </c>
       <c r="P155" s="22"/>
       <c r="Q155" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R155" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S155" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T155" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U155" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V155" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W155" s="20"/>
       <c r="X155" s="20"/>
@@ -20398,20 +20422,20 @@
         <v>12</v>
       </c>
       <c r="P156" s="22"/>
-      <c r="Q156" s="20">
+      <c r="Q156" s="19">
         <v>1</v>
       </c>
       <c r="R156" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S156" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T156" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U156" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V156" s="19">
         <v>0</v>
@@ -20420,7 +20444,9 @@
       <c r="X156" s="19">
         <v>0</v>
       </c>
-      <c r="Y156" s="20"/>
+      <c r="Y156" s="20">
+        <v>1</v>
+      </c>
       <c r="Z156" s="20"/>
       <c r="AA156" s="20"/>
       <c r="AB156" s="20"/>
@@ -20494,22 +20520,22 @@
       </c>
       <c r="P157" s="22"/>
       <c r="Q157" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R157" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S157" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T157" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U157" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V157" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W157" s="20"/>
       <c r="X157" s="20"/>
@@ -20549,39 +20575,87 @@
       </c>
     </row>
     <row r="158" spans="1:43" s="21" customFormat="1">
+      <c r="A158" s="21">
+        <v>7</v>
+      </c>
+      <c r="B158" s="21">
+        <v>1</v>
+      </c>
+      <c r="C158" s="21">
+        <v>3</v>
+      </c>
+      <c r="D158" s="21">
+        <v>9</v>
+      </c>
+      <c r="E158" s="21">
+        <v>3</v>
+      </c>
+      <c r="F158" s="21">
+        <v>7</v>
+      </c>
+      <c r="I158" s="21">
+        <v>1</v>
+      </c>
+      <c r="J158" s="21">
+        <v>3</v>
+      </c>
+      <c r="K158" s="21">
+        <v>3</v>
+      </c>
+      <c r="L158" s="21">
+        <v>7</v>
+      </c>
+      <c r="M158" s="21">
+        <v>7</v>
+      </c>
+      <c r="N158" s="21">
+        <v>9</v>
+      </c>
       <c r="P158" s="22"/>
-      <c r="Q158" s="20"/>
-      <c r="R158" s="20"/>
-      <c r="S158" s="20"/>
-      <c r="T158" s="20"/>
-      <c r="U158" s="20"/>
-      <c r="V158" s="20"/>
-      <c r="W158" s="20"/>
-      <c r="X158" s="20"/>
-      <c r="Y158" s="20"/>
-      <c r="Z158" s="20"/>
-      <c r="AA158" s="20"/>
-      <c r="AB158" s="20"/>
-      <c r="AC158" s="20"/>
-      <c r="AD158" s="20"/>
+      <c r="Q158" s="23">
+        <v>0</v>
+      </c>
+      <c r="R158" s="23">
+        <v>0</v>
+      </c>
+      <c r="S158" s="23">
+        <v>0</v>
+      </c>
+      <c r="T158" s="23">
+        <v>0</v>
+      </c>
+      <c r="U158" s="23">
+        <v>0</v>
+      </c>
+      <c r="V158" s="23">
+        <v>0</v>
+      </c>
+      <c r="W158" s="23"/>
+      <c r="X158" s="23"/>
+      <c r="Y158" s="23"/>
+      <c r="Z158" s="23"/>
+      <c r="AA158" s="23"/>
+      <c r="AB158" s="23"/>
+      <c r="AC158" s="23"/>
+      <c r="AD158" s="23"/>
       <c r="AF158" s="40"/>
     </row>
     <row r="159" spans="1:43" s="21" customFormat="1">
       <c r="P159" s="22"/>
-      <c r="Q159" s="20"/>
-      <c r="R159" s="20"/>
-      <c r="S159" s="20"/>
-      <c r="T159" s="20"/>
-      <c r="U159" s="20"/>
-      <c r="V159" s="20"/>
-      <c r="W159" s="20"/>
-      <c r="X159" s="15"/>
-      <c r="Y159" s="15"/>
-      <c r="Z159" s="15"/>
-      <c r="AA159" s="15"/>
-      <c r="AB159" s="15"/>
-      <c r="AC159" s="15"/>
-      <c r="AD159" s="15"/>
+      <c r="Q159" s="23"/>
+      <c r="R159" s="23"/>
+      <c r="S159" s="23"/>
+      <c r="T159" s="23"/>
+      <c r="U159" s="23"/>
+      <c r="V159" s="23"/>
+      <c r="W159" s="23"/>
+      <c r="X159" s="23"/>
+      <c r="Y159" s="23"/>
+      <c r="Z159" s="23"/>
+      <c r="AA159" s="23"/>
+      <c r="AB159" s="23"/>
+      <c r="AC159" s="23"/>
+      <c r="AD159" s="23"/>
       <c r="AF159" s="40"/>
     </row>
     <row r="160" spans="1:43" s="21" customFormat="1">
@@ -20593,140 +20667,142 @@
       <c r="U160" s="23"/>
       <c r="V160" s="23"/>
       <c r="W160" s="23"/>
-      <c r="X160" s="40"/>
-      <c r="Y160" s="40"/>
+      <c r="X160" s="23"/>
+      <c r="Y160" s="23"/>
       <c r="Z160" s="23"/>
       <c r="AA160" s="23"/>
       <c r="AB160" s="23"/>
       <c r="AC160" s="23"/>
-      <c r="AD160" s="40"/>
+      <c r="AD160" s="23"/>
       <c r="AF160" s="40"/>
     </row>
-    <row r="161" spans="16:32" s="21" customFormat="1">
-      <c r="Q161" s="23"/>
-      <c r="R161" s="23"/>
-      <c r="S161" s="23"/>
-      <c r="T161" s="23"/>
-      <c r="U161" s="23"/>
-      <c r="V161" s="23"/>
-      <c r="W161" s="23"/>
-      <c r="X161" s="40"/>
-      <c r="Y161" s="40"/>
-      <c r="Z161" s="23"/>
-      <c r="AA161" s="23"/>
-      <c r="AB161" s="23"/>
-      <c r="AC161" s="23"/>
-      <c r="AD161" s="40"/>
+    <row r="161" spans="9:32" s="21" customFormat="1">
+      <c r="P161" s="22"/>
+      <c r="Q161" s="20"/>
+      <c r="R161" s="20"/>
+      <c r="S161" s="20"/>
+      <c r="T161" s="20"/>
+      <c r="U161" s="20"/>
+      <c r="V161" s="20"/>
+      <c r="W161" s="20"/>
+      <c r="X161" s="20"/>
+      <c r="Y161" s="20"/>
+      <c r="Z161" s="20"/>
+      <c r="AA161" s="20"/>
+      <c r="AB161" s="20"/>
+      <c r="AC161" s="20"/>
+      <c r="AD161" s="20"/>
       <c r="AF161" s="40"/>
     </row>
-    <row r="162" spans="16:32" s="21" customFormat="1">
-      <c r="Q162" s="23"/>
-      <c r="R162" s="23"/>
-      <c r="S162" s="23"/>
-      <c r="T162" s="23"/>
-      <c r="U162" s="23"/>
-      <c r="V162" s="23"/>
-      <c r="W162" s="23"/>
-      <c r="X162" s="40"/>
-      <c r="Y162" s="40"/>
-      <c r="Z162" s="40"/>
-      <c r="AA162" s="40"/>
-      <c r="AB162" s="40"/>
-      <c r="AC162" s="40"/>
-      <c r="AD162" s="40"/>
+    <row r="162" spans="9:32" s="21" customFormat="1">
+      <c r="P162" s="22"/>
+      <c r="Q162" s="20"/>
+      <c r="R162" s="20"/>
+      <c r="S162" s="20"/>
+      <c r="T162" s="20"/>
+      <c r="U162" s="20"/>
+      <c r="V162" s="20"/>
+      <c r="W162" s="15"/>
+      <c r="X162" s="20"/>
+      <c r="Y162" s="20"/>
+      <c r="Z162" s="20"/>
+      <c r="AA162" s="20"/>
+      <c r="AB162" s="20"/>
+      <c r="AC162" s="20"/>
+      <c r="AD162" s="15"/>
       <c r="AF162" s="40"/>
     </row>
-    <row r="163" spans="16:32" s="21" customFormat="1">
-      <c r="Q163" s="23"/>
-      <c r="R163" s="23"/>
-      <c r="S163" s="23"/>
-      <c r="T163" s="23"/>
-      <c r="U163" s="23"/>
-      <c r="V163" s="23"/>
-      <c r="W163" s="23"/>
-      <c r="X163" s="40"/>
-      <c r="Y163" s="40"/>
-      <c r="Z163" s="23"/>
-      <c r="AA163" s="23"/>
-      <c r="AB163" s="23"/>
-      <c r="AC163" s="23"/>
-      <c r="AD163" s="40"/>
+    <row r="163" spans="9:32" s="21" customFormat="1">
+      <c r="P163" s="22"/>
+      <c r="Q163" s="20"/>
+      <c r="R163" s="20"/>
+      <c r="S163" s="20"/>
+      <c r="T163" s="20"/>
+      <c r="U163" s="20"/>
+      <c r="V163" s="20"/>
+      <c r="W163" s="20"/>
+      <c r="X163" s="20"/>
+      <c r="Y163" s="20"/>
+      <c r="Z163" s="20"/>
+      <c r="AA163" s="20"/>
+      <c r="AB163" s="20"/>
+      <c r="AC163" s="20"/>
+      <c r="AD163" s="15"/>
       <c r="AF163" s="40"/>
     </row>
-    <row r="164" spans="16:32" s="21" customFormat="1">
+    <row r="164" spans="9:32" s="21" customFormat="1">
       <c r="P164" s="22"/>
-      <c r="Q164" s="23"/>
-      <c r="R164" s="23"/>
-      <c r="S164" s="23"/>
-      <c r="T164" s="23"/>
-      <c r="U164" s="23"/>
-      <c r="V164" s="23"/>
-      <c r="W164" s="23"/>
-      <c r="X164" s="40"/>
-      <c r="Y164" s="40"/>
-      <c r="Z164" s="40"/>
-      <c r="AA164" s="40"/>
-      <c r="AB164" s="40"/>
-      <c r="AC164" s="40"/>
-      <c r="AD164" s="40"/>
+      <c r="Q164" s="20"/>
+      <c r="R164" s="20"/>
+      <c r="S164" s="20"/>
+      <c r="T164" s="20"/>
+      <c r="U164" s="20"/>
+      <c r="V164" s="20"/>
+      <c r="W164" s="20"/>
+      <c r="X164" s="20"/>
+      <c r="Y164" s="20"/>
+      <c r="Z164" s="20"/>
+      <c r="AA164" s="20"/>
+      <c r="AB164" s="20"/>
+      <c r="AC164" s="20"/>
+      <c r="AD164" s="15"/>
       <c r="AF164" s="40"/>
     </row>
-    <row r="165" spans="16:32" s="21" customFormat="1">
+    <row r="165" spans="9:32" s="21" customFormat="1">
       <c r="P165" s="22"/>
-      <c r="Q165" s="23"/>
-      <c r="R165" s="23"/>
-      <c r="S165" s="23"/>
-      <c r="T165" s="23"/>
-      <c r="U165" s="23"/>
-      <c r="V165" s="23"/>
-      <c r="W165" s="23"/>
-      <c r="X165" s="40"/>
-      <c r="Y165" s="40"/>
-      <c r="Z165" s="23"/>
-      <c r="AA165" s="23"/>
-      <c r="AB165" s="23"/>
-      <c r="AC165" s="23"/>
-      <c r="AD165" s="40"/>
+      <c r="Q165" s="20"/>
+      <c r="R165" s="20"/>
+      <c r="S165" s="20"/>
+      <c r="T165" s="20"/>
+      <c r="U165" s="20"/>
+      <c r="V165" s="20"/>
+      <c r="W165" s="20"/>
+      <c r="X165" s="15"/>
+      <c r="Y165" s="15"/>
+      <c r="Z165" s="15"/>
+      <c r="AA165" s="15"/>
+      <c r="AB165" s="15"/>
+      <c r="AC165" s="15"/>
+      <c r="AD165" s="15"/>
       <c r="AF165" s="40"/>
     </row>
-    <row r="166" spans="16:32" s="21" customFormat="1">
+    <row r="166" spans="9:32" s="21" customFormat="1">
       <c r="P166" s="22"/>
-      <c r="Q166" s="23"/>
-      <c r="R166" s="23"/>
-      <c r="S166" s="23"/>
-      <c r="T166" s="23"/>
-      <c r="U166" s="23"/>
-      <c r="V166" s="23"/>
-      <c r="W166" s="23"/>
-      <c r="X166" s="40"/>
-      <c r="Y166" s="40"/>
-      <c r="Z166" s="40"/>
-      <c r="AA166" s="40"/>
-      <c r="AB166" s="40"/>
-      <c r="AC166" s="40"/>
-      <c r="AD166" s="40"/>
+      <c r="Q166" s="20"/>
+      <c r="R166" s="20"/>
+      <c r="S166" s="20"/>
+      <c r="T166" s="20"/>
+      <c r="U166" s="20"/>
+      <c r="V166" s="20"/>
+      <c r="W166" s="15"/>
+      <c r="X166" s="15"/>
+      <c r="Y166" s="15"/>
+      <c r="Z166" s="15"/>
+      <c r="AA166" s="15"/>
+      <c r="AB166" s="15"/>
+      <c r="AC166" s="15"/>
+      <c r="AD166" s="15"/>
       <c r="AF166" s="40"/>
     </row>
-    <row r="167" spans="16:32" s="21" customFormat="1">
-      <c r="P167" s="22"/>
+    <row r="167" spans="9:32" s="21" customFormat="1">
       <c r="Q167" s="20"/>
       <c r="R167" s="20"/>
       <c r="S167" s="20"/>
       <c r="T167" s="20"/>
       <c r="U167" s="20"/>
       <c r="V167" s="20"/>
-      <c r="W167" s="20"/>
-      <c r="X167" s="20"/>
-      <c r="Y167" s="20"/>
-      <c r="Z167" s="20"/>
-      <c r="AA167" s="20"/>
-      <c r="AB167" s="20"/>
-      <c r="AC167" s="20"/>
+      <c r="W167" s="15"/>
+      <c r="X167" s="15"/>
+      <c r="Y167" s="15"/>
+      <c r="Z167" s="15"/>
+      <c r="AA167" s="15"/>
+      <c r="AB167" s="15"/>
+      <c r="AC167" s="15"/>
       <c r="AD167" s="15"/>
       <c r="AF167" s="40"/>
     </row>
-    <row r="168" spans="16:32" s="21" customFormat="1">
-      <c r="P168" s="22"/>
+    <row r="168" spans="9:32">
+      <c r="P168" s="18"/>
       <c r="Q168" s="20"/>
       <c r="R168" s="20"/>
       <c r="S168" s="20"/>
@@ -20740,10 +20816,9 @@
       <c r="AA168" s="20"/>
       <c r="AB168" s="20"/>
       <c r="AC168" s="20"/>
-      <c r="AD168" s="15"/>
-      <c r="AF168" s="40"/>
-    </row>
-    <row r="169" spans="16:32" s="21" customFormat="1">
+      <c r="AD168" s="20"/>
+    </row>
+    <row r="169" spans="9:32" s="21" customFormat="1">
       <c r="P169" s="22"/>
       <c r="Q169" s="20"/>
       <c r="R169" s="20"/>
@@ -20758,98 +20833,151 @@
       <c r="AA169" s="20"/>
       <c r="AB169" s="20"/>
       <c r="AC169" s="20"/>
-      <c r="AD169" s="15"/>
-      <c r="AF169" s="40"/>
-    </row>
-    <row r="170" spans="16:32" s="21" customFormat="1">
+      <c r="AD169" s="20"/>
+      <c r="AF169" s="23"/>
+    </row>
+    <row r="170" spans="9:32" s="21" customFormat="1">
+      <c r="I170" s="21">
+        <v>0</v>
+      </c>
+      <c r="J170" s="21">
+        <v>1</v>
+      </c>
+      <c r="K170" s="21">
+        <v>1</v>
+      </c>
+      <c r="L170" s="21">
+        <v>3</v>
+      </c>
+      <c r="M170" s="21">
+        <v>7</v>
+      </c>
+      <c r="N170" s="21">
+        <v>10</v>
+      </c>
       <c r="P170" s="22"/>
-      <c r="Q170" s="20"/>
-      <c r="R170" s="20"/>
-      <c r="S170" s="20"/>
-      <c r="T170" s="20"/>
-      <c r="U170" s="20"/>
-      <c r="V170" s="20"/>
-      <c r="W170" s="20"/>
-      <c r="X170" s="20"/>
-      <c r="Y170" s="20"/>
-      <c r="Z170" s="20"/>
-      <c r="AA170" s="20"/>
-      <c r="AB170" s="20"/>
-      <c r="AC170" s="20"/>
-      <c r="AD170" s="15"/>
+      <c r="Q170" s="23"/>
+      <c r="R170" s="23"/>
+      <c r="S170" s="23"/>
+      <c r="T170" s="23"/>
+      <c r="U170" s="23"/>
+      <c r="V170" s="23"/>
+      <c r="W170" s="23"/>
+      <c r="X170" s="40"/>
+      <c r="Y170" s="40"/>
+      <c r="Z170" s="23"/>
+      <c r="AA170" s="23"/>
+      <c r="AB170" s="23"/>
+      <c r="AC170" s="23"/>
+      <c r="AD170" s="40"/>
       <c r="AF170" s="40"/>
     </row>
-    <row r="171" spans="16:32" s="21" customFormat="1">
-      <c r="P171" s="22"/>
-      <c r="Q171" s="20"/>
-      <c r="R171" s="20"/>
-      <c r="S171" s="20"/>
-      <c r="T171" s="20"/>
-      <c r="U171" s="20"/>
-      <c r="V171" s="20"/>
-      <c r="W171" s="20"/>
-      <c r="X171" s="15"/>
-      <c r="Y171" s="15"/>
-      <c r="Z171" s="15"/>
-      <c r="AA171" s="15"/>
-      <c r="AB171" s="15"/>
-      <c r="AC171" s="15"/>
-      <c r="AD171" s="15"/>
+    <row r="171" spans="9:32" s="21" customFormat="1">
+      <c r="Q171" s="23"/>
+      <c r="R171" s="23"/>
+      <c r="S171" s="23"/>
+      <c r="T171" s="23"/>
+      <c r="U171" s="23"/>
+      <c r="V171" s="23"/>
+      <c r="W171" s="23"/>
+      <c r="X171" s="40"/>
+      <c r="Y171" s="40"/>
+      <c r="Z171" s="23"/>
+      <c r="AA171" s="23"/>
+      <c r="AB171" s="23"/>
+      <c r="AC171" s="23"/>
+      <c r="AD171" s="40"/>
       <c r="AF171" s="40"/>
     </row>
-    <row r="172" spans="16:32" s="21" customFormat="1">
-      <c r="P172" s="22"/>
-      <c r="Q172" s="20"/>
-      <c r="R172" s="20"/>
-      <c r="S172" s="20"/>
-      <c r="T172" s="20"/>
-      <c r="U172" s="20"/>
-      <c r="V172" s="20"/>
-      <c r="W172" s="15"/>
-      <c r="X172" s="15"/>
-      <c r="Y172" s="15"/>
-      <c r="Z172" s="15"/>
-      <c r="AA172" s="15"/>
-      <c r="AB172" s="15"/>
-      <c r="AC172" s="15"/>
-      <c r="AD172" s="15"/>
+    <row r="172" spans="9:32" s="21" customFormat="1">
+      <c r="Q172" s="23"/>
+      <c r="R172" s="23"/>
+      <c r="S172" s="23"/>
+      <c r="T172" s="23"/>
+      <c r="U172" s="23"/>
+      <c r="V172" s="23"/>
+      <c r="W172" s="23"/>
+      <c r="X172" s="40"/>
+      <c r="Y172" s="40"/>
+      <c r="Z172" s="40"/>
+      <c r="AA172" s="40"/>
+      <c r="AB172" s="40"/>
+      <c r="AC172" s="40"/>
+      <c r="AD172" s="40"/>
       <c r="AF172" s="40"/>
     </row>
-    <row r="173" spans="16:32" s="21" customFormat="1">
-      <c r="Q173" s="20"/>
-      <c r="R173" s="20"/>
-      <c r="S173" s="20"/>
-      <c r="T173" s="20"/>
-      <c r="U173" s="20"/>
-      <c r="V173" s="20"/>
-      <c r="W173" s="15"/>
-      <c r="X173" s="15"/>
-      <c r="Y173" s="15"/>
-      <c r="Z173" s="15"/>
-      <c r="AA173" s="15"/>
-      <c r="AB173" s="15"/>
-      <c r="AC173" s="15"/>
-      <c r="AD173" s="15"/>
+    <row r="173" spans="9:32" s="21" customFormat="1">
+      <c r="I173" s="21">
+        <v>0</v>
+      </c>
+      <c r="J173" s="21">
+        <v>0</v>
+      </c>
+      <c r="K173" s="21">
+        <v>3</v>
+      </c>
+      <c r="L173" s="21">
+        <v>5</v>
+      </c>
+      <c r="M173" s="21">
+        <v>7</v>
+      </c>
+      <c r="N173" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q173" s="23"/>
+      <c r="R173" s="23"/>
+      <c r="S173" s="23"/>
+      <c r="T173" s="23"/>
+      <c r="U173" s="23"/>
+      <c r="V173" s="23"/>
+      <c r="W173" s="23"/>
+      <c r="X173" s="40"/>
+      <c r="Y173" s="40"/>
+      <c r="Z173" s="23"/>
+      <c r="AA173" s="23"/>
+      <c r="AB173" s="23"/>
+      <c r="AC173" s="23"/>
+      <c r="AD173" s="40"/>
       <c r="AF173" s="40"/>
     </row>
-    <row r="174" spans="16:32">
-      <c r="P174" s="18"/>
+    <row r="174" spans="9:32" s="21" customFormat="1">
+      <c r="I174" s="21">
+        <v>1</v>
+      </c>
+      <c r="J174" s="21">
+        <v>1</v>
+      </c>
+      <c r="K174" s="21">
+        <v>2</v>
+      </c>
+      <c r="L174" s="21">
+        <v>3</v>
+      </c>
+      <c r="M174" s="21">
+        <v>3</v>
+      </c>
+      <c r="N174" s="21">
+        <v>4</v>
+      </c>
+      <c r="P174" s="22"/>
       <c r="Q174" s="20"/>
       <c r="R174" s="20"/>
       <c r="S174" s="20"/>
       <c r="T174" s="20"/>
       <c r="U174" s="20"/>
       <c r="V174" s="20"/>
-      <c r="W174" s="15"/>
-      <c r="X174" s="20"/>
-      <c r="Y174" s="20"/>
-      <c r="Z174" s="20"/>
-      <c r="AA174" s="20"/>
-      <c r="AB174" s="20"/>
-      <c r="AC174" s="20"/>
-      <c r="AD174" s="20"/>
-    </row>
-    <row r="175" spans="16:32" s="21" customFormat="1">
+      <c r="W174" s="20"/>
+      <c r="X174" s="15"/>
+      <c r="Y174" s="15"/>
+      <c r="Z174" s="15"/>
+      <c r="AA174" s="15"/>
+      <c r="AB174" s="15"/>
+      <c r="AC174" s="15"/>
+      <c r="AD174" s="15"/>
+      <c r="AF174" s="40"/>
+    </row>
+    <row r="175" spans="9:32" s="21" customFormat="1">
       <c r="P175" s="22"/>
       <c r="Q175" s="20"/>
       <c r="R175" s="20"/>
@@ -20858,16 +20986,34 @@
       <c r="U175" s="20"/>
       <c r="V175" s="20"/>
       <c r="W175" s="20"/>
-      <c r="X175" s="20"/>
-      <c r="Y175" s="20"/>
+      <c r="X175" s="15"/>
+      <c r="Y175" s="15"/>
       <c r="Z175" s="20"/>
       <c r="AA175" s="20"/>
       <c r="AB175" s="20"/>
       <c r="AC175" s="20"/>
-      <c r="AD175" s="20"/>
-      <c r="AF175" s="23"/>
-    </row>
-    <row r="176" spans="16:32" s="21" customFormat="1">
+      <c r="AD175" s="15"/>
+      <c r="AF175" s="40"/>
+    </row>
+    <row r="176" spans="9:32" s="21" customFormat="1">
+      <c r="I176" s="21">
+        <v>0</v>
+      </c>
+      <c r="J176" s="21">
+        <v>1</v>
+      </c>
+      <c r="K176" s="21">
+        <v>2</v>
+      </c>
+      <c r="L176" s="21">
+        <v>2</v>
+      </c>
+      <c r="M176" s="21">
+        <v>4</v>
+      </c>
+      <c r="N176" s="21">
+        <v>7</v>
+      </c>
       <c r="P176" s="22"/>
       <c r="Q176" s="20"/>
       <c r="R176" s="20"/>
@@ -20876,13 +21022,13 @@
       <c r="U176" s="20"/>
       <c r="V176" s="20"/>
       <c r="W176" s="20"/>
-      <c r="X176" s="15"/>
-      <c r="Y176" s="15"/>
+      <c r="X176" s="20"/>
+      <c r="Y176" s="20"/>
       <c r="Z176" s="20"/>
       <c r="AA176" s="20"/>
       <c r="AB176" s="20"/>
       <c r="AC176" s="20"/>
-      <c r="AD176" s="15"/>
+      <c r="AD176" s="20"/>
       <c r="AF176" s="40"/>
     </row>
     <row r="177" spans="16:32" s="21" customFormat="1">
@@ -33195,10 +33341,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO226"/>
+  <dimension ref="A1:AO228"/>
   <sheetViews>
     <sheetView topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F163" sqref="F163"/>
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -36498,16 +36644,25 @@
     </row>
     <row r="158" spans="1:20">
       <c r="A158" s="10"/>
-      <c r="B158" s="10"/>
+      <c r="B158" s="9">
+        <v>1</v>
+      </c>
       <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
+      <c r="D158" s="11">
+        <v>2</v>
+      </c>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
-      <c r="H158" s="10"/>
+      <c r="H158" s="11">
+        <v>2</v>
+      </c>
       <c r="I158" s="18"/>
-      <c r="J158" s="10"/>
-      <c r="K158" s="18"/>
+      <c r="J158" s="9">
+        <v>1</v>
+      </c>
+      <c r="K158" s="10"/>
+      <c r="N158" s="10"/>
     </row>
     <row r="159" spans="1:20">
       <c r="A159" s="10"/>
@@ -36515,9 +36670,11 @@
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
+      <c r="F159" s="63"/>
       <c r="G159" s="10"/>
-      <c r="H159" s="18"/>
+      <c r="H159" s="10"/>
+      <c r="J159" s="10"/>
+      <c r="K159" s="10"/>
     </row>
     <row r="160" spans="1:20">
       <c r="A160" s="10"/>
@@ -36527,16 +36684,20 @@
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="H160" s="10"/>
+      <c r="J160" s="10"/>
+      <c r="K160" s="18"/>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="H161" s="18"/>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -36544,7 +36705,7 @@
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:8">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -36552,7 +36713,7 @@
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:8">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -36560,7 +36721,7 @@
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:8">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -36568,7 +36729,7 @@
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:8">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -36576,7 +36737,7 @@
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:8">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -36584,7 +36745,7 @@
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:8">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -36592,7 +36753,7 @@
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:8">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -36600,7 +36761,7 @@
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:8">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -36608,7 +36769,7 @@
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:8">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -36616,7 +36777,7 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:8">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -36624,7 +36785,7 @@
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:8">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -36632,7 +36793,7 @@
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:8">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -36640,7 +36801,7 @@
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:8">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -36648,7 +36809,7 @@
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:8">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -36733,6 +36894,7 @@
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
       <c r="F186" s="10"/>
     </row>
     <row r="187" spans="1:6">
@@ -36740,6 +36902,7 @@
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
       <c r="F187" s="10"/>
     </row>
     <row r="188" spans="1:6">
@@ -36831,28 +36994,32 @@
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
-      <c r="F200" s="18"/>
+      <c r="F200" s="10"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
-      <c r="F201" s="18"/>
+      <c r="F201" s="10"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
+      <c r="F202" s="18"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
+      <c r="F203" s="18"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="10"/>
+      <c r="B204" s="10"/>
       <c r="C204" s="10"/>
       <c r="D204" s="10"/>
     </row>
@@ -36909,10 +37076,12 @@
     <row r="215" spans="1:4">
       <c r="A215" s="10"/>
       <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="10"/>
       <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="10"/>
@@ -36931,12 +37100,15 @@
       <c r="C220" s="10"/>
     </row>
     <row r="221" spans="1:4">
+      <c r="A221" s="10"/>
       <c r="C221" s="10"/>
     </row>
     <row r="222" spans="1:4">
+      <c r="A222" s="10"/>
       <c r="C222" s="10"/>
     </row>
     <row r="223" spans="1:4">
+      <c r="A223" s="10"/>
       <c r="C223" s="10"/>
     </row>
     <row r="224" spans="1:4">
@@ -36947,6 +37119,12 @@
     </row>
     <row r="226" spans="3:3">
       <c r="C226" s="10"/>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" s="10"/>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -36959,8 +37137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="G164" sqref="G164"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40652,25 +40830,55 @@
       </c>
     </row>
     <row r="158" spans="1:19" customFormat="1">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
+      <c r="A158" s="1">
+        <v>0</v>
+      </c>
+      <c r="B158" s="1">
+        <v>0</v>
+      </c>
+      <c r="C158" s="1">
+        <v>6</v>
+      </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
+      <c r="F158" s="1">
+        <v>2</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0</v>
+      </c>
+      <c r="I158" s="1">
+        <v>2</v>
+      </c>
+      <c r="J158" s="1">
+        <v>1</v>
+      </c>
+      <c r="K158" s="1">
+        <v>1</v>
+      </c>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
-      <c r="Q158" s="1"/>
-      <c r="R158" s="1"/>
-      <c r="S158" s="18"/>
+      <c r="N158" s="1">
+        <v>0</v>
+      </c>
+      <c r="O158" s="1">
+        <v>2</v>
+      </c>
+      <c r="P158" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>4</v>
+      </c>
+      <c r="R158" s="1">
+        <v>8</v>
+      </c>
+      <c r="S158" s="18">
+        <v>9</v>
+      </c>
     </row>
     <row r="159" spans="1:19" customFormat="1">
       <c r="A159" s="1"/>
@@ -40789,10 +40997,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN157"/>
+  <dimension ref="A100:AN158"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="P160" sqref="P160"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="M168" sqref="M168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43521,6 +43729,44 @@
         <v>2</v>
       </c>
     </row>
+    <row r="158" spans="1:19">
+      <c r="A158" s="9">
+        <v>1</v>
+      </c>
+      <c r="B158" s="9">
+        <v>1</v>
+      </c>
+      <c r="D158" s="11">
+        <v>2</v>
+      </c>
+      <c r="E158" s="9">
+        <v>1</v>
+      </c>
+      <c r="I158" s="9">
+        <v>1</v>
+      </c>
+      <c r="L158" s="16">
+        <v>1</v>
+      </c>
+      <c r="M158" s="16">
+        <v>2</v>
+      </c>
+      <c r="N158" s="16">
+        <v>4</v>
+      </c>
+      <c r="O158" s="16">
+        <v>4</v>
+      </c>
+      <c r="P158" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q158" s="16">
+        <v>9</v>
+      </c>
+      <c r="S158" s="16">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43533,7 +43779,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43707,7 +43953,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="18">
         <v>17</v>
@@ -43845,7 +44091,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -43889,7 +44135,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -43923,6 +44169,9 @@
       </c>
       <c r="N8" s="18">
         <v>4</v>
+      </c>
+      <c r="O8" s="18">
+        <v>0</v>
       </c>
       <c r="P8" s="18">
         <v>0</v>
@@ -43942,13 +44191,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
       </c>
       <c r="J9" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" s="18">
         <v>12</v>
@@ -43957,13 +44206,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -43997,13 +44246,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -44012,7 +44261,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="18">
         <v>12</v>
@@ -44020,7 +44269,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -44032,7 +44281,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -44040,10 +44289,10 @@
         <v>13</v>
       </c>
       <c r="I13" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K13" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -44053,7 +44302,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -867,7 +867,7 @@
   <dimension ref="A1:AO105"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U56" sqref="U56"/>
+      <selection activeCell="AA63" sqref="AA63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5485,7 +5485,7 @@
         <v>11</v>
       </c>
       <c r="P46" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q46" s="7">
         <v>9</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50" s="7">
         <v>5</v>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" s="7">
         <v>13</v>
@@ -6284,7 +6284,7 @@
         <v>9</v>
       </c>
       <c r="U54" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V54" s="7">
         <v>10</v>
@@ -6311,7 +6311,7 @@
         <v>6</v>
       </c>
       <c r="AD54" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE54" s="7">
         <v>2</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="55" spans="1:33" s="27" customFormat="1">
       <c r="A55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" s="7">
         <v>0</v>
@@ -6382,7 +6382,9 @@
       <c r="V55" s="7">
         <v>3</v>
       </c>
-      <c r="W55" s="7"/>
+      <c r="W55" s="7">
+        <v>0</v>
+      </c>
       <c r="X55" s="7">
         <v>17</v>
       </c>
@@ -6433,7 +6435,7 @@
         <v>5</v>
       </c>
       <c r="H56" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I56" s="7">
         <v>1</v>
@@ -6456,7 +6458,9 @@
       <c r="Q56" s="7">
         <v>2</v>
       </c>
-      <c r="R56" s="7"/>
+      <c r="R56" s="7">
+        <v>0</v>
+      </c>
       <c r="S56" s="7">
         <v>6</v>
       </c>
@@ -6488,7 +6492,7 @@
       </c>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF56" s="7">
         <v>2</v>
@@ -6503,7 +6507,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" s="7">
         <v>8</v>
@@ -6529,7 +6533,7 @@
         <v>15</v>
       </c>
       <c r="N57" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O57" s="7">
         <v>1</v>
@@ -6543,7 +6547,7 @@
         <v>2</v>
       </c>
       <c r="T57" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U57" s="7"/>
       <c r="V57" s="7">
@@ -6573,7 +6577,9 @@
       <c r="AF57" s="7">
         <v>2</v>
       </c>
-      <c r="AG57" s="7"/>
+      <c r="AG57" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:33" s="3" customFormat="1">
       <c r="A58" s="7"/>
@@ -6594,7 +6600,7 @@
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J58" s="25"/>
       <c r="K58" s="7"/>
@@ -6687,7 +6693,7 @@
         <v>1</v>
       </c>
       <c r="Y59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z59" s="7">
         <v>2</v>
@@ -6699,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD59" s="25"/>
       <c r="AF59" s="7">
@@ -6747,9 +6753,14 @@
       <c r="Z60" s="7">
         <v>2</v>
       </c>
-      <c r="AA60" s="3"/>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
       <c r="AB60" s="7">
         <v>16</v>
+      </c>
+      <c r="AF60" s="7">
+        <v>0</v>
       </c>
       <c r="AG60" s="3"/>
     </row>
@@ -6769,14 +6780,14 @@
         <v>3</v>
       </c>
       <c r="G61" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -6791,7 +6802,7 @@
       </c>
       <c r="R61" s="7"/>
       <c r="S61" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
@@ -6818,7 +6829,7 @@
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="25">
@@ -6882,7 +6893,7 @@
         <v>7</v>
       </c>
       <c r="F63" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="4"/>
@@ -6940,7 +6951,9 @@
         <v>10</v>
       </c>
       <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
+      <c r="O64" s="4">
+        <v>0</v>
+      </c>
       <c r="P64" s="4"/>
       <c r="Q64" s="4">
         <v>2</v>
@@ -6954,7 +6967,7 @@
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4">
@@ -7001,10 +7014,10 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB65" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD65" s="7"/>
       <c r="AE65" s="3"/>
@@ -7036,7 +7049,7 @@
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
@@ -7053,7 +7066,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F67" s="4"/>
       <c r="H67" s="4"/>
@@ -7067,7 +7080,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
@@ -7094,7 +7107,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -7174,7 +7187,7 @@
     </row>
     <row r="71" spans="1:33">
       <c r="D71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -7794,8 +7807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT971"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V162" sqref="V162"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S166" sqref="S166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -19236,7 +19249,7 @@
       </c>
       <c r="P144" s="22"/>
       <c r="Q144" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R144" s="19">
         <v>9</v>
@@ -19537,7 +19550,7 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R147" s="19">
         <v>2</v>
@@ -19646,13 +19659,13 @@
         <v>4</v>
       </c>
       <c r="S148" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T148" s="19">
         <v>3</v>
       </c>
       <c r="U148" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V148" s="19">
         <v>9</v>
@@ -19667,7 +19680,7 @@
       <c r="Z148" s="19">
         <v>4</v>
       </c>
-      <c r="AA148" s="20">
+      <c r="AA148" s="19">
         <v>9</v>
       </c>
       <c r="AB148" s="20"/>
@@ -19852,7 +19865,7 @@
         <v>7</v>
       </c>
       <c r="U150" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V150" s="19">
         <v>1</v>
@@ -19867,10 +19880,10 @@
       <c r="Z150" s="19">
         <v>4</v>
       </c>
-      <c r="AA150" s="20">
+      <c r="AA150" s="19">
         <v>7</v>
       </c>
-      <c r="AB150" s="20">
+      <c r="AB150" s="19">
         <v>7</v>
       </c>
       <c r="AC150" s="20"/>
@@ -20051,7 +20064,7 @@
         <v>1</v>
       </c>
       <c r="T152" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U152" s="19">
         <v>0</v>
@@ -20139,15 +20152,15 @@
       </c>
       <c r="P153" s="22"/>
       <c r="Q153" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R153" s="19">
         <v>0</v>
       </c>
       <c r="S153" s="20">
-        <v>5</v>
-      </c>
-      <c r="T153" s="20">
+        <v>6</v>
+      </c>
+      <c r="T153" s="19">
         <v>5</v>
       </c>
       <c r="U153" s="19">
@@ -20166,7 +20179,9 @@
       <c r="Z153" s="19">
         <v>3</v>
       </c>
-      <c r="AA153" s="20"/>
+      <c r="AA153" s="19">
+        <v>5</v>
+      </c>
       <c r="AB153" s="20"/>
       <c r="AC153" s="20"/>
       <c r="AD153" s="20"/>
@@ -20235,13 +20250,13 @@
       </c>
       <c r="P154" s="22"/>
       <c r="Q154" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R154" s="19">
         <v>2</v>
       </c>
       <c r="S154" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T154" s="19">
         <v>3</v>
@@ -20259,10 +20274,10 @@
       <c r="Y154" s="19">
         <v>2</v>
       </c>
-      <c r="Z154" s="20">
-        <v>3</v>
-      </c>
-      <c r="AA154" s="20">
+      <c r="Z154" s="19">
+        <v>3</v>
+      </c>
+      <c r="AA154" s="19">
         <v>3</v>
       </c>
       <c r="AB154" s="20"/>
@@ -20333,26 +20348,30 @@
       </c>
       <c r="P155" s="22"/>
       <c r="Q155" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R155" s="20">
-        <v>3</v>
-      </c>
-      <c r="S155" s="20">
+        <v>4</v>
+      </c>
+      <c r="S155" s="19">
         <v>3</v>
       </c>
       <c r="T155" s="20">
-        <v>3</v>
-      </c>
-      <c r="U155" s="20">
+        <v>4</v>
+      </c>
+      <c r="U155" s="19">
         <v>3</v>
       </c>
       <c r="V155" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W155" s="20"/>
-      <c r="X155" s="20"/>
-      <c r="Y155" s="20"/>
+      <c r="X155" s="19">
+        <v>3</v>
+      </c>
+      <c r="Y155" s="19">
+        <v>3</v>
+      </c>
       <c r="Z155" s="20"/>
       <c r="AA155" s="20"/>
       <c r="AB155" s="20"/>
@@ -20426,15 +20445,15 @@
         <v>1</v>
       </c>
       <c r="R156" s="20">
-        <v>2</v>
-      </c>
-      <c r="S156" s="20">
+        <v>3</v>
+      </c>
+      <c r="S156" s="19">
         <v>2</v>
       </c>
       <c r="T156" s="20">
-        <v>2</v>
-      </c>
-      <c r="U156" s="20">
+        <v>3</v>
+      </c>
+      <c r="U156" s="19">
         <v>2</v>
       </c>
       <c r="V156" s="19">
@@ -20444,11 +20463,15 @@
       <c r="X156" s="19">
         <v>0</v>
       </c>
-      <c r="Y156" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z156" s="20"/>
-      <c r="AA156" s="20"/>
+      <c r="Y156" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z156" s="19">
+        <v>2</v>
+      </c>
+      <c r="AA156" s="19">
+        <v>2</v>
+      </c>
       <c r="AB156" s="20"/>
       <c r="AC156" s="20"/>
       <c r="AD156" s="20"/>
@@ -20520,25 +20543,27 @@
       </c>
       <c r="P157" s="22"/>
       <c r="Q157" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R157" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S157" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T157" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U157" s="20">
-        <v>1</v>
-      </c>
-      <c r="V157" s="20">
+        <v>2</v>
+      </c>
+      <c r="V157" s="19">
         <v>1</v>
       </c>
       <c r="W157" s="20"/>
-      <c r="X157" s="20"/>
+      <c r="X157" s="19">
+        <v>1</v>
+      </c>
       <c r="Y157" s="20"/>
       <c r="Z157" s="20"/>
       <c r="AA157" s="20"/>
@@ -20613,22 +20638,22 @@
       </c>
       <c r="P158" s="22"/>
       <c r="Q158" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R158" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S158" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T158" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U158" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V158" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W158" s="23"/>
       <c r="X158" s="23"/>
@@ -20639,41 +20664,110 @@
       <c r="AC158" s="23"/>
       <c r="AD158" s="23"/>
       <c r="AF158" s="40"/>
+      <c r="AH158" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI158" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ158" s="21">
+        <v>7</v>
+      </c>
+      <c r="AK158" s="21">
+        <v>9</v>
+      </c>
+      <c r="AO158" s="21">
+        <v>2</v>
+      </c>
+      <c r="AP158" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ158" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:43" s="21" customFormat="1">
+      <c r="A159" s="21">
+        <v>3</v>
+      </c>
+      <c r="B159" s="21">
+        <v>5</v>
+      </c>
+      <c r="C159" s="21">
+        <v>2</v>
+      </c>
+      <c r="D159" s="21">
+        <v>3</v>
+      </c>
+      <c r="E159" s="21">
+        <v>2</v>
+      </c>
+      <c r="F159" s="21">
+        <v>1</v>
+      </c>
+      <c r="I159" s="21">
+        <v>1</v>
+      </c>
+      <c r="J159" s="21">
+        <v>2</v>
+      </c>
+      <c r="K159" s="21">
+        <v>2</v>
+      </c>
+      <c r="L159" s="21">
+        <v>3</v>
+      </c>
+      <c r="M159" s="21">
+        <v>3</v>
+      </c>
+      <c r="N159" s="21">
+        <v>5</v>
+      </c>
       <c r="P159" s="22"/>
-      <c r="Q159" s="23"/>
-      <c r="R159" s="23"/>
-      <c r="S159" s="23"/>
-      <c r="T159" s="23"/>
-      <c r="U159" s="23"/>
-      <c r="V159" s="23"/>
-      <c r="W159" s="23"/>
-      <c r="X159" s="23"/>
-      <c r="Y159" s="23"/>
-      <c r="Z159" s="23"/>
-      <c r="AA159" s="23"/>
-      <c r="AB159" s="23"/>
-      <c r="AC159" s="23"/>
-      <c r="AD159" s="23"/>
+      <c r="Q159" s="20">
+        <v>0</v>
+      </c>
+      <c r="R159" s="20">
+        <v>0</v>
+      </c>
+      <c r="S159" s="20">
+        <v>0</v>
+      </c>
+      <c r="T159" s="20">
+        <v>0</v>
+      </c>
+      <c r="U159" s="20">
+        <v>0</v>
+      </c>
+      <c r="V159" s="20">
+        <v>0</v>
+      </c>
+      <c r="W159" s="15"/>
+      <c r="X159" s="20"/>
+      <c r="Y159" s="20"/>
+      <c r="Z159" s="20"/>
+      <c r="AA159" s="20"/>
+      <c r="AB159" s="20"/>
+      <c r="AC159" s="20"/>
+      <c r="AD159" s="15"/>
       <c r="AF159" s="40"/>
     </row>
     <row r="160" spans="1:43" s="21" customFormat="1">
       <c r="P160" s="22"/>
-      <c r="Q160" s="23"/>
-      <c r="R160" s="23"/>
-      <c r="S160" s="23"/>
-      <c r="T160" s="23"/>
-      <c r="U160" s="23"/>
-      <c r="V160" s="23"/>
-      <c r="W160" s="23"/>
-      <c r="X160" s="23"/>
-      <c r="Y160" s="23"/>
-      <c r="Z160" s="23"/>
-      <c r="AA160" s="23"/>
-      <c r="AB160" s="23"/>
-      <c r="AC160" s="23"/>
-      <c r="AD160" s="23"/>
+      <c r="Q160" s="20"/>
+      <c r="R160" s="20"/>
+      <c r="S160" s="20"/>
+      <c r="T160" s="20"/>
+      <c r="U160" s="20"/>
+      <c r="V160" s="20"/>
+      <c r="W160" s="20"/>
+      <c r="X160" s="20"/>
+      <c r="Y160" s="20"/>
+      <c r="Z160" s="20"/>
+      <c r="AA160" s="20"/>
+      <c r="AB160" s="20"/>
+      <c r="AC160" s="20"/>
+      <c r="AD160" s="15"/>
       <c r="AF160" s="40"/>
     </row>
     <row r="161" spans="9:32" s="21" customFormat="1">
@@ -20691,7 +20785,7 @@
       <c r="AA161" s="20"/>
       <c r="AB161" s="20"/>
       <c r="AC161" s="20"/>
-      <c r="AD161" s="20"/>
+      <c r="AD161" s="15"/>
       <c r="AF161" s="40"/>
     </row>
     <row r="162" spans="9:32" s="21" customFormat="1">
@@ -20702,13 +20796,13 @@
       <c r="T162" s="20"/>
       <c r="U162" s="20"/>
       <c r="V162" s="20"/>
-      <c r="W162" s="15"/>
-      <c r="X162" s="20"/>
-      <c r="Y162" s="20"/>
-      <c r="Z162" s="20"/>
-      <c r="AA162" s="20"/>
-      <c r="AB162" s="20"/>
-      <c r="AC162" s="20"/>
+      <c r="W162" s="20"/>
+      <c r="X162" s="15"/>
+      <c r="Y162" s="15"/>
+      <c r="Z162" s="15"/>
+      <c r="AA162" s="15"/>
+      <c r="AB162" s="15"/>
+      <c r="AC162" s="15"/>
       <c r="AD162" s="15"/>
       <c r="AF162" s="40"/>
     </row>
@@ -20720,51 +20814,49 @@
       <c r="T163" s="20"/>
       <c r="U163" s="20"/>
       <c r="V163" s="20"/>
-      <c r="W163" s="20"/>
-      <c r="X163" s="20"/>
-      <c r="Y163" s="20"/>
-      <c r="Z163" s="20"/>
-      <c r="AA163" s="20"/>
-      <c r="AB163" s="20"/>
-      <c r="AC163" s="20"/>
+      <c r="W163" s="15"/>
+      <c r="X163" s="15"/>
+      <c r="Y163" s="15"/>
+      <c r="Z163" s="15"/>
+      <c r="AA163" s="15"/>
+      <c r="AB163" s="15"/>
+      <c r="AC163" s="15"/>
       <c r="AD163" s="15"/>
       <c r="AF163" s="40"/>
     </row>
     <row r="164" spans="9:32" s="21" customFormat="1">
-      <c r="P164" s="22"/>
       <c r="Q164" s="20"/>
       <c r="R164" s="20"/>
       <c r="S164" s="20"/>
       <c r="T164" s="20"/>
       <c r="U164" s="20"/>
       <c r="V164" s="20"/>
-      <c r="W164" s="20"/>
-      <c r="X164" s="20"/>
-      <c r="Y164" s="20"/>
-      <c r="Z164" s="20"/>
-      <c r="AA164" s="20"/>
-      <c r="AB164" s="20"/>
-      <c r="AC164" s="20"/>
+      <c r="W164" s="15"/>
+      <c r="X164" s="15"/>
+      <c r="Y164" s="15"/>
+      <c r="Z164" s="15"/>
+      <c r="AA164" s="15"/>
+      <c r="AB164" s="15"/>
+      <c r="AC164" s="15"/>
       <c r="AD164" s="15"/>
       <c r="AF164" s="40"/>
     </row>
-    <row r="165" spans="9:32" s="21" customFormat="1">
-      <c r="P165" s="22"/>
+    <row r="165" spans="9:32">
+      <c r="P165" s="18"/>
       <c r="Q165" s="20"/>
       <c r="R165" s="20"/>
       <c r="S165" s="20"/>
       <c r="T165" s="20"/>
       <c r="U165" s="20"/>
       <c r="V165" s="20"/>
-      <c r="W165" s="20"/>
-      <c r="X165" s="15"/>
-      <c r="Y165" s="15"/>
-      <c r="Z165" s="15"/>
-      <c r="AA165" s="15"/>
-      <c r="AB165" s="15"/>
-      <c r="AC165" s="15"/>
-      <c r="AD165" s="15"/>
-      <c r="AF165" s="40"/>
+      <c r="W165" s="15"/>
+      <c r="X165" s="20"/>
+      <c r="Y165" s="20"/>
+      <c r="Z165" s="20"/>
+      <c r="AA165" s="20"/>
+      <c r="AB165" s="20"/>
+      <c r="AC165" s="20"/>
+      <c r="AD165" s="20"/>
     </row>
     <row r="166" spans="9:32" s="21" customFormat="1">
       <c r="P166" s="22"/>
@@ -20774,88 +20866,69 @@
       <c r="T166" s="20"/>
       <c r="U166" s="20"/>
       <c r="V166" s="20"/>
-      <c r="W166" s="15"/>
-      <c r="X166" s="15"/>
-      <c r="Y166" s="15"/>
-      <c r="Z166" s="15"/>
-      <c r="AA166" s="15"/>
-      <c r="AB166" s="15"/>
-      <c r="AC166" s="15"/>
-      <c r="AD166" s="15"/>
-      <c r="AF166" s="40"/>
+      <c r="W166" s="20"/>
+      <c r="X166" s="20"/>
+      <c r="Y166" s="20"/>
+      <c r="Z166" s="20"/>
+      <c r="AA166" s="20"/>
+      <c r="AB166" s="20"/>
+      <c r="AC166" s="20"/>
+      <c r="AD166" s="20"/>
+      <c r="AF166" s="23"/>
     </row>
     <row r="167" spans="9:32" s="21" customFormat="1">
-      <c r="Q167" s="20"/>
-      <c r="R167" s="20"/>
-      <c r="S167" s="20"/>
-      <c r="T167" s="20"/>
-      <c r="U167" s="20"/>
-      <c r="V167" s="20"/>
-      <c r="W167" s="15"/>
-      <c r="X167" s="15"/>
-      <c r="Y167" s="15"/>
-      <c r="Z167" s="15"/>
-      <c r="AA167" s="15"/>
-      <c r="AB167" s="15"/>
-      <c r="AC167" s="15"/>
-      <c r="AD167" s="15"/>
+      <c r="P167" s="22"/>
+      <c r="Q167" s="23"/>
+      <c r="R167" s="23"/>
+      <c r="S167" s="23"/>
+      <c r="T167" s="23"/>
+      <c r="U167" s="23"/>
+      <c r="V167" s="23"/>
+      <c r="W167" s="23"/>
+      <c r="X167" s="40"/>
+      <c r="Y167" s="40"/>
+      <c r="Z167" s="23"/>
+      <c r="AA167" s="23"/>
+      <c r="AB167" s="23"/>
+      <c r="AC167" s="23"/>
+      <c r="AD167" s="40"/>
       <c r="AF167" s="40"/>
     </row>
-    <row r="168" spans="9:32">
-      <c r="P168" s="18"/>
-      <c r="Q168" s="20"/>
-      <c r="R168" s="20"/>
-      <c r="S168" s="20"/>
-      <c r="T168" s="20"/>
-      <c r="U168" s="20"/>
-      <c r="V168" s="20"/>
-      <c r="W168" s="15"/>
-      <c r="X168" s="20"/>
-      <c r="Y168" s="20"/>
-      <c r="Z168" s="20"/>
-      <c r="AA168" s="20"/>
-      <c r="AB168" s="20"/>
-      <c r="AC168" s="20"/>
-      <c r="AD168" s="20"/>
+    <row r="168" spans="9:32" s="21" customFormat="1">
+      <c r="Q168" s="23"/>
+      <c r="R168" s="23"/>
+      <c r="S168" s="23"/>
+      <c r="T168" s="23"/>
+      <c r="U168" s="23"/>
+      <c r="V168" s="23"/>
+      <c r="W168" s="23"/>
+      <c r="X168" s="40"/>
+      <c r="Y168" s="40"/>
+      <c r="Z168" s="23"/>
+      <c r="AA168" s="23"/>
+      <c r="AB168" s="23"/>
+      <c r="AC168" s="23"/>
+      <c r="AD168" s="40"/>
+      <c r="AF168" s="40"/>
     </row>
     <row r="169" spans="9:32" s="21" customFormat="1">
-      <c r="P169" s="22"/>
-      <c r="Q169" s="20"/>
-      <c r="R169" s="20"/>
-      <c r="S169" s="20"/>
-      <c r="T169" s="20"/>
-      <c r="U169" s="20"/>
-      <c r="V169" s="20"/>
-      <c r="W169" s="20"/>
-      <c r="X169" s="20"/>
-      <c r="Y169" s="20"/>
-      <c r="Z169" s="20"/>
-      <c r="AA169" s="20"/>
-      <c r="AB169" s="20"/>
-      <c r="AC169" s="20"/>
-      <c r="AD169" s="20"/>
-      <c r="AF169" s="23"/>
+      <c r="Q169" s="23"/>
+      <c r="R169" s="23"/>
+      <c r="S169" s="23"/>
+      <c r="T169" s="23"/>
+      <c r="U169" s="23"/>
+      <c r="V169" s="23"/>
+      <c r="W169" s="23"/>
+      <c r="X169" s="40"/>
+      <c r="Y169" s="40"/>
+      <c r="Z169" s="40"/>
+      <c r="AA169" s="40"/>
+      <c r="AB169" s="40"/>
+      <c r="AC169" s="40"/>
+      <c r="AD169" s="40"/>
+      <c r="AF169" s="40"/>
     </row>
     <row r="170" spans="9:32" s="21" customFormat="1">
-      <c r="I170" s="21">
-        <v>0</v>
-      </c>
-      <c r="J170" s="21">
-        <v>1</v>
-      </c>
-      <c r="K170" s="21">
-        <v>1</v>
-      </c>
-      <c r="L170" s="21">
-        <v>3</v>
-      </c>
-      <c r="M170" s="21">
-        <v>7</v>
-      </c>
-      <c r="N170" s="21">
-        <v>10</v>
-      </c>
-      <c r="P170" s="22"/>
       <c r="Q170" s="23"/>
       <c r="R170" s="23"/>
       <c r="S170" s="23"/>
@@ -20873,37 +20946,39 @@
       <c r="AF170" s="40"/>
     </row>
     <row r="171" spans="9:32" s="21" customFormat="1">
-      <c r="Q171" s="23"/>
-      <c r="R171" s="23"/>
-      <c r="S171" s="23"/>
-      <c r="T171" s="23"/>
-      <c r="U171" s="23"/>
-      <c r="V171" s="23"/>
-      <c r="W171" s="23"/>
-      <c r="X171" s="40"/>
-      <c r="Y171" s="40"/>
-      <c r="Z171" s="23"/>
-      <c r="AA171" s="23"/>
-      <c r="AB171" s="23"/>
-      <c r="AC171" s="23"/>
-      <c r="AD171" s="40"/>
+      <c r="P171" s="22"/>
+      <c r="Q171" s="20"/>
+      <c r="R171" s="20"/>
+      <c r="S171" s="20"/>
+      <c r="T171" s="20"/>
+      <c r="U171" s="20"/>
+      <c r="V171" s="20"/>
+      <c r="W171" s="20"/>
+      <c r="X171" s="15"/>
+      <c r="Y171" s="15"/>
+      <c r="Z171" s="15"/>
+      <c r="AA171" s="15"/>
+      <c r="AB171" s="15"/>
+      <c r="AC171" s="15"/>
+      <c r="AD171" s="15"/>
       <c r="AF171" s="40"/>
     </row>
     <row r="172" spans="9:32" s="21" customFormat="1">
-      <c r="Q172" s="23"/>
-      <c r="R172" s="23"/>
-      <c r="S172" s="23"/>
-      <c r="T172" s="23"/>
-      <c r="U172" s="23"/>
-      <c r="V172" s="23"/>
-      <c r="W172" s="23"/>
-      <c r="X172" s="40"/>
-      <c r="Y172" s="40"/>
-      <c r="Z172" s="40"/>
-      <c r="AA172" s="40"/>
-      <c r="AB172" s="40"/>
-      <c r="AC172" s="40"/>
-      <c r="AD172" s="40"/>
+      <c r="P172" s="22"/>
+      <c r="Q172" s="20"/>
+      <c r="R172" s="20"/>
+      <c r="S172" s="20"/>
+      <c r="T172" s="20"/>
+      <c r="U172" s="20"/>
+      <c r="V172" s="20"/>
+      <c r="W172" s="20"/>
+      <c r="X172" s="15"/>
+      <c r="Y172" s="15"/>
+      <c r="Z172" s="20"/>
+      <c r="AA172" s="20"/>
+      <c r="AB172" s="20"/>
+      <c r="AC172" s="20"/>
+      <c r="AD172" s="15"/>
       <c r="AF172" s="40"/>
     </row>
     <row r="173" spans="9:32" s="21" customFormat="1">
@@ -20911,109 +20986,110 @@
         <v>0</v>
       </c>
       <c r="J173" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L173" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M173" s="21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N173" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q173" s="23"/>
-      <c r="R173" s="23"/>
-      <c r="S173" s="23"/>
-      <c r="T173" s="23"/>
-      <c r="U173" s="23"/>
-      <c r="V173" s="23"/>
-      <c r="W173" s="23"/>
-      <c r="X173" s="40"/>
-      <c r="Y173" s="40"/>
-      <c r="Z173" s="23"/>
-      <c r="AA173" s="23"/>
-      <c r="AB173" s="23"/>
-      <c r="AC173" s="23"/>
-      <c r="AD173" s="40"/>
+        <v>8</v>
+      </c>
+      <c r="P173" s="22"/>
+      <c r="Q173" s="20"/>
+      <c r="R173" s="20"/>
+      <c r="S173" s="20"/>
+      <c r="T173" s="20"/>
+      <c r="U173" s="20"/>
+      <c r="V173" s="20"/>
+      <c r="W173" s="20"/>
+      <c r="X173" s="20"/>
+      <c r="Y173" s="20"/>
+      <c r="Z173" s="20"/>
+      <c r="AA173" s="20"/>
+      <c r="AB173" s="20"/>
+      <c r="AC173" s="20"/>
+      <c r="AD173" s="20"/>
       <c r="AF173" s="40"/>
     </row>
     <row r="174" spans="9:32" s="21" customFormat="1">
       <c r="I174" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" s="21">
         <v>1</v>
       </c>
       <c r="K174" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L174" s="21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M174" s="21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N174" s="21">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P174" s="22"/>
-      <c r="Q174" s="20"/>
-      <c r="R174" s="20"/>
-      <c r="S174" s="20"/>
-      <c r="T174" s="20"/>
-      <c r="U174" s="20"/>
-      <c r="V174" s="20"/>
-      <c r="W174" s="20"/>
-      <c r="X174" s="15"/>
-      <c r="Y174" s="15"/>
-      <c r="Z174" s="15"/>
-      <c r="AA174" s="15"/>
-      <c r="AB174" s="15"/>
-      <c r="AC174" s="15"/>
-      <c r="AD174" s="15"/>
+      <c r="Q174" s="23"/>
+      <c r="R174" s="23"/>
+      <c r="S174" s="23"/>
+      <c r="T174" s="23"/>
+      <c r="U174" s="23"/>
+      <c r="V174" s="23"/>
+      <c r="W174" s="23"/>
+      <c r="X174" s="23"/>
+      <c r="Y174" s="23"/>
+      <c r="Z174" s="23"/>
+      <c r="AA174" s="23"/>
+      <c r="AB174" s="23"/>
+      <c r="AC174" s="23"/>
+      <c r="AD174" s="23"/>
       <c r="AF174" s="40"/>
     </row>
     <row r="175" spans="9:32" s="21" customFormat="1">
+      <c r="I175" s="21">
+        <v>1</v>
+      </c>
+      <c r="J175" s="21">
+        <v>1</v>
+      </c>
+      <c r="K175" s="21">
+        <v>3</v>
+      </c>
+      <c r="L175" s="21">
+        <v>5</v>
+      </c>
+      <c r="M175" s="21">
+        <v>5</v>
+      </c>
+      <c r="N175" s="21">
+        <v>10</v>
+      </c>
       <c r="P175" s="22"/>
-      <c r="Q175" s="20"/>
-      <c r="R175" s="20"/>
-      <c r="S175" s="20"/>
-      <c r="T175" s="20"/>
-      <c r="U175" s="20"/>
-      <c r="V175" s="20"/>
-      <c r="W175" s="20"/>
-      <c r="X175" s="15"/>
-      <c r="Y175" s="15"/>
-      <c r="Z175" s="20"/>
-      <c r="AA175" s="20"/>
-      <c r="AB175" s="20"/>
-      <c r="AC175" s="20"/>
-      <c r="AD175" s="15"/>
+      <c r="Q175" s="23"/>
+      <c r="R175" s="23"/>
+      <c r="S175" s="23"/>
+      <c r="T175" s="23"/>
+      <c r="U175" s="23"/>
+      <c r="V175" s="23"/>
+      <c r="W175" s="23"/>
+      <c r="X175" s="23"/>
+      <c r="Y175" s="23"/>
+      <c r="Z175" s="23"/>
+      <c r="AA175" s="23"/>
+      <c r="AB175" s="23"/>
+      <c r="AC175" s="23"/>
+      <c r="AD175" s="23"/>
       <c r="AF175" s="40"/>
     </row>
     <row r="176" spans="9:32" s="21" customFormat="1">
-      <c r="I176" s="21">
-        <v>0</v>
-      </c>
-      <c r="J176" s="21">
-        <v>1</v>
-      </c>
-      <c r="K176" s="21">
-        <v>2</v>
-      </c>
-      <c r="L176" s="21">
-        <v>2</v>
-      </c>
-      <c r="M176" s="21">
-        <v>4</v>
-      </c>
-      <c r="N176" s="21">
-        <v>7</v>
-      </c>
       <c r="P176" s="22"/>
       <c r="Q176" s="20"/>
       <c r="R176" s="20"/>
@@ -33341,10 +33417,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO228"/>
+  <dimension ref="A1:AO230"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O164" sqref="O164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -36666,13 +36742,22 @@
     </row>
     <row r="159" spans="1:20">
       <c r="A159" s="10"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
+      <c r="B159" s="9">
+        <v>1</v>
+      </c>
+      <c r="C159" s="11">
+        <v>2</v>
+      </c>
+      <c r="D159" s="11">
+        <v>2</v>
+      </c>
       <c r="E159" s="10"/>
-      <c r="F159" s="63"/>
+      <c r="F159" s="9">
+        <v>1</v>
+      </c>
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
+      <c r="I159" s="10"/>
       <c r="J159" s="10"/>
       <c r="K159" s="10"/>
     </row>
@@ -36682,30 +36767,30 @@
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
+      <c r="F160" s="63"/>
       <c r="G160" s="10"/>
-      <c r="H160" s="10"/>
-      <c r="J160" s="10"/>
+      <c r="H160" s="18"/>
       <c r="K160" s="18"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:7">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
-      <c r="H161" s="18"/>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="G161" s="10"/>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="G162" s="10"/>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -36713,7 +36798,7 @@
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:7">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -36721,7 +36806,7 @@
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:7">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -36729,7 +36814,7 @@
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:7">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -36737,7 +36822,7 @@
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:7">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -36745,7 +36830,7 @@
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:7">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -36753,7 +36838,7 @@
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:7">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -36761,7 +36846,7 @@
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:7">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -36769,7 +36854,7 @@
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:7">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -36777,7 +36862,7 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:7">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -36785,7 +36870,7 @@
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:7">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -36793,7 +36878,7 @@
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:7">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -36801,7 +36886,7 @@
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:7">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -36809,7 +36894,7 @@
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:7">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -37008,7 +37093,7 @@
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
-      <c r="F202" s="18"/>
+      <c r="F202" s="10"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="10"/>
@@ -37022,9 +37107,11 @@
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
       <c r="D204" s="10"/>
+      <c r="F204" s="18"/>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="10"/>
+      <c r="B205" s="10"/>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
     </row>
@@ -37086,14 +37173,17 @@
     <row r="217" spans="1:4">
       <c r="A217" s="10"/>
       <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="10"/>
       <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="10"/>
       <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="10"/>
@@ -37112,6 +37202,7 @@
       <c r="C223" s="10"/>
     </row>
     <row r="224" spans="1:4">
+      <c r="A224" s="10"/>
       <c r="C224" s="10"/>
     </row>
     <row r="225" spans="3:3">
@@ -37125,6 +37216,12 @@
     </row>
     <row r="228" spans="3:3">
       <c r="C228" s="10"/>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" s="10"/>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -37137,8 +37234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40881,25 +40978,55 @@
       </c>
     </row>
     <row r="159" spans="1:19" customFormat="1">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
+      <c r="A159" s="1">
+        <v>0</v>
+      </c>
+      <c r="B159" s="1">
+        <v>2</v>
+      </c>
+      <c r="C159" s="1">
+        <v>4</v>
+      </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
+      <c r="F159" s="1">
+        <v>0</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0</v>
+      </c>
+      <c r="H159" s="1">
+        <v>2</v>
+      </c>
+      <c r="I159" s="1">
+        <v>1</v>
+      </c>
+      <c r="J159" s="1">
+        <v>2</v>
+      </c>
+      <c r="K159" s="1">
+        <v>1</v>
+      </c>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
-      <c r="N159" s="18"/>
-      <c r="O159" s="18"/>
-      <c r="P159" s="18"/>
-      <c r="Q159" s="18"/>
-      <c r="R159" s="18"/>
-      <c r="S159" s="18"/>
+      <c r="N159" s="18">
+        <v>0</v>
+      </c>
+      <c r="O159" s="18">
+        <v>0</v>
+      </c>
+      <c r="P159" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q159" s="18">
+        <v>6</v>
+      </c>
+      <c r="R159" s="18">
+        <v>10</v>
+      </c>
+      <c r="S159" s="18">
+        <v>10</v>
+      </c>
     </row>
     <row r="160" spans="1:19" customFormat="1">
       <c r="A160" s="1"/>
@@ -40997,10 +41124,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN158"/>
+  <dimension ref="A100:AN160"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="M168" sqref="M168"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="S163" sqref="S163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43767,6 +43894,55 @@
         <v>5</v>
       </c>
     </row>
+    <row r="159" spans="1:19">
+      <c r="A159" s="10"/>
+      <c r="B159" s="9">
+        <v>1</v>
+      </c>
+      <c r="C159" s="11">
+        <v>2</v>
+      </c>
+      <c r="D159" s="10"/>
+      <c r="E159" s="9">
+        <v>1</v>
+      </c>
+      <c r="F159" s="10"/>
+      <c r="G159" s="9">
+        <v>1</v>
+      </c>
+      <c r="H159" s="9">
+        <v>1</v>
+      </c>
+      <c r="I159" s="10"/>
+      <c r="L159" s="16">
+        <v>2</v>
+      </c>
+      <c r="M159" s="16">
+        <v>3</v>
+      </c>
+      <c r="N159" s="16">
+        <v>3</v>
+      </c>
+      <c r="O159" s="16">
+        <v>5</v>
+      </c>
+      <c r="P159" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q159" s="16">
+        <v>8</v>
+      </c>
+      <c r="S159" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19">
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43778,8 +43954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44002,6 +44178,9 @@
       <c r="C5" s="19">
         <v>23</v>
       </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
       <c r="E5" s="18">
         <v>15</v>
       </c>
@@ -44091,7 +44270,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -44135,7 +44314,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -44171,7 +44350,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="18">
         <v>0</v>
@@ -44191,13 +44370,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
       </c>
       <c r="J9" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K9" s="18">
         <v>12</v>
@@ -44206,13 +44385,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -44246,13 +44425,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -44261,7 +44440,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="18">
         <v>12</v>
@@ -44269,7 +44448,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -44281,7 +44460,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -44289,10 +44468,10 @@
         <v>13</v>
       </c>
       <c r="I13" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K13" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -44302,7 +44481,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -44316,7 +44495,7 @@
   <dimension ref="A2:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,7 +556,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -866,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA63" sqref="AA63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG58" sqref="AG58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5485,7 +5484,7 @@
         <v>11</v>
       </c>
       <c r="P46" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q46" s="7">
         <v>9</v>
@@ -5865,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K50" s="7">
         <v>5</v>
@@ -6183,7 +6182,7 @@
       <c r="S53" s="7">
         <v>1</v>
       </c>
-      <c r="T53" s="25">
+      <c r="T53" s="7">
         <v>4</v>
       </c>
       <c r="U53" s="7">
@@ -6256,7 +6255,7 @@
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L54" s="7">
         <v>13</v>
@@ -6280,7 +6279,7 @@
       <c r="S54" s="7">
         <v>0</v>
       </c>
-      <c r="T54" s="25">
+      <c r="T54" s="7">
         <v>9</v>
       </c>
       <c r="U54" s="7">
@@ -6311,7 +6310,7 @@
         <v>6</v>
       </c>
       <c r="AD54" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE54" s="7">
         <v>2</v>
@@ -6325,7 +6324,7 @@
     </row>
     <row r="55" spans="1:33" s="27" customFormat="1">
       <c r="A55" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" s="7">
         <v>0</v>
@@ -6375,15 +6374,17 @@
       <c r="S55" s="7">
         <v>2</v>
       </c>
-      <c r="T55" s="25">
-        <v>3</v>
-      </c>
-      <c r="U55" s="7"/>
+      <c r="T55" s="7">
+        <v>3</v>
+      </c>
+      <c r="U55" s="7">
+        <v>0</v>
+      </c>
       <c r="V55" s="7">
         <v>3</v>
       </c>
       <c r="W55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" s="7">
         <v>17</v>
@@ -6435,7 +6436,7 @@
         <v>5</v>
       </c>
       <c r="H56" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I56" s="7">
         <v>1</v>
@@ -6459,7 +6460,7 @@
         <v>2</v>
       </c>
       <c r="R56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="7">
         <v>6</v>
@@ -6492,7 +6493,7 @@
       </c>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF56" s="7">
         <v>2</v>
@@ -6533,7 +6534,7 @@
         <v>15</v>
       </c>
       <c r="N57" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O57" s="7">
         <v>1</v>
@@ -6547,7 +6548,7 @@
         <v>2</v>
       </c>
       <c r="T57" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U57" s="7"/>
       <c r="V57" s="7">
@@ -6578,7 +6579,7 @@
         <v>2</v>
       </c>
       <c r="AG57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:33" s="3" customFormat="1">
@@ -6586,6 +6587,9 @@
       <c r="B58" s="7">
         <v>6</v>
       </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
       <c r="D58" s="7">
         <v>0</v>
       </c>
@@ -6600,7 +6604,7 @@
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J58" s="25"/>
       <c r="K58" s="7"/>
@@ -6693,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="Y59" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z59" s="7">
         <v>2</v>
@@ -6705,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD59" s="25"/>
       <c r="AF59" s="7">
@@ -6760,7 +6764,7 @@
         <v>16</v>
       </c>
       <c r="AF60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG60" s="3"/>
     </row>
@@ -6787,7 +6791,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -6802,7 +6806,7 @@
       </c>
       <c r="R61" s="7"/>
       <c r="S61" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
@@ -6817,7 +6821,9 @@
       <c r="Z61" s="7">
         <v>8</v>
       </c>
-      <c r="AA61" s="7"/>
+      <c r="AA61" s="7">
+        <v>0</v>
+      </c>
       <c r="AB61" s="7">
         <v>12</v>
       </c>
@@ -6829,10 +6835,10 @@
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C62" s="7"/>
-      <c r="D62" s="25">
+      <c r="D62" s="7">
         <v>4</v>
       </c>
       <c r="E62" s="7">
@@ -6841,7 +6847,9 @@
       <c r="F62" s="7">
         <v>4</v>
       </c>
-      <c r="G62" s="7"/>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="3"/>
@@ -6886,14 +6894,14 @@
     <row r="63" spans="1:33">
       <c r="A63" s="25"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="25">
+      <c r="D63" s="7">
         <v>1</v>
       </c>
       <c r="E63" s="7">
         <v>7</v>
       </c>
       <c r="F63" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="4"/>
@@ -6936,7 +6944,7 @@
       <c r="AG63" s="5"/>
     </row>
     <row r="64" spans="1:33">
-      <c r="D64" s="25">
+      <c r="D64" s="7">
         <v>2</v>
       </c>
       <c r="E64" s="4">
@@ -6952,7 +6960,7 @@
       </c>
       <c r="N64" s="4"/>
       <c r="O64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="4"/>
       <c r="Q64" s="4">
@@ -6967,7 +6975,7 @@
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4">
@@ -6983,7 +6991,7 @@
     </row>
     <row r="65" spans="1:33">
       <c r="C65" s="5"/>
-      <c r="D65" s="25">
+      <c r="D65" s="7">
         <v>0</v>
       </c>
       <c r="E65" s="4">
@@ -7014,10 +7022,10 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB65" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD65" s="7"/>
       <c r="AE65" s="3"/>
@@ -7025,7 +7033,7 @@
       <c r="AG65" s="5"/>
     </row>
     <row r="66" spans="1:33">
-      <c r="D66" s="25">
+      <c r="D66" s="7">
         <v>0</v>
       </c>
       <c r="E66" s="4">
@@ -7049,7 +7057,7 @@
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
@@ -7066,7 +7074,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67" s="4"/>
       <c r="H67" s="4"/>
@@ -7107,11 +7115,13 @@
       <c r="K68" s="3"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
-      <c r="Q68" s="37"/>
+      <c r="Q68" s="41">
+        <v>0</v>
+      </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
       <c r="T68" s="3"/>
@@ -7214,59 +7224,61 @@
       <c r="AF71" s="3"/>
       <c r="AG71" s="37"/>
     </row>
-    <row r="72" spans="1:33" s="44" customFormat="1"/>
-    <row r="73" spans="1:33" s="42" customFormat="1"/>
-    <row r="74" spans="1:33" s="46" customFormat="1"/>
-    <row r="75" spans="1:33">
-      <c r="D75" s="3"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="3"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
-      <c r="AB75" s="12"/>
-      <c r="AD75" s="4"/>
-      <c r="AF75" s="3"/>
-    </row>
-    <row r="76" spans="1:33">
-      <c r="D76" s="3"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AB76" s="12"/>
-      <c r="AD76" s="4"/>
-      <c r="AF76" s="3"/>
-    </row>
+    <row r="72" spans="1:33">
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="3"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AB72" s="12"/>
+      <c r="AD72" s="4"/>
+      <c r="AF72" s="3"/>
+    </row>
+    <row r="73" spans="1:33">
+      <c r="D73" s="3"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AB73" s="12"/>
+      <c r="AD73" s="4"/>
+      <c r="AF73" s="3"/>
+    </row>
+    <row r="74" spans="1:33" s="44" customFormat="1"/>
+    <row r="75" spans="1:33" s="42" customFormat="1"/>
+    <row r="76" spans="1:33" s="46" customFormat="1"/>
     <row r="77" spans="1:33">
       <c r="A77" s="5"/>
       <c r="C77" s="5"/>
@@ -7807,8 +7819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S166" sqref="S166"/>
+    <sheetView topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y166" sqref="Y166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -19249,7 +19261,7 @@
       </c>
       <c r="P144" s="22"/>
       <c r="Q144" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R144" s="19">
         <v>9</v>
@@ -19550,7 +19562,7 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R147" s="19">
         <v>2</v>
@@ -19659,12 +19671,12 @@
         <v>4</v>
       </c>
       <c r="S148" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T148" s="19">
         <v>3</v>
       </c>
-      <c r="U148" s="20">
+      <c r="U148" s="19">
         <v>11</v>
       </c>
       <c r="V148" s="19">
@@ -19683,7 +19695,9 @@
       <c r="AA148" s="19">
         <v>9</v>
       </c>
-      <c r="AB148" s="20"/>
+      <c r="AB148" s="19">
+        <v>11</v>
+      </c>
       <c r="AC148" s="20"/>
       <c r="AD148" s="20"/>
       <c r="AF148" s="40"/>
@@ -19865,7 +19879,7 @@
         <v>7</v>
       </c>
       <c r="U150" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V150" s="19">
         <v>1</v>
@@ -20064,7 +20078,7 @@
         <v>1</v>
       </c>
       <c r="T152" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U152" s="19">
         <v>0</v>
@@ -20152,13 +20166,13 @@
       </c>
       <c r="P153" s="22"/>
       <c r="Q153" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R153" s="19">
         <v>0</v>
       </c>
       <c r="S153" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T153" s="19">
         <v>5</v>
@@ -20249,14 +20263,14 @@
         <v>9</v>
       </c>
       <c r="P154" s="22"/>
-      <c r="Q154" s="20">
+      <c r="Q154" s="19">
         <v>5</v>
       </c>
       <c r="R154" s="19">
         <v>2</v>
       </c>
       <c r="S154" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T154" s="19">
         <v>3</v>
@@ -20280,7 +20294,9 @@
       <c r="AA154" s="19">
         <v>3</v>
       </c>
-      <c r="AB154" s="20"/>
+      <c r="AB154" s="19">
+        <v>5</v>
+      </c>
       <c r="AC154" s="20"/>
       <c r="AD154" s="20"/>
       <c r="AF154" s="40"/>
@@ -20347,23 +20363,23 @@
         <v>10</v>
       </c>
       <c r="P155" s="22"/>
-      <c r="Q155" s="20">
+      <c r="Q155" s="19">
         <v>4</v>
       </c>
       <c r="R155" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S155" s="19">
         <v>3</v>
       </c>
       <c r="T155" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U155" s="19">
         <v>3</v>
       </c>
       <c r="V155" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W155" s="20"/>
       <c r="X155" s="19">
@@ -20372,7 +20388,9 @@
       <c r="Y155" s="19">
         <v>3</v>
       </c>
-      <c r="Z155" s="20"/>
+      <c r="Z155" s="19">
+        <v>4</v>
+      </c>
       <c r="AA155" s="20"/>
       <c r="AB155" s="20"/>
       <c r="AC155" s="20"/>
@@ -20444,14 +20462,14 @@
       <c r="Q156" s="19">
         <v>1</v>
       </c>
-      <c r="R156" s="20">
+      <c r="R156" s="19">
         <v>3</v>
       </c>
       <c r="S156" s="19">
         <v>2</v>
       </c>
       <c r="T156" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U156" s="19">
         <v>2</v>
@@ -20472,7 +20490,9 @@
       <c r="AA156" s="19">
         <v>2</v>
       </c>
-      <c r="AB156" s="20"/>
+      <c r="AB156" s="19">
+        <v>3</v>
+      </c>
       <c r="AC156" s="20"/>
       <c r="AD156" s="20"/>
       <c r="AF156" s="40"/>
@@ -20543,19 +20563,19 @@
       </c>
       <c r="P157" s="22"/>
       <c r="Q157" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R157" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S157" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T157" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U157" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V157" s="19">
         <v>1</v>
@@ -20638,25 +20658,27 @@
       </c>
       <c r="P158" s="22"/>
       <c r="Q158" s="23">
-        <v>1</v>
-      </c>
-      <c r="R158" s="23">
+        <v>2</v>
+      </c>
+      <c r="R158" s="22">
         <v>1</v>
       </c>
       <c r="S158" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T158" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U158" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V158" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W158" s="23"/>
-      <c r="X158" s="23"/>
+      <c r="X158" s="19">
+        <v>1</v>
+      </c>
       <c r="Y158" s="23"/>
       <c r="Z158" s="23"/>
       <c r="AA158" s="23"/>
@@ -20725,41 +20747,112 @@
       </c>
       <c r="P159" s="22"/>
       <c r="Q159" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R159" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S159" s="20">
-        <v>0</v>
-      </c>
-      <c r="T159" s="20">
+        <v>1</v>
+      </c>
+      <c r="T159" s="19">
         <v>0</v>
       </c>
       <c r="U159" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V159" s="20">
-        <v>0</v>
-      </c>
-      <c r="W159" s="15"/>
-      <c r="X159" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="W159" s="20"/>
+      <c r="X159" s="19">
+        <v>0</v>
+      </c>
       <c r="Y159" s="20"/>
       <c r="Z159" s="20"/>
       <c r="AA159" s="20"/>
       <c r="AB159" s="20"/>
       <c r="AC159" s="20"/>
-      <c r="AD159" s="15"/>
+      <c r="AD159" s="20"/>
       <c r="AF159" s="40"/>
+      <c r="AH159" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI159" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ159" s="21">
+        <v>3</v>
+      </c>
+      <c r="AK159" s="21">
+        <v>5</v>
+      </c>
+      <c r="AO159" s="21">
+        <v>2</v>
+      </c>
+      <c r="AP159" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ159" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:43" s="21" customFormat="1">
+      <c r="A160" s="21">
+        <v>4</v>
+      </c>
+      <c r="B160" s="21">
+        <v>1</v>
+      </c>
+      <c r="C160" s="21">
+        <v>5</v>
+      </c>
+      <c r="D160" s="21">
+        <v>11</v>
+      </c>
+      <c r="E160" s="21">
+        <v>3</v>
+      </c>
+      <c r="F160" s="21">
+        <v>0</v>
+      </c>
+      <c r="I160" s="21">
+        <v>0</v>
+      </c>
+      <c r="J160" s="21">
+        <v>1</v>
+      </c>
+      <c r="K160" s="21">
+        <v>3</v>
+      </c>
+      <c r="L160" s="21">
+        <v>4</v>
+      </c>
+      <c r="M160" s="21">
+        <v>5</v>
+      </c>
+      <c r="N160" s="21">
+        <v>11</v>
+      </c>
       <c r="P160" s="22"/>
-      <c r="Q160" s="20"/>
-      <c r="R160" s="20"/>
-      <c r="S160" s="20"/>
-      <c r="T160" s="20"/>
-      <c r="U160" s="20"/>
-      <c r="V160" s="20"/>
+      <c r="Q160" s="20">
+        <v>0</v>
+      </c>
+      <c r="R160" s="20">
+        <v>0</v>
+      </c>
+      <c r="S160" s="20">
+        <v>0</v>
+      </c>
+      <c r="T160" s="20">
+        <v>0</v>
+      </c>
+      <c r="U160" s="20">
+        <v>0</v>
+      </c>
+      <c r="V160" s="20">
+        <v>0</v>
+      </c>
       <c r="W160" s="20"/>
       <c r="X160" s="20"/>
       <c r="Y160" s="20"/>
@@ -20767,10 +20860,10 @@
       <c r="AA160" s="20"/>
       <c r="AB160" s="20"/>
       <c r="AC160" s="20"/>
-      <c r="AD160" s="15"/>
+      <c r="AD160" s="20"/>
       <c r="AF160" s="40"/>
     </row>
-    <row r="161" spans="9:32" s="21" customFormat="1">
+    <row r="161" spans="16:32" s="21" customFormat="1">
       <c r="P161" s="22"/>
       <c r="Q161" s="20"/>
       <c r="R161" s="20"/>
@@ -20785,10 +20878,10 @@
       <c r="AA161" s="20"/>
       <c r="AB161" s="20"/>
       <c r="AC161" s="20"/>
-      <c r="AD161" s="15"/>
+      <c r="AD161" s="20"/>
       <c r="AF161" s="40"/>
     </row>
-    <row r="162" spans="9:32" s="21" customFormat="1">
+    <row r="162" spans="16:32" s="21" customFormat="1">
       <c r="P162" s="22"/>
       <c r="Q162" s="20"/>
       <c r="R162" s="20"/>
@@ -20796,18 +20889,17 @@
       <c r="T162" s="20"/>
       <c r="U162" s="20"/>
       <c r="V162" s="20"/>
-      <c r="W162" s="20"/>
-      <c r="X162" s="15"/>
-      <c r="Y162" s="15"/>
-      <c r="Z162" s="15"/>
-      <c r="AA162" s="15"/>
-      <c r="AB162" s="15"/>
-      <c r="AC162" s="15"/>
-      <c r="AD162" s="15"/>
+      <c r="W162" s="15"/>
+      <c r="X162" s="20"/>
+      <c r="Y162" s="20"/>
+      <c r="Z162" s="20"/>
+      <c r="AA162" s="20"/>
+      <c r="AB162" s="20"/>
+      <c r="AC162" s="20"/>
+      <c r="AD162" s="20"/>
       <c r="AF162" s="40"/>
     </row>
-    <row r="163" spans="9:32" s="21" customFormat="1">
-      <c r="P163" s="22"/>
+    <row r="163" spans="16:32" s="21" customFormat="1">
       <c r="Q163" s="20"/>
       <c r="R163" s="20"/>
       <c r="S163" s="20"/>
@@ -20824,7 +20916,8 @@
       <c r="AD163" s="15"/>
       <c r="AF163" s="40"/>
     </row>
-    <row r="164" spans="9:32" s="21" customFormat="1">
+    <row r="164" spans="16:32">
+      <c r="P164" s="18"/>
       <c r="Q164" s="20"/>
       <c r="R164" s="20"/>
       <c r="S164" s="20"/>
@@ -20832,24 +20925,23 @@
       <c r="U164" s="20"/>
       <c r="V164" s="20"/>
       <c r="W164" s="15"/>
-      <c r="X164" s="15"/>
-      <c r="Y164" s="15"/>
-      <c r="Z164" s="15"/>
-      <c r="AA164" s="15"/>
-      <c r="AB164" s="15"/>
-      <c r="AC164" s="15"/>
-      <c r="AD164" s="15"/>
-      <c r="AF164" s="40"/>
-    </row>
-    <row r="165" spans="9:32">
-      <c r="P165" s="18"/>
+      <c r="X164" s="20"/>
+      <c r="Y164" s="20"/>
+      <c r="Z164" s="20"/>
+      <c r="AA164" s="20"/>
+      <c r="AB164" s="20"/>
+      <c r="AC164" s="20"/>
+      <c r="AD164" s="20"/>
+    </row>
+    <row r="165" spans="16:32" s="21" customFormat="1">
+      <c r="P165" s="22"/>
       <c r="Q165" s="20"/>
       <c r="R165" s="20"/>
       <c r="S165" s="20"/>
       <c r="T165" s="20"/>
       <c r="U165" s="20"/>
       <c r="V165" s="20"/>
-      <c r="W165" s="15"/>
+      <c r="W165" s="20"/>
       <c r="X165" s="20"/>
       <c r="Y165" s="20"/>
       <c r="Z165" s="20"/>
@@ -20857,27 +20949,27 @@
       <c r="AB165" s="20"/>
       <c r="AC165" s="20"/>
       <c r="AD165" s="20"/>
-    </row>
-    <row r="166" spans="9:32" s="21" customFormat="1">
+      <c r="AF165" s="23"/>
+    </row>
+    <row r="166" spans="16:32" s="21" customFormat="1">
       <c r="P166" s="22"/>
-      <c r="Q166" s="20"/>
-      <c r="R166" s="20"/>
-      <c r="S166" s="20"/>
-      <c r="T166" s="20"/>
-      <c r="U166" s="20"/>
-      <c r="V166" s="20"/>
-      <c r="W166" s="20"/>
-      <c r="X166" s="20"/>
-      <c r="Y166" s="20"/>
-      <c r="Z166" s="20"/>
-      <c r="AA166" s="20"/>
-      <c r="AB166" s="20"/>
-      <c r="AC166" s="20"/>
-      <c r="AD166" s="20"/>
-      <c r="AF166" s="23"/>
-    </row>
-    <row r="167" spans="9:32" s="21" customFormat="1">
-      <c r="P167" s="22"/>
+      <c r="Q166" s="23"/>
+      <c r="R166" s="23"/>
+      <c r="S166" s="23"/>
+      <c r="T166" s="23"/>
+      <c r="U166" s="23"/>
+      <c r="V166" s="23"/>
+      <c r="W166" s="23"/>
+      <c r="X166" s="40"/>
+      <c r="Y166" s="40"/>
+      <c r="Z166" s="23"/>
+      <c r="AA166" s="23"/>
+      <c r="AB166" s="23"/>
+      <c r="AC166" s="23"/>
+      <c r="AD166" s="40"/>
+      <c r="AF166" s="40"/>
+    </row>
+    <row r="167" spans="16:32" s="21" customFormat="1">
       <c r="Q167" s="23"/>
       <c r="R167" s="23"/>
       <c r="S167" s="23"/>
@@ -20894,7 +20986,7 @@
       <c r="AD167" s="40"/>
       <c r="AF167" s="40"/>
     </row>
-    <row r="168" spans="9:32" s="21" customFormat="1">
+    <row r="168" spans="16:32" s="21" customFormat="1">
       <c r="Q168" s="23"/>
       <c r="R168" s="23"/>
       <c r="S168" s="23"/>
@@ -20904,14 +20996,14 @@
       <c r="W168" s="23"/>
       <c r="X168" s="40"/>
       <c r="Y168" s="40"/>
-      <c r="Z168" s="23"/>
-      <c r="AA168" s="23"/>
-      <c r="AB168" s="23"/>
-      <c r="AC168" s="23"/>
+      <c r="Z168" s="40"/>
+      <c r="AA168" s="40"/>
+      <c r="AB168" s="40"/>
+      <c r="AC168" s="40"/>
       <c r="AD168" s="40"/>
       <c r="AF168" s="40"/>
     </row>
-    <row r="169" spans="9:32" s="21" customFormat="1">
+    <row r="169" spans="16:32" s="21" customFormat="1">
       <c r="Q169" s="23"/>
       <c r="R169" s="23"/>
       <c r="S169" s="23"/>
@@ -20921,31 +21013,32 @@
       <c r="W169" s="23"/>
       <c r="X169" s="40"/>
       <c r="Y169" s="40"/>
-      <c r="Z169" s="40"/>
-      <c r="AA169" s="40"/>
-      <c r="AB169" s="40"/>
-      <c r="AC169" s="40"/>
+      <c r="Z169" s="23"/>
+      <c r="AA169" s="23"/>
+      <c r="AB169" s="23"/>
+      <c r="AC169" s="23"/>
       <c r="AD169" s="40"/>
       <c r="AF169" s="40"/>
     </row>
-    <row r="170" spans="9:32" s="21" customFormat="1">
-      <c r="Q170" s="23"/>
-      <c r="R170" s="23"/>
-      <c r="S170" s="23"/>
-      <c r="T170" s="23"/>
-      <c r="U170" s="23"/>
-      <c r="V170" s="23"/>
-      <c r="W170" s="23"/>
-      <c r="X170" s="40"/>
-      <c r="Y170" s="40"/>
-      <c r="Z170" s="23"/>
-      <c r="AA170" s="23"/>
-      <c r="AB170" s="23"/>
-      <c r="AC170" s="23"/>
-      <c r="AD170" s="40"/>
+    <row r="170" spans="16:32" s="21" customFormat="1">
+      <c r="P170" s="22"/>
+      <c r="Q170" s="20"/>
+      <c r="R170" s="20"/>
+      <c r="S170" s="20"/>
+      <c r="T170" s="20"/>
+      <c r="U170" s="20"/>
+      <c r="V170" s="20"/>
+      <c r="W170" s="20"/>
+      <c r="X170" s="15"/>
+      <c r="Y170" s="15"/>
+      <c r="Z170" s="15"/>
+      <c r="AA170" s="15"/>
+      <c r="AB170" s="15"/>
+      <c r="AC170" s="15"/>
+      <c r="AD170" s="15"/>
       <c r="AF170" s="40"/>
     </row>
-    <row r="171" spans="9:32" s="21" customFormat="1">
+    <row r="171" spans="16:32" s="21" customFormat="1">
       <c r="P171" s="22"/>
       <c r="Q171" s="20"/>
       <c r="R171" s="20"/>
@@ -20956,14 +21049,14 @@
       <c r="W171" s="20"/>
       <c r="X171" s="15"/>
       <c r="Y171" s="15"/>
-      <c r="Z171" s="15"/>
-      <c r="AA171" s="15"/>
-      <c r="AB171" s="15"/>
-      <c r="AC171" s="15"/>
+      <c r="Z171" s="20"/>
+      <c r="AA171" s="20"/>
+      <c r="AB171" s="20"/>
+      <c r="AC171" s="20"/>
       <c r="AD171" s="15"/>
       <c r="AF171" s="40"/>
     </row>
-    <row r="172" spans="9:32" s="21" customFormat="1">
+    <row r="172" spans="16:32" s="21" customFormat="1">
       <c r="P172" s="22"/>
       <c r="Q172" s="20"/>
       <c r="R172" s="20"/>
@@ -20972,34 +21065,16 @@
       <c r="U172" s="20"/>
       <c r="V172" s="20"/>
       <c r="W172" s="20"/>
-      <c r="X172" s="15"/>
-      <c r="Y172" s="15"/>
+      <c r="X172" s="20"/>
+      <c r="Y172" s="20"/>
       <c r="Z172" s="20"/>
       <c r="AA172" s="20"/>
       <c r="AB172" s="20"/>
       <c r="AC172" s="20"/>
-      <c r="AD172" s="15"/>
+      <c r="AD172" s="20"/>
       <c r="AF172" s="40"/>
     </row>
-    <row r="173" spans="9:32" s="21" customFormat="1">
-      <c r="I173" s="21">
-        <v>0</v>
-      </c>
-      <c r="J173" s="21">
-        <v>1</v>
-      </c>
-      <c r="K173" s="21">
-        <v>1</v>
-      </c>
-      <c r="L173" s="21">
-        <v>3</v>
-      </c>
-      <c r="M173" s="21">
-        <v>6</v>
-      </c>
-      <c r="N173" s="21">
-        <v>8</v>
-      </c>
+    <row r="173" spans="16:32" s="21" customFormat="1">
       <c r="P173" s="22"/>
       <c r="Q173" s="20"/>
       <c r="R173" s="20"/>
@@ -21017,25 +21092,7 @@
       <c r="AD173" s="20"/>
       <c r="AF173" s="40"/>
     </row>
-    <row r="174" spans="9:32" s="21" customFormat="1">
-      <c r="I174" s="21">
-        <v>0</v>
-      </c>
-      <c r="J174" s="21">
-        <v>1</v>
-      </c>
-      <c r="K174" s="21">
-        <v>3</v>
-      </c>
-      <c r="L174" s="21">
-        <v>10</v>
-      </c>
-      <c r="M174" s="21">
-        <v>10</v>
-      </c>
-      <c r="N174" s="21">
-        <v>14</v>
-      </c>
+    <row r="174" spans="16:32" s="21" customFormat="1">
       <c r="P174" s="22"/>
       <c r="Q174" s="23"/>
       <c r="R174" s="23"/>
@@ -21053,25 +21110,7 @@
       <c r="AD174" s="23"/>
       <c r="AF174" s="40"/>
     </row>
-    <row r="175" spans="9:32" s="21" customFormat="1">
-      <c r="I175" s="21">
-        <v>1</v>
-      </c>
-      <c r="J175" s="21">
-        <v>1</v>
-      </c>
-      <c r="K175" s="21">
-        <v>3</v>
-      </c>
-      <c r="L175" s="21">
-        <v>5</v>
-      </c>
-      <c r="M175" s="21">
-        <v>5</v>
-      </c>
-      <c r="N175" s="21">
-        <v>10</v>
-      </c>
+    <row r="175" spans="16:32" s="21" customFormat="1">
       <c r="P175" s="22"/>
       <c r="Q175" s="23"/>
       <c r="R175" s="23"/>
@@ -21089,7 +21128,7 @@
       <c r="AD175" s="23"/>
       <c r="AF175" s="40"/>
     </row>
-    <row r="176" spans="9:32" s="21" customFormat="1">
+    <row r="176" spans="16:32" s="21" customFormat="1">
       <c r="P176" s="22"/>
       <c r="Q176" s="20"/>
       <c r="R176" s="20"/>
@@ -33420,7 +33459,7 @@
   <dimension ref="A1:AO230"/>
   <sheetViews>
     <sheetView topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O164" sqref="O164"/>
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -36762,15 +36801,27 @@
       <c r="K159" s="10"/>
     </row>
     <row r="160" spans="1:20">
-      <c r="A160" s="10"/>
-      <c r="B160" s="10"/>
+      <c r="A160" s="9">
+        <v>1</v>
+      </c>
+      <c r="B160" s="9">
+        <v>1</v>
+      </c>
       <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="63"/>
+      <c r="D160" s="9">
+        <v>1</v>
+      </c>
+      <c r="E160" s="9">
+        <v>1</v>
+      </c>
+      <c r="F160" s="9">
+        <v>1</v>
+      </c>
       <c r="G160" s="10"/>
-      <c r="H160" s="18"/>
-      <c r="K160" s="18"/>
+      <c r="J160" s="10"/>
+      <c r="L160" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="10"/>
@@ -36797,6 +36848,7 @@
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="10"/>
@@ -36995,6 +37047,7 @@
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
       <c r="F188" s="10"/>
     </row>
     <row r="189" spans="1:6">
@@ -37002,6 +37055,7 @@
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
       <c r="F189" s="10"/>
     </row>
     <row r="190" spans="1:6">
@@ -37100,7 +37154,7 @@
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
-      <c r="F203" s="18"/>
+      <c r="F203" s="10"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="10"/>
@@ -37114,9 +37168,11 @@
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
+      <c r="F205" s="18"/>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
     </row>
@@ -37205,22 +37261,23 @@
       <c r="A224" s="10"/>
       <c r="C224" s="10"/>
     </row>
-    <row r="225" spans="3:3">
+    <row r="225" spans="1:3">
+      <c r="A225" s="10"/>
       <c r="C225" s="10"/>
     </row>
-    <row r="226" spans="3:3">
+    <row r="226" spans="1:3">
       <c r="C226" s="10"/>
     </row>
-    <row r="227" spans="3:3">
+    <row r="227" spans="1:3">
       <c r="C227" s="10"/>
     </row>
-    <row r="228" spans="3:3">
+    <row r="228" spans="1:3">
       <c r="C228" s="10"/>
     </row>
-    <row r="229" spans="3:3">
+    <row r="229" spans="1:3">
       <c r="C229" s="10"/>
     </row>
-    <row r="230" spans="3:3">
+    <row r="230" spans="1:3">
       <c r="C230" s="10"/>
     </row>
   </sheetData>
@@ -37234,7 +37291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
+    <sheetView topLeftCell="A135" workbookViewId="0">
       <selection activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
@@ -41029,25 +41086,55 @@
       </c>
     </row>
     <row r="160" spans="1:19" customFormat="1">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+      <c r="A160" s="1">
+        <v>1</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1">
+        <v>4</v>
+      </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
+      <c r="F160" s="1">
+        <v>2</v>
+      </c>
+      <c r="G160" s="1">
+        <v>2</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0</v>
+      </c>
+      <c r="I160" s="1">
+        <v>1</v>
+      </c>
+      <c r="J160" s="1">
+        <v>1</v>
+      </c>
+      <c r="K160" s="1">
+        <v>0</v>
+      </c>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1"/>
+      <c r="N160" s="1">
+        <v>0</v>
+      </c>
+      <c r="O160" s="1">
+        <v>1</v>
+      </c>
+      <c r="P160" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q160" s="1">
+        <v>3</v>
+      </c>
+      <c r="R160" s="1">
+        <v>9</v>
+      </c>
+      <c r="S160" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="166" spans="1:12" customFormat="1">
       <c r="A166" s="1"/>
@@ -41124,10 +41211,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN160"/>
+  <dimension ref="A100:AN162"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="S163" sqref="S163"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43937,11 +44024,53 @@
       </c>
     </row>
     <row r="160" spans="1:19">
+      <c r="A160" s="9">
+        <v>1</v>
+      </c>
       <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
+      <c r="C160" s="9">
+        <v>1</v>
+      </c>
+      <c r="D160" s="9">
+        <v>1</v>
+      </c>
       <c r="E160" s="10"/>
-      <c r="G160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="11">
+        <v>3</v>
+      </c>
       <c r="H160" s="10"/>
+      <c r="L160" s="16">
+        <v>1</v>
+      </c>
+      <c r="M160" s="16">
+        <v>3</v>
+      </c>
+      <c r="N160" s="16">
+        <v>4</v>
+      </c>
+      <c r="O160" s="16">
+        <v>7</v>
+      </c>
+      <c r="P160" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q160" s="16">
+        <v>7</v>
+      </c>
+      <c r="S160" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="10"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="G161" s="10"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="G162" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -43955,7 +44084,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44179,7 +44308,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -44270,7 +44399,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -44314,7 +44443,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -44350,7 +44479,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" s="18">
         <v>0</v>
@@ -44370,13 +44499,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
       </c>
       <c r="J9" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K9" s="18">
         <v>12</v>
@@ -44385,13 +44514,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -44425,13 +44554,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -44440,7 +44569,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="18">
         <v>12</v>
@@ -44448,7 +44577,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -44468,10 +44597,13 @@
         <v>13</v>
       </c>
       <c r="I13" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K13" s="18">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="N13" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -44481,7 +44613,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -44720,7 +44852,7 @@
   <dimension ref="A3:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -364,7 +364,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +407,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -420,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,6 +562,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -866,7 +876,7 @@
   <dimension ref="A1:AO105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG58" sqref="AG58"/>
+      <selection activeCell="Z72" sqref="Z72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5484,7 +5494,7 @@
         <v>11</v>
       </c>
       <c r="P46" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q46" s="7">
         <v>9</v>
@@ -5962,7 +5972,9 @@
       <c r="I51" s="7">
         <v>1</v>
       </c>
-      <c r="J51" s="7"/>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
       <c r="K51" s="7">
         <v>4</v>
       </c>
@@ -6255,7 +6267,7 @@
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L54" s="7">
         <v>13</v>
@@ -6310,7 +6322,7 @@
         <v>6</v>
       </c>
       <c r="AD54" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE54" s="7">
         <v>2</v>
@@ -6324,7 +6336,7 @@
     </row>
     <row r="55" spans="1:33" s="27" customFormat="1">
       <c r="A55" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B55" s="7">
         <v>0</v>
@@ -6378,13 +6390,13 @@
         <v>3</v>
       </c>
       <c r="U55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55" s="7">
         <v>3</v>
       </c>
       <c r="W55" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X55" s="7">
         <v>17</v>
@@ -6493,7 +6505,7 @@
       </c>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF56" s="7">
         <v>2</v>
@@ -6522,7 +6534,9 @@
       <c r="G57" s="7">
         <v>4</v>
       </c>
-      <c r="H57" s="7"/>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
       <c r="I57" s="7">
         <v>3</v>
       </c>
@@ -6543,12 +6557,14 @@
       <c r="Q57" s="7">
         <v>0</v>
       </c>
-      <c r="R57" s="7"/>
+      <c r="R57" s="7">
+        <v>0</v>
+      </c>
       <c r="S57" s="7">
         <v>2</v>
       </c>
       <c r="T57" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U57" s="7"/>
       <c r="V57" s="7">
@@ -6579,7 +6595,7 @@
         <v>2</v>
       </c>
       <c r="AG57" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:33" s="3" customFormat="1">
@@ -6588,7 +6604,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="7">
         <v>0</v>
@@ -6604,7 +6620,7 @@
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J58" s="25"/>
       <c r="K58" s="7"/>
@@ -6614,7 +6630,9 @@
       <c r="M58" s="7">
         <v>8</v>
       </c>
-      <c r="N58" s="7"/>
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
       <c r="O58" s="7">
         <v>5</v>
       </c>
@@ -6697,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="Y59" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z59" s="7">
         <v>2</v>
@@ -6709,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD59" s="25"/>
       <c r="AF59" s="7">
@@ -6764,7 +6782,7 @@
         <v>16</v>
       </c>
       <c r="AF60" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG60" s="3"/>
     </row>
@@ -6806,7 +6824,7 @@
       </c>
       <c r="R61" s="7"/>
       <c r="S61" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
@@ -6822,7 +6840,7 @@
         <v>8</v>
       </c>
       <c r="AA61" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB61" s="7">
         <v>12</v>
@@ -6835,7 +6853,7 @@
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
@@ -6848,13 +6866,15 @@
         <v>4</v>
       </c>
       <c r="G62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
+      <c r="L62" s="7">
+        <v>0</v>
+      </c>
       <c r="M62" s="7">
         <v>4</v>
       </c>
@@ -6901,7 +6921,7 @@
         <v>7</v>
       </c>
       <c r="F63" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="4"/>
@@ -6960,7 +6980,7 @@
       </c>
       <c r="N64" s="4"/>
       <c r="O64" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P64" s="4"/>
       <c r="Q64" s="4">
@@ -6975,7 +6995,7 @@
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4">
@@ -7022,7 +7042,7 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB65" s="7">
         <v>3</v>
@@ -7057,13 +7077,15 @@
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
-      <c r="AB66" s="12"/>
+      <c r="AB66" s="14">
+        <v>0</v>
+      </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
@@ -7074,7 +7096,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F67" s="4"/>
       <c r="H67" s="4"/>
@@ -7115,12 +7137,12 @@
       <c r="K68" s="3"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="Q68" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
@@ -7226,7 +7248,7 @@
     </row>
     <row r="72" spans="1:33">
       <c r="D72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -7819,8 +7841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT971"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y166" sqref="Y166"/>
+    <sheetView topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -19261,7 +19283,7 @@
       </c>
       <c r="P144" s="22"/>
       <c r="Q144" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R144" s="19">
         <v>9</v>
@@ -19562,7 +19584,7 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R147" s="19">
         <v>2</v>
@@ -19670,7 +19692,7 @@
       <c r="R148" s="19">
         <v>4</v>
       </c>
-      <c r="S148" s="20">
+      <c r="S148" s="64">
         <v>12</v>
       </c>
       <c r="T148" s="19">
@@ -19698,7 +19720,9 @@
       <c r="AB148" s="19">
         <v>11</v>
       </c>
-      <c r="AC148" s="20"/>
+      <c r="AC148" s="19">
+        <v>12</v>
+      </c>
       <c r="AD148" s="20"/>
       <c r="AF148" s="40"/>
       <c r="AH148" s="21">
@@ -19879,7 +19903,7 @@
         <v>7</v>
       </c>
       <c r="U150" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V150" s="19">
         <v>1</v>
@@ -20078,7 +20102,7 @@
         <v>1</v>
       </c>
       <c r="T152" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U152" s="19">
         <v>0</v>
@@ -20165,14 +20189,14 @@
         <v>7</v>
       </c>
       <c r="P153" s="22"/>
-      <c r="Q153" s="20">
+      <c r="Q153" s="64">
         <v>7</v>
       </c>
       <c r="R153" s="19">
         <v>0</v>
       </c>
       <c r="S153" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T153" s="19">
         <v>5</v>
@@ -20196,7 +20220,9 @@
       <c r="AA153" s="19">
         <v>5</v>
       </c>
-      <c r="AB153" s="20"/>
+      <c r="AB153" s="19">
+        <v>7</v>
+      </c>
       <c r="AC153" s="20"/>
       <c r="AD153" s="20"/>
       <c r="AF153" s="40"/>
@@ -20269,7 +20295,7 @@
       <c r="R154" s="19">
         <v>2</v>
       </c>
-      <c r="S154" s="20">
+      <c r="S154" s="64">
         <v>6</v>
       </c>
       <c r="T154" s="19">
@@ -20297,7 +20323,9 @@
       <c r="AB154" s="19">
         <v>5</v>
       </c>
-      <c r="AC154" s="20"/>
+      <c r="AC154" s="19">
+        <v>6</v>
+      </c>
       <c r="AD154" s="20"/>
       <c r="AF154" s="40"/>
       <c r="AH154" s="21">
@@ -20367,19 +20395,19 @@
         <v>4</v>
       </c>
       <c r="R155" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S155" s="19">
         <v>3</v>
       </c>
       <c r="T155" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U155" s="19">
         <v>3</v>
       </c>
       <c r="V155" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W155" s="20"/>
       <c r="X155" s="19">
@@ -20469,7 +20497,7 @@
         <v>2</v>
       </c>
       <c r="T156" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U156" s="19">
         <v>2</v>
@@ -20563,19 +20591,19 @@
       </c>
       <c r="P157" s="22"/>
       <c r="Q157" s="20">
-        <v>3</v>
-      </c>
-      <c r="R157" s="20">
+        <v>4</v>
+      </c>
+      <c r="R157" s="64">
         <v>3</v>
       </c>
       <c r="S157" s="20">
-        <v>3</v>
-      </c>
-      <c r="T157" s="20">
+        <v>4</v>
+      </c>
+      <c r="T157" s="64">
         <v>3</v>
       </c>
       <c r="U157" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V157" s="19">
         <v>1</v>
@@ -20584,8 +20612,12 @@
       <c r="X157" s="19">
         <v>1</v>
       </c>
-      <c r="Y157" s="20"/>
-      <c r="Z157" s="20"/>
+      <c r="Y157" s="19">
+        <v>3</v>
+      </c>
+      <c r="Z157" s="19">
+        <v>3</v>
+      </c>
       <c r="AA157" s="20"/>
       <c r="AB157" s="20"/>
       <c r="AC157" s="20"/>
@@ -20658,22 +20690,22 @@
       </c>
       <c r="P158" s="22"/>
       <c r="Q158" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R158" s="22">
         <v>1</v>
       </c>
       <c r="S158" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T158" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U158" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V158" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W158" s="23"/>
       <c r="X158" s="19">
@@ -20747,28 +20779,30 @@
       </c>
       <c r="P159" s="22"/>
       <c r="Q159" s="20">
-        <v>1</v>
-      </c>
-      <c r="R159" s="20">
+        <v>2</v>
+      </c>
+      <c r="R159" s="64">
         <v>1</v>
       </c>
       <c r="S159" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T159" s="19">
         <v>0</v>
       </c>
       <c r="U159" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V159" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W159" s="20"/>
       <c r="X159" s="19">
         <v>0</v>
       </c>
-      <c r="Y159" s="20"/>
+      <c r="Y159" s="19">
+        <v>1</v>
+      </c>
       <c r="Z159" s="20"/>
       <c r="AA159" s="20"/>
       <c r="AB159" s="20"/>
@@ -20836,22 +20870,22 @@
       </c>
       <c r="P160" s="22"/>
       <c r="Q160" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R160" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S160" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T160" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U160" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V160" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W160" s="20"/>
       <c r="X160" s="20"/>
@@ -20863,15 +20897,63 @@
       <c r="AD160" s="20"/>
       <c r="AF160" s="40"/>
     </row>
-    <row r="161" spans="16:32" s="21" customFormat="1">
+    <row r="161" spans="1:32" s="21" customFormat="1">
+      <c r="A161" s="21">
+        <v>7</v>
+      </c>
+      <c r="B161" s="21">
+        <v>3</v>
+      </c>
+      <c r="C161" s="21">
+        <v>12</v>
+      </c>
+      <c r="D161" s="21">
+        <v>6</v>
+      </c>
+      <c r="E161" s="21">
+        <v>1</v>
+      </c>
+      <c r="F161" s="21">
+        <v>3</v>
+      </c>
+      <c r="I161" s="21">
+        <v>1</v>
+      </c>
+      <c r="J161" s="21">
+        <v>3</v>
+      </c>
+      <c r="K161" s="21">
+        <v>3</v>
+      </c>
+      <c r="L161" s="21">
+        <v>6</v>
+      </c>
+      <c r="M161" s="21">
+        <v>7</v>
+      </c>
+      <c r="N161" s="21">
+        <v>12</v>
+      </c>
       <c r="P161" s="22"/>
-      <c r="Q161" s="20"/>
-      <c r="R161" s="20"/>
-      <c r="S161" s="20"/>
-      <c r="T161" s="20"/>
-      <c r="U161" s="20"/>
-      <c r="V161" s="20"/>
-      <c r="W161" s="20"/>
+      <c r="Q161" s="20">
+        <v>0</v>
+      </c>
+      <c r="R161" s="20">
+        <v>0</v>
+      </c>
+      <c r="S161" s="20">
+        <v>0</v>
+      </c>
+      <c r="T161" s="20">
+        <v>0</v>
+      </c>
+      <c r="U161" s="20">
+        <v>0</v>
+      </c>
+      <c r="V161" s="20">
+        <v>0</v>
+      </c>
+      <c r="W161" s="15"/>
       <c r="X161" s="20"/>
       <c r="Y161" s="20"/>
       <c r="Z161" s="20"/>
@@ -20881,8 +20963,7 @@
       <c r="AD161" s="20"/>
       <c r="AF161" s="40"/>
     </row>
-    <row r="162" spans="16:32" s="21" customFormat="1">
-      <c r="P162" s="22"/>
+    <row r="162" spans="1:32" s="21" customFormat="1">
       <c r="Q162" s="20"/>
       <c r="R162" s="20"/>
       <c r="S162" s="20"/>
@@ -20890,16 +20971,17 @@
       <c r="U162" s="20"/>
       <c r="V162" s="20"/>
       <c r="W162" s="15"/>
-      <c r="X162" s="20"/>
-      <c r="Y162" s="20"/>
-      <c r="Z162" s="20"/>
-      <c r="AA162" s="20"/>
-      <c r="AB162" s="20"/>
-      <c r="AC162" s="20"/>
-      <c r="AD162" s="20"/>
+      <c r="X162" s="15"/>
+      <c r="Y162" s="15"/>
+      <c r="Z162" s="15"/>
+      <c r="AA162" s="15"/>
+      <c r="AB162" s="15"/>
+      <c r="AC162" s="15"/>
+      <c r="AD162" s="15"/>
       <c r="AF162" s="40"/>
     </row>
-    <row r="163" spans="16:32" s="21" customFormat="1">
+    <row r="163" spans="1:32">
+      <c r="P163" s="18"/>
       <c r="Q163" s="20"/>
       <c r="R163" s="20"/>
       <c r="S163" s="20"/>
@@ -20907,24 +20989,23 @@
       <c r="U163" s="20"/>
       <c r="V163" s="20"/>
       <c r="W163" s="15"/>
-      <c r="X163" s="15"/>
-      <c r="Y163" s="15"/>
-      <c r="Z163" s="15"/>
-      <c r="AA163" s="15"/>
-      <c r="AB163" s="15"/>
-      <c r="AC163" s="15"/>
-      <c r="AD163" s="15"/>
-      <c r="AF163" s="40"/>
-    </row>
-    <row r="164" spans="16:32">
-      <c r="P164" s="18"/>
+      <c r="X163" s="20"/>
+      <c r="Y163" s="20"/>
+      <c r="Z163" s="20"/>
+      <c r="AA163" s="20"/>
+      <c r="AB163" s="20"/>
+      <c r="AC163" s="20"/>
+      <c r="AD163" s="20"/>
+    </row>
+    <row r="164" spans="1:32" s="21" customFormat="1">
+      <c r="P164" s="22"/>
       <c r="Q164" s="20"/>
       <c r="R164" s="20"/>
       <c r="S164" s="20"/>
       <c r="T164" s="20"/>
       <c r="U164" s="20"/>
       <c r="V164" s="20"/>
-      <c r="W164" s="15"/>
+      <c r="W164" s="20"/>
       <c r="X164" s="20"/>
       <c r="Y164" s="20"/>
       <c r="Z164" s="20"/>
@@ -20932,27 +21013,27 @@
       <c r="AB164" s="20"/>
       <c r="AC164" s="20"/>
       <c r="AD164" s="20"/>
-    </row>
-    <row r="165" spans="16:32" s="21" customFormat="1">
+      <c r="AF164" s="23"/>
+    </row>
+    <row r="165" spans="1:32" s="21" customFormat="1">
       <c r="P165" s="22"/>
-      <c r="Q165" s="20"/>
-      <c r="R165" s="20"/>
-      <c r="S165" s="20"/>
-      <c r="T165" s="20"/>
-      <c r="U165" s="20"/>
-      <c r="V165" s="20"/>
-      <c r="W165" s="20"/>
-      <c r="X165" s="20"/>
-      <c r="Y165" s="20"/>
-      <c r="Z165" s="20"/>
-      <c r="AA165" s="20"/>
-      <c r="AB165" s="20"/>
-      <c r="AC165" s="20"/>
-      <c r="AD165" s="20"/>
-      <c r="AF165" s="23"/>
-    </row>
-    <row r="166" spans="16:32" s="21" customFormat="1">
-      <c r="P166" s="22"/>
+      <c r="Q165" s="23"/>
+      <c r="R165" s="23"/>
+      <c r="S165" s="23"/>
+      <c r="T165" s="23"/>
+      <c r="U165" s="23"/>
+      <c r="V165" s="23"/>
+      <c r="W165" s="23"/>
+      <c r="X165" s="40"/>
+      <c r="Y165" s="40"/>
+      <c r="Z165" s="23"/>
+      <c r="AA165" s="23"/>
+      <c r="AB165" s="23"/>
+      <c r="AC165" s="23"/>
+      <c r="AD165" s="40"/>
+      <c r="AF165" s="40"/>
+    </row>
+    <row r="166" spans="1:32" s="21" customFormat="1">
       <c r="Q166" s="23"/>
       <c r="R166" s="23"/>
       <c r="S166" s="23"/>
@@ -20969,7 +21050,7 @@
       <c r="AD166" s="40"/>
       <c r="AF166" s="40"/>
     </row>
-    <row r="167" spans="16:32" s="21" customFormat="1">
+    <row r="167" spans="1:32" s="21" customFormat="1">
       <c r="Q167" s="23"/>
       <c r="R167" s="23"/>
       <c r="S167" s="23"/>
@@ -20979,14 +21060,14 @@
       <c r="W167" s="23"/>
       <c r="X167" s="40"/>
       <c r="Y167" s="40"/>
-      <c r="Z167" s="23"/>
-      <c r="AA167" s="23"/>
-      <c r="AB167" s="23"/>
-      <c r="AC167" s="23"/>
+      <c r="Z167" s="40"/>
+      <c r="AA167" s="40"/>
+      <c r="AB167" s="40"/>
+      <c r="AC167" s="40"/>
       <c r="AD167" s="40"/>
       <c r="AF167" s="40"/>
     </row>
-    <row r="168" spans="16:32" s="21" customFormat="1">
+    <row r="168" spans="1:32" s="21" customFormat="1">
       <c r="Q168" s="23"/>
       <c r="R168" s="23"/>
       <c r="S168" s="23"/>
@@ -20996,31 +21077,32 @@
       <c r="W168" s="23"/>
       <c r="X168" s="40"/>
       <c r="Y168" s="40"/>
-      <c r="Z168" s="40"/>
-      <c r="AA168" s="40"/>
-      <c r="AB168" s="40"/>
-      <c r="AC168" s="40"/>
+      <c r="Z168" s="23"/>
+      <c r="AA168" s="23"/>
+      <c r="AB168" s="23"/>
+      <c r="AC168" s="23"/>
       <c r="AD168" s="40"/>
       <c r="AF168" s="40"/>
     </row>
-    <row r="169" spans="16:32" s="21" customFormat="1">
-      <c r="Q169" s="23"/>
-      <c r="R169" s="23"/>
-      <c r="S169" s="23"/>
-      <c r="T169" s="23"/>
-      <c r="U169" s="23"/>
-      <c r="V169" s="23"/>
-      <c r="W169" s="23"/>
-      <c r="X169" s="40"/>
-      <c r="Y169" s="40"/>
-      <c r="Z169" s="23"/>
-      <c r="AA169" s="23"/>
-      <c r="AB169" s="23"/>
-      <c r="AC169" s="23"/>
-      <c r="AD169" s="40"/>
+    <row r="169" spans="1:32" s="21" customFormat="1">
+      <c r="P169" s="22"/>
+      <c r="Q169" s="20"/>
+      <c r="R169" s="20"/>
+      <c r="S169" s="20"/>
+      <c r="T169" s="20"/>
+      <c r="U169" s="20"/>
+      <c r="V169" s="20"/>
+      <c r="W169" s="20"/>
+      <c r="X169" s="15"/>
+      <c r="Y169" s="15"/>
+      <c r="Z169" s="15"/>
+      <c r="AA169" s="15"/>
+      <c r="AB169" s="15"/>
+      <c r="AC169" s="15"/>
+      <c r="AD169" s="15"/>
       <c r="AF169" s="40"/>
     </row>
-    <row r="170" spans="16:32" s="21" customFormat="1">
+    <row r="170" spans="1:32" s="21" customFormat="1">
       <c r="P170" s="22"/>
       <c r="Q170" s="20"/>
       <c r="R170" s="20"/>
@@ -21031,14 +21113,14 @@
       <c r="W170" s="20"/>
       <c r="X170" s="15"/>
       <c r="Y170" s="15"/>
-      <c r="Z170" s="15"/>
-      <c r="AA170" s="15"/>
-      <c r="AB170" s="15"/>
-      <c r="AC170" s="15"/>
+      <c r="Z170" s="20"/>
+      <c r="AA170" s="20"/>
+      <c r="AB170" s="20"/>
+      <c r="AC170" s="20"/>
       <c r="AD170" s="15"/>
       <c r="AF170" s="40"/>
     </row>
-    <row r="171" spans="16:32" s="21" customFormat="1">
+    <row r="171" spans="1:32" s="21" customFormat="1">
       <c r="P171" s="22"/>
       <c r="Q171" s="20"/>
       <c r="R171" s="20"/>
@@ -21047,16 +21129,16 @@
       <c r="U171" s="20"/>
       <c r="V171" s="20"/>
       <c r="W171" s="20"/>
-      <c r="X171" s="15"/>
-      <c r="Y171" s="15"/>
+      <c r="X171" s="20"/>
+      <c r="Y171" s="20"/>
       <c r="Z171" s="20"/>
       <c r="AA171" s="20"/>
       <c r="AB171" s="20"/>
       <c r="AC171" s="20"/>
-      <c r="AD171" s="15"/>
+      <c r="AD171" s="20"/>
       <c r="AF171" s="40"/>
     </row>
-    <row r="172" spans="16:32" s="21" customFormat="1">
+    <row r="172" spans="1:32" s="21" customFormat="1">
       <c r="P172" s="22"/>
       <c r="Q172" s="20"/>
       <c r="R172" s="20"/>
@@ -21074,25 +21156,25 @@
       <c r="AD172" s="20"/>
       <c r="AF172" s="40"/>
     </row>
-    <row r="173" spans="16:32" s="21" customFormat="1">
+    <row r="173" spans="1:32" s="21" customFormat="1">
       <c r="P173" s="22"/>
-      <c r="Q173" s="20"/>
-      <c r="R173" s="20"/>
-      <c r="S173" s="20"/>
-      <c r="T173" s="20"/>
-      <c r="U173" s="20"/>
-      <c r="V173" s="20"/>
-      <c r="W173" s="20"/>
-      <c r="X173" s="20"/>
-      <c r="Y173" s="20"/>
-      <c r="Z173" s="20"/>
-      <c r="AA173" s="20"/>
-      <c r="AB173" s="20"/>
-      <c r="AC173" s="20"/>
-      <c r="AD173" s="20"/>
+      <c r="Q173" s="23"/>
+      <c r="R173" s="23"/>
+      <c r="S173" s="23"/>
+      <c r="T173" s="23"/>
+      <c r="U173" s="23"/>
+      <c r="V173" s="23"/>
+      <c r="W173" s="23"/>
+      <c r="X173" s="23"/>
+      <c r="Y173" s="23"/>
+      <c r="Z173" s="23"/>
+      <c r="AA173" s="23"/>
+      <c r="AB173" s="23"/>
+      <c r="AC173" s="23"/>
+      <c r="AD173" s="23"/>
       <c r="AF173" s="40"/>
     </row>
-    <row r="174" spans="16:32" s="21" customFormat="1">
+    <row r="174" spans="1:32" s="21" customFormat="1">
       <c r="P174" s="22"/>
       <c r="Q174" s="23"/>
       <c r="R174" s="23"/>
@@ -21110,25 +21192,25 @@
       <c r="AD174" s="23"/>
       <c r="AF174" s="40"/>
     </row>
-    <row r="175" spans="16:32" s="21" customFormat="1">
+    <row r="175" spans="1:32" s="21" customFormat="1">
       <c r="P175" s="22"/>
-      <c r="Q175" s="23"/>
-      <c r="R175" s="23"/>
-      <c r="S175" s="23"/>
-      <c r="T175" s="23"/>
-      <c r="U175" s="23"/>
-      <c r="V175" s="23"/>
-      <c r="W175" s="23"/>
-      <c r="X175" s="23"/>
-      <c r="Y175" s="23"/>
-      <c r="Z175" s="23"/>
-      <c r="AA175" s="23"/>
-      <c r="AB175" s="23"/>
-      <c r="AC175" s="23"/>
-      <c r="AD175" s="23"/>
+      <c r="Q175" s="20"/>
+      <c r="R175" s="20"/>
+      <c r="S175" s="20"/>
+      <c r="T175" s="20"/>
+      <c r="U175" s="20"/>
+      <c r="V175" s="20"/>
+      <c r="W175" s="20"/>
+      <c r="X175" s="20"/>
+      <c r="Y175" s="20"/>
+      <c r="Z175" s="20"/>
+      <c r="AA175" s="20"/>
+      <c r="AB175" s="20"/>
+      <c r="AC175" s="20"/>
+      <c r="AD175" s="20"/>
       <c r="AF175" s="40"/>
     </row>
-    <row r="176" spans="16:32" s="21" customFormat="1">
+    <row r="176" spans="1:32" s="21" customFormat="1">
       <c r="P176" s="22"/>
       <c r="Q176" s="20"/>
       <c r="R176" s="20"/>
@@ -21136,14 +21218,14 @@
       <c r="T176" s="20"/>
       <c r="U176" s="20"/>
       <c r="V176" s="20"/>
-      <c r="W176" s="20"/>
-      <c r="X176" s="20"/>
-      <c r="Y176" s="20"/>
-      <c r="Z176" s="20"/>
-      <c r="AA176" s="20"/>
-      <c r="AB176" s="20"/>
-      <c r="AC176" s="20"/>
-      <c r="AD176" s="20"/>
+      <c r="W176" s="15"/>
+      <c r="X176" s="15"/>
+      <c r="Y176" s="15"/>
+      <c r="Z176" s="15"/>
+      <c r="AA176" s="15"/>
+      <c r="AB176" s="15"/>
+      <c r="AC176" s="15"/>
+      <c r="AD176" s="15"/>
       <c r="AF176" s="40"/>
     </row>
     <row r="177" spans="16:32" s="21" customFormat="1">
@@ -21154,14 +21236,14 @@
       <c r="T177" s="20"/>
       <c r="U177" s="20"/>
       <c r="V177" s="20"/>
-      <c r="W177" s="15"/>
-      <c r="X177" s="15"/>
-      <c r="Y177" s="15"/>
-      <c r="Z177" s="15"/>
-      <c r="AA177" s="15"/>
-      <c r="AB177" s="15"/>
-      <c r="AC177" s="15"/>
-      <c r="AD177" s="15"/>
+      <c r="W177" s="20"/>
+      <c r="X177" s="20"/>
+      <c r="Y177" s="20"/>
+      <c r="Z177" s="20"/>
+      <c r="AA177" s="20"/>
+      <c r="AB177" s="20"/>
+      <c r="AC177" s="20"/>
+      <c r="AD177" s="20"/>
       <c r="AF177" s="40"/>
     </row>
     <row r="178" spans="16:32" s="21" customFormat="1">
@@ -33456,10 +33538,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO230"/>
+  <dimension ref="A1:AO232"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H172" sqref="H172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -36823,16 +36905,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:13">
       <c r="A161" s="10"/>
-      <c r="B161" s="10"/>
+      <c r="B161" s="9">
+        <v>1</v>
+      </c>
       <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
+      <c r="D161" s="11">
+        <v>2</v>
+      </c>
+      <c r="E161" s="63"/>
       <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="G161" s="9">
+        <v>1</v>
+      </c>
+      <c r="H161" s="9">
+        <v>1</v>
+      </c>
+      <c r="M161" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -36841,7 +36935,7 @@
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:13">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -36850,15 +36944,16 @@
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:13">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="G164" s="10"/>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -36866,7 +36961,7 @@
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:13">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -36874,7 +36969,7 @@
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:13">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -36882,7 +36977,7 @@
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:13">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -36890,7 +36985,7 @@
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:13">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -36898,7 +36993,7 @@
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:13">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -36906,7 +37001,7 @@
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:13">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -36914,7 +37009,7 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:13">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -36922,7 +37017,7 @@
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:13">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -36930,7 +37025,7 @@
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:13">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -36938,7 +37033,7 @@
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:13">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -36946,7 +37041,7 @@
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:13">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -37063,6 +37158,7 @@
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
       <c r="F190" s="10"/>
     </row>
     <row r="191" spans="1:6">
@@ -37161,25 +37257,28 @@
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
       <c r="D204" s="10"/>
-      <c r="F204" s="18"/>
+      <c r="F204" s="10"/>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
-      <c r="F205" s="18"/>
+      <c r="F205" s="10"/>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
+      <c r="F206" s="18"/>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
+      <c r="F207" s="18"/>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="10"/>
@@ -37244,10 +37343,12 @@
     <row r="220" spans="1:4">
       <c r="A220" s="10"/>
       <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="10"/>
       <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="10"/>
@@ -37266,6 +37367,7 @@
       <c r="C225" s="10"/>
     </row>
     <row r="226" spans="1:3">
+      <c r="A226" s="10"/>
       <c r="C226" s="10"/>
     </row>
     <row r="227" spans="1:3">
@@ -37279,6 +37381,12 @@
     </row>
     <row r="230" spans="1:3">
       <c r="C230" s="10"/>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="C231" s="10"/>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="C232" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -37291,8 +37399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="G166" sqref="G166"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -41136,7 +41244,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:12" customFormat="1">
+    <row r="161" spans="1:19">
+      <c r="A161" s="1">
+        <v>0</v>
+      </c>
+      <c r="B161" s="1">
+        <v>3</v>
+      </c>
+      <c r="C161" s="1">
+        <v>3</v>
+      </c>
+      <c r="F161" s="1">
+        <v>1</v>
+      </c>
+      <c r="G161" s="1">
+        <v>2</v>
+      </c>
+      <c r="H161" s="1">
+        <v>2</v>
+      </c>
+      <c r="I161" s="1">
+        <v>1</v>
+      </c>
+      <c r="J161" s="1">
+        <v>0</v>
+      </c>
+      <c r="K161" s="1">
+        <v>0</v>
+      </c>
+      <c r="N161" s="1">
+        <v>1</v>
+      </c>
+      <c r="O161" s="1">
+        <v>3</v>
+      </c>
+      <c r="P161" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q161" s="1">
+        <v>5</v>
+      </c>
+      <c r="R161" s="1">
+        <v>5</v>
+      </c>
+      <c r="S161" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" customFormat="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -41150,7 +41305,7 @@
       <c r="K166" s="18"/>
       <c r="L166" s="18"/>
     </row>
-    <row r="167" spans="1:12" customFormat="1">
+    <row r="167" spans="1:19" customFormat="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -41164,7 +41319,7 @@
       <c r="K167" s="18"/>
       <c r="L167" s="18"/>
     </row>
-    <row r="175" spans="1:12" customFormat="1">
+    <row r="175" spans="1:19" customFormat="1">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
       <c r="C175" s="36"/>
@@ -41213,8 +41368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A100:AN162"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="H166" sqref="H166"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44062,14 +44217,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:19">
       <c r="A161" s="10"/>
-      <c r="B161" s="10"/>
+      <c r="B161" s="9">
+        <v>1</v>
+      </c>
       <c r="C161" s="10"/>
+      <c r="D161" s="9">
+        <v>1</v>
+      </c>
       <c r="E161" s="10"/>
       <c r="G161" s="10"/>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161" s="11">
+        <v>3</v>
+      </c>
+      <c r="J161" s="9">
+        <v>1</v>
+      </c>
+      <c r="L161" s="16">
+        <v>0</v>
+      </c>
+      <c r="M161" s="16">
+        <v>2</v>
+      </c>
+      <c r="N161" s="16">
+        <v>4</v>
+      </c>
+      <c r="O161" s="16">
+        <v>8</v>
+      </c>
+      <c r="P161" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q161" s="16">
+        <v>8</v>
+      </c>
+      <c r="S161" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
+      <c r="B162" s="10"/>
       <c r="G162" s="10"/>
     </row>
   </sheetData>
@@ -44084,7 +44272,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44308,7 +44496,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -44399,7 +44587,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -44443,7 +44631,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -44479,7 +44667,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" s="18">
         <v>0</v>
@@ -44499,13 +44687,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
       </c>
       <c r="J9" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K9" s="18">
         <v>12</v>
@@ -44514,13 +44702,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -44554,13 +44742,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -44569,7 +44757,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="18">
         <v>12</v>
@@ -44577,7 +44765,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -44597,10 +44785,10 @@
         <v>13</v>
       </c>
       <c r="I13" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K13" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N13" s="18">
         <v>0</v>
@@ -44610,10 +44798,13 @@
       <c r="F14" s="19">
         <v>29</v>
       </c>
+      <c r="N14" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,12 +407,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -426,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -563,9 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -875,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z72" sqref="Z72"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5594,7 +5585,9 @@
       <c r="O47" s="7">
         <v>3</v>
       </c>
-      <c r="P47" s="7"/>
+      <c r="P47" s="7">
+        <v>0</v>
+      </c>
       <c r="Q47" s="7">
         <v>7</v>
       </c>
@@ -5973,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="7">
         <v>4</v>
@@ -6267,7 +6260,7 @@
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L54" s="7">
         <v>13</v>
@@ -6336,7 +6329,7 @@
     </row>
     <row r="55" spans="1:33" s="27" customFormat="1">
       <c r="A55" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" s="7">
         <v>0</v>
@@ -6396,7 +6389,7 @@
         <v>3</v>
       </c>
       <c r="W55" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X55" s="7">
         <v>17</v>
@@ -6416,7 +6409,9 @@
       <c r="AC55" s="7">
         <v>7</v>
       </c>
-      <c r="AD55" s="7"/>
+      <c r="AD55" s="7">
+        <v>0</v>
+      </c>
       <c r="AE55" s="7">
         <v>11</v>
       </c>
@@ -6480,7 +6475,9 @@
       <c r="T56" s="7">
         <v>8</v>
       </c>
-      <c r="U56" s="7"/>
+      <c r="U56" s="7">
+        <v>0</v>
+      </c>
       <c r="V56" s="7">
         <v>5</v>
       </c>
@@ -6505,7 +6502,7 @@
       </c>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF56" s="7">
         <v>2</v>
@@ -6535,7 +6532,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="7">
         <v>3</v>
@@ -6558,13 +6555,13 @@
         <v>0</v>
       </c>
       <c r="R57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" s="7">
         <v>2</v>
       </c>
       <c r="T57" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U57" s="7"/>
       <c r="V57" s="7">
@@ -6595,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="AG57" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:33" s="3" customFormat="1">
@@ -6604,7 +6601,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" s="7">
         <v>0</v>
@@ -6620,7 +6617,7 @@
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J58" s="25"/>
       <c r="K58" s="7"/>
@@ -6698,6 +6695,9 @@
       <c r="M59" s="7">
         <v>4</v>
       </c>
+      <c r="N59" s="7">
+        <v>0</v>
+      </c>
       <c r="O59" s="7">
         <v>7</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="Y59" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z59" s="7">
         <v>2</v>
@@ -6781,8 +6781,11 @@
       <c r="AB60" s="7">
         <v>16</v>
       </c>
+      <c r="AC60" s="7">
+        <v>0</v>
+      </c>
       <c r="AF60" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG60" s="3"/>
     </row>
@@ -6824,7 +6827,7 @@
       </c>
       <c r="R61" s="7"/>
       <c r="S61" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
@@ -6840,7 +6843,7 @@
         <v>8</v>
       </c>
       <c r="AA61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB61" s="7">
         <v>12</v>
@@ -6853,7 +6856,7 @@
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
@@ -6866,14 +6869,14 @@
         <v>4</v>
       </c>
       <c r="G62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -6921,7 +6924,7 @@
         <v>7</v>
       </c>
       <c r="F63" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="4"/>
@@ -6980,7 +6983,7 @@
       </c>
       <c r="N64" s="4"/>
       <c r="O64" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P64" s="4"/>
       <c r="Q64" s="4">
@@ -6995,7 +6998,7 @@
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4">
@@ -7042,7 +7045,7 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB65" s="7">
         <v>3</v>
@@ -7077,14 +7080,14 @@
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AB66" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7130,19 +7133,21 @@
       <c r="D68" s="3">
         <v>10</v>
       </c>
-      <c r="E68" s="4"/>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
       <c r="F68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="K68" s="3"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="Q68" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
@@ -7248,7 +7253,7 @@
     </row>
     <row r="72" spans="1:33">
       <c r="D72" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -7839,10 +7844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT971"/>
+  <dimension ref="A1:AT970"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K173" sqref="K173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -19282,7 +19287,7 @@
         <v>6</v>
       </c>
       <c r="P144" s="22"/>
-      <c r="Q144" s="20">
+      <c r="Q144" s="19">
         <v>17</v>
       </c>
       <c r="R144" s="19">
@@ -19316,7 +19321,9 @@
       <c r="AB144" s="19">
         <v>11</v>
       </c>
-      <c r="AC144" s="20"/>
+      <c r="AC144" s="19">
+        <v>17</v>
+      </c>
       <c r="AD144" s="20"/>
       <c r="AF144" s="40"/>
       <c r="AH144" s="21">
@@ -19584,7 +19591,7 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R147" s="19">
         <v>2</v>
@@ -19692,7 +19699,7 @@
       <c r="R148" s="19">
         <v>4</v>
       </c>
-      <c r="S148" s="64">
+      <c r="S148" s="19">
         <v>12</v>
       </c>
       <c r="T148" s="19">
@@ -19903,7 +19910,7 @@
         <v>7</v>
       </c>
       <c r="U150" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V150" s="19">
         <v>1</v>
@@ -20101,7 +20108,7 @@
       <c r="S152" s="19">
         <v>1</v>
       </c>
-      <c r="T152" s="20">
+      <c r="T152" s="19">
         <v>9</v>
       </c>
       <c r="U152" s="19">
@@ -20126,7 +20133,9 @@
       <c r="AB152" s="19">
         <v>4</v>
       </c>
-      <c r="AC152" s="20"/>
+      <c r="AC152" s="19">
+        <v>9</v>
+      </c>
       <c r="AD152" s="20"/>
       <c r="AF152" s="40"/>
       <c r="AH152" s="21">
@@ -20189,14 +20198,14 @@
         <v>7</v>
       </c>
       <c r="P153" s="22"/>
-      <c r="Q153" s="64">
+      <c r="Q153" s="19">
         <v>7</v>
       </c>
       <c r="R153" s="19">
         <v>0</v>
       </c>
       <c r="S153" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T153" s="19">
         <v>5</v>
@@ -20295,7 +20304,7 @@
       <c r="R154" s="19">
         <v>2</v>
       </c>
-      <c r="S154" s="64">
+      <c r="S154" s="19">
         <v>6</v>
       </c>
       <c r="T154" s="19">
@@ -20395,18 +20404,18 @@
         <v>4</v>
       </c>
       <c r="R155" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S155" s="19">
         <v>3</v>
       </c>
       <c r="T155" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U155" s="19">
         <v>3</v>
       </c>
-      <c r="V155" s="20">
+      <c r="V155" s="19">
         <v>6</v>
       </c>
       <c r="W155" s="20"/>
@@ -20419,7 +20428,9 @@
       <c r="Z155" s="19">
         <v>4</v>
       </c>
-      <c r="AA155" s="20"/>
+      <c r="AA155" s="19">
+        <v>6</v>
+      </c>
       <c r="AB155" s="20"/>
       <c r="AC155" s="20"/>
       <c r="AD155" s="20"/>
@@ -20497,7 +20508,7 @@
         <v>2</v>
       </c>
       <c r="T156" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U156" s="19">
         <v>2</v>
@@ -20591,18 +20602,18 @@
       </c>
       <c r="P157" s="22"/>
       <c r="Q157" s="20">
-        <v>4</v>
-      </c>
-      <c r="R157" s="64">
+        <v>5</v>
+      </c>
+      <c r="R157" s="19">
         <v>3</v>
       </c>
       <c r="S157" s="20">
-        <v>4</v>
-      </c>
-      <c r="T157" s="64">
-        <v>3</v>
-      </c>
-      <c r="U157" s="20">
+        <v>5</v>
+      </c>
+      <c r="T157" s="19">
+        <v>3</v>
+      </c>
+      <c r="U157" s="19">
         <v>4</v>
       </c>
       <c r="V157" s="19">
@@ -20618,7 +20629,9 @@
       <c r="Z157" s="19">
         <v>3</v>
       </c>
-      <c r="AA157" s="20"/>
+      <c r="AA157" s="19">
+        <v>4</v>
+      </c>
       <c r="AB157" s="20"/>
       <c r="AC157" s="20"/>
       <c r="AD157" s="20"/>
@@ -20690,22 +20703,22 @@
       </c>
       <c r="P158" s="22"/>
       <c r="Q158" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R158" s="22">
         <v>1</v>
       </c>
       <c r="S158" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T158" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U158" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V158" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W158" s="23"/>
       <c r="X158" s="19">
@@ -20779,22 +20792,22 @@
       </c>
       <c r="P159" s="22"/>
       <c r="Q159" s="20">
-        <v>2</v>
-      </c>
-      <c r="R159" s="64">
+        <v>3</v>
+      </c>
+      <c r="R159" s="19">
         <v>1</v>
       </c>
       <c r="S159" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T159" s="19">
         <v>0</v>
       </c>
       <c r="U159" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V159" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W159" s="20"/>
       <c r="X159" s="19">
@@ -20870,25 +20883,27 @@
       </c>
       <c r="P160" s="22"/>
       <c r="Q160" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R160" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S160" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T160" s="20">
-        <v>1</v>
-      </c>
-      <c r="U160" s="20">
+        <v>2</v>
+      </c>
+      <c r="U160" s="19">
         <v>1</v>
       </c>
       <c r="V160" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W160" s="20"/>
-      <c r="X160" s="20"/>
+      <c r="X160" s="19">
+        <v>1</v>
+      </c>
       <c r="Y160" s="20"/>
       <c r="Z160" s="20"/>
       <c r="AA160" s="20"/>
@@ -20896,8 +20911,35 @@
       <c r="AC160" s="20"/>
       <c r="AD160" s="20"/>
       <c r="AF160" s="40"/>
-    </row>
-    <row r="161" spans="1:32" s="21" customFormat="1">
+      <c r="AH160" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI160" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ160" s="21">
+        <v>3</v>
+      </c>
+      <c r="AK160" s="21">
+        <v>4</v>
+      </c>
+      <c r="AL160" s="21">
+        <v>5</v>
+      </c>
+      <c r="AM160" s="21">
+        <v>11</v>
+      </c>
+      <c r="AO160" s="21">
+        <v>3</v>
+      </c>
+      <c r="AP160" s="21">
+        <v>2</v>
+      </c>
+      <c r="AQ160" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:43" s="21" customFormat="1">
       <c r="A161" s="21">
         <v>7</v>
       </c>
@@ -20936,25 +20978,27 @@
       </c>
       <c r="P161" s="22"/>
       <c r="Q161" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R161" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S161" s="20">
-        <v>0</v>
-      </c>
-      <c r="T161" s="20">
+        <v>1</v>
+      </c>
+      <c r="T161" s="19">
         <v>0</v>
       </c>
       <c r="U161" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V161" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W161" s="15"/>
-      <c r="X161" s="20"/>
+      <c r="X161" s="19">
+        <v>0</v>
+      </c>
       <c r="Y161" s="20"/>
       <c r="Z161" s="20"/>
       <c r="AA161" s="20"/>
@@ -20962,60 +21006,134 @@
       <c r="AC161" s="20"/>
       <c r="AD161" s="20"/>
       <c r="AF161" s="40"/>
-    </row>
-    <row r="162" spans="1:32" s="21" customFormat="1">
-      <c r="Q162" s="20"/>
-      <c r="R162" s="20"/>
-      <c r="S162" s="20"/>
-      <c r="T162" s="20"/>
-      <c r="U162" s="20"/>
-      <c r="V162" s="20"/>
-      <c r="W162" s="15"/>
-      <c r="X162" s="15"/>
-      <c r="Y162" s="15"/>
-      <c r="Z162" s="15"/>
-      <c r="AA162" s="15"/>
-      <c r="AB162" s="15"/>
-      <c r="AC162" s="15"/>
-      <c r="AD162" s="15"/>
-      <c r="AF162" s="40"/>
-    </row>
-    <row r="163" spans="1:32">
-      <c r="P163" s="18"/>
-      <c r="Q163" s="20"/>
-      <c r="R163" s="20"/>
-      <c r="S163" s="20"/>
-      <c r="T163" s="20"/>
-      <c r="U163" s="20"/>
-      <c r="V163" s="20"/>
-      <c r="W163" s="15"/>
-      <c r="X163" s="20"/>
-      <c r="Y163" s="20"/>
-      <c r="Z163" s="20"/>
-      <c r="AA163" s="20"/>
-      <c r="AB163" s="20"/>
-      <c r="AC163" s="20"/>
-      <c r="AD163" s="20"/>
-    </row>
-    <row r="164" spans="1:32" s="21" customFormat="1">
+      <c r="AH161" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI161" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ161" s="21">
+        <v>6</v>
+      </c>
+      <c r="AK161" s="21">
+        <v>7</v>
+      </c>
+      <c r="AL161" s="21">
+        <v>12</v>
+      </c>
+      <c r="AO161" s="21">
+        <v>2</v>
+      </c>
+      <c r="AP161" s="21">
+        <v>2</v>
+      </c>
+      <c r="AQ161" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:43" s="21" customFormat="1">
+      <c r="A162" s="21">
+        <v>17</v>
+      </c>
+      <c r="B162" s="21">
+        <v>0</v>
+      </c>
+      <c r="C162" s="21">
+        <v>9</v>
+      </c>
+      <c r="D162" s="21">
+        <v>1</v>
+      </c>
+      <c r="E162" s="21">
+        <v>6</v>
+      </c>
+      <c r="F162" s="21">
+        <v>4</v>
+      </c>
+      <c r="I162" s="21">
+        <v>0</v>
+      </c>
+      <c r="J162" s="21">
+        <v>1</v>
+      </c>
+      <c r="K162" s="21">
+        <v>4</v>
+      </c>
+      <c r="L162" s="21">
+        <v>6</v>
+      </c>
+      <c r="M162" s="21">
+        <v>9</v>
+      </c>
+      <c r="N162" s="21">
+        <v>17</v>
+      </c>
+      <c r="P162" s="22"/>
+      <c r="Q162" s="20">
+        <v>0</v>
+      </c>
+      <c r="R162" s="20">
+        <v>0</v>
+      </c>
+      <c r="S162" s="20">
+        <v>0</v>
+      </c>
+      <c r="T162" s="20">
+        <v>0</v>
+      </c>
+      <c r="U162" s="20">
+        <v>0</v>
+      </c>
+      <c r="V162" s="20">
+        <v>0</v>
+      </c>
+      <c r="W162" s="20"/>
+      <c r="X162" s="20"/>
+      <c r="Y162" s="20"/>
+      <c r="Z162" s="20"/>
+      <c r="AA162" s="20"/>
+      <c r="AB162" s="20"/>
+      <c r="AC162" s="20"/>
+      <c r="AD162" s="20"/>
+      <c r="AF162" s="23"/>
+    </row>
+    <row r="163" spans="1:43" s="21" customFormat="1">
+      <c r="P163" s="22"/>
+      <c r="Q163" s="23"/>
+      <c r="R163" s="23"/>
+      <c r="S163" s="23"/>
+      <c r="T163" s="23"/>
+      <c r="U163" s="23"/>
+      <c r="V163" s="23"/>
+      <c r="W163" s="23"/>
+      <c r="X163" s="40"/>
+      <c r="Y163" s="40"/>
+      <c r="Z163" s="23"/>
+      <c r="AA163" s="23"/>
+      <c r="AB163" s="23"/>
+      <c r="AC163" s="23"/>
+      <c r="AD163" s="23"/>
+      <c r="AF163" s="40"/>
+    </row>
+    <row r="164" spans="1:43" s="21" customFormat="1">
       <c r="P164" s="22"/>
-      <c r="Q164" s="20"/>
-      <c r="R164" s="20"/>
-      <c r="S164" s="20"/>
-      <c r="T164" s="20"/>
-      <c r="U164" s="20"/>
-      <c r="V164" s="20"/>
-      <c r="W164" s="20"/>
-      <c r="X164" s="20"/>
-      <c r="Y164" s="20"/>
-      <c r="Z164" s="20"/>
-      <c r="AA164" s="20"/>
-      <c r="AB164" s="20"/>
-      <c r="AC164" s="20"/>
-      <c r="AD164" s="20"/>
-      <c r="AF164" s="23"/>
-    </row>
-    <row r="165" spans="1:32" s="21" customFormat="1">
+      <c r="Q164" s="23"/>
+      <c r="R164" s="23"/>
+      <c r="S164" s="23"/>
+      <c r="T164" s="23"/>
+      <c r="U164" s="23"/>
+      <c r="V164" s="23"/>
+      <c r="W164" s="23"/>
+      <c r="X164" s="40"/>
+      <c r="Y164" s="40"/>
+      <c r="Z164" s="23"/>
+      <c r="AA164" s="23"/>
+      <c r="AB164" s="23"/>
+      <c r="AC164" s="23"/>
+      <c r="AD164" s="23"/>
+      <c r="AF164" s="40"/>
+    </row>
+    <row r="165" spans="1:43" s="21" customFormat="1">
       <c r="P165" s="22"/>
       <c r="Q165" s="23"/>
       <c r="R165" s="23"/>
@@ -21026,14 +21144,15 @@
       <c r="W165" s="23"/>
       <c r="X165" s="40"/>
       <c r="Y165" s="40"/>
-      <c r="Z165" s="23"/>
-      <c r="AA165" s="23"/>
+      <c r="Z165" s="40"/>
+      <c r="AA165" s="40"/>
       <c r="AB165" s="23"/>
       <c r="AC165" s="23"/>
-      <c r="AD165" s="40"/>
+      <c r="AD165" s="23"/>
       <c r="AF165" s="40"/>
     </row>
-    <row r="166" spans="1:32" s="21" customFormat="1">
+    <row r="166" spans="1:43" s="21" customFormat="1">
+      <c r="P166" s="22"/>
       <c r="Q166" s="23"/>
       <c r="R166" s="23"/>
       <c r="S166" s="23"/>
@@ -21050,41 +21169,43 @@
       <c r="AD166" s="40"/>
       <c r="AF166" s="40"/>
     </row>
-    <row r="167" spans="1:32" s="21" customFormat="1">
-      <c r="Q167" s="23"/>
-      <c r="R167" s="23"/>
-      <c r="S167" s="23"/>
-      <c r="T167" s="23"/>
-      <c r="U167" s="23"/>
-      <c r="V167" s="23"/>
-      <c r="W167" s="23"/>
-      <c r="X167" s="40"/>
-      <c r="Y167" s="40"/>
-      <c r="Z167" s="40"/>
-      <c r="AA167" s="40"/>
-      <c r="AB167" s="40"/>
-      <c r="AC167" s="40"/>
-      <c r="AD167" s="40"/>
+    <row r="167" spans="1:43" s="21" customFormat="1">
+      <c r="P167" s="22"/>
+      <c r="Q167" s="20"/>
+      <c r="R167" s="20"/>
+      <c r="S167" s="20"/>
+      <c r="T167" s="20"/>
+      <c r="U167" s="20"/>
+      <c r="V167" s="20"/>
+      <c r="W167" s="20"/>
+      <c r="X167" s="15"/>
+      <c r="Y167" s="15"/>
+      <c r="Z167" s="15"/>
+      <c r="AA167" s="15"/>
+      <c r="AB167" s="15"/>
+      <c r="AC167" s="15"/>
+      <c r="AD167" s="15"/>
       <c r="AF167" s="40"/>
     </row>
-    <row r="168" spans="1:32" s="21" customFormat="1">
-      <c r="Q168" s="23"/>
-      <c r="R168" s="23"/>
-      <c r="S168" s="23"/>
-      <c r="T168" s="23"/>
-      <c r="U168" s="23"/>
-      <c r="V168" s="23"/>
-      <c r="W168" s="23"/>
-      <c r="X168" s="40"/>
-      <c r="Y168" s="40"/>
-      <c r="Z168" s="23"/>
-      <c r="AA168" s="23"/>
-      <c r="AB168" s="23"/>
-      <c r="AC168" s="23"/>
-      <c r="AD168" s="40"/>
+    <row r="168" spans="1:43" s="21" customFormat="1">
+      <c r="P168" s="22"/>
+      <c r="Q168" s="20"/>
+      <c r="R168" s="20"/>
+      <c r="S168" s="20"/>
+      <c r="T168" s="20"/>
+      <c r="U168" s="20"/>
+      <c r="V168" s="20"/>
+      <c r="W168" s="20"/>
+      <c r="X168" s="15"/>
+      <c r="Y168" s="15"/>
+      <c r="Z168" s="20"/>
+      <c r="AA168" s="20"/>
+      <c r="AB168" s="20"/>
+      <c r="AC168" s="20"/>
+      <c r="AD168" s="15"/>
       <c r="AF168" s="40"/>
     </row>
-    <row r="169" spans="1:32" s="21" customFormat="1">
+    <row r="169" spans="1:43" s="21" customFormat="1">
       <c r="P169" s="22"/>
       <c r="Q169" s="20"/>
       <c r="R169" s="20"/>
@@ -21093,16 +21214,16 @@
       <c r="U169" s="20"/>
       <c r="V169" s="20"/>
       <c r="W169" s="20"/>
-      <c r="X169" s="15"/>
-      <c r="Y169" s="15"/>
-      <c r="Z169" s="15"/>
-      <c r="AA169" s="15"/>
-      <c r="AB169" s="15"/>
-      <c r="AC169" s="15"/>
-      <c r="AD169" s="15"/>
+      <c r="X169" s="20"/>
+      <c r="Y169" s="20"/>
+      <c r="Z169" s="20"/>
+      <c r="AA169" s="20"/>
+      <c r="AB169" s="20"/>
+      <c r="AC169" s="20"/>
+      <c r="AD169" s="20"/>
       <c r="AF169" s="40"/>
     </row>
-    <row r="170" spans="1:32" s="21" customFormat="1">
+    <row r="170" spans="1:43" s="21" customFormat="1">
       <c r="P170" s="22"/>
       <c r="Q170" s="20"/>
       <c r="R170" s="20"/>
@@ -21111,88 +21232,88 @@
       <c r="U170" s="20"/>
       <c r="V170" s="20"/>
       <c r="W170" s="20"/>
-      <c r="X170" s="15"/>
-      <c r="Y170" s="15"/>
+      <c r="X170" s="20"/>
+      <c r="Y170" s="20"/>
       <c r="Z170" s="20"/>
       <c r="AA170" s="20"/>
       <c r="AB170" s="20"/>
       <c r="AC170" s="20"/>
-      <c r="AD170" s="15"/>
+      <c r="AD170" s="20"/>
       <c r="AF170" s="40"/>
     </row>
-    <row r="171" spans="1:32" s="21" customFormat="1">
+    <row r="171" spans="1:43" s="21" customFormat="1">
       <c r="P171" s="22"/>
-      <c r="Q171" s="20"/>
-      <c r="R171" s="20"/>
-      <c r="S171" s="20"/>
-      <c r="T171" s="20"/>
-      <c r="U171" s="20"/>
-      <c r="V171" s="20"/>
-      <c r="W171" s="20"/>
-      <c r="X171" s="20"/>
-      <c r="Y171" s="20"/>
-      <c r="Z171" s="20"/>
-      <c r="AA171" s="20"/>
-      <c r="AB171" s="20"/>
-      <c r="AC171" s="20"/>
-      <c r="AD171" s="20"/>
+      <c r="Q171" s="23"/>
+      <c r="R171" s="23"/>
+      <c r="S171" s="23"/>
+      <c r="T171" s="23"/>
+      <c r="U171" s="23"/>
+      <c r="V171" s="23"/>
+      <c r="W171" s="23"/>
+      <c r="X171" s="23"/>
+      <c r="Y171" s="23"/>
+      <c r="Z171" s="23"/>
+      <c r="AA171" s="23"/>
+      <c r="AB171" s="23"/>
+      <c r="AC171" s="23"/>
+      <c r="AD171" s="23"/>
       <c r="AF171" s="40"/>
     </row>
-    <row r="172" spans="1:32" s="21" customFormat="1">
+    <row r="172" spans="1:43" s="21" customFormat="1">
       <c r="P172" s="22"/>
-      <c r="Q172" s="20"/>
-      <c r="R172" s="20"/>
-      <c r="S172" s="20"/>
-      <c r="T172" s="20"/>
-      <c r="U172" s="20"/>
-      <c r="V172" s="20"/>
-      <c r="W172" s="20"/>
-      <c r="X172" s="20"/>
-      <c r="Y172" s="20"/>
-      <c r="Z172" s="20"/>
-      <c r="AA172" s="20"/>
-      <c r="AB172" s="20"/>
-      <c r="AC172" s="20"/>
-      <c r="AD172" s="20"/>
+      <c r="Q172" s="23"/>
+      <c r="R172" s="23"/>
+      <c r="S172" s="23"/>
+      <c r="T172" s="23"/>
+      <c r="U172" s="23"/>
+      <c r="V172" s="23"/>
+      <c r="W172" s="23"/>
+      <c r="X172" s="23"/>
+      <c r="Y172" s="23"/>
+      <c r="Z172" s="23"/>
+      <c r="AA172" s="23"/>
+      <c r="AB172" s="23"/>
+      <c r="AC172" s="23"/>
+      <c r="AD172" s="23"/>
       <c r="AF172" s="40"/>
     </row>
-    <row r="173" spans="1:32" s="21" customFormat="1">
+    <row r="173" spans="1:43" s="21" customFormat="1">
       <c r="P173" s="22"/>
-      <c r="Q173" s="23"/>
-      <c r="R173" s="23"/>
-      <c r="S173" s="23"/>
-      <c r="T173" s="23"/>
-      <c r="U173" s="23"/>
-      <c r="V173" s="23"/>
-      <c r="W173" s="23"/>
-      <c r="X173" s="23"/>
-      <c r="Y173" s="23"/>
-      <c r="Z173" s="23"/>
-      <c r="AA173" s="23"/>
-      <c r="AB173" s="23"/>
-      <c r="AC173" s="23"/>
-      <c r="AD173" s="23"/>
+      <c r="Q173" s="20"/>
+      <c r="R173" s="20"/>
+      <c r="S173" s="20"/>
+      <c r="T173" s="20"/>
+      <c r="U173" s="20"/>
+      <c r="V173" s="20"/>
+      <c r="W173" s="20"/>
+      <c r="X173" s="20"/>
+      <c r="Y173" s="20"/>
+      <c r="Z173" s="20"/>
+      <c r="AA173" s="20"/>
+      <c r="AB173" s="20"/>
+      <c r="AC173" s="20"/>
+      <c r="AD173" s="20"/>
       <c r="AF173" s="40"/>
     </row>
-    <row r="174" spans="1:32" s="21" customFormat="1">
+    <row r="174" spans="1:43" s="21" customFormat="1">
       <c r="P174" s="22"/>
-      <c r="Q174" s="23"/>
-      <c r="R174" s="23"/>
-      <c r="S174" s="23"/>
-      <c r="T174" s="23"/>
-      <c r="U174" s="23"/>
-      <c r="V174" s="23"/>
-      <c r="W174" s="23"/>
-      <c r="X174" s="23"/>
-      <c r="Y174" s="23"/>
-      <c r="Z174" s="23"/>
-      <c r="AA174" s="23"/>
-      <c r="AB174" s="23"/>
-      <c r="AC174" s="23"/>
-      <c r="AD174" s="23"/>
+      <c r="Q174" s="20"/>
+      <c r="R174" s="20"/>
+      <c r="S174" s="20"/>
+      <c r="T174" s="20"/>
+      <c r="U174" s="20"/>
+      <c r="V174" s="20"/>
+      <c r="W174" s="15"/>
+      <c r="X174" s="15"/>
+      <c r="Y174" s="15"/>
+      <c r="Z174" s="15"/>
+      <c r="AA174" s="15"/>
+      <c r="AB174" s="15"/>
+      <c r="AC174" s="15"/>
+      <c r="AD174" s="15"/>
       <c r="AF174" s="40"/>
     </row>
-    <row r="175" spans="1:32" s="21" customFormat="1">
+    <row r="175" spans="1:43" s="21" customFormat="1">
       <c r="P175" s="22"/>
       <c r="Q175" s="20"/>
       <c r="R175" s="20"/>
@@ -21210,7 +21331,7 @@
       <c r="AD175" s="20"/>
       <c r="AF175" s="40"/>
     </row>
-    <row r="176" spans="1:32" s="21" customFormat="1">
+    <row r="176" spans="1:43" s="21" customFormat="1">
       <c r="P176" s="22"/>
       <c r="Q176" s="20"/>
       <c r="R176" s="20"/>
@@ -21218,14 +21339,14 @@
       <c r="T176" s="20"/>
       <c r="U176" s="20"/>
       <c r="V176" s="20"/>
-      <c r="W176" s="15"/>
-      <c r="X176" s="15"/>
-      <c r="Y176" s="15"/>
-      <c r="Z176" s="15"/>
-      <c r="AA176" s="15"/>
-      <c r="AB176" s="15"/>
-      <c r="AC176" s="15"/>
-      <c r="AD176" s="15"/>
+      <c r="W176" s="20"/>
+      <c r="X176" s="20"/>
+      <c r="Y176" s="20"/>
+      <c r="Z176" s="20"/>
+      <c r="AA176" s="20"/>
+      <c r="AB176" s="20"/>
+      <c r="AC176" s="20"/>
+      <c r="AD176" s="20"/>
       <c r="AF176" s="40"/>
     </row>
     <row r="177" spans="16:32" s="21" customFormat="1">
@@ -21237,17 +21358,16 @@
       <c r="U177" s="20"/>
       <c r="V177" s="20"/>
       <c r="W177" s="20"/>
-      <c r="X177" s="20"/>
-      <c r="Y177" s="20"/>
-      <c r="Z177" s="20"/>
-      <c r="AA177" s="20"/>
-      <c r="AB177" s="20"/>
-      <c r="AC177" s="20"/>
-      <c r="AD177" s="20"/>
+      <c r="X177" s="15"/>
+      <c r="Y177" s="15"/>
+      <c r="Z177" s="15"/>
+      <c r="AA177" s="15"/>
+      <c r="AB177" s="15"/>
+      <c r="AC177" s="15"/>
+      <c r="AD177" s="15"/>
       <c r="AF177" s="40"/>
     </row>
     <row r="178" spans="16:32" s="21" customFormat="1">
-      <c r="P178" s="22"/>
       <c r="Q178" s="20"/>
       <c r="R178" s="20"/>
       <c r="S178" s="20"/>
@@ -21261,7 +21381,7 @@
       <c r="AA178" s="20"/>
       <c r="AB178" s="20"/>
       <c r="AC178" s="20"/>
-      <c r="AD178" s="20"/>
+      <c r="AD178" s="15"/>
       <c r="AF178" s="40"/>
     </row>
     <row r="179" spans="16:32" s="21" customFormat="1">
@@ -21273,16 +21393,17 @@
       <c r="U179" s="20"/>
       <c r="V179" s="20"/>
       <c r="W179" s="20"/>
-      <c r="X179" s="15"/>
-      <c r="Y179" s="15"/>
-      <c r="Z179" s="15"/>
-      <c r="AA179" s="15"/>
-      <c r="AB179" s="15"/>
-      <c r="AC179" s="15"/>
-      <c r="AD179" s="15"/>
+      <c r="X179" s="20"/>
+      <c r="Y179" s="20"/>
+      <c r="Z179" s="20"/>
+      <c r="AA179" s="20"/>
+      <c r="AB179" s="20"/>
+      <c r="AC179" s="20"/>
+      <c r="AD179" s="20"/>
       <c r="AF179" s="40"/>
     </row>
     <row r="180" spans="16:32" s="21" customFormat="1">
+      <c r="P180" s="22"/>
       <c r="Q180" s="20"/>
       <c r="R180" s="20"/>
       <c r="S180" s="20"/>
@@ -21290,31 +21411,31 @@
       <c r="U180" s="20"/>
       <c r="V180" s="20"/>
       <c r="W180" s="20"/>
-      <c r="X180" s="20"/>
-      <c r="Y180" s="20"/>
-      <c r="Z180" s="20"/>
-      <c r="AA180" s="20"/>
-      <c r="AB180" s="20"/>
-      <c r="AC180" s="20"/>
+      <c r="X180" s="15"/>
+      <c r="Y180" s="15"/>
+      <c r="Z180" s="15"/>
+      <c r="AA180" s="15"/>
+      <c r="AB180" s="15"/>
+      <c r="AC180" s="15"/>
       <c r="AD180" s="15"/>
       <c r="AF180" s="40"/>
     </row>
     <row r="181" spans="16:32" s="21" customFormat="1">
       <c r="P181" s="22"/>
-      <c r="Q181" s="20"/>
-      <c r="R181" s="20"/>
-      <c r="S181" s="20"/>
-      <c r="T181" s="20"/>
-      <c r="U181" s="20"/>
-      <c r="V181" s="20"/>
-      <c r="W181" s="20"/>
-      <c r="X181" s="20"/>
-      <c r="Y181" s="20"/>
-      <c r="Z181" s="20"/>
-      <c r="AA181" s="20"/>
-      <c r="AB181" s="20"/>
-      <c r="AC181" s="20"/>
-      <c r="AD181" s="20"/>
+      <c r="Q181" s="23"/>
+      <c r="R181" s="23"/>
+      <c r="S181" s="23"/>
+      <c r="T181" s="23"/>
+      <c r="U181" s="23"/>
+      <c r="V181" s="23"/>
+      <c r="W181" s="23"/>
+      <c r="X181" s="40"/>
+      <c r="Y181" s="40"/>
+      <c r="Z181" s="23"/>
+      <c r="AA181" s="23"/>
+      <c r="AB181" s="23"/>
+      <c r="AC181" s="23"/>
+      <c r="AD181" s="40"/>
       <c r="AF181" s="40"/>
     </row>
     <row r="182" spans="16:32" s="21" customFormat="1">
@@ -21325,7 +21446,7 @@
       <c r="T182" s="20"/>
       <c r="U182" s="20"/>
       <c r="V182" s="20"/>
-      <c r="W182" s="20"/>
+      <c r="W182" s="15"/>
       <c r="X182" s="15"/>
       <c r="Y182" s="15"/>
       <c r="Z182" s="15"/>
@@ -21343,18 +21464,17 @@
       <c r="T183" s="23"/>
       <c r="U183" s="23"/>
       <c r="V183" s="23"/>
-      <c r="W183" s="23"/>
+      <c r="W183" s="40"/>
       <c r="X183" s="40"/>
       <c r="Y183" s="40"/>
-      <c r="Z183" s="23"/>
-      <c r="AA183" s="23"/>
-      <c r="AB183" s="23"/>
-      <c r="AC183" s="23"/>
+      <c r="Z183" s="40"/>
+      <c r="AA183" s="40"/>
+      <c r="AB183" s="40"/>
+      <c r="AC183" s="40"/>
       <c r="AD183" s="40"/>
       <c r="AF183" s="40"/>
     </row>
     <row r="184" spans="16:32" s="21" customFormat="1">
-      <c r="P184" s="22"/>
       <c r="Q184" s="23"/>
       <c r="R184" s="23"/>
       <c r="S184" s="23"/>
@@ -21378,30 +21498,31 @@
       <c r="T185" s="23"/>
       <c r="U185" s="23"/>
       <c r="V185" s="23"/>
-      <c r="W185" s="40"/>
+      <c r="W185" s="23"/>
       <c r="X185" s="40"/>
       <c r="Y185" s="40"/>
-      <c r="Z185" s="40"/>
-      <c r="AA185" s="40"/>
-      <c r="AB185" s="40"/>
-      <c r="AC185" s="40"/>
+      <c r="Z185" s="23"/>
+      <c r="AA185" s="23"/>
+      <c r="AB185" s="23"/>
+      <c r="AC185" s="23"/>
       <c r="AD185" s="40"/>
       <c r="AF185" s="40"/>
     </row>
     <row r="186" spans="16:32" s="21" customFormat="1">
+      <c r="P186" s="22"/>
       <c r="Q186" s="23"/>
       <c r="R186" s="23"/>
       <c r="S186" s="23"/>
       <c r="T186" s="23"/>
       <c r="U186" s="23"/>
       <c r="V186" s="23"/>
-      <c r="W186" s="23"/>
+      <c r="W186" s="40"/>
       <c r="X186" s="40"/>
       <c r="Y186" s="40"/>
-      <c r="Z186" s="23"/>
-      <c r="AA186" s="23"/>
-      <c r="AB186" s="23"/>
-      <c r="AC186" s="23"/>
+      <c r="Z186" s="40"/>
+      <c r="AA186" s="40"/>
+      <c r="AB186" s="40"/>
+      <c r="AC186" s="40"/>
       <c r="AD186" s="40"/>
       <c r="AF186" s="40"/>
     </row>
@@ -21442,7 +21563,6 @@
       <c r="AF188" s="40"/>
     </row>
     <row r="189" spans="16:32" s="21" customFormat="1">
-      <c r="P189" s="22"/>
       <c r="Q189" s="23"/>
       <c r="R189" s="23"/>
       <c r="S189" s="23"/>
@@ -21483,13 +21603,13 @@
       <c r="T191" s="23"/>
       <c r="U191" s="23"/>
       <c r="V191" s="23"/>
-      <c r="W191" s="40"/>
+      <c r="W191" s="23"/>
       <c r="X191" s="40"/>
       <c r="Y191" s="40"/>
-      <c r="Z191" s="40"/>
-      <c r="AA191" s="40"/>
-      <c r="AB191" s="40"/>
-      <c r="AC191" s="40"/>
+      <c r="Z191" s="23"/>
+      <c r="AA191" s="23"/>
+      <c r="AB191" s="23"/>
+      <c r="AC191" s="23"/>
       <c r="AD191" s="40"/>
       <c r="AF191" s="40"/>
     </row>
@@ -21503,14 +21623,15 @@
       <c r="W192" s="23"/>
       <c r="X192" s="40"/>
       <c r="Y192" s="40"/>
-      <c r="Z192" s="23"/>
-      <c r="AA192" s="23"/>
-      <c r="AB192" s="23"/>
-      <c r="AC192" s="23"/>
+      <c r="Z192" s="40"/>
+      <c r="AA192" s="40"/>
+      <c r="AB192" s="40"/>
+      <c r="AC192" s="40"/>
       <c r="AD192" s="40"/>
       <c r="AF192" s="40"/>
     </row>
     <row r="193" spans="16:32" s="21" customFormat="1">
+      <c r="P193" s="22"/>
       <c r="Q193" s="23"/>
       <c r="R193" s="23"/>
       <c r="S193" s="23"/>
@@ -21520,15 +21641,14 @@
       <c r="W193" s="23"/>
       <c r="X193" s="40"/>
       <c r="Y193" s="40"/>
-      <c r="Z193" s="40"/>
-      <c r="AA193" s="40"/>
-      <c r="AB193" s="40"/>
-      <c r="AC193" s="40"/>
+      <c r="Z193" s="23"/>
+      <c r="AA193" s="23"/>
+      <c r="AB193" s="23"/>
+      <c r="AC193" s="23"/>
       <c r="AD193" s="40"/>
       <c r="AF193" s="40"/>
     </row>
     <row r="194" spans="16:32" s="21" customFormat="1">
-      <c r="P194" s="22"/>
       <c r="Q194" s="23"/>
       <c r="R194" s="23"/>
       <c r="S194" s="23"/>
@@ -21546,6 +21666,7 @@
       <c r="AF194" s="40"/>
     </row>
     <row r="195" spans="16:32" s="21" customFormat="1">
+      <c r="P195" s="22"/>
       <c r="Q195" s="23"/>
       <c r="R195" s="23"/>
       <c r="S195" s="23"/>
@@ -21555,10 +21676,10 @@
       <c r="W195" s="23"/>
       <c r="X195" s="40"/>
       <c r="Y195" s="40"/>
-      <c r="Z195" s="23"/>
-      <c r="AA195" s="23"/>
-      <c r="AB195" s="23"/>
-      <c r="AC195" s="23"/>
+      <c r="Z195" s="40"/>
+      <c r="AA195" s="40"/>
+      <c r="AB195" s="40"/>
+      <c r="AC195" s="40"/>
       <c r="AD195" s="40"/>
       <c r="AF195" s="40"/>
     </row>
@@ -21573,10 +21694,10 @@
       <c r="W196" s="23"/>
       <c r="X196" s="40"/>
       <c r="Y196" s="40"/>
-      <c r="Z196" s="40"/>
-      <c r="AA196" s="40"/>
-      <c r="AB196" s="40"/>
-      <c r="AC196" s="40"/>
+      <c r="Z196" s="23"/>
+      <c r="AA196" s="23"/>
+      <c r="AB196" s="23"/>
+      <c r="AC196" s="23"/>
       <c r="AD196" s="40"/>
       <c r="AF196" s="40"/>
     </row>
@@ -21591,10 +21712,10 @@
       <c r="W197" s="23"/>
       <c r="X197" s="40"/>
       <c r="Y197" s="40"/>
-      <c r="Z197" s="23"/>
-      <c r="AA197" s="23"/>
-      <c r="AB197" s="23"/>
-      <c r="AC197" s="23"/>
+      <c r="Z197" s="40"/>
+      <c r="AA197" s="40"/>
+      <c r="AB197" s="40"/>
+      <c r="AC197" s="40"/>
       <c r="AD197" s="40"/>
       <c r="AF197" s="40"/>
     </row>
@@ -21609,10 +21730,10 @@
       <c r="W198" s="23"/>
       <c r="X198" s="40"/>
       <c r="Y198" s="40"/>
-      <c r="Z198" s="40"/>
-      <c r="AA198" s="40"/>
-      <c r="AB198" s="40"/>
-      <c r="AC198" s="40"/>
+      <c r="Z198" s="23"/>
+      <c r="AA198" s="23"/>
+      <c r="AB198" s="23"/>
+      <c r="AC198" s="23"/>
       <c r="AD198" s="40"/>
       <c r="AF198" s="40"/>
     </row>
@@ -21624,18 +21745,17 @@
       <c r="T199" s="23"/>
       <c r="U199" s="23"/>
       <c r="V199" s="23"/>
-      <c r="W199" s="23"/>
+      <c r="W199" s="40"/>
       <c r="X199" s="40"/>
       <c r="Y199" s="40"/>
-      <c r="Z199" s="23"/>
-      <c r="AA199" s="23"/>
-      <c r="AB199" s="23"/>
-      <c r="AC199" s="23"/>
+      <c r="Z199" s="40"/>
+      <c r="AA199" s="40"/>
+      <c r="AB199" s="40"/>
+      <c r="AC199" s="40"/>
       <c r="AD199" s="40"/>
       <c r="AF199" s="40"/>
     </row>
     <row r="200" spans="16:32" s="21" customFormat="1">
-      <c r="P200" s="22"/>
       <c r="Q200" s="23"/>
       <c r="R200" s="23"/>
       <c r="S200" s="23"/>
@@ -21653,6 +21773,7 @@
       <c r="AF200" s="40"/>
     </row>
     <row r="201" spans="16:32" s="21" customFormat="1">
+      <c r="P201" s="22"/>
       <c r="Q201" s="23"/>
       <c r="R201" s="23"/>
       <c r="S201" s="23"/>
@@ -21670,7 +21791,6 @@
       <c r="AF201" s="40"/>
     </row>
     <row r="202" spans="16:32" s="21" customFormat="1">
-      <c r="P202" s="22"/>
       <c r="Q202" s="23"/>
       <c r="R202" s="23"/>
       <c r="S202" s="23"/>
@@ -21694,52 +21814,53 @@
       <c r="T203" s="23"/>
       <c r="U203" s="23"/>
       <c r="V203" s="23"/>
-      <c r="W203" s="40"/>
+      <c r="W203" s="23"/>
       <c r="X203" s="40"/>
       <c r="Y203" s="40"/>
-      <c r="Z203" s="40"/>
-      <c r="AA203" s="40"/>
-      <c r="AB203" s="40"/>
-      <c r="AC203" s="40"/>
+      <c r="Z203" s="23"/>
+      <c r="AA203" s="23"/>
+      <c r="AB203" s="23"/>
+      <c r="AC203" s="23"/>
       <c r="AD203" s="40"/>
       <c r="AF203" s="40"/>
     </row>
     <row r="204" spans="16:32" s="21" customFormat="1">
+      <c r="P204" s="22"/>
       <c r="Q204" s="23"/>
       <c r="R204" s="23"/>
       <c r="S204" s="23"/>
       <c r="T204" s="23"/>
       <c r="U204" s="23"/>
       <c r="V204" s="23"/>
-      <c r="W204" s="23"/>
+      <c r="W204" s="40"/>
       <c r="X204" s="40"/>
       <c r="Y204" s="40"/>
-      <c r="Z204" s="23"/>
-      <c r="AA204" s="23"/>
-      <c r="AB204" s="23"/>
-      <c r="AC204" s="23"/>
+      <c r="Z204" s="40"/>
+      <c r="AA204" s="40"/>
+      <c r="AB204" s="40"/>
+      <c r="AC204" s="40"/>
       <c r="AD204" s="40"/>
       <c r="AF204" s="40"/>
     </row>
     <row r="205" spans="16:32" s="21" customFormat="1">
-      <c r="P205" s="22"/>
       <c r="Q205" s="23"/>
       <c r="R205" s="23"/>
       <c r="S205" s="23"/>
       <c r="T205" s="23"/>
       <c r="U205" s="23"/>
       <c r="V205" s="23"/>
-      <c r="W205" s="40"/>
+      <c r="W205" s="23"/>
       <c r="X205" s="40"/>
       <c r="Y205" s="40"/>
-      <c r="Z205" s="40"/>
-      <c r="AA205" s="40"/>
-      <c r="AB205" s="40"/>
-      <c r="AC205" s="40"/>
+      <c r="Z205" s="23"/>
+      <c r="AA205" s="23"/>
+      <c r="AB205" s="23"/>
+      <c r="AC205" s="23"/>
       <c r="AD205" s="40"/>
       <c r="AF205" s="40"/>
     </row>
     <row r="206" spans="16:32" s="21" customFormat="1">
+      <c r="P206" s="22"/>
       <c r="Q206" s="23"/>
       <c r="R206" s="23"/>
       <c r="S206" s="23"/>
@@ -21749,10 +21870,10 @@
       <c r="W206" s="23"/>
       <c r="X206" s="40"/>
       <c r="Y206" s="40"/>
-      <c r="Z206" s="23"/>
-      <c r="AA206" s="23"/>
-      <c r="AB206" s="23"/>
-      <c r="AC206" s="23"/>
+      <c r="Z206" s="40"/>
+      <c r="AA206" s="40"/>
+      <c r="AB206" s="40"/>
+      <c r="AC206" s="40"/>
       <c r="AD206" s="40"/>
       <c r="AF206" s="40"/>
     </row>
@@ -21764,7 +21885,7 @@
       <c r="T207" s="23"/>
       <c r="U207" s="23"/>
       <c r="V207" s="23"/>
-      <c r="W207" s="23"/>
+      <c r="W207" s="40"/>
       <c r="X207" s="40"/>
       <c r="Y207" s="40"/>
       <c r="Z207" s="40"/>
@@ -21793,7 +21914,6 @@
       <c r="AF208" s="40"/>
     </row>
     <row r="209" spans="16:32" s="21" customFormat="1">
-      <c r="P209" s="22"/>
       <c r="Q209" s="23"/>
       <c r="R209" s="23"/>
       <c r="S209" s="23"/>
@@ -21817,40 +21937,41 @@
       <c r="T210" s="23"/>
       <c r="U210" s="23"/>
       <c r="V210" s="23"/>
-      <c r="W210" s="40"/>
+      <c r="W210" s="23"/>
       <c r="X210" s="40"/>
       <c r="Y210" s="40"/>
-      <c r="Z210" s="40"/>
-      <c r="AA210" s="40"/>
-      <c r="AB210" s="40"/>
-      <c r="AC210" s="40"/>
+      <c r="Z210" s="23"/>
+      <c r="AA210" s="23"/>
+      <c r="AB210" s="23"/>
+      <c r="AC210" s="23"/>
       <c r="AD210" s="40"/>
       <c r="AF210" s="40"/>
     </row>
-    <row r="211" spans="16:32" s="21" customFormat="1">
-      <c r="Q211" s="23"/>
-      <c r="R211" s="23"/>
-      <c r="S211" s="23"/>
-      <c r="T211" s="23"/>
-      <c r="U211" s="23"/>
-      <c r="V211" s="23"/>
-      <c r="W211" s="23"/>
+    <row r="211" spans="16:32">
+      <c r="Q211" s="40"/>
+      <c r="R211" s="40"/>
+      <c r="S211" s="40"/>
+      <c r="T211" s="40"/>
+      <c r="U211" s="40"/>
+      <c r="V211" s="40"/>
+      <c r="W211" s="40"/>
       <c r="X211" s="40"/>
       <c r="Y211" s="40"/>
-      <c r="Z211" s="23"/>
-      <c r="AA211" s="23"/>
-      <c r="AB211" s="23"/>
-      <c r="AC211" s="23"/>
+      <c r="Z211" s="40"/>
+      <c r="AA211" s="40"/>
+      <c r="AB211" s="40"/>
+      <c r="AC211" s="40"/>
       <c r="AD211" s="40"/>
       <c r="AF211" s="40"/>
     </row>
-    <row r="212" spans="16:32">
-      <c r="Q212" s="40"/>
-      <c r="R212" s="40"/>
-      <c r="S212" s="40"/>
-      <c r="T212" s="40"/>
-      <c r="U212" s="40"/>
-      <c r="V212" s="40"/>
+    <row r="212" spans="16:32" s="21" customFormat="1">
+      <c r="P212" s="22"/>
+      <c r="Q212" s="23"/>
+      <c r="R212" s="23"/>
+      <c r="S212" s="23"/>
+      <c r="T212" s="23"/>
+      <c r="U212" s="23"/>
+      <c r="V212" s="23"/>
       <c r="W212" s="40"/>
       <c r="X212" s="40"/>
       <c r="Y212" s="40"/>
@@ -21862,20 +21983,19 @@
       <c r="AF212" s="40"/>
     </row>
     <row r="213" spans="16:32" s="21" customFormat="1">
-      <c r="P213" s="22"/>
       <c r="Q213" s="23"/>
       <c r="R213" s="23"/>
       <c r="S213" s="23"/>
       <c r="T213" s="23"/>
       <c r="U213" s="23"/>
       <c r="V213" s="23"/>
-      <c r="W213" s="40"/>
+      <c r="W213" s="23"/>
       <c r="X213" s="40"/>
       <c r="Y213" s="40"/>
-      <c r="Z213" s="40"/>
-      <c r="AA213" s="40"/>
-      <c r="AB213" s="40"/>
-      <c r="AC213" s="40"/>
+      <c r="Z213" s="23"/>
+      <c r="AA213" s="23"/>
+      <c r="AB213" s="23"/>
+      <c r="AC213" s="23"/>
       <c r="AD213" s="40"/>
       <c r="AF213" s="40"/>
     </row>
@@ -21889,10 +22009,10 @@
       <c r="W214" s="23"/>
       <c r="X214" s="40"/>
       <c r="Y214" s="40"/>
-      <c r="Z214" s="23"/>
-      <c r="AA214" s="23"/>
-      <c r="AB214" s="23"/>
-      <c r="AC214" s="23"/>
+      <c r="Z214" s="40"/>
+      <c r="AA214" s="40"/>
+      <c r="AB214" s="40"/>
+      <c r="AC214" s="40"/>
       <c r="AD214" s="40"/>
       <c r="AF214" s="40"/>
     </row>
@@ -21903,7 +22023,7 @@
       <c r="T215" s="23"/>
       <c r="U215" s="23"/>
       <c r="V215" s="23"/>
-      <c r="W215" s="23"/>
+      <c r="W215" s="40"/>
       <c r="X215" s="40"/>
       <c r="Y215" s="40"/>
       <c r="Z215" s="40"/>
@@ -21920,17 +22040,18 @@
       <c r="T216" s="23"/>
       <c r="U216" s="23"/>
       <c r="V216" s="23"/>
-      <c r="W216" s="40"/>
+      <c r="W216" s="23"/>
       <c r="X216" s="40"/>
       <c r="Y216" s="40"/>
-      <c r="Z216" s="40"/>
-      <c r="AA216" s="40"/>
-      <c r="AB216" s="40"/>
-      <c r="AC216" s="40"/>
+      <c r="Z216" s="23"/>
+      <c r="AA216" s="23"/>
+      <c r="AB216" s="23"/>
+      <c r="AC216" s="23"/>
       <c r="AD216" s="40"/>
       <c r="AF216" s="40"/>
     </row>
     <row r="217" spans="16:32" s="21" customFormat="1">
+      <c r="P217" s="22"/>
       <c r="Q217" s="23"/>
       <c r="R217" s="23"/>
       <c r="S217" s="23"/>
@@ -21940,22 +22061,21 @@
       <c r="W217" s="23"/>
       <c r="X217" s="40"/>
       <c r="Y217" s="40"/>
-      <c r="Z217" s="23"/>
-      <c r="AA217" s="23"/>
-      <c r="AB217" s="23"/>
-      <c r="AC217" s="23"/>
+      <c r="Z217" s="40"/>
+      <c r="AA217" s="40"/>
+      <c r="AB217" s="40"/>
+      <c r="AC217" s="40"/>
       <c r="AD217" s="40"/>
       <c r="AF217" s="40"/>
     </row>
     <row r="218" spans="16:32" s="21" customFormat="1">
-      <c r="P218" s="22"/>
       <c r="Q218" s="23"/>
       <c r="R218" s="23"/>
       <c r="S218" s="23"/>
       <c r="T218" s="23"/>
       <c r="U218" s="23"/>
       <c r="V218" s="23"/>
-      <c r="W218" s="23"/>
+      <c r="W218" s="40"/>
       <c r="X218" s="40"/>
       <c r="Y218" s="40"/>
       <c r="Z218" s="40"/>
@@ -21972,7 +22092,7 @@
       <c r="T219" s="23"/>
       <c r="U219" s="23"/>
       <c r="V219" s="23"/>
-      <c r="W219" s="40"/>
+      <c r="W219" s="23"/>
       <c r="X219" s="40"/>
       <c r="Y219" s="40"/>
       <c r="Z219" s="40"/>
@@ -21992,14 +22112,15 @@
       <c r="W220" s="23"/>
       <c r="X220" s="40"/>
       <c r="Y220" s="40"/>
-      <c r="Z220" s="40"/>
-      <c r="AA220" s="40"/>
-      <c r="AB220" s="40"/>
-      <c r="AC220" s="40"/>
+      <c r="Z220" s="23"/>
+      <c r="AA220" s="23"/>
+      <c r="AB220" s="23"/>
+      <c r="AC220" s="23"/>
       <c r="AD220" s="40"/>
       <c r="AF220" s="40"/>
     </row>
     <row r="221" spans="16:32" s="21" customFormat="1">
+      <c r="P221" s="22"/>
       <c r="Q221" s="23"/>
       <c r="R221" s="23"/>
       <c r="S221" s="23"/>
@@ -22009,10 +22130,10 @@
       <c r="W221" s="23"/>
       <c r="X221" s="40"/>
       <c r="Y221" s="40"/>
-      <c r="Z221" s="23"/>
-      <c r="AA221" s="23"/>
-      <c r="AB221" s="23"/>
-      <c r="AC221" s="23"/>
+      <c r="Z221" s="40"/>
+      <c r="AA221" s="40"/>
+      <c r="AB221" s="40"/>
+      <c r="AC221" s="40"/>
       <c r="AD221" s="40"/>
       <c r="AF221" s="40"/>
     </row>
@@ -22027,10 +22148,10 @@
       <c r="W222" s="23"/>
       <c r="X222" s="40"/>
       <c r="Y222" s="40"/>
-      <c r="Z222" s="40"/>
-      <c r="AA222" s="40"/>
-      <c r="AB222" s="40"/>
-      <c r="AC222" s="40"/>
+      <c r="Z222" s="23"/>
+      <c r="AA222" s="23"/>
+      <c r="AB222" s="23"/>
+      <c r="AC222" s="23"/>
       <c r="AD222" s="40"/>
       <c r="AF222" s="40"/>
     </row>
@@ -22045,10 +22166,10 @@
       <c r="W223" s="23"/>
       <c r="X223" s="40"/>
       <c r="Y223" s="40"/>
-      <c r="Z223" s="23"/>
-      <c r="AA223" s="23"/>
-      <c r="AB223" s="23"/>
-      <c r="AC223" s="23"/>
+      <c r="Z223" s="40"/>
+      <c r="AA223" s="40"/>
+      <c r="AB223" s="40"/>
+      <c r="AC223" s="40"/>
       <c r="AD223" s="40"/>
       <c r="AF223" s="40"/>
     </row>
@@ -22063,10 +22184,10 @@
       <c r="W224" s="23"/>
       <c r="X224" s="40"/>
       <c r="Y224" s="40"/>
-      <c r="Z224" s="40"/>
-      <c r="AA224" s="40"/>
-      <c r="AB224" s="40"/>
-      <c r="AC224" s="40"/>
+      <c r="Z224" s="23"/>
+      <c r="AA224" s="23"/>
+      <c r="AB224" s="23"/>
+      <c r="AC224" s="23"/>
       <c r="AD224" s="40"/>
       <c r="AF224" s="40"/>
     </row>
@@ -22078,18 +22199,17 @@
       <c r="T225" s="23"/>
       <c r="U225" s="23"/>
       <c r="V225" s="23"/>
-      <c r="W225" s="23"/>
+      <c r="W225" s="40"/>
       <c r="X225" s="40"/>
       <c r="Y225" s="40"/>
-      <c r="Z225" s="23"/>
-      <c r="AA225" s="23"/>
-      <c r="AB225" s="23"/>
-      <c r="AC225" s="23"/>
+      <c r="Z225" s="40"/>
+      <c r="AA225" s="40"/>
+      <c r="AB225" s="40"/>
+      <c r="AC225" s="40"/>
       <c r="AD225" s="40"/>
       <c r="AF225" s="40"/>
     </row>
     <row r="226" spans="16:32" s="21" customFormat="1">
-      <c r="P226" s="22"/>
       <c r="Q226" s="23"/>
       <c r="R226" s="23"/>
       <c r="S226" s="23"/>
@@ -22113,30 +22233,31 @@
       <c r="T227" s="23"/>
       <c r="U227" s="23"/>
       <c r="V227" s="23"/>
-      <c r="W227" s="40"/>
+      <c r="W227" s="23"/>
       <c r="X227" s="40"/>
       <c r="Y227" s="40"/>
-      <c r="Z227" s="40"/>
-      <c r="AA227" s="40"/>
-      <c r="AB227" s="40"/>
-      <c r="AC227" s="40"/>
+      <c r="Z227" s="23"/>
+      <c r="AA227" s="23"/>
+      <c r="AB227" s="23"/>
+      <c r="AC227" s="23"/>
       <c r="AD227" s="40"/>
       <c r="AF227" s="40"/>
     </row>
     <row r="228" spans="16:32" s="21" customFormat="1">
+      <c r="P228" s="22"/>
       <c r="Q228" s="23"/>
       <c r="R228" s="23"/>
       <c r="S228" s="23"/>
       <c r="T228" s="23"/>
       <c r="U228" s="23"/>
       <c r="V228" s="23"/>
-      <c r="W228" s="23"/>
+      <c r="W228" s="40"/>
       <c r="X228" s="40"/>
       <c r="Y228" s="40"/>
-      <c r="Z228" s="23"/>
-      <c r="AA228" s="23"/>
-      <c r="AB228" s="23"/>
-      <c r="AC228" s="23"/>
+      <c r="Z228" s="40"/>
+      <c r="AA228" s="40"/>
+      <c r="AB228" s="40"/>
+      <c r="AC228" s="40"/>
       <c r="AD228" s="40"/>
       <c r="AF228" s="40"/>
     </row>
@@ -22159,7 +22280,6 @@
       <c r="AF229" s="40"/>
     </row>
     <row r="230" spans="16:32" s="21" customFormat="1">
-      <c r="P230" s="22"/>
       <c r="Q230" s="23"/>
       <c r="R230" s="23"/>
       <c r="S230" s="23"/>
@@ -22183,48 +22303,48 @@
       <c r="T231" s="23"/>
       <c r="U231" s="23"/>
       <c r="V231" s="23"/>
-      <c r="W231" s="40"/>
+      <c r="W231" s="23"/>
       <c r="X231" s="40"/>
       <c r="Y231" s="40"/>
-      <c r="Z231" s="40"/>
-      <c r="AA231" s="40"/>
-      <c r="AB231" s="40"/>
-      <c r="AC231" s="40"/>
+      <c r="Z231" s="23"/>
+      <c r="AA231" s="23"/>
+      <c r="AB231" s="23"/>
+      <c r="AC231" s="23"/>
       <c r="AD231" s="40"/>
       <c r="AF231" s="40"/>
     </row>
     <row r="232" spans="16:32" s="21" customFormat="1">
+      <c r="P232" s="22"/>
       <c r="Q232" s="23"/>
       <c r="R232" s="23"/>
       <c r="S232" s="23"/>
       <c r="T232" s="23"/>
       <c r="U232" s="23"/>
       <c r="V232" s="23"/>
-      <c r="W232" s="23"/>
+      <c r="W232" s="40"/>
       <c r="X232" s="40"/>
       <c r="Y232" s="40"/>
-      <c r="Z232" s="23"/>
-      <c r="AA232" s="23"/>
-      <c r="AB232" s="23"/>
-      <c r="AC232" s="23"/>
+      <c r="Z232" s="40"/>
+      <c r="AA232" s="40"/>
+      <c r="AB232" s="40"/>
+      <c r="AC232" s="40"/>
       <c r="AD232" s="40"/>
       <c r="AF232" s="40"/>
     </row>
     <row r="233" spans="16:32" s="21" customFormat="1">
-      <c r="P233" s="22"/>
       <c r="Q233" s="23"/>
       <c r="R233" s="23"/>
       <c r="S233" s="23"/>
       <c r="T233" s="23"/>
       <c r="U233" s="23"/>
       <c r="V233" s="23"/>
-      <c r="W233" s="40"/>
+      <c r="W233" s="23"/>
       <c r="X233" s="40"/>
       <c r="Y233" s="40"/>
-      <c r="Z233" s="40"/>
-      <c r="AA233" s="40"/>
-      <c r="AB233" s="40"/>
-      <c r="AC233" s="40"/>
+      <c r="Z233" s="23"/>
+      <c r="AA233" s="23"/>
+      <c r="AB233" s="23"/>
+      <c r="AC233" s="23"/>
       <c r="AD233" s="40"/>
       <c r="AF233" s="40"/>
     </row>
@@ -22238,10 +22358,10 @@
       <c r="W234" s="23"/>
       <c r="X234" s="40"/>
       <c r="Y234" s="40"/>
-      <c r="Z234" s="23"/>
-      <c r="AA234" s="23"/>
-      <c r="AB234" s="23"/>
-      <c r="AC234" s="23"/>
+      <c r="Z234" s="40"/>
+      <c r="AA234" s="40"/>
+      <c r="AB234" s="40"/>
+      <c r="AC234" s="40"/>
       <c r="AD234" s="40"/>
       <c r="AF234" s="40"/>
     </row>
@@ -22252,7 +22372,7 @@
       <c r="T235" s="23"/>
       <c r="U235" s="23"/>
       <c r="V235" s="23"/>
-      <c r="W235" s="23"/>
+      <c r="W235" s="40"/>
       <c r="X235" s="40"/>
       <c r="Y235" s="40"/>
       <c r="Z235" s="40"/>
@@ -22269,35 +22389,35 @@
       <c r="T236" s="23"/>
       <c r="U236" s="23"/>
       <c r="V236" s="23"/>
-      <c r="W236" s="40"/>
+      <c r="W236" s="23"/>
       <c r="X236" s="40"/>
       <c r="Y236" s="40"/>
-      <c r="Z236" s="40"/>
-      <c r="AA236" s="40"/>
-      <c r="AB236" s="40"/>
-      <c r="AC236" s="40"/>
+      <c r="Z236" s="23"/>
+      <c r="AA236" s="23"/>
+      <c r="AB236" s="23"/>
+      <c r="AC236" s="23"/>
       <c r="AD236" s="40"/>
       <c r="AF236" s="40"/>
     </row>
     <row r="237" spans="16:32" s="21" customFormat="1">
+      <c r="P237" s="22"/>
       <c r="Q237" s="23"/>
       <c r="R237" s="23"/>
       <c r="S237" s="23"/>
       <c r="T237" s="23"/>
       <c r="U237" s="23"/>
       <c r="V237" s="23"/>
-      <c r="W237" s="23"/>
+      <c r="W237" s="40"/>
       <c r="X237" s="40"/>
       <c r="Y237" s="40"/>
-      <c r="Z237" s="23"/>
-      <c r="AA237" s="23"/>
-      <c r="AB237" s="23"/>
-      <c r="AC237" s="23"/>
+      <c r="Z237" s="40"/>
+      <c r="AA237" s="40"/>
+      <c r="AB237" s="40"/>
+      <c r="AC237" s="40"/>
       <c r="AD237" s="40"/>
       <c r="AF237" s="40"/>
     </row>
     <row r="238" spans="16:32" s="21" customFormat="1">
-      <c r="P238" s="22"/>
       <c r="Q238" s="23"/>
       <c r="R238" s="23"/>
       <c r="S238" s="23"/>
@@ -22321,7 +22441,7 @@
       <c r="T239" s="23"/>
       <c r="U239" s="23"/>
       <c r="V239" s="23"/>
-      <c r="W239" s="40"/>
+      <c r="W239" s="23"/>
       <c r="X239" s="40"/>
       <c r="Y239" s="40"/>
       <c r="Z239" s="40"/>
@@ -22341,10 +22461,10 @@
       <c r="W240" s="23"/>
       <c r="X240" s="40"/>
       <c r="Y240" s="40"/>
-      <c r="Z240" s="40"/>
-      <c r="AA240" s="40"/>
-      <c r="AB240" s="40"/>
-      <c r="AC240" s="40"/>
+      <c r="Z240" s="23"/>
+      <c r="AA240" s="23"/>
+      <c r="AB240" s="23"/>
+      <c r="AC240" s="23"/>
       <c r="AD240" s="40"/>
       <c r="AF240" s="40"/>
     </row>
@@ -22358,10 +22478,10 @@
       <c r="W241" s="23"/>
       <c r="X241" s="40"/>
       <c r="Y241" s="40"/>
-      <c r="Z241" s="23"/>
-      <c r="AA241" s="23"/>
-      <c r="AB241" s="23"/>
-      <c r="AC241" s="23"/>
+      <c r="Z241" s="40"/>
+      <c r="AA241" s="40"/>
+      <c r="AB241" s="40"/>
+      <c r="AC241" s="40"/>
       <c r="AD241" s="40"/>
       <c r="AF241" s="40"/>
     </row>
@@ -22389,7 +22509,7 @@
       <c r="T243" s="23"/>
       <c r="U243" s="23"/>
       <c r="V243" s="23"/>
-      <c r="W243" s="23"/>
+      <c r="W243" s="40"/>
       <c r="X243" s="40"/>
       <c r="Y243" s="40"/>
       <c r="Z243" s="40"/>
@@ -22406,7 +22526,7 @@
       <c r="T244" s="23"/>
       <c r="U244" s="23"/>
       <c r="V244" s="23"/>
-      <c r="W244" s="40"/>
+      <c r="W244" s="23"/>
       <c r="X244" s="40"/>
       <c r="Y244" s="40"/>
       <c r="Z244" s="40"/>
@@ -22423,7 +22543,7 @@
       <c r="T245" s="23"/>
       <c r="U245" s="23"/>
       <c r="V245" s="23"/>
-      <c r="W245" s="23"/>
+      <c r="W245" s="40"/>
       <c r="X245" s="40"/>
       <c r="Y245" s="40"/>
       <c r="Z245" s="40"/>
@@ -22440,13 +22560,13 @@
       <c r="T246" s="23"/>
       <c r="U246" s="23"/>
       <c r="V246" s="23"/>
-      <c r="W246" s="40"/>
+      <c r="W246" s="23"/>
       <c r="X246" s="40"/>
       <c r="Y246" s="40"/>
-      <c r="Z246" s="40"/>
-      <c r="AA246" s="40"/>
-      <c r="AB246" s="40"/>
-      <c r="AC246" s="40"/>
+      <c r="Z246" s="23"/>
+      <c r="AA246" s="23"/>
+      <c r="AB246" s="23"/>
+      <c r="AC246" s="23"/>
       <c r="AD246" s="40"/>
       <c r="AF246" s="40"/>
     </row>
@@ -22468,24 +22588,24 @@
       <c r="AF247" s="40"/>
     </row>
     <row r="248" spans="16:32" s="21" customFormat="1">
+      <c r="P248" s="22"/>
       <c r="Q248" s="23"/>
       <c r="R248" s="23"/>
       <c r="S248" s="23"/>
       <c r="T248" s="23"/>
       <c r="U248" s="23"/>
       <c r="V248" s="23"/>
-      <c r="W248" s="23"/>
+      <c r="W248" s="40"/>
       <c r="X248" s="40"/>
       <c r="Y248" s="40"/>
-      <c r="Z248" s="23"/>
-      <c r="AA248" s="23"/>
-      <c r="AB248" s="23"/>
-      <c r="AC248" s="23"/>
+      <c r="Z248" s="40"/>
+      <c r="AA248" s="40"/>
+      <c r="AB248" s="40"/>
+      <c r="AC248" s="40"/>
       <c r="AD248" s="40"/>
       <c r="AF248" s="40"/>
     </row>
     <row r="249" spans="16:32" s="21" customFormat="1">
-      <c r="P249" s="22"/>
       <c r="Q249" s="23"/>
       <c r="R249" s="23"/>
       <c r="S249" s="23"/>
@@ -22509,35 +22629,35 @@
       <c r="T250" s="23"/>
       <c r="U250" s="23"/>
       <c r="V250" s="23"/>
-      <c r="W250" s="40"/>
+      <c r="W250" s="23"/>
       <c r="X250" s="40"/>
       <c r="Y250" s="40"/>
-      <c r="Z250" s="40"/>
-      <c r="AA250" s="40"/>
-      <c r="AB250" s="40"/>
-      <c r="AC250" s="40"/>
+      <c r="Z250" s="23"/>
+      <c r="AA250" s="23"/>
+      <c r="AB250" s="23"/>
+      <c r="AC250" s="23"/>
       <c r="AD250" s="40"/>
       <c r="AF250" s="40"/>
     </row>
     <row r="251" spans="16:32" s="21" customFormat="1">
+      <c r="P251" s="22"/>
       <c r="Q251" s="23"/>
       <c r="R251" s="23"/>
       <c r="S251" s="23"/>
       <c r="T251" s="23"/>
       <c r="U251" s="23"/>
       <c r="V251" s="23"/>
-      <c r="W251" s="23"/>
+      <c r="W251" s="40"/>
       <c r="X251" s="40"/>
       <c r="Y251" s="40"/>
-      <c r="Z251" s="23"/>
-      <c r="AA251" s="23"/>
-      <c r="AB251" s="23"/>
-      <c r="AC251" s="23"/>
+      <c r="Z251" s="40"/>
+      <c r="AA251" s="40"/>
+      <c r="AB251" s="40"/>
+      <c r="AC251" s="40"/>
       <c r="AD251" s="40"/>
       <c r="AF251" s="40"/>
     </row>
     <row r="252" spans="16:32" s="21" customFormat="1">
-      <c r="P252" s="22"/>
       <c r="Q252" s="23"/>
       <c r="R252" s="23"/>
       <c r="S252" s="23"/>
@@ -22561,30 +22681,31 @@
       <c r="T253" s="23"/>
       <c r="U253" s="23"/>
       <c r="V253" s="23"/>
-      <c r="W253" s="40"/>
+      <c r="W253" s="23"/>
       <c r="X253" s="40"/>
       <c r="Y253" s="40"/>
-      <c r="Z253" s="40"/>
-      <c r="AA253" s="40"/>
-      <c r="AB253" s="40"/>
-      <c r="AC253" s="40"/>
+      <c r="Z253" s="23"/>
+      <c r="AA253" s="23"/>
+      <c r="AB253" s="23"/>
+      <c r="AC253" s="23"/>
       <c r="AD253" s="40"/>
       <c r="AF253" s="40"/>
     </row>
     <row r="254" spans="16:32" s="21" customFormat="1">
+      <c r="P254" s="22"/>
       <c r="Q254" s="23"/>
       <c r="R254" s="23"/>
       <c r="S254" s="23"/>
       <c r="T254" s="23"/>
       <c r="U254" s="23"/>
       <c r="V254" s="23"/>
-      <c r="W254" s="23"/>
+      <c r="W254" s="40"/>
       <c r="X254" s="40"/>
       <c r="Y254" s="40"/>
-      <c r="Z254" s="23"/>
-      <c r="AA254" s="23"/>
-      <c r="AB254" s="23"/>
-      <c r="AC254" s="23"/>
+      <c r="Z254" s="40"/>
+      <c r="AA254" s="40"/>
+      <c r="AB254" s="40"/>
+      <c r="AC254" s="40"/>
       <c r="AD254" s="40"/>
       <c r="AF254" s="40"/>
     </row>
@@ -22607,7 +22728,6 @@
       <c r="AF255" s="40"/>
     </row>
     <row r="256" spans="16:32" s="21" customFormat="1">
-      <c r="P256" s="22"/>
       <c r="Q256" s="23"/>
       <c r="R256" s="23"/>
       <c r="S256" s="23"/>
@@ -22631,48 +22751,48 @@
       <c r="T257" s="23"/>
       <c r="U257" s="23"/>
       <c r="V257" s="23"/>
-      <c r="W257" s="40"/>
+      <c r="W257" s="23"/>
       <c r="X257" s="40"/>
       <c r="Y257" s="40"/>
-      <c r="Z257" s="40"/>
-      <c r="AA257" s="40"/>
-      <c r="AB257" s="40"/>
-      <c r="AC257" s="40"/>
+      <c r="Z257" s="23"/>
+      <c r="AA257" s="23"/>
+      <c r="AB257" s="23"/>
+      <c r="AC257" s="23"/>
       <c r="AD257" s="40"/>
       <c r="AF257" s="40"/>
     </row>
     <row r="258" spans="16:32" s="21" customFormat="1">
+      <c r="P258" s="22"/>
       <c r="Q258" s="23"/>
       <c r="R258" s="23"/>
       <c r="S258" s="23"/>
       <c r="T258" s="23"/>
       <c r="U258" s="23"/>
       <c r="V258" s="23"/>
-      <c r="W258" s="23"/>
+      <c r="W258" s="40"/>
       <c r="X258" s="40"/>
       <c r="Y258" s="40"/>
-      <c r="Z258" s="23"/>
-      <c r="AA258" s="23"/>
-      <c r="AB258" s="23"/>
-      <c r="AC258" s="23"/>
+      <c r="Z258" s="40"/>
+      <c r="AA258" s="40"/>
+      <c r="AB258" s="40"/>
+      <c r="AC258" s="40"/>
       <c r="AD258" s="40"/>
       <c r="AF258" s="40"/>
     </row>
     <row r="259" spans="16:32" s="21" customFormat="1">
-      <c r="P259" s="22"/>
       <c r="Q259" s="23"/>
       <c r="R259" s="23"/>
       <c r="S259" s="23"/>
       <c r="T259" s="23"/>
       <c r="U259" s="23"/>
       <c r="V259" s="23"/>
-      <c r="W259" s="40"/>
+      <c r="W259" s="23"/>
       <c r="X259" s="40"/>
       <c r="Y259" s="40"/>
-      <c r="Z259" s="40"/>
-      <c r="AA259" s="40"/>
-      <c r="AB259" s="40"/>
-      <c r="AC259" s="40"/>
+      <c r="Z259" s="23"/>
+      <c r="AA259" s="23"/>
+      <c r="AB259" s="23"/>
+      <c r="AC259" s="23"/>
       <c r="AD259" s="40"/>
       <c r="AF259" s="40"/>
     </row>
@@ -22686,10 +22806,10 @@
       <c r="W260" s="23"/>
       <c r="X260" s="40"/>
       <c r="Y260" s="40"/>
-      <c r="Z260" s="23"/>
-      <c r="AA260" s="23"/>
-      <c r="AB260" s="23"/>
-      <c r="AC260" s="23"/>
+      <c r="Z260" s="40"/>
+      <c r="AA260" s="40"/>
+      <c r="AB260" s="40"/>
+      <c r="AC260" s="40"/>
       <c r="AD260" s="40"/>
       <c r="AF260" s="40"/>
     </row>
@@ -22751,7 +22871,7 @@
       <c r="T264" s="23"/>
       <c r="U264" s="23"/>
       <c r="V264" s="23"/>
-      <c r="W264" s="23"/>
+      <c r="W264" s="40"/>
       <c r="X264" s="40"/>
       <c r="Y264" s="40"/>
       <c r="Z264" s="40"/>
@@ -22768,7 +22888,7 @@
       <c r="T265" s="23"/>
       <c r="U265" s="23"/>
       <c r="V265" s="23"/>
-      <c r="W265" s="40"/>
+      <c r="W265" s="23"/>
       <c r="X265" s="40"/>
       <c r="Y265" s="40"/>
       <c r="Z265" s="40"/>
@@ -22785,7 +22905,7 @@
       <c r="T266" s="23"/>
       <c r="U266" s="23"/>
       <c r="V266" s="23"/>
-      <c r="W266" s="23"/>
+      <c r="W266" s="40"/>
       <c r="X266" s="40"/>
       <c r="Y266" s="40"/>
       <c r="Z266" s="40"/>
@@ -22802,13 +22922,13 @@
       <c r="T267" s="23"/>
       <c r="U267" s="23"/>
       <c r="V267" s="23"/>
-      <c r="W267" s="40"/>
+      <c r="W267" s="23"/>
       <c r="X267" s="40"/>
       <c r="Y267" s="40"/>
-      <c r="Z267" s="40"/>
-      <c r="AA267" s="40"/>
-      <c r="AB267" s="40"/>
-      <c r="AC267" s="40"/>
+      <c r="Z267" s="23"/>
+      <c r="AA267" s="23"/>
+      <c r="AB267" s="23"/>
+      <c r="AC267" s="23"/>
       <c r="AD267" s="40"/>
       <c r="AF267" s="40"/>
     </row>
@@ -22822,10 +22942,10 @@
       <c r="W268" s="23"/>
       <c r="X268" s="40"/>
       <c r="Y268" s="40"/>
-      <c r="Z268" s="23"/>
-      <c r="AA268" s="23"/>
-      <c r="AB268" s="23"/>
-      <c r="AC268" s="23"/>
+      <c r="Z268" s="40"/>
+      <c r="AA268" s="40"/>
+      <c r="AB268" s="40"/>
+      <c r="AC268" s="40"/>
       <c r="AD268" s="40"/>
       <c r="AF268" s="40"/>
     </row>
@@ -22890,39 +23010,39 @@
       <c r="W272" s="23"/>
       <c r="X272" s="40"/>
       <c r="Y272" s="40"/>
-      <c r="Z272" s="40"/>
-      <c r="AA272" s="40"/>
-      <c r="AB272" s="40"/>
-      <c r="AC272" s="40"/>
+      <c r="Z272" s="23"/>
+      <c r="AA272" s="23"/>
+      <c r="AB272" s="23"/>
+      <c r="AC272" s="23"/>
       <c r="AD272" s="40"/>
       <c r="AF272" s="40"/>
     </row>
     <row r="273" spans="16:32" s="21" customFormat="1">
+      <c r="P273" s="22"/>
       <c r="Q273" s="23"/>
       <c r="R273" s="23"/>
       <c r="S273" s="23"/>
       <c r="T273" s="23"/>
       <c r="U273" s="23"/>
       <c r="V273" s="23"/>
-      <c r="W273" s="23"/>
+      <c r="W273" s="40"/>
       <c r="X273" s="40"/>
       <c r="Y273" s="40"/>
-      <c r="Z273" s="23"/>
-      <c r="AA273" s="23"/>
-      <c r="AB273" s="23"/>
-      <c r="AC273" s="23"/>
+      <c r="Z273" s="40"/>
+      <c r="AA273" s="40"/>
+      <c r="AB273" s="40"/>
+      <c r="AC273" s="40"/>
       <c r="AD273" s="40"/>
       <c r="AF273" s="40"/>
     </row>
     <row r="274" spans="16:32" s="21" customFormat="1">
-      <c r="P274" s="22"/>
       <c r="Q274" s="23"/>
       <c r="R274" s="23"/>
       <c r="S274" s="23"/>
       <c r="T274" s="23"/>
       <c r="U274" s="23"/>
       <c r="V274" s="23"/>
-      <c r="W274" s="40"/>
+      <c r="W274" s="23"/>
       <c r="X274" s="40"/>
       <c r="Y274" s="40"/>
       <c r="Z274" s="40"/>
@@ -22959,32 +23079,32 @@
       <c r="W276" s="23"/>
       <c r="X276" s="40"/>
       <c r="Y276" s="40"/>
-      <c r="Z276" s="40"/>
-      <c r="AA276" s="40"/>
-      <c r="AB276" s="40"/>
-      <c r="AC276" s="40"/>
+      <c r="Z276" s="23"/>
+      <c r="AA276" s="23"/>
+      <c r="AB276" s="23"/>
+      <c r="AC276" s="23"/>
       <c r="AD276" s="40"/>
       <c r="AF276" s="40"/>
     </row>
     <row r="277" spans="16:32" s="21" customFormat="1">
+      <c r="P277" s="22"/>
       <c r="Q277" s="23"/>
       <c r="R277" s="23"/>
       <c r="S277" s="23"/>
       <c r="T277" s="23"/>
       <c r="U277" s="23"/>
       <c r="V277" s="23"/>
-      <c r="W277" s="23"/>
+      <c r="W277" s="40"/>
       <c r="X277" s="40"/>
       <c r="Y277" s="40"/>
-      <c r="Z277" s="23"/>
-      <c r="AA277" s="23"/>
-      <c r="AB277" s="23"/>
-      <c r="AC277" s="23"/>
+      <c r="Z277" s="40"/>
+      <c r="AA277" s="40"/>
+      <c r="AB277" s="40"/>
+      <c r="AC277" s="40"/>
       <c r="AD277" s="40"/>
       <c r="AF277" s="40"/>
     </row>
     <row r="278" spans="16:32" s="21" customFormat="1">
-      <c r="P278" s="22"/>
       <c r="Q278" s="23"/>
       <c r="R278" s="23"/>
       <c r="S278" s="23"/>
@@ -23001,13 +23121,13 @@
       <c r="AD278" s="40"/>
       <c r="AF278" s="40"/>
     </row>
-    <row r="279" spans="16:32" s="21" customFormat="1">
-      <c r="Q279" s="23"/>
-      <c r="R279" s="23"/>
-      <c r="S279" s="23"/>
-      <c r="T279" s="23"/>
-      <c r="U279" s="23"/>
-      <c r="V279" s="23"/>
+    <row r="279" spans="16:32">
+      <c r="Q279" s="40"/>
+      <c r="R279" s="40"/>
+      <c r="S279" s="40"/>
+      <c r="T279" s="40"/>
+      <c r="U279" s="40"/>
+      <c r="V279" s="40"/>
       <c r="W279" s="40"/>
       <c r="X279" s="40"/>
       <c r="Y279" s="40"/>
@@ -23018,13 +23138,13 @@
       <c r="AD279" s="40"/>
       <c r="AF279" s="40"/>
     </row>
-    <row r="280" spans="16:32">
-      <c r="Q280" s="40"/>
-      <c r="R280" s="40"/>
-      <c r="S280" s="40"/>
-      <c r="T280" s="40"/>
-      <c r="U280" s="40"/>
-      <c r="V280" s="40"/>
+    <row r="280" spans="16:32" s="21" customFormat="1">
+      <c r="Q280" s="23"/>
+      <c r="R280" s="23"/>
+      <c r="S280" s="23"/>
+      <c r="T280" s="23"/>
+      <c r="U280" s="23"/>
+      <c r="V280" s="23"/>
       <c r="W280" s="40"/>
       <c r="X280" s="40"/>
       <c r="Y280" s="40"/>
@@ -23042,13 +23162,13 @@
       <c r="T281" s="23"/>
       <c r="U281" s="23"/>
       <c r="V281" s="23"/>
-      <c r="W281" s="40"/>
+      <c r="W281" s="23"/>
       <c r="X281" s="40"/>
       <c r="Y281" s="40"/>
-      <c r="Z281" s="40"/>
-      <c r="AA281" s="40"/>
-      <c r="AB281" s="40"/>
-      <c r="AC281" s="40"/>
+      <c r="Z281" s="23"/>
+      <c r="AA281" s="23"/>
+      <c r="AB281" s="23"/>
+      <c r="AC281" s="23"/>
       <c r="AD281" s="40"/>
       <c r="AF281" s="40"/>
     </row>
@@ -23062,21 +23182,22 @@
       <c r="W282" s="23"/>
       <c r="X282" s="40"/>
       <c r="Y282" s="40"/>
-      <c r="Z282" s="23"/>
-      <c r="AA282" s="23"/>
-      <c r="AB282" s="23"/>
-      <c r="AC282" s="23"/>
+      <c r="Z282" s="40"/>
+      <c r="AA282" s="40"/>
+      <c r="AB282" s="40"/>
+      <c r="AC282" s="40"/>
       <c r="AD282" s="40"/>
       <c r="AF282" s="40"/>
     </row>
     <row r="283" spans="16:32" s="21" customFormat="1">
+      <c r="P283" s="22"/>
       <c r="Q283" s="23"/>
       <c r="R283" s="23"/>
       <c r="S283" s="23"/>
       <c r="T283" s="23"/>
       <c r="U283" s="23"/>
       <c r="V283" s="23"/>
-      <c r="W283" s="23"/>
+      <c r="W283" s="40"/>
       <c r="X283" s="40"/>
       <c r="Y283" s="40"/>
       <c r="Z283" s="40"/>
@@ -23087,20 +23208,19 @@
       <c r="AF283" s="40"/>
     </row>
     <row r="284" spans="16:32" s="21" customFormat="1">
-      <c r="P284" s="22"/>
       <c r="Q284" s="23"/>
       <c r="R284" s="23"/>
       <c r="S284" s="23"/>
       <c r="T284" s="23"/>
       <c r="U284" s="23"/>
       <c r="V284" s="23"/>
-      <c r="W284" s="40"/>
+      <c r="W284" s="23"/>
       <c r="X284" s="40"/>
       <c r="Y284" s="40"/>
-      <c r="Z284" s="40"/>
-      <c r="AA284" s="40"/>
-      <c r="AB284" s="40"/>
-      <c r="AC284" s="40"/>
+      <c r="Z284" s="23"/>
+      <c r="AA284" s="23"/>
+      <c r="AB284" s="23"/>
+      <c r="AC284" s="23"/>
       <c r="AD284" s="40"/>
       <c r="AF284" s="40"/>
     </row>
@@ -23122,24 +23242,24 @@
       <c r="AF285" s="40"/>
     </row>
     <row r="286" spans="16:32" s="21" customFormat="1">
+      <c r="P286" s="22"/>
       <c r="Q286" s="23"/>
       <c r="R286" s="23"/>
       <c r="S286" s="23"/>
       <c r="T286" s="23"/>
       <c r="U286" s="23"/>
       <c r="V286" s="23"/>
-      <c r="W286" s="23"/>
+      <c r="W286" s="40"/>
       <c r="X286" s="40"/>
       <c r="Y286" s="40"/>
-      <c r="Z286" s="23"/>
-      <c r="AA286" s="23"/>
-      <c r="AB286" s="23"/>
-      <c r="AC286" s="23"/>
+      <c r="Z286" s="40"/>
+      <c r="AA286" s="40"/>
+      <c r="AB286" s="40"/>
+      <c r="AC286" s="40"/>
       <c r="AD286" s="40"/>
       <c r="AF286" s="40"/>
     </row>
     <row r="287" spans="16:32" s="21" customFormat="1">
-      <c r="P287" s="22"/>
       <c r="Q287" s="23"/>
       <c r="R287" s="23"/>
       <c r="S287" s="23"/>
@@ -23180,7 +23300,7 @@
       <c r="T289" s="23"/>
       <c r="U289" s="23"/>
       <c r="V289" s="23"/>
-      <c r="W289" s="40"/>
+      <c r="W289" s="23"/>
       <c r="X289" s="40"/>
       <c r="Y289" s="40"/>
       <c r="Z289" s="40"/>
@@ -23214,7 +23334,7 @@
       <c r="T291" s="23"/>
       <c r="U291" s="23"/>
       <c r="V291" s="23"/>
-      <c r="W291" s="23"/>
+      <c r="W291" s="40"/>
       <c r="X291" s="40"/>
       <c r="Y291" s="40"/>
       <c r="Z291" s="40"/>
@@ -23231,7 +23351,7 @@
       <c r="T292" s="23"/>
       <c r="U292" s="23"/>
       <c r="V292" s="23"/>
-      <c r="W292" s="40"/>
+      <c r="W292" s="23"/>
       <c r="X292" s="40"/>
       <c r="Y292" s="40"/>
       <c r="Z292" s="40"/>
@@ -23248,7 +23368,7 @@
       <c r="T293" s="23"/>
       <c r="U293" s="23"/>
       <c r="V293" s="23"/>
-      <c r="W293" s="23"/>
+      <c r="W293" s="40"/>
       <c r="X293" s="40"/>
       <c r="Y293" s="40"/>
       <c r="Z293" s="40"/>
@@ -23265,35 +23385,35 @@
       <c r="T294" s="23"/>
       <c r="U294" s="23"/>
       <c r="V294" s="23"/>
-      <c r="W294" s="40"/>
+      <c r="W294" s="23"/>
       <c r="X294" s="40"/>
       <c r="Y294" s="40"/>
-      <c r="Z294" s="40"/>
-      <c r="AA294" s="40"/>
-      <c r="AB294" s="40"/>
-      <c r="AC294" s="40"/>
+      <c r="Z294" s="23"/>
+      <c r="AA294" s="23"/>
+      <c r="AB294" s="23"/>
+      <c r="AC294" s="23"/>
       <c r="AD294" s="40"/>
       <c r="AF294" s="40"/>
     </row>
     <row r="295" spans="16:32" s="21" customFormat="1">
+      <c r="P295" s="22"/>
       <c r="Q295" s="23"/>
       <c r="R295" s="23"/>
       <c r="S295" s="23"/>
       <c r="T295" s="23"/>
       <c r="U295" s="23"/>
       <c r="V295" s="23"/>
-      <c r="W295" s="23"/>
+      <c r="W295" s="40"/>
       <c r="X295" s="40"/>
       <c r="Y295" s="40"/>
-      <c r="Z295" s="23"/>
-      <c r="AA295" s="23"/>
-      <c r="AB295" s="23"/>
-      <c r="AC295" s="23"/>
+      <c r="Z295" s="40"/>
+      <c r="AA295" s="40"/>
+      <c r="AB295" s="40"/>
+      <c r="AC295" s="40"/>
       <c r="AD295" s="40"/>
       <c r="AF295" s="40"/>
     </row>
     <row r="296" spans="16:32" s="21" customFormat="1">
-      <c r="P296" s="22"/>
       <c r="Q296" s="23"/>
       <c r="R296" s="23"/>
       <c r="S296" s="23"/>
@@ -23317,13 +23437,13 @@
       <c r="T297" s="23"/>
       <c r="U297" s="23"/>
       <c r="V297" s="23"/>
-      <c r="W297" s="40"/>
+      <c r="W297" s="23"/>
       <c r="X297" s="40"/>
       <c r="Y297" s="40"/>
-      <c r="Z297" s="40"/>
-      <c r="AA297" s="40"/>
-      <c r="AB297" s="40"/>
-      <c r="AC297" s="40"/>
+      <c r="Z297" s="23"/>
+      <c r="AA297" s="23"/>
+      <c r="AB297" s="23"/>
+      <c r="AC297" s="23"/>
       <c r="AD297" s="40"/>
       <c r="AF297" s="40"/>
     </row>
@@ -23337,10 +23457,10 @@
       <c r="W298" s="23"/>
       <c r="X298" s="40"/>
       <c r="Y298" s="40"/>
-      <c r="Z298" s="23"/>
-      <c r="AA298" s="23"/>
-      <c r="AB298" s="23"/>
-      <c r="AC298" s="23"/>
+      <c r="Z298" s="40"/>
+      <c r="AA298" s="40"/>
+      <c r="AB298" s="40"/>
+      <c r="AC298" s="40"/>
       <c r="AD298" s="40"/>
       <c r="AF298" s="40"/>
     </row>
@@ -23351,7 +23471,7 @@
       <c r="T299" s="23"/>
       <c r="U299" s="23"/>
       <c r="V299" s="23"/>
-      <c r="W299" s="23"/>
+      <c r="W299" s="40"/>
       <c r="X299" s="40"/>
       <c r="Y299" s="40"/>
       <c r="Z299" s="40"/>
@@ -23368,7 +23488,7 @@
       <c r="T300" s="23"/>
       <c r="U300" s="23"/>
       <c r="V300" s="23"/>
-      <c r="W300" s="40"/>
+      <c r="W300" s="23"/>
       <c r="X300" s="40"/>
       <c r="Y300" s="40"/>
       <c r="Z300" s="40"/>
@@ -23392,8 +23512,6 @@
       <c r="AA301" s="40"/>
       <c r="AB301" s="40"/>
       <c r="AC301" s="40"/>
-      <c r="AD301" s="40"/>
-      <c r="AF301" s="40"/>
     </row>
     <row r="302" spans="16:32" s="21" customFormat="1">
       <c r="Q302" s="23"/>
@@ -23417,7 +23535,7 @@
       <c r="T303" s="23"/>
       <c r="U303" s="23"/>
       <c r="V303" s="23"/>
-      <c r="W303" s="23"/>
+      <c r="W303" s="40"/>
       <c r="X303" s="40"/>
       <c r="Y303" s="40"/>
       <c r="Z303" s="40"/>
@@ -23432,7 +23550,7 @@
       <c r="T304" s="23"/>
       <c r="U304" s="23"/>
       <c r="V304" s="23"/>
-      <c r="W304" s="40"/>
+      <c r="W304" s="23"/>
       <c r="X304" s="40"/>
       <c r="Y304" s="40"/>
       <c r="Z304" s="40"/>
@@ -23441,13 +23559,14 @@
       <c r="AC304" s="40"/>
     </row>
     <row r="305" spans="16:29" s="21" customFormat="1">
+      <c r="P305" s="22"/>
       <c r="Q305" s="23"/>
       <c r="R305" s="23"/>
       <c r="S305" s="23"/>
       <c r="T305" s="23"/>
       <c r="U305" s="23"/>
       <c r="V305" s="23"/>
-      <c r="W305" s="23"/>
+      <c r="W305" s="40"/>
       <c r="X305" s="40"/>
       <c r="Y305" s="40"/>
       <c r="Z305" s="40"/>
@@ -23456,20 +23575,19 @@
       <c r="AC305" s="40"/>
     </row>
     <row r="306" spans="16:29" s="21" customFormat="1">
-      <c r="P306" s="22"/>
       <c r="Q306" s="23"/>
       <c r="R306" s="23"/>
       <c r="S306" s="23"/>
       <c r="T306" s="23"/>
       <c r="U306" s="23"/>
       <c r="V306" s="23"/>
-      <c r="W306" s="40"/>
+      <c r="W306" s="23"/>
       <c r="X306" s="40"/>
       <c r="Y306" s="40"/>
-      <c r="Z306" s="40"/>
-      <c r="AA306" s="40"/>
-      <c r="AB306" s="40"/>
-      <c r="AC306" s="40"/>
+      <c r="Z306" s="23"/>
+      <c r="AA306" s="23"/>
+      <c r="AB306" s="23"/>
+      <c r="AC306" s="23"/>
     </row>
     <row r="307" spans="16:29" s="21" customFormat="1">
       <c r="Q307" s="23"/>
@@ -23481,10 +23599,10 @@
       <c r="W307" s="23"/>
       <c r="X307" s="40"/>
       <c r="Y307" s="40"/>
-      <c r="Z307" s="23"/>
-      <c r="AA307" s="23"/>
-      <c r="AB307" s="23"/>
-      <c r="AC307" s="23"/>
+      <c r="Z307" s="40"/>
+      <c r="AA307" s="40"/>
+      <c r="AB307" s="40"/>
+      <c r="AC307" s="40"/>
     </row>
     <row r="308" spans="16:29" s="21" customFormat="1">
       <c r="Q308" s="23"/>
@@ -23538,7 +23656,7 @@
       <c r="T311" s="23"/>
       <c r="U311" s="23"/>
       <c r="V311" s="23"/>
-      <c r="W311" s="23"/>
+      <c r="W311" s="40"/>
       <c r="X311" s="40"/>
       <c r="Y311" s="40"/>
       <c r="Z311" s="40"/>
@@ -23553,7 +23671,7 @@
       <c r="T312" s="23"/>
       <c r="U312" s="23"/>
       <c r="V312" s="23"/>
-      <c r="W312" s="40"/>
+      <c r="W312" s="23"/>
       <c r="X312" s="40"/>
       <c r="Y312" s="40"/>
       <c r="Z312" s="40"/>
@@ -23568,7 +23686,7 @@
       <c r="T313" s="23"/>
       <c r="U313" s="23"/>
       <c r="V313" s="23"/>
-      <c r="W313" s="23"/>
+      <c r="W313" s="40"/>
       <c r="X313" s="40"/>
       <c r="Y313" s="40"/>
       <c r="Z313" s="40"/>
@@ -23583,31 +23701,31 @@
       <c r="T314" s="23"/>
       <c r="U314" s="23"/>
       <c r="V314" s="23"/>
-      <c r="W314" s="40"/>
+      <c r="W314" s="23"/>
       <c r="X314" s="40"/>
       <c r="Y314" s="40"/>
-      <c r="Z314" s="40"/>
-      <c r="AA314" s="40"/>
-      <c r="AB314" s="40"/>
-      <c r="AC314" s="40"/>
+      <c r="Z314" s="23"/>
+      <c r="AA314" s="23"/>
+      <c r="AB314" s="23"/>
+      <c r="AC314" s="23"/>
     </row>
     <row r="315" spans="16:29" s="21" customFormat="1">
+      <c r="P315" s="22"/>
       <c r="Q315" s="23"/>
       <c r="R315" s="23"/>
       <c r="S315" s="23"/>
       <c r="T315" s="23"/>
       <c r="U315" s="23"/>
       <c r="V315" s="23"/>
-      <c r="W315" s="23"/>
+      <c r="W315" s="40"/>
       <c r="X315" s="40"/>
       <c r="Y315" s="40"/>
-      <c r="Z315" s="23"/>
-      <c r="AA315" s="23"/>
-      <c r="AB315" s="23"/>
-      <c r="AC315" s="23"/>
+      <c r="Z315" s="40"/>
+      <c r="AA315" s="40"/>
+      <c r="AB315" s="40"/>
+      <c r="AC315" s="40"/>
     </row>
     <row r="316" spans="16:29" s="21" customFormat="1">
-      <c r="P316" s="22"/>
       <c r="Q316" s="23"/>
       <c r="R316" s="23"/>
       <c r="S316" s="23"/>
@@ -23629,13 +23747,13 @@
       <c r="T317" s="23"/>
       <c r="U317" s="23"/>
       <c r="V317" s="23"/>
-      <c r="W317" s="40"/>
+      <c r="W317" s="23"/>
       <c r="X317" s="40"/>
       <c r="Y317" s="40"/>
-      <c r="Z317" s="40"/>
-      <c r="AA317" s="40"/>
-      <c r="AB317" s="40"/>
-      <c r="AC317" s="40"/>
+      <c r="Z317" s="23"/>
+      <c r="AA317" s="23"/>
+      <c r="AB317" s="23"/>
+      <c r="AC317" s="23"/>
     </row>
     <row r="318" spans="16:29" s="21" customFormat="1">
       <c r="Q318" s="23"/>
@@ -23647,10 +23765,10 @@
       <c r="W318" s="23"/>
       <c r="X318" s="40"/>
       <c r="Y318" s="40"/>
-      <c r="Z318" s="23"/>
-      <c r="AA318" s="23"/>
-      <c r="AB318" s="23"/>
-      <c r="AC318" s="23"/>
+      <c r="Z318" s="40"/>
+      <c r="AA318" s="40"/>
+      <c r="AB318" s="40"/>
+      <c r="AC318" s="40"/>
     </row>
     <row r="319" spans="16:29" s="21" customFormat="1">
       <c r="Q319" s="23"/>
@@ -23659,7 +23777,7 @@
       <c r="T319" s="23"/>
       <c r="U319" s="23"/>
       <c r="V319" s="23"/>
-      <c r="W319" s="23"/>
+      <c r="W319" s="40"/>
       <c r="X319" s="40"/>
       <c r="Y319" s="40"/>
       <c r="Z319" s="40"/>
@@ -23674,7 +23792,7 @@
       <c r="T320" s="23"/>
       <c r="U320" s="23"/>
       <c r="V320" s="23"/>
-      <c r="W320" s="40"/>
+      <c r="W320" s="23"/>
       <c r="X320" s="40"/>
       <c r="Y320" s="40"/>
       <c r="Z320" s="40"/>
@@ -23689,7 +23807,7 @@
       <c r="T321" s="23"/>
       <c r="U321" s="23"/>
       <c r="V321" s="23"/>
-      <c r="W321" s="23"/>
+      <c r="W321" s="40"/>
       <c r="X321" s="40"/>
       <c r="Y321" s="40"/>
       <c r="Z321" s="40"/>
@@ -23698,6 +23816,7 @@
       <c r="AC321" s="40"/>
     </row>
     <row r="322" spans="16:29" s="21" customFormat="1">
+      <c r="P322" s="22"/>
       <c r="Q322" s="23"/>
       <c r="R322" s="23"/>
       <c r="S322" s="23"/>
@@ -23713,7 +23832,6 @@
       <c r="AC322" s="40"/>
     </row>
     <row r="323" spans="16:29" s="21" customFormat="1">
-      <c r="P323" s="22"/>
       <c r="Q323" s="23"/>
       <c r="R323" s="23"/>
       <c r="S323" s="23"/>
@@ -23750,7 +23868,7 @@
       <c r="T325" s="23"/>
       <c r="U325" s="23"/>
       <c r="V325" s="23"/>
-      <c r="W325" s="40"/>
+      <c r="W325" s="23"/>
       <c r="X325" s="40"/>
       <c r="Y325" s="40"/>
       <c r="Z325" s="40"/>
@@ -23804,13 +23922,13 @@
       <c r="AC328" s="40"/>
     </row>
     <row r="329" spans="16:29" s="21" customFormat="1">
-      <c r="Q329" s="23"/>
-      <c r="R329" s="23"/>
-      <c r="S329" s="23"/>
-      <c r="T329" s="23"/>
-      <c r="U329" s="23"/>
-      <c r="V329" s="23"/>
-      <c r="W329" s="23"/>
+      <c r="Q329" s="40"/>
+      <c r="R329" s="40"/>
+      <c r="S329" s="40"/>
+      <c r="T329" s="40"/>
+      <c r="U329" s="40"/>
+      <c r="V329" s="40"/>
+      <c r="W329" s="40"/>
       <c r="X329" s="40"/>
       <c r="Y329" s="40"/>
       <c r="Z329" s="40"/>
@@ -23819,13 +23937,13 @@
       <c r="AC329" s="40"/>
     </row>
     <row r="330" spans="16:29" s="21" customFormat="1">
-      <c r="Q330" s="40"/>
-      <c r="R330" s="40"/>
-      <c r="S330" s="40"/>
-      <c r="T330" s="40"/>
-      <c r="U330" s="40"/>
-      <c r="V330" s="40"/>
-      <c r="W330" s="40"/>
+      <c r="Q330" s="23"/>
+      <c r="R330" s="23"/>
+      <c r="S330" s="23"/>
+      <c r="T330" s="23"/>
+      <c r="U330" s="23"/>
+      <c r="V330" s="23"/>
+      <c r="W330" s="23"/>
       <c r="X330" s="40"/>
       <c r="Y330" s="40"/>
       <c r="Z330" s="40"/>
@@ -23834,13 +23952,13 @@
       <c r="AC330" s="40"/>
     </row>
     <row r="331" spans="16:29" s="21" customFormat="1">
-      <c r="Q331" s="23"/>
-      <c r="R331" s="23"/>
-      <c r="S331" s="23"/>
-      <c r="T331" s="23"/>
-      <c r="U331" s="23"/>
-      <c r="V331" s="23"/>
-      <c r="W331" s="23"/>
+      <c r="Q331" s="40"/>
+      <c r="R331" s="40"/>
+      <c r="S331" s="40"/>
+      <c r="T331" s="40"/>
+      <c r="U331" s="40"/>
+      <c r="V331" s="40"/>
+      <c r="W331" s="40"/>
       <c r="X331" s="40"/>
       <c r="Y331" s="40"/>
       <c r="Z331" s="40"/>
@@ -23849,12 +23967,12 @@
       <c r="AC331" s="40"/>
     </row>
     <row r="332" spans="16:29" s="21" customFormat="1">
-      <c r="Q332" s="40"/>
-      <c r="R332" s="40"/>
-      <c r="S332" s="40"/>
-      <c r="T332" s="40"/>
-      <c r="U332" s="40"/>
-      <c r="V332" s="40"/>
+      <c r="Q332" s="23"/>
+      <c r="R332" s="23"/>
+      <c r="S332" s="23"/>
+      <c r="T332" s="23"/>
+      <c r="U332" s="23"/>
+      <c r="V332" s="23"/>
       <c r="W332" s="40"/>
       <c r="X332" s="40"/>
       <c r="Y332" s="40"/>
@@ -23870,13 +23988,13 @@
       <c r="T333" s="23"/>
       <c r="U333" s="23"/>
       <c r="V333" s="23"/>
-      <c r="W333" s="40"/>
+      <c r="W333" s="23"/>
       <c r="X333" s="40"/>
       <c r="Y333" s="40"/>
-      <c r="Z333" s="40"/>
-      <c r="AA333" s="40"/>
-      <c r="AB333" s="40"/>
-      <c r="AC333" s="40"/>
+      <c r="Z333" s="23"/>
+      <c r="AA333" s="23"/>
+      <c r="AB333" s="23"/>
+      <c r="AC333" s="23"/>
     </row>
     <row r="334" spans="16:29" s="21" customFormat="1">
       <c r="Q334" s="23"/>
@@ -23888,10 +24006,10 @@
       <c r="W334" s="23"/>
       <c r="X334" s="40"/>
       <c r="Y334" s="40"/>
-      <c r="Z334" s="23"/>
-      <c r="AA334" s="23"/>
-      <c r="AB334" s="23"/>
-      <c r="AC334" s="23"/>
+      <c r="Z334" s="40"/>
+      <c r="AA334" s="40"/>
+      <c r="AB334" s="40"/>
+      <c r="AC334" s="40"/>
     </row>
     <row r="335" spans="16:29" s="21" customFormat="1">
       <c r="Q335" s="23"/>
@@ -23900,7 +24018,7 @@
       <c r="T335" s="23"/>
       <c r="U335" s="23"/>
       <c r="V335" s="23"/>
-      <c r="W335" s="23"/>
+      <c r="W335" s="40"/>
       <c r="X335" s="40"/>
       <c r="Y335" s="40"/>
       <c r="Z335" s="40"/>
@@ -23909,13 +24027,14 @@
       <c r="AC335" s="40"/>
     </row>
     <row r="336" spans="16:29" s="21" customFormat="1">
+      <c r="P336" s="22"/>
       <c r="Q336" s="23"/>
       <c r="R336" s="23"/>
       <c r="S336" s="23"/>
       <c r="T336" s="23"/>
       <c r="U336" s="23"/>
       <c r="V336" s="23"/>
-      <c r="W336" s="40"/>
+      <c r="W336" s="23"/>
       <c r="X336" s="40"/>
       <c r="Y336" s="40"/>
       <c r="Z336" s="40"/>
@@ -23931,7 +24050,7 @@
       <c r="T337" s="23"/>
       <c r="U337" s="23"/>
       <c r="V337" s="23"/>
-      <c r="W337" s="23"/>
+      <c r="W337" s="40"/>
       <c r="X337" s="40"/>
       <c r="Y337" s="40"/>
       <c r="Z337" s="40"/>
@@ -23956,20 +24075,19 @@
       <c r="AC338" s="40"/>
     </row>
     <row r="339" spans="16:29" s="21" customFormat="1">
-      <c r="P339" s="22"/>
       <c r="Q339" s="23"/>
       <c r="R339" s="23"/>
       <c r="S339" s="23"/>
       <c r="T339" s="23"/>
       <c r="U339" s="23"/>
       <c r="V339" s="23"/>
-      <c r="W339" s="40"/>
+      <c r="W339" s="23"/>
       <c r="X339" s="40"/>
       <c r="Y339" s="40"/>
-      <c r="Z339" s="40"/>
-      <c r="AA339" s="40"/>
-      <c r="AB339" s="40"/>
-      <c r="AC339" s="40"/>
+      <c r="Z339" s="23"/>
+      <c r="AA339" s="23"/>
+      <c r="AB339" s="23"/>
+      <c r="AC339" s="23"/>
     </row>
     <row r="340" spans="16:29" s="21" customFormat="1">
       <c r="Q340" s="23"/>
@@ -23981,10 +24099,10 @@
       <c r="W340" s="23"/>
       <c r="X340" s="40"/>
       <c r="Y340" s="40"/>
-      <c r="Z340" s="23"/>
-      <c r="AA340" s="23"/>
-      <c r="AB340" s="23"/>
-      <c r="AC340" s="23"/>
+      <c r="Z340" s="40"/>
+      <c r="AA340" s="40"/>
+      <c r="AB340" s="40"/>
+      <c r="AC340" s="40"/>
     </row>
     <row r="341" spans="16:29" s="21" customFormat="1">
       <c r="Q341" s="23"/>
@@ -24023,7 +24141,7 @@
       <c r="T343" s="23"/>
       <c r="U343" s="23"/>
       <c r="V343" s="23"/>
-      <c r="W343" s="23"/>
+      <c r="W343" s="40"/>
       <c r="X343" s="40"/>
       <c r="Y343" s="40"/>
       <c r="Z343" s="40"/>
@@ -24038,7 +24156,7 @@
       <c r="T344" s="23"/>
       <c r="U344" s="23"/>
       <c r="V344" s="23"/>
-      <c r="W344" s="40"/>
+      <c r="W344" s="23"/>
       <c r="X344" s="40"/>
       <c r="Y344" s="40"/>
       <c r="Z344" s="40"/>
@@ -24053,7 +24171,7 @@
       <c r="T345" s="23"/>
       <c r="U345" s="23"/>
       <c r="V345" s="23"/>
-      <c r="W345" s="23"/>
+      <c r="W345" s="40"/>
       <c r="X345" s="40"/>
       <c r="Y345" s="40"/>
       <c r="Z345" s="40"/>
@@ -24098,7 +24216,7 @@
       <c r="T348" s="23"/>
       <c r="U348" s="23"/>
       <c r="V348" s="23"/>
-      <c r="W348" s="40"/>
+      <c r="W348" s="23"/>
       <c r="X348" s="40"/>
       <c r="Y348" s="40"/>
       <c r="Z348" s="40"/>
@@ -24122,13 +24240,13 @@
       <c r="AC349" s="40"/>
     </row>
     <row r="350" spans="16:29" s="21" customFormat="1">
-      <c r="Q350" s="23"/>
-      <c r="R350" s="23"/>
-      <c r="S350" s="23"/>
-      <c r="T350" s="23"/>
-      <c r="U350" s="23"/>
-      <c r="V350" s="23"/>
-      <c r="W350" s="23"/>
+      <c r="Q350" s="40"/>
+      <c r="R350" s="40"/>
+      <c r="S350" s="40"/>
+      <c r="T350" s="40"/>
+      <c r="U350" s="40"/>
+      <c r="V350" s="40"/>
+      <c r="W350" s="40"/>
       <c r="X350" s="40"/>
       <c r="Y350" s="40"/>
       <c r="Z350" s="40"/>
@@ -24137,13 +24255,13 @@
       <c r="AC350" s="40"/>
     </row>
     <row r="351" spans="16:29" s="21" customFormat="1">
-      <c r="Q351" s="40"/>
-      <c r="R351" s="40"/>
-      <c r="S351" s="40"/>
-      <c r="T351" s="40"/>
-      <c r="U351" s="40"/>
-      <c r="V351" s="40"/>
-      <c r="W351" s="40"/>
+      <c r="Q351" s="23"/>
+      <c r="R351" s="23"/>
+      <c r="S351" s="23"/>
+      <c r="T351" s="23"/>
+      <c r="U351" s="23"/>
+      <c r="V351" s="23"/>
+      <c r="W351" s="23"/>
       <c r="X351" s="40"/>
       <c r="Y351" s="40"/>
       <c r="Z351" s="40"/>
@@ -24152,13 +24270,13 @@
       <c r="AC351" s="40"/>
     </row>
     <row r="352" spans="16:29" s="21" customFormat="1">
-      <c r="Q352" s="23"/>
-      <c r="R352" s="23"/>
-      <c r="S352" s="23"/>
-      <c r="T352" s="23"/>
-      <c r="U352" s="23"/>
-      <c r="V352" s="23"/>
-      <c r="W352" s="23"/>
+      <c r="Q352" s="40"/>
+      <c r="R352" s="40"/>
+      <c r="S352" s="40"/>
+      <c r="T352" s="40"/>
+      <c r="U352" s="40"/>
+      <c r="V352" s="40"/>
+      <c r="W352" s="40"/>
       <c r="X352" s="40"/>
       <c r="Y352" s="40"/>
       <c r="Z352" s="40"/>
@@ -24167,12 +24285,12 @@
       <c r="AC352" s="40"/>
     </row>
     <row r="353" spans="17:29" s="21" customFormat="1">
-      <c r="Q353" s="40"/>
-      <c r="R353" s="40"/>
-      <c r="S353" s="40"/>
-      <c r="T353" s="40"/>
-      <c r="U353" s="40"/>
-      <c r="V353" s="40"/>
+      <c r="Q353" s="23"/>
+      <c r="R353" s="23"/>
+      <c r="S353" s="23"/>
+      <c r="T353" s="23"/>
+      <c r="U353" s="23"/>
+      <c r="V353" s="23"/>
       <c r="W353" s="40"/>
       <c r="X353" s="40"/>
       <c r="Y353" s="40"/>
@@ -24188,13 +24306,13 @@
       <c r="T354" s="23"/>
       <c r="U354" s="23"/>
       <c r="V354" s="23"/>
-      <c r="W354" s="40"/>
+      <c r="W354" s="23"/>
       <c r="X354" s="40"/>
       <c r="Y354" s="40"/>
-      <c r="Z354" s="40"/>
-      <c r="AA354" s="40"/>
-      <c r="AB354" s="40"/>
-      <c r="AC354" s="40"/>
+      <c r="Z354" s="23"/>
+      <c r="AA354" s="23"/>
+      <c r="AB354" s="23"/>
+      <c r="AC354" s="23"/>
     </row>
     <row r="355" spans="17:29" s="21" customFormat="1">
       <c r="Q355" s="23"/>
@@ -24203,13 +24321,13 @@
       <c r="T355" s="23"/>
       <c r="U355" s="23"/>
       <c r="V355" s="23"/>
-      <c r="W355" s="23"/>
+      <c r="W355" s="40"/>
       <c r="X355" s="40"/>
       <c r="Y355" s="40"/>
-      <c r="Z355" s="23"/>
-      <c r="AA355" s="23"/>
-      <c r="AB355" s="23"/>
-      <c r="AC355" s="23"/>
+      <c r="Z355" s="40"/>
+      <c r="AA355" s="40"/>
+      <c r="AB355" s="40"/>
+      <c r="AC355" s="40"/>
     </row>
     <row r="356" spans="17:29" s="21" customFormat="1">
       <c r="Q356" s="23"/>
@@ -24218,7 +24336,7 @@
       <c r="T356" s="23"/>
       <c r="U356" s="23"/>
       <c r="V356" s="23"/>
-      <c r="W356" s="40"/>
+      <c r="W356" s="23"/>
       <c r="X356" s="40"/>
       <c r="Y356" s="40"/>
       <c r="Z356" s="40"/>
@@ -24236,10 +24354,10 @@
       <c r="W357" s="23"/>
       <c r="X357" s="40"/>
       <c r="Y357" s="40"/>
-      <c r="Z357" s="40"/>
-      <c r="AA357" s="40"/>
-      <c r="AB357" s="40"/>
-      <c r="AC357" s="40"/>
+      <c r="Z357" s="23"/>
+      <c r="AA357" s="23"/>
+      <c r="AB357" s="23"/>
+      <c r="AC357" s="23"/>
     </row>
     <row r="358" spans="17:29" s="21" customFormat="1">
       <c r="Q358" s="23"/>
@@ -24248,13 +24366,13 @@
       <c r="T358" s="23"/>
       <c r="U358" s="23"/>
       <c r="V358" s="23"/>
-      <c r="W358" s="23"/>
+      <c r="W358" s="40"/>
       <c r="X358" s="40"/>
       <c r="Y358" s="40"/>
-      <c r="Z358" s="23"/>
-      <c r="AA358" s="23"/>
-      <c r="AB358" s="23"/>
-      <c r="AC358" s="23"/>
+      <c r="Z358" s="40"/>
+      <c r="AA358" s="40"/>
+      <c r="AB358" s="40"/>
+      <c r="AC358" s="40"/>
     </row>
     <row r="359" spans="17:29" s="21" customFormat="1">
       <c r="Q359" s="23"/>
@@ -24293,7 +24411,7 @@
       <c r="T361" s="23"/>
       <c r="U361" s="23"/>
       <c r="V361" s="23"/>
-      <c r="W361" s="40"/>
+      <c r="W361" s="23"/>
       <c r="X361" s="40"/>
       <c r="Y361" s="40"/>
       <c r="Z361" s="40"/>
@@ -24308,7 +24426,7 @@
       <c r="T362" s="23"/>
       <c r="U362" s="23"/>
       <c r="V362" s="23"/>
-      <c r="W362" s="23"/>
+      <c r="W362" s="40"/>
       <c r="X362" s="40"/>
       <c r="Y362" s="40"/>
       <c r="Z362" s="40"/>
@@ -24317,12 +24435,12 @@
       <c r="AC362" s="40"/>
     </row>
     <row r="363" spans="17:29" s="21" customFormat="1">
-      <c r="Q363" s="23"/>
-      <c r="R363" s="23"/>
-      <c r="S363" s="23"/>
-      <c r="T363" s="23"/>
-      <c r="U363" s="23"/>
-      <c r="V363" s="23"/>
+      <c r="Q363" s="40"/>
+      <c r="R363" s="40"/>
+      <c r="S363" s="40"/>
+      <c r="T363" s="40"/>
+      <c r="U363" s="40"/>
+      <c r="V363" s="40"/>
       <c r="W363" s="40"/>
       <c r="X363" s="40"/>
       <c r="Y363" s="40"/>
@@ -24332,12 +24450,12 @@
       <c r="AC363" s="40"/>
     </row>
     <row r="364" spans="17:29" s="21" customFormat="1">
-      <c r="Q364" s="40"/>
-      <c r="R364" s="40"/>
-      <c r="S364" s="40"/>
-      <c r="T364" s="40"/>
-      <c r="U364" s="40"/>
-      <c r="V364" s="40"/>
+      <c r="Q364" s="23"/>
+      <c r="R364" s="23"/>
+      <c r="S364" s="23"/>
+      <c r="T364" s="23"/>
+      <c r="U364" s="23"/>
+      <c r="V364" s="23"/>
       <c r="W364" s="40"/>
       <c r="X364" s="40"/>
       <c r="Y364" s="40"/>
@@ -24368,13 +24486,13 @@
       <c r="T366" s="23"/>
       <c r="U366" s="23"/>
       <c r="V366" s="23"/>
-      <c r="W366" s="40"/>
+      <c r="W366" s="23"/>
       <c r="X366" s="40"/>
       <c r="Y366" s="40"/>
-      <c r="Z366" s="40"/>
-      <c r="AA366" s="40"/>
-      <c r="AB366" s="40"/>
-      <c r="AC366" s="40"/>
+      <c r="Z366" s="23"/>
+      <c r="AA366" s="23"/>
+      <c r="AB366" s="23"/>
+      <c r="AC366" s="23"/>
     </row>
     <row r="367" spans="17:29" s="21" customFormat="1">
       <c r="Q367" s="23"/>
@@ -24383,13 +24501,13 @@
       <c r="T367" s="23"/>
       <c r="U367" s="23"/>
       <c r="V367" s="23"/>
-      <c r="W367" s="23"/>
+      <c r="W367" s="40"/>
       <c r="X367" s="40"/>
       <c r="Y367" s="40"/>
-      <c r="Z367" s="23"/>
-      <c r="AA367" s="23"/>
-      <c r="AB367" s="23"/>
-      <c r="AC367" s="23"/>
+      <c r="Z367" s="40"/>
+      <c r="AA367" s="40"/>
+      <c r="AB367" s="40"/>
+      <c r="AC367" s="40"/>
     </row>
     <row r="368" spans="17:29" s="21" customFormat="1">
       <c r="Q368" s="23"/>
@@ -24398,7 +24516,7 @@
       <c r="T368" s="23"/>
       <c r="U368" s="23"/>
       <c r="V368" s="23"/>
-      <c r="W368" s="40"/>
+      <c r="W368" s="23"/>
       <c r="X368" s="40"/>
       <c r="Y368" s="40"/>
       <c r="Z368" s="40"/>
@@ -24473,7 +24591,7 @@
       <c r="T373" s="23"/>
       <c r="U373" s="23"/>
       <c r="V373" s="23"/>
-      <c r="W373" s="23"/>
+      <c r="W373" s="40"/>
       <c r="X373" s="40"/>
       <c r="Y373" s="40"/>
       <c r="Z373" s="40"/>
@@ -24482,12 +24600,12 @@
       <c r="AC373" s="40"/>
     </row>
     <row r="374" spans="17:29" s="21" customFormat="1">
-      <c r="Q374" s="23"/>
-      <c r="R374" s="23"/>
-      <c r="S374" s="23"/>
-      <c r="T374" s="23"/>
-      <c r="U374" s="23"/>
-      <c r="V374" s="23"/>
+      <c r="Q374" s="40"/>
+      <c r="R374" s="40"/>
+      <c r="S374" s="40"/>
+      <c r="T374" s="40"/>
+      <c r="U374" s="40"/>
+      <c r="V374" s="40"/>
       <c r="W374" s="40"/>
       <c r="X374" s="40"/>
       <c r="Y374" s="40"/>
@@ -24497,13 +24615,13 @@
       <c r="AC374" s="40"/>
     </row>
     <row r="375" spans="17:29" s="21" customFormat="1">
-      <c r="Q375" s="40"/>
-      <c r="R375" s="40"/>
-      <c r="S375" s="40"/>
-      <c r="T375" s="40"/>
-      <c r="U375" s="40"/>
-      <c r="V375" s="40"/>
-      <c r="W375" s="40"/>
+      <c r="Q375" s="23"/>
+      <c r="R375" s="23"/>
+      <c r="S375" s="23"/>
+      <c r="T375" s="23"/>
+      <c r="U375" s="23"/>
+      <c r="V375" s="23"/>
+      <c r="W375" s="23"/>
       <c r="X375" s="40"/>
       <c r="Y375" s="40"/>
       <c r="Z375" s="40"/>
@@ -24548,7 +24666,7 @@
       <c r="T378" s="23"/>
       <c r="U378" s="23"/>
       <c r="V378" s="23"/>
-      <c r="W378" s="23"/>
+      <c r="W378" s="40"/>
       <c r="X378" s="40"/>
       <c r="Y378" s="40"/>
       <c r="Z378" s="40"/>
@@ -24578,7 +24696,7 @@
       <c r="T380" s="23"/>
       <c r="U380" s="23"/>
       <c r="V380" s="23"/>
-      <c r="W380" s="40"/>
+      <c r="W380" s="23"/>
       <c r="X380" s="40"/>
       <c r="Y380" s="40"/>
       <c r="Z380" s="40"/>
@@ -24593,7 +24711,7 @@
       <c r="T381" s="23"/>
       <c r="U381" s="23"/>
       <c r="V381" s="23"/>
-      <c r="W381" s="23"/>
+      <c r="W381" s="40"/>
       <c r="X381" s="40"/>
       <c r="Y381" s="40"/>
       <c r="Z381" s="40"/>
@@ -24653,7 +24771,7 @@
       <c r="T385" s="23"/>
       <c r="U385" s="23"/>
       <c r="V385" s="23"/>
-      <c r="W385" s="40"/>
+      <c r="W385" s="23"/>
       <c r="X385" s="40"/>
       <c r="Y385" s="40"/>
       <c r="Z385" s="40"/>
@@ -24668,7 +24786,7 @@
       <c r="T386" s="23"/>
       <c r="U386" s="23"/>
       <c r="V386" s="23"/>
-      <c r="W386" s="23"/>
+      <c r="W386" s="40"/>
       <c r="X386" s="40"/>
       <c r="Y386" s="40"/>
       <c r="Z386" s="40"/>
@@ -24713,7 +24831,7 @@
       <c r="T389" s="23"/>
       <c r="U389" s="23"/>
       <c r="V389" s="23"/>
-      <c r="W389" s="40"/>
+      <c r="W389" s="23"/>
       <c r="X389" s="40"/>
       <c r="Y389" s="40"/>
       <c r="Z389" s="40"/>
@@ -24737,13 +24855,13 @@
       <c r="AC390" s="40"/>
     </row>
     <row r="391" spans="17:29" s="21" customFormat="1">
-      <c r="Q391" s="23"/>
-      <c r="R391" s="23"/>
-      <c r="S391" s="23"/>
-      <c r="T391" s="23"/>
-      <c r="U391" s="23"/>
-      <c r="V391" s="23"/>
-      <c r="W391" s="23"/>
+      <c r="Q391" s="40"/>
+      <c r="R391" s="40"/>
+      <c r="S391" s="40"/>
+      <c r="T391" s="40"/>
+      <c r="U391" s="40"/>
+      <c r="V391" s="40"/>
+      <c r="W391" s="40"/>
       <c r="X391" s="40"/>
       <c r="Y391" s="40"/>
       <c r="Z391" s="40"/>
@@ -24752,12 +24870,12 @@
       <c r="AC391" s="40"/>
     </row>
     <row r="392" spans="17:29" s="21" customFormat="1">
-      <c r="Q392" s="40"/>
-      <c r="R392" s="40"/>
-      <c r="S392" s="40"/>
-      <c r="T392" s="40"/>
-      <c r="U392" s="40"/>
-      <c r="V392" s="40"/>
+      <c r="Q392" s="23"/>
+      <c r="R392" s="23"/>
+      <c r="S392" s="23"/>
+      <c r="T392" s="23"/>
+      <c r="U392" s="23"/>
+      <c r="V392" s="23"/>
       <c r="W392" s="40"/>
       <c r="X392" s="40"/>
       <c r="Y392" s="40"/>
@@ -24773,13 +24891,13 @@
       <c r="T393" s="23"/>
       <c r="U393" s="23"/>
       <c r="V393" s="23"/>
-      <c r="W393" s="40"/>
+      <c r="W393" s="23"/>
       <c r="X393" s="40"/>
       <c r="Y393" s="40"/>
-      <c r="Z393" s="40"/>
-      <c r="AA393" s="40"/>
-      <c r="AB393" s="40"/>
-      <c r="AC393" s="40"/>
+      <c r="Z393" s="23"/>
+      <c r="AA393" s="23"/>
+      <c r="AB393" s="23"/>
+      <c r="AC393" s="23"/>
     </row>
     <row r="394" spans="17:29" s="21" customFormat="1">
       <c r="Q394" s="23"/>
@@ -24803,13 +24921,13 @@
       <c r="T395" s="23"/>
       <c r="U395" s="23"/>
       <c r="V395" s="23"/>
-      <c r="W395" s="23"/>
+      <c r="W395" s="40"/>
       <c r="X395" s="40"/>
       <c r="Y395" s="40"/>
-      <c r="Z395" s="23"/>
-      <c r="AA395" s="23"/>
-      <c r="AB395" s="23"/>
-      <c r="AC395" s="23"/>
+      <c r="Z395" s="40"/>
+      <c r="AA395" s="40"/>
+      <c r="AB395" s="40"/>
+      <c r="AC395" s="40"/>
     </row>
     <row r="396" spans="17:29" s="21" customFormat="1">
       <c r="Q396" s="23"/>
@@ -24818,7 +24936,7 @@
       <c r="T396" s="23"/>
       <c r="U396" s="23"/>
       <c r="V396" s="23"/>
-      <c r="W396" s="40"/>
+      <c r="W396" s="23"/>
       <c r="X396" s="40"/>
       <c r="Y396" s="40"/>
       <c r="Z396" s="40"/>
@@ -24863,7 +24981,7 @@
       <c r="T399" s="23"/>
       <c r="U399" s="23"/>
       <c r="V399" s="23"/>
-      <c r="W399" s="23"/>
+      <c r="W399" s="40"/>
       <c r="X399" s="40"/>
       <c r="Y399" s="40"/>
       <c r="Z399" s="40"/>
@@ -24878,7 +24996,7 @@
       <c r="T400" s="23"/>
       <c r="U400" s="23"/>
       <c r="V400" s="23"/>
-      <c r="W400" s="40"/>
+      <c r="W400" s="23"/>
       <c r="X400" s="40"/>
       <c r="Y400" s="40"/>
       <c r="Z400" s="40"/>
@@ -24908,7 +25026,7 @@
       <c r="T402" s="23"/>
       <c r="U402" s="23"/>
       <c r="V402" s="23"/>
-      <c r="W402" s="23"/>
+      <c r="W402" s="40"/>
       <c r="X402" s="40"/>
       <c r="Y402" s="40"/>
       <c r="Z402" s="40"/>
@@ -24953,7 +25071,7 @@
       <c r="T405" s="23"/>
       <c r="U405" s="23"/>
       <c r="V405" s="23"/>
-      <c r="W405" s="40"/>
+      <c r="W405" s="23"/>
       <c r="X405" s="40"/>
       <c r="Y405" s="40"/>
       <c r="Z405" s="40"/>
@@ -24977,13 +25095,13 @@
       <c r="AC406" s="40"/>
     </row>
     <row r="407" spans="17:29" s="21" customFormat="1">
-      <c r="Q407" s="23"/>
-      <c r="R407" s="23"/>
-      <c r="S407" s="23"/>
-      <c r="T407" s="23"/>
-      <c r="U407" s="23"/>
-      <c r="V407" s="23"/>
-      <c r="W407" s="23"/>
+      <c r="Q407" s="40"/>
+      <c r="R407" s="40"/>
+      <c r="S407" s="40"/>
+      <c r="T407" s="40"/>
+      <c r="U407" s="40"/>
+      <c r="V407" s="40"/>
+      <c r="W407" s="40"/>
       <c r="X407" s="40"/>
       <c r="Y407" s="40"/>
       <c r="Z407" s="40"/>
@@ -24992,12 +25110,12 @@
       <c r="AC407" s="40"/>
     </row>
     <row r="408" spans="17:29" s="21" customFormat="1">
-      <c r="Q408" s="40"/>
-      <c r="R408" s="40"/>
-      <c r="S408" s="40"/>
-      <c r="T408" s="40"/>
-      <c r="U408" s="40"/>
-      <c r="V408" s="40"/>
+      <c r="Q408" s="23"/>
+      <c r="R408" s="23"/>
+      <c r="S408" s="23"/>
+      <c r="T408" s="23"/>
+      <c r="U408" s="23"/>
+      <c r="V408" s="23"/>
       <c r="W408" s="40"/>
       <c r="X408" s="40"/>
       <c r="Y408" s="40"/>
@@ -25013,13 +25131,13 @@
       <c r="T409" s="23"/>
       <c r="U409" s="23"/>
       <c r="V409" s="23"/>
-      <c r="W409" s="40"/>
+      <c r="W409" s="23"/>
       <c r="X409" s="40"/>
       <c r="Y409" s="40"/>
-      <c r="Z409" s="40"/>
-      <c r="AA409" s="40"/>
-      <c r="AB409" s="40"/>
-      <c r="AC409" s="40"/>
+      <c r="Z409" s="23"/>
+      <c r="AA409" s="23"/>
+      <c r="AB409" s="23"/>
+      <c r="AC409" s="23"/>
     </row>
     <row r="410" spans="17:29" s="21" customFormat="1">
       <c r="Q410" s="23"/>
@@ -25031,10 +25149,10 @@
       <c r="W410" s="23"/>
       <c r="X410" s="40"/>
       <c r="Y410" s="40"/>
-      <c r="Z410" s="23"/>
-      <c r="AA410" s="23"/>
-      <c r="AB410" s="23"/>
-      <c r="AC410" s="23"/>
+      <c r="Z410" s="40"/>
+      <c r="AA410" s="40"/>
+      <c r="AB410" s="40"/>
+      <c r="AC410" s="40"/>
     </row>
     <row r="411" spans="17:29" s="21" customFormat="1">
       <c r="Q411" s="23"/>
@@ -25073,7 +25191,7 @@
       <c r="T413" s="23"/>
       <c r="U413" s="23"/>
       <c r="V413" s="23"/>
-      <c r="W413" s="23"/>
+      <c r="W413" s="40"/>
       <c r="X413" s="40"/>
       <c r="Y413" s="40"/>
       <c r="Z413" s="40"/>
@@ -25103,13 +25221,13 @@
       <c r="T415" s="23"/>
       <c r="U415" s="23"/>
       <c r="V415" s="23"/>
-      <c r="W415" s="40"/>
+      <c r="W415" s="23"/>
       <c r="X415" s="40"/>
       <c r="Y415" s="40"/>
-      <c r="Z415" s="40"/>
-      <c r="AA415" s="40"/>
-      <c r="AB415" s="40"/>
-      <c r="AC415" s="40"/>
+      <c r="Z415" s="23"/>
+      <c r="AA415" s="23"/>
+      <c r="AB415" s="23"/>
+      <c r="AC415" s="23"/>
     </row>
     <row r="416" spans="17:29" s="21" customFormat="1">
       <c r="Q416" s="23"/>
@@ -25118,13 +25236,13 @@
       <c r="T416" s="23"/>
       <c r="U416" s="23"/>
       <c r="V416" s="23"/>
-      <c r="W416" s="23"/>
+      <c r="W416" s="40"/>
       <c r="X416" s="40"/>
       <c r="Y416" s="40"/>
-      <c r="Z416" s="23"/>
-      <c r="AA416" s="23"/>
-      <c r="AB416" s="23"/>
-      <c r="AC416" s="23"/>
+      <c r="Z416" s="40"/>
+      <c r="AA416" s="40"/>
+      <c r="AB416" s="40"/>
+      <c r="AC416" s="40"/>
     </row>
     <row r="417" spans="17:29" s="21" customFormat="1">
       <c r="Q417" s="23"/>
@@ -25133,7 +25251,7 @@
       <c r="T417" s="23"/>
       <c r="U417" s="23"/>
       <c r="V417" s="23"/>
-      <c r="W417" s="40"/>
+      <c r="W417" s="23"/>
       <c r="X417" s="40"/>
       <c r="Y417" s="40"/>
       <c r="Z417" s="40"/>
@@ -25148,7 +25266,7 @@
       <c r="T418" s="23"/>
       <c r="U418" s="23"/>
       <c r="V418" s="23"/>
-      <c r="W418" s="23"/>
+      <c r="W418" s="40"/>
       <c r="X418" s="40"/>
       <c r="Y418" s="40"/>
       <c r="Z418" s="40"/>
@@ -25193,7 +25311,7 @@
       <c r="T421" s="23"/>
       <c r="U421" s="23"/>
       <c r="V421" s="23"/>
-      <c r="W421" s="40"/>
+      <c r="W421" s="23"/>
       <c r="X421" s="40"/>
       <c r="Y421" s="40"/>
       <c r="Z421" s="40"/>
@@ -25223,7 +25341,7 @@
       <c r="T423" s="23"/>
       <c r="U423" s="23"/>
       <c r="V423" s="23"/>
-      <c r="W423" s="23"/>
+      <c r="W423" s="40"/>
       <c r="X423" s="40"/>
       <c r="Y423" s="40"/>
       <c r="Z423" s="40"/>
@@ -25268,7 +25386,7 @@
       <c r="T426" s="23"/>
       <c r="U426" s="23"/>
       <c r="V426" s="23"/>
-      <c r="W426" s="40"/>
+      <c r="W426" s="23"/>
       <c r="X426" s="40"/>
       <c r="Y426" s="40"/>
       <c r="Z426" s="40"/>
@@ -25292,13 +25410,13 @@
       <c r="AC427" s="40"/>
     </row>
     <row r="428" spans="17:29" s="21" customFormat="1">
-      <c r="Q428" s="23"/>
-      <c r="R428" s="23"/>
-      <c r="S428" s="23"/>
-      <c r="T428" s="23"/>
-      <c r="U428" s="23"/>
-      <c r="V428" s="23"/>
-      <c r="W428" s="23"/>
+      <c r="Q428" s="40"/>
+      <c r="R428" s="40"/>
+      <c r="S428" s="40"/>
+      <c r="T428" s="40"/>
+      <c r="U428" s="40"/>
+      <c r="V428" s="40"/>
+      <c r="W428" s="40"/>
       <c r="X428" s="40"/>
       <c r="Y428" s="40"/>
       <c r="Z428" s="40"/>
@@ -25307,12 +25425,12 @@
       <c r="AC428" s="40"/>
     </row>
     <row r="429" spans="17:29" s="21" customFormat="1">
-      <c r="Q429" s="40"/>
-      <c r="R429" s="40"/>
-      <c r="S429" s="40"/>
-      <c r="T429" s="40"/>
-      <c r="U429" s="40"/>
-      <c r="V429" s="40"/>
+      <c r="Q429" s="23"/>
+      <c r="R429" s="23"/>
+      <c r="S429" s="23"/>
+      <c r="T429" s="23"/>
+      <c r="U429" s="23"/>
+      <c r="V429" s="23"/>
       <c r="W429" s="40"/>
       <c r="X429" s="40"/>
       <c r="Y429" s="40"/>
@@ -25328,13 +25446,13 @@
       <c r="T430" s="23"/>
       <c r="U430" s="23"/>
       <c r="V430" s="23"/>
-      <c r="W430" s="40"/>
+      <c r="W430" s="23"/>
       <c r="X430" s="40"/>
       <c r="Y430" s="40"/>
-      <c r="Z430" s="40"/>
-      <c r="AA430" s="40"/>
-      <c r="AB430" s="40"/>
-      <c r="AC430" s="40"/>
+      <c r="Z430" s="23"/>
+      <c r="AA430" s="23"/>
+      <c r="AB430" s="23"/>
+      <c r="AC430" s="23"/>
     </row>
     <row r="431" spans="17:29" s="21" customFormat="1">
       <c r="Q431" s="23"/>
@@ -25343,13 +25461,13 @@
       <c r="T431" s="23"/>
       <c r="U431" s="23"/>
       <c r="V431" s="23"/>
-      <c r="W431" s="23"/>
+      <c r="W431" s="40"/>
       <c r="X431" s="40"/>
       <c r="Y431" s="40"/>
-      <c r="Z431" s="23"/>
-      <c r="AA431" s="23"/>
-      <c r="AB431" s="23"/>
-      <c r="AC431" s="23"/>
+      <c r="Z431" s="40"/>
+      <c r="AA431" s="40"/>
+      <c r="AB431" s="40"/>
+      <c r="AC431" s="40"/>
     </row>
     <row r="432" spans="17:29" s="21" customFormat="1">
       <c r="Q432" s="23"/>
@@ -25382,12 +25500,12 @@
       <c r="AC433" s="40"/>
     </row>
     <row r="434" spans="17:29" s="21" customFormat="1">
-      <c r="Q434" s="23"/>
-      <c r="R434" s="23"/>
-      <c r="S434" s="23"/>
-      <c r="T434" s="23"/>
-      <c r="U434" s="23"/>
-      <c r="V434" s="23"/>
+      <c r="Q434" s="40"/>
+      <c r="R434" s="40"/>
+      <c r="S434" s="40"/>
+      <c r="T434" s="40"/>
+      <c r="U434" s="40"/>
+      <c r="V434" s="40"/>
       <c r="W434" s="40"/>
       <c r="X434" s="40"/>
       <c r="Y434" s="40"/>
@@ -25397,13 +25515,13 @@
       <c r="AC434" s="40"/>
     </row>
     <row r="435" spans="17:29" s="21" customFormat="1">
-      <c r="Q435" s="40"/>
-      <c r="R435" s="40"/>
-      <c r="S435" s="40"/>
-      <c r="T435" s="40"/>
-      <c r="U435" s="40"/>
-      <c r="V435" s="40"/>
-      <c r="W435" s="40"/>
+      <c r="Q435" s="23"/>
+      <c r="R435" s="23"/>
+      <c r="S435" s="23"/>
+      <c r="T435" s="23"/>
+      <c r="U435" s="23"/>
+      <c r="V435" s="23"/>
+      <c r="W435" s="23"/>
       <c r="X435" s="40"/>
       <c r="Y435" s="40"/>
       <c r="Z435" s="40"/>
@@ -25412,13 +25530,13 @@
       <c r="AC435" s="40"/>
     </row>
     <row r="436" spans="17:29" s="21" customFormat="1">
-      <c r="Q436" s="23"/>
-      <c r="R436" s="23"/>
-      <c r="S436" s="23"/>
-      <c r="T436" s="23"/>
-      <c r="U436" s="23"/>
-      <c r="V436" s="23"/>
-      <c r="W436" s="23"/>
+      <c r="Q436" s="40"/>
+      <c r="R436" s="40"/>
+      <c r="S436" s="40"/>
+      <c r="T436" s="40"/>
+      <c r="U436" s="40"/>
+      <c r="V436" s="40"/>
+      <c r="W436" s="40"/>
       <c r="X436" s="40"/>
       <c r="Y436" s="40"/>
       <c r="Z436" s="40"/>
@@ -25427,13 +25545,13 @@
       <c r="AC436" s="40"/>
     </row>
     <row r="437" spans="17:29" s="21" customFormat="1">
-      <c r="Q437" s="40"/>
-      <c r="R437" s="40"/>
-      <c r="S437" s="40"/>
-      <c r="T437" s="40"/>
-      <c r="U437" s="40"/>
-      <c r="V437" s="40"/>
-      <c r="W437" s="40"/>
+      <c r="Q437" s="23"/>
+      <c r="R437" s="23"/>
+      <c r="S437" s="23"/>
+      <c r="T437" s="23"/>
+      <c r="U437" s="23"/>
+      <c r="V437" s="23"/>
+      <c r="W437" s="23"/>
       <c r="X437" s="40"/>
       <c r="Y437" s="40"/>
       <c r="Z437" s="40"/>
@@ -25442,13 +25560,13 @@
       <c r="AC437" s="40"/>
     </row>
     <row r="438" spans="17:29" s="21" customFormat="1">
-      <c r="Q438" s="23"/>
-      <c r="R438" s="23"/>
-      <c r="S438" s="23"/>
-      <c r="T438" s="23"/>
-      <c r="U438" s="23"/>
-      <c r="V438" s="23"/>
-      <c r="W438" s="23"/>
+      <c r="Q438" s="40"/>
+      <c r="R438" s="40"/>
+      <c r="S438" s="40"/>
+      <c r="T438" s="40"/>
+      <c r="U438" s="40"/>
+      <c r="V438" s="40"/>
+      <c r="W438" s="40"/>
       <c r="X438" s="40"/>
       <c r="Y438" s="40"/>
       <c r="Z438" s="40"/>
@@ -25457,12 +25575,12 @@
       <c r="AC438" s="40"/>
     </row>
     <row r="439" spans="17:29" s="21" customFormat="1">
-      <c r="Q439" s="40"/>
-      <c r="R439" s="40"/>
-      <c r="S439" s="40"/>
-      <c r="T439" s="40"/>
-      <c r="U439" s="40"/>
-      <c r="V439" s="40"/>
+      <c r="Q439" s="23"/>
+      <c r="R439" s="23"/>
+      <c r="S439" s="23"/>
+      <c r="T439" s="23"/>
+      <c r="U439" s="23"/>
+      <c r="V439" s="23"/>
       <c r="W439" s="40"/>
       <c r="X439" s="40"/>
       <c r="Y439" s="40"/>
@@ -25478,13 +25596,13 @@
       <c r="T440" s="23"/>
       <c r="U440" s="23"/>
       <c r="V440" s="23"/>
-      <c r="W440" s="40"/>
+      <c r="W440" s="23"/>
       <c r="X440" s="40"/>
       <c r="Y440" s="40"/>
-      <c r="Z440" s="40"/>
-      <c r="AA440" s="40"/>
-      <c r="AB440" s="40"/>
-      <c r="AC440" s="40"/>
+      <c r="Z440" s="23"/>
+      <c r="AA440" s="23"/>
+      <c r="AB440" s="23"/>
+      <c r="AC440" s="23"/>
     </row>
     <row r="441" spans="17:29" s="21" customFormat="1">
       <c r="Q441" s="23"/>
@@ -25493,13 +25611,13 @@
       <c r="T441" s="23"/>
       <c r="U441" s="23"/>
       <c r="V441" s="23"/>
-      <c r="W441" s="23"/>
+      <c r="W441" s="40"/>
       <c r="X441" s="40"/>
       <c r="Y441" s="40"/>
-      <c r="Z441" s="23"/>
-      <c r="AA441" s="23"/>
-      <c r="AB441" s="23"/>
-      <c r="AC441" s="23"/>
+      <c r="Z441" s="40"/>
+      <c r="AA441" s="40"/>
+      <c r="AB441" s="40"/>
+      <c r="AC441" s="40"/>
     </row>
     <row r="442" spans="17:29" s="21" customFormat="1">
       <c r="Q442" s="23"/>
@@ -25538,7 +25656,7 @@
       <c r="T444" s="23"/>
       <c r="U444" s="23"/>
       <c r="V444" s="23"/>
-      <c r="W444" s="40"/>
+      <c r="W444" s="23"/>
       <c r="X444" s="40"/>
       <c r="Y444" s="40"/>
       <c r="Z444" s="40"/>
@@ -25547,13 +25665,13 @@
       <c r="AC444" s="40"/>
     </row>
     <row r="445" spans="17:29" s="21" customFormat="1">
-      <c r="Q445" s="23"/>
-      <c r="R445" s="23"/>
-      <c r="S445" s="23"/>
-      <c r="T445" s="23"/>
-      <c r="U445" s="23"/>
-      <c r="V445" s="23"/>
-      <c r="W445" s="23"/>
+      <c r="Q445" s="40"/>
+      <c r="R445" s="40"/>
+      <c r="S445" s="40"/>
+      <c r="T445" s="40"/>
+      <c r="U445" s="40"/>
+      <c r="V445" s="40"/>
+      <c r="W445" s="40"/>
       <c r="X445" s="40"/>
       <c r="Y445" s="40"/>
       <c r="Z445" s="40"/>
@@ -25562,19 +25680,19 @@
       <c r="AC445" s="40"/>
     </row>
     <row r="446" spans="17:29" s="21" customFormat="1">
-      <c r="Q446" s="40"/>
-      <c r="R446" s="40"/>
-      <c r="S446" s="40"/>
-      <c r="T446" s="40"/>
-      <c r="U446" s="40"/>
-      <c r="V446" s="40"/>
-      <c r="W446" s="40"/>
+      <c r="Q446" s="23"/>
+      <c r="R446" s="23"/>
+      <c r="S446" s="23"/>
+      <c r="T446" s="23"/>
+      <c r="U446" s="23"/>
+      <c r="V446" s="23"/>
+      <c r="W446" s="23"/>
       <c r="X446" s="40"/>
       <c r="Y446" s="40"/>
-      <c r="Z446" s="40"/>
-      <c r="AA446" s="40"/>
-      <c r="AB446" s="40"/>
-      <c r="AC446" s="40"/>
+      <c r="Z446" s="23"/>
+      <c r="AA446" s="23"/>
+      <c r="AB446" s="23"/>
+      <c r="AC446" s="23"/>
     </row>
     <row r="447" spans="17:29" s="21" customFormat="1">
       <c r="Q447" s="23"/>
@@ -25583,13 +25701,13 @@
       <c r="T447" s="23"/>
       <c r="U447" s="23"/>
       <c r="V447" s="23"/>
-      <c r="W447" s="23"/>
+      <c r="W447" s="40"/>
       <c r="X447" s="40"/>
       <c r="Y447" s="40"/>
-      <c r="Z447" s="23"/>
-      <c r="AA447" s="23"/>
-      <c r="AB447" s="23"/>
-      <c r="AC447" s="23"/>
+      <c r="Z447" s="40"/>
+      <c r="AA447" s="40"/>
+      <c r="AB447" s="40"/>
+      <c r="AC447" s="40"/>
     </row>
     <row r="448" spans="17:29" s="21" customFormat="1">
       <c r="Q448" s="23"/>
@@ -25613,13 +25731,13 @@
       <c r="T449" s="23"/>
       <c r="U449" s="23"/>
       <c r="V449" s="23"/>
-      <c r="W449" s="40"/>
+      <c r="W449" s="23"/>
       <c r="X449" s="40"/>
       <c r="Y449" s="40"/>
-      <c r="Z449" s="40"/>
-      <c r="AA449" s="40"/>
-      <c r="AB449" s="40"/>
-      <c r="AC449" s="40"/>
+      <c r="Z449" s="23"/>
+      <c r="AA449" s="23"/>
+      <c r="AB449" s="23"/>
+      <c r="AC449" s="23"/>
     </row>
     <row r="450" spans="17:29" s="21" customFormat="1">
       <c r="Q450" s="23"/>
@@ -25628,13 +25746,13 @@
       <c r="T450" s="23"/>
       <c r="U450" s="23"/>
       <c r="V450" s="23"/>
-      <c r="W450" s="23"/>
+      <c r="W450" s="40"/>
       <c r="X450" s="40"/>
       <c r="Y450" s="40"/>
-      <c r="Z450" s="23"/>
-      <c r="AA450" s="23"/>
-      <c r="AB450" s="23"/>
-      <c r="AC450" s="23"/>
+      <c r="Z450" s="40"/>
+      <c r="AA450" s="40"/>
+      <c r="AB450" s="40"/>
+      <c r="AC450" s="40"/>
     </row>
     <row r="451" spans="17:29" s="21" customFormat="1">
       <c r="Q451" s="23"/>
@@ -25643,7 +25761,7 @@
       <c r="T451" s="23"/>
       <c r="U451" s="23"/>
       <c r="V451" s="23"/>
-      <c r="W451" s="40"/>
+      <c r="W451" s="23"/>
       <c r="X451" s="40"/>
       <c r="Y451" s="40"/>
       <c r="Z451" s="40"/>
@@ -25658,7 +25776,7 @@
       <c r="T452" s="23"/>
       <c r="U452" s="23"/>
       <c r="V452" s="23"/>
-      <c r="W452" s="23"/>
+      <c r="W452" s="40"/>
       <c r="X452" s="40"/>
       <c r="Y452" s="40"/>
       <c r="Z452" s="40"/>
@@ -25673,7 +25791,7 @@
       <c r="T453" s="23"/>
       <c r="U453" s="23"/>
       <c r="V453" s="23"/>
-      <c r="W453" s="40"/>
+      <c r="W453" s="23"/>
       <c r="X453" s="40"/>
       <c r="Y453" s="40"/>
       <c r="Z453" s="40"/>
@@ -25688,7 +25806,7 @@
       <c r="T454" s="23"/>
       <c r="U454" s="23"/>
       <c r="V454" s="23"/>
-      <c r="W454" s="23"/>
+      <c r="W454" s="40"/>
       <c r="X454" s="40"/>
       <c r="Y454" s="40"/>
       <c r="Z454" s="40"/>
@@ -25733,7 +25851,7 @@
       <c r="T457" s="23"/>
       <c r="U457" s="23"/>
       <c r="V457" s="23"/>
-      <c r="W457" s="40"/>
+      <c r="W457" s="23"/>
       <c r="X457" s="40"/>
       <c r="Y457" s="40"/>
       <c r="Z457" s="40"/>
@@ -25742,13 +25860,13 @@
       <c r="AC457" s="40"/>
     </row>
     <row r="458" spans="17:29" s="21" customFormat="1">
-      <c r="Q458" s="23"/>
-      <c r="R458" s="23"/>
-      <c r="S458" s="23"/>
-      <c r="T458" s="23"/>
-      <c r="U458" s="23"/>
-      <c r="V458" s="23"/>
-      <c r="W458" s="23"/>
+      <c r="Q458" s="40"/>
+      <c r="R458" s="40"/>
+      <c r="S458" s="40"/>
+      <c r="T458" s="40"/>
+      <c r="U458" s="40"/>
+      <c r="V458" s="40"/>
+      <c r="W458" s="40"/>
       <c r="X458" s="40"/>
       <c r="Y458" s="40"/>
       <c r="Z458" s="40"/>
@@ -25757,12 +25875,12 @@
       <c r="AC458" s="40"/>
     </row>
     <row r="459" spans="17:29" s="21" customFormat="1">
-      <c r="Q459" s="40"/>
-      <c r="R459" s="40"/>
-      <c r="S459" s="40"/>
-      <c r="T459" s="40"/>
-      <c r="U459" s="40"/>
-      <c r="V459" s="40"/>
+      <c r="Q459" s="23"/>
+      <c r="R459" s="23"/>
+      <c r="S459" s="23"/>
+      <c r="T459" s="23"/>
+      <c r="U459" s="23"/>
+      <c r="V459" s="23"/>
       <c r="W459" s="40"/>
       <c r="X459" s="40"/>
       <c r="Y459" s="40"/>
@@ -25778,13 +25896,13 @@
       <c r="T460" s="23"/>
       <c r="U460" s="23"/>
       <c r="V460" s="23"/>
-      <c r="W460" s="40"/>
+      <c r="W460" s="23"/>
       <c r="X460" s="40"/>
       <c r="Y460" s="40"/>
-      <c r="Z460" s="40"/>
-      <c r="AA460" s="40"/>
-      <c r="AB460" s="40"/>
-      <c r="AC460" s="40"/>
+      <c r="Z460" s="23"/>
+      <c r="AA460" s="23"/>
+      <c r="AB460" s="23"/>
+      <c r="AC460" s="23"/>
     </row>
     <row r="461" spans="17:29" s="21" customFormat="1">
       <c r="Q461" s="23"/>
@@ -25793,13 +25911,13 @@
       <c r="T461" s="23"/>
       <c r="U461" s="23"/>
       <c r="V461" s="23"/>
-      <c r="W461" s="23"/>
+      <c r="W461" s="40"/>
       <c r="X461" s="40"/>
       <c r="Y461" s="40"/>
-      <c r="Z461" s="23"/>
-      <c r="AA461" s="23"/>
-      <c r="AB461" s="23"/>
-      <c r="AC461" s="23"/>
+      <c r="Z461" s="40"/>
+      <c r="AA461" s="40"/>
+      <c r="AB461" s="40"/>
+      <c r="AC461" s="40"/>
     </row>
     <row r="462" spans="17:29" s="21" customFormat="1">
       <c r="Q462" s="23"/>
@@ -25808,13 +25926,13 @@
       <c r="T462" s="23"/>
       <c r="U462" s="23"/>
       <c r="V462" s="23"/>
-      <c r="W462" s="40"/>
+      <c r="W462" s="23"/>
       <c r="X462" s="40"/>
       <c r="Y462" s="40"/>
-      <c r="Z462" s="40"/>
-      <c r="AA462" s="40"/>
-      <c r="AB462" s="40"/>
-      <c r="AC462" s="40"/>
+      <c r="Z462" s="23"/>
+      <c r="AA462" s="23"/>
+      <c r="AB462" s="23"/>
+      <c r="AC462" s="23"/>
     </row>
     <row r="463" spans="17:29" s="21" customFormat="1">
       <c r="Q463" s="23"/>
@@ -25823,13 +25941,13 @@
       <c r="T463" s="23"/>
       <c r="U463" s="23"/>
       <c r="V463" s="23"/>
-      <c r="W463" s="23"/>
+      <c r="W463" s="40"/>
       <c r="X463" s="40"/>
       <c r="Y463" s="40"/>
-      <c r="Z463" s="23"/>
-      <c r="AA463" s="23"/>
-      <c r="AB463" s="23"/>
-      <c r="AC463" s="23"/>
+      <c r="Z463" s="40"/>
+      <c r="AA463" s="40"/>
+      <c r="AB463" s="40"/>
+      <c r="AC463" s="40"/>
     </row>
     <row r="464" spans="17:29" s="21" customFormat="1">
       <c r="Q464" s="23"/>
@@ -25838,7 +25956,7 @@
       <c r="T464" s="23"/>
       <c r="U464" s="23"/>
       <c r="V464" s="23"/>
-      <c r="W464" s="40"/>
+      <c r="W464" s="23"/>
       <c r="X464" s="40"/>
       <c r="Y464" s="40"/>
       <c r="Z464" s="40"/>
@@ -25853,7 +25971,7 @@
       <c r="T465" s="23"/>
       <c r="U465" s="23"/>
       <c r="V465" s="23"/>
-      <c r="W465" s="23"/>
+      <c r="W465" s="40"/>
       <c r="X465" s="40"/>
       <c r="Y465" s="40"/>
       <c r="Z465" s="40"/>
@@ -25868,7 +25986,7 @@
       <c r="T466" s="23"/>
       <c r="U466" s="23"/>
       <c r="V466" s="23"/>
-      <c r="W466" s="40"/>
+      <c r="W466" s="23"/>
       <c r="X466" s="40"/>
       <c r="Y466" s="40"/>
       <c r="Z466" s="40"/>
@@ -25877,13 +25995,13 @@
       <c r="AC466" s="40"/>
     </row>
     <row r="467" spans="17:29" s="21" customFormat="1">
-      <c r="Q467" s="23"/>
-      <c r="R467" s="23"/>
-      <c r="S467" s="23"/>
-      <c r="T467" s="23"/>
-      <c r="U467" s="23"/>
-      <c r="V467" s="23"/>
-      <c r="W467" s="23"/>
+      <c r="Q467" s="40"/>
+      <c r="R467" s="40"/>
+      <c r="S467" s="40"/>
+      <c r="T467" s="40"/>
+      <c r="U467" s="40"/>
+      <c r="V467" s="40"/>
+      <c r="W467" s="40"/>
       <c r="X467" s="40"/>
       <c r="Y467" s="40"/>
       <c r="Z467" s="40"/>
@@ -25892,13 +26010,13 @@
       <c r="AC467" s="40"/>
     </row>
     <row r="468" spans="17:29" s="21" customFormat="1">
-      <c r="Q468" s="40"/>
-      <c r="R468" s="40"/>
-      <c r="S468" s="40"/>
-      <c r="T468" s="40"/>
-      <c r="U468" s="40"/>
-      <c r="V468" s="40"/>
-      <c r="W468" s="40"/>
+      <c r="Q468" s="23"/>
+      <c r="R468" s="23"/>
+      <c r="S468" s="23"/>
+      <c r="T468" s="23"/>
+      <c r="U468" s="23"/>
+      <c r="V468" s="23"/>
+      <c r="W468" s="23"/>
       <c r="X468" s="40"/>
       <c r="Y468" s="40"/>
       <c r="Z468" s="40"/>
@@ -25913,7 +26031,7 @@
       <c r="T469" s="23"/>
       <c r="U469" s="23"/>
       <c r="V469" s="23"/>
-      <c r="W469" s="23"/>
+      <c r="W469" s="40"/>
       <c r="X469" s="40"/>
       <c r="Y469" s="40"/>
       <c r="Z469" s="40"/>
@@ -25973,7 +26091,7 @@
       <c r="T473" s="23"/>
       <c r="U473" s="23"/>
       <c r="V473" s="23"/>
-      <c r="W473" s="40"/>
+      <c r="W473" s="23"/>
       <c r="X473" s="40"/>
       <c r="Y473" s="40"/>
       <c r="Z473" s="40"/>
@@ -25982,13 +26100,13 @@
       <c r="AC473" s="40"/>
     </row>
     <row r="474" spans="17:29" s="21" customFormat="1">
-      <c r="Q474" s="23"/>
-      <c r="R474" s="23"/>
-      <c r="S474" s="23"/>
-      <c r="T474" s="23"/>
-      <c r="U474" s="23"/>
-      <c r="V474" s="23"/>
-      <c r="W474" s="23"/>
+      <c r="Q474" s="40"/>
+      <c r="R474" s="40"/>
+      <c r="S474" s="40"/>
+      <c r="T474" s="40"/>
+      <c r="U474" s="40"/>
+      <c r="V474" s="40"/>
+      <c r="W474" s="40"/>
       <c r="X474" s="40"/>
       <c r="Y474" s="40"/>
       <c r="Z474" s="40"/>
@@ -25997,12 +26115,12 @@
       <c r="AC474" s="40"/>
     </row>
     <row r="475" spans="17:29" s="21" customFormat="1">
-      <c r="Q475" s="40"/>
-      <c r="R475" s="40"/>
-      <c r="S475" s="40"/>
-      <c r="T475" s="40"/>
-      <c r="U475" s="40"/>
-      <c r="V475" s="40"/>
+      <c r="Q475" s="23"/>
+      <c r="R475" s="23"/>
+      <c r="S475" s="23"/>
+      <c r="T475" s="23"/>
+      <c r="U475" s="23"/>
+      <c r="V475" s="23"/>
       <c r="W475" s="40"/>
       <c r="X475" s="40"/>
       <c r="Y475" s="40"/>
@@ -26018,13 +26136,13 @@
       <c r="T476" s="23"/>
       <c r="U476" s="23"/>
       <c r="V476" s="23"/>
-      <c r="W476" s="40"/>
+      <c r="W476" s="23"/>
       <c r="X476" s="40"/>
       <c r="Y476" s="40"/>
-      <c r="Z476" s="40"/>
-      <c r="AA476" s="40"/>
-      <c r="AB476" s="40"/>
-      <c r="AC476" s="40"/>
+      <c r="Z476" s="23"/>
+      <c r="AA476" s="23"/>
+      <c r="AB476" s="23"/>
+      <c r="AC476" s="23"/>
     </row>
     <row r="477" spans="17:29" s="21" customFormat="1">
       <c r="Q477" s="23"/>
@@ -26033,13 +26151,13 @@
       <c r="T477" s="23"/>
       <c r="U477" s="23"/>
       <c r="V477" s="23"/>
-      <c r="W477" s="23"/>
+      <c r="W477" s="40"/>
       <c r="X477" s="40"/>
       <c r="Y477" s="40"/>
-      <c r="Z477" s="23"/>
-      <c r="AA477" s="23"/>
-      <c r="AB477" s="23"/>
-      <c r="AC477" s="23"/>
+      <c r="Z477" s="40"/>
+      <c r="AA477" s="40"/>
+      <c r="AB477" s="40"/>
+      <c r="AC477" s="40"/>
     </row>
     <row r="478" spans="17:29" s="21" customFormat="1">
       <c r="Q478" s="23"/>
@@ -26048,13 +26166,13 @@
       <c r="T478" s="23"/>
       <c r="U478" s="23"/>
       <c r="V478" s="23"/>
-      <c r="W478" s="40"/>
+      <c r="W478" s="23"/>
       <c r="X478" s="40"/>
       <c r="Y478" s="40"/>
-      <c r="Z478" s="40"/>
-      <c r="AA478" s="40"/>
-      <c r="AB478" s="40"/>
-      <c r="AC478" s="40"/>
+      <c r="Z478" s="23"/>
+      <c r="AA478" s="23"/>
+      <c r="AB478" s="23"/>
+      <c r="AC478" s="23"/>
     </row>
     <row r="479" spans="17:29" s="21" customFormat="1">
       <c r="Q479" s="23"/>
@@ -26063,13 +26181,13 @@
       <c r="T479" s="23"/>
       <c r="U479" s="23"/>
       <c r="V479" s="23"/>
-      <c r="W479" s="23"/>
+      <c r="W479" s="40"/>
       <c r="X479" s="40"/>
       <c r="Y479" s="40"/>
-      <c r="Z479" s="23"/>
-      <c r="AA479" s="23"/>
-      <c r="AB479" s="23"/>
-      <c r="AC479" s="23"/>
+      <c r="Z479" s="40"/>
+      <c r="AA479" s="40"/>
+      <c r="AB479" s="40"/>
+      <c r="AC479" s="40"/>
     </row>
     <row r="480" spans="17:29" s="21" customFormat="1">
       <c r="Q480" s="23"/>
@@ -26078,7 +26196,7 @@
       <c r="T480" s="23"/>
       <c r="U480" s="23"/>
       <c r="V480" s="23"/>
-      <c r="W480" s="40"/>
+      <c r="W480" s="23"/>
       <c r="X480" s="40"/>
       <c r="Y480" s="40"/>
       <c r="Z480" s="40"/>
@@ -26093,7 +26211,7 @@
       <c r="T481" s="23"/>
       <c r="U481" s="23"/>
       <c r="V481" s="23"/>
-      <c r="W481" s="23"/>
+      <c r="W481" s="40"/>
       <c r="X481" s="40"/>
       <c r="Y481" s="40"/>
       <c r="Z481" s="40"/>
@@ -26108,13 +26226,13 @@
       <c r="T482" s="23"/>
       <c r="U482" s="23"/>
       <c r="V482" s="23"/>
-      <c r="W482" s="40"/>
+      <c r="W482" s="23"/>
       <c r="X482" s="40"/>
       <c r="Y482" s="40"/>
-      <c r="Z482" s="40"/>
-      <c r="AA482" s="40"/>
-      <c r="AB482" s="40"/>
-      <c r="AC482" s="40"/>
+      <c r="Z482" s="23"/>
+      <c r="AA482" s="23"/>
+      <c r="AB482" s="23"/>
+      <c r="AC482" s="23"/>
     </row>
     <row r="483" spans="17:32" s="21" customFormat="1">
       <c r="Q483" s="23"/>
@@ -26123,13 +26241,13 @@
       <c r="T483" s="23"/>
       <c r="U483" s="23"/>
       <c r="V483" s="23"/>
-      <c r="W483" s="23"/>
+      <c r="W483" s="40"/>
       <c r="X483" s="40"/>
       <c r="Y483" s="40"/>
-      <c r="Z483" s="23"/>
-      <c r="AA483" s="23"/>
-      <c r="AB483" s="23"/>
-      <c r="AC483" s="23"/>
+      <c r="Z483" s="40"/>
+      <c r="AA483" s="40"/>
+      <c r="AB483" s="40"/>
+      <c r="AC483" s="40"/>
     </row>
     <row r="484" spans="17:32" s="21" customFormat="1">
       <c r="Q484" s="23"/>
@@ -26138,13 +26256,13 @@
       <c r="T484" s="23"/>
       <c r="U484" s="23"/>
       <c r="V484" s="23"/>
-      <c r="W484" s="40"/>
+      <c r="W484" s="23"/>
       <c r="X484" s="40"/>
       <c r="Y484" s="40"/>
-      <c r="Z484" s="40"/>
-      <c r="AA484" s="40"/>
-      <c r="AB484" s="40"/>
-      <c r="AC484" s="40"/>
+      <c r="Z484" s="23"/>
+      <c r="AA484" s="23"/>
+      <c r="AB484" s="23"/>
+      <c r="AC484" s="23"/>
     </row>
     <row r="485" spans="17:32" s="21" customFormat="1">
       <c r="Q485" s="23"/>
@@ -26153,13 +26271,13 @@
       <c r="T485" s="23"/>
       <c r="U485" s="23"/>
       <c r="V485" s="23"/>
-      <c r="W485" s="23"/>
+      <c r="W485" s="40"/>
       <c r="X485" s="40"/>
       <c r="Y485" s="40"/>
-      <c r="Z485" s="23"/>
-      <c r="AA485" s="23"/>
-      <c r="AB485" s="23"/>
-      <c r="AC485" s="23"/>
+      <c r="Z485" s="40"/>
+      <c r="AA485" s="40"/>
+      <c r="AB485" s="40"/>
+      <c r="AC485" s="40"/>
     </row>
     <row r="486" spans="17:32" s="21" customFormat="1">
       <c r="Q486" s="23"/>
@@ -26183,7 +26301,7 @@
       <c r="T487" s="23"/>
       <c r="U487" s="23"/>
       <c r="V487" s="23"/>
-      <c r="W487" s="40"/>
+      <c r="W487" s="23"/>
       <c r="X487" s="40"/>
       <c r="Y487" s="40"/>
       <c r="Z487" s="40"/>
@@ -26198,7 +26316,7 @@
       <c r="T488" s="23"/>
       <c r="U488" s="23"/>
       <c r="V488" s="23"/>
-      <c r="W488" s="23"/>
+      <c r="W488" s="40"/>
       <c r="X488" s="40"/>
       <c r="Y488" s="40"/>
       <c r="Z488" s="40"/>
@@ -26228,13 +26346,13 @@
       <c r="T490" s="23"/>
       <c r="U490" s="23"/>
       <c r="V490" s="23"/>
-      <c r="W490" s="40"/>
+      <c r="W490" s="23"/>
       <c r="X490" s="40"/>
       <c r="Y490" s="40"/>
-      <c r="Z490" s="40"/>
-      <c r="AA490" s="40"/>
-      <c r="AB490" s="40"/>
-      <c r="AC490" s="40"/>
+      <c r="Z490" s="23"/>
+      <c r="AA490" s="23"/>
+      <c r="AB490" s="23"/>
+      <c r="AC490" s="23"/>
     </row>
     <row r="491" spans="17:32" s="21" customFormat="1">
       <c r="Q491" s="23"/>
@@ -26245,43 +26363,45 @@
       <c r="V491" s="23"/>
       <c r="W491" s="23"/>
       <c r="X491" s="40"/>
-      <c r="Y491" s="40"/>
+      <c r="Y491" s="23"/>
       <c r="Z491" s="23"/>
       <c r="AA491" s="23"/>
       <c r="AB491" s="23"/>
       <c r="AC491" s="23"/>
+      <c r="AD491" s="22"/>
+      <c r="AF491" s="22"/>
     </row>
     <row r="492" spans="17:32" s="21" customFormat="1">
-      <c r="Q492" s="23"/>
-      <c r="R492" s="23"/>
-      <c r="S492" s="23"/>
-      <c r="T492" s="23"/>
-      <c r="U492" s="23"/>
-      <c r="V492" s="23"/>
-      <c r="W492" s="23"/>
+      <c r="Q492" s="40"/>
+      <c r="R492" s="40"/>
+      <c r="S492" s="40"/>
+      <c r="T492" s="40"/>
+      <c r="U492" s="40"/>
+      <c r="V492" s="40"/>
+      <c r="W492" s="40"/>
       <c r="X492" s="40"/>
-      <c r="Y492" s="23"/>
-      <c r="Z492" s="23"/>
-      <c r="AA492" s="23"/>
-      <c r="AB492" s="23"/>
-      <c r="AC492" s="23"/>
-      <c r="AD492" s="22"/>
-      <c r="AF492" s="22"/>
+      <c r="Y492" s="40"/>
+      <c r="Z492" s="40"/>
+      <c r="AA492" s="40"/>
+      <c r="AB492" s="40"/>
+      <c r="AC492" s="40"/>
     </row>
     <row r="493" spans="17:32" s="21" customFormat="1">
-      <c r="Q493" s="40"/>
-      <c r="R493" s="40"/>
-      <c r="S493" s="40"/>
-      <c r="T493" s="40"/>
-      <c r="U493" s="40"/>
-      <c r="V493" s="40"/>
-      <c r="W493" s="40"/>
+      <c r="Q493" s="23"/>
+      <c r="R493" s="23"/>
+      <c r="S493" s="23"/>
+      <c r="T493" s="23"/>
+      <c r="U493" s="23"/>
+      <c r="V493" s="23"/>
+      <c r="W493" s="23"/>
       <c r="X493" s="40"/>
-      <c r="Y493" s="40"/>
-      <c r="Z493" s="40"/>
-      <c r="AA493" s="40"/>
-      <c r="AB493" s="40"/>
-      <c r="AC493" s="40"/>
+      <c r="Y493" s="23"/>
+      <c r="Z493" s="23"/>
+      <c r="AA493" s="23"/>
+      <c r="AB493" s="23"/>
+      <c r="AC493" s="23"/>
+      <c r="AD493" s="22"/>
+      <c r="AF493" s="22"/>
     </row>
     <row r="494" spans="17:32" s="21" customFormat="1">
       <c r="Q494" s="23"/>
@@ -26307,15 +26427,13 @@
       <c r="T495" s="23"/>
       <c r="U495" s="23"/>
       <c r="V495" s="23"/>
-      <c r="W495" s="23"/>
+      <c r="W495" s="40"/>
       <c r="X495" s="40"/>
-      <c r="Y495" s="23"/>
-      <c r="Z495" s="23"/>
-      <c r="AA495" s="23"/>
-      <c r="AB495" s="23"/>
-      <c r="AC495" s="23"/>
-      <c r="AD495" s="22"/>
-      <c r="AF495" s="22"/>
+      <c r="Y495" s="40"/>
+      <c r="Z495" s="40"/>
+      <c r="AA495" s="40"/>
+      <c r="AB495" s="40"/>
+      <c r="AC495" s="40"/>
     </row>
     <row r="496" spans="17:32" s="21" customFormat="1">
       <c r="Q496" s="23"/>
@@ -26324,7 +26442,7 @@
       <c r="T496" s="23"/>
       <c r="U496" s="23"/>
       <c r="V496" s="23"/>
-      <c r="W496" s="40"/>
+      <c r="W496" s="23"/>
       <c r="X496" s="40"/>
       <c r="Y496" s="40"/>
       <c r="Z496" s="40"/>
@@ -26333,13 +26451,13 @@
       <c r="AC496" s="40"/>
     </row>
     <row r="497" spans="17:32" s="21" customFormat="1">
-      <c r="Q497" s="23"/>
-      <c r="R497" s="23"/>
-      <c r="S497" s="23"/>
-      <c r="T497" s="23"/>
-      <c r="U497" s="23"/>
-      <c r="V497" s="23"/>
-      <c r="W497" s="23"/>
+      <c r="Q497" s="40"/>
+      <c r="R497" s="40"/>
+      <c r="S497" s="40"/>
+      <c r="T497" s="40"/>
+      <c r="U497" s="40"/>
+      <c r="V497" s="40"/>
+      <c r="W497" s="40"/>
       <c r="X497" s="40"/>
       <c r="Y497" s="40"/>
       <c r="Z497" s="40"/>
@@ -26348,12 +26466,12 @@
       <c r="AC497" s="40"/>
     </row>
     <row r="498" spans="17:32" s="21" customFormat="1">
-      <c r="Q498" s="40"/>
-      <c r="R498" s="40"/>
-      <c r="S498" s="40"/>
-      <c r="T498" s="40"/>
-      <c r="U498" s="40"/>
-      <c r="V498" s="40"/>
+      <c r="Q498" s="23"/>
+      <c r="R498" s="23"/>
+      <c r="S498" s="23"/>
+      <c r="T498" s="23"/>
+      <c r="U498" s="23"/>
+      <c r="V498" s="23"/>
       <c r="W498" s="40"/>
       <c r="X498" s="40"/>
       <c r="Y498" s="40"/>
@@ -26369,45 +26487,45 @@
       <c r="T499" s="23"/>
       <c r="U499" s="23"/>
       <c r="V499" s="23"/>
-      <c r="W499" s="40"/>
+      <c r="W499" s="23"/>
       <c r="X499" s="40"/>
-      <c r="Y499" s="40"/>
-      <c r="Z499" s="40"/>
-      <c r="AA499" s="40"/>
-      <c r="AB499" s="40"/>
-      <c r="AC499" s="40"/>
+      <c r="Y499" s="23"/>
+      <c r="Z499" s="23"/>
+      <c r="AA499" s="23"/>
+      <c r="AB499" s="23"/>
+      <c r="AC499" s="23"/>
+      <c r="AD499" s="22"/>
+      <c r="AF499" s="22"/>
     </row>
     <row r="500" spans="17:32" s="21" customFormat="1">
-      <c r="Q500" s="23"/>
-      <c r="R500" s="23"/>
-      <c r="S500" s="23"/>
-      <c r="T500" s="23"/>
-      <c r="U500" s="23"/>
-      <c r="V500" s="23"/>
-      <c r="W500" s="23"/>
+      <c r="Q500" s="40"/>
+      <c r="R500" s="40"/>
+      <c r="S500" s="40"/>
+      <c r="T500" s="40"/>
+      <c r="U500" s="40"/>
+      <c r="V500" s="40"/>
+      <c r="W500" s="40"/>
       <c r="X500" s="40"/>
-      <c r="Y500" s="23"/>
-      <c r="Z500" s="23"/>
-      <c r="AA500" s="23"/>
-      <c r="AB500" s="23"/>
-      <c r="AC500" s="23"/>
-      <c r="AD500" s="22"/>
-      <c r="AF500" s="22"/>
+      <c r="Y500" s="40"/>
+      <c r="Z500" s="40"/>
+      <c r="AA500" s="40"/>
+      <c r="AB500" s="40"/>
+      <c r="AC500" s="40"/>
     </row>
     <row r="501" spans="17:32" s="21" customFormat="1">
-      <c r="Q501" s="40"/>
-      <c r="R501" s="40"/>
-      <c r="S501" s="40"/>
-      <c r="T501" s="40"/>
-      <c r="U501" s="40"/>
-      <c r="V501" s="40"/>
-      <c r="W501" s="40"/>
+      <c r="Q501" s="23"/>
+      <c r="R501" s="23"/>
+      <c r="S501" s="23"/>
+      <c r="T501" s="23"/>
+      <c r="U501" s="23"/>
+      <c r="V501" s="23"/>
+      <c r="W501" s="23"/>
       <c r="X501" s="40"/>
       <c r="Y501" s="40"/>
-      <c r="Z501" s="40"/>
-      <c r="AA501" s="40"/>
-      <c r="AB501" s="40"/>
-      <c r="AC501" s="40"/>
+      <c r="Z501" s="23"/>
+      <c r="AA501" s="23"/>
+      <c r="AB501" s="23"/>
+      <c r="AC501" s="23"/>
     </row>
     <row r="502" spans="17:32" s="21" customFormat="1">
       <c r="Q502" s="23"/>
@@ -26418,11 +26536,13 @@
       <c r="V502" s="23"/>
       <c r="W502" s="23"/>
       <c r="X502" s="40"/>
-      <c r="Y502" s="40"/>
+      <c r="Y502" s="23"/>
       <c r="Z502" s="23"/>
       <c r="AA502" s="23"/>
       <c r="AB502" s="23"/>
       <c r="AC502" s="23"/>
+      <c r="AD502" s="22"/>
+      <c r="AF502" s="22"/>
     </row>
     <row r="503" spans="17:32" s="21" customFormat="1">
       <c r="Q503" s="23"/>
@@ -26431,23 +26551,21 @@
       <c r="T503" s="23"/>
       <c r="U503" s="23"/>
       <c r="V503" s="23"/>
-      <c r="W503" s="23"/>
+      <c r="W503" s="40"/>
       <c r="X503" s="40"/>
-      <c r="Y503" s="23"/>
-      <c r="Z503" s="23"/>
-      <c r="AA503" s="23"/>
-      <c r="AB503" s="23"/>
-      <c r="AC503" s="23"/>
-      <c r="AD503" s="22"/>
-      <c r="AF503" s="22"/>
+      <c r="Y503" s="40"/>
+      <c r="Z503" s="40"/>
+      <c r="AA503" s="40"/>
+      <c r="AB503" s="40"/>
+      <c r="AC503" s="40"/>
     </row>
     <row r="504" spans="17:32" s="21" customFormat="1">
-      <c r="Q504" s="23"/>
-      <c r="R504" s="23"/>
-      <c r="S504" s="23"/>
-      <c r="T504" s="23"/>
-      <c r="U504" s="23"/>
-      <c r="V504" s="23"/>
+      <c r="Q504" s="40"/>
+      <c r="R504" s="40"/>
+      <c r="S504" s="40"/>
+      <c r="T504" s="40"/>
+      <c r="U504" s="40"/>
+      <c r="V504" s="40"/>
       <c r="W504" s="40"/>
       <c r="X504" s="40"/>
       <c r="Y504" s="40"/>
@@ -26472,12 +26590,12 @@
       <c r="AC505" s="40"/>
     </row>
     <row r="506" spans="17:32" s="21" customFormat="1">
-      <c r="Q506" s="40"/>
-      <c r="R506" s="40"/>
-      <c r="S506" s="40"/>
-      <c r="T506" s="40"/>
-      <c r="U506" s="40"/>
-      <c r="V506" s="40"/>
+      <c r="Q506" s="23"/>
+      <c r="R506" s="23"/>
+      <c r="S506" s="23"/>
+      <c r="T506" s="23"/>
+      <c r="U506" s="23"/>
+      <c r="V506" s="23"/>
       <c r="W506" s="40"/>
       <c r="X506" s="40"/>
       <c r="Y506" s="40"/>
@@ -26508,13 +26626,13 @@
       <c r="T508" s="23"/>
       <c r="U508" s="23"/>
       <c r="V508" s="23"/>
-      <c r="W508" s="40"/>
+      <c r="W508" s="23"/>
       <c r="X508" s="40"/>
       <c r="Y508" s="40"/>
-      <c r="Z508" s="40"/>
-      <c r="AA508" s="40"/>
-      <c r="AB508" s="40"/>
-      <c r="AC508" s="40"/>
+      <c r="Z508" s="23"/>
+      <c r="AA508" s="23"/>
+      <c r="AB508" s="23"/>
+      <c r="AC508" s="23"/>
     </row>
     <row r="509" spans="17:32" s="21" customFormat="1">
       <c r="Q509" s="23"/>
@@ -26525,36 +26643,36 @@
       <c r="V509" s="23"/>
       <c r="W509" s="23"/>
       <c r="X509" s="40"/>
-      <c r="Y509" s="40"/>
+      <c r="Y509" s="23"/>
       <c r="Z509" s="23"/>
       <c r="AA509" s="23"/>
       <c r="AB509" s="23"/>
       <c r="AC509" s="23"/>
+      <c r="AD509" s="22"/>
+      <c r="AF509" s="22"/>
     </row>
     <row r="510" spans="17:32" s="21" customFormat="1">
-      <c r="Q510" s="23"/>
-      <c r="R510" s="23"/>
-      <c r="S510" s="23"/>
-      <c r="T510" s="23"/>
-      <c r="U510" s="23"/>
-      <c r="V510" s="23"/>
-      <c r="W510" s="23"/>
+      <c r="Q510" s="40"/>
+      <c r="R510" s="40"/>
+      <c r="S510" s="40"/>
+      <c r="T510" s="40"/>
+      <c r="U510" s="40"/>
+      <c r="V510" s="40"/>
+      <c r="W510" s="40"/>
       <c r="X510" s="40"/>
-      <c r="Y510" s="23"/>
-      <c r="Z510" s="23"/>
-      <c r="AA510" s="23"/>
-      <c r="AB510" s="23"/>
-      <c r="AC510" s="23"/>
-      <c r="AD510" s="22"/>
-      <c r="AF510" s="22"/>
+      <c r="Y510" s="40"/>
+      <c r="Z510" s="40"/>
+      <c r="AA510" s="40"/>
+      <c r="AB510" s="40"/>
+      <c r="AC510" s="40"/>
     </row>
     <row r="511" spans="17:32" s="21" customFormat="1">
-      <c r="Q511" s="40"/>
-      <c r="R511" s="40"/>
-      <c r="S511" s="40"/>
-      <c r="T511" s="40"/>
-      <c r="U511" s="40"/>
-      <c r="V511" s="40"/>
+      <c r="Q511" s="23"/>
+      <c r="R511" s="23"/>
+      <c r="S511" s="23"/>
+      <c r="T511" s="23"/>
+      <c r="U511" s="23"/>
+      <c r="V511" s="23"/>
       <c r="W511" s="40"/>
       <c r="X511" s="40"/>
       <c r="Y511" s="40"/>
@@ -26600,7 +26718,7 @@
       <c r="T514" s="23"/>
       <c r="U514" s="23"/>
       <c r="V514" s="23"/>
-      <c r="W514" s="40"/>
+      <c r="W514" s="23"/>
       <c r="X514" s="40"/>
       <c r="Y514" s="40"/>
       <c r="Z514" s="40"/>
@@ -26618,10 +26736,10 @@
       <c r="W515" s="23"/>
       <c r="X515" s="40"/>
       <c r="Y515" s="40"/>
-      <c r="Z515" s="40"/>
-      <c r="AA515" s="40"/>
-      <c r="AB515" s="40"/>
-      <c r="AC515" s="40"/>
+      <c r="Z515" s="23"/>
+      <c r="AA515" s="23"/>
+      <c r="AB515" s="23"/>
+      <c r="AC515" s="23"/>
     </row>
     <row r="516" spans="17:32" s="21" customFormat="1">
       <c r="Q516" s="23"/>
@@ -26632,11 +26750,13 @@
       <c r="V516" s="23"/>
       <c r="W516" s="23"/>
       <c r="X516" s="40"/>
-      <c r="Y516" s="40"/>
+      <c r="Y516" s="23"/>
       <c r="Z516" s="23"/>
       <c r="AA516" s="23"/>
       <c r="AB516" s="23"/>
       <c r="AC516" s="23"/>
+      <c r="AD516" s="22"/>
+      <c r="AF516" s="22"/>
     </row>
     <row r="517" spans="17:32" s="21" customFormat="1">
       <c r="Q517" s="23"/>
@@ -26647,22 +26767,20 @@
       <c r="V517" s="23"/>
       <c r="W517" s="23"/>
       <c r="X517" s="40"/>
-      <c r="Y517" s="23"/>
-      <c r="Z517" s="23"/>
-      <c r="AA517" s="23"/>
-      <c r="AB517" s="23"/>
-      <c r="AC517" s="23"/>
-      <c r="AD517" s="22"/>
-      <c r="AF517" s="22"/>
+      <c r="Y517" s="40"/>
+      <c r="Z517" s="40"/>
+      <c r="AA517" s="40"/>
+      <c r="AB517" s="40"/>
+      <c r="AC517" s="40"/>
     </row>
     <row r="518" spans="17:32" s="21" customFormat="1">
-      <c r="Q518" s="23"/>
-      <c r="R518" s="23"/>
-      <c r="S518" s="23"/>
-      <c r="T518" s="23"/>
-      <c r="U518" s="23"/>
-      <c r="V518" s="23"/>
-      <c r="W518" s="23"/>
+      <c r="Q518" s="40"/>
+      <c r="R518" s="40"/>
+      <c r="S518" s="40"/>
+      <c r="T518" s="40"/>
+      <c r="U518" s="40"/>
+      <c r="V518" s="40"/>
+      <c r="W518" s="40"/>
       <c r="X518" s="40"/>
       <c r="Y518" s="40"/>
       <c r="Z518" s="40"/>
@@ -26671,44 +26789,44 @@
       <c r="AC518" s="40"/>
     </row>
     <row r="519" spans="17:32" s="21" customFormat="1">
-      <c r="Q519" s="40"/>
-      <c r="R519" s="40"/>
-      <c r="S519" s="40"/>
-      <c r="T519" s="40"/>
-      <c r="U519" s="40"/>
-      <c r="V519" s="40"/>
-      <c r="W519" s="40"/>
+      <c r="Q519" s="23"/>
+      <c r="R519" s="23"/>
+      <c r="S519" s="23"/>
+      <c r="T519" s="23"/>
+      <c r="U519" s="23"/>
+      <c r="V519" s="23"/>
+      <c r="W519" s="23"/>
       <c r="X519" s="40"/>
-      <c r="Y519" s="40"/>
-      <c r="Z519" s="40"/>
-      <c r="AA519" s="40"/>
-      <c r="AB519" s="40"/>
-      <c r="AC519" s="40"/>
+      <c r="Y519" s="23"/>
+      <c r="Z519" s="23"/>
+      <c r="AA519" s="23"/>
+      <c r="AB519" s="23"/>
+      <c r="AC519" s="23"/>
+      <c r="AD519" s="22"/>
+      <c r="AF519" s="22"/>
     </row>
     <row r="520" spans="17:32" s="21" customFormat="1">
-      <c r="Q520" s="23"/>
-      <c r="R520" s="23"/>
-      <c r="S520" s="23"/>
-      <c r="T520" s="23"/>
-      <c r="U520" s="23"/>
-      <c r="V520" s="23"/>
-      <c r="W520" s="23"/>
+      <c r="Q520" s="40"/>
+      <c r="R520" s="40"/>
+      <c r="S520" s="40"/>
+      <c r="T520" s="40"/>
+      <c r="U520" s="40"/>
+      <c r="V520" s="40"/>
+      <c r="W520" s="40"/>
       <c r="X520" s="40"/>
-      <c r="Y520" s="23"/>
-      <c r="Z520" s="23"/>
-      <c r="AA520" s="23"/>
-      <c r="AB520" s="23"/>
-      <c r="AC520" s="23"/>
-      <c r="AD520" s="22"/>
-      <c r="AF520" s="22"/>
+      <c r="Y520" s="40"/>
+      <c r="Z520" s="40"/>
+      <c r="AA520" s="40"/>
+      <c r="AB520" s="40"/>
+      <c r="AC520" s="40"/>
     </row>
     <row r="521" spans="17:32" s="21" customFormat="1">
-      <c r="Q521" s="40"/>
-      <c r="R521" s="40"/>
-      <c r="S521" s="40"/>
-      <c r="T521" s="40"/>
-      <c r="U521" s="40"/>
-      <c r="V521" s="40"/>
+      <c r="Q521" s="23"/>
+      <c r="R521" s="23"/>
+      <c r="S521" s="23"/>
+      <c r="T521" s="23"/>
+      <c r="U521" s="23"/>
+      <c r="V521" s="23"/>
       <c r="W521" s="40"/>
       <c r="X521" s="40"/>
       <c r="Y521" s="40"/>
@@ -26739,13 +26857,13 @@
       <c r="T523" s="23"/>
       <c r="U523" s="23"/>
       <c r="V523" s="23"/>
-      <c r="W523" s="40"/>
+      <c r="W523" s="23"/>
       <c r="X523" s="40"/>
       <c r="Y523" s="40"/>
-      <c r="Z523" s="40"/>
-      <c r="AA523" s="40"/>
-      <c r="AB523" s="40"/>
-      <c r="AC523" s="40"/>
+      <c r="Z523" s="23"/>
+      <c r="AA523" s="23"/>
+      <c r="AB523" s="23"/>
+      <c r="AC523" s="23"/>
     </row>
     <row r="524" spans="17:32" s="21" customFormat="1">
       <c r="Q524" s="23"/>
@@ -26756,36 +26874,36 @@
       <c r="V524" s="23"/>
       <c r="W524" s="23"/>
       <c r="X524" s="40"/>
-      <c r="Y524" s="40"/>
+      <c r="Y524" s="23"/>
       <c r="Z524" s="23"/>
       <c r="AA524" s="23"/>
       <c r="AB524" s="23"/>
       <c r="AC524" s="23"/>
+      <c r="AD524" s="22"/>
+      <c r="AF524" s="22"/>
     </row>
     <row r="525" spans="17:32" s="21" customFormat="1">
-      <c r="Q525" s="23"/>
-      <c r="R525" s="23"/>
-      <c r="S525" s="23"/>
-      <c r="T525" s="23"/>
-      <c r="U525" s="23"/>
-      <c r="V525" s="23"/>
-      <c r="W525" s="23"/>
+      <c r="Q525" s="40"/>
+      <c r="R525" s="40"/>
+      <c r="S525" s="40"/>
+      <c r="T525" s="40"/>
+      <c r="U525" s="40"/>
+      <c r="V525" s="40"/>
+      <c r="W525" s="40"/>
       <c r="X525" s="40"/>
-      <c r="Y525" s="23"/>
-      <c r="Z525" s="23"/>
-      <c r="AA525" s="23"/>
-      <c r="AB525" s="23"/>
-      <c r="AC525" s="23"/>
-      <c r="AD525" s="22"/>
-      <c r="AF525" s="22"/>
+      <c r="Y525" s="40"/>
+      <c r="Z525" s="40"/>
+      <c r="AA525" s="40"/>
+      <c r="AB525" s="40"/>
+      <c r="AC525" s="40"/>
     </row>
     <row r="526" spans="17:32" s="21" customFormat="1">
-      <c r="Q526" s="40"/>
-      <c r="R526" s="40"/>
-      <c r="S526" s="40"/>
-      <c r="T526" s="40"/>
-      <c r="U526" s="40"/>
-      <c r="V526" s="40"/>
+      <c r="Q526" s="23"/>
+      <c r="R526" s="23"/>
+      <c r="S526" s="23"/>
+      <c r="T526" s="23"/>
+      <c r="U526" s="23"/>
+      <c r="V526" s="23"/>
       <c r="W526" s="40"/>
       <c r="X526" s="40"/>
       <c r="Y526" s="40"/>
@@ -26831,7 +26949,7 @@
       <c r="T529" s="23"/>
       <c r="U529" s="23"/>
       <c r="V529" s="23"/>
-      <c r="W529" s="40"/>
+      <c r="W529" s="23"/>
       <c r="X529" s="40"/>
       <c r="Y529" s="40"/>
       <c r="Z529" s="40"/>
@@ -26849,10 +26967,10 @@
       <c r="W530" s="23"/>
       <c r="X530" s="40"/>
       <c r="Y530" s="40"/>
-      <c r="Z530" s="40"/>
-      <c r="AA530" s="40"/>
-      <c r="AB530" s="40"/>
-      <c r="AC530" s="40"/>
+      <c r="Z530" s="23"/>
+      <c r="AA530" s="23"/>
+      <c r="AB530" s="23"/>
+      <c r="AC530" s="23"/>
     </row>
     <row r="531" spans="17:32" s="21" customFormat="1">
       <c r="Q531" s="23"/>
@@ -26863,11 +26981,13 @@
       <c r="V531" s="23"/>
       <c r="W531" s="23"/>
       <c r="X531" s="40"/>
-      <c r="Y531" s="40"/>
+      <c r="Y531" s="23"/>
       <c r="Z531" s="23"/>
       <c r="AA531" s="23"/>
       <c r="AB531" s="23"/>
       <c r="AC531" s="23"/>
+      <c r="AD531" s="22"/>
+      <c r="AF531" s="22"/>
     </row>
     <row r="532" spans="17:32" s="21" customFormat="1">
       <c r="Q532" s="23"/>
@@ -26878,22 +26998,20 @@
       <c r="V532" s="23"/>
       <c r="W532" s="23"/>
       <c r="X532" s="40"/>
-      <c r="Y532" s="23"/>
-      <c r="Z532" s="23"/>
-      <c r="AA532" s="23"/>
-      <c r="AB532" s="23"/>
-      <c r="AC532" s="23"/>
-      <c r="AD532" s="22"/>
-      <c r="AF532" s="22"/>
+      <c r="Y532" s="40"/>
+      <c r="Z532" s="40"/>
+      <c r="AA532" s="40"/>
+      <c r="AB532" s="40"/>
+      <c r="AC532" s="40"/>
     </row>
     <row r="533" spans="17:32" s="21" customFormat="1">
-      <c r="Q533" s="23"/>
-      <c r="R533" s="23"/>
-      <c r="S533" s="23"/>
-      <c r="T533" s="23"/>
-      <c r="U533" s="23"/>
-      <c r="V533" s="23"/>
-      <c r="W533" s="23"/>
+      <c r="Q533" s="40"/>
+      <c r="R533" s="40"/>
+      <c r="S533" s="40"/>
+      <c r="T533" s="40"/>
+      <c r="U533" s="40"/>
+      <c r="V533" s="40"/>
+      <c r="W533" s="40"/>
       <c r="X533" s="40"/>
       <c r="Y533" s="40"/>
       <c r="Z533" s="40"/>
@@ -26902,45 +27020,45 @@
       <c r="AC533" s="40"/>
     </row>
     <row r="534" spans="17:32" s="21" customFormat="1">
-      <c r="Q534" s="40"/>
-      <c r="R534" s="40"/>
-      <c r="S534" s="40"/>
-      <c r="T534" s="40"/>
-      <c r="U534" s="40"/>
-      <c r="V534" s="40"/>
+      <c r="Q534" s="23"/>
+      <c r="R534" s="23"/>
+      <c r="S534" s="23"/>
+      <c r="T534" s="23"/>
+      <c r="U534" s="23"/>
+      <c r="V534" s="23"/>
       <c r="W534" s="40"/>
-      <c r="X534" s="40"/>
-      <c r="Y534" s="40"/>
-      <c r="Z534" s="40"/>
-      <c r="AA534" s="40"/>
-      <c r="AB534" s="40"/>
-      <c r="AC534" s="40"/>
+      <c r="X534" s="23"/>
+      <c r="Y534" s="23"/>
+      <c r="Z534" s="23"/>
+      <c r="AA534" s="23"/>
+      <c r="AB534" s="23"/>
+      <c r="AC534" s="23"/>
+      <c r="AD534" s="22"/>
+      <c r="AF534" s="22"/>
     </row>
     <row r="535" spans="17:32" s="21" customFormat="1">
-      <c r="Q535" s="23"/>
-      <c r="R535" s="23"/>
-      <c r="S535" s="23"/>
-      <c r="T535" s="23"/>
-      <c r="U535" s="23"/>
-      <c r="V535" s="23"/>
+      <c r="Q535" s="40"/>
+      <c r="R535" s="40"/>
+      <c r="S535" s="40"/>
+      <c r="T535" s="40"/>
+      <c r="U535" s="40"/>
+      <c r="V535" s="40"/>
       <c r="W535" s="40"/>
-      <c r="X535" s="23"/>
-      <c r="Y535" s="23"/>
-      <c r="Z535" s="23"/>
-      <c r="AA535" s="23"/>
-      <c r="AB535" s="23"/>
-      <c r="AC535" s="23"/>
-      <c r="AD535" s="22"/>
-      <c r="AF535" s="22"/>
+      <c r="X535" s="40"/>
+      <c r="Y535" s="40"/>
+      <c r="Z535" s="40"/>
+      <c r="AA535" s="40"/>
+      <c r="AB535" s="40"/>
+      <c r="AC535" s="40"/>
     </row>
     <row r="536" spans="17:32" s="21" customFormat="1">
-      <c r="Q536" s="40"/>
-      <c r="R536" s="40"/>
-      <c r="S536" s="40"/>
-      <c r="T536" s="40"/>
-      <c r="U536" s="40"/>
-      <c r="V536" s="40"/>
-      <c r="W536" s="40"/>
+      <c r="Q536" s="23"/>
+      <c r="R536" s="23"/>
+      <c r="S536" s="23"/>
+      <c r="T536" s="23"/>
+      <c r="U536" s="23"/>
+      <c r="V536" s="23"/>
+      <c r="W536" s="23"/>
       <c r="X536" s="40"/>
       <c r="Y536" s="40"/>
       <c r="Z536" s="40"/>
@@ -26979,27 +27097,29 @@
       <c r="AC538" s="40"/>
     </row>
     <row r="539" spans="17:32" s="21" customFormat="1">
-      <c r="Q539" s="23"/>
-      <c r="R539" s="23"/>
-      <c r="S539" s="23"/>
-      <c r="T539" s="23"/>
-      <c r="U539" s="23"/>
-      <c r="V539" s="23"/>
-      <c r="W539" s="23"/>
-      <c r="X539" s="40"/>
-      <c r="Y539" s="40"/>
-      <c r="Z539" s="40"/>
-      <c r="AA539" s="40"/>
-      <c r="AB539" s="40"/>
-      <c r="AC539" s="40"/>
+      <c r="Q539" s="40"/>
+      <c r="R539" s="40"/>
+      <c r="S539" s="40"/>
+      <c r="T539" s="40"/>
+      <c r="U539" s="40"/>
+      <c r="V539" s="40"/>
+      <c r="W539" s="40"/>
+      <c r="X539" s="23"/>
+      <c r="Y539" s="23"/>
+      <c r="Z539" s="23"/>
+      <c r="AA539" s="23"/>
+      <c r="AB539" s="23"/>
+      <c r="AC539" s="23"/>
+      <c r="AD539" s="22"/>
+      <c r="AF539" s="22"/>
     </row>
     <row r="540" spans="17:32" s="21" customFormat="1">
-      <c r="Q540" s="40"/>
-      <c r="R540" s="40"/>
-      <c r="S540" s="40"/>
-      <c r="T540" s="40"/>
-      <c r="U540" s="40"/>
-      <c r="V540" s="40"/>
+      <c r="Q540" s="23"/>
+      <c r="R540" s="23"/>
+      <c r="S540" s="23"/>
+      <c r="T540" s="23"/>
+      <c r="U540" s="23"/>
+      <c r="V540" s="23"/>
       <c r="W540" s="40"/>
       <c r="X540" s="23"/>
       <c r="Y540" s="23"/>
@@ -27017,15 +27137,13 @@
       <c r="T541" s="23"/>
       <c r="U541" s="23"/>
       <c r="V541" s="23"/>
-      <c r="W541" s="40"/>
-      <c r="X541" s="23"/>
-      <c r="Y541" s="23"/>
+      <c r="W541" s="23"/>
+      <c r="X541" s="40"/>
+      <c r="Y541" s="40"/>
       <c r="Z541" s="23"/>
       <c r="AA541" s="23"/>
       <c r="AB541" s="23"/>
       <c r="AC541" s="23"/>
-      <c r="AD541" s="22"/>
-      <c r="AF541" s="22"/>
     </row>
     <row r="542" spans="17:32" s="21" customFormat="1">
       <c r="Q542" s="23"/>
@@ -27064,13 +27182,13 @@
       <c r="T544" s="23"/>
       <c r="U544" s="23"/>
       <c r="V544" s="23"/>
-      <c r="W544" s="23"/>
+      <c r="W544" s="40"/>
       <c r="X544" s="40"/>
       <c r="Y544" s="40"/>
-      <c r="Z544" s="23"/>
-      <c r="AA544" s="23"/>
-      <c r="AB544" s="23"/>
-      <c r="AC544" s="23"/>
+      <c r="Z544" s="40"/>
+      <c r="AA544" s="40"/>
+      <c r="AB544" s="40"/>
+      <c r="AC544" s="40"/>
     </row>
     <row r="545" spans="9:32" s="21" customFormat="1">
       <c r="Q545" s="23"/>
@@ -27094,40 +27212,43 @@
       <c r="T546" s="23"/>
       <c r="U546" s="23"/>
       <c r="V546" s="23"/>
-      <c r="W546" s="40"/>
+      <c r="W546" s="23"/>
       <c r="X546" s="40"/>
-      <c r="Y546" s="40"/>
-      <c r="Z546" s="40"/>
-      <c r="AA546" s="40"/>
-      <c r="AB546" s="40"/>
-      <c r="AC546" s="40"/>
+      <c r="Y546" s="23"/>
+      <c r="Z546" s="23"/>
+      <c r="AA546" s="23"/>
+      <c r="AB546" s="23"/>
+      <c r="AC546" s="23"/>
+      <c r="AD546" s="22"/>
+      <c r="AF546" s="22"/>
     </row>
     <row r="547" spans="9:32" s="21" customFormat="1">
-      <c r="Q547" s="23"/>
-      <c r="R547" s="23"/>
-      <c r="S547" s="23"/>
-      <c r="T547" s="23"/>
-      <c r="U547" s="23"/>
-      <c r="V547" s="23"/>
-      <c r="W547" s="23"/>
+      <c r="J547" s="36"/>
+      <c r="K547" s="36"/>
+      <c r="Q547" s="40"/>
+      <c r="R547" s="40"/>
+      <c r="S547" s="40"/>
+      <c r="T547" s="40"/>
+      <c r="U547" s="40"/>
+      <c r="V547" s="40"/>
+      <c r="W547" s="40"/>
       <c r="X547" s="40"/>
-      <c r="Y547" s="23"/>
-      <c r="Z547" s="23"/>
-      <c r="AA547" s="23"/>
-      <c r="AB547" s="23"/>
-      <c r="AC547" s="23"/>
-      <c r="AD547" s="22"/>
-      <c r="AF547" s="22"/>
+      <c r="Y547" s="40"/>
+      <c r="Z547" s="40"/>
+      <c r="AA547" s="40"/>
+      <c r="AB547" s="40"/>
+      <c r="AC547" s="40"/>
     </row>
     <row r="548" spans="9:32" s="21" customFormat="1">
-      <c r="J548" s="36"/>
-      <c r="K548" s="36"/>
-      <c r="Q548" s="40"/>
-      <c r="R548" s="40"/>
-      <c r="S548" s="40"/>
-      <c r="T548" s="40"/>
-      <c r="U548" s="40"/>
-      <c r="V548" s="40"/>
+      <c r="I548" s="36"/>
+      <c r="L548" s="36"/>
+      <c r="M548" s="36"/>
+      <c r="Q548" s="23"/>
+      <c r="R548" s="23"/>
+      <c r="S548" s="23"/>
+      <c r="T548" s="23"/>
+      <c r="U548" s="23"/>
+      <c r="V548" s="23"/>
       <c r="W548" s="40"/>
       <c r="X548" s="40"/>
       <c r="Y548" s="40"/>
@@ -27137,15 +27258,12 @@
       <c r="AC548" s="40"/>
     </row>
     <row r="549" spans="9:32" s="21" customFormat="1">
-      <c r="I549" s="36"/>
-      <c r="L549" s="36"/>
-      <c r="M549" s="36"/>
-      <c r="Q549" s="23"/>
-      <c r="R549" s="23"/>
-      <c r="S549" s="23"/>
-      <c r="T549" s="23"/>
-      <c r="U549" s="23"/>
-      <c r="V549" s="23"/>
+      <c r="Q549" s="40"/>
+      <c r="R549" s="40"/>
+      <c r="S549" s="40"/>
+      <c r="T549" s="40"/>
+      <c r="U549" s="40"/>
+      <c r="V549" s="40"/>
       <c r="W549" s="40"/>
       <c r="X549" s="40"/>
       <c r="Y549" s="40"/>
@@ -27155,19 +27273,19 @@
       <c r="AC549" s="40"/>
     </row>
     <row r="550" spans="9:32" s="21" customFormat="1">
-      <c r="Q550" s="40"/>
-      <c r="R550" s="40"/>
-      <c r="S550" s="40"/>
-      <c r="T550" s="40"/>
-      <c r="U550" s="40"/>
-      <c r="V550" s="40"/>
-      <c r="W550" s="40"/>
+      <c r="Q550" s="23"/>
+      <c r="R550" s="23"/>
+      <c r="S550" s="23"/>
+      <c r="T550" s="23"/>
+      <c r="U550" s="23"/>
+      <c r="V550" s="23"/>
+      <c r="W550" s="23"/>
       <c r="X550" s="40"/>
       <c r="Y550" s="40"/>
-      <c r="Z550" s="40"/>
-      <c r="AA550" s="40"/>
-      <c r="AB550" s="40"/>
-      <c r="AC550" s="40"/>
+      <c r="Z550" s="23"/>
+      <c r="AA550" s="23"/>
+      <c r="AB550" s="23"/>
+      <c r="AC550" s="23"/>
     </row>
     <row r="551" spans="9:32" s="21" customFormat="1">
       <c r="Q551" s="23"/>
@@ -27178,36 +27296,36 @@
       <c r="V551" s="23"/>
       <c r="W551" s="23"/>
       <c r="X551" s="40"/>
-      <c r="Y551" s="40"/>
+      <c r="Y551" s="23"/>
       <c r="Z551" s="23"/>
       <c r="AA551" s="23"/>
       <c r="AB551" s="23"/>
       <c r="AC551" s="23"/>
+      <c r="AD551" s="22"/>
+      <c r="AF551" s="22"/>
     </row>
     <row r="552" spans="9:32" s="21" customFormat="1">
-      <c r="Q552" s="23"/>
-      <c r="R552" s="23"/>
-      <c r="S552" s="23"/>
-      <c r="T552" s="23"/>
-      <c r="U552" s="23"/>
-      <c r="V552" s="23"/>
-      <c r="W552" s="23"/>
+      <c r="Q552" s="40"/>
+      <c r="R552" s="40"/>
+      <c r="S552" s="40"/>
+      <c r="T552" s="40"/>
+      <c r="U552" s="40"/>
+      <c r="V552" s="40"/>
+      <c r="W552" s="40"/>
       <c r="X552" s="40"/>
-      <c r="Y552" s="23"/>
-      <c r="Z552" s="23"/>
-      <c r="AA552" s="23"/>
-      <c r="AB552" s="23"/>
-      <c r="AC552" s="23"/>
-      <c r="AD552" s="22"/>
-      <c r="AF552" s="22"/>
+      <c r="Y552" s="40"/>
+      <c r="Z552" s="40"/>
+      <c r="AA552" s="40"/>
+      <c r="AB552" s="40"/>
+      <c r="AC552" s="40"/>
     </row>
     <row r="553" spans="9:32" s="21" customFormat="1">
-      <c r="Q553" s="40"/>
-      <c r="R553" s="40"/>
-      <c r="S553" s="40"/>
-      <c r="T553" s="40"/>
-      <c r="U553" s="40"/>
-      <c r="V553" s="40"/>
+      <c r="Q553" s="23"/>
+      <c r="R553" s="23"/>
+      <c r="S553" s="23"/>
+      <c r="T553" s="23"/>
+      <c r="U553" s="23"/>
+      <c r="V553" s="23"/>
       <c r="W553" s="40"/>
       <c r="X553" s="40"/>
       <c r="Y553" s="40"/>
@@ -27238,7 +27356,7 @@
       <c r="T555" s="23"/>
       <c r="U555" s="23"/>
       <c r="V555" s="23"/>
-      <c r="W555" s="40"/>
+      <c r="W555" s="23"/>
       <c r="X555" s="40"/>
       <c r="Y555" s="40"/>
       <c r="Z555" s="40"/>
@@ -27262,13 +27380,13 @@
       <c r="AC556" s="40"/>
     </row>
     <row r="557" spans="9:32" s="21" customFormat="1">
-      <c r="Q557" s="23"/>
-      <c r="R557" s="23"/>
-      <c r="S557" s="23"/>
-      <c r="T557" s="23"/>
-      <c r="U557" s="23"/>
-      <c r="V557" s="23"/>
-      <c r="W557" s="23"/>
+      <c r="Q557" s="40"/>
+      <c r="R557" s="40"/>
+      <c r="S557" s="40"/>
+      <c r="T557" s="40"/>
+      <c r="U557" s="40"/>
+      <c r="V557" s="40"/>
+      <c r="W557" s="40"/>
       <c r="X557" s="40"/>
       <c r="Y557" s="40"/>
       <c r="Z557" s="40"/>
@@ -27277,19 +27395,21 @@
       <c r="AC557" s="40"/>
     </row>
     <row r="558" spans="9:32" s="21" customFormat="1">
-      <c r="Q558" s="40"/>
-      <c r="R558" s="40"/>
-      <c r="S558" s="40"/>
-      <c r="T558" s="40"/>
-      <c r="U558" s="40"/>
-      <c r="V558" s="40"/>
+      <c r="Q558" s="23"/>
+      <c r="R558" s="23"/>
+      <c r="S558" s="23"/>
+      <c r="T558" s="23"/>
+      <c r="U558" s="23"/>
+      <c r="V558" s="23"/>
       <c r="W558" s="40"/>
-      <c r="X558" s="40"/>
-      <c r="Y558" s="40"/>
-      <c r="Z558" s="40"/>
-      <c r="AA558" s="40"/>
-      <c r="AB558" s="40"/>
-      <c r="AC558" s="40"/>
+      <c r="X558" s="23"/>
+      <c r="Y558" s="23"/>
+      <c r="Z558" s="23"/>
+      <c r="AA558" s="23"/>
+      <c r="AB558" s="23"/>
+      <c r="AC558" s="23"/>
+      <c r="AD558" s="22"/>
+      <c r="AF558" s="22"/>
     </row>
     <row r="559" spans="9:32" s="21" customFormat="1">
       <c r="Q559" s="23"/>
@@ -27298,15 +27418,13 @@
       <c r="T559" s="23"/>
       <c r="U559" s="23"/>
       <c r="V559" s="23"/>
-      <c r="W559" s="40"/>
-      <c r="X559" s="23"/>
-      <c r="Y559" s="23"/>
-      <c r="Z559" s="23"/>
-      <c r="AA559" s="23"/>
-      <c r="AB559" s="23"/>
-      <c r="AC559" s="23"/>
-      <c r="AD559" s="22"/>
-      <c r="AF559" s="22"/>
+      <c r="W559" s="23"/>
+      <c r="X559" s="40"/>
+      <c r="Y559" s="40"/>
+      <c r="Z559" s="40"/>
+      <c r="AA559" s="40"/>
+      <c r="AB559" s="40"/>
+      <c r="AC559" s="40"/>
     </row>
     <row r="560" spans="9:32" s="21" customFormat="1">
       <c r="Q560" s="23"/>
@@ -27339,34 +27457,34 @@
       <c r="AC561" s="40"/>
     </row>
     <row r="562" spans="16:32" s="21" customFormat="1">
+      <c r="P562" s="22"/>
       <c r="Q562" s="23"/>
       <c r="R562" s="23"/>
       <c r="S562" s="23"/>
       <c r="T562" s="23"/>
       <c r="U562" s="23"/>
       <c r="V562" s="23"/>
-      <c r="W562" s="23"/>
+      <c r="W562" s="40"/>
       <c r="X562" s="40"/>
       <c r="Y562" s="40"/>
       <c r="Z562" s="40"/>
       <c r="AA562" s="40"/>
       <c r="AB562" s="40"/>
-      <c r="AC562" s="40"/>
     </row>
     <row r="563" spans="16:32" s="21" customFormat="1">
-      <c r="P563" s="22"/>
       <c r="Q563" s="23"/>
       <c r="R563" s="23"/>
       <c r="S563" s="23"/>
       <c r="T563" s="23"/>
       <c r="U563" s="23"/>
       <c r="V563" s="23"/>
-      <c r="W563" s="40"/>
+      <c r="W563" s="23"/>
       <c r="X563" s="40"/>
       <c r="Y563" s="40"/>
       <c r="Z563" s="40"/>
       <c r="AA563" s="40"/>
       <c r="AB563" s="40"/>
+      <c r="AC563" s="40"/>
     </row>
     <row r="564" spans="16:32" s="21" customFormat="1">
       <c r="Q564" s="23"/>
@@ -27375,7 +27493,7 @@
       <c r="T564" s="23"/>
       <c r="U564" s="23"/>
       <c r="V564" s="23"/>
-      <c r="W564" s="23"/>
+      <c r="W564" s="40"/>
       <c r="X564" s="40"/>
       <c r="Y564" s="40"/>
       <c r="Z564" s="40"/>
@@ -27405,13 +27523,13 @@
       <c r="T566" s="23"/>
       <c r="U566" s="23"/>
       <c r="V566" s="23"/>
-      <c r="W566" s="40"/>
+      <c r="W566" s="23"/>
       <c r="X566" s="40"/>
       <c r="Y566" s="40"/>
-      <c r="Z566" s="40"/>
-      <c r="AA566" s="40"/>
-      <c r="AB566" s="40"/>
-      <c r="AC566" s="40"/>
+      <c r="Z566" s="23"/>
+      <c r="AA566" s="23"/>
+      <c r="AB566" s="23"/>
+      <c r="AC566" s="23"/>
     </row>
     <row r="567" spans="16:32" s="21" customFormat="1">
       <c r="Q567" s="23"/>
@@ -27437,36 +27555,36 @@
       <c r="V568" s="23"/>
       <c r="W568" s="23"/>
       <c r="X568" s="40"/>
-      <c r="Y568" s="40"/>
+      <c r="Y568" s="23"/>
       <c r="Z568" s="23"/>
       <c r="AA568" s="23"/>
       <c r="AB568" s="23"/>
       <c r="AC568" s="23"/>
+      <c r="AD568" s="22"/>
+      <c r="AF568" s="22"/>
     </row>
     <row r="569" spans="16:32" s="21" customFormat="1">
-      <c r="Q569" s="23"/>
-      <c r="R569" s="23"/>
-      <c r="S569" s="23"/>
-      <c r="T569" s="23"/>
-      <c r="U569" s="23"/>
-      <c r="V569" s="23"/>
-      <c r="W569" s="23"/>
+      <c r="Q569" s="40"/>
+      <c r="R569" s="40"/>
+      <c r="S569" s="40"/>
+      <c r="T569" s="40"/>
+      <c r="U569" s="40"/>
+      <c r="V569" s="40"/>
+      <c r="W569" s="40"/>
       <c r="X569" s="40"/>
-      <c r="Y569" s="23"/>
-      <c r="Z569" s="23"/>
-      <c r="AA569" s="23"/>
-      <c r="AB569" s="23"/>
-      <c r="AC569" s="23"/>
-      <c r="AD569" s="22"/>
-      <c r="AF569" s="22"/>
+      <c r="Y569" s="40"/>
+      <c r="Z569" s="40"/>
+      <c r="AA569" s="40"/>
+      <c r="AB569" s="40"/>
+      <c r="AC569" s="40"/>
     </row>
     <row r="570" spans="16:32" s="21" customFormat="1">
-      <c r="Q570" s="40"/>
-      <c r="R570" s="40"/>
-      <c r="S570" s="40"/>
-      <c r="T570" s="40"/>
-      <c r="U570" s="40"/>
-      <c r="V570" s="40"/>
+      <c r="Q570" s="23"/>
+      <c r="R570" s="23"/>
+      <c r="S570" s="23"/>
+      <c r="T570" s="23"/>
+      <c r="U570" s="23"/>
+      <c r="V570" s="23"/>
       <c r="W570" s="40"/>
       <c r="X570" s="40"/>
       <c r="Y570" s="40"/>
@@ -27497,7 +27615,7 @@
       <c r="T572" s="23"/>
       <c r="U572" s="23"/>
       <c r="V572" s="23"/>
-      <c r="W572" s="40"/>
+      <c r="W572" s="23"/>
       <c r="X572" s="40"/>
       <c r="Y572" s="40"/>
       <c r="Z572" s="40"/>
@@ -27521,13 +27639,13 @@
       <c r="AC573" s="40"/>
     </row>
     <row r="574" spans="16:32" s="21" customFormat="1">
-      <c r="Q574" s="23"/>
-      <c r="R574" s="23"/>
-      <c r="S574" s="23"/>
-      <c r="T574" s="23"/>
-      <c r="U574" s="23"/>
-      <c r="V574" s="23"/>
-      <c r="W574" s="23"/>
+      <c r="Q574" s="40"/>
+      <c r="R574" s="40"/>
+      <c r="S574" s="40"/>
+      <c r="T574" s="40"/>
+      <c r="U574" s="40"/>
+      <c r="V574" s="40"/>
+      <c r="W574" s="40"/>
       <c r="X574" s="40"/>
       <c r="Y574" s="40"/>
       <c r="Z574" s="40"/>
@@ -27536,12 +27654,12 @@
       <c r="AC574" s="40"/>
     </row>
     <row r="575" spans="16:32" s="21" customFormat="1">
-      <c r="Q575" s="40"/>
-      <c r="R575" s="40"/>
-      <c r="S575" s="40"/>
-      <c r="T575" s="40"/>
-      <c r="U575" s="40"/>
-      <c r="V575" s="40"/>
+      <c r="Q575" s="23"/>
+      <c r="R575" s="23"/>
+      <c r="S575" s="23"/>
+      <c r="T575" s="23"/>
+      <c r="U575" s="23"/>
+      <c r="V575" s="23"/>
       <c r="W575" s="40"/>
       <c r="X575" s="40"/>
       <c r="Y575" s="40"/>
@@ -27566,6 +27684,8 @@
       <c r="AC576" s="40"/>
     </row>
     <row r="577" spans="9:29" s="21" customFormat="1">
+      <c r="J577" s="1"/>
+      <c r="K577" s="1"/>
       <c r="Q577" s="23"/>
       <c r="R577" s="23"/>
       <c r="S577" s="23"/>
@@ -27580,26 +27700,26 @@
       <c r="AB577" s="40"/>
       <c r="AC577" s="40"/>
     </row>
-    <row r="578" spans="9:29" s="21" customFormat="1">
-      <c r="J578" s="1"/>
-      <c r="K578" s="1"/>
-      <c r="Q578" s="23"/>
-      <c r="R578" s="23"/>
-      <c r="S578" s="23"/>
-      <c r="T578" s="23"/>
-      <c r="U578" s="23"/>
-      <c r="V578" s="23"/>
-      <c r="W578" s="40"/>
-      <c r="X578" s="40"/>
-      <c r="Y578" s="40"/>
-      <c r="Z578" s="40"/>
-      <c r="AA578" s="40"/>
-      <c r="AB578" s="40"/>
-      <c r="AC578" s="40"/>
+    <row r="578" spans="9:29">
+      <c r="J578" s="36"/>
+      <c r="K578" s="36"/>
+      <c r="Q578" s="20"/>
+      <c r="R578" s="20"/>
+      <c r="S578" s="20"/>
+      <c r="T578" s="20"/>
+      <c r="U578" s="20"/>
+      <c r="V578" s="20"/>
+      <c r="W578" s="20"/>
+      <c r="X578" s="15"/>
+      <c r="Y578" s="15"/>
+      <c r="Z578" s="15"/>
+      <c r="AA578" s="15"/>
+      <c r="AB578" s="15"/>
+      <c r="AC578" s="15"/>
     </row>
     <row r="579" spans="9:29">
-      <c r="J579" s="36"/>
-      <c r="K579" s="36"/>
+      <c r="I579" s="36"/>
+      <c r="L579" s="36"/>
       <c r="Q579" s="20"/>
       <c r="R579" s="20"/>
       <c r="S579" s="20"/>
@@ -27615,8 +27735,8 @@
       <c r="AC579" s="15"/>
     </row>
     <row r="580" spans="9:29">
-      <c r="I580" s="36"/>
-      <c r="L580" s="36"/>
+      <c r="J580" s="36"/>
+      <c r="K580" s="36"/>
       <c r="Q580" s="20"/>
       <c r="R580" s="20"/>
       <c r="S580" s="20"/>
@@ -27632,8 +27752,8 @@
       <c r="AC580" s="15"/>
     </row>
     <row r="581" spans="9:29">
-      <c r="J581" s="36"/>
-      <c r="K581" s="36"/>
+      <c r="I581" s="36"/>
+      <c r="L581" s="36"/>
       <c r="Q581" s="20"/>
       <c r="R581" s="20"/>
       <c r="S581" s="20"/>
@@ -27649,15 +27769,13 @@
       <c r="AC581" s="15"/>
     </row>
     <row r="582" spans="9:29">
-      <c r="I582" s="36"/>
-      <c r="L582" s="36"/>
       <c r="Q582" s="20"/>
       <c r="R582" s="20"/>
       <c r="S582" s="20"/>
       <c r="T582" s="20"/>
       <c r="U582" s="20"/>
       <c r="V582" s="20"/>
-      <c r="W582" s="20"/>
+      <c r="W582" s="15"/>
       <c r="X582" s="15"/>
       <c r="Y582" s="15"/>
       <c r="Z582" s="15"/>
@@ -27672,7 +27790,7 @@
       <c r="T583" s="20"/>
       <c r="U583" s="20"/>
       <c r="V583" s="20"/>
-      <c r="W583" s="15"/>
+      <c r="W583" s="20"/>
       <c r="X583" s="15"/>
       <c r="Y583" s="15"/>
       <c r="Z583" s="15"/>
@@ -27687,7 +27805,7 @@
       <c r="T584" s="20"/>
       <c r="U584" s="20"/>
       <c r="V584" s="20"/>
-      <c r="W584" s="20"/>
+      <c r="W584" s="15"/>
       <c r="X584" s="15"/>
       <c r="Y584" s="15"/>
       <c r="Z584" s="15"/>
@@ -27696,6 +27814,7 @@
       <c r="AC584" s="15"/>
     </row>
     <row r="585" spans="9:29">
+      <c r="L585" s="18"/>
       <c r="Q585" s="20"/>
       <c r="R585" s="20"/>
       <c r="S585" s="20"/>
@@ -27711,7 +27830,6 @@
       <c r="AC585" s="15"/>
     </row>
     <row r="586" spans="9:29">
-      <c r="L586" s="18"/>
       <c r="Q586" s="20"/>
       <c r="R586" s="20"/>
       <c r="S586" s="20"/>
@@ -27733,7 +27851,7 @@
       <c r="T587" s="20"/>
       <c r="U587" s="20"/>
       <c r="V587" s="20"/>
-      <c r="W587" s="15"/>
+      <c r="W587" s="20"/>
       <c r="X587" s="15"/>
       <c r="Y587" s="15"/>
       <c r="Z587" s="15"/>
@@ -27748,9 +27866,9 @@
       <c r="T588" s="20"/>
       <c r="U588" s="20"/>
       <c r="V588" s="20"/>
-      <c r="W588" s="20"/>
+      <c r="W588" s="15"/>
       <c r="X588" s="15"/>
-      <c r="Y588" s="15"/>
+      <c r="Y588" s="20"/>
       <c r="Z588" s="15"/>
       <c r="AA588" s="15"/>
       <c r="AB588" s="15"/>
@@ -27765,7 +27883,7 @@
       <c r="V589" s="20"/>
       <c r="W589" s="15"/>
       <c r="X589" s="15"/>
-      <c r="Y589" s="20"/>
+      <c r="Y589" s="15"/>
       <c r="Z589" s="15"/>
       <c r="AA589" s="15"/>
       <c r="AB589" s="15"/>
@@ -27778,7 +27896,7 @@
       <c r="T590" s="20"/>
       <c r="U590" s="20"/>
       <c r="V590" s="20"/>
-      <c r="W590" s="15"/>
+      <c r="W590" s="20"/>
       <c r="X590" s="15"/>
       <c r="Y590" s="15"/>
       <c r="Z590" s="15"/>
@@ -27793,7 +27911,7 @@
       <c r="T591" s="20"/>
       <c r="U591" s="20"/>
       <c r="V591" s="20"/>
-      <c r="W591" s="20"/>
+      <c r="W591" s="15"/>
       <c r="X591" s="15"/>
       <c r="Y591" s="15"/>
       <c r="Z591" s="15"/>
@@ -27802,6 +27920,7 @@
       <c r="AC591" s="15"/>
     </row>
     <row r="592" spans="9:29">
+      <c r="L592" s="18"/>
       <c r="Q592" s="20"/>
       <c r="R592" s="20"/>
       <c r="S592" s="20"/>
@@ -27817,14 +27936,13 @@
       <c r="AC592" s="15"/>
     </row>
     <row r="593" spans="9:29">
-      <c r="L593" s="18"/>
       <c r="Q593" s="20"/>
       <c r="R593" s="20"/>
       <c r="S593" s="20"/>
       <c r="T593" s="20"/>
       <c r="U593" s="20"/>
       <c r="V593" s="20"/>
-      <c r="W593" s="15"/>
+      <c r="W593" s="20"/>
       <c r="X593" s="15"/>
       <c r="Y593" s="15"/>
       <c r="Z593" s="15"/>
@@ -27854,9 +27972,9 @@
       <c r="T595" s="20"/>
       <c r="U595" s="20"/>
       <c r="V595" s="20"/>
-      <c r="W595" s="20"/>
+      <c r="W595" s="15"/>
       <c r="X595" s="15"/>
-      <c r="Y595" s="15"/>
+      <c r="Y595" s="20"/>
       <c r="Z595" s="15"/>
       <c r="AA595" s="15"/>
       <c r="AB595" s="15"/>
@@ -27871,13 +27989,14 @@
       <c r="V596" s="20"/>
       <c r="W596" s="15"/>
       <c r="X596" s="15"/>
-      <c r="Y596" s="20"/>
+      <c r="Y596" s="15"/>
       <c r="Z596" s="15"/>
       <c r="AA596" s="15"/>
       <c r="AB596" s="15"/>
       <c r="AC596" s="15"/>
     </row>
     <row r="597" spans="9:29">
+      <c r="L597" s="18"/>
       <c r="Q597" s="20"/>
       <c r="R597" s="20"/>
       <c r="S597" s="20"/>
@@ -27893,7 +28012,6 @@
       <c r="AC597" s="15"/>
     </row>
     <row r="598" spans="9:29">
-      <c r="L598" s="18"/>
       <c r="Q598" s="20"/>
       <c r="R598" s="20"/>
       <c r="S598" s="20"/>
@@ -27915,7 +28033,7 @@
       <c r="T599" s="20"/>
       <c r="U599" s="20"/>
       <c r="V599" s="20"/>
-      <c r="W599" s="15"/>
+      <c r="W599" s="20"/>
       <c r="X599" s="15"/>
       <c r="Y599" s="15"/>
       <c r="Z599" s="15"/>
@@ -27924,6 +28042,8 @@
       <c r="AC599" s="15"/>
     </row>
     <row r="600" spans="9:29">
+      <c r="J600" s="36"/>
+      <c r="K600" s="36"/>
       <c r="Q600" s="20"/>
       <c r="R600" s="20"/>
       <c r="S600" s="20"/>
@@ -27939,8 +28059,8 @@
       <c r="AC600" s="15"/>
     </row>
     <row r="601" spans="9:29">
-      <c r="J601" s="36"/>
-      <c r="K601" s="36"/>
+      <c r="I601" s="36"/>
+      <c r="L601" s="36"/>
       <c r="Q601" s="20"/>
       <c r="R601" s="20"/>
       <c r="S601" s="20"/>
@@ -27956,15 +28076,13 @@
       <c r="AC601" s="15"/>
     </row>
     <row r="602" spans="9:29">
-      <c r="I602" s="36"/>
-      <c r="L602" s="36"/>
       <c r="Q602" s="20"/>
       <c r="R602" s="20"/>
       <c r="S602" s="20"/>
       <c r="T602" s="20"/>
       <c r="U602" s="20"/>
       <c r="V602" s="20"/>
-      <c r="W602" s="20"/>
+      <c r="W602" s="15"/>
       <c r="X602" s="15"/>
       <c r="Y602" s="15"/>
       <c r="Z602" s="15"/>
@@ -27979,7 +28097,7 @@
       <c r="T603" s="20"/>
       <c r="U603" s="20"/>
       <c r="V603" s="20"/>
-      <c r="W603" s="15"/>
+      <c r="W603" s="20"/>
       <c r="X603" s="15"/>
       <c r="Y603" s="15"/>
       <c r="Z603" s="15"/>
@@ -27988,13 +28106,13 @@
       <c r="AC603" s="15"/>
     </row>
     <row r="604" spans="9:29">
-      <c r="Q604" s="20"/>
-      <c r="R604" s="20"/>
-      <c r="S604" s="20"/>
-      <c r="T604" s="20"/>
-      <c r="U604" s="20"/>
-      <c r="V604" s="20"/>
-      <c r="W604" s="20"/>
+      <c r="Q604" s="15"/>
+      <c r="R604" s="15"/>
+      <c r="S604" s="15"/>
+      <c r="T604" s="15"/>
+      <c r="U604" s="15"/>
+      <c r="V604" s="15"/>
+      <c r="W604" s="15"/>
       <c r="X604" s="15"/>
       <c r="Y604" s="15"/>
       <c r="Z604" s="15"/>
@@ -28003,12 +28121,12 @@
       <c r="AC604" s="15"/>
     </row>
     <row r="605" spans="9:29">
-      <c r="Q605" s="15"/>
-      <c r="R605" s="15"/>
-      <c r="S605" s="15"/>
-      <c r="T605" s="15"/>
-      <c r="U605" s="15"/>
-      <c r="V605" s="15"/>
+      <c r="Q605" s="20"/>
+      <c r="R605" s="20"/>
+      <c r="S605" s="20"/>
+      <c r="T605" s="20"/>
+      <c r="U605" s="20"/>
+      <c r="V605" s="20"/>
       <c r="W605" s="15"/>
       <c r="X605" s="15"/>
       <c r="Y605" s="15"/>
@@ -28054,7 +28172,7 @@
       <c r="T608" s="20"/>
       <c r="U608" s="20"/>
       <c r="V608" s="20"/>
-      <c r="W608" s="15"/>
+      <c r="W608" s="20"/>
       <c r="X608" s="15"/>
       <c r="Y608" s="15"/>
       <c r="Z608" s="15"/>
@@ -28063,6 +28181,8 @@
       <c r="AC608" s="15"/>
     </row>
     <row r="609" spans="9:29">
+      <c r="J609" s="36"/>
+      <c r="K609" s="36"/>
       <c r="Q609" s="20"/>
       <c r="R609" s="20"/>
       <c r="S609" s="20"/>
@@ -28078,8 +28198,8 @@
       <c r="AC609" s="15"/>
     </row>
     <row r="610" spans="9:29">
-      <c r="J610" s="36"/>
-      <c r="K610" s="36"/>
+      <c r="I610" s="36"/>
+      <c r="L610" s="36"/>
       <c r="Q610" s="20"/>
       <c r="R610" s="20"/>
       <c r="S610" s="20"/>
@@ -28095,15 +28215,13 @@
       <c r="AC610" s="15"/>
     </row>
     <row r="611" spans="9:29">
-      <c r="I611" s="36"/>
-      <c r="L611" s="36"/>
       <c r="Q611" s="20"/>
       <c r="R611" s="20"/>
       <c r="S611" s="20"/>
       <c r="T611" s="20"/>
       <c r="U611" s="20"/>
       <c r="V611" s="20"/>
-      <c r="W611" s="20"/>
+      <c r="W611" s="15"/>
       <c r="X611" s="15"/>
       <c r="Y611" s="15"/>
       <c r="Z611" s="15"/>
@@ -28118,7 +28236,7 @@
       <c r="T612" s="20"/>
       <c r="U612" s="20"/>
       <c r="V612" s="20"/>
-      <c r="W612" s="15"/>
+      <c r="W612" s="20"/>
       <c r="X612" s="15"/>
       <c r="Y612" s="15"/>
       <c r="Z612" s="15"/>
@@ -28127,13 +28245,13 @@
       <c r="AC612" s="15"/>
     </row>
     <row r="613" spans="9:29">
-      <c r="Q613" s="20"/>
-      <c r="R613" s="20"/>
-      <c r="S613" s="20"/>
-      <c r="T613" s="20"/>
-      <c r="U613" s="20"/>
-      <c r="V613" s="20"/>
-      <c r="W613" s="20"/>
+      <c r="Q613" s="15"/>
+      <c r="R613" s="15"/>
+      <c r="S613" s="15"/>
+      <c r="T613" s="15"/>
+      <c r="U613" s="15"/>
+      <c r="V613" s="15"/>
+      <c r="W613" s="15"/>
       <c r="X613" s="15"/>
       <c r="Y613" s="15"/>
       <c r="Z613" s="15"/>
@@ -28142,13 +28260,13 @@
       <c r="AC613" s="15"/>
     </row>
     <row r="614" spans="9:29">
-      <c r="Q614" s="15"/>
-      <c r="R614" s="15"/>
-      <c r="S614" s="15"/>
-      <c r="T614" s="15"/>
-      <c r="U614" s="15"/>
-      <c r="V614" s="15"/>
-      <c r="W614" s="15"/>
+      <c r="Q614" s="20"/>
+      <c r="R614" s="20"/>
+      <c r="S614" s="20"/>
+      <c r="T614" s="20"/>
+      <c r="U614" s="20"/>
+      <c r="V614" s="20"/>
+      <c r="W614" s="20"/>
       <c r="X614" s="15"/>
       <c r="Y614" s="15"/>
       <c r="Z614" s="15"/>
@@ -28157,6 +28275,8 @@
       <c r="AC614" s="15"/>
     </row>
     <row r="615" spans="9:29">
+      <c r="J615" s="36"/>
+      <c r="K615" s="36"/>
       <c r="Q615" s="20"/>
       <c r="R615" s="20"/>
       <c r="S615" s="20"/>
@@ -28172,8 +28292,8 @@
       <c r="AC615" s="15"/>
     </row>
     <row r="616" spans="9:29">
-      <c r="J616" s="36"/>
-      <c r="K616" s="36"/>
+      <c r="I616" s="36"/>
+      <c r="L616" s="36"/>
       <c r="Q616" s="20"/>
       <c r="R616" s="20"/>
       <c r="S616" s="20"/>
@@ -28189,8 +28309,6 @@
       <c r="AC616" s="15"/>
     </row>
     <row r="617" spans="9:29">
-      <c r="I617" s="36"/>
-      <c r="L617" s="36"/>
       <c r="Q617" s="20"/>
       <c r="R617" s="20"/>
       <c r="S617" s="20"/>
@@ -28212,7 +28330,7 @@
       <c r="T618" s="20"/>
       <c r="U618" s="20"/>
       <c r="V618" s="20"/>
-      <c r="W618" s="20"/>
+      <c r="W618" s="15"/>
       <c r="X618" s="15"/>
       <c r="Y618" s="15"/>
       <c r="Z618" s="15"/>
@@ -28221,12 +28339,12 @@
       <c r="AC618" s="15"/>
     </row>
     <row r="619" spans="9:29">
-      <c r="Q619" s="20"/>
-      <c r="R619" s="20"/>
-      <c r="S619" s="20"/>
-      <c r="T619" s="20"/>
-      <c r="U619" s="20"/>
-      <c r="V619" s="20"/>
+      <c r="Q619" s="15"/>
+      <c r="R619" s="15"/>
+      <c r="S619" s="15"/>
+      <c r="T619" s="15"/>
+      <c r="U619" s="15"/>
+      <c r="V619" s="15"/>
       <c r="W619" s="15"/>
       <c r="X619" s="15"/>
       <c r="Y619" s="15"/>
@@ -28236,13 +28354,13 @@
       <c r="AC619" s="15"/>
     </row>
     <row r="620" spans="9:29">
-      <c r="Q620" s="15"/>
-      <c r="R620" s="15"/>
-      <c r="S620" s="15"/>
-      <c r="T620" s="15"/>
-      <c r="U620" s="15"/>
-      <c r="V620" s="15"/>
-      <c r="W620" s="15"/>
+      <c r="Q620" s="20"/>
+      <c r="R620" s="20"/>
+      <c r="S620" s="20"/>
+      <c r="T620" s="20"/>
+      <c r="U620" s="20"/>
+      <c r="V620" s="20"/>
+      <c r="W620" s="20"/>
       <c r="X620" s="15"/>
       <c r="Y620" s="15"/>
       <c r="Z620" s="15"/>
@@ -28266,13 +28384,13 @@
       <c r="AC621" s="15"/>
     </row>
     <row r="622" spans="9:29">
-      <c r="Q622" s="20"/>
-      <c r="R622" s="20"/>
-      <c r="S622" s="20"/>
-      <c r="T622" s="20"/>
-      <c r="U622" s="20"/>
-      <c r="V622" s="20"/>
-      <c r="W622" s="20"/>
+      <c r="Q622" s="15"/>
+      <c r="R622" s="15"/>
+      <c r="S622" s="15"/>
+      <c r="T622" s="15"/>
+      <c r="U622" s="15"/>
+      <c r="V622" s="15"/>
+      <c r="W622" s="15"/>
       <c r="X622" s="15"/>
       <c r="Y622" s="15"/>
       <c r="Z622" s="15"/>
@@ -28281,12 +28399,12 @@
       <c r="AC622" s="15"/>
     </row>
     <row r="623" spans="9:29">
-      <c r="Q623" s="15"/>
-      <c r="R623" s="15"/>
-      <c r="S623" s="15"/>
-      <c r="T623" s="15"/>
-      <c r="U623" s="15"/>
-      <c r="V623" s="15"/>
+      <c r="Q623" s="20"/>
+      <c r="R623" s="20"/>
+      <c r="S623" s="20"/>
+      <c r="T623" s="20"/>
+      <c r="U623" s="20"/>
+      <c r="V623" s="20"/>
       <c r="W623" s="15"/>
       <c r="X623" s="15"/>
       <c r="Y623" s="15"/>
@@ -28302,7 +28420,7 @@
       <c r="T624" s="20"/>
       <c r="U624" s="20"/>
       <c r="V624" s="20"/>
-      <c r="W624" s="15"/>
+      <c r="W624" s="20"/>
       <c r="X624" s="15"/>
       <c r="Y624" s="15"/>
       <c r="Z624" s="15"/>
@@ -28362,7 +28480,7 @@
       <c r="T628" s="20"/>
       <c r="U628" s="20"/>
       <c r="V628" s="20"/>
-      <c r="W628" s="20"/>
+      <c r="W628" s="15"/>
       <c r="X628" s="15"/>
       <c r="Y628" s="15"/>
       <c r="Z628" s="15"/>
@@ -28371,13 +28489,15 @@
       <c r="AC628" s="15"/>
     </row>
     <row r="629" spans="9:29">
+      <c r="J629" s="36"/>
+      <c r="K629" s="36"/>
       <c r="Q629" s="20"/>
       <c r="R629" s="20"/>
       <c r="S629" s="20"/>
       <c r="T629" s="20"/>
       <c r="U629" s="20"/>
       <c r="V629" s="20"/>
-      <c r="W629" s="15"/>
+      <c r="W629" s="20"/>
       <c r="X629" s="15"/>
       <c r="Y629" s="15"/>
       <c r="Z629" s="15"/>
@@ -28386,8 +28506,8 @@
       <c r="AC629" s="15"/>
     </row>
     <row r="630" spans="9:29">
-      <c r="J630" s="36"/>
-      <c r="K630" s="36"/>
+      <c r="I630" s="36"/>
+      <c r="L630" s="36"/>
       <c r="Q630" s="20"/>
       <c r="R630" s="20"/>
       <c r="S630" s="20"/>
@@ -28403,8 +28523,8 @@
       <c r="AC630" s="15"/>
     </row>
     <row r="631" spans="9:29">
-      <c r="I631" s="36"/>
-      <c r="L631" s="36"/>
+      <c r="J631" s="36"/>
+      <c r="K631" s="36"/>
       <c r="Q631" s="20"/>
       <c r="R631" s="20"/>
       <c r="S631" s="20"/>
@@ -28420,8 +28540,8 @@
       <c r="AC631" s="15"/>
     </row>
     <row r="632" spans="9:29">
-      <c r="J632" s="36"/>
-      <c r="K632" s="36"/>
+      <c r="I632" s="36"/>
+      <c r="L632" s="36"/>
       <c r="Q632" s="20"/>
       <c r="R632" s="20"/>
       <c r="S632" s="20"/>
@@ -28437,15 +28557,13 @@
       <c r="AC632" s="15"/>
     </row>
     <row r="633" spans="9:29">
-      <c r="I633" s="36"/>
-      <c r="L633" s="36"/>
       <c r="Q633" s="20"/>
       <c r="R633" s="20"/>
       <c r="S633" s="20"/>
       <c r="T633" s="20"/>
       <c r="U633" s="20"/>
       <c r="V633" s="20"/>
-      <c r="W633" s="20"/>
+      <c r="W633" s="15"/>
       <c r="X633" s="15"/>
       <c r="Y633" s="15"/>
       <c r="Z633" s="15"/>
@@ -28490,7 +28608,7 @@
       <c r="T636" s="20"/>
       <c r="U636" s="20"/>
       <c r="V636" s="20"/>
-      <c r="W636" s="15"/>
+      <c r="W636" s="20"/>
       <c r="X636" s="15"/>
       <c r="Y636" s="15"/>
       <c r="Z636" s="15"/>
@@ -28514,13 +28632,13 @@
       <c r="AC637" s="15"/>
     </row>
     <row r="638" spans="9:29">
-      <c r="Q638" s="20"/>
-      <c r="R638" s="20"/>
-      <c r="S638" s="20"/>
-      <c r="T638" s="20"/>
-      <c r="U638" s="20"/>
-      <c r="V638" s="20"/>
-      <c r="W638" s="20"/>
+      <c r="Q638" s="15"/>
+      <c r="R638" s="15"/>
+      <c r="S638" s="15"/>
+      <c r="T638" s="15"/>
+      <c r="U638" s="15"/>
+      <c r="V638" s="15"/>
+      <c r="W638" s="15"/>
       <c r="X638" s="15"/>
       <c r="Y638" s="15"/>
       <c r="Z638" s="15"/>
@@ -28544,14 +28662,15 @@
       <c r="AC639" s="15"/>
     </row>
     <row r="640" spans="9:29">
-      <c r="Q640" s="15"/>
-      <c r="R640" s="15"/>
-      <c r="S640" s="15"/>
-      <c r="T640" s="15"/>
-      <c r="U640" s="15"/>
-      <c r="V640" s="15"/>
-      <c r="W640" s="15"/>
-      <c r="X640" s="15"/>
+      <c r="P640" s="18"/>
+      <c r="Q640" s="20"/>
+      <c r="R640" s="20"/>
+      <c r="S640" s="20"/>
+      <c r="T640" s="20"/>
+      <c r="U640" s="20"/>
+      <c r="V640" s="20"/>
+      <c r="W640" s="20"/>
+      <c r="X640" s="20"/>
       <c r="Y640" s="15"/>
       <c r="Z640" s="15"/>
       <c r="AA640" s="15"/>
@@ -28559,15 +28678,14 @@
       <c r="AC640" s="15"/>
     </row>
     <row r="641" spans="9:29">
-      <c r="P641" s="18"/>
       <c r="Q641" s="20"/>
       <c r="R641" s="20"/>
       <c r="S641" s="20"/>
       <c r="T641" s="20"/>
       <c r="U641" s="20"/>
       <c r="V641" s="20"/>
-      <c r="W641" s="20"/>
-      <c r="X641" s="20"/>
+      <c r="W641" s="15"/>
+      <c r="X641" s="15"/>
       <c r="Y641" s="15"/>
       <c r="Z641" s="15"/>
       <c r="AA641" s="15"/>
@@ -28596,7 +28714,7 @@
       <c r="T643" s="20"/>
       <c r="U643" s="20"/>
       <c r="V643" s="20"/>
-      <c r="W643" s="15"/>
+      <c r="W643" s="20"/>
       <c r="X643" s="15"/>
       <c r="Y643" s="15"/>
       <c r="Z643" s="15"/>
@@ -28605,6 +28723,8 @@
       <c r="AC643" s="15"/>
     </row>
     <row r="644" spans="9:29">
+      <c r="J644" s="36"/>
+      <c r="K644" s="36"/>
       <c r="Q644" s="20"/>
       <c r="R644" s="20"/>
       <c r="S644" s="20"/>
@@ -28620,8 +28740,8 @@
       <c r="AC644" s="15"/>
     </row>
     <row r="645" spans="9:29">
-      <c r="J645" s="36"/>
-      <c r="K645" s="36"/>
+      <c r="I645" s="36"/>
+      <c r="L645" s="36"/>
       <c r="Q645" s="20"/>
       <c r="R645" s="20"/>
       <c r="S645" s="20"/>
@@ -28637,15 +28757,13 @@
       <c r="AC645" s="15"/>
     </row>
     <row r="646" spans="9:29">
-      <c r="I646" s="36"/>
-      <c r="L646" s="36"/>
       <c r="Q646" s="20"/>
       <c r="R646" s="20"/>
       <c r="S646" s="20"/>
       <c r="T646" s="20"/>
       <c r="U646" s="20"/>
       <c r="V646" s="20"/>
-      <c r="W646" s="20"/>
+      <c r="W646" s="15"/>
       <c r="X646" s="15"/>
       <c r="Y646" s="15"/>
       <c r="Z646" s="15"/>
@@ -28660,7 +28778,7 @@
       <c r="T647" s="20"/>
       <c r="U647" s="20"/>
       <c r="V647" s="20"/>
-      <c r="W647" s="15"/>
+      <c r="W647" s="20"/>
       <c r="X647" s="15"/>
       <c r="Y647" s="15"/>
       <c r="Z647" s="15"/>
@@ -28669,13 +28787,13 @@
       <c r="AC647" s="15"/>
     </row>
     <row r="648" spans="9:29">
-      <c r="Q648" s="20"/>
-      <c r="R648" s="20"/>
-      <c r="S648" s="20"/>
-      <c r="T648" s="20"/>
-      <c r="U648" s="20"/>
-      <c r="V648" s="20"/>
-      <c r="W648" s="20"/>
+      <c r="Q648" s="15"/>
+      <c r="R648" s="15"/>
+      <c r="S648" s="15"/>
+      <c r="T648" s="15"/>
+      <c r="U648" s="15"/>
+      <c r="V648" s="15"/>
+      <c r="W648" s="15"/>
       <c r="X648" s="15"/>
       <c r="Y648" s="15"/>
       <c r="Z648" s="15"/>
@@ -28684,14 +28802,15 @@
       <c r="AC648" s="15"/>
     </row>
     <row r="649" spans="9:29">
-      <c r="Q649" s="15"/>
-      <c r="R649" s="15"/>
-      <c r="S649" s="15"/>
-      <c r="T649" s="15"/>
-      <c r="U649" s="15"/>
-      <c r="V649" s="15"/>
-      <c r="W649" s="15"/>
-      <c r="X649" s="15"/>
+      <c r="P649" s="18"/>
+      <c r="Q649" s="20"/>
+      <c r="R649" s="20"/>
+      <c r="S649" s="20"/>
+      <c r="T649" s="20"/>
+      <c r="U649" s="20"/>
+      <c r="V649" s="20"/>
+      <c r="W649" s="20"/>
+      <c r="X649" s="20"/>
       <c r="Y649" s="15"/>
       <c r="Z649" s="15"/>
       <c r="AA649" s="15"/>
@@ -28699,15 +28818,14 @@
       <c r="AC649" s="15"/>
     </row>
     <row r="650" spans="9:29">
-      <c r="P650" s="18"/>
       <c r="Q650" s="20"/>
       <c r="R650" s="20"/>
       <c r="S650" s="20"/>
       <c r="T650" s="20"/>
       <c r="U650" s="20"/>
       <c r="V650" s="20"/>
-      <c r="W650" s="20"/>
-      <c r="X650" s="20"/>
+      <c r="W650" s="15"/>
+      <c r="X650" s="15"/>
       <c r="Y650" s="15"/>
       <c r="Z650" s="15"/>
       <c r="AA650" s="15"/>
@@ -28736,7 +28854,7 @@
       <c r="T652" s="20"/>
       <c r="U652" s="20"/>
       <c r="V652" s="20"/>
-      <c r="W652" s="15"/>
+      <c r="W652" s="20"/>
       <c r="X652" s="15"/>
       <c r="Y652" s="15"/>
       <c r="Z652" s="15"/>
@@ -28766,7 +28884,7 @@
       <c r="T654" s="20"/>
       <c r="U654" s="20"/>
       <c r="V654" s="20"/>
-      <c r="W654" s="20"/>
+      <c r="W654" s="15"/>
       <c r="X654" s="15"/>
       <c r="Y654" s="15"/>
       <c r="Z654" s="15"/>
@@ -28781,7 +28899,7 @@
       <c r="T655" s="20"/>
       <c r="U655" s="20"/>
       <c r="V655" s="20"/>
-      <c r="W655" s="15"/>
+      <c r="W655" s="20"/>
       <c r="X655" s="15"/>
       <c r="Y655" s="15"/>
       <c r="Z655" s="15"/>
@@ -28790,13 +28908,13 @@
       <c r="AC655" s="15"/>
     </row>
     <row r="656" spans="9:29">
-      <c r="Q656" s="20"/>
-      <c r="R656" s="20"/>
-      <c r="S656" s="20"/>
-      <c r="T656" s="20"/>
-      <c r="U656" s="20"/>
-      <c r="V656" s="20"/>
-      <c r="W656" s="20"/>
+      <c r="Q656" s="15"/>
+      <c r="R656" s="15"/>
+      <c r="S656" s="15"/>
+      <c r="T656" s="15"/>
+      <c r="U656" s="15"/>
+      <c r="V656" s="15"/>
+      <c r="W656" s="15"/>
       <c r="X656" s="15"/>
       <c r="Y656" s="15"/>
       <c r="Z656" s="15"/>
@@ -28805,14 +28923,15 @@
       <c r="AC656" s="15"/>
     </row>
     <row r="657" spans="16:29">
-      <c r="Q657" s="15"/>
-      <c r="R657" s="15"/>
-      <c r="S657" s="15"/>
-      <c r="T657" s="15"/>
-      <c r="U657" s="15"/>
-      <c r="V657" s="15"/>
-      <c r="W657" s="15"/>
-      <c r="X657" s="15"/>
+      <c r="P657" s="18"/>
+      <c r="Q657" s="20"/>
+      <c r="R657" s="20"/>
+      <c r="S657" s="20"/>
+      <c r="T657" s="20"/>
+      <c r="U657" s="20"/>
+      <c r="V657" s="20"/>
+      <c r="W657" s="20"/>
+      <c r="X657" s="20"/>
       <c r="Y657" s="15"/>
       <c r="Z657" s="15"/>
       <c r="AA657" s="15"/>
@@ -28820,15 +28939,14 @@
       <c r="AC657" s="15"/>
     </row>
     <row r="658" spans="16:29">
-      <c r="P658" s="18"/>
       <c r="Q658" s="20"/>
       <c r="R658" s="20"/>
       <c r="S658" s="20"/>
       <c r="T658" s="20"/>
       <c r="U658" s="20"/>
       <c r="V658" s="20"/>
-      <c r="W658" s="20"/>
-      <c r="X658" s="20"/>
+      <c r="W658" s="15"/>
+      <c r="X658" s="15"/>
       <c r="Y658" s="15"/>
       <c r="Z658" s="15"/>
       <c r="AA658" s="15"/>
@@ -28842,7 +28960,7 @@
       <c r="T659" s="20"/>
       <c r="U659" s="20"/>
       <c r="V659" s="20"/>
-      <c r="W659" s="15"/>
+      <c r="W659" s="20"/>
       <c r="X659" s="15"/>
       <c r="Y659" s="15"/>
       <c r="Z659" s="15"/>
@@ -28872,7 +28990,7 @@
       <c r="T661" s="20"/>
       <c r="U661" s="20"/>
       <c r="V661" s="20"/>
-      <c r="W661" s="20"/>
+      <c r="W661" s="15"/>
       <c r="X661" s="15"/>
       <c r="Y661" s="15"/>
       <c r="Z661" s="15"/>
@@ -28911,12 +29029,12 @@
       <c r="AC663" s="15"/>
     </row>
     <row r="664" spans="16:29">
-      <c r="Q664" s="20"/>
-      <c r="R664" s="20"/>
-      <c r="S664" s="20"/>
-      <c r="T664" s="20"/>
-      <c r="U664" s="20"/>
-      <c r="V664" s="20"/>
+      <c r="Q664" s="15"/>
+      <c r="R664" s="15"/>
+      <c r="S664" s="15"/>
+      <c r="T664" s="15"/>
+      <c r="U664" s="15"/>
+      <c r="V664" s="15"/>
       <c r="W664" s="15"/>
       <c r="X664" s="15"/>
       <c r="Y664" s="15"/>
@@ -28926,12 +29044,12 @@
       <c r="AC664" s="15"/>
     </row>
     <row r="665" spans="16:29">
-      <c r="Q665" s="15"/>
-      <c r="R665" s="15"/>
-      <c r="S665" s="15"/>
-      <c r="T665" s="15"/>
-      <c r="U665" s="15"/>
-      <c r="V665" s="15"/>
+      <c r="Q665" s="20"/>
+      <c r="R665" s="20"/>
+      <c r="S665" s="20"/>
+      <c r="T665" s="20"/>
+      <c r="U665" s="20"/>
+      <c r="V665" s="20"/>
       <c r="W665" s="15"/>
       <c r="X665" s="15"/>
       <c r="Y665" s="15"/>
@@ -28956,14 +29074,15 @@
       <c r="AC666" s="15"/>
     </row>
     <row r="667" spans="16:29">
+      <c r="P667" s="18"/>
       <c r="Q667" s="20"/>
       <c r="R667" s="20"/>
       <c r="S667" s="20"/>
       <c r="T667" s="20"/>
       <c r="U667" s="20"/>
       <c r="V667" s="20"/>
-      <c r="W667" s="15"/>
-      <c r="X667" s="15"/>
+      <c r="W667" s="20"/>
+      <c r="X667" s="20"/>
       <c r="Y667" s="15"/>
       <c r="Z667" s="15"/>
       <c r="AA667" s="15"/>
@@ -28971,15 +29090,14 @@
       <c r="AC667" s="15"/>
     </row>
     <row r="668" spans="16:29">
-      <c r="P668" s="18"/>
       <c r="Q668" s="20"/>
       <c r="R668" s="20"/>
       <c r="S668" s="20"/>
       <c r="T668" s="20"/>
       <c r="U668" s="20"/>
       <c r="V668" s="20"/>
-      <c r="W668" s="20"/>
-      <c r="X668" s="20"/>
+      <c r="W668" s="15"/>
+      <c r="X668" s="15"/>
       <c r="Y668" s="15"/>
       <c r="Z668" s="15"/>
       <c r="AA668" s="15"/>
@@ -28993,7 +29111,7 @@
       <c r="T669" s="20"/>
       <c r="U669" s="20"/>
       <c r="V669" s="20"/>
-      <c r="W669" s="15"/>
+      <c r="W669" s="20"/>
       <c r="X669" s="15"/>
       <c r="Y669" s="15"/>
       <c r="Z669" s="15"/>
@@ -29008,7 +29126,7 @@
       <c r="T670" s="20"/>
       <c r="U670" s="20"/>
       <c r="V670" s="20"/>
-      <c r="W670" s="20"/>
+      <c r="W670" s="15"/>
       <c r="X670" s="15"/>
       <c r="Y670" s="15"/>
       <c r="Z670" s="15"/>
@@ -29038,7 +29156,7 @@
       <c r="T672" s="20"/>
       <c r="U672" s="20"/>
       <c r="V672" s="20"/>
-      <c r="W672" s="15"/>
+      <c r="W672" s="20"/>
       <c r="X672" s="15"/>
       <c r="Y672" s="15"/>
       <c r="Z672" s="15"/>
@@ -29053,7 +29171,7 @@
       <c r="T673" s="20"/>
       <c r="U673" s="20"/>
       <c r="V673" s="20"/>
-      <c r="W673" s="20"/>
+      <c r="W673" s="15"/>
       <c r="X673" s="15"/>
       <c r="Y673" s="15"/>
       <c r="Z673" s="15"/>
@@ -29062,14 +29180,15 @@
       <c r="AC673" s="15"/>
     </row>
     <row r="674" spans="16:29">
+      <c r="P674" s="18"/>
       <c r="Q674" s="20"/>
       <c r="R674" s="20"/>
       <c r="S674" s="20"/>
       <c r="T674" s="20"/>
       <c r="U674" s="20"/>
       <c r="V674" s="20"/>
-      <c r="W674" s="15"/>
-      <c r="X674" s="15"/>
+      <c r="W674" s="20"/>
+      <c r="X674" s="20"/>
       <c r="Y674" s="15"/>
       <c r="Z674" s="15"/>
       <c r="AA674" s="15"/>
@@ -29077,15 +29196,14 @@
       <c r="AC674" s="15"/>
     </row>
     <row r="675" spans="16:29">
-      <c r="P675" s="18"/>
       <c r="Q675" s="20"/>
       <c r="R675" s="20"/>
       <c r="S675" s="20"/>
       <c r="T675" s="20"/>
       <c r="U675" s="20"/>
       <c r="V675" s="20"/>
-      <c r="W675" s="20"/>
-      <c r="X675" s="20"/>
+      <c r="W675" s="15"/>
+      <c r="X675" s="15"/>
       <c r="Y675" s="15"/>
       <c r="Z675" s="15"/>
       <c r="AA675" s="15"/>
@@ -29099,7 +29217,7 @@
       <c r="T676" s="20"/>
       <c r="U676" s="20"/>
       <c r="V676" s="20"/>
-      <c r="W676" s="15"/>
+      <c r="W676" s="20"/>
       <c r="X676" s="15"/>
       <c r="Y676" s="15"/>
       <c r="Z676" s="15"/>
@@ -29114,7 +29232,7 @@
       <c r="T677" s="20"/>
       <c r="U677" s="20"/>
       <c r="V677" s="20"/>
-      <c r="W677" s="20"/>
+      <c r="W677" s="15"/>
       <c r="X677" s="15"/>
       <c r="Y677" s="15"/>
       <c r="Z677" s="15"/>
@@ -29129,7 +29247,7 @@
       <c r="T678" s="20"/>
       <c r="U678" s="20"/>
       <c r="V678" s="20"/>
-      <c r="W678" s="15"/>
+      <c r="W678" s="20"/>
       <c r="X678" s="15"/>
       <c r="Y678" s="15"/>
       <c r="Z678" s="15"/>
@@ -29144,7 +29262,7 @@
       <c r="T679" s="20"/>
       <c r="U679" s="20"/>
       <c r="V679" s="20"/>
-      <c r="W679" s="20"/>
+      <c r="W679" s="15"/>
       <c r="X679" s="15"/>
       <c r="Y679" s="15"/>
       <c r="Z679" s="15"/>
@@ -29159,7 +29277,7 @@
       <c r="T680" s="20"/>
       <c r="U680" s="20"/>
       <c r="V680" s="20"/>
-      <c r="W680" s="15"/>
+      <c r="W680" s="20"/>
       <c r="X680" s="15"/>
       <c r="Y680" s="15"/>
       <c r="Z680" s="15"/>
@@ -29174,7 +29292,7 @@
       <c r="T681" s="20"/>
       <c r="U681" s="20"/>
       <c r="V681" s="20"/>
-      <c r="W681" s="20"/>
+      <c r="W681" s="15"/>
       <c r="X681" s="15"/>
       <c r="Y681" s="15"/>
       <c r="Z681" s="15"/>
@@ -29198,12 +29316,12 @@
       <c r="AC682" s="15"/>
     </row>
     <row r="683" spans="16:29">
-      <c r="Q683" s="20"/>
-      <c r="R683" s="20"/>
-      <c r="S683" s="20"/>
-      <c r="T683" s="20"/>
-      <c r="U683" s="20"/>
-      <c r="V683" s="20"/>
+      <c r="Q683" s="15"/>
+      <c r="R683" s="15"/>
+      <c r="S683" s="15"/>
+      <c r="T683" s="15"/>
+      <c r="U683" s="15"/>
+      <c r="V683" s="15"/>
       <c r="W683" s="15"/>
       <c r="X683" s="15"/>
       <c r="Y683" s="15"/>
@@ -29213,14 +29331,15 @@
       <c r="AC683" s="15"/>
     </row>
     <row r="684" spans="16:29">
-      <c r="Q684" s="15"/>
-      <c r="R684" s="15"/>
-      <c r="S684" s="15"/>
-      <c r="T684" s="15"/>
-      <c r="U684" s="15"/>
-      <c r="V684" s="15"/>
-      <c r="W684" s="15"/>
-      <c r="X684" s="15"/>
+      <c r="P684" s="18"/>
+      <c r="Q684" s="20"/>
+      <c r="R684" s="20"/>
+      <c r="S684" s="20"/>
+      <c r="T684" s="20"/>
+      <c r="U684" s="20"/>
+      <c r="V684" s="20"/>
+      <c r="W684" s="20"/>
+      <c r="X684" s="20"/>
       <c r="Y684" s="15"/>
       <c r="Z684" s="15"/>
       <c r="AA684" s="15"/>
@@ -29228,15 +29347,14 @@
       <c r="AC684" s="15"/>
     </row>
     <row r="685" spans="16:29">
-      <c r="P685" s="18"/>
       <c r="Q685" s="20"/>
       <c r="R685" s="20"/>
       <c r="S685" s="20"/>
       <c r="T685" s="20"/>
       <c r="U685" s="20"/>
       <c r="V685" s="20"/>
-      <c r="W685" s="20"/>
-      <c r="X685" s="20"/>
+      <c r="W685" s="15"/>
+      <c r="X685" s="15"/>
       <c r="Y685" s="15"/>
       <c r="Z685" s="15"/>
       <c r="AA685" s="15"/>
@@ -29244,14 +29362,15 @@
       <c r="AC685" s="15"/>
     </row>
     <row r="686" spans="16:29">
+      <c r="P686" s="18"/>
       <c r="Q686" s="20"/>
       <c r="R686" s="20"/>
       <c r="S686" s="20"/>
       <c r="T686" s="20"/>
       <c r="U686" s="20"/>
       <c r="V686" s="20"/>
-      <c r="W686" s="15"/>
-      <c r="X686" s="15"/>
+      <c r="W686" s="20"/>
+      <c r="X686" s="20"/>
       <c r="Y686" s="15"/>
       <c r="Z686" s="15"/>
       <c r="AA686" s="15"/>
@@ -29275,15 +29394,14 @@
       <c r="AC687" s="15"/>
     </row>
     <row r="688" spans="16:29">
-      <c r="P688" s="18"/>
       <c r="Q688" s="20"/>
       <c r="R688" s="20"/>
       <c r="S688" s="20"/>
       <c r="T688" s="20"/>
       <c r="U688" s="20"/>
       <c r="V688" s="20"/>
-      <c r="W688" s="20"/>
-      <c r="X688" s="20"/>
+      <c r="W688" s="15"/>
+      <c r="X688" s="15"/>
       <c r="Y688" s="15"/>
       <c r="Z688" s="15"/>
       <c r="AA688" s="15"/>
@@ -29312,7 +29430,7 @@
       <c r="T690" s="20"/>
       <c r="U690" s="20"/>
       <c r="V690" s="20"/>
-      <c r="W690" s="15"/>
+      <c r="W690" s="20"/>
       <c r="X690" s="15"/>
       <c r="Y690" s="15"/>
       <c r="Z690" s="15"/>
@@ -29321,6 +29439,7 @@
       <c r="AC690" s="15"/>
     </row>
     <row r="691" spans="16:29">
+      <c r="P691" s="18"/>
       <c r="Q691" s="20"/>
       <c r="R691" s="20"/>
       <c r="S691" s="20"/>
@@ -29328,7 +29447,7 @@
       <c r="U691" s="20"/>
       <c r="V691" s="20"/>
       <c r="W691" s="20"/>
-      <c r="X691" s="15"/>
+      <c r="X691" s="20"/>
       <c r="Y691" s="15"/>
       <c r="Z691" s="15"/>
       <c r="AA691" s="15"/>
@@ -29352,7 +29471,6 @@
       <c r="AC692" s="15"/>
     </row>
     <row r="693" spans="16:29">
-      <c r="P693" s="18"/>
       <c r="Q693" s="20"/>
       <c r="R693" s="20"/>
       <c r="S693" s="20"/>
@@ -29360,7 +29478,7 @@
       <c r="U693" s="20"/>
       <c r="V693" s="20"/>
       <c r="W693" s="20"/>
-      <c r="X693" s="20"/>
+      <c r="X693" s="15"/>
       <c r="Y693" s="15"/>
       <c r="Z693" s="15"/>
       <c r="AA693" s="15"/>
@@ -29368,6 +29486,7 @@
       <c r="AC693" s="15"/>
     </row>
     <row r="694" spans="16:29">
+      <c r="P694" s="18"/>
       <c r="Q694" s="20"/>
       <c r="R694" s="20"/>
       <c r="S694" s="20"/>
@@ -29375,7 +29494,7 @@
       <c r="U694" s="20"/>
       <c r="V694" s="20"/>
       <c r="W694" s="20"/>
-      <c r="X694" s="15"/>
+      <c r="X694" s="20"/>
       <c r="Y694" s="15"/>
       <c r="Z694" s="15"/>
       <c r="AA694" s="15"/>
@@ -29431,15 +29550,14 @@
       <c r="AC697" s="15"/>
     </row>
     <row r="698" spans="16:29">
-      <c r="P698" s="18"/>
       <c r="Q698" s="20"/>
       <c r="R698" s="20"/>
       <c r="S698" s="20"/>
       <c r="T698" s="20"/>
       <c r="U698" s="20"/>
       <c r="V698" s="20"/>
-      <c r="W698" s="20"/>
-      <c r="X698" s="20"/>
+      <c r="W698" s="15"/>
+      <c r="X698" s="15"/>
       <c r="Y698" s="15"/>
       <c r="Z698" s="15"/>
       <c r="AA698" s="15"/>
@@ -29453,7 +29571,7 @@
       <c r="T699" s="20"/>
       <c r="U699" s="20"/>
       <c r="V699" s="20"/>
-      <c r="W699" s="15"/>
+      <c r="W699" s="20"/>
       <c r="X699" s="15"/>
       <c r="Y699" s="15"/>
       <c r="Z699" s="15"/>
@@ -29468,7 +29586,7 @@
       <c r="T700" s="20"/>
       <c r="U700" s="20"/>
       <c r="V700" s="20"/>
-      <c r="W700" s="20"/>
+      <c r="W700" s="15"/>
       <c r="X700" s="15"/>
       <c r="Y700" s="15"/>
       <c r="Z700" s="15"/>
@@ -29483,7 +29601,7 @@
       <c r="T701" s="20"/>
       <c r="U701" s="20"/>
       <c r="V701" s="20"/>
-      <c r="W701" s="15"/>
+      <c r="W701" s="20"/>
       <c r="X701" s="15"/>
       <c r="Y701" s="15"/>
       <c r="Z701" s="15"/>
@@ -29498,7 +29616,7 @@
       <c r="T702" s="20"/>
       <c r="U702" s="20"/>
       <c r="V702" s="20"/>
-      <c r="W702" s="20"/>
+      <c r="W702" s="15"/>
       <c r="X702" s="15"/>
       <c r="Y702" s="15"/>
       <c r="Z702" s="15"/>
@@ -29507,12 +29625,12 @@
       <c r="AC702" s="15"/>
     </row>
     <row r="703" spans="16:29">
-      <c r="Q703" s="20"/>
-      <c r="R703" s="20"/>
-      <c r="S703" s="20"/>
-      <c r="T703" s="20"/>
-      <c r="U703" s="20"/>
-      <c r="V703" s="20"/>
+      <c r="Q703" s="15"/>
+      <c r="R703" s="15"/>
+      <c r="S703" s="15"/>
+      <c r="T703" s="15"/>
+      <c r="U703" s="15"/>
+      <c r="V703" s="15"/>
       <c r="W703" s="15"/>
       <c r="X703" s="15"/>
       <c r="Y703" s="15"/>
@@ -29522,12 +29640,12 @@
       <c r="AC703" s="15"/>
     </row>
     <row r="704" spans="16:29">
-      <c r="Q704" s="15"/>
-      <c r="R704" s="15"/>
-      <c r="S704" s="15"/>
-      <c r="T704" s="15"/>
-      <c r="U704" s="15"/>
-      <c r="V704" s="15"/>
+      <c r="Q704" s="20"/>
+      <c r="R704" s="20"/>
+      <c r="S704" s="20"/>
+      <c r="T704" s="20"/>
+      <c r="U704" s="20"/>
+      <c r="V704" s="20"/>
       <c r="W704" s="15"/>
       <c r="X704" s="15"/>
       <c r="Y704" s="15"/>
@@ -29558,7 +29676,7 @@
       <c r="T706" s="20"/>
       <c r="U706" s="20"/>
       <c r="V706" s="20"/>
-      <c r="W706" s="15"/>
+      <c r="W706" s="20"/>
       <c r="X706" s="15"/>
       <c r="Y706" s="15"/>
       <c r="Z706" s="15"/>
@@ -29588,7 +29706,7 @@
       <c r="T708" s="20"/>
       <c r="U708" s="20"/>
       <c r="V708" s="20"/>
-      <c r="W708" s="20"/>
+      <c r="W708" s="15"/>
       <c r="X708" s="15"/>
       <c r="Y708" s="15"/>
       <c r="Z708" s="15"/>
@@ -29603,7 +29721,7 @@
       <c r="T709" s="20"/>
       <c r="U709" s="20"/>
       <c r="V709" s="20"/>
-      <c r="W709" s="15"/>
+      <c r="W709" s="20"/>
       <c r="X709" s="15"/>
       <c r="Y709" s="15"/>
       <c r="Z709" s="15"/>
@@ -29618,7 +29736,7 @@
       <c r="T710" s="20"/>
       <c r="U710" s="20"/>
       <c r="V710" s="20"/>
-      <c r="W710" s="20"/>
+      <c r="W710" s="15"/>
       <c r="X710" s="15"/>
       <c r="Y710" s="15"/>
       <c r="Z710" s="15"/>
@@ -29633,7 +29751,7 @@
       <c r="T711" s="20"/>
       <c r="U711" s="20"/>
       <c r="V711" s="20"/>
-      <c r="W711" s="15"/>
+      <c r="W711" s="20"/>
       <c r="X711" s="15"/>
       <c r="Y711" s="15"/>
       <c r="Z711" s="15"/>
@@ -29663,7 +29781,7 @@
       <c r="T713" s="20"/>
       <c r="U713" s="20"/>
       <c r="V713" s="20"/>
-      <c r="W713" s="20"/>
+      <c r="W713" s="15"/>
       <c r="X713" s="15"/>
       <c r="Y713" s="15"/>
       <c r="Z713" s="15"/>
@@ -29687,12 +29805,12 @@
       <c r="AC714" s="15"/>
     </row>
     <row r="715" spans="17:29">
-      <c r="Q715" s="20"/>
-      <c r="R715" s="20"/>
-      <c r="S715" s="20"/>
-      <c r="T715" s="20"/>
-      <c r="U715" s="20"/>
-      <c r="V715" s="20"/>
+      <c r="Q715" s="15"/>
+      <c r="R715" s="15"/>
+      <c r="S715" s="15"/>
+      <c r="T715" s="15"/>
+      <c r="U715" s="15"/>
+      <c r="V715" s="15"/>
       <c r="W715" s="15"/>
       <c r="X715" s="15"/>
       <c r="Y715" s="15"/>
@@ -29702,12 +29820,12 @@
       <c r="AC715" s="15"/>
     </row>
     <row r="716" spans="17:29">
-      <c r="Q716" s="15"/>
-      <c r="R716" s="15"/>
-      <c r="S716" s="15"/>
-      <c r="T716" s="15"/>
-      <c r="U716" s="15"/>
-      <c r="V716" s="15"/>
+      <c r="Q716" s="20"/>
+      <c r="R716" s="20"/>
+      <c r="S716" s="20"/>
+      <c r="T716" s="20"/>
+      <c r="U716" s="20"/>
+      <c r="V716" s="20"/>
       <c r="W716" s="15"/>
       <c r="X716" s="15"/>
       <c r="Y716" s="15"/>
@@ -29738,7 +29856,7 @@
       <c r="T718" s="20"/>
       <c r="U718" s="20"/>
       <c r="V718" s="20"/>
-      <c r="W718" s="15"/>
+      <c r="W718" s="20"/>
       <c r="X718" s="15"/>
       <c r="Y718" s="15"/>
       <c r="Z718" s="15"/>
@@ -29768,7 +29886,7 @@
       <c r="T720" s="20"/>
       <c r="U720" s="20"/>
       <c r="V720" s="20"/>
-      <c r="W720" s="20"/>
+      <c r="W720" s="15"/>
       <c r="X720" s="15"/>
       <c r="Y720" s="15"/>
       <c r="Z720" s="15"/>
@@ -29783,7 +29901,7 @@
       <c r="T721" s="20"/>
       <c r="U721" s="20"/>
       <c r="V721" s="20"/>
-      <c r="W721" s="15"/>
+      <c r="W721" s="20"/>
       <c r="X721" s="15"/>
       <c r="Y721" s="15"/>
       <c r="Z721" s="15"/>
@@ -29798,7 +29916,7 @@
       <c r="T722" s="20"/>
       <c r="U722" s="20"/>
       <c r="V722" s="20"/>
-      <c r="W722" s="20"/>
+      <c r="W722" s="15"/>
       <c r="X722" s="15"/>
       <c r="Y722" s="15"/>
       <c r="Z722" s="15"/>
@@ -29813,7 +29931,7 @@
       <c r="T723" s="20"/>
       <c r="U723" s="20"/>
       <c r="V723" s="20"/>
-      <c r="W723" s="15"/>
+      <c r="W723" s="20"/>
       <c r="X723" s="15"/>
       <c r="Y723" s="15"/>
       <c r="Z723" s="15"/>
@@ -29873,7 +29991,7 @@
       <c r="T727" s="20"/>
       <c r="U727" s="20"/>
       <c r="V727" s="20"/>
-      <c r="W727" s="20"/>
+      <c r="W727" s="15"/>
       <c r="X727" s="15"/>
       <c r="Y727" s="15"/>
       <c r="Z727" s="15"/>
@@ -29888,7 +30006,7 @@
       <c r="T728" s="20"/>
       <c r="U728" s="20"/>
       <c r="V728" s="20"/>
-      <c r="W728" s="15"/>
+      <c r="W728" s="20"/>
       <c r="X728" s="15"/>
       <c r="Y728" s="15"/>
       <c r="Z728" s="15"/>
@@ -29903,7 +30021,7 @@
       <c r="T729" s="20"/>
       <c r="U729" s="20"/>
       <c r="V729" s="20"/>
-      <c r="W729" s="20"/>
+      <c r="W729" s="15"/>
       <c r="X729" s="15"/>
       <c r="Y729" s="15"/>
       <c r="Z729" s="15"/>
@@ -29927,12 +30045,12 @@
       <c r="AC730" s="15"/>
     </row>
     <row r="731" spans="17:29">
-      <c r="Q731" s="20"/>
-      <c r="R731" s="20"/>
-      <c r="S731" s="20"/>
-      <c r="T731" s="20"/>
-      <c r="U731" s="20"/>
-      <c r="V731" s="20"/>
+      <c r="Q731" s="15"/>
+      <c r="R731" s="15"/>
+      <c r="S731" s="15"/>
+      <c r="T731" s="15"/>
+      <c r="U731" s="15"/>
+      <c r="V731" s="15"/>
       <c r="W731" s="15"/>
       <c r="X731" s="15"/>
       <c r="Y731" s="15"/>
@@ -29942,12 +30060,12 @@
       <c r="AC731" s="15"/>
     </row>
     <row r="732" spans="17:29">
-      <c r="Q732" s="15"/>
-      <c r="R732" s="15"/>
-      <c r="S732" s="15"/>
-      <c r="T732" s="15"/>
-      <c r="U732" s="15"/>
-      <c r="V732" s="15"/>
+      <c r="Q732" s="20"/>
+      <c r="R732" s="20"/>
+      <c r="S732" s="20"/>
+      <c r="T732" s="20"/>
+      <c r="U732" s="20"/>
+      <c r="V732" s="20"/>
       <c r="W732" s="15"/>
       <c r="X732" s="15"/>
       <c r="Y732" s="15"/>
@@ -30158,7 +30276,7 @@
       <c r="T746" s="20"/>
       <c r="U746" s="20"/>
       <c r="V746" s="20"/>
-      <c r="W746" s="15"/>
+      <c r="W746" s="20"/>
       <c r="X746" s="15"/>
       <c r="Y746" s="15"/>
       <c r="Z746" s="15"/>
@@ -30173,7 +30291,7 @@
       <c r="T747" s="20"/>
       <c r="U747" s="20"/>
       <c r="V747" s="20"/>
-      <c r="W747" s="20"/>
+      <c r="W747" s="15"/>
       <c r="X747" s="15"/>
       <c r="Y747" s="15"/>
       <c r="Z747" s="15"/>
@@ -30182,12 +30300,12 @@
       <c r="AC747" s="15"/>
     </row>
     <row r="748" spans="17:29">
-      <c r="Q748" s="20"/>
-      <c r="R748" s="20"/>
-      <c r="S748" s="20"/>
-      <c r="T748" s="20"/>
-      <c r="U748" s="20"/>
-      <c r="V748" s="20"/>
+      <c r="Q748" s="15"/>
+      <c r="R748" s="15"/>
+      <c r="S748" s="15"/>
+      <c r="T748" s="15"/>
+      <c r="U748" s="15"/>
+      <c r="V748" s="15"/>
       <c r="W748" s="15"/>
       <c r="X748" s="15"/>
       <c r="Y748" s="15"/>
@@ -30197,12 +30315,12 @@
       <c r="AC748" s="15"/>
     </row>
     <row r="749" spans="17:29">
-      <c r="Q749" s="15"/>
-      <c r="R749" s="15"/>
-      <c r="S749" s="15"/>
-      <c r="T749" s="15"/>
-      <c r="U749" s="15"/>
-      <c r="V749" s="15"/>
+      <c r="Q749" s="20"/>
+      <c r="R749" s="20"/>
+      <c r="S749" s="20"/>
+      <c r="T749" s="20"/>
+      <c r="U749" s="20"/>
+      <c r="V749" s="20"/>
       <c r="W749" s="15"/>
       <c r="X749" s="15"/>
       <c r="Y749" s="15"/>
@@ -30233,7 +30351,7 @@
       <c r="T751" s="20"/>
       <c r="U751" s="20"/>
       <c r="V751" s="20"/>
-      <c r="W751" s="15"/>
+      <c r="W751" s="20"/>
       <c r="X751" s="15"/>
       <c r="Y751" s="15"/>
       <c r="Z751" s="15"/>
@@ -30278,7 +30396,7 @@
       <c r="T754" s="20"/>
       <c r="U754" s="20"/>
       <c r="V754" s="20"/>
-      <c r="W754" s="20"/>
+      <c r="W754" s="15"/>
       <c r="X754" s="15"/>
       <c r="Y754" s="15"/>
       <c r="Z754" s="15"/>
@@ -30287,12 +30405,12 @@
       <c r="AC754" s="15"/>
     </row>
     <row r="755" spans="17:29">
-      <c r="Q755" s="20"/>
-      <c r="R755" s="20"/>
-      <c r="S755" s="20"/>
-      <c r="T755" s="20"/>
-      <c r="U755" s="20"/>
-      <c r="V755" s="20"/>
+      <c r="Q755" s="15"/>
+      <c r="R755" s="15"/>
+      <c r="S755" s="15"/>
+      <c r="T755" s="15"/>
+      <c r="U755" s="15"/>
+      <c r="V755" s="15"/>
       <c r="W755" s="15"/>
       <c r="X755" s="15"/>
       <c r="Y755" s="15"/>
@@ -30302,12 +30420,12 @@
       <c r="AC755" s="15"/>
     </row>
     <row r="756" spans="17:29">
-      <c r="Q756" s="15"/>
-      <c r="R756" s="15"/>
-      <c r="S756" s="15"/>
-      <c r="T756" s="15"/>
-      <c r="U756" s="15"/>
-      <c r="V756" s="15"/>
+      <c r="Q756" s="20"/>
+      <c r="R756" s="20"/>
+      <c r="S756" s="20"/>
+      <c r="T756" s="20"/>
+      <c r="U756" s="20"/>
+      <c r="V756" s="20"/>
       <c r="W756" s="15"/>
       <c r="X756" s="15"/>
       <c r="Y756" s="15"/>
@@ -30347,12 +30465,12 @@
       <c r="AC758" s="15"/>
     </row>
     <row r="759" spans="17:29">
-      <c r="Q759" s="20"/>
-      <c r="R759" s="20"/>
-      <c r="S759" s="20"/>
-      <c r="T759" s="20"/>
-      <c r="U759" s="20"/>
-      <c r="V759" s="20"/>
+      <c r="Q759" s="15"/>
+      <c r="R759" s="15"/>
+      <c r="S759" s="15"/>
+      <c r="T759" s="15"/>
+      <c r="U759" s="15"/>
+      <c r="V759" s="15"/>
       <c r="W759" s="15"/>
       <c r="X759" s="15"/>
       <c r="Y759" s="15"/>
@@ -30362,13 +30480,13 @@
       <c r="AC759" s="15"/>
     </row>
     <row r="760" spans="17:29">
-      <c r="Q760" s="15"/>
-      <c r="R760" s="15"/>
-      <c r="S760" s="15"/>
-      <c r="T760" s="15"/>
-      <c r="U760" s="15"/>
-      <c r="V760" s="15"/>
-      <c r="W760" s="15"/>
+      <c r="Q760" s="20"/>
+      <c r="R760" s="20"/>
+      <c r="S760" s="20"/>
+      <c r="T760" s="20"/>
+      <c r="U760" s="20"/>
+      <c r="V760" s="20"/>
+      <c r="W760" s="20"/>
       <c r="X760" s="15"/>
       <c r="Y760" s="15"/>
       <c r="Z760" s="15"/>
@@ -30383,7 +30501,7 @@
       <c r="T761" s="20"/>
       <c r="U761" s="20"/>
       <c r="V761" s="20"/>
-      <c r="W761" s="20"/>
+      <c r="W761" s="15"/>
       <c r="X761" s="15"/>
       <c r="Y761" s="15"/>
       <c r="Z761" s="15"/>
@@ -30392,12 +30510,12 @@
       <c r="AC761" s="15"/>
     </row>
     <row r="762" spans="17:29">
-      <c r="Q762" s="20"/>
-      <c r="R762" s="20"/>
-      <c r="S762" s="20"/>
-      <c r="T762" s="20"/>
-      <c r="U762" s="20"/>
-      <c r="V762" s="20"/>
+      <c r="Q762" s="15"/>
+      <c r="R762" s="15"/>
+      <c r="S762" s="15"/>
+      <c r="T762" s="15"/>
+      <c r="U762" s="15"/>
+      <c r="V762" s="15"/>
       <c r="W762" s="15"/>
       <c r="X762" s="15"/>
       <c r="Y762" s="15"/>
@@ -30407,12 +30525,12 @@
       <c r="AC762" s="15"/>
     </row>
     <row r="763" spans="17:29">
-      <c r="Q763" s="15"/>
-      <c r="R763" s="15"/>
-      <c r="S763" s="15"/>
-      <c r="T763" s="15"/>
-      <c r="U763" s="15"/>
-      <c r="V763" s="15"/>
+      <c r="Q763" s="20"/>
+      <c r="R763" s="20"/>
+      <c r="S763" s="20"/>
+      <c r="T763" s="20"/>
+      <c r="U763" s="20"/>
+      <c r="V763" s="20"/>
       <c r="W763" s="15"/>
       <c r="X763" s="15"/>
       <c r="Y763" s="15"/>
@@ -30428,7 +30546,7 @@
       <c r="T764" s="20"/>
       <c r="U764" s="20"/>
       <c r="V764" s="20"/>
-      <c r="W764" s="15"/>
+      <c r="W764" s="20"/>
       <c r="X764" s="15"/>
       <c r="Y764" s="15"/>
       <c r="Z764" s="15"/>
@@ -30443,7 +30561,7 @@
       <c r="T765" s="20"/>
       <c r="U765" s="20"/>
       <c r="V765" s="20"/>
-      <c r="W765" s="20"/>
+      <c r="W765" s="15"/>
       <c r="X765" s="15"/>
       <c r="Y765" s="15"/>
       <c r="Z765" s="15"/>
@@ -30458,7 +30576,7 @@
       <c r="T766" s="20"/>
       <c r="U766" s="20"/>
       <c r="V766" s="20"/>
-      <c r="W766" s="15"/>
+      <c r="W766" s="20"/>
       <c r="X766" s="15"/>
       <c r="Y766" s="15"/>
       <c r="Z766" s="15"/>
@@ -30473,7 +30591,7 @@
       <c r="T767" s="20"/>
       <c r="U767" s="20"/>
       <c r="V767" s="20"/>
-      <c r="W767" s="20"/>
+      <c r="W767" s="15"/>
       <c r="X767" s="15"/>
       <c r="Y767" s="15"/>
       <c r="Z767" s="15"/>
@@ -30503,7 +30621,7 @@
       <c r="T769" s="20"/>
       <c r="U769" s="20"/>
       <c r="V769" s="20"/>
-      <c r="W769" s="15"/>
+      <c r="W769" s="20"/>
       <c r="X769" s="15"/>
       <c r="Y769" s="15"/>
       <c r="Z769" s="15"/>
@@ -30512,13 +30630,13 @@
       <c r="AC769" s="15"/>
     </row>
     <row r="770" spans="17:29">
-      <c r="Q770" s="20"/>
-      <c r="R770" s="20"/>
-      <c r="S770" s="20"/>
-      <c r="T770" s="20"/>
-      <c r="U770" s="20"/>
-      <c r="V770" s="20"/>
-      <c r="W770" s="20"/>
+      <c r="Q770" s="15"/>
+      <c r="R770" s="15"/>
+      <c r="S770" s="15"/>
+      <c r="T770" s="15"/>
+      <c r="U770" s="15"/>
+      <c r="V770" s="15"/>
+      <c r="W770" s="15"/>
       <c r="X770" s="15"/>
       <c r="Y770" s="15"/>
       <c r="Z770" s="15"/>
@@ -30527,12 +30645,12 @@
       <c r="AC770" s="15"/>
     </row>
     <row r="771" spans="17:29">
-      <c r="Q771" s="15"/>
-      <c r="R771" s="15"/>
-      <c r="S771" s="15"/>
-      <c r="T771" s="15"/>
-      <c r="U771" s="15"/>
-      <c r="V771" s="15"/>
+      <c r="Q771" s="20"/>
+      <c r="R771" s="20"/>
+      <c r="S771" s="20"/>
+      <c r="T771" s="20"/>
+      <c r="U771" s="20"/>
+      <c r="V771" s="20"/>
       <c r="W771" s="15"/>
       <c r="X771" s="15"/>
       <c r="Y771" s="15"/>
@@ -30542,12 +30660,12 @@
       <c r="AC771" s="15"/>
     </row>
     <row r="772" spans="17:29">
-      <c r="Q772" s="20"/>
-      <c r="R772" s="20"/>
-      <c r="S772" s="20"/>
-      <c r="T772" s="20"/>
-      <c r="U772" s="20"/>
-      <c r="V772" s="20"/>
+      <c r="Q772" s="15"/>
+      <c r="R772" s="15"/>
+      <c r="S772" s="15"/>
+      <c r="T772" s="15"/>
+      <c r="U772" s="15"/>
+      <c r="V772" s="15"/>
       <c r="W772" s="15"/>
       <c r="X772" s="15"/>
       <c r="Y772" s="15"/>
@@ -30557,12 +30675,12 @@
       <c r="AC772" s="15"/>
     </row>
     <row r="773" spans="17:29">
-      <c r="Q773" s="15"/>
-      <c r="R773" s="15"/>
-      <c r="S773" s="15"/>
-      <c r="T773" s="15"/>
-      <c r="U773" s="15"/>
-      <c r="V773" s="15"/>
+      <c r="Q773" s="20"/>
+      <c r="R773" s="20"/>
+      <c r="S773" s="20"/>
+      <c r="T773" s="20"/>
+      <c r="U773" s="20"/>
+      <c r="V773" s="20"/>
       <c r="W773" s="15"/>
       <c r="X773" s="15"/>
       <c r="Y773" s="15"/>
@@ -30602,12 +30720,12 @@
       <c r="AC775" s="15"/>
     </row>
     <row r="776" spans="17:29">
-      <c r="Q776" s="20"/>
-      <c r="R776" s="20"/>
-      <c r="S776" s="20"/>
-      <c r="T776" s="20"/>
-      <c r="U776" s="20"/>
-      <c r="V776" s="20"/>
+      <c r="Q776" s="15"/>
+      <c r="R776" s="15"/>
+      <c r="S776" s="15"/>
+      <c r="T776" s="15"/>
+      <c r="U776" s="15"/>
+      <c r="V776" s="15"/>
       <c r="W776" s="15"/>
       <c r="X776" s="15"/>
       <c r="Y776" s="15"/>
@@ -30617,12 +30735,12 @@
       <c r="AC776" s="15"/>
     </row>
     <row r="777" spans="17:29">
-      <c r="Q777" s="15"/>
-      <c r="R777" s="15"/>
-      <c r="S777" s="15"/>
-      <c r="T777" s="15"/>
-      <c r="U777" s="15"/>
-      <c r="V777" s="15"/>
+      <c r="Q777" s="20"/>
+      <c r="R777" s="20"/>
+      <c r="S777" s="20"/>
+      <c r="T777" s="20"/>
+      <c r="U777" s="20"/>
+      <c r="V777" s="20"/>
       <c r="W777" s="15"/>
       <c r="X777" s="15"/>
       <c r="Y777" s="15"/>
@@ -30662,12 +30780,12 @@
       <c r="AC779" s="15"/>
     </row>
     <row r="780" spans="17:29">
-      <c r="Q780" s="20"/>
-      <c r="R780" s="20"/>
-      <c r="S780" s="20"/>
-      <c r="T780" s="20"/>
-      <c r="U780" s="20"/>
-      <c r="V780" s="20"/>
+      <c r="Q780" s="15"/>
+      <c r="R780" s="15"/>
+      <c r="S780" s="15"/>
+      <c r="T780" s="15"/>
+      <c r="U780" s="15"/>
+      <c r="V780" s="15"/>
       <c r="W780" s="15"/>
       <c r="X780" s="15"/>
       <c r="Y780" s="15"/>
@@ -30692,12 +30810,12 @@
       <c r="AC781" s="15"/>
     </row>
     <row r="782" spans="17:29">
-      <c r="Q782" s="15"/>
-      <c r="R782" s="15"/>
-      <c r="S782" s="15"/>
-      <c r="T782" s="15"/>
-      <c r="U782" s="15"/>
-      <c r="V782" s="15"/>
+      <c r="Q782" s="20"/>
+      <c r="R782" s="20"/>
+      <c r="S782" s="20"/>
+      <c r="T782" s="20"/>
+      <c r="U782" s="20"/>
+      <c r="V782" s="20"/>
       <c r="W782" s="15"/>
       <c r="X782" s="15"/>
       <c r="Y782" s="15"/>
@@ -30737,12 +30855,12 @@
       <c r="AC784" s="15"/>
     </row>
     <row r="785" spans="17:29">
-      <c r="Q785" s="20"/>
-      <c r="R785" s="20"/>
-      <c r="S785" s="20"/>
-      <c r="T785" s="20"/>
-      <c r="U785" s="20"/>
-      <c r="V785" s="20"/>
+      <c r="Q785" s="15"/>
+      <c r="R785" s="15"/>
+      <c r="S785" s="15"/>
+      <c r="T785" s="15"/>
+      <c r="U785" s="15"/>
+      <c r="V785" s="15"/>
       <c r="W785" s="15"/>
       <c r="X785" s="15"/>
       <c r="Y785" s="15"/>
@@ -30752,12 +30870,12 @@
       <c r="AC785" s="15"/>
     </row>
     <row r="786" spans="17:29">
-      <c r="Q786" s="15"/>
-      <c r="R786" s="15"/>
-      <c r="S786" s="15"/>
-      <c r="T786" s="15"/>
-      <c r="U786" s="15"/>
-      <c r="V786" s="15"/>
+      <c r="Q786" s="20"/>
+      <c r="R786" s="20"/>
+      <c r="S786" s="20"/>
+      <c r="T786" s="20"/>
+      <c r="U786" s="20"/>
+      <c r="V786" s="20"/>
       <c r="W786" s="15"/>
       <c r="X786" s="15"/>
       <c r="Y786" s="15"/>
@@ -30788,7 +30906,7 @@
       <c r="T788" s="20"/>
       <c r="U788" s="20"/>
       <c r="V788" s="20"/>
-      <c r="W788" s="15"/>
+      <c r="W788" s="20"/>
       <c r="X788" s="15"/>
       <c r="Y788" s="15"/>
       <c r="Z788" s="15"/>
@@ -30833,7 +30951,7 @@
       <c r="T791" s="20"/>
       <c r="U791" s="20"/>
       <c r="V791" s="20"/>
-      <c r="W791" s="20"/>
+      <c r="W791" s="15"/>
       <c r="X791" s="15"/>
       <c r="Y791" s="15"/>
       <c r="Z791" s="15"/>
@@ -30848,7 +30966,7 @@
       <c r="T792" s="20"/>
       <c r="U792" s="20"/>
       <c r="V792" s="20"/>
-      <c r="W792" s="15"/>
+      <c r="W792" s="20"/>
       <c r="X792" s="15"/>
       <c r="Y792" s="15"/>
       <c r="Z792" s="15"/>
@@ -30857,13 +30975,13 @@
       <c r="AC792" s="15"/>
     </row>
     <row r="793" spans="17:29">
-      <c r="Q793" s="20"/>
-      <c r="R793" s="20"/>
-      <c r="S793" s="20"/>
-      <c r="T793" s="20"/>
-      <c r="U793" s="20"/>
-      <c r="V793" s="20"/>
-      <c r="W793" s="20"/>
+      <c r="Q793" s="15"/>
+      <c r="R793" s="15"/>
+      <c r="S793" s="15"/>
+      <c r="T793" s="15"/>
+      <c r="U793" s="15"/>
+      <c r="V793" s="15"/>
+      <c r="W793" s="15"/>
       <c r="X793" s="15"/>
       <c r="Y793" s="15"/>
       <c r="Z793" s="15"/>
@@ -30902,12 +31020,12 @@
       <c r="AC795" s="15"/>
     </row>
     <row r="796" spans="17:29">
-      <c r="Q796" s="15"/>
-      <c r="R796" s="15"/>
-      <c r="S796" s="15"/>
-      <c r="T796" s="15"/>
-      <c r="U796" s="15"/>
-      <c r="V796" s="15"/>
+      <c r="Q796" s="20"/>
+      <c r="R796" s="20"/>
+      <c r="S796" s="20"/>
+      <c r="T796" s="20"/>
+      <c r="U796" s="20"/>
+      <c r="V796" s="20"/>
       <c r="W796" s="15"/>
       <c r="X796" s="15"/>
       <c r="Y796" s="15"/>
@@ -30932,12 +31050,12 @@
       <c r="AC797" s="15"/>
     </row>
     <row r="798" spans="17:29">
-      <c r="Q798" s="20"/>
-      <c r="R798" s="20"/>
-      <c r="S798" s="20"/>
-      <c r="T798" s="20"/>
-      <c r="U798" s="20"/>
-      <c r="V798" s="20"/>
+      <c r="Q798" s="15"/>
+      <c r="R798" s="15"/>
+      <c r="S798" s="15"/>
+      <c r="T798" s="15"/>
+      <c r="U798" s="15"/>
+      <c r="V798" s="15"/>
       <c r="W798" s="15"/>
       <c r="X798" s="15"/>
       <c r="Y798" s="15"/>
@@ -30947,12 +31065,12 @@
       <c r="AC798" s="15"/>
     </row>
     <row r="799" spans="17:29">
-      <c r="Q799" s="15"/>
-      <c r="R799" s="15"/>
-      <c r="S799" s="15"/>
-      <c r="T799" s="15"/>
-      <c r="U799" s="15"/>
-      <c r="V799" s="15"/>
+      <c r="Q799" s="20"/>
+      <c r="R799" s="20"/>
+      <c r="S799" s="20"/>
+      <c r="T799" s="20"/>
+      <c r="U799" s="20"/>
+      <c r="V799" s="20"/>
       <c r="W799" s="15"/>
       <c r="X799" s="15"/>
       <c r="Y799" s="15"/>
@@ -30992,12 +31110,12 @@
       <c r="AC801" s="15"/>
     </row>
     <row r="802" spans="17:29">
-      <c r="Q802" s="20"/>
-      <c r="R802" s="20"/>
-      <c r="S802" s="20"/>
-      <c r="T802" s="20"/>
-      <c r="U802" s="20"/>
-      <c r="V802" s="20"/>
+      <c r="Q802" s="15"/>
+      <c r="R802" s="15"/>
+      <c r="S802" s="15"/>
+      <c r="T802" s="15"/>
+      <c r="U802" s="15"/>
+      <c r="V802" s="15"/>
       <c r="W802" s="15"/>
       <c r="X802" s="15"/>
       <c r="Y802" s="15"/>
@@ -31007,12 +31125,12 @@
       <c r="AC802" s="15"/>
     </row>
     <row r="803" spans="17:29">
-      <c r="Q803" s="15"/>
-      <c r="R803" s="15"/>
-      <c r="S803" s="15"/>
-      <c r="T803" s="15"/>
-      <c r="U803" s="15"/>
-      <c r="V803" s="15"/>
+      <c r="Q803" s="20"/>
+      <c r="R803" s="20"/>
+      <c r="S803" s="20"/>
+      <c r="T803" s="20"/>
+      <c r="U803" s="20"/>
+      <c r="V803" s="20"/>
       <c r="W803" s="15"/>
       <c r="X803" s="15"/>
       <c r="Y803" s="15"/>
@@ -31052,12 +31170,12 @@
       <c r="AC805" s="15"/>
     </row>
     <row r="806" spans="17:29">
-      <c r="Q806" s="20"/>
-      <c r="R806" s="20"/>
-      <c r="S806" s="20"/>
-      <c r="T806" s="20"/>
-      <c r="U806" s="20"/>
-      <c r="V806" s="20"/>
+      <c r="Q806" s="15"/>
+      <c r="R806" s="15"/>
+      <c r="S806" s="15"/>
+      <c r="T806" s="15"/>
+      <c r="U806" s="15"/>
+      <c r="V806" s="15"/>
       <c r="W806" s="15"/>
       <c r="X806" s="15"/>
       <c r="Y806" s="15"/>
@@ -31142,12 +31260,12 @@
       <c r="AC811" s="15"/>
     </row>
     <row r="812" spans="17:29">
-      <c r="Q812" s="15"/>
-      <c r="R812" s="15"/>
-      <c r="S812" s="15"/>
-      <c r="T812" s="15"/>
-      <c r="U812" s="15"/>
-      <c r="V812" s="15"/>
+      <c r="Q812" s="20"/>
+      <c r="R812" s="20"/>
+      <c r="S812" s="20"/>
+      <c r="T812" s="20"/>
+      <c r="U812" s="20"/>
+      <c r="V812" s="20"/>
       <c r="W812" s="15"/>
       <c r="X812" s="15"/>
       <c r="Y812" s="15"/>
@@ -31187,12 +31305,12 @@
       <c r="AC814" s="15"/>
     </row>
     <row r="815" spans="17:29">
-      <c r="Q815" s="20"/>
-      <c r="R815" s="20"/>
-      <c r="S815" s="20"/>
-      <c r="T815" s="20"/>
-      <c r="U815" s="20"/>
-      <c r="V815" s="20"/>
+      <c r="Q815" s="15"/>
+      <c r="R815" s="15"/>
+      <c r="S815" s="15"/>
+      <c r="T815" s="15"/>
+      <c r="U815" s="15"/>
+      <c r="V815" s="15"/>
       <c r="W815" s="15"/>
       <c r="X815" s="15"/>
       <c r="Y815" s="15"/>
@@ -31217,12 +31335,12 @@
       <c r="AC816" s="15"/>
     </row>
     <row r="817" spans="17:29">
-      <c r="Q817" s="15"/>
-      <c r="R817" s="15"/>
-      <c r="S817" s="15"/>
-      <c r="T817" s="15"/>
-      <c r="U817" s="15"/>
-      <c r="V817" s="15"/>
+      <c r="Q817" s="20"/>
+      <c r="R817" s="20"/>
+      <c r="S817" s="20"/>
+      <c r="T817" s="20"/>
+      <c r="U817" s="20"/>
+      <c r="V817" s="20"/>
       <c r="W817" s="15"/>
       <c r="X817" s="15"/>
       <c r="Y817" s="15"/>
@@ -31247,12 +31365,12 @@
       <c r="AC818" s="15"/>
     </row>
     <row r="819" spans="17:29">
-      <c r="Q819" s="20"/>
-      <c r="R819" s="20"/>
-      <c r="S819" s="20"/>
-      <c r="T819" s="20"/>
-      <c r="U819" s="20"/>
-      <c r="V819" s="20"/>
+      <c r="Q819" s="15"/>
+      <c r="R819" s="15"/>
+      <c r="S819" s="15"/>
+      <c r="T819" s="15"/>
+      <c r="U819" s="15"/>
+      <c r="V819" s="15"/>
       <c r="W819" s="15"/>
       <c r="X819" s="15"/>
       <c r="Y819" s="15"/>
@@ -31262,12 +31380,12 @@
       <c r="AC819" s="15"/>
     </row>
     <row r="820" spans="17:29">
-      <c r="Q820" s="15"/>
-      <c r="R820" s="15"/>
-      <c r="S820" s="15"/>
-      <c r="T820" s="15"/>
-      <c r="U820" s="15"/>
-      <c r="V820" s="15"/>
+      <c r="Q820" s="20"/>
+      <c r="R820" s="20"/>
+      <c r="S820" s="20"/>
+      <c r="T820" s="20"/>
+      <c r="U820" s="20"/>
+      <c r="V820" s="20"/>
       <c r="W820" s="15"/>
       <c r="X820" s="15"/>
       <c r="Y820" s="15"/>
@@ -31277,12 +31395,12 @@
       <c r="AC820" s="15"/>
     </row>
     <row r="821" spans="17:29">
-      <c r="Q821" s="20"/>
-      <c r="R821" s="20"/>
-      <c r="S821" s="20"/>
-      <c r="T821" s="20"/>
-      <c r="U821" s="20"/>
-      <c r="V821" s="20"/>
+      <c r="Q821" s="15"/>
+      <c r="R821" s="15"/>
+      <c r="S821" s="15"/>
+      <c r="T821" s="15"/>
+      <c r="U821" s="15"/>
+      <c r="V821" s="15"/>
       <c r="W821" s="15"/>
       <c r="X821" s="15"/>
       <c r="Y821" s="15"/>
@@ -31307,12 +31425,12 @@
       <c r="AC822" s="15"/>
     </row>
     <row r="823" spans="17:29">
-      <c r="Q823" s="15"/>
-      <c r="R823" s="15"/>
-      <c r="S823" s="15"/>
-      <c r="T823" s="15"/>
-      <c r="U823" s="15"/>
-      <c r="V823" s="15"/>
+      <c r="Q823" s="20"/>
+      <c r="R823" s="20"/>
+      <c r="S823" s="20"/>
+      <c r="T823" s="20"/>
+      <c r="U823" s="20"/>
+      <c r="V823" s="20"/>
       <c r="W823" s="15"/>
       <c r="X823" s="15"/>
       <c r="Y823" s="15"/>
@@ -31322,12 +31440,12 @@
       <c r="AC823" s="15"/>
     </row>
     <row r="824" spans="17:29">
-      <c r="Q824" s="20"/>
-      <c r="R824" s="20"/>
-      <c r="S824" s="20"/>
-      <c r="T824" s="20"/>
-      <c r="U824" s="20"/>
-      <c r="V824" s="20"/>
+      <c r="Q824" s="15"/>
+      <c r="R824" s="15"/>
+      <c r="S824" s="15"/>
+      <c r="T824" s="15"/>
+      <c r="U824" s="15"/>
+      <c r="V824" s="15"/>
       <c r="W824" s="15"/>
       <c r="X824" s="15"/>
       <c r="Y824" s="15"/>
@@ -31367,12 +31485,12 @@
       <c r="AC826" s="15"/>
     </row>
     <row r="827" spans="17:29">
-      <c r="Q827" s="15"/>
-      <c r="R827" s="15"/>
-      <c r="S827" s="15"/>
-      <c r="T827" s="15"/>
-      <c r="U827" s="15"/>
-      <c r="V827" s="15"/>
+      <c r="Q827" s="20"/>
+      <c r="R827" s="20"/>
+      <c r="S827" s="20"/>
+      <c r="T827" s="20"/>
+      <c r="U827" s="20"/>
+      <c r="V827" s="20"/>
       <c r="W827" s="15"/>
       <c r="X827" s="15"/>
       <c r="Y827" s="15"/>
@@ -31397,12 +31515,12 @@
       <c r="AC828" s="15"/>
     </row>
     <row r="829" spans="17:29">
-      <c r="Q829" s="20"/>
-      <c r="R829" s="20"/>
-      <c r="S829" s="20"/>
-      <c r="T829" s="20"/>
-      <c r="U829" s="20"/>
-      <c r="V829" s="20"/>
+      <c r="Q829" s="15"/>
+      <c r="R829" s="15"/>
+      <c r="S829" s="15"/>
+      <c r="T829" s="15"/>
+      <c r="U829" s="15"/>
+      <c r="V829" s="15"/>
       <c r="W829" s="15"/>
       <c r="X829" s="15"/>
       <c r="Y829" s="15"/>
@@ -31412,12 +31530,12 @@
       <c r="AC829" s="15"/>
     </row>
     <row r="830" spans="17:29">
-      <c r="Q830" s="15"/>
-      <c r="R830" s="15"/>
-      <c r="S830" s="15"/>
-      <c r="T830" s="15"/>
-      <c r="U830" s="15"/>
-      <c r="V830" s="15"/>
+      <c r="Q830" s="20"/>
+      <c r="R830" s="20"/>
+      <c r="S830" s="20"/>
+      <c r="T830" s="20"/>
+      <c r="U830" s="20"/>
+      <c r="V830" s="20"/>
       <c r="W830" s="15"/>
       <c r="X830" s="15"/>
       <c r="Y830" s="15"/>
@@ -31427,12 +31545,12 @@
       <c r="AC830" s="15"/>
     </row>
     <row r="831" spans="17:29">
-      <c r="Q831" s="20"/>
-      <c r="R831" s="20"/>
-      <c r="S831" s="20"/>
-      <c r="T831" s="20"/>
-      <c r="U831" s="20"/>
-      <c r="V831" s="20"/>
+      <c r="Q831" s="15"/>
+      <c r="R831" s="15"/>
+      <c r="S831" s="15"/>
+      <c r="T831" s="15"/>
+      <c r="U831" s="15"/>
+      <c r="V831" s="15"/>
       <c r="W831" s="15"/>
       <c r="X831" s="15"/>
       <c r="Y831" s="15"/>
@@ -31457,12 +31575,12 @@
       <c r="AC832" s="15"/>
     </row>
     <row r="833" spans="17:29">
-      <c r="Q833" s="15"/>
-      <c r="R833" s="15"/>
-      <c r="S833" s="15"/>
-      <c r="T833" s="15"/>
-      <c r="U833" s="15"/>
-      <c r="V833" s="15"/>
+      <c r="Q833" s="20"/>
+      <c r="R833" s="20"/>
+      <c r="S833" s="20"/>
+      <c r="T833" s="20"/>
+      <c r="U833" s="20"/>
+      <c r="V833" s="20"/>
       <c r="W833" s="15"/>
       <c r="X833" s="15"/>
       <c r="Y833" s="15"/>
@@ -31472,12 +31590,12 @@
       <c r="AC833" s="15"/>
     </row>
     <row r="834" spans="17:29">
-      <c r="Q834" s="20"/>
-      <c r="R834" s="20"/>
-      <c r="S834" s="20"/>
-      <c r="T834" s="20"/>
-      <c r="U834" s="20"/>
-      <c r="V834" s="20"/>
+      <c r="Q834" s="15"/>
+      <c r="R834" s="15"/>
+      <c r="S834" s="15"/>
+      <c r="T834" s="15"/>
+      <c r="U834" s="15"/>
+      <c r="V834" s="15"/>
       <c r="W834" s="15"/>
       <c r="X834" s="15"/>
       <c r="Y834" s="15"/>
@@ -31487,12 +31605,12 @@
       <c r="AC834" s="15"/>
     </row>
     <row r="835" spans="17:29">
-      <c r="Q835" s="15"/>
-      <c r="R835" s="15"/>
-      <c r="S835" s="15"/>
-      <c r="T835" s="15"/>
-      <c r="U835" s="15"/>
-      <c r="V835" s="15"/>
+      <c r="Q835" s="20"/>
+      <c r="R835" s="20"/>
+      <c r="S835" s="20"/>
+      <c r="T835" s="20"/>
+      <c r="U835" s="20"/>
+      <c r="V835" s="20"/>
       <c r="W835" s="15"/>
       <c r="X835" s="15"/>
       <c r="Y835" s="15"/>
@@ -31502,12 +31620,12 @@
       <c r="AC835" s="15"/>
     </row>
     <row r="836" spans="17:29">
-      <c r="Q836" s="20"/>
-      <c r="R836" s="20"/>
-      <c r="S836" s="20"/>
-      <c r="T836" s="20"/>
-      <c r="U836" s="20"/>
-      <c r="V836" s="20"/>
+      <c r="Q836" s="15"/>
+      <c r="R836" s="15"/>
+      <c r="S836" s="15"/>
+      <c r="T836" s="15"/>
+      <c r="U836" s="15"/>
+      <c r="V836" s="15"/>
       <c r="W836" s="15"/>
       <c r="X836" s="15"/>
       <c r="Y836" s="15"/>
@@ -31517,12 +31635,12 @@
       <c r="AC836" s="15"/>
     </row>
     <row r="837" spans="17:29">
-      <c r="Q837" s="15"/>
-      <c r="R837" s="15"/>
-      <c r="S837" s="15"/>
-      <c r="T837" s="15"/>
-      <c r="U837" s="15"/>
-      <c r="V837" s="15"/>
+      <c r="Q837" s="20"/>
+      <c r="R837" s="20"/>
+      <c r="S837" s="20"/>
+      <c r="T837" s="20"/>
+      <c r="U837" s="20"/>
+      <c r="V837" s="20"/>
       <c r="W837" s="15"/>
       <c r="X837" s="15"/>
       <c r="Y837" s="15"/>
@@ -31592,12 +31710,12 @@
       <c r="AC841" s="15"/>
     </row>
     <row r="842" spans="17:29">
-      <c r="Q842" s="20"/>
-      <c r="R842" s="20"/>
-      <c r="S842" s="20"/>
-      <c r="T842" s="20"/>
-      <c r="U842" s="20"/>
-      <c r="V842" s="20"/>
+      <c r="Q842" s="15"/>
+      <c r="R842" s="15"/>
+      <c r="S842" s="15"/>
+      <c r="T842" s="15"/>
+      <c r="U842" s="15"/>
+      <c r="V842" s="15"/>
       <c r="W842" s="15"/>
       <c r="X842" s="15"/>
       <c r="Y842" s="15"/>
@@ -31607,12 +31725,12 @@
       <c r="AC842" s="15"/>
     </row>
     <row r="843" spans="17:29">
-      <c r="Q843" s="15"/>
-      <c r="R843" s="15"/>
-      <c r="S843" s="15"/>
-      <c r="T843" s="15"/>
-      <c r="U843" s="15"/>
-      <c r="V843" s="15"/>
+      <c r="Q843" s="20"/>
+      <c r="R843" s="20"/>
+      <c r="S843" s="20"/>
+      <c r="T843" s="20"/>
+      <c r="U843" s="20"/>
+      <c r="V843" s="20"/>
       <c r="W843" s="15"/>
       <c r="X843" s="15"/>
       <c r="Y843" s="15"/>
@@ -31622,12 +31740,12 @@
       <c r="AC843" s="15"/>
     </row>
     <row r="844" spans="17:29">
-      <c r="Q844" s="20"/>
-      <c r="R844" s="20"/>
-      <c r="S844" s="20"/>
-      <c r="T844" s="20"/>
-      <c r="U844" s="20"/>
-      <c r="V844" s="20"/>
+      <c r="Q844" s="15"/>
+      <c r="R844" s="15"/>
+      <c r="S844" s="15"/>
+      <c r="T844" s="15"/>
+      <c r="U844" s="15"/>
+      <c r="V844" s="15"/>
       <c r="W844" s="15"/>
       <c r="X844" s="15"/>
       <c r="Y844" s="15"/>
@@ -31637,12 +31755,12 @@
       <c r="AC844" s="15"/>
     </row>
     <row r="845" spans="17:29">
-      <c r="Q845" s="15"/>
-      <c r="R845" s="15"/>
-      <c r="S845" s="15"/>
-      <c r="T845" s="15"/>
-      <c r="U845" s="15"/>
-      <c r="V845" s="15"/>
+      <c r="Q845" s="20"/>
+      <c r="R845" s="20"/>
+      <c r="S845" s="20"/>
+      <c r="T845" s="20"/>
+      <c r="U845" s="20"/>
+      <c r="V845" s="20"/>
       <c r="W845" s="15"/>
       <c r="X845" s="15"/>
       <c r="Y845" s="15"/>
@@ -31667,12 +31785,12 @@
       <c r="AC846" s="15"/>
     </row>
     <row r="847" spans="17:29">
-      <c r="Q847" s="20"/>
-      <c r="R847" s="20"/>
-      <c r="S847" s="20"/>
-      <c r="T847" s="20"/>
-      <c r="U847" s="20"/>
-      <c r="V847" s="20"/>
+      <c r="Q847" s="15"/>
+      <c r="R847" s="15"/>
+      <c r="S847" s="15"/>
+      <c r="T847" s="15"/>
+      <c r="U847" s="15"/>
+      <c r="V847" s="15"/>
       <c r="W847" s="15"/>
       <c r="X847" s="15"/>
       <c r="Y847" s="15"/>
@@ -31697,12 +31815,12 @@
       <c r="AC848" s="15"/>
     </row>
     <row r="849" spans="17:29">
-      <c r="Q849" s="15"/>
-      <c r="R849" s="15"/>
-      <c r="S849" s="15"/>
-      <c r="T849" s="15"/>
-      <c r="U849" s="15"/>
-      <c r="V849" s="15"/>
+      <c r="Q849" s="20"/>
+      <c r="R849" s="20"/>
+      <c r="S849" s="20"/>
+      <c r="T849" s="20"/>
+      <c r="U849" s="20"/>
+      <c r="V849" s="20"/>
       <c r="W849" s="15"/>
       <c r="X849" s="15"/>
       <c r="Y849" s="15"/>
@@ -31712,12 +31830,12 @@
       <c r="AC849" s="15"/>
     </row>
     <row r="850" spans="17:29">
-      <c r="Q850" s="20"/>
-      <c r="R850" s="20"/>
-      <c r="S850" s="20"/>
-      <c r="T850" s="20"/>
-      <c r="U850" s="20"/>
-      <c r="V850" s="20"/>
+      <c r="Q850" s="15"/>
+      <c r="R850" s="15"/>
+      <c r="S850" s="15"/>
+      <c r="T850" s="15"/>
+      <c r="U850" s="15"/>
+      <c r="V850" s="15"/>
       <c r="W850" s="15"/>
       <c r="X850" s="15"/>
       <c r="Y850" s="15"/>
@@ -31757,12 +31875,12 @@
       <c r="AC852" s="15"/>
     </row>
     <row r="853" spans="17:29">
-      <c r="Q853" s="15"/>
-      <c r="R853" s="15"/>
-      <c r="S853" s="15"/>
-      <c r="T853" s="15"/>
-      <c r="U853" s="15"/>
-      <c r="V853" s="15"/>
+      <c r="Q853" s="20"/>
+      <c r="R853" s="20"/>
+      <c r="S853" s="20"/>
+      <c r="T853" s="20"/>
+      <c r="U853" s="20"/>
+      <c r="V853" s="20"/>
       <c r="W853" s="15"/>
       <c r="X853" s="15"/>
       <c r="Y853" s="15"/>
@@ -31802,12 +31920,12 @@
       <c r="AC855" s="15"/>
     </row>
     <row r="856" spans="17:29">
-      <c r="Q856" s="20"/>
-      <c r="R856" s="20"/>
-      <c r="S856" s="20"/>
-      <c r="T856" s="20"/>
-      <c r="U856" s="20"/>
-      <c r="V856" s="20"/>
+      <c r="Q856" s="15"/>
+      <c r="R856" s="15"/>
+      <c r="S856" s="15"/>
+      <c r="T856" s="15"/>
+      <c r="U856" s="15"/>
+      <c r="V856" s="15"/>
       <c r="W856" s="15"/>
       <c r="X856" s="15"/>
       <c r="Y856" s="15"/>
@@ -31817,12 +31935,12 @@
       <c r="AC856" s="15"/>
     </row>
     <row r="857" spans="17:29">
-      <c r="Q857" s="15"/>
-      <c r="R857" s="15"/>
-      <c r="S857" s="15"/>
-      <c r="T857" s="15"/>
-      <c r="U857" s="15"/>
-      <c r="V857" s="15"/>
+      <c r="Q857" s="20"/>
+      <c r="R857" s="20"/>
+      <c r="S857" s="20"/>
+      <c r="T857" s="20"/>
+      <c r="U857" s="20"/>
+      <c r="V857" s="20"/>
       <c r="W857" s="15"/>
       <c r="X857" s="15"/>
       <c r="Y857" s="15"/>
@@ -31832,12 +31950,12 @@
       <c r="AC857" s="15"/>
     </row>
     <row r="858" spans="17:29">
-      <c r="Q858" s="20"/>
-      <c r="R858" s="20"/>
-      <c r="S858" s="20"/>
-      <c r="T858" s="20"/>
-      <c r="U858" s="20"/>
-      <c r="V858" s="20"/>
+      <c r="Q858" s="15"/>
+      <c r="R858" s="15"/>
+      <c r="S858" s="15"/>
+      <c r="T858" s="15"/>
+      <c r="U858" s="15"/>
+      <c r="V858" s="15"/>
       <c r="W858" s="15"/>
       <c r="X858" s="15"/>
       <c r="Y858" s="15"/>
@@ -31862,12 +31980,12 @@
       <c r="AC859" s="15"/>
     </row>
     <row r="860" spans="17:29">
-      <c r="Q860" s="15"/>
-      <c r="R860" s="15"/>
-      <c r="S860" s="15"/>
-      <c r="T860" s="15"/>
-      <c r="U860" s="15"/>
-      <c r="V860" s="15"/>
+      <c r="Q860" s="20"/>
+      <c r="R860" s="20"/>
+      <c r="S860" s="20"/>
+      <c r="T860" s="20"/>
+      <c r="U860" s="20"/>
+      <c r="V860" s="20"/>
       <c r="W860" s="15"/>
       <c r="X860" s="15"/>
       <c r="Y860" s="15"/>
@@ -31877,12 +31995,12 @@
       <c r="AC860" s="15"/>
     </row>
     <row r="861" spans="17:29">
-      <c r="Q861" s="20"/>
-      <c r="R861" s="20"/>
-      <c r="S861" s="20"/>
-      <c r="T861" s="20"/>
-      <c r="U861" s="20"/>
-      <c r="V861" s="20"/>
+      <c r="Q861" s="15"/>
+      <c r="R861" s="15"/>
+      <c r="S861" s="15"/>
+      <c r="T861" s="15"/>
+      <c r="U861" s="15"/>
+      <c r="V861" s="15"/>
       <c r="W861" s="15"/>
       <c r="X861" s="15"/>
       <c r="Y861" s="15"/>
@@ -31892,12 +32010,12 @@
       <c r="AC861" s="15"/>
     </row>
     <row r="862" spans="17:29">
-      <c r="Q862" s="15"/>
-      <c r="R862" s="15"/>
-      <c r="S862" s="15"/>
-      <c r="T862" s="15"/>
-      <c r="U862" s="15"/>
-      <c r="V862" s="15"/>
+      <c r="Q862" s="20"/>
+      <c r="R862" s="20"/>
+      <c r="S862" s="20"/>
+      <c r="T862" s="20"/>
+      <c r="U862" s="20"/>
+      <c r="V862" s="20"/>
       <c r="W862" s="15"/>
       <c r="X862" s="15"/>
       <c r="Y862" s="15"/>
@@ -31937,12 +32055,12 @@
       <c r="AC864" s="15"/>
     </row>
     <row r="865" spans="17:29">
-      <c r="Q865" s="20"/>
-      <c r="R865" s="20"/>
-      <c r="S865" s="20"/>
-      <c r="T865" s="20"/>
-      <c r="U865" s="20"/>
-      <c r="V865" s="20"/>
+      <c r="Q865" s="15"/>
+      <c r="R865" s="15"/>
+      <c r="S865" s="15"/>
+      <c r="T865" s="15"/>
+      <c r="U865" s="15"/>
+      <c r="V865" s="15"/>
       <c r="W865" s="15"/>
       <c r="X865" s="15"/>
       <c r="Y865" s="15"/>
@@ -31952,12 +32070,12 @@
       <c r="AC865" s="15"/>
     </row>
     <row r="866" spans="17:29">
-      <c r="Q866" s="15"/>
-      <c r="R866" s="15"/>
-      <c r="S866" s="15"/>
-      <c r="T866" s="15"/>
-      <c r="U866" s="15"/>
-      <c r="V866" s="15"/>
+      <c r="Q866" s="20"/>
+      <c r="R866" s="20"/>
+      <c r="S866" s="20"/>
+      <c r="T866" s="20"/>
+      <c r="U866" s="20"/>
+      <c r="V866" s="20"/>
       <c r="W866" s="15"/>
       <c r="X866" s="15"/>
       <c r="Y866" s="15"/>
@@ -31967,12 +32085,12 @@
       <c r="AC866" s="15"/>
     </row>
     <row r="867" spans="17:29">
-      <c r="Q867" s="20"/>
-      <c r="R867" s="20"/>
-      <c r="S867" s="20"/>
-      <c r="T867" s="20"/>
-      <c r="U867" s="20"/>
-      <c r="V867" s="20"/>
+      <c r="Q867" s="15"/>
+      <c r="R867" s="15"/>
+      <c r="S867" s="15"/>
+      <c r="T867" s="15"/>
+      <c r="U867" s="15"/>
+      <c r="V867" s="15"/>
       <c r="W867" s="15"/>
       <c r="X867" s="15"/>
       <c r="Y867" s="15"/>
@@ -32027,12 +32145,12 @@
       <c r="AC870" s="15"/>
     </row>
     <row r="871" spans="17:29">
-      <c r="Q871" s="15"/>
-      <c r="R871" s="15"/>
-      <c r="S871" s="15"/>
-      <c r="T871" s="15"/>
-      <c r="U871" s="15"/>
-      <c r="V871" s="15"/>
+      <c r="Q871" s="20"/>
+      <c r="R871" s="20"/>
+      <c r="S871" s="20"/>
+      <c r="T871" s="20"/>
+      <c r="U871" s="20"/>
+      <c r="V871" s="20"/>
       <c r="W871" s="15"/>
       <c r="X871" s="15"/>
       <c r="Y871" s="15"/>
@@ -32042,12 +32160,12 @@
       <c r="AC871" s="15"/>
     </row>
     <row r="872" spans="17:29">
-      <c r="Q872" s="20"/>
-      <c r="R872" s="20"/>
-      <c r="S872" s="20"/>
-      <c r="T872" s="20"/>
-      <c r="U872" s="20"/>
-      <c r="V872" s="20"/>
+      <c r="Q872" s="15"/>
+      <c r="R872" s="15"/>
+      <c r="S872" s="15"/>
+      <c r="T872" s="15"/>
+      <c r="U872" s="15"/>
+      <c r="V872" s="15"/>
       <c r="W872" s="15"/>
       <c r="X872" s="15"/>
       <c r="Y872" s="15"/>
@@ -32177,12 +32295,12 @@
       <c r="AC880" s="15"/>
     </row>
     <row r="881" spans="17:29">
-      <c r="Q881" s="15"/>
-      <c r="R881" s="15"/>
-      <c r="S881" s="15"/>
-      <c r="T881" s="15"/>
-      <c r="U881" s="15"/>
-      <c r="V881" s="15"/>
+      <c r="Q881" s="20"/>
+      <c r="R881" s="20"/>
+      <c r="S881" s="20"/>
+      <c r="T881" s="20"/>
+      <c r="U881" s="20"/>
+      <c r="V881" s="20"/>
       <c r="W881" s="15"/>
       <c r="X881" s="15"/>
       <c r="Y881" s="15"/>
@@ -32222,12 +32340,12 @@
       <c r="AC883" s="15"/>
     </row>
     <row r="884" spans="17:29">
-      <c r="Q884" s="20"/>
-      <c r="R884" s="20"/>
-      <c r="S884" s="20"/>
-      <c r="T884" s="20"/>
-      <c r="U884" s="20"/>
-      <c r="V884" s="20"/>
+      <c r="Q884" s="15"/>
+      <c r="R884" s="15"/>
+      <c r="S884" s="15"/>
+      <c r="T884" s="15"/>
+      <c r="U884" s="15"/>
+      <c r="V884" s="15"/>
       <c r="W884" s="15"/>
       <c r="X884" s="15"/>
       <c r="Y884" s="15"/>
@@ -32237,12 +32355,12 @@
       <c r="AC884" s="15"/>
     </row>
     <row r="885" spans="17:29">
-      <c r="Q885" s="15"/>
-      <c r="R885" s="15"/>
-      <c r="S885" s="15"/>
-      <c r="T885" s="15"/>
-      <c r="U885" s="15"/>
-      <c r="V885" s="15"/>
+      <c r="Q885" s="20"/>
+      <c r="R885" s="20"/>
+      <c r="S885" s="20"/>
+      <c r="T885" s="20"/>
+      <c r="U885" s="20"/>
+      <c r="V885" s="20"/>
       <c r="W885" s="15"/>
       <c r="X885" s="15"/>
       <c r="Y885" s="15"/>
@@ -32252,12 +32370,12 @@
       <c r="AC885" s="15"/>
     </row>
     <row r="886" spans="17:29">
-      <c r="Q886" s="20"/>
-      <c r="R886" s="20"/>
-      <c r="S886" s="20"/>
-      <c r="T886" s="20"/>
-      <c r="U886" s="20"/>
-      <c r="V886" s="20"/>
+      <c r="Q886" s="15"/>
+      <c r="R886" s="15"/>
+      <c r="S886" s="15"/>
+      <c r="T886" s="15"/>
+      <c r="U886" s="15"/>
+      <c r="V886" s="15"/>
       <c r="W886" s="15"/>
       <c r="X886" s="15"/>
       <c r="Y886" s="15"/>
@@ -32282,12 +32400,12 @@
       <c r="AC887" s="15"/>
     </row>
     <row r="888" spans="17:29">
-      <c r="Q888" s="15"/>
-      <c r="R888" s="15"/>
-      <c r="S888" s="15"/>
-      <c r="T888" s="15"/>
-      <c r="U888" s="15"/>
-      <c r="V888" s="15"/>
+      <c r="Q888" s="20"/>
+      <c r="R888" s="20"/>
+      <c r="S888" s="20"/>
+      <c r="T888" s="20"/>
+      <c r="U888" s="20"/>
+      <c r="V888" s="20"/>
       <c r="W888" s="15"/>
       <c r="X888" s="15"/>
       <c r="Y888" s="15"/>
@@ -32297,12 +32415,12 @@
       <c r="AC888" s="15"/>
     </row>
     <row r="889" spans="17:29">
-      <c r="Q889" s="20"/>
-      <c r="R889" s="20"/>
-      <c r="S889" s="20"/>
-      <c r="T889" s="20"/>
-      <c r="U889" s="20"/>
-      <c r="V889" s="20"/>
+      <c r="Q889" s="15"/>
+      <c r="R889" s="15"/>
+      <c r="S889" s="15"/>
+      <c r="T889" s="15"/>
+      <c r="U889" s="15"/>
+      <c r="V889" s="15"/>
       <c r="W889" s="15"/>
       <c r="X889" s="15"/>
       <c r="Y889" s="15"/>
@@ -32342,12 +32460,12 @@
       <c r="AC891" s="15"/>
     </row>
     <row r="892" spans="17:29">
-      <c r="Q892" s="15"/>
-      <c r="R892" s="15"/>
-      <c r="S892" s="15"/>
-      <c r="T892" s="15"/>
-      <c r="U892" s="15"/>
-      <c r="V892" s="15"/>
+      <c r="Q892" s="20"/>
+      <c r="R892" s="20"/>
+      <c r="S892" s="20"/>
+      <c r="T892" s="20"/>
+      <c r="U892" s="20"/>
+      <c r="V892" s="20"/>
       <c r="W892" s="15"/>
       <c r="X892" s="15"/>
       <c r="Y892" s="15"/>
@@ -32387,12 +32505,12 @@
       <c r="AC894" s="15"/>
     </row>
     <row r="895" spans="17:29">
-      <c r="Q895" s="20"/>
-      <c r="R895" s="20"/>
-      <c r="S895" s="20"/>
-      <c r="T895" s="20"/>
-      <c r="U895" s="20"/>
-      <c r="V895" s="20"/>
+      <c r="Q895" s="15"/>
+      <c r="R895" s="15"/>
+      <c r="S895" s="15"/>
+      <c r="T895" s="15"/>
+      <c r="U895" s="15"/>
+      <c r="V895" s="15"/>
       <c r="W895" s="15"/>
       <c r="X895" s="15"/>
       <c r="Y895" s="15"/>
@@ -32492,12 +32610,12 @@
       <c r="AC901" s="15"/>
     </row>
     <row r="902" spans="17:29">
-      <c r="Q902" s="15"/>
-      <c r="R902" s="15"/>
-      <c r="S902" s="15"/>
-      <c r="T902" s="15"/>
-      <c r="U902" s="15"/>
-      <c r="V902" s="15"/>
+      <c r="Q902" s="20"/>
+      <c r="R902" s="20"/>
+      <c r="S902" s="20"/>
+      <c r="T902" s="20"/>
+      <c r="U902" s="20"/>
+      <c r="V902" s="20"/>
       <c r="W902" s="15"/>
       <c r="X902" s="15"/>
       <c r="Y902" s="15"/>
@@ -32522,12 +32640,12 @@
       <c r="AC903" s="15"/>
     </row>
     <row r="904" spans="17:29">
-      <c r="Q904" s="20"/>
-      <c r="R904" s="20"/>
-      <c r="S904" s="20"/>
-      <c r="T904" s="20"/>
-      <c r="U904" s="20"/>
-      <c r="V904" s="20"/>
+      <c r="Q904" s="15"/>
+      <c r="R904" s="15"/>
+      <c r="S904" s="15"/>
+      <c r="T904" s="15"/>
+      <c r="U904" s="15"/>
+      <c r="V904" s="15"/>
       <c r="W904" s="15"/>
       <c r="X904" s="15"/>
       <c r="Y904" s="15"/>
@@ -32672,12 +32790,12 @@
       <c r="AC913" s="15"/>
     </row>
     <row r="914" spans="17:29">
-      <c r="Q914" s="15"/>
-      <c r="R914" s="15"/>
-      <c r="S914" s="15"/>
-      <c r="T914" s="15"/>
-      <c r="U914" s="15"/>
-      <c r="V914" s="15"/>
+      <c r="Q914" s="20"/>
+      <c r="R914" s="20"/>
+      <c r="S914" s="20"/>
+      <c r="T914" s="20"/>
+      <c r="U914" s="20"/>
+      <c r="V914" s="20"/>
       <c r="W914" s="15"/>
       <c r="X914" s="15"/>
       <c r="Y914" s="15"/>
@@ -32687,12 +32805,12 @@
       <c r="AC914" s="15"/>
     </row>
     <row r="915" spans="17:29">
-      <c r="Q915" s="20"/>
-      <c r="R915" s="20"/>
-      <c r="S915" s="20"/>
-      <c r="T915" s="20"/>
-      <c r="U915" s="20"/>
-      <c r="V915" s="20"/>
+      <c r="Q915" s="15"/>
+      <c r="R915" s="15"/>
+      <c r="S915" s="15"/>
+      <c r="T915" s="15"/>
+      <c r="U915" s="15"/>
+      <c r="V915" s="15"/>
       <c r="W915" s="15"/>
       <c r="X915" s="15"/>
       <c r="Y915" s="15"/>
@@ -32777,12 +32895,12 @@
       <c r="AC920" s="15"/>
     </row>
     <row r="921" spans="17:29">
-      <c r="Q921" s="15"/>
-      <c r="R921" s="15"/>
-      <c r="S921" s="15"/>
-      <c r="T921" s="15"/>
-      <c r="U921" s="15"/>
-      <c r="V921" s="15"/>
+      <c r="Q921" s="20"/>
+      <c r="R921" s="20"/>
+      <c r="S921" s="20"/>
+      <c r="T921" s="20"/>
+      <c r="U921" s="20"/>
+      <c r="V921" s="20"/>
       <c r="W921" s="15"/>
       <c r="X921" s="15"/>
       <c r="Y921" s="15"/>
@@ -32822,12 +32940,12 @@
       <c r="AC923" s="15"/>
     </row>
     <row r="924" spans="17:29">
-      <c r="Q924" s="20"/>
-      <c r="R924" s="20"/>
-      <c r="S924" s="20"/>
-      <c r="T924" s="20"/>
-      <c r="U924" s="20"/>
-      <c r="V924" s="20"/>
+      <c r="Q924" s="15"/>
+      <c r="R924" s="15"/>
+      <c r="S924" s="15"/>
+      <c r="T924" s="15"/>
+      <c r="U924" s="15"/>
+      <c r="V924" s="15"/>
       <c r="W924" s="15"/>
       <c r="X924" s="15"/>
       <c r="Y924" s="15"/>
@@ -32897,12 +33015,12 @@
       <c r="AC928" s="15"/>
     </row>
     <row r="929" spans="17:29">
-      <c r="Q929" s="15"/>
-      <c r="R929" s="15"/>
-      <c r="S929" s="15"/>
-      <c r="T929" s="15"/>
-      <c r="U929" s="15"/>
-      <c r="V929" s="15"/>
+      <c r="Q929" s="20"/>
+      <c r="R929" s="20"/>
+      <c r="S929" s="20"/>
+      <c r="T929" s="20"/>
+      <c r="U929" s="20"/>
+      <c r="V929" s="20"/>
       <c r="W929" s="15"/>
       <c r="X929" s="15"/>
       <c r="Y929" s="15"/>
@@ -32912,12 +33030,12 @@
       <c r="AC929" s="15"/>
     </row>
     <row r="930" spans="17:29">
-      <c r="Q930" s="20"/>
-      <c r="R930" s="20"/>
-      <c r="S930" s="20"/>
-      <c r="T930" s="20"/>
-      <c r="U930" s="20"/>
-      <c r="V930" s="20"/>
+      <c r="Q930" s="15"/>
+      <c r="R930" s="15"/>
+      <c r="S930" s="15"/>
+      <c r="T930" s="15"/>
+      <c r="U930" s="15"/>
+      <c r="V930" s="15"/>
       <c r="W930" s="15"/>
       <c r="X930" s="15"/>
       <c r="Y930" s="15"/>
@@ -32972,12 +33090,12 @@
       <c r="AC933" s="15"/>
     </row>
     <row r="934" spans="17:29">
-      <c r="Q934" s="15"/>
-      <c r="R934" s="15"/>
-      <c r="S934" s="15"/>
-      <c r="T934" s="15"/>
-      <c r="U934" s="15"/>
-      <c r="V934" s="15"/>
+      <c r="Q934" s="20"/>
+      <c r="R934" s="20"/>
+      <c r="S934" s="20"/>
+      <c r="T934" s="20"/>
+      <c r="U934" s="20"/>
+      <c r="V934" s="20"/>
       <c r="W934" s="15"/>
       <c r="X934" s="15"/>
       <c r="Y934" s="15"/>
@@ -33002,12 +33120,12 @@
       <c r="AC935" s="15"/>
     </row>
     <row r="936" spans="17:29">
-      <c r="Q936" s="20"/>
-      <c r="R936" s="20"/>
-      <c r="S936" s="20"/>
-      <c r="T936" s="20"/>
-      <c r="U936" s="20"/>
-      <c r="V936" s="20"/>
+      <c r="Q936" s="15"/>
+      <c r="R936" s="15"/>
+      <c r="S936" s="15"/>
+      <c r="T936" s="15"/>
+      <c r="U936" s="15"/>
+      <c r="V936" s="15"/>
       <c r="W936" s="15"/>
       <c r="X936" s="15"/>
       <c r="Y936" s="15"/>
@@ -33092,12 +33210,12 @@
       <c r="AC941" s="15"/>
     </row>
     <row r="942" spans="17:29">
-      <c r="Q942" s="15"/>
-      <c r="R942" s="15"/>
-      <c r="S942" s="15"/>
-      <c r="T942" s="15"/>
-      <c r="U942" s="15"/>
-      <c r="V942" s="15"/>
+      <c r="Q942" s="20"/>
+      <c r="R942" s="20"/>
+      <c r="S942" s="20"/>
+      <c r="T942" s="20"/>
+      <c r="U942" s="20"/>
+      <c r="V942" s="20"/>
       <c r="W942" s="15"/>
       <c r="X942" s="15"/>
       <c r="Y942" s="15"/>
@@ -33152,12 +33270,12 @@
       <c r="AC945" s="15"/>
     </row>
     <row r="946" spans="17:29">
-      <c r="Q946" s="20"/>
-      <c r="R946" s="20"/>
-      <c r="S946" s="20"/>
-      <c r="T946" s="20"/>
-      <c r="U946" s="20"/>
-      <c r="V946" s="20"/>
+      <c r="Q946" s="15"/>
+      <c r="R946" s="15"/>
+      <c r="S946" s="15"/>
+      <c r="T946" s="15"/>
+      <c r="U946" s="15"/>
+      <c r="V946" s="15"/>
       <c r="W946" s="15"/>
       <c r="X946" s="15"/>
       <c r="Y946" s="15"/>
@@ -33167,12 +33285,12 @@
       <c r="AC946" s="15"/>
     </row>
     <row r="947" spans="17:29">
-      <c r="Q947" s="15"/>
-      <c r="R947" s="15"/>
-      <c r="S947" s="15"/>
-      <c r="T947" s="15"/>
-      <c r="U947" s="15"/>
-      <c r="V947" s="15"/>
+      <c r="Q947" s="20"/>
+      <c r="R947" s="20"/>
+      <c r="S947" s="20"/>
+      <c r="T947" s="20"/>
+      <c r="U947" s="20"/>
+      <c r="V947" s="20"/>
       <c r="W947" s="15"/>
       <c r="X947" s="15"/>
       <c r="Y947" s="15"/>
@@ -33227,12 +33345,12 @@
       <c r="AC950" s="15"/>
     </row>
     <row r="951" spans="17:29">
-      <c r="Q951" s="20"/>
-      <c r="R951" s="20"/>
-      <c r="S951" s="20"/>
-      <c r="T951" s="20"/>
-      <c r="U951" s="20"/>
-      <c r="V951" s="20"/>
+      <c r="Q951" s="15"/>
+      <c r="R951" s="15"/>
+      <c r="S951" s="15"/>
+      <c r="T951" s="15"/>
+      <c r="U951" s="15"/>
+      <c r="V951" s="15"/>
       <c r="W951" s="15"/>
       <c r="X951" s="15"/>
       <c r="Y951" s="15"/>
@@ -33242,12 +33360,12 @@
       <c r="AC951" s="15"/>
     </row>
     <row r="952" spans="17:29">
-      <c r="Q952" s="15"/>
-      <c r="R952" s="15"/>
-      <c r="S952" s="15"/>
-      <c r="T952" s="15"/>
-      <c r="U952" s="15"/>
-      <c r="V952" s="15"/>
+      <c r="Q952" s="20"/>
+      <c r="R952" s="20"/>
+      <c r="S952" s="20"/>
+      <c r="T952" s="20"/>
+      <c r="U952" s="20"/>
+      <c r="V952" s="20"/>
       <c r="W952" s="15"/>
       <c r="X952" s="15"/>
       <c r="Y952" s="15"/>
@@ -33302,12 +33420,12 @@
       <c r="AC955" s="15"/>
     </row>
     <row r="956" spans="17:29">
-      <c r="Q956" s="20"/>
-      <c r="R956" s="20"/>
-      <c r="S956" s="20"/>
-      <c r="T956" s="20"/>
-      <c r="U956" s="20"/>
-      <c r="V956" s="20"/>
+      <c r="Q956" s="15"/>
+      <c r="R956" s="15"/>
+      <c r="S956" s="15"/>
+      <c r="T956" s="15"/>
+      <c r="U956" s="15"/>
+      <c r="V956" s="15"/>
       <c r="W956" s="15"/>
       <c r="X956" s="15"/>
       <c r="Y956" s="15"/>
@@ -33512,22 +33630,7 @@
       <c r="AC969" s="15"/>
     </row>
     <row r="970" spans="17:29">
-      <c r="Q970" s="15"/>
-      <c r="R970" s="15"/>
-      <c r="S970" s="15"/>
-      <c r="T970" s="15"/>
-      <c r="U970" s="15"/>
-      <c r="V970" s="15"/>
-      <c r="W970" s="15"/>
-      <c r="X970" s="15"/>
-      <c r="Y970" s="15"/>
-      <c r="Z970" s="15"/>
       <c r="AA970" s="15"/>
-      <c r="AB970" s="15"/>
-      <c r="AC970" s="15"/>
-    </row>
-    <row r="971" spans="17:29">
-      <c r="AA971" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -33538,10 +33641,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO232"/>
+  <dimension ref="A1:AO233"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H172" sqref="H172"/>
+    <sheetView topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -36905,7 +37008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:18">
       <c r="A161" s="10"/>
       <c r="B161" s="9">
         <v>1</v>
@@ -36926,16 +37029,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
-      <c r="A162" s="10"/>
-      <c r="B162" s="10"/>
+    <row r="162" spans="1:18">
+      <c r="A162" s="9">
+        <v>1</v>
+      </c>
+      <c r="B162" s="9">
+        <v>1</v>
+      </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
+      <c r="E162" s="9">
+        <v>1</v>
+      </c>
       <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="G162" s="9">
+        <v>1</v>
+      </c>
+      <c r="I162" s="10"/>
+      <c r="J162" s="9">
+        <v>1</v>
+      </c>
+      <c r="O162" s="10"/>
+      <c r="R162" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -36944,7 +37063,7 @@
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:18">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -36953,15 +37072,16 @@
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:18">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="G165" s="10"/>
+    </row>
+    <row r="166" spans="1:18">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -36969,7 +37089,7 @@
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:18">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -36977,7 +37097,7 @@
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:18">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -36985,7 +37105,7 @@
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:18">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -36993,7 +37113,7 @@
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:18">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -37001,7 +37121,7 @@
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:18">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -37009,7 +37129,7 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:18">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -37017,7 +37137,7 @@
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:18">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -37025,7 +37145,7 @@
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:18">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -37033,7 +37153,7 @@
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:18">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -37041,7 +37161,7 @@
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:18">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -37166,6 +37286,7 @@
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
       <c r="F191" s="10"/>
     </row>
     <row r="192" spans="1:6">
@@ -37173,6 +37294,7 @@
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
       <c r="F192" s="10"/>
     </row>
     <row r="193" spans="1:6">
@@ -37271,7 +37393,7 @@
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
-      <c r="F206" s="18"/>
+      <c r="F206" s="10"/>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="10"/>
@@ -37282,11 +37404,14 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
       <c r="C208" s="10"/>
       <c r="D208" s="10"/>
+      <c r="F208" s="18"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="10"/>
+      <c r="B209" s="10"/>
       <c r="C209" s="10"/>
       <c r="D209" s="10"/>
     </row>
@@ -37353,6 +37478,7 @@
     <row r="222" spans="1:4">
       <c r="A222" s="10"/>
       <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="10"/>
@@ -37371,6 +37497,7 @@
       <c r="C226" s="10"/>
     </row>
     <row r="227" spans="1:3">
+      <c r="A227" s="10"/>
       <c r="C227" s="10"/>
     </row>
     <row r="228" spans="1:3">
@@ -37387,6 +37514,9 @@
     </row>
     <row r="232" spans="1:3">
       <c r="C232" s="10"/>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="C233" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -37399,8 +37529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="R167" sqref="R167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -41291,6 +41421,53 @@
         <v>6</v>
       </c>
     </row>
+    <row r="162" spans="1:19">
+      <c r="A162" s="1">
+        <v>1</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1">
+        <v>4</v>
+      </c>
+      <c r="F162" s="1">
+        <v>1</v>
+      </c>
+      <c r="G162" s="1">
+        <v>0</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0</v>
+      </c>
+      <c r="I162" s="1">
+        <v>2</v>
+      </c>
+      <c r="J162" s="1">
+        <v>2</v>
+      </c>
+      <c r="K162" s="1">
+        <v>1</v>
+      </c>
+      <c r="N162" s="1">
+        <v>0</v>
+      </c>
+      <c r="O162" s="1">
+        <v>1</v>
+      </c>
+      <c r="P162" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q162" s="1">
+        <v>3</v>
+      </c>
+      <c r="R162" s="1">
+        <v>6</v>
+      </c>
+      <c r="S162" s="1">
+        <v>7</v>
+      </c>
+    </row>
     <row r="166" spans="1:19" customFormat="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
@@ -41368,8 +41545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A100:AN162"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="O166" sqref="O166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44257,8 +44434,47 @@
       </c>
     </row>
     <row r="162" spans="1:19">
+      <c r="A162" s="9">
+        <v>1</v>
+      </c>
       <c r="B162" s="10"/>
+      <c r="D162" s="9">
+        <v>1</v>
+      </c>
+      <c r="E162" s="9">
+        <v>1</v>
+      </c>
+      <c r="F162" s="9">
+        <v>1</v>
+      </c>
       <c r="G162" s="10"/>
+      <c r="I162" s="9">
+        <v>1</v>
+      </c>
+      <c r="J162" s="9">
+        <v>1</v>
+      </c>
+      <c r="L162" s="16">
+        <v>0</v>
+      </c>
+      <c r="M162" s="16">
+        <v>1</v>
+      </c>
+      <c r="N162" s="16">
+        <v>4</v>
+      </c>
+      <c r="O162" s="16">
+        <v>5</v>
+      </c>
+      <c r="P162" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q162" s="16">
+        <v>9</v>
+      </c>
+      <c r="S162" s="16">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -44272,7 +44488,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44496,7 +44712,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -44587,7 +44803,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -44631,7 +44847,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -44667,7 +44883,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="18">
         <v>0</v>
@@ -44687,13 +44903,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
       </c>
       <c r="J9" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K9" s="18">
         <v>12</v>
@@ -44702,13 +44918,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -44742,13 +44958,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -44765,7 +44981,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -44775,6 +44991,9 @@
       </c>
       <c r="K12" s="18">
         <v>5</v>
+      </c>
+      <c r="L12" s="18">
+        <v>0</v>
       </c>
       <c r="N12" s="18">
         <v>17</v>
@@ -44785,10 +45004,10 @@
         <v>13</v>
       </c>
       <c r="I13" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K13" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N13" s="18">
         <v>0</v>
@@ -44799,12 +45018,12 @@
         <v>29</v>
       </c>
       <c r="N14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -44818,7 +45037,7 @@
   <dimension ref="A2:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +407,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -420,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,6 +563,12 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -867,7 +879,7 @@
   <dimension ref="A1:AO105"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+      <selection activeCell="AB74" sqref="AB74:AE74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5586,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="P47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="7">
         <v>7</v>
@@ -5966,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" s="7">
         <v>4</v>
@@ -6260,7 +6272,7 @@
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L54" s="7">
         <v>13</v>
@@ -6329,7 +6341,7 @@
     </row>
     <row r="55" spans="1:33" s="27" customFormat="1">
       <c r="A55" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" s="7">
         <v>0</v>
@@ -6376,7 +6388,7 @@
       <c r="R55" s="7">
         <v>5</v>
       </c>
-      <c r="S55" s="7">
+      <c r="S55" s="25">
         <v>2</v>
       </c>
       <c r="T55" s="7">
@@ -6389,7 +6401,7 @@
         <v>3</v>
       </c>
       <c r="W55" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X55" s="7">
         <v>17</v>
@@ -6410,7 +6422,7 @@
         <v>7</v>
       </c>
       <c r="AD55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE55" s="7">
         <v>11</v>
@@ -6469,14 +6481,14 @@
       <c r="R56" s="7">
         <v>1</v>
       </c>
-      <c r="S56" s="7">
+      <c r="S56" s="25">
         <v>6</v>
       </c>
       <c r="T56" s="7">
         <v>8</v>
       </c>
       <c r="U56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56" s="7">
         <v>5</v>
@@ -6502,7 +6514,7 @@
       </c>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF56" s="7">
         <v>2</v>
@@ -6555,9 +6567,9 @@
         <v>0</v>
       </c>
       <c r="R57" s="7">
-        <v>1</v>
-      </c>
-      <c r="S57" s="7">
+        <v>2</v>
+      </c>
+      <c r="S57" s="25">
         <v>2</v>
       </c>
       <c r="T57" s="7">
@@ -6592,7 +6604,7 @@
         <v>2</v>
       </c>
       <c r="AG57" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:33" s="3" customFormat="1">
@@ -6601,7 +6613,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" s="7">
         <v>0</v>
@@ -6615,7 +6627,9 @@
       <c r="G58" s="7">
         <v>5</v>
       </c>
-      <c r="H58" s="7"/>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
       <c r="I58" s="7">
         <v>7</v>
       </c>
@@ -6638,10 +6652,12 @@
         <v>0</v>
       </c>
       <c r="R58" s="7"/>
-      <c r="S58" s="7">
-        <v>3</v>
-      </c>
-      <c r="T58" s="7"/>
+      <c r="S58" s="25">
+        <v>3</v>
+      </c>
+      <c r="T58" s="7">
+        <v>0</v>
+      </c>
       <c r="U58" s="7"/>
       <c r="V58" s="7">
         <v>7</v>
@@ -6689,6 +6705,9 @@
       <c r="G59" s="7">
         <v>4</v>
       </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
       <c r="L59" s="7">
         <v>0</v>
       </c>
@@ -6696,7 +6715,7 @@
         <v>4</v>
       </c>
       <c r="N59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="7">
         <v>7</v>
@@ -6772,6 +6791,9 @@
       <c r="X60" s="7">
         <v>0</v>
       </c>
+      <c r="Y60" s="7">
+        <v>0</v>
+      </c>
       <c r="Z60" s="7">
         <v>2</v>
       </c>
@@ -6782,7 +6804,7 @@
         <v>16</v>
       </c>
       <c r="AC60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -6843,20 +6865,22 @@
         <v>8</v>
       </c>
       <c r="AA61" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB61" s="7">
         <v>12</v>
       </c>
       <c r="AC61" s="7"/>
       <c r="AE61" s="7"/>
-      <c r="AF61" s="7"/>
+      <c r="AF61" s="7">
+        <v>0</v>
+      </c>
       <c r="AG61" s="27"/>
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
@@ -6869,14 +6893,14 @@
         <v>4</v>
       </c>
       <c r="G62" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -6890,7 +6914,9 @@
         <v>2</v>
       </c>
       <c r="R62" s="25"/>
-      <c r="S62" s="4"/>
+      <c r="S62" s="4">
+        <v>0</v>
+      </c>
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
       <c r="V62" s="7">
@@ -6924,7 +6950,7 @@
         <v>7</v>
       </c>
       <c r="F63" s="41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="4"/>
@@ -6983,7 +7009,7 @@
       </c>
       <c r="N64" s="4"/>
       <c r="O64" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P64" s="4"/>
       <c r="Q64" s="4">
@@ -6998,7 +7024,7 @@
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4">
@@ -7045,7 +7071,7 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB65" s="7">
         <v>3</v>
@@ -7080,14 +7106,14 @@
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AB66" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7134,7 +7160,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="4"/>
       <c r="H68" s="4"/>
@@ -7142,12 +7168,12 @@
       <c r="K68" s="3"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="Q68" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
@@ -7253,7 +7279,7 @@
     </row>
     <row r="72" spans="1:33">
       <c r="D72" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -7846,8 +7872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K173" sqref="K173"/>
+    <sheetView topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -19591,7 +19617,7 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R147" s="19">
         <v>2</v>
@@ -19910,7 +19936,7 @@
         <v>7</v>
       </c>
       <c r="U150" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V150" s="19">
         <v>1</v>
@@ -20205,7 +20231,7 @@
         <v>0</v>
       </c>
       <c r="S153" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T153" s="19">
         <v>5</v>
@@ -20403,13 +20429,13 @@
       <c r="Q155" s="19">
         <v>4</v>
       </c>
-      <c r="R155" s="20">
+      <c r="R155" s="65">
         <v>7</v>
       </c>
       <c r="S155" s="19">
         <v>3</v>
       </c>
-      <c r="T155" s="20">
+      <c r="T155" s="65">
         <v>7</v>
       </c>
       <c r="U155" s="19">
@@ -20431,8 +20457,12 @@
       <c r="AA155" s="19">
         <v>6</v>
       </c>
-      <c r="AB155" s="20"/>
-      <c r="AC155" s="20"/>
+      <c r="AB155" s="20">
+        <v>7</v>
+      </c>
+      <c r="AC155" s="20">
+        <v>7</v>
+      </c>
       <c r="AD155" s="20"/>
       <c r="AF155" s="40"/>
       <c r="AH155" s="21">
@@ -20508,7 +20538,7 @@
         <v>2</v>
       </c>
       <c r="T156" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U156" s="19">
         <v>2</v>
@@ -20602,13 +20632,13 @@
       </c>
       <c r="P157" s="22"/>
       <c r="Q157" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R157" s="19">
         <v>3</v>
       </c>
       <c r="S157" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T157" s="19">
         <v>3</v>
@@ -20703,29 +20733,33 @@
       </c>
       <c r="P158" s="22"/>
       <c r="Q158" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R158" s="22">
         <v>1</v>
       </c>
-      <c r="S158" s="23">
+      <c r="S158" s="64">
         <v>4</v>
       </c>
       <c r="T158" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U158" s="23">
-        <v>4</v>
-      </c>
-      <c r="V158" s="23">
+        <v>5</v>
+      </c>
+      <c r="V158" s="64">
         <v>4</v>
       </c>
       <c r="W158" s="23"/>
       <c r="X158" s="19">
         <v>1</v>
       </c>
-      <c r="Y158" s="23"/>
-      <c r="Z158" s="23"/>
+      <c r="Y158" s="23">
+        <v>4</v>
+      </c>
+      <c r="Z158" s="23">
+        <v>4</v>
+      </c>
       <c r="AA158" s="23"/>
       <c r="AB158" s="23"/>
       <c r="AC158" s="23"/>
@@ -20792,22 +20826,22 @@
       </c>
       <c r="P159" s="22"/>
       <c r="Q159" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R159" s="19">
         <v>1</v>
       </c>
       <c r="S159" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T159" s="19">
         <v>0</v>
       </c>
-      <c r="U159" s="20">
+      <c r="U159" s="65">
         <v>3</v>
       </c>
       <c r="V159" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W159" s="20"/>
       <c r="X159" s="19">
@@ -20816,7 +20850,9 @@
       <c r="Y159" s="19">
         <v>1</v>
       </c>
-      <c r="Z159" s="20"/>
+      <c r="Z159" s="20">
+        <v>3</v>
+      </c>
       <c r="AA159" s="20"/>
       <c r="AB159" s="20"/>
       <c r="AC159" s="20"/>
@@ -20883,22 +20919,22 @@
       </c>
       <c r="P160" s="22"/>
       <c r="Q160" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R160" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S160" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T160" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U160" s="19">
         <v>1</v>
       </c>
       <c r="V160" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W160" s="20"/>
       <c r="X160" s="19">
@@ -20977,29 +21013,31 @@
         <v>12</v>
       </c>
       <c r="P161" s="22"/>
-      <c r="Q161" s="20">
+      <c r="Q161" s="65">
         <v>1</v>
       </c>
       <c r="R161" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S161" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T161" s="19">
         <v>0</v>
       </c>
       <c r="U161" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V161" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W161" s="15"/>
       <c r="X161" s="19">
         <v>0</v>
       </c>
-      <c r="Y161" s="20"/>
+      <c r="Y161" s="20">
+        <v>1</v>
+      </c>
       <c r="Z161" s="20"/>
       <c r="AA161" s="20"/>
       <c r="AB161" s="20"/>
@@ -21070,22 +21108,22 @@
       </c>
       <c r="P162" s="22"/>
       <c r="Q162" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R162" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S162" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T162" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U162" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V162" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W162" s="20"/>
       <c r="X162" s="20"/>
@@ -21096,15 +21134,90 @@
       <c r="AC162" s="20"/>
       <c r="AD162" s="20"/>
       <c r="AF162" s="23"/>
+      <c r="AH162" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI162" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ162" s="21">
+        <v>4</v>
+      </c>
+      <c r="AK162" s="21">
+        <v>6</v>
+      </c>
+      <c r="AL162" s="21">
+        <v>9</v>
+      </c>
+      <c r="AM162" s="21">
+        <v>17</v>
+      </c>
+      <c r="AO162" s="21">
+        <v>2</v>
+      </c>
+      <c r="AP162" s="21">
+        <v>2</v>
+      </c>
+      <c r="AQ162" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="163" spans="1:43" s="21" customFormat="1">
+      <c r="A163" s="21">
+        <v>1</v>
+      </c>
+      <c r="B163" s="21">
+        <v>7</v>
+      </c>
+      <c r="C163" s="21">
+        <v>4</v>
+      </c>
+      <c r="D163" s="21">
+        <v>7</v>
+      </c>
+      <c r="E163" s="21">
+        <v>4</v>
+      </c>
+      <c r="F163" s="21">
+        <v>3</v>
+      </c>
+      <c r="I163" s="21">
+        <v>1</v>
+      </c>
+      <c r="J163" s="21">
+        <v>3</v>
+      </c>
+      <c r="K163" s="21">
+        <v>4</v>
+      </c>
+      <c r="L163" s="21">
+        <v>4</v>
+      </c>
+      <c r="M163" s="21">
+        <v>7</v>
+      </c>
+      <c r="N163" s="21">
+        <v>7</v>
+      </c>
       <c r="P163" s="22"/>
-      <c r="Q163" s="23"/>
-      <c r="R163" s="23"/>
-      <c r="S163" s="23"/>
-      <c r="T163" s="23"/>
-      <c r="U163" s="23"/>
-      <c r="V163" s="23"/>
+      <c r="Q163" s="23">
+        <v>0</v>
+      </c>
+      <c r="R163" s="23">
+        <v>0</v>
+      </c>
+      <c r="S163" s="23">
+        <v>0</v>
+      </c>
+      <c r="T163" s="23">
+        <v>0</v>
+      </c>
+      <c r="U163" s="23">
+        <v>0</v>
+      </c>
+      <c r="V163" s="23">
+        <v>0</v>
+      </c>
       <c r="W163" s="23"/>
       <c r="X163" s="40"/>
       <c r="Y163" s="40"/>
@@ -21112,61 +21225,61 @@
       <c r="AA163" s="23"/>
       <c r="AB163" s="23"/>
       <c r="AC163" s="23"/>
-      <c r="AD163" s="23"/>
+      <c r="AD163" s="40"/>
       <c r="AF163" s="40"/>
     </row>
     <row r="164" spans="1:43" s="21" customFormat="1">
       <c r="P164" s="22"/>
-      <c r="Q164" s="23"/>
-      <c r="R164" s="23"/>
-      <c r="S164" s="23"/>
-      <c r="T164" s="23"/>
-      <c r="U164" s="23"/>
-      <c r="V164" s="23"/>
-      <c r="W164" s="23"/>
-      <c r="X164" s="40"/>
-      <c r="Y164" s="40"/>
-      <c r="Z164" s="23"/>
-      <c r="AA164" s="23"/>
-      <c r="AB164" s="23"/>
-      <c r="AC164" s="23"/>
-      <c r="AD164" s="23"/>
+      <c r="Q164" s="20"/>
+      <c r="R164" s="20"/>
+      <c r="S164" s="20"/>
+      <c r="T164" s="20"/>
+      <c r="U164" s="20"/>
+      <c r="V164" s="20"/>
+      <c r="W164" s="20"/>
+      <c r="X164" s="15"/>
+      <c r="Y164" s="15"/>
+      <c r="Z164" s="15"/>
+      <c r="AA164" s="15"/>
+      <c r="AB164" s="15"/>
+      <c r="AC164" s="15"/>
+      <c r="AD164" s="15"/>
       <c r="AF164" s="40"/>
     </row>
     <row r="165" spans="1:43" s="21" customFormat="1">
       <c r="P165" s="22"/>
-      <c r="Q165" s="23"/>
-      <c r="R165" s="23"/>
-      <c r="S165" s="23"/>
-      <c r="T165" s="23"/>
-      <c r="U165" s="23"/>
-      <c r="V165" s="23"/>
-      <c r="W165" s="23"/>
-      <c r="X165" s="40"/>
-      <c r="Y165" s="40"/>
-      <c r="Z165" s="40"/>
-      <c r="AA165" s="40"/>
-      <c r="AB165" s="23"/>
-      <c r="AC165" s="23"/>
-      <c r="AD165" s="23"/>
+      <c r="Q165" s="20"/>
+      <c r="R165" s="20"/>
+      <c r="S165" s="20"/>
+      <c r="T165" s="20"/>
+      <c r="U165" s="20"/>
+      <c r="V165" s="20"/>
+      <c r="W165" s="20"/>
+      <c r="X165" s="15"/>
+      <c r="Y165" s="15"/>
+      <c r="Z165" s="20"/>
+      <c r="AA165" s="20"/>
+      <c r="AB165" s="20"/>
+      <c r="AC165" s="20"/>
+      <c r="AD165" s="15"/>
       <c r="AF165" s="40"/>
     </row>
     <row r="166" spans="1:43" s="21" customFormat="1">
       <c r="P166" s="22"/>
-      <c r="Q166" s="23"/>
-      <c r="R166" s="23"/>
-      <c r="S166" s="23"/>
-      <c r="T166" s="23"/>
-      <c r="U166" s="23"/>
-      <c r="V166" s="23"/>
-      <c r="W166" s="23"/>
-      <c r="X166" s="40"/>
-      <c r="Y166" s="40"/>
-      <c r="Z166" s="23"/>
-      <c r="AA166" s="23"/>
-      <c r="AB166" s="23"/>
-      <c r="AC166" s="23"/>
-      <c r="AD166" s="40"/>
+      <c r="Q166" s="20"/>
+      <c r="R166" s="20"/>
+      <c r="S166" s="20"/>
+      <c r="T166" s="20"/>
+      <c r="U166" s="20"/>
+      <c r="V166" s="20"/>
+      <c r="W166" s="20"/>
+      <c r="X166" s="20"/>
+      <c r="Y166" s="20"/>
+      <c r="Z166" s="20"/>
+      <c r="AA166" s="20"/>
+      <c r="AB166" s="20"/>
+      <c r="AC166" s="20"/>
+      <c r="AD166" s="20"/>
       <c r="AF166" s="40"/>
     </row>
     <row r="167" spans="1:43" s="21" customFormat="1">
@@ -21178,49 +21291,49 @@
       <c r="U167" s="20"/>
       <c r="V167" s="20"/>
       <c r="W167" s="20"/>
-      <c r="X167" s="15"/>
-      <c r="Y167" s="15"/>
-      <c r="Z167" s="15"/>
-      <c r="AA167" s="15"/>
-      <c r="AB167" s="15"/>
-      <c r="AC167" s="15"/>
-      <c r="AD167" s="15"/>
+      <c r="X167" s="20"/>
+      <c r="Y167" s="20"/>
+      <c r="Z167" s="20"/>
+      <c r="AA167" s="20"/>
+      <c r="AB167" s="20"/>
+      <c r="AC167" s="20"/>
+      <c r="AD167" s="20"/>
       <c r="AF167" s="40"/>
     </row>
     <row r="168" spans="1:43" s="21" customFormat="1">
       <c r="P168" s="22"/>
-      <c r="Q168" s="20"/>
-      <c r="R168" s="20"/>
-      <c r="S168" s="20"/>
-      <c r="T168" s="20"/>
-      <c r="U168" s="20"/>
-      <c r="V168" s="20"/>
-      <c r="W168" s="20"/>
-      <c r="X168" s="15"/>
-      <c r="Y168" s="15"/>
-      <c r="Z168" s="20"/>
-      <c r="AA168" s="20"/>
-      <c r="AB168" s="20"/>
-      <c r="AC168" s="20"/>
-      <c r="AD168" s="15"/>
+      <c r="Q168" s="23"/>
+      <c r="R168" s="23"/>
+      <c r="S168" s="23"/>
+      <c r="T168" s="23"/>
+      <c r="U168" s="23"/>
+      <c r="V168" s="23"/>
+      <c r="W168" s="23"/>
+      <c r="X168" s="23"/>
+      <c r="Y168" s="23"/>
+      <c r="Z168" s="23"/>
+      <c r="AA168" s="23"/>
+      <c r="AB168" s="23"/>
+      <c r="AC168" s="23"/>
+      <c r="AD168" s="23"/>
       <c r="AF168" s="40"/>
     </row>
     <row r="169" spans="1:43" s="21" customFormat="1">
       <c r="P169" s="22"/>
-      <c r="Q169" s="20"/>
-      <c r="R169" s="20"/>
-      <c r="S169" s="20"/>
-      <c r="T169" s="20"/>
-      <c r="U169" s="20"/>
-      <c r="V169" s="20"/>
-      <c r="W169" s="20"/>
-      <c r="X169" s="20"/>
-      <c r="Y169" s="20"/>
-      <c r="Z169" s="20"/>
-      <c r="AA169" s="20"/>
-      <c r="AB169" s="20"/>
-      <c r="AC169" s="20"/>
-      <c r="AD169" s="20"/>
+      <c r="Q169" s="23"/>
+      <c r="R169" s="23"/>
+      <c r="S169" s="23"/>
+      <c r="T169" s="23"/>
+      <c r="U169" s="23"/>
+      <c r="V169" s="23"/>
+      <c r="W169" s="23"/>
+      <c r="X169" s="23"/>
+      <c r="Y169" s="23"/>
+      <c r="Z169" s="23"/>
+      <c r="AA169" s="23"/>
+      <c r="AB169" s="23"/>
+      <c r="AC169" s="23"/>
+      <c r="AD169" s="23"/>
       <c r="AF169" s="40"/>
     </row>
     <row r="170" spans="1:43" s="21" customFormat="1">
@@ -21243,38 +21356,38 @@
     </row>
     <row r="171" spans="1:43" s="21" customFormat="1">
       <c r="P171" s="22"/>
-      <c r="Q171" s="23"/>
-      <c r="R171" s="23"/>
-      <c r="S171" s="23"/>
-      <c r="T171" s="23"/>
-      <c r="U171" s="23"/>
-      <c r="V171" s="23"/>
-      <c r="W171" s="23"/>
-      <c r="X171" s="23"/>
-      <c r="Y171" s="23"/>
-      <c r="Z171" s="23"/>
-      <c r="AA171" s="23"/>
-      <c r="AB171" s="23"/>
-      <c r="AC171" s="23"/>
-      <c r="AD171" s="23"/>
+      <c r="Q171" s="20"/>
+      <c r="R171" s="20"/>
+      <c r="S171" s="20"/>
+      <c r="T171" s="20"/>
+      <c r="U171" s="20"/>
+      <c r="V171" s="20"/>
+      <c r="W171" s="15"/>
+      <c r="X171" s="15"/>
+      <c r="Y171" s="15"/>
+      <c r="Z171" s="15"/>
+      <c r="AA171" s="15"/>
+      <c r="AB171" s="15"/>
+      <c r="AC171" s="15"/>
+      <c r="AD171" s="15"/>
       <c r="AF171" s="40"/>
     </row>
     <row r="172" spans="1:43" s="21" customFormat="1">
       <c r="P172" s="22"/>
-      <c r="Q172" s="23"/>
-      <c r="R172" s="23"/>
-      <c r="S172" s="23"/>
-      <c r="T172" s="23"/>
-      <c r="U172" s="23"/>
-      <c r="V172" s="23"/>
-      <c r="W172" s="23"/>
-      <c r="X172" s="23"/>
-      <c r="Y172" s="23"/>
-      <c r="Z172" s="23"/>
-      <c r="AA172" s="23"/>
-      <c r="AB172" s="23"/>
-      <c r="AC172" s="23"/>
-      <c r="AD172" s="23"/>
+      <c r="Q172" s="20"/>
+      <c r="R172" s="20"/>
+      <c r="S172" s="20"/>
+      <c r="T172" s="20"/>
+      <c r="U172" s="20"/>
+      <c r="V172" s="20"/>
+      <c r="W172" s="20"/>
+      <c r="X172" s="20"/>
+      <c r="Y172" s="20"/>
+      <c r="Z172" s="20"/>
+      <c r="AA172" s="20"/>
+      <c r="AB172" s="20"/>
+      <c r="AC172" s="20"/>
+      <c r="AD172" s="20"/>
       <c r="AF172" s="40"/>
     </row>
     <row r="173" spans="1:43" s="21" customFormat="1">
@@ -21303,7 +21416,7 @@
       <c r="T174" s="20"/>
       <c r="U174" s="20"/>
       <c r="V174" s="20"/>
-      <c r="W174" s="15"/>
+      <c r="W174" s="20"/>
       <c r="X174" s="15"/>
       <c r="Y174" s="15"/>
       <c r="Z174" s="15"/>
@@ -21314,7 +21427,6 @@
       <c r="AF174" s="40"/>
     </row>
     <row r="175" spans="1:43" s="21" customFormat="1">
-      <c r="P175" s="22"/>
       <c r="Q175" s="20"/>
       <c r="R175" s="20"/>
       <c r="S175" s="20"/>
@@ -21328,46 +21440,47 @@
       <c r="AA175" s="20"/>
       <c r="AB175" s="20"/>
       <c r="AC175" s="20"/>
-      <c r="AD175" s="20"/>
+      <c r="AD175" s="15"/>
       <c r="AF175" s="40"/>
     </row>
     <row r="176" spans="1:43" s="21" customFormat="1">
       <c r="P176" s="22"/>
-      <c r="Q176" s="20"/>
-      <c r="R176" s="20"/>
-      <c r="S176" s="20"/>
-      <c r="T176" s="20"/>
-      <c r="U176" s="20"/>
-      <c r="V176" s="20"/>
-      <c r="W176" s="20"/>
-      <c r="X176" s="20"/>
-      <c r="Y176" s="20"/>
-      <c r="Z176" s="20"/>
-      <c r="AA176" s="20"/>
-      <c r="AB176" s="20"/>
-      <c r="AC176" s="20"/>
-      <c r="AD176" s="20"/>
+      <c r="Q176" s="23"/>
+      <c r="R176" s="23"/>
+      <c r="S176" s="23"/>
+      <c r="T176" s="23"/>
+      <c r="U176" s="23"/>
+      <c r="V176" s="23"/>
+      <c r="W176" s="23"/>
+      <c r="X176" s="40"/>
+      <c r="Y176" s="40"/>
+      <c r="Z176" s="23"/>
+      <c r="AA176" s="23"/>
+      <c r="AB176" s="23"/>
+      <c r="AC176" s="23"/>
+      <c r="AD176" s="23"/>
       <c r="AF176" s="40"/>
     </row>
     <row r="177" spans="16:32" s="21" customFormat="1">
       <c r="P177" s="22"/>
-      <c r="Q177" s="20"/>
-      <c r="R177" s="20"/>
-      <c r="S177" s="20"/>
-      <c r="T177" s="20"/>
-      <c r="U177" s="20"/>
-      <c r="V177" s="20"/>
-      <c r="W177" s="20"/>
-      <c r="X177" s="15"/>
-      <c r="Y177" s="15"/>
-      <c r="Z177" s="15"/>
-      <c r="AA177" s="15"/>
-      <c r="AB177" s="15"/>
-      <c r="AC177" s="15"/>
-      <c r="AD177" s="15"/>
+      <c r="Q177" s="23"/>
+      <c r="R177" s="23"/>
+      <c r="S177" s="23"/>
+      <c r="T177" s="23"/>
+      <c r="U177" s="23"/>
+      <c r="V177" s="23"/>
+      <c r="W177" s="23"/>
+      <c r="X177" s="40"/>
+      <c r="Y177" s="40"/>
+      <c r="Z177" s="40"/>
+      <c r="AA177" s="40"/>
+      <c r="AB177" s="23"/>
+      <c r="AC177" s="23"/>
+      <c r="AD177" s="23"/>
       <c r="AF177" s="40"/>
     </row>
     <row r="178" spans="16:32" s="21" customFormat="1">
+      <c r="P178" s="22"/>
       <c r="Q178" s="20"/>
       <c r="R178" s="20"/>
       <c r="S178" s="20"/>
@@ -21381,25 +21494,25 @@
       <c r="AA178" s="20"/>
       <c r="AB178" s="20"/>
       <c r="AC178" s="20"/>
-      <c r="AD178" s="15"/>
+      <c r="AD178" s="20"/>
       <c r="AF178" s="40"/>
     </row>
     <row r="179" spans="16:32" s="21" customFormat="1">
       <c r="P179" s="22"/>
-      <c r="Q179" s="20"/>
-      <c r="R179" s="20"/>
-      <c r="S179" s="20"/>
-      <c r="T179" s="20"/>
-      <c r="U179" s="20"/>
-      <c r="V179" s="20"/>
-      <c r="W179" s="20"/>
-      <c r="X179" s="20"/>
-      <c r="Y179" s="20"/>
-      <c r="Z179" s="20"/>
-      <c r="AA179" s="20"/>
-      <c r="AB179" s="20"/>
-      <c r="AC179" s="20"/>
-      <c r="AD179" s="20"/>
+      <c r="Q179" s="23"/>
+      <c r="R179" s="23"/>
+      <c r="S179" s="23"/>
+      <c r="T179" s="23"/>
+      <c r="U179" s="23"/>
+      <c r="V179" s="23"/>
+      <c r="W179" s="23"/>
+      <c r="X179" s="40"/>
+      <c r="Y179" s="40"/>
+      <c r="Z179" s="23"/>
+      <c r="AA179" s="23"/>
+      <c r="AB179" s="23"/>
+      <c r="AC179" s="23"/>
+      <c r="AD179" s="23"/>
       <c r="AF179" s="40"/>
     </row>
     <row r="180" spans="16:32" s="21" customFormat="1">
@@ -33641,10 +33754,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO233"/>
+  <dimension ref="A1:AO234"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G168" sqref="G168"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -37056,12 +37169,23 @@
     </row>
     <row r="163" spans="1:18">
       <c r="A163" s="10"/>
-      <c r="B163" s="10"/>
+      <c r="B163" s="9">
+        <v>1</v>
+      </c>
       <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
+      <c r="D163" s="9">
+        <v>1</v>
+      </c>
+      <c r="E163" s="11">
+        <v>2</v>
+      </c>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
+      <c r="H163" s="11">
+        <v>2</v>
+      </c>
+      <c r="M163" s="10"/>
+      <c r="P163" s="10"/>
     </row>
     <row r="164" spans="1:18">
       <c r="A164" s="10"/>
@@ -37071,6 +37195,7 @@
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="10"/>
@@ -37088,6 +37213,7 @@
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="10"/>
@@ -37302,6 +37428,7 @@
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
       <c r="F193" s="10"/>
     </row>
     <row r="194" spans="1:6">
@@ -37309,6 +37436,7 @@
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
       <c r="F194" s="10"/>
     </row>
     <row r="195" spans="1:6">
@@ -37400,91 +37528,96 @@
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
-      <c r="F207" s="18"/>
+      <c r="F207" s="10"/>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
       <c r="D208" s="10"/>
-      <c r="F208" s="18"/>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="F208" s="10"/>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
       <c r="D209" s="10"/>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="F209" s="18"/>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
       <c r="C210" s="10"/>
       <c r="D210" s="10"/>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="F210" s="18"/>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="10"/>
+      <c r="B211" s="10"/>
       <c r="C211" s="10"/>
       <c r="D211" s="10"/>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:6">
       <c r="A212" s="10"/>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:6">
       <c r="A213" s="10"/>
       <c r="C213" s="10"/>
       <c r="D213" s="10"/>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:6">
       <c r="A214" s="10"/>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:6">
       <c r="A215" s="10"/>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:6">
       <c r="A216" s="10"/>
       <c r="C216" s="10"/>
       <c r="D216" s="10"/>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:6">
       <c r="A217" s="10"/>
       <c r="C217" s="10"/>
       <c r="D217" s="10"/>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:6">
       <c r="A218" s="10"/>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:6">
       <c r="A219" s="10"/>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:6">
       <c r="A220" s="10"/>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:6">
       <c r="A221" s="10"/>
       <c r="C221" s="10"/>
       <c r="D221" s="10"/>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:6">
       <c r="A222" s="10"/>
       <c r="C222" s="10"/>
       <c r="D222" s="10"/>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:6">
       <c r="A223" s="10"/>
       <c r="C223" s="10"/>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="D223" s="10"/>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="10"/>
       <c r="C224" s="10"/>
     </row>
@@ -37501,6 +37634,7 @@
       <c r="C227" s="10"/>
     </row>
     <row r="228" spans="1:3">
+      <c r="A228" s="10"/>
       <c r="C228" s="10"/>
     </row>
     <row r="229" spans="1:3">
@@ -37517,6 +37651,9 @@
     </row>
     <row r="233" spans="1:3">
       <c r="C233" s="10"/>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="C234" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -37530,7 +37667,7 @@
   <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="R167" sqref="R167"/>
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -41468,6 +41605,53 @@
         <v>7</v>
       </c>
     </row>
+    <row r="163" spans="1:19">
+      <c r="A163" s="1">
+        <v>0</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1">
+        <v>5</v>
+      </c>
+      <c r="F163" s="1">
+        <v>1</v>
+      </c>
+      <c r="G163" s="1">
+        <v>1</v>
+      </c>
+      <c r="H163" s="1">
+        <v>1</v>
+      </c>
+      <c r="I163" s="1">
+        <v>1</v>
+      </c>
+      <c r="J163" s="1">
+        <v>1</v>
+      </c>
+      <c r="K163" s="1">
+        <v>1</v>
+      </c>
+      <c r="N163" s="1">
+        <v>2</v>
+      </c>
+      <c r="O163" s="1">
+        <v>3</v>
+      </c>
+      <c r="P163" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q163" s="1">
+        <v>7</v>
+      </c>
+      <c r="R163" s="1">
+        <v>7</v>
+      </c>
+      <c r="S163" s="1">
+        <v>8</v>
+      </c>
+    </row>
     <row r="166" spans="1:19" customFormat="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
@@ -41543,10 +41727,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN162"/>
+  <dimension ref="A100:AN163"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="O166" sqref="O166"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44476,6 +44660,44 @@
         <v>2</v>
       </c>
     </row>
+    <row r="163" spans="1:19">
+      <c r="B163" s="9">
+        <v>1</v>
+      </c>
+      <c r="E163" s="9">
+        <v>1</v>
+      </c>
+      <c r="H163" s="9">
+        <v>1</v>
+      </c>
+      <c r="I163" s="11">
+        <v>2</v>
+      </c>
+      <c r="J163" s="9">
+        <v>1</v>
+      </c>
+      <c r="L163" s="16">
+        <v>0</v>
+      </c>
+      <c r="M163" s="16">
+        <v>2</v>
+      </c>
+      <c r="N163" s="16">
+        <v>5</v>
+      </c>
+      <c r="O163" s="16">
+        <v>8</v>
+      </c>
+      <c r="P163" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q163" s="16">
+        <v>9</v>
+      </c>
+      <c r="S163" s="16">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44488,7 +44710,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44712,7 +44934,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -44803,7 +45025,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -44847,7 +45069,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -44883,7 +45105,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8" s="18">
         <v>0</v>
@@ -44903,13 +45125,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
       </c>
       <c r="J9" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K9" s="18">
         <v>12</v>
@@ -44918,7 +45140,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
@@ -44951,6 +45173,9 @@
       </c>
       <c r="N10" s="18">
         <v>1</v>
+      </c>
+      <c r="P10" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -44958,13 +45183,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -44981,7 +45206,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -44993,7 +45218,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="18">
         <v>17</v>
@@ -45004,10 +45229,10 @@
         <v>13</v>
       </c>
       <c r="I13" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N13" s="18">
         <v>0</v>
@@ -45018,12 +45243,12 @@
         <v>29</v>
       </c>
       <c r="N14" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,12 +407,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -426,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -563,12 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -879,7 +867,7 @@
   <dimension ref="A1:AO105"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB74" sqref="AB74:AE74"/>
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5598,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="P47" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="7">
         <v>7</v>
@@ -5978,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51" s="7">
         <v>4</v>
@@ -6272,7 +6260,7 @@
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L54" s="7">
         <v>13</v>
@@ -6341,7 +6329,7 @@
     </row>
     <row r="55" spans="1:33" s="27" customFormat="1">
       <c r="A55" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55" s="7">
         <v>0</v>
@@ -6401,7 +6389,7 @@
         <v>3</v>
       </c>
       <c r="W55" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X55" s="7">
         <v>17</v>
@@ -6422,7 +6410,7 @@
         <v>7</v>
       </c>
       <c r="AD55" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE55" s="7">
         <v>11</v>
@@ -6488,7 +6476,7 @@
         <v>8</v>
       </c>
       <c r="U56" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V56" s="7">
         <v>5</v>
@@ -6567,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S57" s="25">
         <v>2</v>
@@ -6599,7 +6587,9 @@
         <v>1</v>
       </c>
       <c r="AD57" s="7"/>
-      <c r="AE57" s="7"/>
+      <c r="AE57" s="7">
+        <v>0</v>
+      </c>
       <c r="AF57" s="7">
         <v>2</v>
       </c>
@@ -6613,7 +6603,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" s="7">
         <v>0</v>
@@ -6686,7 +6676,9 @@
       <c r="AF58" s="7">
         <v>6</v>
       </c>
-      <c r="AG58" s="7"/>
+      <c r="AG58" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:33" s="7" customFormat="1">
       <c r="B59" s="7">
@@ -6705,8 +6697,11 @@
       <c r="G59" s="7">
         <v>4</v>
       </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
       <c r="I59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="7">
         <v>0</v>
@@ -6715,7 +6710,7 @@
         <v>4</v>
       </c>
       <c r="N59" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O59" s="7">
         <v>7</v>
@@ -6727,6 +6722,9 @@
       <c r="S59" s="7">
         <v>2</v>
       </c>
+      <c r="T59" s="7">
+        <v>0</v>
+      </c>
       <c r="V59" s="7">
         <v>4</v>
       </c>
@@ -6792,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" s="7">
         <v>2</v>
@@ -6804,7 +6802,7 @@
         <v>16</v>
       </c>
       <c r="AC60" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -6865,7 +6863,7 @@
         <v>8</v>
       </c>
       <c r="AA61" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB61" s="7">
         <v>12</v>
@@ -6873,14 +6871,14 @@
       <c r="AC61" s="7"/>
       <c r="AE61" s="7"/>
       <c r="AF61" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG61" s="27"/>
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
@@ -6900,7 +6898,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -6915,7 +6913,7 @@
       </c>
       <c r="R62" s="25"/>
       <c r="S62" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
@@ -6950,9 +6948,11 @@
         <v>7</v>
       </c>
       <c r="F63" s="41">
-        <v>6</v>
-      </c>
-      <c r="G63" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
       <c r="H63" s="4"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="N64" s="4"/>
       <c r="O64" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P64" s="4"/>
       <c r="Q64" s="4">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4">
@@ -7071,7 +7071,7 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB65" s="7">
         <v>3</v>
@@ -7106,14 +7106,14 @@
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AB66" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7168,12 +7168,12 @@
       <c r="K68" s="3"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="Q68" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
@@ -7193,7 +7193,9 @@
       <c r="D69" s="3">
         <v>3</v>
       </c>
-      <c r="E69" s="4"/>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
       <c r="F69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -7279,7 +7281,7 @@
     </row>
     <row r="72" spans="1:33">
       <c r="D72" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -7872,8 +7874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT970"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I169" sqref="I169"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S169" sqref="S169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -19617,7 +19619,7 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R147" s="19">
         <v>2</v>
@@ -19936,7 +19938,7 @@
         <v>7</v>
       </c>
       <c r="U150" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V150" s="19">
         <v>1</v>
@@ -20231,7 +20233,7 @@
         <v>0</v>
       </c>
       <c r="S153" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T153" s="19">
         <v>5</v>
@@ -20429,13 +20431,13 @@
       <c r="Q155" s="19">
         <v>4</v>
       </c>
-      <c r="R155" s="65">
+      <c r="R155" s="19">
         <v>7</v>
       </c>
       <c r="S155" s="19">
         <v>3</v>
       </c>
-      <c r="T155" s="65">
+      <c r="T155" s="19">
         <v>7</v>
       </c>
       <c r="U155" s="19">
@@ -20457,10 +20459,10 @@
       <c r="AA155" s="19">
         <v>6</v>
       </c>
-      <c r="AB155" s="20">
+      <c r="AB155" s="19">
         <v>7</v>
       </c>
-      <c r="AC155" s="20">
+      <c r="AC155" s="19">
         <v>7</v>
       </c>
       <c r="AD155" s="20"/>
@@ -20537,7 +20539,7 @@
       <c r="S156" s="19">
         <v>2</v>
       </c>
-      <c r="T156" s="20">
+      <c r="T156" s="19">
         <v>7</v>
       </c>
       <c r="U156" s="19">
@@ -20562,7 +20564,9 @@
       <c r="AB156" s="19">
         <v>3</v>
       </c>
-      <c r="AC156" s="20"/>
+      <c r="AC156" s="22">
+        <v>7</v>
+      </c>
       <c r="AD156" s="20"/>
       <c r="AF156" s="40"/>
       <c r="AH156" s="21">
@@ -20632,13 +20636,13 @@
       </c>
       <c r="P157" s="22"/>
       <c r="Q157" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R157" s="19">
         <v>3</v>
       </c>
       <c r="S157" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T157" s="19">
         <v>3</v>
@@ -20733,31 +20737,31 @@
       </c>
       <c r="P158" s="22"/>
       <c r="Q158" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R158" s="22">
         <v>1</v>
       </c>
-      <c r="S158" s="64">
+      <c r="S158" s="22">
         <v>4</v>
       </c>
       <c r="T158" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U158" s="23">
-        <v>5</v>
-      </c>
-      <c r="V158" s="64">
+        <v>6</v>
+      </c>
+      <c r="V158" s="22">
         <v>4</v>
       </c>
       <c r="W158" s="23"/>
       <c r="X158" s="19">
         <v>1</v>
       </c>
-      <c r="Y158" s="23">
-        <v>4</v>
-      </c>
-      <c r="Z158" s="23">
+      <c r="Y158" s="19">
+        <v>4</v>
+      </c>
+      <c r="Z158" s="19">
         <v>4</v>
       </c>
       <c r="AA158" s="23"/>
@@ -20826,21 +20830,21 @@
       </c>
       <c r="P159" s="22"/>
       <c r="Q159" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R159" s="19">
         <v>1</v>
       </c>
       <c r="S159" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T159" s="19">
         <v>0</v>
       </c>
-      <c r="U159" s="65">
-        <v>3</v>
-      </c>
-      <c r="V159" s="20">
+      <c r="U159" s="19">
+        <v>3</v>
+      </c>
+      <c r="V159" s="19">
         <v>4</v>
       </c>
       <c r="W159" s="20"/>
@@ -20850,10 +20854,12 @@
       <c r="Y159" s="19">
         <v>1</v>
       </c>
-      <c r="Z159" s="20">
-        <v>3</v>
-      </c>
-      <c r="AA159" s="20"/>
+      <c r="Z159" s="19">
+        <v>3</v>
+      </c>
+      <c r="AA159" s="22">
+        <v>4</v>
+      </c>
       <c r="AB159" s="20"/>
       <c r="AC159" s="20"/>
       <c r="AD159" s="20"/>
@@ -20919,28 +20925,30 @@
       </c>
       <c r="P160" s="22"/>
       <c r="Q160" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R160" s="20">
-        <v>3</v>
-      </c>
-      <c r="S160" s="20">
+        <v>4</v>
+      </c>
+      <c r="S160" s="19">
         <v>3</v>
       </c>
       <c r="T160" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U160" s="19">
         <v>1</v>
       </c>
       <c r="V160" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W160" s="20"/>
       <c r="X160" s="19">
         <v>1</v>
       </c>
-      <c r="Y160" s="20"/>
+      <c r="Y160" s="22">
+        <v>3</v>
+      </c>
       <c r="Z160" s="20"/>
       <c r="AA160" s="20"/>
       <c r="AB160" s="20"/>
@@ -21013,29 +21021,29 @@
         <v>12</v>
       </c>
       <c r="P161" s="22"/>
-      <c r="Q161" s="65">
+      <c r="Q161" s="19">
         <v>1</v>
       </c>
       <c r="R161" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S161" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T161" s="19">
         <v>0</v>
       </c>
       <c r="U161" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V161" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W161" s="15"/>
       <c r="X161" s="19">
         <v>0</v>
       </c>
-      <c r="Y161" s="20">
+      <c r="Y161" s="19">
         <v>1</v>
       </c>
       <c r="Z161" s="20"/>
@@ -21107,26 +21115,28 @@
         <v>17</v>
       </c>
       <c r="P162" s="22"/>
-      <c r="Q162" s="20">
+      <c r="Q162" s="19">
         <v>1</v>
       </c>
       <c r="R162" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S162" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T162" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U162" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V162" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W162" s="20"/>
-      <c r="X162" s="20"/>
+      <c r="X162" s="22">
+        <v>1</v>
+      </c>
       <c r="Y162" s="20"/>
       <c r="Z162" s="20"/>
       <c r="AA162" s="20"/>
@@ -21200,42 +21210,115 @@
         <v>7</v>
       </c>
       <c r="P163" s="22"/>
-      <c r="Q163" s="23">
+      <c r="Q163" s="22">
         <v>0</v>
       </c>
       <c r="R163" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S163" s="23">
-        <v>0</v>
-      </c>
-      <c r="T163" s="23">
+        <v>1</v>
+      </c>
+      <c r="T163" s="22">
         <v>0</v>
       </c>
       <c r="U163" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V163" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W163" s="23"/>
-      <c r="X163" s="40"/>
-      <c r="Y163" s="40"/>
+      <c r="X163" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y163" s="21">
+        <v>0</v>
+      </c>
       <c r="Z163" s="23"/>
       <c r="AA163" s="23"/>
       <c r="AB163" s="23"/>
       <c r="AC163" s="23"/>
-      <c r="AD163" s="40"/>
+      <c r="AD163" s="23"/>
       <c r="AF163" s="40"/>
+      <c r="AH163" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI163" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ163" s="21">
+        <v>4</v>
+      </c>
+      <c r="AK163" s="21">
+        <v>7</v>
+      </c>
+      <c r="AO163" s="21">
+        <v>2</v>
+      </c>
+      <c r="AP163" s="21">
+        <v>2</v>
+      </c>
+      <c r="AQ163" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:43" s="21" customFormat="1">
+      <c r="A164" s="21">
+        <v>1</v>
+      </c>
+      <c r="B164" s="21">
+        <v>3</v>
+      </c>
+      <c r="C164" s="21">
+        <v>0</v>
+      </c>
+      <c r="D164" s="21">
+        <v>0</v>
+      </c>
+      <c r="E164" s="21">
+        <v>7</v>
+      </c>
+      <c r="F164" s="21">
+        <v>4</v>
+      </c>
+      <c r="I164" s="21">
+        <v>0</v>
+      </c>
+      <c r="J164" s="21">
+        <v>0</v>
+      </c>
+      <c r="K164" s="21">
+        <v>1</v>
+      </c>
+      <c r="L164" s="21">
+        <v>3</v>
+      </c>
+      <c r="M164" s="21">
+        <v>4</v>
+      </c>
+      <c r="N164" s="21">
+        <v>7</v>
+      </c>
       <c r="P164" s="22"/>
-      <c r="Q164" s="20"/>
-      <c r="R164" s="20"/>
-      <c r="S164" s="20"/>
-      <c r="T164" s="20"/>
-      <c r="U164" s="20"/>
-      <c r="V164" s="20"/>
+      <c r="Q164" s="20">
+        <v>0</v>
+      </c>
+      <c r="R164" s="20">
+        <v>0</v>
+      </c>
+      <c r="S164" s="20">
+        <v>0</v>
+      </c>
+      <c r="T164" s="20">
+        <v>0</v>
+      </c>
+      <c r="U164" s="20">
+        <v>0</v>
+      </c>
+      <c r="V164" s="20">
+        <v>0</v>
+      </c>
       <c r="W164" s="20"/>
       <c r="X164" s="15"/>
       <c r="Y164" s="15"/>
@@ -21245,6 +21328,30 @@
       <c r="AC164" s="15"/>
       <c r="AD164" s="15"/>
       <c r="AF164" s="40"/>
+      <c r="AH164" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI164" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ164" s="21">
+        <v>3</v>
+      </c>
+      <c r="AK164" s="21">
+        <v>4</v>
+      </c>
+      <c r="AL164" s="21">
+        <v>7</v>
+      </c>
+      <c r="AO164" s="21">
+        <v>4</v>
+      </c>
+      <c r="AP164" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ164" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="1:43" s="21" customFormat="1">
       <c r="P165" s="22"/>
@@ -33756,8 +33863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I170" sqref="I170"/>
+    <sheetView topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M169" sqref="M169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -37188,14 +37295,24 @@
       <c r="P163" s="10"/>
     </row>
     <row r="164" spans="1:18">
-      <c r="A164" s="10"/>
-      <c r="B164" s="10"/>
+      <c r="A164" s="11">
+        <v>2</v>
+      </c>
+      <c r="B164" s="9">
+        <v>1</v>
+      </c>
       <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
+      <c r="D164" s="9">
+        <v>1</v>
+      </c>
+      <c r="E164" s="9">
+        <v>1</v>
+      </c>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
-      <c r="H164" s="10"/>
+      <c r="H164" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="10"/>
@@ -37213,7 +37330,6 @@
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="10"/>
@@ -37444,6 +37560,7 @@
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
       <c r="F195" s="10"/>
     </row>
     <row r="196" spans="1:6">
@@ -37620,6 +37737,7 @@
     <row r="224" spans="1:6">
       <c r="A224" s="10"/>
       <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="10"/>
@@ -37638,6 +37756,7 @@
       <c r="C228" s="10"/>
     </row>
     <row r="229" spans="1:3">
+      <c r="A229" s="10"/>
       <c r="C229" s="10"/>
     </row>
     <row r="230" spans="1:3">
@@ -37666,8 +37785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="G168" sqref="G168"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="T171" sqref="T171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -41652,6 +41771,53 @@
         <v>8</v>
       </c>
     </row>
+    <row r="164" spans="1:19">
+      <c r="A164" s="1">
+        <v>2</v>
+      </c>
+      <c r="B164" s="1">
+        <v>3</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+      <c r="F164" s="1">
+        <v>2</v>
+      </c>
+      <c r="G164" s="1">
+        <v>0</v>
+      </c>
+      <c r="H164" s="1">
+        <v>1</v>
+      </c>
+      <c r="I164" s="1">
+        <v>2</v>
+      </c>
+      <c r="J164" s="1">
+        <v>0</v>
+      </c>
+      <c r="K164" s="1">
+        <v>1</v>
+      </c>
+      <c r="N164" s="1">
+        <v>1</v>
+      </c>
+      <c r="O164" s="1">
+        <v>1</v>
+      </c>
+      <c r="P164" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q164" s="1">
+        <v>7</v>
+      </c>
+      <c r="R164" s="1">
+        <v>11</v>
+      </c>
+      <c r="S164" s="1">
+        <v>17</v>
+      </c>
+    </row>
     <row r="166" spans="1:19" customFormat="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
@@ -41727,10 +41893,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN163"/>
+  <dimension ref="A100:AN164"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="J169" sqref="J169"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44698,6 +44864,48 @@
         <v>6</v>
       </c>
     </row>
+    <row r="164" spans="1:19">
+      <c r="A164" s="9">
+        <v>1</v>
+      </c>
+      <c r="B164" s="10"/>
+      <c r="C164" s="9">
+        <v>1</v>
+      </c>
+      <c r="E164" s="9">
+        <v>1</v>
+      </c>
+      <c r="G164" s="9">
+        <v>1</v>
+      </c>
+      <c r="H164" s="9">
+        <v>1</v>
+      </c>
+      <c r="J164" s="9">
+        <v>1</v>
+      </c>
+      <c r="L164" s="16">
+        <v>0</v>
+      </c>
+      <c r="M164" s="16">
+        <v>1</v>
+      </c>
+      <c r="N164" s="16">
+        <v>3</v>
+      </c>
+      <c r="O164" s="16">
+        <v>5</v>
+      </c>
+      <c r="P164" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q164" s="16">
+        <v>8</v>
+      </c>
+      <c r="S164" s="16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44710,7 +44918,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44934,7 +45142,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -45025,7 +45233,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -45069,7 +45277,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -45105,7 +45313,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8" s="18">
         <v>0</v>
@@ -45125,13 +45333,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
       </c>
       <c r="J9" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K9" s="18">
         <v>12</v>
@@ -45140,7 +45348,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
@@ -45175,7 +45383,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -45183,13 +45391,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -45206,7 +45414,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -45218,7 +45426,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" s="18">
         <v>17</v>
@@ -45229,7 +45437,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" s="18">
         <v>14</v>
@@ -45242,13 +45450,16 @@
       <c r="F14" s="19">
         <v>29</v>
       </c>
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
       <c r="N14" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U72" sqref="U72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5586,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="P47" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q47" s="7">
         <v>7</v>
@@ -6064,7 +6064,9 @@
       <c r="I52" s="7">
         <v>7</v>
       </c>
-      <c r="J52" s="7"/>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
       <c r="K52" s="7">
         <v>0</v>
       </c>
@@ -6260,7 +6262,7 @@
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L54" s="7">
         <v>13</v>
@@ -6329,7 +6331,7 @@
     </row>
     <row r="55" spans="1:33" s="27" customFormat="1">
       <c r="A55" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B55" s="7">
         <v>0</v>
@@ -6389,7 +6391,7 @@
         <v>3</v>
       </c>
       <c r="W55" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X55" s="7">
         <v>17</v>
@@ -6410,7 +6412,7 @@
         <v>7</v>
       </c>
       <c r="AD55" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE55" s="7">
         <v>11</v>
@@ -6555,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S57" s="25">
         <v>2</v>
@@ -6563,7 +6565,9 @@
       <c r="T57" s="7">
         <v>7</v>
       </c>
-      <c r="U57" s="7"/>
+      <c r="U57" s="7">
+        <v>0</v>
+      </c>
       <c r="V57" s="7">
         <v>0</v>
       </c>
@@ -6588,7 +6592,7 @@
       </c>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF57" s="7">
         <v>2</v>
@@ -6603,7 +6607,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" s="7">
         <v>0</v>
@@ -6677,7 +6681,7 @@
         <v>6</v>
       </c>
       <c r="AG58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:33" s="7" customFormat="1">
@@ -6698,7 +6702,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="7">
         <v>1</v>
@@ -6723,7 +6727,7 @@
         <v>2</v>
       </c>
       <c r="T59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59" s="7">
         <v>4</v>
@@ -6768,11 +6772,17 @@
       <c r="G60" s="7">
         <v>9</v>
       </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
       <c r="L60" s="7">
         <v>3</v>
       </c>
       <c r="M60" s="7">
         <v>2</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0</v>
       </c>
       <c r="O60" s="7">
         <v>8</v>
@@ -6790,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z60" s="7">
         <v>2</v>
@@ -6802,7 +6812,7 @@
         <v>16</v>
       </c>
       <c r="AC60" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -6863,7 +6873,7 @@
         <v>8</v>
       </c>
       <c r="AA61" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB61" s="7">
         <v>12</v>
@@ -6878,7 +6888,7 @@
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
@@ -6898,7 +6908,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -6913,7 +6923,7 @@
       </c>
       <c r="R62" s="25"/>
       <c r="S62" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
@@ -6935,7 +6945,9 @@
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
       <c r="AE62" s="3"/>
-      <c r="AF62" s="7"/>
+      <c r="AF62" s="7">
+        <v>0</v>
+      </c>
       <c r="AG62" s="27"/>
     </row>
     <row r="63" spans="1:33">
@@ -6948,10 +6960,10 @@
         <v>7</v>
       </c>
       <c r="F63" s="41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G63" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="4"/>
       <c r="J63" s="3"/>
@@ -7009,7 +7021,7 @@
       </c>
       <c r="N64" s="4"/>
       <c r="O64" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P64" s="4"/>
       <c r="Q64" s="4">
@@ -7024,7 +7036,7 @@
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4">
@@ -7071,7 +7083,7 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB65" s="7">
         <v>3</v>
@@ -7106,14 +7118,14 @@
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AB66" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7173,7 +7185,7 @@
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="Q68" s="41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
@@ -7194,14 +7206,16 @@
         <v>3</v>
       </c>
       <c r="E69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="3"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
+      <c r="M69" s="4">
+        <v>0</v>
+      </c>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="Q69" s="4"/>
@@ -7281,7 +7295,7 @@
     </row>
     <row r="72" spans="1:33">
       <c r="D72" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -7874,8 +7888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S169" sqref="S169"/>
+    <sheetView tabSelected="1" topLeftCell="B145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -19619,7 +19633,7 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R147" s="19">
         <v>2</v>
@@ -19938,7 +19952,7 @@
         <v>7</v>
       </c>
       <c r="U150" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V150" s="19">
         <v>1</v>
@@ -20232,7 +20246,7 @@
       <c r="R153" s="19">
         <v>0</v>
       </c>
-      <c r="S153" s="20">
+      <c r="S153" s="19">
         <v>11</v>
       </c>
       <c r="T153" s="19">
@@ -20260,7 +20274,9 @@
       <c r="AB153" s="19">
         <v>7</v>
       </c>
-      <c r="AC153" s="20"/>
+      <c r="AC153" s="19">
+        <v>11</v>
+      </c>
       <c r="AD153" s="20"/>
       <c r="AF153" s="40"/>
       <c r="AH153" s="21">
@@ -20636,13 +20652,13 @@
       </c>
       <c r="P157" s="22"/>
       <c r="Q157" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R157" s="19">
         <v>3</v>
       </c>
       <c r="S157" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T157" s="19">
         <v>3</v>
@@ -20737,7 +20753,7 @@
       </c>
       <c r="P158" s="22"/>
       <c r="Q158" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R158" s="22">
         <v>1</v>
@@ -20746,10 +20762,10 @@
         <v>4</v>
       </c>
       <c r="T158" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U158" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V158" s="22">
         <v>4</v>
@@ -20830,13 +20846,13 @@
       </c>
       <c r="P159" s="22"/>
       <c r="Q159" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R159" s="19">
         <v>1</v>
       </c>
       <c r="S159" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T159" s="19">
         <v>0</v>
@@ -20925,22 +20941,22 @@
       </c>
       <c r="P160" s="22"/>
       <c r="Q160" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R160" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S160" s="19">
         <v>3</v>
       </c>
       <c r="T160" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U160" s="19">
         <v>1</v>
       </c>
       <c r="V160" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W160" s="20"/>
       <c r="X160" s="19">
@@ -21024,20 +21040,20 @@
       <c r="Q161" s="19">
         <v>1</v>
       </c>
-      <c r="R161" s="20">
+      <c r="R161" s="19">
         <v>3</v>
       </c>
       <c r="S161" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T161" s="19">
         <v>0</v>
       </c>
       <c r="U161" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V161" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W161" s="15"/>
       <c r="X161" s="19">
@@ -21046,7 +21062,9 @@
       <c r="Y161" s="19">
         <v>1</v>
       </c>
-      <c r="Z161" s="20"/>
+      <c r="Z161" s="19">
+        <v>3</v>
+      </c>
       <c r="AA161" s="20"/>
       <c r="AB161" s="20"/>
       <c r="AC161" s="20"/>
@@ -21118,27 +21136,31 @@
       <c r="Q162" s="19">
         <v>1</v>
       </c>
-      <c r="R162" s="20">
+      <c r="R162" s="19">
         <v>2</v>
       </c>
       <c r="S162" s="20">
-        <v>2</v>
-      </c>
-      <c r="T162" s="20">
+        <v>3</v>
+      </c>
+      <c r="T162" s="19">
         <v>2</v>
       </c>
       <c r="U162" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V162" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W162" s="20"/>
       <c r="X162" s="22">
         <v>1</v>
       </c>
-      <c r="Y162" s="20"/>
-      <c r="Z162" s="20"/>
+      <c r="Y162" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z162" s="19">
+        <v>2</v>
+      </c>
       <c r="AA162" s="20"/>
       <c r="AB162" s="20"/>
       <c r="AC162" s="20"/>
@@ -21213,30 +21235,34 @@
       <c r="Q163" s="22">
         <v>0</v>
       </c>
-      <c r="R163" s="23">
+      <c r="R163" s="22">
         <v>1</v>
       </c>
       <c r="S163" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T163" s="22">
         <v>0</v>
       </c>
       <c r="U163" s="23">
-        <v>1</v>
-      </c>
-      <c r="V163" s="23">
+        <v>2</v>
+      </c>
+      <c r="V163" s="22">
         <v>1</v>
       </c>
       <c r="W163" s="23"/>
       <c r="X163" s="21">
         <v>0</v>
       </c>
-      <c r="Y163" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z163" s="23"/>
-      <c r="AA163" s="23"/>
+      <c r="Y163" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z163" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA163" s="19">
+        <v>1</v>
+      </c>
       <c r="AB163" s="23"/>
       <c r="AC163" s="23"/>
       <c r="AD163" s="23"/>
@@ -21302,30 +21328,30 @@
       </c>
       <c r="P164" s="22"/>
       <c r="Q164" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R164" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S164" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T164" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U164" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V164" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W164" s="20"/>
-      <c r="X164" s="15"/>
-      <c r="Y164" s="15"/>
-      <c r="Z164" s="15"/>
-      <c r="AA164" s="15"/>
-      <c r="AB164" s="15"/>
-      <c r="AC164" s="15"/>
+      <c r="X164" s="20"/>
+      <c r="Y164" s="20"/>
+      <c r="Z164" s="20"/>
+      <c r="AA164" s="20"/>
+      <c r="AB164" s="20"/>
+      <c r="AC164" s="20"/>
       <c r="AD164" s="15"/>
       <c r="AF164" s="40"/>
       <c r="AH164" s="21">
@@ -21354,22 +21380,91 @@
       </c>
     </row>
     <row r="165" spans="1:43" s="21" customFormat="1">
+      <c r="A165" s="21">
+        <v>1</v>
+      </c>
+      <c r="B165" s="21">
+        <v>3</v>
+      </c>
+      <c r="C165" s="21">
+        <v>11</v>
+      </c>
+      <c r="D165" s="21">
+        <v>2</v>
+      </c>
+      <c r="E165" s="21">
+        <v>2</v>
+      </c>
+      <c r="F165" s="21">
+        <v>1</v>
+      </c>
+      <c r="I165" s="21">
+        <v>1</v>
+      </c>
+      <c r="J165" s="21">
+        <v>1</v>
+      </c>
+      <c r="K165" s="21">
+        <v>2</v>
+      </c>
+      <c r="L165" s="21">
+        <v>2</v>
+      </c>
+      <c r="M165" s="21">
+        <v>3</v>
+      </c>
+      <c r="N165" s="21">
+        <v>11</v>
+      </c>
       <c r="P165" s="22"/>
-      <c r="Q165" s="20"/>
-      <c r="R165" s="20"/>
-      <c r="S165" s="20"/>
-      <c r="T165" s="20"/>
-      <c r="U165" s="20"/>
-      <c r="V165" s="20"/>
+      <c r="Q165" s="20">
+        <v>0</v>
+      </c>
+      <c r="R165" s="20">
+        <v>0</v>
+      </c>
+      <c r="S165" s="20">
+        <v>0</v>
+      </c>
+      <c r="T165" s="20">
+        <v>0</v>
+      </c>
+      <c r="U165" s="20">
+        <v>0</v>
+      </c>
+      <c r="V165" s="20">
+        <v>0</v>
+      </c>
       <c r="W165" s="20"/>
-      <c r="X165" s="15"/>
-      <c r="Y165" s="15"/>
+      <c r="X165" s="20"/>
+      <c r="Y165" s="20"/>
       <c r="Z165" s="20"/>
       <c r="AA165" s="20"/>
       <c r="AB165" s="20"/>
       <c r="AC165" s="20"/>
-      <c r="AD165" s="15"/>
+      <c r="AD165" s="20"/>
       <c r="AF165" s="40"/>
+      <c r="AH165" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI165" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ165" s="21">
+        <v>3</v>
+      </c>
+      <c r="AK165" s="21">
+        <v>11</v>
+      </c>
+      <c r="AO165" s="21">
+        <v>2</v>
+      </c>
+      <c r="AP165" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ165" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" spans="1:43" s="21" customFormat="1">
       <c r="P166" s="22"/>
@@ -21379,14 +21474,14 @@
       <c r="T166" s="20"/>
       <c r="U166" s="20"/>
       <c r="V166" s="20"/>
-      <c r="W166" s="20"/>
-      <c r="X166" s="20"/>
+      <c r="W166" s="15"/>
+      <c r="X166" s="15"/>
       <c r="Y166" s="20"/>
       <c r="Z166" s="20"/>
       <c r="AA166" s="20"/>
       <c r="AB166" s="20"/>
       <c r="AC166" s="20"/>
-      <c r="AD166" s="20"/>
+      <c r="AD166" s="15"/>
       <c r="AF166" s="40"/>
     </row>
     <row r="167" spans="1:43" s="21" customFormat="1">
@@ -21409,42 +21504,41 @@
     </row>
     <row r="168" spans="1:43" s="21" customFormat="1">
       <c r="P168" s="22"/>
-      <c r="Q168" s="23"/>
-      <c r="R168" s="23"/>
-      <c r="S168" s="23"/>
-      <c r="T168" s="23"/>
-      <c r="U168" s="23"/>
-      <c r="V168" s="23"/>
-      <c r="W168" s="23"/>
-      <c r="X168" s="23"/>
-      <c r="Y168" s="23"/>
-      <c r="Z168" s="23"/>
-      <c r="AA168" s="23"/>
-      <c r="AB168" s="23"/>
-      <c r="AC168" s="23"/>
-      <c r="AD168" s="23"/>
+      <c r="Q168" s="20"/>
+      <c r="R168" s="20"/>
+      <c r="S168" s="20"/>
+      <c r="T168" s="20"/>
+      <c r="U168" s="20"/>
+      <c r="V168" s="20"/>
+      <c r="W168" s="20"/>
+      <c r="X168" s="20"/>
+      <c r="Y168" s="20"/>
+      <c r="Z168" s="20"/>
+      <c r="AA168" s="20"/>
+      <c r="AB168" s="20"/>
+      <c r="AC168" s="20"/>
+      <c r="AD168" s="20"/>
       <c r="AF168" s="40"/>
     </row>
     <row r="169" spans="1:43" s="21" customFormat="1">
       <c r="P169" s="22"/>
-      <c r="Q169" s="23"/>
-      <c r="R169" s="23"/>
-      <c r="S169" s="23"/>
-      <c r="T169" s="23"/>
-      <c r="U169" s="23"/>
-      <c r="V169" s="23"/>
-      <c r="W169" s="23"/>
-      <c r="X169" s="23"/>
-      <c r="Y169" s="23"/>
-      <c r="Z169" s="23"/>
-      <c r="AA169" s="23"/>
-      <c r="AB169" s="23"/>
-      <c r="AC169" s="23"/>
-      <c r="AD169" s="23"/>
+      <c r="Q169" s="20"/>
+      <c r="R169" s="20"/>
+      <c r="S169" s="20"/>
+      <c r="T169" s="20"/>
+      <c r="U169" s="20"/>
+      <c r="V169" s="20"/>
+      <c r="W169" s="20"/>
+      <c r="X169" s="15"/>
+      <c r="Y169" s="20"/>
+      <c r="Z169" s="20"/>
+      <c r="AA169" s="20"/>
+      <c r="AB169" s="20"/>
+      <c r="AC169" s="20"/>
+      <c r="AD169" s="15"/>
       <c r="AF169" s="40"/>
     </row>
     <row r="170" spans="1:43" s="21" customFormat="1">
-      <c r="P170" s="22"/>
       <c r="Q170" s="20"/>
       <c r="R170" s="20"/>
       <c r="S170" s="20"/>
@@ -21458,96 +21552,93 @@
       <c r="AA170" s="20"/>
       <c r="AB170" s="20"/>
       <c r="AC170" s="20"/>
-      <c r="AD170" s="20"/>
+      <c r="AD170" s="15"/>
       <c r="AF170" s="40"/>
     </row>
     <row r="171" spans="1:43" s="21" customFormat="1">
       <c r="P171" s="22"/>
-      <c r="Q171" s="20"/>
-      <c r="R171" s="20"/>
-      <c r="S171" s="20"/>
-      <c r="T171" s="20"/>
-      <c r="U171" s="20"/>
-      <c r="V171" s="20"/>
-      <c r="W171" s="15"/>
-      <c r="X171" s="15"/>
-      <c r="Y171" s="15"/>
-      <c r="Z171" s="15"/>
-      <c r="AA171" s="15"/>
-      <c r="AB171" s="15"/>
-      <c r="AC171" s="15"/>
-      <c r="AD171" s="15"/>
+      <c r="Q171" s="23"/>
+      <c r="R171" s="23"/>
+      <c r="S171" s="23"/>
+      <c r="T171" s="23"/>
+      <c r="U171" s="23"/>
+      <c r="V171" s="23"/>
+      <c r="W171" s="40"/>
+      <c r="X171" s="40"/>
+      <c r="Y171" s="40"/>
+      <c r="Z171" s="40"/>
+      <c r="AA171" s="40"/>
+      <c r="AB171" s="40"/>
+      <c r="AC171" s="40"/>
+      <c r="AD171" s="40"/>
       <c r="AF171" s="40"/>
     </row>
     <row r="172" spans="1:43" s="21" customFormat="1">
-      <c r="P172" s="22"/>
-      <c r="Q172" s="20"/>
-      <c r="R172" s="20"/>
-      <c r="S172" s="20"/>
-      <c r="T172" s="20"/>
-      <c r="U172" s="20"/>
-      <c r="V172" s="20"/>
-      <c r="W172" s="20"/>
-      <c r="X172" s="20"/>
-      <c r="Y172" s="20"/>
-      <c r="Z172" s="20"/>
-      <c r="AA172" s="20"/>
-      <c r="AB172" s="20"/>
-      <c r="AC172" s="20"/>
-      <c r="AD172" s="20"/>
+      <c r="Q172" s="23"/>
+      <c r="R172" s="23"/>
+      <c r="S172" s="23"/>
+      <c r="T172" s="23"/>
+      <c r="U172" s="23"/>
+      <c r="V172" s="23"/>
+      <c r="W172" s="40"/>
+      <c r="X172" s="40"/>
+      <c r="Y172" s="40"/>
+      <c r="Z172" s="40"/>
+      <c r="AA172" s="40"/>
+      <c r="AB172" s="40"/>
+      <c r="AC172" s="40"/>
+      <c r="AD172" s="40"/>
       <c r="AF172" s="40"/>
     </row>
     <row r="173" spans="1:43" s="21" customFormat="1">
-      <c r="P173" s="22"/>
-      <c r="Q173" s="20"/>
-      <c r="R173" s="20"/>
-      <c r="S173" s="20"/>
-      <c r="T173" s="20"/>
-      <c r="U173" s="20"/>
-      <c r="V173" s="20"/>
-      <c r="W173" s="20"/>
-      <c r="X173" s="20"/>
-      <c r="Y173" s="20"/>
-      <c r="Z173" s="20"/>
-      <c r="AA173" s="20"/>
-      <c r="AB173" s="20"/>
-      <c r="AC173" s="20"/>
-      <c r="AD173" s="20"/>
+      <c r="Q173" s="23"/>
+      <c r="R173" s="23"/>
+      <c r="S173" s="23"/>
+      <c r="T173" s="23"/>
+      <c r="U173" s="23"/>
+      <c r="V173" s="23"/>
+      <c r="W173" s="40"/>
+      <c r="X173" s="40"/>
+      <c r="Y173" s="40"/>
+      <c r="Z173" s="40"/>
+      <c r="AA173" s="40"/>
+      <c r="AB173" s="40"/>
+      <c r="AC173" s="40"/>
+      <c r="AD173" s="40"/>
       <c r="AF173" s="40"/>
     </row>
     <row r="174" spans="1:43" s="21" customFormat="1">
-      <c r="P174" s="22"/>
-      <c r="Q174" s="20"/>
-      <c r="R174" s="20"/>
-      <c r="S174" s="20"/>
-      <c r="T174" s="20"/>
-      <c r="U174" s="20"/>
-      <c r="V174" s="20"/>
-      <c r="W174" s="20"/>
-      <c r="X174" s="15"/>
-      <c r="Y174" s="15"/>
-      <c r="Z174" s="15"/>
-      <c r="AA174" s="15"/>
-      <c r="AB174" s="15"/>
-      <c r="AC174" s="15"/>
-      <c r="AD174" s="15"/>
+      <c r="Q174" s="23"/>
+      <c r="R174" s="23"/>
+      <c r="S174" s="23"/>
+      <c r="T174" s="23"/>
+      <c r="U174" s="23"/>
+      <c r="V174" s="23"/>
+      <c r="W174" s="23"/>
+      <c r="X174" s="40"/>
+      <c r="Y174" s="40"/>
+      <c r="Z174" s="23"/>
+      <c r="AA174" s="23"/>
+      <c r="AB174" s="23"/>
+      <c r="AC174" s="23"/>
+      <c r="AD174" s="40"/>
       <c r="AF174" s="40"/>
     </row>
     <row r="175" spans="1:43" s="21" customFormat="1">
-      <c r="Q175" s="20"/>
-      <c r="R175" s="20"/>
-      <c r="S175" s="20"/>
-      <c r="T175" s="20"/>
-      <c r="U175" s="20"/>
-      <c r="V175" s="20"/>
-      <c r="W175" s="20"/>
-      <c r="X175" s="20"/>
-      <c r="Y175" s="20"/>
-      <c r="Z175" s="20"/>
-      <c r="AA175" s="20"/>
-      <c r="AB175" s="20"/>
-      <c r="AC175" s="20"/>
-      <c r="AD175" s="15"/>
+      <c r="Q175" s="23"/>
+      <c r="R175" s="23"/>
+      <c r="S175" s="23"/>
+      <c r="T175" s="23"/>
+      <c r="U175" s="23"/>
+      <c r="V175" s="23"/>
+      <c r="W175" s="23"/>
+      <c r="X175" s="40"/>
+      <c r="Y175" s="40"/>
+      <c r="Z175" s="40"/>
+      <c r="AA175" s="40"/>
+      <c r="AB175" s="40"/>
+      <c r="AC175" s="40"/>
+      <c r="AD175" s="40"/>
       <c r="AF175" s="40"/>
     </row>
     <row r="176" spans="1:43" s="21" customFormat="1">
@@ -21565,11 +21656,10 @@
       <c r="AA176" s="23"/>
       <c r="AB176" s="23"/>
       <c r="AC176" s="23"/>
-      <c r="AD176" s="23"/>
+      <c r="AD176" s="40"/>
       <c r="AF176" s="40"/>
     </row>
-    <row r="177" spans="16:32" s="21" customFormat="1">
-      <c r="P177" s="22"/>
+    <row r="177" spans="9:32" s="21" customFormat="1">
       <c r="Q177" s="23"/>
       <c r="R177" s="23"/>
       <c r="S177" s="23"/>
@@ -21579,32 +21669,32 @@
       <c r="W177" s="23"/>
       <c r="X177" s="40"/>
       <c r="Y177" s="40"/>
-      <c r="Z177" s="40"/>
-      <c r="AA177" s="40"/>
+      <c r="Z177" s="23"/>
+      <c r="AA177" s="23"/>
       <c r="AB177" s="23"/>
       <c r="AC177" s="23"/>
-      <c r="AD177" s="23"/>
+      <c r="AD177" s="40"/>
       <c r="AF177" s="40"/>
     </row>
-    <row r="178" spans="16:32" s="21" customFormat="1">
+    <row r="178" spans="9:32" s="21" customFormat="1">
       <c r="P178" s="22"/>
-      <c r="Q178" s="20"/>
-      <c r="R178" s="20"/>
-      <c r="S178" s="20"/>
-      <c r="T178" s="20"/>
-      <c r="U178" s="20"/>
-      <c r="V178" s="20"/>
-      <c r="W178" s="20"/>
-      <c r="X178" s="20"/>
-      <c r="Y178" s="20"/>
-      <c r="Z178" s="20"/>
-      <c r="AA178" s="20"/>
-      <c r="AB178" s="20"/>
-      <c r="AC178" s="20"/>
-      <c r="AD178" s="20"/>
+      <c r="Q178" s="23"/>
+      <c r="R178" s="23"/>
+      <c r="S178" s="23"/>
+      <c r="T178" s="23"/>
+      <c r="U178" s="23"/>
+      <c r="V178" s="23"/>
+      <c r="W178" s="23"/>
+      <c r="X178" s="40"/>
+      <c r="Y178" s="40"/>
+      <c r="Z178" s="40"/>
+      <c r="AA178" s="40"/>
+      <c r="AB178" s="40"/>
+      <c r="AC178" s="40"/>
+      <c r="AD178" s="40"/>
       <c r="AF178" s="40"/>
     </row>
-    <row r="179" spans="16:32" s="21" customFormat="1">
+    <row r="179" spans="9:32" s="21" customFormat="1">
       <c r="P179" s="22"/>
       <c r="Q179" s="23"/>
       <c r="R179" s="23"/>
@@ -21619,29 +21709,27 @@
       <c r="AA179" s="23"/>
       <c r="AB179" s="23"/>
       <c r="AC179" s="23"/>
-      <c r="AD179" s="23"/>
+      <c r="AD179" s="40"/>
       <c r="AF179" s="40"/>
     </row>
-    <row r="180" spans="16:32" s="21" customFormat="1">
-      <c r="P180" s="22"/>
-      <c r="Q180" s="20"/>
-      <c r="R180" s="20"/>
-      <c r="S180" s="20"/>
-      <c r="T180" s="20"/>
-      <c r="U180" s="20"/>
-      <c r="V180" s="20"/>
-      <c r="W180" s="20"/>
-      <c r="X180" s="15"/>
-      <c r="Y180" s="15"/>
-      <c r="Z180" s="15"/>
-      <c r="AA180" s="15"/>
-      <c r="AB180" s="15"/>
-      <c r="AC180" s="15"/>
-      <c r="AD180" s="15"/>
+    <row r="180" spans="9:32" s="21" customFormat="1">
+      <c r="Q180" s="23"/>
+      <c r="R180" s="23"/>
+      <c r="S180" s="23"/>
+      <c r="T180" s="23"/>
+      <c r="U180" s="23"/>
+      <c r="V180" s="23"/>
+      <c r="W180" s="40"/>
+      <c r="X180" s="40"/>
+      <c r="Y180" s="40"/>
+      <c r="Z180" s="40"/>
+      <c r="AA180" s="40"/>
+      <c r="AB180" s="40"/>
+      <c r="AC180" s="40"/>
+      <c r="AD180" s="40"/>
       <c r="AF180" s="40"/>
     </row>
-    <row r="181" spans="16:32" s="21" customFormat="1">
-      <c r="P181" s="22"/>
+    <row r="181" spans="9:32" s="21" customFormat="1">
       <c r="Q181" s="23"/>
       <c r="R181" s="23"/>
       <c r="S181" s="23"/>
@@ -21658,25 +21746,25 @@
       <c r="AD181" s="40"/>
       <c r="AF181" s="40"/>
     </row>
-    <row r="182" spans="16:32" s="21" customFormat="1">
+    <row r="182" spans="9:32" s="21" customFormat="1">
       <c r="P182" s="22"/>
-      <c r="Q182" s="20"/>
-      <c r="R182" s="20"/>
-      <c r="S182" s="20"/>
-      <c r="T182" s="20"/>
-      <c r="U182" s="20"/>
-      <c r="V182" s="20"/>
-      <c r="W182" s="15"/>
-      <c r="X182" s="15"/>
-      <c r="Y182" s="15"/>
-      <c r="Z182" s="15"/>
-      <c r="AA182" s="15"/>
-      <c r="AB182" s="15"/>
-      <c r="AC182" s="15"/>
-      <c r="AD182" s="15"/>
+      <c r="Q182" s="23"/>
+      <c r="R182" s="23"/>
+      <c r="S182" s="23"/>
+      <c r="T182" s="23"/>
+      <c r="U182" s="23"/>
+      <c r="V182" s="23"/>
+      <c r="W182" s="40"/>
+      <c r="X182" s="40"/>
+      <c r="Y182" s="40"/>
+      <c r="Z182" s="40"/>
+      <c r="AA182" s="40"/>
+      <c r="AB182" s="40"/>
+      <c r="AC182" s="40"/>
+      <c r="AD182" s="40"/>
       <c r="AF182" s="40"/>
     </row>
-    <row r="183" spans="16:32" s="21" customFormat="1">
+    <row r="183" spans="9:32" s="21" customFormat="1">
       <c r="P183" s="22"/>
       <c r="Q183" s="23"/>
       <c r="R183" s="23"/>
@@ -21694,7 +21782,8 @@
       <c r="AD183" s="40"/>
       <c r="AF183" s="40"/>
     </row>
-    <row r="184" spans="16:32" s="21" customFormat="1">
+    <row r="184" spans="9:32" s="21" customFormat="1">
+      <c r="P184" s="22"/>
       <c r="Q184" s="23"/>
       <c r="R184" s="23"/>
       <c r="S184" s="23"/>
@@ -21711,7 +21800,8 @@
       <c r="AD184" s="40"/>
       <c r="AF184" s="40"/>
     </row>
-    <row r="185" spans="16:32" s="21" customFormat="1">
+    <row r="185" spans="9:32" s="21" customFormat="1">
+      <c r="P185" s="22"/>
       <c r="Q185" s="23"/>
       <c r="R185" s="23"/>
       <c r="S185" s="23"/>
@@ -21725,10 +21815,10 @@
       <c r="AA185" s="23"/>
       <c r="AB185" s="23"/>
       <c r="AC185" s="23"/>
-      <c r="AD185" s="40"/>
+      <c r="AD185" s="23"/>
       <c r="AF185" s="40"/>
     </row>
-    <row r="186" spans="16:32" s="21" customFormat="1">
+    <row r="186" spans="9:32" s="21" customFormat="1">
       <c r="P186" s="22"/>
       <c r="Q186" s="23"/>
       <c r="R186" s="23"/>
@@ -21736,35 +21826,35 @@
       <c r="T186" s="23"/>
       <c r="U186" s="23"/>
       <c r="V186" s="23"/>
-      <c r="W186" s="40"/>
+      <c r="W186" s="23"/>
       <c r="X186" s="40"/>
       <c r="Y186" s="40"/>
       <c r="Z186" s="40"/>
       <c r="AA186" s="40"/>
-      <c r="AB186" s="40"/>
-      <c r="AC186" s="40"/>
-      <c r="AD186" s="40"/>
+      <c r="AB186" s="23"/>
+      <c r="AC186" s="23"/>
+      <c r="AD186" s="23"/>
       <c r="AF186" s="40"/>
     </row>
-    <row r="187" spans="16:32" s="21" customFormat="1">
+    <row r="187" spans="9:32" s="21" customFormat="1">
       <c r="P187" s="22"/>
-      <c r="Q187" s="23"/>
-      <c r="R187" s="23"/>
-      <c r="S187" s="23"/>
-      <c r="T187" s="23"/>
-      <c r="U187" s="23"/>
-      <c r="V187" s="23"/>
-      <c r="W187" s="40"/>
-      <c r="X187" s="40"/>
-      <c r="Y187" s="40"/>
-      <c r="Z187" s="40"/>
-      <c r="AA187" s="40"/>
-      <c r="AB187" s="40"/>
-      <c r="AC187" s="40"/>
-      <c r="AD187" s="40"/>
+      <c r="Q187" s="20"/>
+      <c r="R187" s="20"/>
+      <c r="S187" s="20"/>
+      <c r="T187" s="20"/>
+      <c r="U187" s="20"/>
+      <c r="V187" s="20"/>
+      <c r="W187" s="20"/>
+      <c r="X187" s="20"/>
+      <c r="Y187" s="20"/>
+      <c r="Z187" s="20"/>
+      <c r="AA187" s="20"/>
+      <c r="AB187" s="20"/>
+      <c r="AC187" s="20"/>
+      <c r="AD187" s="20"/>
       <c r="AF187" s="40"/>
     </row>
-    <row r="188" spans="16:32" s="21" customFormat="1">
+    <row r="188" spans="9:32" s="21" customFormat="1">
       <c r="P188" s="22"/>
       <c r="Q188" s="23"/>
       <c r="R188" s="23"/>
@@ -21772,51 +21862,108 @@
       <c r="T188" s="23"/>
       <c r="U188" s="23"/>
       <c r="V188" s="23"/>
-      <c r="W188" s="40"/>
+      <c r="W188" s="23"/>
       <c r="X188" s="40"/>
       <c r="Y188" s="40"/>
-      <c r="Z188" s="40"/>
-      <c r="AA188" s="40"/>
-      <c r="AB188" s="40"/>
-      <c r="AC188" s="40"/>
-      <c r="AD188" s="40"/>
+      <c r="Z188" s="23"/>
+      <c r="AA188" s="23"/>
+      <c r="AB188" s="23"/>
+      <c r="AC188" s="23"/>
+      <c r="AD188" s="23"/>
       <c r="AF188" s="40"/>
     </row>
-    <row r="189" spans="16:32" s="21" customFormat="1">
+    <row r="189" spans="9:32" s="21" customFormat="1">
+      <c r="I189" s="21">
+        <v>2</v>
+      </c>
+      <c r="J189" s="21">
+        <v>2</v>
+      </c>
+      <c r="K189" s="21">
+        <v>3</v>
+      </c>
+      <c r="L189" s="21">
+        <v>5</v>
+      </c>
+      <c r="M189" s="21">
+        <v>14</v>
+      </c>
+      <c r="N189" s="21">
+        <v>17</v>
+      </c>
+      <c r="P189" s="22"/>
       <c r="Q189" s="23"/>
       <c r="R189" s="23"/>
       <c r="S189" s="23"/>
       <c r="T189" s="23"/>
       <c r="U189" s="23"/>
       <c r="V189" s="23"/>
-      <c r="W189" s="40"/>
-      <c r="X189" s="40"/>
-      <c r="Y189" s="40"/>
-      <c r="Z189" s="40"/>
-      <c r="AA189" s="40"/>
-      <c r="AB189" s="40"/>
-      <c r="AC189" s="40"/>
-      <c r="AD189" s="40"/>
+      <c r="W189" s="23"/>
+      <c r="X189" s="23"/>
+      <c r="Y189" s="23"/>
+      <c r="Z189" s="23"/>
+      <c r="AA189" s="23"/>
+      <c r="AB189" s="23"/>
+      <c r="AC189" s="23"/>
+      <c r="AD189" s="23"/>
       <c r="AF189" s="40"/>
     </row>
-    <row r="190" spans="16:32" s="21" customFormat="1">
-      <c r="Q190" s="23"/>
-      <c r="R190" s="23"/>
-      <c r="S190" s="23"/>
-      <c r="T190" s="23"/>
-      <c r="U190" s="23"/>
-      <c r="V190" s="23"/>
-      <c r="W190" s="40"/>
-      <c r="X190" s="40"/>
-      <c r="Y190" s="40"/>
-      <c r="Z190" s="40"/>
-      <c r="AA190" s="40"/>
-      <c r="AB190" s="40"/>
-      <c r="AC190" s="40"/>
-      <c r="AD190" s="40"/>
+    <row r="190" spans="9:32" s="21" customFormat="1">
+      <c r="I190" s="21">
+        <v>0</v>
+      </c>
+      <c r="J190" s="21">
+        <v>1</v>
+      </c>
+      <c r="K190" s="21">
+        <v>2</v>
+      </c>
+      <c r="L190" s="21">
+        <v>6</v>
+      </c>
+      <c r="M190" s="21">
+        <v>6</v>
+      </c>
+      <c r="N190" s="21">
+        <v>17</v>
+      </c>
+      <c r="P190" s="22"/>
+      <c r="Q190" s="20"/>
+      <c r="R190" s="20"/>
+      <c r="S190" s="20"/>
+      <c r="T190" s="20"/>
+      <c r="U190" s="20"/>
+      <c r="V190" s="20"/>
+      <c r="W190" s="20"/>
+      <c r="X190" s="15"/>
+      <c r="Y190" s="15"/>
+      <c r="Z190" s="15"/>
+      <c r="AA190" s="15"/>
+      <c r="AB190" s="15"/>
+      <c r="AC190" s="15"/>
+      <c r="AD190" s="15"/>
       <c r="AF190" s="40"/>
     </row>
-    <row r="191" spans="16:32" s="21" customFormat="1">
+    <row r="191" spans="9:32" s="21" customFormat="1">
+      <c r="I191" s="21">
+        <v>0</v>
+      </c>
+      <c r="J191" s="21">
+        <v>2</v>
+      </c>
+      <c r="K191" s="21">
+        <v>2</v>
+      </c>
+      <c r="L191" s="21">
+        <v>4</v>
+      </c>
+      <c r="M191" s="21">
+        <v>11</v>
+      </c>
+      <c r="N191" s="21">
+        <v>17</v>
+      </c>
+      <c r="P191" s="22"/>
       <c r="Q191" s="23"/>
       <c r="R191" s="23"/>
       <c r="S191" s="23"/>
@@ -21824,16 +21971,35 @@
       <c r="U191" s="23"/>
       <c r="V191" s="23"/>
       <c r="W191" s="23"/>
-      <c r="X191" s="40"/>
-      <c r="Y191" s="40"/>
+      <c r="X191" s="23"/>
+      <c r="Y191" s="23"/>
       <c r="Z191" s="23"/>
       <c r="AA191" s="23"/>
       <c r="AB191" s="23"/>
       <c r="AC191" s="23"/>
-      <c r="AD191" s="40"/>
+      <c r="AD191" s="23"/>
       <c r="AF191" s="40"/>
     </row>
-    <row r="192" spans="16:32" s="21" customFormat="1">
+    <row r="192" spans="9:32" s="21" customFormat="1">
+      <c r="I192" s="21">
+        <v>0</v>
+      </c>
+      <c r="J192" s="21">
+        <v>2</v>
+      </c>
+      <c r="K192" s="21">
+        <v>2</v>
+      </c>
+      <c r="L192" s="21">
+        <v>4</v>
+      </c>
+      <c r="M192" s="21">
+        <v>6</v>
+      </c>
+      <c r="N192" s="21">
+        <v>17</v>
+      </c>
+      <c r="P192" s="22"/>
       <c r="Q192" s="23"/>
       <c r="R192" s="23"/>
       <c r="S192" s="23"/>
@@ -21843,85 +22009,140 @@
       <c r="W192" s="23"/>
       <c r="X192" s="40"/>
       <c r="Y192" s="40"/>
-      <c r="Z192" s="40"/>
-      <c r="AA192" s="40"/>
-      <c r="AB192" s="40"/>
-      <c r="AC192" s="40"/>
+      <c r="Z192" s="23"/>
+      <c r="AA192" s="23"/>
+      <c r="AB192" s="23"/>
+      <c r="AC192" s="23"/>
       <c r="AD192" s="40"/>
       <c r="AF192" s="40"/>
     </row>
-    <row r="193" spans="16:32" s="21" customFormat="1">
+    <row r="193" spans="9:32" s="21" customFormat="1">
+      <c r="I193" s="21">
+        <v>0</v>
+      </c>
+      <c r="J193" s="21">
+        <v>1</v>
+      </c>
+      <c r="K193" s="21">
+        <v>1</v>
+      </c>
+      <c r="L193" s="21">
+        <v>2</v>
+      </c>
+      <c r="M193" s="21">
+        <v>3</v>
+      </c>
+      <c r="N193" s="21">
+        <v>14</v>
+      </c>
       <c r="P193" s="22"/>
-      <c r="Q193" s="23"/>
-      <c r="R193" s="23"/>
-      <c r="S193" s="23"/>
-      <c r="T193" s="23"/>
-      <c r="U193" s="23"/>
-      <c r="V193" s="23"/>
-      <c r="W193" s="23"/>
-      <c r="X193" s="40"/>
-      <c r="Y193" s="40"/>
-      <c r="Z193" s="23"/>
-      <c r="AA193" s="23"/>
-      <c r="AB193" s="23"/>
-      <c r="AC193" s="23"/>
-      <c r="AD193" s="40"/>
+      <c r="Q193" s="20"/>
+      <c r="R193" s="20"/>
+      <c r="S193" s="20"/>
+      <c r="T193" s="20"/>
+      <c r="U193" s="20"/>
+      <c r="V193" s="20"/>
+      <c r="W193" s="20"/>
+      <c r="X193" s="20"/>
+      <c r="Y193" s="20"/>
+      <c r="Z193" s="20"/>
+      <c r="AA193" s="20"/>
+      <c r="AB193" s="20"/>
+      <c r="AC193" s="20"/>
+      <c r="AD193" s="20"/>
       <c r="AF193" s="40"/>
     </row>
-    <row r="194" spans="16:32" s="21" customFormat="1">
-      <c r="Q194" s="23"/>
-      <c r="R194" s="23"/>
-      <c r="S194" s="23"/>
-      <c r="T194" s="23"/>
-      <c r="U194" s="23"/>
-      <c r="V194" s="23"/>
-      <c r="W194" s="23"/>
-      <c r="X194" s="40"/>
-      <c r="Y194" s="40"/>
-      <c r="Z194" s="23"/>
-      <c r="AA194" s="23"/>
-      <c r="AB194" s="23"/>
-      <c r="AC194" s="23"/>
-      <c r="AD194" s="40"/>
+    <row r="194" spans="9:32" s="21" customFormat="1">
+      <c r="I194" s="21">
+        <v>0</v>
+      </c>
+      <c r="J194" s="21">
+        <v>1</v>
+      </c>
+      <c r="K194" s="21">
+        <v>2</v>
+      </c>
+      <c r="L194" s="21">
+        <v>3</v>
+      </c>
+      <c r="M194" s="21">
+        <v>3</v>
+      </c>
+      <c r="N194" s="21">
+        <v>14</v>
+      </c>
+      <c r="P194" s="22"/>
+      <c r="Q194" s="20"/>
+      <c r="R194" s="20"/>
+      <c r="S194" s="20"/>
+      <c r="T194" s="20"/>
+      <c r="U194" s="20"/>
+      <c r="V194" s="20"/>
+      <c r="W194" s="20"/>
+      <c r="X194" s="20"/>
+      <c r="Y194" s="20"/>
+      <c r="Z194" s="20"/>
+      <c r="AA194" s="20"/>
+      <c r="AB194" s="20"/>
+      <c r="AC194" s="20"/>
+      <c r="AD194" s="20"/>
       <c r="AF194" s="40"/>
     </row>
-    <row r="195" spans="16:32" s="21" customFormat="1">
+    <row r="195" spans="9:32" s="21" customFormat="1">
+      <c r="I195" s="21">
+        <v>0</v>
+      </c>
+      <c r="J195" s="21">
+        <v>1</v>
+      </c>
+      <c r="K195" s="21">
+        <v>1</v>
+      </c>
+      <c r="L195" s="21">
+        <v>3</v>
+      </c>
+      <c r="M195" s="21">
+        <v>5</v>
+      </c>
+      <c r="N195" s="21">
+        <v>6</v>
+      </c>
       <c r="P195" s="22"/>
-      <c r="Q195" s="23"/>
-      <c r="R195" s="23"/>
-      <c r="S195" s="23"/>
-      <c r="T195" s="23"/>
-      <c r="U195" s="23"/>
-      <c r="V195" s="23"/>
-      <c r="W195" s="23"/>
-      <c r="X195" s="40"/>
-      <c r="Y195" s="40"/>
-      <c r="Z195" s="40"/>
-      <c r="AA195" s="40"/>
-      <c r="AB195" s="40"/>
-      <c r="AC195" s="40"/>
-      <c r="AD195" s="40"/>
+      <c r="Q195" s="20"/>
+      <c r="R195" s="20"/>
+      <c r="S195" s="20"/>
+      <c r="T195" s="20"/>
+      <c r="U195" s="20"/>
+      <c r="V195" s="20"/>
+      <c r="W195" s="20"/>
+      <c r="X195" s="15"/>
+      <c r="Y195" s="15"/>
+      <c r="Z195" s="20"/>
+      <c r="AA195" s="20"/>
+      <c r="AB195" s="20"/>
+      <c r="AC195" s="20"/>
+      <c r="AD195" s="15"/>
       <c r="AF195" s="40"/>
     </row>
-    <row r="196" spans="16:32" s="21" customFormat="1">
+    <row r="196" spans="9:32" s="21" customFormat="1">
       <c r="P196" s="22"/>
-      <c r="Q196" s="23"/>
-      <c r="R196" s="23"/>
-      <c r="S196" s="23"/>
-      <c r="T196" s="23"/>
-      <c r="U196" s="23"/>
-      <c r="V196" s="23"/>
-      <c r="W196" s="23"/>
-      <c r="X196" s="40"/>
-      <c r="Y196" s="40"/>
-      <c r="Z196" s="23"/>
-      <c r="AA196" s="23"/>
-      <c r="AB196" s="23"/>
-      <c r="AC196" s="23"/>
-      <c r="AD196" s="40"/>
+      <c r="Q196" s="20"/>
+      <c r="R196" s="20"/>
+      <c r="S196" s="20"/>
+      <c r="T196" s="20"/>
+      <c r="U196" s="20"/>
+      <c r="V196" s="20"/>
+      <c r="W196" s="15"/>
+      <c r="X196" s="15"/>
+      <c r="Y196" s="15"/>
+      <c r="Z196" s="15"/>
+      <c r="AA196" s="15"/>
+      <c r="AB196" s="15"/>
+      <c r="AC196" s="15"/>
+      <c r="AD196" s="15"/>
       <c r="AF196" s="40"/>
     </row>
-    <row r="197" spans="16:32" s="21" customFormat="1">
+    <row r="197" spans="9:32" s="21" customFormat="1">
       <c r="P197" s="22"/>
       <c r="Q197" s="23"/>
       <c r="R197" s="23"/>
@@ -21939,7 +22160,7 @@
       <c r="AD197" s="40"/>
       <c r="AF197" s="40"/>
     </row>
-    <row r="198" spans="16:32" s="21" customFormat="1">
+    <row r="198" spans="9:32" s="21" customFormat="1">
       <c r="P198" s="22"/>
       <c r="Q198" s="23"/>
       <c r="R198" s="23"/>
@@ -21957,7 +22178,7 @@
       <c r="AD198" s="40"/>
       <c r="AF198" s="40"/>
     </row>
-    <row r="199" spans="16:32" s="21" customFormat="1">
+    <row r="199" spans="9:32" s="21" customFormat="1">
       <c r="P199" s="22"/>
       <c r="Q199" s="23"/>
       <c r="R199" s="23"/>
@@ -21975,7 +22196,7 @@
       <c r="AD199" s="40"/>
       <c r="AF199" s="40"/>
     </row>
-    <row r="200" spans="16:32" s="21" customFormat="1">
+    <row r="200" spans="9:32" s="21" customFormat="1">
       <c r="Q200" s="23"/>
       <c r="R200" s="23"/>
       <c r="S200" s="23"/>
@@ -21992,7 +22213,7 @@
       <c r="AD200" s="40"/>
       <c r="AF200" s="40"/>
     </row>
-    <row r="201" spans="16:32" s="21" customFormat="1">
+    <row r="201" spans="9:32" s="21" customFormat="1">
       <c r="P201" s="22"/>
       <c r="Q201" s="23"/>
       <c r="R201" s="23"/>
@@ -22010,7 +22231,7 @@
       <c r="AD201" s="40"/>
       <c r="AF201" s="40"/>
     </row>
-    <row r="202" spans="16:32" s="21" customFormat="1">
+    <row r="202" spans="9:32" s="21" customFormat="1">
       <c r="Q202" s="23"/>
       <c r="R202" s="23"/>
       <c r="S202" s="23"/>
@@ -22027,7 +22248,7 @@
       <c r="AD202" s="40"/>
       <c r="AF202" s="40"/>
     </row>
-    <row r="203" spans="16:32" s="21" customFormat="1">
+    <row r="203" spans="9:32" s="21" customFormat="1">
       <c r="Q203" s="23"/>
       <c r="R203" s="23"/>
       <c r="S203" s="23"/>
@@ -22044,7 +22265,7 @@
       <c r="AD203" s="40"/>
       <c r="AF203" s="40"/>
     </row>
-    <row r="204" spans="16:32" s="21" customFormat="1">
+    <row r="204" spans="9:32" s="21" customFormat="1">
       <c r="P204" s="22"/>
       <c r="Q204" s="23"/>
       <c r="R204" s="23"/>
@@ -22062,7 +22283,7 @@
       <c r="AD204" s="40"/>
       <c r="AF204" s="40"/>
     </row>
-    <row r="205" spans="16:32" s="21" customFormat="1">
+    <row r="205" spans="9:32" s="21" customFormat="1">
       <c r="Q205" s="23"/>
       <c r="R205" s="23"/>
       <c r="S205" s="23"/>
@@ -22079,7 +22300,7 @@
       <c r="AD205" s="40"/>
       <c r="AF205" s="40"/>
     </row>
-    <row r="206" spans="16:32" s="21" customFormat="1">
+    <row r="206" spans="9:32" s="21" customFormat="1">
       <c r="P206" s="22"/>
       <c r="Q206" s="23"/>
       <c r="R206" s="23"/>
@@ -22097,7 +22318,7 @@
       <c r="AD206" s="40"/>
       <c r="AF206" s="40"/>
     </row>
-    <row r="207" spans="16:32" s="21" customFormat="1">
+    <row r="207" spans="9:32" s="21" customFormat="1">
       <c r="P207" s="22"/>
       <c r="Q207" s="23"/>
       <c r="R207" s="23"/>
@@ -22115,7 +22336,7 @@
       <c r="AD207" s="40"/>
       <c r="AF207" s="40"/>
     </row>
-    <row r="208" spans="16:32" s="21" customFormat="1">
+    <row r="208" spans="9:32" s="21" customFormat="1">
       <c r="P208" s="22"/>
       <c r="Q208" s="23"/>
       <c r="R208" s="23"/>
@@ -33861,10 +34082,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO234"/>
+  <dimension ref="A1:AO235"/>
   <sheetViews>
     <sheetView topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M169" sqref="M169"/>
+      <selection activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -37316,12 +37537,22 @@
     </row>
     <row r="165" spans="1:18">
       <c r="A165" s="10"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
+      <c r="B165" s="11">
+        <v>2</v>
+      </c>
+      <c r="C165" s="11">
+        <v>2</v>
+      </c>
+      <c r="D165" s="9">
+        <v>1</v>
+      </c>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
+      <c r="G165" s="18"/>
+      <c r="H165" s="10"/>
+      <c r="L165" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" spans="1:18">
       <c r="A166" s="10"/>
@@ -37568,6 +37799,7 @@
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
       <c r="F196" s="10"/>
     </row>
     <row r="197" spans="1:6">
@@ -37676,6 +37908,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
     </row>
@@ -37739,40 +37972,44 @@
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:4">
       <c r="A225" s="10"/>
       <c r="C225" s="10"/>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="D225" s="10"/>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" s="10"/>
       <c r="C226" s="10"/>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:4">
       <c r="A227" s="10"/>
       <c r="C227" s="10"/>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:4">
       <c r="A228" s="10"/>
       <c r="C228" s="10"/>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:4">
       <c r="A229" s="10"/>
       <c r="C229" s="10"/>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:4">
       <c r="C230" s="10"/>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:4">
       <c r="C231" s="10"/>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:4">
       <c r="C232" s="10"/>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:4">
       <c r="C233" s="10"/>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:4">
       <c r="C234" s="10"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="C235" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -37786,7 +38023,7 @@
   <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="T171" sqref="T171"/>
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -41818,6 +42055,53 @@
         <v>17</v>
       </c>
     </row>
+    <row r="165" spans="1:19">
+      <c r="A165" s="1">
+        <v>0</v>
+      </c>
+      <c r="B165" s="1">
+        <v>3</v>
+      </c>
+      <c r="C165" s="1">
+        <v>3</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0</v>
+      </c>
+      <c r="G165" s="1">
+        <v>3</v>
+      </c>
+      <c r="H165" s="1">
+        <v>1</v>
+      </c>
+      <c r="I165" s="1">
+        <v>1</v>
+      </c>
+      <c r="J165" s="1">
+        <v>0</v>
+      </c>
+      <c r="K165" s="1">
+        <v>1</v>
+      </c>
+      <c r="N165" s="1">
+        <v>0</v>
+      </c>
+      <c r="O165" s="1">
+        <v>1</v>
+      </c>
+      <c r="P165" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q165" s="1">
+        <v>3</v>
+      </c>
+      <c r="R165" s="1">
+        <v>7</v>
+      </c>
+      <c r="S165" s="1">
+        <v>7</v>
+      </c>
+    </row>
     <row r="166" spans="1:19" customFormat="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
@@ -41893,10 +42177,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN164"/>
+  <dimension ref="A100:AN165"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="R168" sqref="R168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -44906,6 +45190,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="165" spans="1:19">
+      <c r="A165" s="9">
+        <v>1</v>
+      </c>
+      <c r="B165" s="9">
+        <v>1</v>
+      </c>
+      <c r="C165" s="9">
+        <v>1</v>
+      </c>
+      <c r="D165" s="9">
+        <v>1</v>
+      </c>
+      <c r="F165" s="10"/>
+      <c r="I165" s="9">
+        <v>1</v>
+      </c>
+      <c r="J165" s="9">
+        <v>1</v>
+      </c>
+      <c r="L165" s="16">
+        <v>0</v>
+      </c>
+      <c r="M165" s="16">
+        <v>1</v>
+      </c>
+      <c r="N165" s="16">
+        <v>2</v>
+      </c>
+      <c r="O165" s="16">
+        <v>3</v>
+      </c>
+      <c r="P165" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q165" s="16">
+        <v>9</v>
+      </c>
+      <c r="S165" s="16">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44918,7 +45244,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45142,7 +45468,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -45277,7 +45603,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -45313,7 +45642,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P8" s="18">
         <v>0</v>
@@ -45333,13 +45662,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
       </c>
       <c r="J9" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" s="18">
         <v>12</v>
@@ -45348,7 +45677,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
@@ -45383,7 +45712,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -45391,13 +45720,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -45414,7 +45743,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -45426,7 +45755,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" s="18">
         <v>17</v>
@@ -45437,7 +45766,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K13" s="18">
         <v>14</v>
@@ -45451,15 +45780,15 @@
         <v>29</v>
       </c>
       <c r="K14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U72" sqref="U72"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5586,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="P47" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q47" s="7">
         <v>7</v>
@@ -6065,7 +6065,7 @@
         <v>7</v>
       </c>
       <c r="J52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="7">
         <v>0</v>
@@ -6358,7 +6358,9 @@
         <v>13</v>
       </c>
       <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+      <c r="K55" s="7">
+        <v>0</v>
+      </c>
       <c r="L55" s="7">
         <v>1</v>
       </c>
@@ -6378,7 +6380,7 @@
       <c r="R55" s="7">
         <v>5</v>
       </c>
-      <c r="S55" s="25">
+      <c r="S55" s="7">
         <v>2</v>
       </c>
       <c r="T55" s="7">
@@ -6391,7 +6393,7 @@
         <v>3</v>
       </c>
       <c r="W55" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X55" s="7">
         <v>17</v>
@@ -6412,7 +6414,7 @@
         <v>7</v>
       </c>
       <c r="AD55" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE55" s="7">
         <v>11</v>
@@ -6425,7 +6427,9 @@
       </c>
     </row>
     <row r="56" spans="1:33" s="25" customFormat="1">
-      <c r="A56" s="7"/>
+      <c r="A56" s="7">
+        <v>0</v>
+      </c>
       <c r="B56" s="7">
         <v>0</v>
       </c>
@@ -6471,7 +6475,7 @@
       <c r="R56" s="7">
         <v>1</v>
       </c>
-      <c r="S56" s="25">
+      <c r="S56" s="7">
         <v>6</v>
       </c>
       <c r="T56" s="7">
@@ -6557,9 +6561,9 @@
         <v>0</v>
       </c>
       <c r="R57" s="7">
-        <v>4</v>
-      </c>
-      <c r="S57" s="25">
+        <v>5</v>
+      </c>
+      <c r="S57" s="7">
         <v>2</v>
       </c>
       <c r="T57" s="7">
@@ -6592,7 +6596,7 @@
       </c>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF57" s="7">
         <v>2</v>
@@ -6607,7 +6611,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" s="7">
         <v>0</v>
@@ -6646,13 +6650,15 @@
         <v>0</v>
       </c>
       <c r="R58" s="7"/>
-      <c r="S58" s="25">
+      <c r="S58" s="7">
         <v>3</v>
       </c>
       <c r="T58" s="7">
         <v>0</v>
       </c>
-      <c r="U58" s="7"/>
+      <c r="U58" s="7">
+        <v>0</v>
+      </c>
       <c r="V58" s="7">
         <v>7</v>
       </c>
@@ -6681,7 +6687,7 @@
         <v>6</v>
       </c>
       <c r="AG58" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:33" s="7" customFormat="1">
@@ -6727,7 +6733,7 @@
         <v>2</v>
       </c>
       <c r="T59" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V59" s="7">
         <v>4</v>
@@ -6772,8 +6778,11 @@
       <c r="G60" s="7">
         <v>9</v>
       </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
       <c r="I60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="7">
         <v>3</v>
@@ -6782,7 +6791,7 @@
         <v>2</v>
       </c>
       <c r="N60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" s="7">
         <v>8</v>
@@ -6800,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z60" s="7">
         <v>2</v>
@@ -6812,7 +6821,7 @@
         <v>16</v>
       </c>
       <c r="AC60" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -6873,7 +6882,7 @@
         <v>8</v>
       </c>
       <c r="AA61" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB61" s="7">
         <v>12</v>
@@ -6888,7 +6897,7 @@
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
@@ -6908,7 +6917,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -6946,7 +6955,7 @@
       <c r="AD62" s="7"/>
       <c r="AE62" s="3"/>
       <c r="AF62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG62" s="27"/>
     </row>
@@ -6960,10 +6969,10 @@
         <v>7</v>
       </c>
       <c r="F63" s="41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G63" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" s="4"/>
       <c r="J63" s="3"/>
@@ -6981,7 +6990,9 @@
         <v>2</v>
       </c>
       <c r="R63" s="7"/>
-      <c r="S63" s="4"/>
+      <c r="S63" s="4">
+        <v>0</v>
+      </c>
       <c r="T63" s="3"/>
       <c r="U63" s="4"/>
       <c r="V63" s="4">
@@ -7021,7 +7032,7 @@
       </c>
       <c r="N64" s="4"/>
       <c r="O64" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P64" s="4"/>
       <c r="Q64" s="4">
@@ -7080,10 +7091,12 @@
         <v>9</v>
       </c>
       <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
+      <c r="X65" s="4">
+        <v>0</v>
+      </c>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB65" s="7">
         <v>3</v>
@@ -7118,14 +7131,14 @@
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AB66" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7185,7 +7198,7 @@
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="Q68" s="41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
@@ -7206,7 +7219,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="4"/>
       <c r="H69" s="4"/>
@@ -7214,7 +7227,7 @@
       <c r="J69" s="3"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -7295,7 +7308,7 @@
     </row>
     <row r="72" spans="1:33">
       <c r="D72" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -7888,8 +7901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E175" sqref="E175"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J173" sqref="J173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -19633,7 +19646,7 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R147" s="19">
         <v>2</v>
@@ -19952,7 +19965,7 @@
         <v>7</v>
       </c>
       <c r="U150" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V150" s="19">
         <v>1</v>
@@ -20652,12 +20665,12 @@
       </c>
       <c r="P157" s="22"/>
       <c r="Q157" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R157" s="19">
         <v>3</v>
       </c>
-      <c r="S157" s="20">
+      <c r="S157" s="19">
         <v>8</v>
       </c>
       <c r="T157" s="19">
@@ -20682,7 +20695,9 @@
       <c r="AA157" s="19">
         <v>4</v>
       </c>
-      <c r="AB157" s="20"/>
+      <c r="AB157" s="19">
+        <v>8</v>
+      </c>
       <c r="AC157" s="20"/>
       <c r="AD157" s="20"/>
       <c r="AF157" s="40"/>
@@ -20752,7 +20767,7 @@
         <v>9</v>
       </c>
       <c r="P158" s="22"/>
-      <c r="Q158" s="23">
+      <c r="Q158" s="22">
         <v>7</v>
       </c>
       <c r="R158" s="22">
@@ -20762,9 +20777,9 @@
         <v>4</v>
       </c>
       <c r="T158" s="23">
-        <v>7</v>
-      </c>
-      <c r="U158" s="23">
+        <v>8</v>
+      </c>
+      <c r="U158" s="22">
         <v>7</v>
       </c>
       <c r="V158" s="22">
@@ -20780,8 +20795,12 @@
       <c r="Z158" s="19">
         <v>4</v>
       </c>
-      <c r="AA158" s="23"/>
-      <c r="AB158" s="23"/>
+      <c r="AA158" s="19">
+        <v>7</v>
+      </c>
+      <c r="AB158" s="19">
+        <v>7</v>
+      </c>
       <c r="AC158" s="23"/>
       <c r="AD158" s="23"/>
       <c r="AF158" s="40"/>
@@ -20846,13 +20865,13 @@
       </c>
       <c r="P159" s="22"/>
       <c r="Q159" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R159" s="19">
         <v>1</v>
       </c>
       <c r="S159" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T159" s="19">
         <v>0</v>
@@ -20941,22 +20960,22 @@
       </c>
       <c r="P160" s="22"/>
       <c r="Q160" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R160" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S160" s="19">
         <v>3</v>
       </c>
       <c r="T160" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U160" s="19">
         <v>1</v>
       </c>
       <c r="V160" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W160" s="20"/>
       <c r="X160" s="19">
@@ -21044,16 +21063,16 @@
         <v>3</v>
       </c>
       <c r="S161" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T161" s="19">
         <v>0</v>
       </c>
       <c r="U161" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V161" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W161" s="15"/>
       <c r="X161" s="19">
@@ -21140,16 +21159,16 @@
         <v>2</v>
       </c>
       <c r="S162" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T162" s="19">
         <v>2</v>
       </c>
       <c r="U162" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V162" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W162" s="20"/>
       <c r="X162" s="22">
@@ -21238,20 +21257,20 @@
       <c r="R163" s="22">
         <v>1</v>
       </c>
-      <c r="S163" s="23">
+      <c r="S163" s="22">
         <v>2</v>
       </c>
       <c r="T163" s="22">
         <v>0</v>
       </c>
       <c r="U163" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V163" s="22">
         <v>1</v>
       </c>
       <c r="W163" s="23"/>
-      <c r="X163" s="21">
+      <c r="X163" s="22">
         <v>0</v>
       </c>
       <c r="Y163" s="22">
@@ -21263,7 +21282,9 @@
       <c r="AA163" s="19">
         <v>1</v>
       </c>
-      <c r="AB163" s="23"/>
+      <c r="AB163" s="19">
+        <v>2</v>
+      </c>
       <c r="AC163" s="23"/>
       <c r="AD163" s="23"/>
       <c r="AF163" s="40"/>
@@ -21328,31 +21349,33 @@
       </c>
       <c r="P164" s="22"/>
       <c r="Q164" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R164" s="20">
-        <v>1</v>
-      </c>
-      <c r="S164" s="20">
+        <v>2</v>
+      </c>
+      <c r="S164" s="22">
         <v>1</v>
       </c>
       <c r="T164" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U164" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V164" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W164" s="20"/>
-      <c r="X164" s="20"/>
+      <c r="X164" s="19">
+        <v>1</v>
+      </c>
       <c r="Y164" s="20"/>
       <c r="Z164" s="20"/>
       <c r="AA164" s="20"/>
       <c r="AB164" s="20"/>
       <c r="AC164" s="20"/>
-      <c r="AD164" s="15"/>
+      <c r="AD164" s="20"/>
       <c r="AF164" s="40"/>
       <c r="AH164" s="21">
         <v>0</v>
@@ -21418,25 +21441,27 @@
       </c>
       <c r="P165" s="22"/>
       <c r="Q165" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R165" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S165" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T165" s="20">
-        <v>0</v>
-      </c>
-      <c r="U165" s="20">
+        <v>1</v>
+      </c>
+      <c r="U165" s="19">
         <v>0</v>
       </c>
       <c r="V165" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W165" s="20"/>
-      <c r="X165" s="20"/>
+      <c r="X165" s="19">
+        <v>0</v>
+      </c>
       <c r="Y165" s="20"/>
       <c r="Z165" s="20"/>
       <c r="AA165" s="20"/>
@@ -21467,22 +21492,94 @@
       </c>
     </row>
     <row r="166" spans="1:43" s="21" customFormat="1">
+      <c r="A166" s="21">
+        <v>7</v>
+      </c>
+      <c r="B166" s="21">
+        <v>1</v>
+      </c>
+      <c r="C166" s="21">
+        <v>8</v>
+      </c>
+      <c r="D166" s="21">
+        <v>2</v>
+      </c>
+      <c r="E166" s="21">
+        <v>0</v>
+      </c>
+      <c r="F166" s="21">
+        <v>7</v>
+      </c>
+      <c r="I166" s="21">
+        <v>0</v>
+      </c>
+      <c r="J166" s="21">
+        <v>1</v>
+      </c>
+      <c r="K166" s="21">
+        <v>2</v>
+      </c>
+      <c r="L166" s="21">
+        <v>7</v>
+      </c>
+      <c r="M166" s="21">
+        <v>7</v>
+      </c>
+      <c r="N166" s="21">
+        <v>8</v>
+      </c>
       <c r="P166" s="22"/>
-      <c r="Q166" s="20"/>
-      <c r="R166" s="20"/>
-      <c r="S166" s="20"/>
-      <c r="T166" s="20"/>
-      <c r="U166" s="20"/>
-      <c r="V166" s="20"/>
-      <c r="W166" s="15"/>
-      <c r="X166" s="15"/>
+      <c r="Q166" s="20">
+        <v>0</v>
+      </c>
+      <c r="R166" s="20">
+        <v>0</v>
+      </c>
+      <c r="S166" s="20">
+        <v>0</v>
+      </c>
+      <c r="T166" s="20">
+        <v>0</v>
+      </c>
+      <c r="U166" s="20">
+        <v>0</v>
+      </c>
+      <c r="V166" s="20">
+        <v>0</v>
+      </c>
+      <c r="W166" s="20"/>
+      <c r="X166" s="20"/>
       <c r="Y166" s="20"/>
       <c r="Z166" s="20"/>
       <c r="AA166" s="20"/>
       <c r="AB166" s="20"/>
       <c r="AC166" s="20"/>
-      <c r="AD166" s="15"/>
+      <c r="AD166" s="20"/>
       <c r="AF166" s="40"/>
+      <c r="AH166" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI166" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ166" s="21">
+        <v>2</v>
+      </c>
+      <c r="AK166" s="21">
+        <v>7</v>
+      </c>
+      <c r="AL166" s="21">
+        <v>8</v>
+      </c>
+      <c r="AO166" s="21">
+        <v>2</v>
+      </c>
+      <c r="AP166" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ166" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="167" spans="1:43" s="21" customFormat="1">
       <c r="P167" s="22"/>
@@ -21521,7 +21618,6 @@
       <c r="AF168" s="40"/>
     </row>
     <row r="169" spans="1:43" s="21" customFormat="1">
-      <c r="P169" s="22"/>
       <c r="Q169" s="20"/>
       <c r="R169" s="20"/>
       <c r="S169" s="20"/>
@@ -21529,34 +21625,34 @@
       <c r="U169" s="20"/>
       <c r="V169" s="20"/>
       <c r="W169" s="20"/>
-      <c r="X169" s="15"/>
+      <c r="X169" s="20"/>
       <c r="Y169" s="20"/>
       <c r="Z169" s="20"/>
       <c r="AA169" s="20"/>
       <c r="AB169" s="20"/>
       <c r="AC169" s="20"/>
-      <c r="AD169" s="15"/>
+      <c r="AD169" s="20"/>
       <c r="AF169" s="40"/>
     </row>
     <row r="170" spans="1:43" s="21" customFormat="1">
-      <c r="Q170" s="20"/>
-      <c r="R170" s="20"/>
-      <c r="S170" s="20"/>
-      <c r="T170" s="20"/>
-      <c r="U170" s="20"/>
-      <c r="V170" s="20"/>
-      <c r="W170" s="20"/>
-      <c r="X170" s="20"/>
-      <c r="Y170" s="20"/>
-      <c r="Z170" s="20"/>
-      <c r="AA170" s="20"/>
-      <c r="AB170" s="20"/>
-      <c r="AC170" s="20"/>
-      <c r="AD170" s="15"/>
+      <c r="P170" s="22"/>
+      <c r="Q170" s="23"/>
+      <c r="R170" s="23"/>
+      <c r="S170" s="23"/>
+      <c r="T170" s="23"/>
+      <c r="U170" s="23"/>
+      <c r="V170" s="23"/>
+      <c r="W170" s="40"/>
+      <c r="X170" s="23"/>
+      <c r="Y170" s="23"/>
+      <c r="Z170" s="23"/>
+      <c r="AA170" s="23"/>
+      <c r="AB170" s="23"/>
+      <c r="AC170" s="23"/>
+      <c r="AD170" s="23"/>
       <c r="AF170" s="40"/>
     </row>
     <row r="171" spans="1:43" s="21" customFormat="1">
-      <c r="P171" s="22"/>
       <c r="Q171" s="23"/>
       <c r="R171" s="23"/>
       <c r="S171" s="23"/>
@@ -21597,13 +21693,13 @@
       <c r="T173" s="23"/>
       <c r="U173" s="23"/>
       <c r="V173" s="23"/>
-      <c r="W173" s="40"/>
+      <c r="W173" s="23"/>
       <c r="X173" s="40"/>
       <c r="Y173" s="40"/>
-      <c r="Z173" s="40"/>
-      <c r="AA173" s="40"/>
-      <c r="AB173" s="40"/>
-      <c r="AC173" s="40"/>
+      <c r="Z173" s="23"/>
+      <c r="AA173" s="23"/>
+      <c r="AB173" s="23"/>
+      <c r="AC173" s="23"/>
       <c r="AD173" s="40"/>
       <c r="AF173" s="40"/>
     </row>
@@ -21617,14 +21713,15 @@
       <c r="W174" s="23"/>
       <c r="X174" s="40"/>
       <c r="Y174" s="40"/>
-      <c r="Z174" s="23"/>
-      <c r="AA174" s="23"/>
-      <c r="AB174" s="23"/>
-      <c r="AC174" s="23"/>
+      <c r="Z174" s="40"/>
+      <c r="AA174" s="40"/>
+      <c r="AB174" s="40"/>
+      <c r="AC174" s="40"/>
       <c r="AD174" s="40"/>
       <c r="AF174" s="40"/>
     </row>
     <row r="175" spans="1:43" s="21" customFormat="1">
+      <c r="P175" s="22"/>
       <c r="Q175" s="23"/>
       <c r="R175" s="23"/>
       <c r="S175" s="23"/>
@@ -21634,15 +21731,14 @@
       <c r="W175" s="23"/>
       <c r="X175" s="40"/>
       <c r="Y175" s="40"/>
-      <c r="Z175" s="40"/>
-      <c r="AA175" s="40"/>
-      <c r="AB175" s="40"/>
-      <c r="AC175" s="40"/>
+      <c r="Z175" s="23"/>
+      <c r="AA175" s="23"/>
+      <c r="AB175" s="23"/>
+      <c r="AC175" s="23"/>
       <c r="AD175" s="40"/>
       <c r="AF175" s="40"/>
     </row>
     <row r="176" spans="1:43" s="21" customFormat="1">
-      <c r="P176" s="22"/>
       <c r="Q176" s="23"/>
       <c r="R176" s="23"/>
       <c r="S176" s="23"/>
@@ -21660,6 +21756,7 @@
       <c r="AF176" s="40"/>
     </row>
     <row r="177" spans="9:32" s="21" customFormat="1">
+      <c r="P177" s="22"/>
       <c r="Q177" s="23"/>
       <c r="R177" s="23"/>
       <c r="S177" s="23"/>
@@ -21669,10 +21766,10 @@
       <c r="W177" s="23"/>
       <c r="X177" s="40"/>
       <c r="Y177" s="40"/>
-      <c r="Z177" s="23"/>
-      <c r="AA177" s="23"/>
-      <c r="AB177" s="23"/>
-      <c r="AC177" s="23"/>
+      <c r="Z177" s="40"/>
+      <c r="AA177" s="40"/>
+      <c r="AB177" s="40"/>
+      <c r="AC177" s="40"/>
       <c r="AD177" s="40"/>
       <c r="AF177" s="40"/>
     </row>
@@ -21687,28 +21784,27 @@
       <c r="W178" s="23"/>
       <c r="X178" s="40"/>
       <c r="Y178" s="40"/>
-      <c r="Z178" s="40"/>
-      <c r="AA178" s="40"/>
-      <c r="AB178" s="40"/>
-      <c r="AC178" s="40"/>
+      <c r="Z178" s="23"/>
+      <c r="AA178" s="23"/>
+      <c r="AB178" s="23"/>
+      <c r="AC178" s="23"/>
       <c r="AD178" s="40"/>
       <c r="AF178" s="40"/>
     </row>
     <row r="179" spans="9:32" s="21" customFormat="1">
-      <c r="P179" s="22"/>
       <c r="Q179" s="23"/>
       <c r="R179" s="23"/>
       <c r="S179" s="23"/>
       <c r="T179" s="23"/>
       <c r="U179" s="23"/>
       <c r="V179" s="23"/>
-      <c r="W179" s="23"/>
+      <c r="W179" s="40"/>
       <c r="X179" s="40"/>
       <c r="Y179" s="40"/>
-      <c r="Z179" s="23"/>
-      <c r="AA179" s="23"/>
-      <c r="AB179" s="23"/>
-      <c r="AC179" s="23"/>
+      <c r="Z179" s="40"/>
+      <c r="AA179" s="40"/>
+      <c r="AB179" s="40"/>
+      <c r="AC179" s="40"/>
       <c r="AD179" s="40"/>
       <c r="AF179" s="40"/>
     </row>
@@ -21719,30 +21815,31 @@
       <c r="T180" s="23"/>
       <c r="U180" s="23"/>
       <c r="V180" s="23"/>
-      <c r="W180" s="40"/>
+      <c r="W180" s="23"/>
       <c r="X180" s="40"/>
       <c r="Y180" s="40"/>
-      <c r="Z180" s="40"/>
-      <c r="AA180" s="40"/>
-      <c r="AB180" s="40"/>
-      <c r="AC180" s="40"/>
+      <c r="Z180" s="23"/>
+      <c r="AA180" s="23"/>
+      <c r="AB180" s="23"/>
+      <c r="AC180" s="23"/>
       <c r="AD180" s="40"/>
       <c r="AF180" s="40"/>
     </row>
     <row r="181" spans="9:32" s="21" customFormat="1">
+      <c r="P181" s="22"/>
       <c r="Q181" s="23"/>
       <c r="R181" s="23"/>
       <c r="S181" s="23"/>
       <c r="T181" s="23"/>
       <c r="U181" s="23"/>
       <c r="V181" s="23"/>
-      <c r="W181" s="23"/>
+      <c r="W181" s="40"/>
       <c r="X181" s="40"/>
       <c r="Y181" s="40"/>
-      <c r="Z181" s="23"/>
-      <c r="AA181" s="23"/>
-      <c r="AB181" s="23"/>
-      <c r="AC181" s="23"/>
+      <c r="Z181" s="40"/>
+      <c r="AA181" s="40"/>
+      <c r="AB181" s="40"/>
+      <c r="AC181" s="40"/>
       <c r="AD181" s="40"/>
       <c r="AF181" s="40"/>
     </row>
@@ -21790,17 +21887,35 @@
       <c r="T184" s="23"/>
       <c r="U184" s="23"/>
       <c r="V184" s="23"/>
-      <c r="W184" s="40"/>
+      <c r="W184" s="23"/>
       <c r="X184" s="40"/>
       <c r="Y184" s="40"/>
-      <c r="Z184" s="40"/>
-      <c r="AA184" s="40"/>
-      <c r="AB184" s="40"/>
-      <c r="AC184" s="40"/>
-      <c r="AD184" s="40"/>
+      <c r="Z184" s="23"/>
+      <c r="AA184" s="23"/>
+      <c r="AB184" s="23"/>
+      <c r="AC184" s="23"/>
+      <c r="AD184" s="23"/>
       <c r="AF184" s="40"/>
     </row>
     <row r="185" spans="9:32" s="21" customFormat="1">
+      <c r="I185" s="21">
+        <v>0</v>
+      </c>
+      <c r="J185" s="21">
+        <v>3</v>
+      </c>
+      <c r="K185" s="21">
+        <v>7</v>
+      </c>
+      <c r="L185" s="21">
+        <v>8</v>
+      </c>
+      <c r="M185" s="21">
+        <v>15</v>
+      </c>
+      <c r="N185" s="21">
+        <v>18</v>
+      </c>
       <c r="P185" s="22"/>
       <c r="Q185" s="23"/>
       <c r="R185" s="23"/>
@@ -21811,32 +21926,68 @@
       <c r="W185" s="23"/>
       <c r="X185" s="40"/>
       <c r="Y185" s="40"/>
-      <c r="Z185" s="23"/>
-      <c r="AA185" s="23"/>
+      <c r="Z185" s="40"/>
+      <c r="AA185" s="40"/>
       <c r="AB185" s="23"/>
       <c r="AC185" s="23"/>
       <c r="AD185" s="23"/>
       <c r="AF185" s="40"/>
     </row>
     <row r="186" spans="9:32" s="21" customFormat="1">
+      <c r="I186" s="21">
+        <v>0</v>
+      </c>
+      <c r="J186" s="21">
+        <v>1</v>
+      </c>
+      <c r="K186" s="21">
+        <v>3</v>
+      </c>
+      <c r="L186" s="21">
+        <v>7</v>
+      </c>
+      <c r="M186" s="21">
+        <v>8</v>
+      </c>
+      <c r="N186" s="21">
+        <v>18</v>
+      </c>
       <c r="P186" s="22"/>
-      <c r="Q186" s="23"/>
-      <c r="R186" s="23"/>
-      <c r="S186" s="23"/>
-      <c r="T186" s="23"/>
-      <c r="U186" s="23"/>
-      <c r="V186" s="23"/>
-      <c r="W186" s="23"/>
-      <c r="X186" s="40"/>
-      <c r="Y186" s="40"/>
-      <c r="Z186" s="40"/>
-      <c r="AA186" s="40"/>
-      <c r="AB186" s="23"/>
-      <c r="AC186" s="23"/>
-      <c r="AD186" s="23"/>
+      <c r="Q186" s="20"/>
+      <c r="R186" s="20"/>
+      <c r="S186" s="20"/>
+      <c r="T186" s="20"/>
+      <c r="U186" s="20"/>
+      <c r="V186" s="20"/>
+      <c r="W186" s="20"/>
+      <c r="X186" s="20"/>
+      <c r="Y186" s="20"/>
+      <c r="Z186" s="20"/>
+      <c r="AA186" s="20"/>
+      <c r="AB186" s="20"/>
+      <c r="AC186" s="20"/>
+      <c r="AD186" s="20"/>
       <c r="AF186" s="40"/>
     </row>
     <row r="187" spans="9:32" s="21" customFormat="1">
+      <c r="I187" s="21">
+        <v>0</v>
+      </c>
+      <c r="J187" s="21">
+        <v>1</v>
+      </c>
+      <c r="K187" s="21">
+        <v>5</v>
+      </c>
+      <c r="L187" s="21">
+        <v>5</v>
+      </c>
+      <c r="M187" s="21">
+        <v>6</v>
+      </c>
+      <c r="N187" s="21">
+        <v>18</v>
+      </c>
       <c r="P187" s="22"/>
       <c r="Q187" s="20"/>
       <c r="R187" s="20"/>
@@ -21844,14 +21995,14 @@
       <c r="T187" s="20"/>
       <c r="U187" s="20"/>
       <c r="V187" s="20"/>
-      <c r="W187" s="20"/>
-      <c r="X187" s="20"/>
+      <c r="W187" s="15"/>
+      <c r="X187" s="15"/>
       <c r="Y187" s="20"/>
       <c r="Z187" s="20"/>
       <c r="AA187" s="20"/>
       <c r="AB187" s="20"/>
       <c r="AC187" s="20"/>
-      <c r="AD187" s="20"/>
+      <c r="AD187" s="15"/>
       <c r="AF187" s="40"/>
     </row>
     <row r="188" spans="9:32" s="21" customFormat="1">
@@ -21873,24 +22024,6 @@
       <c r="AF188" s="40"/>
     </row>
     <row r="189" spans="9:32" s="21" customFormat="1">
-      <c r="I189" s="21">
-        <v>2</v>
-      </c>
-      <c r="J189" s="21">
-        <v>2</v>
-      </c>
-      <c r="K189" s="21">
-        <v>3</v>
-      </c>
-      <c r="L189" s="21">
-        <v>5</v>
-      </c>
-      <c r="M189" s="21">
-        <v>14</v>
-      </c>
-      <c r="N189" s="21">
-        <v>17</v>
-      </c>
       <c r="P189" s="22"/>
       <c r="Q189" s="23"/>
       <c r="R189" s="23"/>
@@ -21909,24 +22042,6 @@
       <c r="AF189" s="40"/>
     </row>
     <row r="190" spans="9:32" s="21" customFormat="1">
-      <c r="I190" s="21">
-        <v>0</v>
-      </c>
-      <c r="J190" s="21">
-        <v>1</v>
-      </c>
-      <c r="K190" s="21">
-        <v>2</v>
-      </c>
-      <c r="L190" s="21">
-        <v>6</v>
-      </c>
-      <c r="M190" s="21">
-        <v>6</v>
-      </c>
-      <c r="N190" s="21">
-        <v>17</v>
-      </c>
       <c r="P190" s="22"/>
       <c r="Q190" s="20"/>
       <c r="R190" s="20"/>
@@ -21945,24 +22060,6 @@
       <c r="AF190" s="40"/>
     </row>
     <row r="191" spans="9:32" s="21" customFormat="1">
-      <c r="I191" s="21">
-        <v>0</v>
-      </c>
-      <c r="J191" s="21">
-        <v>2</v>
-      </c>
-      <c r="K191" s="21">
-        <v>2</v>
-      </c>
-      <c r="L191" s="21">
-        <v>4</v>
-      </c>
-      <c r="M191" s="21">
-        <v>11</v>
-      </c>
-      <c r="N191" s="21">
-        <v>17</v>
-      </c>
       <c r="P191" s="22"/>
       <c r="Q191" s="23"/>
       <c r="R191" s="23"/>
@@ -21981,24 +22078,6 @@
       <c r="AF191" s="40"/>
     </row>
     <row r="192" spans="9:32" s="21" customFormat="1">
-      <c r="I192" s="21">
-        <v>0</v>
-      </c>
-      <c r="J192" s="21">
-        <v>2</v>
-      </c>
-      <c r="K192" s="21">
-        <v>2</v>
-      </c>
-      <c r="L192" s="21">
-        <v>4</v>
-      </c>
-      <c r="M192" s="21">
-        <v>6</v>
-      </c>
-      <c r="N192" s="21">
-        <v>17</v>
-      </c>
       <c r="P192" s="22"/>
       <c r="Q192" s="23"/>
       <c r="R192" s="23"/>
@@ -22016,25 +22095,7 @@
       <c r="AD192" s="40"/>
       <c r="AF192" s="40"/>
     </row>
-    <row r="193" spans="9:32" s="21" customFormat="1">
-      <c r="I193" s="21">
-        <v>0</v>
-      </c>
-      <c r="J193" s="21">
-        <v>1</v>
-      </c>
-      <c r="K193" s="21">
-        <v>1</v>
-      </c>
-      <c r="L193" s="21">
-        <v>2</v>
-      </c>
-      <c r="M193" s="21">
-        <v>3</v>
-      </c>
-      <c r="N193" s="21">
-        <v>14</v>
-      </c>
+    <row r="193" spans="16:32" s="21" customFormat="1">
       <c r="P193" s="22"/>
       <c r="Q193" s="20"/>
       <c r="R193" s="20"/>
@@ -22052,25 +22113,7 @@
       <c r="AD193" s="20"/>
       <c r="AF193" s="40"/>
     </row>
-    <row r="194" spans="9:32" s="21" customFormat="1">
-      <c r="I194" s="21">
-        <v>0</v>
-      </c>
-      <c r="J194" s="21">
-        <v>1</v>
-      </c>
-      <c r="K194" s="21">
-        <v>2</v>
-      </c>
-      <c r="L194" s="21">
-        <v>3</v>
-      </c>
-      <c r="M194" s="21">
-        <v>3</v>
-      </c>
-      <c r="N194" s="21">
-        <v>14</v>
-      </c>
+    <row r="194" spans="16:32" s="21" customFormat="1">
       <c r="P194" s="22"/>
       <c r="Q194" s="20"/>
       <c r="R194" s="20"/>
@@ -22088,25 +22131,7 @@
       <c r="AD194" s="20"/>
       <c r="AF194" s="40"/>
     </row>
-    <row r="195" spans="9:32" s="21" customFormat="1">
-      <c r="I195" s="21">
-        <v>0</v>
-      </c>
-      <c r="J195" s="21">
-        <v>1</v>
-      </c>
-      <c r="K195" s="21">
-        <v>1</v>
-      </c>
-      <c r="L195" s="21">
-        <v>3</v>
-      </c>
-      <c r="M195" s="21">
-        <v>5</v>
-      </c>
-      <c r="N195" s="21">
-        <v>6</v>
-      </c>
+    <row r="195" spans="16:32" s="21" customFormat="1">
       <c r="P195" s="22"/>
       <c r="Q195" s="20"/>
       <c r="R195" s="20"/>
@@ -22124,7 +22149,7 @@
       <c r="AD195" s="15"/>
       <c r="AF195" s="40"/>
     </row>
-    <row r="196" spans="9:32" s="21" customFormat="1">
+    <row r="196" spans="16:32" s="21" customFormat="1">
       <c r="P196" s="22"/>
       <c r="Q196" s="20"/>
       <c r="R196" s="20"/>
@@ -22142,7 +22167,7 @@
       <c r="AD196" s="15"/>
       <c r="AF196" s="40"/>
     </row>
-    <row r="197" spans="9:32" s="21" customFormat="1">
+    <row r="197" spans="16:32" s="21" customFormat="1">
       <c r="P197" s="22"/>
       <c r="Q197" s="23"/>
       <c r="R197" s="23"/>
@@ -22160,7 +22185,7 @@
       <c r="AD197" s="40"/>
       <c r="AF197" s="40"/>
     </row>
-    <row r="198" spans="9:32" s="21" customFormat="1">
+    <row r="198" spans="16:32" s="21" customFormat="1">
       <c r="P198" s="22"/>
       <c r="Q198" s="23"/>
       <c r="R198" s="23"/>
@@ -22178,7 +22203,7 @@
       <c r="AD198" s="40"/>
       <c r="AF198" s="40"/>
     </row>
-    <row r="199" spans="9:32" s="21" customFormat="1">
+    <row r="199" spans="16:32" s="21" customFormat="1">
       <c r="P199" s="22"/>
       <c r="Q199" s="23"/>
       <c r="R199" s="23"/>
@@ -22196,7 +22221,7 @@
       <c r="AD199" s="40"/>
       <c r="AF199" s="40"/>
     </row>
-    <row r="200" spans="9:32" s="21" customFormat="1">
+    <row r="200" spans="16:32" s="21" customFormat="1">
       <c r="Q200" s="23"/>
       <c r="R200" s="23"/>
       <c r="S200" s="23"/>
@@ -22213,7 +22238,7 @@
       <c r="AD200" s="40"/>
       <c r="AF200" s="40"/>
     </row>
-    <row r="201" spans="9:32" s="21" customFormat="1">
+    <row r="201" spans="16:32" s="21" customFormat="1">
       <c r="P201" s="22"/>
       <c r="Q201" s="23"/>
       <c r="R201" s="23"/>
@@ -22231,7 +22256,7 @@
       <c r="AD201" s="40"/>
       <c r="AF201" s="40"/>
     </row>
-    <row r="202" spans="9:32" s="21" customFormat="1">
+    <row r="202" spans="16:32" s="21" customFormat="1">
       <c r="Q202" s="23"/>
       <c r="R202" s="23"/>
       <c r="S202" s="23"/>
@@ -22248,7 +22273,7 @@
       <c r="AD202" s="40"/>
       <c r="AF202" s="40"/>
     </row>
-    <row r="203" spans="9:32" s="21" customFormat="1">
+    <row r="203" spans="16:32" s="21" customFormat="1">
       <c r="Q203" s="23"/>
       <c r="R203" s="23"/>
       <c r="S203" s="23"/>
@@ -22265,7 +22290,7 @@
       <c r="AD203" s="40"/>
       <c r="AF203" s="40"/>
     </row>
-    <row r="204" spans="9:32" s="21" customFormat="1">
+    <row r="204" spans="16:32" s="21" customFormat="1">
       <c r="P204" s="22"/>
       <c r="Q204" s="23"/>
       <c r="R204" s="23"/>
@@ -22283,7 +22308,7 @@
       <c r="AD204" s="40"/>
       <c r="AF204" s="40"/>
     </row>
-    <row r="205" spans="9:32" s="21" customFormat="1">
+    <row r="205" spans="16:32" s="21" customFormat="1">
       <c r="Q205" s="23"/>
       <c r="R205" s="23"/>
       <c r="S205" s="23"/>
@@ -22300,7 +22325,7 @@
       <c r="AD205" s="40"/>
       <c r="AF205" s="40"/>
     </row>
-    <row r="206" spans="9:32" s="21" customFormat="1">
+    <row r="206" spans="16:32" s="21" customFormat="1">
       <c r="P206" s="22"/>
       <c r="Q206" s="23"/>
       <c r="R206" s="23"/>
@@ -22318,7 +22343,7 @@
       <c r="AD206" s="40"/>
       <c r="AF206" s="40"/>
     </row>
-    <row r="207" spans="9:32" s="21" customFormat="1">
+    <row r="207" spans="16:32" s="21" customFormat="1">
       <c r="P207" s="22"/>
       <c r="Q207" s="23"/>
       <c r="R207" s="23"/>
@@ -22336,7 +22361,7 @@
       <c r="AD207" s="40"/>
       <c r="AF207" s="40"/>
     </row>
-    <row r="208" spans="9:32" s="21" customFormat="1">
+    <row r="208" spans="16:32" s="21" customFormat="1">
       <c r="P208" s="22"/>
       <c r="Q208" s="23"/>
       <c r="R208" s="23"/>
@@ -34082,10 +34107,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO235"/>
+  <dimension ref="A1:AO236"/>
   <sheetViews>
     <sheetView topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G171" sqref="G171"/>
+      <selection activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -37555,12 +37580,24 @@
       </c>
     </row>
     <row r="166" spans="1:18">
-      <c r="A166" s="10"/>
-      <c r="B166" s="10"/>
-      <c r="C166" s="10"/>
+      <c r="A166" s="9">
+        <v>1</v>
+      </c>
+      <c r="B166" s="9">
+        <v>1</v>
+      </c>
+      <c r="C166" s="9">
+        <v>1</v>
+      </c>
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
+      <c r="H166" s="11">
+        <v>2</v>
+      </c>
+      <c r="I166" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" spans="1:18">
       <c r="A167" s="10"/>
@@ -37569,6 +37606,7 @@
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
+      <c r="I167" s="10"/>
     </row>
     <row r="168" spans="1:18">
       <c r="A168" s="10"/>
@@ -37914,11 +37952,13 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="10"/>
+      <c r="B213" s="10"/>
       <c r="C213" s="10"/>
       <c r="D213" s="10"/>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
     </row>
@@ -37980,6 +38020,7 @@
     <row r="226" spans="1:4">
       <c r="A226" s="10"/>
       <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="10"/>
@@ -37994,6 +38035,7 @@
       <c r="C229" s="10"/>
     </row>
     <row r="230" spans="1:4">
+      <c r="A230" s="10"/>
       <c r="C230" s="10"/>
     </row>
     <row r="231" spans="1:4">
@@ -38010,6 +38052,9 @@
     </row>
     <row r="235" spans="1:4">
       <c r="C235" s="10"/>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="C236" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -38023,7 +38068,7 @@
   <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+      <selection activeCell="L174" sqref="L174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -42103,18 +42148,54 @@
       </c>
     </row>
     <row r="166" spans="1:19" customFormat="1">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
+      <c r="A166" s="1">
+        <v>1</v>
+      </c>
+      <c r="B166" s="1">
+        <v>2</v>
+      </c>
+      <c r="C166" s="1">
+        <v>3</v>
+      </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="18"/>
-      <c r="I166" s="18"/>
-      <c r="J166" s="18"/>
-      <c r="K166" s="18"/>
+      <c r="F166" s="18">
+        <v>1</v>
+      </c>
+      <c r="G166" s="18">
+        <v>0</v>
+      </c>
+      <c r="H166" s="18">
+        <v>3</v>
+      </c>
+      <c r="I166" s="18">
+        <v>0</v>
+      </c>
+      <c r="J166" s="18">
+        <v>2</v>
+      </c>
+      <c r="K166" s="18">
+        <v>0</v>
+      </c>
       <c r="L166" s="18"/>
+      <c r="N166" s="1">
+        <v>0</v>
+      </c>
+      <c r="O166" s="1">
+        <v>2</v>
+      </c>
+      <c r="P166" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q166" s="1">
+        <v>3</v>
+      </c>
+      <c r="R166" s="1">
+        <v>4</v>
+      </c>
+      <c r="S166" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="167" spans="1:19" customFormat="1">
       <c r="A167" s="1"/>
@@ -42177,10 +42258,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN165"/>
+  <dimension ref="A100:AN167"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="R168" sqref="R168"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="H175" sqref="H175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45232,6 +45313,48 @@
         <v>2</v>
       </c>
     </row>
+    <row r="166" spans="1:19">
+      <c r="A166" s="11">
+        <v>3</v>
+      </c>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="9">
+        <v>1</v>
+      </c>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="H166" s="9">
+        <v>1</v>
+      </c>
+      <c r="I166" s="9">
+        <v>1</v>
+      </c>
+      <c r="L166" s="16">
+        <v>1</v>
+      </c>
+      <c r="M166" s="16">
+        <v>1</v>
+      </c>
+      <c r="N166" s="16">
+        <v>1</v>
+      </c>
+      <c r="O166" s="16">
+        <v>4</v>
+      </c>
+      <c r="P166" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q166" s="16">
+        <v>9</v>
+      </c>
+      <c r="S166" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19">
+      <c r="D167" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45244,7 +45367,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45468,7 +45591,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -45603,10 +45726,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -45642,7 +45765,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P8" s="18">
         <v>0</v>
@@ -45668,7 +45791,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" s="18">
         <v>12</v>
@@ -45677,7 +45800,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
@@ -45699,6 +45822,9 @@
       <c r="G10" s="18">
         <v>2</v>
       </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
       <c r="I10" s="18">
         <v>5</v>
       </c>
@@ -45712,7 +45838,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -45720,13 +45846,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -45743,7 +45869,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -45755,7 +45881,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" s="18">
         <v>17</v>
@@ -45766,7 +45892,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K13" s="18">
         <v>14</v>
@@ -45780,15 +45906,15 @@
         <v>29</v>
       </c>
       <c r="K14" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7901,8 +7901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J173" sqref="J173"/>
+    <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R172" sqref="R172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -34109,7 +34109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO236"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +407,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -420,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,6 +563,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -866,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF72" sqref="AF72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5586,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="P47" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q47" s="7">
         <v>7</v>
@@ -6065,7 +6074,7 @@
         <v>7</v>
       </c>
       <c r="J52" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52" s="7">
         <v>0</v>
@@ -6359,7 +6368,7 @@
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="7">
         <v>1</v>
@@ -6393,7 +6402,7 @@
         <v>3</v>
       </c>
       <c r="W55" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X55" s="7">
         <v>17</v>
@@ -6414,7 +6423,7 @@
         <v>7</v>
       </c>
       <c r="AD55" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE55" s="7">
         <v>11</v>
@@ -6428,7 +6437,7 @@
     </row>
     <row r="56" spans="1:33" s="25" customFormat="1">
       <c r="A56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" s="7">
         <v>0</v>
@@ -6561,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S57" s="7">
         <v>2</v>
@@ -6596,7 +6605,7 @@
       </c>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF57" s="7">
         <v>2</v>
@@ -6611,7 +6620,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" s="7">
         <v>0</v>
@@ -6687,7 +6696,7 @@
         <v>6</v>
       </c>
       <c r="AG58" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:33" s="7" customFormat="1">
@@ -6733,7 +6742,10 @@
         <v>2</v>
       </c>
       <c r="T59" s="7">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="U59" s="7">
+        <v>0</v>
       </c>
       <c r="V59" s="7">
         <v>4</v>
@@ -6779,7 +6791,7 @@
         <v>9</v>
       </c>
       <c r="H60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="7">
         <v>1</v>
@@ -6791,7 +6803,7 @@
         <v>2</v>
       </c>
       <c r="N60" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O60" s="7">
         <v>8</v>
@@ -6809,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z60" s="7">
         <v>2</v>
@@ -6821,7 +6833,7 @@
         <v>16</v>
       </c>
       <c r="AC60" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF60" s="7">
         <v>3</v>
@@ -6847,7 +6859,9 @@
         <v>5</v>
       </c>
       <c r="H61" s="25"/>
-      <c r="I61" s="7"/>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7">
@@ -6882,7 +6896,7 @@
         <v>8</v>
       </c>
       <c r="AA61" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB61" s="7">
         <v>12</v>
@@ -6897,7 +6911,7 @@
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
@@ -6917,7 +6931,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -6955,7 +6969,7 @@
       <c r="AD62" s="7"/>
       <c r="AE62" s="3"/>
       <c r="AF62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG62" s="27"/>
     </row>
@@ -6969,10 +6983,10 @@
         <v>7</v>
       </c>
       <c r="F63" s="41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G63" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H63" s="4"/>
       <c r="J63" s="3"/>
@@ -6991,7 +7005,7 @@
       </c>
       <c r="R63" s="7"/>
       <c r="S63" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" s="3"/>
       <c r="U63" s="4"/>
@@ -7078,7 +7092,9 @@
         <v>0</v>
       </c>
       <c r="N65" s="25"/>
-      <c r="O65" s="4"/>
+      <c r="O65" s="4">
+        <v>0</v>
+      </c>
       <c r="P65" s="4"/>
       <c r="Q65" s="4">
         <v>9</v>
@@ -7092,11 +7108,11 @@
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB65" s="7">
         <v>3</v>
@@ -7131,14 +7147,14 @@
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AB66" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7231,7 +7247,9 @@
       </c>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
-      <c r="Q69" s="4"/>
+      <c r="Q69" s="4">
+        <v>0</v>
+      </c>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="3"/>
@@ -7251,13 +7269,17 @@
       <c r="D70" s="3">
         <v>1</v>
       </c>
-      <c r="E70" s="4"/>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
       <c r="F70" s="7"/>
       <c r="H70" s="4"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
+      <c r="M70" s="4">
+        <v>0</v>
+      </c>
       <c r="N70" s="25"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
@@ -7308,7 +7330,7 @@
     </row>
     <row r="72" spans="1:33">
       <c r="D72" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -7902,7 +7924,7 @@
   <dimension ref="A1:AT970"/>
   <sheetViews>
     <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R172" sqref="R172"/>
+      <selection activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -19646,7 +19668,7 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R147" s="19">
         <v>2</v>
@@ -19965,7 +19987,7 @@
         <v>7</v>
       </c>
       <c r="U150" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V150" s="19">
         <v>1</v>
@@ -20665,7 +20687,7 @@
       </c>
       <c r="P157" s="22"/>
       <c r="Q157" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R157" s="19">
         <v>3</v>
@@ -20777,7 +20799,7 @@
         <v>4</v>
       </c>
       <c r="T158" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U158" s="22">
         <v>7</v>
@@ -20864,14 +20886,14 @@
         <v>5</v>
       </c>
       <c r="P159" s="22"/>
-      <c r="Q159" s="20">
+      <c r="Q159" s="64">
         <v>7</v>
       </c>
       <c r="R159" s="19">
         <v>1</v>
       </c>
       <c r="S159" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T159" s="19">
         <v>0</v>
@@ -20895,7 +20917,9 @@
       <c r="AA159" s="22">
         <v>4</v>
       </c>
-      <c r="AB159" s="20"/>
+      <c r="AB159" s="19">
+        <v>7</v>
+      </c>
       <c r="AC159" s="20"/>
       <c r="AD159" s="20"/>
       <c r="AF159" s="40"/>
@@ -20960,22 +20984,22 @@
       </c>
       <c r="P160" s="22"/>
       <c r="Q160" s="20">
+        <v>7</v>
+      </c>
+      <c r="R160" s="20">
+        <v>7</v>
+      </c>
+      <c r="S160" s="19">
+        <v>3</v>
+      </c>
+      <c r="T160" s="64">
         <v>6</v>
       </c>
-      <c r="R160" s="20">
-        <v>6</v>
-      </c>
-      <c r="S160" s="19">
-        <v>3</v>
-      </c>
-      <c r="T160" s="20">
-        <v>6</v>
-      </c>
       <c r="U160" s="19">
         <v>1</v>
       </c>
       <c r="V160" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W160" s="20"/>
       <c r="X160" s="19">
@@ -20984,7 +21008,9 @@
       <c r="Y160" s="22">
         <v>3</v>
       </c>
-      <c r="Z160" s="20"/>
+      <c r="Z160" s="19">
+        <v>6</v>
+      </c>
       <c r="AA160" s="20"/>
       <c r="AB160" s="20"/>
       <c r="AC160" s="20"/>
@@ -21063,16 +21089,16 @@
         <v>3</v>
       </c>
       <c r="S161" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T161" s="19">
         <v>0</v>
       </c>
       <c r="U161" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V161" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W161" s="15"/>
       <c r="X161" s="19">
@@ -21159,16 +21185,16 @@
         <v>2</v>
       </c>
       <c r="S162" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T162" s="19">
         <v>2</v>
       </c>
       <c r="U162" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V162" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W162" s="20"/>
       <c r="X162" s="22">
@@ -21264,7 +21290,7 @@
         <v>0</v>
       </c>
       <c r="U163" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V163" s="22">
         <v>1</v>
@@ -21348,29 +21374,31 @@
         <v>7</v>
       </c>
       <c r="P164" s="22"/>
-      <c r="Q164" s="20">
+      <c r="Q164" s="64">
         <v>2</v>
       </c>
       <c r="R164" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S164" s="22">
         <v>1</v>
       </c>
       <c r="T164" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U164" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V164" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W164" s="20"/>
       <c r="X164" s="19">
         <v>1</v>
       </c>
-      <c r="Y164" s="20"/>
+      <c r="Y164" s="19">
+        <v>2</v>
+      </c>
       <c r="Z164" s="20"/>
       <c r="AA164" s="20"/>
       <c r="AB164" s="20"/>
@@ -21440,30 +21468,34 @@
         <v>11</v>
       </c>
       <c r="P165" s="22"/>
-      <c r="Q165" s="20">
+      <c r="Q165" s="64">
         <v>1</v>
       </c>
       <c r="R165" s="20">
-        <v>1</v>
-      </c>
-      <c r="S165" s="20">
+        <v>2</v>
+      </c>
+      <c r="S165" s="64">
         <v>1</v>
       </c>
       <c r="T165" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U165" s="19">
         <v>0</v>
       </c>
       <c r="V165" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W165" s="20"/>
       <c r="X165" s="19">
         <v>0</v>
       </c>
-      <c r="Y165" s="20"/>
-      <c r="Z165" s="20"/>
+      <c r="Y165" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z165" s="19">
+        <v>1</v>
+      </c>
       <c r="AA165" s="20"/>
       <c r="AB165" s="20"/>
       <c r="AC165" s="20"/>
@@ -21530,25 +21562,27 @@
       </c>
       <c r="P166" s="22"/>
       <c r="Q166" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R166" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S166" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T166" s="20">
-        <v>0</v>
-      </c>
-      <c r="U166" s="20">
+        <v>1</v>
+      </c>
+      <c r="U166" s="64">
         <v>0</v>
       </c>
       <c r="V166" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W166" s="20"/>
-      <c r="X166" s="20"/>
+      <c r="X166" s="19">
+        <v>0</v>
+      </c>
       <c r="Y166" s="20"/>
       <c r="Z166" s="20"/>
       <c r="AA166" s="20"/>
@@ -21582,74 +21616,120 @@
       </c>
     </row>
     <row r="167" spans="1:43" s="21" customFormat="1">
+      <c r="A167" s="21">
+        <v>2</v>
+      </c>
+      <c r="B167" s="21">
+        <v>1</v>
+      </c>
+      <c r="C167" s="21">
+        <v>1</v>
+      </c>
+      <c r="D167" s="21">
+        <v>7</v>
+      </c>
+      <c r="E167" s="21">
+        <v>6</v>
+      </c>
+      <c r="F167" s="21">
+        <v>0</v>
+      </c>
+      <c r="I167" s="21">
+        <v>0</v>
+      </c>
+      <c r="J167" s="21">
+        <v>1</v>
+      </c>
+      <c r="K167" s="21">
+        <v>1</v>
+      </c>
+      <c r="L167" s="21">
+        <v>2</v>
+      </c>
+      <c r="M167" s="21">
+        <v>6</v>
+      </c>
+      <c r="N167" s="21">
+        <v>7</v>
+      </c>
       <c r="P167" s="22"/>
-      <c r="Q167" s="20"/>
-      <c r="R167" s="20"/>
-      <c r="S167" s="20"/>
-      <c r="T167" s="20"/>
-      <c r="U167" s="20"/>
-      <c r="V167" s="20"/>
-      <c r="W167" s="20"/>
-      <c r="X167" s="20"/>
-      <c r="Y167" s="20"/>
-      <c r="Z167" s="20"/>
-      <c r="AA167" s="20"/>
-      <c r="AB167" s="20"/>
-      <c r="AC167" s="20"/>
-      <c r="AD167" s="20"/>
+      <c r="Q167" s="23">
+        <v>0</v>
+      </c>
+      <c r="R167" s="23">
+        <v>0</v>
+      </c>
+      <c r="S167" s="23">
+        <v>0</v>
+      </c>
+      <c r="T167" s="23">
+        <v>0</v>
+      </c>
+      <c r="U167" s="23">
+        <v>0</v>
+      </c>
+      <c r="V167" s="23">
+        <v>0</v>
+      </c>
+      <c r="W167" s="40"/>
+      <c r="X167" s="23"/>
+      <c r="Y167" s="23"/>
+      <c r="Z167" s="23"/>
+      <c r="AA167" s="23"/>
+      <c r="AB167" s="23"/>
+      <c r="AC167" s="23"/>
+      <c r="AD167" s="23"/>
       <c r="AF167" s="40"/>
     </row>
     <row r="168" spans="1:43" s="21" customFormat="1">
-      <c r="P168" s="22"/>
-      <c r="Q168" s="20"/>
-      <c r="R168" s="20"/>
-      <c r="S168" s="20"/>
-      <c r="T168" s="20"/>
-      <c r="U168" s="20"/>
-      <c r="V168" s="20"/>
-      <c r="W168" s="20"/>
-      <c r="X168" s="20"/>
-      <c r="Y168" s="20"/>
-      <c r="Z168" s="20"/>
-      <c r="AA168" s="20"/>
-      <c r="AB168" s="20"/>
-      <c r="AC168" s="20"/>
-      <c r="AD168" s="20"/>
+      <c r="Q168" s="23"/>
+      <c r="R168" s="23"/>
+      <c r="S168" s="23"/>
+      <c r="T168" s="23"/>
+      <c r="U168" s="23"/>
+      <c r="V168" s="23"/>
+      <c r="W168" s="40"/>
+      <c r="X168" s="23"/>
+      <c r="Y168" s="23"/>
+      <c r="Z168" s="23"/>
+      <c r="AA168" s="23"/>
+      <c r="AB168" s="23"/>
+      <c r="AC168" s="23"/>
+      <c r="AD168" s="23"/>
       <c r="AF168" s="40"/>
     </row>
     <row r="169" spans="1:43" s="21" customFormat="1">
-      <c r="Q169" s="20"/>
-      <c r="R169" s="20"/>
-      <c r="S169" s="20"/>
-      <c r="T169" s="20"/>
-      <c r="U169" s="20"/>
-      <c r="V169" s="20"/>
-      <c r="W169" s="20"/>
-      <c r="X169" s="20"/>
-      <c r="Y169" s="20"/>
-      <c r="Z169" s="20"/>
-      <c r="AA169" s="20"/>
-      <c r="AB169" s="20"/>
-      <c r="AC169" s="20"/>
-      <c r="AD169" s="20"/>
+      <c r="Q169" s="23"/>
+      <c r="R169" s="23"/>
+      <c r="S169" s="23"/>
+      <c r="T169" s="23"/>
+      <c r="U169" s="23"/>
+      <c r="V169" s="23"/>
+      <c r="W169" s="40"/>
+      <c r="X169" s="23"/>
+      <c r="Y169" s="23"/>
+      <c r="Z169" s="23"/>
+      <c r="AA169" s="23"/>
+      <c r="AB169" s="23"/>
+      <c r="AC169" s="23"/>
+      <c r="AD169" s="23"/>
       <c r="AF169" s="40"/>
     </row>
     <row r="170" spans="1:43" s="21" customFormat="1">
-      <c r="P170" s="22"/>
       <c r="Q170" s="23"/>
       <c r="R170" s="23"/>
       <c r="S170" s="23"/>
       <c r="T170" s="23"/>
       <c r="U170" s="23"/>
       <c r="V170" s="23"/>
-      <c r="W170" s="40"/>
-      <c r="X170" s="23"/>
-      <c r="Y170" s="23"/>
+      <c r="W170" s="23"/>
+      <c r="X170" s="40"/>
+      <c r="Y170" s="40"/>
       <c r="Z170" s="23"/>
       <c r="AA170" s="23"/>
       <c r="AB170" s="23"/>
       <c r="AC170" s="23"/>
-      <c r="AD170" s="23"/>
+      <c r="AD170" s="40"/>
       <c r="AF170" s="40"/>
     </row>
     <row r="171" spans="1:43" s="21" customFormat="1">
@@ -21659,7 +21739,7 @@
       <c r="T171" s="23"/>
       <c r="U171" s="23"/>
       <c r="V171" s="23"/>
-      <c r="W171" s="40"/>
+      <c r="W171" s="23"/>
       <c r="X171" s="40"/>
       <c r="Y171" s="40"/>
       <c r="Z171" s="40"/>
@@ -21670,19 +21750,20 @@
       <c r="AF171" s="40"/>
     </row>
     <row r="172" spans="1:43" s="21" customFormat="1">
+      <c r="P172" s="22"/>
       <c r="Q172" s="23"/>
       <c r="R172" s="23"/>
       <c r="S172" s="23"/>
       <c r="T172" s="23"/>
       <c r="U172" s="23"/>
       <c r="V172" s="23"/>
-      <c r="W172" s="40"/>
+      <c r="W172" s="23"/>
       <c r="X172" s="40"/>
       <c r="Y172" s="40"/>
-      <c r="Z172" s="40"/>
-      <c r="AA172" s="40"/>
-      <c r="AB172" s="40"/>
-      <c r="AC172" s="40"/>
+      <c r="Z172" s="23"/>
+      <c r="AA172" s="23"/>
+      <c r="AB172" s="23"/>
+      <c r="AC172" s="23"/>
       <c r="AD172" s="40"/>
       <c r="AF172" s="40"/>
     </row>
@@ -21704,6 +21785,7 @@
       <c r="AF173" s="40"/>
     </row>
     <row r="174" spans="1:43" s="21" customFormat="1">
+      <c r="P174" s="22"/>
       <c r="Q174" s="23"/>
       <c r="R174" s="23"/>
       <c r="S174" s="23"/>
@@ -21745,18 +21827,17 @@
       <c r="T176" s="23"/>
       <c r="U176" s="23"/>
       <c r="V176" s="23"/>
-      <c r="W176" s="23"/>
+      <c r="W176" s="40"/>
       <c r="X176" s="40"/>
       <c r="Y176" s="40"/>
-      <c r="Z176" s="23"/>
-      <c r="AA176" s="23"/>
-      <c r="AB176" s="23"/>
-      <c r="AC176" s="23"/>
+      <c r="Z176" s="40"/>
+      <c r="AA176" s="40"/>
+      <c r="AB176" s="40"/>
+      <c r="AC176" s="40"/>
       <c r="AD176" s="40"/>
       <c r="AF176" s="40"/>
     </row>
-    <row r="177" spans="9:32" s="21" customFormat="1">
-      <c r="P177" s="22"/>
+    <row r="177" spans="16:32" s="21" customFormat="1">
       <c r="Q177" s="23"/>
       <c r="R177" s="23"/>
       <c r="S177" s="23"/>
@@ -21766,14 +21847,14 @@
       <c r="W177" s="23"/>
       <c r="X177" s="40"/>
       <c r="Y177" s="40"/>
-      <c r="Z177" s="40"/>
-      <c r="AA177" s="40"/>
-      <c r="AB177" s="40"/>
-      <c r="AC177" s="40"/>
+      <c r="Z177" s="23"/>
+      <c r="AA177" s="23"/>
+      <c r="AB177" s="23"/>
+      <c r="AC177" s="23"/>
       <c r="AD177" s="40"/>
       <c r="AF177" s="40"/>
     </row>
-    <row r="178" spans="9:32" s="21" customFormat="1">
+    <row r="178" spans="16:32" s="21" customFormat="1">
       <c r="P178" s="22"/>
       <c r="Q178" s="23"/>
       <c r="R178" s="23"/>
@@ -21781,17 +21862,18 @@
       <c r="T178" s="23"/>
       <c r="U178" s="23"/>
       <c r="V178" s="23"/>
-      <c r="W178" s="23"/>
+      <c r="W178" s="40"/>
       <c r="X178" s="40"/>
       <c r="Y178" s="40"/>
-      <c r="Z178" s="23"/>
-      <c r="AA178" s="23"/>
-      <c r="AB178" s="23"/>
-      <c r="AC178" s="23"/>
+      <c r="Z178" s="40"/>
+      <c r="AA178" s="40"/>
+      <c r="AB178" s="40"/>
+      <c r="AC178" s="40"/>
       <c r="AD178" s="40"/>
       <c r="AF178" s="40"/>
     </row>
-    <row r="179" spans="9:32" s="21" customFormat="1">
+    <row r="179" spans="16:32" s="21" customFormat="1">
+      <c r="P179" s="22"/>
       <c r="Q179" s="23"/>
       <c r="R179" s="23"/>
       <c r="S179" s="23"/>
@@ -21808,24 +21890,25 @@
       <c r="AD179" s="40"/>
       <c r="AF179" s="40"/>
     </row>
-    <row r="180" spans="9:32" s="21" customFormat="1">
+    <row r="180" spans="16:32" s="21" customFormat="1">
+      <c r="P180" s="22"/>
       <c r="Q180" s="23"/>
       <c r="R180" s="23"/>
       <c r="S180" s="23"/>
       <c r="T180" s="23"/>
       <c r="U180" s="23"/>
       <c r="V180" s="23"/>
-      <c r="W180" s="23"/>
+      <c r="W180" s="40"/>
       <c r="X180" s="40"/>
       <c r="Y180" s="40"/>
-      <c r="Z180" s="23"/>
-      <c r="AA180" s="23"/>
-      <c r="AB180" s="23"/>
-      <c r="AC180" s="23"/>
+      <c r="Z180" s="40"/>
+      <c r="AA180" s="40"/>
+      <c r="AB180" s="40"/>
+      <c r="AC180" s="40"/>
       <c r="AD180" s="40"/>
       <c r="AF180" s="40"/>
     </row>
-    <row r="181" spans="9:32" s="21" customFormat="1">
+    <row r="181" spans="16:32" s="21" customFormat="1">
       <c r="P181" s="22"/>
       <c r="Q181" s="23"/>
       <c r="R181" s="23"/>
@@ -21833,17 +21916,17 @@
       <c r="T181" s="23"/>
       <c r="U181" s="23"/>
       <c r="V181" s="23"/>
-      <c r="W181" s="40"/>
+      <c r="W181" s="23"/>
       <c r="X181" s="40"/>
       <c r="Y181" s="40"/>
-      <c r="Z181" s="40"/>
-      <c r="AA181" s="40"/>
-      <c r="AB181" s="40"/>
-      <c r="AC181" s="40"/>
-      <c r="AD181" s="40"/>
+      <c r="Z181" s="23"/>
+      <c r="AA181" s="23"/>
+      <c r="AB181" s="23"/>
+      <c r="AC181" s="23"/>
+      <c r="AD181" s="23"/>
       <c r="AF181" s="40"/>
     </row>
-    <row r="182" spans="9:32" s="21" customFormat="1">
+    <row r="182" spans="16:32" s="21" customFormat="1">
       <c r="P182" s="22"/>
       <c r="Q182" s="23"/>
       <c r="R182" s="23"/>
@@ -21851,107 +21934,70 @@
       <c r="T182" s="23"/>
       <c r="U182" s="23"/>
       <c r="V182" s="23"/>
-      <c r="W182" s="40"/>
+      <c r="W182" s="23"/>
       <c r="X182" s="40"/>
       <c r="Y182" s="40"/>
       <c r="Z182" s="40"/>
       <c r="AA182" s="40"/>
-      <c r="AB182" s="40"/>
-      <c r="AC182" s="40"/>
-      <c r="AD182" s="40"/>
+      <c r="AB182" s="23"/>
+      <c r="AC182" s="23"/>
+      <c r="AD182" s="23"/>
       <c r="AF182" s="40"/>
     </row>
-    <row r="183" spans="9:32" s="21" customFormat="1">
+    <row r="183" spans="16:32" s="21" customFormat="1">
       <c r="P183" s="22"/>
-      <c r="Q183" s="23"/>
-      <c r="R183" s="23"/>
-      <c r="S183" s="23"/>
-      <c r="T183" s="23"/>
-      <c r="U183" s="23"/>
-      <c r="V183" s="23"/>
-      <c r="W183" s="40"/>
-      <c r="X183" s="40"/>
-      <c r="Y183" s="40"/>
-      <c r="Z183" s="40"/>
-      <c r="AA183" s="40"/>
-      <c r="AB183" s="40"/>
-      <c r="AC183" s="40"/>
-      <c r="AD183" s="40"/>
+      <c r="Q183" s="20"/>
+      <c r="R183" s="20"/>
+      <c r="S183" s="20"/>
+      <c r="T183" s="20"/>
+      <c r="U183" s="20"/>
+      <c r="V183" s="20"/>
+      <c r="W183" s="20"/>
+      <c r="X183" s="20"/>
+      <c r="Y183" s="20"/>
+      <c r="Z183" s="20"/>
+      <c r="AA183" s="20"/>
+      <c r="AB183" s="20"/>
+      <c r="AC183" s="20"/>
+      <c r="AD183" s="20"/>
       <c r="AF183" s="40"/>
     </row>
-    <row r="184" spans="9:32" s="21" customFormat="1">
-      <c r="P184" s="22"/>
-      <c r="Q184" s="23"/>
-      <c r="R184" s="23"/>
-      <c r="S184" s="23"/>
-      <c r="T184" s="23"/>
-      <c r="U184" s="23"/>
-      <c r="V184" s="23"/>
-      <c r="W184" s="23"/>
-      <c r="X184" s="40"/>
-      <c r="Y184" s="40"/>
-      <c r="Z184" s="23"/>
-      <c r="AA184" s="23"/>
-      <c r="AB184" s="23"/>
-      <c r="AC184" s="23"/>
-      <c r="AD184" s="23"/>
+    <row r="184" spans="16:32" s="21" customFormat="1">
+      <c r="Q184" s="20"/>
+      <c r="R184" s="20"/>
+      <c r="S184" s="20"/>
+      <c r="T184" s="20"/>
+      <c r="U184" s="20"/>
+      <c r="V184" s="20"/>
+      <c r="W184" s="20"/>
+      <c r="X184" s="20"/>
+      <c r="Y184" s="20"/>
+      <c r="Z184" s="20"/>
+      <c r="AA184" s="20"/>
+      <c r="AB184" s="20"/>
+      <c r="AC184" s="20"/>
+      <c r="AD184" s="20"/>
       <c r="AF184" s="40"/>
     </row>
-    <row r="185" spans="9:32" s="21" customFormat="1">
-      <c r="I185" s="21">
-        <v>0</v>
-      </c>
-      <c r="J185" s="21">
-        <v>3</v>
-      </c>
-      <c r="K185" s="21">
-        <v>7</v>
-      </c>
-      <c r="L185" s="21">
-        <v>8</v>
-      </c>
-      <c r="M185" s="21">
-        <v>15</v>
-      </c>
-      <c r="N185" s="21">
-        <v>18</v>
-      </c>
+    <row r="185" spans="16:32" s="21" customFormat="1">
       <c r="P185" s="22"/>
-      <c r="Q185" s="23"/>
-      <c r="R185" s="23"/>
-      <c r="S185" s="23"/>
-      <c r="T185" s="23"/>
-      <c r="U185" s="23"/>
-      <c r="V185" s="23"/>
-      <c r="W185" s="23"/>
-      <c r="X185" s="40"/>
-      <c r="Y185" s="40"/>
-      <c r="Z185" s="40"/>
-      <c r="AA185" s="40"/>
-      <c r="AB185" s="23"/>
-      <c r="AC185" s="23"/>
-      <c r="AD185" s="23"/>
+      <c r="Q185" s="20"/>
+      <c r="R185" s="20"/>
+      <c r="S185" s="20"/>
+      <c r="T185" s="20"/>
+      <c r="U185" s="20"/>
+      <c r="V185" s="20"/>
+      <c r="W185" s="20"/>
+      <c r="X185" s="20"/>
+      <c r="Y185" s="20"/>
+      <c r="Z185" s="20"/>
+      <c r="AA185" s="20"/>
+      <c r="AB185" s="20"/>
+      <c r="AC185" s="20"/>
+      <c r="AD185" s="20"/>
       <c r="AF185" s="40"/>
     </row>
-    <row r="186" spans="9:32" s="21" customFormat="1">
-      <c r="I186" s="21">
-        <v>0</v>
-      </c>
-      <c r="J186" s="21">
-        <v>1</v>
-      </c>
-      <c r="K186" s="21">
-        <v>3</v>
-      </c>
-      <c r="L186" s="21">
-        <v>7</v>
-      </c>
-      <c r="M186" s="21">
-        <v>8</v>
-      </c>
-      <c r="N186" s="21">
-        <v>18</v>
-      </c>
+    <row r="186" spans="16:32" s="21" customFormat="1">
       <c r="P186" s="22"/>
       <c r="Q186" s="20"/>
       <c r="R186" s="20"/>
@@ -21969,25 +22015,7 @@
       <c r="AD186" s="20"/>
       <c r="AF186" s="40"/>
     </row>
-    <row r="187" spans="9:32" s="21" customFormat="1">
-      <c r="I187" s="21">
-        <v>0</v>
-      </c>
-      <c r="J187" s="21">
-        <v>1</v>
-      </c>
-      <c r="K187" s="21">
-        <v>5</v>
-      </c>
-      <c r="L187" s="21">
-        <v>5</v>
-      </c>
-      <c r="M187" s="21">
-        <v>6</v>
-      </c>
-      <c r="N187" s="21">
-        <v>18</v>
-      </c>
+    <row r="187" spans="16:32" s="21" customFormat="1">
       <c r="P187" s="22"/>
       <c r="Q187" s="20"/>
       <c r="R187" s="20"/>
@@ -22005,7 +22033,7 @@
       <c r="AD187" s="15"/>
       <c r="AF187" s="40"/>
     </row>
-    <row r="188" spans="9:32" s="21" customFormat="1">
+    <row r="188" spans="16:32" s="21" customFormat="1">
       <c r="P188" s="22"/>
       <c r="Q188" s="23"/>
       <c r="R188" s="23"/>
@@ -22023,7 +22051,7 @@
       <c r="AD188" s="23"/>
       <c r="AF188" s="40"/>
     </row>
-    <row r="189" spans="9:32" s="21" customFormat="1">
+    <row r="189" spans="16:32" s="21" customFormat="1">
       <c r="P189" s="22"/>
       <c r="Q189" s="23"/>
       <c r="R189" s="23"/>
@@ -22041,7 +22069,7 @@
       <c r="AD189" s="23"/>
       <c r="AF189" s="40"/>
     </row>
-    <row r="190" spans="9:32" s="21" customFormat="1">
+    <row r="190" spans="16:32" s="21" customFormat="1">
       <c r="P190" s="22"/>
       <c r="Q190" s="20"/>
       <c r="R190" s="20"/>
@@ -22059,7 +22087,7 @@
       <c r="AD190" s="15"/>
       <c r="AF190" s="40"/>
     </row>
-    <row r="191" spans="9:32" s="21" customFormat="1">
+    <row r="191" spans="16:32" s="21" customFormat="1">
       <c r="P191" s="22"/>
       <c r="Q191" s="23"/>
       <c r="R191" s="23"/>
@@ -22077,7 +22105,7 @@
       <c r="AD191" s="23"/>
       <c r="AF191" s="40"/>
     </row>
-    <row r="192" spans="9:32" s="21" customFormat="1">
+    <row r="192" spans="16:32" s="21" customFormat="1">
       <c r="P192" s="22"/>
       <c r="Q192" s="23"/>
       <c r="R192" s="23"/>
@@ -34107,10 +34135,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO236"/>
+  <dimension ref="A1:AO238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H173" sqref="H173"/>
+    <sheetView topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -37600,13 +37628,26 @@
       </c>
     </row>
     <row r="167" spans="1:18">
-      <c r="A167" s="10"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="10"/>
+      <c r="A167" s="9">
+        <v>1</v>
+      </c>
+      <c r="B167" s="11">
+        <v>2</v>
+      </c>
+      <c r="C167" s="9">
+        <v>1</v>
+      </c>
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
+      <c r="G167" s="9">
+        <v>1</v>
+      </c>
+      <c r="H167" s="9">
+        <v>1</v>
+      </c>
       <c r="I167" s="10"/>
+      <c r="Q167" s="10"/>
     </row>
     <row r="168" spans="1:18">
       <c r="A168" s="10"/>
@@ -37615,6 +37656,8 @@
       <c r="D168" s="10"/>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="I168" s="10"/>
     </row>
     <row r="169" spans="1:18">
       <c r="A169" s="10"/>
@@ -37845,6 +37888,7 @@
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
       <c r="F197" s="10"/>
     </row>
     <row r="198" spans="1:6">
@@ -37929,7 +37973,7 @@
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
       <c r="D209" s="10"/>
-      <c r="F209" s="18"/>
+      <c r="F209" s="10"/>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="10"/>
@@ -37943,6 +37987,7 @@
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
       <c r="D211" s="10"/>
+      <c r="F211" s="18"/>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="10"/>
@@ -37964,11 +38009,13 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
       <c r="C216" s="10"/>
       <c r="D216" s="10"/>
     </row>
@@ -38039,6 +38086,7 @@
       <c r="C230" s="10"/>
     </row>
     <row r="231" spans="1:4">
+      <c r="A231" s="10"/>
       <c r="C231" s="10"/>
     </row>
     <row r="232" spans="1:4">
@@ -38055,6 +38103,12 @@
     </row>
     <row r="236" spans="1:4">
       <c r="C236" s="10"/>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="C237" s="10"/>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="C238" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -38067,8 +38121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="L174" sqref="L174"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -42198,18 +42252,54 @@
       </c>
     </row>
     <row r="167" spans="1:19" customFormat="1">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+      <c r="A167" s="1">
+        <v>1</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1">
+        <v>4</v>
+      </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
-      <c r="I167" s="18"/>
-      <c r="J167" s="18"/>
-      <c r="K167" s="18"/>
+      <c r="F167" s="18">
+        <v>3</v>
+      </c>
+      <c r="G167" s="18">
+        <v>0</v>
+      </c>
+      <c r="H167" s="18">
+        <v>1</v>
+      </c>
+      <c r="I167" s="18">
+        <v>1</v>
+      </c>
+      <c r="J167" s="18">
+        <v>1</v>
+      </c>
+      <c r="K167" s="18">
+        <v>0</v>
+      </c>
       <c r="L167" s="18"/>
+      <c r="N167" s="1">
+        <v>0</v>
+      </c>
+      <c r="O167" s="1">
+        <v>1</v>
+      </c>
+      <c r="P167" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q167" s="1">
+        <v>3</v>
+      </c>
+      <c r="R167" s="1">
+        <v>11</v>
+      </c>
+      <c r="S167" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="175" spans="1:19" customFormat="1">
       <c r="A175" s="36"/>
@@ -42260,8 +42350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A100:AN167"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="H175" sqref="H175"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="J172" sqref="J172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45353,7 +45443,43 @@
       </c>
     </row>
     <row r="167" spans="1:19">
+      <c r="A167" s="9">
+        <v>1</v>
+      </c>
+      <c r="C167" s="9">
+        <v>1</v>
+      </c>
       <c r="D167" s="10"/>
+      <c r="E167" s="11">
+        <v>2</v>
+      </c>
+      <c r="G167" s="9">
+        <v>1</v>
+      </c>
+      <c r="I167" s="9">
+        <v>1</v>
+      </c>
+      <c r="L167" s="16">
+        <v>1</v>
+      </c>
+      <c r="M167" s="16">
+        <v>3</v>
+      </c>
+      <c r="N167" s="16">
+        <v>5</v>
+      </c>
+      <c r="O167" s="16">
+        <v>5</v>
+      </c>
+      <c r="P167" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q167" s="16">
+        <v>9</v>
+      </c>
+      <c r="S167" s="16">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -45367,7 +45493,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45591,7 +45717,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -45726,10 +45852,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -45765,7 +45891,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P8" s="18">
         <v>0</v>
@@ -45791,7 +45917,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" s="18">
         <v>12</v>
@@ -45823,7 +45949,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="18">
         <v>5</v>
@@ -45834,11 +45960,14 @@
       <c r="L10" s="18">
         <v>21</v>
       </c>
+      <c r="M10" s="18">
+        <v>0</v>
+      </c>
       <c r="N10" s="18">
         <v>1</v>
       </c>
       <c r="P10" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -45846,13 +45975,13 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -45869,7 +45998,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -45881,7 +46010,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" s="18">
         <v>17</v>
@@ -45892,7 +46021,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K13" s="18">
         <v>14</v>
@@ -45906,15 +46035,15 @@
         <v>29</v>
       </c>
       <c r="K14" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -46152,7 +46281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,14 +108,6 @@
   </si>
   <si>
     <t>永远不要选自己觉得会出的号码     n+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,12 +566,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -890,7 +876,7 @@
   <dimension ref="A1:AO104"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5609,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="P47" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q47" s="7">
         <v>7</v>
@@ -6088,7 +6074,7 @@
         <v>7</v>
       </c>
       <c r="J52" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K52" s="7">
         <v>0</v>
@@ -6416,7 +6402,7 @@
         <v>3</v>
       </c>
       <c r="W55" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X55" s="7">
         <v>17</v>
@@ -6451,7 +6437,7 @@
     </row>
     <row r="56" spans="1:33" s="25" customFormat="1">
       <c r="A56" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" s="7">
         <v>0</v>
@@ -6479,7 +6465,7 @@
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="7">
         <v>6</v>
@@ -6532,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="AD56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE56" s="7">
         <v>7</v>
@@ -6588,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S57" s="7">
         <v>2</v>
@@ -6623,7 +6609,7 @@
       </c>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF57" s="7">
         <v>2</v>
@@ -6721,7 +6707,9 @@
       <c r="B59" s="7">
         <v>4</v>
       </c>
-      <c r="C59" s="25"/>
+      <c r="C59" s="7">
+        <v>0</v>
+      </c>
       <c r="D59" s="7">
         <v>6</v>
       </c>
@@ -6760,7 +6748,7 @@
         <v>2</v>
       </c>
       <c r="T59" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U59" s="7">
         <v>2</v>
@@ -6791,14 +6779,13 @@
         <v>2</v>
       </c>
       <c r="AG59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:33" s="7" customFormat="1">
       <c r="B60" s="7">
         <v>3</v>
       </c>
-      <c r="C60" s="25"/>
       <c r="D60" s="7">
         <v>3</v>
       </c>
@@ -6812,7 +6799,7 @@
         <v>9</v>
       </c>
       <c r="H60" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I60" s="7">
         <v>1</v>
@@ -6824,7 +6811,7 @@
         <v>2</v>
       </c>
       <c r="N60" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O60" s="7">
         <v>8</v>
@@ -6834,6 +6821,9 @@
       </c>
       <c r="S60" s="7">
         <v>3</v>
+      </c>
+      <c r="U60" s="7">
+        <v>0</v>
       </c>
       <c r="V60" s="7">
         <v>0</v>
@@ -6866,7 +6856,7 @@
       <c r="B61" s="7">
         <v>19</v>
       </c>
-      <c r="C61" s="25"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="7">
         <v>0</v>
       </c>
@@ -6913,19 +6903,19 @@
         <v>6</v>
       </c>
       <c r="Y61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z61" s="7">
         <v>8</v>
       </c>
       <c r="AA61" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB61" s="7">
         <v>12</v>
       </c>
       <c r="AC61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE61" s="7"/>
       <c r="AF61" s="7">
@@ -6953,12 +6943,12 @@
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -7013,7 +7003,7 @@
         <v>7</v>
       </c>
       <c r="F63" s="41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" s="7">
         <v>5</v>
@@ -7057,11 +7047,14 @@
       <c r="AD63" s="7"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG63" s="5"/>
     </row>
     <row r="64" spans="1:33">
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
       <c r="D64" s="7">
         <v>2</v>
       </c>
@@ -7069,6 +7062,9 @@
         <v>10</v>
       </c>
       <c r="F64" s="25"/>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="K64" s="3"/>
@@ -7127,7 +7123,7 @@
       </c>
       <c r="N65" s="25"/>
       <c r="O65" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P65" s="4"/>
       <c r="Q65" s="4">
@@ -7135,7 +7131,7 @@
       </c>
       <c r="R65" s="4"/>
       <c r="S65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="3"/>
       <c r="U65" s="4"/>
@@ -7148,7 +7144,7 @@
       </c>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB65" s="7">
         <v>3</v>
@@ -7186,11 +7182,13 @@
         <v>9</v>
       </c>
       <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
+      <c r="X66" s="4">
+        <v>0</v>
+      </c>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AB66" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7223,7 +7221,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="39"/>
       <c r="V67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
@@ -7286,7 +7284,7 @@
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="Q69" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
@@ -7308,7 +7306,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="7"/>
       <c r="H70" s="4"/>
@@ -7347,7 +7345,9 @@
       <c r="I71" s="4"/>
       <c r="J71" s="3"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
+      <c r="M71" s="4">
+        <v>0</v>
+      </c>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="Q71" s="4"/>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="73" spans="1:33">
       <c r="D73" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -7492,20 +7492,7 @@
       <c r="AF76" s="3"/>
       <c r="AG76" s="5"/>
     </row>
-    <row r="77" spans="1:33" s="44" customFormat="1">
-      <c r="C77" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="W77" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z77" s="44" t="s">
-        <v>22</v>
-      </c>
-    </row>
+    <row r="77" spans="1:33" s="44" customFormat="1"/>
     <row r="78" spans="1:33" s="42" customFormat="1"/>
     <row r="79" spans="1:33" s="46" customFormat="1"/>
     <row r="80" spans="1:33">
@@ -7954,10 +7941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT968"/>
+  <dimension ref="A1:AT967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S175" sqref="S175"/>
+    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE182" sqref="AE182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -20022,7 +20009,7 @@
         <v>7</v>
       </c>
       <c r="U150" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V150" s="19">
         <v>1</v>
@@ -20043,7 +20030,7 @@
       <c r="AB150" s="19">
         <v>7</v>
       </c>
-      <c r="AC150" s="64"/>
+      <c r="AC150" s="20"/>
       <c r="AD150" s="20"/>
       <c r="AF150" s="40"/>
       <c r="AH150" s="21">
@@ -20230,19 +20217,19 @@
         <v>1</v>
       </c>
       <c r="W152" s="20"/>
-      <c r="X152" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y152" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z152" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA152" s="23">
-        <v>3</v>
-      </c>
-      <c r="AB152" s="23">
+      <c r="X152" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y152" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z152" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA152" s="22">
+        <v>3</v>
+      </c>
+      <c r="AB152" s="22">
         <v>4</v>
       </c>
       <c r="AC152" s="19">
@@ -20722,7 +20709,7 @@
       </c>
       <c r="P157" s="22"/>
       <c r="Q157" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R157" s="19">
         <v>3</v>
@@ -20930,7 +20917,7 @@
         <v>1</v>
       </c>
       <c r="S159" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T159" s="19">
         <v>0</v>
@@ -21020,7 +21007,7 @@
         <v>11</v>
       </c>
       <c r="P160" s="22"/>
-      <c r="Q160" s="20">
+      <c r="Q160" s="19">
         <v>9</v>
       </c>
       <c r="R160" s="19">
@@ -21036,7 +21023,7 @@
         <v>1</v>
       </c>
       <c r="V160" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W160" s="20"/>
       <c r="X160" s="19">
@@ -21051,7 +21038,9 @@
       <c r="AA160" s="22">
         <v>7</v>
       </c>
-      <c r="AB160" s="20"/>
+      <c r="AB160" s="22">
+        <v>9</v>
+      </c>
       <c r="AC160" s="20"/>
       <c r="AD160" s="20"/>
       <c r="AF160" s="40"/>
@@ -21128,18 +21117,18 @@
         <v>3</v>
       </c>
       <c r="S161" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T161" s="19">
         <v>0</v>
       </c>
       <c r="U161" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V161" s="20">
-        <v>8</v>
-      </c>
-      <c r="W161" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="W161" s="20"/>
       <c r="X161" s="19">
         <v>0</v>
       </c>
@@ -21224,7 +21213,7 @@
         <v>2</v>
       </c>
       <c r="S162" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T162" s="19">
         <v>2</v>
@@ -21422,17 +21411,17 @@
       <c r="Q164" s="19">
         <v>2</v>
       </c>
-      <c r="R164" s="20">
+      <c r="R164" s="19">
         <v>5</v>
       </c>
       <c r="S164" s="22">
         <v>1</v>
       </c>
       <c r="T164" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U164" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V164" s="19">
         <v>4</v>
@@ -21447,7 +21436,9 @@
       <c r="Z164" s="22">
         <v>4</v>
       </c>
-      <c r="AA164" s="20"/>
+      <c r="AA164" s="22">
+        <v>5</v>
+      </c>
       <c r="AB164" s="20"/>
       <c r="AC164" s="20"/>
       <c r="AD164" s="20"/>
@@ -21519,13 +21510,13 @@
         <v>1</v>
       </c>
       <c r="R165" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S165" s="19">
         <v>1</v>
       </c>
       <c r="T165" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U165" s="19">
         <v>0</v>
@@ -21546,8 +21537,8 @@
       <c r="AA165" s="22">
         <v>3</v>
       </c>
-      <c r="AB165" s="64"/>
-      <c r="AC165" s="64"/>
+      <c r="AB165" s="20"/>
+      <c r="AC165" s="20"/>
       <c r="AD165" s="20"/>
       <c r="AF165" s="40"/>
       <c r="AH165" s="21">
@@ -21611,10 +21602,10 @@
       </c>
       <c r="P166" s="22"/>
       <c r="Q166" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R166" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S166" s="19">
         <v>2</v>
@@ -21625,7 +21616,7 @@
       <c r="U166" s="19">
         <v>0</v>
       </c>
-      <c r="V166" s="20">
+      <c r="V166" s="19">
         <v>3</v>
       </c>
       <c r="W166" s="20"/>
@@ -21638,9 +21629,11 @@
       <c r="Z166" s="22">
         <v>2</v>
       </c>
-      <c r="AA166" s="64"/>
-      <c r="AB166" s="64"/>
-      <c r="AC166" s="64"/>
+      <c r="AA166" s="22">
+        <v>3</v>
+      </c>
+      <c r="AB166" s="20"/>
+      <c r="AC166" s="20"/>
       <c r="AD166" s="20"/>
       <c r="AF166" s="40"/>
       <c r="AH166" s="21">
@@ -21707,32 +21700,36 @@
       </c>
       <c r="P167" s="22"/>
       <c r="Q167" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R167" s="22">
         <v>0</v>
       </c>
-      <c r="S167" s="23">
+      <c r="S167" s="22">
         <v>2</v>
       </c>
       <c r="T167" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U167" s="23">
-        <v>2</v>
-      </c>
-      <c r="V167" s="23">
-        <v>2</v>
-      </c>
-      <c r="W167" s="40"/>
+        <v>3</v>
+      </c>
+      <c r="V167" s="22">
+        <v>2</v>
+      </c>
+      <c r="W167" s="23"/>
       <c r="X167" s="22">
         <v>0</v>
       </c>
-      <c r="Y167" s="65"/>
-      <c r="Z167" s="65"/>
-      <c r="AA167" s="65"/>
-      <c r="AB167" s="65"/>
-      <c r="AC167" s="65"/>
+      <c r="Y167" s="22">
+        <v>2</v>
+      </c>
+      <c r="Z167" s="22">
+        <v>2</v>
+      </c>
+      <c r="AA167" s="23"/>
+      <c r="AB167" s="23"/>
+      <c r="AC167" s="23"/>
       <c r="AD167" s="23"/>
       <c r="AF167" s="40"/>
       <c r="AH167" s="21">
@@ -21799,32 +21796,32 @@
       </c>
       <c r="P168" s="22"/>
       <c r="Q168" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R168" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S168" s="22">
         <v>0</v>
       </c>
       <c r="T168" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U168" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V168" s="23">
-        <v>1</v>
-      </c>
-      <c r="W168" s="40"/>
+        <v>2</v>
+      </c>
+      <c r="W168" s="23"/>
       <c r="X168" s="22">
         <v>0</v>
       </c>
-      <c r="Y168" s="65"/>
-      <c r="Z168" s="65"/>
-      <c r="AA168" s="65"/>
-      <c r="AB168" s="65"/>
-      <c r="AC168" s="65"/>
+      <c r="Y168" s="23"/>
+      <c r="Z168" s="23"/>
+      <c r="AA168" s="23"/>
+      <c r="AB168" s="23"/>
+      <c r="AC168" s="23"/>
       <c r="AD168" s="23"/>
       <c r="AF168" s="40"/>
       <c r="AH168" s="21">
@@ -21893,26 +21890,26 @@
         <v>21</v>
       </c>
       <c r="P169" s="22"/>
-      <c r="Q169" s="23">
+      <c r="Q169" s="22">
         <v>0</v>
       </c>
       <c r="R169" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S169" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T169" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U169" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V169" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W169" s="23"/>
-      <c r="X169" s="23">
+      <c r="X169" s="22">
         <v>0</v>
       </c>
       <c r="Y169" s="23"/>
@@ -21951,13 +21948,61 @@
       </c>
     </row>
     <row r="170" spans="1:43" s="21" customFormat="1">
+      <c r="A170" s="21">
+        <v>0</v>
+      </c>
+      <c r="B170" s="21">
+        <v>9</v>
+      </c>
+      <c r="C170" s="21">
+        <v>5</v>
+      </c>
+      <c r="D170" s="21">
+        <v>2</v>
+      </c>
+      <c r="E170" s="21">
+        <v>2</v>
+      </c>
+      <c r="F170" s="21">
+        <v>3</v>
+      </c>
+      <c r="I170" s="21">
+        <v>0</v>
+      </c>
+      <c r="J170" s="21">
+        <v>2</v>
+      </c>
+      <c r="K170" s="21">
+        <v>2</v>
+      </c>
+      <c r="L170" s="21">
+        <v>3</v>
+      </c>
+      <c r="M170" s="21">
+        <v>5</v>
+      </c>
+      <c r="N170" s="21">
+        <v>9</v>
+      </c>
       <c r="P170" s="22"/>
-      <c r="Q170" s="23"/>
-      <c r="R170" s="23"/>
-      <c r="S170" s="23"/>
-      <c r="T170" s="23"/>
-      <c r="U170" s="23"/>
-      <c r="V170" s="23"/>
+      <c r="Q170" s="23">
+        <v>0</v>
+      </c>
+      <c r="R170" s="23">
+        <v>0</v>
+      </c>
+      <c r="S170" s="23">
+        <v>0</v>
+      </c>
+      <c r="T170" s="23">
+        <v>0</v>
+      </c>
+      <c r="U170" s="23">
+        <v>0</v>
+      </c>
+      <c r="V170" s="23">
+        <v>0</v>
+      </c>
       <c r="W170" s="23"/>
       <c r="X170" s="23"/>
       <c r="Y170" s="23"/>
@@ -21967,6 +22012,30 @@
       <c r="AC170" s="23"/>
       <c r="AD170" s="23"/>
       <c r="AF170" s="40"/>
+      <c r="AH170" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI170" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ170" s="21">
+        <v>3</v>
+      </c>
+      <c r="AK170" s="21">
+        <v>5</v>
+      </c>
+      <c r="AL170" s="21">
+        <v>9</v>
+      </c>
+      <c r="AO170" s="21">
+        <v>3</v>
+      </c>
+      <c r="AP170" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ170" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="171" spans="1:43" s="21" customFormat="1">
       <c r="P171" s="22"/>
@@ -21987,20 +22056,21 @@
       <c r="AF171" s="40"/>
     </row>
     <row r="172" spans="1:43" s="21" customFormat="1">
+      <c r="P172" s="22"/>
       <c r="Q172" s="23"/>
       <c r="R172" s="23"/>
       <c r="S172" s="23"/>
       <c r="T172" s="23"/>
       <c r="U172" s="23"/>
       <c r="V172" s="23"/>
-      <c r="W172" s="40"/>
-      <c r="X172" s="40"/>
-      <c r="Y172" s="40"/>
-      <c r="Z172" s="40"/>
-      <c r="AA172" s="40"/>
-      <c r="AB172" s="40"/>
-      <c r="AC172" s="40"/>
-      <c r="AD172" s="40"/>
+      <c r="W172" s="23"/>
+      <c r="X172" s="23"/>
+      <c r="Y172" s="23"/>
+      <c r="Z172" s="23"/>
+      <c r="AA172" s="23"/>
+      <c r="AB172" s="23"/>
+      <c r="AC172" s="23"/>
+      <c r="AD172" s="23"/>
       <c r="AF172" s="40"/>
     </row>
     <row r="173" spans="1:43" s="21" customFormat="1">
@@ -22011,14 +22081,14 @@
       <c r="T173" s="23"/>
       <c r="U173" s="23"/>
       <c r="V173" s="23"/>
-      <c r="W173" s="40"/>
-      <c r="X173" s="40"/>
-      <c r="Y173" s="40"/>
-      <c r="Z173" s="40"/>
-      <c r="AA173" s="40"/>
-      <c r="AB173" s="40"/>
-      <c r="AC173" s="40"/>
-      <c r="AD173" s="40"/>
+      <c r="W173" s="23"/>
+      <c r="X173" s="23"/>
+      <c r="Y173" s="23"/>
+      <c r="Z173" s="23"/>
+      <c r="AA173" s="23"/>
+      <c r="AB173" s="23"/>
+      <c r="AC173" s="23"/>
+      <c r="AD173" s="23"/>
       <c r="AF173" s="40"/>
     </row>
     <row r="174" spans="1:43" s="21" customFormat="1">
@@ -22029,14 +22099,14 @@
       <c r="T174" s="23"/>
       <c r="U174" s="23"/>
       <c r="V174" s="23"/>
-      <c r="W174" s="40"/>
-      <c r="X174" s="40"/>
-      <c r="Y174" s="40"/>
-      <c r="Z174" s="40"/>
-      <c r="AA174" s="40"/>
-      <c r="AB174" s="40"/>
-      <c r="AC174" s="40"/>
-      <c r="AD174" s="40"/>
+      <c r="W174" s="23"/>
+      <c r="X174" s="23"/>
+      <c r="Y174" s="23"/>
+      <c r="Z174" s="23"/>
+      <c r="AA174" s="23"/>
+      <c r="AB174" s="23"/>
+      <c r="AC174" s="23"/>
+      <c r="AD174" s="23"/>
       <c r="AF174" s="40"/>
     </row>
     <row r="175" spans="1:43" s="21" customFormat="1">
@@ -22050,8 +22120,8 @@
       <c r="W175" s="23"/>
       <c r="X175" s="40"/>
       <c r="Y175" s="40"/>
-      <c r="Z175" s="23"/>
-      <c r="AA175" s="23"/>
+      <c r="Z175" s="40"/>
+      <c r="AA175" s="40"/>
       <c r="AB175" s="23"/>
       <c r="AC175" s="23"/>
       <c r="AD175" s="23"/>
@@ -22059,24 +22129,23 @@
     </row>
     <row r="176" spans="1:43" s="21" customFormat="1">
       <c r="P176" s="22"/>
-      <c r="Q176" s="23"/>
-      <c r="R176" s="23"/>
-      <c r="S176" s="23"/>
-      <c r="T176" s="23"/>
-      <c r="U176" s="23"/>
-      <c r="V176" s="23"/>
-      <c r="W176" s="23"/>
-      <c r="X176" s="40"/>
-      <c r="Y176" s="40"/>
-      <c r="Z176" s="40"/>
-      <c r="AA176" s="40"/>
-      <c r="AB176" s="23"/>
-      <c r="AC176" s="23"/>
-      <c r="AD176" s="23"/>
+      <c r="Q176" s="20"/>
+      <c r="R176" s="20"/>
+      <c r="S176" s="20"/>
+      <c r="T176" s="20"/>
+      <c r="U176" s="20"/>
+      <c r="V176" s="20"/>
+      <c r="W176" s="20"/>
+      <c r="X176" s="20"/>
+      <c r="Y176" s="20"/>
+      <c r="Z176" s="20"/>
+      <c r="AA176" s="20"/>
+      <c r="AB176" s="20"/>
+      <c r="AC176" s="20"/>
+      <c r="AD176" s="20"/>
       <c r="AF176" s="40"/>
     </row>
-    <row r="177" spans="9:32" s="21" customFormat="1">
-      <c r="P177" s="22"/>
+    <row r="177" spans="16:32" s="21" customFormat="1">
       <c r="Q177" s="20"/>
       <c r="R177" s="20"/>
       <c r="S177" s="20"/>
@@ -22093,7 +22162,8 @@
       <c r="AD177" s="20"/>
       <c r="AF177" s="40"/>
     </row>
-    <row r="178" spans="9:32" s="21" customFormat="1">
+    <row r="178" spans="16:32" s="21" customFormat="1">
+      <c r="P178" s="22"/>
       <c r="Q178" s="20"/>
       <c r="R178" s="20"/>
       <c r="S178" s="20"/>
@@ -22110,7 +22180,7 @@
       <c r="AD178" s="20"/>
       <c r="AF178" s="40"/>
     </row>
-    <row r="179" spans="9:32" s="21" customFormat="1">
+    <row r="179" spans="16:32" s="21" customFormat="1">
       <c r="P179" s="22"/>
       <c r="Q179" s="20"/>
       <c r="R179" s="20"/>
@@ -22128,7 +22198,7 @@
       <c r="AD179" s="20"/>
       <c r="AF179" s="40"/>
     </row>
-    <row r="180" spans="9:32" s="21" customFormat="1">
+    <row r="180" spans="16:32" s="21" customFormat="1">
       <c r="P180" s="22"/>
       <c r="Q180" s="20"/>
       <c r="R180" s="20"/>
@@ -22136,35 +22206,35 @@
       <c r="T180" s="20"/>
       <c r="U180" s="20"/>
       <c r="V180" s="20"/>
-      <c r="W180" s="20"/>
-      <c r="X180" s="20"/>
+      <c r="W180" s="15"/>
+      <c r="X180" s="15"/>
       <c r="Y180" s="20"/>
       <c r="Z180" s="20"/>
       <c r="AA180" s="20"/>
       <c r="AB180" s="20"/>
       <c r="AC180" s="20"/>
-      <c r="AD180" s="20"/>
+      <c r="AD180" s="15"/>
       <c r="AF180" s="40"/>
     </row>
-    <row r="181" spans="9:32" s="21" customFormat="1">
+    <row r="181" spans="16:32" s="21" customFormat="1">
       <c r="P181" s="22"/>
-      <c r="Q181" s="20"/>
-      <c r="R181" s="20"/>
-      <c r="S181" s="20"/>
-      <c r="T181" s="20"/>
-      <c r="U181" s="20"/>
-      <c r="V181" s="20"/>
-      <c r="W181" s="15"/>
-      <c r="X181" s="15"/>
-      <c r="Y181" s="20"/>
-      <c r="Z181" s="20"/>
-      <c r="AA181" s="20"/>
-      <c r="AB181" s="20"/>
-      <c r="AC181" s="20"/>
-      <c r="AD181" s="15"/>
+      <c r="Q181" s="23"/>
+      <c r="R181" s="23"/>
+      <c r="S181" s="23"/>
+      <c r="T181" s="23"/>
+      <c r="U181" s="23"/>
+      <c r="V181" s="23"/>
+      <c r="W181" s="23"/>
+      <c r="X181" s="40"/>
+      <c r="Y181" s="40"/>
+      <c r="Z181" s="23"/>
+      <c r="AA181" s="23"/>
+      <c r="AB181" s="23"/>
+      <c r="AC181" s="23"/>
+      <c r="AD181" s="23"/>
       <c r="AF181" s="40"/>
     </row>
-    <row r="182" spans="9:32" s="21" customFormat="1">
+    <row r="182" spans="16:32" s="21" customFormat="1">
       <c r="P182" s="22"/>
       <c r="Q182" s="23"/>
       <c r="R182" s="23"/>
@@ -22172,9 +22242,9 @@
       <c r="T182" s="23"/>
       <c r="U182" s="23"/>
       <c r="V182" s="23"/>
-      <c r="W182" s="23"/>
-      <c r="X182" s="40"/>
-      <c r="Y182" s="40"/>
+      <c r="W182" s="40"/>
+      <c r="X182" s="23"/>
+      <c r="Y182" s="23"/>
       <c r="Z182" s="23"/>
       <c r="AA182" s="23"/>
       <c r="AB182" s="23"/>
@@ -22182,25 +22252,25 @@
       <c r="AD182" s="23"/>
       <c r="AF182" s="40"/>
     </row>
-    <row r="183" spans="9:32" s="21" customFormat="1">
-      <c r="P183" s="22"/>
+    <row r="183" spans="16:32" s="21" customFormat="1">
       <c r="Q183" s="23"/>
       <c r="R183" s="23"/>
       <c r="S183" s="23"/>
       <c r="T183" s="23"/>
       <c r="U183" s="23"/>
       <c r="V183" s="23"/>
-      <c r="W183" s="40"/>
-      <c r="X183" s="23"/>
-      <c r="Y183" s="23"/>
+      <c r="W183" s="23"/>
+      <c r="X183" s="40"/>
+      <c r="Y183" s="40"/>
       <c r="Z183" s="23"/>
       <c r="AA183" s="23"/>
       <c r="AB183" s="23"/>
       <c r="AC183" s="23"/>
-      <c r="AD183" s="23"/>
+      <c r="AD183" s="40"/>
       <c r="AF183" s="40"/>
     </row>
-    <row r="184" spans="9:32" s="21" customFormat="1">
+    <row r="184" spans="16:32" s="21" customFormat="1">
+      <c r="P184" s="22"/>
       <c r="Q184" s="23"/>
       <c r="R184" s="23"/>
       <c r="S184" s="23"/>
@@ -22208,34 +22278,16 @@
       <c r="U184" s="23"/>
       <c r="V184" s="23"/>
       <c r="W184" s="23"/>
-      <c r="X184" s="40"/>
-      <c r="Y184" s="40"/>
+      <c r="X184" s="23"/>
+      <c r="Y184" s="23"/>
       <c r="Z184" s="23"/>
       <c r="AA184" s="23"/>
       <c r="AB184" s="23"/>
       <c r="AC184" s="23"/>
-      <c r="AD184" s="40"/>
+      <c r="AD184" s="23"/>
       <c r="AF184" s="40"/>
     </row>
-    <row r="185" spans="9:32" s="21" customFormat="1">
-      <c r="I185" s="21">
-        <v>0</v>
-      </c>
-      <c r="J185" s="21">
-        <v>3</v>
-      </c>
-      <c r="K185" s="21">
-        <v>7</v>
-      </c>
-      <c r="L185" s="21">
-        <v>9</v>
-      </c>
-      <c r="M185" s="21">
-        <v>10</v>
-      </c>
-      <c r="N185" s="21">
-        <v>12</v>
-      </c>
+    <row r="185" spans="16:32" s="21" customFormat="1">
       <c r="P185" s="22"/>
       <c r="Q185" s="23"/>
       <c r="R185" s="23"/>
@@ -22243,32 +22295,17 @@
       <c r="T185" s="23"/>
       <c r="U185" s="23"/>
       <c r="V185" s="23"/>
-      <c r="W185" s="23"/>
-      <c r="X185" s="23"/>
-      <c r="Y185" s="23"/>
-      <c r="Z185" s="23"/>
-      <c r="AA185" s="23"/>
-      <c r="AB185" s="23"/>
-      <c r="AC185" s="23"/>
-      <c r="AD185" s="23"/>
+      <c r="W185" s="40"/>
+      <c r="X185" s="40"/>
+      <c r="Y185" s="40"/>
+      <c r="Z185" s="40"/>
+      <c r="AA185" s="40"/>
+      <c r="AB185" s="40"/>
+      <c r="AC185" s="40"/>
+      <c r="AD185" s="40"/>
       <c r="AF185" s="40"/>
     </row>
-    <row r="186" spans="9:32" s="21" customFormat="1">
-      <c r="I186" s="21">
-        <v>1</v>
-      </c>
-      <c r="J186" s="21">
-        <v>2</v>
-      </c>
-      <c r="K186" s="21">
-        <v>3</v>
-      </c>
-      <c r="L186" s="21">
-        <v>5</v>
-      </c>
-      <c r="M186" s="21">
-        <v>9</v>
-      </c>
+    <row r="186" spans="16:32" s="21" customFormat="1">
       <c r="P186" s="22"/>
       <c r="Q186" s="23"/>
       <c r="R186" s="23"/>
@@ -22276,83 +22313,53 @@
       <c r="T186" s="23"/>
       <c r="U186" s="23"/>
       <c r="V186" s="23"/>
-      <c r="W186" s="40"/>
-      <c r="X186" s="40"/>
-      <c r="Y186" s="40"/>
-      <c r="Z186" s="40"/>
-      <c r="AA186" s="40"/>
-      <c r="AB186" s="40"/>
-      <c r="AC186" s="40"/>
-      <c r="AD186" s="40"/>
+      <c r="W186" s="23"/>
+      <c r="X186" s="23"/>
+      <c r="Y186" s="23"/>
+      <c r="Z186" s="23"/>
+      <c r="AA186" s="23"/>
+      <c r="AB186" s="23"/>
+      <c r="AC186" s="23"/>
+      <c r="AD186" s="23"/>
       <c r="AF186" s="40"/>
     </row>
-    <row r="187" spans="9:32" s="21" customFormat="1">
-      <c r="I187" s="21">
-        <v>0</v>
-      </c>
-      <c r="J187" s="21">
-        <v>1</v>
-      </c>
-      <c r="K187" s="21">
-        <v>2</v>
-      </c>
-      <c r="L187" s="21">
-        <v>5</v>
-      </c>
-      <c r="M187" s="21">
-        <v>9</v>
-      </c>
+    <row r="187" spans="16:32" s="21" customFormat="1">
       <c r="P187" s="22"/>
-      <c r="Q187" s="23"/>
-      <c r="R187" s="23"/>
-      <c r="S187" s="23"/>
-      <c r="T187" s="23"/>
-      <c r="U187" s="23"/>
-      <c r="V187" s="23"/>
-      <c r="W187" s="23"/>
-      <c r="X187" s="23"/>
-      <c r="Y187" s="23"/>
-      <c r="Z187" s="23"/>
-      <c r="AA187" s="23"/>
-      <c r="AB187" s="23"/>
-      <c r="AC187" s="23"/>
-      <c r="AD187" s="23"/>
+      <c r="Q187" s="20"/>
+      <c r="R187" s="20"/>
+      <c r="S187" s="20"/>
+      <c r="T187" s="20"/>
+      <c r="U187" s="20"/>
+      <c r="V187" s="20"/>
+      <c r="W187" s="20"/>
+      <c r="X187" s="15"/>
+      <c r="Y187" s="15"/>
+      <c r="Z187" s="15"/>
+      <c r="AA187" s="15"/>
+      <c r="AB187" s="15"/>
+      <c r="AC187" s="15"/>
+      <c r="AD187" s="15"/>
       <c r="AF187" s="40"/>
     </row>
-    <row r="188" spans="9:32" s="21" customFormat="1">
-      <c r="I188" s="21">
-        <v>0</v>
-      </c>
-      <c r="J188" s="21">
-        <v>1</v>
-      </c>
-      <c r="K188" s="21">
-        <v>3</v>
-      </c>
-      <c r="L188" s="21">
-        <v>5</v>
-      </c>
-      <c r="M188" s="21">
-        <v>9</v>
-      </c>
+    <row r="188" spans="16:32" s="21" customFormat="1">
       <c r="P188" s="22"/>
-      <c r="Q188" s="20"/>
-      <c r="R188" s="20"/>
-      <c r="S188" s="20"/>
-      <c r="T188" s="20"/>
-      <c r="U188" s="20"/>
-      <c r="V188" s="20"/>
-      <c r="W188" s="20"/>
-      <c r="X188" s="15"/>
-      <c r="Y188" s="15"/>
-      <c r="Z188" s="15"/>
-      <c r="AA188" s="15"/>
-      <c r="AB188" s="15"/>
-      <c r="AC188" s="15"/>
-      <c r="AD188" s="15"/>
+      <c r="Q188" s="23"/>
+      <c r="R188" s="23"/>
+      <c r="S188" s="23"/>
+      <c r="T188" s="23"/>
+      <c r="U188" s="23"/>
+      <c r="V188" s="23"/>
+      <c r="W188" s="23"/>
+      <c r="X188" s="23"/>
+      <c r="Y188" s="23"/>
+      <c r="Z188" s="23"/>
+      <c r="AA188" s="23"/>
+      <c r="AB188" s="23"/>
+      <c r="AC188" s="23"/>
+      <c r="AD188" s="23"/>
       <c r="AF188" s="40"/>
     </row>
-    <row r="189" spans="9:32" s="21" customFormat="1">
+    <row r="189" spans="16:32" s="21" customFormat="1">
       <c r="P189" s="22"/>
       <c r="Q189" s="23"/>
       <c r="R189" s="23"/>
@@ -22361,34 +22368,34 @@
       <c r="U189" s="23"/>
       <c r="V189" s="23"/>
       <c r="W189" s="23"/>
-      <c r="X189" s="23"/>
-      <c r="Y189" s="23"/>
+      <c r="X189" s="40"/>
+      <c r="Y189" s="40"/>
       <c r="Z189" s="23"/>
       <c r="AA189" s="23"/>
       <c r="AB189" s="23"/>
       <c r="AC189" s="23"/>
-      <c r="AD189" s="23"/>
+      <c r="AD189" s="40"/>
       <c r="AF189" s="40"/>
     </row>
-    <row r="190" spans="9:32" s="21" customFormat="1">
+    <row r="190" spans="16:32" s="21" customFormat="1">
       <c r="P190" s="22"/>
-      <c r="Q190" s="23"/>
-      <c r="R190" s="23"/>
-      <c r="S190" s="23"/>
-      <c r="T190" s="23"/>
-      <c r="U190" s="23"/>
-      <c r="V190" s="23"/>
-      <c r="W190" s="23"/>
-      <c r="X190" s="40"/>
-      <c r="Y190" s="40"/>
-      <c r="Z190" s="23"/>
-      <c r="AA190" s="23"/>
-      <c r="AB190" s="23"/>
-      <c r="AC190" s="23"/>
-      <c r="AD190" s="40"/>
+      <c r="Q190" s="20"/>
+      <c r="R190" s="20"/>
+      <c r="S190" s="20"/>
+      <c r="T190" s="20"/>
+      <c r="U190" s="20"/>
+      <c r="V190" s="20"/>
+      <c r="W190" s="20"/>
+      <c r="X190" s="20"/>
+      <c r="Y190" s="20"/>
+      <c r="Z190" s="20"/>
+      <c r="AA190" s="20"/>
+      <c r="AB190" s="20"/>
+      <c r="AC190" s="20"/>
+      <c r="AD190" s="20"/>
       <c r="AF190" s="40"/>
     </row>
-    <row r="191" spans="9:32" s="21" customFormat="1">
+    <row r="191" spans="16:32" s="21" customFormat="1">
       <c r="P191" s="22"/>
       <c r="Q191" s="20"/>
       <c r="R191" s="20"/>
@@ -22406,7 +22413,7 @@
       <c r="AD191" s="20"/>
       <c r="AF191" s="40"/>
     </row>
-    <row r="192" spans="9:32" s="21" customFormat="1">
+    <row r="192" spans="16:32" s="21" customFormat="1">
       <c r="P192" s="22"/>
       <c r="Q192" s="20"/>
       <c r="R192" s="20"/>
@@ -22415,13 +22422,13 @@
       <c r="U192" s="20"/>
       <c r="V192" s="20"/>
       <c r="W192" s="20"/>
-      <c r="X192" s="20"/>
-      <c r="Y192" s="20"/>
+      <c r="X192" s="15"/>
+      <c r="Y192" s="15"/>
       <c r="Z192" s="20"/>
       <c r="AA192" s="20"/>
       <c r="AB192" s="20"/>
       <c r="AC192" s="20"/>
-      <c r="AD192" s="20"/>
+      <c r="AD192" s="15"/>
       <c r="AF192" s="40"/>
     </row>
     <row r="193" spans="16:32" s="21" customFormat="1">
@@ -22432,32 +22439,32 @@
       <c r="T193" s="20"/>
       <c r="U193" s="20"/>
       <c r="V193" s="20"/>
-      <c r="W193" s="20"/>
+      <c r="W193" s="15"/>
       <c r="X193" s="15"/>
       <c r="Y193" s="15"/>
-      <c r="Z193" s="20"/>
-      <c r="AA193" s="20"/>
-      <c r="AB193" s="20"/>
-      <c r="AC193" s="20"/>
+      <c r="Z193" s="15"/>
+      <c r="AA193" s="15"/>
+      <c r="AB193" s="15"/>
+      <c r="AC193" s="15"/>
       <c r="AD193" s="15"/>
       <c r="AF193" s="40"/>
     </row>
     <row r="194" spans="16:32" s="21" customFormat="1">
       <c r="P194" s="22"/>
-      <c r="Q194" s="20"/>
-      <c r="R194" s="20"/>
-      <c r="S194" s="20"/>
-      <c r="T194" s="20"/>
-      <c r="U194" s="20"/>
-      <c r="V194" s="20"/>
-      <c r="W194" s="15"/>
-      <c r="X194" s="15"/>
-      <c r="Y194" s="15"/>
-      <c r="Z194" s="15"/>
-      <c r="AA194" s="15"/>
-      <c r="AB194" s="15"/>
-      <c r="AC194" s="15"/>
-      <c r="AD194" s="15"/>
+      <c r="Q194" s="23"/>
+      <c r="R194" s="23"/>
+      <c r="S194" s="23"/>
+      <c r="T194" s="23"/>
+      <c r="U194" s="23"/>
+      <c r="V194" s="23"/>
+      <c r="W194" s="23"/>
+      <c r="X194" s="40"/>
+      <c r="Y194" s="40"/>
+      <c r="Z194" s="40"/>
+      <c r="AA194" s="40"/>
+      <c r="AB194" s="40"/>
+      <c r="AC194" s="40"/>
+      <c r="AD194" s="40"/>
       <c r="AF194" s="40"/>
     </row>
     <row r="195" spans="16:32" s="21" customFormat="1">
@@ -22471,10 +22478,10 @@
       <c r="W195" s="23"/>
       <c r="X195" s="40"/>
       <c r="Y195" s="40"/>
-      <c r="Z195" s="40"/>
-      <c r="AA195" s="40"/>
-      <c r="AB195" s="40"/>
-      <c r="AC195" s="40"/>
+      <c r="Z195" s="23"/>
+      <c r="AA195" s="23"/>
+      <c r="AB195" s="23"/>
+      <c r="AC195" s="23"/>
       <c r="AD195" s="40"/>
       <c r="AF195" s="40"/>
     </row>
@@ -22486,18 +22493,17 @@
       <c r="T196" s="23"/>
       <c r="U196" s="23"/>
       <c r="V196" s="23"/>
-      <c r="W196" s="23"/>
+      <c r="W196" s="40"/>
       <c r="X196" s="40"/>
       <c r="Y196" s="40"/>
-      <c r="Z196" s="23"/>
-      <c r="AA196" s="23"/>
-      <c r="AB196" s="23"/>
-      <c r="AC196" s="23"/>
+      <c r="Z196" s="40"/>
+      <c r="AA196" s="40"/>
+      <c r="AB196" s="40"/>
+      <c r="AC196" s="40"/>
       <c r="AD196" s="40"/>
       <c r="AF196" s="40"/>
     </row>
     <row r="197" spans="16:32" s="21" customFormat="1">
-      <c r="P197" s="22"/>
       <c r="Q197" s="23"/>
       <c r="R197" s="23"/>
       <c r="S197" s="23"/>
@@ -22515,6 +22521,7 @@
       <c r="AF197" s="40"/>
     </row>
     <row r="198" spans="16:32" s="21" customFormat="1">
+      <c r="P198" s="22"/>
       <c r="Q198" s="23"/>
       <c r="R198" s="23"/>
       <c r="S198" s="23"/>
@@ -22532,7 +22539,6 @@
       <c r="AF198" s="40"/>
     </row>
     <row r="199" spans="16:32" s="21" customFormat="1">
-      <c r="P199" s="22"/>
       <c r="Q199" s="23"/>
       <c r="R199" s="23"/>
       <c r="S199" s="23"/>
@@ -22556,52 +22562,53 @@
       <c r="T200" s="23"/>
       <c r="U200" s="23"/>
       <c r="V200" s="23"/>
-      <c r="W200" s="40"/>
+      <c r="W200" s="23"/>
       <c r="X200" s="40"/>
       <c r="Y200" s="40"/>
-      <c r="Z200" s="40"/>
-      <c r="AA200" s="40"/>
-      <c r="AB200" s="40"/>
-      <c r="AC200" s="40"/>
+      <c r="Z200" s="23"/>
+      <c r="AA200" s="23"/>
+      <c r="AB200" s="23"/>
+      <c r="AC200" s="23"/>
       <c r="AD200" s="40"/>
       <c r="AF200" s="40"/>
     </row>
     <row r="201" spans="16:32" s="21" customFormat="1">
+      <c r="P201" s="22"/>
       <c r="Q201" s="23"/>
       <c r="R201" s="23"/>
       <c r="S201" s="23"/>
       <c r="T201" s="23"/>
       <c r="U201" s="23"/>
       <c r="V201" s="23"/>
-      <c r="W201" s="23"/>
+      <c r="W201" s="40"/>
       <c r="X201" s="40"/>
       <c r="Y201" s="40"/>
-      <c r="Z201" s="23"/>
-      <c r="AA201" s="23"/>
-      <c r="AB201" s="23"/>
-      <c r="AC201" s="23"/>
+      <c r="Z201" s="40"/>
+      <c r="AA201" s="40"/>
+      <c r="AB201" s="40"/>
+      <c r="AC201" s="40"/>
       <c r="AD201" s="40"/>
       <c r="AF201" s="40"/>
     </row>
     <row r="202" spans="16:32" s="21" customFormat="1">
-      <c r="P202" s="22"/>
       <c r="Q202" s="23"/>
       <c r="R202" s="23"/>
       <c r="S202" s="23"/>
       <c r="T202" s="23"/>
       <c r="U202" s="23"/>
       <c r="V202" s="23"/>
-      <c r="W202" s="40"/>
+      <c r="W202" s="23"/>
       <c r="X202" s="40"/>
       <c r="Y202" s="40"/>
-      <c r="Z202" s="40"/>
-      <c r="AA202" s="40"/>
-      <c r="AB202" s="40"/>
-      <c r="AC202" s="40"/>
+      <c r="Z202" s="23"/>
+      <c r="AA202" s="23"/>
+      <c r="AB202" s="23"/>
+      <c r="AC202" s="23"/>
       <c r="AD202" s="40"/>
       <c r="AF202" s="40"/>
     </row>
     <row r="203" spans="16:32" s="21" customFormat="1">
+      <c r="P203" s="22"/>
       <c r="Q203" s="23"/>
       <c r="R203" s="23"/>
       <c r="S203" s="23"/>
@@ -22611,10 +22618,10 @@
       <c r="W203" s="23"/>
       <c r="X203" s="40"/>
       <c r="Y203" s="40"/>
-      <c r="Z203" s="23"/>
-      <c r="AA203" s="23"/>
-      <c r="AB203" s="23"/>
-      <c r="AC203" s="23"/>
+      <c r="Z203" s="40"/>
+      <c r="AA203" s="40"/>
+      <c r="AB203" s="40"/>
+      <c r="AC203" s="40"/>
       <c r="AD203" s="40"/>
       <c r="AF203" s="40"/>
     </row>
@@ -22626,7 +22633,7 @@
       <c r="T204" s="23"/>
       <c r="U204" s="23"/>
       <c r="V204" s="23"/>
-      <c r="W204" s="23"/>
+      <c r="W204" s="40"/>
       <c r="X204" s="40"/>
       <c r="Y204" s="40"/>
       <c r="Z204" s="40"/>
@@ -22655,7 +22662,6 @@
       <c r="AF205" s="40"/>
     </row>
     <row r="206" spans="16:32" s="21" customFormat="1">
-      <c r="P206" s="22"/>
       <c r="Q206" s="23"/>
       <c r="R206" s="23"/>
       <c r="S206" s="23"/>
@@ -22679,40 +22685,41 @@
       <c r="T207" s="23"/>
       <c r="U207" s="23"/>
       <c r="V207" s="23"/>
-      <c r="W207" s="40"/>
+      <c r="W207" s="23"/>
       <c r="X207" s="40"/>
       <c r="Y207" s="40"/>
-      <c r="Z207" s="40"/>
-      <c r="AA207" s="40"/>
-      <c r="AB207" s="40"/>
-      <c r="AC207" s="40"/>
+      <c r="Z207" s="23"/>
+      <c r="AA207" s="23"/>
+      <c r="AB207" s="23"/>
+      <c r="AC207" s="23"/>
       <c r="AD207" s="40"/>
       <c r="AF207" s="40"/>
     </row>
-    <row r="208" spans="16:32" s="21" customFormat="1">
-      <c r="Q208" s="23"/>
-      <c r="R208" s="23"/>
-      <c r="S208" s="23"/>
-      <c r="T208" s="23"/>
-      <c r="U208" s="23"/>
-      <c r="V208" s="23"/>
-      <c r="W208" s="23"/>
+    <row r="208" spans="16:32">
+      <c r="Q208" s="40"/>
+      <c r="R208" s="40"/>
+      <c r="S208" s="40"/>
+      <c r="T208" s="40"/>
+      <c r="U208" s="40"/>
+      <c r="V208" s="40"/>
+      <c r="W208" s="40"/>
       <c r="X208" s="40"/>
       <c r="Y208" s="40"/>
-      <c r="Z208" s="23"/>
-      <c r="AA208" s="23"/>
-      <c r="AB208" s="23"/>
-      <c r="AC208" s="23"/>
+      <c r="Z208" s="40"/>
+      <c r="AA208" s="40"/>
+      <c r="AB208" s="40"/>
+      <c r="AC208" s="40"/>
       <c r="AD208" s="40"/>
       <c r="AF208" s="40"/>
     </row>
-    <row r="209" spans="16:32">
-      <c r="Q209" s="40"/>
-      <c r="R209" s="40"/>
-      <c r="S209" s="40"/>
-      <c r="T209" s="40"/>
-      <c r="U209" s="40"/>
-      <c r="V209" s="40"/>
+    <row r="209" spans="16:32" s="21" customFormat="1">
+      <c r="P209" s="22"/>
+      <c r="Q209" s="23"/>
+      <c r="R209" s="23"/>
+      <c r="S209" s="23"/>
+      <c r="T209" s="23"/>
+      <c r="U209" s="23"/>
+      <c r="V209" s="23"/>
       <c r="W209" s="40"/>
       <c r="X209" s="40"/>
       <c r="Y209" s="40"/>
@@ -22724,20 +22731,19 @@
       <c r="AF209" s="40"/>
     </row>
     <row r="210" spans="16:32" s="21" customFormat="1">
-      <c r="P210" s="22"/>
       <c r="Q210" s="23"/>
       <c r="R210" s="23"/>
       <c r="S210" s="23"/>
       <c r="T210" s="23"/>
       <c r="U210" s="23"/>
       <c r="V210" s="23"/>
-      <c r="W210" s="40"/>
+      <c r="W210" s="23"/>
       <c r="X210" s="40"/>
       <c r="Y210" s="40"/>
-      <c r="Z210" s="40"/>
-      <c r="AA210" s="40"/>
-      <c r="AB210" s="40"/>
-      <c r="AC210" s="40"/>
+      <c r="Z210" s="23"/>
+      <c r="AA210" s="23"/>
+      <c r="AB210" s="23"/>
+      <c r="AC210" s="23"/>
       <c r="AD210" s="40"/>
       <c r="AF210" s="40"/>
     </row>
@@ -22751,10 +22757,10 @@
       <c r="W211" s="23"/>
       <c r="X211" s="40"/>
       <c r="Y211" s="40"/>
-      <c r="Z211" s="23"/>
-      <c r="AA211" s="23"/>
-      <c r="AB211" s="23"/>
-      <c r="AC211" s="23"/>
+      <c r="Z211" s="40"/>
+      <c r="AA211" s="40"/>
+      <c r="AB211" s="40"/>
+      <c r="AC211" s="40"/>
       <c r="AD211" s="40"/>
       <c r="AF211" s="40"/>
     </row>
@@ -22765,7 +22771,7 @@
       <c r="T212" s="23"/>
       <c r="U212" s="23"/>
       <c r="V212" s="23"/>
-      <c r="W212" s="23"/>
+      <c r="W212" s="40"/>
       <c r="X212" s="40"/>
       <c r="Y212" s="40"/>
       <c r="Z212" s="40"/>
@@ -22782,17 +22788,18 @@
       <c r="T213" s="23"/>
       <c r="U213" s="23"/>
       <c r="V213" s="23"/>
-      <c r="W213" s="40"/>
+      <c r="W213" s="23"/>
       <c r="X213" s="40"/>
       <c r="Y213" s="40"/>
-      <c r="Z213" s="40"/>
-      <c r="AA213" s="40"/>
-      <c r="AB213" s="40"/>
-      <c r="AC213" s="40"/>
+      <c r="Z213" s="23"/>
+      <c r="AA213" s="23"/>
+      <c r="AB213" s="23"/>
+      <c r="AC213" s="23"/>
       <c r="AD213" s="40"/>
       <c r="AF213" s="40"/>
     </row>
     <row r="214" spans="16:32" s="21" customFormat="1">
+      <c r="P214" s="22"/>
       <c r="Q214" s="23"/>
       <c r="R214" s="23"/>
       <c r="S214" s="23"/>
@@ -22802,22 +22809,21 @@
       <c r="W214" s="23"/>
       <c r="X214" s="40"/>
       <c r="Y214" s="40"/>
-      <c r="Z214" s="23"/>
-      <c r="AA214" s="23"/>
-      <c r="AB214" s="23"/>
-      <c r="AC214" s="23"/>
+      <c r="Z214" s="40"/>
+      <c r="AA214" s="40"/>
+      <c r="AB214" s="40"/>
+      <c r="AC214" s="40"/>
       <c r="AD214" s="40"/>
       <c r="AF214" s="40"/>
     </row>
     <row r="215" spans="16:32" s="21" customFormat="1">
-      <c r="P215" s="22"/>
       <c r="Q215" s="23"/>
       <c r="R215" s="23"/>
       <c r="S215" s="23"/>
       <c r="T215" s="23"/>
       <c r="U215" s="23"/>
       <c r="V215" s="23"/>
-      <c r="W215" s="23"/>
+      <c r="W215" s="40"/>
       <c r="X215" s="40"/>
       <c r="Y215" s="40"/>
       <c r="Z215" s="40"/>
@@ -22834,7 +22840,7 @@
       <c r="T216" s="23"/>
       <c r="U216" s="23"/>
       <c r="V216" s="23"/>
-      <c r="W216" s="40"/>
+      <c r="W216" s="23"/>
       <c r="X216" s="40"/>
       <c r="Y216" s="40"/>
       <c r="Z216" s="40"/>
@@ -22854,14 +22860,15 @@
       <c r="W217" s="23"/>
       <c r="X217" s="40"/>
       <c r="Y217" s="40"/>
-      <c r="Z217" s="40"/>
-      <c r="AA217" s="40"/>
-      <c r="AB217" s="40"/>
-      <c r="AC217" s="40"/>
+      <c r="Z217" s="23"/>
+      <c r="AA217" s="23"/>
+      <c r="AB217" s="23"/>
+      <c r="AC217" s="23"/>
       <c r="AD217" s="40"/>
       <c r="AF217" s="40"/>
     </row>
     <row r="218" spans="16:32" s="21" customFormat="1">
+      <c r="P218" s="22"/>
       <c r="Q218" s="23"/>
       <c r="R218" s="23"/>
       <c r="S218" s="23"/>
@@ -22871,10 +22878,10 @@
       <c r="W218" s="23"/>
       <c r="X218" s="40"/>
       <c r="Y218" s="40"/>
-      <c r="Z218" s="23"/>
-      <c r="AA218" s="23"/>
-      <c r="AB218" s="23"/>
-      <c r="AC218" s="23"/>
+      <c r="Z218" s="40"/>
+      <c r="AA218" s="40"/>
+      <c r="AB218" s="40"/>
+      <c r="AC218" s="40"/>
       <c r="AD218" s="40"/>
       <c r="AF218" s="40"/>
     </row>
@@ -22889,10 +22896,10 @@
       <c r="W219" s="23"/>
       <c r="X219" s="40"/>
       <c r="Y219" s="40"/>
-      <c r="Z219" s="40"/>
-      <c r="AA219" s="40"/>
-      <c r="AB219" s="40"/>
-      <c r="AC219" s="40"/>
+      <c r="Z219" s="23"/>
+      <c r="AA219" s="23"/>
+      <c r="AB219" s="23"/>
+      <c r="AC219" s="23"/>
       <c r="AD219" s="40"/>
       <c r="AF219" s="40"/>
     </row>
@@ -22907,10 +22914,10 @@
       <c r="W220" s="23"/>
       <c r="X220" s="40"/>
       <c r="Y220" s="40"/>
-      <c r="Z220" s="23"/>
-      <c r="AA220" s="23"/>
-      <c r="AB220" s="23"/>
-      <c r="AC220" s="23"/>
+      <c r="Z220" s="40"/>
+      <c r="AA220" s="40"/>
+      <c r="AB220" s="40"/>
+      <c r="AC220" s="40"/>
       <c r="AD220" s="40"/>
       <c r="AF220" s="40"/>
     </row>
@@ -22925,10 +22932,10 @@
       <c r="W221" s="23"/>
       <c r="X221" s="40"/>
       <c r="Y221" s="40"/>
-      <c r="Z221" s="40"/>
-      <c r="AA221" s="40"/>
-      <c r="AB221" s="40"/>
-      <c r="AC221" s="40"/>
+      <c r="Z221" s="23"/>
+      <c r="AA221" s="23"/>
+      <c r="AB221" s="23"/>
+      <c r="AC221" s="23"/>
       <c r="AD221" s="40"/>
       <c r="AF221" s="40"/>
     </row>
@@ -22940,18 +22947,17 @@
       <c r="T222" s="23"/>
       <c r="U222" s="23"/>
       <c r="V222" s="23"/>
-      <c r="W222" s="23"/>
+      <c r="W222" s="40"/>
       <c r="X222" s="40"/>
       <c r="Y222" s="40"/>
-      <c r="Z222" s="23"/>
-      <c r="AA222" s="23"/>
-      <c r="AB222" s="23"/>
-      <c r="AC222" s="23"/>
+      <c r="Z222" s="40"/>
+      <c r="AA222" s="40"/>
+      <c r="AB222" s="40"/>
+      <c r="AC222" s="40"/>
       <c r="AD222" s="40"/>
       <c r="AF222" s="40"/>
     </row>
     <row r="223" spans="16:32" s="21" customFormat="1">
-      <c r="P223" s="22"/>
       <c r="Q223" s="23"/>
       <c r="R223" s="23"/>
       <c r="S223" s="23"/>
@@ -22975,30 +22981,31 @@
       <c r="T224" s="23"/>
       <c r="U224" s="23"/>
       <c r="V224" s="23"/>
-      <c r="W224" s="40"/>
+      <c r="W224" s="23"/>
       <c r="X224" s="40"/>
       <c r="Y224" s="40"/>
-      <c r="Z224" s="40"/>
-      <c r="AA224" s="40"/>
-      <c r="AB224" s="40"/>
-      <c r="AC224" s="40"/>
+      <c r="Z224" s="23"/>
+      <c r="AA224" s="23"/>
+      <c r="AB224" s="23"/>
+      <c r="AC224" s="23"/>
       <c r="AD224" s="40"/>
       <c r="AF224" s="40"/>
     </row>
     <row r="225" spans="16:32" s="21" customFormat="1">
+      <c r="P225" s="22"/>
       <c r="Q225" s="23"/>
       <c r="R225" s="23"/>
       <c r="S225" s="23"/>
       <c r="T225" s="23"/>
       <c r="U225" s="23"/>
       <c r="V225" s="23"/>
-      <c r="W225" s="23"/>
+      <c r="W225" s="40"/>
       <c r="X225" s="40"/>
       <c r="Y225" s="40"/>
-      <c r="Z225" s="23"/>
-      <c r="AA225" s="23"/>
-      <c r="AB225" s="23"/>
-      <c r="AC225" s="23"/>
+      <c r="Z225" s="40"/>
+      <c r="AA225" s="40"/>
+      <c r="AB225" s="40"/>
+      <c r="AC225" s="40"/>
       <c r="AD225" s="40"/>
       <c r="AF225" s="40"/>
     </row>
@@ -23021,7 +23028,6 @@
       <c r="AF226" s="40"/>
     </row>
     <row r="227" spans="16:32" s="21" customFormat="1">
-      <c r="P227" s="22"/>
       <c r="Q227" s="23"/>
       <c r="R227" s="23"/>
       <c r="S227" s="23"/>
@@ -23045,48 +23051,48 @@
       <c r="T228" s="23"/>
       <c r="U228" s="23"/>
       <c r="V228" s="23"/>
-      <c r="W228" s="40"/>
+      <c r="W228" s="23"/>
       <c r="X228" s="40"/>
       <c r="Y228" s="40"/>
-      <c r="Z228" s="40"/>
-      <c r="AA228" s="40"/>
-      <c r="AB228" s="40"/>
-      <c r="AC228" s="40"/>
+      <c r="Z228" s="23"/>
+      <c r="AA228" s="23"/>
+      <c r="AB228" s="23"/>
+      <c r="AC228" s="23"/>
       <c r="AD228" s="40"/>
       <c r="AF228" s="40"/>
     </row>
     <row r="229" spans="16:32" s="21" customFormat="1">
+      <c r="P229" s="22"/>
       <c r="Q229" s="23"/>
       <c r="R229" s="23"/>
       <c r="S229" s="23"/>
       <c r="T229" s="23"/>
       <c r="U229" s="23"/>
       <c r="V229" s="23"/>
-      <c r="W229" s="23"/>
+      <c r="W229" s="40"/>
       <c r="X229" s="40"/>
       <c r="Y229" s="40"/>
-      <c r="Z229" s="23"/>
-      <c r="AA229" s="23"/>
-      <c r="AB229" s="23"/>
-      <c r="AC229" s="23"/>
+      <c r="Z229" s="40"/>
+      <c r="AA229" s="40"/>
+      <c r="AB229" s="40"/>
+      <c r="AC229" s="40"/>
       <c r="AD229" s="40"/>
       <c r="AF229" s="40"/>
     </row>
     <row r="230" spans="16:32" s="21" customFormat="1">
-      <c r="P230" s="22"/>
       <c r="Q230" s="23"/>
       <c r="R230" s="23"/>
       <c r="S230" s="23"/>
       <c r="T230" s="23"/>
       <c r="U230" s="23"/>
       <c r="V230" s="23"/>
-      <c r="W230" s="40"/>
+      <c r="W230" s="23"/>
       <c r="X230" s="40"/>
       <c r="Y230" s="40"/>
-      <c r="Z230" s="40"/>
-      <c r="AA230" s="40"/>
-      <c r="AB230" s="40"/>
-      <c r="AC230" s="40"/>
+      <c r="Z230" s="23"/>
+      <c r="AA230" s="23"/>
+      <c r="AB230" s="23"/>
+      <c r="AC230" s="23"/>
       <c r="AD230" s="40"/>
       <c r="AF230" s="40"/>
     </row>
@@ -23100,10 +23106,10 @@
       <c r="W231" s="23"/>
       <c r="X231" s="40"/>
       <c r="Y231" s="40"/>
-      <c r="Z231" s="23"/>
-      <c r="AA231" s="23"/>
-      <c r="AB231" s="23"/>
-      <c r="AC231" s="23"/>
+      <c r="Z231" s="40"/>
+      <c r="AA231" s="40"/>
+      <c r="AB231" s="40"/>
+      <c r="AC231" s="40"/>
       <c r="AD231" s="40"/>
       <c r="AF231" s="40"/>
     </row>
@@ -23114,7 +23120,7 @@
       <c r="T232" s="23"/>
       <c r="U232" s="23"/>
       <c r="V232" s="23"/>
-      <c r="W232" s="23"/>
+      <c r="W232" s="40"/>
       <c r="X232" s="40"/>
       <c r="Y232" s="40"/>
       <c r="Z232" s="40"/>
@@ -23131,35 +23137,35 @@
       <c r="T233" s="23"/>
       <c r="U233" s="23"/>
       <c r="V233" s="23"/>
-      <c r="W233" s="40"/>
+      <c r="W233" s="23"/>
       <c r="X233" s="40"/>
       <c r="Y233" s="40"/>
-      <c r="Z233" s="40"/>
-      <c r="AA233" s="40"/>
-      <c r="AB233" s="40"/>
-      <c r="AC233" s="40"/>
+      <c r="Z233" s="23"/>
+      <c r="AA233" s="23"/>
+      <c r="AB233" s="23"/>
+      <c r="AC233" s="23"/>
       <c r="AD233" s="40"/>
       <c r="AF233" s="40"/>
     </row>
     <row r="234" spans="16:32" s="21" customFormat="1">
+      <c r="P234" s="22"/>
       <c r="Q234" s="23"/>
       <c r="R234" s="23"/>
       <c r="S234" s="23"/>
       <c r="T234" s="23"/>
       <c r="U234" s="23"/>
       <c r="V234" s="23"/>
-      <c r="W234" s="23"/>
+      <c r="W234" s="40"/>
       <c r="X234" s="40"/>
       <c r="Y234" s="40"/>
-      <c r="Z234" s="23"/>
-      <c r="AA234" s="23"/>
-      <c r="AB234" s="23"/>
-      <c r="AC234" s="23"/>
+      <c r="Z234" s="40"/>
+      <c r="AA234" s="40"/>
+      <c r="AB234" s="40"/>
+      <c r="AC234" s="40"/>
       <c r="AD234" s="40"/>
       <c r="AF234" s="40"/>
     </row>
     <row r="235" spans="16:32" s="21" customFormat="1">
-      <c r="P235" s="22"/>
       <c r="Q235" s="23"/>
       <c r="R235" s="23"/>
       <c r="S235" s="23"/>
@@ -23183,7 +23189,7 @@
       <c r="T236" s="23"/>
       <c r="U236" s="23"/>
       <c r="V236" s="23"/>
-      <c r="W236" s="40"/>
+      <c r="W236" s="23"/>
       <c r="X236" s="40"/>
       <c r="Y236" s="40"/>
       <c r="Z236" s="40"/>
@@ -23203,10 +23209,10 @@
       <c r="W237" s="23"/>
       <c r="X237" s="40"/>
       <c r="Y237" s="40"/>
-      <c r="Z237" s="40"/>
-      <c r="AA237" s="40"/>
-      <c r="AB237" s="40"/>
-      <c r="AC237" s="40"/>
+      <c r="Z237" s="23"/>
+      <c r="AA237" s="23"/>
+      <c r="AB237" s="23"/>
+      <c r="AC237" s="23"/>
       <c r="AD237" s="40"/>
       <c r="AF237" s="40"/>
     </row>
@@ -23220,10 +23226,10 @@
       <c r="W238" s="23"/>
       <c r="X238" s="40"/>
       <c r="Y238" s="40"/>
-      <c r="Z238" s="23"/>
-      <c r="AA238" s="23"/>
-      <c r="AB238" s="23"/>
-      <c r="AC238" s="23"/>
+      <c r="Z238" s="40"/>
+      <c r="AA238" s="40"/>
+      <c r="AB238" s="40"/>
+      <c r="AC238" s="40"/>
       <c r="AD238" s="40"/>
       <c r="AF238" s="40"/>
     </row>
@@ -23251,7 +23257,7 @@
       <c r="T240" s="23"/>
       <c r="U240" s="23"/>
       <c r="V240" s="23"/>
-      <c r="W240" s="23"/>
+      <c r="W240" s="40"/>
       <c r="X240" s="40"/>
       <c r="Y240" s="40"/>
       <c r="Z240" s="40"/>
@@ -23268,7 +23274,7 @@
       <c r="T241" s="23"/>
       <c r="U241" s="23"/>
       <c r="V241" s="23"/>
-      <c r="W241" s="40"/>
+      <c r="W241" s="23"/>
       <c r="X241" s="40"/>
       <c r="Y241" s="40"/>
       <c r="Z241" s="40"/>
@@ -23285,7 +23291,7 @@
       <c r="T242" s="23"/>
       <c r="U242" s="23"/>
       <c r="V242" s="23"/>
-      <c r="W242" s="23"/>
+      <c r="W242" s="40"/>
       <c r="X242" s="40"/>
       <c r="Y242" s="40"/>
       <c r="Z242" s="40"/>
@@ -23302,13 +23308,13 @@
       <c r="T243" s="23"/>
       <c r="U243" s="23"/>
       <c r="V243" s="23"/>
-      <c r="W243" s="40"/>
+      <c r="W243" s="23"/>
       <c r="X243" s="40"/>
       <c r="Y243" s="40"/>
-      <c r="Z243" s="40"/>
-      <c r="AA243" s="40"/>
-      <c r="AB243" s="40"/>
-      <c r="AC243" s="40"/>
+      <c r="Z243" s="23"/>
+      <c r="AA243" s="23"/>
+      <c r="AB243" s="23"/>
+      <c r="AC243" s="23"/>
       <c r="AD243" s="40"/>
       <c r="AF243" s="40"/>
     </row>
@@ -23330,24 +23336,24 @@
       <c r="AF244" s="40"/>
     </row>
     <row r="245" spans="16:32" s="21" customFormat="1">
+      <c r="P245" s="22"/>
       <c r="Q245" s="23"/>
       <c r="R245" s="23"/>
       <c r="S245" s="23"/>
       <c r="T245" s="23"/>
       <c r="U245" s="23"/>
       <c r="V245" s="23"/>
-      <c r="W245" s="23"/>
+      <c r="W245" s="40"/>
       <c r="X245" s="40"/>
       <c r="Y245" s="40"/>
-      <c r="Z245" s="23"/>
-      <c r="AA245" s="23"/>
-      <c r="AB245" s="23"/>
-      <c r="AC245" s="23"/>
+      <c r="Z245" s="40"/>
+      <c r="AA245" s="40"/>
+      <c r="AB245" s="40"/>
+      <c r="AC245" s="40"/>
       <c r="AD245" s="40"/>
       <c r="AF245" s="40"/>
     </row>
     <row r="246" spans="16:32" s="21" customFormat="1">
-      <c r="P246" s="22"/>
       <c r="Q246" s="23"/>
       <c r="R246" s="23"/>
       <c r="S246" s="23"/>
@@ -23371,35 +23377,35 @@
       <c r="T247" s="23"/>
       <c r="U247" s="23"/>
       <c r="V247" s="23"/>
-      <c r="W247" s="40"/>
+      <c r="W247" s="23"/>
       <c r="X247" s="40"/>
       <c r="Y247" s="40"/>
-      <c r="Z247" s="40"/>
-      <c r="AA247" s="40"/>
-      <c r="AB247" s="40"/>
-      <c r="AC247" s="40"/>
+      <c r="Z247" s="23"/>
+      <c r="AA247" s="23"/>
+      <c r="AB247" s="23"/>
+      <c r="AC247" s="23"/>
       <c r="AD247" s="40"/>
       <c r="AF247" s="40"/>
     </row>
     <row r="248" spans="16:32" s="21" customFormat="1">
+      <c r="P248" s="22"/>
       <c r="Q248" s="23"/>
       <c r="R248" s="23"/>
       <c r="S248" s="23"/>
       <c r="T248" s="23"/>
       <c r="U248" s="23"/>
       <c r="V248" s="23"/>
-      <c r="W248" s="23"/>
+      <c r="W248" s="40"/>
       <c r="X248" s="40"/>
       <c r="Y248" s="40"/>
-      <c r="Z248" s="23"/>
-      <c r="AA248" s="23"/>
-      <c r="AB248" s="23"/>
-      <c r="AC248" s="23"/>
+      <c r="Z248" s="40"/>
+      <c r="AA248" s="40"/>
+      <c r="AB248" s="40"/>
+      <c r="AC248" s="40"/>
       <c r="AD248" s="40"/>
       <c r="AF248" s="40"/>
     </row>
     <row r="249" spans="16:32" s="21" customFormat="1">
-      <c r="P249" s="22"/>
       <c r="Q249" s="23"/>
       <c r="R249" s="23"/>
       <c r="S249" s="23"/>
@@ -23423,30 +23429,31 @@
       <c r="T250" s="23"/>
       <c r="U250" s="23"/>
       <c r="V250" s="23"/>
-      <c r="W250" s="40"/>
+      <c r="W250" s="23"/>
       <c r="X250" s="40"/>
       <c r="Y250" s="40"/>
-      <c r="Z250" s="40"/>
-      <c r="AA250" s="40"/>
-      <c r="AB250" s="40"/>
-      <c r="AC250" s="40"/>
+      <c r="Z250" s="23"/>
+      <c r="AA250" s="23"/>
+      <c r="AB250" s="23"/>
+      <c r="AC250" s="23"/>
       <c r="AD250" s="40"/>
       <c r="AF250" s="40"/>
     </row>
     <row r="251" spans="16:32" s="21" customFormat="1">
+      <c r="P251" s="22"/>
       <c r="Q251" s="23"/>
       <c r="R251" s="23"/>
       <c r="S251" s="23"/>
       <c r="T251" s="23"/>
       <c r="U251" s="23"/>
       <c r="V251" s="23"/>
-      <c r="W251" s="23"/>
+      <c r="W251" s="40"/>
       <c r="X251" s="40"/>
       <c r="Y251" s="40"/>
-      <c r="Z251" s="23"/>
-      <c r="AA251" s="23"/>
-      <c r="AB251" s="23"/>
-      <c r="AC251" s="23"/>
+      <c r="Z251" s="40"/>
+      <c r="AA251" s="40"/>
+      <c r="AB251" s="40"/>
+      <c r="AC251" s="40"/>
       <c r="AD251" s="40"/>
       <c r="AF251" s="40"/>
     </row>
@@ -23469,7 +23476,6 @@
       <c r="AF252" s="40"/>
     </row>
     <row r="253" spans="16:32" s="21" customFormat="1">
-      <c r="P253" s="22"/>
       <c r="Q253" s="23"/>
       <c r="R253" s="23"/>
       <c r="S253" s="23"/>
@@ -23493,48 +23499,48 @@
       <c r="T254" s="23"/>
       <c r="U254" s="23"/>
       <c r="V254" s="23"/>
-      <c r="W254" s="40"/>
+      <c r="W254" s="23"/>
       <c r="X254" s="40"/>
       <c r="Y254" s="40"/>
-      <c r="Z254" s="40"/>
-      <c r="AA254" s="40"/>
-      <c r="AB254" s="40"/>
-      <c r="AC254" s="40"/>
+      <c r="Z254" s="23"/>
+      <c r="AA254" s="23"/>
+      <c r="AB254" s="23"/>
+      <c r="AC254" s="23"/>
       <c r="AD254" s="40"/>
       <c r="AF254" s="40"/>
     </row>
     <row r="255" spans="16:32" s="21" customFormat="1">
+      <c r="P255" s="22"/>
       <c r="Q255" s="23"/>
       <c r="R255" s="23"/>
       <c r="S255" s="23"/>
       <c r="T255" s="23"/>
       <c r="U255" s="23"/>
       <c r="V255" s="23"/>
-      <c r="W255" s="23"/>
+      <c r="W255" s="40"/>
       <c r="X255" s="40"/>
       <c r="Y255" s="40"/>
-      <c r="Z255" s="23"/>
-      <c r="AA255" s="23"/>
-      <c r="AB255" s="23"/>
-      <c r="AC255" s="23"/>
+      <c r="Z255" s="40"/>
+      <c r="AA255" s="40"/>
+      <c r="AB255" s="40"/>
+      <c r="AC255" s="40"/>
       <c r="AD255" s="40"/>
       <c r="AF255" s="40"/>
     </row>
     <row r="256" spans="16:32" s="21" customFormat="1">
-      <c r="P256" s="22"/>
       <c r="Q256" s="23"/>
       <c r="R256" s="23"/>
       <c r="S256" s="23"/>
       <c r="T256" s="23"/>
       <c r="U256" s="23"/>
       <c r="V256" s="23"/>
-      <c r="W256" s="40"/>
+      <c r="W256" s="23"/>
       <c r="X256" s="40"/>
       <c r="Y256" s="40"/>
-      <c r="Z256" s="40"/>
-      <c r="AA256" s="40"/>
-      <c r="AB256" s="40"/>
-      <c r="AC256" s="40"/>
+      <c r="Z256" s="23"/>
+      <c r="AA256" s="23"/>
+      <c r="AB256" s="23"/>
+      <c r="AC256" s="23"/>
       <c r="AD256" s="40"/>
       <c r="AF256" s="40"/>
     </row>
@@ -23548,10 +23554,10 @@
       <c r="W257" s="23"/>
       <c r="X257" s="40"/>
       <c r="Y257" s="40"/>
-      <c r="Z257" s="23"/>
-      <c r="AA257" s="23"/>
-      <c r="AB257" s="23"/>
-      <c r="AC257" s="23"/>
+      <c r="Z257" s="40"/>
+      <c r="AA257" s="40"/>
+      <c r="AB257" s="40"/>
+      <c r="AC257" s="40"/>
       <c r="AD257" s="40"/>
       <c r="AF257" s="40"/>
     </row>
@@ -23613,7 +23619,7 @@
       <c r="T261" s="23"/>
       <c r="U261" s="23"/>
       <c r="V261" s="23"/>
-      <c r="W261" s="23"/>
+      <c r="W261" s="40"/>
       <c r="X261" s="40"/>
       <c r="Y261" s="40"/>
       <c r="Z261" s="40"/>
@@ -23630,7 +23636,7 @@
       <c r="T262" s="23"/>
       <c r="U262" s="23"/>
       <c r="V262" s="23"/>
-      <c r="W262" s="40"/>
+      <c r="W262" s="23"/>
       <c r="X262" s="40"/>
       <c r="Y262" s="40"/>
       <c r="Z262" s="40"/>
@@ -23647,7 +23653,7 @@
       <c r="T263" s="23"/>
       <c r="U263" s="23"/>
       <c r="V263" s="23"/>
-      <c r="W263" s="23"/>
+      <c r="W263" s="40"/>
       <c r="X263" s="40"/>
       <c r="Y263" s="40"/>
       <c r="Z263" s="40"/>
@@ -23664,13 +23670,13 @@
       <c r="T264" s="23"/>
       <c r="U264" s="23"/>
       <c r="V264" s="23"/>
-      <c r="W264" s="40"/>
+      <c r="W264" s="23"/>
       <c r="X264" s="40"/>
       <c r="Y264" s="40"/>
-      <c r="Z264" s="40"/>
-      <c r="AA264" s="40"/>
-      <c r="AB264" s="40"/>
-      <c r="AC264" s="40"/>
+      <c r="Z264" s="23"/>
+      <c r="AA264" s="23"/>
+      <c r="AB264" s="23"/>
+      <c r="AC264" s="23"/>
       <c r="AD264" s="40"/>
       <c r="AF264" s="40"/>
     </row>
@@ -23684,10 +23690,10 @@
       <c r="W265" s="23"/>
       <c r="X265" s="40"/>
       <c r="Y265" s="40"/>
-      <c r="Z265" s="23"/>
-      <c r="AA265" s="23"/>
-      <c r="AB265" s="23"/>
-      <c r="AC265" s="23"/>
+      <c r="Z265" s="40"/>
+      <c r="AA265" s="40"/>
+      <c r="AB265" s="40"/>
+      <c r="AC265" s="40"/>
       <c r="AD265" s="40"/>
       <c r="AF265" s="40"/>
     </row>
@@ -23752,39 +23758,39 @@
       <c r="W269" s="23"/>
       <c r="X269" s="40"/>
       <c r="Y269" s="40"/>
-      <c r="Z269" s="40"/>
-      <c r="AA269" s="40"/>
-      <c r="AB269" s="40"/>
-      <c r="AC269" s="40"/>
+      <c r="Z269" s="23"/>
+      <c r="AA269" s="23"/>
+      <c r="AB269" s="23"/>
+      <c r="AC269" s="23"/>
       <c r="AD269" s="40"/>
       <c r="AF269" s="40"/>
     </row>
     <row r="270" spans="16:32" s="21" customFormat="1">
+      <c r="P270" s="22"/>
       <c r="Q270" s="23"/>
       <c r="R270" s="23"/>
       <c r="S270" s="23"/>
       <c r="T270" s="23"/>
       <c r="U270" s="23"/>
       <c r="V270" s="23"/>
-      <c r="W270" s="23"/>
+      <c r="W270" s="40"/>
       <c r="X270" s="40"/>
       <c r="Y270" s="40"/>
-      <c r="Z270" s="23"/>
-      <c r="AA270" s="23"/>
-      <c r="AB270" s="23"/>
-      <c r="AC270" s="23"/>
+      <c r="Z270" s="40"/>
+      <c r="AA270" s="40"/>
+      <c r="AB270" s="40"/>
+      <c r="AC270" s="40"/>
       <c r="AD270" s="40"/>
       <c r="AF270" s="40"/>
     </row>
     <row r="271" spans="16:32" s="21" customFormat="1">
-      <c r="P271" s="22"/>
       <c r="Q271" s="23"/>
       <c r="R271" s="23"/>
       <c r="S271" s="23"/>
       <c r="T271" s="23"/>
       <c r="U271" s="23"/>
       <c r="V271" s="23"/>
-      <c r="W271" s="40"/>
+      <c r="W271" s="23"/>
       <c r="X271" s="40"/>
       <c r="Y271" s="40"/>
       <c r="Z271" s="40"/>
@@ -23821,32 +23827,32 @@
       <c r="W273" s="23"/>
       <c r="X273" s="40"/>
       <c r="Y273" s="40"/>
-      <c r="Z273" s="40"/>
-      <c r="AA273" s="40"/>
-      <c r="AB273" s="40"/>
-      <c r="AC273" s="40"/>
+      <c r="Z273" s="23"/>
+      <c r="AA273" s="23"/>
+      <c r="AB273" s="23"/>
+      <c r="AC273" s="23"/>
       <c r="AD273" s="40"/>
       <c r="AF273" s="40"/>
     </row>
     <row r="274" spans="16:32" s="21" customFormat="1">
+      <c r="P274" s="22"/>
       <c r="Q274" s="23"/>
       <c r="R274" s="23"/>
       <c r="S274" s="23"/>
       <c r="T274" s="23"/>
       <c r="U274" s="23"/>
       <c r="V274" s="23"/>
-      <c r="W274" s="23"/>
+      <c r="W274" s="40"/>
       <c r="X274" s="40"/>
       <c r="Y274" s="40"/>
-      <c r="Z274" s="23"/>
-      <c r="AA274" s="23"/>
-      <c r="AB274" s="23"/>
-      <c r="AC274" s="23"/>
+      <c r="Z274" s="40"/>
+      <c r="AA274" s="40"/>
+      <c r="AB274" s="40"/>
+      <c r="AC274" s="40"/>
       <c r="AD274" s="40"/>
       <c r="AF274" s="40"/>
     </row>
     <row r="275" spans="16:32" s="21" customFormat="1">
-      <c r="P275" s="22"/>
       <c r="Q275" s="23"/>
       <c r="R275" s="23"/>
       <c r="S275" s="23"/>
@@ -23863,13 +23869,13 @@
       <c r="AD275" s="40"/>
       <c r="AF275" s="40"/>
     </row>
-    <row r="276" spans="16:32" s="21" customFormat="1">
-      <c r="Q276" s="23"/>
-      <c r="R276" s="23"/>
-      <c r="S276" s="23"/>
-      <c r="T276" s="23"/>
-      <c r="U276" s="23"/>
-      <c r="V276" s="23"/>
+    <row r="276" spans="16:32">
+      <c r="Q276" s="40"/>
+      <c r="R276" s="40"/>
+      <c r="S276" s="40"/>
+      <c r="T276" s="40"/>
+      <c r="U276" s="40"/>
+      <c r="V276" s="40"/>
       <c r="W276" s="40"/>
       <c r="X276" s="40"/>
       <c r="Y276" s="40"/>
@@ -23880,13 +23886,13 @@
       <c r="AD276" s="40"/>
       <c r="AF276" s="40"/>
     </row>
-    <row r="277" spans="16:32">
-      <c r="Q277" s="40"/>
-      <c r="R277" s="40"/>
-      <c r="S277" s="40"/>
-      <c r="T277" s="40"/>
-      <c r="U277" s="40"/>
-      <c r="V277" s="40"/>
+    <row r="277" spans="16:32" s="21" customFormat="1">
+      <c r="Q277" s="23"/>
+      <c r="R277" s="23"/>
+      <c r="S277" s="23"/>
+      <c r="T277" s="23"/>
+      <c r="U277" s="23"/>
+      <c r="V277" s="23"/>
       <c r="W277" s="40"/>
       <c r="X277" s="40"/>
       <c r="Y277" s="40"/>
@@ -23904,13 +23910,13 @@
       <c r="T278" s="23"/>
       <c r="U278" s="23"/>
       <c r="V278" s="23"/>
-      <c r="W278" s="40"/>
+      <c r="W278" s="23"/>
       <c r="X278" s="40"/>
       <c r="Y278" s="40"/>
-      <c r="Z278" s="40"/>
-      <c r="AA278" s="40"/>
-      <c r="AB278" s="40"/>
-      <c r="AC278" s="40"/>
+      <c r="Z278" s="23"/>
+      <c r="AA278" s="23"/>
+      <c r="AB278" s="23"/>
+      <c r="AC278" s="23"/>
       <c r="AD278" s="40"/>
       <c r="AF278" s="40"/>
     </row>
@@ -23924,21 +23930,22 @@
       <c r="W279" s="23"/>
       <c r="X279" s="40"/>
       <c r="Y279" s="40"/>
-      <c r="Z279" s="23"/>
-      <c r="AA279" s="23"/>
-      <c r="AB279" s="23"/>
-      <c r="AC279" s="23"/>
+      <c r="Z279" s="40"/>
+      <c r="AA279" s="40"/>
+      <c r="AB279" s="40"/>
+      <c r="AC279" s="40"/>
       <c r="AD279" s="40"/>
       <c r="AF279" s="40"/>
     </row>
     <row r="280" spans="16:32" s="21" customFormat="1">
+      <c r="P280" s="22"/>
       <c r="Q280" s="23"/>
       <c r="R280" s="23"/>
       <c r="S280" s="23"/>
       <c r="T280" s="23"/>
       <c r="U280" s="23"/>
       <c r="V280" s="23"/>
-      <c r="W280" s="23"/>
+      <c r="W280" s="40"/>
       <c r="X280" s="40"/>
       <c r="Y280" s="40"/>
       <c r="Z280" s="40"/>
@@ -23949,20 +23956,19 @@
       <c r="AF280" s="40"/>
     </row>
     <row r="281" spans="16:32" s="21" customFormat="1">
-      <c r="P281" s="22"/>
       <c r="Q281" s="23"/>
       <c r="R281" s="23"/>
       <c r="S281" s="23"/>
       <c r="T281" s="23"/>
       <c r="U281" s="23"/>
       <c r="V281" s="23"/>
-      <c r="W281" s="40"/>
+      <c r="W281" s="23"/>
       <c r="X281" s="40"/>
       <c r="Y281" s="40"/>
-      <c r="Z281" s="40"/>
-      <c r="AA281" s="40"/>
-      <c r="AB281" s="40"/>
-      <c r="AC281" s="40"/>
+      <c r="Z281" s="23"/>
+      <c r="AA281" s="23"/>
+      <c r="AB281" s="23"/>
+      <c r="AC281" s="23"/>
       <c r="AD281" s="40"/>
       <c r="AF281" s="40"/>
     </row>
@@ -23984,24 +23990,24 @@
       <c r="AF282" s="40"/>
     </row>
     <row r="283" spans="16:32" s="21" customFormat="1">
+      <c r="P283" s="22"/>
       <c r="Q283" s="23"/>
       <c r="R283" s="23"/>
       <c r="S283" s="23"/>
       <c r="T283" s="23"/>
       <c r="U283" s="23"/>
       <c r="V283" s="23"/>
-      <c r="W283" s="23"/>
+      <c r="W283" s="40"/>
       <c r="X283" s="40"/>
       <c r="Y283" s="40"/>
-      <c r="Z283" s="23"/>
-      <c r="AA283" s="23"/>
-      <c r="AB283" s="23"/>
-      <c r="AC283" s="23"/>
+      <c r="Z283" s="40"/>
+      <c r="AA283" s="40"/>
+      <c r="AB283" s="40"/>
+      <c r="AC283" s="40"/>
       <c r="AD283" s="40"/>
       <c r="AF283" s="40"/>
     </row>
     <row r="284" spans="16:32" s="21" customFormat="1">
-      <c r="P284" s="22"/>
       <c r="Q284" s="23"/>
       <c r="R284" s="23"/>
       <c r="S284" s="23"/>
@@ -24042,7 +24048,7 @@
       <c r="T286" s="23"/>
       <c r="U286" s="23"/>
       <c r="V286" s="23"/>
-      <c r="W286" s="40"/>
+      <c r="W286" s="23"/>
       <c r="X286" s="40"/>
       <c r="Y286" s="40"/>
       <c r="Z286" s="40"/>
@@ -24076,7 +24082,7 @@
       <c r="T288" s="23"/>
       <c r="U288" s="23"/>
       <c r="V288" s="23"/>
-      <c r="W288" s="23"/>
+      <c r="W288" s="40"/>
       <c r="X288" s="40"/>
       <c r="Y288" s="40"/>
       <c r="Z288" s="40"/>
@@ -24093,7 +24099,7 @@
       <c r="T289" s="23"/>
       <c r="U289" s="23"/>
       <c r="V289" s="23"/>
-      <c r="W289" s="40"/>
+      <c r="W289" s="23"/>
       <c r="X289" s="40"/>
       <c r="Y289" s="40"/>
       <c r="Z289" s="40"/>
@@ -24110,7 +24116,7 @@
       <c r="T290" s="23"/>
       <c r="U290" s="23"/>
       <c r="V290" s="23"/>
-      <c r="W290" s="23"/>
+      <c r="W290" s="40"/>
       <c r="X290" s="40"/>
       <c r="Y290" s="40"/>
       <c r="Z290" s="40"/>
@@ -24127,35 +24133,35 @@
       <c r="T291" s="23"/>
       <c r="U291" s="23"/>
       <c r="V291" s="23"/>
-      <c r="W291" s="40"/>
+      <c r="W291" s="23"/>
       <c r="X291" s="40"/>
       <c r="Y291" s="40"/>
-      <c r="Z291" s="40"/>
-      <c r="AA291" s="40"/>
-      <c r="AB291" s="40"/>
-      <c r="AC291" s="40"/>
+      <c r="Z291" s="23"/>
+      <c r="AA291" s="23"/>
+      <c r="AB291" s="23"/>
+      <c r="AC291" s="23"/>
       <c r="AD291" s="40"/>
       <c r="AF291" s="40"/>
     </row>
     <row r="292" spans="16:32" s="21" customFormat="1">
+      <c r="P292" s="22"/>
       <c r="Q292" s="23"/>
       <c r="R292" s="23"/>
       <c r="S292" s="23"/>
       <c r="T292" s="23"/>
       <c r="U292" s="23"/>
       <c r="V292" s="23"/>
-      <c r="W292" s="23"/>
+      <c r="W292" s="40"/>
       <c r="X292" s="40"/>
       <c r="Y292" s="40"/>
-      <c r="Z292" s="23"/>
-      <c r="AA292" s="23"/>
-      <c r="AB292" s="23"/>
-      <c r="AC292" s="23"/>
+      <c r="Z292" s="40"/>
+      <c r="AA292" s="40"/>
+      <c r="AB292" s="40"/>
+      <c r="AC292" s="40"/>
       <c r="AD292" s="40"/>
       <c r="AF292" s="40"/>
     </row>
     <row r="293" spans="16:32" s="21" customFormat="1">
-      <c r="P293" s="22"/>
       <c r="Q293" s="23"/>
       <c r="R293" s="23"/>
       <c r="S293" s="23"/>
@@ -24179,13 +24185,13 @@
       <c r="T294" s="23"/>
       <c r="U294" s="23"/>
       <c r="V294" s="23"/>
-      <c r="W294" s="40"/>
+      <c r="W294" s="23"/>
       <c r="X294" s="40"/>
       <c r="Y294" s="40"/>
-      <c r="Z294" s="40"/>
-      <c r="AA294" s="40"/>
-      <c r="AB294" s="40"/>
-      <c r="AC294" s="40"/>
+      <c r="Z294" s="23"/>
+      <c r="AA294" s="23"/>
+      <c r="AB294" s="23"/>
+      <c r="AC294" s="23"/>
       <c r="AD294" s="40"/>
       <c r="AF294" s="40"/>
     </row>
@@ -24199,10 +24205,10 @@
       <c r="W295" s="23"/>
       <c r="X295" s="40"/>
       <c r="Y295" s="40"/>
-      <c r="Z295" s="23"/>
-      <c r="AA295" s="23"/>
-      <c r="AB295" s="23"/>
-      <c r="AC295" s="23"/>
+      <c r="Z295" s="40"/>
+      <c r="AA295" s="40"/>
+      <c r="AB295" s="40"/>
+      <c r="AC295" s="40"/>
       <c r="AD295" s="40"/>
       <c r="AF295" s="40"/>
     </row>
@@ -24213,7 +24219,7 @@
       <c r="T296" s="23"/>
       <c r="U296" s="23"/>
       <c r="V296" s="23"/>
-      <c r="W296" s="23"/>
+      <c r="W296" s="40"/>
       <c r="X296" s="40"/>
       <c r="Y296" s="40"/>
       <c r="Z296" s="40"/>
@@ -24230,7 +24236,7 @@
       <c r="T297" s="23"/>
       <c r="U297" s="23"/>
       <c r="V297" s="23"/>
-      <c r="W297" s="40"/>
+      <c r="W297" s="23"/>
       <c r="X297" s="40"/>
       <c r="Y297" s="40"/>
       <c r="Z297" s="40"/>
@@ -24254,8 +24260,6 @@
       <c r="AA298" s="40"/>
       <c r="AB298" s="40"/>
       <c r="AC298" s="40"/>
-      <c r="AD298" s="40"/>
-      <c r="AF298" s="40"/>
     </row>
     <row r="299" spans="16:32" s="21" customFormat="1">
       <c r="Q299" s="23"/>
@@ -24279,7 +24283,7 @@
       <c r="T300" s="23"/>
       <c r="U300" s="23"/>
       <c r="V300" s="23"/>
-      <c r="W300" s="23"/>
+      <c r="W300" s="40"/>
       <c r="X300" s="40"/>
       <c r="Y300" s="40"/>
       <c r="Z300" s="40"/>
@@ -24294,7 +24298,7 @@
       <c r="T301" s="23"/>
       <c r="U301" s="23"/>
       <c r="V301" s="23"/>
-      <c r="W301" s="40"/>
+      <c r="W301" s="23"/>
       <c r="X301" s="40"/>
       <c r="Y301" s="40"/>
       <c r="Z301" s="40"/>
@@ -24303,13 +24307,14 @@
       <c r="AC301" s="40"/>
     </row>
     <row r="302" spans="16:32" s="21" customFormat="1">
+      <c r="P302" s="22"/>
       <c r="Q302" s="23"/>
       <c r="R302" s="23"/>
       <c r="S302" s="23"/>
       <c r="T302" s="23"/>
       <c r="U302" s="23"/>
       <c r="V302" s="23"/>
-      <c r="W302" s="23"/>
+      <c r="W302" s="40"/>
       <c r="X302" s="40"/>
       <c r="Y302" s="40"/>
       <c r="Z302" s="40"/>
@@ -24318,20 +24323,19 @@
       <c r="AC302" s="40"/>
     </row>
     <row r="303" spans="16:32" s="21" customFormat="1">
-      <c r="P303" s="22"/>
       <c r="Q303" s="23"/>
       <c r="R303" s="23"/>
       <c r="S303" s="23"/>
       <c r="T303" s="23"/>
       <c r="U303" s="23"/>
       <c r="V303" s="23"/>
-      <c r="W303" s="40"/>
+      <c r="W303" s="23"/>
       <c r="X303" s="40"/>
       <c r="Y303" s="40"/>
-      <c r="Z303" s="40"/>
-      <c r="AA303" s="40"/>
-      <c r="AB303" s="40"/>
-      <c r="AC303" s="40"/>
+      <c r="Z303" s="23"/>
+      <c r="AA303" s="23"/>
+      <c r="AB303" s="23"/>
+      <c r="AC303" s="23"/>
     </row>
     <row r="304" spans="16:32" s="21" customFormat="1">
       <c r="Q304" s="23"/>
@@ -24343,10 +24347,10 @@
       <c r="W304" s="23"/>
       <c r="X304" s="40"/>
       <c r="Y304" s="40"/>
-      <c r="Z304" s="23"/>
-      <c r="AA304" s="23"/>
-      <c r="AB304" s="23"/>
-      <c r="AC304" s="23"/>
+      <c r="Z304" s="40"/>
+      <c r="AA304" s="40"/>
+      <c r="AB304" s="40"/>
+      <c r="AC304" s="40"/>
     </row>
     <row r="305" spans="16:29" s="21" customFormat="1">
       <c r="Q305" s="23"/>
@@ -24400,7 +24404,7 @@
       <c r="T308" s="23"/>
       <c r="U308" s="23"/>
       <c r="V308" s="23"/>
-      <c r="W308" s="23"/>
+      <c r="W308" s="40"/>
       <c r="X308" s="40"/>
       <c r="Y308" s="40"/>
       <c r="Z308" s="40"/>
@@ -24415,7 +24419,7 @@
       <c r="T309" s="23"/>
       <c r="U309" s="23"/>
       <c r="V309" s="23"/>
-      <c r="W309" s="40"/>
+      <c r="W309" s="23"/>
       <c r="X309" s="40"/>
       <c r="Y309" s="40"/>
       <c r="Z309" s="40"/>
@@ -24430,7 +24434,7 @@
       <c r="T310" s="23"/>
       <c r="U310" s="23"/>
       <c r="V310" s="23"/>
-      <c r="W310" s="23"/>
+      <c r="W310" s="40"/>
       <c r="X310" s="40"/>
       <c r="Y310" s="40"/>
       <c r="Z310" s="40"/>
@@ -24445,31 +24449,31 @@
       <c r="T311" s="23"/>
       <c r="U311" s="23"/>
       <c r="V311" s="23"/>
-      <c r="W311" s="40"/>
+      <c r="W311" s="23"/>
       <c r="X311" s="40"/>
       <c r="Y311" s="40"/>
-      <c r="Z311" s="40"/>
-      <c r="AA311" s="40"/>
-      <c r="AB311" s="40"/>
-      <c r="AC311" s="40"/>
+      <c r="Z311" s="23"/>
+      <c r="AA311" s="23"/>
+      <c r="AB311" s="23"/>
+      <c r="AC311" s="23"/>
     </row>
     <row r="312" spans="16:29" s="21" customFormat="1">
+      <c r="P312" s="22"/>
       <c r="Q312" s="23"/>
       <c r="R312" s="23"/>
       <c r="S312" s="23"/>
       <c r="T312" s="23"/>
       <c r="U312" s="23"/>
       <c r="V312" s="23"/>
-      <c r="W312" s="23"/>
+      <c r="W312" s="40"/>
       <c r="X312" s="40"/>
       <c r="Y312" s="40"/>
-      <c r="Z312" s="23"/>
-      <c r="AA312" s="23"/>
-      <c r="AB312" s="23"/>
-      <c r="AC312" s="23"/>
+      <c r="Z312" s="40"/>
+      <c r="AA312" s="40"/>
+      <c r="AB312" s="40"/>
+      <c r="AC312" s="40"/>
     </row>
     <row r="313" spans="16:29" s="21" customFormat="1">
-      <c r="P313" s="22"/>
       <c r="Q313" s="23"/>
       <c r="R313" s="23"/>
       <c r="S313" s="23"/>
@@ -24491,13 +24495,13 @@
       <c r="T314" s="23"/>
       <c r="U314" s="23"/>
       <c r="V314" s="23"/>
-      <c r="W314" s="40"/>
+      <c r="W314" s="23"/>
       <c r="X314" s="40"/>
       <c r="Y314" s="40"/>
-      <c r="Z314" s="40"/>
-      <c r="AA314" s="40"/>
-      <c r="AB314" s="40"/>
-      <c r="AC314" s="40"/>
+      <c r="Z314" s="23"/>
+      <c r="AA314" s="23"/>
+      <c r="AB314" s="23"/>
+      <c r="AC314" s="23"/>
     </row>
     <row r="315" spans="16:29" s="21" customFormat="1">
       <c r="Q315" s="23"/>
@@ -24509,10 +24513,10 @@
       <c r="W315" s="23"/>
       <c r="X315" s="40"/>
       <c r="Y315" s="40"/>
-      <c r="Z315" s="23"/>
-      <c r="AA315" s="23"/>
-      <c r="AB315" s="23"/>
-      <c r="AC315" s="23"/>
+      <c r="Z315" s="40"/>
+      <c r="AA315" s="40"/>
+      <c r="AB315" s="40"/>
+      <c r="AC315" s="40"/>
     </row>
     <row r="316" spans="16:29" s="21" customFormat="1">
       <c r="Q316" s="23"/>
@@ -24521,7 +24525,7 @@
       <c r="T316" s="23"/>
       <c r="U316" s="23"/>
       <c r="V316" s="23"/>
-      <c r="W316" s="23"/>
+      <c r="W316" s="40"/>
       <c r="X316" s="40"/>
       <c r="Y316" s="40"/>
       <c r="Z316" s="40"/>
@@ -24536,7 +24540,7 @@
       <c r="T317" s="23"/>
       <c r="U317" s="23"/>
       <c r="V317" s="23"/>
-      <c r="W317" s="40"/>
+      <c r="W317" s="23"/>
       <c r="X317" s="40"/>
       <c r="Y317" s="40"/>
       <c r="Z317" s="40"/>
@@ -24551,7 +24555,7 @@
       <c r="T318" s="23"/>
       <c r="U318" s="23"/>
       <c r="V318" s="23"/>
-      <c r="W318" s="23"/>
+      <c r="W318" s="40"/>
       <c r="X318" s="40"/>
       <c r="Y318" s="40"/>
       <c r="Z318" s="40"/>
@@ -24560,6 +24564,7 @@
       <c r="AC318" s="40"/>
     </row>
     <row r="319" spans="16:29" s="21" customFormat="1">
+      <c r="P319" s="22"/>
       <c r="Q319" s="23"/>
       <c r="R319" s="23"/>
       <c r="S319" s="23"/>
@@ -24575,7 +24580,6 @@
       <c r="AC319" s="40"/>
     </row>
     <row r="320" spans="16:29" s="21" customFormat="1">
-      <c r="P320" s="22"/>
       <c r="Q320" s="23"/>
       <c r="R320" s="23"/>
       <c r="S320" s="23"/>
@@ -24612,7 +24616,7 @@
       <c r="T322" s="23"/>
       <c r="U322" s="23"/>
       <c r="V322" s="23"/>
-      <c r="W322" s="40"/>
+      <c r="W322" s="23"/>
       <c r="X322" s="40"/>
       <c r="Y322" s="40"/>
       <c r="Z322" s="40"/>
@@ -24666,13 +24670,13 @@
       <c r="AC325" s="40"/>
     </row>
     <row r="326" spans="16:29" s="21" customFormat="1">
-      <c r="Q326" s="23"/>
-      <c r="R326" s="23"/>
-      <c r="S326" s="23"/>
-      <c r="T326" s="23"/>
-      <c r="U326" s="23"/>
-      <c r="V326" s="23"/>
-      <c r="W326" s="23"/>
+      <c r="Q326" s="40"/>
+      <c r="R326" s="40"/>
+      <c r="S326" s="40"/>
+      <c r="T326" s="40"/>
+      <c r="U326" s="40"/>
+      <c r="V326" s="40"/>
+      <c r="W326" s="40"/>
       <c r="X326" s="40"/>
       <c r="Y326" s="40"/>
       <c r="Z326" s="40"/>
@@ -24681,13 +24685,13 @@
       <c r="AC326" s="40"/>
     </row>
     <row r="327" spans="16:29" s="21" customFormat="1">
-      <c r="Q327" s="40"/>
-      <c r="R327" s="40"/>
-      <c r="S327" s="40"/>
-      <c r="T327" s="40"/>
-      <c r="U327" s="40"/>
-      <c r="V327" s="40"/>
-      <c r="W327" s="40"/>
+      <c r="Q327" s="23"/>
+      <c r="R327" s="23"/>
+      <c r="S327" s="23"/>
+      <c r="T327" s="23"/>
+      <c r="U327" s="23"/>
+      <c r="V327" s="23"/>
+      <c r="W327" s="23"/>
       <c r="X327" s="40"/>
       <c r="Y327" s="40"/>
       <c r="Z327" s="40"/>
@@ -24696,13 +24700,13 @@
       <c r="AC327" s="40"/>
     </row>
     <row r="328" spans="16:29" s="21" customFormat="1">
-      <c r="Q328" s="23"/>
-      <c r="R328" s="23"/>
-      <c r="S328" s="23"/>
-      <c r="T328" s="23"/>
-      <c r="U328" s="23"/>
-      <c r="V328" s="23"/>
-      <c r="W328" s="23"/>
+      <c r="Q328" s="40"/>
+      <c r="R328" s="40"/>
+      <c r="S328" s="40"/>
+      <c r="T328" s="40"/>
+      <c r="U328" s="40"/>
+      <c r="V328" s="40"/>
+      <c r="W328" s="40"/>
       <c r="X328" s="40"/>
       <c r="Y328" s="40"/>
       <c r="Z328" s="40"/>
@@ -24711,12 +24715,12 @@
       <c r="AC328" s="40"/>
     </row>
     <row r="329" spans="16:29" s="21" customFormat="1">
-      <c r="Q329" s="40"/>
-      <c r="R329" s="40"/>
-      <c r="S329" s="40"/>
-      <c r="T329" s="40"/>
-      <c r="U329" s="40"/>
-      <c r="V329" s="40"/>
+      <c r="Q329" s="23"/>
+      <c r="R329" s="23"/>
+      <c r="S329" s="23"/>
+      <c r="T329" s="23"/>
+      <c r="U329" s="23"/>
+      <c r="V329" s="23"/>
       <c r="W329" s="40"/>
       <c r="X329" s="40"/>
       <c r="Y329" s="40"/>
@@ -24732,13 +24736,13 @@
       <c r="T330" s="23"/>
       <c r="U330" s="23"/>
       <c r="V330" s="23"/>
-      <c r="W330" s="40"/>
+      <c r="W330" s="23"/>
       <c r="X330" s="40"/>
       <c r="Y330" s="40"/>
-      <c r="Z330" s="40"/>
-      <c r="AA330" s="40"/>
-      <c r="AB330" s="40"/>
-      <c r="AC330" s="40"/>
+      <c r="Z330" s="23"/>
+      <c r="AA330" s="23"/>
+      <c r="AB330" s="23"/>
+      <c r="AC330" s="23"/>
     </row>
     <row r="331" spans="16:29" s="21" customFormat="1">
       <c r="Q331" s="23"/>
@@ -24750,10 +24754,10 @@
       <c r="W331" s="23"/>
       <c r="X331" s="40"/>
       <c r="Y331" s="40"/>
-      <c r="Z331" s="23"/>
-      <c r="AA331" s="23"/>
-      <c r="AB331" s="23"/>
-      <c r="AC331" s="23"/>
+      <c r="Z331" s="40"/>
+      <c r="AA331" s="40"/>
+      <c r="AB331" s="40"/>
+      <c r="AC331" s="40"/>
     </row>
     <row r="332" spans="16:29" s="21" customFormat="1">
       <c r="Q332" s="23"/>
@@ -24762,7 +24766,7 @@
       <c r="T332" s="23"/>
       <c r="U332" s="23"/>
       <c r="V332" s="23"/>
-      <c r="W332" s="23"/>
+      <c r="W332" s="40"/>
       <c r="X332" s="40"/>
       <c r="Y332" s="40"/>
       <c r="Z332" s="40"/>
@@ -24771,13 +24775,14 @@
       <c r="AC332" s="40"/>
     </row>
     <row r="333" spans="16:29" s="21" customFormat="1">
+      <c r="P333" s="22"/>
       <c r="Q333" s="23"/>
       <c r="R333" s="23"/>
       <c r="S333" s="23"/>
       <c r="T333" s="23"/>
       <c r="U333" s="23"/>
       <c r="V333" s="23"/>
-      <c r="W333" s="40"/>
+      <c r="W333" s="23"/>
       <c r="X333" s="40"/>
       <c r="Y333" s="40"/>
       <c r="Z333" s="40"/>
@@ -24793,7 +24798,7 @@
       <c r="T334" s="23"/>
       <c r="U334" s="23"/>
       <c r="V334" s="23"/>
-      <c r="W334" s="23"/>
+      <c r="W334" s="40"/>
       <c r="X334" s="40"/>
       <c r="Y334" s="40"/>
       <c r="Z334" s="40"/>
@@ -24818,20 +24823,19 @@
       <c r="AC335" s="40"/>
     </row>
     <row r="336" spans="16:29" s="21" customFormat="1">
-      <c r="P336" s="22"/>
       <c r="Q336" s="23"/>
       <c r="R336" s="23"/>
       <c r="S336" s="23"/>
       <c r="T336" s="23"/>
       <c r="U336" s="23"/>
       <c r="V336" s="23"/>
-      <c r="W336" s="40"/>
+      <c r="W336" s="23"/>
       <c r="X336" s="40"/>
       <c r="Y336" s="40"/>
-      <c r="Z336" s="40"/>
-      <c r="AA336" s="40"/>
-      <c r="AB336" s="40"/>
-      <c r="AC336" s="40"/>
+      <c r="Z336" s="23"/>
+      <c r="AA336" s="23"/>
+      <c r="AB336" s="23"/>
+      <c r="AC336" s="23"/>
     </row>
     <row r="337" spans="17:29" s="21" customFormat="1">
       <c r="Q337" s="23"/>
@@ -24843,10 +24847,10 @@
       <c r="W337" s="23"/>
       <c r="X337" s="40"/>
       <c r="Y337" s="40"/>
-      <c r="Z337" s="23"/>
-      <c r="AA337" s="23"/>
-      <c r="AB337" s="23"/>
-      <c r="AC337" s="23"/>
+      <c r="Z337" s="40"/>
+      <c r="AA337" s="40"/>
+      <c r="AB337" s="40"/>
+      <c r="AC337" s="40"/>
     </row>
     <row r="338" spans="17:29" s="21" customFormat="1">
       <c r="Q338" s="23"/>
@@ -24885,7 +24889,7 @@
       <c r="T340" s="23"/>
       <c r="U340" s="23"/>
       <c r="V340" s="23"/>
-      <c r="W340" s="23"/>
+      <c r="W340" s="40"/>
       <c r="X340" s="40"/>
       <c r="Y340" s="40"/>
       <c r="Z340" s="40"/>
@@ -24900,7 +24904,7 @@
       <c r="T341" s="23"/>
       <c r="U341" s="23"/>
       <c r="V341" s="23"/>
-      <c r="W341" s="40"/>
+      <c r="W341" s="23"/>
       <c r="X341" s="40"/>
       <c r="Y341" s="40"/>
       <c r="Z341" s="40"/>
@@ -24915,7 +24919,7 @@
       <c r="T342" s="23"/>
       <c r="U342" s="23"/>
       <c r="V342" s="23"/>
-      <c r="W342" s="23"/>
+      <c r="W342" s="40"/>
       <c r="X342" s="40"/>
       <c r="Y342" s="40"/>
       <c r="Z342" s="40"/>
@@ -24960,7 +24964,7 @@
       <c r="T345" s="23"/>
       <c r="U345" s="23"/>
       <c r="V345" s="23"/>
-      <c r="W345" s="40"/>
+      <c r="W345" s="23"/>
       <c r="X345" s="40"/>
       <c r="Y345" s="40"/>
       <c r="Z345" s="40"/>
@@ -24984,13 +24988,13 @@
       <c r="AC346" s="40"/>
     </row>
     <row r="347" spans="17:29" s="21" customFormat="1">
-      <c r="Q347" s="23"/>
-      <c r="R347" s="23"/>
-      <c r="S347" s="23"/>
-      <c r="T347" s="23"/>
-      <c r="U347" s="23"/>
-      <c r="V347" s="23"/>
-      <c r="W347" s="23"/>
+      <c r="Q347" s="40"/>
+      <c r="R347" s="40"/>
+      <c r="S347" s="40"/>
+      <c r="T347" s="40"/>
+      <c r="U347" s="40"/>
+      <c r="V347" s="40"/>
+      <c r="W347" s="40"/>
       <c r="X347" s="40"/>
       <c r="Y347" s="40"/>
       <c r="Z347" s="40"/>
@@ -24999,13 +25003,13 @@
       <c r="AC347" s="40"/>
     </row>
     <row r="348" spans="17:29" s="21" customFormat="1">
-      <c r="Q348" s="40"/>
-      <c r="R348" s="40"/>
-      <c r="S348" s="40"/>
-      <c r="T348" s="40"/>
-      <c r="U348" s="40"/>
-      <c r="V348" s="40"/>
-      <c r="W348" s="40"/>
+      <c r="Q348" s="23"/>
+      <c r="R348" s="23"/>
+      <c r="S348" s="23"/>
+      <c r="T348" s="23"/>
+      <c r="U348" s="23"/>
+      <c r="V348" s="23"/>
+      <c r="W348" s="23"/>
       <c r="X348" s="40"/>
       <c r="Y348" s="40"/>
       <c r="Z348" s="40"/>
@@ -25014,13 +25018,13 @@
       <c r="AC348" s="40"/>
     </row>
     <row r="349" spans="17:29" s="21" customFormat="1">
-      <c r="Q349" s="23"/>
-      <c r="R349" s="23"/>
-      <c r="S349" s="23"/>
-      <c r="T349" s="23"/>
-      <c r="U349" s="23"/>
-      <c r="V349" s="23"/>
-      <c r="W349" s="23"/>
+      <c r="Q349" s="40"/>
+      <c r="R349" s="40"/>
+      <c r="S349" s="40"/>
+      <c r="T349" s="40"/>
+      <c r="U349" s="40"/>
+      <c r="V349" s="40"/>
+      <c r="W349" s="40"/>
       <c r="X349" s="40"/>
       <c r="Y349" s="40"/>
       <c r="Z349" s="40"/>
@@ -25029,12 +25033,12 @@
       <c r="AC349" s="40"/>
     </row>
     <row r="350" spans="17:29" s="21" customFormat="1">
-      <c r="Q350" s="40"/>
-      <c r="R350" s="40"/>
-      <c r="S350" s="40"/>
-      <c r="T350" s="40"/>
-      <c r="U350" s="40"/>
-      <c r="V350" s="40"/>
+      <c r="Q350" s="23"/>
+      <c r="R350" s="23"/>
+      <c r="S350" s="23"/>
+      <c r="T350" s="23"/>
+      <c r="U350" s="23"/>
+      <c r="V350" s="23"/>
       <c r="W350" s="40"/>
       <c r="X350" s="40"/>
       <c r="Y350" s="40"/>
@@ -25050,13 +25054,13 @@
       <c r="T351" s="23"/>
       <c r="U351" s="23"/>
       <c r="V351" s="23"/>
-      <c r="W351" s="40"/>
+      <c r="W351" s="23"/>
       <c r="X351" s="40"/>
       <c r="Y351" s="40"/>
-      <c r="Z351" s="40"/>
-      <c r="AA351" s="40"/>
-      <c r="AB351" s="40"/>
-      <c r="AC351" s="40"/>
+      <c r="Z351" s="23"/>
+      <c r="AA351" s="23"/>
+      <c r="AB351" s="23"/>
+      <c r="AC351" s="23"/>
     </row>
     <row r="352" spans="17:29" s="21" customFormat="1">
       <c r="Q352" s="23"/>
@@ -25065,13 +25069,13 @@
       <c r="T352" s="23"/>
       <c r="U352" s="23"/>
       <c r="V352" s="23"/>
-      <c r="W352" s="23"/>
+      <c r="W352" s="40"/>
       <c r="X352" s="40"/>
       <c r="Y352" s="40"/>
-      <c r="Z352" s="23"/>
-      <c r="AA352" s="23"/>
-      <c r="AB352" s="23"/>
-      <c r="AC352" s="23"/>
+      <c r="Z352" s="40"/>
+      <c r="AA352" s="40"/>
+      <c r="AB352" s="40"/>
+      <c r="AC352" s="40"/>
     </row>
     <row r="353" spans="17:29" s="21" customFormat="1">
       <c r="Q353" s="23"/>
@@ -25080,7 +25084,7 @@
       <c r="T353" s="23"/>
       <c r="U353" s="23"/>
       <c r="V353" s="23"/>
-      <c r="W353" s="40"/>
+      <c r="W353" s="23"/>
       <c r="X353" s="40"/>
       <c r="Y353" s="40"/>
       <c r="Z353" s="40"/>
@@ -25098,10 +25102,10 @@
       <c r="W354" s="23"/>
       <c r="X354" s="40"/>
       <c r="Y354" s="40"/>
-      <c r="Z354" s="40"/>
-      <c r="AA354" s="40"/>
-      <c r="AB354" s="40"/>
-      <c r="AC354" s="40"/>
+      <c r="Z354" s="23"/>
+      <c r="AA354" s="23"/>
+      <c r="AB354" s="23"/>
+      <c r="AC354" s="23"/>
     </row>
     <row r="355" spans="17:29" s="21" customFormat="1">
       <c r="Q355" s="23"/>
@@ -25110,13 +25114,13 @@
       <c r="T355" s="23"/>
       <c r="U355" s="23"/>
       <c r="V355" s="23"/>
-      <c r="W355" s="23"/>
+      <c r="W355" s="40"/>
       <c r="X355" s="40"/>
       <c r="Y355" s="40"/>
-      <c r="Z355" s="23"/>
-      <c r="AA355" s="23"/>
-      <c r="AB355" s="23"/>
-      <c r="AC355" s="23"/>
+      <c r="Z355" s="40"/>
+      <c r="AA355" s="40"/>
+      <c r="AB355" s="40"/>
+      <c r="AC355" s="40"/>
     </row>
     <row r="356" spans="17:29" s="21" customFormat="1">
       <c r="Q356" s="23"/>
@@ -25155,7 +25159,7 @@
       <c r="T358" s="23"/>
       <c r="U358" s="23"/>
       <c r="V358" s="23"/>
-      <c r="W358" s="40"/>
+      <c r="W358" s="23"/>
       <c r="X358" s="40"/>
       <c r="Y358" s="40"/>
       <c r="Z358" s="40"/>
@@ -25170,7 +25174,7 @@
       <c r="T359" s="23"/>
       <c r="U359" s="23"/>
       <c r="V359" s="23"/>
-      <c r="W359" s="23"/>
+      <c r="W359" s="40"/>
       <c r="X359" s="40"/>
       <c r="Y359" s="40"/>
       <c r="Z359" s="40"/>
@@ -25179,12 +25183,12 @@
       <c r="AC359" s="40"/>
     </row>
     <row r="360" spans="17:29" s="21" customFormat="1">
-      <c r="Q360" s="23"/>
-      <c r="R360" s="23"/>
-      <c r="S360" s="23"/>
-      <c r="T360" s="23"/>
-      <c r="U360" s="23"/>
-      <c r="V360" s="23"/>
+      <c r="Q360" s="40"/>
+      <c r="R360" s="40"/>
+      <c r="S360" s="40"/>
+      <c r="T360" s="40"/>
+      <c r="U360" s="40"/>
+      <c r="V360" s="40"/>
       <c r="W360" s="40"/>
       <c r="X360" s="40"/>
       <c r="Y360" s="40"/>
@@ -25194,12 +25198,12 @@
       <c r="AC360" s="40"/>
     </row>
     <row r="361" spans="17:29" s="21" customFormat="1">
-      <c r="Q361" s="40"/>
-      <c r="R361" s="40"/>
-      <c r="S361" s="40"/>
-      <c r="T361" s="40"/>
-      <c r="U361" s="40"/>
-      <c r="V361" s="40"/>
+      <c r="Q361" s="23"/>
+      <c r="R361" s="23"/>
+      <c r="S361" s="23"/>
+      <c r="T361" s="23"/>
+      <c r="U361" s="23"/>
+      <c r="V361" s="23"/>
       <c r="W361" s="40"/>
       <c r="X361" s="40"/>
       <c r="Y361" s="40"/>
@@ -25230,13 +25234,13 @@
       <c r="T363" s="23"/>
       <c r="U363" s="23"/>
       <c r="V363" s="23"/>
-      <c r="W363" s="40"/>
+      <c r="W363" s="23"/>
       <c r="X363" s="40"/>
       <c r="Y363" s="40"/>
-      <c r="Z363" s="40"/>
-      <c r="AA363" s="40"/>
-      <c r="AB363" s="40"/>
-      <c r="AC363" s="40"/>
+      <c r="Z363" s="23"/>
+      <c r="AA363" s="23"/>
+      <c r="AB363" s="23"/>
+      <c r="AC363" s="23"/>
     </row>
     <row r="364" spans="17:29" s="21" customFormat="1">
       <c r="Q364" s="23"/>
@@ -25245,13 +25249,13 @@
       <c r="T364" s="23"/>
       <c r="U364" s="23"/>
       <c r="V364" s="23"/>
-      <c r="W364" s="23"/>
+      <c r="W364" s="40"/>
       <c r="X364" s="40"/>
       <c r="Y364" s="40"/>
-      <c r="Z364" s="23"/>
-      <c r="AA364" s="23"/>
-      <c r="AB364" s="23"/>
-      <c r="AC364" s="23"/>
+      <c r="Z364" s="40"/>
+      <c r="AA364" s="40"/>
+      <c r="AB364" s="40"/>
+      <c r="AC364" s="40"/>
     </row>
     <row r="365" spans="17:29" s="21" customFormat="1">
       <c r="Q365" s="23"/>
@@ -25260,7 +25264,7 @@
       <c r="T365" s="23"/>
       <c r="U365" s="23"/>
       <c r="V365" s="23"/>
-      <c r="W365" s="40"/>
+      <c r="W365" s="23"/>
       <c r="X365" s="40"/>
       <c r="Y365" s="40"/>
       <c r="Z365" s="40"/>
@@ -25335,7 +25339,7 @@
       <c r="T370" s="23"/>
       <c r="U370" s="23"/>
       <c r="V370" s="23"/>
-      <c r="W370" s="23"/>
+      <c r="W370" s="40"/>
       <c r="X370" s="40"/>
       <c r="Y370" s="40"/>
       <c r="Z370" s="40"/>
@@ -25344,12 +25348,12 @@
       <c r="AC370" s="40"/>
     </row>
     <row r="371" spans="17:29" s="21" customFormat="1">
-      <c r="Q371" s="23"/>
-      <c r="R371" s="23"/>
-      <c r="S371" s="23"/>
-      <c r="T371" s="23"/>
-      <c r="U371" s="23"/>
-      <c r="V371" s="23"/>
+      <c r="Q371" s="40"/>
+      <c r="R371" s="40"/>
+      <c r="S371" s="40"/>
+      <c r="T371" s="40"/>
+      <c r="U371" s="40"/>
+      <c r="V371" s="40"/>
       <c r="W371" s="40"/>
       <c r="X371" s="40"/>
       <c r="Y371" s="40"/>
@@ -25359,13 +25363,13 @@
       <c r="AC371" s="40"/>
     </row>
     <row r="372" spans="17:29" s="21" customFormat="1">
-      <c r="Q372" s="40"/>
-      <c r="R372" s="40"/>
-      <c r="S372" s="40"/>
-      <c r="T372" s="40"/>
-      <c r="U372" s="40"/>
-      <c r="V372" s="40"/>
-      <c r="W372" s="40"/>
+      <c r="Q372" s="23"/>
+      <c r="R372" s="23"/>
+      <c r="S372" s="23"/>
+      <c r="T372" s="23"/>
+      <c r="U372" s="23"/>
+      <c r="V372" s="23"/>
+      <c r="W372" s="23"/>
       <c r="X372" s="40"/>
       <c r="Y372" s="40"/>
       <c r="Z372" s="40"/>
@@ -25410,7 +25414,7 @@
       <c r="T375" s="23"/>
       <c r="U375" s="23"/>
       <c r="V375" s="23"/>
-      <c r="W375" s="23"/>
+      <c r="W375" s="40"/>
       <c r="X375" s="40"/>
       <c r="Y375" s="40"/>
       <c r="Z375" s="40"/>
@@ -25440,7 +25444,7 @@
       <c r="T377" s="23"/>
       <c r="U377" s="23"/>
       <c r="V377" s="23"/>
-      <c r="W377" s="40"/>
+      <c r="W377" s="23"/>
       <c r="X377" s="40"/>
       <c r="Y377" s="40"/>
       <c r="Z377" s="40"/>
@@ -25455,7 +25459,7 @@
       <c r="T378" s="23"/>
       <c r="U378" s="23"/>
       <c r="V378" s="23"/>
-      <c r="W378" s="23"/>
+      <c r="W378" s="40"/>
       <c r="X378" s="40"/>
       <c r="Y378" s="40"/>
       <c r="Z378" s="40"/>
@@ -25515,7 +25519,7 @@
       <c r="T382" s="23"/>
       <c r="U382" s="23"/>
       <c r="V382" s="23"/>
-      <c r="W382" s="40"/>
+      <c r="W382" s="23"/>
       <c r="X382" s="40"/>
       <c r="Y382" s="40"/>
       <c r="Z382" s="40"/>
@@ -25530,7 +25534,7 @@
       <c r="T383" s="23"/>
       <c r="U383" s="23"/>
       <c r="V383" s="23"/>
-      <c r="W383" s="23"/>
+      <c r="W383" s="40"/>
       <c r="X383" s="40"/>
       <c r="Y383" s="40"/>
       <c r="Z383" s="40"/>
@@ -25575,7 +25579,7 @@
       <c r="T386" s="23"/>
       <c r="U386" s="23"/>
       <c r="V386" s="23"/>
-      <c r="W386" s="40"/>
+      <c r="W386" s="23"/>
       <c r="X386" s="40"/>
       <c r="Y386" s="40"/>
       <c r="Z386" s="40"/>
@@ -25599,13 +25603,13 @@
       <c r="AC387" s="40"/>
     </row>
     <row r="388" spans="17:29" s="21" customFormat="1">
-      <c r="Q388" s="23"/>
-      <c r="R388" s="23"/>
-      <c r="S388" s="23"/>
-      <c r="T388" s="23"/>
-      <c r="U388" s="23"/>
-      <c r="V388" s="23"/>
-      <c r="W388" s="23"/>
+      <c r="Q388" s="40"/>
+      <c r="R388" s="40"/>
+      <c r="S388" s="40"/>
+      <c r="T388" s="40"/>
+      <c r="U388" s="40"/>
+      <c r="V388" s="40"/>
+      <c r="W388" s="40"/>
       <c r="X388" s="40"/>
       <c r="Y388" s="40"/>
       <c r="Z388" s="40"/>
@@ -25614,12 +25618,12 @@
       <c r="AC388" s="40"/>
     </row>
     <row r="389" spans="17:29" s="21" customFormat="1">
-      <c r="Q389" s="40"/>
-      <c r="R389" s="40"/>
-      <c r="S389" s="40"/>
-      <c r="T389" s="40"/>
-      <c r="U389" s="40"/>
-      <c r="V389" s="40"/>
+      <c r="Q389" s="23"/>
+      <c r="R389" s="23"/>
+      <c r="S389" s="23"/>
+      <c r="T389" s="23"/>
+      <c r="U389" s="23"/>
+      <c r="V389" s="23"/>
       <c r="W389" s="40"/>
       <c r="X389" s="40"/>
       <c r="Y389" s="40"/>
@@ -25635,13 +25639,13 @@
       <c r="T390" s="23"/>
       <c r="U390" s="23"/>
       <c r="V390" s="23"/>
-      <c r="W390" s="40"/>
+      <c r="W390" s="23"/>
       <c r="X390" s="40"/>
       <c r="Y390" s="40"/>
-      <c r="Z390" s="40"/>
-      <c r="AA390" s="40"/>
-      <c r="AB390" s="40"/>
-      <c r="AC390" s="40"/>
+      <c r="Z390" s="23"/>
+      <c r="AA390" s="23"/>
+      <c r="AB390" s="23"/>
+      <c r="AC390" s="23"/>
     </row>
     <row r="391" spans="17:29" s="21" customFormat="1">
       <c r="Q391" s="23"/>
@@ -25665,13 +25669,13 @@
       <c r="T392" s="23"/>
       <c r="U392" s="23"/>
       <c r="V392" s="23"/>
-      <c r="W392" s="23"/>
+      <c r="W392" s="40"/>
       <c r="X392" s="40"/>
       <c r="Y392" s="40"/>
-      <c r="Z392" s="23"/>
-      <c r="AA392" s="23"/>
-      <c r="AB392" s="23"/>
-      <c r="AC392" s="23"/>
+      <c r="Z392" s="40"/>
+      <c r="AA392" s="40"/>
+      <c r="AB392" s="40"/>
+      <c r="AC392" s="40"/>
     </row>
     <row r="393" spans="17:29" s="21" customFormat="1">
       <c r="Q393" s="23"/>
@@ -25680,7 +25684,7 @@
       <c r="T393" s="23"/>
       <c r="U393" s="23"/>
       <c r="V393" s="23"/>
-      <c r="W393" s="40"/>
+      <c r="W393" s="23"/>
       <c r="X393" s="40"/>
       <c r="Y393" s="40"/>
       <c r="Z393" s="40"/>
@@ -25725,7 +25729,7 @@
       <c r="T396" s="23"/>
       <c r="U396" s="23"/>
       <c r="V396" s="23"/>
-      <c r="W396" s="23"/>
+      <c r="W396" s="40"/>
       <c r="X396" s="40"/>
       <c r="Y396" s="40"/>
       <c r="Z396" s="40"/>
@@ -25740,7 +25744,7 @@
       <c r="T397" s="23"/>
       <c r="U397" s="23"/>
       <c r="V397" s="23"/>
-      <c r="W397" s="40"/>
+      <c r="W397" s="23"/>
       <c r="X397" s="40"/>
       <c r="Y397" s="40"/>
       <c r="Z397" s="40"/>
@@ -25770,7 +25774,7 @@
       <c r="T399" s="23"/>
       <c r="U399" s="23"/>
       <c r="V399" s="23"/>
-      <c r="W399" s="23"/>
+      <c r="W399" s="40"/>
       <c r="X399" s="40"/>
       <c r="Y399" s="40"/>
       <c r="Z399" s="40"/>
@@ -25815,7 +25819,7 @@
       <c r="T402" s="23"/>
       <c r="U402" s="23"/>
       <c r="V402" s="23"/>
-      <c r="W402" s="40"/>
+      <c r="W402" s="23"/>
       <c r="X402" s="40"/>
       <c r="Y402" s="40"/>
       <c r="Z402" s="40"/>
@@ -25839,13 +25843,13 @@
       <c r="AC403" s="40"/>
     </row>
     <row r="404" spans="17:29" s="21" customFormat="1">
-      <c r="Q404" s="23"/>
-      <c r="R404" s="23"/>
-      <c r="S404" s="23"/>
-      <c r="T404" s="23"/>
-      <c r="U404" s="23"/>
-      <c r="V404" s="23"/>
-      <c r="W404" s="23"/>
+      <c r="Q404" s="40"/>
+      <c r="R404" s="40"/>
+      <c r="S404" s="40"/>
+      <c r="T404" s="40"/>
+      <c r="U404" s="40"/>
+      <c r="V404" s="40"/>
+      <c r="W404" s="40"/>
       <c r="X404" s="40"/>
       <c r="Y404" s="40"/>
       <c r="Z404" s="40"/>
@@ -25854,12 +25858,12 @@
       <c r="AC404" s="40"/>
     </row>
     <row r="405" spans="17:29" s="21" customFormat="1">
-      <c r="Q405" s="40"/>
-      <c r="R405" s="40"/>
-      <c r="S405" s="40"/>
-      <c r="T405" s="40"/>
-      <c r="U405" s="40"/>
-      <c r="V405" s="40"/>
+      <c r="Q405" s="23"/>
+      <c r="R405" s="23"/>
+      <c r="S405" s="23"/>
+      <c r="T405" s="23"/>
+      <c r="U405" s="23"/>
+      <c r="V405" s="23"/>
       <c r="W405" s="40"/>
       <c r="X405" s="40"/>
       <c r="Y405" s="40"/>
@@ -25875,13 +25879,13 @@
       <c r="T406" s="23"/>
       <c r="U406" s="23"/>
       <c r="V406" s="23"/>
-      <c r="W406" s="40"/>
+      <c r="W406" s="23"/>
       <c r="X406" s="40"/>
       <c r="Y406" s="40"/>
-      <c r="Z406" s="40"/>
-      <c r="AA406" s="40"/>
-      <c r="AB406" s="40"/>
-      <c r="AC406" s="40"/>
+      <c r="Z406" s="23"/>
+      <c r="AA406" s="23"/>
+      <c r="AB406" s="23"/>
+      <c r="AC406" s="23"/>
     </row>
     <row r="407" spans="17:29" s="21" customFormat="1">
       <c r="Q407" s="23"/>
@@ -25893,10 +25897,10 @@
       <c r="W407" s="23"/>
       <c r="X407" s="40"/>
       <c r="Y407" s="40"/>
-      <c r="Z407" s="23"/>
-      <c r="AA407" s="23"/>
-      <c r="AB407" s="23"/>
-      <c r="AC407" s="23"/>
+      <c r="Z407" s="40"/>
+      <c r="AA407" s="40"/>
+      <c r="AB407" s="40"/>
+      <c r="AC407" s="40"/>
     </row>
     <row r="408" spans="17:29" s="21" customFormat="1">
       <c r="Q408" s="23"/>
@@ -25935,7 +25939,7 @@
       <c r="T410" s="23"/>
       <c r="U410" s="23"/>
       <c r="V410" s="23"/>
-      <c r="W410" s="23"/>
+      <c r="W410" s="40"/>
       <c r="X410" s="40"/>
       <c r="Y410" s="40"/>
       <c r="Z410" s="40"/>
@@ -25965,13 +25969,13 @@
       <c r="T412" s="23"/>
       <c r="U412" s="23"/>
       <c r="V412" s="23"/>
-      <c r="W412" s="40"/>
+      <c r="W412" s="23"/>
       <c r="X412" s="40"/>
       <c r="Y412" s="40"/>
-      <c r="Z412" s="40"/>
-      <c r="AA412" s="40"/>
-      <c r="AB412" s="40"/>
-      <c r="AC412" s="40"/>
+      <c r="Z412" s="23"/>
+      <c r="AA412" s="23"/>
+      <c r="AB412" s="23"/>
+      <c r="AC412" s="23"/>
     </row>
     <row r="413" spans="17:29" s="21" customFormat="1">
       <c r="Q413" s="23"/>
@@ -25980,13 +25984,13 @@
       <c r="T413" s="23"/>
       <c r="U413" s="23"/>
       <c r="V413" s="23"/>
-      <c r="W413" s="23"/>
+      <c r="W413" s="40"/>
       <c r="X413" s="40"/>
       <c r="Y413" s="40"/>
-      <c r="Z413" s="23"/>
-      <c r="AA413" s="23"/>
-      <c r="AB413" s="23"/>
-      <c r="AC413" s="23"/>
+      <c r="Z413" s="40"/>
+      <c r="AA413" s="40"/>
+      <c r="AB413" s="40"/>
+      <c r="AC413" s="40"/>
     </row>
     <row r="414" spans="17:29" s="21" customFormat="1">
       <c r="Q414" s="23"/>
@@ -25995,7 +25999,7 @@
       <c r="T414" s="23"/>
       <c r="U414" s="23"/>
       <c r="V414" s="23"/>
-      <c r="W414" s="40"/>
+      <c r="W414" s="23"/>
       <c r="X414" s="40"/>
       <c r="Y414" s="40"/>
       <c r="Z414" s="40"/>
@@ -26010,7 +26014,7 @@
       <c r="T415" s="23"/>
       <c r="U415" s="23"/>
       <c r="V415" s="23"/>
-      <c r="W415" s="23"/>
+      <c r="W415" s="40"/>
       <c r="X415" s="40"/>
       <c r="Y415" s="40"/>
       <c r="Z415" s="40"/>
@@ -26055,7 +26059,7 @@
       <c r="T418" s="23"/>
       <c r="U418" s="23"/>
       <c r="V418" s="23"/>
-      <c r="W418" s="40"/>
+      <c r="W418" s="23"/>
       <c r="X418" s="40"/>
       <c r="Y418" s="40"/>
       <c r="Z418" s="40"/>
@@ -26085,7 +26089,7 @@
       <c r="T420" s="23"/>
       <c r="U420" s="23"/>
       <c r="V420" s="23"/>
-      <c r="W420" s="23"/>
+      <c r="W420" s="40"/>
       <c r="X420" s="40"/>
       <c r="Y420" s="40"/>
       <c r="Z420" s="40"/>
@@ -26130,7 +26134,7 @@
       <c r="T423" s="23"/>
       <c r="U423" s="23"/>
       <c r="V423" s="23"/>
-      <c r="W423" s="40"/>
+      <c r="W423" s="23"/>
       <c r="X423" s="40"/>
       <c r="Y423" s="40"/>
       <c r="Z423" s="40"/>
@@ -26154,13 +26158,13 @@
       <c r="AC424" s="40"/>
     </row>
     <row r="425" spans="17:29" s="21" customFormat="1">
-      <c r="Q425" s="23"/>
-      <c r="R425" s="23"/>
-      <c r="S425" s="23"/>
-      <c r="T425" s="23"/>
-      <c r="U425" s="23"/>
-      <c r="V425" s="23"/>
-      <c r="W425" s="23"/>
+      <c r="Q425" s="40"/>
+      <c r="R425" s="40"/>
+      <c r="S425" s="40"/>
+      <c r="T425" s="40"/>
+      <c r="U425" s="40"/>
+      <c r="V425" s="40"/>
+      <c r="W425" s="40"/>
       <c r="X425" s="40"/>
       <c r="Y425" s="40"/>
       <c r="Z425" s="40"/>
@@ -26169,12 +26173,12 @@
       <c r="AC425" s="40"/>
     </row>
     <row r="426" spans="17:29" s="21" customFormat="1">
-      <c r="Q426" s="40"/>
-      <c r="R426" s="40"/>
-      <c r="S426" s="40"/>
-      <c r="T426" s="40"/>
-      <c r="U426" s="40"/>
-      <c r="V426" s="40"/>
+      <c r="Q426" s="23"/>
+      <c r="R426" s="23"/>
+      <c r="S426" s="23"/>
+      <c r="T426" s="23"/>
+      <c r="U426" s="23"/>
+      <c r="V426" s="23"/>
       <c r="W426" s="40"/>
       <c r="X426" s="40"/>
       <c r="Y426" s="40"/>
@@ -26190,13 +26194,13 @@
       <c r="T427" s="23"/>
       <c r="U427" s="23"/>
       <c r="V427" s="23"/>
-      <c r="W427" s="40"/>
+      <c r="W427" s="23"/>
       <c r="X427" s="40"/>
       <c r="Y427" s="40"/>
-      <c r="Z427" s="40"/>
-      <c r="AA427" s="40"/>
-      <c r="AB427" s="40"/>
-      <c r="AC427" s="40"/>
+      <c r="Z427" s="23"/>
+      <c r="AA427" s="23"/>
+      <c r="AB427" s="23"/>
+      <c r="AC427" s="23"/>
     </row>
     <row r="428" spans="17:29" s="21" customFormat="1">
       <c r="Q428" s="23"/>
@@ -26205,13 +26209,13 @@
       <c r="T428" s="23"/>
       <c r="U428" s="23"/>
       <c r="V428" s="23"/>
-      <c r="W428" s="23"/>
+      <c r="W428" s="40"/>
       <c r="X428" s="40"/>
       <c r="Y428" s="40"/>
-      <c r="Z428" s="23"/>
-      <c r="AA428" s="23"/>
-      <c r="AB428" s="23"/>
-      <c r="AC428" s="23"/>
+      <c r="Z428" s="40"/>
+      <c r="AA428" s="40"/>
+      <c r="AB428" s="40"/>
+      <c r="AC428" s="40"/>
     </row>
     <row r="429" spans="17:29" s="21" customFormat="1">
       <c r="Q429" s="23"/>
@@ -26244,12 +26248,12 @@
       <c r="AC430" s="40"/>
     </row>
     <row r="431" spans="17:29" s="21" customFormat="1">
-      <c r="Q431" s="23"/>
-      <c r="R431" s="23"/>
-      <c r="S431" s="23"/>
-      <c r="T431" s="23"/>
-      <c r="U431" s="23"/>
-      <c r="V431" s="23"/>
+      <c r="Q431" s="40"/>
+      <c r="R431" s="40"/>
+      <c r="S431" s="40"/>
+      <c r="T431" s="40"/>
+      <c r="U431" s="40"/>
+      <c r="V431" s="40"/>
       <c r="W431" s="40"/>
       <c r="X431" s="40"/>
       <c r="Y431" s="40"/>
@@ -26259,13 +26263,13 @@
       <c r="AC431" s="40"/>
     </row>
     <row r="432" spans="17:29" s="21" customFormat="1">
-      <c r="Q432" s="40"/>
-      <c r="R432" s="40"/>
-      <c r="S432" s="40"/>
-      <c r="T432" s="40"/>
-      <c r="U432" s="40"/>
-      <c r="V432" s="40"/>
-      <c r="W432" s="40"/>
+      <c r="Q432" s="23"/>
+      <c r="R432" s="23"/>
+      <c r="S432" s="23"/>
+      <c r="T432" s="23"/>
+      <c r="U432" s="23"/>
+      <c r="V432" s="23"/>
+      <c r="W432" s="23"/>
       <c r="X432" s="40"/>
       <c r="Y432" s="40"/>
       <c r="Z432" s="40"/>
@@ -26274,13 +26278,13 @@
       <c r="AC432" s="40"/>
     </row>
     <row r="433" spans="17:29" s="21" customFormat="1">
-      <c r="Q433" s="23"/>
-      <c r="R433" s="23"/>
-      <c r="S433" s="23"/>
-      <c r="T433" s="23"/>
-      <c r="U433" s="23"/>
-      <c r="V433" s="23"/>
-      <c r="W433" s="23"/>
+      <c r="Q433" s="40"/>
+      <c r="R433" s="40"/>
+      <c r="S433" s="40"/>
+      <c r="T433" s="40"/>
+      <c r="U433" s="40"/>
+      <c r="V433" s="40"/>
+      <c r="W433" s="40"/>
       <c r="X433" s="40"/>
       <c r="Y433" s="40"/>
       <c r="Z433" s="40"/>
@@ -26289,13 +26293,13 @@
       <c r="AC433" s="40"/>
     </row>
     <row r="434" spans="17:29" s="21" customFormat="1">
-      <c r="Q434" s="40"/>
-      <c r="R434" s="40"/>
-      <c r="S434" s="40"/>
-      <c r="T434" s="40"/>
-      <c r="U434" s="40"/>
-      <c r="V434" s="40"/>
-      <c r="W434" s="40"/>
+      <c r="Q434" s="23"/>
+      <c r="R434" s="23"/>
+      <c r="S434" s="23"/>
+      <c r="T434" s="23"/>
+      <c r="U434" s="23"/>
+      <c r="V434" s="23"/>
+      <c r="W434" s="23"/>
       <c r="X434" s="40"/>
       <c r="Y434" s="40"/>
       <c r="Z434" s="40"/>
@@ -26304,13 +26308,13 @@
       <c r="AC434" s="40"/>
     </row>
     <row r="435" spans="17:29" s="21" customFormat="1">
-      <c r="Q435" s="23"/>
-      <c r="R435" s="23"/>
-      <c r="S435" s="23"/>
-      <c r="T435" s="23"/>
-      <c r="U435" s="23"/>
-      <c r="V435" s="23"/>
-      <c r="W435" s="23"/>
+      <c r="Q435" s="40"/>
+      <c r="R435" s="40"/>
+      <c r="S435" s="40"/>
+      <c r="T435" s="40"/>
+      <c r="U435" s="40"/>
+      <c r="V435" s="40"/>
+      <c r="W435" s="40"/>
       <c r="X435" s="40"/>
       <c r="Y435" s="40"/>
       <c r="Z435" s="40"/>
@@ -26319,12 +26323,12 @@
       <c r="AC435" s="40"/>
     </row>
     <row r="436" spans="17:29" s="21" customFormat="1">
-      <c r="Q436" s="40"/>
-      <c r="R436" s="40"/>
-      <c r="S436" s="40"/>
-      <c r="T436" s="40"/>
-      <c r="U436" s="40"/>
-      <c r="V436" s="40"/>
+      <c r="Q436" s="23"/>
+      <c r="R436" s="23"/>
+      <c r="S436" s="23"/>
+      <c r="T436" s="23"/>
+      <c r="U436" s="23"/>
+      <c r="V436" s="23"/>
       <c r="W436" s="40"/>
       <c r="X436" s="40"/>
       <c r="Y436" s="40"/>
@@ -26340,13 +26344,13 @@
       <c r="T437" s="23"/>
       <c r="U437" s="23"/>
       <c r="V437" s="23"/>
-      <c r="W437" s="40"/>
+      <c r="W437" s="23"/>
       <c r="X437" s="40"/>
       <c r="Y437" s="40"/>
-      <c r="Z437" s="40"/>
-      <c r="AA437" s="40"/>
-      <c r="AB437" s="40"/>
-      <c r="AC437" s="40"/>
+      <c r="Z437" s="23"/>
+      <c r="AA437" s="23"/>
+      <c r="AB437" s="23"/>
+      <c r="AC437" s="23"/>
     </row>
     <row r="438" spans="17:29" s="21" customFormat="1">
       <c r="Q438" s="23"/>
@@ -26355,13 +26359,13 @@
       <c r="T438" s="23"/>
       <c r="U438" s="23"/>
       <c r="V438" s="23"/>
-      <c r="W438" s="23"/>
+      <c r="W438" s="40"/>
       <c r="X438" s="40"/>
       <c r="Y438" s="40"/>
-      <c r="Z438" s="23"/>
-      <c r="AA438" s="23"/>
-      <c r="AB438" s="23"/>
-      <c r="AC438" s="23"/>
+      <c r="Z438" s="40"/>
+      <c r="AA438" s="40"/>
+      <c r="AB438" s="40"/>
+      <c r="AC438" s="40"/>
     </row>
     <row r="439" spans="17:29" s="21" customFormat="1">
       <c r="Q439" s="23"/>
@@ -26400,7 +26404,7 @@
       <c r="T441" s="23"/>
       <c r="U441" s="23"/>
       <c r="V441" s="23"/>
-      <c r="W441" s="40"/>
+      <c r="W441" s="23"/>
       <c r="X441" s="40"/>
       <c r="Y441" s="40"/>
       <c r="Z441" s="40"/>
@@ -26409,13 +26413,13 @@
       <c r="AC441" s="40"/>
     </row>
     <row r="442" spans="17:29" s="21" customFormat="1">
-      <c r="Q442" s="23"/>
-      <c r="R442" s="23"/>
-      <c r="S442" s="23"/>
-      <c r="T442" s="23"/>
-      <c r="U442" s="23"/>
-      <c r="V442" s="23"/>
-      <c r="W442" s="23"/>
+      <c r="Q442" s="40"/>
+      <c r="R442" s="40"/>
+      <c r="S442" s="40"/>
+      <c r="T442" s="40"/>
+      <c r="U442" s="40"/>
+      <c r="V442" s="40"/>
+      <c r="W442" s="40"/>
       <c r="X442" s="40"/>
       <c r="Y442" s="40"/>
       <c r="Z442" s="40"/>
@@ -26424,19 +26428,19 @@
       <c r="AC442" s="40"/>
     </row>
     <row r="443" spans="17:29" s="21" customFormat="1">
-      <c r="Q443" s="40"/>
-      <c r="R443" s="40"/>
-      <c r="S443" s="40"/>
-      <c r="T443" s="40"/>
-      <c r="U443" s="40"/>
-      <c r="V443" s="40"/>
-      <c r="W443" s="40"/>
+      <c r="Q443" s="23"/>
+      <c r="R443" s="23"/>
+      <c r="S443" s="23"/>
+      <c r="T443" s="23"/>
+      <c r="U443" s="23"/>
+      <c r="V443" s="23"/>
+      <c r="W443" s="23"/>
       <c r="X443" s="40"/>
       <c r="Y443" s="40"/>
-      <c r="Z443" s="40"/>
-      <c r="AA443" s="40"/>
-      <c r="AB443" s="40"/>
-      <c r="AC443" s="40"/>
+      <c r="Z443" s="23"/>
+      <c r="AA443" s="23"/>
+      <c r="AB443" s="23"/>
+      <c r="AC443" s="23"/>
     </row>
     <row r="444" spans="17:29" s="21" customFormat="1">
       <c r="Q444" s="23"/>
@@ -26445,13 +26449,13 @@
       <c r="T444" s="23"/>
       <c r="U444" s="23"/>
       <c r="V444" s="23"/>
-      <c r="W444" s="23"/>
+      <c r="W444" s="40"/>
       <c r="X444" s="40"/>
       <c r="Y444" s="40"/>
-      <c r="Z444" s="23"/>
-      <c r="AA444" s="23"/>
-      <c r="AB444" s="23"/>
-      <c r="AC444" s="23"/>
+      <c r="Z444" s="40"/>
+      <c r="AA444" s="40"/>
+      <c r="AB444" s="40"/>
+      <c r="AC444" s="40"/>
     </row>
     <row r="445" spans="17:29" s="21" customFormat="1">
       <c r="Q445" s="23"/>
@@ -26475,13 +26479,13 @@
       <c r="T446" s="23"/>
       <c r="U446" s="23"/>
       <c r="V446" s="23"/>
-      <c r="W446" s="40"/>
+      <c r="W446" s="23"/>
       <c r="X446" s="40"/>
       <c r="Y446" s="40"/>
-      <c r="Z446" s="40"/>
-      <c r="AA446" s="40"/>
-      <c r="AB446" s="40"/>
-      <c r="AC446" s="40"/>
+      <c r="Z446" s="23"/>
+      <c r="AA446" s="23"/>
+      <c r="AB446" s="23"/>
+      <c r="AC446" s="23"/>
     </row>
     <row r="447" spans="17:29" s="21" customFormat="1">
       <c r="Q447" s="23"/>
@@ -26490,13 +26494,13 @@
       <c r="T447" s="23"/>
       <c r="U447" s="23"/>
       <c r="V447" s="23"/>
-      <c r="W447" s="23"/>
+      <c r="W447" s="40"/>
       <c r="X447" s="40"/>
       <c r="Y447" s="40"/>
-      <c r="Z447" s="23"/>
-      <c r="AA447" s="23"/>
-      <c r="AB447" s="23"/>
-      <c r="AC447" s="23"/>
+      <c r="Z447" s="40"/>
+      <c r="AA447" s="40"/>
+      <c r="AB447" s="40"/>
+      <c r="AC447" s="40"/>
     </row>
     <row r="448" spans="17:29" s="21" customFormat="1">
       <c r="Q448" s="23"/>
@@ -26505,7 +26509,7 @@
       <c r="T448" s="23"/>
       <c r="U448" s="23"/>
       <c r="V448" s="23"/>
-      <c r="W448" s="40"/>
+      <c r="W448" s="23"/>
       <c r="X448" s="40"/>
       <c r="Y448" s="40"/>
       <c r="Z448" s="40"/>
@@ -26520,7 +26524,7 @@
       <c r="T449" s="23"/>
       <c r="U449" s="23"/>
       <c r="V449" s="23"/>
-      <c r="W449" s="23"/>
+      <c r="W449" s="40"/>
       <c r="X449" s="40"/>
       <c r="Y449" s="40"/>
       <c r="Z449" s="40"/>
@@ -26535,7 +26539,7 @@
       <c r="T450" s="23"/>
       <c r="U450" s="23"/>
       <c r="V450" s="23"/>
-      <c r="W450" s="40"/>
+      <c r="W450" s="23"/>
       <c r="X450" s="40"/>
       <c r="Y450" s="40"/>
       <c r="Z450" s="40"/>
@@ -26550,7 +26554,7 @@
       <c r="T451" s="23"/>
       <c r="U451" s="23"/>
       <c r="V451" s="23"/>
-      <c r="W451" s="23"/>
+      <c r="W451" s="40"/>
       <c r="X451" s="40"/>
       <c r="Y451" s="40"/>
       <c r="Z451" s="40"/>
@@ -26595,7 +26599,7 @@
       <c r="T454" s="23"/>
       <c r="U454" s="23"/>
       <c r="V454" s="23"/>
-      <c r="W454" s="40"/>
+      <c r="W454" s="23"/>
       <c r="X454" s="40"/>
       <c r="Y454" s="40"/>
       <c r="Z454" s="40"/>
@@ -26604,13 +26608,13 @@
       <c r="AC454" s="40"/>
     </row>
     <row r="455" spans="17:29" s="21" customFormat="1">
-      <c r="Q455" s="23"/>
-      <c r="R455" s="23"/>
-      <c r="S455" s="23"/>
-      <c r="T455" s="23"/>
-      <c r="U455" s="23"/>
-      <c r="V455" s="23"/>
-      <c r="W455" s="23"/>
+      <c r="Q455" s="40"/>
+      <c r="R455" s="40"/>
+      <c r="S455" s="40"/>
+      <c r="T455" s="40"/>
+      <c r="U455" s="40"/>
+      <c r="V455" s="40"/>
+      <c r="W455" s="40"/>
       <c r="X455" s="40"/>
       <c r="Y455" s="40"/>
       <c r="Z455" s="40"/>
@@ -26619,12 +26623,12 @@
       <c r="AC455" s="40"/>
     </row>
     <row r="456" spans="17:29" s="21" customFormat="1">
-      <c r="Q456" s="40"/>
-      <c r="R456" s="40"/>
-      <c r="S456" s="40"/>
-      <c r="T456" s="40"/>
-      <c r="U456" s="40"/>
-      <c r="V456" s="40"/>
+      <c r="Q456" s="23"/>
+      <c r="R456" s="23"/>
+      <c r="S456" s="23"/>
+      <c r="T456" s="23"/>
+      <c r="U456" s="23"/>
+      <c r="V456" s="23"/>
       <c r="W456" s="40"/>
       <c r="X456" s="40"/>
       <c r="Y456" s="40"/>
@@ -26640,13 +26644,13 @@
       <c r="T457" s="23"/>
       <c r="U457" s="23"/>
       <c r="V457" s="23"/>
-      <c r="W457" s="40"/>
+      <c r="W457" s="23"/>
       <c r="X457" s="40"/>
       <c r="Y457" s="40"/>
-      <c r="Z457" s="40"/>
-      <c r="AA457" s="40"/>
-      <c r="AB457" s="40"/>
-      <c r="AC457" s="40"/>
+      <c r="Z457" s="23"/>
+      <c r="AA457" s="23"/>
+      <c r="AB457" s="23"/>
+      <c r="AC457" s="23"/>
     </row>
     <row r="458" spans="17:29" s="21" customFormat="1">
       <c r="Q458" s="23"/>
@@ -26655,13 +26659,13 @@
       <c r="T458" s="23"/>
       <c r="U458" s="23"/>
       <c r="V458" s="23"/>
-      <c r="W458" s="23"/>
+      <c r="W458" s="40"/>
       <c r="X458" s="40"/>
       <c r="Y458" s="40"/>
-      <c r="Z458" s="23"/>
-      <c r="AA458" s="23"/>
-      <c r="AB458" s="23"/>
-      <c r="AC458" s="23"/>
+      <c r="Z458" s="40"/>
+      <c r="AA458" s="40"/>
+      <c r="AB458" s="40"/>
+      <c r="AC458" s="40"/>
     </row>
     <row r="459" spans="17:29" s="21" customFormat="1">
       <c r="Q459" s="23"/>
@@ -26670,13 +26674,13 @@
       <c r="T459" s="23"/>
       <c r="U459" s="23"/>
       <c r="V459" s="23"/>
-      <c r="W459" s="40"/>
+      <c r="W459" s="23"/>
       <c r="X459" s="40"/>
       <c r="Y459" s="40"/>
-      <c r="Z459" s="40"/>
-      <c r="AA459" s="40"/>
-      <c r="AB459" s="40"/>
-      <c r="AC459" s="40"/>
+      <c r="Z459" s="23"/>
+      <c r="AA459" s="23"/>
+      <c r="AB459" s="23"/>
+      <c r="AC459" s="23"/>
     </row>
     <row r="460" spans="17:29" s="21" customFormat="1">
       <c r="Q460" s="23"/>
@@ -26685,13 +26689,13 @@
       <c r="T460" s="23"/>
       <c r="U460" s="23"/>
       <c r="V460" s="23"/>
-      <c r="W460" s="23"/>
+      <c r="W460" s="40"/>
       <c r="X460" s="40"/>
       <c r="Y460" s="40"/>
-      <c r="Z460" s="23"/>
-      <c r="AA460" s="23"/>
-      <c r="AB460" s="23"/>
-      <c r="AC460" s="23"/>
+      <c r="Z460" s="40"/>
+      <c r="AA460" s="40"/>
+      <c r="AB460" s="40"/>
+      <c r="AC460" s="40"/>
     </row>
     <row r="461" spans="17:29" s="21" customFormat="1">
       <c r="Q461" s="23"/>
@@ -26700,7 +26704,7 @@
       <c r="T461" s="23"/>
       <c r="U461" s="23"/>
       <c r="V461" s="23"/>
-      <c r="W461" s="40"/>
+      <c r="W461" s="23"/>
       <c r="X461" s="40"/>
       <c r="Y461" s="40"/>
       <c r="Z461" s="40"/>
@@ -26715,7 +26719,7 @@
       <c r="T462" s="23"/>
       <c r="U462" s="23"/>
       <c r="V462" s="23"/>
-      <c r="W462" s="23"/>
+      <c r="W462" s="40"/>
       <c r="X462" s="40"/>
       <c r="Y462" s="40"/>
       <c r="Z462" s="40"/>
@@ -26730,7 +26734,7 @@
       <c r="T463" s="23"/>
       <c r="U463" s="23"/>
       <c r="V463" s="23"/>
-      <c r="W463" s="40"/>
+      <c r="W463" s="23"/>
       <c r="X463" s="40"/>
       <c r="Y463" s="40"/>
       <c r="Z463" s="40"/>
@@ -26739,13 +26743,13 @@
       <c r="AC463" s="40"/>
     </row>
     <row r="464" spans="17:29" s="21" customFormat="1">
-      <c r="Q464" s="23"/>
-      <c r="R464" s="23"/>
-      <c r="S464" s="23"/>
-      <c r="T464" s="23"/>
-      <c r="U464" s="23"/>
-      <c r="V464" s="23"/>
-      <c r="W464" s="23"/>
+      <c r="Q464" s="40"/>
+      <c r="R464" s="40"/>
+      <c r="S464" s="40"/>
+      <c r="T464" s="40"/>
+      <c r="U464" s="40"/>
+      <c r="V464" s="40"/>
+      <c r="W464" s="40"/>
       <c r="X464" s="40"/>
       <c r="Y464" s="40"/>
       <c r="Z464" s="40"/>
@@ -26754,13 +26758,13 @@
       <c r="AC464" s="40"/>
     </row>
     <row r="465" spans="17:29" s="21" customFormat="1">
-      <c r="Q465" s="40"/>
-      <c r="R465" s="40"/>
-      <c r="S465" s="40"/>
-      <c r="T465" s="40"/>
-      <c r="U465" s="40"/>
-      <c r="V465" s="40"/>
-      <c r="W465" s="40"/>
+      <c r="Q465" s="23"/>
+      <c r="R465" s="23"/>
+      <c r="S465" s="23"/>
+      <c r="T465" s="23"/>
+      <c r="U465" s="23"/>
+      <c r="V465" s="23"/>
+      <c r="W465" s="23"/>
       <c r="X465" s="40"/>
       <c r="Y465" s="40"/>
       <c r="Z465" s="40"/>
@@ -26775,7 +26779,7 @@
       <c r="T466" s="23"/>
       <c r="U466" s="23"/>
       <c r="V466" s="23"/>
-      <c r="W466" s="23"/>
+      <c r="W466" s="40"/>
       <c r="X466" s="40"/>
       <c r="Y466" s="40"/>
       <c r="Z466" s="40"/>
@@ -26835,7 +26839,7 @@
       <c r="T470" s="23"/>
       <c r="U470" s="23"/>
       <c r="V470" s="23"/>
-      <c r="W470" s="40"/>
+      <c r="W470" s="23"/>
       <c r="X470" s="40"/>
       <c r="Y470" s="40"/>
       <c r="Z470" s="40"/>
@@ -26844,13 +26848,13 @@
       <c r="AC470" s="40"/>
     </row>
     <row r="471" spans="17:29" s="21" customFormat="1">
-      <c r="Q471" s="23"/>
-      <c r="R471" s="23"/>
-      <c r="S471" s="23"/>
-      <c r="T471" s="23"/>
-      <c r="U471" s="23"/>
-      <c r="V471" s="23"/>
-      <c r="W471" s="23"/>
+      <c r="Q471" s="40"/>
+      <c r="R471" s="40"/>
+      <c r="S471" s="40"/>
+      <c r="T471" s="40"/>
+      <c r="U471" s="40"/>
+      <c r="V471" s="40"/>
+      <c r="W471" s="40"/>
       <c r="X471" s="40"/>
       <c r="Y471" s="40"/>
       <c r="Z471" s="40"/>
@@ -26859,12 +26863,12 @@
       <c r="AC471" s="40"/>
     </row>
     <row r="472" spans="17:29" s="21" customFormat="1">
-      <c r="Q472" s="40"/>
-      <c r="R472" s="40"/>
-      <c r="S472" s="40"/>
-      <c r="T472" s="40"/>
-      <c r="U472" s="40"/>
-      <c r="V472" s="40"/>
+      <c r="Q472" s="23"/>
+      <c r="R472" s="23"/>
+      <c r="S472" s="23"/>
+      <c r="T472" s="23"/>
+      <c r="U472" s="23"/>
+      <c r="V472" s="23"/>
       <c r="W472" s="40"/>
       <c r="X472" s="40"/>
       <c r="Y472" s="40"/>
@@ -26880,13 +26884,13 @@
       <c r="T473" s="23"/>
       <c r="U473" s="23"/>
       <c r="V473" s="23"/>
-      <c r="W473" s="40"/>
+      <c r="W473" s="23"/>
       <c r="X473" s="40"/>
       <c r="Y473" s="40"/>
-      <c r="Z473" s="40"/>
-      <c r="AA473" s="40"/>
-      <c r="AB473" s="40"/>
-      <c r="AC473" s="40"/>
+      <c r="Z473" s="23"/>
+      <c r="AA473" s="23"/>
+      <c r="AB473" s="23"/>
+      <c r="AC473" s="23"/>
     </row>
     <row r="474" spans="17:29" s="21" customFormat="1">
       <c r="Q474" s="23"/>
@@ -26895,13 +26899,13 @@
       <c r="T474" s="23"/>
       <c r="U474" s="23"/>
       <c r="V474" s="23"/>
-      <c r="W474" s="23"/>
+      <c r="W474" s="40"/>
       <c r="X474" s="40"/>
       <c r="Y474" s="40"/>
-      <c r="Z474" s="23"/>
-      <c r="AA474" s="23"/>
-      <c r="AB474" s="23"/>
-      <c r="AC474" s="23"/>
+      <c r="Z474" s="40"/>
+      <c r="AA474" s="40"/>
+      <c r="AB474" s="40"/>
+      <c r="AC474" s="40"/>
     </row>
     <row r="475" spans="17:29" s="21" customFormat="1">
       <c r="Q475" s="23"/>
@@ -26910,13 +26914,13 @@
       <c r="T475" s="23"/>
       <c r="U475" s="23"/>
       <c r="V475" s="23"/>
-      <c r="W475" s="40"/>
+      <c r="W475" s="23"/>
       <c r="X475" s="40"/>
       <c r="Y475" s="40"/>
-      <c r="Z475" s="40"/>
-      <c r="AA475" s="40"/>
-      <c r="AB475" s="40"/>
-      <c r="AC475" s="40"/>
+      <c r="Z475" s="23"/>
+      <c r="AA475" s="23"/>
+      <c r="AB475" s="23"/>
+      <c r="AC475" s="23"/>
     </row>
     <row r="476" spans="17:29" s="21" customFormat="1">
       <c r="Q476" s="23"/>
@@ -26925,13 +26929,13 @@
       <c r="T476" s="23"/>
       <c r="U476" s="23"/>
       <c r="V476" s="23"/>
-      <c r="W476" s="23"/>
+      <c r="W476" s="40"/>
       <c r="X476" s="40"/>
       <c r="Y476" s="40"/>
-      <c r="Z476" s="23"/>
-      <c r="AA476" s="23"/>
-      <c r="AB476" s="23"/>
-      <c r="AC476" s="23"/>
+      <c r="Z476" s="40"/>
+      <c r="AA476" s="40"/>
+      <c r="AB476" s="40"/>
+      <c r="AC476" s="40"/>
     </row>
     <row r="477" spans="17:29" s="21" customFormat="1">
       <c r="Q477" s="23"/>
@@ -26940,7 +26944,7 @@
       <c r="T477" s="23"/>
       <c r="U477" s="23"/>
       <c r="V477" s="23"/>
-      <c r="W477" s="40"/>
+      <c r="W477" s="23"/>
       <c r="X477" s="40"/>
       <c r="Y477" s="40"/>
       <c r="Z477" s="40"/>
@@ -26955,7 +26959,7 @@
       <c r="T478" s="23"/>
       <c r="U478" s="23"/>
       <c r="V478" s="23"/>
-      <c r="W478" s="23"/>
+      <c r="W478" s="40"/>
       <c r="X478" s="40"/>
       <c r="Y478" s="40"/>
       <c r="Z478" s="40"/>
@@ -26970,13 +26974,13 @@
       <c r="T479" s="23"/>
       <c r="U479" s="23"/>
       <c r="V479" s="23"/>
-      <c r="W479" s="40"/>
+      <c r="W479" s="23"/>
       <c r="X479" s="40"/>
       <c r="Y479" s="40"/>
-      <c r="Z479" s="40"/>
-      <c r="AA479" s="40"/>
-      <c r="AB479" s="40"/>
-      <c r="AC479" s="40"/>
+      <c r="Z479" s="23"/>
+      <c r="AA479" s="23"/>
+      <c r="AB479" s="23"/>
+      <c r="AC479" s="23"/>
     </row>
     <row r="480" spans="17:29" s="21" customFormat="1">
       <c r="Q480" s="23"/>
@@ -26985,13 +26989,13 @@
       <c r="T480" s="23"/>
       <c r="U480" s="23"/>
       <c r="V480" s="23"/>
-      <c r="W480" s="23"/>
+      <c r="W480" s="40"/>
       <c r="X480" s="40"/>
       <c r="Y480" s="40"/>
-      <c r="Z480" s="23"/>
-      <c r="AA480" s="23"/>
-      <c r="AB480" s="23"/>
-      <c r="AC480" s="23"/>
+      <c r="Z480" s="40"/>
+      <c r="AA480" s="40"/>
+      <c r="AB480" s="40"/>
+      <c r="AC480" s="40"/>
     </row>
     <row r="481" spans="17:32" s="21" customFormat="1">
       <c r="Q481" s="23"/>
@@ -27000,13 +27004,13 @@
       <c r="T481" s="23"/>
       <c r="U481" s="23"/>
       <c r="V481" s="23"/>
-      <c r="W481" s="40"/>
+      <c r="W481" s="23"/>
       <c r="X481" s="40"/>
       <c r="Y481" s="40"/>
-      <c r="Z481" s="40"/>
-      <c r="AA481" s="40"/>
-      <c r="AB481" s="40"/>
-      <c r="AC481" s="40"/>
+      <c r="Z481" s="23"/>
+      <c r="AA481" s="23"/>
+      <c r="AB481" s="23"/>
+      <c r="AC481" s="23"/>
     </row>
     <row r="482" spans="17:32" s="21" customFormat="1">
       <c r="Q482" s="23"/>
@@ -27015,13 +27019,13 @@
       <c r="T482" s="23"/>
       <c r="U482" s="23"/>
       <c r="V482" s="23"/>
-      <c r="W482" s="23"/>
+      <c r="W482" s="40"/>
       <c r="X482" s="40"/>
       <c r="Y482" s="40"/>
-      <c r="Z482" s="23"/>
-      <c r="AA482" s="23"/>
-      <c r="AB482" s="23"/>
-      <c r="AC482" s="23"/>
+      <c r="Z482" s="40"/>
+      <c r="AA482" s="40"/>
+      <c r="AB482" s="40"/>
+      <c r="AC482" s="40"/>
     </row>
     <row r="483" spans="17:32" s="21" customFormat="1">
       <c r="Q483" s="23"/>
@@ -27045,7 +27049,7 @@
       <c r="T484" s="23"/>
       <c r="U484" s="23"/>
       <c r="V484" s="23"/>
-      <c r="W484" s="40"/>
+      <c r="W484" s="23"/>
       <c r="X484" s="40"/>
       <c r="Y484" s="40"/>
       <c r="Z484" s="40"/>
@@ -27060,7 +27064,7 @@
       <c r="T485" s="23"/>
       <c r="U485" s="23"/>
       <c r="V485" s="23"/>
-      <c r="W485" s="23"/>
+      <c r="W485" s="40"/>
       <c r="X485" s="40"/>
       <c r="Y485" s="40"/>
       <c r="Z485" s="40"/>
@@ -27090,13 +27094,13 @@
       <c r="T487" s="23"/>
       <c r="U487" s="23"/>
       <c r="V487" s="23"/>
-      <c r="W487" s="40"/>
+      <c r="W487" s="23"/>
       <c r="X487" s="40"/>
       <c r="Y487" s="40"/>
-      <c r="Z487" s="40"/>
-      <c r="AA487" s="40"/>
-      <c r="AB487" s="40"/>
-      <c r="AC487" s="40"/>
+      <c r="Z487" s="23"/>
+      <c r="AA487" s="23"/>
+      <c r="AB487" s="23"/>
+      <c r="AC487" s="23"/>
     </row>
     <row r="488" spans="17:32" s="21" customFormat="1">
       <c r="Q488" s="23"/>
@@ -27107,43 +27111,45 @@
       <c r="V488" s="23"/>
       <c r="W488" s="23"/>
       <c r="X488" s="40"/>
-      <c r="Y488" s="40"/>
+      <c r="Y488" s="23"/>
       <c r="Z488" s="23"/>
       <c r="AA488" s="23"/>
       <c r="AB488" s="23"/>
       <c r="AC488" s="23"/>
+      <c r="AD488" s="22"/>
+      <c r="AF488" s="22"/>
     </row>
     <row r="489" spans="17:32" s="21" customFormat="1">
-      <c r="Q489" s="23"/>
-      <c r="R489" s="23"/>
-      <c r="S489" s="23"/>
-      <c r="T489" s="23"/>
-      <c r="U489" s="23"/>
-      <c r="V489" s="23"/>
-      <c r="W489" s="23"/>
+      <c r="Q489" s="40"/>
+      <c r="R489" s="40"/>
+      <c r="S489" s="40"/>
+      <c r="T489" s="40"/>
+      <c r="U489" s="40"/>
+      <c r="V489" s="40"/>
+      <c r="W489" s="40"/>
       <c r="X489" s="40"/>
-      <c r="Y489" s="23"/>
-      <c r="Z489" s="23"/>
-      <c r="AA489" s="23"/>
-      <c r="AB489" s="23"/>
-      <c r="AC489" s="23"/>
-      <c r="AD489" s="22"/>
-      <c r="AF489" s="22"/>
+      <c r="Y489" s="40"/>
+      <c r="Z489" s="40"/>
+      <c r="AA489" s="40"/>
+      <c r="AB489" s="40"/>
+      <c r="AC489" s="40"/>
     </row>
     <row r="490" spans="17:32" s="21" customFormat="1">
-      <c r="Q490" s="40"/>
-      <c r="R490" s="40"/>
-      <c r="S490" s="40"/>
-      <c r="T490" s="40"/>
-      <c r="U490" s="40"/>
-      <c r="V490" s="40"/>
-      <c r="W490" s="40"/>
+      <c r="Q490" s="23"/>
+      <c r="R490" s="23"/>
+      <c r="S490" s="23"/>
+      <c r="T490" s="23"/>
+      <c r="U490" s="23"/>
+      <c r="V490" s="23"/>
+      <c r="W490" s="23"/>
       <c r="X490" s="40"/>
-      <c r="Y490" s="40"/>
-      <c r="Z490" s="40"/>
-      <c r="AA490" s="40"/>
-      <c r="AB490" s="40"/>
-      <c r="AC490" s="40"/>
+      <c r="Y490" s="23"/>
+      <c r="Z490" s="23"/>
+      <c r="AA490" s="23"/>
+      <c r="AB490" s="23"/>
+      <c r="AC490" s="23"/>
+      <c r="AD490" s="22"/>
+      <c r="AF490" s="22"/>
     </row>
     <row r="491" spans="17:32" s="21" customFormat="1">
       <c r="Q491" s="23"/>
@@ -27169,15 +27175,13 @@
       <c r="T492" s="23"/>
       <c r="U492" s="23"/>
       <c r="V492" s="23"/>
-      <c r="W492" s="23"/>
+      <c r="W492" s="40"/>
       <c r="X492" s="40"/>
-      <c r="Y492" s="23"/>
-      <c r="Z492" s="23"/>
-      <c r="AA492" s="23"/>
-      <c r="AB492" s="23"/>
-      <c r="AC492" s="23"/>
-      <c r="AD492" s="22"/>
-      <c r="AF492" s="22"/>
+      <c r="Y492" s="40"/>
+      <c r="Z492" s="40"/>
+      <c r="AA492" s="40"/>
+      <c r="AB492" s="40"/>
+      <c r="AC492" s="40"/>
     </row>
     <row r="493" spans="17:32" s="21" customFormat="1">
       <c r="Q493" s="23"/>
@@ -27186,7 +27190,7 @@
       <c r="T493" s="23"/>
       <c r="U493" s="23"/>
       <c r="V493" s="23"/>
-      <c r="W493" s="40"/>
+      <c r="W493" s="23"/>
       <c r="X493" s="40"/>
       <c r="Y493" s="40"/>
       <c r="Z493" s="40"/>
@@ -27195,13 +27199,13 @@
       <c r="AC493" s="40"/>
     </row>
     <row r="494" spans="17:32" s="21" customFormat="1">
-      <c r="Q494" s="23"/>
-      <c r="R494" s="23"/>
-      <c r="S494" s="23"/>
-      <c r="T494" s="23"/>
-      <c r="U494" s="23"/>
-      <c r="V494" s="23"/>
-      <c r="W494" s="23"/>
+      <c r="Q494" s="40"/>
+      <c r="R494" s="40"/>
+      <c r="S494" s="40"/>
+      <c r="T494" s="40"/>
+      <c r="U494" s="40"/>
+      <c r="V494" s="40"/>
+      <c r="W494" s="40"/>
       <c r="X494" s="40"/>
       <c r="Y494" s="40"/>
       <c r="Z494" s="40"/>
@@ -27210,12 +27214,12 @@
       <c r="AC494" s="40"/>
     </row>
     <row r="495" spans="17:32" s="21" customFormat="1">
-      <c r="Q495" s="40"/>
-      <c r="R495" s="40"/>
-      <c r="S495" s="40"/>
-      <c r="T495" s="40"/>
-      <c r="U495" s="40"/>
-      <c r="V495" s="40"/>
+      <c r="Q495" s="23"/>
+      <c r="R495" s="23"/>
+      <c r="S495" s="23"/>
+      <c r="T495" s="23"/>
+      <c r="U495" s="23"/>
+      <c r="V495" s="23"/>
       <c r="W495" s="40"/>
       <c r="X495" s="40"/>
       <c r="Y495" s="40"/>
@@ -27231,45 +27235,45 @@
       <c r="T496" s="23"/>
       <c r="U496" s="23"/>
       <c r="V496" s="23"/>
-      <c r="W496" s="40"/>
+      <c r="W496" s="23"/>
       <c r="X496" s="40"/>
-      <c r="Y496" s="40"/>
-      <c r="Z496" s="40"/>
-      <c r="AA496" s="40"/>
-      <c r="AB496" s="40"/>
-      <c r="AC496" s="40"/>
+      <c r="Y496" s="23"/>
+      <c r="Z496" s="23"/>
+      <c r="AA496" s="23"/>
+      <c r="AB496" s="23"/>
+      <c r="AC496" s="23"/>
+      <c r="AD496" s="22"/>
+      <c r="AF496" s="22"/>
     </row>
     <row r="497" spans="17:32" s="21" customFormat="1">
-      <c r="Q497" s="23"/>
-      <c r="R497" s="23"/>
-      <c r="S497" s="23"/>
-      <c r="T497" s="23"/>
-      <c r="U497" s="23"/>
-      <c r="V497" s="23"/>
-      <c r="W497" s="23"/>
+      <c r="Q497" s="40"/>
+      <c r="R497" s="40"/>
+      <c r="S497" s="40"/>
+      <c r="T497" s="40"/>
+      <c r="U497" s="40"/>
+      <c r="V497" s="40"/>
+      <c r="W497" s="40"/>
       <c r="X497" s="40"/>
-      <c r="Y497" s="23"/>
-      <c r="Z497" s="23"/>
-      <c r="AA497" s="23"/>
-      <c r="AB497" s="23"/>
-      <c r="AC497" s="23"/>
-      <c r="AD497" s="22"/>
-      <c r="AF497" s="22"/>
+      <c r="Y497" s="40"/>
+      <c r="Z497" s="40"/>
+      <c r="AA497" s="40"/>
+      <c r="AB497" s="40"/>
+      <c r="AC497" s="40"/>
     </row>
     <row r="498" spans="17:32" s="21" customFormat="1">
-      <c r="Q498" s="40"/>
-      <c r="R498" s="40"/>
-      <c r="S498" s="40"/>
-      <c r="T498" s="40"/>
-      <c r="U498" s="40"/>
-      <c r="V498" s="40"/>
-      <c r="W498" s="40"/>
+      <c r="Q498" s="23"/>
+      <c r="R498" s="23"/>
+      <c r="S498" s="23"/>
+      <c r="T498" s="23"/>
+      <c r="U498" s="23"/>
+      <c r="V498" s="23"/>
+      <c r="W498" s="23"/>
       <c r="X498" s="40"/>
       <c r="Y498" s="40"/>
-      <c r="Z498" s="40"/>
-      <c r="AA498" s="40"/>
-      <c r="AB498" s="40"/>
-      <c r="AC498" s="40"/>
+      <c r="Z498" s="23"/>
+      <c r="AA498" s="23"/>
+      <c r="AB498" s="23"/>
+      <c r="AC498" s="23"/>
     </row>
     <row r="499" spans="17:32" s="21" customFormat="1">
       <c r="Q499" s="23"/>
@@ -27280,11 +27284,13 @@
       <c r="V499" s="23"/>
       <c r="W499" s="23"/>
       <c r="X499" s="40"/>
-      <c r="Y499" s="40"/>
+      <c r="Y499" s="23"/>
       <c r="Z499" s="23"/>
       <c r="AA499" s="23"/>
       <c r="AB499" s="23"/>
       <c r="AC499" s="23"/>
+      <c r="AD499" s="22"/>
+      <c r="AF499" s="22"/>
     </row>
     <row r="500" spans="17:32" s="21" customFormat="1">
       <c r="Q500" s="23"/>
@@ -27293,23 +27299,21 @@
       <c r="T500" s="23"/>
       <c r="U500" s="23"/>
       <c r="V500" s="23"/>
-      <c r="W500" s="23"/>
+      <c r="W500" s="40"/>
       <c r="X500" s="40"/>
-      <c r="Y500" s="23"/>
-      <c r="Z500" s="23"/>
-      <c r="AA500" s="23"/>
-      <c r="AB500" s="23"/>
-      <c r="AC500" s="23"/>
-      <c r="AD500" s="22"/>
-      <c r="AF500" s="22"/>
+      <c r="Y500" s="40"/>
+      <c r="Z500" s="40"/>
+      <c r="AA500" s="40"/>
+      <c r="AB500" s="40"/>
+      <c r="AC500" s="40"/>
     </row>
     <row r="501" spans="17:32" s="21" customFormat="1">
-      <c r="Q501" s="23"/>
-      <c r="R501" s="23"/>
-      <c r="S501" s="23"/>
-      <c r="T501" s="23"/>
-      <c r="U501" s="23"/>
-      <c r="V501" s="23"/>
+      <c r="Q501" s="40"/>
+      <c r="R501" s="40"/>
+      <c r="S501" s="40"/>
+      <c r="T501" s="40"/>
+      <c r="U501" s="40"/>
+      <c r="V501" s="40"/>
       <c r="W501" s="40"/>
       <c r="X501" s="40"/>
       <c r="Y501" s="40"/>
@@ -27334,12 +27338,12 @@
       <c r="AC502" s="40"/>
     </row>
     <row r="503" spans="17:32" s="21" customFormat="1">
-      <c r="Q503" s="40"/>
-      <c r="R503" s="40"/>
-      <c r="S503" s="40"/>
-      <c r="T503" s="40"/>
-      <c r="U503" s="40"/>
-      <c r="V503" s="40"/>
+      <c r="Q503" s="23"/>
+      <c r="R503" s="23"/>
+      <c r="S503" s="23"/>
+      <c r="T503" s="23"/>
+      <c r="U503" s="23"/>
+      <c r="V503" s="23"/>
       <c r="W503" s="40"/>
       <c r="X503" s="40"/>
       <c r="Y503" s="40"/>
@@ -27370,13 +27374,13 @@
       <c r="T505" s="23"/>
       <c r="U505" s="23"/>
       <c r="V505" s="23"/>
-      <c r="W505" s="40"/>
+      <c r="W505" s="23"/>
       <c r="X505" s="40"/>
       <c r="Y505" s="40"/>
-      <c r="Z505" s="40"/>
-      <c r="AA505" s="40"/>
-      <c r="AB505" s="40"/>
-      <c r="AC505" s="40"/>
+      <c r="Z505" s="23"/>
+      <c r="AA505" s="23"/>
+      <c r="AB505" s="23"/>
+      <c r="AC505" s="23"/>
     </row>
     <row r="506" spans="17:32" s="21" customFormat="1">
       <c r="Q506" s="23"/>
@@ -27387,36 +27391,36 @@
       <c r="V506" s="23"/>
       <c r="W506" s="23"/>
       <c r="X506" s="40"/>
-      <c r="Y506" s="40"/>
+      <c r="Y506" s="23"/>
       <c r="Z506" s="23"/>
       <c r="AA506" s="23"/>
       <c r="AB506" s="23"/>
       <c r="AC506" s="23"/>
+      <c r="AD506" s="22"/>
+      <c r="AF506" s="22"/>
     </row>
     <row r="507" spans="17:32" s="21" customFormat="1">
-      <c r="Q507" s="23"/>
-      <c r="R507" s="23"/>
-      <c r="S507" s="23"/>
-      <c r="T507" s="23"/>
-      <c r="U507" s="23"/>
-      <c r="V507" s="23"/>
-      <c r="W507" s="23"/>
+      <c r="Q507" s="40"/>
+      <c r="R507" s="40"/>
+      <c r="S507" s="40"/>
+      <c r="T507" s="40"/>
+      <c r="U507" s="40"/>
+      <c r="V507" s="40"/>
+      <c r="W507" s="40"/>
       <c r="X507" s="40"/>
-      <c r="Y507" s="23"/>
-      <c r="Z507" s="23"/>
-      <c r="AA507" s="23"/>
-      <c r="AB507" s="23"/>
-      <c r="AC507" s="23"/>
-      <c r="AD507" s="22"/>
-      <c r="AF507" s="22"/>
+      <c r="Y507" s="40"/>
+      <c r="Z507" s="40"/>
+      <c r="AA507" s="40"/>
+      <c r="AB507" s="40"/>
+      <c r="AC507" s="40"/>
     </row>
     <row r="508" spans="17:32" s="21" customFormat="1">
-      <c r="Q508" s="40"/>
-      <c r="R508" s="40"/>
-      <c r="S508" s="40"/>
-      <c r="T508" s="40"/>
-      <c r="U508" s="40"/>
-      <c r="V508" s="40"/>
+      <c r="Q508" s="23"/>
+      <c r="R508" s="23"/>
+      <c r="S508" s="23"/>
+      <c r="T508" s="23"/>
+      <c r="U508" s="23"/>
+      <c r="V508" s="23"/>
       <c r="W508" s="40"/>
       <c r="X508" s="40"/>
       <c r="Y508" s="40"/>
@@ -27462,7 +27466,7 @@
       <c r="T511" s="23"/>
       <c r="U511" s="23"/>
       <c r="V511" s="23"/>
-      <c r="W511" s="40"/>
+      <c r="W511" s="23"/>
       <c r="X511" s="40"/>
       <c r="Y511" s="40"/>
       <c r="Z511" s="40"/>
@@ -27480,10 +27484,10 @@
       <c r="W512" s="23"/>
       <c r="X512" s="40"/>
       <c r="Y512" s="40"/>
-      <c r="Z512" s="40"/>
-      <c r="AA512" s="40"/>
-      <c r="AB512" s="40"/>
-      <c r="AC512" s="40"/>
+      <c r="Z512" s="23"/>
+      <c r="AA512" s="23"/>
+      <c r="AB512" s="23"/>
+      <c r="AC512" s="23"/>
     </row>
     <row r="513" spans="17:32" s="21" customFormat="1">
       <c r="Q513" s="23"/>
@@ -27494,11 +27498,13 @@
       <c r="V513" s="23"/>
       <c r="W513" s="23"/>
       <c r="X513" s="40"/>
-      <c r="Y513" s="40"/>
+      <c r="Y513" s="23"/>
       <c r="Z513" s="23"/>
       <c r="AA513" s="23"/>
       <c r="AB513" s="23"/>
       <c r="AC513" s="23"/>
+      <c r="AD513" s="22"/>
+      <c r="AF513" s="22"/>
     </row>
     <row r="514" spans="17:32" s="21" customFormat="1">
       <c r="Q514" s="23"/>
@@ -27509,22 +27515,20 @@
       <c r="V514" s="23"/>
       <c r="W514" s="23"/>
       <c r="X514" s="40"/>
-      <c r="Y514" s="23"/>
-      <c r="Z514" s="23"/>
-      <c r="AA514" s="23"/>
-      <c r="AB514" s="23"/>
-      <c r="AC514" s="23"/>
-      <c r="AD514" s="22"/>
-      <c r="AF514" s="22"/>
+      <c r="Y514" s="40"/>
+      <c r="Z514" s="40"/>
+      <c r="AA514" s="40"/>
+      <c r="AB514" s="40"/>
+      <c r="AC514" s="40"/>
     </row>
     <row r="515" spans="17:32" s="21" customFormat="1">
-      <c r="Q515" s="23"/>
-      <c r="R515" s="23"/>
-      <c r="S515" s="23"/>
-      <c r="T515" s="23"/>
-      <c r="U515" s="23"/>
-      <c r="V515" s="23"/>
-      <c r="W515" s="23"/>
+      <c r="Q515" s="40"/>
+      <c r="R515" s="40"/>
+      <c r="S515" s="40"/>
+      <c r="T515" s="40"/>
+      <c r="U515" s="40"/>
+      <c r="V515" s="40"/>
+      <c r="W515" s="40"/>
       <c r="X515" s="40"/>
       <c r="Y515" s="40"/>
       <c r="Z515" s="40"/>
@@ -27533,44 +27537,44 @@
       <c r="AC515" s="40"/>
     </row>
     <row r="516" spans="17:32" s="21" customFormat="1">
-      <c r="Q516" s="40"/>
-      <c r="R516" s="40"/>
-      <c r="S516" s="40"/>
-      <c r="T516" s="40"/>
-      <c r="U516" s="40"/>
-      <c r="V516" s="40"/>
-      <c r="W516" s="40"/>
+      <c r="Q516" s="23"/>
+      <c r="R516" s="23"/>
+      <c r="S516" s="23"/>
+      <c r="T516" s="23"/>
+      <c r="U516" s="23"/>
+      <c r="V516" s="23"/>
+      <c r="W516" s="23"/>
       <c r="X516" s="40"/>
-      <c r="Y516" s="40"/>
-      <c r="Z516" s="40"/>
-      <c r="AA516" s="40"/>
-      <c r="AB516" s="40"/>
-      <c r="AC516" s="40"/>
+      <c r="Y516" s="23"/>
+      <c r="Z516" s="23"/>
+      <c r="AA516" s="23"/>
+      <c r="AB516" s="23"/>
+      <c r="AC516" s="23"/>
+      <c r="AD516" s="22"/>
+      <c r="AF516" s="22"/>
     </row>
     <row r="517" spans="17:32" s="21" customFormat="1">
-      <c r="Q517" s="23"/>
-      <c r="R517" s="23"/>
-      <c r="S517" s="23"/>
-      <c r="T517" s="23"/>
-      <c r="U517" s="23"/>
-      <c r="V517" s="23"/>
-      <c r="W517" s="23"/>
+      <c r="Q517" s="40"/>
+      <c r="R517" s="40"/>
+      <c r="S517" s="40"/>
+      <c r="T517" s="40"/>
+      <c r="U517" s="40"/>
+      <c r="V517" s="40"/>
+      <c r="W517" s="40"/>
       <c r="X517" s="40"/>
-      <c r="Y517" s="23"/>
-      <c r="Z517" s="23"/>
-      <c r="AA517" s="23"/>
-      <c r="AB517" s="23"/>
-      <c r="AC517" s="23"/>
-      <c r="AD517" s="22"/>
-      <c r="AF517" s="22"/>
+      <c r="Y517" s="40"/>
+      <c r="Z517" s="40"/>
+      <c r="AA517" s="40"/>
+      <c r="AB517" s="40"/>
+      <c r="AC517" s="40"/>
     </row>
     <row r="518" spans="17:32" s="21" customFormat="1">
-      <c r="Q518" s="40"/>
-      <c r="R518" s="40"/>
-      <c r="S518" s="40"/>
-      <c r="T518" s="40"/>
-      <c r="U518" s="40"/>
-      <c r="V518" s="40"/>
+      <c r="Q518" s="23"/>
+      <c r="R518" s="23"/>
+      <c r="S518" s="23"/>
+      <c r="T518" s="23"/>
+      <c r="U518" s="23"/>
+      <c r="V518" s="23"/>
       <c r="W518" s="40"/>
       <c r="X518" s="40"/>
       <c r="Y518" s="40"/>
@@ -27601,13 +27605,13 @@
       <c r="T520" s="23"/>
       <c r="U520" s="23"/>
       <c r="V520" s="23"/>
-      <c r="W520" s="40"/>
+      <c r="W520" s="23"/>
       <c r="X520" s="40"/>
       <c r="Y520" s="40"/>
-      <c r="Z520" s="40"/>
-      <c r="AA520" s="40"/>
-      <c r="AB520" s="40"/>
-      <c r="AC520" s="40"/>
+      <c r="Z520" s="23"/>
+      <c r="AA520" s="23"/>
+      <c r="AB520" s="23"/>
+      <c r="AC520" s="23"/>
     </row>
     <row r="521" spans="17:32" s="21" customFormat="1">
       <c r="Q521" s="23"/>
@@ -27618,36 +27622,36 @@
       <c r="V521" s="23"/>
       <c r="W521" s="23"/>
       <c r="X521" s="40"/>
-      <c r="Y521" s="40"/>
+      <c r="Y521" s="23"/>
       <c r="Z521" s="23"/>
       <c r="AA521" s="23"/>
       <c r="AB521" s="23"/>
       <c r="AC521" s="23"/>
+      <c r="AD521" s="22"/>
+      <c r="AF521" s="22"/>
     </row>
     <row r="522" spans="17:32" s="21" customFormat="1">
-      <c r="Q522" s="23"/>
-      <c r="R522" s="23"/>
-      <c r="S522" s="23"/>
-      <c r="T522" s="23"/>
-      <c r="U522" s="23"/>
-      <c r="V522" s="23"/>
-      <c r="W522" s="23"/>
+      <c r="Q522" s="40"/>
+      <c r="R522" s="40"/>
+      <c r="S522" s="40"/>
+      <c r="T522" s="40"/>
+      <c r="U522" s="40"/>
+      <c r="V522" s="40"/>
+      <c r="W522" s="40"/>
       <c r="X522" s="40"/>
-      <c r="Y522" s="23"/>
-      <c r="Z522" s="23"/>
-      <c r="AA522" s="23"/>
-      <c r="AB522" s="23"/>
-      <c r="AC522" s="23"/>
-      <c r="AD522" s="22"/>
-      <c r="AF522" s="22"/>
+      <c r="Y522" s="40"/>
+      <c r="Z522" s="40"/>
+      <c r="AA522" s="40"/>
+      <c r="AB522" s="40"/>
+      <c r="AC522" s="40"/>
     </row>
     <row r="523" spans="17:32" s="21" customFormat="1">
-      <c r="Q523" s="40"/>
-      <c r="R523" s="40"/>
-      <c r="S523" s="40"/>
-      <c r="T523" s="40"/>
-      <c r="U523" s="40"/>
-      <c r="V523" s="40"/>
+      <c r="Q523" s="23"/>
+      <c r="R523" s="23"/>
+      <c r="S523" s="23"/>
+      <c r="T523" s="23"/>
+      <c r="U523" s="23"/>
+      <c r="V523" s="23"/>
       <c r="W523" s="40"/>
       <c r="X523" s="40"/>
       <c r="Y523" s="40"/>
@@ -27693,7 +27697,7 @@
       <c r="T526" s="23"/>
       <c r="U526" s="23"/>
       <c r="V526" s="23"/>
-      <c r="W526" s="40"/>
+      <c r="W526" s="23"/>
       <c r="X526" s="40"/>
       <c r="Y526" s="40"/>
       <c r="Z526" s="40"/>
@@ -27711,10 +27715,10 @@
       <c r="W527" s="23"/>
       <c r="X527" s="40"/>
       <c r="Y527" s="40"/>
-      <c r="Z527" s="40"/>
-      <c r="AA527" s="40"/>
-      <c r="AB527" s="40"/>
-      <c r="AC527" s="40"/>
+      <c r="Z527" s="23"/>
+      <c r="AA527" s="23"/>
+      <c r="AB527" s="23"/>
+      <c r="AC527" s="23"/>
     </row>
     <row r="528" spans="17:32" s="21" customFormat="1">
       <c r="Q528" s="23"/>
@@ -27725,13 +27729,15 @@
       <c r="V528" s="23"/>
       <c r="W528" s="23"/>
       <c r="X528" s="40"/>
-      <c r="Y528" s="40"/>
+      <c r="Y528" s="23"/>
       <c r="Z528" s="23"/>
       <c r="AA528" s="23"/>
       <c r="AB528" s="23"/>
       <c r="AC528" s="23"/>
-    </row>
-    <row r="529" spans="17:32" s="21" customFormat="1">
+      <c r="AD528" s="22"/>
+      <c r="AF528" s="22"/>
+    </row>
+    <row r="529" spans="10:32" s="21" customFormat="1">
       <c r="Q529" s="23"/>
       <c r="R529" s="23"/>
       <c r="S529" s="23"/>
@@ -27740,22 +27746,20 @@
       <c r="V529" s="23"/>
       <c r="W529" s="23"/>
       <c r="X529" s="40"/>
-      <c r="Y529" s="23"/>
-      <c r="Z529" s="23"/>
-      <c r="AA529" s="23"/>
-      <c r="AB529" s="23"/>
-      <c r="AC529" s="23"/>
-      <c r="AD529" s="22"/>
-      <c r="AF529" s="22"/>
-    </row>
-    <row r="530" spans="17:32" s="21" customFormat="1">
-      <c r="Q530" s="23"/>
-      <c r="R530" s="23"/>
-      <c r="S530" s="23"/>
-      <c r="T530" s="23"/>
-      <c r="U530" s="23"/>
-      <c r="V530" s="23"/>
-      <c r="W530" s="23"/>
+      <c r="Y529" s="40"/>
+      <c r="Z529" s="40"/>
+      <c r="AA529" s="40"/>
+      <c r="AB529" s="40"/>
+      <c r="AC529" s="40"/>
+    </row>
+    <row r="530" spans="10:32" s="21" customFormat="1">
+      <c r="Q530" s="40"/>
+      <c r="R530" s="40"/>
+      <c r="S530" s="40"/>
+      <c r="T530" s="40"/>
+      <c r="U530" s="40"/>
+      <c r="V530" s="40"/>
+      <c r="W530" s="40"/>
       <c r="X530" s="40"/>
       <c r="Y530" s="40"/>
       <c r="Z530" s="40"/>
@@ -27763,46 +27767,46 @@
       <c r="AB530" s="40"/>
       <c r="AC530" s="40"/>
     </row>
-    <row r="531" spans="17:32" s="21" customFormat="1">
-      <c r="Q531" s="40"/>
-      <c r="R531" s="40"/>
-      <c r="S531" s="40"/>
-      <c r="T531" s="40"/>
-      <c r="U531" s="40"/>
-      <c r="V531" s="40"/>
+    <row r="531" spans="10:32" s="21" customFormat="1">
+      <c r="Q531" s="23"/>
+      <c r="R531" s="23"/>
+      <c r="S531" s="23"/>
+      <c r="T531" s="23"/>
+      <c r="U531" s="23"/>
+      <c r="V531" s="23"/>
       <c r="W531" s="40"/>
-      <c r="X531" s="40"/>
-      <c r="Y531" s="40"/>
-      <c r="Z531" s="40"/>
-      <c r="AA531" s="40"/>
-      <c r="AB531" s="40"/>
-      <c r="AC531" s="40"/>
-    </row>
-    <row r="532" spans="17:32" s="21" customFormat="1">
-      <c r="Q532" s="23"/>
-      <c r="R532" s="23"/>
-      <c r="S532" s="23"/>
-      <c r="T532" s="23"/>
-      <c r="U532" s="23"/>
-      <c r="V532" s="23"/>
+      <c r="X531" s="23"/>
+      <c r="Y531" s="23"/>
+      <c r="Z531" s="23"/>
+      <c r="AA531" s="23"/>
+      <c r="AB531" s="23"/>
+      <c r="AC531" s="23"/>
+      <c r="AD531" s="22"/>
+      <c r="AF531" s="22"/>
+    </row>
+    <row r="532" spans="10:32" s="21" customFormat="1">
+      <c r="Q532" s="40"/>
+      <c r="R532" s="40"/>
+      <c r="S532" s="40"/>
+      <c r="T532" s="40"/>
+      <c r="U532" s="40"/>
+      <c r="V532" s="40"/>
       <c r="W532" s="40"/>
-      <c r="X532" s="23"/>
-      <c r="Y532" s="23"/>
-      <c r="Z532" s="23"/>
-      <c r="AA532" s="23"/>
-      <c r="AB532" s="23"/>
-      <c r="AC532" s="23"/>
-      <c r="AD532" s="22"/>
-      <c r="AF532" s="22"/>
-    </row>
-    <row r="533" spans="17:32" s="21" customFormat="1">
-      <c r="Q533" s="40"/>
-      <c r="R533" s="40"/>
-      <c r="S533" s="40"/>
-      <c r="T533" s="40"/>
-      <c r="U533" s="40"/>
-      <c r="V533" s="40"/>
-      <c r="W533" s="40"/>
+      <c r="X532" s="40"/>
+      <c r="Y532" s="40"/>
+      <c r="Z532" s="40"/>
+      <c r="AA532" s="40"/>
+      <c r="AB532" s="40"/>
+      <c r="AC532" s="40"/>
+    </row>
+    <row r="533" spans="10:32" s="21" customFormat="1">
+      <c r="Q533" s="23"/>
+      <c r="R533" s="23"/>
+      <c r="S533" s="23"/>
+      <c r="T533" s="23"/>
+      <c r="U533" s="23"/>
+      <c r="V533" s="23"/>
+      <c r="W533" s="23"/>
       <c r="X533" s="40"/>
       <c r="Y533" s="40"/>
       <c r="Z533" s="40"/>
@@ -27810,7 +27814,7 @@
       <c r="AB533" s="40"/>
       <c r="AC533" s="40"/>
     </row>
-    <row r="534" spans="17:32" s="21" customFormat="1">
+    <row r="534" spans="10:32" s="21" customFormat="1">
       <c r="Q534" s="23"/>
       <c r="R534" s="23"/>
       <c r="S534" s="23"/>
@@ -27825,7 +27829,7 @@
       <c r="AB534" s="40"/>
       <c r="AC534" s="40"/>
     </row>
-    <row r="535" spans="17:32" s="21" customFormat="1">
+    <row r="535" spans="10:32" s="21" customFormat="1">
       <c r="Q535" s="23"/>
       <c r="R535" s="23"/>
       <c r="S535" s="23"/>
@@ -27840,28 +27844,30 @@
       <c r="AB535" s="40"/>
       <c r="AC535" s="40"/>
     </row>
-    <row r="536" spans="17:32" s="21" customFormat="1">
-      <c r="Q536" s="23"/>
-      <c r="R536" s="23"/>
-      <c r="S536" s="23"/>
-      <c r="T536" s="23"/>
-      <c r="U536" s="23"/>
-      <c r="V536" s="23"/>
-      <c r="W536" s="23"/>
-      <c r="X536" s="40"/>
-      <c r="Y536" s="40"/>
-      <c r="Z536" s="40"/>
-      <c r="AA536" s="40"/>
-      <c r="AB536" s="40"/>
-      <c r="AC536" s="40"/>
-    </row>
-    <row r="537" spans="17:32" s="21" customFormat="1">
-      <c r="Q537" s="40"/>
-      <c r="R537" s="40"/>
-      <c r="S537" s="40"/>
-      <c r="T537" s="40"/>
-      <c r="U537" s="40"/>
-      <c r="V537" s="40"/>
+    <row r="536" spans="10:32" s="21" customFormat="1">
+      <c r="Q536" s="40"/>
+      <c r="R536" s="40"/>
+      <c r="S536" s="40"/>
+      <c r="T536" s="40"/>
+      <c r="U536" s="40"/>
+      <c r="V536" s="40"/>
+      <c r="W536" s="40"/>
+      <c r="X536" s="23"/>
+      <c r="Y536" s="23"/>
+      <c r="Z536" s="23"/>
+      <c r="AA536" s="23"/>
+      <c r="AB536" s="23"/>
+      <c r="AC536" s="23"/>
+      <c r="AD536" s="22"/>
+      <c r="AF536" s="22"/>
+    </row>
+    <row r="537" spans="10:32" s="21" customFormat="1">
+      <c r="Q537" s="23"/>
+      <c r="R537" s="23"/>
+      <c r="S537" s="23"/>
+      <c r="T537" s="23"/>
+      <c r="U537" s="23"/>
+      <c r="V537" s="23"/>
       <c r="W537" s="40"/>
       <c r="X537" s="23"/>
       <c r="Y537" s="23"/>
@@ -27872,24 +27878,22 @@
       <c r="AD537" s="22"/>
       <c r="AF537" s="22"/>
     </row>
-    <row r="538" spans="17:32" s="21" customFormat="1">
+    <row r="538" spans="10:32" s="21" customFormat="1">
       <c r="Q538" s="23"/>
       <c r="R538" s="23"/>
       <c r="S538" s="23"/>
       <c r="T538" s="23"/>
       <c r="U538" s="23"/>
       <c r="V538" s="23"/>
-      <c r="W538" s="40"/>
-      <c r="X538" s="23"/>
-      <c r="Y538" s="23"/>
+      <c r="W538" s="23"/>
+      <c r="X538" s="40"/>
+      <c r="Y538" s="40"/>
       <c r="Z538" s="23"/>
       <c r="AA538" s="23"/>
       <c r="AB538" s="23"/>
       <c r="AC538" s="23"/>
-      <c r="AD538" s="22"/>
-      <c r="AF538" s="22"/>
-    </row>
-    <row r="539" spans="17:32" s="21" customFormat="1">
+    </row>
+    <row r="539" spans="10:32" s="21" customFormat="1">
       <c r="Q539" s="23"/>
       <c r="R539" s="23"/>
       <c r="S539" s="23"/>
@@ -27904,7 +27908,7 @@
       <c r="AB539" s="23"/>
       <c r="AC539" s="23"/>
     </row>
-    <row r="540" spans="17:32" s="21" customFormat="1">
+    <row r="540" spans="10:32" s="21" customFormat="1">
       <c r="Q540" s="23"/>
       <c r="R540" s="23"/>
       <c r="S540" s="23"/>
@@ -27919,22 +27923,22 @@
       <c r="AB540" s="23"/>
       <c r="AC540" s="23"/>
     </row>
-    <row r="541" spans="17:32" s="21" customFormat="1">
+    <row r="541" spans="10:32" s="21" customFormat="1">
       <c r="Q541" s="23"/>
       <c r="R541" s="23"/>
       <c r="S541" s="23"/>
       <c r="T541" s="23"/>
       <c r="U541" s="23"/>
       <c r="V541" s="23"/>
-      <c r="W541" s="23"/>
+      <c r="W541" s="40"/>
       <c r="X541" s="40"/>
       <c r="Y541" s="40"/>
-      <c r="Z541" s="23"/>
-      <c r="AA541" s="23"/>
-      <c r="AB541" s="23"/>
-      <c r="AC541" s="23"/>
-    </row>
-    <row r="542" spans="17:32" s="21" customFormat="1">
+      <c r="Z541" s="40"/>
+      <c r="AA541" s="40"/>
+      <c r="AB541" s="40"/>
+      <c r="AC541" s="40"/>
+    </row>
+    <row r="542" spans="10:32" s="21" customFormat="1">
       <c r="Q542" s="23"/>
       <c r="R542" s="23"/>
       <c r="S542" s="23"/>
@@ -27949,47 +27953,50 @@
       <c r="AB542" s="40"/>
       <c r="AC542" s="40"/>
     </row>
-    <row r="543" spans="17:32" s="21" customFormat="1">
+    <row r="543" spans="10:32" s="21" customFormat="1">
       <c r="Q543" s="23"/>
       <c r="R543" s="23"/>
       <c r="S543" s="23"/>
       <c r="T543" s="23"/>
       <c r="U543" s="23"/>
       <c r="V543" s="23"/>
-      <c r="W543" s="40"/>
+      <c r="W543" s="23"/>
       <c r="X543" s="40"/>
-      <c r="Y543" s="40"/>
-      <c r="Z543" s="40"/>
-      <c r="AA543" s="40"/>
-      <c r="AB543" s="40"/>
-      <c r="AC543" s="40"/>
-    </row>
-    <row r="544" spans="17:32" s="21" customFormat="1">
-      <c r="Q544" s="23"/>
-      <c r="R544" s="23"/>
-      <c r="S544" s="23"/>
-      <c r="T544" s="23"/>
-      <c r="U544" s="23"/>
-      <c r="V544" s="23"/>
-      <c r="W544" s="23"/>
+      <c r="Y543" s="23"/>
+      <c r="Z543" s="23"/>
+      <c r="AA543" s="23"/>
+      <c r="AB543" s="23"/>
+      <c r="AC543" s="23"/>
+      <c r="AD543" s="22"/>
+      <c r="AF543" s="22"/>
+    </row>
+    <row r="544" spans="10:32" s="21" customFormat="1">
+      <c r="J544" s="36"/>
+      <c r="K544" s="36"/>
+      <c r="Q544" s="40"/>
+      <c r="R544" s="40"/>
+      <c r="S544" s="40"/>
+      <c r="T544" s="40"/>
+      <c r="U544" s="40"/>
+      <c r="V544" s="40"/>
+      <c r="W544" s="40"/>
       <c r="X544" s="40"/>
-      <c r="Y544" s="23"/>
-      <c r="Z544" s="23"/>
-      <c r="AA544" s="23"/>
-      <c r="AB544" s="23"/>
-      <c r="AC544" s="23"/>
-      <c r="AD544" s="22"/>
-      <c r="AF544" s="22"/>
+      <c r="Y544" s="40"/>
+      <c r="Z544" s="40"/>
+      <c r="AA544" s="40"/>
+      <c r="AB544" s="40"/>
+      <c r="AC544" s="40"/>
     </row>
     <row r="545" spans="9:32" s="21" customFormat="1">
-      <c r="J545" s="36"/>
-      <c r="K545" s="36"/>
-      <c r="Q545" s="40"/>
-      <c r="R545" s="40"/>
-      <c r="S545" s="40"/>
-      <c r="T545" s="40"/>
-      <c r="U545" s="40"/>
-      <c r="V545" s="40"/>
+      <c r="I545" s="36"/>
+      <c r="L545" s="36"/>
+      <c r="M545" s="36"/>
+      <c r="Q545" s="23"/>
+      <c r="R545" s="23"/>
+      <c r="S545" s="23"/>
+      <c r="T545" s="23"/>
+      <c r="U545" s="23"/>
+      <c r="V545" s="23"/>
       <c r="W545" s="40"/>
       <c r="X545" s="40"/>
       <c r="Y545" s="40"/>
@@ -27999,15 +28006,12 @@
       <c r="AC545" s="40"/>
     </row>
     <row r="546" spans="9:32" s="21" customFormat="1">
-      <c r="I546" s="36"/>
-      <c r="L546" s="36"/>
-      <c r="M546" s="36"/>
-      <c r="Q546" s="23"/>
-      <c r="R546" s="23"/>
-      <c r="S546" s="23"/>
-      <c r="T546" s="23"/>
-      <c r="U546" s="23"/>
-      <c r="V546" s="23"/>
+      <c r="Q546" s="40"/>
+      <c r="R546" s="40"/>
+      <c r="S546" s="40"/>
+      <c r="T546" s="40"/>
+      <c r="U546" s="40"/>
+      <c r="V546" s="40"/>
       <c r="W546" s="40"/>
       <c r="X546" s="40"/>
       <c r="Y546" s="40"/>
@@ -28017,19 +28021,19 @@
       <c r="AC546" s="40"/>
     </row>
     <row r="547" spans="9:32" s="21" customFormat="1">
-      <c r="Q547" s="40"/>
-      <c r="R547" s="40"/>
-      <c r="S547" s="40"/>
-      <c r="T547" s="40"/>
-      <c r="U547" s="40"/>
-      <c r="V547" s="40"/>
-      <c r="W547" s="40"/>
+      <c r="Q547" s="23"/>
+      <c r="R547" s="23"/>
+      <c r="S547" s="23"/>
+      <c r="T547" s="23"/>
+      <c r="U547" s="23"/>
+      <c r="V547" s="23"/>
+      <c r="W547" s="23"/>
       <c r="X547" s="40"/>
       <c r="Y547" s="40"/>
-      <c r="Z547" s="40"/>
-      <c r="AA547" s="40"/>
-      <c r="AB547" s="40"/>
-      <c r="AC547" s="40"/>
+      <c r="Z547" s="23"/>
+      <c r="AA547" s="23"/>
+      <c r="AB547" s="23"/>
+      <c r="AC547" s="23"/>
     </row>
     <row r="548" spans="9:32" s="21" customFormat="1">
       <c r="Q548" s="23"/>
@@ -28040,36 +28044,36 @@
       <c r="V548" s="23"/>
       <c r="W548" s="23"/>
       <c r="X548" s="40"/>
-      <c r="Y548" s="40"/>
+      <c r="Y548" s="23"/>
       <c r="Z548" s="23"/>
       <c r="AA548" s="23"/>
       <c r="AB548" s="23"/>
       <c r="AC548" s="23"/>
+      <c r="AD548" s="22"/>
+      <c r="AF548" s="22"/>
     </row>
     <row r="549" spans="9:32" s="21" customFormat="1">
-      <c r="Q549" s="23"/>
-      <c r="R549" s="23"/>
-      <c r="S549" s="23"/>
-      <c r="T549" s="23"/>
-      <c r="U549" s="23"/>
-      <c r="V549" s="23"/>
-      <c r="W549" s="23"/>
+      <c r="Q549" s="40"/>
+      <c r="R549" s="40"/>
+      <c r="S549" s="40"/>
+      <c r="T549" s="40"/>
+      <c r="U549" s="40"/>
+      <c r="V549" s="40"/>
+      <c r="W549" s="40"/>
       <c r="X549" s="40"/>
-      <c r="Y549" s="23"/>
-      <c r="Z549" s="23"/>
-      <c r="AA549" s="23"/>
-      <c r="AB549" s="23"/>
-      <c r="AC549" s="23"/>
-      <c r="AD549" s="22"/>
-      <c r="AF549" s="22"/>
+      <c r="Y549" s="40"/>
+      <c r="Z549" s="40"/>
+      <c r="AA549" s="40"/>
+      <c r="AB549" s="40"/>
+      <c r="AC549" s="40"/>
     </row>
     <row r="550" spans="9:32" s="21" customFormat="1">
-      <c r="Q550" s="40"/>
-      <c r="R550" s="40"/>
-      <c r="S550" s="40"/>
-      <c r="T550" s="40"/>
-      <c r="U550" s="40"/>
-      <c r="V550" s="40"/>
+      <c r="Q550" s="23"/>
+      <c r="R550" s="23"/>
+      <c r="S550" s="23"/>
+      <c r="T550" s="23"/>
+      <c r="U550" s="23"/>
+      <c r="V550" s="23"/>
       <c r="W550" s="40"/>
       <c r="X550" s="40"/>
       <c r="Y550" s="40"/>
@@ -28100,7 +28104,7 @@
       <c r="T552" s="23"/>
       <c r="U552" s="23"/>
       <c r="V552" s="23"/>
-      <c r="W552" s="40"/>
+      <c r="W552" s="23"/>
       <c r="X552" s="40"/>
       <c r="Y552" s="40"/>
       <c r="Z552" s="40"/>
@@ -28124,13 +28128,13 @@
       <c r="AC553" s="40"/>
     </row>
     <row r="554" spans="9:32" s="21" customFormat="1">
-      <c r="Q554" s="23"/>
-      <c r="R554" s="23"/>
-      <c r="S554" s="23"/>
-      <c r="T554" s="23"/>
-      <c r="U554" s="23"/>
-      <c r="V554" s="23"/>
-      <c r="W554" s="23"/>
+      <c r="Q554" s="40"/>
+      <c r="R554" s="40"/>
+      <c r="S554" s="40"/>
+      <c r="T554" s="40"/>
+      <c r="U554" s="40"/>
+      <c r="V554" s="40"/>
+      <c r="W554" s="40"/>
       <c r="X554" s="40"/>
       <c r="Y554" s="40"/>
       <c r="Z554" s="40"/>
@@ -28139,19 +28143,21 @@
       <c r="AC554" s="40"/>
     </row>
     <row r="555" spans="9:32" s="21" customFormat="1">
-      <c r="Q555" s="40"/>
-      <c r="R555" s="40"/>
-      <c r="S555" s="40"/>
-      <c r="T555" s="40"/>
-      <c r="U555" s="40"/>
-      <c r="V555" s="40"/>
+      <c r="Q555" s="23"/>
+      <c r="R555" s="23"/>
+      <c r="S555" s="23"/>
+      <c r="T555" s="23"/>
+      <c r="U555" s="23"/>
+      <c r="V555" s="23"/>
       <c r="W555" s="40"/>
-      <c r="X555" s="40"/>
-      <c r="Y555" s="40"/>
-      <c r="Z555" s="40"/>
-      <c r="AA555" s="40"/>
-      <c r="AB555" s="40"/>
-      <c r="AC555" s="40"/>
+      <c r="X555" s="23"/>
+      <c r="Y555" s="23"/>
+      <c r="Z555" s="23"/>
+      <c r="AA555" s="23"/>
+      <c r="AB555" s="23"/>
+      <c r="AC555" s="23"/>
+      <c r="AD555" s="22"/>
+      <c r="AF555" s="22"/>
     </row>
     <row r="556" spans="9:32" s="21" customFormat="1">
       <c r="Q556" s="23"/>
@@ -28160,15 +28166,13 @@
       <c r="T556" s="23"/>
       <c r="U556" s="23"/>
       <c r="V556" s="23"/>
-      <c r="W556" s="40"/>
-      <c r="X556" s="23"/>
-      <c r="Y556" s="23"/>
-      <c r="Z556" s="23"/>
-      <c r="AA556" s="23"/>
-      <c r="AB556" s="23"/>
-      <c r="AC556" s="23"/>
-      <c r="AD556" s="22"/>
-      <c r="AF556" s="22"/>
+      <c r="W556" s="23"/>
+      <c r="X556" s="40"/>
+      <c r="Y556" s="40"/>
+      <c r="Z556" s="40"/>
+      <c r="AA556" s="40"/>
+      <c r="AB556" s="40"/>
+      <c r="AC556" s="40"/>
     </row>
     <row r="557" spans="9:32" s="21" customFormat="1">
       <c r="Q557" s="23"/>
@@ -28201,43 +28205,43 @@
       <c r="AC558" s="40"/>
     </row>
     <row r="559" spans="9:32" s="21" customFormat="1">
+      <c r="P559" s="22"/>
       <c r="Q559" s="23"/>
       <c r="R559" s="23"/>
       <c r="S559" s="23"/>
       <c r="T559" s="23"/>
       <c r="U559" s="23"/>
       <c r="V559" s="23"/>
-      <c r="W559" s="23"/>
+      <c r="W559" s="40"/>
       <c r="X559" s="40"/>
       <c r="Y559" s="40"/>
       <c r="Z559" s="40"/>
       <c r="AA559" s="40"/>
       <c r="AB559" s="40"/>
-      <c r="AC559" s="40"/>
     </row>
     <row r="560" spans="9:32" s="21" customFormat="1">
-      <c r="P560" s="22"/>
       <c r="Q560" s="23"/>
       <c r="R560" s="23"/>
       <c r="S560" s="23"/>
       <c r="T560" s="23"/>
       <c r="U560" s="23"/>
       <c r="V560" s="23"/>
-      <c r="W560" s="40"/>
+      <c r="W560" s="23"/>
       <c r="X560" s="40"/>
       <c r="Y560" s="40"/>
       <c r="Z560" s="40"/>
       <c r="AA560" s="40"/>
       <c r="AB560" s="40"/>
-    </row>
-    <row r="561" spans="10:32" s="21" customFormat="1">
+      <c r="AC560" s="40"/>
+    </row>
+    <row r="561" spans="9:32" s="21" customFormat="1">
       <c r="Q561" s="23"/>
       <c r="R561" s="23"/>
       <c r="S561" s="23"/>
       <c r="T561" s="23"/>
       <c r="U561" s="23"/>
       <c r="V561" s="23"/>
-      <c r="W561" s="23"/>
+      <c r="W561" s="40"/>
       <c r="X561" s="40"/>
       <c r="Y561" s="40"/>
       <c r="Z561" s="40"/>
@@ -28245,7 +28249,7 @@
       <c r="AB561" s="40"/>
       <c r="AC561" s="40"/>
     </row>
-    <row r="562" spans="10:32" s="21" customFormat="1">
+    <row r="562" spans="9:32" s="21" customFormat="1">
       <c r="Q562" s="23"/>
       <c r="R562" s="23"/>
       <c r="S562" s="23"/>
@@ -28260,22 +28264,22 @@
       <c r="AB562" s="40"/>
       <c r="AC562" s="40"/>
     </row>
-    <row r="563" spans="10:32" s="21" customFormat="1">
+    <row r="563" spans="9:32" s="21" customFormat="1">
       <c r="Q563" s="23"/>
       <c r="R563" s="23"/>
       <c r="S563" s="23"/>
       <c r="T563" s="23"/>
       <c r="U563" s="23"/>
       <c r="V563" s="23"/>
-      <c r="W563" s="40"/>
+      <c r="W563" s="23"/>
       <c r="X563" s="40"/>
       <c r="Y563" s="40"/>
-      <c r="Z563" s="40"/>
-      <c r="AA563" s="40"/>
-      <c r="AB563" s="40"/>
-      <c r="AC563" s="40"/>
-    </row>
-    <row r="564" spans="10:32" s="21" customFormat="1">
+      <c r="Z563" s="23"/>
+      <c r="AA563" s="23"/>
+      <c r="AB563" s="23"/>
+      <c r="AC563" s="23"/>
+    </row>
+    <row r="564" spans="9:32" s="21" customFormat="1">
       <c r="Q564" s="23"/>
       <c r="R564" s="23"/>
       <c r="S564" s="23"/>
@@ -28290,7 +28294,7 @@
       <c r="AB564" s="23"/>
       <c r="AC564" s="23"/>
     </row>
-    <row r="565" spans="10:32" s="21" customFormat="1">
+    <row r="565" spans="9:32" s="21" customFormat="1">
       <c r="Q565" s="23"/>
       <c r="R565" s="23"/>
       <c r="S565" s="23"/>
@@ -28299,36 +28303,36 @@
       <c r="V565" s="23"/>
       <c r="W565" s="23"/>
       <c r="X565" s="40"/>
-      <c r="Y565" s="40"/>
+      <c r="Y565" s="23"/>
       <c r="Z565" s="23"/>
       <c r="AA565" s="23"/>
       <c r="AB565" s="23"/>
       <c r="AC565" s="23"/>
-    </row>
-    <row r="566" spans="10:32" s="21" customFormat="1">
-      <c r="Q566" s="23"/>
-      <c r="R566" s="23"/>
-      <c r="S566" s="23"/>
-      <c r="T566" s="23"/>
-      <c r="U566" s="23"/>
-      <c r="V566" s="23"/>
-      <c r="W566" s="23"/>
+      <c r="AD565" s="22"/>
+      <c r="AF565" s="22"/>
+    </row>
+    <row r="566" spans="9:32" s="21" customFormat="1">
+      <c r="Q566" s="40"/>
+      <c r="R566" s="40"/>
+      <c r="S566" s="40"/>
+      <c r="T566" s="40"/>
+      <c r="U566" s="40"/>
+      <c r="V566" s="40"/>
+      <c r="W566" s="40"/>
       <c r="X566" s="40"/>
-      <c r="Y566" s="23"/>
-      <c r="Z566" s="23"/>
-      <c r="AA566" s="23"/>
-      <c r="AB566" s="23"/>
-      <c r="AC566" s="23"/>
-      <c r="AD566" s="22"/>
-      <c r="AF566" s="22"/>
-    </row>
-    <row r="567" spans="10:32" s="21" customFormat="1">
-      <c r="Q567" s="40"/>
-      <c r="R567" s="40"/>
-      <c r="S567" s="40"/>
-      <c r="T567" s="40"/>
-      <c r="U567" s="40"/>
-      <c r="V567" s="40"/>
+      <c r="Y566" s="40"/>
+      <c r="Z566" s="40"/>
+      <c r="AA566" s="40"/>
+      <c r="AB566" s="40"/>
+      <c r="AC566" s="40"/>
+    </row>
+    <row r="567" spans="9:32" s="21" customFormat="1">
+      <c r="Q567" s="23"/>
+      <c r="R567" s="23"/>
+      <c r="S567" s="23"/>
+      <c r="T567" s="23"/>
+      <c r="U567" s="23"/>
+      <c r="V567" s="23"/>
       <c r="W567" s="40"/>
       <c r="X567" s="40"/>
       <c r="Y567" s="40"/>
@@ -28337,7 +28341,7 @@
       <c r="AB567" s="40"/>
       <c r="AC567" s="40"/>
     </row>
-    <row r="568" spans="10:32" s="21" customFormat="1">
+    <row r="568" spans="9:32" s="21" customFormat="1">
       <c r="Q568" s="23"/>
       <c r="R568" s="23"/>
       <c r="S568" s="23"/>
@@ -28352,14 +28356,14 @@
       <c r="AB568" s="40"/>
       <c r="AC568" s="40"/>
     </row>
-    <row r="569" spans="10:32" s="21" customFormat="1">
+    <row r="569" spans="9:32" s="21" customFormat="1">
       <c r="Q569" s="23"/>
       <c r="R569" s="23"/>
       <c r="S569" s="23"/>
       <c r="T569" s="23"/>
       <c r="U569" s="23"/>
       <c r="V569" s="23"/>
-      <c r="W569" s="40"/>
+      <c r="W569" s="23"/>
       <c r="X569" s="40"/>
       <c r="Y569" s="40"/>
       <c r="Z569" s="40"/>
@@ -28367,7 +28371,7 @@
       <c r="AB569" s="40"/>
       <c r="AC569" s="40"/>
     </row>
-    <row r="570" spans="10:32" s="21" customFormat="1">
+    <row r="570" spans="9:32" s="21" customFormat="1">
       <c r="Q570" s="23"/>
       <c r="R570" s="23"/>
       <c r="S570" s="23"/>
@@ -28382,14 +28386,14 @@
       <c r="AB570" s="40"/>
       <c r="AC570" s="40"/>
     </row>
-    <row r="571" spans="10:32" s="21" customFormat="1">
-      <c r="Q571" s="23"/>
-      <c r="R571" s="23"/>
-      <c r="S571" s="23"/>
-      <c r="T571" s="23"/>
-      <c r="U571" s="23"/>
-      <c r="V571" s="23"/>
-      <c r="W571" s="23"/>
+    <row r="571" spans="9:32" s="21" customFormat="1">
+      <c r="Q571" s="40"/>
+      <c r="R571" s="40"/>
+      <c r="S571" s="40"/>
+      <c r="T571" s="40"/>
+      <c r="U571" s="40"/>
+      <c r="V571" s="40"/>
+      <c r="W571" s="40"/>
       <c r="X571" s="40"/>
       <c r="Y571" s="40"/>
       <c r="Z571" s="40"/>
@@ -28397,13 +28401,13 @@
       <c r="AB571" s="40"/>
       <c r="AC571" s="40"/>
     </row>
-    <row r="572" spans="10:32" s="21" customFormat="1">
-      <c r="Q572" s="40"/>
-      <c r="R572" s="40"/>
-      <c r="S572" s="40"/>
-      <c r="T572" s="40"/>
-      <c r="U572" s="40"/>
-      <c r="V572" s="40"/>
+    <row r="572" spans="9:32" s="21" customFormat="1">
+      <c r="Q572" s="23"/>
+      <c r="R572" s="23"/>
+      <c r="S572" s="23"/>
+      <c r="T572" s="23"/>
+      <c r="U572" s="23"/>
+      <c r="V572" s="23"/>
       <c r="W572" s="40"/>
       <c r="X572" s="40"/>
       <c r="Y572" s="40"/>
@@ -28412,7 +28416,7 @@
       <c r="AB572" s="40"/>
       <c r="AC572" s="40"/>
     </row>
-    <row r="573" spans="10:32" s="21" customFormat="1">
+    <row r="573" spans="9:32" s="21" customFormat="1">
       <c r="Q573" s="23"/>
       <c r="R573" s="23"/>
       <c r="S573" s="23"/>
@@ -28427,7 +28431,9 @@
       <c r="AB573" s="40"/>
       <c r="AC573" s="40"/>
     </row>
-    <row r="574" spans="10:32" s="21" customFormat="1">
+    <row r="574" spans="9:32" s="21" customFormat="1">
+      <c r="J574" s="1"/>
+      <c r="K574" s="1"/>
       <c r="Q574" s="23"/>
       <c r="R574" s="23"/>
       <c r="S574" s="23"/>
@@ -28442,26 +28448,26 @@
       <c r="AB574" s="40"/>
       <c r="AC574" s="40"/>
     </row>
-    <row r="575" spans="10:32" s="21" customFormat="1">
-      <c r="J575" s="1"/>
-      <c r="K575" s="1"/>
-      <c r="Q575" s="23"/>
-      <c r="R575" s="23"/>
-      <c r="S575" s="23"/>
-      <c r="T575" s="23"/>
-      <c r="U575" s="23"/>
-      <c r="V575" s="23"/>
-      <c r="W575" s="40"/>
-      <c r="X575" s="40"/>
-      <c r="Y575" s="40"/>
-      <c r="Z575" s="40"/>
-      <c r="AA575" s="40"/>
-      <c r="AB575" s="40"/>
-      <c r="AC575" s="40"/>
-    </row>
-    <row r="576" spans="10:32">
-      <c r="J576" s="36"/>
-      <c r="K576" s="36"/>
+    <row r="575" spans="9:32">
+      <c r="J575" s="36"/>
+      <c r="K575" s="36"/>
+      <c r="Q575" s="20"/>
+      <c r="R575" s="20"/>
+      <c r="S575" s="20"/>
+      <c r="T575" s="20"/>
+      <c r="U575" s="20"/>
+      <c r="V575" s="20"/>
+      <c r="W575" s="20"/>
+      <c r="X575" s="15"/>
+      <c r="Y575" s="15"/>
+      <c r="Z575" s="15"/>
+      <c r="AA575" s="15"/>
+      <c r="AB575" s="15"/>
+      <c r="AC575" s="15"/>
+    </row>
+    <row r="576" spans="9:32">
+      <c r="I576" s="36"/>
+      <c r="L576" s="36"/>
       <c r="Q576" s="20"/>
       <c r="R576" s="20"/>
       <c r="S576" s="20"/>
@@ -28477,8 +28483,8 @@
       <c r="AC576" s="15"/>
     </row>
     <row r="577" spans="9:29">
-      <c r="I577" s="36"/>
-      <c r="L577" s="36"/>
+      <c r="J577" s="36"/>
+      <c r="K577" s="36"/>
       <c r="Q577" s="20"/>
       <c r="R577" s="20"/>
       <c r="S577" s="20"/>
@@ -28494,8 +28500,8 @@
       <c r="AC577" s="15"/>
     </row>
     <row r="578" spans="9:29">
-      <c r="J578" s="36"/>
-      <c r="K578" s="36"/>
+      <c r="I578" s="36"/>
+      <c r="L578" s="36"/>
       <c r="Q578" s="20"/>
       <c r="R578" s="20"/>
       <c r="S578" s="20"/>
@@ -28511,15 +28517,13 @@
       <c r="AC578" s="15"/>
     </row>
     <row r="579" spans="9:29">
-      <c r="I579" s="36"/>
-      <c r="L579" s="36"/>
       <c r="Q579" s="20"/>
       <c r="R579" s="20"/>
       <c r="S579" s="20"/>
       <c r="T579" s="20"/>
       <c r="U579" s="20"/>
       <c r="V579" s="20"/>
-      <c r="W579" s="20"/>
+      <c r="W579" s="15"/>
       <c r="X579" s="15"/>
       <c r="Y579" s="15"/>
       <c r="Z579" s="15"/>
@@ -28534,7 +28538,7 @@
       <c r="T580" s="20"/>
       <c r="U580" s="20"/>
       <c r="V580" s="20"/>
-      <c r="W580" s="15"/>
+      <c r="W580" s="20"/>
       <c r="X580" s="15"/>
       <c r="Y580" s="15"/>
       <c r="Z580" s="15"/>
@@ -28549,7 +28553,7 @@
       <c r="T581" s="20"/>
       <c r="U581" s="20"/>
       <c r="V581" s="20"/>
-      <c r="W581" s="20"/>
+      <c r="W581" s="15"/>
       <c r="X581" s="15"/>
       <c r="Y581" s="15"/>
       <c r="Z581" s="15"/>
@@ -28558,6 +28562,7 @@
       <c r="AC581" s="15"/>
     </row>
     <row r="582" spans="9:29">
+      <c r="L582" s="18"/>
       <c r="Q582" s="20"/>
       <c r="R582" s="20"/>
       <c r="S582" s="20"/>
@@ -28573,7 +28578,6 @@
       <c r="AC582" s="15"/>
     </row>
     <row r="583" spans="9:29">
-      <c r="L583" s="18"/>
       <c r="Q583" s="20"/>
       <c r="R583" s="20"/>
       <c r="S583" s="20"/>
@@ -28595,7 +28599,7 @@
       <c r="T584" s="20"/>
       <c r="U584" s="20"/>
       <c r="V584" s="20"/>
-      <c r="W584" s="15"/>
+      <c r="W584" s="20"/>
       <c r="X584" s="15"/>
       <c r="Y584" s="15"/>
       <c r="Z584" s="15"/>
@@ -28610,9 +28614,9 @@
       <c r="T585" s="20"/>
       <c r="U585" s="20"/>
       <c r="V585" s="20"/>
-      <c r="W585" s="20"/>
+      <c r="W585" s="15"/>
       <c r="X585" s="15"/>
-      <c r="Y585" s="15"/>
+      <c r="Y585" s="20"/>
       <c r="Z585" s="15"/>
       <c r="AA585" s="15"/>
       <c r="AB585" s="15"/>
@@ -28627,7 +28631,7 @@
       <c r="V586" s="20"/>
       <c r="W586" s="15"/>
       <c r="X586" s="15"/>
-      <c r="Y586" s="20"/>
+      <c r="Y586" s="15"/>
       <c r="Z586" s="15"/>
       <c r="AA586" s="15"/>
       <c r="AB586" s="15"/>
@@ -28640,7 +28644,7 @@
       <c r="T587" s="20"/>
       <c r="U587" s="20"/>
       <c r="V587" s="20"/>
-      <c r="W587" s="15"/>
+      <c r="W587" s="20"/>
       <c r="X587" s="15"/>
       <c r="Y587" s="15"/>
       <c r="Z587" s="15"/>
@@ -28655,7 +28659,7 @@
       <c r="T588" s="20"/>
       <c r="U588" s="20"/>
       <c r="V588" s="20"/>
-      <c r="W588" s="20"/>
+      <c r="W588" s="15"/>
       <c r="X588" s="15"/>
       <c r="Y588" s="15"/>
       <c r="Z588" s="15"/>
@@ -28664,6 +28668,7 @@
       <c r="AC588" s="15"/>
     </row>
     <row r="589" spans="9:29">
+      <c r="L589" s="18"/>
       <c r="Q589" s="20"/>
       <c r="R589" s="20"/>
       <c r="S589" s="20"/>
@@ -28679,14 +28684,13 @@
       <c r="AC589" s="15"/>
     </row>
     <row r="590" spans="9:29">
-      <c r="L590" s="18"/>
       <c r="Q590" s="20"/>
       <c r="R590" s="20"/>
       <c r="S590" s="20"/>
       <c r="T590" s="20"/>
       <c r="U590" s="20"/>
       <c r="V590" s="20"/>
-      <c r="W590" s="15"/>
+      <c r="W590" s="20"/>
       <c r="X590" s="15"/>
       <c r="Y590" s="15"/>
       <c r="Z590" s="15"/>
@@ -28716,9 +28720,9 @@
       <c r="T592" s="20"/>
       <c r="U592" s="20"/>
       <c r="V592" s="20"/>
-      <c r="W592" s="20"/>
+      <c r="W592" s="15"/>
       <c r="X592" s="15"/>
-      <c r="Y592" s="15"/>
+      <c r="Y592" s="20"/>
       <c r="Z592" s="15"/>
       <c r="AA592" s="15"/>
       <c r="AB592" s="15"/>
@@ -28733,13 +28737,14 @@
       <c r="V593" s="20"/>
       <c r="W593" s="15"/>
       <c r="X593" s="15"/>
-      <c r="Y593" s="20"/>
+      <c r="Y593" s="15"/>
       <c r="Z593" s="15"/>
       <c r="AA593" s="15"/>
       <c r="AB593" s="15"/>
       <c r="AC593" s="15"/>
     </row>
     <row r="594" spans="9:29">
+      <c r="L594" s="18"/>
       <c r="Q594" s="20"/>
       <c r="R594" s="20"/>
       <c r="S594" s="20"/>
@@ -28755,7 +28760,6 @@
       <c r="AC594" s="15"/>
     </row>
     <row r="595" spans="9:29">
-      <c r="L595" s="18"/>
       <c r="Q595" s="20"/>
       <c r="R595" s="20"/>
       <c r="S595" s="20"/>
@@ -28777,7 +28781,7 @@
       <c r="T596" s="20"/>
       <c r="U596" s="20"/>
       <c r="V596" s="20"/>
-      <c r="W596" s="15"/>
+      <c r="W596" s="20"/>
       <c r="X596" s="15"/>
       <c r="Y596" s="15"/>
       <c r="Z596" s="15"/>
@@ -28786,6 +28790,8 @@
       <c r="AC596" s="15"/>
     </row>
     <row r="597" spans="9:29">
+      <c r="J597" s="36"/>
+      <c r="K597" s="36"/>
       <c r="Q597" s="20"/>
       <c r="R597" s="20"/>
       <c r="S597" s="20"/>
@@ -28801,8 +28807,8 @@
       <c r="AC597" s="15"/>
     </row>
     <row r="598" spans="9:29">
-      <c r="J598" s="36"/>
-      <c r="K598" s="36"/>
+      <c r="I598" s="36"/>
+      <c r="L598" s="36"/>
       <c r="Q598" s="20"/>
       <c r="R598" s="20"/>
       <c r="S598" s="20"/>
@@ -28818,15 +28824,13 @@
       <c r="AC598" s="15"/>
     </row>
     <row r="599" spans="9:29">
-      <c r="I599" s="36"/>
-      <c r="L599" s="36"/>
       <c r="Q599" s="20"/>
       <c r="R599" s="20"/>
       <c r="S599" s="20"/>
       <c r="T599" s="20"/>
       <c r="U599" s="20"/>
       <c r="V599" s="20"/>
-      <c r="W599" s="20"/>
+      <c r="W599" s="15"/>
       <c r="X599" s="15"/>
       <c r="Y599" s="15"/>
       <c r="Z599" s="15"/>
@@ -28841,7 +28845,7 @@
       <c r="T600" s="20"/>
       <c r="U600" s="20"/>
       <c r="V600" s="20"/>
-      <c r="W600" s="15"/>
+      <c r="W600" s="20"/>
       <c r="X600" s="15"/>
       <c r="Y600" s="15"/>
       <c r="Z600" s="15"/>
@@ -28850,13 +28854,13 @@
       <c r="AC600" s="15"/>
     </row>
     <row r="601" spans="9:29">
-      <c r="Q601" s="20"/>
-      <c r="R601" s="20"/>
-      <c r="S601" s="20"/>
-      <c r="T601" s="20"/>
-      <c r="U601" s="20"/>
-      <c r="V601" s="20"/>
-      <c r="W601" s="20"/>
+      <c r="Q601" s="15"/>
+      <c r="R601" s="15"/>
+      <c r="S601" s="15"/>
+      <c r="T601" s="15"/>
+      <c r="U601" s="15"/>
+      <c r="V601" s="15"/>
+      <c r="W601" s="15"/>
       <c r="X601" s="15"/>
       <c r="Y601" s="15"/>
       <c r="Z601" s="15"/>
@@ -28865,12 +28869,12 @@
       <c r="AC601" s="15"/>
     </row>
     <row r="602" spans="9:29">
-      <c r="Q602" s="15"/>
-      <c r="R602" s="15"/>
-      <c r="S602" s="15"/>
-      <c r="T602" s="15"/>
-      <c r="U602" s="15"/>
-      <c r="V602" s="15"/>
+      <c r="Q602" s="20"/>
+      <c r="R602" s="20"/>
+      <c r="S602" s="20"/>
+      <c r="T602" s="20"/>
+      <c r="U602" s="20"/>
+      <c r="V602" s="20"/>
       <c r="W602" s="15"/>
       <c r="X602" s="15"/>
       <c r="Y602" s="15"/>
@@ -28916,7 +28920,7 @@
       <c r="T605" s="20"/>
       <c r="U605" s="20"/>
       <c r="V605" s="20"/>
-      <c r="W605" s="15"/>
+      <c r="W605" s="20"/>
       <c r="X605" s="15"/>
       <c r="Y605" s="15"/>
       <c r="Z605" s="15"/>
@@ -28925,6 +28929,8 @@
       <c r="AC605" s="15"/>
     </row>
     <row r="606" spans="9:29">
+      <c r="J606" s="36"/>
+      <c r="K606" s="36"/>
       <c r="Q606" s="20"/>
       <c r="R606" s="20"/>
       <c r="S606" s="20"/>
@@ -28940,8 +28946,8 @@
       <c r="AC606" s="15"/>
     </row>
     <row r="607" spans="9:29">
-      <c r="J607" s="36"/>
-      <c r="K607" s="36"/>
+      <c r="I607" s="36"/>
+      <c r="L607" s="36"/>
       <c r="Q607" s="20"/>
       <c r="R607" s="20"/>
       <c r="S607" s="20"/>
@@ -28957,15 +28963,13 @@
       <c r="AC607" s="15"/>
     </row>
     <row r="608" spans="9:29">
-      <c r="I608" s="36"/>
-      <c r="L608" s="36"/>
       <c r="Q608" s="20"/>
       <c r="R608" s="20"/>
       <c r="S608" s="20"/>
       <c r="T608" s="20"/>
       <c r="U608" s="20"/>
       <c r="V608" s="20"/>
-      <c r="W608" s="20"/>
+      <c r="W608" s="15"/>
       <c r="X608" s="15"/>
       <c r="Y608" s="15"/>
       <c r="Z608" s="15"/>
@@ -28980,7 +28984,7 @@
       <c r="T609" s="20"/>
       <c r="U609" s="20"/>
       <c r="V609" s="20"/>
-      <c r="W609" s="15"/>
+      <c r="W609" s="20"/>
       <c r="X609" s="15"/>
       <c r="Y609" s="15"/>
       <c r="Z609" s="15"/>
@@ -28989,13 +28993,13 @@
       <c r="AC609" s="15"/>
     </row>
     <row r="610" spans="9:29">
-      <c r="Q610" s="20"/>
-      <c r="R610" s="20"/>
-      <c r="S610" s="20"/>
-      <c r="T610" s="20"/>
-      <c r="U610" s="20"/>
-      <c r="V610" s="20"/>
-      <c r="W610" s="20"/>
+      <c r="Q610" s="15"/>
+      <c r="R610" s="15"/>
+      <c r="S610" s="15"/>
+      <c r="T610" s="15"/>
+      <c r="U610" s="15"/>
+      <c r="V610" s="15"/>
+      <c r="W610" s="15"/>
       <c r="X610" s="15"/>
       <c r="Y610" s="15"/>
       <c r="Z610" s="15"/>
@@ -29004,13 +29008,13 @@
       <c r="AC610" s="15"/>
     </row>
     <row r="611" spans="9:29">
-      <c r="Q611" s="15"/>
-      <c r="R611" s="15"/>
-      <c r="S611" s="15"/>
-      <c r="T611" s="15"/>
-      <c r="U611" s="15"/>
-      <c r="V611" s="15"/>
-      <c r="W611" s="15"/>
+      <c r="Q611" s="20"/>
+      <c r="R611" s="20"/>
+      <c r="S611" s="20"/>
+      <c r="T611" s="20"/>
+      <c r="U611" s="20"/>
+      <c r="V611" s="20"/>
+      <c r="W611" s="20"/>
       <c r="X611" s="15"/>
       <c r="Y611" s="15"/>
       <c r="Z611" s="15"/>
@@ -29019,6 +29023,8 @@
       <c r="AC611" s="15"/>
     </row>
     <row r="612" spans="9:29">
+      <c r="J612" s="36"/>
+      <c r="K612" s="36"/>
       <c r="Q612" s="20"/>
       <c r="R612" s="20"/>
       <c r="S612" s="20"/>
@@ -29034,8 +29040,8 @@
       <c r="AC612" s="15"/>
     </row>
     <row r="613" spans="9:29">
-      <c r="J613" s="36"/>
-      <c r="K613" s="36"/>
+      <c r="I613" s="36"/>
+      <c r="L613" s="36"/>
       <c r="Q613" s="20"/>
       <c r="R613" s="20"/>
       <c r="S613" s="20"/>
@@ -29051,8 +29057,6 @@
       <c r="AC613" s="15"/>
     </row>
     <row r="614" spans="9:29">
-      <c r="I614" s="36"/>
-      <c r="L614" s="36"/>
       <c r="Q614" s="20"/>
       <c r="R614" s="20"/>
       <c r="S614" s="20"/>
@@ -29074,7 +29078,7 @@
       <c r="T615" s="20"/>
       <c r="U615" s="20"/>
       <c r="V615" s="20"/>
-      <c r="W615" s="20"/>
+      <c r="W615" s="15"/>
       <c r="X615" s="15"/>
       <c r="Y615" s="15"/>
       <c r="Z615" s="15"/>
@@ -29083,12 +29087,12 @@
       <c r="AC615" s="15"/>
     </row>
     <row r="616" spans="9:29">
-      <c r="Q616" s="20"/>
-      <c r="R616" s="20"/>
-      <c r="S616" s="20"/>
-      <c r="T616" s="20"/>
-      <c r="U616" s="20"/>
-      <c r="V616" s="20"/>
+      <c r="Q616" s="15"/>
+      <c r="R616" s="15"/>
+      <c r="S616" s="15"/>
+      <c r="T616" s="15"/>
+      <c r="U616" s="15"/>
+      <c r="V616" s="15"/>
       <c r="W616" s="15"/>
       <c r="X616" s="15"/>
       <c r="Y616" s="15"/>
@@ -29098,13 +29102,13 @@
       <c r="AC616" s="15"/>
     </row>
     <row r="617" spans="9:29">
-      <c r="Q617" s="15"/>
-      <c r="R617" s="15"/>
-      <c r="S617" s="15"/>
-      <c r="T617" s="15"/>
-      <c r="U617" s="15"/>
-      <c r="V617" s="15"/>
-      <c r="W617" s="15"/>
+      <c r="Q617" s="20"/>
+      <c r="R617" s="20"/>
+      <c r="S617" s="20"/>
+      <c r="T617" s="20"/>
+      <c r="U617" s="20"/>
+      <c r="V617" s="20"/>
+      <c r="W617" s="20"/>
       <c r="X617" s="15"/>
       <c r="Y617" s="15"/>
       <c r="Z617" s="15"/>
@@ -29128,13 +29132,13 @@
       <c r="AC618" s="15"/>
     </row>
     <row r="619" spans="9:29">
-      <c r="Q619" s="20"/>
-      <c r="R619" s="20"/>
-      <c r="S619" s="20"/>
-      <c r="T619" s="20"/>
-      <c r="U619" s="20"/>
-      <c r="V619" s="20"/>
-      <c r="W619" s="20"/>
+      <c r="Q619" s="15"/>
+      <c r="R619" s="15"/>
+      <c r="S619" s="15"/>
+      <c r="T619" s="15"/>
+      <c r="U619" s="15"/>
+      <c r="V619" s="15"/>
+      <c r="W619" s="15"/>
       <c r="X619" s="15"/>
       <c r="Y619" s="15"/>
       <c r="Z619" s="15"/>
@@ -29143,12 +29147,12 @@
       <c r="AC619" s="15"/>
     </row>
     <row r="620" spans="9:29">
-      <c r="Q620" s="15"/>
-      <c r="R620" s="15"/>
-      <c r="S620" s="15"/>
-      <c r="T620" s="15"/>
-      <c r="U620" s="15"/>
-      <c r="V620" s="15"/>
+      <c r="Q620" s="20"/>
+      <c r="R620" s="20"/>
+      <c r="S620" s="20"/>
+      <c r="T620" s="20"/>
+      <c r="U620" s="20"/>
+      <c r="V620" s="20"/>
       <c r="W620" s="15"/>
       <c r="X620" s="15"/>
       <c r="Y620" s="15"/>
@@ -29164,7 +29168,7 @@
       <c r="T621" s="20"/>
       <c r="U621" s="20"/>
       <c r="V621" s="20"/>
-      <c r="W621" s="15"/>
+      <c r="W621" s="20"/>
       <c r="X621" s="15"/>
       <c r="Y621" s="15"/>
       <c r="Z621" s="15"/>
@@ -29224,7 +29228,7 @@
       <c r="T625" s="20"/>
       <c r="U625" s="20"/>
       <c r="V625" s="20"/>
-      <c r="W625" s="20"/>
+      <c r="W625" s="15"/>
       <c r="X625" s="15"/>
       <c r="Y625" s="15"/>
       <c r="Z625" s="15"/>
@@ -29233,13 +29237,15 @@
       <c r="AC625" s="15"/>
     </row>
     <row r="626" spans="9:29">
+      <c r="J626" s="36"/>
+      <c r="K626" s="36"/>
       <c r="Q626" s="20"/>
       <c r="R626" s="20"/>
       <c r="S626" s="20"/>
       <c r="T626" s="20"/>
       <c r="U626" s="20"/>
       <c r="V626" s="20"/>
-      <c r="W626" s="15"/>
+      <c r="W626" s="20"/>
       <c r="X626" s="15"/>
       <c r="Y626" s="15"/>
       <c r="Z626" s="15"/>
@@ -29248,8 +29254,8 @@
       <c r="AC626" s="15"/>
     </row>
     <row r="627" spans="9:29">
-      <c r="J627" s="36"/>
-      <c r="K627" s="36"/>
+      <c r="I627" s="36"/>
+      <c r="L627" s="36"/>
       <c r="Q627" s="20"/>
       <c r="R627" s="20"/>
       <c r="S627" s="20"/>
@@ -29265,8 +29271,8 @@
       <c r="AC627" s="15"/>
     </row>
     <row r="628" spans="9:29">
-      <c r="I628" s="36"/>
-      <c r="L628" s="36"/>
+      <c r="J628" s="36"/>
+      <c r="K628" s="36"/>
       <c r="Q628" s="20"/>
       <c r="R628" s="20"/>
       <c r="S628" s="20"/>
@@ -29282,8 +29288,8 @@
       <c r="AC628" s="15"/>
     </row>
     <row r="629" spans="9:29">
-      <c r="J629" s="36"/>
-      <c r="K629" s="36"/>
+      <c r="I629" s="36"/>
+      <c r="L629" s="36"/>
       <c r="Q629" s="20"/>
       <c r="R629" s="20"/>
       <c r="S629" s="20"/>
@@ -29299,15 +29305,13 @@
       <c r="AC629" s="15"/>
     </row>
     <row r="630" spans="9:29">
-      <c r="I630" s="36"/>
-      <c r="L630" s="36"/>
       <c r="Q630" s="20"/>
       <c r="R630" s="20"/>
       <c r="S630" s="20"/>
       <c r="T630" s="20"/>
       <c r="U630" s="20"/>
       <c r="V630" s="20"/>
-      <c r="W630" s="20"/>
+      <c r="W630" s="15"/>
       <c r="X630" s="15"/>
       <c r="Y630" s="15"/>
       <c r="Z630" s="15"/>
@@ -29352,7 +29356,7 @@
       <c r="T633" s="20"/>
       <c r="U633" s="20"/>
       <c r="V633" s="20"/>
-      <c r="W633" s="15"/>
+      <c r="W633" s="20"/>
       <c r="X633" s="15"/>
       <c r="Y633" s="15"/>
       <c r="Z633" s="15"/>
@@ -29376,13 +29380,13 @@
       <c r="AC634" s="15"/>
     </row>
     <row r="635" spans="9:29">
-      <c r="Q635" s="20"/>
-      <c r="R635" s="20"/>
-      <c r="S635" s="20"/>
-      <c r="T635" s="20"/>
-      <c r="U635" s="20"/>
-      <c r="V635" s="20"/>
-      <c r="W635" s="20"/>
+      <c r="Q635" s="15"/>
+      <c r="R635" s="15"/>
+      <c r="S635" s="15"/>
+      <c r="T635" s="15"/>
+      <c r="U635" s="15"/>
+      <c r="V635" s="15"/>
+      <c r="W635" s="15"/>
       <c r="X635" s="15"/>
       <c r="Y635" s="15"/>
       <c r="Z635" s="15"/>
@@ -29406,14 +29410,15 @@
       <c r="AC636" s="15"/>
     </row>
     <row r="637" spans="9:29">
-      <c r="Q637" s="15"/>
-      <c r="R637" s="15"/>
-      <c r="S637" s="15"/>
-      <c r="T637" s="15"/>
-      <c r="U637" s="15"/>
-      <c r="V637" s="15"/>
-      <c r="W637" s="15"/>
-      <c r="X637" s="15"/>
+      <c r="P637" s="18"/>
+      <c r="Q637" s="20"/>
+      <c r="R637" s="20"/>
+      <c r="S637" s="20"/>
+      <c r="T637" s="20"/>
+      <c r="U637" s="20"/>
+      <c r="V637" s="20"/>
+      <c r="W637" s="20"/>
+      <c r="X637" s="20"/>
       <c r="Y637" s="15"/>
       <c r="Z637" s="15"/>
       <c r="AA637" s="15"/>
@@ -29421,15 +29426,14 @@
       <c r="AC637" s="15"/>
     </row>
     <row r="638" spans="9:29">
-      <c r="P638" s="18"/>
       <c r="Q638" s="20"/>
       <c r="R638" s="20"/>
       <c r="S638" s="20"/>
       <c r="T638" s="20"/>
       <c r="U638" s="20"/>
       <c r="V638" s="20"/>
-      <c r="W638" s="20"/>
-      <c r="X638" s="20"/>
+      <c r="W638" s="15"/>
+      <c r="X638" s="15"/>
       <c r="Y638" s="15"/>
       <c r="Z638" s="15"/>
       <c r="AA638" s="15"/>
@@ -29458,7 +29462,7 @@
       <c r="T640" s="20"/>
       <c r="U640" s="20"/>
       <c r="V640" s="20"/>
-      <c r="W640" s="15"/>
+      <c r="W640" s="20"/>
       <c r="X640" s="15"/>
       <c r="Y640" s="15"/>
       <c r="Z640" s="15"/>
@@ -29467,6 +29471,8 @@
       <c r="AC640" s="15"/>
     </row>
     <row r="641" spans="9:29">
+      <c r="J641" s="36"/>
+      <c r="K641" s="36"/>
       <c r="Q641" s="20"/>
       <c r="R641" s="20"/>
       <c r="S641" s="20"/>
@@ -29482,8 +29488,8 @@
       <c r="AC641" s="15"/>
     </row>
     <row r="642" spans="9:29">
-      <c r="J642" s="36"/>
-      <c r="K642" s="36"/>
+      <c r="I642" s="36"/>
+      <c r="L642" s="36"/>
       <c r="Q642" s="20"/>
       <c r="R642" s="20"/>
       <c r="S642" s="20"/>
@@ -29499,15 +29505,13 @@
       <c r="AC642" s="15"/>
     </row>
     <row r="643" spans="9:29">
-      <c r="I643" s="36"/>
-      <c r="L643" s="36"/>
       <c r="Q643" s="20"/>
       <c r="R643" s="20"/>
       <c r="S643" s="20"/>
       <c r="T643" s="20"/>
       <c r="U643" s="20"/>
       <c r="V643" s="20"/>
-      <c r="W643" s="20"/>
+      <c r="W643" s="15"/>
       <c r="X643" s="15"/>
       <c r="Y643" s="15"/>
       <c r="Z643" s="15"/>
@@ -29522,7 +29526,7 @@
       <c r="T644" s="20"/>
       <c r="U644" s="20"/>
       <c r="V644" s="20"/>
-      <c r="W644" s="15"/>
+      <c r="W644" s="20"/>
       <c r="X644" s="15"/>
       <c r="Y644" s="15"/>
       <c r="Z644" s="15"/>
@@ -29531,13 +29535,13 @@
       <c r="AC644" s="15"/>
     </row>
     <row r="645" spans="9:29">
-      <c r="Q645" s="20"/>
-      <c r="R645" s="20"/>
-      <c r="S645" s="20"/>
-      <c r="T645" s="20"/>
-      <c r="U645" s="20"/>
-      <c r="V645" s="20"/>
-      <c r="W645" s="20"/>
+      <c r="Q645" s="15"/>
+      <c r="R645" s="15"/>
+      <c r="S645" s="15"/>
+      <c r="T645" s="15"/>
+      <c r="U645" s="15"/>
+      <c r="V645" s="15"/>
+      <c r="W645" s="15"/>
       <c r="X645" s="15"/>
       <c r="Y645" s="15"/>
       <c r="Z645" s="15"/>
@@ -29546,14 +29550,15 @@
       <c r="AC645" s="15"/>
     </row>
     <row r="646" spans="9:29">
-      <c r="Q646" s="15"/>
-      <c r="R646" s="15"/>
-      <c r="S646" s="15"/>
-      <c r="T646" s="15"/>
-      <c r="U646" s="15"/>
-      <c r="V646" s="15"/>
-      <c r="W646" s="15"/>
-      <c r="X646" s="15"/>
+      <c r="P646" s="18"/>
+      <c r="Q646" s="20"/>
+      <c r="R646" s="20"/>
+      <c r="S646" s="20"/>
+      <c r="T646" s="20"/>
+      <c r="U646" s="20"/>
+      <c r="V646" s="20"/>
+      <c r="W646" s="20"/>
+      <c r="X646" s="20"/>
       <c r="Y646" s="15"/>
       <c r="Z646" s="15"/>
       <c r="AA646" s="15"/>
@@ -29561,15 +29566,14 @@
       <c r="AC646" s="15"/>
     </row>
     <row r="647" spans="9:29">
-      <c r="P647" s="18"/>
       <c r="Q647" s="20"/>
       <c r="R647" s="20"/>
       <c r="S647" s="20"/>
       <c r="T647" s="20"/>
       <c r="U647" s="20"/>
       <c r="V647" s="20"/>
-      <c r="W647" s="20"/>
-      <c r="X647" s="20"/>
+      <c r="W647" s="15"/>
+      <c r="X647" s="15"/>
       <c r="Y647" s="15"/>
       <c r="Z647" s="15"/>
       <c r="AA647" s="15"/>
@@ -29598,7 +29602,7 @@
       <c r="T649" s="20"/>
       <c r="U649" s="20"/>
       <c r="V649" s="20"/>
-      <c r="W649" s="15"/>
+      <c r="W649" s="20"/>
       <c r="X649" s="15"/>
       <c r="Y649" s="15"/>
       <c r="Z649" s="15"/>
@@ -29628,7 +29632,7 @@
       <c r="T651" s="20"/>
       <c r="U651" s="20"/>
       <c r="V651" s="20"/>
-      <c r="W651" s="20"/>
+      <c r="W651" s="15"/>
       <c r="X651" s="15"/>
       <c r="Y651" s="15"/>
       <c r="Z651" s="15"/>
@@ -29643,7 +29647,7 @@
       <c r="T652" s="20"/>
       <c r="U652" s="20"/>
       <c r="V652" s="20"/>
-      <c r="W652" s="15"/>
+      <c r="W652" s="20"/>
       <c r="X652" s="15"/>
       <c r="Y652" s="15"/>
       <c r="Z652" s="15"/>
@@ -29652,13 +29656,13 @@
       <c r="AC652" s="15"/>
     </row>
     <row r="653" spans="9:29">
-      <c r="Q653" s="20"/>
-      <c r="R653" s="20"/>
-      <c r="S653" s="20"/>
-      <c r="T653" s="20"/>
-      <c r="U653" s="20"/>
-      <c r="V653" s="20"/>
-      <c r="W653" s="20"/>
+      <c r="Q653" s="15"/>
+      <c r="R653" s="15"/>
+      <c r="S653" s="15"/>
+      <c r="T653" s="15"/>
+      <c r="U653" s="15"/>
+      <c r="V653" s="15"/>
+      <c r="W653" s="15"/>
       <c r="X653" s="15"/>
       <c r="Y653" s="15"/>
       <c r="Z653" s="15"/>
@@ -29667,14 +29671,15 @@
       <c r="AC653" s="15"/>
     </row>
     <row r="654" spans="9:29">
-      <c r="Q654" s="15"/>
-      <c r="R654" s="15"/>
-      <c r="S654" s="15"/>
-      <c r="T654" s="15"/>
-      <c r="U654" s="15"/>
-      <c r="V654" s="15"/>
-      <c r="W654" s="15"/>
-      <c r="X654" s="15"/>
+      <c r="P654" s="18"/>
+      <c r="Q654" s="20"/>
+      <c r="R654" s="20"/>
+      <c r="S654" s="20"/>
+      <c r="T654" s="20"/>
+      <c r="U654" s="20"/>
+      <c r="V654" s="20"/>
+      <c r="W654" s="20"/>
+      <c r="X654" s="20"/>
       <c r="Y654" s="15"/>
       <c r="Z654" s="15"/>
       <c r="AA654" s="15"/>
@@ -29682,15 +29687,14 @@
       <c r="AC654" s="15"/>
     </row>
     <row r="655" spans="9:29">
-      <c r="P655" s="18"/>
       <c r="Q655" s="20"/>
       <c r="R655" s="20"/>
       <c r="S655" s="20"/>
       <c r="T655" s="20"/>
       <c r="U655" s="20"/>
       <c r="V655" s="20"/>
-      <c r="W655" s="20"/>
-      <c r="X655" s="20"/>
+      <c r="W655" s="15"/>
+      <c r="X655" s="15"/>
       <c r="Y655" s="15"/>
       <c r="Z655" s="15"/>
       <c r="AA655" s="15"/>
@@ -29704,7 +29708,7 @@
       <c r="T656" s="20"/>
       <c r="U656" s="20"/>
       <c r="V656" s="20"/>
-      <c r="W656" s="15"/>
+      <c r="W656" s="20"/>
       <c r="X656" s="15"/>
       <c r="Y656" s="15"/>
       <c r="Z656" s="15"/>
@@ -29734,7 +29738,7 @@
       <c r="T658" s="20"/>
       <c r="U658" s="20"/>
       <c r="V658" s="20"/>
-      <c r="W658" s="20"/>
+      <c r="W658" s="15"/>
       <c r="X658" s="15"/>
       <c r="Y658" s="15"/>
       <c r="Z658" s="15"/>
@@ -29773,12 +29777,12 @@
       <c r="AC660" s="15"/>
     </row>
     <row r="661" spans="16:29">
-      <c r="Q661" s="20"/>
-      <c r="R661" s="20"/>
-      <c r="S661" s="20"/>
-      <c r="T661" s="20"/>
-      <c r="U661" s="20"/>
-      <c r="V661" s="20"/>
+      <c r="Q661" s="15"/>
+      <c r="R661" s="15"/>
+      <c r="S661" s="15"/>
+      <c r="T661" s="15"/>
+      <c r="U661" s="15"/>
+      <c r="V661" s="15"/>
       <c r="W661" s="15"/>
       <c r="X661" s="15"/>
       <c r="Y661" s="15"/>
@@ -29788,12 +29792,12 @@
       <c r="AC661" s="15"/>
     </row>
     <row r="662" spans="16:29">
-      <c r="Q662" s="15"/>
-      <c r="R662" s="15"/>
-      <c r="S662" s="15"/>
-      <c r="T662" s="15"/>
-      <c r="U662" s="15"/>
-      <c r="V662" s="15"/>
+      <c r="Q662" s="20"/>
+      <c r="R662" s="20"/>
+      <c r="S662" s="20"/>
+      <c r="T662" s="20"/>
+      <c r="U662" s="20"/>
+      <c r="V662" s="20"/>
       <c r="W662" s="15"/>
       <c r="X662" s="15"/>
       <c r="Y662" s="15"/>
@@ -29818,14 +29822,15 @@
       <c r="AC663" s="15"/>
     </row>
     <row r="664" spans="16:29">
+      <c r="P664" s="18"/>
       <c r="Q664" s="20"/>
       <c r="R664" s="20"/>
       <c r="S664" s="20"/>
       <c r="T664" s="20"/>
       <c r="U664" s="20"/>
       <c r="V664" s="20"/>
-      <c r="W664" s="15"/>
-      <c r="X664" s="15"/>
+      <c r="W664" s="20"/>
+      <c r="X664" s="20"/>
       <c r="Y664" s="15"/>
       <c r="Z664" s="15"/>
       <c r="AA664" s="15"/>
@@ -29833,15 +29838,14 @@
       <c r="AC664" s="15"/>
     </row>
     <row r="665" spans="16:29">
-      <c r="P665" s="18"/>
       <c r="Q665" s="20"/>
       <c r="R665" s="20"/>
       <c r="S665" s="20"/>
       <c r="T665" s="20"/>
       <c r="U665" s="20"/>
       <c r="V665" s="20"/>
-      <c r="W665" s="20"/>
-      <c r="X665" s="20"/>
+      <c r="W665" s="15"/>
+      <c r="X665" s="15"/>
       <c r="Y665" s="15"/>
       <c r="Z665" s="15"/>
       <c r="AA665" s="15"/>
@@ -29855,7 +29859,7 @@
       <c r="T666" s="20"/>
       <c r="U666" s="20"/>
       <c r="V666" s="20"/>
-      <c r="W666" s="15"/>
+      <c r="W666" s="20"/>
       <c r="X666" s="15"/>
       <c r="Y666" s="15"/>
       <c r="Z666" s="15"/>
@@ -29870,7 +29874,7 @@
       <c r="T667" s="20"/>
       <c r="U667" s="20"/>
       <c r="V667" s="20"/>
-      <c r="W667" s="20"/>
+      <c r="W667" s="15"/>
       <c r="X667" s="15"/>
       <c r="Y667" s="15"/>
       <c r="Z667" s="15"/>
@@ -29900,7 +29904,7 @@
       <c r="T669" s="20"/>
       <c r="U669" s="20"/>
       <c r="V669" s="20"/>
-      <c r="W669" s="15"/>
+      <c r="W669" s="20"/>
       <c r="X669" s="15"/>
       <c r="Y669" s="15"/>
       <c r="Z669" s="15"/>
@@ -29915,7 +29919,7 @@
       <c r="T670" s="20"/>
       <c r="U670" s="20"/>
       <c r="V670" s="20"/>
-      <c r="W670" s="20"/>
+      <c r="W670" s="15"/>
       <c r="X670" s="15"/>
       <c r="Y670" s="15"/>
       <c r="Z670" s="15"/>
@@ -29924,14 +29928,15 @@
       <c r="AC670" s="15"/>
     </row>
     <row r="671" spans="16:29">
+      <c r="P671" s="18"/>
       <c r="Q671" s="20"/>
       <c r="R671" s="20"/>
       <c r="S671" s="20"/>
       <c r="T671" s="20"/>
       <c r="U671" s="20"/>
       <c r="V671" s="20"/>
-      <c r="W671" s="15"/>
-      <c r="X671" s="15"/>
+      <c r="W671" s="20"/>
+      <c r="X671" s="20"/>
       <c r="Y671" s="15"/>
       <c r="Z671" s="15"/>
       <c r="AA671" s="15"/>
@@ -29939,15 +29944,14 @@
       <c r="AC671" s="15"/>
     </row>
     <row r="672" spans="16:29">
-      <c r="P672" s="18"/>
       <c r="Q672" s="20"/>
       <c r="R672" s="20"/>
       <c r="S672" s="20"/>
       <c r="T672" s="20"/>
       <c r="U672" s="20"/>
       <c r="V672" s="20"/>
-      <c r="W672" s="20"/>
-      <c r="X672" s="20"/>
+      <c r="W672" s="15"/>
+      <c r="X672" s="15"/>
       <c r="Y672" s="15"/>
       <c r="Z672" s="15"/>
       <c r="AA672" s="15"/>
@@ -29961,7 +29965,7 @@
       <c r="T673" s="20"/>
       <c r="U673" s="20"/>
       <c r="V673" s="20"/>
-      <c r="W673" s="15"/>
+      <c r="W673" s="20"/>
       <c r="X673" s="15"/>
       <c r="Y673" s="15"/>
       <c r="Z673" s="15"/>
@@ -29976,7 +29980,7 @@
       <c r="T674" s="20"/>
       <c r="U674" s="20"/>
       <c r="V674" s="20"/>
-      <c r="W674" s="20"/>
+      <c r="W674" s="15"/>
       <c r="X674" s="15"/>
       <c r="Y674" s="15"/>
       <c r="Z674" s="15"/>
@@ -29991,7 +29995,7 @@
       <c r="T675" s="20"/>
       <c r="U675" s="20"/>
       <c r="V675" s="20"/>
-      <c r="W675" s="15"/>
+      <c r="W675" s="20"/>
       <c r="X675" s="15"/>
       <c r="Y675" s="15"/>
       <c r="Z675" s="15"/>
@@ -30006,7 +30010,7 @@
       <c r="T676" s="20"/>
       <c r="U676" s="20"/>
       <c r="V676" s="20"/>
-      <c r="W676" s="20"/>
+      <c r="W676" s="15"/>
       <c r="X676" s="15"/>
       <c r="Y676" s="15"/>
       <c r="Z676" s="15"/>
@@ -30021,7 +30025,7 @@
       <c r="T677" s="20"/>
       <c r="U677" s="20"/>
       <c r="V677" s="20"/>
-      <c r="W677" s="15"/>
+      <c r="W677" s="20"/>
       <c r="X677" s="15"/>
       <c r="Y677" s="15"/>
       <c r="Z677" s="15"/>
@@ -30036,7 +30040,7 @@
       <c r="T678" s="20"/>
       <c r="U678" s="20"/>
       <c r="V678" s="20"/>
-      <c r="W678" s="20"/>
+      <c r="W678" s="15"/>
       <c r="X678" s="15"/>
       <c r="Y678" s="15"/>
       <c r="Z678" s="15"/>
@@ -30060,12 +30064,12 @@
       <c r="AC679" s="15"/>
     </row>
     <row r="680" spans="16:29">
-      <c r="Q680" s="20"/>
-      <c r="R680" s="20"/>
-      <c r="S680" s="20"/>
-      <c r="T680" s="20"/>
-      <c r="U680" s="20"/>
-      <c r="V680" s="20"/>
+      <c r="Q680" s="15"/>
+      <c r="R680" s="15"/>
+      <c r="S680" s="15"/>
+      <c r="T680" s="15"/>
+      <c r="U680" s="15"/>
+      <c r="V680" s="15"/>
       <c r="W680" s="15"/>
       <c r="X680" s="15"/>
       <c r="Y680" s="15"/>
@@ -30075,14 +30079,15 @@
       <c r="AC680" s="15"/>
     </row>
     <row r="681" spans="16:29">
-      <c r="Q681" s="15"/>
-      <c r="R681" s="15"/>
-      <c r="S681" s="15"/>
-      <c r="T681" s="15"/>
-      <c r="U681" s="15"/>
-      <c r="V681" s="15"/>
-      <c r="W681" s="15"/>
-      <c r="X681" s="15"/>
+      <c r="P681" s="18"/>
+      <c r="Q681" s="20"/>
+      <c r="R681" s="20"/>
+      <c r="S681" s="20"/>
+      <c r="T681" s="20"/>
+      <c r="U681" s="20"/>
+      <c r="V681" s="20"/>
+      <c r="W681" s="20"/>
+      <c r="X681" s="20"/>
       <c r="Y681" s="15"/>
       <c r="Z681" s="15"/>
       <c r="AA681" s="15"/>
@@ -30090,15 +30095,14 @@
       <c r="AC681" s="15"/>
     </row>
     <row r="682" spans="16:29">
-      <c r="P682" s="18"/>
       <c r="Q682" s="20"/>
       <c r="R682" s="20"/>
       <c r="S682" s="20"/>
       <c r="T682" s="20"/>
       <c r="U682" s="20"/>
       <c r="V682" s="20"/>
-      <c r="W682" s="20"/>
-      <c r="X682" s="20"/>
+      <c r="W682" s="15"/>
+      <c r="X682" s="15"/>
       <c r="Y682" s="15"/>
       <c r="Z682" s="15"/>
       <c r="AA682" s="15"/>
@@ -30106,14 +30110,15 @@
       <c r="AC682" s="15"/>
     </row>
     <row r="683" spans="16:29">
+      <c r="P683" s="18"/>
       <c r="Q683" s="20"/>
       <c r="R683" s="20"/>
       <c r="S683" s="20"/>
       <c r="T683" s="20"/>
       <c r="U683" s="20"/>
       <c r="V683" s="20"/>
-      <c r="W683" s="15"/>
-      <c r="X683" s="15"/>
+      <c r="W683" s="20"/>
+      <c r="X683" s="20"/>
       <c r="Y683" s="15"/>
       <c r="Z683" s="15"/>
       <c r="AA683" s="15"/>
@@ -30137,15 +30142,14 @@
       <c r="AC684" s="15"/>
     </row>
     <row r="685" spans="16:29">
-      <c r="P685" s="18"/>
       <c r="Q685" s="20"/>
       <c r="R685" s="20"/>
       <c r="S685" s="20"/>
       <c r="T685" s="20"/>
       <c r="U685" s="20"/>
       <c r="V685" s="20"/>
-      <c r="W685" s="20"/>
-      <c r="X685" s="20"/>
+      <c r="W685" s="15"/>
+      <c r="X685" s="15"/>
       <c r="Y685" s="15"/>
       <c r="Z685" s="15"/>
       <c r="AA685" s="15"/>
@@ -30174,7 +30178,7 @@
       <c r="T687" s="20"/>
       <c r="U687" s="20"/>
       <c r="V687" s="20"/>
-      <c r="W687" s="15"/>
+      <c r="W687" s="20"/>
       <c r="X687" s="15"/>
       <c r="Y687" s="15"/>
       <c r="Z687" s="15"/>
@@ -30183,6 +30187,7 @@
       <c r="AC687" s="15"/>
     </row>
     <row r="688" spans="16:29">
+      <c r="P688" s="18"/>
       <c r="Q688" s="20"/>
       <c r="R688" s="20"/>
       <c r="S688" s="20"/>
@@ -30190,7 +30195,7 @@
       <c r="U688" s="20"/>
       <c r="V688" s="20"/>
       <c r="W688" s="20"/>
-      <c r="X688" s="15"/>
+      <c r="X688" s="20"/>
       <c r="Y688" s="15"/>
       <c r="Z688" s="15"/>
       <c r="AA688" s="15"/>
@@ -30214,7 +30219,6 @@
       <c r="AC689" s="15"/>
     </row>
     <row r="690" spans="16:29">
-      <c r="P690" s="18"/>
       <c r="Q690" s="20"/>
       <c r="R690" s="20"/>
       <c r="S690" s="20"/>
@@ -30222,7 +30226,7 @@
       <c r="U690" s="20"/>
       <c r="V690" s="20"/>
       <c r="W690" s="20"/>
-      <c r="X690" s="20"/>
+      <c r="X690" s="15"/>
       <c r="Y690" s="15"/>
       <c r="Z690" s="15"/>
       <c r="AA690" s="15"/>
@@ -30230,6 +30234,7 @@
       <c r="AC690" s="15"/>
     </row>
     <row r="691" spans="16:29">
+      <c r="P691" s="18"/>
       <c r="Q691" s="20"/>
       <c r="R691" s="20"/>
       <c r="S691" s="20"/>
@@ -30237,7 +30242,7 @@
       <c r="U691" s="20"/>
       <c r="V691" s="20"/>
       <c r="W691" s="20"/>
-      <c r="X691" s="15"/>
+      <c r="X691" s="20"/>
       <c r="Y691" s="15"/>
       <c r="Z691" s="15"/>
       <c r="AA691" s="15"/>
@@ -30293,15 +30298,14 @@
       <c r="AC694" s="15"/>
     </row>
     <row r="695" spans="16:29">
-      <c r="P695" s="18"/>
       <c r="Q695" s="20"/>
       <c r="R695" s="20"/>
       <c r="S695" s="20"/>
       <c r="T695" s="20"/>
       <c r="U695" s="20"/>
       <c r="V695" s="20"/>
-      <c r="W695" s="20"/>
-      <c r="X695" s="20"/>
+      <c r="W695" s="15"/>
+      <c r="X695" s="15"/>
       <c r="Y695" s="15"/>
       <c r="Z695" s="15"/>
       <c r="AA695" s="15"/>
@@ -30315,7 +30319,7 @@
       <c r="T696" s="20"/>
       <c r="U696" s="20"/>
       <c r="V696" s="20"/>
-      <c r="W696" s="15"/>
+      <c r="W696" s="20"/>
       <c r="X696" s="15"/>
       <c r="Y696" s="15"/>
       <c r="Z696" s="15"/>
@@ -30330,7 +30334,7 @@
       <c r="T697" s="20"/>
       <c r="U697" s="20"/>
       <c r="V697" s="20"/>
-      <c r="W697" s="20"/>
+      <c r="W697" s="15"/>
       <c r="X697" s="15"/>
       <c r="Y697" s="15"/>
       <c r="Z697" s="15"/>
@@ -30345,7 +30349,7 @@
       <c r="T698" s="20"/>
       <c r="U698" s="20"/>
       <c r="V698" s="20"/>
-      <c r="W698" s="15"/>
+      <c r="W698" s="20"/>
       <c r="X698" s="15"/>
       <c r="Y698" s="15"/>
       <c r="Z698" s="15"/>
@@ -30360,7 +30364,7 @@
       <c r="T699" s="20"/>
       <c r="U699" s="20"/>
       <c r="V699" s="20"/>
-      <c r="W699" s="20"/>
+      <c r="W699" s="15"/>
       <c r="X699" s="15"/>
       <c r="Y699" s="15"/>
       <c r="Z699" s="15"/>
@@ -30369,12 +30373,12 @@
       <c r="AC699" s="15"/>
     </row>
     <row r="700" spans="16:29">
-      <c r="Q700" s="20"/>
-      <c r="R700" s="20"/>
-      <c r="S700" s="20"/>
-      <c r="T700" s="20"/>
-      <c r="U700" s="20"/>
-      <c r="V700" s="20"/>
+      <c r="Q700" s="15"/>
+      <c r="R700" s="15"/>
+      <c r="S700" s="15"/>
+      <c r="T700" s="15"/>
+      <c r="U700" s="15"/>
+      <c r="V700" s="15"/>
       <c r="W700" s="15"/>
       <c r="X700" s="15"/>
       <c r="Y700" s="15"/>
@@ -30384,12 +30388,12 @@
       <c r="AC700" s="15"/>
     </row>
     <row r="701" spans="16:29">
-      <c r="Q701" s="15"/>
-      <c r="R701" s="15"/>
-      <c r="S701" s="15"/>
-      <c r="T701" s="15"/>
-      <c r="U701" s="15"/>
-      <c r="V701" s="15"/>
+      <c r="Q701" s="20"/>
+      <c r="R701" s="20"/>
+      <c r="S701" s="20"/>
+      <c r="T701" s="20"/>
+      <c r="U701" s="20"/>
+      <c r="V701" s="20"/>
       <c r="W701" s="15"/>
       <c r="X701" s="15"/>
       <c r="Y701" s="15"/>
@@ -30420,7 +30424,7 @@
       <c r="T703" s="20"/>
       <c r="U703" s="20"/>
       <c r="V703" s="20"/>
-      <c r="W703" s="15"/>
+      <c r="W703" s="20"/>
       <c r="X703" s="15"/>
       <c r="Y703" s="15"/>
       <c r="Z703" s="15"/>
@@ -30450,7 +30454,7 @@
       <c r="T705" s="20"/>
       <c r="U705" s="20"/>
       <c r="V705" s="20"/>
-      <c r="W705" s="20"/>
+      <c r="W705" s="15"/>
       <c r="X705" s="15"/>
       <c r="Y705" s="15"/>
       <c r="Z705" s="15"/>
@@ -30465,7 +30469,7 @@
       <c r="T706" s="20"/>
       <c r="U706" s="20"/>
       <c r="V706" s="20"/>
-      <c r="W706" s="15"/>
+      <c r="W706" s="20"/>
       <c r="X706" s="15"/>
       <c r="Y706" s="15"/>
       <c r="Z706" s="15"/>
@@ -30480,7 +30484,7 @@
       <c r="T707" s="20"/>
       <c r="U707" s="20"/>
       <c r="V707" s="20"/>
-      <c r="W707" s="20"/>
+      <c r="W707" s="15"/>
       <c r="X707" s="15"/>
       <c r="Y707" s="15"/>
       <c r="Z707" s="15"/>
@@ -30495,7 +30499,7 @@
       <c r="T708" s="20"/>
       <c r="U708" s="20"/>
       <c r="V708" s="20"/>
-      <c r="W708" s="15"/>
+      <c r="W708" s="20"/>
       <c r="X708" s="15"/>
       <c r="Y708" s="15"/>
       <c r="Z708" s="15"/>
@@ -30525,7 +30529,7 @@
       <c r="T710" s="20"/>
       <c r="U710" s="20"/>
       <c r="V710" s="20"/>
-      <c r="W710" s="20"/>
+      <c r="W710" s="15"/>
       <c r="X710" s="15"/>
       <c r="Y710" s="15"/>
       <c r="Z710" s="15"/>
@@ -30549,12 +30553,12 @@
       <c r="AC711" s="15"/>
     </row>
     <row r="712" spans="17:29">
-      <c r="Q712" s="20"/>
-      <c r="R712" s="20"/>
-      <c r="S712" s="20"/>
-      <c r="T712" s="20"/>
-      <c r="U712" s="20"/>
-      <c r="V712" s="20"/>
+      <c r="Q712" s="15"/>
+      <c r="R712" s="15"/>
+      <c r="S712" s="15"/>
+      <c r="T712" s="15"/>
+      <c r="U712" s="15"/>
+      <c r="V712" s="15"/>
       <c r="W712" s="15"/>
       <c r="X712" s="15"/>
       <c r="Y712" s="15"/>
@@ -30564,12 +30568,12 @@
       <c r="AC712" s="15"/>
     </row>
     <row r="713" spans="17:29">
-      <c r="Q713" s="15"/>
-      <c r="R713" s="15"/>
-      <c r="S713" s="15"/>
-      <c r="T713" s="15"/>
-      <c r="U713" s="15"/>
-      <c r="V713" s="15"/>
+      <c r="Q713" s="20"/>
+      <c r="R713" s="20"/>
+      <c r="S713" s="20"/>
+      <c r="T713" s="20"/>
+      <c r="U713" s="20"/>
+      <c r="V713" s="20"/>
       <c r="W713" s="15"/>
       <c r="X713" s="15"/>
       <c r="Y713" s="15"/>
@@ -30600,7 +30604,7 @@
       <c r="T715" s="20"/>
       <c r="U715" s="20"/>
       <c r="V715" s="20"/>
-      <c r="W715" s="15"/>
+      <c r="W715" s="20"/>
       <c r="X715" s="15"/>
       <c r="Y715" s="15"/>
       <c r="Z715" s="15"/>
@@ -30630,7 +30634,7 @@
       <c r="T717" s="20"/>
       <c r="U717" s="20"/>
       <c r="V717" s="20"/>
-      <c r="W717" s="20"/>
+      <c r="W717" s="15"/>
       <c r="X717" s="15"/>
       <c r="Y717" s="15"/>
       <c r="Z717" s="15"/>
@@ -30645,7 +30649,7 @@
       <c r="T718" s="20"/>
       <c r="U718" s="20"/>
       <c r="V718" s="20"/>
-      <c r="W718" s="15"/>
+      <c r="W718" s="20"/>
       <c r="X718" s="15"/>
       <c r="Y718" s="15"/>
       <c r="Z718" s="15"/>
@@ -30660,7 +30664,7 @@
       <c r="T719" s="20"/>
       <c r="U719" s="20"/>
       <c r="V719" s="20"/>
-      <c r="W719" s="20"/>
+      <c r="W719" s="15"/>
       <c r="X719" s="15"/>
       <c r="Y719" s="15"/>
       <c r="Z719" s="15"/>
@@ -30675,7 +30679,7 @@
       <c r="T720" s="20"/>
       <c r="U720" s="20"/>
       <c r="V720" s="20"/>
-      <c r="W720" s="15"/>
+      <c r="W720" s="20"/>
       <c r="X720" s="15"/>
       <c r="Y720" s="15"/>
       <c r="Z720" s="15"/>
@@ -30735,7 +30739,7 @@
       <c r="T724" s="20"/>
       <c r="U724" s="20"/>
       <c r="V724" s="20"/>
-      <c r="W724" s="20"/>
+      <c r="W724" s="15"/>
       <c r="X724" s="15"/>
       <c r="Y724" s="15"/>
       <c r="Z724" s="15"/>
@@ -30750,7 +30754,7 @@
       <c r="T725" s="20"/>
       <c r="U725" s="20"/>
       <c r="V725" s="20"/>
-      <c r="W725" s="15"/>
+      <c r="W725" s="20"/>
       <c r="X725" s="15"/>
       <c r="Y725" s="15"/>
       <c r="Z725" s="15"/>
@@ -30765,7 +30769,7 @@
       <c r="T726" s="20"/>
       <c r="U726" s="20"/>
       <c r="V726" s="20"/>
-      <c r="W726" s="20"/>
+      <c r="W726" s="15"/>
       <c r="X726" s="15"/>
       <c r="Y726" s="15"/>
       <c r="Z726" s="15"/>
@@ -30789,12 +30793,12 @@
       <c r="AC727" s="15"/>
     </row>
     <row r="728" spans="17:29">
-      <c r="Q728" s="20"/>
-      <c r="R728" s="20"/>
-      <c r="S728" s="20"/>
-      <c r="T728" s="20"/>
-      <c r="U728" s="20"/>
-      <c r="V728" s="20"/>
+      <c r="Q728" s="15"/>
+      <c r="R728" s="15"/>
+      <c r="S728" s="15"/>
+      <c r="T728" s="15"/>
+      <c r="U728" s="15"/>
+      <c r="V728" s="15"/>
       <c r="W728" s="15"/>
       <c r="X728" s="15"/>
       <c r="Y728" s="15"/>
@@ -30804,12 +30808,12 @@
       <c r="AC728" s="15"/>
     </row>
     <row r="729" spans="17:29">
-      <c r="Q729" s="15"/>
-      <c r="R729" s="15"/>
-      <c r="S729" s="15"/>
-      <c r="T729" s="15"/>
-      <c r="U729" s="15"/>
-      <c r="V729" s="15"/>
+      <c r="Q729" s="20"/>
+      <c r="R729" s="20"/>
+      <c r="S729" s="20"/>
+      <c r="T729" s="20"/>
+      <c r="U729" s="20"/>
+      <c r="V729" s="20"/>
       <c r="W729" s="15"/>
       <c r="X729" s="15"/>
       <c r="Y729" s="15"/>
@@ -31020,7 +31024,7 @@
       <c r="T743" s="20"/>
       <c r="U743" s="20"/>
       <c r="V743" s="20"/>
-      <c r="W743" s="15"/>
+      <c r="W743" s="20"/>
       <c r="X743" s="15"/>
       <c r="Y743" s="15"/>
       <c r="Z743" s="15"/>
@@ -31035,7 +31039,7 @@
       <c r="T744" s="20"/>
       <c r="U744" s="20"/>
       <c r="V744" s="20"/>
-      <c r="W744" s="20"/>
+      <c r="W744" s="15"/>
       <c r="X744" s="15"/>
       <c r="Y744" s="15"/>
       <c r="Z744" s="15"/>
@@ -31044,12 +31048,12 @@
       <c r="AC744" s="15"/>
     </row>
     <row r="745" spans="17:29">
-      <c r="Q745" s="20"/>
-      <c r="R745" s="20"/>
-      <c r="S745" s="20"/>
-      <c r="T745" s="20"/>
-      <c r="U745" s="20"/>
-      <c r="V745" s="20"/>
+      <c r="Q745" s="15"/>
+      <c r="R745" s="15"/>
+      <c r="S745" s="15"/>
+      <c r="T745" s="15"/>
+      <c r="U745" s="15"/>
+      <c r="V745" s="15"/>
       <c r="W745" s="15"/>
       <c r="X745" s="15"/>
       <c r="Y745" s="15"/>
@@ -31059,12 +31063,12 @@
       <c r="AC745" s="15"/>
     </row>
     <row r="746" spans="17:29">
-      <c r="Q746" s="15"/>
-      <c r="R746" s="15"/>
-      <c r="S746" s="15"/>
-      <c r="T746" s="15"/>
-      <c r="U746" s="15"/>
-      <c r="V746" s="15"/>
+      <c r="Q746" s="20"/>
+      <c r="R746" s="20"/>
+      <c r="S746" s="20"/>
+      <c r="T746" s="20"/>
+      <c r="U746" s="20"/>
+      <c r="V746" s="20"/>
       <c r="W746" s="15"/>
       <c r="X746" s="15"/>
       <c r="Y746" s="15"/>
@@ -31095,7 +31099,7 @@
       <c r="T748" s="20"/>
       <c r="U748" s="20"/>
       <c r="V748" s="20"/>
-      <c r="W748" s="15"/>
+      <c r="W748" s="20"/>
       <c r="X748" s="15"/>
       <c r="Y748" s="15"/>
       <c r="Z748" s="15"/>
@@ -31140,7 +31144,7 @@
       <c r="T751" s="20"/>
       <c r="U751" s="20"/>
       <c r="V751" s="20"/>
-      <c r="W751" s="20"/>
+      <c r="W751" s="15"/>
       <c r="X751" s="15"/>
       <c r="Y751" s="15"/>
       <c r="Z751" s="15"/>
@@ -31149,12 +31153,12 @@
       <c r="AC751" s="15"/>
     </row>
     <row r="752" spans="17:29">
-      <c r="Q752" s="20"/>
-      <c r="R752" s="20"/>
-      <c r="S752" s="20"/>
-      <c r="T752" s="20"/>
-      <c r="U752" s="20"/>
-      <c r="V752" s="20"/>
+      <c r="Q752" s="15"/>
+      <c r="R752" s="15"/>
+      <c r="S752" s="15"/>
+      <c r="T752" s="15"/>
+      <c r="U752" s="15"/>
+      <c r="V752" s="15"/>
       <c r="W752" s="15"/>
       <c r="X752" s="15"/>
       <c r="Y752" s="15"/>
@@ -31164,12 +31168,12 @@
       <c r="AC752" s="15"/>
     </row>
     <row r="753" spans="17:29">
-      <c r="Q753" s="15"/>
-      <c r="R753" s="15"/>
-      <c r="S753" s="15"/>
-      <c r="T753" s="15"/>
-      <c r="U753" s="15"/>
-      <c r="V753" s="15"/>
+      <c r="Q753" s="20"/>
+      <c r="R753" s="20"/>
+      <c r="S753" s="20"/>
+      <c r="T753" s="20"/>
+      <c r="U753" s="20"/>
+      <c r="V753" s="20"/>
       <c r="W753" s="15"/>
       <c r="X753" s="15"/>
       <c r="Y753" s="15"/>
@@ -31209,12 +31213,12 @@
       <c r="AC755" s="15"/>
     </row>
     <row r="756" spans="17:29">
-      <c r="Q756" s="20"/>
-      <c r="R756" s="20"/>
-      <c r="S756" s="20"/>
-      <c r="T756" s="20"/>
-      <c r="U756" s="20"/>
-      <c r="V756" s="20"/>
+      <c r="Q756" s="15"/>
+      <c r="R756" s="15"/>
+      <c r="S756" s="15"/>
+      <c r="T756" s="15"/>
+      <c r="U756" s="15"/>
+      <c r="V756" s="15"/>
       <c r="W756" s="15"/>
       <c r="X756" s="15"/>
       <c r="Y756" s="15"/>
@@ -31224,13 +31228,13 @@
       <c r="AC756" s="15"/>
     </row>
     <row r="757" spans="17:29">
-      <c r="Q757" s="15"/>
-      <c r="R757" s="15"/>
-      <c r="S757" s="15"/>
-      <c r="T757" s="15"/>
-      <c r="U757" s="15"/>
-      <c r="V757" s="15"/>
-      <c r="W757" s="15"/>
+      <c r="Q757" s="20"/>
+      <c r="R757" s="20"/>
+      <c r="S757" s="20"/>
+      <c r="T757" s="20"/>
+      <c r="U757" s="20"/>
+      <c r="V757" s="20"/>
+      <c r="W757" s="20"/>
       <c r="X757" s="15"/>
       <c r="Y757" s="15"/>
       <c r="Z757" s="15"/>
@@ -31245,7 +31249,7 @@
       <c r="T758" s="20"/>
       <c r="U758" s="20"/>
       <c r="V758" s="20"/>
-      <c r="W758" s="20"/>
+      <c r="W758" s="15"/>
       <c r="X758" s="15"/>
       <c r="Y758" s="15"/>
       <c r="Z758" s="15"/>
@@ -31254,12 +31258,12 @@
       <c r="AC758" s="15"/>
     </row>
     <row r="759" spans="17:29">
-      <c r="Q759" s="20"/>
-      <c r="R759" s="20"/>
-      <c r="S759" s="20"/>
-      <c r="T759" s="20"/>
-      <c r="U759" s="20"/>
-      <c r="V759" s="20"/>
+      <c r="Q759" s="15"/>
+      <c r="R759" s="15"/>
+      <c r="S759" s="15"/>
+      <c r="T759" s="15"/>
+      <c r="U759" s="15"/>
+      <c r="V759" s="15"/>
       <c r="W759" s="15"/>
       <c r="X759" s="15"/>
       <c r="Y759" s="15"/>
@@ -31269,12 +31273,12 @@
       <c r="AC759" s="15"/>
     </row>
     <row r="760" spans="17:29">
-      <c r="Q760" s="15"/>
-      <c r="R760" s="15"/>
-      <c r="S760" s="15"/>
-      <c r="T760" s="15"/>
-      <c r="U760" s="15"/>
-      <c r="V760" s="15"/>
+      <c r="Q760" s="20"/>
+      <c r="R760" s="20"/>
+      <c r="S760" s="20"/>
+      <c r="T760" s="20"/>
+      <c r="U760" s="20"/>
+      <c r="V760" s="20"/>
       <c r="W760" s="15"/>
       <c r="X760" s="15"/>
       <c r="Y760" s="15"/>
@@ -31290,7 +31294,7 @@
       <c r="T761" s="20"/>
       <c r="U761" s="20"/>
       <c r="V761" s="20"/>
-      <c r="W761" s="15"/>
+      <c r="W761" s="20"/>
       <c r="X761" s="15"/>
       <c r="Y761" s="15"/>
       <c r="Z761" s="15"/>
@@ -31305,7 +31309,7 @@
       <c r="T762" s="20"/>
       <c r="U762" s="20"/>
       <c r="V762" s="20"/>
-      <c r="W762" s="20"/>
+      <c r="W762" s="15"/>
       <c r="X762" s="15"/>
       <c r="Y762" s="15"/>
       <c r="Z762" s="15"/>
@@ -31320,7 +31324,7 @@
       <c r="T763" s="20"/>
       <c r="U763" s="20"/>
       <c r="V763" s="20"/>
-      <c r="W763" s="15"/>
+      <c r="W763" s="20"/>
       <c r="X763" s="15"/>
       <c r="Y763" s="15"/>
       <c r="Z763" s="15"/>
@@ -31335,7 +31339,7 @@
       <c r="T764" s="20"/>
       <c r="U764" s="20"/>
       <c r="V764" s="20"/>
-      <c r="W764" s="20"/>
+      <c r="W764" s="15"/>
       <c r="X764" s="15"/>
       <c r="Y764" s="15"/>
       <c r="Z764" s="15"/>
@@ -31365,7 +31369,7 @@
       <c r="T766" s="20"/>
       <c r="U766" s="20"/>
       <c r="V766" s="20"/>
-      <c r="W766" s="15"/>
+      <c r="W766" s="20"/>
       <c r="X766" s="15"/>
       <c r="Y766" s="15"/>
       <c r="Z766" s="15"/>
@@ -31374,13 +31378,13 @@
       <c r="AC766" s="15"/>
     </row>
     <row r="767" spans="17:29">
-      <c r="Q767" s="20"/>
-      <c r="R767" s="20"/>
-      <c r="S767" s="20"/>
-      <c r="T767" s="20"/>
-      <c r="U767" s="20"/>
-      <c r="V767" s="20"/>
-      <c r="W767" s="20"/>
+      <c r="Q767" s="15"/>
+      <c r="R767" s="15"/>
+      <c r="S767" s="15"/>
+      <c r="T767" s="15"/>
+      <c r="U767" s="15"/>
+      <c r="V767" s="15"/>
+      <c r="W767" s="15"/>
       <c r="X767" s="15"/>
       <c r="Y767" s="15"/>
       <c r="Z767" s="15"/>
@@ -31389,12 +31393,12 @@
       <c r="AC767" s="15"/>
     </row>
     <row r="768" spans="17:29">
-      <c r="Q768" s="15"/>
-      <c r="R768" s="15"/>
-      <c r="S768" s="15"/>
-      <c r="T768" s="15"/>
-      <c r="U768" s="15"/>
-      <c r="V768" s="15"/>
+      <c r="Q768" s="20"/>
+      <c r="R768" s="20"/>
+      <c r="S768" s="20"/>
+      <c r="T768" s="20"/>
+      <c r="U768" s="20"/>
+      <c r="V768" s="20"/>
       <c r="W768" s="15"/>
       <c r="X768" s="15"/>
       <c r="Y768" s="15"/>
@@ -31404,12 +31408,12 @@
       <c r="AC768" s="15"/>
     </row>
     <row r="769" spans="17:29">
-      <c r="Q769" s="20"/>
-      <c r="R769" s="20"/>
-      <c r="S769" s="20"/>
-      <c r="T769" s="20"/>
-      <c r="U769" s="20"/>
-      <c r="V769" s="20"/>
+      <c r="Q769" s="15"/>
+      <c r="R769" s="15"/>
+      <c r="S769" s="15"/>
+      <c r="T769" s="15"/>
+      <c r="U769" s="15"/>
+      <c r="V769" s="15"/>
       <c r="W769" s="15"/>
       <c r="X769" s="15"/>
       <c r="Y769" s="15"/>
@@ -31419,12 +31423,12 @@
       <c r="AC769" s="15"/>
     </row>
     <row r="770" spans="17:29">
-      <c r="Q770" s="15"/>
-      <c r="R770" s="15"/>
-      <c r="S770" s="15"/>
-      <c r="T770" s="15"/>
-      <c r="U770" s="15"/>
-      <c r="V770" s="15"/>
+      <c r="Q770" s="20"/>
+      <c r="R770" s="20"/>
+      <c r="S770" s="20"/>
+      <c r="T770" s="20"/>
+      <c r="U770" s="20"/>
+      <c r="V770" s="20"/>
       <c r="W770" s="15"/>
       <c r="X770" s="15"/>
       <c r="Y770" s="15"/>
@@ -31464,12 +31468,12 @@
       <c r="AC772" s="15"/>
     </row>
     <row r="773" spans="17:29">
-      <c r="Q773" s="20"/>
-      <c r="R773" s="20"/>
-      <c r="S773" s="20"/>
-      <c r="T773" s="20"/>
-      <c r="U773" s="20"/>
-      <c r="V773" s="20"/>
+      <c r="Q773" s="15"/>
+      <c r="R773" s="15"/>
+      <c r="S773" s="15"/>
+      <c r="T773" s="15"/>
+      <c r="U773" s="15"/>
+      <c r="V773" s="15"/>
       <c r="W773" s="15"/>
       <c r="X773" s="15"/>
       <c r="Y773" s="15"/>
@@ -31479,12 +31483,12 @@
       <c r="AC773" s="15"/>
     </row>
     <row r="774" spans="17:29">
-      <c r="Q774" s="15"/>
-      <c r="R774" s="15"/>
-      <c r="S774" s="15"/>
-      <c r="T774" s="15"/>
-      <c r="U774" s="15"/>
-      <c r="V774" s="15"/>
+      <c r="Q774" s="20"/>
+      <c r="R774" s="20"/>
+      <c r="S774" s="20"/>
+      <c r="T774" s="20"/>
+      <c r="U774" s="20"/>
+      <c r="V774" s="20"/>
       <c r="W774" s="15"/>
       <c r="X774" s="15"/>
       <c r="Y774" s="15"/>
@@ -31524,12 +31528,12 @@
       <c r="AC776" s="15"/>
     </row>
     <row r="777" spans="17:29">
-      <c r="Q777" s="20"/>
-      <c r="R777" s="20"/>
-      <c r="S777" s="20"/>
-      <c r="T777" s="20"/>
-      <c r="U777" s="20"/>
-      <c r="V777" s="20"/>
+      <c r="Q777" s="15"/>
+      <c r="R777" s="15"/>
+      <c r="S777" s="15"/>
+      <c r="T777" s="15"/>
+      <c r="U777" s="15"/>
+      <c r="V777" s="15"/>
       <c r="W777" s="15"/>
       <c r="X777" s="15"/>
       <c r="Y777" s="15"/>
@@ -31554,12 +31558,12 @@
       <c r="AC778" s="15"/>
     </row>
     <row r="779" spans="17:29">
-      <c r="Q779" s="15"/>
-      <c r="R779" s="15"/>
-      <c r="S779" s="15"/>
-      <c r="T779" s="15"/>
-      <c r="U779" s="15"/>
-      <c r="V779" s="15"/>
+      <c r="Q779" s="20"/>
+      <c r="R779" s="20"/>
+      <c r="S779" s="20"/>
+      <c r="T779" s="20"/>
+      <c r="U779" s="20"/>
+      <c r="V779" s="20"/>
       <c r="W779" s="15"/>
       <c r="X779" s="15"/>
       <c r="Y779" s="15"/>
@@ -31599,12 +31603,12 @@
       <c r="AC781" s="15"/>
     </row>
     <row r="782" spans="17:29">
-      <c r="Q782" s="20"/>
-      <c r="R782" s="20"/>
-      <c r="S782" s="20"/>
-      <c r="T782" s="20"/>
-      <c r="U782" s="20"/>
-      <c r="V782" s="20"/>
+      <c r="Q782" s="15"/>
+      <c r="R782" s="15"/>
+      <c r="S782" s="15"/>
+      <c r="T782" s="15"/>
+      <c r="U782" s="15"/>
+      <c r="V782" s="15"/>
       <c r="W782" s="15"/>
       <c r="X782" s="15"/>
       <c r="Y782" s="15"/>
@@ -31614,12 +31618,12 @@
       <c r="AC782" s="15"/>
     </row>
     <row r="783" spans="17:29">
-      <c r="Q783" s="15"/>
-      <c r="R783" s="15"/>
-      <c r="S783" s="15"/>
-      <c r="T783" s="15"/>
-      <c r="U783" s="15"/>
-      <c r="V783" s="15"/>
+      <c r="Q783" s="20"/>
+      <c r="R783" s="20"/>
+      <c r="S783" s="20"/>
+      <c r="T783" s="20"/>
+      <c r="U783" s="20"/>
+      <c r="V783" s="20"/>
       <c r="W783" s="15"/>
       <c r="X783" s="15"/>
       <c r="Y783" s="15"/>
@@ -31650,7 +31654,7 @@
       <c r="T785" s="20"/>
       <c r="U785" s="20"/>
       <c r="V785" s="20"/>
-      <c r="W785" s="15"/>
+      <c r="W785" s="20"/>
       <c r="X785" s="15"/>
       <c r="Y785" s="15"/>
       <c r="Z785" s="15"/>
@@ -31695,7 +31699,7 @@
       <c r="T788" s="20"/>
       <c r="U788" s="20"/>
       <c r="V788" s="20"/>
-      <c r="W788" s="20"/>
+      <c r="W788" s="15"/>
       <c r="X788" s="15"/>
       <c r="Y788" s="15"/>
       <c r="Z788" s="15"/>
@@ -31710,7 +31714,7 @@
       <c r="T789" s="20"/>
       <c r="U789" s="20"/>
       <c r="V789" s="20"/>
-      <c r="W789" s="15"/>
+      <c r="W789" s="20"/>
       <c r="X789" s="15"/>
       <c r="Y789" s="15"/>
       <c r="Z789" s="15"/>
@@ -31719,13 +31723,13 @@
       <c r="AC789" s="15"/>
     </row>
     <row r="790" spans="17:29">
-      <c r="Q790" s="20"/>
-      <c r="R790" s="20"/>
-      <c r="S790" s="20"/>
-      <c r="T790" s="20"/>
-      <c r="U790" s="20"/>
-      <c r="V790" s="20"/>
-      <c r="W790" s="20"/>
+      <c r="Q790" s="15"/>
+      <c r="R790" s="15"/>
+      <c r="S790" s="15"/>
+      <c r="T790" s="15"/>
+      <c r="U790" s="15"/>
+      <c r="V790" s="15"/>
+      <c r="W790" s="15"/>
       <c r="X790" s="15"/>
       <c r="Y790" s="15"/>
       <c r="Z790" s="15"/>
@@ -31764,12 +31768,12 @@
       <c r="AC792" s="15"/>
     </row>
     <row r="793" spans="17:29">
-      <c r="Q793" s="15"/>
-      <c r="R793" s="15"/>
-      <c r="S793" s="15"/>
-      <c r="T793" s="15"/>
-      <c r="U793" s="15"/>
-      <c r="V793" s="15"/>
+      <c r="Q793" s="20"/>
+      <c r="R793" s="20"/>
+      <c r="S793" s="20"/>
+      <c r="T793" s="20"/>
+      <c r="U793" s="20"/>
+      <c r="V793" s="20"/>
       <c r="W793" s="15"/>
       <c r="X793" s="15"/>
       <c r="Y793" s="15"/>
@@ -31794,12 +31798,12 @@
       <c r="AC794" s="15"/>
     </row>
     <row r="795" spans="17:29">
-      <c r="Q795" s="20"/>
-      <c r="R795" s="20"/>
-      <c r="S795" s="20"/>
-      <c r="T795" s="20"/>
-      <c r="U795" s="20"/>
-      <c r="V795" s="20"/>
+      <c r="Q795" s="15"/>
+      <c r="R795" s="15"/>
+      <c r="S795" s="15"/>
+      <c r="T795" s="15"/>
+      <c r="U795" s="15"/>
+      <c r="V795" s="15"/>
       <c r="W795" s="15"/>
       <c r="X795" s="15"/>
       <c r="Y795" s="15"/>
@@ -31809,12 +31813,12 @@
       <c r="AC795" s="15"/>
     </row>
     <row r="796" spans="17:29">
-      <c r="Q796" s="15"/>
-      <c r="R796" s="15"/>
-      <c r="S796" s="15"/>
-      <c r="T796" s="15"/>
-      <c r="U796" s="15"/>
-      <c r="V796" s="15"/>
+      <c r="Q796" s="20"/>
+      <c r="R796" s="20"/>
+      <c r="S796" s="20"/>
+      <c r="T796" s="20"/>
+      <c r="U796" s="20"/>
+      <c r="V796" s="20"/>
       <c r="W796" s="15"/>
       <c r="X796" s="15"/>
       <c r="Y796" s="15"/>
@@ -31854,12 +31858,12 @@
       <c r="AC798" s="15"/>
     </row>
     <row r="799" spans="17:29">
-      <c r="Q799" s="20"/>
-      <c r="R799" s="20"/>
-      <c r="S799" s="20"/>
-      <c r="T799" s="20"/>
-      <c r="U799" s="20"/>
-      <c r="V799" s="20"/>
+      <c r="Q799" s="15"/>
+      <c r="R799" s="15"/>
+      <c r="S799" s="15"/>
+      <c r="T799" s="15"/>
+      <c r="U799" s="15"/>
+      <c r="V799" s="15"/>
       <c r="W799" s="15"/>
       <c r="X799" s="15"/>
       <c r="Y799" s="15"/>
@@ -31869,12 +31873,12 @@
       <c r="AC799" s="15"/>
     </row>
     <row r="800" spans="17:29">
-      <c r="Q800" s="15"/>
-      <c r="R800" s="15"/>
-      <c r="S800" s="15"/>
-      <c r="T800" s="15"/>
-      <c r="U800" s="15"/>
-      <c r="V800" s="15"/>
+      <c r="Q800" s="20"/>
+      <c r="R800" s="20"/>
+      <c r="S800" s="20"/>
+      <c r="T800" s="20"/>
+      <c r="U800" s="20"/>
+      <c r="V800" s="20"/>
       <c r="W800" s="15"/>
       <c r="X800" s="15"/>
       <c r="Y800" s="15"/>
@@ -31914,12 +31918,12 @@
       <c r="AC802" s="15"/>
     </row>
     <row r="803" spans="17:29">
-      <c r="Q803" s="20"/>
-      <c r="R803" s="20"/>
-      <c r="S803" s="20"/>
-      <c r="T803" s="20"/>
-      <c r="U803" s="20"/>
-      <c r="V803" s="20"/>
+      <c r="Q803" s="15"/>
+      <c r="R803" s="15"/>
+      <c r="S803" s="15"/>
+      <c r="T803" s="15"/>
+      <c r="U803" s="15"/>
+      <c r="V803" s="15"/>
       <c r="W803" s="15"/>
       <c r="X803" s="15"/>
       <c r="Y803" s="15"/>
@@ -32004,12 +32008,12 @@
       <c r="AC808" s="15"/>
     </row>
     <row r="809" spans="17:29">
-      <c r="Q809" s="15"/>
-      <c r="R809" s="15"/>
-      <c r="S809" s="15"/>
-      <c r="T809" s="15"/>
-      <c r="U809" s="15"/>
-      <c r="V809" s="15"/>
+      <c r="Q809" s="20"/>
+      <c r="R809" s="20"/>
+      <c r="S809" s="20"/>
+      <c r="T809" s="20"/>
+      <c r="U809" s="20"/>
+      <c r="V809" s="20"/>
       <c r="W809" s="15"/>
       <c r="X809" s="15"/>
       <c r="Y809" s="15"/>
@@ -32049,12 +32053,12 @@
       <c r="AC811" s="15"/>
     </row>
     <row r="812" spans="17:29">
-      <c r="Q812" s="20"/>
-      <c r="R812" s="20"/>
-      <c r="S812" s="20"/>
-      <c r="T812" s="20"/>
-      <c r="U812" s="20"/>
-      <c r="V812" s="20"/>
+      <c r="Q812" s="15"/>
+      <c r="R812" s="15"/>
+      <c r="S812" s="15"/>
+      <c r="T812" s="15"/>
+      <c r="U812" s="15"/>
+      <c r="V812" s="15"/>
       <c r="W812" s="15"/>
       <c r="X812" s="15"/>
       <c r="Y812" s="15"/>
@@ -32079,12 +32083,12 @@
       <c r="AC813" s="15"/>
     </row>
     <row r="814" spans="17:29">
-      <c r="Q814" s="15"/>
-      <c r="R814" s="15"/>
-      <c r="S814" s="15"/>
-      <c r="T814" s="15"/>
-      <c r="U814" s="15"/>
-      <c r="V814" s="15"/>
+      <c r="Q814" s="20"/>
+      <c r="R814" s="20"/>
+      <c r="S814" s="20"/>
+      <c r="T814" s="20"/>
+      <c r="U814" s="20"/>
+      <c r="V814" s="20"/>
       <c r="W814" s="15"/>
       <c r="X814" s="15"/>
       <c r="Y814" s="15"/>
@@ -32109,12 +32113,12 @@
       <c r="AC815" s="15"/>
     </row>
     <row r="816" spans="17:29">
-      <c r="Q816" s="20"/>
-      <c r="R816" s="20"/>
-      <c r="S816" s="20"/>
-      <c r="T816" s="20"/>
-      <c r="U816" s="20"/>
-      <c r="V816" s="20"/>
+      <c r="Q816" s="15"/>
+      <c r="R816" s="15"/>
+      <c r="S816" s="15"/>
+      <c r="T816" s="15"/>
+      <c r="U816" s="15"/>
+      <c r="V816" s="15"/>
       <c r="W816" s="15"/>
       <c r="X816" s="15"/>
       <c r="Y816" s="15"/>
@@ -32124,12 +32128,12 @@
       <c r="AC816" s="15"/>
     </row>
     <row r="817" spans="17:29">
-      <c r="Q817" s="15"/>
-      <c r="R817" s="15"/>
-      <c r="S817" s="15"/>
-      <c r="T817" s="15"/>
-      <c r="U817" s="15"/>
-      <c r="V817" s="15"/>
+      <c r="Q817" s="20"/>
+      <c r="R817" s="20"/>
+      <c r="S817" s="20"/>
+      <c r="T817" s="20"/>
+      <c r="U817" s="20"/>
+      <c r="V817" s="20"/>
       <c r="W817" s="15"/>
       <c r="X817" s="15"/>
       <c r="Y817" s="15"/>
@@ -32139,12 +32143,12 @@
       <c r="AC817" s="15"/>
     </row>
     <row r="818" spans="17:29">
-      <c r="Q818" s="20"/>
-      <c r="R818" s="20"/>
-      <c r="S818" s="20"/>
-      <c r="T818" s="20"/>
-      <c r="U818" s="20"/>
-      <c r="V818" s="20"/>
+      <c r="Q818" s="15"/>
+      <c r="R818" s="15"/>
+      <c r="S818" s="15"/>
+      <c r="T818" s="15"/>
+      <c r="U818" s="15"/>
+      <c r="V818" s="15"/>
       <c r="W818" s="15"/>
       <c r="X818" s="15"/>
       <c r="Y818" s="15"/>
@@ -32169,12 +32173,12 @@
       <c r="AC819" s="15"/>
     </row>
     <row r="820" spans="17:29">
-      <c r="Q820" s="15"/>
-      <c r="R820" s="15"/>
-      <c r="S820" s="15"/>
-      <c r="T820" s="15"/>
-      <c r="U820" s="15"/>
-      <c r="V820" s="15"/>
+      <c r="Q820" s="20"/>
+      <c r="R820" s="20"/>
+      <c r="S820" s="20"/>
+      <c r="T820" s="20"/>
+      <c r="U820" s="20"/>
+      <c r="V820" s="20"/>
       <c r="W820" s="15"/>
       <c r="X820" s="15"/>
       <c r="Y820" s="15"/>
@@ -32184,12 +32188,12 @@
       <c r="AC820" s="15"/>
     </row>
     <row r="821" spans="17:29">
-      <c r="Q821" s="20"/>
-      <c r="R821" s="20"/>
-      <c r="S821" s="20"/>
-      <c r="T821" s="20"/>
-      <c r="U821" s="20"/>
-      <c r="V821" s="20"/>
+      <c r="Q821" s="15"/>
+      <c r="R821" s="15"/>
+      <c r="S821" s="15"/>
+      <c r="T821" s="15"/>
+      <c r="U821" s="15"/>
+      <c r="V821" s="15"/>
       <c r="W821" s="15"/>
       <c r="X821" s="15"/>
       <c r="Y821" s="15"/>
@@ -32229,12 +32233,12 @@
       <c r="AC823" s="15"/>
     </row>
     <row r="824" spans="17:29">
-      <c r="Q824" s="15"/>
-      <c r="R824" s="15"/>
-      <c r="S824" s="15"/>
-      <c r="T824" s="15"/>
-      <c r="U824" s="15"/>
-      <c r="V824" s="15"/>
+      <c r="Q824" s="20"/>
+      <c r="R824" s="20"/>
+      <c r="S824" s="20"/>
+      <c r="T824" s="20"/>
+      <c r="U824" s="20"/>
+      <c r="V824" s="20"/>
       <c r="W824" s="15"/>
       <c r="X824" s="15"/>
       <c r="Y824" s="15"/>
@@ -32259,12 +32263,12 @@
       <c r="AC825" s="15"/>
     </row>
     <row r="826" spans="17:29">
-      <c r="Q826" s="20"/>
-      <c r="R826" s="20"/>
-      <c r="S826" s="20"/>
-      <c r="T826" s="20"/>
-      <c r="U826" s="20"/>
-      <c r="V826" s="20"/>
+      <c r="Q826" s="15"/>
+      <c r="R826" s="15"/>
+      <c r="S826" s="15"/>
+      <c r="T826" s="15"/>
+      <c r="U826" s="15"/>
+      <c r="V826" s="15"/>
       <c r="W826" s="15"/>
       <c r="X826" s="15"/>
       <c r="Y826" s="15"/>
@@ -32274,12 +32278,12 @@
       <c r="AC826" s="15"/>
     </row>
     <row r="827" spans="17:29">
-      <c r="Q827" s="15"/>
-      <c r="R827" s="15"/>
-      <c r="S827" s="15"/>
-      <c r="T827" s="15"/>
-      <c r="U827" s="15"/>
-      <c r="V827" s="15"/>
+      <c r="Q827" s="20"/>
+      <c r="R827" s="20"/>
+      <c r="S827" s="20"/>
+      <c r="T827" s="20"/>
+      <c r="U827" s="20"/>
+      <c r="V827" s="20"/>
       <c r="W827" s="15"/>
       <c r="X827" s="15"/>
       <c r="Y827" s="15"/>
@@ -32289,12 +32293,12 @@
       <c r="AC827" s="15"/>
     </row>
     <row r="828" spans="17:29">
-      <c r="Q828" s="20"/>
-      <c r="R828" s="20"/>
-      <c r="S828" s="20"/>
-      <c r="T828" s="20"/>
-      <c r="U828" s="20"/>
-      <c r="V828" s="20"/>
+      <c r="Q828" s="15"/>
+      <c r="R828" s="15"/>
+      <c r="S828" s="15"/>
+      <c r="T828" s="15"/>
+      <c r="U828" s="15"/>
+      <c r="V828" s="15"/>
       <c r="W828" s="15"/>
       <c r="X828" s="15"/>
       <c r="Y828" s="15"/>
@@ -32319,12 +32323,12 @@
       <c r="AC829" s="15"/>
     </row>
     <row r="830" spans="17:29">
-      <c r="Q830" s="15"/>
-      <c r="R830" s="15"/>
-      <c r="S830" s="15"/>
-      <c r="T830" s="15"/>
-      <c r="U830" s="15"/>
-      <c r="V830" s="15"/>
+      <c r="Q830" s="20"/>
+      <c r="R830" s="20"/>
+      <c r="S830" s="20"/>
+      <c r="T830" s="20"/>
+      <c r="U830" s="20"/>
+      <c r="V830" s="20"/>
       <c r="W830" s="15"/>
       <c r="X830" s="15"/>
       <c r="Y830" s="15"/>
@@ -32334,12 +32338,12 @@
       <c r="AC830" s="15"/>
     </row>
     <row r="831" spans="17:29">
-      <c r="Q831" s="20"/>
-      <c r="R831" s="20"/>
-      <c r="S831" s="20"/>
-      <c r="T831" s="20"/>
-      <c r="U831" s="20"/>
-      <c r="V831" s="20"/>
+      <c r="Q831" s="15"/>
+      <c r="R831" s="15"/>
+      <c r="S831" s="15"/>
+      <c r="T831" s="15"/>
+      <c r="U831" s="15"/>
+      <c r="V831" s="15"/>
       <c r="W831" s="15"/>
       <c r="X831" s="15"/>
       <c r="Y831" s="15"/>
@@ -32349,12 +32353,12 @@
       <c r="AC831" s="15"/>
     </row>
     <row r="832" spans="17:29">
-      <c r="Q832" s="15"/>
-      <c r="R832" s="15"/>
-      <c r="S832" s="15"/>
-      <c r="T832" s="15"/>
-      <c r="U832" s="15"/>
-      <c r="V832" s="15"/>
+      <c r="Q832" s="20"/>
+      <c r="R832" s="20"/>
+      <c r="S832" s="20"/>
+      <c r="T832" s="20"/>
+      <c r="U832" s="20"/>
+      <c r="V832" s="20"/>
       <c r="W832" s="15"/>
       <c r="X832" s="15"/>
       <c r="Y832" s="15"/>
@@ -32364,12 +32368,12 @@
       <c r="AC832" s="15"/>
     </row>
     <row r="833" spans="17:29">
-      <c r="Q833" s="20"/>
-      <c r="R833" s="20"/>
-      <c r="S833" s="20"/>
-      <c r="T833" s="20"/>
-      <c r="U833" s="20"/>
-      <c r="V833" s="20"/>
+      <c r="Q833" s="15"/>
+      <c r="R833" s="15"/>
+      <c r="S833" s="15"/>
+      <c r="T833" s="15"/>
+      <c r="U833" s="15"/>
+      <c r="V833" s="15"/>
       <c r="W833" s="15"/>
       <c r="X833" s="15"/>
       <c r="Y833" s="15"/>
@@ -32379,12 +32383,12 @@
       <c r="AC833" s="15"/>
     </row>
     <row r="834" spans="17:29">
-      <c r="Q834" s="15"/>
-      <c r="R834" s="15"/>
-      <c r="S834" s="15"/>
-      <c r="T834" s="15"/>
-      <c r="U834" s="15"/>
-      <c r="V834" s="15"/>
+      <c r="Q834" s="20"/>
+      <c r="R834" s="20"/>
+      <c r="S834" s="20"/>
+      <c r="T834" s="20"/>
+      <c r="U834" s="20"/>
+      <c r="V834" s="20"/>
       <c r="W834" s="15"/>
       <c r="X834" s="15"/>
       <c r="Y834" s="15"/>
@@ -32454,12 +32458,12 @@
       <c r="AC838" s="15"/>
     </row>
     <row r="839" spans="17:29">
-      <c r="Q839" s="20"/>
-      <c r="R839" s="20"/>
-      <c r="S839" s="20"/>
-      <c r="T839" s="20"/>
-      <c r="U839" s="20"/>
-      <c r="V839" s="20"/>
+      <c r="Q839" s="15"/>
+      <c r="R839" s="15"/>
+      <c r="S839" s="15"/>
+      <c r="T839" s="15"/>
+      <c r="U839" s="15"/>
+      <c r="V839" s="15"/>
       <c r="W839" s="15"/>
       <c r="X839" s="15"/>
       <c r="Y839" s="15"/>
@@ -32469,12 +32473,12 @@
       <c r="AC839" s="15"/>
     </row>
     <row r="840" spans="17:29">
-      <c r="Q840" s="15"/>
-      <c r="R840" s="15"/>
-      <c r="S840" s="15"/>
-      <c r="T840" s="15"/>
-      <c r="U840" s="15"/>
-      <c r="V840" s="15"/>
+      <c r="Q840" s="20"/>
+      <c r="R840" s="20"/>
+      <c r="S840" s="20"/>
+      <c r="T840" s="20"/>
+      <c r="U840" s="20"/>
+      <c r="V840" s="20"/>
       <c r="W840" s="15"/>
       <c r="X840" s="15"/>
       <c r="Y840" s="15"/>
@@ -32484,12 +32488,12 @@
       <c r="AC840" s="15"/>
     </row>
     <row r="841" spans="17:29">
-      <c r="Q841" s="20"/>
-      <c r="R841" s="20"/>
-      <c r="S841" s="20"/>
-      <c r="T841" s="20"/>
-      <c r="U841" s="20"/>
-      <c r="V841" s="20"/>
+      <c r="Q841" s="15"/>
+      <c r="R841" s="15"/>
+      <c r="S841" s="15"/>
+      <c r="T841" s="15"/>
+      <c r="U841" s="15"/>
+      <c r="V841" s="15"/>
       <c r="W841" s="15"/>
       <c r="X841" s="15"/>
       <c r="Y841" s="15"/>
@@ -32499,12 +32503,12 @@
       <c r="AC841" s="15"/>
     </row>
     <row r="842" spans="17:29">
-      <c r="Q842" s="15"/>
-      <c r="R842" s="15"/>
-      <c r="S842" s="15"/>
-      <c r="T842" s="15"/>
-      <c r="U842" s="15"/>
-      <c r="V842" s="15"/>
+      <c r="Q842" s="20"/>
+      <c r="R842" s="20"/>
+      <c r="S842" s="20"/>
+      <c r="T842" s="20"/>
+      <c r="U842" s="20"/>
+      <c r="V842" s="20"/>
       <c r="W842" s="15"/>
       <c r="X842" s="15"/>
       <c r="Y842" s="15"/>
@@ -32529,12 +32533,12 @@
       <c r="AC843" s="15"/>
     </row>
     <row r="844" spans="17:29">
-      <c r="Q844" s="20"/>
-      <c r="R844" s="20"/>
-      <c r="S844" s="20"/>
-      <c r="T844" s="20"/>
-      <c r="U844" s="20"/>
-      <c r="V844" s="20"/>
+      <c r="Q844" s="15"/>
+      <c r="R844" s="15"/>
+      <c r="S844" s="15"/>
+      <c r="T844" s="15"/>
+      <c r="U844" s="15"/>
+      <c r="V844" s="15"/>
       <c r="W844" s="15"/>
       <c r="X844" s="15"/>
       <c r="Y844" s="15"/>
@@ -32559,12 +32563,12 @@
       <c r="AC845" s="15"/>
     </row>
     <row r="846" spans="17:29">
-      <c r="Q846" s="15"/>
-      <c r="R846" s="15"/>
-      <c r="S846" s="15"/>
-      <c r="T846" s="15"/>
-      <c r="U846" s="15"/>
-      <c r="V846" s="15"/>
+      <c r="Q846" s="20"/>
+      <c r="R846" s="20"/>
+      <c r="S846" s="20"/>
+      <c r="T846" s="20"/>
+      <c r="U846" s="20"/>
+      <c r="V846" s="20"/>
       <c r="W846" s="15"/>
       <c r="X846" s="15"/>
       <c r="Y846" s="15"/>
@@ -32574,12 +32578,12 @@
       <c r="AC846" s="15"/>
     </row>
     <row r="847" spans="17:29">
-      <c r="Q847" s="20"/>
-      <c r="R847" s="20"/>
-      <c r="S847" s="20"/>
-      <c r="T847" s="20"/>
-      <c r="U847" s="20"/>
-      <c r="V847" s="20"/>
+      <c r="Q847" s="15"/>
+      <c r="R847" s="15"/>
+      <c r="S847" s="15"/>
+      <c r="T847" s="15"/>
+      <c r="U847" s="15"/>
+      <c r="V847" s="15"/>
       <c r="W847" s="15"/>
       <c r="X847" s="15"/>
       <c r="Y847" s="15"/>
@@ -32619,12 +32623,12 @@
       <c r="AC849" s="15"/>
     </row>
     <row r="850" spans="17:29">
-      <c r="Q850" s="15"/>
-      <c r="R850" s="15"/>
-      <c r="S850" s="15"/>
-      <c r="T850" s="15"/>
-      <c r="U850" s="15"/>
-      <c r="V850" s="15"/>
+      <c r="Q850" s="20"/>
+      <c r="R850" s="20"/>
+      <c r="S850" s="20"/>
+      <c r="T850" s="20"/>
+      <c r="U850" s="20"/>
+      <c r="V850" s="20"/>
       <c r="W850" s="15"/>
       <c r="X850" s="15"/>
       <c r="Y850" s="15"/>
@@ -32664,12 +32668,12 @@
       <c r="AC852" s="15"/>
     </row>
     <row r="853" spans="17:29">
-      <c r="Q853" s="20"/>
-      <c r="R853" s="20"/>
-      <c r="S853" s="20"/>
-      <c r="T853" s="20"/>
-      <c r="U853" s="20"/>
-      <c r="V853" s="20"/>
+      <c r="Q853" s="15"/>
+      <c r="R853" s="15"/>
+      <c r="S853" s="15"/>
+      <c r="T853" s="15"/>
+      <c r="U853" s="15"/>
+      <c r="V853" s="15"/>
       <c r="W853" s="15"/>
       <c r="X853" s="15"/>
       <c r="Y853" s="15"/>
@@ -32679,12 +32683,12 @@
       <c r="AC853" s="15"/>
     </row>
     <row r="854" spans="17:29">
-      <c r="Q854" s="15"/>
-      <c r="R854" s="15"/>
-      <c r="S854" s="15"/>
-      <c r="T854" s="15"/>
-      <c r="U854" s="15"/>
-      <c r="V854" s="15"/>
+      <c r="Q854" s="20"/>
+      <c r="R854" s="20"/>
+      <c r="S854" s="20"/>
+      <c r="T854" s="20"/>
+      <c r="U854" s="20"/>
+      <c r="V854" s="20"/>
       <c r="W854" s="15"/>
       <c r="X854" s="15"/>
       <c r="Y854" s="15"/>
@@ -32694,12 +32698,12 @@
       <c r="AC854" s="15"/>
     </row>
     <row r="855" spans="17:29">
-      <c r="Q855" s="20"/>
-      <c r="R855" s="20"/>
-      <c r="S855" s="20"/>
-      <c r="T855" s="20"/>
-      <c r="U855" s="20"/>
-      <c r="V855" s="20"/>
+      <c r="Q855" s="15"/>
+      <c r="R855" s="15"/>
+      <c r="S855" s="15"/>
+      <c r="T855" s="15"/>
+      <c r="U855" s="15"/>
+      <c r="V855" s="15"/>
       <c r="W855" s="15"/>
       <c r="X855" s="15"/>
       <c r="Y855" s="15"/>
@@ -32724,12 +32728,12 @@
       <c r="AC856" s="15"/>
     </row>
     <row r="857" spans="17:29">
-      <c r="Q857" s="15"/>
-      <c r="R857" s="15"/>
-      <c r="S857" s="15"/>
-      <c r="T857" s="15"/>
-      <c r="U857" s="15"/>
-      <c r="V857" s="15"/>
+      <c r="Q857" s="20"/>
+      <c r="R857" s="20"/>
+      <c r="S857" s="20"/>
+      <c r="T857" s="20"/>
+      <c r="U857" s="20"/>
+      <c r="V857" s="20"/>
       <c r="W857" s="15"/>
       <c r="X857" s="15"/>
       <c r="Y857" s="15"/>
@@ -32739,12 +32743,12 @@
       <c r="AC857" s="15"/>
     </row>
     <row r="858" spans="17:29">
-      <c r="Q858" s="20"/>
-      <c r="R858" s="20"/>
-      <c r="S858" s="20"/>
-      <c r="T858" s="20"/>
-      <c r="U858" s="20"/>
-      <c r="V858" s="20"/>
+      <c r="Q858" s="15"/>
+      <c r="R858" s="15"/>
+      <c r="S858" s="15"/>
+      <c r="T858" s="15"/>
+      <c r="U858" s="15"/>
+      <c r="V858" s="15"/>
       <c r="W858" s="15"/>
       <c r="X858" s="15"/>
       <c r="Y858" s="15"/>
@@ -32754,12 +32758,12 @@
       <c r="AC858" s="15"/>
     </row>
     <row r="859" spans="17:29">
-      <c r="Q859" s="15"/>
-      <c r="R859" s="15"/>
-      <c r="S859" s="15"/>
-      <c r="T859" s="15"/>
-      <c r="U859" s="15"/>
-      <c r="V859" s="15"/>
+      <c r="Q859" s="20"/>
+      <c r="R859" s="20"/>
+      <c r="S859" s="20"/>
+      <c r="T859" s="20"/>
+      <c r="U859" s="20"/>
+      <c r="V859" s="20"/>
       <c r="W859" s="15"/>
       <c r="X859" s="15"/>
       <c r="Y859" s="15"/>
@@ -32799,12 +32803,12 @@
       <c r="AC861" s="15"/>
     </row>
     <row r="862" spans="17:29">
-      <c r="Q862" s="20"/>
-      <c r="R862" s="20"/>
-      <c r="S862" s="20"/>
-      <c r="T862" s="20"/>
-      <c r="U862" s="20"/>
-      <c r="V862" s="20"/>
+      <c r="Q862" s="15"/>
+      <c r="R862" s="15"/>
+      <c r="S862" s="15"/>
+      <c r="T862" s="15"/>
+      <c r="U862" s="15"/>
+      <c r="V862" s="15"/>
       <c r="W862" s="15"/>
       <c r="X862" s="15"/>
       <c r="Y862" s="15"/>
@@ -32814,12 +32818,12 @@
       <c r="AC862" s="15"/>
     </row>
     <row r="863" spans="17:29">
-      <c r="Q863" s="15"/>
-      <c r="R863" s="15"/>
-      <c r="S863" s="15"/>
-      <c r="T863" s="15"/>
-      <c r="U863" s="15"/>
-      <c r="V863" s="15"/>
+      <c r="Q863" s="20"/>
+      <c r="R863" s="20"/>
+      <c r="S863" s="20"/>
+      <c r="T863" s="20"/>
+      <c r="U863" s="20"/>
+      <c r="V863" s="20"/>
       <c r="W863" s="15"/>
       <c r="X863" s="15"/>
       <c r="Y863" s="15"/>
@@ -32829,12 +32833,12 @@
       <c r="AC863" s="15"/>
     </row>
     <row r="864" spans="17:29">
-      <c r="Q864" s="20"/>
-      <c r="R864" s="20"/>
-      <c r="S864" s="20"/>
-      <c r="T864" s="20"/>
-      <c r="U864" s="20"/>
-      <c r="V864" s="20"/>
+      <c r="Q864" s="15"/>
+      <c r="R864" s="15"/>
+      <c r="S864" s="15"/>
+      <c r="T864" s="15"/>
+      <c r="U864" s="15"/>
+      <c r="V864" s="15"/>
       <c r="W864" s="15"/>
       <c r="X864" s="15"/>
       <c r="Y864" s="15"/>
@@ -32889,12 +32893,12 @@
       <c r="AC867" s="15"/>
     </row>
     <row r="868" spans="17:29">
-      <c r="Q868" s="15"/>
-      <c r="R868" s="15"/>
-      <c r="S868" s="15"/>
-      <c r="T868" s="15"/>
-      <c r="U868" s="15"/>
-      <c r="V868" s="15"/>
+      <c r="Q868" s="20"/>
+      <c r="R868" s="20"/>
+      <c r="S868" s="20"/>
+      <c r="T868" s="20"/>
+      <c r="U868" s="20"/>
+      <c r="V868" s="20"/>
       <c r="W868" s="15"/>
       <c r="X868" s="15"/>
       <c r="Y868" s="15"/>
@@ -32904,12 +32908,12 @@
       <c r="AC868" s="15"/>
     </row>
     <row r="869" spans="17:29">
-      <c r="Q869" s="20"/>
-      <c r="R869" s="20"/>
-      <c r="S869" s="20"/>
-      <c r="T869" s="20"/>
-      <c r="U869" s="20"/>
-      <c r="V869" s="20"/>
+      <c r="Q869" s="15"/>
+      <c r="R869" s="15"/>
+      <c r="S869" s="15"/>
+      <c r="T869" s="15"/>
+      <c r="U869" s="15"/>
+      <c r="V869" s="15"/>
       <c r="W869" s="15"/>
       <c r="X869" s="15"/>
       <c r="Y869" s="15"/>
@@ -33039,12 +33043,12 @@
       <c r="AC877" s="15"/>
     </row>
     <row r="878" spans="17:29">
-      <c r="Q878" s="15"/>
-      <c r="R878" s="15"/>
-      <c r="S878" s="15"/>
-      <c r="T878" s="15"/>
-      <c r="U878" s="15"/>
-      <c r="V878" s="15"/>
+      <c r="Q878" s="20"/>
+      <c r="R878" s="20"/>
+      <c r="S878" s="20"/>
+      <c r="T878" s="20"/>
+      <c r="U878" s="20"/>
+      <c r="V878" s="20"/>
       <c r="W878" s="15"/>
       <c r="X878" s="15"/>
       <c r="Y878" s="15"/>
@@ -33084,12 +33088,12 @@
       <c r="AC880" s="15"/>
     </row>
     <row r="881" spans="17:29">
-      <c r="Q881" s="20"/>
-      <c r="R881" s="20"/>
-      <c r="S881" s="20"/>
-      <c r="T881" s="20"/>
-      <c r="U881" s="20"/>
-      <c r="V881" s="20"/>
+      <c r="Q881" s="15"/>
+      <c r="R881" s="15"/>
+      <c r="S881" s="15"/>
+      <c r="T881" s="15"/>
+      <c r="U881" s="15"/>
+      <c r="V881" s="15"/>
       <c r="W881" s="15"/>
       <c r="X881" s="15"/>
       <c r="Y881" s="15"/>
@@ -33099,12 +33103,12 @@
       <c r="AC881" s="15"/>
     </row>
     <row r="882" spans="17:29">
-      <c r="Q882" s="15"/>
-      <c r="R882" s="15"/>
-      <c r="S882" s="15"/>
-      <c r="T882" s="15"/>
-      <c r="U882" s="15"/>
-      <c r="V882" s="15"/>
+      <c r="Q882" s="20"/>
+      <c r="R882" s="20"/>
+      <c r="S882" s="20"/>
+      <c r="T882" s="20"/>
+      <c r="U882" s="20"/>
+      <c r="V882" s="20"/>
       <c r="W882" s="15"/>
       <c r="X882" s="15"/>
       <c r="Y882" s="15"/>
@@ -33114,12 +33118,12 @@
       <c r="AC882" s="15"/>
     </row>
     <row r="883" spans="17:29">
-      <c r="Q883" s="20"/>
-      <c r="R883" s="20"/>
-      <c r="S883" s="20"/>
-      <c r="T883" s="20"/>
-      <c r="U883" s="20"/>
-      <c r="V883" s="20"/>
+      <c r="Q883" s="15"/>
+      <c r="R883" s="15"/>
+      <c r="S883" s="15"/>
+      <c r="T883" s="15"/>
+      <c r="U883" s="15"/>
+      <c r="V883" s="15"/>
       <c r="W883" s="15"/>
       <c r="X883" s="15"/>
       <c r="Y883" s="15"/>
@@ -33144,12 +33148,12 @@
       <c r="AC884" s="15"/>
     </row>
     <row r="885" spans="17:29">
-      <c r="Q885" s="15"/>
-      <c r="R885" s="15"/>
-      <c r="S885" s="15"/>
-      <c r="T885" s="15"/>
-      <c r="U885" s="15"/>
-      <c r="V885" s="15"/>
+      <c r="Q885" s="20"/>
+      <c r="R885" s="20"/>
+      <c r="S885" s="20"/>
+      <c r="T885" s="20"/>
+      <c r="U885" s="20"/>
+      <c r="V885" s="20"/>
       <c r="W885" s="15"/>
       <c r="X885" s="15"/>
       <c r="Y885" s="15"/>
@@ -33159,12 +33163,12 @@
       <c r="AC885" s="15"/>
     </row>
     <row r="886" spans="17:29">
-      <c r="Q886" s="20"/>
-      <c r="R886" s="20"/>
-      <c r="S886" s="20"/>
-      <c r="T886" s="20"/>
-      <c r="U886" s="20"/>
-      <c r="V886" s="20"/>
+      <c r="Q886" s="15"/>
+      <c r="R886" s="15"/>
+      <c r="S886" s="15"/>
+      <c r="T886" s="15"/>
+      <c r="U886" s="15"/>
+      <c r="V886" s="15"/>
       <c r="W886" s="15"/>
       <c r="X886" s="15"/>
       <c r="Y886" s="15"/>
@@ -33204,12 +33208,12 @@
       <c r="AC888" s="15"/>
     </row>
     <row r="889" spans="17:29">
-      <c r="Q889" s="15"/>
-      <c r="R889" s="15"/>
-      <c r="S889" s="15"/>
-      <c r="T889" s="15"/>
-      <c r="U889" s="15"/>
-      <c r="V889" s="15"/>
+      <c r="Q889" s="20"/>
+      <c r="R889" s="20"/>
+      <c r="S889" s="20"/>
+      <c r="T889" s="20"/>
+      <c r="U889" s="20"/>
+      <c r="V889" s="20"/>
       <c r="W889" s="15"/>
       <c r="X889" s="15"/>
       <c r="Y889" s="15"/>
@@ -33249,12 +33253,12 @@
       <c r="AC891" s="15"/>
     </row>
     <row r="892" spans="17:29">
-      <c r="Q892" s="20"/>
-      <c r="R892" s="20"/>
-      <c r="S892" s="20"/>
-      <c r="T892" s="20"/>
-      <c r="U892" s="20"/>
-      <c r="V892" s="20"/>
+      <c r="Q892" s="15"/>
+      <c r="R892" s="15"/>
+      <c r="S892" s="15"/>
+      <c r="T892" s="15"/>
+      <c r="U892" s="15"/>
+      <c r="V892" s="15"/>
       <c r="W892" s="15"/>
       <c r="X892" s="15"/>
       <c r="Y892" s="15"/>
@@ -33354,12 +33358,12 @@
       <c r="AC898" s="15"/>
     </row>
     <row r="899" spans="17:29">
-      <c r="Q899" s="15"/>
-      <c r="R899" s="15"/>
-      <c r="S899" s="15"/>
-      <c r="T899" s="15"/>
-      <c r="U899" s="15"/>
-      <c r="V899" s="15"/>
+      <c r="Q899" s="20"/>
+      <c r="R899" s="20"/>
+      <c r="S899" s="20"/>
+      <c r="T899" s="20"/>
+      <c r="U899" s="20"/>
+      <c r="V899" s="20"/>
       <c r="W899" s="15"/>
       <c r="X899" s="15"/>
       <c r="Y899" s="15"/>
@@ -33384,12 +33388,12 @@
       <c r="AC900" s="15"/>
     </row>
     <row r="901" spans="17:29">
-      <c r="Q901" s="20"/>
-      <c r="R901" s="20"/>
-      <c r="S901" s="20"/>
-      <c r="T901" s="20"/>
-      <c r="U901" s="20"/>
-      <c r="V901" s="20"/>
+      <c r="Q901" s="15"/>
+      <c r="R901" s="15"/>
+      <c r="S901" s="15"/>
+      <c r="T901" s="15"/>
+      <c r="U901" s="15"/>
+      <c r="V901" s="15"/>
       <c r="W901" s="15"/>
       <c r="X901" s="15"/>
       <c r="Y901" s="15"/>
@@ -33534,12 +33538,12 @@
       <c r="AC910" s="15"/>
     </row>
     <row r="911" spans="17:29">
-      <c r="Q911" s="15"/>
-      <c r="R911" s="15"/>
-      <c r="S911" s="15"/>
-      <c r="T911" s="15"/>
-      <c r="U911" s="15"/>
-      <c r="V911" s="15"/>
+      <c r="Q911" s="20"/>
+      <c r="R911" s="20"/>
+      <c r="S911" s="20"/>
+      <c r="T911" s="20"/>
+      <c r="U911" s="20"/>
+      <c r="V911" s="20"/>
       <c r="W911" s="15"/>
       <c r="X911" s="15"/>
       <c r="Y911" s="15"/>
@@ -33549,12 +33553,12 @@
       <c r="AC911" s="15"/>
     </row>
     <row r="912" spans="17:29">
-      <c r="Q912" s="20"/>
-      <c r="R912" s="20"/>
-      <c r="S912" s="20"/>
-      <c r="T912" s="20"/>
-      <c r="U912" s="20"/>
-      <c r="V912" s="20"/>
+      <c r="Q912" s="15"/>
+      <c r="R912" s="15"/>
+      <c r="S912" s="15"/>
+      <c r="T912" s="15"/>
+      <c r="U912" s="15"/>
+      <c r="V912" s="15"/>
       <c r="W912" s="15"/>
       <c r="X912" s="15"/>
       <c r="Y912" s="15"/>
@@ -33639,12 +33643,12 @@
       <c r="AC917" s="15"/>
     </row>
     <row r="918" spans="17:29">
-      <c r="Q918" s="15"/>
-      <c r="R918" s="15"/>
-      <c r="S918" s="15"/>
-      <c r="T918" s="15"/>
-      <c r="U918" s="15"/>
-      <c r="V918" s="15"/>
+      <c r="Q918" s="20"/>
+      <c r="R918" s="20"/>
+      <c r="S918" s="20"/>
+      <c r="T918" s="20"/>
+      <c r="U918" s="20"/>
+      <c r="V918" s="20"/>
       <c r="W918" s="15"/>
       <c r="X918" s="15"/>
       <c r="Y918" s="15"/>
@@ -33684,12 +33688,12 @@
       <c r="AC920" s="15"/>
     </row>
     <row r="921" spans="17:29">
-      <c r="Q921" s="20"/>
-      <c r="R921" s="20"/>
-      <c r="S921" s="20"/>
-      <c r="T921" s="20"/>
-      <c r="U921" s="20"/>
-      <c r="V921" s="20"/>
+      <c r="Q921" s="15"/>
+      <c r="R921" s="15"/>
+      <c r="S921" s="15"/>
+      <c r="T921" s="15"/>
+      <c r="U921" s="15"/>
+      <c r="V921" s="15"/>
       <c r="W921" s="15"/>
       <c r="X921" s="15"/>
       <c r="Y921" s="15"/>
@@ -33759,12 +33763,12 @@
       <c r="AC925" s="15"/>
     </row>
     <row r="926" spans="17:29">
-      <c r="Q926" s="15"/>
-      <c r="R926" s="15"/>
-      <c r="S926" s="15"/>
-      <c r="T926" s="15"/>
-      <c r="U926" s="15"/>
-      <c r="V926" s="15"/>
+      <c r="Q926" s="20"/>
+      <c r="R926" s="20"/>
+      <c r="S926" s="20"/>
+      <c r="T926" s="20"/>
+      <c r="U926" s="20"/>
+      <c r="V926" s="20"/>
       <c r="W926" s="15"/>
       <c r="X926" s="15"/>
       <c r="Y926" s="15"/>
@@ -33774,12 +33778,12 @@
       <c r="AC926" s="15"/>
     </row>
     <row r="927" spans="17:29">
-      <c r="Q927" s="20"/>
-      <c r="R927" s="20"/>
-      <c r="S927" s="20"/>
-      <c r="T927" s="20"/>
-      <c r="U927" s="20"/>
-      <c r="V927" s="20"/>
+      <c r="Q927" s="15"/>
+      <c r="R927" s="15"/>
+      <c r="S927" s="15"/>
+      <c r="T927" s="15"/>
+      <c r="U927" s="15"/>
+      <c r="V927" s="15"/>
       <c r="W927" s="15"/>
       <c r="X927" s="15"/>
       <c r="Y927" s="15"/>
@@ -33834,12 +33838,12 @@
       <c r="AC930" s="15"/>
     </row>
     <row r="931" spans="17:29">
-      <c r="Q931" s="15"/>
-      <c r="R931" s="15"/>
-      <c r="S931" s="15"/>
-      <c r="T931" s="15"/>
-      <c r="U931" s="15"/>
-      <c r="V931" s="15"/>
+      <c r="Q931" s="20"/>
+      <c r="R931" s="20"/>
+      <c r="S931" s="20"/>
+      <c r="T931" s="20"/>
+      <c r="U931" s="20"/>
+      <c r="V931" s="20"/>
       <c r="W931" s="15"/>
       <c r="X931" s="15"/>
       <c r="Y931" s="15"/>
@@ -33864,12 +33868,12 @@
       <c r="AC932" s="15"/>
     </row>
     <row r="933" spans="17:29">
-      <c r="Q933" s="20"/>
-      <c r="R933" s="20"/>
-      <c r="S933" s="20"/>
-      <c r="T933" s="20"/>
-      <c r="U933" s="20"/>
-      <c r="V933" s="20"/>
+      <c r="Q933" s="15"/>
+      <c r="R933" s="15"/>
+      <c r="S933" s="15"/>
+      <c r="T933" s="15"/>
+      <c r="U933" s="15"/>
+      <c r="V933" s="15"/>
       <c r="W933" s="15"/>
       <c r="X933" s="15"/>
       <c r="Y933" s="15"/>
@@ -33954,12 +33958,12 @@
       <c r="AC938" s="15"/>
     </row>
     <row r="939" spans="17:29">
-      <c r="Q939" s="15"/>
-      <c r="R939" s="15"/>
-      <c r="S939" s="15"/>
-      <c r="T939" s="15"/>
-      <c r="U939" s="15"/>
-      <c r="V939" s="15"/>
+      <c r="Q939" s="20"/>
+      <c r="R939" s="20"/>
+      <c r="S939" s="20"/>
+      <c r="T939" s="20"/>
+      <c r="U939" s="20"/>
+      <c r="V939" s="20"/>
       <c r="W939" s="15"/>
       <c r="X939" s="15"/>
       <c r="Y939" s="15"/>
@@ -34014,12 +34018,12 @@
       <c r="AC942" s="15"/>
     </row>
     <row r="943" spans="17:29">
-      <c r="Q943" s="20"/>
-      <c r="R943" s="20"/>
-      <c r="S943" s="20"/>
-      <c r="T943" s="20"/>
-      <c r="U943" s="20"/>
-      <c r="V943" s="20"/>
+      <c r="Q943" s="15"/>
+      <c r="R943" s="15"/>
+      <c r="S943" s="15"/>
+      <c r="T943" s="15"/>
+      <c r="U943" s="15"/>
+      <c r="V943" s="15"/>
       <c r="W943" s="15"/>
       <c r="X943" s="15"/>
       <c r="Y943" s="15"/>
@@ -34029,12 +34033,12 @@
       <c r="AC943" s="15"/>
     </row>
     <row r="944" spans="17:29">
-      <c r="Q944" s="15"/>
-      <c r="R944" s="15"/>
-      <c r="S944" s="15"/>
-      <c r="T944" s="15"/>
-      <c r="U944" s="15"/>
-      <c r="V944" s="15"/>
+      <c r="Q944" s="20"/>
+      <c r="R944" s="20"/>
+      <c r="S944" s="20"/>
+      <c r="T944" s="20"/>
+      <c r="U944" s="20"/>
+      <c r="V944" s="20"/>
       <c r="W944" s="15"/>
       <c r="X944" s="15"/>
       <c r="Y944" s="15"/>
@@ -34089,12 +34093,12 @@
       <c r="AC947" s="15"/>
     </row>
     <row r="948" spans="17:29">
-      <c r="Q948" s="20"/>
-      <c r="R948" s="20"/>
-      <c r="S948" s="20"/>
-      <c r="T948" s="20"/>
-      <c r="U948" s="20"/>
-      <c r="V948" s="20"/>
+      <c r="Q948" s="15"/>
+      <c r="R948" s="15"/>
+      <c r="S948" s="15"/>
+      <c r="T948" s="15"/>
+      <c r="U948" s="15"/>
+      <c r="V948" s="15"/>
       <c r="W948" s="15"/>
       <c r="X948" s="15"/>
       <c r="Y948" s="15"/>
@@ -34104,12 +34108,12 @@
       <c r="AC948" s="15"/>
     </row>
     <row r="949" spans="17:29">
-      <c r="Q949" s="15"/>
-      <c r="R949" s="15"/>
-      <c r="S949" s="15"/>
-      <c r="T949" s="15"/>
-      <c r="U949" s="15"/>
-      <c r="V949" s="15"/>
+      <c r="Q949" s="20"/>
+      <c r="R949" s="20"/>
+      <c r="S949" s="20"/>
+      <c r="T949" s="20"/>
+      <c r="U949" s="20"/>
+      <c r="V949" s="20"/>
       <c r="W949" s="15"/>
       <c r="X949" s="15"/>
       <c r="Y949" s="15"/>
@@ -34164,12 +34168,12 @@
       <c r="AC952" s="15"/>
     </row>
     <row r="953" spans="17:29">
-      <c r="Q953" s="20"/>
-      <c r="R953" s="20"/>
-      <c r="S953" s="20"/>
-      <c r="T953" s="20"/>
-      <c r="U953" s="20"/>
-      <c r="V953" s="20"/>
+      <c r="Q953" s="15"/>
+      <c r="R953" s="15"/>
+      <c r="S953" s="15"/>
+      <c r="T953" s="15"/>
+      <c r="U953" s="15"/>
+      <c r="V953" s="15"/>
       <c r="W953" s="15"/>
       <c r="X953" s="15"/>
       <c r="Y953" s="15"/>
@@ -34374,22 +34378,7 @@
       <c r="AC966" s="15"/>
     </row>
     <row r="967" spans="17:29">
-      <c r="Q967" s="15"/>
-      <c r="R967" s="15"/>
-      <c r="S967" s="15"/>
-      <c r="T967" s="15"/>
-      <c r="U967" s="15"/>
-      <c r="V967" s="15"/>
-      <c r="W967" s="15"/>
-      <c r="X967" s="15"/>
-      <c r="Y967" s="15"/>
-      <c r="Z967" s="15"/>
       <c r="AA967" s="15"/>
-      <c r="AB967" s="15"/>
-      <c r="AC967" s="15"/>
-    </row>
-    <row r="968" spans="17:29">
-      <c r="AA968" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -34400,10 +34389,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO240"/>
+  <dimension ref="A1:AO241"/>
   <sheetViews>
     <sheetView topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+      <selection activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -37961,12 +37950,26 @@
       </c>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="10"/>
+      <c r="A170" s="9">
+        <v>1</v>
+      </c>
       <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
+      <c r="C170" s="11">
+        <v>2</v>
+      </c>
+      <c r="D170" s="9">
+        <v>1</v>
+      </c>
       <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
+      <c r="F170" s="9">
+        <v>1</v>
+      </c>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="9">
+        <v>1</v>
+      </c>
+      <c r="T170" s="10"/>
     </row>
     <row r="171" spans="1:22">
       <c r="A171" s="10"/>
@@ -38205,6 +38208,7 @@
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
       <c r="F200" s="10"/>
     </row>
     <row r="201" spans="1:6">
@@ -38275,7 +38279,7 @@
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
       <c r="D210" s="10"/>
-      <c r="F210" s="18"/>
+      <c r="F210" s="10"/>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="10"/>
@@ -38289,6 +38293,7 @@
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
+      <c r="F212" s="18"/>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="10"/>
@@ -38322,6 +38327,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
     </row>
@@ -38383,6 +38389,7 @@
     <row r="230" spans="1:4">
       <c r="A230" s="10"/>
       <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="10"/>
@@ -38393,6 +38400,7 @@
       <c r="C232" s="10"/>
     </row>
     <row r="233" spans="1:4">
+      <c r="A233" s="10"/>
       <c r="C233" s="10"/>
     </row>
     <row r="234" spans="1:4">
@@ -38415,6 +38423,9 @@
     </row>
     <row r="240" spans="1:4">
       <c r="C240" s="10"/>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -38427,8 +38438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="G176" sqref="G176"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -42701,6 +42712,53 @@
         <v>19</v>
       </c>
     </row>
+    <row r="170" spans="1:19">
+      <c r="A170" s="1">
+        <v>1</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1">
+        <v>4</v>
+      </c>
+      <c r="F170" s="1">
+        <v>2</v>
+      </c>
+      <c r="G170" s="1">
+        <v>1</v>
+      </c>
+      <c r="H170" s="1">
+        <v>1</v>
+      </c>
+      <c r="I170" s="1">
+        <v>0</v>
+      </c>
+      <c r="J170" s="1">
+        <v>0</v>
+      </c>
+      <c r="K170" s="1">
+        <v>2</v>
+      </c>
+      <c r="N170" s="1">
+        <v>0</v>
+      </c>
+      <c r="O170" s="1">
+        <v>1</v>
+      </c>
+      <c r="P170" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q170" s="1">
+        <v>4</v>
+      </c>
+      <c r="R170" s="1">
+        <v>7</v>
+      </c>
+      <c r="S170" s="1">
+        <v>21</v>
+      </c>
+    </row>
     <row r="175" spans="1:19" customFormat="1">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
@@ -42748,10 +42806,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN169"/>
+  <dimension ref="A100:AN170"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="K177" sqref="K177"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="Q180" sqref="Q180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -45955,6 +46013,45 @@
         <v>9</v>
       </c>
     </row>
+    <row r="170" spans="1:19">
+      <c r="A170" s="9">
+        <v>1</v>
+      </c>
+      <c r="B170" s="9">
+        <v>1</v>
+      </c>
+      <c r="C170" s="11">
+        <v>2</v>
+      </c>
+      <c r="D170" s="9">
+        <v>1</v>
+      </c>
+      <c r="G170" s="9">
+        <v>1</v>
+      </c>
+      <c r="J170" s="10"/>
+      <c r="L170" s="16">
+        <v>1</v>
+      </c>
+      <c r="M170" s="16">
+        <v>2</v>
+      </c>
+      <c r="N170" s="16">
+        <v>3</v>
+      </c>
+      <c r="O170" s="16">
+        <v>3</v>
+      </c>
+      <c r="P170" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q170" s="16">
+        <v>7</v>
+      </c>
+      <c r="S170" s="16">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45967,7 +46064,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -46191,7 +46288,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -46326,10 +46423,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -46391,7 +46488,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" s="18">
         <v>12</v>
@@ -46406,7 +46503,7 @@
         <v>28</v>
       </c>
       <c r="O9" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="18">
         <v>36</v>
@@ -46438,13 +46535,13 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
       </c>
       <c r="P10" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -46452,13 +46549,16 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -46475,7 +46575,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -46487,7 +46587,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N12" s="18">
         <v>17</v>
@@ -46512,18 +46612,18 @@
         <v>29</v>
       </c>
       <c r="I14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -46536,7 +46636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,7 +107,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>永远不要选自己觉得会出的号码     n+6</t>
+    <t>永远不要选自己觉得会出的号码     n+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,6 +578,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFCFBFA"/>
+      <color rgb="FFFAFBF7"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF0CA429"/>
     </mruColors>
@@ -876,7 +882,7 @@
   <dimension ref="A1:AO104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG69" sqref="AG69"/>
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5595,7 +5601,7 @@
         <v>3</v>
       </c>
       <c r="P47" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q47" s="7">
         <v>7</v>
@@ -6172,7 +6178,9 @@
       <c r="I53" s="7">
         <v>6</v>
       </c>
-      <c r="J53" s="7"/>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
       <c r="K53" s="7">
         <v>2</v>
       </c>
@@ -6402,7 +6410,7 @@
         <v>3</v>
       </c>
       <c r="W55" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X55" s="7">
         <v>17</v>
@@ -6437,7 +6445,7 @@
     </row>
     <row r="56" spans="1:33" s="25" customFormat="1">
       <c r="A56" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B56" s="7">
         <v>0</v>
@@ -6465,7 +6473,7 @@
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L56" s="7">
         <v>6</v>
@@ -6608,10 +6616,10 @@
         <v>1</v>
       </c>
       <c r="AD57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE57" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF57" s="7">
         <v>2</v>
@@ -6665,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" s="7">
         <v>3</v>
@@ -6712,7 +6720,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" s="7">
         <v>6</v>
@@ -6803,7 +6811,7 @@
         <v>9</v>
       </c>
       <c r="H60" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I60" s="7">
         <v>1</v>
@@ -6826,6 +6834,9 @@
       <c r="S60" s="7">
         <v>3</v>
       </c>
+      <c r="T60" s="7">
+        <v>0</v>
+      </c>
       <c r="U60" s="7">
         <v>1</v>
       </c>
@@ -6854,7 +6865,7 @@
         <v>3</v>
       </c>
       <c r="AG60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
@@ -6888,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="N61" s="63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O61" s="3">
         <v>2</v>
@@ -6919,13 +6930,13 @@
         <v>8</v>
       </c>
       <c r="AA61" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB61" s="7">
         <v>12</v>
       </c>
       <c r="AC61" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE61" s="7"/>
       <c r="AF61" s="7">
@@ -6953,12 +6964,12 @@
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -6976,7 +6987,9 @@
         <v>2</v>
       </c>
       <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
+      <c r="U62" s="7">
+        <v>0</v>
+      </c>
       <c r="V62" s="7">
         <v>1</v>
       </c>
@@ -6985,7 +6998,7 @@
         <v>8</v>
       </c>
       <c r="Y62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z62" s="7">
         <v>4</v>
@@ -7059,7 +7072,7 @@
       <c r="AD63" s="7"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG63" s="5"/>
     </row>
@@ -7074,7 +7087,7 @@
         <v>10</v>
       </c>
       <c r="F64" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="2">
         <v>0</v>
@@ -7120,6 +7133,9 @@
       <c r="AG64" s="5"/>
     </row>
     <row r="65" spans="1:33">
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
       <c r="C65" s="5"/>
       <c r="D65" s="7">
         <v>0</v>
@@ -7129,7 +7145,7 @@
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" s="4"/>
       <c r="J65" s="3"/>
@@ -7187,12 +7203,16 @@
         <v>4</v>
       </c>
       <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
+      <c r="O66" s="4">
+        <v>0</v>
+      </c>
       <c r="Q66" s="4">
         <v>0</v>
       </c>
       <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
+      <c r="S66" s="4">
+        <v>0</v>
+      </c>
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4">
@@ -7200,14 +7220,14 @@
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB66" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7240,7 +7260,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="38"/>
       <c r="V67" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
@@ -7325,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F70" s="7"/>
       <c r="H70" s="4"/>
@@ -7339,7 +7359,7 @@
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
@@ -7397,7 +7417,7 @@
       <c r="J72" s="3"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -7447,7 +7467,7 @@
       <c r="A74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -7966,10 +7986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT963"/>
+  <dimension ref="A1:AT962"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E179" sqref="E179"/>
+    <sheetView topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC180" sqref="AC180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -19629,16 +19649,16 @@
         <v>4</v>
       </c>
       <c r="W146" s="20"/>
-      <c r="X146" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y146" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z146" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA146" s="23">
+      <c r="X146" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y146" s="22">
+        <v>2</v>
+      </c>
+      <c r="Z146" s="22">
+        <v>2</v>
+      </c>
+      <c r="AA146" s="22">
         <v>4</v>
       </c>
       <c r="AB146" s="19">
@@ -20946,7 +20966,7 @@
         <v>1</v>
       </c>
       <c r="S159" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T159" s="19">
         <v>0</v>
@@ -21052,7 +21072,7 @@
         <v>1</v>
       </c>
       <c r="V160" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W160" s="20"/>
       <c r="X160" s="19">
@@ -21146,7 +21166,7 @@
         <v>3</v>
       </c>
       <c r="S161" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T161" s="19">
         <v>0</v>
@@ -21155,7 +21175,7 @@
         <v>10</v>
       </c>
       <c r="V161" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W161" s="20"/>
       <c r="X161" s="19">
@@ -21244,7 +21264,7 @@
         <v>2</v>
       </c>
       <c r="S162" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T162" s="19">
         <v>2</v>
@@ -21448,11 +21468,11 @@
       <c r="S164" s="22">
         <v>1</v>
       </c>
-      <c r="T164" s="20">
+      <c r="T164" s="19">
         <v>8</v>
       </c>
       <c r="U164" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V164" s="19">
         <v>4</v>
@@ -21470,7 +21490,9 @@
       <c r="AA164" s="22">
         <v>5</v>
       </c>
-      <c r="AB164" s="20"/>
+      <c r="AB164" s="22">
+        <v>8</v>
+      </c>
       <c r="AC164" s="20"/>
       <c r="AD164" s="20"/>
       <c r="AF164" s="39"/>
@@ -21540,7 +21562,7 @@
       <c r="Q165" s="19">
         <v>1</v>
       </c>
-      <c r="R165" s="20">
+      <c r="R165" s="19">
         <v>7</v>
       </c>
       <c r="S165" s="19">
@@ -21571,7 +21593,9 @@
       <c r="AB165" s="22">
         <v>5</v>
       </c>
-      <c r="AC165" s="20"/>
+      <c r="AC165" s="22">
+        <v>7</v>
+      </c>
       <c r="AD165" s="20"/>
       <c r="AF165" s="39"/>
       <c r="AH165" s="21">
@@ -21635,10 +21659,10 @@
       </c>
       <c r="P166" s="22"/>
       <c r="Q166" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R166" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S166" s="19">
         <v>2</v>
@@ -21733,7 +21757,7 @@
       </c>
       <c r="P167" s="22"/>
       <c r="Q167" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R167" s="22">
         <v>0</v>
@@ -21741,7 +21765,7 @@
       <c r="S167" s="22">
         <v>2</v>
       </c>
-      <c r="T167" s="23">
+      <c r="T167" s="22">
         <v>5</v>
       </c>
       <c r="U167" s="22">
@@ -21763,7 +21787,9 @@
       <c r="AA167" s="22">
         <v>4</v>
       </c>
-      <c r="AB167" s="23"/>
+      <c r="AB167" s="22">
+        <v>5</v>
+      </c>
       <c r="AC167" s="23"/>
       <c r="AD167" s="23"/>
       <c r="AF167" s="39"/>
@@ -21834,19 +21860,19 @@
         <v>2</v>
       </c>
       <c r="R168" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S168" s="22">
         <v>0</v>
       </c>
       <c r="T168" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U168" s="22">
         <v>2</v>
       </c>
       <c r="V168" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W168" s="23"/>
       <c r="X168" s="22">
@@ -21933,16 +21959,16 @@
         <v>0</v>
       </c>
       <c r="R169" s="23">
-        <v>3</v>
-      </c>
-      <c r="S169" s="23">
+        <v>4</v>
+      </c>
+      <c r="S169" s="22">
         <v>3</v>
       </c>
       <c r="T169" s="22">
         <v>2</v>
       </c>
       <c r="U169" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V169" s="22">
         <v>2</v>
@@ -21957,7 +21983,9 @@
       <c r="Z169" s="22">
         <v>2</v>
       </c>
-      <c r="AA169" s="23"/>
+      <c r="AA169" s="22">
+        <v>3</v>
+      </c>
       <c r="AB169" s="23"/>
       <c r="AC169" s="23"/>
       <c r="AD169" s="23"/>
@@ -22028,11 +22056,11 @@
         <v>9</v>
       </c>
       <c r="P170" s="22"/>
-      <c r="Q170" s="23">
+      <c r="Q170" s="22">
         <v>2</v>
       </c>
       <c r="R170" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S170" s="22">
         <v>0</v>
@@ -22044,7 +22072,7 @@
         <v>1</v>
       </c>
       <c r="V170" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W170" s="23"/>
       <c r="X170" s="22">
@@ -22056,10 +22084,14 @@
       <c r="Z170" s="22">
         <v>1</v>
       </c>
-      <c r="AA170" s="23"/>
+      <c r="AA170" s="22">
+        <v>2</v>
+      </c>
       <c r="AB170" s="23"/>
       <c r="AC170" s="23"/>
-      <c r="AD170" s="23"/>
+      <c r="AD170" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="AF170" s="39"/>
       <c r="AH170" s="21">
         <v>0</v>
@@ -22125,22 +22157,22 @@
       </c>
       <c r="P171" s="22"/>
       <c r="Q171" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R171" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S171" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T171" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U171" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V171" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W171" s="20"/>
       <c r="X171" s="20"/>
@@ -22215,25 +22247,27 @@
       </c>
       <c r="P172" s="22"/>
       <c r="Q172" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R172" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S172" s="23">
-        <v>0</v>
-      </c>
-      <c r="T172" s="23">
+        <v>1</v>
+      </c>
+      <c r="T172" s="22">
         <v>0</v>
       </c>
       <c r="U172" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V172" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W172" s="23"/>
-      <c r="X172" s="23"/>
+      <c r="X172" s="22">
+        <v>0</v>
+      </c>
       <c r="Y172" s="23"/>
       <c r="Z172" s="23"/>
       <c r="AA172" s="23"/>
@@ -22241,14 +22275,84 @@
       <c r="AC172" s="23"/>
       <c r="AD172" s="23"/>
       <c r="AF172" s="39"/>
+      <c r="AH172" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI172" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ172" s="21">
+        <v>4</v>
+      </c>
+      <c r="AK172" s="21">
+        <v>10</v>
+      </c>
+      <c r="AO172" s="21">
+        <v>1</v>
+      </c>
+      <c r="AP172" s="21">
+        <v>2</v>
+      </c>
+      <c r="AQ172" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:43" s="21" customFormat="1">
-      <c r="Q173" s="23"/>
-      <c r="R173" s="23"/>
-      <c r="S173" s="23"/>
-      <c r="T173" s="23"/>
-      <c r="U173" s="23"/>
-      <c r="V173" s="23"/>
+      <c r="A173" s="21">
+        <v>2</v>
+      </c>
+      <c r="B173" s="21">
+        <v>7</v>
+      </c>
+      <c r="C173" s="21">
+        <v>5</v>
+      </c>
+      <c r="D173" s="21">
+        <v>3</v>
+      </c>
+      <c r="E173" s="21">
+        <v>8</v>
+      </c>
+      <c r="F173" s="21">
+        <v>0</v>
+      </c>
+      <c r="I173" s="21">
+        <v>0</v>
+      </c>
+      <c r="J173" s="21">
+        <v>2</v>
+      </c>
+      <c r="K173" s="21">
+        <v>3</v>
+      </c>
+      <c r="L173" s="21">
+        <v>5</v>
+      </c>
+      <c r="M173" s="21">
+        <v>7</v>
+      </c>
+      <c r="N173" s="21">
+        <v>8</v>
+      </c>
+      <c r="P173" s="22"/>
+      <c r="Q173" s="23">
+        <v>0</v>
+      </c>
+      <c r="R173" s="23">
+        <v>0</v>
+      </c>
+      <c r="S173" s="23">
+        <v>0</v>
+      </c>
+      <c r="T173" s="23">
+        <v>0</v>
+      </c>
+      <c r="U173" s="23">
+        <v>0</v>
+      </c>
+      <c r="V173" s="23">
+        <v>0</v>
+      </c>
       <c r="W173" s="23"/>
       <c r="X173" s="23"/>
       <c r="Y173" s="23"/>
@@ -22256,8 +22360,35 @@
       <c r="AA173" s="23"/>
       <c r="AB173" s="23"/>
       <c r="AC173" s="23"/>
-      <c r="AD173" s="39"/>
+      <c r="AD173" s="23"/>
       <c r="AF173" s="39"/>
+      <c r="AH173" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI173" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ173" s="21">
+        <v>3</v>
+      </c>
+      <c r="AK173" s="21">
+        <v>5</v>
+      </c>
+      <c r="AL173" s="21">
+        <v>7</v>
+      </c>
+      <c r="AM173" s="21">
+        <v>8</v>
+      </c>
+      <c r="AO173" s="21">
+        <v>1</v>
+      </c>
+      <c r="AP173" s="21">
+        <v>3</v>
+      </c>
+      <c r="AQ173" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="174" spans="1:43" s="21" customFormat="1">
       <c r="P174" s="22"/>
@@ -22286,52 +22417,52 @@
       <c r="U175" s="23"/>
       <c r="V175" s="23"/>
       <c r="W175" s="23"/>
-      <c r="X175" s="39"/>
-      <c r="Y175" s="39"/>
-      <c r="Z175" s="39"/>
-      <c r="AA175" s="39"/>
-      <c r="AB175" s="39"/>
-      <c r="AC175" s="39"/>
-      <c r="AD175" s="39"/>
+      <c r="X175" s="23"/>
+      <c r="Y175" s="23"/>
+      <c r="Z175" s="23"/>
+      <c r="AA175" s="23"/>
+      <c r="AB175" s="23"/>
+      <c r="AC175" s="23"/>
+      <c r="AD175" s="23"/>
       <c r="AF175" s="39"/>
     </row>
     <row r="176" spans="1:43" s="21" customFormat="1">
       <c r="P176" s="22"/>
-      <c r="Q176" s="23"/>
-      <c r="R176" s="23"/>
-      <c r="S176" s="23"/>
-      <c r="T176" s="23"/>
-      <c r="U176" s="23"/>
-      <c r="V176" s="23"/>
-      <c r="W176" s="23"/>
-      <c r="X176" s="23"/>
-      <c r="Y176" s="23"/>
-      <c r="Z176" s="23"/>
-      <c r="AA176" s="23"/>
-      <c r="AB176" s="23"/>
-      <c r="AC176" s="23"/>
-      <c r="AD176" s="23"/>
+      <c r="Q176" s="20"/>
+      <c r="R176" s="20"/>
+      <c r="S176" s="20"/>
+      <c r="T176" s="20"/>
+      <c r="U176" s="20"/>
+      <c r="V176" s="20"/>
+      <c r="W176" s="20"/>
+      <c r="X176" s="15"/>
+      <c r="Y176" s="15"/>
+      <c r="Z176" s="15"/>
+      <c r="AA176" s="15"/>
+      <c r="AB176" s="15"/>
+      <c r="AC176" s="15"/>
+      <c r="AD176" s="15"/>
       <c r="AF176" s="39"/>
     </row>
-    <row r="177" spans="16:38" s="21" customFormat="1">
+    <row r="177" spans="16:32" s="21" customFormat="1">
       <c r="P177" s="22"/>
-      <c r="Q177" s="20"/>
-      <c r="R177" s="20"/>
-      <c r="S177" s="20"/>
-      <c r="T177" s="20"/>
-      <c r="U177" s="20"/>
-      <c r="V177" s="20"/>
-      <c r="W177" s="20"/>
-      <c r="X177" s="15"/>
-      <c r="Y177" s="15"/>
-      <c r="Z177" s="15"/>
-      <c r="AA177" s="15"/>
-      <c r="AB177" s="15"/>
-      <c r="AC177" s="15"/>
-      <c r="AD177" s="15"/>
+      <c r="Q177" s="23"/>
+      <c r="R177" s="23"/>
+      <c r="S177" s="23"/>
+      <c r="T177" s="23"/>
+      <c r="U177" s="23"/>
+      <c r="V177" s="23"/>
+      <c r="W177" s="23"/>
+      <c r="X177" s="23"/>
+      <c r="Y177" s="23"/>
+      <c r="Z177" s="23"/>
+      <c r="AA177" s="23"/>
+      <c r="AB177" s="23"/>
+      <c r="AC177" s="23"/>
+      <c r="AD177" s="23"/>
       <c r="AF177" s="39"/>
     </row>
-    <row r="178" spans="16:38" s="21" customFormat="1">
+    <row r="178" spans="16:32" s="21" customFormat="1">
       <c r="P178" s="22"/>
       <c r="Q178" s="23"/>
       <c r="R178" s="23"/>
@@ -22340,34 +22471,34 @@
       <c r="U178" s="23"/>
       <c r="V178" s="23"/>
       <c r="W178" s="23"/>
-      <c r="X178" s="23"/>
-      <c r="Y178" s="23"/>
+      <c r="X178" s="39"/>
+      <c r="Y178" s="39"/>
       <c r="Z178" s="23"/>
       <c r="AA178" s="23"/>
       <c r="AB178" s="23"/>
       <c r="AC178" s="23"/>
-      <c r="AD178" s="23"/>
+      <c r="AD178" s="39"/>
       <c r="AF178" s="39"/>
     </row>
-    <row r="179" spans="16:38" s="21" customFormat="1">
+    <row r="179" spans="16:32" s="21" customFormat="1">
       <c r="P179" s="22"/>
-      <c r="Q179" s="23"/>
-      <c r="R179" s="23"/>
-      <c r="S179" s="23"/>
-      <c r="T179" s="23"/>
-      <c r="U179" s="23"/>
-      <c r="V179" s="23"/>
-      <c r="W179" s="23"/>
-      <c r="X179" s="39"/>
-      <c r="Y179" s="39"/>
-      <c r="Z179" s="23"/>
-      <c r="AA179" s="23"/>
-      <c r="AB179" s="23"/>
-      <c r="AC179" s="23"/>
-      <c r="AD179" s="39"/>
+      <c r="Q179" s="20"/>
+      <c r="R179" s="20"/>
+      <c r="S179" s="20"/>
+      <c r="T179" s="20"/>
+      <c r="U179" s="20"/>
+      <c r="V179" s="20"/>
+      <c r="W179" s="20"/>
+      <c r="X179" s="20"/>
+      <c r="Y179" s="20"/>
+      <c r="Z179" s="20"/>
+      <c r="AA179" s="20"/>
+      <c r="AB179" s="20"/>
+      <c r="AC179" s="20"/>
+      <c r="AD179" s="20"/>
       <c r="AF179" s="39"/>
     </row>
-    <row r="180" spans="16:38" s="21" customFormat="1">
+    <row r="180" spans="16:32" s="21" customFormat="1">
       <c r="P180" s="22"/>
       <c r="Q180" s="20"/>
       <c r="R180" s="20"/>
@@ -22385,7 +22516,7 @@
       <c r="AD180" s="20"/>
       <c r="AF180" s="39"/>
     </row>
-    <row r="181" spans="16:38" s="21" customFormat="1">
+    <row r="181" spans="16:32" s="21" customFormat="1">
       <c r="P181" s="22"/>
       <c r="Q181" s="20"/>
       <c r="R181" s="20"/>
@@ -22394,16 +22525,16 @@
       <c r="U181" s="20"/>
       <c r="V181" s="20"/>
       <c r="W181" s="20"/>
-      <c r="X181" s="20"/>
-      <c r="Y181" s="20"/>
+      <c r="X181" s="15"/>
+      <c r="Y181" s="15"/>
       <c r="Z181" s="20"/>
       <c r="AA181" s="20"/>
       <c r="AB181" s="20"/>
       <c r="AC181" s="20"/>
-      <c r="AD181" s="20"/>
+      <c r="AD181" s="15"/>
       <c r="AF181" s="39"/>
     </row>
-    <row r="182" spans="16:38" s="21" customFormat="1">
+    <row r="182" spans="16:32" s="21" customFormat="1">
       <c r="P182" s="22"/>
       <c r="Q182" s="20"/>
       <c r="R182" s="20"/>
@@ -22412,34 +22543,34 @@
       <c r="U182" s="20"/>
       <c r="V182" s="20"/>
       <c r="W182" s="20"/>
-      <c r="X182" s="15"/>
-      <c r="Y182" s="15"/>
+      <c r="X182" s="20"/>
+      <c r="Y182" s="20"/>
       <c r="Z182" s="20"/>
       <c r="AA182" s="20"/>
       <c r="AB182" s="20"/>
       <c r="AC182" s="20"/>
-      <c r="AD182" s="15"/>
+      <c r="AD182" s="20"/>
       <c r="AF182" s="39"/>
     </row>
-    <row r="183" spans="16:38" s="21" customFormat="1">
+    <row r="183" spans="16:32" s="21" customFormat="1">
       <c r="P183" s="22"/>
-      <c r="Q183" s="20"/>
-      <c r="R183" s="20"/>
-      <c r="S183" s="20"/>
-      <c r="T183" s="20"/>
-      <c r="U183" s="20"/>
-      <c r="V183" s="20"/>
-      <c r="W183" s="20"/>
-      <c r="X183" s="20"/>
-      <c r="Y183" s="20"/>
-      <c r="Z183" s="20"/>
-      <c r="AA183" s="20"/>
-      <c r="AB183" s="20"/>
-      <c r="AC183" s="20"/>
-      <c r="AD183" s="20"/>
+      <c r="Q183" s="23"/>
+      <c r="R183" s="23"/>
+      <c r="S183" s="23"/>
+      <c r="T183" s="23"/>
+      <c r="U183" s="23"/>
+      <c r="V183" s="23"/>
+      <c r="W183" s="23"/>
+      <c r="X183" s="23"/>
+      <c r="Y183" s="23"/>
+      <c r="Z183" s="23"/>
+      <c r="AA183" s="23"/>
+      <c r="AB183" s="23"/>
+      <c r="AC183" s="23"/>
+      <c r="AD183" s="23"/>
       <c r="AF183" s="39"/>
     </row>
-    <row r="184" spans="16:38" s="21" customFormat="1">
+    <row r="184" spans="16:32" s="21" customFormat="1">
       <c r="P184" s="22"/>
       <c r="Q184" s="23"/>
       <c r="R184" s="23"/>
@@ -22457,7 +22588,7 @@
       <c r="AD184" s="23"/>
       <c r="AF184" s="39"/>
     </row>
-    <row r="185" spans="16:38" s="21" customFormat="1">
+    <row r="185" spans="16:32" s="21" customFormat="1">
       <c r="P185" s="22"/>
       <c r="Q185" s="23"/>
       <c r="R185" s="23"/>
@@ -22475,7 +22606,7 @@
       <c r="AD185" s="23"/>
       <c r="AF185" s="39"/>
     </row>
-    <row r="186" spans="16:38" s="21" customFormat="1">
+    <row r="186" spans="16:32" s="21" customFormat="1">
       <c r="P186" s="22"/>
       <c r="Q186" s="23"/>
       <c r="R186" s="23"/>
@@ -22493,58 +22624,43 @@
       <c r="AD186" s="23"/>
       <c r="AF186" s="39"/>
     </row>
-    <row r="187" spans="16:38" s="21" customFormat="1">
+    <row r="187" spans="16:32" s="21" customFormat="1">
       <c r="P187" s="22"/>
-      <c r="Q187" s="23"/>
-      <c r="R187" s="23"/>
-      <c r="S187" s="23"/>
-      <c r="T187" s="23"/>
-      <c r="U187" s="23"/>
-      <c r="V187" s="23"/>
-      <c r="W187" s="23"/>
-      <c r="X187" s="23"/>
-      <c r="Y187" s="23"/>
-      <c r="Z187" s="23"/>
-      <c r="AA187" s="23"/>
-      <c r="AB187" s="23"/>
-      <c r="AC187" s="23"/>
-      <c r="AD187" s="23"/>
+      <c r="Q187" s="20"/>
+      <c r="R187" s="20"/>
+      <c r="S187" s="20"/>
+      <c r="T187" s="20"/>
+      <c r="U187" s="20"/>
+      <c r="V187" s="20"/>
+      <c r="W187" s="15"/>
+      <c r="X187" s="15"/>
+      <c r="Y187" s="15"/>
+      <c r="Z187" s="15"/>
+      <c r="AA187" s="15"/>
+      <c r="AB187" s="15"/>
+      <c r="AC187" s="15"/>
+      <c r="AD187" s="15"/>
       <c r="AF187" s="39"/>
-      <c r="AH187" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI187" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ187" s="21">
-        <v>3</v>
-      </c>
-      <c r="AK187" s="21">
-        <v>6</v>
-      </c>
-      <c r="AL187" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="16:38" s="21" customFormat="1">
+    </row>
+    <row r="188" spans="16:32" s="21" customFormat="1">
       <c r="P188" s="22"/>
-      <c r="Q188" s="20"/>
-      <c r="R188" s="20"/>
-      <c r="S188" s="20"/>
-      <c r="T188" s="20"/>
-      <c r="U188" s="20"/>
-      <c r="V188" s="20"/>
-      <c r="W188" s="15"/>
-      <c r="X188" s="15"/>
-      <c r="Y188" s="15"/>
-      <c r="Z188" s="15"/>
-      <c r="AA188" s="15"/>
-      <c r="AB188" s="15"/>
-      <c r="AC188" s="15"/>
-      <c r="AD188" s="15"/>
+      <c r="Q188" s="23"/>
+      <c r="R188" s="23"/>
+      <c r="S188" s="23"/>
+      <c r="T188" s="23"/>
+      <c r="U188" s="23"/>
+      <c r="V188" s="23"/>
+      <c r="W188" s="23"/>
+      <c r="X188" s="39"/>
+      <c r="Y188" s="39"/>
+      <c r="Z188" s="39"/>
+      <c r="AA188" s="39"/>
+      <c r="AB188" s="39"/>
+      <c r="AC188" s="39"/>
+      <c r="AD188" s="39"/>
       <c r="AF188" s="39"/>
     </row>
-    <row r="189" spans="16:38" s="21" customFormat="1">
+    <row r="189" spans="16:32" s="21" customFormat="1">
       <c r="P189" s="22"/>
       <c r="Q189" s="23"/>
       <c r="R189" s="23"/>
@@ -22555,14 +22671,14 @@
       <c r="W189" s="23"/>
       <c r="X189" s="39"/>
       <c r="Y189" s="39"/>
-      <c r="Z189" s="39"/>
-      <c r="AA189" s="39"/>
-      <c r="AB189" s="39"/>
-      <c r="AC189" s="39"/>
+      <c r="Z189" s="23"/>
+      <c r="AA189" s="23"/>
+      <c r="AB189" s="23"/>
+      <c r="AC189" s="23"/>
       <c r="AD189" s="39"/>
       <c r="AF189" s="39"/>
     </row>
-    <row r="190" spans="16:38" s="21" customFormat="1">
+    <row r="190" spans="16:32" s="21" customFormat="1">
       <c r="P190" s="22"/>
       <c r="Q190" s="23"/>
       <c r="R190" s="23"/>
@@ -22570,18 +22686,17 @@
       <c r="T190" s="23"/>
       <c r="U190" s="23"/>
       <c r="V190" s="23"/>
-      <c r="W190" s="23"/>
+      <c r="W190" s="39"/>
       <c r="X190" s="39"/>
       <c r="Y190" s="39"/>
-      <c r="Z190" s="23"/>
-      <c r="AA190" s="23"/>
-      <c r="AB190" s="23"/>
-      <c r="AC190" s="23"/>
+      <c r="Z190" s="39"/>
+      <c r="AA190" s="39"/>
+      <c r="AB190" s="39"/>
+      <c r="AC190" s="39"/>
       <c r="AD190" s="39"/>
       <c r="AF190" s="39"/>
     </row>
-    <row r="191" spans="16:38" s="21" customFormat="1">
-      <c r="P191" s="22"/>
+    <row r="191" spans="16:32" s="21" customFormat="1">
       <c r="Q191" s="23"/>
       <c r="R191" s="23"/>
       <c r="S191" s="23"/>
@@ -22598,7 +22713,8 @@
       <c r="AD191" s="39"/>
       <c r="AF191" s="39"/>
     </row>
-    <row r="192" spans="16:38" s="21" customFormat="1">
+    <row r="192" spans="16:32" s="21" customFormat="1">
+      <c r="P192" s="22"/>
       <c r="Q192" s="23"/>
       <c r="R192" s="23"/>
       <c r="S192" s="23"/>
@@ -22615,8 +22731,7 @@
       <c r="AD192" s="39"/>
       <c r="AF192" s="39"/>
     </row>
-    <row r="193" spans="9:32" s="21" customFormat="1">
-      <c r="P193" s="22"/>
+    <row r="193" spans="16:32" s="21" customFormat="1">
       <c r="Q193" s="23"/>
       <c r="R193" s="23"/>
       <c r="S193" s="23"/>
@@ -22633,131 +22748,78 @@
       <c r="AD193" s="39"/>
       <c r="AF193" s="39"/>
     </row>
-    <row r="194" spans="9:32" s="21" customFormat="1">
-      <c r="I194" s="21">
-        <v>2</v>
-      </c>
-      <c r="J194" s="21">
-        <v>3</v>
-      </c>
-      <c r="K194" s="21">
-        <v>5</v>
-      </c>
-      <c r="L194" s="21">
-        <v>5</v>
-      </c>
-      <c r="M194" s="21">
-        <v>7</v>
-      </c>
-      <c r="N194" s="21">
-        <v>11</v>
-      </c>
-      <c r="Q194" s="23"/>
-      <c r="R194" s="23"/>
-      <c r="S194" s="23"/>
-      <c r="T194" s="23"/>
-      <c r="U194" s="23"/>
-      <c r="V194" s="23"/>
-      <c r="W194" s="39"/>
-      <c r="X194" s="39"/>
-      <c r="Y194" s="39"/>
-      <c r="Z194" s="39"/>
-      <c r="AA194" s="39"/>
-      <c r="AB194" s="39"/>
-      <c r="AC194" s="39"/>
-      <c r="AD194" s="39"/>
+    <row r="194" spans="16:32" s="21" customFormat="1">
+      <c r="P194" s="22"/>
+      <c r="Q194" s="20"/>
+      <c r="R194" s="20"/>
+      <c r="S194" s="20"/>
+      <c r="T194" s="20"/>
+      <c r="U194" s="20"/>
+      <c r="V194" s="20"/>
+      <c r="W194" s="20"/>
+      <c r="X194" s="20"/>
+      <c r="Y194" s="20"/>
+      <c r="Z194" s="20"/>
+      <c r="AA194" s="20"/>
+      <c r="AB194" s="20"/>
+      <c r="AC194" s="20"/>
+      <c r="AD194" s="20"/>
       <c r="AF194" s="39"/>
     </row>
-    <row r="195" spans="9:32" s="21" customFormat="1">
-      <c r="I195" s="21">
-        <v>1</v>
-      </c>
-      <c r="J195" s="21">
-        <v>4</v>
-      </c>
-      <c r="K195" s="21">
-        <v>4</v>
-      </c>
-      <c r="L195" s="21">
-        <v>6</v>
-      </c>
-      <c r="M195" s="21">
-        <v>7</v>
-      </c>
-      <c r="N195" s="21">
-        <v>10</v>
-      </c>
-      <c r="P195" s="22"/>
-      <c r="Q195" s="20"/>
-      <c r="R195" s="20"/>
-      <c r="S195" s="20"/>
-      <c r="T195" s="20"/>
-      <c r="U195" s="20"/>
-      <c r="V195" s="20"/>
-      <c r="W195" s="20"/>
-      <c r="X195" s="20"/>
-      <c r="Y195" s="20"/>
-      <c r="Z195" s="20"/>
-      <c r="AA195" s="20"/>
-      <c r="AB195" s="20"/>
-      <c r="AC195" s="20"/>
-      <c r="AD195" s="20"/>
+    <row r="195" spans="16:32" s="21" customFormat="1">
+      <c r="Q195" s="23"/>
+      <c r="R195" s="23"/>
+      <c r="S195" s="23"/>
+      <c r="T195" s="23"/>
+      <c r="U195" s="23"/>
+      <c r="V195" s="23"/>
+      <c r="W195" s="23"/>
+      <c r="X195" s="39"/>
+      <c r="Y195" s="39"/>
+      <c r="Z195" s="23"/>
+      <c r="AA195" s="23"/>
+      <c r="AB195" s="23"/>
+      <c r="AC195" s="23"/>
+      <c r="AD195" s="39"/>
       <c r="AF195" s="39"/>
     </row>
-    <row r="196" spans="9:32" s="21" customFormat="1">
-      <c r="I196" s="21">
-        <v>1</v>
-      </c>
-      <c r="J196" s="21">
-        <v>2</v>
-      </c>
-      <c r="K196" s="21">
-        <v>4</v>
-      </c>
-      <c r="L196" s="21">
-        <v>5</v>
-      </c>
-      <c r="M196" s="21">
-        <v>9</v>
-      </c>
-      <c r="N196" s="21">
-        <v>10</v>
-      </c>
+    <row r="196" spans="16:32" s="21" customFormat="1">
+      <c r="P196" s="22"/>
       <c r="Q196" s="23"/>
       <c r="R196" s="23"/>
       <c r="S196" s="23"/>
       <c r="T196" s="23"/>
       <c r="U196" s="23"/>
       <c r="V196" s="23"/>
-      <c r="W196" s="23"/>
+      <c r="W196" s="39"/>
       <c r="X196" s="39"/>
       <c r="Y196" s="39"/>
-      <c r="Z196" s="23"/>
-      <c r="AA196" s="23"/>
-      <c r="AB196" s="23"/>
-      <c r="AC196" s="23"/>
+      <c r="Z196" s="39"/>
+      <c r="AA196" s="39"/>
+      <c r="AB196" s="39"/>
+      <c r="AC196" s="39"/>
       <c r="AD196" s="39"/>
       <c r="AF196" s="39"/>
     </row>
-    <row r="197" spans="9:32" s="21" customFormat="1">
-      <c r="P197" s="22"/>
+    <row r="197" spans="16:32" s="21" customFormat="1">
       <c r="Q197" s="23"/>
       <c r="R197" s="23"/>
       <c r="S197" s="23"/>
       <c r="T197" s="23"/>
       <c r="U197" s="23"/>
       <c r="V197" s="23"/>
-      <c r="W197" s="39"/>
+      <c r="W197" s="23"/>
       <c r="X197" s="39"/>
       <c r="Y197" s="39"/>
-      <c r="Z197" s="39"/>
-      <c r="AA197" s="39"/>
-      <c r="AB197" s="39"/>
-      <c r="AC197" s="39"/>
+      <c r="Z197" s="23"/>
+      <c r="AA197" s="23"/>
+      <c r="AB197" s="23"/>
+      <c r="AC197" s="23"/>
       <c r="AD197" s="39"/>
       <c r="AF197" s="39"/>
     </row>
-    <row r="198" spans="9:32" s="21" customFormat="1">
+    <row r="198" spans="16:32" s="21" customFormat="1">
+      <c r="P198" s="22"/>
       <c r="Q198" s="23"/>
       <c r="R198" s="23"/>
       <c r="S198" s="23"/>
@@ -22767,14 +22829,14 @@
       <c r="W198" s="23"/>
       <c r="X198" s="39"/>
       <c r="Y198" s="39"/>
-      <c r="Z198" s="23"/>
-      <c r="AA198" s="23"/>
-      <c r="AB198" s="23"/>
-      <c r="AC198" s="23"/>
+      <c r="Z198" s="39"/>
+      <c r="AA198" s="39"/>
+      <c r="AB198" s="39"/>
+      <c r="AC198" s="39"/>
       <c r="AD198" s="39"/>
       <c r="AF198" s="39"/>
     </row>
-    <row r="199" spans="9:32" s="21" customFormat="1">
+    <row r="199" spans="16:32" s="21" customFormat="1">
       <c r="P199" s="22"/>
       <c r="Q199" s="23"/>
       <c r="R199" s="23"/>
@@ -22782,7 +22844,7 @@
       <c r="T199" s="23"/>
       <c r="U199" s="23"/>
       <c r="V199" s="23"/>
-      <c r="W199" s="23"/>
+      <c r="W199" s="39"/>
       <c r="X199" s="39"/>
       <c r="Y199" s="39"/>
       <c r="Z199" s="39"/>
@@ -22792,7 +22854,7 @@
       <c r="AD199" s="39"/>
       <c r="AF199" s="39"/>
     </row>
-    <row r="200" spans="9:32" s="21" customFormat="1">
+    <row r="200" spans="16:32" s="21" customFormat="1">
       <c r="P200" s="22"/>
       <c r="Q200" s="23"/>
       <c r="R200" s="23"/>
@@ -22810,8 +22872,7 @@
       <c r="AD200" s="39"/>
       <c r="AF200" s="39"/>
     </row>
-    <row r="201" spans="9:32" s="21" customFormat="1">
-      <c r="P201" s="22"/>
+    <row r="201" spans="16:32" s="21" customFormat="1">
       <c r="Q201" s="23"/>
       <c r="R201" s="23"/>
       <c r="S201" s="23"/>
@@ -22828,47 +22889,48 @@
       <c r="AD201" s="39"/>
       <c r="AF201" s="39"/>
     </row>
-    <row r="202" spans="9:32" s="21" customFormat="1">
+    <row r="202" spans="16:32" s="21" customFormat="1">
       <c r="Q202" s="23"/>
       <c r="R202" s="23"/>
       <c r="S202" s="23"/>
       <c r="T202" s="23"/>
       <c r="U202" s="23"/>
       <c r="V202" s="23"/>
-      <c r="W202" s="39"/>
+      <c r="W202" s="23"/>
       <c r="X202" s="39"/>
       <c r="Y202" s="39"/>
-      <c r="Z202" s="39"/>
-      <c r="AA202" s="39"/>
-      <c r="AB202" s="39"/>
-      <c r="AC202" s="39"/>
+      <c r="Z202" s="23"/>
+      <c r="AA202" s="23"/>
+      <c r="AB202" s="23"/>
+      <c r="AC202" s="23"/>
       <c r="AD202" s="39"/>
       <c r="AF202" s="39"/>
     </row>
-    <row r="203" spans="9:32" s="21" customFormat="1">
-      <c r="Q203" s="23"/>
-      <c r="R203" s="23"/>
-      <c r="S203" s="23"/>
-      <c r="T203" s="23"/>
-      <c r="U203" s="23"/>
-      <c r="V203" s="23"/>
-      <c r="W203" s="23"/>
+    <row r="203" spans="16:32">
+      <c r="Q203" s="39"/>
+      <c r="R203" s="39"/>
+      <c r="S203" s="39"/>
+      <c r="T203" s="39"/>
+      <c r="U203" s="39"/>
+      <c r="V203" s="39"/>
+      <c r="W203" s="39"/>
       <c r="X203" s="39"/>
       <c r="Y203" s="39"/>
-      <c r="Z203" s="23"/>
-      <c r="AA203" s="23"/>
-      <c r="AB203" s="23"/>
-      <c r="AC203" s="23"/>
+      <c r="Z203" s="39"/>
+      <c r="AA203" s="39"/>
+      <c r="AB203" s="39"/>
+      <c r="AC203" s="39"/>
       <c r="AD203" s="39"/>
       <c r="AF203" s="39"/>
     </row>
-    <row r="204" spans="9:32">
-      <c r="Q204" s="39"/>
-      <c r="R204" s="39"/>
-      <c r="S204" s="39"/>
-      <c r="T204" s="39"/>
-      <c r="U204" s="39"/>
-      <c r="V204" s="39"/>
+    <row r="204" spans="16:32" s="21" customFormat="1">
+      <c r="P204" s="22"/>
+      <c r="Q204" s="23"/>
+      <c r="R204" s="23"/>
+      <c r="S204" s="23"/>
+      <c r="T204" s="23"/>
+      <c r="U204" s="23"/>
+      <c r="V204" s="23"/>
       <c r="W204" s="39"/>
       <c r="X204" s="39"/>
       <c r="Y204" s="39"/>
@@ -22879,25 +22941,24 @@
       <c r="AD204" s="39"/>
       <c r="AF204" s="39"/>
     </row>
-    <row r="205" spans="9:32" s="21" customFormat="1">
-      <c r="P205" s="22"/>
+    <row r="205" spans="16:32" s="21" customFormat="1">
       <c r="Q205" s="23"/>
       <c r="R205" s="23"/>
       <c r="S205" s="23"/>
       <c r="T205" s="23"/>
       <c r="U205" s="23"/>
       <c r="V205" s="23"/>
-      <c r="W205" s="39"/>
+      <c r="W205" s="23"/>
       <c r="X205" s="39"/>
       <c r="Y205" s="39"/>
-      <c r="Z205" s="39"/>
-      <c r="AA205" s="39"/>
-      <c r="AB205" s="39"/>
-      <c r="AC205" s="39"/>
+      <c r="Z205" s="23"/>
+      <c r="AA205" s="23"/>
+      <c r="AB205" s="23"/>
+      <c r="AC205" s="23"/>
       <c r="AD205" s="39"/>
       <c r="AF205" s="39"/>
     </row>
-    <row r="206" spans="9:32" s="21" customFormat="1">
+    <row r="206" spans="16:32" s="21" customFormat="1">
       <c r="Q206" s="23"/>
       <c r="R206" s="23"/>
       <c r="S206" s="23"/>
@@ -22907,21 +22968,21 @@
       <c r="W206" s="23"/>
       <c r="X206" s="39"/>
       <c r="Y206" s="39"/>
-      <c r="Z206" s="23"/>
-      <c r="AA206" s="23"/>
-      <c r="AB206" s="23"/>
-      <c r="AC206" s="23"/>
+      <c r="Z206" s="39"/>
+      <c r="AA206" s="39"/>
+      <c r="AB206" s="39"/>
+      <c r="AC206" s="39"/>
       <c r="AD206" s="39"/>
       <c r="AF206" s="39"/>
     </row>
-    <row r="207" spans="9:32" s="21" customFormat="1">
+    <row r="207" spans="16:32" s="21" customFormat="1">
       <c r="Q207" s="23"/>
       <c r="R207" s="23"/>
       <c r="S207" s="23"/>
       <c r="T207" s="23"/>
       <c r="U207" s="23"/>
       <c r="V207" s="23"/>
-      <c r="W207" s="23"/>
+      <c r="W207" s="39"/>
       <c r="X207" s="39"/>
       <c r="Y207" s="39"/>
       <c r="Z207" s="39"/>
@@ -22931,24 +22992,25 @@
       <c r="AD207" s="39"/>
       <c r="AF207" s="39"/>
     </row>
-    <row r="208" spans="9:32" s="21" customFormat="1">
+    <row r="208" spans="16:32" s="21" customFormat="1">
       <c r="Q208" s="23"/>
       <c r="R208" s="23"/>
       <c r="S208" s="23"/>
       <c r="T208" s="23"/>
       <c r="U208" s="23"/>
       <c r="V208" s="23"/>
-      <c r="W208" s="39"/>
+      <c r="W208" s="23"/>
       <c r="X208" s="39"/>
       <c r="Y208" s="39"/>
-      <c r="Z208" s="39"/>
-      <c r="AA208" s="39"/>
-      <c r="AB208" s="39"/>
-      <c r="AC208" s="39"/>
+      <c r="Z208" s="23"/>
+      <c r="AA208" s="23"/>
+      <c r="AB208" s="23"/>
+      <c r="AC208" s="23"/>
       <c r="AD208" s="39"/>
       <c r="AF208" s="39"/>
     </row>
     <row r="209" spans="16:32" s="21" customFormat="1">
+      <c r="P209" s="22"/>
       <c r="Q209" s="23"/>
       <c r="R209" s="23"/>
       <c r="S209" s="23"/>
@@ -22958,22 +23020,21 @@
       <c r="W209" s="23"/>
       <c r="X209" s="39"/>
       <c r="Y209" s="39"/>
-      <c r="Z209" s="23"/>
-      <c r="AA209" s="23"/>
-      <c r="AB209" s="23"/>
-      <c r="AC209" s="23"/>
+      <c r="Z209" s="39"/>
+      <c r="AA209" s="39"/>
+      <c r="AB209" s="39"/>
+      <c r="AC209" s="39"/>
       <c r="AD209" s="39"/>
       <c r="AF209" s="39"/>
     </row>
     <row r="210" spans="16:32" s="21" customFormat="1">
-      <c r="P210" s="22"/>
       <c r="Q210" s="23"/>
       <c r="R210" s="23"/>
       <c r="S210" s="23"/>
       <c r="T210" s="23"/>
       <c r="U210" s="23"/>
       <c r="V210" s="23"/>
-      <c r="W210" s="23"/>
+      <c r="W210" s="39"/>
       <c r="X210" s="39"/>
       <c r="Y210" s="39"/>
       <c r="Z210" s="39"/>
@@ -22990,7 +23051,7 @@
       <c r="T211" s="23"/>
       <c r="U211" s="23"/>
       <c r="V211" s="23"/>
-      <c r="W211" s="39"/>
+      <c r="W211" s="23"/>
       <c r="X211" s="39"/>
       <c r="Y211" s="39"/>
       <c r="Z211" s="39"/>
@@ -23010,14 +23071,15 @@
       <c r="W212" s="23"/>
       <c r="X212" s="39"/>
       <c r="Y212" s="39"/>
-      <c r="Z212" s="39"/>
-      <c r="AA212" s="39"/>
-      <c r="AB212" s="39"/>
-      <c r="AC212" s="39"/>
+      <c r="Z212" s="23"/>
+      <c r="AA212" s="23"/>
+      <c r="AB212" s="23"/>
+      <c r="AC212" s="23"/>
       <c r="AD212" s="39"/>
       <c r="AF212" s="39"/>
     </row>
     <row r="213" spans="16:32" s="21" customFormat="1">
+      <c r="P213" s="22"/>
       <c r="Q213" s="23"/>
       <c r="R213" s="23"/>
       <c r="S213" s="23"/>
@@ -23027,10 +23089,10 @@
       <c r="W213" s="23"/>
       <c r="X213" s="39"/>
       <c r="Y213" s="39"/>
-      <c r="Z213" s="23"/>
-      <c r="AA213" s="23"/>
-      <c r="AB213" s="23"/>
-      <c r="AC213" s="23"/>
+      <c r="Z213" s="39"/>
+      <c r="AA213" s="39"/>
+      <c r="AB213" s="39"/>
+      <c r="AC213" s="39"/>
       <c r="AD213" s="39"/>
       <c r="AF213" s="39"/>
     </row>
@@ -23045,10 +23107,10 @@
       <c r="W214" s="23"/>
       <c r="X214" s="39"/>
       <c r="Y214" s="39"/>
-      <c r="Z214" s="39"/>
-      <c r="AA214" s="39"/>
-      <c r="AB214" s="39"/>
-      <c r="AC214" s="39"/>
+      <c r="Z214" s="23"/>
+      <c r="AA214" s="23"/>
+      <c r="AB214" s="23"/>
+      <c r="AC214" s="23"/>
       <c r="AD214" s="39"/>
       <c r="AF214" s="39"/>
     </row>
@@ -23063,10 +23125,10 @@
       <c r="W215" s="23"/>
       <c r="X215" s="39"/>
       <c r="Y215" s="39"/>
-      <c r="Z215" s="23"/>
-      <c r="AA215" s="23"/>
-      <c r="AB215" s="23"/>
-      <c r="AC215" s="23"/>
+      <c r="Z215" s="39"/>
+      <c r="AA215" s="39"/>
+      <c r="AB215" s="39"/>
+      <c r="AC215" s="39"/>
       <c r="AD215" s="39"/>
       <c r="AF215" s="39"/>
     </row>
@@ -23081,10 +23143,10 @@
       <c r="W216" s="23"/>
       <c r="X216" s="39"/>
       <c r="Y216" s="39"/>
-      <c r="Z216" s="39"/>
-      <c r="AA216" s="39"/>
-      <c r="AB216" s="39"/>
-      <c r="AC216" s="39"/>
+      <c r="Z216" s="23"/>
+      <c r="AA216" s="23"/>
+      <c r="AB216" s="23"/>
+      <c r="AC216" s="23"/>
       <c r="AD216" s="39"/>
       <c r="AF216" s="39"/>
     </row>
@@ -23096,18 +23158,17 @@
       <c r="T217" s="23"/>
       <c r="U217" s="23"/>
       <c r="V217" s="23"/>
-      <c r="W217" s="23"/>
+      <c r="W217" s="39"/>
       <c r="X217" s="39"/>
       <c r="Y217" s="39"/>
-      <c r="Z217" s="23"/>
-      <c r="AA217" s="23"/>
-      <c r="AB217" s="23"/>
-      <c r="AC217" s="23"/>
+      <c r="Z217" s="39"/>
+      <c r="AA217" s="39"/>
+      <c r="AB217" s="39"/>
+      <c r="AC217" s="39"/>
       <c r="AD217" s="39"/>
       <c r="AF217" s="39"/>
     </row>
     <row r="218" spans="16:32" s="21" customFormat="1">
-      <c r="P218" s="22"/>
       <c r="Q218" s="23"/>
       <c r="R218" s="23"/>
       <c r="S218" s="23"/>
@@ -23131,30 +23192,31 @@
       <c r="T219" s="23"/>
       <c r="U219" s="23"/>
       <c r="V219" s="23"/>
-      <c r="W219" s="39"/>
+      <c r="W219" s="23"/>
       <c r="X219" s="39"/>
       <c r="Y219" s="39"/>
-      <c r="Z219" s="39"/>
-      <c r="AA219" s="39"/>
-      <c r="AB219" s="39"/>
-      <c r="AC219" s="39"/>
+      <c r="Z219" s="23"/>
+      <c r="AA219" s="23"/>
+      <c r="AB219" s="23"/>
+      <c r="AC219" s="23"/>
       <c r="AD219" s="39"/>
       <c r="AF219" s="39"/>
     </row>
     <row r="220" spans="16:32" s="21" customFormat="1">
+      <c r="P220" s="22"/>
       <c r="Q220" s="23"/>
       <c r="R220" s="23"/>
       <c r="S220" s="23"/>
       <c r="T220" s="23"/>
       <c r="U220" s="23"/>
       <c r="V220" s="23"/>
-      <c r="W220" s="23"/>
+      <c r="W220" s="39"/>
       <c r="X220" s="39"/>
       <c r="Y220" s="39"/>
-      <c r="Z220" s="23"/>
-      <c r="AA220" s="23"/>
-      <c r="AB220" s="23"/>
-      <c r="AC220" s="23"/>
+      <c r="Z220" s="39"/>
+      <c r="AA220" s="39"/>
+      <c r="AB220" s="39"/>
+      <c r="AC220" s="39"/>
       <c r="AD220" s="39"/>
       <c r="AF220" s="39"/>
     </row>
@@ -23177,7 +23239,6 @@
       <c r="AF221" s="39"/>
     </row>
     <row r="222" spans="16:32" s="21" customFormat="1">
-      <c r="P222" s="22"/>
       <c r="Q222" s="23"/>
       <c r="R222" s="23"/>
       <c r="S222" s="23"/>
@@ -23201,48 +23262,48 @@
       <c r="T223" s="23"/>
       <c r="U223" s="23"/>
       <c r="V223" s="23"/>
-      <c r="W223" s="39"/>
+      <c r="W223" s="23"/>
       <c r="X223" s="39"/>
       <c r="Y223" s="39"/>
-      <c r="Z223" s="39"/>
-      <c r="AA223" s="39"/>
-      <c r="AB223" s="39"/>
-      <c r="AC223" s="39"/>
+      <c r="Z223" s="23"/>
+      <c r="AA223" s="23"/>
+      <c r="AB223" s="23"/>
+      <c r="AC223" s="23"/>
       <c r="AD223" s="39"/>
       <c r="AF223" s="39"/>
     </row>
     <row r="224" spans="16:32" s="21" customFormat="1">
+      <c r="P224" s="22"/>
       <c r="Q224" s="23"/>
       <c r="R224" s="23"/>
       <c r="S224" s="23"/>
       <c r="T224" s="23"/>
       <c r="U224" s="23"/>
       <c r="V224" s="23"/>
-      <c r="W224" s="23"/>
+      <c r="W224" s="39"/>
       <c r="X224" s="39"/>
       <c r="Y224" s="39"/>
-      <c r="Z224" s="23"/>
-      <c r="AA224" s="23"/>
-      <c r="AB224" s="23"/>
-      <c r="AC224" s="23"/>
+      <c r="Z224" s="39"/>
+      <c r="AA224" s="39"/>
+      <c r="AB224" s="39"/>
+      <c r="AC224" s="39"/>
       <c r="AD224" s="39"/>
       <c r="AF224" s="39"/>
     </row>
     <row r="225" spans="16:32" s="21" customFormat="1">
-      <c r="P225" s="22"/>
       <c r="Q225" s="23"/>
       <c r="R225" s="23"/>
       <c r="S225" s="23"/>
       <c r="T225" s="23"/>
       <c r="U225" s="23"/>
       <c r="V225" s="23"/>
-      <c r="W225" s="39"/>
+      <c r="W225" s="23"/>
       <c r="X225" s="39"/>
       <c r="Y225" s="39"/>
-      <c r="Z225" s="39"/>
-      <c r="AA225" s="39"/>
-      <c r="AB225" s="39"/>
-      <c r="AC225" s="39"/>
+      <c r="Z225" s="23"/>
+      <c r="AA225" s="23"/>
+      <c r="AB225" s="23"/>
+      <c r="AC225" s="23"/>
       <c r="AD225" s="39"/>
       <c r="AF225" s="39"/>
     </row>
@@ -23256,10 +23317,10 @@
       <c r="W226" s="23"/>
       <c r="X226" s="39"/>
       <c r="Y226" s="39"/>
-      <c r="Z226" s="23"/>
-      <c r="AA226" s="23"/>
-      <c r="AB226" s="23"/>
-      <c r="AC226" s="23"/>
+      <c r="Z226" s="39"/>
+      <c r="AA226" s="39"/>
+      <c r="AB226" s="39"/>
+      <c r="AC226" s="39"/>
       <c r="AD226" s="39"/>
       <c r="AF226" s="39"/>
     </row>
@@ -23270,7 +23331,7 @@
       <c r="T227" s="23"/>
       <c r="U227" s="23"/>
       <c r="V227" s="23"/>
-      <c r="W227" s="23"/>
+      <c r="W227" s="39"/>
       <c r="X227" s="39"/>
       <c r="Y227" s="39"/>
       <c r="Z227" s="39"/>
@@ -23287,35 +23348,35 @@
       <c r="T228" s="23"/>
       <c r="U228" s="23"/>
       <c r="V228" s="23"/>
-      <c r="W228" s="39"/>
+      <c r="W228" s="23"/>
       <c r="X228" s="39"/>
       <c r="Y228" s="39"/>
-      <c r="Z228" s="39"/>
-      <c r="AA228" s="39"/>
-      <c r="AB228" s="39"/>
-      <c r="AC228" s="39"/>
+      <c r="Z228" s="23"/>
+      <c r="AA228" s="23"/>
+      <c r="AB228" s="23"/>
+      <c r="AC228" s="23"/>
       <c r="AD228" s="39"/>
       <c r="AF228" s="39"/>
     </row>
     <row r="229" spans="16:32" s="21" customFormat="1">
+      <c r="P229" s="22"/>
       <c r="Q229" s="23"/>
       <c r="R229" s="23"/>
       <c r="S229" s="23"/>
       <c r="T229" s="23"/>
       <c r="U229" s="23"/>
       <c r="V229" s="23"/>
-      <c r="W229" s="23"/>
+      <c r="W229" s="39"/>
       <c r="X229" s="39"/>
       <c r="Y229" s="39"/>
-      <c r="Z229" s="23"/>
-      <c r="AA229" s="23"/>
-      <c r="AB229" s="23"/>
-      <c r="AC229" s="23"/>
+      <c r="Z229" s="39"/>
+      <c r="AA229" s="39"/>
+      <c r="AB229" s="39"/>
+      <c r="AC229" s="39"/>
       <c r="AD229" s="39"/>
       <c r="AF229" s="39"/>
     </row>
     <row r="230" spans="16:32" s="21" customFormat="1">
-      <c r="P230" s="22"/>
       <c r="Q230" s="23"/>
       <c r="R230" s="23"/>
       <c r="S230" s="23"/>
@@ -23339,7 +23400,7 @@
       <c r="T231" s="23"/>
       <c r="U231" s="23"/>
       <c r="V231" s="23"/>
-      <c r="W231" s="39"/>
+      <c r="W231" s="23"/>
       <c r="X231" s="39"/>
       <c r="Y231" s="39"/>
       <c r="Z231" s="39"/>
@@ -23359,10 +23420,10 @@
       <c r="W232" s="23"/>
       <c r="X232" s="39"/>
       <c r="Y232" s="39"/>
-      <c r="Z232" s="39"/>
-      <c r="AA232" s="39"/>
-      <c r="AB232" s="39"/>
-      <c r="AC232" s="39"/>
+      <c r="Z232" s="23"/>
+      <c r="AA232" s="23"/>
+      <c r="AB232" s="23"/>
+      <c r="AC232" s="23"/>
       <c r="AD232" s="39"/>
       <c r="AF232" s="39"/>
     </row>
@@ -23376,10 +23437,10 @@
       <c r="W233" s="23"/>
       <c r="X233" s="39"/>
       <c r="Y233" s="39"/>
-      <c r="Z233" s="23"/>
-      <c r="AA233" s="23"/>
-      <c r="AB233" s="23"/>
-      <c r="AC233" s="23"/>
+      <c r="Z233" s="39"/>
+      <c r="AA233" s="39"/>
+      <c r="AB233" s="39"/>
+      <c r="AC233" s="39"/>
       <c r="AD233" s="39"/>
       <c r="AF233" s="39"/>
     </row>
@@ -23407,7 +23468,7 @@
       <c r="T235" s="23"/>
       <c r="U235" s="23"/>
       <c r="V235" s="23"/>
-      <c r="W235" s="23"/>
+      <c r="W235" s="39"/>
       <c r="X235" s="39"/>
       <c r="Y235" s="39"/>
       <c r="Z235" s="39"/>
@@ -23424,7 +23485,7 @@
       <c r="T236" s="23"/>
       <c r="U236" s="23"/>
       <c r="V236" s="23"/>
-      <c r="W236" s="39"/>
+      <c r="W236" s="23"/>
       <c r="X236" s="39"/>
       <c r="Y236" s="39"/>
       <c r="Z236" s="39"/>
@@ -23441,7 +23502,7 @@
       <c r="T237" s="23"/>
       <c r="U237" s="23"/>
       <c r="V237" s="23"/>
-      <c r="W237" s="23"/>
+      <c r="W237" s="39"/>
       <c r="X237" s="39"/>
       <c r="Y237" s="39"/>
       <c r="Z237" s="39"/>
@@ -23458,13 +23519,13 @@
       <c r="T238" s="23"/>
       <c r="U238" s="23"/>
       <c r="V238" s="23"/>
-      <c r="W238" s="39"/>
+      <c r="W238" s="23"/>
       <c r="X238" s="39"/>
       <c r="Y238" s="39"/>
-      <c r="Z238" s="39"/>
-      <c r="AA238" s="39"/>
-      <c r="AB238" s="39"/>
-      <c r="AC238" s="39"/>
+      <c r="Z238" s="23"/>
+      <c r="AA238" s="23"/>
+      <c r="AB238" s="23"/>
+      <c r="AC238" s="23"/>
       <c r="AD238" s="39"/>
       <c r="AF238" s="39"/>
     </row>
@@ -23486,24 +23547,24 @@
       <c r="AF239" s="39"/>
     </row>
     <row r="240" spans="16:32" s="21" customFormat="1">
+      <c r="P240" s="22"/>
       <c r="Q240" s="23"/>
       <c r="R240" s="23"/>
       <c r="S240" s="23"/>
       <c r="T240" s="23"/>
       <c r="U240" s="23"/>
       <c r="V240" s="23"/>
-      <c r="W240" s="23"/>
+      <c r="W240" s="39"/>
       <c r="X240" s="39"/>
       <c r="Y240" s="39"/>
-      <c r="Z240" s="23"/>
-      <c r="AA240" s="23"/>
-      <c r="AB240" s="23"/>
-      <c r="AC240" s="23"/>
+      <c r="Z240" s="39"/>
+      <c r="AA240" s="39"/>
+      <c r="AB240" s="39"/>
+      <c r="AC240" s="39"/>
       <c r="AD240" s="39"/>
       <c r="AF240" s="39"/>
     </row>
     <row r="241" spans="16:32" s="21" customFormat="1">
-      <c r="P241" s="22"/>
       <c r="Q241" s="23"/>
       <c r="R241" s="23"/>
       <c r="S241" s="23"/>
@@ -23527,35 +23588,35 @@
       <c r="T242" s="23"/>
       <c r="U242" s="23"/>
       <c r="V242" s="23"/>
-      <c r="W242" s="39"/>
+      <c r="W242" s="23"/>
       <c r="X242" s="39"/>
       <c r="Y242" s="39"/>
-      <c r="Z242" s="39"/>
-      <c r="AA242" s="39"/>
-      <c r="AB242" s="39"/>
-      <c r="AC242" s="39"/>
+      <c r="Z242" s="23"/>
+      <c r="AA242" s="23"/>
+      <c r="AB242" s="23"/>
+      <c r="AC242" s="23"/>
       <c r="AD242" s="39"/>
       <c r="AF242" s="39"/>
     </row>
     <row r="243" spans="16:32" s="21" customFormat="1">
+      <c r="P243" s="22"/>
       <c r="Q243" s="23"/>
       <c r="R243" s="23"/>
       <c r="S243" s="23"/>
       <c r="T243" s="23"/>
       <c r="U243" s="23"/>
       <c r="V243" s="23"/>
-      <c r="W243" s="23"/>
+      <c r="W243" s="39"/>
       <c r="X243" s="39"/>
       <c r="Y243" s="39"/>
-      <c r="Z243" s="23"/>
-      <c r="AA243" s="23"/>
-      <c r="AB243" s="23"/>
-      <c r="AC243" s="23"/>
+      <c r="Z243" s="39"/>
+      <c r="AA243" s="39"/>
+      <c r="AB243" s="39"/>
+      <c r="AC243" s="39"/>
       <c r="AD243" s="39"/>
       <c r="AF243" s="39"/>
     </row>
     <row r="244" spans="16:32" s="21" customFormat="1">
-      <c r="P244" s="22"/>
       <c r="Q244" s="23"/>
       <c r="R244" s="23"/>
       <c r="S244" s="23"/>
@@ -23579,30 +23640,31 @@
       <c r="T245" s="23"/>
       <c r="U245" s="23"/>
       <c r="V245" s="23"/>
-      <c r="W245" s="39"/>
+      <c r="W245" s="23"/>
       <c r="X245" s="39"/>
       <c r="Y245" s="39"/>
-      <c r="Z245" s="39"/>
-      <c r="AA245" s="39"/>
-      <c r="AB245" s="39"/>
-      <c r="AC245" s="39"/>
+      <c r="Z245" s="23"/>
+      <c r="AA245" s="23"/>
+      <c r="AB245" s="23"/>
+      <c r="AC245" s="23"/>
       <c r="AD245" s="39"/>
       <c r="AF245" s="39"/>
     </row>
     <row r="246" spans="16:32" s="21" customFormat="1">
+      <c r="P246" s="22"/>
       <c r="Q246" s="23"/>
       <c r="R246" s="23"/>
       <c r="S246" s="23"/>
       <c r="T246" s="23"/>
       <c r="U246" s="23"/>
       <c r="V246" s="23"/>
-      <c r="W246" s="23"/>
+      <c r="W246" s="39"/>
       <c r="X246" s="39"/>
       <c r="Y246" s="39"/>
-      <c r="Z246" s="23"/>
-      <c r="AA246" s="23"/>
-      <c r="AB246" s="23"/>
-      <c r="AC246" s="23"/>
+      <c r="Z246" s="39"/>
+      <c r="AA246" s="39"/>
+      <c r="AB246" s="39"/>
+      <c r="AC246" s="39"/>
       <c r="AD246" s="39"/>
       <c r="AF246" s="39"/>
     </row>
@@ -23625,7 +23687,6 @@
       <c r="AF247" s="39"/>
     </row>
     <row r="248" spans="16:32" s="21" customFormat="1">
-      <c r="P248" s="22"/>
       <c r="Q248" s="23"/>
       <c r="R248" s="23"/>
       <c r="S248" s="23"/>
@@ -23649,48 +23710,48 @@
       <c r="T249" s="23"/>
       <c r="U249" s="23"/>
       <c r="V249" s="23"/>
-      <c r="W249" s="39"/>
+      <c r="W249" s="23"/>
       <c r="X249" s="39"/>
       <c r="Y249" s="39"/>
-      <c r="Z249" s="39"/>
-      <c r="AA249" s="39"/>
-      <c r="AB249" s="39"/>
-      <c r="AC249" s="39"/>
+      <c r="Z249" s="23"/>
+      <c r="AA249" s="23"/>
+      <c r="AB249" s="23"/>
+      <c r="AC249" s="23"/>
       <c r="AD249" s="39"/>
       <c r="AF249" s="39"/>
     </row>
     <row r="250" spans="16:32" s="21" customFormat="1">
+      <c r="P250" s="22"/>
       <c r="Q250" s="23"/>
       <c r="R250" s="23"/>
       <c r="S250" s="23"/>
       <c r="T250" s="23"/>
       <c r="U250" s="23"/>
       <c r="V250" s="23"/>
-      <c r="W250" s="23"/>
+      <c r="W250" s="39"/>
       <c r="X250" s="39"/>
       <c r="Y250" s="39"/>
-      <c r="Z250" s="23"/>
-      <c r="AA250" s="23"/>
-      <c r="AB250" s="23"/>
-      <c r="AC250" s="23"/>
+      <c r="Z250" s="39"/>
+      <c r="AA250" s="39"/>
+      <c r="AB250" s="39"/>
+      <c r="AC250" s="39"/>
       <c r="AD250" s="39"/>
       <c r="AF250" s="39"/>
     </row>
     <row r="251" spans="16:32" s="21" customFormat="1">
-      <c r="P251" s="22"/>
       <c r="Q251" s="23"/>
       <c r="R251" s="23"/>
       <c r="S251" s="23"/>
       <c r="T251" s="23"/>
       <c r="U251" s="23"/>
       <c r="V251" s="23"/>
-      <c r="W251" s="39"/>
+      <c r="W251" s="23"/>
       <c r="X251" s="39"/>
       <c r="Y251" s="39"/>
-      <c r="Z251" s="39"/>
-      <c r="AA251" s="39"/>
-      <c r="AB251" s="39"/>
-      <c r="AC251" s="39"/>
+      <c r="Z251" s="23"/>
+      <c r="AA251" s="23"/>
+      <c r="AB251" s="23"/>
+      <c r="AC251" s="23"/>
       <c r="AD251" s="39"/>
       <c r="AF251" s="39"/>
     </row>
@@ -23704,10 +23765,10 @@
       <c r="W252" s="23"/>
       <c r="X252" s="39"/>
       <c r="Y252" s="39"/>
-      <c r="Z252" s="23"/>
-      <c r="AA252" s="23"/>
-      <c r="AB252" s="23"/>
-      <c r="AC252" s="23"/>
+      <c r="Z252" s="39"/>
+      <c r="AA252" s="39"/>
+      <c r="AB252" s="39"/>
+      <c r="AC252" s="39"/>
       <c r="AD252" s="39"/>
       <c r="AF252" s="39"/>
     </row>
@@ -23769,7 +23830,7 @@
       <c r="T256" s="23"/>
       <c r="U256" s="23"/>
       <c r="V256" s="23"/>
-      <c r="W256" s="23"/>
+      <c r="W256" s="39"/>
       <c r="X256" s="39"/>
       <c r="Y256" s="39"/>
       <c r="Z256" s="39"/>
@@ -23786,7 +23847,7 @@
       <c r="T257" s="23"/>
       <c r="U257" s="23"/>
       <c r="V257" s="23"/>
-      <c r="W257" s="39"/>
+      <c r="W257" s="23"/>
       <c r="X257" s="39"/>
       <c r="Y257" s="39"/>
       <c r="Z257" s="39"/>
@@ -23803,7 +23864,7 @@
       <c r="T258" s="23"/>
       <c r="U258" s="23"/>
       <c r="V258" s="23"/>
-      <c r="W258" s="23"/>
+      <c r="W258" s="39"/>
       <c r="X258" s="39"/>
       <c r="Y258" s="39"/>
       <c r="Z258" s="39"/>
@@ -23820,13 +23881,13 @@
       <c r="T259" s="23"/>
       <c r="U259" s="23"/>
       <c r="V259" s="23"/>
-      <c r="W259" s="39"/>
+      <c r="W259" s="23"/>
       <c r="X259" s="39"/>
       <c r="Y259" s="39"/>
-      <c r="Z259" s="39"/>
-      <c r="AA259" s="39"/>
-      <c r="AB259" s="39"/>
-      <c r="AC259" s="39"/>
+      <c r="Z259" s="23"/>
+      <c r="AA259" s="23"/>
+      <c r="AB259" s="23"/>
+      <c r="AC259" s="23"/>
       <c r="AD259" s="39"/>
       <c r="AF259" s="39"/>
     </row>
@@ -23840,10 +23901,10 @@
       <c r="W260" s="23"/>
       <c r="X260" s="39"/>
       <c r="Y260" s="39"/>
-      <c r="Z260" s="23"/>
-      <c r="AA260" s="23"/>
-      <c r="AB260" s="23"/>
-      <c r="AC260" s="23"/>
+      <c r="Z260" s="39"/>
+      <c r="AA260" s="39"/>
+      <c r="AB260" s="39"/>
+      <c r="AC260" s="39"/>
       <c r="AD260" s="39"/>
       <c r="AF260" s="39"/>
     </row>
@@ -23908,39 +23969,39 @@
       <c r="W264" s="23"/>
       <c r="X264" s="39"/>
       <c r="Y264" s="39"/>
-      <c r="Z264" s="39"/>
-      <c r="AA264" s="39"/>
-      <c r="AB264" s="39"/>
-      <c r="AC264" s="39"/>
+      <c r="Z264" s="23"/>
+      <c r="AA264" s="23"/>
+      <c r="AB264" s="23"/>
+      <c r="AC264" s="23"/>
       <c r="AD264" s="39"/>
       <c r="AF264" s="39"/>
     </row>
     <row r="265" spans="16:32" s="21" customFormat="1">
+      <c r="P265" s="22"/>
       <c r="Q265" s="23"/>
       <c r="R265" s="23"/>
       <c r="S265" s="23"/>
       <c r="T265" s="23"/>
       <c r="U265" s="23"/>
       <c r="V265" s="23"/>
-      <c r="W265" s="23"/>
+      <c r="W265" s="39"/>
       <c r="X265" s="39"/>
       <c r="Y265" s="39"/>
-      <c r="Z265" s="23"/>
-      <c r="AA265" s="23"/>
-      <c r="AB265" s="23"/>
-      <c r="AC265" s="23"/>
+      <c r="Z265" s="39"/>
+      <c r="AA265" s="39"/>
+      <c r="AB265" s="39"/>
+      <c r="AC265" s="39"/>
       <c r="AD265" s="39"/>
       <c r="AF265" s="39"/>
     </row>
     <row r="266" spans="16:32" s="21" customFormat="1">
-      <c r="P266" s="22"/>
       <c r="Q266" s="23"/>
       <c r="R266" s="23"/>
       <c r="S266" s="23"/>
       <c r="T266" s="23"/>
       <c r="U266" s="23"/>
       <c r="V266" s="23"/>
-      <c r="W266" s="39"/>
+      <c r="W266" s="23"/>
       <c r="X266" s="39"/>
       <c r="Y266" s="39"/>
       <c r="Z266" s="39"/>
@@ -23977,32 +24038,32 @@
       <c r="W268" s="23"/>
       <c r="X268" s="39"/>
       <c r="Y268" s="39"/>
-      <c r="Z268" s="39"/>
-      <c r="AA268" s="39"/>
-      <c r="AB268" s="39"/>
-      <c r="AC268" s="39"/>
+      <c r="Z268" s="23"/>
+      <c r="AA268" s="23"/>
+      <c r="AB268" s="23"/>
+      <c r="AC268" s="23"/>
       <c r="AD268" s="39"/>
       <c r="AF268" s="39"/>
     </row>
     <row r="269" spans="16:32" s="21" customFormat="1">
+      <c r="P269" s="22"/>
       <c r="Q269" s="23"/>
       <c r="R269" s="23"/>
       <c r="S269" s="23"/>
       <c r="T269" s="23"/>
       <c r="U269" s="23"/>
       <c r="V269" s="23"/>
-      <c r="W269" s="23"/>
+      <c r="W269" s="39"/>
       <c r="X269" s="39"/>
       <c r="Y269" s="39"/>
-      <c r="Z269" s="23"/>
-      <c r="AA269" s="23"/>
-      <c r="AB269" s="23"/>
-      <c r="AC269" s="23"/>
+      <c r="Z269" s="39"/>
+      <c r="AA269" s="39"/>
+      <c r="AB269" s="39"/>
+      <c r="AC269" s="39"/>
       <c r="AD269" s="39"/>
       <c r="AF269" s="39"/>
     </row>
     <row r="270" spans="16:32" s="21" customFormat="1">
-      <c r="P270" s="22"/>
       <c r="Q270" s="23"/>
       <c r="R270" s="23"/>
       <c r="S270" s="23"/>
@@ -24019,13 +24080,13 @@
       <c r="AD270" s="39"/>
       <c r="AF270" s="39"/>
     </row>
-    <row r="271" spans="16:32" s="21" customFormat="1">
-      <c r="Q271" s="23"/>
-      <c r="R271" s="23"/>
-      <c r="S271" s="23"/>
-      <c r="T271" s="23"/>
-      <c r="U271" s="23"/>
-      <c r="V271" s="23"/>
+    <row r="271" spans="16:32">
+      <c r="Q271" s="39"/>
+      <c r="R271" s="39"/>
+      <c r="S271" s="39"/>
+      <c r="T271" s="39"/>
+      <c r="U271" s="39"/>
+      <c r="V271" s="39"/>
       <c r="W271" s="39"/>
       <c r="X271" s="39"/>
       <c r="Y271" s="39"/>
@@ -24036,13 +24097,13 @@
       <c r="AD271" s="39"/>
       <c r="AF271" s="39"/>
     </row>
-    <row r="272" spans="16:32">
-      <c r="Q272" s="39"/>
-      <c r="R272" s="39"/>
-      <c r="S272" s="39"/>
-      <c r="T272" s="39"/>
-      <c r="U272" s="39"/>
-      <c r="V272" s="39"/>
+    <row r="272" spans="16:32" s="21" customFormat="1">
+      <c r="Q272" s="23"/>
+      <c r="R272" s="23"/>
+      <c r="S272" s="23"/>
+      <c r="T272" s="23"/>
+      <c r="U272" s="23"/>
+      <c r="V272" s="23"/>
       <c r="W272" s="39"/>
       <c r="X272" s="39"/>
       <c r="Y272" s="39"/>
@@ -24060,13 +24121,13 @@
       <c r="T273" s="23"/>
       <c r="U273" s="23"/>
       <c r="V273" s="23"/>
-      <c r="W273" s="39"/>
+      <c r="W273" s="23"/>
       <c r="X273" s="39"/>
       <c r="Y273" s="39"/>
-      <c r="Z273" s="39"/>
-      <c r="AA273" s="39"/>
-      <c r="AB273" s="39"/>
-      <c r="AC273" s="39"/>
+      <c r="Z273" s="23"/>
+      <c r="AA273" s="23"/>
+      <c r="AB273" s="23"/>
+      <c r="AC273" s="23"/>
       <c r="AD273" s="39"/>
       <c r="AF273" s="39"/>
     </row>
@@ -24080,21 +24141,22 @@
       <c r="W274" s="23"/>
       <c r="X274" s="39"/>
       <c r="Y274" s="39"/>
-      <c r="Z274" s="23"/>
-      <c r="AA274" s="23"/>
-      <c r="AB274" s="23"/>
-      <c r="AC274" s="23"/>
+      <c r="Z274" s="39"/>
+      <c r="AA274" s="39"/>
+      <c r="AB274" s="39"/>
+      <c r="AC274" s="39"/>
       <c r="AD274" s="39"/>
       <c r="AF274" s="39"/>
     </row>
     <row r="275" spans="16:32" s="21" customFormat="1">
+      <c r="P275" s="22"/>
       <c r="Q275" s="23"/>
       <c r="R275" s="23"/>
       <c r="S275" s="23"/>
       <c r="T275" s="23"/>
       <c r="U275" s="23"/>
       <c r="V275" s="23"/>
-      <c r="W275" s="23"/>
+      <c r="W275" s="39"/>
       <c r="X275" s="39"/>
       <c r="Y275" s="39"/>
       <c r="Z275" s="39"/>
@@ -24105,20 +24167,19 @@
       <c r="AF275" s="39"/>
     </row>
     <row r="276" spans="16:32" s="21" customFormat="1">
-      <c r="P276" s="22"/>
       <c r="Q276" s="23"/>
       <c r="R276" s="23"/>
       <c r="S276" s="23"/>
       <c r="T276" s="23"/>
       <c r="U276" s="23"/>
       <c r="V276" s="23"/>
-      <c r="W276" s="39"/>
+      <c r="W276" s="23"/>
       <c r="X276" s="39"/>
       <c r="Y276" s="39"/>
-      <c r="Z276" s="39"/>
-      <c r="AA276" s="39"/>
-      <c r="AB276" s="39"/>
-      <c r="AC276" s="39"/>
+      <c r="Z276" s="23"/>
+      <c r="AA276" s="23"/>
+      <c r="AB276" s="23"/>
+      <c r="AC276" s="23"/>
       <c r="AD276" s="39"/>
       <c r="AF276" s="39"/>
     </row>
@@ -24140,24 +24201,24 @@
       <c r="AF277" s="39"/>
     </row>
     <row r="278" spans="16:32" s="21" customFormat="1">
+      <c r="P278" s="22"/>
       <c r="Q278" s="23"/>
       <c r="R278" s="23"/>
       <c r="S278" s="23"/>
       <c r="T278" s="23"/>
       <c r="U278" s="23"/>
       <c r="V278" s="23"/>
-      <c r="W278" s="23"/>
+      <c r="W278" s="39"/>
       <c r="X278" s="39"/>
       <c r="Y278" s="39"/>
-      <c r="Z278" s="23"/>
-      <c r="AA278" s="23"/>
-      <c r="AB278" s="23"/>
-      <c r="AC278" s="23"/>
+      <c r="Z278" s="39"/>
+      <c r="AA278" s="39"/>
+      <c r="AB278" s="39"/>
+      <c r="AC278" s="39"/>
       <c r="AD278" s="39"/>
       <c r="AF278" s="39"/>
     </row>
     <row r="279" spans="16:32" s="21" customFormat="1">
-      <c r="P279" s="22"/>
       <c r="Q279" s="23"/>
       <c r="R279" s="23"/>
       <c r="S279" s="23"/>
@@ -24198,7 +24259,7 @@
       <c r="T281" s="23"/>
       <c r="U281" s="23"/>
       <c r="V281" s="23"/>
-      <c r="W281" s="39"/>
+      <c r="W281" s="23"/>
       <c r="X281" s="39"/>
       <c r="Y281" s="39"/>
       <c r="Z281" s="39"/>
@@ -24232,7 +24293,7 @@
       <c r="T283" s="23"/>
       <c r="U283" s="23"/>
       <c r="V283" s="23"/>
-      <c r="W283" s="23"/>
+      <c r="W283" s="39"/>
       <c r="X283" s="39"/>
       <c r="Y283" s="39"/>
       <c r="Z283" s="39"/>
@@ -24249,7 +24310,7 @@
       <c r="T284" s="23"/>
       <c r="U284" s="23"/>
       <c r="V284" s="23"/>
-      <c r="W284" s="39"/>
+      <c r="W284" s="23"/>
       <c r="X284" s="39"/>
       <c r="Y284" s="39"/>
       <c r="Z284" s="39"/>
@@ -24266,7 +24327,7 @@
       <c r="T285" s="23"/>
       <c r="U285" s="23"/>
       <c r="V285" s="23"/>
-      <c r="W285" s="23"/>
+      <c r="W285" s="39"/>
       <c r="X285" s="39"/>
       <c r="Y285" s="39"/>
       <c r="Z285" s="39"/>
@@ -24283,35 +24344,35 @@
       <c r="T286" s="23"/>
       <c r="U286" s="23"/>
       <c r="V286" s="23"/>
-      <c r="W286" s="39"/>
+      <c r="W286" s="23"/>
       <c r="X286" s="39"/>
       <c r="Y286" s="39"/>
-      <c r="Z286" s="39"/>
-      <c r="AA286" s="39"/>
-      <c r="AB286" s="39"/>
-      <c r="AC286" s="39"/>
+      <c r="Z286" s="23"/>
+      <c r="AA286" s="23"/>
+      <c r="AB286" s="23"/>
+      <c r="AC286" s="23"/>
       <c r="AD286" s="39"/>
       <c r="AF286" s="39"/>
     </row>
     <row r="287" spans="16:32" s="21" customFormat="1">
+      <c r="P287" s="22"/>
       <c r="Q287" s="23"/>
       <c r="R287" s="23"/>
       <c r="S287" s="23"/>
       <c r="T287" s="23"/>
       <c r="U287" s="23"/>
       <c r="V287" s="23"/>
-      <c r="W287" s="23"/>
+      <c r="W287" s="39"/>
       <c r="X287" s="39"/>
       <c r="Y287" s="39"/>
-      <c r="Z287" s="23"/>
-      <c r="AA287" s="23"/>
-      <c r="AB287" s="23"/>
-      <c r="AC287" s="23"/>
+      <c r="Z287" s="39"/>
+      <c r="AA287" s="39"/>
+      <c r="AB287" s="39"/>
+      <c r="AC287" s="39"/>
       <c r="AD287" s="39"/>
       <c r="AF287" s="39"/>
     </row>
     <row r="288" spans="16:32" s="21" customFormat="1">
-      <c r="P288" s="22"/>
       <c r="Q288" s="23"/>
       <c r="R288" s="23"/>
       <c r="S288" s="23"/>
@@ -24335,13 +24396,13 @@
       <c r="T289" s="23"/>
       <c r="U289" s="23"/>
       <c r="V289" s="23"/>
-      <c r="W289" s="39"/>
+      <c r="W289" s="23"/>
       <c r="X289" s="39"/>
       <c r="Y289" s="39"/>
-      <c r="Z289" s="39"/>
-      <c r="AA289" s="39"/>
-      <c r="AB289" s="39"/>
-      <c r="AC289" s="39"/>
+      <c r="Z289" s="23"/>
+      <c r="AA289" s="23"/>
+      <c r="AB289" s="23"/>
+      <c r="AC289" s="23"/>
       <c r="AD289" s="39"/>
       <c r="AF289" s="39"/>
     </row>
@@ -24355,10 +24416,10 @@
       <c r="W290" s="23"/>
       <c r="X290" s="39"/>
       <c r="Y290" s="39"/>
-      <c r="Z290" s="23"/>
-      <c r="AA290" s="23"/>
-      <c r="AB290" s="23"/>
-      <c r="AC290" s="23"/>
+      <c r="Z290" s="39"/>
+      <c r="AA290" s="39"/>
+      <c r="AB290" s="39"/>
+      <c r="AC290" s="39"/>
       <c r="AD290" s="39"/>
       <c r="AF290" s="39"/>
     </row>
@@ -24369,7 +24430,7 @@
       <c r="T291" s="23"/>
       <c r="U291" s="23"/>
       <c r="V291" s="23"/>
-      <c r="W291" s="23"/>
+      <c r="W291" s="39"/>
       <c r="X291" s="39"/>
       <c r="Y291" s="39"/>
       <c r="Z291" s="39"/>
@@ -24386,7 +24447,7 @@
       <c r="T292" s="23"/>
       <c r="U292" s="23"/>
       <c r="V292" s="23"/>
-      <c r="W292" s="39"/>
+      <c r="W292" s="23"/>
       <c r="X292" s="39"/>
       <c r="Y292" s="39"/>
       <c r="Z292" s="39"/>
@@ -24410,8 +24471,6 @@
       <c r="AA293" s="39"/>
       <c r="AB293" s="39"/>
       <c r="AC293" s="39"/>
-      <c r="AD293" s="39"/>
-      <c r="AF293" s="39"/>
     </row>
     <row r="294" spans="16:32" s="21" customFormat="1">
       <c r="Q294" s="23"/>
@@ -24435,7 +24494,7 @@
       <c r="T295" s="23"/>
       <c r="U295" s="23"/>
       <c r="V295" s="23"/>
-      <c r="W295" s="23"/>
+      <c r="W295" s="39"/>
       <c r="X295" s="39"/>
       <c r="Y295" s="39"/>
       <c r="Z295" s="39"/>
@@ -24450,7 +24509,7 @@
       <c r="T296" s="23"/>
       <c r="U296" s="23"/>
       <c r="V296" s="23"/>
-      <c r="W296" s="39"/>
+      <c r="W296" s="23"/>
       <c r="X296" s="39"/>
       <c r="Y296" s="39"/>
       <c r="Z296" s="39"/>
@@ -24459,13 +24518,14 @@
       <c r="AC296" s="39"/>
     </row>
     <row r="297" spans="16:32" s="21" customFormat="1">
+      <c r="P297" s="22"/>
       <c r="Q297" s="23"/>
       <c r="R297" s="23"/>
       <c r="S297" s="23"/>
       <c r="T297" s="23"/>
       <c r="U297" s="23"/>
       <c r="V297" s="23"/>
-      <c r="W297" s="23"/>
+      <c r="W297" s="39"/>
       <c r="X297" s="39"/>
       <c r="Y297" s="39"/>
       <c r="Z297" s="39"/>
@@ -24474,20 +24534,19 @@
       <c r="AC297" s="39"/>
     </row>
     <row r="298" spans="16:32" s="21" customFormat="1">
-      <c r="P298" s="22"/>
       <c r="Q298" s="23"/>
       <c r="R298" s="23"/>
       <c r="S298" s="23"/>
       <c r="T298" s="23"/>
       <c r="U298" s="23"/>
       <c r="V298" s="23"/>
-      <c r="W298" s="39"/>
+      <c r="W298" s="23"/>
       <c r="X298" s="39"/>
       <c r="Y298" s="39"/>
-      <c r="Z298" s="39"/>
-      <c r="AA298" s="39"/>
-      <c r="AB298" s="39"/>
-      <c r="AC298" s="39"/>
+      <c r="Z298" s="23"/>
+      <c r="AA298" s="23"/>
+      <c r="AB298" s="23"/>
+      <c r="AC298" s="23"/>
     </row>
     <row r="299" spans="16:32" s="21" customFormat="1">
       <c r="Q299" s="23"/>
@@ -24499,10 +24558,10 @@
       <c r="W299" s="23"/>
       <c r="X299" s="39"/>
       <c r="Y299" s="39"/>
-      <c r="Z299" s="23"/>
-      <c r="AA299" s="23"/>
-      <c r="AB299" s="23"/>
-      <c r="AC299" s="23"/>
+      <c r="Z299" s="39"/>
+      <c r="AA299" s="39"/>
+      <c r="AB299" s="39"/>
+      <c r="AC299" s="39"/>
     </row>
     <row r="300" spans="16:32" s="21" customFormat="1">
       <c r="Q300" s="23"/>
@@ -24556,7 +24615,7 @@
       <c r="T303" s="23"/>
       <c r="U303" s="23"/>
       <c r="V303" s="23"/>
-      <c r="W303" s="23"/>
+      <c r="W303" s="39"/>
       <c r="X303" s="39"/>
       <c r="Y303" s="39"/>
       <c r="Z303" s="39"/>
@@ -24571,7 +24630,7 @@
       <c r="T304" s="23"/>
       <c r="U304" s="23"/>
       <c r="V304" s="23"/>
-      <c r="W304" s="39"/>
+      <c r="W304" s="23"/>
       <c r="X304" s="39"/>
       <c r="Y304" s="39"/>
       <c r="Z304" s="39"/>
@@ -24586,7 +24645,7 @@
       <c r="T305" s="23"/>
       <c r="U305" s="23"/>
       <c r="V305" s="23"/>
-      <c r="W305" s="23"/>
+      <c r="W305" s="39"/>
       <c r="X305" s="39"/>
       <c r="Y305" s="39"/>
       <c r="Z305" s="39"/>
@@ -24601,31 +24660,31 @@
       <c r="T306" s="23"/>
       <c r="U306" s="23"/>
       <c r="V306" s="23"/>
-      <c r="W306" s="39"/>
+      <c r="W306" s="23"/>
       <c r="X306" s="39"/>
       <c r="Y306" s="39"/>
-      <c r="Z306" s="39"/>
-      <c r="AA306" s="39"/>
-      <c r="AB306" s="39"/>
-      <c r="AC306" s="39"/>
+      <c r="Z306" s="23"/>
+      <c r="AA306" s="23"/>
+      <c r="AB306" s="23"/>
+      <c r="AC306" s="23"/>
     </row>
     <row r="307" spans="16:29" s="21" customFormat="1">
+      <c r="P307" s="22"/>
       <c r="Q307" s="23"/>
       <c r="R307" s="23"/>
       <c r="S307" s="23"/>
       <c r="T307" s="23"/>
       <c r="U307" s="23"/>
       <c r="V307" s="23"/>
-      <c r="W307" s="23"/>
+      <c r="W307" s="39"/>
       <c r="X307" s="39"/>
       <c r="Y307" s="39"/>
-      <c r="Z307" s="23"/>
-      <c r="AA307" s="23"/>
-      <c r="AB307" s="23"/>
-      <c r="AC307" s="23"/>
+      <c r="Z307" s="39"/>
+      <c r="AA307" s="39"/>
+      <c r="AB307" s="39"/>
+      <c r="AC307" s="39"/>
     </row>
     <row r="308" spans="16:29" s="21" customFormat="1">
-      <c r="P308" s="22"/>
       <c r="Q308" s="23"/>
       <c r="R308" s="23"/>
       <c r="S308" s="23"/>
@@ -24647,13 +24706,13 @@
       <c r="T309" s="23"/>
       <c r="U309" s="23"/>
       <c r="V309" s="23"/>
-      <c r="W309" s="39"/>
+      <c r="W309" s="23"/>
       <c r="X309" s="39"/>
       <c r="Y309" s="39"/>
-      <c r="Z309" s="39"/>
-      <c r="AA309" s="39"/>
-      <c r="AB309" s="39"/>
-      <c r="AC309" s="39"/>
+      <c r="Z309" s="23"/>
+      <c r="AA309" s="23"/>
+      <c r="AB309" s="23"/>
+      <c r="AC309" s="23"/>
     </row>
     <row r="310" spans="16:29" s="21" customFormat="1">
       <c r="Q310" s="23"/>
@@ -24665,10 +24724,10 @@
       <c r="W310" s="23"/>
       <c r="X310" s="39"/>
       <c r="Y310" s="39"/>
-      <c r="Z310" s="23"/>
-      <c r="AA310" s="23"/>
-      <c r="AB310" s="23"/>
-      <c r="AC310" s="23"/>
+      <c r="Z310" s="39"/>
+      <c r="AA310" s="39"/>
+      <c r="AB310" s="39"/>
+      <c r="AC310" s="39"/>
     </row>
     <row r="311" spans="16:29" s="21" customFormat="1">
       <c r="Q311" s="23"/>
@@ -24677,7 +24736,7 @@
       <c r="T311" s="23"/>
       <c r="U311" s="23"/>
       <c r="V311" s="23"/>
-      <c r="W311" s="23"/>
+      <c r="W311" s="39"/>
       <c r="X311" s="39"/>
       <c r="Y311" s="39"/>
       <c r="Z311" s="39"/>
@@ -24692,7 +24751,7 @@
       <c r="T312" s="23"/>
       <c r="U312" s="23"/>
       <c r="V312" s="23"/>
-      <c r="W312" s="39"/>
+      <c r="W312" s="23"/>
       <c r="X312" s="39"/>
       <c r="Y312" s="39"/>
       <c r="Z312" s="39"/>
@@ -24707,7 +24766,7 @@
       <c r="T313" s="23"/>
       <c r="U313" s="23"/>
       <c r="V313" s="23"/>
-      <c r="W313" s="23"/>
+      <c r="W313" s="39"/>
       <c r="X313" s="39"/>
       <c r="Y313" s="39"/>
       <c r="Z313" s="39"/>
@@ -24716,6 +24775,7 @@
       <c r="AC313" s="39"/>
     </row>
     <row r="314" spans="16:29" s="21" customFormat="1">
+      <c r="P314" s="22"/>
       <c r="Q314" s="23"/>
       <c r="R314" s="23"/>
       <c r="S314" s="23"/>
@@ -24731,7 +24791,6 @@
       <c r="AC314" s="39"/>
     </row>
     <row r="315" spans="16:29" s="21" customFormat="1">
-      <c r="P315" s="22"/>
       <c r="Q315" s="23"/>
       <c r="R315" s="23"/>
       <c r="S315" s="23"/>
@@ -24768,7 +24827,7 @@
       <c r="T317" s="23"/>
       <c r="U317" s="23"/>
       <c r="V317" s="23"/>
-      <c r="W317" s="39"/>
+      <c r="W317" s="23"/>
       <c r="X317" s="39"/>
       <c r="Y317" s="39"/>
       <c r="Z317" s="39"/>
@@ -24822,13 +24881,13 @@
       <c r="AC320" s="39"/>
     </row>
     <row r="321" spans="16:29" s="21" customFormat="1">
-      <c r="Q321" s="23"/>
-      <c r="R321" s="23"/>
-      <c r="S321" s="23"/>
-      <c r="T321" s="23"/>
-      <c r="U321" s="23"/>
-      <c r="V321" s="23"/>
-      <c r="W321" s="23"/>
+      <c r="Q321" s="39"/>
+      <c r="R321" s="39"/>
+      <c r="S321" s="39"/>
+      <c r="T321" s="39"/>
+      <c r="U321" s="39"/>
+      <c r="V321" s="39"/>
+      <c r="W321" s="39"/>
       <c r="X321" s="39"/>
       <c r="Y321" s="39"/>
       <c r="Z321" s="39"/>
@@ -24837,13 +24896,13 @@
       <c r="AC321" s="39"/>
     </row>
     <row r="322" spans="16:29" s="21" customFormat="1">
-      <c r="Q322" s="39"/>
-      <c r="R322" s="39"/>
-      <c r="S322" s="39"/>
-      <c r="T322" s="39"/>
-      <c r="U322" s="39"/>
-      <c r="V322" s="39"/>
-      <c r="W322" s="39"/>
+      <c r="Q322" s="23"/>
+      <c r="R322" s="23"/>
+      <c r="S322" s="23"/>
+      <c r="T322" s="23"/>
+      <c r="U322" s="23"/>
+      <c r="V322" s="23"/>
+      <c r="W322" s="23"/>
       <c r="X322" s="39"/>
       <c r="Y322" s="39"/>
       <c r="Z322" s="39"/>
@@ -24852,13 +24911,13 @@
       <c r="AC322" s="39"/>
     </row>
     <row r="323" spans="16:29" s="21" customFormat="1">
-      <c r="Q323" s="23"/>
-      <c r="R323" s="23"/>
-      <c r="S323" s="23"/>
-      <c r="T323" s="23"/>
-      <c r="U323" s="23"/>
-      <c r="V323" s="23"/>
-      <c r="W323" s="23"/>
+      <c r="Q323" s="39"/>
+      <c r="R323" s="39"/>
+      <c r="S323" s="39"/>
+      <c r="T323" s="39"/>
+      <c r="U323" s="39"/>
+      <c r="V323" s="39"/>
+      <c r="W323" s="39"/>
       <c r="X323" s="39"/>
       <c r="Y323" s="39"/>
       <c r="Z323" s="39"/>
@@ -24867,12 +24926,12 @@
       <c r="AC323" s="39"/>
     </row>
     <row r="324" spans="16:29" s="21" customFormat="1">
-      <c r="Q324" s="39"/>
-      <c r="R324" s="39"/>
-      <c r="S324" s="39"/>
-      <c r="T324" s="39"/>
-      <c r="U324" s="39"/>
-      <c r="V324" s="39"/>
+      <c r="Q324" s="23"/>
+      <c r="R324" s="23"/>
+      <c r="S324" s="23"/>
+      <c r="T324" s="23"/>
+      <c r="U324" s="23"/>
+      <c r="V324" s="23"/>
       <c r="W324" s="39"/>
       <c r="X324" s="39"/>
       <c r="Y324" s="39"/>
@@ -24888,13 +24947,13 @@
       <c r="T325" s="23"/>
       <c r="U325" s="23"/>
       <c r="V325" s="23"/>
-      <c r="W325" s="39"/>
+      <c r="W325" s="23"/>
       <c r="X325" s="39"/>
       <c r="Y325" s="39"/>
-      <c r="Z325" s="39"/>
-      <c r="AA325" s="39"/>
-      <c r="AB325" s="39"/>
-      <c r="AC325" s="39"/>
+      <c r="Z325" s="23"/>
+      <c r="AA325" s="23"/>
+      <c r="AB325" s="23"/>
+      <c r="AC325" s="23"/>
     </row>
     <row r="326" spans="16:29" s="21" customFormat="1">
       <c r="Q326" s="23"/>
@@ -24906,10 +24965,10 @@
       <c r="W326" s="23"/>
       <c r="X326" s="39"/>
       <c r="Y326" s="39"/>
-      <c r="Z326" s="23"/>
-      <c r="AA326" s="23"/>
-      <c r="AB326" s="23"/>
-      <c r="AC326" s="23"/>
+      <c r="Z326" s="39"/>
+      <c r="AA326" s="39"/>
+      <c r="AB326" s="39"/>
+      <c r="AC326" s="39"/>
     </row>
     <row r="327" spans="16:29" s="21" customFormat="1">
       <c r="Q327" s="23"/>
@@ -24918,7 +24977,7 @@
       <c r="T327" s="23"/>
       <c r="U327" s="23"/>
       <c r="V327" s="23"/>
-      <c r="W327" s="23"/>
+      <c r="W327" s="39"/>
       <c r="X327" s="39"/>
       <c r="Y327" s="39"/>
       <c r="Z327" s="39"/>
@@ -24927,13 +24986,14 @@
       <c r="AC327" s="39"/>
     </row>
     <row r="328" spans="16:29" s="21" customFormat="1">
+      <c r="P328" s="22"/>
       <c r="Q328" s="23"/>
       <c r="R328" s="23"/>
       <c r="S328" s="23"/>
       <c r="T328" s="23"/>
       <c r="U328" s="23"/>
       <c r="V328" s="23"/>
-      <c r="W328" s="39"/>
+      <c r="W328" s="23"/>
       <c r="X328" s="39"/>
       <c r="Y328" s="39"/>
       <c r="Z328" s="39"/>
@@ -24949,7 +25009,7 @@
       <c r="T329" s="23"/>
       <c r="U329" s="23"/>
       <c r="V329" s="23"/>
-      <c r="W329" s="23"/>
+      <c r="W329" s="39"/>
       <c r="X329" s="39"/>
       <c r="Y329" s="39"/>
       <c r="Z329" s="39"/>
@@ -24974,20 +25034,19 @@
       <c r="AC330" s="39"/>
     </row>
     <row r="331" spans="16:29" s="21" customFormat="1">
-      <c r="P331" s="22"/>
       <c r="Q331" s="23"/>
       <c r="R331" s="23"/>
       <c r="S331" s="23"/>
       <c r="T331" s="23"/>
       <c r="U331" s="23"/>
       <c r="V331" s="23"/>
-      <c r="W331" s="39"/>
+      <c r="W331" s="23"/>
       <c r="X331" s="39"/>
       <c r="Y331" s="39"/>
-      <c r="Z331" s="39"/>
-      <c r="AA331" s="39"/>
-      <c r="AB331" s="39"/>
-      <c r="AC331" s="39"/>
+      <c r="Z331" s="23"/>
+      <c r="AA331" s="23"/>
+      <c r="AB331" s="23"/>
+      <c r="AC331" s="23"/>
     </row>
     <row r="332" spans="16:29" s="21" customFormat="1">
       <c r="Q332" s="23"/>
@@ -24999,10 +25058,10 @@
       <c r="W332" s="23"/>
       <c r="X332" s="39"/>
       <c r="Y332" s="39"/>
-      <c r="Z332" s="23"/>
-      <c r="AA332" s="23"/>
-      <c r="AB332" s="23"/>
-      <c r="AC332" s="23"/>
+      <c r="Z332" s="39"/>
+      <c r="AA332" s="39"/>
+      <c r="AB332" s="39"/>
+      <c r="AC332" s="39"/>
     </row>
     <row r="333" spans="16:29" s="21" customFormat="1">
       <c r="Q333" s="23"/>
@@ -25041,7 +25100,7 @@
       <c r="T335" s="23"/>
       <c r="U335" s="23"/>
       <c r="V335" s="23"/>
-      <c r="W335" s="23"/>
+      <c r="W335" s="39"/>
       <c r="X335" s="39"/>
       <c r="Y335" s="39"/>
       <c r="Z335" s="39"/>
@@ -25056,7 +25115,7 @@
       <c r="T336" s="23"/>
       <c r="U336" s="23"/>
       <c r="V336" s="23"/>
-      <c r="W336" s="39"/>
+      <c r="W336" s="23"/>
       <c r="X336" s="39"/>
       <c r="Y336" s="39"/>
       <c r="Z336" s="39"/>
@@ -25071,7 +25130,7 @@
       <c r="T337" s="23"/>
       <c r="U337" s="23"/>
       <c r="V337" s="23"/>
-      <c r="W337" s="23"/>
+      <c r="W337" s="39"/>
       <c r="X337" s="39"/>
       <c r="Y337" s="39"/>
       <c r="Z337" s="39"/>
@@ -25116,7 +25175,7 @@
       <c r="T340" s="23"/>
       <c r="U340" s="23"/>
       <c r="V340" s="23"/>
-      <c r="W340" s="39"/>
+      <c r="W340" s="23"/>
       <c r="X340" s="39"/>
       <c r="Y340" s="39"/>
       <c r="Z340" s="39"/>
@@ -25140,13 +25199,13 @@
       <c r="AC341" s="39"/>
     </row>
     <row r="342" spans="17:29" s="21" customFormat="1">
-      <c r="Q342" s="23"/>
-      <c r="R342" s="23"/>
-      <c r="S342" s="23"/>
-      <c r="T342" s="23"/>
-      <c r="U342" s="23"/>
-      <c r="V342" s="23"/>
-      <c r="W342" s="23"/>
+      <c r="Q342" s="39"/>
+      <c r="R342" s="39"/>
+      <c r="S342" s="39"/>
+      <c r="T342" s="39"/>
+      <c r="U342" s="39"/>
+      <c r="V342" s="39"/>
+      <c r="W342" s="39"/>
       <c r="X342" s="39"/>
       <c r="Y342" s="39"/>
       <c r="Z342" s="39"/>
@@ -25155,13 +25214,13 @@
       <c r="AC342" s="39"/>
     </row>
     <row r="343" spans="17:29" s="21" customFormat="1">
-      <c r="Q343" s="39"/>
-      <c r="R343" s="39"/>
-      <c r="S343" s="39"/>
-      <c r="T343" s="39"/>
-      <c r="U343" s="39"/>
-      <c r="V343" s="39"/>
-      <c r="W343" s="39"/>
+      <c r="Q343" s="23"/>
+      <c r="R343" s="23"/>
+      <c r="S343" s="23"/>
+      <c r="T343" s="23"/>
+      <c r="U343" s="23"/>
+      <c r="V343" s="23"/>
+      <c r="W343" s="23"/>
       <c r="X343" s="39"/>
       <c r="Y343" s="39"/>
       <c r="Z343" s="39"/>
@@ -25170,13 +25229,13 @@
       <c r="AC343" s="39"/>
     </row>
     <row r="344" spans="17:29" s="21" customFormat="1">
-      <c r="Q344" s="23"/>
-      <c r="R344" s="23"/>
-      <c r="S344" s="23"/>
-      <c r="T344" s="23"/>
-      <c r="U344" s="23"/>
-      <c r="V344" s="23"/>
-      <c r="W344" s="23"/>
+      <c r="Q344" s="39"/>
+      <c r="R344" s="39"/>
+      <c r="S344" s="39"/>
+      <c r="T344" s="39"/>
+      <c r="U344" s="39"/>
+      <c r="V344" s="39"/>
+      <c r="W344" s="39"/>
       <c r="X344" s="39"/>
       <c r="Y344" s="39"/>
       <c r="Z344" s="39"/>
@@ -25185,12 +25244,12 @@
       <c r="AC344" s="39"/>
     </row>
     <row r="345" spans="17:29" s="21" customFormat="1">
-      <c r="Q345" s="39"/>
-      <c r="R345" s="39"/>
-      <c r="S345" s="39"/>
-      <c r="T345" s="39"/>
-      <c r="U345" s="39"/>
-      <c r="V345" s="39"/>
+      <c r="Q345" s="23"/>
+      <c r="R345" s="23"/>
+      <c r="S345" s="23"/>
+      <c r="T345" s="23"/>
+      <c r="U345" s="23"/>
+      <c r="V345" s="23"/>
       <c r="W345" s="39"/>
       <c r="X345" s="39"/>
       <c r="Y345" s="39"/>
@@ -25206,13 +25265,13 @@
       <c r="T346" s="23"/>
       <c r="U346" s="23"/>
       <c r="V346" s="23"/>
-      <c r="W346" s="39"/>
+      <c r="W346" s="23"/>
       <c r="X346" s="39"/>
       <c r="Y346" s="39"/>
-      <c r="Z346" s="39"/>
-      <c r="AA346" s="39"/>
-      <c r="AB346" s="39"/>
-      <c r="AC346" s="39"/>
+      <c r="Z346" s="23"/>
+      <c r="AA346" s="23"/>
+      <c r="AB346" s="23"/>
+      <c r="AC346" s="23"/>
     </row>
     <row r="347" spans="17:29" s="21" customFormat="1">
       <c r="Q347" s="23"/>
@@ -25221,13 +25280,13 @@
       <c r="T347" s="23"/>
       <c r="U347" s="23"/>
       <c r="V347" s="23"/>
-      <c r="W347" s="23"/>
+      <c r="W347" s="39"/>
       <c r="X347" s="39"/>
       <c r="Y347" s="39"/>
-      <c r="Z347" s="23"/>
-      <c r="AA347" s="23"/>
-      <c r="AB347" s="23"/>
-      <c r="AC347" s="23"/>
+      <c r="Z347" s="39"/>
+      <c r="AA347" s="39"/>
+      <c r="AB347" s="39"/>
+      <c r="AC347" s="39"/>
     </row>
     <row r="348" spans="17:29" s="21" customFormat="1">
       <c r="Q348" s="23"/>
@@ -25236,7 +25295,7 @@
       <c r="T348" s="23"/>
       <c r="U348" s="23"/>
       <c r="V348" s="23"/>
-      <c r="W348" s="39"/>
+      <c r="W348" s="23"/>
       <c r="X348" s="39"/>
       <c r="Y348" s="39"/>
       <c r="Z348" s="39"/>
@@ -25254,10 +25313,10 @@
       <c r="W349" s="23"/>
       <c r="X349" s="39"/>
       <c r="Y349" s="39"/>
-      <c r="Z349" s="39"/>
-      <c r="AA349" s="39"/>
-      <c r="AB349" s="39"/>
-      <c r="AC349" s="39"/>
+      <c r="Z349" s="23"/>
+      <c r="AA349" s="23"/>
+      <c r="AB349" s="23"/>
+      <c r="AC349" s="23"/>
     </row>
     <row r="350" spans="17:29" s="21" customFormat="1">
       <c r="Q350" s="23"/>
@@ -25266,13 +25325,13 @@
       <c r="T350" s="23"/>
       <c r="U350" s="23"/>
       <c r="V350" s="23"/>
-      <c r="W350" s="23"/>
+      <c r="W350" s="39"/>
       <c r="X350" s="39"/>
       <c r="Y350" s="39"/>
-      <c r="Z350" s="23"/>
-      <c r="AA350" s="23"/>
-      <c r="AB350" s="23"/>
-      <c r="AC350" s="23"/>
+      <c r="Z350" s="39"/>
+      <c r="AA350" s="39"/>
+      <c r="AB350" s="39"/>
+      <c r="AC350" s="39"/>
     </row>
     <row r="351" spans="17:29" s="21" customFormat="1">
       <c r="Q351" s="23"/>
@@ -25311,7 +25370,7 @@
       <c r="T353" s="23"/>
       <c r="U353" s="23"/>
       <c r="V353" s="23"/>
-      <c r="W353" s="39"/>
+      <c r="W353" s="23"/>
       <c r="X353" s="39"/>
       <c r="Y353" s="39"/>
       <c r="Z353" s="39"/>
@@ -25326,7 +25385,7 @@
       <c r="T354" s="23"/>
       <c r="U354" s="23"/>
       <c r="V354" s="23"/>
-      <c r="W354" s="23"/>
+      <c r="W354" s="39"/>
       <c r="X354" s="39"/>
       <c r="Y354" s="39"/>
       <c r="Z354" s="39"/>
@@ -25335,12 +25394,12 @@
       <c r="AC354" s="39"/>
     </row>
     <row r="355" spans="17:29" s="21" customFormat="1">
-      <c r="Q355" s="23"/>
-      <c r="R355" s="23"/>
-      <c r="S355" s="23"/>
-      <c r="T355" s="23"/>
-      <c r="U355" s="23"/>
-      <c r="V355" s="23"/>
+      <c r="Q355" s="39"/>
+      <c r="R355" s="39"/>
+      <c r="S355" s="39"/>
+      <c r="T355" s="39"/>
+      <c r="U355" s="39"/>
+      <c r="V355" s="39"/>
       <c r="W355" s="39"/>
       <c r="X355" s="39"/>
       <c r="Y355" s="39"/>
@@ -25350,12 +25409,12 @@
       <c r="AC355" s="39"/>
     </row>
     <row r="356" spans="17:29" s="21" customFormat="1">
-      <c r="Q356" s="39"/>
-      <c r="R356" s="39"/>
-      <c r="S356" s="39"/>
-      <c r="T356" s="39"/>
-      <c r="U356" s="39"/>
-      <c r="V356" s="39"/>
+      <c r="Q356" s="23"/>
+      <c r="R356" s="23"/>
+      <c r="S356" s="23"/>
+      <c r="T356" s="23"/>
+      <c r="U356" s="23"/>
+      <c r="V356" s="23"/>
       <c r="W356" s="39"/>
       <c r="X356" s="39"/>
       <c r="Y356" s="39"/>
@@ -25386,13 +25445,13 @@
       <c r="T358" s="23"/>
       <c r="U358" s="23"/>
       <c r="V358" s="23"/>
-      <c r="W358" s="39"/>
+      <c r="W358" s="23"/>
       <c r="X358" s="39"/>
       <c r="Y358" s="39"/>
-      <c r="Z358" s="39"/>
-      <c r="AA358" s="39"/>
-      <c r="AB358" s="39"/>
-      <c r="AC358" s="39"/>
+      <c r="Z358" s="23"/>
+      <c r="AA358" s="23"/>
+      <c r="AB358" s="23"/>
+      <c r="AC358" s="23"/>
     </row>
     <row r="359" spans="17:29" s="21" customFormat="1">
       <c r="Q359" s="23"/>
@@ -25401,13 +25460,13 @@
       <c r="T359" s="23"/>
       <c r="U359" s="23"/>
       <c r="V359" s="23"/>
-      <c r="W359" s="23"/>
+      <c r="W359" s="39"/>
       <c r="X359" s="39"/>
       <c r="Y359" s="39"/>
-      <c r="Z359" s="23"/>
-      <c r="AA359" s="23"/>
-      <c r="AB359" s="23"/>
-      <c r="AC359" s="23"/>
+      <c r="Z359" s="39"/>
+      <c r="AA359" s="39"/>
+      <c r="AB359" s="39"/>
+      <c r="AC359" s="39"/>
     </row>
     <row r="360" spans="17:29" s="21" customFormat="1">
       <c r="Q360" s="23"/>
@@ -25416,7 +25475,7 @@
       <c r="T360" s="23"/>
       <c r="U360" s="23"/>
       <c r="V360" s="23"/>
-      <c r="W360" s="39"/>
+      <c r="W360" s="23"/>
       <c r="X360" s="39"/>
       <c r="Y360" s="39"/>
       <c r="Z360" s="39"/>
@@ -25491,7 +25550,7 @@
       <c r="T365" s="23"/>
       <c r="U365" s="23"/>
       <c r="V365" s="23"/>
-      <c r="W365" s="23"/>
+      <c r="W365" s="39"/>
       <c r="X365" s="39"/>
       <c r="Y365" s="39"/>
       <c r="Z365" s="39"/>
@@ -25500,12 +25559,12 @@
       <c r="AC365" s="39"/>
     </row>
     <row r="366" spans="17:29" s="21" customFormat="1">
-      <c r="Q366" s="23"/>
-      <c r="R366" s="23"/>
-      <c r="S366" s="23"/>
-      <c r="T366" s="23"/>
-      <c r="U366" s="23"/>
-      <c r="V366" s="23"/>
+      <c r="Q366" s="39"/>
+      <c r="R366" s="39"/>
+      <c r="S366" s="39"/>
+      <c r="T366" s="39"/>
+      <c r="U366" s="39"/>
+      <c r="V366" s="39"/>
       <c r="W366" s="39"/>
       <c r="X366" s="39"/>
       <c r="Y366" s="39"/>
@@ -25515,13 +25574,13 @@
       <c r="AC366" s="39"/>
     </row>
     <row r="367" spans="17:29" s="21" customFormat="1">
-      <c r="Q367" s="39"/>
-      <c r="R367" s="39"/>
-      <c r="S367" s="39"/>
-      <c r="T367" s="39"/>
-      <c r="U367" s="39"/>
-      <c r="V367" s="39"/>
-      <c r="W367" s="39"/>
+      <c r="Q367" s="23"/>
+      <c r="R367" s="23"/>
+      <c r="S367" s="23"/>
+      <c r="T367" s="23"/>
+      <c r="U367" s="23"/>
+      <c r="V367" s="23"/>
+      <c r="W367" s="23"/>
       <c r="X367" s="39"/>
       <c r="Y367" s="39"/>
       <c r="Z367" s="39"/>
@@ -25566,7 +25625,7 @@
       <c r="T370" s="23"/>
       <c r="U370" s="23"/>
       <c r="V370" s="23"/>
-      <c r="W370" s="23"/>
+      <c r="W370" s="39"/>
       <c r="X370" s="39"/>
       <c r="Y370" s="39"/>
       <c r="Z370" s="39"/>
@@ -25596,7 +25655,7 @@
       <c r="T372" s="23"/>
       <c r="U372" s="23"/>
       <c r="V372" s="23"/>
-      <c r="W372" s="39"/>
+      <c r="W372" s="23"/>
       <c r="X372" s="39"/>
       <c r="Y372" s="39"/>
       <c r="Z372" s="39"/>
@@ -25611,7 +25670,7 @@
       <c r="T373" s="23"/>
       <c r="U373" s="23"/>
       <c r="V373" s="23"/>
-      <c r="W373" s="23"/>
+      <c r="W373" s="39"/>
       <c r="X373" s="39"/>
       <c r="Y373" s="39"/>
       <c r="Z373" s="39"/>
@@ -25671,7 +25730,7 @@
       <c r="T377" s="23"/>
       <c r="U377" s="23"/>
       <c r="V377" s="23"/>
-      <c r="W377" s="39"/>
+      <c r="W377" s="23"/>
       <c r="X377" s="39"/>
       <c r="Y377" s="39"/>
       <c r="Z377" s="39"/>
@@ -25686,7 +25745,7 @@
       <c r="T378" s="23"/>
       <c r="U378" s="23"/>
       <c r="V378" s="23"/>
-      <c r="W378" s="23"/>
+      <c r="W378" s="39"/>
       <c r="X378" s="39"/>
       <c r="Y378" s="39"/>
       <c r="Z378" s="39"/>
@@ -25731,7 +25790,7 @@
       <c r="T381" s="23"/>
       <c r="U381" s="23"/>
       <c r="V381" s="23"/>
-      <c r="W381" s="39"/>
+      <c r="W381" s="23"/>
       <c r="X381" s="39"/>
       <c r="Y381" s="39"/>
       <c r="Z381" s="39"/>
@@ -25755,13 +25814,13 @@
       <c r="AC382" s="39"/>
     </row>
     <row r="383" spans="17:29" s="21" customFormat="1">
-      <c r="Q383" s="23"/>
-      <c r="R383" s="23"/>
-      <c r="S383" s="23"/>
-      <c r="T383" s="23"/>
-      <c r="U383" s="23"/>
-      <c r="V383" s="23"/>
-      <c r="W383" s="23"/>
+      <c r="Q383" s="39"/>
+      <c r="R383" s="39"/>
+      <c r="S383" s="39"/>
+      <c r="T383" s="39"/>
+      <c r="U383" s="39"/>
+      <c r="V383" s="39"/>
+      <c r="W383" s="39"/>
       <c r="X383" s="39"/>
       <c r="Y383" s="39"/>
       <c r="Z383" s="39"/>
@@ -25770,12 +25829,12 @@
       <c r="AC383" s="39"/>
     </row>
     <row r="384" spans="17:29" s="21" customFormat="1">
-      <c r="Q384" s="39"/>
-      <c r="R384" s="39"/>
-      <c r="S384" s="39"/>
-      <c r="T384" s="39"/>
-      <c r="U384" s="39"/>
-      <c r="V384" s="39"/>
+      <c r="Q384" s="23"/>
+      <c r="R384" s="23"/>
+      <c r="S384" s="23"/>
+      <c r="T384" s="23"/>
+      <c r="U384" s="23"/>
+      <c r="V384" s="23"/>
       <c r="W384" s="39"/>
       <c r="X384" s="39"/>
       <c r="Y384" s="39"/>
@@ -25791,13 +25850,13 @@
       <c r="T385" s="23"/>
       <c r="U385" s="23"/>
       <c r="V385" s="23"/>
-      <c r="W385" s="39"/>
+      <c r="W385" s="23"/>
       <c r="X385" s="39"/>
       <c r="Y385" s="39"/>
-      <c r="Z385" s="39"/>
-      <c r="AA385" s="39"/>
-      <c r="AB385" s="39"/>
-      <c r="AC385" s="39"/>
+      <c r="Z385" s="23"/>
+      <c r="AA385" s="23"/>
+      <c r="AB385" s="23"/>
+      <c r="AC385" s="23"/>
     </row>
     <row r="386" spans="17:29" s="21" customFormat="1">
       <c r="Q386" s="23"/>
@@ -25821,13 +25880,13 @@
       <c r="T387" s="23"/>
       <c r="U387" s="23"/>
       <c r="V387" s="23"/>
-      <c r="W387" s="23"/>
+      <c r="W387" s="39"/>
       <c r="X387" s="39"/>
       <c r="Y387" s="39"/>
-      <c r="Z387" s="23"/>
-      <c r="AA387" s="23"/>
-      <c r="AB387" s="23"/>
-      <c r="AC387" s="23"/>
+      <c r="Z387" s="39"/>
+      <c r="AA387" s="39"/>
+      <c r="AB387" s="39"/>
+      <c r="AC387" s="39"/>
     </row>
     <row r="388" spans="17:29" s="21" customFormat="1">
       <c r="Q388" s="23"/>
@@ -25836,7 +25895,7 @@
       <c r="T388" s="23"/>
       <c r="U388" s="23"/>
       <c r="V388" s="23"/>
-      <c r="W388" s="39"/>
+      <c r="W388" s="23"/>
       <c r="X388" s="39"/>
       <c r="Y388" s="39"/>
       <c r="Z388" s="39"/>
@@ -25881,7 +25940,7 @@
       <c r="T391" s="23"/>
       <c r="U391" s="23"/>
       <c r="V391" s="23"/>
-      <c r="W391" s="23"/>
+      <c r="W391" s="39"/>
       <c r="X391" s="39"/>
       <c r="Y391" s="39"/>
       <c r="Z391" s="39"/>
@@ -25896,7 +25955,7 @@
       <c r="T392" s="23"/>
       <c r="U392" s="23"/>
       <c r="V392" s="23"/>
-      <c r="W392" s="39"/>
+      <c r="W392" s="23"/>
       <c r="X392" s="39"/>
       <c r="Y392" s="39"/>
       <c r="Z392" s="39"/>
@@ -25926,7 +25985,7 @@
       <c r="T394" s="23"/>
       <c r="U394" s="23"/>
       <c r="V394" s="23"/>
-      <c r="W394" s="23"/>
+      <c r="W394" s="39"/>
       <c r="X394" s="39"/>
       <c r="Y394" s="39"/>
       <c r="Z394" s="39"/>
@@ -25971,7 +26030,7 @@
       <c r="T397" s="23"/>
       <c r="U397" s="23"/>
       <c r="V397" s="23"/>
-      <c r="W397" s="39"/>
+      <c r="W397" s="23"/>
       <c r="X397" s="39"/>
       <c r="Y397" s="39"/>
       <c r="Z397" s="39"/>
@@ -25995,13 +26054,13 @@
       <c r="AC398" s="39"/>
     </row>
     <row r="399" spans="17:29" s="21" customFormat="1">
-      <c r="Q399" s="23"/>
-      <c r="R399" s="23"/>
-      <c r="S399" s="23"/>
-      <c r="T399" s="23"/>
-      <c r="U399" s="23"/>
-      <c r="V399" s="23"/>
-      <c r="W399" s="23"/>
+      <c r="Q399" s="39"/>
+      <c r="R399" s="39"/>
+      <c r="S399" s="39"/>
+      <c r="T399" s="39"/>
+      <c r="U399" s="39"/>
+      <c r="V399" s="39"/>
+      <c r="W399" s="39"/>
       <c r="X399" s="39"/>
       <c r="Y399" s="39"/>
       <c r="Z399" s="39"/>
@@ -26010,12 +26069,12 @@
       <c r="AC399" s="39"/>
     </row>
     <row r="400" spans="17:29" s="21" customFormat="1">
-      <c r="Q400" s="39"/>
-      <c r="R400" s="39"/>
-      <c r="S400" s="39"/>
-      <c r="T400" s="39"/>
-      <c r="U400" s="39"/>
-      <c r="V400" s="39"/>
+      <c r="Q400" s="23"/>
+      <c r="R400" s="23"/>
+      <c r="S400" s="23"/>
+      <c r="T400" s="23"/>
+      <c r="U400" s="23"/>
+      <c r="V400" s="23"/>
       <c r="W400" s="39"/>
       <c r="X400" s="39"/>
       <c r="Y400" s="39"/>
@@ -26031,13 +26090,13 @@
       <c r="T401" s="23"/>
       <c r="U401" s="23"/>
       <c r="V401" s="23"/>
-      <c r="W401" s="39"/>
+      <c r="W401" s="23"/>
       <c r="X401" s="39"/>
       <c r="Y401" s="39"/>
-      <c r="Z401" s="39"/>
-      <c r="AA401" s="39"/>
-      <c r="AB401" s="39"/>
-      <c r="AC401" s="39"/>
+      <c r="Z401" s="23"/>
+      <c r="AA401" s="23"/>
+      <c r="AB401" s="23"/>
+      <c r="AC401" s="23"/>
     </row>
     <row r="402" spans="17:29" s="21" customFormat="1">
       <c r="Q402" s="23"/>
@@ -26049,10 +26108,10 @@
       <c r="W402" s="23"/>
       <c r="X402" s="39"/>
       <c r="Y402" s="39"/>
-      <c r="Z402" s="23"/>
-      <c r="AA402" s="23"/>
-      <c r="AB402" s="23"/>
-      <c r="AC402" s="23"/>
+      <c r="Z402" s="39"/>
+      <c r="AA402" s="39"/>
+      <c r="AB402" s="39"/>
+      <c r="AC402" s="39"/>
     </row>
     <row r="403" spans="17:29" s="21" customFormat="1">
       <c r="Q403" s="23"/>
@@ -26091,7 +26150,7 @@
       <c r="T405" s="23"/>
       <c r="U405" s="23"/>
       <c r="V405" s="23"/>
-      <c r="W405" s="23"/>
+      <c r="W405" s="39"/>
       <c r="X405" s="39"/>
       <c r="Y405" s="39"/>
       <c r="Z405" s="39"/>
@@ -26121,13 +26180,13 @@
       <c r="T407" s="23"/>
       <c r="U407" s="23"/>
       <c r="V407" s="23"/>
-      <c r="W407" s="39"/>
+      <c r="W407" s="23"/>
       <c r="X407" s="39"/>
       <c r="Y407" s="39"/>
-      <c r="Z407" s="39"/>
-      <c r="AA407" s="39"/>
-      <c r="AB407" s="39"/>
-      <c r="AC407" s="39"/>
+      <c r="Z407" s="23"/>
+      <c r="AA407" s="23"/>
+      <c r="AB407" s="23"/>
+      <c r="AC407" s="23"/>
     </row>
     <row r="408" spans="17:29" s="21" customFormat="1">
       <c r="Q408" s="23"/>
@@ -26136,13 +26195,13 @@
       <c r="T408" s="23"/>
       <c r="U408" s="23"/>
       <c r="V408" s="23"/>
-      <c r="W408" s="23"/>
+      <c r="W408" s="39"/>
       <c r="X408" s="39"/>
       <c r="Y408" s="39"/>
-      <c r="Z408" s="23"/>
-      <c r="AA408" s="23"/>
-      <c r="AB408" s="23"/>
-      <c r="AC408" s="23"/>
+      <c r="Z408" s="39"/>
+      <c r="AA408" s="39"/>
+      <c r="AB408" s="39"/>
+      <c r="AC408" s="39"/>
     </row>
     <row r="409" spans="17:29" s="21" customFormat="1">
       <c r="Q409" s="23"/>
@@ -26151,7 +26210,7 @@
       <c r="T409" s="23"/>
       <c r="U409" s="23"/>
       <c r="V409" s="23"/>
-      <c r="W409" s="39"/>
+      <c r="W409" s="23"/>
       <c r="X409" s="39"/>
       <c r="Y409" s="39"/>
       <c r="Z409" s="39"/>
@@ -26166,7 +26225,7 @@
       <c r="T410" s="23"/>
       <c r="U410" s="23"/>
       <c r="V410" s="23"/>
-      <c r="W410" s="23"/>
+      <c r="W410" s="39"/>
       <c r="X410" s="39"/>
       <c r="Y410" s="39"/>
       <c r="Z410" s="39"/>
@@ -26211,7 +26270,7 @@
       <c r="T413" s="23"/>
       <c r="U413" s="23"/>
       <c r="V413" s="23"/>
-      <c r="W413" s="39"/>
+      <c r="W413" s="23"/>
       <c r="X413" s="39"/>
       <c r="Y413" s="39"/>
       <c r="Z413" s="39"/>
@@ -26241,7 +26300,7 @@
       <c r="T415" s="23"/>
       <c r="U415" s="23"/>
       <c r="V415" s="23"/>
-      <c r="W415" s="23"/>
+      <c r="W415" s="39"/>
       <c r="X415" s="39"/>
       <c r="Y415" s="39"/>
       <c r="Z415" s="39"/>
@@ -26286,7 +26345,7 @@
       <c r="T418" s="23"/>
       <c r="U418" s="23"/>
       <c r="V418" s="23"/>
-      <c r="W418" s="39"/>
+      <c r="W418" s="23"/>
       <c r="X418" s="39"/>
       <c r="Y418" s="39"/>
       <c r="Z418" s="39"/>
@@ -26310,13 +26369,13 @@
       <c r="AC419" s="39"/>
     </row>
     <row r="420" spans="17:29" s="21" customFormat="1">
-      <c r="Q420" s="23"/>
-      <c r="R420" s="23"/>
-      <c r="S420" s="23"/>
-      <c r="T420" s="23"/>
-      <c r="U420" s="23"/>
-      <c r="V420" s="23"/>
-      <c r="W420" s="23"/>
+      <c r="Q420" s="39"/>
+      <c r="R420" s="39"/>
+      <c r="S420" s="39"/>
+      <c r="T420" s="39"/>
+      <c r="U420" s="39"/>
+      <c r="V420" s="39"/>
+      <c r="W420" s="39"/>
       <c r="X420" s="39"/>
       <c r="Y420" s="39"/>
       <c r="Z420" s="39"/>
@@ -26325,12 +26384,12 @@
       <c r="AC420" s="39"/>
     </row>
     <row r="421" spans="17:29" s="21" customFormat="1">
-      <c r="Q421" s="39"/>
-      <c r="R421" s="39"/>
-      <c r="S421" s="39"/>
-      <c r="T421" s="39"/>
-      <c r="U421" s="39"/>
-      <c r="V421" s="39"/>
+      <c r="Q421" s="23"/>
+      <c r="R421" s="23"/>
+      <c r="S421" s="23"/>
+      <c r="T421" s="23"/>
+      <c r="U421" s="23"/>
+      <c r="V421" s="23"/>
       <c r="W421" s="39"/>
       <c r="X421" s="39"/>
       <c r="Y421" s="39"/>
@@ -26346,13 +26405,13 @@
       <c r="T422" s="23"/>
       <c r="U422" s="23"/>
       <c r="V422" s="23"/>
-      <c r="W422" s="39"/>
+      <c r="W422" s="23"/>
       <c r="X422" s="39"/>
       <c r="Y422" s="39"/>
-      <c r="Z422" s="39"/>
-      <c r="AA422" s="39"/>
-      <c r="AB422" s="39"/>
-      <c r="AC422" s="39"/>
+      <c r="Z422" s="23"/>
+      <c r="AA422" s="23"/>
+      <c r="AB422" s="23"/>
+      <c r="AC422" s="23"/>
     </row>
     <row r="423" spans="17:29" s="21" customFormat="1">
       <c r="Q423" s="23"/>
@@ -26361,13 +26420,13 @@
       <c r="T423" s="23"/>
       <c r="U423" s="23"/>
       <c r="V423" s="23"/>
-      <c r="W423" s="23"/>
+      <c r="W423" s="39"/>
       <c r="X423" s="39"/>
       <c r="Y423" s="39"/>
-      <c r="Z423" s="23"/>
-      <c r="AA423" s="23"/>
-      <c r="AB423" s="23"/>
-      <c r="AC423" s="23"/>
+      <c r="Z423" s="39"/>
+      <c r="AA423" s="39"/>
+      <c r="AB423" s="39"/>
+      <c r="AC423" s="39"/>
     </row>
     <row r="424" spans="17:29" s="21" customFormat="1">
       <c r="Q424" s="23"/>
@@ -26400,12 +26459,12 @@
       <c r="AC425" s="39"/>
     </row>
     <row r="426" spans="17:29" s="21" customFormat="1">
-      <c r="Q426" s="23"/>
-      <c r="R426" s="23"/>
-      <c r="S426" s="23"/>
-      <c r="T426" s="23"/>
-      <c r="U426" s="23"/>
-      <c r="V426" s="23"/>
+      <c r="Q426" s="39"/>
+      <c r="R426" s="39"/>
+      <c r="S426" s="39"/>
+      <c r="T426" s="39"/>
+      <c r="U426" s="39"/>
+      <c r="V426" s="39"/>
       <c r="W426" s="39"/>
       <c r="X426" s="39"/>
       <c r="Y426" s="39"/>
@@ -26415,13 +26474,13 @@
       <c r="AC426" s="39"/>
     </row>
     <row r="427" spans="17:29" s="21" customFormat="1">
-      <c r="Q427" s="39"/>
-      <c r="R427" s="39"/>
-      <c r="S427" s="39"/>
-      <c r="T427" s="39"/>
-      <c r="U427" s="39"/>
-      <c r="V427" s="39"/>
-      <c r="W427" s="39"/>
+      <c r="Q427" s="23"/>
+      <c r="R427" s="23"/>
+      <c r="S427" s="23"/>
+      <c r="T427" s="23"/>
+      <c r="U427" s="23"/>
+      <c r="V427" s="23"/>
+      <c r="W427" s="23"/>
       <c r="X427" s="39"/>
       <c r="Y427" s="39"/>
       <c r="Z427" s="39"/>
@@ -26430,13 +26489,13 @@
       <c r="AC427" s="39"/>
     </row>
     <row r="428" spans="17:29" s="21" customFormat="1">
-      <c r="Q428" s="23"/>
-      <c r="R428" s="23"/>
-      <c r="S428" s="23"/>
-      <c r="T428" s="23"/>
-      <c r="U428" s="23"/>
-      <c r="V428" s="23"/>
-      <c r="W428" s="23"/>
+      <c r="Q428" s="39"/>
+      <c r="R428" s="39"/>
+      <c r="S428" s="39"/>
+      <c r="T428" s="39"/>
+      <c r="U428" s="39"/>
+      <c r="V428" s="39"/>
+      <c r="W428" s="39"/>
       <c r="X428" s="39"/>
       <c r="Y428" s="39"/>
       <c r="Z428" s="39"/>
@@ -26445,13 +26504,13 @@
       <c r="AC428" s="39"/>
     </row>
     <row r="429" spans="17:29" s="21" customFormat="1">
-      <c r="Q429" s="39"/>
-      <c r="R429" s="39"/>
-      <c r="S429" s="39"/>
-      <c r="T429" s="39"/>
-      <c r="U429" s="39"/>
-      <c r="V429" s="39"/>
-      <c r="W429" s="39"/>
+      <c r="Q429" s="23"/>
+      <c r="R429" s="23"/>
+      <c r="S429" s="23"/>
+      <c r="T429" s="23"/>
+      <c r="U429" s="23"/>
+      <c r="V429" s="23"/>
+      <c r="W429" s="23"/>
       <c r="X429" s="39"/>
       <c r="Y429" s="39"/>
       <c r="Z429" s="39"/>
@@ -26460,13 +26519,13 @@
       <c r="AC429" s="39"/>
     </row>
     <row r="430" spans="17:29" s="21" customFormat="1">
-      <c r="Q430" s="23"/>
-      <c r="R430" s="23"/>
-      <c r="S430" s="23"/>
-      <c r="T430" s="23"/>
-      <c r="U430" s="23"/>
-      <c r="V430" s="23"/>
-      <c r="W430" s="23"/>
+      <c r="Q430" s="39"/>
+      <c r="R430" s="39"/>
+      <c r="S430" s="39"/>
+      <c r="T430" s="39"/>
+      <c r="U430" s="39"/>
+      <c r="V430" s="39"/>
+      <c r="W430" s="39"/>
       <c r="X430" s="39"/>
       <c r="Y430" s="39"/>
       <c r="Z430" s="39"/>
@@ -26475,12 +26534,12 @@
       <c r="AC430" s="39"/>
     </row>
     <row r="431" spans="17:29" s="21" customFormat="1">
-      <c r="Q431" s="39"/>
-      <c r="R431" s="39"/>
-      <c r="S431" s="39"/>
-      <c r="T431" s="39"/>
-      <c r="U431" s="39"/>
-      <c r="V431" s="39"/>
+      <c r="Q431" s="23"/>
+      <c r="R431" s="23"/>
+      <c r="S431" s="23"/>
+      <c r="T431" s="23"/>
+      <c r="U431" s="23"/>
+      <c r="V431" s="23"/>
       <c r="W431" s="39"/>
       <c r="X431" s="39"/>
       <c r="Y431" s="39"/>
@@ -26496,13 +26555,13 @@
       <c r="T432" s="23"/>
       <c r="U432" s="23"/>
       <c r="V432" s="23"/>
-      <c r="W432" s="39"/>
+      <c r="W432" s="23"/>
       <c r="X432" s="39"/>
       <c r="Y432" s="39"/>
-      <c r="Z432" s="39"/>
-      <c r="AA432" s="39"/>
-      <c r="AB432" s="39"/>
-      <c r="AC432" s="39"/>
+      <c r="Z432" s="23"/>
+      <c r="AA432" s="23"/>
+      <c r="AB432" s="23"/>
+      <c r="AC432" s="23"/>
     </row>
     <row r="433" spans="17:29" s="21" customFormat="1">
       <c r="Q433" s="23"/>
@@ -26511,13 +26570,13 @@
       <c r="T433" s="23"/>
       <c r="U433" s="23"/>
       <c r="V433" s="23"/>
-      <c r="W433" s="23"/>
+      <c r="W433" s="39"/>
       <c r="X433" s="39"/>
       <c r="Y433" s="39"/>
-      <c r="Z433" s="23"/>
-      <c r="AA433" s="23"/>
-      <c r="AB433" s="23"/>
-      <c r="AC433" s="23"/>
+      <c r="Z433" s="39"/>
+      <c r="AA433" s="39"/>
+      <c r="AB433" s="39"/>
+      <c r="AC433" s="39"/>
     </row>
     <row r="434" spans="17:29" s="21" customFormat="1">
       <c r="Q434" s="23"/>
@@ -26556,7 +26615,7 @@
       <c r="T436" s="23"/>
       <c r="U436" s="23"/>
       <c r="V436" s="23"/>
-      <c r="W436" s="39"/>
+      <c r="W436" s="23"/>
       <c r="X436" s="39"/>
       <c r="Y436" s="39"/>
       <c r="Z436" s="39"/>
@@ -26565,13 +26624,13 @@
       <c r="AC436" s="39"/>
     </row>
     <row r="437" spans="17:29" s="21" customFormat="1">
-      <c r="Q437" s="23"/>
-      <c r="R437" s="23"/>
-      <c r="S437" s="23"/>
-      <c r="T437" s="23"/>
-      <c r="U437" s="23"/>
-      <c r="V437" s="23"/>
-      <c r="W437" s="23"/>
+      <c r="Q437" s="39"/>
+      <c r="R437" s="39"/>
+      <c r="S437" s="39"/>
+      <c r="T437" s="39"/>
+      <c r="U437" s="39"/>
+      <c r="V437" s="39"/>
+      <c r="W437" s="39"/>
       <c r="X437" s="39"/>
       <c r="Y437" s="39"/>
       <c r="Z437" s="39"/>
@@ -26580,19 +26639,19 @@
       <c r="AC437" s="39"/>
     </row>
     <row r="438" spans="17:29" s="21" customFormat="1">
-      <c r="Q438" s="39"/>
-      <c r="R438" s="39"/>
-      <c r="S438" s="39"/>
-      <c r="T438" s="39"/>
-      <c r="U438" s="39"/>
-      <c r="V438" s="39"/>
-      <c r="W438" s="39"/>
+      <c r="Q438" s="23"/>
+      <c r="R438" s="23"/>
+      <c r="S438" s="23"/>
+      <c r="T438" s="23"/>
+      <c r="U438" s="23"/>
+      <c r="V438" s="23"/>
+      <c r="W438" s="23"/>
       <c r="X438" s="39"/>
       <c r="Y438" s="39"/>
-      <c r="Z438" s="39"/>
-      <c r="AA438" s="39"/>
-      <c r="AB438" s="39"/>
-      <c r="AC438" s="39"/>
+      <c r="Z438" s="23"/>
+      <c r="AA438" s="23"/>
+      <c r="AB438" s="23"/>
+      <c r="AC438" s="23"/>
     </row>
     <row r="439" spans="17:29" s="21" customFormat="1">
       <c r="Q439" s="23"/>
@@ -26601,13 +26660,13 @@
       <c r="T439" s="23"/>
       <c r="U439" s="23"/>
       <c r="V439" s="23"/>
-      <c r="W439" s="23"/>
+      <c r="W439" s="39"/>
       <c r="X439" s="39"/>
       <c r="Y439" s="39"/>
-      <c r="Z439" s="23"/>
-      <c r="AA439" s="23"/>
-      <c r="AB439" s="23"/>
-      <c r="AC439" s="23"/>
+      <c r="Z439" s="39"/>
+      <c r="AA439" s="39"/>
+      <c r="AB439" s="39"/>
+      <c r="AC439" s="39"/>
     </row>
     <row r="440" spans="17:29" s="21" customFormat="1">
       <c r="Q440" s="23"/>
@@ -26631,13 +26690,13 @@
       <c r="T441" s="23"/>
       <c r="U441" s="23"/>
       <c r="V441" s="23"/>
-      <c r="W441" s="39"/>
+      <c r="W441" s="23"/>
       <c r="X441" s="39"/>
       <c r="Y441" s="39"/>
-      <c r="Z441" s="39"/>
-      <c r="AA441" s="39"/>
-      <c r="AB441" s="39"/>
-      <c r="AC441" s="39"/>
+      <c r="Z441" s="23"/>
+      <c r="AA441" s="23"/>
+      <c r="AB441" s="23"/>
+      <c r="AC441" s="23"/>
     </row>
     <row r="442" spans="17:29" s="21" customFormat="1">
       <c r="Q442" s="23"/>
@@ -26646,13 +26705,13 @@
       <c r="T442" s="23"/>
       <c r="U442" s="23"/>
       <c r="V442" s="23"/>
-      <c r="W442" s="23"/>
+      <c r="W442" s="39"/>
       <c r="X442" s="39"/>
       <c r="Y442" s="39"/>
-      <c r="Z442" s="23"/>
-      <c r="AA442" s="23"/>
-      <c r="AB442" s="23"/>
-      <c r="AC442" s="23"/>
+      <c r="Z442" s="39"/>
+      <c r="AA442" s="39"/>
+      <c r="AB442" s="39"/>
+      <c r="AC442" s="39"/>
     </row>
     <row r="443" spans="17:29" s="21" customFormat="1">
       <c r="Q443" s="23"/>
@@ -26661,7 +26720,7 @@
       <c r="T443" s="23"/>
       <c r="U443" s="23"/>
       <c r="V443" s="23"/>
-      <c r="W443" s="39"/>
+      <c r="W443" s="23"/>
       <c r="X443" s="39"/>
       <c r="Y443" s="39"/>
       <c r="Z443" s="39"/>
@@ -26676,7 +26735,7 @@
       <c r="T444" s="23"/>
       <c r="U444" s="23"/>
       <c r="V444" s="23"/>
-      <c r="W444" s="23"/>
+      <c r="W444" s="39"/>
       <c r="X444" s="39"/>
       <c r="Y444" s="39"/>
       <c r="Z444" s="39"/>
@@ -26691,7 +26750,7 @@
       <c r="T445" s="23"/>
       <c r="U445" s="23"/>
       <c r="V445" s="23"/>
-      <c r="W445" s="39"/>
+      <c r="W445" s="23"/>
       <c r="X445" s="39"/>
       <c r="Y445" s="39"/>
       <c r="Z445" s="39"/>
@@ -26706,7 +26765,7 @@
       <c r="T446" s="23"/>
       <c r="U446" s="23"/>
       <c r="V446" s="23"/>
-      <c r="W446" s="23"/>
+      <c r="W446" s="39"/>
       <c r="X446" s="39"/>
       <c r="Y446" s="39"/>
       <c r="Z446" s="39"/>
@@ -26751,7 +26810,7 @@
       <c r="T449" s="23"/>
       <c r="U449" s="23"/>
       <c r="V449" s="23"/>
-      <c r="W449" s="39"/>
+      <c r="W449" s="23"/>
       <c r="X449" s="39"/>
       <c r="Y449" s="39"/>
       <c r="Z449" s="39"/>
@@ -26760,13 +26819,13 @@
       <c r="AC449" s="39"/>
     </row>
     <row r="450" spans="17:29" s="21" customFormat="1">
-      <c r="Q450" s="23"/>
-      <c r="R450" s="23"/>
-      <c r="S450" s="23"/>
-      <c r="T450" s="23"/>
-      <c r="U450" s="23"/>
-      <c r="V450" s="23"/>
-      <c r="W450" s="23"/>
+      <c r="Q450" s="39"/>
+      <c r="R450" s="39"/>
+      <c r="S450" s="39"/>
+      <c r="T450" s="39"/>
+      <c r="U450" s="39"/>
+      <c r="V450" s="39"/>
+      <c r="W450" s="39"/>
       <c r="X450" s="39"/>
       <c r="Y450" s="39"/>
       <c r="Z450" s="39"/>
@@ -26775,12 +26834,12 @@
       <c r="AC450" s="39"/>
     </row>
     <row r="451" spans="17:29" s="21" customFormat="1">
-      <c r="Q451" s="39"/>
-      <c r="R451" s="39"/>
-      <c r="S451" s="39"/>
-      <c r="T451" s="39"/>
-      <c r="U451" s="39"/>
-      <c r="V451" s="39"/>
+      <c r="Q451" s="23"/>
+      <c r="R451" s="23"/>
+      <c r="S451" s="23"/>
+      <c r="T451" s="23"/>
+      <c r="U451" s="23"/>
+      <c r="V451" s="23"/>
       <c r="W451" s="39"/>
       <c r="X451" s="39"/>
       <c r="Y451" s="39"/>
@@ -26796,13 +26855,13 @@
       <c r="T452" s="23"/>
       <c r="U452" s="23"/>
       <c r="V452" s="23"/>
-      <c r="W452" s="39"/>
+      <c r="W452" s="23"/>
       <c r="X452" s="39"/>
       <c r="Y452" s="39"/>
-      <c r="Z452" s="39"/>
-      <c r="AA452" s="39"/>
-      <c r="AB452" s="39"/>
-      <c r="AC452" s="39"/>
+      <c r="Z452" s="23"/>
+      <c r="AA452" s="23"/>
+      <c r="AB452" s="23"/>
+      <c r="AC452" s="23"/>
     </row>
     <row r="453" spans="17:29" s="21" customFormat="1">
       <c r="Q453" s="23"/>
@@ -26811,13 +26870,13 @@
       <c r="T453" s="23"/>
       <c r="U453" s="23"/>
       <c r="V453" s="23"/>
-      <c r="W453" s="23"/>
+      <c r="W453" s="39"/>
       <c r="X453" s="39"/>
       <c r="Y453" s="39"/>
-      <c r="Z453" s="23"/>
-      <c r="AA453" s="23"/>
-      <c r="AB453" s="23"/>
-      <c r="AC453" s="23"/>
+      <c r="Z453" s="39"/>
+      <c r="AA453" s="39"/>
+      <c r="AB453" s="39"/>
+      <c r="AC453" s="39"/>
     </row>
     <row r="454" spans="17:29" s="21" customFormat="1">
       <c r="Q454" s="23"/>
@@ -26826,13 +26885,13 @@
       <c r="T454" s="23"/>
       <c r="U454" s="23"/>
       <c r="V454" s="23"/>
-      <c r="W454" s="39"/>
+      <c r="W454" s="23"/>
       <c r="X454" s="39"/>
       <c r="Y454" s="39"/>
-      <c r="Z454" s="39"/>
-      <c r="AA454" s="39"/>
-      <c r="AB454" s="39"/>
-      <c r="AC454" s="39"/>
+      <c r="Z454" s="23"/>
+      <c r="AA454" s="23"/>
+      <c r="AB454" s="23"/>
+      <c r="AC454" s="23"/>
     </row>
     <row r="455" spans="17:29" s="21" customFormat="1">
       <c r="Q455" s="23"/>
@@ -26841,13 +26900,13 @@
       <c r="T455" s="23"/>
       <c r="U455" s="23"/>
       <c r="V455" s="23"/>
-      <c r="W455" s="23"/>
+      <c r="W455" s="39"/>
       <c r="X455" s="39"/>
       <c r="Y455" s="39"/>
-      <c r="Z455" s="23"/>
-      <c r="AA455" s="23"/>
-      <c r="AB455" s="23"/>
-      <c r="AC455" s="23"/>
+      <c r="Z455" s="39"/>
+      <c r="AA455" s="39"/>
+      <c r="AB455" s="39"/>
+      <c r="AC455" s="39"/>
     </row>
     <row r="456" spans="17:29" s="21" customFormat="1">
       <c r="Q456" s="23"/>
@@ -26856,7 +26915,7 @@
       <c r="T456" s="23"/>
       <c r="U456" s="23"/>
       <c r="V456" s="23"/>
-      <c r="W456" s="39"/>
+      <c r="W456" s="23"/>
       <c r="X456" s="39"/>
       <c r="Y456" s="39"/>
       <c r="Z456" s="39"/>
@@ -26871,7 +26930,7 @@
       <c r="T457" s="23"/>
       <c r="U457" s="23"/>
       <c r="V457" s="23"/>
-      <c r="W457" s="23"/>
+      <c r="W457" s="39"/>
       <c r="X457" s="39"/>
       <c r="Y457" s="39"/>
       <c r="Z457" s="39"/>
@@ -26886,7 +26945,7 @@
       <c r="T458" s="23"/>
       <c r="U458" s="23"/>
       <c r="V458" s="23"/>
-      <c r="W458" s="39"/>
+      <c r="W458" s="23"/>
       <c r="X458" s="39"/>
       <c r="Y458" s="39"/>
       <c r="Z458" s="39"/>
@@ -26895,13 +26954,13 @@
       <c r="AC458" s="39"/>
     </row>
     <row r="459" spans="17:29" s="21" customFormat="1">
-      <c r="Q459" s="23"/>
-      <c r="R459" s="23"/>
-      <c r="S459" s="23"/>
-      <c r="T459" s="23"/>
-      <c r="U459" s="23"/>
-      <c r="V459" s="23"/>
-      <c r="W459" s="23"/>
+      <c r="Q459" s="39"/>
+      <c r="R459" s="39"/>
+      <c r="S459" s="39"/>
+      <c r="T459" s="39"/>
+      <c r="U459" s="39"/>
+      <c r="V459" s="39"/>
+      <c r="W459" s="39"/>
       <c r="X459" s="39"/>
       <c r="Y459" s="39"/>
       <c r="Z459" s="39"/>
@@ -26910,13 +26969,13 @@
       <c r="AC459" s="39"/>
     </row>
     <row r="460" spans="17:29" s="21" customFormat="1">
-      <c r="Q460" s="39"/>
-      <c r="R460" s="39"/>
-      <c r="S460" s="39"/>
-      <c r="T460" s="39"/>
-      <c r="U460" s="39"/>
-      <c r="V460" s="39"/>
-      <c r="W460" s="39"/>
+      <c r="Q460" s="23"/>
+      <c r="R460" s="23"/>
+      <c r="S460" s="23"/>
+      <c r="T460" s="23"/>
+      <c r="U460" s="23"/>
+      <c r="V460" s="23"/>
+      <c r="W460" s="23"/>
       <c r="X460" s="39"/>
       <c r="Y460" s="39"/>
       <c r="Z460" s="39"/>
@@ -26931,7 +26990,7 @@
       <c r="T461" s="23"/>
       <c r="U461" s="23"/>
       <c r="V461" s="23"/>
-      <c r="W461" s="23"/>
+      <c r="W461" s="39"/>
       <c r="X461" s="39"/>
       <c r="Y461" s="39"/>
       <c r="Z461" s="39"/>
@@ -26991,7 +27050,7 @@
       <c r="T465" s="23"/>
       <c r="U465" s="23"/>
       <c r="V465" s="23"/>
-      <c r="W465" s="39"/>
+      <c r="W465" s="23"/>
       <c r="X465" s="39"/>
       <c r="Y465" s="39"/>
       <c r="Z465" s="39"/>
@@ -27000,13 +27059,13 @@
       <c r="AC465" s="39"/>
     </row>
     <row r="466" spans="17:29" s="21" customFormat="1">
-      <c r="Q466" s="23"/>
-      <c r="R466" s="23"/>
-      <c r="S466" s="23"/>
-      <c r="T466" s="23"/>
-      <c r="U466" s="23"/>
-      <c r="V466" s="23"/>
-      <c r="W466" s="23"/>
+      <c r="Q466" s="39"/>
+      <c r="R466" s="39"/>
+      <c r="S466" s="39"/>
+      <c r="T466" s="39"/>
+      <c r="U466" s="39"/>
+      <c r="V466" s="39"/>
+      <c r="W466" s="39"/>
       <c r="X466" s="39"/>
       <c r="Y466" s="39"/>
       <c r="Z466" s="39"/>
@@ -27015,12 +27074,12 @@
       <c r="AC466" s="39"/>
     </row>
     <row r="467" spans="17:29" s="21" customFormat="1">
-      <c r="Q467" s="39"/>
-      <c r="R467" s="39"/>
-      <c r="S467" s="39"/>
-      <c r="T467" s="39"/>
-      <c r="U467" s="39"/>
-      <c r="V467" s="39"/>
+      <c r="Q467" s="23"/>
+      <c r="R467" s="23"/>
+      <c r="S467" s="23"/>
+      <c r="T467" s="23"/>
+      <c r="U467" s="23"/>
+      <c r="V467" s="23"/>
       <c r="W467" s="39"/>
       <c r="X467" s="39"/>
       <c r="Y467" s="39"/>
@@ -27036,13 +27095,13 @@
       <c r="T468" s="23"/>
       <c r="U468" s="23"/>
       <c r="V468" s="23"/>
-      <c r="W468" s="39"/>
+      <c r="W468" s="23"/>
       <c r="X468" s="39"/>
       <c r="Y468" s="39"/>
-      <c r="Z468" s="39"/>
-      <c r="AA468" s="39"/>
-      <c r="AB468" s="39"/>
-      <c r="AC468" s="39"/>
+      <c r="Z468" s="23"/>
+      <c r="AA468" s="23"/>
+      <c r="AB468" s="23"/>
+      <c r="AC468" s="23"/>
     </row>
     <row r="469" spans="17:29" s="21" customFormat="1">
       <c r="Q469" s="23"/>
@@ -27051,13 +27110,13 @@
       <c r="T469" s="23"/>
       <c r="U469" s="23"/>
       <c r="V469" s="23"/>
-      <c r="W469" s="23"/>
+      <c r="W469" s="39"/>
       <c r="X469" s="39"/>
       <c r="Y469" s="39"/>
-      <c r="Z469" s="23"/>
-      <c r="AA469" s="23"/>
-      <c r="AB469" s="23"/>
-      <c r="AC469" s="23"/>
+      <c r="Z469" s="39"/>
+      <c r="AA469" s="39"/>
+      <c r="AB469" s="39"/>
+      <c r="AC469" s="39"/>
     </row>
     <row r="470" spans="17:29" s="21" customFormat="1">
       <c r="Q470" s="23"/>
@@ -27066,13 +27125,13 @@
       <c r="T470" s="23"/>
       <c r="U470" s="23"/>
       <c r="V470" s="23"/>
-      <c r="W470" s="39"/>
+      <c r="W470" s="23"/>
       <c r="X470" s="39"/>
       <c r="Y470" s="39"/>
-      <c r="Z470" s="39"/>
-      <c r="AA470" s="39"/>
-      <c r="AB470" s="39"/>
-      <c r="AC470" s="39"/>
+      <c r="Z470" s="23"/>
+      <c r="AA470" s="23"/>
+      <c r="AB470" s="23"/>
+      <c r="AC470" s="23"/>
     </row>
     <row r="471" spans="17:29" s="21" customFormat="1">
       <c r="Q471" s="23"/>
@@ -27081,13 +27140,13 @@
       <c r="T471" s="23"/>
       <c r="U471" s="23"/>
       <c r="V471" s="23"/>
-      <c r="W471" s="23"/>
+      <c r="W471" s="39"/>
       <c r="X471" s="39"/>
       <c r="Y471" s="39"/>
-      <c r="Z471" s="23"/>
-      <c r="AA471" s="23"/>
-      <c r="AB471" s="23"/>
-      <c r="AC471" s="23"/>
+      <c r="Z471" s="39"/>
+      <c r="AA471" s="39"/>
+      <c r="AB471" s="39"/>
+      <c r="AC471" s="39"/>
     </row>
     <row r="472" spans="17:29" s="21" customFormat="1">
       <c r="Q472" s="23"/>
@@ -27096,7 +27155,7 @@
       <c r="T472" s="23"/>
       <c r="U472" s="23"/>
       <c r="V472" s="23"/>
-      <c r="W472" s="39"/>
+      <c r="W472" s="23"/>
       <c r="X472" s="39"/>
       <c r="Y472" s="39"/>
       <c r="Z472" s="39"/>
@@ -27111,7 +27170,7 @@
       <c r="T473" s="23"/>
       <c r="U473" s="23"/>
       <c r="V473" s="23"/>
-      <c r="W473" s="23"/>
+      <c r="W473" s="39"/>
       <c r="X473" s="39"/>
       <c r="Y473" s="39"/>
       <c r="Z473" s="39"/>
@@ -27126,13 +27185,13 @@
       <c r="T474" s="23"/>
       <c r="U474" s="23"/>
       <c r="V474" s="23"/>
-      <c r="W474" s="39"/>
+      <c r="W474" s="23"/>
       <c r="X474" s="39"/>
       <c r="Y474" s="39"/>
-      <c r="Z474" s="39"/>
-      <c r="AA474" s="39"/>
-      <c r="AB474" s="39"/>
-      <c r="AC474" s="39"/>
+      <c r="Z474" s="23"/>
+      <c r="AA474" s="23"/>
+      <c r="AB474" s="23"/>
+      <c r="AC474" s="23"/>
     </row>
     <row r="475" spans="17:29" s="21" customFormat="1">
       <c r="Q475" s="23"/>
@@ -27141,13 +27200,13 @@
       <c r="T475" s="23"/>
       <c r="U475" s="23"/>
       <c r="V475" s="23"/>
-      <c r="W475" s="23"/>
+      <c r="W475" s="39"/>
       <c r="X475" s="39"/>
       <c r="Y475" s="39"/>
-      <c r="Z475" s="23"/>
-      <c r="AA475" s="23"/>
-      <c r="AB475" s="23"/>
-      <c r="AC475" s="23"/>
+      <c r="Z475" s="39"/>
+      <c r="AA475" s="39"/>
+      <c r="AB475" s="39"/>
+      <c r="AC475" s="39"/>
     </row>
     <row r="476" spans="17:29" s="21" customFormat="1">
       <c r="Q476" s="23"/>
@@ -27156,13 +27215,13 @@
       <c r="T476" s="23"/>
       <c r="U476" s="23"/>
       <c r="V476" s="23"/>
-      <c r="W476" s="39"/>
+      <c r="W476" s="23"/>
       <c r="X476" s="39"/>
       <c r="Y476" s="39"/>
-      <c r="Z476" s="39"/>
-      <c r="AA476" s="39"/>
-      <c r="AB476" s="39"/>
-      <c r="AC476" s="39"/>
+      <c r="Z476" s="23"/>
+      <c r="AA476" s="23"/>
+      <c r="AB476" s="23"/>
+      <c r="AC476" s="23"/>
     </row>
     <row r="477" spans="17:29" s="21" customFormat="1">
       <c r="Q477" s="23"/>
@@ -27171,13 +27230,13 @@
       <c r="T477" s="23"/>
       <c r="U477" s="23"/>
       <c r="V477" s="23"/>
-      <c r="W477" s="23"/>
+      <c r="W477" s="39"/>
       <c r="X477" s="39"/>
       <c r="Y477" s="39"/>
-      <c r="Z477" s="23"/>
-      <c r="AA477" s="23"/>
-      <c r="AB477" s="23"/>
-      <c r="AC477" s="23"/>
+      <c r="Z477" s="39"/>
+      <c r="AA477" s="39"/>
+      <c r="AB477" s="39"/>
+      <c r="AC477" s="39"/>
     </row>
     <row r="478" spans="17:29" s="21" customFormat="1">
       <c r="Q478" s="23"/>
@@ -27201,7 +27260,7 @@
       <c r="T479" s="23"/>
       <c r="U479" s="23"/>
       <c r="V479" s="23"/>
-      <c r="W479" s="39"/>
+      <c r="W479" s="23"/>
       <c r="X479" s="39"/>
       <c r="Y479" s="39"/>
       <c r="Z479" s="39"/>
@@ -27216,7 +27275,7 @@
       <c r="T480" s="23"/>
       <c r="U480" s="23"/>
       <c r="V480" s="23"/>
-      <c r="W480" s="23"/>
+      <c r="W480" s="39"/>
       <c r="X480" s="39"/>
       <c r="Y480" s="39"/>
       <c r="Z480" s="39"/>
@@ -27246,13 +27305,13 @@
       <c r="T482" s="23"/>
       <c r="U482" s="23"/>
       <c r="V482" s="23"/>
-      <c r="W482" s="39"/>
+      <c r="W482" s="23"/>
       <c r="X482" s="39"/>
       <c r="Y482" s="39"/>
-      <c r="Z482" s="39"/>
-      <c r="AA482" s="39"/>
-      <c r="AB482" s="39"/>
-      <c r="AC482" s="39"/>
+      <c r="Z482" s="23"/>
+      <c r="AA482" s="23"/>
+      <c r="AB482" s="23"/>
+      <c r="AC482" s="23"/>
     </row>
     <row r="483" spans="17:32" s="21" customFormat="1">
       <c r="Q483" s="23"/>
@@ -27263,43 +27322,45 @@
       <c r="V483" s="23"/>
       <c r="W483" s="23"/>
       <c r="X483" s="39"/>
-      <c r="Y483" s="39"/>
+      <c r="Y483" s="23"/>
       <c r="Z483" s="23"/>
       <c r="AA483" s="23"/>
       <c r="AB483" s="23"/>
       <c r="AC483" s="23"/>
+      <c r="AD483" s="22"/>
+      <c r="AF483" s="22"/>
     </row>
     <row r="484" spans="17:32" s="21" customFormat="1">
-      <c r="Q484" s="23"/>
-      <c r="R484" s="23"/>
-      <c r="S484" s="23"/>
-      <c r="T484" s="23"/>
-      <c r="U484" s="23"/>
-      <c r="V484" s="23"/>
-      <c r="W484" s="23"/>
+      <c r="Q484" s="39"/>
+      <c r="R484" s="39"/>
+      <c r="S484" s="39"/>
+      <c r="T484" s="39"/>
+      <c r="U484" s="39"/>
+      <c r="V484" s="39"/>
+      <c r="W484" s="39"/>
       <c r="X484" s="39"/>
-      <c r="Y484" s="23"/>
-      <c r="Z484" s="23"/>
-      <c r="AA484" s="23"/>
-      <c r="AB484" s="23"/>
-      <c r="AC484" s="23"/>
-      <c r="AD484" s="22"/>
-      <c r="AF484" s="22"/>
+      <c r="Y484" s="39"/>
+      <c r="Z484" s="39"/>
+      <c r="AA484" s="39"/>
+      <c r="AB484" s="39"/>
+      <c r="AC484" s="39"/>
     </row>
     <row r="485" spans="17:32" s="21" customFormat="1">
-      <c r="Q485" s="39"/>
-      <c r="R485" s="39"/>
-      <c r="S485" s="39"/>
-      <c r="T485" s="39"/>
-      <c r="U485" s="39"/>
-      <c r="V485" s="39"/>
-      <c r="W485" s="39"/>
+      <c r="Q485" s="23"/>
+      <c r="R485" s="23"/>
+      <c r="S485" s="23"/>
+      <c r="T485" s="23"/>
+      <c r="U485" s="23"/>
+      <c r="V485" s="23"/>
+      <c r="W485" s="23"/>
       <c r="X485" s="39"/>
-      <c r="Y485" s="39"/>
-      <c r="Z485" s="39"/>
-      <c r="AA485" s="39"/>
-      <c r="AB485" s="39"/>
-      <c r="AC485" s="39"/>
+      <c r="Y485" s="23"/>
+      <c r="Z485" s="23"/>
+      <c r="AA485" s="23"/>
+      <c r="AB485" s="23"/>
+      <c r="AC485" s="23"/>
+      <c r="AD485" s="22"/>
+      <c r="AF485" s="22"/>
     </row>
     <row r="486" spans="17:32" s="21" customFormat="1">
       <c r="Q486" s="23"/>
@@ -27325,15 +27386,13 @@
       <c r="T487" s="23"/>
       <c r="U487" s="23"/>
       <c r="V487" s="23"/>
-      <c r="W487" s="23"/>
+      <c r="W487" s="39"/>
       <c r="X487" s="39"/>
-      <c r="Y487" s="23"/>
-      <c r="Z487" s="23"/>
-      <c r="AA487" s="23"/>
-      <c r="AB487" s="23"/>
-      <c r="AC487" s="23"/>
-      <c r="AD487" s="22"/>
-      <c r="AF487" s="22"/>
+      <c r="Y487" s="39"/>
+      <c r="Z487" s="39"/>
+      <c r="AA487" s="39"/>
+      <c r="AB487" s="39"/>
+      <c r="AC487" s="39"/>
     </row>
     <row r="488" spans="17:32" s="21" customFormat="1">
       <c r="Q488" s="23"/>
@@ -27342,7 +27401,7 @@
       <c r="T488" s="23"/>
       <c r="U488" s="23"/>
       <c r="V488" s="23"/>
-      <c r="W488" s="39"/>
+      <c r="W488" s="23"/>
       <c r="X488" s="39"/>
       <c r="Y488" s="39"/>
       <c r="Z488" s="39"/>
@@ -27351,13 +27410,13 @@
       <c r="AC488" s="39"/>
     </row>
     <row r="489" spans="17:32" s="21" customFormat="1">
-      <c r="Q489" s="23"/>
-      <c r="R489" s="23"/>
-      <c r="S489" s="23"/>
-      <c r="T489" s="23"/>
-      <c r="U489" s="23"/>
-      <c r="V489" s="23"/>
-      <c r="W489" s="23"/>
+      <c r="Q489" s="39"/>
+      <c r="R489" s="39"/>
+      <c r="S489" s="39"/>
+      <c r="T489" s="39"/>
+      <c r="U489" s="39"/>
+      <c r="V489" s="39"/>
+      <c r="W489" s="39"/>
       <c r="X489" s="39"/>
       <c r="Y489" s="39"/>
       <c r="Z489" s="39"/>
@@ -27366,12 +27425,12 @@
       <c r="AC489" s="39"/>
     </row>
     <row r="490" spans="17:32" s="21" customFormat="1">
-      <c r="Q490" s="39"/>
-      <c r="R490" s="39"/>
-      <c r="S490" s="39"/>
-      <c r="T490" s="39"/>
-      <c r="U490" s="39"/>
-      <c r="V490" s="39"/>
+      <c r="Q490" s="23"/>
+      <c r="R490" s="23"/>
+      <c r="S490" s="23"/>
+      <c r="T490" s="23"/>
+      <c r="U490" s="23"/>
+      <c r="V490" s="23"/>
       <c r="W490" s="39"/>
       <c r="X490" s="39"/>
       <c r="Y490" s="39"/>
@@ -27387,45 +27446,45 @@
       <c r="T491" s="23"/>
       <c r="U491" s="23"/>
       <c r="V491" s="23"/>
-      <c r="W491" s="39"/>
+      <c r="W491" s="23"/>
       <c r="X491" s="39"/>
-      <c r="Y491" s="39"/>
-      <c r="Z491" s="39"/>
-      <c r="AA491" s="39"/>
-      <c r="AB491" s="39"/>
-      <c r="AC491" s="39"/>
+      <c r="Y491" s="23"/>
+      <c r="Z491" s="23"/>
+      <c r="AA491" s="23"/>
+      <c r="AB491" s="23"/>
+      <c r="AC491" s="23"/>
+      <c r="AD491" s="22"/>
+      <c r="AF491" s="22"/>
     </row>
     <row r="492" spans="17:32" s="21" customFormat="1">
-      <c r="Q492" s="23"/>
-      <c r="R492" s="23"/>
-      <c r="S492" s="23"/>
-      <c r="T492" s="23"/>
-      <c r="U492" s="23"/>
-      <c r="V492" s="23"/>
-      <c r="W492" s="23"/>
+      <c r="Q492" s="39"/>
+      <c r="R492" s="39"/>
+      <c r="S492" s="39"/>
+      <c r="T492" s="39"/>
+      <c r="U492" s="39"/>
+      <c r="V492" s="39"/>
+      <c r="W492" s="39"/>
       <c r="X492" s="39"/>
-      <c r="Y492" s="23"/>
-      <c r="Z492" s="23"/>
-      <c r="AA492" s="23"/>
-      <c r="AB492" s="23"/>
-      <c r="AC492" s="23"/>
-      <c r="AD492" s="22"/>
-      <c r="AF492" s="22"/>
+      <c r="Y492" s="39"/>
+      <c r="Z492" s="39"/>
+      <c r="AA492" s="39"/>
+      <c r="AB492" s="39"/>
+      <c r="AC492" s="39"/>
     </row>
     <row r="493" spans="17:32" s="21" customFormat="1">
-      <c r="Q493" s="39"/>
-      <c r="R493" s="39"/>
-      <c r="S493" s="39"/>
-      <c r="T493" s="39"/>
-      <c r="U493" s="39"/>
-      <c r="V493" s="39"/>
-      <c r="W493" s="39"/>
+      <c r="Q493" s="23"/>
+      <c r="R493" s="23"/>
+      <c r="S493" s="23"/>
+      <c r="T493" s="23"/>
+      <c r="U493" s="23"/>
+      <c r="V493" s="23"/>
+      <c r="W493" s="23"/>
       <c r="X493" s="39"/>
       <c r="Y493" s="39"/>
-      <c r="Z493" s="39"/>
-      <c r="AA493" s="39"/>
-      <c r="AB493" s="39"/>
-      <c r="AC493" s="39"/>
+      <c r="Z493" s="23"/>
+      <c r="AA493" s="23"/>
+      <c r="AB493" s="23"/>
+      <c r="AC493" s="23"/>
     </row>
     <row r="494" spans="17:32" s="21" customFormat="1">
       <c r="Q494" s="23"/>
@@ -27436,11 +27495,13 @@
       <c r="V494" s="23"/>
       <c r="W494" s="23"/>
       <c r="X494" s="39"/>
-      <c r="Y494" s="39"/>
+      <c r="Y494" s="23"/>
       <c r="Z494" s="23"/>
       <c r="AA494" s="23"/>
       <c r="AB494" s="23"/>
       <c r="AC494" s="23"/>
+      <c r="AD494" s="22"/>
+      <c r="AF494" s="22"/>
     </row>
     <row r="495" spans="17:32" s="21" customFormat="1">
       <c r="Q495" s="23"/>
@@ -27449,23 +27510,21 @@
       <c r="T495" s="23"/>
       <c r="U495" s="23"/>
       <c r="V495" s="23"/>
-      <c r="W495" s="23"/>
+      <c r="W495" s="39"/>
       <c r="X495" s="39"/>
-      <c r="Y495" s="23"/>
-      <c r="Z495" s="23"/>
-      <c r="AA495" s="23"/>
-      <c r="AB495" s="23"/>
-      <c r="AC495" s="23"/>
-      <c r="AD495" s="22"/>
-      <c r="AF495" s="22"/>
+      <c r="Y495" s="39"/>
+      <c r="Z495" s="39"/>
+      <c r="AA495" s="39"/>
+      <c r="AB495" s="39"/>
+      <c r="AC495" s="39"/>
     </row>
     <row r="496" spans="17:32" s="21" customFormat="1">
-      <c r="Q496" s="23"/>
-      <c r="R496" s="23"/>
-      <c r="S496" s="23"/>
-      <c r="T496" s="23"/>
-      <c r="U496" s="23"/>
-      <c r="V496" s="23"/>
+      <c r="Q496" s="39"/>
+      <c r="R496" s="39"/>
+      <c r="S496" s="39"/>
+      <c r="T496" s="39"/>
+      <c r="U496" s="39"/>
+      <c r="V496" s="39"/>
       <c r="W496" s="39"/>
       <c r="X496" s="39"/>
       <c r="Y496" s="39"/>
@@ -27490,12 +27549,12 @@
       <c r="AC497" s="39"/>
     </row>
     <row r="498" spans="17:32" s="21" customFormat="1">
-      <c r="Q498" s="39"/>
-      <c r="R498" s="39"/>
-      <c r="S498" s="39"/>
-      <c r="T498" s="39"/>
-      <c r="U498" s="39"/>
-      <c r="V498" s="39"/>
+      <c r="Q498" s="23"/>
+      <c r="R498" s="23"/>
+      <c r="S498" s="23"/>
+      <c r="T498" s="23"/>
+      <c r="U498" s="23"/>
+      <c r="V498" s="23"/>
       <c r="W498" s="39"/>
       <c r="X498" s="39"/>
       <c r="Y498" s="39"/>
@@ -27526,13 +27585,13 @@
       <c r="T500" s="23"/>
       <c r="U500" s="23"/>
       <c r="V500" s="23"/>
-      <c r="W500" s="39"/>
+      <c r="W500" s="23"/>
       <c r="X500" s="39"/>
       <c r="Y500" s="39"/>
-      <c r="Z500" s="39"/>
-      <c r="AA500" s="39"/>
-      <c r="AB500" s="39"/>
-      <c r="AC500" s="39"/>
+      <c r="Z500" s="23"/>
+      <c r="AA500" s="23"/>
+      <c r="AB500" s="23"/>
+      <c r="AC500" s="23"/>
     </row>
     <row r="501" spans="17:32" s="21" customFormat="1">
       <c r="Q501" s="23"/>
@@ -27543,36 +27602,36 @@
       <c r="V501" s="23"/>
       <c r="W501" s="23"/>
       <c r="X501" s="39"/>
-      <c r="Y501" s="39"/>
+      <c r="Y501" s="23"/>
       <c r="Z501" s="23"/>
       <c r="AA501" s="23"/>
       <c r="AB501" s="23"/>
       <c r="AC501" s="23"/>
+      <c r="AD501" s="22"/>
+      <c r="AF501" s="22"/>
     </row>
     <row r="502" spans="17:32" s="21" customFormat="1">
-      <c r="Q502" s="23"/>
-      <c r="R502" s="23"/>
-      <c r="S502" s="23"/>
-      <c r="T502" s="23"/>
-      <c r="U502" s="23"/>
-      <c r="V502" s="23"/>
-      <c r="W502" s="23"/>
+      <c r="Q502" s="39"/>
+      <c r="R502" s="39"/>
+      <c r="S502" s="39"/>
+      <c r="T502" s="39"/>
+      <c r="U502" s="39"/>
+      <c r="V502" s="39"/>
+      <c r="W502" s="39"/>
       <c r="X502" s="39"/>
-      <c r="Y502" s="23"/>
-      <c r="Z502" s="23"/>
-      <c r="AA502" s="23"/>
-      <c r="AB502" s="23"/>
-      <c r="AC502" s="23"/>
-      <c r="AD502" s="22"/>
-      <c r="AF502" s="22"/>
+      <c r="Y502" s="39"/>
+      <c r="Z502" s="39"/>
+      <c r="AA502" s="39"/>
+      <c r="AB502" s="39"/>
+      <c r="AC502" s="39"/>
     </row>
     <row r="503" spans="17:32" s="21" customFormat="1">
-      <c r="Q503" s="39"/>
-      <c r="R503" s="39"/>
-      <c r="S503" s="39"/>
-      <c r="T503" s="39"/>
-      <c r="U503" s="39"/>
-      <c r="V503" s="39"/>
+      <c r="Q503" s="23"/>
+      <c r="R503" s="23"/>
+      <c r="S503" s="23"/>
+      <c r="T503" s="23"/>
+      <c r="U503" s="23"/>
+      <c r="V503" s="23"/>
       <c r="W503" s="39"/>
       <c r="X503" s="39"/>
       <c r="Y503" s="39"/>
@@ -27618,7 +27677,7 @@
       <c r="T506" s="23"/>
       <c r="U506" s="23"/>
       <c r="V506" s="23"/>
-      <c r="W506" s="39"/>
+      <c r="W506" s="23"/>
       <c r="X506" s="39"/>
       <c r="Y506" s="39"/>
       <c r="Z506" s="39"/>
@@ -27636,10 +27695,10 @@
       <c r="W507" s="23"/>
       <c r="X507" s="39"/>
       <c r="Y507" s="39"/>
-      <c r="Z507" s="39"/>
-      <c r="AA507" s="39"/>
-      <c r="AB507" s="39"/>
-      <c r="AC507" s="39"/>
+      <c r="Z507" s="23"/>
+      <c r="AA507" s="23"/>
+      <c r="AB507" s="23"/>
+      <c r="AC507" s="23"/>
     </row>
     <row r="508" spans="17:32" s="21" customFormat="1">
       <c r="Q508" s="23"/>
@@ -27650,11 +27709,13 @@
       <c r="V508" s="23"/>
       <c r="W508" s="23"/>
       <c r="X508" s="39"/>
-      <c r="Y508" s="39"/>
+      <c r="Y508" s="23"/>
       <c r="Z508" s="23"/>
       <c r="AA508" s="23"/>
       <c r="AB508" s="23"/>
       <c r="AC508" s="23"/>
+      <c r="AD508" s="22"/>
+      <c r="AF508" s="22"/>
     </row>
     <row r="509" spans="17:32" s="21" customFormat="1">
       <c r="Q509" s="23"/>
@@ -27665,22 +27726,20 @@
       <c r="V509" s="23"/>
       <c r="W509" s="23"/>
       <c r="X509" s="39"/>
-      <c r="Y509" s="23"/>
-      <c r="Z509" s="23"/>
-      <c r="AA509" s="23"/>
-      <c r="AB509" s="23"/>
-      <c r="AC509" s="23"/>
-      <c r="AD509" s="22"/>
-      <c r="AF509" s="22"/>
+      <c r="Y509" s="39"/>
+      <c r="Z509" s="39"/>
+      <c r="AA509" s="39"/>
+      <c r="AB509" s="39"/>
+      <c r="AC509" s="39"/>
     </row>
     <row r="510" spans="17:32" s="21" customFormat="1">
-      <c r="Q510" s="23"/>
-      <c r="R510" s="23"/>
-      <c r="S510" s="23"/>
-      <c r="T510" s="23"/>
-      <c r="U510" s="23"/>
-      <c r="V510" s="23"/>
-      <c r="W510" s="23"/>
+      <c r="Q510" s="39"/>
+      <c r="R510" s="39"/>
+      <c r="S510" s="39"/>
+      <c r="T510" s="39"/>
+      <c r="U510" s="39"/>
+      <c r="V510" s="39"/>
+      <c r="W510" s="39"/>
       <c r="X510" s="39"/>
       <c r="Y510" s="39"/>
       <c r="Z510" s="39"/>
@@ -27689,44 +27748,44 @@
       <c r="AC510" s="39"/>
     </row>
     <row r="511" spans="17:32" s="21" customFormat="1">
-      <c r="Q511" s="39"/>
-      <c r="R511" s="39"/>
-      <c r="S511" s="39"/>
-      <c r="T511" s="39"/>
-      <c r="U511" s="39"/>
-      <c r="V511" s="39"/>
-      <c r="W511" s="39"/>
+      <c r="Q511" s="23"/>
+      <c r="R511" s="23"/>
+      <c r="S511" s="23"/>
+      <c r="T511" s="23"/>
+      <c r="U511" s="23"/>
+      <c r="V511" s="23"/>
+      <c r="W511" s="23"/>
       <c r="X511" s="39"/>
-      <c r="Y511" s="39"/>
-      <c r="Z511" s="39"/>
-      <c r="AA511" s="39"/>
-      <c r="AB511" s="39"/>
-      <c r="AC511" s="39"/>
+      <c r="Y511" s="23"/>
+      <c r="Z511" s="23"/>
+      <c r="AA511" s="23"/>
+      <c r="AB511" s="23"/>
+      <c r="AC511" s="23"/>
+      <c r="AD511" s="22"/>
+      <c r="AF511" s="22"/>
     </row>
     <row r="512" spans="17:32" s="21" customFormat="1">
-      <c r="Q512" s="23"/>
-      <c r="R512" s="23"/>
-      <c r="S512" s="23"/>
-      <c r="T512" s="23"/>
-      <c r="U512" s="23"/>
-      <c r="V512" s="23"/>
-      <c r="W512" s="23"/>
+      <c r="Q512" s="39"/>
+      <c r="R512" s="39"/>
+      <c r="S512" s="39"/>
+      <c r="T512" s="39"/>
+      <c r="U512" s="39"/>
+      <c r="V512" s="39"/>
+      <c r="W512" s="39"/>
       <c r="X512" s="39"/>
-      <c r="Y512" s="23"/>
-      <c r="Z512" s="23"/>
-      <c r="AA512" s="23"/>
-      <c r="AB512" s="23"/>
-      <c r="AC512" s="23"/>
-      <c r="AD512" s="22"/>
-      <c r="AF512" s="22"/>
+      <c r="Y512" s="39"/>
+      <c r="Z512" s="39"/>
+      <c r="AA512" s="39"/>
+      <c r="AB512" s="39"/>
+      <c r="AC512" s="39"/>
     </row>
     <row r="513" spans="17:32" s="21" customFormat="1">
-      <c r="Q513" s="39"/>
-      <c r="R513" s="39"/>
-      <c r="S513" s="39"/>
-      <c r="T513" s="39"/>
-      <c r="U513" s="39"/>
-      <c r="V513" s="39"/>
+      <c r="Q513" s="23"/>
+      <c r="R513" s="23"/>
+      <c r="S513" s="23"/>
+      <c r="T513" s="23"/>
+      <c r="U513" s="23"/>
+      <c r="V513" s="23"/>
       <c r="W513" s="39"/>
       <c r="X513" s="39"/>
       <c r="Y513" s="39"/>
@@ -27757,13 +27816,13 @@
       <c r="T515" s="23"/>
       <c r="U515" s="23"/>
       <c r="V515" s="23"/>
-      <c r="W515" s="39"/>
+      <c r="W515" s="23"/>
       <c r="X515" s="39"/>
       <c r="Y515" s="39"/>
-      <c r="Z515" s="39"/>
-      <c r="AA515" s="39"/>
-      <c r="AB515" s="39"/>
-      <c r="AC515" s="39"/>
+      <c r="Z515" s="23"/>
+      <c r="AA515" s="23"/>
+      <c r="AB515" s="23"/>
+      <c r="AC515" s="23"/>
     </row>
     <row r="516" spans="17:32" s="21" customFormat="1">
       <c r="Q516" s="23"/>
@@ -27774,36 +27833,36 @@
       <c r="V516" s="23"/>
       <c r="W516" s="23"/>
       <c r="X516" s="39"/>
-      <c r="Y516" s="39"/>
+      <c r="Y516" s="23"/>
       <c r="Z516" s="23"/>
       <c r="AA516" s="23"/>
       <c r="AB516" s="23"/>
       <c r="AC516" s="23"/>
+      <c r="AD516" s="22"/>
+      <c r="AF516" s="22"/>
     </row>
     <row r="517" spans="17:32" s="21" customFormat="1">
-      <c r="Q517" s="23"/>
-      <c r="R517" s="23"/>
-      <c r="S517" s="23"/>
-      <c r="T517" s="23"/>
-      <c r="U517" s="23"/>
-      <c r="V517" s="23"/>
-      <c r="W517" s="23"/>
+      <c r="Q517" s="39"/>
+      <c r="R517" s="39"/>
+      <c r="S517" s="39"/>
+      <c r="T517" s="39"/>
+      <c r="U517" s="39"/>
+      <c r="V517" s="39"/>
+      <c r="W517" s="39"/>
       <c r="X517" s="39"/>
-      <c r="Y517" s="23"/>
-      <c r="Z517" s="23"/>
-      <c r="AA517" s="23"/>
-      <c r="AB517" s="23"/>
-      <c r="AC517" s="23"/>
-      <c r="AD517" s="22"/>
-      <c r="AF517" s="22"/>
+      <c r="Y517" s="39"/>
+      <c r="Z517" s="39"/>
+      <c r="AA517" s="39"/>
+      <c r="AB517" s="39"/>
+      <c r="AC517" s="39"/>
     </row>
     <row r="518" spans="17:32" s="21" customFormat="1">
-      <c r="Q518" s="39"/>
-      <c r="R518" s="39"/>
-      <c r="S518" s="39"/>
-      <c r="T518" s="39"/>
-      <c r="U518" s="39"/>
-      <c r="V518" s="39"/>
+      <c r="Q518" s="23"/>
+      <c r="R518" s="23"/>
+      <c r="S518" s="23"/>
+      <c r="T518" s="23"/>
+      <c r="U518" s="23"/>
+      <c r="V518" s="23"/>
       <c r="W518" s="39"/>
       <c r="X518" s="39"/>
       <c r="Y518" s="39"/>
@@ -27849,7 +27908,7 @@
       <c r="T521" s="23"/>
       <c r="U521" s="23"/>
       <c r="V521" s="23"/>
-      <c r="W521" s="39"/>
+      <c r="W521" s="23"/>
       <c r="X521" s="39"/>
       <c r="Y521" s="39"/>
       <c r="Z521" s="39"/>
@@ -27867,10 +27926,10 @@
       <c r="W522" s="23"/>
       <c r="X522" s="39"/>
       <c r="Y522" s="39"/>
-      <c r="Z522" s="39"/>
-      <c r="AA522" s="39"/>
-      <c r="AB522" s="39"/>
-      <c r="AC522" s="39"/>
+      <c r="Z522" s="23"/>
+      <c r="AA522" s="23"/>
+      <c r="AB522" s="23"/>
+      <c r="AC522" s="23"/>
     </row>
     <row r="523" spans="17:32" s="21" customFormat="1">
       <c r="Q523" s="23"/>
@@ -27881,11 +27940,13 @@
       <c r="V523" s="23"/>
       <c r="W523" s="23"/>
       <c r="X523" s="39"/>
-      <c r="Y523" s="39"/>
+      <c r="Y523" s="23"/>
       <c r="Z523" s="23"/>
       <c r="AA523" s="23"/>
       <c r="AB523" s="23"/>
       <c r="AC523" s="23"/>
+      <c r="AD523" s="22"/>
+      <c r="AF523" s="22"/>
     </row>
     <row r="524" spans="17:32" s="21" customFormat="1">
       <c r="Q524" s="23"/>
@@ -27896,22 +27957,20 @@
       <c r="V524" s="23"/>
       <c r="W524" s="23"/>
       <c r="X524" s="39"/>
-      <c r="Y524" s="23"/>
-      <c r="Z524" s="23"/>
-      <c r="AA524" s="23"/>
-      <c r="AB524" s="23"/>
-      <c r="AC524" s="23"/>
-      <c r="AD524" s="22"/>
-      <c r="AF524" s="22"/>
+      <c r="Y524" s="39"/>
+      <c r="Z524" s="39"/>
+      <c r="AA524" s="39"/>
+      <c r="AB524" s="39"/>
+      <c r="AC524" s="39"/>
     </row>
     <row r="525" spans="17:32" s="21" customFormat="1">
-      <c r="Q525" s="23"/>
-      <c r="R525" s="23"/>
-      <c r="S525" s="23"/>
-      <c r="T525" s="23"/>
-      <c r="U525" s="23"/>
-      <c r="V525" s="23"/>
-      <c r="W525" s="23"/>
+      <c r="Q525" s="39"/>
+      <c r="R525" s="39"/>
+      <c r="S525" s="39"/>
+      <c r="T525" s="39"/>
+      <c r="U525" s="39"/>
+      <c r="V525" s="39"/>
+      <c r="W525" s="39"/>
       <c r="X525" s="39"/>
       <c r="Y525" s="39"/>
       <c r="Z525" s="39"/>
@@ -27920,45 +27979,45 @@
       <c r="AC525" s="39"/>
     </row>
     <row r="526" spans="17:32" s="21" customFormat="1">
-      <c r="Q526" s="39"/>
-      <c r="R526" s="39"/>
-      <c r="S526" s="39"/>
-      <c r="T526" s="39"/>
-      <c r="U526" s="39"/>
-      <c r="V526" s="39"/>
+      <c r="Q526" s="23"/>
+      <c r="R526" s="23"/>
+      <c r="S526" s="23"/>
+      <c r="T526" s="23"/>
+      <c r="U526" s="23"/>
+      <c r="V526" s="23"/>
       <c r="W526" s="39"/>
-      <c r="X526" s="39"/>
-      <c r="Y526" s="39"/>
-      <c r="Z526" s="39"/>
-      <c r="AA526" s="39"/>
-      <c r="AB526" s="39"/>
-      <c r="AC526" s="39"/>
+      <c r="X526" s="23"/>
+      <c r="Y526" s="23"/>
+      <c r="Z526" s="23"/>
+      <c r="AA526" s="23"/>
+      <c r="AB526" s="23"/>
+      <c r="AC526" s="23"/>
+      <c r="AD526" s="22"/>
+      <c r="AF526" s="22"/>
     </row>
     <row r="527" spans="17:32" s="21" customFormat="1">
-      <c r="Q527" s="23"/>
-      <c r="R527" s="23"/>
-      <c r="S527" s="23"/>
-      <c r="T527" s="23"/>
-      <c r="U527" s="23"/>
-      <c r="V527" s="23"/>
+      <c r="Q527" s="39"/>
+      <c r="R527" s="39"/>
+      <c r="S527" s="39"/>
+      <c r="T527" s="39"/>
+      <c r="U527" s="39"/>
+      <c r="V527" s="39"/>
       <c r="W527" s="39"/>
-      <c r="X527" s="23"/>
-      <c r="Y527" s="23"/>
-      <c r="Z527" s="23"/>
-      <c r="AA527" s="23"/>
-      <c r="AB527" s="23"/>
-      <c r="AC527" s="23"/>
-      <c r="AD527" s="22"/>
-      <c r="AF527" s="22"/>
+      <c r="X527" s="39"/>
+      <c r="Y527" s="39"/>
+      <c r="Z527" s="39"/>
+      <c r="AA527" s="39"/>
+      <c r="AB527" s="39"/>
+      <c r="AC527" s="39"/>
     </row>
     <row r="528" spans="17:32" s="21" customFormat="1">
-      <c r="Q528" s="39"/>
-      <c r="R528" s="39"/>
-      <c r="S528" s="39"/>
-      <c r="T528" s="39"/>
-      <c r="U528" s="39"/>
-      <c r="V528" s="39"/>
-      <c r="W528" s="39"/>
+      <c r="Q528" s="23"/>
+      <c r="R528" s="23"/>
+      <c r="S528" s="23"/>
+      <c r="T528" s="23"/>
+      <c r="U528" s="23"/>
+      <c r="V528" s="23"/>
+      <c r="W528" s="23"/>
       <c r="X528" s="39"/>
       <c r="Y528" s="39"/>
       <c r="Z528" s="39"/>
@@ -27997,27 +28056,29 @@
       <c r="AC530" s="39"/>
     </row>
     <row r="531" spans="9:32" s="21" customFormat="1">
-      <c r="Q531" s="23"/>
-      <c r="R531" s="23"/>
-      <c r="S531" s="23"/>
-      <c r="T531" s="23"/>
-      <c r="U531" s="23"/>
-      <c r="V531" s="23"/>
-      <c r="W531" s="23"/>
-      <c r="X531" s="39"/>
-      <c r="Y531" s="39"/>
-      <c r="Z531" s="39"/>
-      <c r="AA531" s="39"/>
-      <c r="AB531" s="39"/>
-      <c r="AC531" s="39"/>
+      <c r="Q531" s="39"/>
+      <c r="R531" s="39"/>
+      <c r="S531" s="39"/>
+      <c r="T531" s="39"/>
+      <c r="U531" s="39"/>
+      <c r="V531" s="39"/>
+      <c r="W531" s="39"/>
+      <c r="X531" s="23"/>
+      <c r="Y531" s="23"/>
+      <c r="Z531" s="23"/>
+      <c r="AA531" s="23"/>
+      <c r="AB531" s="23"/>
+      <c r="AC531" s="23"/>
+      <c r="AD531" s="22"/>
+      <c r="AF531" s="22"/>
     </row>
     <row r="532" spans="9:32" s="21" customFormat="1">
-      <c r="Q532" s="39"/>
-      <c r="R532" s="39"/>
-      <c r="S532" s="39"/>
-      <c r="T532" s="39"/>
-      <c r="U532" s="39"/>
-      <c r="V532" s="39"/>
+      <c r="Q532" s="23"/>
+      <c r="R532" s="23"/>
+      <c r="S532" s="23"/>
+      <c r="T532" s="23"/>
+      <c r="U532" s="23"/>
+      <c r="V532" s="23"/>
       <c r="W532" s="39"/>
       <c r="X532" s="23"/>
       <c r="Y532" s="23"/>
@@ -28035,15 +28096,13 @@
       <c r="T533" s="23"/>
       <c r="U533" s="23"/>
       <c r="V533" s="23"/>
-      <c r="W533" s="39"/>
-      <c r="X533" s="23"/>
-      <c r="Y533" s="23"/>
+      <c r="W533" s="23"/>
+      <c r="X533" s="39"/>
+      <c r="Y533" s="39"/>
       <c r="Z533" s="23"/>
       <c r="AA533" s="23"/>
       <c r="AB533" s="23"/>
       <c r="AC533" s="23"/>
-      <c r="AD533" s="22"/>
-      <c r="AF533" s="22"/>
     </row>
     <row r="534" spans="9:32" s="21" customFormat="1">
       <c r="Q534" s="23"/>
@@ -28082,13 +28141,13 @@
       <c r="T536" s="23"/>
       <c r="U536" s="23"/>
       <c r="V536" s="23"/>
-      <c r="W536" s="23"/>
+      <c r="W536" s="39"/>
       <c r="X536" s="39"/>
       <c r="Y536" s="39"/>
-      <c r="Z536" s="23"/>
-      <c r="AA536" s="23"/>
-      <c r="AB536" s="23"/>
-      <c r="AC536" s="23"/>
+      <c r="Z536" s="39"/>
+      <c r="AA536" s="39"/>
+      <c r="AB536" s="39"/>
+      <c r="AC536" s="39"/>
     </row>
     <row r="537" spans="9:32" s="21" customFormat="1">
       <c r="Q537" s="23"/>
@@ -28112,40 +28171,43 @@
       <c r="T538" s="23"/>
       <c r="U538" s="23"/>
       <c r="V538" s="23"/>
-      <c r="W538" s="39"/>
+      <c r="W538" s="23"/>
       <c r="X538" s="39"/>
-      <c r="Y538" s="39"/>
-      <c r="Z538" s="39"/>
-      <c r="AA538" s="39"/>
-      <c r="AB538" s="39"/>
-      <c r="AC538" s="39"/>
+      <c r="Y538" s="23"/>
+      <c r="Z538" s="23"/>
+      <c r="AA538" s="23"/>
+      <c r="AB538" s="23"/>
+      <c r="AC538" s="23"/>
+      <c r="AD538" s="22"/>
+      <c r="AF538" s="22"/>
     </row>
     <row r="539" spans="9:32" s="21" customFormat="1">
-      <c r="Q539" s="23"/>
-      <c r="R539" s="23"/>
-      <c r="S539" s="23"/>
-      <c r="T539" s="23"/>
-      <c r="U539" s="23"/>
-      <c r="V539" s="23"/>
-      <c r="W539" s="23"/>
+      <c r="J539" s="35"/>
+      <c r="K539" s="35"/>
+      <c r="Q539" s="39"/>
+      <c r="R539" s="39"/>
+      <c r="S539" s="39"/>
+      <c r="T539" s="39"/>
+      <c r="U539" s="39"/>
+      <c r="V539" s="39"/>
+      <c r="W539" s="39"/>
       <c r="X539" s="39"/>
-      <c r="Y539" s="23"/>
-      <c r="Z539" s="23"/>
-      <c r="AA539" s="23"/>
-      <c r="AB539" s="23"/>
-      <c r="AC539" s="23"/>
-      <c r="AD539" s="22"/>
-      <c r="AF539" s="22"/>
+      <c r="Y539" s="39"/>
+      <c r="Z539" s="39"/>
+      <c r="AA539" s="39"/>
+      <c r="AB539" s="39"/>
+      <c r="AC539" s="39"/>
     </row>
     <row r="540" spans="9:32" s="21" customFormat="1">
-      <c r="J540" s="35"/>
-      <c r="K540" s="35"/>
-      <c r="Q540" s="39"/>
-      <c r="R540" s="39"/>
-      <c r="S540" s="39"/>
-      <c r="T540" s="39"/>
-      <c r="U540" s="39"/>
-      <c r="V540" s="39"/>
+      <c r="I540" s="35"/>
+      <c r="L540" s="35"/>
+      <c r="M540" s="35"/>
+      <c r="Q540" s="23"/>
+      <c r="R540" s="23"/>
+      <c r="S540" s="23"/>
+      <c r="T540" s="23"/>
+      <c r="U540" s="23"/>
+      <c r="V540" s="23"/>
       <c r="W540" s="39"/>
       <c r="X540" s="39"/>
       <c r="Y540" s="39"/>
@@ -28155,15 +28217,12 @@
       <c r="AC540" s="39"/>
     </row>
     <row r="541" spans="9:32" s="21" customFormat="1">
-      <c r="I541" s="35"/>
-      <c r="L541" s="35"/>
-      <c r="M541" s="35"/>
-      <c r="Q541" s="23"/>
-      <c r="R541" s="23"/>
-      <c r="S541" s="23"/>
-      <c r="T541" s="23"/>
-      <c r="U541" s="23"/>
-      <c r="V541" s="23"/>
+      <c r="Q541" s="39"/>
+      <c r="R541" s="39"/>
+      <c r="S541" s="39"/>
+      <c r="T541" s="39"/>
+      <c r="U541" s="39"/>
+      <c r="V541" s="39"/>
       <c r="W541" s="39"/>
       <c r="X541" s="39"/>
       <c r="Y541" s="39"/>
@@ -28173,19 +28232,19 @@
       <c r="AC541" s="39"/>
     </row>
     <row r="542" spans="9:32" s="21" customFormat="1">
-      <c r="Q542" s="39"/>
-      <c r="R542" s="39"/>
-      <c r="S542" s="39"/>
-      <c r="T542" s="39"/>
-      <c r="U542" s="39"/>
-      <c r="V542" s="39"/>
-      <c r="W542" s="39"/>
+      <c r="Q542" s="23"/>
+      <c r="R542" s="23"/>
+      <c r="S542" s="23"/>
+      <c r="T542" s="23"/>
+      <c r="U542" s="23"/>
+      <c r="V542" s="23"/>
+      <c r="W542" s="23"/>
       <c r="X542" s="39"/>
       <c r="Y542" s="39"/>
-      <c r="Z542" s="39"/>
-      <c r="AA542" s="39"/>
-      <c r="AB542" s="39"/>
-      <c r="AC542" s="39"/>
+      <c r="Z542" s="23"/>
+      <c r="AA542" s="23"/>
+      <c r="AB542" s="23"/>
+      <c r="AC542" s="23"/>
     </row>
     <row r="543" spans="9:32" s="21" customFormat="1">
       <c r="Q543" s="23"/>
@@ -28196,36 +28255,36 @@
       <c r="V543" s="23"/>
       <c r="W543" s="23"/>
       <c r="X543" s="39"/>
-      <c r="Y543" s="39"/>
+      <c r="Y543" s="23"/>
       <c r="Z543" s="23"/>
       <c r="AA543" s="23"/>
       <c r="AB543" s="23"/>
       <c r="AC543" s="23"/>
+      <c r="AD543" s="22"/>
+      <c r="AF543" s="22"/>
     </row>
     <row r="544" spans="9:32" s="21" customFormat="1">
-      <c r="Q544" s="23"/>
-      <c r="R544" s="23"/>
-      <c r="S544" s="23"/>
-      <c r="T544" s="23"/>
-      <c r="U544" s="23"/>
-      <c r="V544" s="23"/>
-      <c r="W544" s="23"/>
+      <c r="Q544" s="39"/>
+      <c r="R544" s="39"/>
+      <c r="S544" s="39"/>
+      <c r="T544" s="39"/>
+      <c r="U544" s="39"/>
+      <c r="V544" s="39"/>
+      <c r="W544" s="39"/>
       <c r="X544" s="39"/>
-      <c r="Y544" s="23"/>
-      <c r="Z544" s="23"/>
-      <c r="AA544" s="23"/>
-      <c r="AB544" s="23"/>
-      <c r="AC544" s="23"/>
-      <c r="AD544" s="22"/>
-      <c r="AF544" s="22"/>
+      <c r="Y544" s="39"/>
+      <c r="Z544" s="39"/>
+      <c r="AA544" s="39"/>
+      <c r="AB544" s="39"/>
+      <c r="AC544" s="39"/>
     </row>
     <row r="545" spans="16:32" s="21" customFormat="1">
-      <c r="Q545" s="39"/>
-      <c r="R545" s="39"/>
-      <c r="S545" s="39"/>
-      <c r="T545" s="39"/>
-      <c r="U545" s="39"/>
-      <c r="V545" s="39"/>
+      <c r="Q545" s="23"/>
+      <c r="R545" s="23"/>
+      <c r="S545" s="23"/>
+      <c r="T545" s="23"/>
+      <c r="U545" s="23"/>
+      <c r="V545" s="23"/>
       <c r="W545" s="39"/>
       <c r="X545" s="39"/>
       <c r="Y545" s="39"/>
@@ -28256,7 +28315,7 @@
       <c r="T547" s="23"/>
       <c r="U547" s="23"/>
       <c r="V547" s="23"/>
-      <c r="W547" s="39"/>
+      <c r="W547" s="23"/>
       <c r="X547" s="39"/>
       <c r="Y547" s="39"/>
       <c r="Z547" s="39"/>
@@ -28280,13 +28339,13 @@
       <c r="AC548" s="39"/>
     </row>
     <row r="549" spans="16:32" s="21" customFormat="1">
-      <c r="Q549" s="23"/>
-      <c r="R549" s="23"/>
-      <c r="S549" s="23"/>
-      <c r="T549" s="23"/>
-      <c r="U549" s="23"/>
-      <c r="V549" s="23"/>
-      <c r="W549" s="23"/>
+      <c r="Q549" s="39"/>
+      <c r="R549" s="39"/>
+      <c r="S549" s="39"/>
+      <c r="T549" s="39"/>
+      <c r="U549" s="39"/>
+      <c r="V549" s="39"/>
+      <c r="W549" s="39"/>
       <c r="X549" s="39"/>
       <c r="Y549" s="39"/>
       <c r="Z549" s="39"/>
@@ -28295,19 +28354,21 @@
       <c r="AC549" s="39"/>
     </row>
     <row r="550" spans="16:32" s="21" customFormat="1">
-      <c r="Q550" s="39"/>
-      <c r="R550" s="39"/>
-      <c r="S550" s="39"/>
-      <c r="T550" s="39"/>
-      <c r="U550" s="39"/>
-      <c r="V550" s="39"/>
+      <c r="Q550" s="23"/>
+      <c r="R550" s="23"/>
+      <c r="S550" s="23"/>
+      <c r="T550" s="23"/>
+      <c r="U550" s="23"/>
+      <c r="V550" s="23"/>
       <c r="W550" s="39"/>
-      <c r="X550" s="39"/>
-      <c r="Y550" s="39"/>
-      <c r="Z550" s="39"/>
-      <c r="AA550" s="39"/>
-      <c r="AB550" s="39"/>
-      <c r="AC550" s="39"/>
+      <c r="X550" s="23"/>
+      <c r="Y550" s="23"/>
+      <c r="Z550" s="23"/>
+      <c r="AA550" s="23"/>
+      <c r="AB550" s="23"/>
+      <c r="AC550" s="23"/>
+      <c r="AD550" s="22"/>
+      <c r="AF550" s="22"/>
     </row>
     <row r="551" spans="16:32" s="21" customFormat="1">
       <c r="Q551" s="23"/>
@@ -28316,15 +28377,13 @@
       <c r="T551" s="23"/>
       <c r="U551" s="23"/>
       <c r="V551" s="23"/>
-      <c r="W551" s="39"/>
-      <c r="X551" s="23"/>
-      <c r="Y551" s="23"/>
-      <c r="Z551" s="23"/>
-      <c r="AA551" s="23"/>
-      <c r="AB551" s="23"/>
-      <c r="AC551" s="23"/>
-      <c r="AD551" s="22"/>
-      <c r="AF551" s="22"/>
+      <c r="W551" s="23"/>
+      <c r="X551" s="39"/>
+      <c r="Y551" s="39"/>
+      <c r="Z551" s="39"/>
+      <c r="AA551" s="39"/>
+      <c r="AB551" s="39"/>
+      <c r="AC551" s="39"/>
     </row>
     <row r="552" spans="16:32" s="21" customFormat="1">
       <c r="Q552" s="23"/>
@@ -28357,34 +28416,34 @@
       <c r="AC553" s="39"/>
     </row>
     <row r="554" spans="16:32" s="21" customFormat="1">
+      <c r="P554" s="22"/>
       <c r="Q554" s="23"/>
       <c r="R554" s="23"/>
       <c r="S554" s="23"/>
       <c r="T554" s="23"/>
       <c r="U554" s="23"/>
       <c r="V554" s="23"/>
-      <c r="W554" s="23"/>
+      <c r="W554" s="39"/>
       <c r="X554" s="39"/>
       <c r="Y554" s="39"/>
       <c r="Z554" s="39"/>
       <c r="AA554" s="39"/>
       <c r="AB554" s="39"/>
-      <c r="AC554" s="39"/>
     </row>
     <row r="555" spans="16:32" s="21" customFormat="1">
-      <c r="P555" s="22"/>
       <c r="Q555" s="23"/>
       <c r="R555" s="23"/>
       <c r="S555" s="23"/>
       <c r="T555" s="23"/>
       <c r="U555" s="23"/>
       <c r="V555" s="23"/>
-      <c r="W555" s="39"/>
+      <c r="W555" s="23"/>
       <c r="X555" s="39"/>
       <c r="Y555" s="39"/>
       <c r="Z555" s="39"/>
       <c r="AA555" s="39"/>
       <c r="AB555" s="39"/>
+      <c r="AC555" s="39"/>
     </row>
     <row r="556" spans="16:32" s="21" customFormat="1">
       <c r="Q556" s="23"/>
@@ -28393,7 +28452,7 @@
       <c r="T556" s="23"/>
       <c r="U556" s="23"/>
       <c r="V556" s="23"/>
-      <c r="W556" s="23"/>
+      <c r="W556" s="39"/>
       <c r="X556" s="39"/>
       <c r="Y556" s="39"/>
       <c r="Z556" s="39"/>
@@ -28423,13 +28482,13 @@
       <c r="T558" s="23"/>
       <c r="U558" s="23"/>
       <c r="V558" s="23"/>
-      <c r="W558" s="39"/>
+      <c r="W558" s="23"/>
       <c r="X558" s="39"/>
       <c r="Y558" s="39"/>
-      <c r="Z558" s="39"/>
-      <c r="AA558" s="39"/>
-      <c r="AB558" s="39"/>
-      <c r="AC558" s="39"/>
+      <c r="Z558" s="23"/>
+      <c r="AA558" s="23"/>
+      <c r="AB558" s="23"/>
+      <c r="AC558" s="23"/>
     </row>
     <row r="559" spans="16:32" s="21" customFormat="1">
       <c r="Q559" s="23"/>
@@ -28455,36 +28514,36 @@
       <c r="V560" s="23"/>
       <c r="W560" s="23"/>
       <c r="X560" s="39"/>
-      <c r="Y560" s="39"/>
+      <c r="Y560" s="23"/>
       <c r="Z560" s="23"/>
       <c r="AA560" s="23"/>
       <c r="AB560" s="23"/>
       <c r="AC560" s="23"/>
-    </row>
-    <row r="561" spans="9:32" s="21" customFormat="1">
-      <c r="Q561" s="23"/>
-      <c r="R561" s="23"/>
-      <c r="S561" s="23"/>
-      <c r="T561" s="23"/>
-      <c r="U561" s="23"/>
-      <c r="V561" s="23"/>
-      <c r="W561" s="23"/>
+      <c r="AD560" s="22"/>
+      <c r="AF560" s="22"/>
+    </row>
+    <row r="561" spans="9:29" s="21" customFormat="1">
+      <c r="Q561" s="39"/>
+      <c r="R561" s="39"/>
+      <c r="S561" s="39"/>
+      <c r="T561" s="39"/>
+      <c r="U561" s="39"/>
+      <c r="V561" s="39"/>
+      <c r="W561" s="39"/>
       <c r="X561" s="39"/>
-      <c r="Y561" s="23"/>
-      <c r="Z561" s="23"/>
-      <c r="AA561" s="23"/>
-      <c r="AB561" s="23"/>
-      <c r="AC561" s="23"/>
-      <c r="AD561" s="22"/>
-      <c r="AF561" s="22"/>
-    </row>
-    <row r="562" spans="9:32" s="21" customFormat="1">
-      <c r="Q562" s="39"/>
-      <c r="R562" s="39"/>
-      <c r="S562" s="39"/>
-      <c r="T562" s="39"/>
-      <c r="U562" s="39"/>
-      <c r="V562" s="39"/>
+      <c r="Y561" s="39"/>
+      <c r="Z561" s="39"/>
+      <c r="AA561" s="39"/>
+      <c r="AB561" s="39"/>
+      <c r="AC561" s="39"/>
+    </row>
+    <row r="562" spans="9:29" s="21" customFormat="1">
+      <c r="Q562" s="23"/>
+      <c r="R562" s="23"/>
+      <c r="S562" s="23"/>
+      <c r="T562" s="23"/>
+      <c r="U562" s="23"/>
+      <c r="V562" s="23"/>
       <c r="W562" s="39"/>
       <c r="X562" s="39"/>
       <c r="Y562" s="39"/>
@@ -28493,7 +28552,7 @@
       <c r="AB562" s="39"/>
       <c r="AC562" s="39"/>
     </row>
-    <row r="563" spans="9:32" s="21" customFormat="1">
+    <row r="563" spans="9:29" s="21" customFormat="1">
       <c r="Q563" s="23"/>
       <c r="R563" s="23"/>
       <c r="S563" s="23"/>
@@ -28508,14 +28567,14 @@
       <c r="AB563" s="39"/>
       <c r="AC563" s="39"/>
     </row>
-    <row r="564" spans="9:32" s="21" customFormat="1">
+    <row r="564" spans="9:29" s="21" customFormat="1">
       <c r="Q564" s="23"/>
       <c r="R564" s="23"/>
       <c r="S564" s="23"/>
       <c r="T564" s="23"/>
       <c r="U564" s="23"/>
       <c r="V564" s="23"/>
-      <c r="W564" s="39"/>
+      <c r="W564" s="23"/>
       <c r="X564" s="39"/>
       <c r="Y564" s="39"/>
       <c r="Z564" s="39"/>
@@ -28523,7 +28582,7 @@
       <c r="AB564" s="39"/>
       <c r="AC564" s="39"/>
     </row>
-    <row r="565" spans="9:32" s="21" customFormat="1">
+    <row r="565" spans="9:29" s="21" customFormat="1">
       <c r="Q565" s="23"/>
       <c r="R565" s="23"/>
       <c r="S565" s="23"/>
@@ -28538,14 +28597,14 @@
       <c r="AB565" s="39"/>
       <c r="AC565" s="39"/>
     </row>
-    <row r="566" spans="9:32" s="21" customFormat="1">
-      <c r="Q566" s="23"/>
-      <c r="R566" s="23"/>
-      <c r="S566" s="23"/>
-      <c r="T566" s="23"/>
-      <c r="U566" s="23"/>
-      <c r="V566" s="23"/>
-      <c r="W566" s="23"/>
+    <row r="566" spans="9:29" s="21" customFormat="1">
+      <c r="Q566" s="39"/>
+      <c r="R566" s="39"/>
+      <c r="S566" s="39"/>
+      <c r="T566" s="39"/>
+      <c r="U566" s="39"/>
+      <c r="V566" s="39"/>
+      <c r="W566" s="39"/>
       <c r="X566" s="39"/>
       <c r="Y566" s="39"/>
       <c r="Z566" s="39"/>
@@ -28553,13 +28612,13 @@
       <c r="AB566" s="39"/>
       <c r="AC566" s="39"/>
     </row>
-    <row r="567" spans="9:32" s="21" customFormat="1">
-      <c r="Q567" s="39"/>
-      <c r="R567" s="39"/>
-      <c r="S567" s="39"/>
-      <c r="T567" s="39"/>
-      <c r="U567" s="39"/>
-      <c r="V567" s="39"/>
+    <row r="567" spans="9:29" s="21" customFormat="1">
+      <c r="Q567" s="23"/>
+      <c r="R567" s="23"/>
+      <c r="S567" s="23"/>
+      <c r="T567" s="23"/>
+      <c r="U567" s="23"/>
+      <c r="V567" s="23"/>
       <c r="W567" s="39"/>
       <c r="X567" s="39"/>
       <c r="Y567" s="39"/>
@@ -28568,7 +28627,7 @@
       <c r="AB567" s="39"/>
       <c r="AC567" s="39"/>
     </row>
-    <row r="568" spans="9:32" s="21" customFormat="1">
+    <row r="568" spans="9:29" s="21" customFormat="1">
       <c r="Q568" s="23"/>
       <c r="R568" s="23"/>
       <c r="S568" s="23"/>
@@ -28583,7 +28642,9 @@
       <c r="AB568" s="39"/>
       <c r="AC568" s="39"/>
     </row>
-    <row r="569" spans="9:32" s="21" customFormat="1">
+    <row r="569" spans="9:29" s="21" customFormat="1">
+      <c r="J569" s="1"/>
+      <c r="K569" s="1"/>
       <c r="Q569" s="23"/>
       <c r="R569" s="23"/>
       <c r="S569" s="23"/>
@@ -28598,26 +28659,26 @@
       <c r="AB569" s="39"/>
       <c r="AC569" s="39"/>
     </row>
-    <row r="570" spans="9:32" s="21" customFormat="1">
-      <c r="J570" s="1"/>
-      <c r="K570" s="1"/>
-      <c r="Q570" s="23"/>
-      <c r="R570" s="23"/>
-      <c r="S570" s="23"/>
-      <c r="T570" s="23"/>
-      <c r="U570" s="23"/>
-      <c r="V570" s="23"/>
-      <c r="W570" s="39"/>
-      <c r="X570" s="39"/>
-      <c r="Y570" s="39"/>
-      <c r="Z570" s="39"/>
-      <c r="AA570" s="39"/>
-      <c r="AB570" s="39"/>
-      <c r="AC570" s="39"/>
-    </row>
-    <row r="571" spans="9:32">
-      <c r="J571" s="35"/>
-      <c r="K571" s="35"/>
+    <row r="570" spans="9:29">
+      <c r="J570" s="35"/>
+      <c r="K570" s="35"/>
+      <c r="Q570" s="20"/>
+      <c r="R570" s="20"/>
+      <c r="S570" s="20"/>
+      <c r="T570" s="20"/>
+      <c r="U570" s="20"/>
+      <c r="V570" s="20"/>
+      <c r="W570" s="20"/>
+      <c r="X570" s="15"/>
+      <c r="Y570" s="15"/>
+      <c r="Z570" s="15"/>
+      <c r="AA570" s="15"/>
+      <c r="AB570" s="15"/>
+      <c r="AC570" s="15"/>
+    </row>
+    <row r="571" spans="9:29">
+      <c r="I571" s="35"/>
+      <c r="L571" s="35"/>
       <c r="Q571" s="20"/>
       <c r="R571" s="20"/>
       <c r="S571" s="20"/>
@@ -28632,9 +28693,9 @@
       <c r="AB571" s="15"/>
       <c r="AC571" s="15"/>
     </row>
-    <row r="572" spans="9:32">
-      <c r="I572" s="35"/>
-      <c r="L572" s="35"/>
+    <row r="572" spans="9:29">
+      <c r="J572" s="35"/>
+      <c r="K572" s="35"/>
       <c r="Q572" s="20"/>
       <c r="R572" s="20"/>
       <c r="S572" s="20"/>
@@ -28649,9 +28710,9 @@
       <c r="AB572" s="15"/>
       <c r="AC572" s="15"/>
     </row>
-    <row r="573" spans="9:32">
-      <c r="J573" s="35"/>
-      <c r="K573" s="35"/>
+    <row r="573" spans="9:29">
+      <c r="I573" s="35"/>
+      <c r="L573" s="35"/>
       <c r="Q573" s="20"/>
       <c r="R573" s="20"/>
       <c r="S573" s="20"/>
@@ -28666,16 +28727,14 @@
       <c r="AB573" s="15"/>
       <c r="AC573" s="15"/>
     </row>
-    <row r="574" spans="9:32">
-      <c r="I574" s="35"/>
-      <c r="L574" s="35"/>
+    <row r="574" spans="9:29">
       <c r="Q574" s="20"/>
       <c r="R574" s="20"/>
       <c r="S574" s="20"/>
       <c r="T574" s="20"/>
       <c r="U574" s="20"/>
       <c r="V574" s="20"/>
-      <c r="W574" s="20"/>
+      <c r="W574" s="15"/>
       <c r="X574" s="15"/>
       <c r="Y574" s="15"/>
       <c r="Z574" s="15"/>
@@ -28683,14 +28742,14 @@
       <c r="AB574" s="15"/>
       <c r="AC574" s="15"/>
     </row>
-    <row r="575" spans="9:32">
+    <row r="575" spans="9:29">
       <c r="Q575" s="20"/>
       <c r="R575" s="20"/>
       <c r="S575" s="20"/>
       <c r="T575" s="20"/>
       <c r="U575" s="20"/>
       <c r="V575" s="20"/>
-      <c r="W575" s="15"/>
+      <c r="W575" s="20"/>
       <c r="X575" s="15"/>
       <c r="Y575" s="15"/>
       <c r="Z575" s="15"/>
@@ -28698,14 +28757,14 @@
       <c r="AB575" s="15"/>
       <c r="AC575" s="15"/>
     </row>
-    <row r="576" spans="9:32">
+    <row r="576" spans="9:29">
       <c r="Q576" s="20"/>
       <c r="R576" s="20"/>
       <c r="S576" s="20"/>
       <c r="T576" s="20"/>
       <c r="U576" s="20"/>
       <c r="V576" s="20"/>
-      <c r="W576" s="20"/>
+      <c r="W576" s="15"/>
       <c r="X576" s="15"/>
       <c r="Y576" s="15"/>
       <c r="Z576" s="15"/>
@@ -28713,7 +28772,8 @@
       <c r="AB576" s="15"/>
       <c r="AC576" s="15"/>
     </row>
-    <row r="577" spans="12:29">
+    <row r="577" spans="10:29">
+      <c r="L577" s="18"/>
       <c r="Q577" s="20"/>
       <c r="R577" s="20"/>
       <c r="S577" s="20"/>
@@ -28728,8 +28788,7 @@
       <c r="AB577" s="15"/>
       <c r="AC577" s="15"/>
     </row>
-    <row r="578" spans="12:29">
-      <c r="L578" s="18"/>
+    <row r="578" spans="10:29">
       <c r="Q578" s="20"/>
       <c r="R578" s="20"/>
       <c r="S578" s="20"/>
@@ -28744,14 +28803,14 @@
       <c r="AB578" s="15"/>
       <c r="AC578" s="15"/>
     </row>
-    <row r="579" spans="12:29">
+    <row r="579" spans="10:29">
       <c r="Q579" s="20"/>
       <c r="R579" s="20"/>
       <c r="S579" s="20"/>
       <c r="T579" s="20"/>
       <c r="U579" s="20"/>
       <c r="V579" s="20"/>
-      <c r="W579" s="15"/>
+      <c r="W579" s="20"/>
       <c r="X579" s="15"/>
       <c r="Y579" s="15"/>
       <c r="Z579" s="15"/>
@@ -28759,22 +28818,22 @@
       <c r="AB579" s="15"/>
       <c r="AC579" s="15"/>
     </row>
-    <row r="580" spans="12:29">
+    <row r="580" spans="10:29">
       <c r="Q580" s="20"/>
       <c r="R580" s="20"/>
       <c r="S580" s="20"/>
       <c r="T580" s="20"/>
       <c r="U580" s="20"/>
       <c r="V580" s="20"/>
-      <c r="W580" s="20"/>
+      <c r="W580" s="15"/>
       <c r="X580" s="15"/>
-      <c r="Y580" s="15"/>
+      <c r="Y580" s="20"/>
       <c r="Z580" s="15"/>
       <c r="AA580" s="15"/>
       <c r="AB580" s="15"/>
       <c r="AC580" s="15"/>
     </row>
-    <row r="581" spans="12:29">
+    <row r="581" spans="10:29">
       <c r="Q581" s="20"/>
       <c r="R581" s="20"/>
       <c r="S581" s="20"/>
@@ -28783,20 +28842,20 @@
       <c r="V581" s="20"/>
       <c r="W581" s="15"/>
       <c r="X581" s="15"/>
-      <c r="Y581" s="20"/>
+      <c r="Y581" s="15"/>
       <c r="Z581" s="15"/>
       <c r="AA581" s="15"/>
       <c r="AB581" s="15"/>
       <c r="AC581" s="15"/>
     </row>
-    <row r="582" spans="12:29">
+    <row r="582" spans="10:29">
       <c r="Q582" s="20"/>
       <c r="R582" s="20"/>
       <c r="S582" s="20"/>
       <c r="T582" s="20"/>
       <c r="U582" s="20"/>
       <c r="V582" s="20"/>
-      <c r="W582" s="15"/>
+      <c r="W582" s="20"/>
       <c r="X582" s="15"/>
       <c r="Y582" s="15"/>
       <c r="Z582" s="15"/>
@@ -28804,14 +28863,14 @@
       <c r="AB582" s="15"/>
       <c r="AC582" s="15"/>
     </row>
-    <row r="583" spans="12:29">
+    <row r="583" spans="10:29">
       <c r="Q583" s="20"/>
       <c r="R583" s="20"/>
       <c r="S583" s="20"/>
       <c r="T583" s="20"/>
       <c r="U583" s="20"/>
       <c r="V583" s="20"/>
-      <c r="W583" s="20"/>
+      <c r="W583" s="15"/>
       <c r="X583" s="15"/>
       <c r="Y583" s="15"/>
       <c r="Z583" s="15"/>
@@ -28819,7 +28878,8 @@
       <c r="AB583" s="15"/>
       <c r="AC583" s="15"/>
     </row>
-    <row r="584" spans="12:29">
+    <row r="584" spans="10:29">
+      <c r="L584" s="18"/>
       <c r="Q584" s="20"/>
       <c r="R584" s="20"/>
       <c r="S584" s="20"/>
@@ -28834,15 +28894,14 @@
       <c r="AB584" s="15"/>
       <c r="AC584" s="15"/>
     </row>
-    <row r="585" spans="12:29">
-      <c r="L585" s="18"/>
+    <row r="585" spans="10:29">
       <c r="Q585" s="20"/>
       <c r="R585" s="20"/>
       <c r="S585" s="20"/>
       <c r="T585" s="20"/>
       <c r="U585" s="20"/>
       <c r="V585" s="20"/>
-      <c r="W585" s="15"/>
+      <c r="W585" s="20"/>
       <c r="X585" s="15"/>
       <c r="Y585" s="15"/>
       <c r="Z585" s="15"/>
@@ -28850,7 +28909,7 @@
       <c r="AB585" s="15"/>
       <c r="AC585" s="15"/>
     </row>
-    <row r="586" spans="12:29">
+    <row r="586" spans="10:29">
       <c r="Q586" s="20"/>
       <c r="R586" s="20"/>
       <c r="S586" s="20"/>
@@ -28865,22 +28924,22 @@
       <c r="AB586" s="15"/>
       <c r="AC586" s="15"/>
     </row>
-    <row r="587" spans="12:29">
+    <row r="587" spans="10:29">
       <c r="Q587" s="20"/>
       <c r="R587" s="20"/>
       <c r="S587" s="20"/>
       <c r="T587" s="20"/>
       <c r="U587" s="20"/>
       <c r="V587" s="20"/>
-      <c r="W587" s="20"/>
+      <c r="W587" s="15"/>
       <c r="X587" s="15"/>
-      <c r="Y587" s="15"/>
+      <c r="Y587" s="20"/>
       <c r="Z587" s="15"/>
       <c r="AA587" s="15"/>
       <c r="AB587" s="15"/>
       <c r="AC587" s="15"/>
     </row>
-    <row r="588" spans="12:29">
+    <row r="588" spans="10:29">
       <c r="Q588" s="20"/>
       <c r="R588" s="20"/>
       <c r="S588" s="20"/>
@@ -28889,13 +28948,14 @@
       <c r="V588" s="20"/>
       <c r="W588" s="15"/>
       <c r="X588" s="15"/>
-      <c r="Y588" s="20"/>
+      <c r="Y588" s="15"/>
       <c r="Z588" s="15"/>
       <c r="AA588" s="15"/>
       <c r="AB588" s="15"/>
       <c r="AC588" s="15"/>
     </row>
-    <row r="589" spans="12:29">
+    <row r="589" spans="10:29">
+      <c r="L589" s="18"/>
       <c r="Q589" s="20"/>
       <c r="R589" s="20"/>
       <c r="S589" s="20"/>
@@ -28910,8 +28970,7 @@
       <c r="AB589" s="15"/>
       <c r="AC589" s="15"/>
     </row>
-    <row r="590" spans="12:29">
-      <c r="L590" s="18"/>
+    <row r="590" spans="10:29">
       <c r="Q590" s="20"/>
       <c r="R590" s="20"/>
       <c r="S590" s="20"/>
@@ -28926,14 +28985,14 @@
       <c r="AB590" s="15"/>
       <c r="AC590" s="15"/>
     </row>
-    <row r="591" spans="12:29">
+    <row r="591" spans="10:29">
       <c r="Q591" s="20"/>
       <c r="R591" s="20"/>
       <c r="S591" s="20"/>
       <c r="T591" s="20"/>
       <c r="U591" s="20"/>
       <c r="V591" s="20"/>
-      <c r="W591" s="15"/>
+      <c r="W591" s="20"/>
       <c r="X591" s="15"/>
       <c r="Y591" s="15"/>
       <c r="Z591" s="15"/>
@@ -28941,7 +29000,9 @@
       <c r="AB591" s="15"/>
       <c r="AC591" s="15"/>
     </row>
-    <row r="592" spans="12:29">
+    <row r="592" spans="10:29">
+      <c r="J592" s="35"/>
+      <c r="K592" s="35"/>
       <c r="Q592" s="20"/>
       <c r="R592" s="20"/>
       <c r="S592" s="20"/>
@@ -28957,8 +29018,8 @@
       <c r="AC592" s="15"/>
     </row>
     <row r="593" spans="9:29">
-      <c r="J593" s="35"/>
-      <c r="K593" s="35"/>
+      <c r="I593" s="35"/>
+      <c r="L593" s="35"/>
       <c r="Q593" s="20"/>
       <c r="R593" s="20"/>
       <c r="S593" s="20"/>
@@ -28974,15 +29035,13 @@
       <c r="AC593" s="15"/>
     </row>
     <row r="594" spans="9:29">
-      <c r="I594" s="35"/>
-      <c r="L594" s="35"/>
       <c r="Q594" s="20"/>
       <c r="R594" s="20"/>
       <c r="S594" s="20"/>
       <c r="T594" s="20"/>
       <c r="U594" s="20"/>
       <c r="V594" s="20"/>
-      <c r="W594" s="20"/>
+      <c r="W594" s="15"/>
       <c r="X594" s="15"/>
       <c r="Y594" s="15"/>
       <c r="Z594" s="15"/>
@@ -28997,7 +29056,7 @@
       <c r="T595" s="20"/>
       <c r="U595" s="20"/>
       <c r="V595" s="20"/>
-      <c r="W595" s="15"/>
+      <c r="W595" s="20"/>
       <c r="X595" s="15"/>
       <c r="Y595" s="15"/>
       <c r="Z595" s="15"/>
@@ -29006,13 +29065,13 @@
       <c r="AC595" s="15"/>
     </row>
     <row r="596" spans="9:29">
-      <c r="Q596" s="20"/>
-      <c r="R596" s="20"/>
-      <c r="S596" s="20"/>
-      <c r="T596" s="20"/>
-      <c r="U596" s="20"/>
-      <c r="V596" s="20"/>
-      <c r="W596" s="20"/>
+      <c r="Q596" s="15"/>
+      <c r="R596" s="15"/>
+      <c r="S596" s="15"/>
+      <c r="T596" s="15"/>
+      <c r="U596" s="15"/>
+      <c r="V596" s="15"/>
+      <c r="W596" s="15"/>
       <c r="X596" s="15"/>
       <c r="Y596" s="15"/>
       <c r="Z596" s="15"/>
@@ -29021,12 +29080,12 @@
       <c r="AC596" s="15"/>
     </row>
     <row r="597" spans="9:29">
-      <c r="Q597" s="15"/>
-      <c r="R597" s="15"/>
-      <c r="S597" s="15"/>
-      <c r="T597" s="15"/>
-      <c r="U597" s="15"/>
-      <c r="V597" s="15"/>
+      <c r="Q597" s="20"/>
+      <c r="R597" s="20"/>
+      <c r="S597" s="20"/>
+      <c r="T597" s="20"/>
+      <c r="U597" s="20"/>
+      <c r="V597" s="20"/>
       <c r="W597" s="15"/>
       <c r="X597" s="15"/>
       <c r="Y597" s="15"/>
@@ -29072,7 +29131,7 @@
       <c r="T600" s="20"/>
       <c r="U600" s="20"/>
       <c r="V600" s="20"/>
-      <c r="W600" s="15"/>
+      <c r="W600" s="20"/>
       <c r="X600" s="15"/>
       <c r="Y600" s="15"/>
       <c r="Z600" s="15"/>
@@ -29081,6 +29140,8 @@
       <c r="AC600" s="15"/>
     </row>
     <row r="601" spans="9:29">
+      <c r="J601" s="35"/>
+      <c r="K601" s="35"/>
       <c r="Q601" s="20"/>
       <c r="R601" s="20"/>
       <c r="S601" s="20"/>
@@ -29096,8 +29157,8 @@
       <c r="AC601" s="15"/>
     </row>
     <row r="602" spans="9:29">
-      <c r="J602" s="35"/>
-      <c r="K602" s="35"/>
+      <c r="I602" s="35"/>
+      <c r="L602" s="35"/>
       <c r="Q602" s="20"/>
       <c r="R602" s="20"/>
       <c r="S602" s="20"/>
@@ -29113,15 +29174,13 @@
       <c r="AC602" s="15"/>
     </row>
     <row r="603" spans="9:29">
-      <c r="I603" s="35"/>
-      <c r="L603" s="35"/>
       <c r="Q603" s="20"/>
       <c r="R603" s="20"/>
       <c r="S603" s="20"/>
       <c r="T603" s="20"/>
       <c r="U603" s="20"/>
       <c r="V603" s="20"/>
-      <c r="W603" s="20"/>
+      <c r="W603" s="15"/>
       <c r="X603" s="15"/>
       <c r="Y603" s="15"/>
       <c r="Z603" s="15"/>
@@ -29136,7 +29195,7 @@
       <c r="T604" s="20"/>
       <c r="U604" s="20"/>
       <c r="V604" s="20"/>
-      <c r="W604" s="15"/>
+      <c r="W604" s="20"/>
       <c r="X604" s="15"/>
       <c r="Y604" s="15"/>
       <c r="Z604" s="15"/>
@@ -29145,13 +29204,13 @@
       <c r="AC604" s="15"/>
     </row>
     <row r="605" spans="9:29">
-      <c r="Q605" s="20"/>
-      <c r="R605" s="20"/>
-      <c r="S605" s="20"/>
-      <c r="T605" s="20"/>
-      <c r="U605" s="20"/>
-      <c r="V605" s="20"/>
-      <c r="W605" s="20"/>
+      <c r="Q605" s="15"/>
+      <c r="R605" s="15"/>
+      <c r="S605" s="15"/>
+      <c r="T605" s="15"/>
+      <c r="U605" s="15"/>
+      <c r="V605" s="15"/>
+      <c r="W605" s="15"/>
       <c r="X605" s="15"/>
       <c r="Y605" s="15"/>
       <c r="Z605" s="15"/>
@@ -29160,13 +29219,13 @@
       <c r="AC605" s="15"/>
     </row>
     <row r="606" spans="9:29">
-      <c r="Q606" s="15"/>
-      <c r="R606" s="15"/>
-      <c r="S606" s="15"/>
-      <c r="T606" s="15"/>
-      <c r="U606" s="15"/>
-      <c r="V606" s="15"/>
-      <c r="W606" s="15"/>
+      <c r="Q606" s="20"/>
+      <c r="R606" s="20"/>
+      <c r="S606" s="20"/>
+      <c r="T606" s="20"/>
+      <c r="U606" s="20"/>
+      <c r="V606" s="20"/>
+      <c r="W606" s="20"/>
       <c r="X606" s="15"/>
       <c r="Y606" s="15"/>
       <c r="Z606" s="15"/>
@@ -29175,6 +29234,8 @@
       <c r="AC606" s="15"/>
     </row>
     <row r="607" spans="9:29">
+      <c r="J607" s="35"/>
+      <c r="K607" s="35"/>
       <c r="Q607" s="20"/>
       <c r="R607" s="20"/>
       <c r="S607" s="20"/>
@@ -29190,8 +29251,8 @@
       <c r="AC607" s="15"/>
     </row>
     <row r="608" spans="9:29">
-      <c r="J608" s="35"/>
-      <c r="K608" s="35"/>
+      <c r="I608" s="35"/>
+      <c r="L608" s="35"/>
       <c r="Q608" s="20"/>
       <c r="R608" s="20"/>
       <c r="S608" s="20"/>
@@ -29207,8 +29268,6 @@
       <c r="AC608" s="15"/>
     </row>
     <row r="609" spans="9:29">
-      <c r="I609" s="35"/>
-      <c r="L609" s="35"/>
       <c r="Q609" s="20"/>
       <c r="R609" s="20"/>
       <c r="S609" s="20"/>
@@ -29230,7 +29289,7 @@
       <c r="T610" s="20"/>
       <c r="U610" s="20"/>
       <c r="V610" s="20"/>
-      <c r="W610" s="20"/>
+      <c r="W610" s="15"/>
       <c r="X610" s="15"/>
       <c r="Y610" s="15"/>
       <c r="Z610" s="15"/>
@@ -29239,12 +29298,12 @@
       <c r="AC610" s="15"/>
     </row>
     <row r="611" spans="9:29">
-      <c r="Q611" s="20"/>
-      <c r="R611" s="20"/>
-      <c r="S611" s="20"/>
-      <c r="T611" s="20"/>
-      <c r="U611" s="20"/>
-      <c r="V611" s="20"/>
+      <c r="Q611" s="15"/>
+      <c r="R611" s="15"/>
+      <c r="S611" s="15"/>
+      <c r="T611" s="15"/>
+      <c r="U611" s="15"/>
+      <c r="V611" s="15"/>
       <c r="W611" s="15"/>
       <c r="X611" s="15"/>
       <c r="Y611" s="15"/>
@@ -29254,13 +29313,13 @@
       <c r="AC611" s="15"/>
     </row>
     <row r="612" spans="9:29">
-      <c r="Q612" s="15"/>
-      <c r="R612" s="15"/>
-      <c r="S612" s="15"/>
-      <c r="T612" s="15"/>
-      <c r="U612" s="15"/>
-      <c r="V612" s="15"/>
-      <c r="W612" s="15"/>
+      <c r="Q612" s="20"/>
+      <c r="R612" s="20"/>
+      <c r="S612" s="20"/>
+      <c r="T612" s="20"/>
+      <c r="U612" s="20"/>
+      <c r="V612" s="20"/>
+      <c r="W612" s="20"/>
       <c r="X612" s="15"/>
       <c r="Y612" s="15"/>
       <c r="Z612" s="15"/>
@@ -29284,13 +29343,13 @@
       <c r="AC613" s="15"/>
     </row>
     <row r="614" spans="9:29">
-      <c r="Q614" s="20"/>
-      <c r="R614" s="20"/>
-      <c r="S614" s="20"/>
-      <c r="T614" s="20"/>
-      <c r="U614" s="20"/>
-      <c r="V614" s="20"/>
-      <c r="W614" s="20"/>
+      <c r="Q614" s="15"/>
+      <c r="R614" s="15"/>
+      <c r="S614" s="15"/>
+      <c r="T614" s="15"/>
+      <c r="U614" s="15"/>
+      <c r="V614" s="15"/>
+      <c r="W614" s="15"/>
       <c r="X614" s="15"/>
       <c r="Y614" s="15"/>
       <c r="Z614" s="15"/>
@@ -29299,12 +29358,12 @@
       <c r="AC614" s="15"/>
     </row>
     <row r="615" spans="9:29">
-      <c r="Q615" s="15"/>
-      <c r="R615" s="15"/>
-      <c r="S615" s="15"/>
-      <c r="T615" s="15"/>
-      <c r="U615" s="15"/>
-      <c r="V615" s="15"/>
+      <c r="Q615" s="20"/>
+      <c r="R615" s="20"/>
+      <c r="S615" s="20"/>
+      <c r="T615" s="20"/>
+      <c r="U615" s="20"/>
+      <c r="V615" s="20"/>
       <c r="W615" s="15"/>
       <c r="X615" s="15"/>
       <c r="Y615" s="15"/>
@@ -29320,7 +29379,7 @@
       <c r="T616" s="20"/>
       <c r="U616" s="20"/>
       <c r="V616" s="20"/>
-      <c r="W616" s="15"/>
+      <c r="W616" s="20"/>
       <c r="X616" s="15"/>
       <c r="Y616" s="15"/>
       <c r="Z616" s="15"/>
@@ -29380,7 +29439,7 @@
       <c r="T620" s="20"/>
       <c r="U620" s="20"/>
       <c r="V620" s="20"/>
-      <c r="W620" s="20"/>
+      <c r="W620" s="15"/>
       <c r="X620" s="15"/>
       <c r="Y620" s="15"/>
       <c r="Z620" s="15"/>
@@ -29389,13 +29448,15 @@
       <c r="AC620" s="15"/>
     </row>
     <row r="621" spans="9:29">
+      <c r="J621" s="35"/>
+      <c r="K621" s="35"/>
       <c r="Q621" s="20"/>
       <c r="R621" s="20"/>
       <c r="S621" s="20"/>
       <c r="T621" s="20"/>
       <c r="U621" s="20"/>
       <c r="V621" s="20"/>
-      <c r="W621" s="15"/>
+      <c r="W621" s="20"/>
       <c r="X621" s="15"/>
       <c r="Y621" s="15"/>
       <c r="Z621" s="15"/>
@@ -29404,8 +29465,8 @@
       <c r="AC621" s="15"/>
     </row>
     <row r="622" spans="9:29">
-      <c r="J622" s="35"/>
-      <c r="K622" s="35"/>
+      <c r="I622" s="35"/>
+      <c r="L622" s="35"/>
       <c r="Q622" s="20"/>
       <c r="R622" s="20"/>
       <c r="S622" s="20"/>
@@ -29421,8 +29482,8 @@
       <c r="AC622" s="15"/>
     </row>
     <row r="623" spans="9:29">
-      <c r="I623" s="35"/>
-      <c r="L623" s="35"/>
+      <c r="J623" s="35"/>
+      <c r="K623" s="35"/>
       <c r="Q623" s="20"/>
       <c r="R623" s="20"/>
       <c r="S623" s="20"/>
@@ -29438,8 +29499,8 @@
       <c r="AC623" s="15"/>
     </row>
     <row r="624" spans="9:29">
-      <c r="J624" s="35"/>
-      <c r="K624" s="35"/>
+      <c r="I624" s="35"/>
+      <c r="L624" s="35"/>
       <c r="Q624" s="20"/>
       <c r="R624" s="20"/>
       <c r="S624" s="20"/>
@@ -29455,15 +29516,13 @@
       <c r="AC624" s="15"/>
     </row>
     <row r="625" spans="9:29">
-      <c r="I625" s="35"/>
-      <c r="L625" s="35"/>
       <c r="Q625" s="20"/>
       <c r="R625" s="20"/>
       <c r="S625" s="20"/>
       <c r="T625" s="20"/>
       <c r="U625" s="20"/>
       <c r="V625" s="20"/>
-      <c r="W625" s="20"/>
+      <c r="W625" s="15"/>
       <c r="X625" s="15"/>
       <c r="Y625" s="15"/>
       <c r="Z625" s="15"/>
@@ -29508,7 +29567,7 @@
       <c r="T628" s="20"/>
       <c r="U628" s="20"/>
       <c r="V628" s="20"/>
-      <c r="W628" s="15"/>
+      <c r="W628" s="20"/>
       <c r="X628" s="15"/>
       <c r="Y628" s="15"/>
       <c r="Z628" s="15"/>
@@ -29532,13 +29591,13 @@
       <c r="AC629" s="15"/>
     </row>
     <row r="630" spans="9:29">
-      <c r="Q630" s="20"/>
-      <c r="R630" s="20"/>
-      <c r="S630" s="20"/>
-      <c r="T630" s="20"/>
-      <c r="U630" s="20"/>
-      <c r="V630" s="20"/>
-      <c r="W630" s="20"/>
+      <c r="Q630" s="15"/>
+      <c r="R630" s="15"/>
+      <c r="S630" s="15"/>
+      <c r="T630" s="15"/>
+      <c r="U630" s="15"/>
+      <c r="V630" s="15"/>
+      <c r="W630" s="15"/>
       <c r="X630" s="15"/>
       <c r="Y630" s="15"/>
       <c r="Z630" s="15"/>
@@ -29562,14 +29621,15 @@
       <c r="AC631" s="15"/>
     </row>
     <row r="632" spans="9:29">
-      <c r="Q632" s="15"/>
-      <c r="R632" s="15"/>
-      <c r="S632" s="15"/>
-      <c r="T632" s="15"/>
-      <c r="U632" s="15"/>
-      <c r="V632" s="15"/>
-      <c r="W632" s="15"/>
-      <c r="X632" s="15"/>
+      <c r="P632" s="18"/>
+      <c r="Q632" s="20"/>
+      <c r="R632" s="20"/>
+      <c r="S632" s="20"/>
+      <c r="T632" s="20"/>
+      <c r="U632" s="20"/>
+      <c r="V632" s="20"/>
+      <c r="W632" s="20"/>
+      <c r="X632" s="20"/>
       <c r="Y632" s="15"/>
       <c r="Z632" s="15"/>
       <c r="AA632" s="15"/>
@@ -29577,15 +29637,14 @@
       <c r="AC632" s="15"/>
     </row>
     <row r="633" spans="9:29">
-      <c r="P633" s="18"/>
       <c r="Q633" s="20"/>
       <c r="R633" s="20"/>
       <c r="S633" s="20"/>
       <c r="T633" s="20"/>
       <c r="U633" s="20"/>
       <c r="V633" s="20"/>
-      <c r="W633" s="20"/>
-      <c r="X633" s="20"/>
+      <c r="W633" s="15"/>
+      <c r="X633" s="15"/>
       <c r="Y633" s="15"/>
       <c r="Z633" s="15"/>
       <c r="AA633" s="15"/>
@@ -29614,7 +29673,7 @@
       <c r="T635" s="20"/>
       <c r="U635" s="20"/>
       <c r="V635" s="20"/>
-      <c r="W635" s="15"/>
+      <c r="W635" s="20"/>
       <c r="X635" s="15"/>
       <c r="Y635" s="15"/>
       <c r="Z635" s="15"/>
@@ -29623,6 +29682,8 @@
       <c r="AC635" s="15"/>
     </row>
     <row r="636" spans="9:29">
+      <c r="J636" s="35"/>
+      <c r="K636" s="35"/>
       <c r="Q636" s="20"/>
       <c r="R636" s="20"/>
       <c r="S636" s="20"/>
@@ -29638,8 +29699,8 @@
       <c r="AC636" s="15"/>
     </row>
     <row r="637" spans="9:29">
-      <c r="J637" s="35"/>
-      <c r="K637" s="35"/>
+      <c r="I637" s="35"/>
+      <c r="L637" s="35"/>
       <c r="Q637" s="20"/>
       <c r="R637" s="20"/>
       <c r="S637" s="20"/>
@@ -29655,15 +29716,13 @@
       <c r="AC637" s="15"/>
     </row>
     <row r="638" spans="9:29">
-      <c r="I638" s="35"/>
-      <c r="L638" s="35"/>
       <c r="Q638" s="20"/>
       <c r="R638" s="20"/>
       <c r="S638" s="20"/>
       <c r="T638" s="20"/>
       <c r="U638" s="20"/>
       <c r="V638" s="20"/>
-      <c r="W638" s="20"/>
+      <c r="W638" s="15"/>
       <c r="X638" s="15"/>
       <c r="Y638" s="15"/>
       <c r="Z638" s="15"/>
@@ -29678,7 +29737,7 @@
       <c r="T639" s="20"/>
       <c r="U639" s="20"/>
       <c r="V639" s="20"/>
-      <c r="W639" s="15"/>
+      <c r="W639" s="20"/>
       <c r="X639" s="15"/>
       <c r="Y639" s="15"/>
       <c r="Z639" s="15"/>
@@ -29687,13 +29746,13 @@
       <c r="AC639" s="15"/>
     </row>
     <row r="640" spans="9:29">
-      <c r="Q640" s="20"/>
-      <c r="R640" s="20"/>
-      <c r="S640" s="20"/>
-      <c r="T640" s="20"/>
-      <c r="U640" s="20"/>
-      <c r="V640" s="20"/>
-      <c r="W640" s="20"/>
+      <c r="Q640" s="15"/>
+      <c r="R640" s="15"/>
+      <c r="S640" s="15"/>
+      <c r="T640" s="15"/>
+      <c r="U640" s="15"/>
+      <c r="V640" s="15"/>
+      <c r="W640" s="15"/>
       <c r="X640" s="15"/>
       <c r="Y640" s="15"/>
       <c r="Z640" s="15"/>
@@ -29702,14 +29761,15 @@
       <c r="AC640" s="15"/>
     </row>
     <row r="641" spans="16:29">
-      <c r="Q641" s="15"/>
-      <c r="R641" s="15"/>
-      <c r="S641" s="15"/>
-      <c r="T641" s="15"/>
-      <c r="U641" s="15"/>
-      <c r="V641" s="15"/>
-      <c r="W641" s="15"/>
-      <c r="X641" s="15"/>
+      <c r="P641" s="18"/>
+      <c r="Q641" s="20"/>
+      <c r="R641" s="20"/>
+      <c r="S641" s="20"/>
+      <c r="T641" s="20"/>
+      <c r="U641" s="20"/>
+      <c r="V641" s="20"/>
+      <c r="W641" s="20"/>
+      <c r="X641" s="20"/>
       <c r="Y641" s="15"/>
       <c r="Z641" s="15"/>
       <c r="AA641" s="15"/>
@@ -29717,15 +29777,14 @@
       <c r="AC641" s="15"/>
     </row>
     <row r="642" spans="16:29">
-      <c r="P642" s="18"/>
       <c r="Q642" s="20"/>
       <c r="R642" s="20"/>
       <c r="S642" s="20"/>
       <c r="T642" s="20"/>
       <c r="U642" s="20"/>
       <c r="V642" s="20"/>
-      <c r="W642" s="20"/>
-      <c r="X642" s="20"/>
+      <c r="W642" s="15"/>
+      <c r="X642" s="15"/>
       <c r="Y642" s="15"/>
       <c r="Z642" s="15"/>
       <c r="AA642" s="15"/>
@@ -29754,7 +29813,7 @@
       <c r="T644" s="20"/>
       <c r="U644" s="20"/>
       <c r="V644" s="20"/>
-      <c r="W644" s="15"/>
+      <c r="W644" s="20"/>
       <c r="X644" s="15"/>
       <c r="Y644" s="15"/>
       <c r="Z644" s="15"/>
@@ -29784,7 +29843,7 @@
       <c r="T646" s="20"/>
       <c r="U646" s="20"/>
       <c r="V646" s="20"/>
-      <c r="W646" s="20"/>
+      <c r="W646" s="15"/>
       <c r="X646" s="15"/>
       <c r="Y646" s="15"/>
       <c r="Z646" s="15"/>
@@ -29799,7 +29858,7 @@
       <c r="T647" s="20"/>
       <c r="U647" s="20"/>
       <c r="V647" s="20"/>
-      <c r="W647" s="15"/>
+      <c r="W647" s="20"/>
       <c r="X647" s="15"/>
       <c r="Y647" s="15"/>
       <c r="Z647" s="15"/>
@@ -29808,13 +29867,13 @@
       <c r="AC647" s="15"/>
     </row>
     <row r="648" spans="16:29">
-      <c r="Q648" s="20"/>
-      <c r="R648" s="20"/>
-      <c r="S648" s="20"/>
-      <c r="T648" s="20"/>
-      <c r="U648" s="20"/>
-      <c r="V648" s="20"/>
-      <c r="W648" s="20"/>
+      <c r="Q648" s="15"/>
+      <c r="R648" s="15"/>
+      <c r="S648" s="15"/>
+      <c r="T648" s="15"/>
+      <c r="U648" s="15"/>
+      <c r="V648" s="15"/>
+      <c r="W648" s="15"/>
       <c r="X648" s="15"/>
       <c r="Y648" s="15"/>
       <c r="Z648" s="15"/>
@@ -29823,14 +29882,15 @@
       <c r="AC648" s="15"/>
     </row>
     <row r="649" spans="16:29">
-      <c r="Q649" s="15"/>
-      <c r="R649" s="15"/>
-      <c r="S649" s="15"/>
-      <c r="T649" s="15"/>
-      <c r="U649" s="15"/>
-      <c r="V649" s="15"/>
-      <c r="W649" s="15"/>
-      <c r="X649" s="15"/>
+      <c r="P649" s="18"/>
+      <c r="Q649" s="20"/>
+      <c r="R649" s="20"/>
+      <c r="S649" s="20"/>
+      <c r="T649" s="20"/>
+      <c r="U649" s="20"/>
+      <c r="V649" s="20"/>
+      <c r="W649" s="20"/>
+      <c r="X649" s="20"/>
       <c r="Y649" s="15"/>
       <c r="Z649" s="15"/>
       <c r="AA649" s="15"/>
@@ -29838,15 +29898,14 @@
       <c r="AC649" s="15"/>
     </row>
     <row r="650" spans="16:29">
-      <c r="P650" s="18"/>
       <c r="Q650" s="20"/>
       <c r="R650" s="20"/>
       <c r="S650" s="20"/>
       <c r="T650" s="20"/>
       <c r="U650" s="20"/>
       <c r="V650" s="20"/>
-      <c r="W650" s="20"/>
-      <c r="X650" s="20"/>
+      <c r="W650" s="15"/>
+      <c r="X650" s="15"/>
       <c r="Y650" s="15"/>
       <c r="Z650" s="15"/>
       <c r="AA650" s="15"/>
@@ -29860,7 +29919,7 @@
       <c r="T651" s="20"/>
       <c r="U651" s="20"/>
       <c r="V651" s="20"/>
-      <c r="W651" s="15"/>
+      <c r="W651" s="20"/>
       <c r="X651" s="15"/>
       <c r="Y651" s="15"/>
       <c r="Z651" s="15"/>
@@ -29890,7 +29949,7 @@
       <c r="T653" s="20"/>
       <c r="U653" s="20"/>
       <c r="V653" s="20"/>
-      <c r="W653" s="20"/>
+      <c r="W653" s="15"/>
       <c r="X653" s="15"/>
       <c r="Y653" s="15"/>
       <c r="Z653" s="15"/>
@@ -29929,12 +29988,12 @@
       <c r="AC655" s="15"/>
     </row>
     <row r="656" spans="16:29">
-      <c r="Q656" s="20"/>
-      <c r="R656" s="20"/>
-      <c r="S656" s="20"/>
-      <c r="T656" s="20"/>
-      <c r="U656" s="20"/>
-      <c r="V656" s="20"/>
+      <c r="Q656" s="15"/>
+      <c r="R656" s="15"/>
+      <c r="S656" s="15"/>
+      <c r="T656" s="15"/>
+      <c r="U656" s="15"/>
+      <c r="V656" s="15"/>
       <c r="W656" s="15"/>
       <c r="X656" s="15"/>
       <c r="Y656" s="15"/>
@@ -29944,12 +30003,12 @@
       <c r="AC656" s="15"/>
     </row>
     <row r="657" spans="16:29">
-      <c r="Q657" s="15"/>
-      <c r="R657" s="15"/>
-      <c r="S657" s="15"/>
-      <c r="T657" s="15"/>
-      <c r="U657" s="15"/>
-      <c r="V657" s="15"/>
+      <c r="Q657" s="20"/>
+      <c r="R657" s="20"/>
+      <c r="S657" s="20"/>
+      <c r="T657" s="20"/>
+      <c r="U657" s="20"/>
+      <c r="V657" s="20"/>
       <c r="W657" s="15"/>
       <c r="X657" s="15"/>
       <c r="Y657" s="15"/>
@@ -29974,14 +30033,15 @@
       <c r="AC658" s="15"/>
     </row>
     <row r="659" spans="16:29">
+      <c r="P659" s="18"/>
       <c r="Q659" s="20"/>
       <c r="R659" s="20"/>
       <c r="S659" s="20"/>
       <c r="T659" s="20"/>
       <c r="U659" s="20"/>
       <c r="V659" s="20"/>
-      <c r="W659" s="15"/>
-      <c r="X659" s="15"/>
+      <c r="W659" s="20"/>
+      <c r="X659" s="20"/>
       <c r="Y659" s="15"/>
       <c r="Z659" s="15"/>
       <c r="AA659" s="15"/>
@@ -29989,15 +30049,14 @@
       <c r="AC659" s="15"/>
     </row>
     <row r="660" spans="16:29">
-      <c r="P660" s="18"/>
       <c r="Q660" s="20"/>
       <c r="R660" s="20"/>
       <c r="S660" s="20"/>
       <c r="T660" s="20"/>
       <c r="U660" s="20"/>
       <c r="V660" s="20"/>
-      <c r="W660" s="20"/>
-      <c r="X660" s="20"/>
+      <c r="W660" s="15"/>
+      <c r="X660" s="15"/>
       <c r="Y660" s="15"/>
       <c r="Z660" s="15"/>
       <c r="AA660" s="15"/>
@@ -30011,7 +30070,7 @@
       <c r="T661" s="20"/>
       <c r="U661" s="20"/>
       <c r="V661" s="20"/>
-      <c r="W661" s="15"/>
+      <c r="W661" s="20"/>
       <c r="X661" s="15"/>
       <c r="Y661" s="15"/>
       <c r="Z661" s="15"/>
@@ -30026,7 +30085,7 @@
       <c r="T662" s="20"/>
       <c r="U662" s="20"/>
       <c r="V662" s="20"/>
-      <c r="W662" s="20"/>
+      <c r="W662" s="15"/>
       <c r="X662" s="15"/>
       <c r="Y662" s="15"/>
       <c r="Z662" s="15"/>
@@ -30056,7 +30115,7 @@
       <c r="T664" s="20"/>
       <c r="U664" s="20"/>
       <c r="V664" s="20"/>
-      <c r="W664" s="15"/>
+      <c r="W664" s="20"/>
       <c r="X664" s="15"/>
       <c r="Y664" s="15"/>
       <c r="Z664" s="15"/>
@@ -30071,7 +30130,7 @@
       <c r="T665" s="20"/>
       <c r="U665" s="20"/>
       <c r="V665" s="20"/>
-      <c r="W665" s="20"/>
+      <c r="W665" s="15"/>
       <c r="X665" s="15"/>
       <c r="Y665" s="15"/>
       <c r="Z665" s="15"/>
@@ -30080,14 +30139,15 @@
       <c r="AC665" s="15"/>
     </row>
     <row r="666" spans="16:29">
+      <c r="P666" s="18"/>
       <c r="Q666" s="20"/>
       <c r="R666" s="20"/>
       <c r="S666" s="20"/>
       <c r="T666" s="20"/>
       <c r="U666" s="20"/>
       <c r="V666" s="20"/>
-      <c r="W666" s="15"/>
-      <c r="X666" s="15"/>
+      <c r="W666" s="20"/>
+      <c r="X666" s="20"/>
       <c r="Y666" s="15"/>
       <c r="Z666" s="15"/>
       <c r="AA666" s="15"/>
@@ -30095,15 +30155,14 @@
       <c r="AC666" s="15"/>
     </row>
     <row r="667" spans="16:29">
-      <c r="P667" s="18"/>
       <c r="Q667" s="20"/>
       <c r="R667" s="20"/>
       <c r="S667" s="20"/>
       <c r="T667" s="20"/>
       <c r="U667" s="20"/>
       <c r="V667" s="20"/>
-      <c r="W667" s="20"/>
-      <c r="X667" s="20"/>
+      <c r="W667" s="15"/>
+      <c r="X667" s="15"/>
       <c r="Y667" s="15"/>
       <c r="Z667" s="15"/>
       <c r="AA667" s="15"/>
@@ -30117,7 +30176,7 @@
       <c r="T668" s="20"/>
       <c r="U668" s="20"/>
       <c r="V668" s="20"/>
-      <c r="W668" s="15"/>
+      <c r="W668" s="20"/>
       <c r="X668" s="15"/>
       <c r="Y668" s="15"/>
       <c r="Z668" s="15"/>
@@ -30132,7 +30191,7 @@
       <c r="T669" s="20"/>
       <c r="U669" s="20"/>
       <c r="V669" s="20"/>
-      <c r="W669" s="20"/>
+      <c r="W669" s="15"/>
       <c r="X669" s="15"/>
       <c r="Y669" s="15"/>
       <c r="Z669" s="15"/>
@@ -30147,7 +30206,7 @@
       <c r="T670" s="20"/>
       <c r="U670" s="20"/>
       <c r="V670" s="20"/>
-      <c r="W670" s="15"/>
+      <c r="W670" s="20"/>
       <c r="X670" s="15"/>
       <c r="Y670" s="15"/>
       <c r="Z670" s="15"/>
@@ -30162,7 +30221,7 @@
       <c r="T671" s="20"/>
       <c r="U671" s="20"/>
       <c r="V671" s="20"/>
-      <c r="W671" s="20"/>
+      <c r="W671" s="15"/>
       <c r="X671" s="15"/>
       <c r="Y671" s="15"/>
       <c r="Z671" s="15"/>
@@ -30177,7 +30236,7 @@
       <c r="T672" s="20"/>
       <c r="U672" s="20"/>
       <c r="V672" s="20"/>
-      <c r="W672" s="15"/>
+      <c r="W672" s="20"/>
       <c r="X672" s="15"/>
       <c r="Y672" s="15"/>
       <c r="Z672" s="15"/>
@@ -30192,7 +30251,7 @@
       <c r="T673" s="20"/>
       <c r="U673" s="20"/>
       <c r="V673" s="20"/>
-      <c r="W673" s="20"/>
+      <c r="W673" s="15"/>
       <c r="X673" s="15"/>
       <c r="Y673" s="15"/>
       <c r="Z673" s="15"/>
@@ -30216,12 +30275,12 @@
       <c r="AC674" s="15"/>
     </row>
     <row r="675" spans="16:29">
-      <c r="Q675" s="20"/>
-      <c r="R675" s="20"/>
-      <c r="S675" s="20"/>
-      <c r="T675" s="20"/>
-      <c r="U675" s="20"/>
-      <c r="V675" s="20"/>
+      <c r="Q675" s="15"/>
+      <c r="R675" s="15"/>
+      <c r="S675" s="15"/>
+      <c r="T675" s="15"/>
+      <c r="U675" s="15"/>
+      <c r="V675" s="15"/>
       <c r="W675" s="15"/>
       <c r="X675" s="15"/>
       <c r="Y675" s="15"/>
@@ -30231,14 +30290,15 @@
       <c r="AC675" s="15"/>
     </row>
     <row r="676" spans="16:29">
-      <c r="Q676" s="15"/>
-      <c r="R676" s="15"/>
-      <c r="S676" s="15"/>
-      <c r="T676" s="15"/>
-      <c r="U676" s="15"/>
-      <c r="V676" s="15"/>
-      <c r="W676" s="15"/>
-      <c r="X676" s="15"/>
+      <c r="P676" s="18"/>
+      <c r="Q676" s="20"/>
+      <c r="R676" s="20"/>
+      <c r="S676" s="20"/>
+      <c r="T676" s="20"/>
+      <c r="U676" s="20"/>
+      <c r="V676" s="20"/>
+      <c r="W676" s="20"/>
+      <c r="X676" s="20"/>
       <c r="Y676" s="15"/>
       <c r="Z676" s="15"/>
       <c r="AA676" s="15"/>
@@ -30246,15 +30306,14 @@
       <c r="AC676" s="15"/>
     </row>
     <row r="677" spans="16:29">
-      <c r="P677" s="18"/>
       <c r="Q677" s="20"/>
       <c r="R677" s="20"/>
       <c r="S677" s="20"/>
       <c r="T677" s="20"/>
       <c r="U677" s="20"/>
       <c r="V677" s="20"/>
-      <c r="W677" s="20"/>
-      <c r="X677" s="20"/>
+      <c r="W677" s="15"/>
+      <c r="X677" s="15"/>
       <c r="Y677" s="15"/>
       <c r="Z677" s="15"/>
       <c r="AA677" s="15"/>
@@ -30262,14 +30321,15 @@
       <c r="AC677" s="15"/>
     </row>
     <row r="678" spans="16:29">
+      <c r="P678" s="18"/>
       <c r="Q678" s="20"/>
       <c r="R678" s="20"/>
       <c r="S678" s="20"/>
       <c r="T678" s="20"/>
       <c r="U678" s="20"/>
       <c r="V678" s="20"/>
-      <c r="W678" s="15"/>
-      <c r="X678" s="15"/>
+      <c r="W678" s="20"/>
+      <c r="X678" s="20"/>
       <c r="Y678" s="15"/>
       <c r="Z678" s="15"/>
       <c r="AA678" s="15"/>
@@ -30293,15 +30353,14 @@
       <c r="AC679" s="15"/>
     </row>
     <row r="680" spans="16:29">
-      <c r="P680" s="18"/>
       <c r="Q680" s="20"/>
       <c r="R680" s="20"/>
       <c r="S680" s="20"/>
       <c r="T680" s="20"/>
       <c r="U680" s="20"/>
       <c r="V680" s="20"/>
-      <c r="W680" s="20"/>
-      <c r="X680" s="20"/>
+      <c r="W680" s="15"/>
+      <c r="X680" s="15"/>
       <c r="Y680" s="15"/>
       <c r="Z680" s="15"/>
       <c r="AA680" s="15"/>
@@ -30330,7 +30389,7 @@
       <c r="T682" s="20"/>
       <c r="U682" s="20"/>
       <c r="V682" s="20"/>
-      <c r="W682" s="15"/>
+      <c r="W682" s="20"/>
       <c r="X682" s="15"/>
       <c r="Y682" s="15"/>
       <c r="Z682" s="15"/>
@@ -30339,6 +30398,7 @@
       <c r="AC682" s="15"/>
     </row>
     <row r="683" spans="16:29">
+      <c r="P683" s="18"/>
       <c r="Q683" s="20"/>
       <c r="R683" s="20"/>
       <c r="S683" s="20"/>
@@ -30346,7 +30406,7 @@
       <c r="U683" s="20"/>
       <c r="V683" s="20"/>
       <c r="W683" s="20"/>
-      <c r="X683" s="15"/>
+      <c r="X683" s="20"/>
       <c r="Y683" s="15"/>
       <c r="Z683" s="15"/>
       <c r="AA683" s="15"/>
@@ -30370,7 +30430,6 @@
       <c r="AC684" s="15"/>
     </row>
     <row r="685" spans="16:29">
-      <c r="P685" s="18"/>
       <c r="Q685" s="20"/>
       <c r="R685" s="20"/>
       <c r="S685" s="20"/>
@@ -30378,7 +30437,7 @@
       <c r="U685" s="20"/>
       <c r="V685" s="20"/>
       <c r="W685" s="20"/>
-      <c r="X685" s="20"/>
+      <c r="X685" s="15"/>
       <c r="Y685" s="15"/>
       <c r="Z685" s="15"/>
       <c r="AA685" s="15"/>
@@ -30386,6 +30445,7 @@
       <c r="AC685" s="15"/>
     </row>
     <row r="686" spans="16:29">
+      <c r="P686" s="18"/>
       <c r="Q686" s="20"/>
       <c r="R686" s="20"/>
       <c r="S686" s="20"/>
@@ -30393,7 +30453,7 @@
       <c r="U686" s="20"/>
       <c r="V686" s="20"/>
       <c r="W686" s="20"/>
-      <c r="X686" s="15"/>
+      <c r="X686" s="20"/>
       <c r="Y686" s="15"/>
       <c r="Z686" s="15"/>
       <c r="AA686" s="15"/>
@@ -30449,15 +30509,14 @@
       <c r="AC689" s="15"/>
     </row>
     <row r="690" spans="16:29">
-      <c r="P690" s="18"/>
       <c r="Q690" s="20"/>
       <c r="R690" s="20"/>
       <c r="S690" s="20"/>
       <c r="T690" s="20"/>
       <c r="U690" s="20"/>
       <c r="V690" s="20"/>
-      <c r="W690" s="20"/>
-      <c r="X690" s="20"/>
+      <c r="W690" s="15"/>
+      <c r="X690" s="15"/>
       <c r="Y690" s="15"/>
       <c r="Z690" s="15"/>
       <c r="AA690" s="15"/>
@@ -30471,7 +30530,7 @@
       <c r="T691" s="20"/>
       <c r="U691" s="20"/>
       <c r="V691" s="20"/>
-      <c r="W691" s="15"/>
+      <c r="W691" s="20"/>
       <c r="X691" s="15"/>
       <c r="Y691" s="15"/>
       <c r="Z691" s="15"/>
@@ -30486,7 +30545,7 @@
       <c r="T692" s="20"/>
       <c r="U692" s="20"/>
       <c r="V692" s="20"/>
-      <c r="W692" s="20"/>
+      <c r="W692" s="15"/>
       <c r="X692" s="15"/>
       <c r="Y692" s="15"/>
       <c r="Z692" s="15"/>
@@ -30501,7 +30560,7 @@
       <c r="T693" s="20"/>
       <c r="U693" s="20"/>
       <c r="V693" s="20"/>
-      <c r="W693" s="15"/>
+      <c r="W693" s="20"/>
       <c r="X693" s="15"/>
       <c r="Y693" s="15"/>
       <c r="Z693" s="15"/>
@@ -30516,7 +30575,7 @@
       <c r="T694" s="20"/>
       <c r="U694" s="20"/>
       <c r="V694" s="20"/>
-      <c r="W694" s="20"/>
+      <c r="W694" s="15"/>
       <c r="X694" s="15"/>
       <c r="Y694" s="15"/>
       <c r="Z694" s="15"/>
@@ -30525,12 +30584,12 @@
       <c r="AC694" s="15"/>
     </row>
     <row r="695" spans="16:29">
-      <c r="Q695" s="20"/>
-      <c r="R695" s="20"/>
-      <c r="S695" s="20"/>
-      <c r="T695" s="20"/>
-      <c r="U695" s="20"/>
-      <c r="V695" s="20"/>
+      <c r="Q695" s="15"/>
+      <c r="R695" s="15"/>
+      <c r="S695" s="15"/>
+      <c r="T695" s="15"/>
+      <c r="U695" s="15"/>
+      <c r="V695" s="15"/>
       <c r="W695" s="15"/>
       <c r="X695" s="15"/>
       <c r="Y695" s="15"/>
@@ -30540,12 +30599,12 @@
       <c r="AC695" s="15"/>
     </row>
     <row r="696" spans="16:29">
-      <c r="Q696" s="15"/>
-      <c r="R696" s="15"/>
-      <c r="S696" s="15"/>
-      <c r="T696" s="15"/>
-      <c r="U696" s="15"/>
-      <c r="V696" s="15"/>
+      <c r="Q696" s="20"/>
+      <c r="R696" s="20"/>
+      <c r="S696" s="20"/>
+      <c r="T696" s="20"/>
+      <c r="U696" s="20"/>
+      <c r="V696" s="20"/>
       <c r="W696" s="15"/>
       <c r="X696" s="15"/>
       <c r="Y696" s="15"/>
@@ -30576,7 +30635,7 @@
       <c r="T698" s="20"/>
       <c r="U698" s="20"/>
       <c r="V698" s="20"/>
-      <c r="W698" s="15"/>
+      <c r="W698" s="20"/>
       <c r="X698" s="15"/>
       <c r="Y698" s="15"/>
       <c r="Z698" s="15"/>
@@ -30606,7 +30665,7 @@
       <c r="T700" s="20"/>
       <c r="U700" s="20"/>
       <c r="V700" s="20"/>
-      <c r="W700" s="20"/>
+      <c r="W700" s="15"/>
       <c r="X700" s="15"/>
       <c r="Y700" s="15"/>
       <c r="Z700" s="15"/>
@@ -30621,7 +30680,7 @@
       <c r="T701" s="20"/>
       <c r="U701" s="20"/>
       <c r="V701" s="20"/>
-      <c r="W701" s="15"/>
+      <c r="W701" s="20"/>
       <c r="X701" s="15"/>
       <c r="Y701" s="15"/>
       <c r="Z701" s="15"/>
@@ -30636,7 +30695,7 @@
       <c r="T702" s="20"/>
       <c r="U702" s="20"/>
       <c r="V702" s="20"/>
-      <c r="W702" s="20"/>
+      <c r="W702" s="15"/>
       <c r="X702" s="15"/>
       <c r="Y702" s="15"/>
       <c r="Z702" s="15"/>
@@ -30651,7 +30710,7 @@
       <c r="T703" s="20"/>
       <c r="U703" s="20"/>
       <c r="V703" s="20"/>
-      <c r="W703" s="15"/>
+      <c r="W703" s="20"/>
       <c r="X703" s="15"/>
       <c r="Y703" s="15"/>
       <c r="Z703" s="15"/>
@@ -30681,7 +30740,7 @@
       <c r="T705" s="20"/>
       <c r="U705" s="20"/>
       <c r="V705" s="20"/>
-      <c r="W705" s="20"/>
+      <c r="W705" s="15"/>
       <c r="X705" s="15"/>
       <c r="Y705" s="15"/>
       <c r="Z705" s="15"/>
@@ -30705,12 +30764,12 @@
       <c r="AC706" s="15"/>
     </row>
     <row r="707" spans="17:29">
-      <c r="Q707" s="20"/>
-      <c r="R707" s="20"/>
-      <c r="S707" s="20"/>
-      <c r="T707" s="20"/>
-      <c r="U707" s="20"/>
-      <c r="V707" s="20"/>
+      <c r="Q707" s="15"/>
+      <c r="R707" s="15"/>
+      <c r="S707" s="15"/>
+      <c r="T707" s="15"/>
+      <c r="U707" s="15"/>
+      <c r="V707" s="15"/>
       <c r="W707" s="15"/>
       <c r="X707" s="15"/>
       <c r="Y707" s="15"/>
@@ -30720,12 +30779,12 @@
       <c r="AC707" s="15"/>
     </row>
     <row r="708" spans="17:29">
-      <c r="Q708" s="15"/>
-      <c r="R708" s="15"/>
-      <c r="S708" s="15"/>
-      <c r="T708" s="15"/>
-      <c r="U708" s="15"/>
-      <c r="V708" s="15"/>
+      <c r="Q708" s="20"/>
+      <c r="R708" s="20"/>
+      <c r="S708" s="20"/>
+      <c r="T708" s="20"/>
+      <c r="U708" s="20"/>
+      <c r="V708" s="20"/>
       <c r="W708" s="15"/>
       <c r="X708" s="15"/>
       <c r="Y708" s="15"/>
@@ -30756,7 +30815,7 @@
       <c r="T710" s="20"/>
       <c r="U710" s="20"/>
       <c r="V710" s="20"/>
-      <c r="W710" s="15"/>
+      <c r="W710" s="20"/>
       <c r="X710" s="15"/>
       <c r="Y710" s="15"/>
       <c r="Z710" s="15"/>
@@ -30786,7 +30845,7 @@
       <c r="T712" s="20"/>
       <c r="U712" s="20"/>
       <c r="V712" s="20"/>
-      <c r="W712" s="20"/>
+      <c r="W712" s="15"/>
       <c r="X712" s="15"/>
       <c r="Y712" s="15"/>
       <c r="Z712" s="15"/>
@@ -30801,7 +30860,7 @@
       <c r="T713" s="20"/>
       <c r="U713" s="20"/>
       <c r="V713" s="20"/>
-      <c r="W713" s="15"/>
+      <c r="W713" s="20"/>
       <c r="X713" s="15"/>
       <c r="Y713" s="15"/>
       <c r="Z713" s="15"/>
@@ -30816,7 +30875,7 @@
       <c r="T714" s="20"/>
       <c r="U714" s="20"/>
       <c r="V714" s="20"/>
-      <c r="W714" s="20"/>
+      <c r="W714" s="15"/>
       <c r="X714" s="15"/>
       <c r="Y714" s="15"/>
       <c r="Z714" s="15"/>
@@ -30831,7 +30890,7 @@
       <c r="T715" s="20"/>
       <c r="U715" s="20"/>
       <c r="V715" s="20"/>
-      <c r="W715" s="15"/>
+      <c r="W715" s="20"/>
       <c r="X715" s="15"/>
       <c r="Y715" s="15"/>
       <c r="Z715" s="15"/>
@@ -30891,7 +30950,7 @@
       <c r="T719" s="20"/>
       <c r="U719" s="20"/>
       <c r="V719" s="20"/>
-      <c r="W719" s="20"/>
+      <c r="W719" s="15"/>
       <c r="X719" s="15"/>
       <c r="Y719" s="15"/>
       <c r="Z719" s="15"/>
@@ -30906,7 +30965,7 @@
       <c r="T720" s="20"/>
       <c r="U720" s="20"/>
       <c r="V720" s="20"/>
-      <c r="W720" s="15"/>
+      <c r="W720" s="20"/>
       <c r="X720" s="15"/>
       <c r="Y720" s="15"/>
       <c r="Z720" s="15"/>
@@ -30921,7 +30980,7 @@
       <c r="T721" s="20"/>
       <c r="U721" s="20"/>
       <c r="V721" s="20"/>
-      <c r="W721" s="20"/>
+      <c r="W721" s="15"/>
       <c r="X721" s="15"/>
       <c r="Y721" s="15"/>
       <c r="Z721" s="15"/>
@@ -30945,12 +31004,12 @@
       <c r="AC722" s="15"/>
     </row>
     <row r="723" spans="17:29">
-      <c r="Q723" s="20"/>
-      <c r="R723" s="20"/>
-      <c r="S723" s="20"/>
-      <c r="T723" s="20"/>
-      <c r="U723" s="20"/>
-      <c r="V723" s="20"/>
+      <c r="Q723" s="15"/>
+      <c r="R723" s="15"/>
+      <c r="S723" s="15"/>
+      <c r="T723" s="15"/>
+      <c r="U723" s="15"/>
+      <c r="V723" s="15"/>
       <c r="W723" s="15"/>
       <c r="X723" s="15"/>
       <c r="Y723" s="15"/>
@@ -30960,12 +31019,12 @@
       <c r="AC723" s="15"/>
     </row>
     <row r="724" spans="17:29">
-      <c r="Q724" s="15"/>
-      <c r="R724" s="15"/>
-      <c r="S724" s="15"/>
-      <c r="T724" s="15"/>
-      <c r="U724" s="15"/>
-      <c r="V724" s="15"/>
+      <c r="Q724" s="20"/>
+      <c r="R724" s="20"/>
+      <c r="S724" s="20"/>
+      <c r="T724" s="20"/>
+      <c r="U724" s="20"/>
+      <c r="V724" s="20"/>
       <c r="W724" s="15"/>
       <c r="X724" s="15"/>
       <c r="Y724" s="15"/>
@@ -31176,7 +31235,7 @@
       <c r="T738" s="20"/>
       <c r="U738" s="20"/>
       <c r="V738" s="20"/>
-      <c r="W738" s="15"/>
+      <c r="W738" s="20"/>
       <c r="X738" s="15"/>
       <c r="Y738" s="15"/>
       <c r="Z738" s="15"/>
@@ -31191,7 +31250,7 @@
       <c r="T739" s="20"/>
       <c r="U739" s="20"/>
       <c r="V739" s="20"/>
-      <c r="W739" s="20"/>
+      <c r="W739" s="15"/>
       <c r="X739" s="15"/>
       <c r="Y739" s="15"/>
       <c r="Z739" s="15"/>
@@ -31200,12 +31259,12 @@
       <c r="AC739" s="15"/>
     </row>
     <row r="740" spans="17:29">
-      <c r="Q740" s="20"/>
-      <c r="R740" s="20"/>
-      <c r="S740" s="20"/>
-      <c r="T740" s="20"/>
-      <c r="U740" s="20"/>
-      <c r="V740" s="20"/>
+      <c r="Q740" s="15"/>
+      <c r="R740" s="15"/>
+      <c r="S740" s="15"/>
+      <c r="T740" s="15"/>
+      <c r="U740" s="15"/>
+      <c r="V740" s="15"/>
       <c r="W740" s="15"/>
       <c r="X740" s="15"/>
       <c r="Y740" s="15"/>
@@ -31215,12 +31274,12 @@
       <c r="AC740" s="15"/>
     </row>
     <row r="741" spans="17:29">
-      <c r="Q741" s="15"/>
-      <c r="R741" s="15"/>
-      <c r="S741" s="15"/>
-      <c r="T741" s="15"/>
-      <c r="U741" s="15"/>
-      <c r="V741" s="15"/>
+      <c r="Q741" s="20"/>
+      <c r="R741" s="20"/>
+      <c r="S741" s="20"/>
+      <c r="T741" s="20"/>
+      <c r="U741" s="20"/>
+      <c r="V741" s="20"/>
       <c r="W741" s="15"/>
       <c r="X741" s="15"/>
       <c r="Y741" s="15"/>
@@ -31251,7 +31310,7 @@
       <c r="T743" s="20"/>
       <c r="U743" s="20"/>
       <c r="V743" s="20"/>
-      <c r="W743" s="15"/>
+      <c r="W743" s="20"/>
       <c r="X743" s="15"/>
       <c r="Y743" s="15"/>
       <c r="Z743" s="15"/>
@@ -31296,7 +31355,7 @@
       <c r="T746" s="20"/>
       <c r="U746" s="20"/>
       <c r="V746" s="20"/>
-      <c r="W746" s="20"/>
+      <c r="W746" s="15"/>
       <c r="X746" s="15"/>
       <c r="Y746" s="15"/>
       <c r="Z746" s="15"/>
@@ -31305,12 +31364,12 @@
       <c r="AC746" s="15"/>
     </row>
     <row r="747" spans="17:29">
-      <c r="Q747" s="20"/>
-      <c r="R747" s="20"/>
-      <c r="S747" s="20"/>
-      <c r="T747" s="20"/>
-      <c r="U747" s="20"/>
-      <c r="V747" s="20"/>
+      <c r="Q747" s="15"/>
+      <c r="R747" s="15"/>
+      <c r="S747" s="15"/>
+      <c r="T747" s="15"/>
+      <c r="U747" s="15"/>
+      <c r="V747" s="15"/>
       <c r="W747" s="15"/>
       <c r="X747" s="15"/>
       <c r="Y747" s="15"/>
@@ -31320,12 +31379,12 @@
       <c r="AC747" s="15"/>
     </row>
     <row r="748" spans="17:29">
-      <c r="Q748" s="15"/>
-      <c r="R748" s="15"/>
-      <c r="S748" s="15"/>
-      <c r="T748" s="15"/>
-      <c r="U748" s="15"/>
-      <c r="V748" s="15"/>
+      <c r="Q748" s="20"/>
+      <c r="R748" s="20"/>
+      <c r="S748" s="20"/>
+      <c r="T748" s="20"/>
+      <c r="U748" s="20"/>
+      <c r="V748" s="20"/>
       <c r="W748" s="15"/>
       <c r="X748" s="15"/>
       <c r="Y748" s="15"/>
@@ -31365,12 +31424,12 @@
       <c r="AC750" s="15"/>
     </row>
     <row r="751" spans="17:29">
-      <c r="Q751" s="20"/>
-      <c r="R751" s="20"/>
-      <c r="S751" s="20"/>
-      <c r="T751" s="20"/>
-      <c r="U751" s="20"/>
-      <c r="V751" s="20"/>
+      <c r="Q751" s="15"/>
+      <c r="R751" s="15"/>
+      <c r="S751" s="15"/>
+      <c r="T751" s="15"/>
+      <c r="U751" s="15"/>
+      <c r="V751" s="15"/>
       <c r="W751" s="15"/>
       <c r="X751" s="15"/>
       <c r="Y751" s="15"/>
@@ -31380,13 +31439,13 @@
       <c r="AC751" s="15"/>
     </row>
     <row r="752" spans="17:29">
-      <c r="Q752" s="15"/>
-      <c r="R752" s="15"/>
-      <c r="S752" s="15"/>
-      <c r="T752" s="15"/>
-      <c r="U752" s="15"/>
-      <c r="V752" s="15"/>
-      <c r="W752" s="15"/>
+      <c r="Q752" s="20"/>
+      <c r="R752" s="20"/>
+      <c r="S752" s="20"/>
+      <c r="T752" s="20"/>
+      <c r="U752" s="20"/>
+      <c r="V752" s="20"/>
+      <c r="W752" s="20"/>
       <c r="X752" s="15"/>
       <c r="Y752" s="15"/>
       <c r="Z752" s="15"/>
@@ -31401,7 +31460,7 @@
       <c r="T753" s="20"/>
       <c r="U753" s="20"/>
       <c r="V753" s="20"/>
-      <c r="W753" s="20"/>
+      <c r="W753" s="15"/>
       <c r="X753" s="15"/>
       <c r="Y753" s="15"/>
       <c r="Z753" s="15"/>
@@ -31410,12 +31469,12 @@
       <c r="AC753" s="15"/>
     </row>
     <row r="754" spans="17:29">
-      <c r="Q754" s="20"/>
-      <c r="R754" s="20"/>
-      <c r="S754" s="20"/>
-      <c r="T754" s="20"/>
-      <c r="U754" s="20"/>
-      <c r="V754" s="20"/>
+      <c r="Q754" s="15"/>
+      <c r="R754" s="15"/>
+      <c r="S754" s="15"/>
+      <c r="T754" s="15"/>
+      <c r="U754" s="15"/>
+      <c r="V754" s="15"/>
       <c r="W754" s="15"/>
       <c r="X754" s="15"/>
       <c r="Y754" s="15"/>
@@ -31425,12 +31484,12 @@
       <c r="AC754" s="15"/>
     </row>
     <row r="755" spans="17:29">
-      <c r="Q755" s="15"/>
-      <c r="R755" s="15"/>
-      <c r="S755" s="15"/>
-      <c r="T755" s="15"/>
-      <c r="U755" s="15"/>
-      <c r="V755" s="15"/>
+      <c r="Q755" s="20"/>
+      <c r="R755" s="20"/>
+      <c r="S755" s="20"/>
+      <c r="T755" s="20"/>
+      <c r="U755" s="20"/>
+      <c r="V755" s="20"/>
       <c r="W755" s="15"/>
       <c r="X755" s="15"/>
       <c r="Y755" s="15"/>
@@ -31446,7 +31505,7 @@
       <c r="T756" s="20"/>
       <c r="U756" s="20"/>
       <c r="V756" s="20"/>
-      <c r="W756" s="15"/>
+      <c r="W756" s="20"/>
       <c r="X756" s="15"/>
       <c r="Y756" s="15"/>
       <c r="Z756" s="15"/>
@@ -31461,7 +31520,7 @@
       <c r="T757" s="20"/>
       <c r="U757" s="20"/>
       <c r="V757" s="20"/>
-      <c r="W757" s="20"/>
+      <c r="W757" s="15"/>
       <c r="X757" s="15"/>
       <c r="Y757" s="15"/>
       <c r="Z757" s="15"/>
@@ -31476,7 +31535,7 @@
       <c r="T758" s="20"/>
       <c r="U758" s="20"/>
       <c r="V758" s="20"/>
-      <c r="W758" s="15"/>
+      <c r="W758" s="20"/>
       <c r="X758" s="15"/>
       <c r="Y758" s="15"/>
       <c r="Z758" s="15"/>
@@ -31491,7 +31550,7 @@
       <c r="T759" s="20"/>
       <c r="U759" s="20"/>
       <c r="V759" s="20"/>
-      <c r="W759" s="20"/>
+      <c r="W759" s="15"/>
       <c r="X759" s="15"/>
       <c r="Y759" s="15"/>
       <c r="Z759" s="15"/>
@@ -31521,7 +31580,7 @@
       <c r="T761" s="20"/>
       <c r="U761" s="20"/>
       <c r="V761" s="20"/>
-      <c r="W761" s="15"/>
+      <c r="W761" s="20"/>
       <c r="X761" s="15"/>
       <c r="Y761" s="15"/>
       <c r="Z761" s="15"/>
@@ -31530,13 +31589,13 @@
       <c r="AC761" s="15"/>
     </row>
     <row r="762" spans="17:29">
-      <c r="Q762" s="20"/>
-      <c r="R762" s="20"/>
-      <c r="S762" s="20"/>
-      <c r="T762" s="20"/>
-      <c r="U762" s="20"/>
-      <c r="V762" s="20"/>
-      <c r="W762" s="20"/>
+      <c r="Q762" s="15"/>
+      <c r="R762" s="15"/>
+      <c r="S762" s="15"/>
+      <c r="T762" s="15"/>
+      <c r="U762" s="15"/>
+      <c r="V762" s="15"/>
+      <c r="W762" s="15"/>
       <c r="X762" s="15"/>
       <c r="Y762" s="15"/>
       <c r="Z762" s="15"/>
@@ -31545,12 +31604,12 @@
       <c r="AC762" s="15"/>
     </row>
     <row r="763" spans="17:29">
-      <c r="Q763" s="15"/>
-      <c r="R763" s="15"/>
-      <c r="S763" s="15"/>
-      <c r="T763" s="15"/>
-      <c r="U763" s="15"/>
-      <c r="V763" s="15"/>
+      <c r="Q763" s="20"/>
+      <c r="R763" s="20"/>
+      <c r="S763" s="20"/>
+      <c r="T763" s="20"/>
+      <c r="U763" s="20"/>
+      <c r="V763" s="20"/>
       <c r="W763" s="15"/>
       <c r="X763" s="15"/>
       <c r="Y763" s="15"/>
@@ -31560,12 +31619,12 @@
       <c r="AC763" s="15"/>
     </row>
     <row r="764" spans="17:29">
-      <c r="Q764" s="20"/>
-      <c r="R764" s="20"/>
-      <c r="S764" s="20"/>
-      <c r="T764" s="20"/>
-      <c r="U764" s="20"/>
-      <c r="V764" s="20"/>
+      <c r="Q764" s="15"/>
+      <c r="R764" s="15"/>
+      <c r="S764" s="15"/>
+      <c r="T764" s="15"/>
+      <c r="U764" s="15"/>
+      <c r="V764" s="15"/>
       <c r="W764" s="15"/>
       <c r="X764" s="15"/>
       <c r="Y764" s="15"/>
@@ -31575,12 +31634,12 @@
       <c r="AC764" s="15"/>
     </row>
     <row r="765" spans="17:29">
-      <c r="Q765" s="15"/>
-      <c r="R765" s="15"/>
-      <c r="S765" s="15"/>
-      <c r="T765" s="15"/>
-      <c r="U765" s="15"/>
-      <c r="V765" s="15"/>
+      <c r="Q765" s="20"/>
+      <c r="R765" s="20"/>
+      <c r="S765" s="20"/>
+      <c r="T765" s="20"/>
+      <c r="U765" s="20"/>
+      <c r="V765" s="20"/>
       <c r="W765" s="15"/>
       <c r="X765" s="15"/>
       <c r="Y765" s="15"/>
@@ -31620,12 +31679,12 @@
       <c r="AC767" s="15"/>
     </row>
     <row r="768" spans="17:29">
-      <c r="Q768" s="20"/>
-      <c r="R768" s="20"/>
-      <c r="S768" s="20"/>
-      <c r="T768" s="20"/>
-      <c r="U768" s="20"/>
-      <c r="V768" s="20"/>
+      <c r="Q768" s="15"/>
+      <c r="R768" s="15"/>
+      <c r="S768" s="15"/>
+      <c r="T768" s="15"/>
+      <c r="U768" s="15"/>
+      <c r="V768" s="15"/>
       <c r="W768" s="15"/>
       <c r="X768" s="15"/>
       <c r="Y768" s="15"/>
@@ -31635,12 +31694,12 @@
       <c r="AC768" s="15"/>
     </row>
     <row r="769" spans="17:29">
-      <c r="Q769" s="15"/>
-      <c r="R769" s="15"/>
-      <c r="S769" s="15"/>
-      <c r="T769" s="15"/>
-      <c r="U769" s="15"/>
-      <c r="V769" s="15"/>
+      <c r="Q769" s="20"/>
+      <c r="R769" s="20"/>
+      <c r="S769" s="20"/>
+      <c r="T769" s="20"/>
+      <c r="U769" s="20"/>
+      <c r="V769" s="20"/>
       <c r="W769" s="15"/>
       <c r="X769" s="15"/>
       <c r="Y769" s="15"/>
@@ -31680,12 +31739,12 @@
       <c r="AC771" s="15"/>
     </row>
     <row r="772" spans="17:29">
-      <c r="Q772" s="20"/>
-      <c r="R772" s="20"/>
-      <c r="S772" s="20"/>
-      <c r="T772" s="20"/>
-      <c r="U772" s="20"/>
-      <c r="V772" s="20"/>
+      <c r="Q772" s="15"/>
+      <c r="R772" s="15"/>
+      <c r="S772" s="15"/>
+      <c r="T772" s="15"/>
+      <c r="U772" s="15"/>
+      <c r="V772" s="15"/>
       <c r="W772" s="15"/>
       <c r="X772" s="15"/>
       <c r="Y772" s="15"/>
@@ -31710,12 +31769,12 @@
       <c r="AC773" s="15"/>
     </row>
     <row r="774" spans="17:29">
-      <c r="Q774" s="15"/>
-      <c r="R774" s="15"/>
-      <c r="S774" s="15"/>
-      <c r="T774" s="15"/>
-      <c r="U774" s="15"/>
-      <c r="V774" s="15"/>
+      <c r="Q774" s="20"/>
+      <c r="R774" s="20"/>
+      <c r="S774" s="20"/>
+      <c r="T774" s="20"/>
+      <c r="U774" s="20"/>
+      <c r="V774" s="20"/>
       <c r="W774" s="15"/>
       <c r="X774" s="15"/>
       <c r="Y774" s="15"/>
@@ -31755,12 +31814,12 @@
       <c r="AC776" s="15"/>
     </row>
     <row r="777" spans="17:29">
-      <c r="Q777" s="20"/>
-      <c r="R777" s="20"/>
-      <c r="S777" s="20"/>
-      <c r="T777" s="20"/>
-      <c r="U777" s="20"/>
-      <c r="V777" s="20"/>
+      <c r="Q777" s="15"/>
+      <c r="R777" s="15"/>
+      <c r="S777" s="15"/>
+      <c r="T777" s="15"/>
+      <c r="U777" s="15"/>
+      <c r="V777" s="15"/>
       <c r="W777" s="15"/>
       <c r="X777" s="15"/>
       <c r="Y777" s="15"/>
@@ -31770,12 +31829,12 @@
       <c r="AC777" s="15"/>
     </row>
     <row r="778" spans="17:29">
-      <c r="Q778" s="15"/>
-      <c r="R778" s="15"/>
-      <c r="S778" s="15"/>
-      <c r="T778" s="15"/>
-      <c r="U778" s="15"/>
-      <c r="V778" s="15"/>
+      <c r="Q778" s="20"/>
+      <c r="R778" s="20"/>
+      <c r="S778" s="20"/>
+      <c r="T778" s="20"/>
+      <c r="U778" s="20"/>
+      <c r="V778" s="20"/>
       <c r="W778" s="15"/>
       <c r="X778" s="15"/>
       <c r="Y778" s="15"/>
@@ -31806,7 +31865,7 @@
       <c r="T780" s="20"/>
       <c r="U780" s="20"/>
       <c r="V780" s="20"/>
-      <c r="W780" s="15"/>
+      <c r="W780" s="20"/>
       <c r="X780" s="15"/>
       <c r="Y780" s="15"/>
       <c r="Z780" s="15"/>
@@ -31851,7 +31910,7 @@
       <c r="T783" s="20"/>
       <c r="U783" s="20"/>
       <c r="V783" s="20"/>
-      <c r="W783" s="20"/>
+      <c r="W783" s="15"/>
       <c r="X783" s="15"/>
       <c r="Y783" s="15"/>
       <c r="Z783" s="15"/>
@@ -31866,7 +31925,7 @@
       <c r="T784" s="20"/>
       <c r="U784" s="20"/>
       <c r="V784" s="20"/>
-      <c r="W784" s="15"/>
+      <c r="W784" s="20"/>
       <c r="X784" s="15"/>
       <c r="Y784" s="15"/>
       <c r="Z784" s="15"/>
@@ -31875,13 +31934,13 @@
       <c r="AC784" s="15"/>
     </row>
     <row r="785" spans="17:29">
-      <c r="Q785" s="20"/>
-      <c r="R785" s="20"/>
-      <c r="S785" s="20"/>
-      <c r="T785" s="20"/>
-      <c r="U785" s="20"/>
-      <c r="V785" s="20"/>
-      <c r="W785" s="20"/>
+      <c r="Q785" s="15"/>
+      <c r="R785" s="15"/>
+      <c r="S785" s="15"/>
+      <c r="T785" s="15"/>
+      <c r="U785" s="15"/>
+      <c r="V785" s="15"/>
+      <c r="W785" s="15"/>
       <c r="X785" s="15"/>
       <c r="Y785" s="15"/>
       <c r="Z785" s="15"/>
@@ -31920,12 +31979,12 @@
       <c r="AC787" s="15"/>
     </row>
     <row r="788" spans="17:29">
-      <c r="Q788" s="15"/>
-      <c r="R788" s="15"/>
-      <c r="S788" s="15"/>
-      <c r="T788" s="15"/>
-      <c r="U788" s="15"/>
-      <c r="V788" s="15"/>
+      <c r="Q788" s="20"/>
+      <c r="R788" s="20"/>
+      <c r="S788" s="20"/>
+      <c r="T788" s="20"/>
+      <c r="U788" s="20"/>
+      <c r="V788" s="20"/>
       <c r="W788" s="15"/>
       <c r="X788" s="15"/>
       <c r="Y788" s="15"/>
@@ -31950,12 +32009,12 @@
       <c r="AC789" s="15"/>
     </row>
     <row r="790" spans="17:29">
-      <c r="Q790" s="20"/>
-      <c r="R790" s="20"/>
-      <c r="S790" s="20"/>
-      <c r="T790" s="20"/>
-      <c r="U790" s="20"/>
-      <c r="V790" s="20"/>
+      <c r="Q790" s="15"/>
+      <c r="R790" s="15"/>
+      <c r="S790" s="15"/>
+      <c r="T790" s="15"/>
+      <c r="U790" s="15"/>
+      <c r="V790" s="15"/>
       <c r="W790" s="15"/>
       <c r="X790" s="15"/>
       <c r="Y790" s="15"/>
@@ -31965,12 +32024,12 @@
       <c r="AC790" s="15"/>
     </row>
     <row r="791" spans="17:29">
-      <c r="Q791" s="15"/>
-      <c r="R791" s="15"/>
-      <c r="S791" s="15"/>
-      <c r="T791" s="15"/>
-      <c r="U791" s="15"/>
-      <c r="V791" s="15"/>
+      <c r="Q791" s="20"/>
+      <c r="R791" s="20"/>
+      <c r="S791" s="20"/>
+      <c r="T791" s="20"/>
+      <c r="U791" s="20"/>
+      <c r="V791" s="20"/>
       <c r="W791" s="15"/>
       <c r="X791" s="15"/>
       <c r="Y791" s="15"/>
@@ -32010,12 +32069,12 @@
       <c r="AC793" s="15"/>
     </row>
     <row r="794" spans="17:29">
-      <c r="Q794" s="20"/>
-      <c r="R794" s="20"/>
-      <c r="S794" s="20"/>
-      <c r="T794" s="20"/>
-      <c r="U794" s="20"/>
-      <c r="V794" s="20"/>
+      <c r="Q794" s="15"/>
+      <c r="R794" s="15"/>
+      <c r="S794" s="15"/>
+      <c r="T794" s="15"/>
+      <c r="U794" s="15"/>
+      <c r="V794" s="15"/>
       <c r="W794" s="15"/>
       <c r="X794" s="15"/>
       <c r="Y794" s="15"/>
@@ -32025,12 +32084,12 @@
       <c r="AC794" s="15"/>
     </row>
     <row r="795" spans="17:29">
-      <c r="Q795" s="15"/>
-      <c r="R795" s="15"/>
-      <c r="S795" s="15"/>
-      <c r="T795" s="15"/>
-      <c r="U795" s="15"/>
-      <c r="V795" s="15"/>
+      <c r="Q795" s="20"/>
+      <c r="R795" s="20"/>
+      <c r="S795" s="20"/>
+      <c r="T795" s="20"/>
+      <c r="U795" s="20"/>
+      <c r="V795" s="20"/>
       <c r="W795" s="15"/>
       <c r="X795" s="15"/>
       <c r="Y795" s="15"/>
@@ -32070,12 +32129,12 @@
       <c r="AC797" s="15"/>
     </row>
     <row r="798" spans="17:29">
-      <c r="Q798" s="20"/>
-      <c r="R798" s="20"/>
-      <c r="S798" s="20"/>
-      <c r="T798" s="20"/>
-      <c r="U798" s="20"/>
-      <c r="V798" s="20"/>
+      <c r="Q798" s="15"/>
+      <c r="R798" s="15"/>
+      <c r="S798" s="15"/>
+      <c r="T798" s="15"/>
+      <c r="U798" s="15"/>
+      <c r="V798" s="15"/>
       <c r="W798" s="15"/>
       <c r="X798" s="15"/>
       <c r="Y798" s="15"/>
@@ -32160,12 +32219,12 @@
       <c r="AC803" s="15"/>
     </row>
     <row r="804" spans="17:29">
-      <c r="Q804" s="15"/>
-      <c r="R804" s="15"/>
-      <c r="S804" s="15"/>
-      <c r="T804" s="15"/>
-      <c r="U804" s="15"/>
-      <c r="V804" s="15"/>
+      <c r="Q804" s="20"/>
+      <c r="R804" s="20"/>
+      <c r="S804" s="20"/>
+      <c r="T804" s="20"/>
+      <c r="U804" s="20"/>
+      <c r="V804" s="20"/>
       <c r="W804" s="15"/>
       <c r="X804" s="15"/>
       <c r="Y804" s="15"/>
@@ -32205,12 +32264,12 @@
       <c r="AC806" s="15"/>
     </row>
     <row r="807" spans="17:29">
-      <c r="Q807" s="20"/>
-      <c r="R807" s="20"/>
-      <c r="S807" s="20"/>
-      <c r="T807" s="20"/>
-      <c r="U807" s="20"/>
-      <c r="V807" s="20"/>
+      <c r="Q807" s="15"/>
+      <c r="R807" s="15"/>
+      <c r="S807" s="15"/>
+      <c r="T807" s="15"/>
+      <c r="U807" s="15"/>
+      <c r="V807" s="15"/>
       <c r="W807" s="15"/>
       <c r="X807" s="15"/>
       <c r="Y807" s="15"/>
@@ -32235,12 +32294,12 @@
       <c r="AC808" s="15"/>
     </row>
     <row r="809" spans="17:29">
-      <c r="Q809" s="15"/>
-      <c r="R809" s="15"/>
-      <c r="S809" s="15"/>
-      <c r="T809" s="15"/>
-      <c r="U809" s="15"/>
-      <c r="V809" s="15"/>
+      <c r="Q809" s="20"/>
+      <c r="R809" s="20"/>
+      <c r="S809" s="20"/>
+      <c r="T809" s="20"/>
+      <c r="U809" s="20"/>
+      <c r="V809" s="20"/>
       <c r="W809" s="15"/>
       <c r="X809" s="15"/>
       <c r="Y809" s="15"/>
@@ -32265,12 +32324,12 @@
       <c r="AC810" s="15"/>
     </row>
     <row r="811" spans="17:29">
-      <c r="Q811" s="20"/>
-      <c r="R811" s="20"/>
-      <c r="S811" s="20"/>
-      <c r="T811" s="20"/>
-      <c r="U811" s="20"/>
-      <c r="V811" s="20"/>
+      <c r="Q811" s="15"/>
+      <c r="R811" s="15"/>
+      <c r="S811" s="15"/>
+      <c r="T811" s="15"/>
+      <c r="U811" s="15"/>
+      <c r="V811" s="15"/>
       <c r="W811" s="15"/>
       <c r="X811" s="15"/>
       <c r="Y811" s="15"/>
@@ -32280,12 +32339,12 @@
       <c r="AC811" s="15"/>
     </row>
     <row r="812" spans="17:29">
-      <c r="Q812" s="15"/>
-      <c r="R812" s="15"/>
-      <c r="S812" s="15"/>
-      <c r="T812" s="15"/>
-      <c r="U812" s="15"/>
-      <c r="V812" s="15"/>
+      <c r="Q812" s="20"/>
+      <c r="R812" s="20"/>
+      <c r="S812" s="20"/>
+      <c r="T812" s="20"/>
+      <c r="U812" s="20"/>
+      <c r="V812" s="20"/>
       <c r="W812" s="15"/>
       <c r="X812" s="15"/>
       <c r="Y812" s="15"/>
@@ -32295,12 +32354,12 @@
       <c r="AC812" s="15"/>
     </row>
     <row r="813" spans="17:29">
-      <c r="Q813" s="20"/>
-      <c r="R813" s="20"/>
-      <c r="S813" s="20"/>
-      <c r="T813" s="20"/>
-      <c r="U813" s="20"/>
-      <c r="V813" s="20"/>
+      <c r="Q813" s="15"/>
+      <c r="R813" s="15"/>
+      <c r="S813" s="15"/>
+      <c r="T813" s="15"/>
+      <c r="U813" s="15"/>
+      <c r="V813" s="15"/>
       <c r="W813" s="15"/>
       <c r="X813" s="15"/>
       <c r="Y813" s="15"/>
@@ -32325,12 +32384,12 @@
       <c r="AC814" s="15"/>
     </row>
     <row r="815" spans="17:29">
-      <c r="Q815" s="15"/>
-      <c r="R815" s="15"/>
-      <c r="S815" s="15"/>
-      <c r="T815" s="15"/>
-      <c r="U815" s="15"/>
-      <c r="V815" s="15"/>
+      <c r="Q815" s="20"/>
+      <c r="R815" s="20"/>
+      <c r="S815" s="20"/>
+      <c r="T815" s="20"/>
+      <c r="U815" s="20"/>
+      <c r="V815" s="20"/>
       <c r="W815" s="15"/>
       <c r="X815" s="15"/>
       <c r="Y815" s="15"/>
@@ -32340,12 +32399,12 @@
       <c r="AC815" s="15"/>
     </row>
     <row r="816" spans="17:29">
-      <c r="Q816" s="20"/>
-      <c r="R816" s="20"/>
-      <c r="S816" s="20"/>
-      <c r="T816" s="20"/>
-      <c r="U816" s="20"/>
-      <c r="V816" s="20"/>
+      <c r="Q816" s="15"/>
+      <c r="R816" s="15"/>
+      <c r="S816" s="15"/>
+      <c r="T816" s="15"/>
+      <c r="U816" s="15"/>
+      <c r="V816" s="15"/>
       <c r="W816" s="15"/>
       <c r="X816" s="15"/>
       <c r="Y816" s="15"/>
@@ -32385,12 +32444,12 @@
       <c r="AC818" s="15"/>
     </row>
     <row r="819" spans="17:29">
-      <c r="Q819" s="15"/>
-      <c r="R819" s="15"/>
-      <c r="S819" s="15"/>
-      <c r="T819" s="15"/>
-      <c r="U819" s="15"/>
-      <c r="V819" s="15"/>
+      <c r="Q819" s="20"/>
+      <c r="R819" s="20"/>
+      <c r="S819" s="20"/>
+      <c r="T819" s="20"/>
+      <c r="U819" s="20"/>
+      <c r="V819" s="20"/>
       <c r="W819" s="15"/>
       <c r="X819" s="15"/>
       <c r="Y819" s="15"/>
@@ -32415,12 +32474,12 @@
       <c r="AC820" s="15"/>
     </row>
     <row r="821" spans="17:29">
-      <c r="Q821" s="20"/>
-      <c r="R821" s="20"/>
-      <c r="S821" s="20"/>
-      <c r="T821" s="20"/>
-      <c r="U821" s="20"/>
-      <c r="V821" s="20"/>
+      <c r="Q821" s="15"/>
+      <c r="R821" s="15"/>
+      <c r="S821" s="15"/>
+      <c r="T821" s="15"/>
+      <c r="U821" s="15"/>
+      <c r="V821" s="15"/>
       <c r="W821" s="15"/>
       <c r="X821" s="15"/>
       <c r="Y821" s="15"/>
@@ -32430,12 +32489,12 @@
       <c r="AC821" s="15"/>
     </row>
     <row r="822" spans="17:29">
-      <c r="Q822" s="15"/>
-      <c r="R822" s="15"/>
-      <c r="S822" s="15"/>
-      <c r="T822" s="15"/>
-      <c r="U822" s="15"/>
-      <c r="V822" s="15"/>
+      <c r="Q822" s="20"/>
+      <c r="R822" s="20"/>
+      <c r="S822" s="20"/>
+      <c r="T822" s="20"/>
+      <c r="U822" s="20"/>
+      <c r="V822" s="20"/>
       <c r="W822" s="15"/>
       <c r="X822" s="15"/>
       <c r="Y822" s="15"/>
@@ -32445,12 +32504,12 @@
       <c r="AC822" s="15"/>
     </row>
     <row r="823" spans="17:29">
-      <c r="Q823" s="20"/>
-      <c r="R823" s="20"/>
-      <c r="S823" s="20"/>
-      <c r="T823" s="20"/>
-      <c r="U823" s="20"/>
-      <c r="V823" s="20"/>
+      <c r="Q823" s="15"/>
+      <c r="R823" s="15"/>
+      <c r="S823" s="15"/>
+      <c r="T823" s="15"/>
+      <c r="U823" s="15"/>
+      <c r="V823" s="15"/>
       <c r="W823" s="15"/>
       <c r="X823" s="15"/>
       <c r="Y823" s="15"/>
@@ -32475,12 +32534,12 @@
       <c r="AC824" s="15"/>
     </row>
     <row r="825" spans="17:29">
-      <c r="Q825" s="15"/>
-      <c r="R825" s="15"/>
-      <c r="S825" s="15"/>
-      <c r="T825" s="15"/>
-      <c r="U825" s="15"/>
-      <c r="V825" s="15"/>
+      <c r="Q825" s="20"/>
+      <c r="R825" s="20"/>
+      <c r="S825" s="20"/>
+      <c r="T825" s="20"/>
+      <c r="U825" s="20"/>
+      <c r="V825" s="20"/>
       <c r="W825" s="15"/>
       <c r="X825" s="15"/>
       <c r="Y825" s="15"/>
@@ -32490,12 +32549,12 @@
       <c r="AC825" s="15"/>
     </row>
     <row r="826" spans="17:29">
-      <c r="Q826" s="20"/>
-      <c r="R826" s="20"/>
-      <c r="S826" s="20"/>
-      <c r="T826" s="20"/>
-      <c r="U826" s="20"/>
-      <c r="V826" s="20"/>
+      <c r="Q826" s="15"/>
+      <c r="R826" s="15"/>
+      <c r="S826" s="15"/>
+      <c r="T826" s="15"/>
+      <c r="U826" s="15"/>
+      <c r="V826" s="15"/>
       <c r="W826" s="15"/>
       <c r="X826" s="15"/>
       <c r="Y826" s="15"/>
@@ -32505,12 +32564,12 @@
       <c r="AC826" s="15"/>
     </row>
     <row r="827" spans="17:29">
-      <c r="Q827" s="15"/>
-      <c r="R827" s="15"/>
-      <c r="S827" s="15"/>
-      <c r="T827" s="15"/>
-      <c r="U827" s="15"/>
-      <c r="V827" s="15"/>
+      <c r="Q827" s="20"/>
+      <c r="R827" s="20"/>
+      <c r="S827" s="20"/>
+      <c r="T827" s="20"/>
+      <c r="U827" s="20"/>
+      <c r="V827" s="20"/>
       <c r="W827" s="15"/>
       <c r="X827" s="15"/>
       <c r="Y827" s="15"/>
@@ -32520,12 +32579,12 @@
       <c r="AC827" s="15"/>
     </row>
     <row r="828" spans="17:29">
-      <c r="Q828" s="20"/>
-      <c r="R828" s="20"/>
-      <c r="S828" s="20"/>
-      <c r="T828" s="20"/>
-      <c r="U828" s="20"/>
-      <c r="V828" s="20"/>
+      <c r="Q828" s="15"/>
+      <c r="R828" s="15"/>
+      <c r="S828" s="15"/>
+      <c r="T828" s="15"/>
+      <c r="U828" s="15"/>
+      <c r="V828" s="15"/>
       <c r="W828" s="15"/>
       <c r="X828" s="15"/>
       <c r="Y828" s="15"/>
@@ -32535,12 +32594,12 @@
       <c r="AC828" s="15"/>
     </row>
     <row r="829" spans="17:29">
-      <c r="Q829" s="15"/>
-      <c r="R829" s="15"/>
-      <c r="S829" s="15"/>
-      <c r="T829" s="15"/>
-      <c r="U829" s="15"/>
-      <c r="V829" s="15"/>
+      <c r="Q829" s="20"/>
+      <c r="R829" s="20"/>
+      <c r="S829" s="20"/>
+      <c r="T829" s="20"/>
+      <c r="U829" s="20"/>
+      <c r="V829" s="20"/>
       <c r="W829" s="15"/>
       <c r="X829" s="15"/>
       <c r="Y829" s="15"/>
@@ -32610,12 +32669,12 @@
       <c r="AC833" s="15"/>
     </row>
     <row r="834" spans="17:29">
-      <c r="Q834" s="20"/>
-      <c r="R834" s="20"/>
-      <c r="S834" s="20"/>
-      <c r="T834" s="20"/>
-      <c r="U834" s="20"/>
-      <c r="V834" s="20"/>
+      <c r="Q834" s="15"/>
+      <c r="R834" s="15"/>
+      <c r="S834" s="15"/>
+      <c r="T834" s="15"/>
+      <c r="U834" s="15"/>
+      <c r="V834" s="15"/>
       <c r="W834" s="15"/>
       <c r="X834" s="15"/>
       <c r="Y834" s="15"/>
@@ -32625,12 +32684,12 @@
       <c r="AC834" s="15"/>
     </row>
     <row r="835" spans="17:29">
-      <c r="Q835" s="15"/>
-      <c r="R835" s="15"/>
-      <c r="S835" s="15"/>
-      <c r="T835" s="15"/>
-      <c r="U835" s="15"/>
-      <c r="V835" s="15"/>
+      <c r="Q835" s="20"/>
+      <c r="R835" s="20"/>
+      <c r="S835" s="20"/>
+      <c r="T835" s="20"/>
+      <c r="U835" s="20"/>
+      <c r="V835" s="20"/>
       <c r="W835" s="15"/>
       <c r="X835" s="15"/>
       <c r="Y835" s="15"/>
@@ -32640,12 +32699,12 @@
       <c r="AC835" s="15"/>
     </row>
     <row r="836" spans="17:29">
-      <c r="Q836" s="20"/>
-      <c r="R836" s="20"/>
-      <c r="S836" s="20"/>
-      <c r="T836" s="20"/>
-      <c r="U836" s="20"/>
-      <c r="V836" s="20"/>
+      <c r="Q836" s="15"/>
+      <c r="R836" s="15"/>
+      <c r="S836" s="15"/>
+      <c r="T836" s="15"/>
+      <c r="U836" s="15"/>
+      <c r="V836" s="15"/>
       <c r="W836" s="15"/>
       <c r="X836" s="15"/>
       <c r="Y836" s="15"/>
@@ -32655,12 +32714,12 @@
       <c r="AC836" s="15"/>
     </row>
     <row r="837" spans="17:29">
-      <c r="Q837" s="15"/>
-      <c r="R837" s="15"/>
-      <c r="S837" s="15"/>
-      <c r="T837" s="15"/>
-      <c r="U837" s="15"/>
-      <c r="V837" s="15"/>
+      <c r="Q837" s="20"/>
+      <c r="R837" s="20"/>
+      <c r="S837" s="20"/>
+      <c r="T837" s="20"/>
+      <c r="U837" s="20"/>
+      <c r="V837" s="20"/>
       <c r="W837" s="15"/>
       <c r="X837" s="15"/>
       <c r="Y837" s="15"/>
@@ -32685,12 +32744,12 @@
       <c r="AC838" s="15"/>
     </row>
     <row r="839" spans="17:29">
-      <c r="Q839" s="20"/>
-      <c r="R839" s="20"/>
-      <c r="S839" s="20"/>
-      <c r="T839" s="20"/>
-      <c r="U839" s="20"/>
-      <c r="V839" s="20"/>
+      <c r="Q839" s="15"/>
+      <c r="R839" s="15"/>
+      <c r="S839" s="15"/>
+      <c r="T839" s="15"/>
+      <c r="U839" s="15"/>
+      <c r="V839" s="15"/>
       <c r="W839" s="15"/>
       <c r="X839" s="15"/>
       <c r="Y839" s="15"/>
@@ -32715,12 +32774,12 @@
       <c r="AC840" s="15"/>
     </row>
     <row r="841" spans="17:29">
-      <c r="Q841" s="15"/>
-      <c r="R841" s="15"/>
-      <c r="S841" s="15"/>
-      <c r="T841" s="15"/>
-      <c r="U841" s="15"/>
-      <c r="V841" s="15"/>
+      <c r="Q841" s="20"/>
+      <c r="R841" s="20"/>
+      <c r="S841" s="20"/>
+      <c r="T841" s="20"/>
+      <c r="U841" s="20"/>
+      <c r="V841" s="20"/>
       <c r="W841" s="15"/>
       <c r="X841" s="15"/>
       <c r="Y841" s="15"/>
@@ -32730,12 +32789,12 @@
       <c r="AC841" s="15"/>
     </row>
     <row r="842" spans="17:29">
-      <c r="Q842" s="20"/>
-      <c r="R842" s="20"/>
-      <c r="S842" s="20"/>
-      <c r="T842" s="20"/>
-      <c r="U842" s="20"/>
-      <c r="V842" s="20"/>
+      <c r="Q842" s="15"/>
+      <c r="R842" s="15"/>
+      <c r="S842" s="15"/>
+      <c r="T842" s="15"/>
+      <c r="U842" s="15"/>
+      <c r="V842" s="15"/>
       <c r="W842" s="15"/>
       <c r="X842" s="15"/>
       <c r="Y842" s="15"/>
@@ -32775,12 +32834,12 @@
       <c r="AC844" s="15"/>
     </row>
     <row r="845" spans="17:29">
-      <c r="Q845" s="15"/>
-      <c r="R845" s="15"/>
-      <c r="S845" s="15"/>
-      <c r="T845" s="15"/>
-      <c r="U845" s="15"/>
-      <c r="V845" s="15"/>
+      <c r="Q845" s="20"/>
+      <c r="R845" s="20"/>
+      <c r="S845" s="20"/>
+      <c r="T845" s="20"/>
+      <c r="U845" s="20"/>
+      <c r="V845" s="20"/>
       <c r="W845" s="15"/>
       <c r="X845" s="15"/>
       <c r="Y845" s="15"/>
@@ -32820,12 +32879,12 @@
       <c r="AC847" s="15"/>
     </row>
     <row r="848" spans="17:29">
-      <c r="Q848" s="20"/>
-      <c r="R848" s="20"/>
-      <c r="S848" s="20"/>
-      <c r="T848" s="20"/>
-      <c r="U848" s="20"/>
-      <c r="V848" s="20"/>
+      <c r="Q848" s="15"/>
+      <c r="R848" s="15"/>
+      <c r="S848" s="15"/>
+      <c r="T848" s="15"/>
+      <c r="U848" s="15"/>
+      <c r="V848" s="15"/>
       <c r="W848" s="15"/>
       <c r="X848" s="15"/>
       <c r="Y848" s="15"/>
@@ -32835,12 +32894,12 @@
       <c r="AC848" s="15"/>
     </row>
     <row r="849" spans="17:29">
-      <c r="Q849" s="15"/>
-      <c r="R849" s="15"/>
-      <c r="S849" s="15"/>
-      <c r="T849" s="15"/>
-      <c r="U849" s="15"/>
-      <c r="V849" s="15"/>
+      <c r="Q849" s="20"/>
+      <c r="R849" s="20"/>
+      <c r="S849" s="20"/>
+      <c r="T849" s="20"/>
+      <c r="U849" s="20"/>
+      <c r="V849" s="20"/>
       <c r="W849" s="15"/>
       <c r="X849" s="15"/>
       <c r="Y849" s="15"/>
@@ -32850,12 +32909,12 @@
       <c r="AC849" s="15"/>
     </row>
     <row r="850" spans="17:29">
-      <c r="Q850" s="20"/>
-      <c r="R850" s="20"/>
-      <c r="S850" s="20"/>
-      <c r="T850" s="20"/>
-      <c r="U850" s="20"/>
-      <c r="V850" s="20"/>
+      <c r="Q850" s="15"/>
+      <c r="R850" s="15"/>
+      <c r="S850" s="15"/>
+      <c r="T850" s="15"/>
+      <c r="U850" s="15"/>
+      <c r="V850" s="15"/>
       <c r="W850" s="15"/>
       <c r="X850" s="15"/>
       <c r="Y850" s="15"/>
@@ -32880,12 +32939,12 @@
       <c r="AC851" s="15"/>
     </row>
     <row r="852" spans="17:29">
-      <c r="Q852" s="15"/>
-      <c r="R852" s="15"/>
-      <c r="S852" s="15"/>
-      <c r="T852" s="15"/>
-      <c r="U852" s="15"/>
-      <c r="V852" s="15"/>
+      <c r="Q852" s="20"/>
+      <c r="R852" s="20"/>
+      <c r="S852" s="20"/>
+      <c r="T852" s="20"/>
+      <c r="U852" s="20"/>
+      <c r="V852" s="20"/>
       <c r="W852" s="15"/>
       <c r="X852" s="15"/>
       <c r="Y852" s="15"/>
@@ -32895,12 +32954,12 @@
       <c r="AC852" s="15"/>
     </row>
     <row r="853" spans="17:29">
-      <c r="Q853" s="20"/>
-      <c r="R853" s="20"/>
-      <c r="S853" s="20"/>
-      <c r="T853" s="20"/>
-      <c r="U853" s="20"/>
-      <c r="V853" s="20"/>
+      <c r="Q853" s="15"/>
+      <c r="R853" s="15"/>
+      <c r="S853" s="15"/>
+      <c r="T853" s="15"/>
+      <c r="U853" s="15"/>
+      <c r="V853" s="15"/>
       <c r="W853" s="15"/>
       <c r="X853" s="15"/>
       <c r="Y853" s="15"/>
@@ -32910,12 +32969,12 @@
       <c r="AC853" s="15"/>
     </row>
     <row r="854" spans="17:29">
-      <c r="Q854" s="15"/>
-      <c r="R854" s="15"/>
-      <c r="S854" s="15"/>
-      <c r="T854" s="15"/>
-      <c r="U854" s="15"/>
-      <c r="V854" s="15"/>
+      <c r="Q854" s="20"/>
+      <c r="R854" s="20"/>
+      <c r="S854" s="20"/>
+      <c r="T854" s="20"/>
+      <c r="U854" s="20"/>
+      <c r="V854" s="20"/>
       <c r="W854" s="15"/>
       <c r="X854" s="15"/>
       <c r="Y854" s="15"/>
@@ -32955,12 +33014,12 @@
       <c r="AC856" s="15"/>
     </row>
     <row r="857" spans="17:29">
-      <c r="Q857" s="20"/>
-      <c r="R857" s="20"/>
-      <c r="S857" s="20"/>
-      <c r="T857" s="20"/>
-      <c r="U857" s="20"/>
-      <c r="V857" s="20"/>
+      <c r="Q857" s="15"/>
+      <c r="R857" s="15"/>
+      <c r="S857" s="15"/>
+      <c r="T857" s="15"/>
+      <c r="U857" s="15"/>
+      <c r="V857" s="15"/>
       <c r="W857" s="15"/>
       <c r="X857" s="15"/>
       <c r="Y857" s="15"/>
@@ -32970,12 +33029,12 @@
       <c r="AC857" s="15"/>
     </row>
     <row r="858" spans="17:29">
-      <c r="Q858" s="15"/>
-      <c r="R858" s="15"/>
-      <c r="S858" s="15"/>
-      <c r="T858" s="15"/>
-      <c r="U858" s="15"/>
-      <c r="V858" s="15"/>
+      <c r="Q858" s="20"/>
+      <c r="R858" s="20"/>
+      <c r="S858" s="20"/>
+      <c r="T858" s="20"/>
+      <c r="U858" s="20"/>
+      <c r="V858" s="20"/>
       <c r="W858" s="15"/>
       <c r="X858" s="15"/>
       <c r="Y858" s="15"/>
@@ -32985,12 +33044,12 @@
       <c r="AC858" s="15"/>
     </row>
     <row r="859" spans="17:29">
-      <c r="Q859" s="20"/>
-      <c r="R859" s="20"/>
-      <c r="S859" s="20"/>
-      <c r="T859" s="20"/>
-      <c r="U859" s="20"/>
-      <c r="V859" s="20"/>
+      <c r="Q859" s="15"/>
+      <c r="R859" s="15"/>
+      <c r="S859" s="15"/>
+      <c r="T859" s="15"/>
+      <c r="U859" s="15"/>
+      <c r="V859" s="15"/>
       <c r="W859" s="15"/>
       <c r="X859" s="15"/>
       <c r="Y859" s="15"/>
@@ -33045,12 +33104,12 @@
       <c r="AC862" s="15"/>
     </row>
     <row r="863" spans="17:29">
-      <c r="Q863" s="15"/>
-      <c r="R863" s="15"/>
-      <c r="S863" s="15"/>
-      <c r="T863" s="15"/>
-      <c r="U863" s="15"/>
-      <c r="V863" s="15"/>
+      <c r="Q863" s="20"/>
+      <c r="R863" s="20"/>
+      <c r="S863" s="20"/>
+      <c r="T863" s="20"/>
+      <c r="U863" s="20"/>
+      <c r="V863" s="20"/>
       <c r="W863" s="15"/>
       <c r="X863" s="15"/>
       <c r="Y863" s="15"/>
@@ -33060,12 +33119,12 @@
       <c r="AC863" s="15"/>
     </row>
     <row r="864" spans="17:29">
-      <c r="Q864" s="20"/>
-      <c r="R864" s="20"/>
-      <c r="S864" s="20"/>
-      <c r="T864" s="20"/>
-      <c r="U864" s="20"/>
-      <c r="V864" s="20"/>
+      <c r="Q864" s="15"/>
+      <c r="R864" s="15"/>
+      <c r="S864" s="15"/>
+      <c r="T864" s="15"/>
+      <c r="U864" s="15"/>
+      <c r="V864" s="15"/>
       <c r="W864" s="15"/>
       <c r="X864" s="15"/>
       <c r="Y864" s="15"/>
@@ -33195,12 +33254,12 @@
       <c r="AC872" s="15"/>
     </row>
     <row r="873" spans="17:29">
-      <c r="Q873" s="15"/>
-      <c r="R873" s="15"/>
-      <c r="S873" s="15"/>
-      <c r="T873" s="15"/>
-      <c r="U873" s="15"/>
-      <c r="V873" s="15"/>
+      <c r="Q873" s="20"/>
+      <c r="R873" s="20"/>
+      <c r="S873" s="20"/>
+      <c r="T873" s="20"/>
+      <c r="U873" s="20"/>
+      <c r="V873" s="20"/>
       <c r="W873" s="15"/>
       <c r="X873" s="15"/>
       <c r="Y873" s="15"/>
@@ -33240,12 +33299,12 @@
       <c r="AC875" s="15"/>
     </row>
     <row r="876" spans="17:29">
-      <c r="Q876" s="20"/>
-      <c r="R876" s="20"/>
-      <c r="S876" s="20"/>
-      <c r="T876" s="20"/>
-      <c r="U876" s="20"/>
-      <c r="V876" s="20"/>
+      <c r="Q876" s="15"/>
+      <c r="R876" s="15"/>
+      <c r="S876" s="15"/>
+      <c r="T876" s="15"/>
+      <c r="U876" s="15"/>
+      <c r="V876" s="15"/>
       <c r="W876" s="15"/>
       <c r="X876" s="15"/>
       <c r="Y876" s="15"/>
@@ -33255,12 +33314,12 @@
       <c r="AC876" s="15"/>
     </row>
     <row r="877" spans="17:29">
-      <c r="Q877" s="15"/>
-      <c r="R877" s="15"/>
-      <c r="S877" s="15"/>
-      <c r="T877" s="15"/>
-      <c r="U877" s="15"/>
-      <c r="V877" s="15"/>
+      <c r="Q877" s="20"/>
+      <c r="R877" s="20"/>
+      <c r="S877" s="20"/>
+      <c r="T877" s="20"/>
+      <c r="U877" s="20"/>
+      <c r="V877" s="20"/>
       <c r="W877" s="15"/>
       <c r="X877" s="15"/>
       <c r="Y877" s="15"/>
@@ -33270,12 +33329,12 @@
       <c r="AC877" s="15"/>
     </row>
     <row r="878" spans="17:29">
-      <c r="Q878" s="20"/>
-      <c r="R878" s="20"/>
-      <c r="S878" s="20"/>
-      <c r="T878" s="20"/>
-      <c r="U878" s="20"/>
-      <c r="V878" s="20"/>
+      <c r="Q878" s="15"/>
+      <c r="R878" s="15"/>
+      <c r="S878" s="15"/>
+      <c r="T878" s="15"/>
+      <c r="U878" s="15"/>
+      <c r="V878" s="15"/>
       <c r="W878" s="15"/>
       <c r="X878" s="15"/>
       <c r="Y878" s="15"/>
@@ -33300,12 +33359,12 @@
       <c r="AC879" s="15"/>
     </row>
     <row r="880" spans="17:29">
-      <c r="Q880" s="15"/>
-      <c r="R880" s="15"/>
-      <c r="S880" s="15"/>
-      <c r="T880" s="15"/>
-      <c r="U880" s="15"/>
-      <c r="V880" s="15"/>
+      <c r="Q880" s="20"/>
+      <c r="R880" s="20"/>
+      <c r="S880" s="20"/>
+      <c r="T880" s="20"/>
+      <c r="U880" s="20"/>
+      <c r="V880" s="20"/>
       <c r="W880" s="15"/>
       <c r="X880" s="15"/>
       <c r="Y880" s="15"/>
@@ -33315,12 +33374,12 @@
       <c r="AC880" s="15"/>
     </row>
     <row r="881" spans="17:29">
-      <c r="Q881" s="20"/>
-      <c r="R881" s="20"/>
-      <c r="S881" s="20"/>
-      <c r="T881" s="20"/>
-      <c r="U881" s="20"/>
-      <c r="V881" s="20"/>
+      <c r="Q881" s="15"/>
+      <c r="R881" s="15"/>
+      <c r="S881" s="15"/>
+      <c r="T881" s="15"/>
+      <c r="U881" s="15"/>
+      <c r="V881" s="15"/>
       <c r="W881" s="15"/>
       <c r="X881" s="15"/>
       <c r="Y881" s="15"/>
@@ -33360,12 +33419,12 @@
       <c r="AC883" s="15"/>
     </row>
     <row r="884" spans="17:29">
-      <c r="Q884" s="15"/>
-      <c r="R884" s="15"/>
-      <c r="S884" s="15"/>
-      <c r="T884" s="15"/>
-      <c r="U884" s="15"/>
-      <c r="V884" s="15"/>
+      <c r="Q884" s="20"/>
+      <c r="R884" s="20"/>
+      <c r="S884" s="20"/>
+      <c r="T884" s="20"/>
+      <c r="U884" s="20"/>
+      <c r="V884" s="20"/>
       <c r="W884" s="15"/>
       <c r="X884" s="15"/>
       <c r="Y884" s="15"/>
@@ -33405,12 +33464,12 @@
       <c r="AC886" s="15"/>
     </row>
     <row r="887" spans="17:29">
-      <c r="Q887" s="20"/>
-      <c r="R887" s="20"/>
-      <c r="S887" s="20"/>
-      <c r="T887" s="20"/>
-      <c r="U887" s="20"/>
-      <c r="V887" s="20"/>
+      <c r="Q887" s="15"/>
+      <c r="R887" s="15"/>
+      <c r="S887" s="15"/>
+      <c r="T887" s="15"/>
+      <c r="U887" s="15"/>
+      <c r="V887" s="15"/>
       <c r="W887" s="15"/>
       <c r="X887" s="15"/>
       <c r="Y887" s="15"/>
@@ -33510,12 +33569,12 @@
       <c r="AC893" s="15"/>
     </row>
     <row r="894" spans="17:29">
-      <c r="Q894" s="15"/>
-      <c r="R894" s="15"/>
-      <c r="S894" s="15"/>
-      <c r="T894" s="15"/>
-      <c r="U894" s="15"/>
-      <c r="V894" s="15"/>
+      <c r="Q894" s="20"/>
+      <c r="R894" s="20"/>
+      <c r="S894" s="20"/>
+      <c r="T894" s="20"/>
+      <c r="U894" s="20"/>
+      <c r="V894" s="20"/>
       <c r="W894" s="15"/>
       <c r="X894" s="15"/>
       <c r="Y894" s="15"/>
@@ -33540,12 +33599,12 @@
       <c r="AC895" s="15"/>
     </row>
     <row r="896" spans="17:29">
-      <c r="Q896" s="20"/>
-      <c r="R896" s="20"/>
-      <c r="S896" s="20"/>
-      <c r="T896" s="20"/>
-      <c r="U896" s="20"/>
-      <c r="V896" s="20"/>
+      <c r="Q896" s="15"/>
+      <c r="R896" s="15"/>
+      <c r="S896" s="15"/>
+      <c r="T896" s="15"/>
+      <c r="U896" s="15"/>
+      <c r="V896" s="15"/>
       <c r="W896" s="15"/>
       <c r="X896" s="15"/>
       <c r="Y896" s="15"/>
@@ -33690,12 +33749,12 @@
       <c r="AC905" s="15"/>
     </row>
     <row r="906" spans="17:29">
-      <c r="Q906" s="15"/>
-      <c r="R906" s="15"/>
-      <c r="S906" s="15"/>
-      <c r="T906" s="15"/>
-      <c r="U906" s="15"/>
-      <c r="V906" s="15"/>
+      <c r="Q906" s="20"/>
+      <c r="R906" s="20"/>
+      <c r="S906" s="20"/>
+      <c r="T906" s="20"/>
+      <c r="U906" s="20"/>
+      <c r="V906" s="20"/>
       <c r="W906" s="15"/>
       <c r="X906" s="15"/>
       <c r="Y906" s="15"/>
@@ -33705,12 +33764,12 @@
       <c r="AC906" s="15"/>
     </row>
     <row r="907" spans="17:29">
-      <c r="Q907" s="20"/>
-      <c r="R907" s="20"/>
-      <c r="S907" s="20"/>
-      <c r="T907" s="20"/>
-      <c r="U907" s="20"/>
-      <c r="V907" s="20"/>
+      <c r="Q907" s="15"/>
+      <c r="R907" s="15"/>
+      <c r="S907" s="15"/>
+      <c r="T907" s="15"/>
+      <c r="U907" s="15"/>
+      <c r="V907" s="15"/>
       <c r="W907" s="15"/>
       <c r="X907" s="15"/>
       <c r="Y907" s="15"/>
@@ -33795,12 +33854,12 @@
       <c r="AC912" s="15"/>
     </row>
     <row r="913" spans="17:29">
-      <c r="Q913" s="15"/>
-      <c r="R913" s="15"/>
-      <c r="S913" s="15"/>
-      <c r="T913" s="15"/>
-      <c r="U913" s="15"/>
-      <c r="V913" s="15"/>
+      <c r="Q913" s="20"/>
+      <c r="R913" s="20"/>
+      <c r="S913" s="20"/>
+      <c r="T913" s="20"/>
+      <c r="U913" s="20"/>
+      <c r="V913" s="20"/>
       <c r="W913" s="15"/>
       <c r="X913" s="15"/>
       <c r="Y913" s="15"/>
@@ -33840,12 +33899,12 @@
       <c r="AC915" s="15"/>
     </row>
     <row r="916" spans="17:29">
-      <c r="Q916" s="20"/>
-      <c r="R916" s="20"/>
-      <c r="S916" s="20"/>
-      <c r="T916" s="20"/>
-      <c r="U916" s="20"/>
-      <c r="V916" s="20"/>
+      <c r="Q916" s="15"/>
+      <c r="R916" s="15"/>
+      <c r="S916" s="15"/>
+      <c r="T916" s="15"/>
+      <c r="U916" s="15"/>
+      <c r="V916" s="15"/>
       <c r="W916" s="15"/>
       <c r="X916" s="15"/>
       <c r="Y916" s="15"/>
@@ -33915,12 +33974,12 @@
       <c r="AC920" s="15"/>
     </row>
     <row r="921" spans="17:29">
-      <c r="Q921" s="15"/>
-      <c r="R921" s="15"/>
-      <c r="S921" s="15"/>
-      <c r="T921" s="15"/>
-      <c r="U921" s="15"/>
-      <c r="V921" s="15"/>
+      <c r="Q921" s="20"/>
+      <c r="R921" s="20"/>
+      <c r="S921" s="20"/>
+      <c r="T921" s="20"/>
+      <c r="U921" s="20"/>
+      <c r="V921" s="20"/>
       <c r="W921" s="15"/>
       <c r="X921" s="15"/>
       <c r="Y921" s="15"/>
@@ -33930,12 +33989,12 @@
       <c r="AC921" s="15"/>
     </row>
     <row r="922" spans="17:29">
-      <c r="Q922" s="20"/>
-      <c r="R922" s="20"/>
-      <c r="S922" s="20"/>
-      <c r="T922" s="20"/>
-      <c r="U922" s="20"/>
-      <c r="V922" s="20"/>
+      <c r="Q922" s="15"/>
+      <c r="R922" s="15"/>
+      <c r="S922" s="15"/>
+      <c r="T922" s="15"/>
+      <c r="U922" s="15"/>
+      <c r="V922" s="15"/>
       <c r="W922" s="15"/>
       <c r="X922" s="15"/>
       <c r="Y922" s="15"/>
@@ -33990,12 +34049,12 @@
       <c r="AC925" s="15"/>
     </row>
     <row r="926" spans="17:29">
-      <c r="Q926" s="15"/>
-      <c r="R926" s="15"/>
-      <c r="S926" s="15"/>
-      <c r="T926" s="15"/>
-      <c r="U926" s="15"/>
-      <c r="V926" s="15"/>
+      <c r="Q926" s="20"/>
+      <c r="R926" s="20"/>
+      <c r="S926" s="20"/>
+      <c r="T926" s="20"/>
+      <c r="U926" s="20"/>
+      <c r="V926" s="20"/>
       <c r="W926" s="15"/>
       <c r="X926" s="15"/>
       <c r="Y926" s="15"/>
@@ -34020,12 +34079,12 @@
       <c r="AC927" s="15"/>
     </row>
     <row r="928" spans="17:29">
-      <c r="Q928" s="20"/>
-      <c r="R928" s="20"/>
-      <c r="S928" s="20"/>
-      <c r="T928" s="20"/>
-      <c r="U928" s="20"/>
-      <c r="V928" s="20"/>
+      <c r="Q928" s="15"/>
+      <c r="R928" s="15"/>
+      <c r="S928" s="15"/>
+      <c r="T928" s="15"/>
+      <c r="U928" s="15"/>
+      <c r="V928" s="15"/>
       <c r="W928" s="15"/>
       <c r="X928" s="15"/>
       <c r="Y928" s="15"/>
@@ -34110,12 +34169,12 @@
       <c r="AC933" s="15"/>
     </row>
     <row r="934" spans="17:29">
-      <c r="Q934" s="15"/>
-      <c r="R934" s="15"/>
-      <c r="S934" s="15"/>
-      <c r="T934" s="15"/>
-      <c r="U934" s="15"/>
-      <c r="V934" s="15"/>
+      <c r="Q934" s="20"/>
+      <c r="R934" s="20"/>
+      <c r="S934" s="20"/>
+      <c r="T934" s="20"/>
+      <c r="U934" s="20"/>
+      <c r="V934" s="20"/>
       <c r="W934" s="15"/>
       <c r="X934" s="15"/>
       <c r="Y934" s="15"/>
@@ -34170,12 +34229,12 @@
       <c r="AC937" s="15"/>
     </row>
     <row r="938" spans="17:29">
-      <c r="Q938" s="20"/>
-      <c r="R938" s="20"/>
-      <c r="S938" s="20"/>
-      <c r="T938" s="20"/>
-      <c r="U938" s="20"/>
-      <c r="V938" s="20"/>
+      <c r="Q938" s="15"/>
+      <c r="R938" s="15"/>
+      <c r="S938" s="15"/>
+      <c r="T938" s="15"/>
+      <c r="U938" s="15"/>
+      <c r="V938" s="15"/>
       <c r="W938" s="15"/>
       <c r="X938" s="15"/>
       <c r="Y938" s="15"/>
@@ -34185,12 +34244,12 @@
       <c r="AC938" s="15"/>
     </row>
     <row r="939" spans="17:29">
-      <c r="Q939" s="15"/>
-      <c r="R939" s="15"/>
-      <c r="S939" s="15"/>
-      <c r="T939" s="15"/>
-      <c r="U939" s="15"/>
-      <c r="V939" s="15"/>
+      <c r="Q939" s="20"/>
+      <c r="R939" s="20"/>
+      <c r="S939" s="20"/>
+      <c r="T939" s="20"/>
+      <c r="U939" s="20"/>
+      <c r="V939" s="20"/>
       <c r="W939" s="15"/>
       <c r="X939" s="15"/>
       <c r="Y939" s="15"/>
@@ -34245,12 +34304,12 @@
       <c r="AC942" s="15"/>
     </row>
     <row r="943" spans="17:29">
-      <c r="Q943" s="20"/>
-      <c r="R943" s="20"/>
-      <c r="S943" s="20"/>
-      <c r="T943" s="20"/>
-      <c r="U943" s="20"/>
-      <c r="V943" s="20"/>
+      <c r="Q943" s="15"/>
+      <c r="R943" s="15"/>
+      <c r="S943" s="15"/>
+      <c r="T943" s="15"/>
+      <c r="U943" s="15"/>
+      <c r="V943" s="15"/>
       <c r="W943" s="15"/>
       <c r="X943" s="15"/>
       <c r="Y943" s="15"/>
@@ -34260,12 +34319,12 @@
       <c r="AC943" s="15"/>
     </row>
     <row r="944" spans="17:29">
-      <c r="Q944" s="15"/>
-      <c r="R944" s="15"/>
-      <c r="S944" s="15"/>
-      <c r="T944" s="15"/>
-      <c r="U944" s="15"/>
-      <c r="V944" s="15"/>
+      <c r="Q944" s="20"/>
+      <c r="R944" s="20"/>
+      <c r="S944" s="20"/>
+      <c r="T944" s="20"/>
+      <c r="U944" s="20"/>
+      <c r="V944" s="20"/>
       <c r="W944" s="15"/>
       <c r="X944" s="15"/>
       <c r="Y944" s="15"/>
@@ -34320,12 +34379,12 @@
       <c r="AC947" s="15"/>
     </row>
     <row r="948" spans="17:29">
-      <c r="Q948" s="20"/>
-      <c r="R948" s="20"/>
-      <c r="S948" s="20"/>
-      <c r="T948" s="20"/>
-      <c r="U948" s="20"/>
-      <c r="V948" s="20"/>
+      <c r="Q948" s="15"/>
+      <c r="R948" s="15"/>
+      <c r="S948" s="15"/>
+      <c r="T948" s="15"/>
+      <c r="U948" s="15"/>
+      <c r="V948" s="15"/>
       <c r="W948" s="15"/>
       <c r="X948" s="15"/>
       <c r="Y948" s="15"/>
@@ -34530,22 +34589,7 @@
       <c r="AC961" s="15"/>
     </row>
     <row r="962" spans="17:29">
-      <c r="Q962" s="15"/>
-      <c r="R962" s="15"/>
-      <c r="S962" s="15"/>
-      <c r="T962" s="15"/>
-      <c r="U962" s="15"/>
-      <c r="V962" s="15"/>
-      <c r="W962" s="15"/>
-      <c r="X962" s="15"/>
-      <c r="Y962" s="15"/>
-      <c r="Z962" s="15"/>
       <c r="AA962" s="15"/>
-      <c r="AB962" s="15"/>
-      <c r="AC962" s="15"/>
-    </row>
-    <row r="963" spans="17:29">
-      <c r="AA963" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -34558,8 +34602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO243"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K178" sqref="K178"/>
+    <sheetView topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J180" sqref="J180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -38180,12 +38224,27 @@
       </c>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="10"/>
+      <c r="A173" s="9">
+        <v>1</v>
+      </c>
       <c r="B173" s="10"/>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
+      <c r="C173" s="9">
+        <v>1</v>
+      </c>
+      <c r="D173" s="9">
+        <v>1</v>
+      </c>
       <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
+      <c r="F173" s="9">
+        <v>1</v>
+      </c>
+      <c r="G173" s="10"/>
+      <c r="H173" s="9">
+        <v>1</v>
+      </c>
+      <c r="I173" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" spans="1:22">
       <c r="A174" s="10"/>
@@ -38408,7 +38467,6 @@
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
       <c r="F201" s="10"/>
     </row>
     <row r="202" spans="1:6">
@@ -38493,7 +38551,7 @@
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
       <c r="D213" s="10"/>
-      <c r="F213" s="18"/>
+      <c r="F213" s="10"/>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="10"/>
@@ -38507,6 +38565,7 @@
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
+      <c r="F215" s="18"/>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="10"/>
@@ -38644,8 +38703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="I177" sqref="I177"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="S180" sqref="S180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43059,6 +43118,53 @@
         <v>6</v>
       </c>
     </row>
+    <row r="173" spans="1:19">
+      <c r="A173" s="1">
+        <v>1</v>
+      </c>
+      <c r="B173" s="1">
+        <v>2</v>
+      </c>
+      <c r="C173" s="1">
+        <v>3</v>
+      </c>
+      <c r="F173" s="1">
+        <v>1</v>
+      </c>
+      <c r="G173" s="1">
+        <v>1</v>
+      </c>
+      <c r="H173" s="1">
+        <v>1</v>
+      </c>
+      <c r="I173" s="1">
+        <v>3</v>
+      </c>
+      <c r="J173" s="1">
+        <v>0</v>
+      </c>
+      <c r="K173" s="1">
+        <v>0</v>
+      </c>
+      <c r="N173" s="1">
+        <v>0</v>
+      </c>
+      <c r="O173" s="1">
+        <v>0</v>
+      </c>
+      <c r="P173" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="1">
+        <v>1</v>
+      </c>
+      <c r="R173" s="1">
+        <v>3</v>
+      </c>
+      <c r="S173" s="1">
+        <v>7</v>
+      </c>
+    </row>
     <row r="175" spans="1:19" customFormat="1">
       <c r="A175" s="35"/>
       <c r="B175" s="35"/>
@@ -43106,10 +43212,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN172"/>
+  <dimension ref="A100:AN173"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="G181" sqref="G181"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="O180" sqref="O180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -46425,6 +46531,44 @@
         <v>5</v>
       </c>
     </row>
+    <row r="173" spans="1:19">
+      <c r="A173" s="9">
+        <v>1</v>
+      </c>
+      <c r="B173" s="9">
+        <v>1</v>
+      </c>
+      <c r="E173" s="9">
+        <v>1</v>
+      </c>
+      <c r="I173" s="9">
+        <v>1</v>
+      </c>
+      <c r="J173" s="11">
+        <v>2</v>
+      </c>
+      <c r="L173" s="16">
+        <v>0</v>
+      </c>
+      <c r="M173" s="16">
+        <v>0</v>
+      </c>
+      <c r="N173" s="16">
+        <v>1</v>
+      </c>
+      <c r="O173" s="16">
+        <v>2</v>
+      </c>
+      <c r="P173" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q173" s="16">
+        <v>9</v>
+      </c>
+      <c r="S173" s="16">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46437,7 +46581,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -46661,7 +46805,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -46796,10 +46940,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -46902,7 +47046,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" s="18">
         <v>1</v>
@@ -46911,16 +47055,16 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
       </c>
       <c r="O10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -46928,7 +47072,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
@@ -46937,7 +47081,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -46954,11 +47098,14 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
       <c r="I12" s="18">
         <v>19</v>
       </c>
@@ -46966,7 +47113,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N12" s="18">
         <v>17</v>
@@ -46991,18 +47138,18 @@
         <v>29</v>
       </c>
       <c r="I14" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N14" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -47016,7 +47163,7 @@
   <dimension ref="A2:AG24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -47241,7 +47388,7 @@
   <dimension ref="A3:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>永远不要选自己觉得会出的号码     n+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,7 +377,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,12 +420,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -435,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,18 +568,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -895,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO104"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U74" sqref="U74"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF71" sqref="AF71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5615,7 +5601,7 @@
         <v>3</v>
       </c>
       <c r="P47" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q47" s="7">
         <v>7</v>
@@ -6291,7 +6277,9 @@
       <c r="I54" s="7">
         <v>10</v>
       </c>
-      <c r="J54" s="7"/>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
       <c r="K54" s="7">
         <v>8</v>
       </c>
@@ -6459,7 +6447,7 @@
     </row>
     <row r="56" spans="1:33" s="25" customFormat="1">
       <c r="A56" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B56" s="7">
         <v>0</v>
@@ -6487,7 +6475,7 @@
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L56" s="7">
         <v>6</v>
@@ -6521,7 +6509,7 @@
         <v>5</v>
       </c>
       <c r="W56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="7">
         <v>3</v>
@@ -6632,10 +6620,10 @@
         <v>1</v>
       </c>
       <c r="AD57" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE57" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF57" s="7">
         <v>2</v>
@@ -6689,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S58" s="7">
         <v>3</v>
@@ -6736,7 +6724,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" s="7">
         <v>6</v>
@@ -6851,7 +6839,7 @@
         <v>3</v>
       </c>
       <c r="T60" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U60" s="7">
         <v>1</v>
@@ -6881,7 +6869,7 @@
         <v>3</v>
       </c>
       <c r="AG60" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
@@ -6902,7 +6890,9 @@
       <c r="G61" s="7">
         <v>5</v>
       </c>
-      <c r="H61" s="25"/>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
       <c r="I61" s="7">
         <v>0</v>
       </c>
@@ -6946,7 +6936,7 @@
         <v>8</v>
       </c>
       <c r="AA61" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB61" s="7">
         <v>12</v>
@@ -6985,13 +6975,13 @@
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
       </c>
       <c r="N62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" s="7">
         <v>4</v>
@@ -7006,7 +6996,7 @@
       </c>
       <c r="T62" s="7"/>
       <c r="U62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V62" s="7">
         <v>1</v>
@@ -7025,7 +7015,9 @@
       <c r="AB62" s="7">
         <v>12</v>
       </c>
-      <c r="AC62" s="7"/>
+      <c r="AC62" s="7">
+        <v>0</v>
+      </c>
       <c r="AD62" s="7"/>
       <c r="AE62" s="3"/>
       <c r="AF62" s="7">
@@ -7053,7 +7045,7 @@
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -7083,7 +7075,7 @@
         <v>3</v>
       </c>
       <c r="Y63" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z63" s="4">
         <v>12</v>
@@ -7095,7 +7087,7 @@
       <c r="AD63" s="7"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG63" s="5"/>
     </row>
@@ -7110,7 +7102,7 @@
         <v>10</v>
       </c>
       <c r="F64" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G64" s="2">
         <v>0</v>
@@ -7157,7 +7149,7 @@
     </row>
     <row r="65" spans="1:33">
       <c r="B65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="7">
@@ -7168,7 +7160,7 @@
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H65" s="4"/>
       <c r="J65" s="3"/>
@@ -7234,7 +7226,7 @@
       </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
@@ -7247,10 +7239,10 @@
       </c>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB66" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7273,7 +7265,9 @@
         <v>7</v>
       </c>
       <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
+      <c r="O67" s="4">
+        <v>0</v>
+      </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
         <v>11</v>
@@ -7287,7 +7281,7 @@
       </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z67" s="4"/>
       <c r="AB67" s="12"/>
@@ -7320,7 +7314,9 @@
       <c r="S68" s="4"/>
       <c r="T68" s="3"/>
       <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
+      <c r="V68" s="4">
+        <v>0</v>
+      </c>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
       <c r="Z68" s="4"/>
@@ -7370,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F70" s="7"/>
       <c r="H70" s="4"/>
@@ -7444,12 +7440,14 @@
       <c r="J72" s="3"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
+      <c r="Q72" s="4">
+        <v>0</v>
+      </c>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
       <c r="T72" s="3"/>
@@ -7494,7 +7492,7 @@
       <c r="A74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -8016,7 +8014,7 @@
   <dimension ref="A1:AT961"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G181" sqref="G181"/>
+      <selection activeCell="H181" sqref="H181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -8024,11 +8022,11 @@
     <col min="1" max="16" width="5.125" style="1" customWidth="1"/>
     <col min="17" max="27" width="4.625" style="1" customWidth="1"/>
     <col min="28" max="29" width="5.625" style="1"/>
-    <col min="30" max="30" width="5.625" style="65"/>
+    <col min="30" max="30" width="5.625" style="18"/>
     <col min="31" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="22" customFormat="1">
+    <row r="1" spans="1:29" s="22" customFormat="1">
       <c r="A1" s="22">
         <v>6</v>
       </c>
@@ -8102,9 +8100,8 @@
       <c r="AC1" s="19">
         <v>9</v>
       </c>
-      <c r="AD1" s="64"/>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>6</v>
       </c>
@@ -8179,7 +8176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -8254,7 +8251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -8329,7 +8326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -8404,7 +8401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:29">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -8479,7 +8476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:29">
       <c r="A7" s="1">
         <v>13</v>
       </c>
@@ -8553,7 +8550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:29">
       <c r="A8" s="1">
         <v>13</v>
       </c>
@@ -8627,7 +8624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:29">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -8701,7 +8698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:29">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -8775,7 +8772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:29">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -8849,7 +8846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:29">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -8923,7 +8920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:29">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8997,7 +8994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:29">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -9071,7 +9068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:29">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -9146,7 +9143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:29">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -16326,7 +16323,7 @@
       <c r="AC110" s="22">
         <v>23</v>
       </c>
-      <c r="AD110" s="64"/>
+      <c r="AD110" s="22"/>
       <c r="AF110" s="22"/>
     </row>
     <row r="111" spans="1:32" s="21" customFormat="1">
@@ -16404,7 +16401,7 @@
       <c r="AC111" s="22">
         <v>13</v>
       </c>
-      <c r="AD111" s="64"/>
+      <c r="AD111" s="22"/>
       <c r="AF111" s="22"/>
     </row>
     <row r="112" spans="1:32" s="21" customFormat="1">
@@ -16482,7 +16479,7 @@
       <c r="AC112" s="22">
         <v>10</v>
       </c>
-      <c r="AD112" s="64"/>
+      <c r="AD112" s="22"/>
       <c r="AF112" s="22"/>
     </row>
     <row r="113" spans="1:43" s="21" customFormat="1">
@@ -16560,7 +16557,7 @@
       <c r="AC113" s="22">
         <v>9</v>
       </c>
-      <c r="AD113" s="64"/>
+      <c r="AD113" s="22"/>
       <c r="AF113" s="22"/>
     </row>
     <row r="114" spans="1:43" s="21" customFormat="1">
@@ -16638,7 +16635,7 @@
       <c r="AC114" s="22">
         <v>6</v>
       </c>
-      <c r="AD114" s="64"/>
+      <c r="AD114" s="22"/>
       <c r="AF114" s="22"/>
     </row>
     <row r="115" spans="1:43" s="21" customFormat="1">
@@ -16716,7 +16713,7 @@
       <c r="AC115" s="22">
         <v>14</v>
       </c>
-      <c r="AD115" s="64"/>
+      <c r="AD115" s="22"/>
       <c r="AF115" s="22"/>
     </row>
     <row r="116" spans="1:43" s="21" customFormat="1">
@@ -16794,7 +16791,7 @@
       <c r="AC116" s="22">
         <v>15</v>
       </c>
-      <c r="AD116" s="64"/>
+      <c r="AD116" s="22"/>
       <c r="AF116" s="22"/>
     </row>
     <row r="117" spans="1:43" s="21" customFormat="1">
@@ -16872,7 +16869,7 @@
       <c r="AC117" s="22">
         <v>17</v>
       </c>
-      <c r="AD117" s="64"/>
+      <c r="AD117" s="22"/>
       <c r="AF117" s="22"/>
     </row>
     <row r="118" spans="1:43" s="21" customFormat="1">
@@ -16950,7 +16947,7 @@
       <c r="AC118" s="22">
         <v>7</v>
       </c>
-      <c r="AD118" s="64"/>
+      <c r="AD118" s="22"/>
       <c r="AF118" s="22"/>
     </row>
     <row r="119" spans="1:43" s="21" customFormat="1">
@@ -17028,7 +17025,7 @@
       <c r="AC119" s="19">
         <v>23</v>
       </c>
-      <c r="AD119" s="64"/>
+      <c r="AD119" s="22"/>
       <c r="AF119" s="22"/>
     </row>
     <row r="120" spans="1:43" s="21" customFormat="1">
@@ -17106,7 +17103,7 @@
       <c r="AC120" s="22">
         <v>5</v>
       </c>
-      <c r="AD120" s="64"/>
+      <c r="AD120" s="22"/>
       <c r="AF120" s="22"/>
     </row>
     <row r="121" spans="1:43" s="21" customFormat="1">
@@ -17184,7 +17181,7 @@
       <c r="AC121" s="19">
         <v>7</v>
       </c>
-      <c r="AD121" s="64"/>
+      <c r="AD121" s="22"/>
       <c r="AF121" s="22"/>
     </row>
     <row r="122" spans="1:43" s="21" customFormat="1">
@@ -17262,7 +17259,7 @@
       <c r="AC122" s="22">
         <v>8</v>
       </c>
-      <c r="AD122" s="64"/>
+      <c r="AD122" s="22"/>
       <c r="AF122" s="22"/>
     </row>
     <row r="123" spans="1:43" s="21" customFormat="1">
@@ -17340,7 +17337,7 @@
       <c r="AC123" s="19">
         <v>15</v>
       </c>
-      <c r="AD123" s="64"/>
+      <c r="AD123" s="22"/>
       <c r="AF123" s="22"/>
       <c r="AH123" s="21">
         <v>1</v>
@@ -17439,7 +17436,7 @@
       <c r="AC124" s="22">
         <v>16</v>
       </c>
-      <c r="AD124" s="64"/>
+      <c r="AD124" s="22"/>
       <c r="AF124" s="22"/>
       <c r="AH124" s="21">
         <v>0</v>
@@ -17544,7 +17541,7 @@
       <c r="AC125" s="19">
         <v>13</v>
       </c>
-      <c r="AD125" s="64"/>
+      <c r="AD125" s="22"/>
       <c r="AF125" s="22"/>
       <c r="AH125" s="21">
         <v>0</v>
@@ -17649,7 +17646,7 @@
       <c r="AC126" s="22">
         <v>4</v>
       </c>
-      <c r="AD126" s="66"/>
+      <c r="AD126" s="23"/>
       <c r="AF126" s="23"/>
       <c r="AH126" s="21">
         <v>0</v>
@@ -17751,7 +17748,7 @@
       <c r="AC127" s="22">
         <v>19</v>
       </c>
-      <c r="AD127" s="66"/>
+      <c r="AD127" s="23"/>
       <c r="AF127" s="23"/>
       <c r="AH127" s="21">
         <v>0</v>
@@ -17853,7 +17850,7 @@
       <c r="AC128" s="19">
         <v>10</v>
       </c>
-      <c r="AD128" s="66"/>
+      <c r="AD128" s="23"/>
       <c r="AF128" s="23"/>
       <c r="AH128" s="21">
         <v>0</v>
@@ -17955,7 +17952,7 @@
       <c r="AC129" s="19">
         <v>15</v>
       </c>
-      <c r="AD129" s="66"/>
+      <c r="AD129" s="23"/>
       <c r="AF129" s="23"/>
       <c r="AH129" s="21">
         <v>0</v>
@@ -18057,7 +18054,7 @@
       <c r="AC130" s="19">
         <v>15</v>
       </c>
-      <c r="AD130" s="66"/>
+      <c r="AD130" s="23"/>
       <c r="AF130" s="23"/>
       <c r="AH130" s="21">
         <v>0</v>
@@ -18159,7 +18156,7 @@
       <c r="AC131" s="22">
         <v>4</v>
       </c>
-      <c r="AD131" s="66"/>
+      <c r="AD131" s="23"/>
       <c r="AF131" s="23"/>
       <c r="AH131" s="21">
         <v>1</v>
@@ -18261,7 +18258,7 @@
       <c r="AC132" s="22">
         <v>9</v>
       </c>
-      <c r="AD132" s="66"/>
+      <c r="AD132" s="23"/>
       <c r="AF132" s="23"/>
       <c r="AH132" s="21">
         <v>2</v>
@@ -18363,7 +18360,7 @@
       <c r="AC133" s="22">
         <v>6</v>
       </c>
-      <c r="AD133" s="66"/>
+      <c r="AD133" s="23"/>
       <c r="AF133" s="39"/>
       <c r="AH133" s="21">
         <v>0</v>
@@ -18459,7 +18456,7 @@
       <c r="AC134" s="22">
         <v>5</v>
       </c>
-      <c r="AD134" s="66"/>
+      <c r="AD134" s="23"/>
       <c r="AF134" s="39"/>
       <c r="AH134" s="21">
         <v>0</v>
@@ -18561,7 +18558,7 @@
       <c r="AC135" s="22">
         <v>13</v>
       </c>
-      <c r="AD135" s="66"/>
+      <c r="AD135" s="23"/>
       <c r="AF135" s="39"/>
       <c r="AH135" s="21">
         <v>0</v>
@@ -18663,7 +18660,7 @@
       <c r="AC136" s="22">
         <v>12</v>
       </c>
-      <c r="AD136" s="66"/>
+      <c r="AD136" s="23"/>
       <c r="AF136" s="39"/>
       <c r="AH136" s="21">
         <v>1</v>
@@ -18765,7 +18762,7 @@
       <c r="AC137" s="22">
         <v>9</v>
       </c>
-      <c r="AD137" s="66"/>
+      <c r="AD137" s="23"/>
       <c r="AF137" s="39"/>
       <c r="AH137" s="21">
         <v>0</v>
@@ -18867,7 +18864,7 @@
       <c r="AC138" s="22">
         <v>12</v>
       </c>
-      <c r="AD138" s="67"/>
+      <c r="AD138" s="20"/>
       <c r="AH138" s="1">
         <v>0</v>
       </c>
@@ -18965,7 +18962,7 @@
       <c r="AC139" s="22">
         <v>6</v>
       </c>
-      <c r="AD139" s="67"/>
+      <c r="AD139" s="20"/>
       <c r="AF139" s="39"/>
       <c r="AH139" s="21">
         <v>0</v>
@@ -19070,7 +19067,7 @@
       <c r="AC140" s="22">
         <v>9</v>
       </c>
-      <c r="AD140" s="67"/>
+      <c r="AD140" s="20"/>
       <c r="AF140" s="39"/>
       <c r="AH140" s="21">
         <v>0</v>
@@ -19169,7 +19166,7 @@
       <c r="AC141" s="22">
         <v>10</v>
       </c>
-      <c r="AD141" s="67"/>
+      <c r="AD141" s="20"/>
       <c r="AF141" s="39"/>
       <c r="AH141" s="21">
         <v>0</v>
@@ -19271,7 +19268,7 @@
       <c r="AC142" s="22">
         <v>7</v>
       </c>
-      <c r="AD142" s="67"/>
+      <c r="AD142" s="20"/>
       <c r="AF142" s="39"/>
       <c r="AH142" s="21">
         <v>1</v>
@@ -19373,7 +19370,7 @@
       <c r="AC143" s="19">
         <v>12</v>
       </c>
-      <c r="AD143" s="67"/>
+      <c r="AD143" s="20"/>
       <c r="AF143" s="23"/>
       <c r="AH143" s="21">
         <v>0</v>
@@ -19475,7 +19472,7 @@
       <c r="AC144" s="19">
         <v>17</v>
       </c>
-      <c r="AD144" s="67"/>
+      <c r="AD144" s="20"/>
       <c r="AF144" s="39"/>
       <c r="AH144" s="21">
         <v>0</v>
@@ -19574,7 +19571,7 @@
       <c r="AC145" s="19">
         <v>10</v>
       </c>
-      <c r="AD145" s="67"/>
+      <c r="AD145" s="20"/>
       <c r="AF145" s="39"/>
       <c r="AH145" s="21">
         <v>4</v>
@@ -19676,7 +19673,7 @@
       <c r="AC146" s="19">
         <v>8</v>
       </c>
-      <c r="AD146" s="67"/>
+      <c r="AD146" s="20"/>
       <c r="AF146" s="39"/>
       <c r="AH146" s="21">
         <v>2</v>
@@ -19778,7 +19775,7 @@
       <c r="AC147" s="22">
         <v>21</v>
       </c>
-      <c r="AD147" s="67"/>
+      <c r="AD147" s="20"/>
       <c r="AF147" s="39"/>
       <c r="AH147" s="21">
         <v>0</v>
@@ -19883,7 +19880,7 @@
       <c r="AC148" s="19">
         <v>12</v>
       </c>
-      <c r="AD148" s="67"/>
+      <c r="AD148" s="20"/>
       <c r="AF148" s="39"/>
       <c r="AH148" s="21">
         <v>0</v>
@@ -19985,7 +19982,7 @@
       <c r="AC149" s="19">
         <v>7</v>
       </c>
-      <c r="AD149" s="67"/>
+      <c r="AD149" s="20"/>
       <c r="AF149" s="39"/>
       <c r="AH149" s="21">
         <v>1</v>
@@ -20087,7 +20084,7 @@
       <c r="AC150" s="22">
         <v>20</v>
       </c>
-      <c r="AD150" s="67"/>
+      <c r="AD150" s="20"/>
       <c r="AF150" s="39"/>
       <c r="AH150" s="21">
         <v>0</v>
@@ -20186,7 +20183,7 @@
       <c r="AC151" s="19">
         <v>5</v>
       </c>
-      <c r="AD151" s="67"/>
+      <c r="AD151" s="20"/>
       <c r="AF151" s="39"/>
       <c r="AH151" s="21">
         <v>1</v>
@@ -20291,7 +20288,7 @@
       <c r="AC152" s="19">
         <v>9</v>
       </c>
-      <c r="AD152" s="67"/>
+      <c r="AD152" s="20"/>
       <c r="AF152" s="39"/>
       <c r="AH152" s="21">
         <v>1</v>
@@ -20390,7 +20387,7 @@
       <c r="AC153" s="19">
         <v>11</v>
       </c>
-      <c r="AD153" s="67"/>
+      <c r="AD153" s="20"/>
       <c r="AF153" s="39"/>
       <c r="AH153" s="21">
         <v>0</v>
@@ -20492,7 +20489,7 @@
       <c r="AC154" s="19">
         <v>6</v>
       </c>
-      <c r="AD154" s="67"/>
+      <c r="AD154" s="20"/>
       <c r="AF154" s="39"/>
       <c r="AH154" s="21">
         <v>0</v>
@@ -20594,7 +20591,7 @@
       <c r="AC155" s="19">
         <v>7</v>
       </c>
-      <c r="AD155" s="67"/>
+      <c r="AD155" s="20"/>
       <c r="AF155" s="39"/>
       <c r="AH155" s="21">
         <v>0</v>
@@ -20696,7 +20693,7 @@
       <c r="AC156" s="22">
         <v>7</v>
       </c>
-      <c r="AD156" s="67"/>
+      <c r="AD156" s="20"/>
       <c r="AF156" s="39"/>
       <c r="AH156" s="21">
         <v>2</v>
@@ -20801,7 +20798,7 @@
       <c r="AC157" s="22">
         <v>13</v>
       </c>
-      <c r="AD157" s="67"/>
+      <c r="AD157" s="20"/>
       <c r="AF157" s="39"/>
       <c r="AH157" s="21">
         <v>0</v>
@@ -20906,7 +20903,7 @@
       <c r="AC158" s="22">
         <v>9</v>
       </c>
-      <c r="AD158" s="66"/>
+      <c r="AD158" s="23"/>
       <c r="AF158" s="39"/>
       <c r="AH158" s="21">
         <v>1</v>
@@ -21005,7 +21002,7 @@
       <c r="AC159" s="19">
         <v>14</v>
       </c>
-      <c r="AD159" s="67"/>
+      <c r="AD159" s="20"/>
       <c r="AF159" s="39"/>
       <c r="AH159" s="21">
         <v>1</v>
@@ -21083,7 +21080,7 @@
         <v>1</v>
       </c>
       <c r="V160" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W160" s="20"/>
       <c r="X160" s="19">
@@ -21102,7 +21099,7 @@
         <v>9</v>
       </c>
       <c r="AC160" s="20"/>
-      <c r="AD160" s="67"/>
+      <c r="AD160" s="20"/>
       <c r="AF160" s="39"/>
       <c r="AH160" s="21">
         <v>0</v>
@@ -21177,7 +21174,7 @@
         <v>3</v>
       </c>
       <c r="S161" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T161" s="19">
         <v>0</v>
@@ -21186,7 +21183,7 @@
         <v>10</v>
       </c>
       <c r="V161" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W161" s="20"/>
       <c r="X161" s="19">
@@ -21203,7 +21200,7 @@
       </c>
       <c r="AB161" s="20"/>
       <c r="AC161" s="20"/>
-      <c r="AD161" s="67"/>
+      <c r="AD161" s="20"/>
       <c r="AF161" s="39"/>
       <c r="AH161" s="21">
         <v>1</v>
@@ -21275,7 +21272,7 @@
         <v>2</v>
       </c>
       <c r="S162" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T162" s="19">
         <v>2</v>
@@ -21290,10 +21287,10 @@
       <c r="X162" s="22">
         <v>1</v>
       </c>
-      <c r="Y162" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z162" s="19">
+      <c r="Y162" s="22">
+        <v>2</v>
+      </c>
+      <c r="Z162" s="22">
         <v>2</v>
       </c>
       <c r="AA162" s="22">
@@ -21303,7 +21300,7 @@
         <v>6</v>
       </c>
       <c r="AC162" s="20"/>
-      <c r="AD162" s="67"/>
+      <c r="AD162" s="20"/>
       <c r="AF162" s="23"/>
       <c r="AH162" s="21">
         <v>0</v>
@@ -21408,7 +21405,7 @@
       <c r="AC163" s="22">
         <v>4</v>
       </c>
-      <c r="AD163" s="66"/>
+      <c r="AD163" s="23"/>
       <c r="AF163" s="39"/>
       <c r="AH163" s="21">
         <v>1</v>
@@ -21483,7 +21480,7 @@
         <v>8</v>
       </c>
       <c r="U164" s="20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V164" s="19">
         <v>4</v>
@@ -21505,7 +21502,7 @@
         <v>8</v>
       </c>
       <c r="AC164" s="20"/>
-      <c r="AD164" s="67"/>
+      <c r="AD164" s="20"/>
       <c r="AF164" s="39"/>
       <c r="AH164" s="21">
         <v>0</v>
@@ -21607,7 +21604,7 @@
       <c r="AC165" s="22">
         <v>7</v>
       </c>
-      <c r="AD165" s="67"/>
+      <c r="AD165" s="20"/>
       <c r="AF165" s="39"/>
       <c r="AH165" s="21">
         <v>1</v>
@@ -21670,9 +21667,9 @@
       </c>
       <c r="P166" s="22"/>
       <c r="Q166" s="20">
-        <v>8</v>
-      </c>
-      <c r="R166" s="20">
+        <v>9</v>
+      </c>
+      <c r="R166" s="19">
         <v>8</v>
       </c>
       <c r="S166" s="19">
@@ -21700,9 +21697,11 @@
       <c r="AA166" s="22">
         <v>3</v>
       </c>
-      <c r="AB166" s="20"/>
+      <c r="AB166" s="22">
+        <v>8</v>
+      </c>
       <c r="AC166" s="20"/>
-      <c r="AD166" s="67"/>
+      <c r="AD166" s="20"/>
       <c r="AF166" s="39"/>
       <c r="AH166" s="21">
         <v>0</v>
@@ -21768,7 +21767,7 @@
       </c>
       <c r="P167" s="22"/>
       <c r="Q167" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R167" s="22">
         <v>0</v>
@@ -21802,7 +21801,7 @@
         <v>5</v>
       </c>
       <c r="AC167" s="23"/>
-      <c r="AD167" s="66"/>
+      <c r="AD167" s="23"/>
       <c r="AF167" s="39"/>
       <c r="AH167" s="21">
         <v>0</v>
@@ -21876,13 +21875,13 @@
       <c r="S168" s="22">
         <v>0</v>
       </c>
-      <c r="T168" s="23">
+      <c r="T168" s="22">
         <v>6</v>
       </c>
       <c r="U168" s="22">
         <v>2</v>
       </c>
-      <c r="V168" s="23">
+      <c r="V168" s="22">
         <v>6</v>
       </c>
       <c r="W168" s="23"/>
@@ -21898,9 +21897,13 @@
       <c r="AA168" s="19">
         <v>5</v>
       </c>
-      <c r="AB168" s="23"/>
-      <c r="AC168" s="23"/>
-      <c r="AD168" s="66"/>
+      <c r="AB168" s="22">
+        <v>6</v>
+      </c>
+      <c r="AC168" s="22">
+        <v>6</v>
+      </c>
+      <c r="AD168" s="23"/>
       <c r="AF168" s="39"/>
       <c r="AH168" s="21">
         <v>0</v>
@@ -21972,7 +21975,7 @@
         <v>0</v>
       </c>
       <c r="R169" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S169" s="22">
         <v>3</v>
@@ -21981,7 +21984,7 @@
         <v>2</v>
       </c>
       <c r="U169" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V169" s="22">
         <v>2</v>
@@ -22001,7 +22004,7 @@
       </c>
       <c r="AB169" s="23"/>
       <c r="AC169" s="23"/>
-      <c r="AD169" s="66"/>
+      <c r="AD169" s="23"/>
       <c r="AF169" s="39"/>
       <c r="AH169" s="21">
         <v>0</v>
@@ -22073,7 +22076,7 @@
         <v>2</v>
       </c>
       <c r="R170" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S170" s="22">
         <v>0</v>
@@ -22104,7 +22107,7 @@
         <v>3</v>
       </c>
       <c r="AC170" s="23"/>
-      <c r="AD170" s="66"/>
+      <c r="AD170" s="23"/>
       <c r="AF170" s="39"/>
       <c r="AH170" s="21">
         <v>0</v>
@@ -22150,16 +22153,16 @@
       <c r="F171" s="21">
         <v>20</v>
       </c>
-      <c r="I171" s="39">
-        <v>0</v>
-      </c>
-      <c r="J171" s="39">
-        <v>2</v>
-      </c>
-      <c r="K171" s="39">
-        <v>2</v>
-      </c>
-      <c r="L171" s="39">
+      <c r="I171" s="21">
+        <v>0</v>
+      </c>
+      <c r="J171" s="21">
+        <v>2</v>
+      </c>
+      <c r="K171" s="21">
+        <v>2</v>
+      </c>
+      <c r="L171" s="21">
         <v>5</v>
       </c>
       <c r="M171" s="21">
@@ -22170,13 +22173,13 @@
       </c>
       <c r="P171" s="22"/>
       <c r="Q171" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R171" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S171" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T171" s="19">
         <v>2</v>
@@ -22185,7 +22188,7 @@
         <v>2</v>
       </c>
       <c r="V171" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W171" s="20"/>
       <c r="X171" s="19">
@@ -22198,7 +22201,7 @@
       <c r="AA171" s="20"/>
       <c r="AB171" s="20"/>
       <c r="AC171" s="20"/>
-      <c r="AD171" s="67"/>
+      <c r="AD171" s="20"/>
       <c r="AF171" s="39"/>
       <c r="AH171" s="21">
         <v>0</v>
@@ -22264,22 +22267,22 @@
       </c>
       <c r="P172" s="22"/>
       <c r="Q172" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R172" s="22">
         <v>1</v>
       </c>
       <c r="S172" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T172" s="22">
         <v>0</v>
       </c>
       <c r="U172" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V172" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W172" s="23"/>
       <c r="X172" s="22">
@@ -22292,7 +22295,7 @@
       <c r="AA172" s="23"/>
       <c r="AB172" s="23"/>
       <c r="AC172" s="23"/>
-      <c r="AD172" s="66"/>
+      <c r="AD172" s="23"/>
       <c r="AF172" s="39"/>
       <c r="AH172" s="21">
         <v>1</v>
@@ -22355,31 +22358,35 @@
       </c>
       <c r="P173" s="22"/>
       <c r="Q173" s="23">
-        <v>1</v>
-      </c>
-      <c r="R173" s="23">
-        <v>1</v>
-      </c>
-      <c r="S173" s="23">
+        <v>2</v>
+      </c>
+      <c r="R173" s="22">
+        <v>1</v>
+      </c>
+      <c r="S173" s="22">
         <v>1</v>
       </c>
       <c r="T173" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U173" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V173" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W173" s="23"/>
-      <c r="X173" s="23"/>
-      <c r="Y173" s="23"/>
+      <c r="X173" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y173" s="22">
+        <v>1</v>
+      </c>
       <c r="Z173" s="23"/>
       <c r="AA173" s="23"/>
       <c r="AB173" s="23"/>
       <c r="AC173" s="23"/>
-      <c r="AD173" s="66"/>
+      <c r="AD173" s="23"/>
       <c r="AF173" s="39"/>
       <c r="AH173" s="21">
         <v>0</v>
@@ -22448,31 +22455,33 @@
       </c>
       <c r="P174" s="22"/>
       <c r="Q174" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R174" s="23">
-        <v>0</v>
-      </c>
-      <c r="S174" s="23">
+        <v>1</v>
+      </c>
+      <c r="S174" s="22">
         <v>0</v>
       </c>
       <c r="T174" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U174" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V174" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W174" s="23"/>
-      <c r="X174" s="39"/>
+      <c r="X174" s="21">
+        <v>0</v>
+      </c>
       <c r="Y174" s="39"/>
       <c r="Z174" s="23"/>
       <c r="AA174" s="23"/>
       <c r="AB174" s="23"/>
       <c r="AC174" s="23"/>
-      <c r="AD174" s="66"/>
+      <c r="AD174" s="23"/>
       <c r="AF174" s="39"/>
       <c r="AH174" s="21">
         <v>1</v>
@@ -22500,22 +22509,91 @@
       </c>
     </row>
     <row r="175" spans="1:43" s="21" customFormat="1">
+      <c r="A175" s="21">
+        <v>8</v>
+      </c>
+      <c r="B175" s="21">
+        <v>1</v>
+      </c>
+      <c r="C175" s="21">
+        <v>1</v>
+      </c>
+      <c r="D175" s="21">
+        <v>0</v>
+      </c>
+      <c r="E175" s="21">
+        <v>6</v>
+      </c>
+      <c r="F175" s="21">
+        <v>6</v>
+      </c>
+      <c r="I175" s="21">
+        <v>0</v>
+      </c>
+      <c r="J175" s="21">
+        <v>1</v>
+      </c>
+      <c r="K175" s="21">
+        <v>1</v>
+      </c>
+      <c r="L175" s="21">
+        <v>6</v>
+      </c>
+      <c r="M175" s="21">
+        <v>6</v>
+      </c>
+      <c r="N175" s="21">
+        <v>8</v>
+      </c>
       <c r="P175" s="22"/>
-      <c r="Q175" s="20"/>
-      <c r="R175" s="20"/>
-      <c r="S175" s="20"/>
-      <c r="T175" s="20"/>
-      <c r="U175" s="20"/>
-      <c r="V175" s="20"/>
+      <c r="Q175" s="20">
+        <v>0</v>
+      </c>
+      <c r="R175" s="20">
+        <v>0</v>
+      </c>
+      <c r="S175" s="20">
+        <v>0</v>
+      </c>
+      <c r="T175" s="20">
+        <v>0</v>
+      </c>
+      <c r="U175" s="20">
+        <v>0</v>
+      </c>
+      <c r="V175" s="20">
+        <v>0</v>
+      </c>
       <c r="W175" s="20"/>
-      <c r="X175" s="20"/>
-      <c r="Y175" s="20"/>
+      <c r="X175" s="15"/>
+      <c r="Y175" s="15"/>
       <c r="Z175" s="20"/>
       <c r="AA175" s="20"/>
       <c r="AB175" s="20"/>
       <c r="AC175" s="20"/>
-      <c r="AD175" s="67"/>
+      <c r="AD175" s="20"/>
       <c r="AF175" s="39"/>
+      <c r="AH175" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI175" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ175" s="21">
+        <v>6</v>
+      </c>
+      <c r="AK175" s="21">
+        <v>8</v>
+      </c>
+      <c r="AO175" s="21">
+        <v>1</v>
+      </c>
+      <c r="AP175" s="21">
+        <v>2</v>
+      </c>
+      <c r="AQ175" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:43" s="21" customFormat="1">
       <c r="P176" s="22"/>
@@ -22532,43 +22610,43 @@
       <c r="AA176" s="20"/>
       <c r="AB176" s="20"/>
       <c r="AC176" s="20"/>
-      <c r="AD176" s="67"/>
+      <c r="AD176" s="20"/>
       <c r="AF176" s="39"/>
     </row>
     <row r="177" spans="16:32" s="21" customFormat="1">
       <c r="P177" s="22"/>
-      <c r="Q177" s="20"/>
-      <c r="R177" s="20"/>
-      <c r="S177" s="20"/>
-      <c r="T177" s="20"/>
-      <c r="U177" s="20"/>
-      <c r="V177" s="20"/>
-      <c r="W177" s="20"/>
-      <c r="X177" s="15"/>
-      <c r="Y177" s="15"/>
-      <c r="Z177" s="20"/>
-      <c r="AA177" s="20"/>
-      <c r="AB177" s="20"/>
-      <c r="AC177" s="20"/>
-      <c r="AD177" s="67"/>
+      <c r="Q177" s="23"/>
+      <c r="R177" s="23"/>
+      <c r="S177" s="23"/>
+      <c r="T177" s="23"/>
+      <c r="U177" s="23"/>
+      <c r="V177" s="23"/>
+      <c r="W177" s="23"/>
+      <c r="X177" s="23"/>
+      <c r="Y177" s="23"/>
+      <c r="Z177" s="23"/>
+      <c r="AA177" s="23"/>
+      <c r="AB177" s="23"/>
+      <c r="AC177" s="23"/>
+      <c r="AD177" s="23"/>
       <c r="AF177" s="39"/>
     </row>
     <row r="178" spans="16:32" s="21" customFormat="1">
       <c r="P178" s="22"/>
-      <c r="Q178" s="20"/>
-      <c r="R178" s="20"/>
-      <c r="S178" s="20"/>
-      <c r="T178" s="20"/>
-      <c r="U178" s="20"/>
-      <c r="V178" s="20"/>
-      <c r="W178" s="20"/>
-      <c r="X178" s="20"/>
-      <c r="Y178" s="20"/>
-      <c r="Z178" s="20"/>
-      <c r="AA178" s="20"/>
-      <c r="AB178" s="20"/>
-      <c r="AC178" s="20"/>
-      <c r="AD178" s="67"/>
+      <c r="Q178" s="23"/>
+      <c r="R178" s="23"/>
+      <c r="S178" s="23"/>
+      <c r="T178" s="23"/>
+      <c r="U178" s="23"/>
+      <c r="V178" s="23"/>
+      <c r="W178" s="23"/>
+      <c r="X178" s="23"/>
+      <c r="Y178" s="23"/>
+      <c r="Z178" s="23"/>
+      <c r="AA178" s="23"/>
+      <c r="AB178" s="23"/>
+      <c r="AC178" s="23"/>
+      <c r="AD178" s="23"/>
       <c r="AF178" s="39"/>
     </row>
     <row r="179" spans="16:32" s="21" customFormat="1">
@@ -22586,7 +22664,7 @@
       <c r="AA179" s="23"/>
       <c r="AB179" s="23"/>
       <c r="AC179" s="23"/>
-      <c r="AD179" s="66"/>
+      <c r="AD179" s="23"/>
       <c r="AF179" s="39"/>
     </row>
     <row r="180" spans="16:32" s="21" customFormat="1">
@@ -22604,25 +22682,25 @@
       <c r="AA180" s="23"/>
       <c r="AB180" s="23"/>
       <c r="AC180" s="23"/>
-      <c r="AD180" s="66"/>
+      <c r="AD180" s="23"/>
       <c r="AF180" s="39"/>
     </row>
     <row r="181" spans="16:32" s="21" customFormat="1">
       <c r="P181" s="22"/>
-      <c r="Q181" s="23"/>
-      <c r="R181" s="23"/>
-      <c r="S181" s="23"/>
-      <c r="T181" s="23"/>
-      <c r="U181" s="23"/>
-      <c r="V181" s="23"/>
-      <c r="W181" s="23"/>
-      <c r="X181" s="23"/>
-      <c r="Y181" s="23"/>
-      <c r="Z181" s="23"/>
-      <c r="AA181" s="23"/>
-      <c r="AB181" s="23"/>
-      <c r="AC181" s="23"/>
-      <c r="AD181" s="66"/>
+      <c r="Q181" s="20"/>
+      <c r="R181" s="20"/>
+      <c r="S181" s="20"/>
+      <c r="T181" s="20"/>
+      <c r="U181" s="20"/>
+      <c r="V181" s="20"/>
+      <c r="W181" s="15"/>
+      <c r="X181" s="15"/>
+      <c r="Y181" s="15"/>
+      <c r="Z181" s="15"/>
+      <c r="AA181" s="15"/>
+      <c r="AB181" s="15"/>
+      <c r="AC181" s="15"/>
+      <c r="AD181" s="20"/>
       <c r="AF181" s="39"/>
     </row>
     <row r="182" spans="16:32" s="21" customFormat="1">
@@ -22634,31 +22712,31 @@
       <c r="U182" s="23"/>
       <c r="V182" s="23"/>
       <c r="W182" s="23"/>
-      <c r="X182" s="23"/>
-      <c r="Y182" s="23"/>
-      <c r="Z182" s="23"/>
-      <c r="AA182" s="23"/>
-      <c r="AB182" s="23"/>
-      <c r="AC182" s="23"/>
-      <c r="AD182" s="66"/>
+      <c r="X182" s="39"/>
+      <c r="Y182" s="39"/>
+      <c r="Z182" s="39"/>
+      <c r="AA182" s="39"/>
+      <c r="AB182" s="39"/>
+      <c r="AC182" s="39"/>
+      <c r="AD182" s="23"/>
       <c r="AF182" s="39"/>
     </row>
     <row r="183" spans="16:32" s="21" customFormat="1">
       <c r="P183" s="22"/>
-      <c r="Q183" s="20"/>
-      <c r="R183" s="20"/>
-      <c r="S183" s="20"/>
-      <c r="T183" s="20"/>
-      <c r="U183" s="20"/>
-      <c r="V183" s="20"/>
-      <c r="W183" s="15"/>
-      <c r="X183" s="15"/>
-      <c r="Y183" s="15"/>
-      <c r="Z183" s="15"/>
-      <c r="AA183" s="15"/>
-      <c r="AB183" s="15"/>
-      <c r="AC183" s="15"/>
-      <c r="AD183" s="67"/>
+      <c r="Q183" s="23"/>
+      <c r="R183" s="23"/>
+      <c r="S183" s="23"/>
+      <c r="T183" s="23"/>
+      <c r="U183" s="23"/>
+      <c r="V183" s="23"/>
+      <c r="W183" s="23"/>
+      <c r="X183" s="39"/>
+      <c r="Y183" s="39"/>
+      <c r="Z183" s="23"/>
+      <c r="AA183" s="23"/>
+      <c r="AB183" s="23"/>
+      <c r="AC183" s="23"/>
+      <c r="AD183" s="23"/>
       <c r="AF183" s="39"/>
     </row>
     <row r="184" spans="16:32" s="21" customFormat="1">
@@ -22669,32 +22747,31 @@
       <c r="T184" s="23"/>
       <c r="U184" s="23"/>
       <c r="V184" s="23"/>
-      <c r="W184" s="23"/>
+      <c r="W184" s="39"/>
       <c r="X184" s="39"/>
       <c r="Y184" s="39"/>
       <c r="Z184" s="39"/>
       <c r="AA184" s="39"/>
       <c r="AB184" s="39"/>
       <c r="AC184" s="39"/>
-      <c r="AD184" s="66"/>
+      <c r="AD184" s="23"/>
       <c r="AF184" s="39"/>
     </row>
     <row r="185" spans="16:32" s="21" customFormat="1">
-      <c r="P185" s="22"/>
       <c r="Q185" s="23"/>
       <c r="R185" s="23"/>
       <c r="S185" s="23"/>
       <c r="T185" s="23"/>
       <c r="U185" s="23"/>
       <c r="V185" s="23"/>
-      <c r="W185" s="23"/>
+      <c r="W185" s="39"/>
       <c r="X185" s="39"/>
       <c r="Y185" s="39"/>
-      <c r="Z185" s="23"/>
-      <c r="AA185" s="23"/>
-      <c r="AB185" s="23"/>
-      <c r="AC185" s="23"/>
-      <c r="AD185" s="66"/>
+      <c r="Z185" s="39"/>
+      <c r="AA185" s="39"/>
+      <c r="AB185" s="39"/>
+      <c r="AC185" s="39"/>
+      <c r="AD185" s="23"/>
       <c r="AF185" s="39"/>
     </row>
     <row r="186" spans="16:32" s="21" customFormat="1">
@@ -22712,7 +22789,7 @@
       <c r="AA186" s="39"/>
       <c r="AB186" s="39"/>
       <c r="AC186" s="39"/>
-      <c r="AD186" s="66"/>
+      <c r="AD186" s="23"/>
       <c r="AF186" s="39"/>
     </row>
     <row r="187" spans="16:32" s="21" customFormat="1">
@@ -22729,25 +22806,25 @@
       <c r="AA187" s="39"/>
       <c r="AB187" s="39"/>
       <c r="AC187" s="39"/>
-      <c r="AD187" s="66"/>
+      <c r="AD187" s="23"/>
       <c r="AF187" s="39"/>
     </row>
     <row r="188" spans="16:32" s="21" customFormat="1">
       <c r="P188" s="22"/>
-      <c r="Q188" s="23"/>
-      <c r="R188" s="23"/>
-      <c r="S188" s="23"/>
-      <c r="T188" s="23"/>
-      <c r="U188" s="23"/>
-      <c r="V188" s="23"/>
-      <c r="W188" s="39"/>
-      <c r="X188" s="39"/>
-      <c r="Y188" s="39"/>
-      <c r="Z188" s="39"/>
-      <c r="AA188" s="39"/>
-      <c r="AB188" s="39"/>
-      <c r="AC188" s="39"/>
-      <c r="AD188" s="66"/>
+      <c r="Q188" s="20"/>
+      <c r="R188" s="20"/>
+      <c r="S188" s="20"/>
+      <c r="T188" s="20"/>
+      <c r="U188" s="20"/>
+      <c r="V188" s="20"/>
+      <c r="W188" s="20"/>
+      <c r="X188" s="20"/>
+      <c r="Y188" s="20"/>
+      <c r="Z188" s="20"/>
+      <c r="AA188" s="20"/>
+      <c r="AB188" s="20"/>
+      <c r="AC188" s="20"/>
+      <c r="AD188" s="20"/>
       <c r="AF188" s="39"/>
     </row>
     <row r="189" spans="16:32" s="21" customFormat="1">
@@ -22757,32 +22834,32 @@
       <c r="T189" s="23"/>
       <c r="U189" s="23"/>
       <c r="V189" s="23"/>
-      <c r="W189" s="39"/>
+      <c r="W189" s="23"/>
       <c r="X189" s="39"/>
       <c r="Y189" s="39"/>
-      <c r="Z189" s="39"/>
-      <c r="AA189" s="39"/>
-      <c r="AB189" s="39"/>
-      <c r="AC189" s="39"/>
-      <c r="AD189" s="66"/>
+      <c r="Z189" s="23"/>
+      <c r="AA189" s="23"/>
+      <c r="AB189" s="23"/>
+      <c r="AC189" s="23"/>
+      <c r="AD189" s="23"/>
       <c r="AF189" s="39"/>
     </row>
     <row r="190" spans="16:32" s="21" customFormat="1">
       <c r="P190" s="22"/>
-      <c r="Q190" s="20"/>
-      <c r="R190" s="20"/>
-      <c r="S190" s="20"/>
-      <c r="T190" s="20"/>
-      <c r="U190" s="20"/>
-      <c r="V190" s="20"/>
-      <c r="W190" s="20"/>
-      <c r="X190" s="20"/>
-      <c r="Y190" s="20"/>
-      <c r="Z190" s="20"/>
-      <c r="AA190" s="20"/>
-      <c r="AB190" s="20"/>
-      <c r="AC190" s="20"/>
-      <c r="AD190" s="67"/>
+      <c r="Q190" s="23"/>
+      <c r="R190" s="23"/>
+      <c r="S190" s="23"/>
+      <c r="T190" s="23"/>
+      <c r="U190" s="23"/>
+      <c r="V190" s="23"/>
+      <c r="W190" s="39"/>
+      <c r="X190" s="39"/>
+      <c r="Y190" s="39"/>
+      <c r="Z190" s="39"/>
+      <c r="AA190" s="39"/>
+      <c r="AB190" s="39"/>
+      <c r="AC190" s="39"/>
+      <c r="AD190" s="23"/>
       <c r="AF190" s="39"/>
     </row>
     <row r="191" spans="16:32" s="21" customFormat="1">
@@ -22799,7 +22876,7 @@
       <c r="AA191" s="23"/>
       <c r="AB191" s="23"/>
       <c r="AC191" s="23"/>
-      <c r="AD191" s="66"/>
+      <c r="AD191" s="23"/>
       <c r="AF191" s="39"/>
     </row>
     <row r="192" spans="16:32" s="21" customFormat="1">
@@ -22810,52 +22887,91 @@
       <c r="T192" s="23"/>
       <c r="U192" s="23"/>
       <c r="V192" s="23"/>
-      <c r="W192" s="39"/>
-      <c r="X192" s="39"/>
-      <c r="Y192" s="39"/>
-      <c r="Z192" s="39"/>
-      <c r="AA192" s="39"/>
-      <c r="AB192" s="39"/>
-      <c r="AC192" s="39"/>
-      <c r="AD192" s="66"/>
+      <c r="W192" s="23"/>
+      <c r="X192" s="23"/>
+      <c r="Y192" s="23"/>
+      <c r="Z192" s="23"/>
+      <c r="AA192" s="23"/>
+      <c r="AB192" s="23"/>
+      <c r="AC192" s="23"/>
+      <c r="AD192" s="23"/>
       <c r="AF192" s="39"/>
     </row>
-    <row r="193" spans="16:32" s="21" customFormat="1">
-      <c r="Q193" s="23"/>
-      <c r="R193" s="23"/>
-      <c r="S193" s="23"/>
-      <c r="T193" s="23"/>
-      <c r="U193" s="23"/>
-      <c r="V193" s="23"/>
-      <c r="W193" s="23"/>
-      <c r="X193" s="39"/>
-      <c r="Y193" s="39"/>
-      <c r="Z193" s="23"/>
-      <c r="AA193" s="23"/>
-      <c r="AB193" s="23"/>
-      <c r="AC193" s="23"/>
-      <c r="AD193" s="66"/>
+    <row r="193" spans="9:32" s="21" customFormat="1">
+      <c r="I193" s="21">
+        <v>0</v>
+      </c>
+      <c r="J193" s="21">
+        <v>1</v>
+      </c>
+      <c r="K193" s="21">
+        <v>2</v>
+      </c>
+      <c r="L193" s="21">
+        <v>5</v>
+      </c>
+      <c r="M193" s="21">
+        <v>5</v>
+      </c>
+      <c r="N193" s="21">
+        <v>7</v>
+      </c>
+      <c r="P193" s="22"/>
+      <c r="Q193" s="20"/>
+      <c r="R193" s="20"/>
+      <c r="S193" s="20"/>
+      <c r="T193" s="20"/>
+      <c r="U193" s="20"/>
+      <c r="V193" s="20"/>
+      <c r="W193" s="20"/>
+      <c r="X193" s="20"/>
+      <c r="Y193" s="20"/>
+      <c r="Z193" s="20"/>
+      <c r="AA193" s="20"/>
+      <c r="AB193" s="20"/>
+      <c r="AC193" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD193" s="20"/>
       <c r="AF193" s="39"/>
     </row>
-    <row r="194" spans="16:32" s="21" customFormat="1">
+    <row r="194" spans="9:32" s="21" customFormat="1">
+      <c r="I194" s="21">
+        <v>0</v>
+      </c>
+      <c r="J194" s="21">
+        <v>1</v>
+      </c>
+      <c r="K194" s="21">
+        <v>3</v>
+      </c>
+      <c r="L194" s="21">
+        <v>3</v>
+      </c>
+      <c r="M194" s="21">
+        <v>6</v>
+      </c>
+      <c r="N194" s="21">
+        <v>6</v>
+      </c>
       <c r="P194" s="22"/>
-      <c r="Q194" s="23"/>
-      <c r="R194" s="23"/>
-      <c r="S194" s="23"/>
-      <c r="T194" s="23"/>
-      <c r="U194" s="23"/>
-      <c r="V194" s="23"/>
-      <c r="W194" s="23"/>
-      <c r="X194" s="23"/>
-      <c r="Y194" s="23"/>
-      <c r="Z194" s="23"/>
-      <c r="AA194" s="23"/>
-      <c r="AB194" s="23"/>
-      <c r="AC194" s="23"/>
-      <c r="AD194" s="66"/>
+      <c r="Q194" s="20"/>
+      <c r="R194" s="20"/>
+      <c r="S194" s="20"/>
+      <c r="T194" s="20"/>
+      <c r="U194" s="20"/>
+      <c r="V194" s="20"/>
+      <c r="W194" s="20"/>
+      <c r="X194" s="20"/>
+      <c r="Y194" s="20"/>
+      <c r="Z194" s="20"/>
+      <c r="AA194" s="20"/>
+      <c r="AB194" s="20"/>
+      <c r="AC194" s="20"/>
+      <c r="AD194" s="20"/>
       <c r="AF194" s="39"/>
     </row>
-    <row r="195" spans="16:32" s="21" customFormat="1">
+    <row r="195" spans="9:32" s="21" customFormat="1">
       <c r="P195" s="22"/>
       <c r="Q195" s="23"/>
       <c r="R195" s="23"/>
@@ -22870,10 +22986,10 @@
       <c r="AA195" s="39"/>
       <c r="AB195" s="39"/>
       <c r="AC195" s="39"/>
-      <c r="AD195" s="66"/>
+      <c r="AD195" s="23"/>
       <c r="AF195" s="39"/>
     </row>
-    <row r="196" spans="16:32" s="21" customFormat="1">
+    <row r="196" spans="9:32" s="21" customFormat="1">
       <c r="P196" s="22"/>
       <c r="Q196" s="23"/>
       <c r="R196" s="23"/>
@@ -22888,10 +23004,10 @@
       <c r="AA196" s="23"/>
       <c r="AB196" s="23"/>
       <c r="AC196" s="23"/>
-      <c r="AD196" s="66"/>
+      <c r="AD196" s="23"/>
       <c r="AF196" s="39"/>
     </row>
-    <row r="197" spans="16:32" s="21" customFormat="1">
+    <row r="197" spans="9:32" s="21" customFormat="1">
       <c r="P197" s="22"/>
       <c r="Q197" s="23"/>
       <c r="R197" s="23"/>
@@ -22906,10 +23022,10 @@
       <c r="AA197" s="23"/>
       <c r="AB197" s="23"/>
       <c r="AC197" s="23"/>
-      <c r="AD197" s="66"/>
+      <c r="AD197" s="23"/>
       <c r="AF197" s="39"/>
     </row>
-    <row r="198" spans="16:32" s="21" customFormat="1">
+    <row r="198" spans="9:32" s="21" customFormat="1">
       <c r="P198" s="22"/>
       <c r="Q198" s="23"/>
       <c r="R198" s="23"/>
@@ -22924,10 +23040,10 @@
       <c r="AA198" s="39"/>
       <c r="AB198" s="39"/>
       <c r="AC198" s="39"/>
-      <c r="AD198" s="66"/>
+      <c r="AD198" s="23"/>
       <c r="AF198" s="39"/>
     </row>
-    <row r="199" spans="16:32" s="21" customFormat="1">
+    <row r="199" spans="9:32" s="21" customFormat="1">
       <c r="P199" s="22"/>
       <c r="Q199" s="23"/>
       <c r="R199" s="23"/>
@@ -22942,10 +23058,10 @@
       <c r="AA199" s="39"/>
       <c r="AB199" s="39"/>
       <c r="AC199" s="39"/>
-      <c r="AD199" s="66"/>
+      <c r="AD199" s="23"/>
       <c r="AF199" s="39"/>
     </row>
-    <row r="200" spans="16:32" s="21" customFormat="1">
+    <row r="200" spans="9:32" s="21" customFormat="1">
       <c r="Q200" s="23"/>
       <c r="R200" s="23"/>
       <c r="S200" s="23"/>
@@ -22959,10 +23075,10 @@
       <c r="AA200" s="39"/>
       <c r="AB200" s="39"/>
       <c r="AC200" s="39"/>
-      <c r="AD200" s="66"/>
+      <c r="AD200" s="23"/>
       <c r="AF200" s="39"/>
     </row>
-    <row r="201" spans="16:32" s="21" customFormat="1">
+    <row r="201" spans="9:32" s="21" customFormat="1">
       <c r="Q201" s="23"/>
       <c r="R201" s="23"/>
       <c r="S201" s="23"/>
@@ -22976,10 +23092,10 @@
       <c r="AA201" s="23"/>
       <c r="AB201" s="23"/>
       <c r="AC201" s="23"/>
-      <c r="AD201" s="66"/>
+      <c r="AD201" s="23"/>
       <c r="AF201" s="39"/>
     </row>
-    <row r="202" spans="16:32">
+    <row r="202" spans="9:32">
       <c r="Q202" s="39"/>
       <c r="R202" s="39"/>
       <c r="S202" s="39"/>
@@ -22993,10 +23109,10 @@
       <c r="AA202" s="39"/>
       <c r="AB202" s="39"/>
       <c r="AC202" s="39"/>
-      <c r="AD202" s="66"/>
+      <c r="AD202" s="23"/>
       <c r="AF202" s="39"/>
     </row>
-    <row r="203" spans="16:32" s="21" customFormat="1">
+    <row r="203" spans="9:32" s="21" customFormat="1">
       <c r="P203" s="22"/>
       <c r="Q203" s="23"/>
       <c r="R203" s="23"/>
@@ -23011,10 +23127,10 @@
       <c r="AA203" s="39"/>
       <c r="AB203" s="39"/>
       <c r="AC203" s="39"/>
-      <c r="AD203" s="66"/>
+      <c r="AD203" s="23"/>
       <c r="AF203" s="39"/>
     </row>
-    <row r="204" spans="16:32" s="21" customFormat="1">
+    <row r="204" spans="9:32" s="21" customFormat="1">
       <c r="Q204" s="23"/>
       <c r="R204" s="23"/>
       <c r="S204" s="23"/>
@@ -23028,10 +23144,10 @@
       <c r="AA204" s="23"/>
       <c r="AB204" s="23"/>
       <c r="AC204" s="23"/>
-      <c r="AD204" s="66"/>
+      <c r="AD204" s="23"/>
       <c r="AF204" s="39"/>
     </row>
-    <row r="205" spans="16:32" s="21" customFormat="1">
+    <row r="205" spans="9:32" s="21" customFormat="1">
       <c r="Q205" s="23"/>
       <c r="R205" s="23"/>
       <c r="S205" s="23"/>
@@ -23045,10 +23161,10 @@
       <c r="AA205" s="39"/>
       <c r="AB205" s="39"/>
       <c r="AC205" s="39"/>
-      <c r="AD205" s="66"/>
+      <c r="AD205" s="23"/>
       <c r="AF205" s="39"/>
     </row>
-    <row r="206" spans="16:32" s="21" customFormat="1">
+    <row r="206" spans="9:32" s="21" customFormat="1">
       <c r="Q206" s="23"/>
       <c r="R206" s="23"/>
       <c r="S206" s="23"/>
@@ -23062,10 +23178,10 @@
       <c r="AA206" s="39"/>
       <c r="AB206" s="39"/>
       <c r="AC206" s="39"/>
-      <c r="AD206" s="66"/>
+      <c r="AD206" s="23"/>
       <c r="AF206" s="39"/>
     </row>
-    <row r="207" spans="16:32" s="21" customFormat="1">
+    <row r="207" spans="9:32" s="21" customFormat="1">
       <c r="Q207" s="23"/>
       <c r="R207" s="23"/>
       <c r="S207" s="23"/>
@@ -23079,10 +23195,10 @@
       <c r="AA207" s="23"/>
       <c r="AB207" s="23"/>
       <c r="AC207" s="23"/>
-      <c r="AD207" s="66"/>
+      <c r="AD207" s="23"/>
       <c r="AF207" s="39"/>
     </row>
-    <row r="208" spans="16:32" s="21" customFormat="1">
+    <row r="208" spans="9:32" s="21" customFormat="1">
       <c r="P208" s="22"/>
       <c r="Q208" s="23"/>
       <c r="R208" s="23"/>
@@ -23097,7 +23213,7 @@
       <c r="AA208" s="39"/>
       <c r="AB208" s="39"/>
       <c r="AC208" s="39"/>
-      <c r="AD208" s="66"/>
+      <c r="AD208" s="23"/>
       <c r="AF208" s="39"/>
     </row>
     <row r="209" spans="16:32" s="21" customFormat="1">
@@ -23114,7 +23230,7 @@
       <c r="AA209" s="39"/>
       <c r="AB209" s="39"/>
       <c r="AC209" s="39"/>
-      <c r="AD209" s="66"/>
+      <c r="AD209" s="23"/>
       <c r="AF209" s="39"/>
     </row>
     <row r="210" spans="16:32" s="21" customFormat="1">
@@ -23131,7 +23247,7 @@
       <c r="AA210" s="39"/>
       <c r="AB210" s="39"/>
       <c r="AC210" s="39"/>
-      <c r="AD210" s="66"/>
+      <c r="AD210" s="23"/>
       <c r="AF210" s="39"/>
     </row>
     <row r="211" spans="16:32" s="21" customFormat="1">
@@ -23148,7 +23264,7 @@
       <c r="AA211" s="23"/>
       <c r="AB211" s="23"/>
       <c r="AC211" s="23"/>
-      <c r="AD211" s="66"/>
+      <c r="AD211" s="23"/>
       <c r="AF211" s="39"/>
     </row>
     <row r="212" spans="16:32" s="21" customFormat="1">
@@ -23166,7 +23282,7 @@
       <c r="AA212" s="39"/>
       <c r="AB212" s="39"/>
       <c r="AC212" s="39"/>
-      <c r="AD212" s="66"/>
+      <c r="AD212" s="23"/>
       <c r="AF212" s="39"/>
     </row>
     <row r="213" spans="16:32" s="21" customFormat="1">
@@ -23184,7 +23300,7 @@
       <c r="AA213" s="23"/>
       <c r="AB213" s="23"/>
       <c r="AC213" s="23"/>
-      <c r="AD213" s="66"/>
+      <c r="AD213" s="23"/>
       <c r="AF213" s="39"/>
     </row>
     <row r="214" spans="16:32" s="21" customFormat="1">
@@ -23202,7 +23318,7 @@
       <c r="AA214" s="39"/>
       <c r="AB214" s="39"/>
       <c r="AC214" s="39"/>
-      <c r="AD214" s="66"/>
+      <c r="AD214" s="23"/>
       <c r="AF214" s="39"/>
     </row>
     <row r="215" spans="16:32" s="21" customFormat="1">
@@ -23220,7 +23336,7 @@
       <c r="AA215" s="23"/>
       <c r="AB215" s="23"/>
       <c r="AC215" s="23"/>
-      <c r="AD215" s="66"/>
+      <c r="AD215" s="23"/>
       <c r="AF215" s="39"/>
     </row>
     <row r="216" spans="16:32" s="21" customFormat="1">
@@ -23238,7 +23354,7 @@
       <c r="AA216" s="39"/>
       <c r="AB216" s="39"/>
       <c r="AC216" s="39"/>
-      <c r="AD216" s="66"/>
+      <c r="AD216" s="23"/>
       <c r="AF216" s="39"/>
     </row>
     <row r="217" spans="16:32" s="21" customFormat="1">
@@ -23255,7 +23371,7 @@
       <c r="AA217" s="39"/>
       <c r="AB217" s="39"/>
       <c r="AC217" s="39"/>
-      <c r="AD217" s="66"/>
+      <c r="AD217" s="23"/>
       <c r="AF217" s="39"/>
     </row>
     <row r="218" spans="16:32" s="21" customFormat="1">
@@ -23272,7 +23388,7 @@
       <c r="AA218" s="23"/>
       <c r="AB218" s="23"/>
       <c r="AC218" s="23"/>
-      <c r="AD218" s="66"/>
+      <c r="AD218" s="23"/>
       <c r="AF218" s="39"/>
     </row>
     <row r="219" spans="16:32" s="21" customFormat="1">
@@ -23290,7 +23406,7 @@
       <c r="AA219" s="39"/>
       <c r="AB219" s="39"/>
       <c r="AC219" s="39"/>
-      <c r="AD219" s="66"/>
+      <c r="AD219" s="23"/>
       <c r="AF219" s="39"/>
     </row>
     <row r="220" spans="16:32" s="21" customFormat="1">
@@ -23308,7 +23424,7 @@
       <c r="AA220" s="39"/>
       <c r="AB220" s="39"/>
       <c r="AC220" s="39"/>
-      <c r="AD220" s="66"/>
+      <c r="AD220" s="23"/>
       <c r="AF220" s="39"/>
     </row>
     <row r="221" spans="16:32" s="21" customFormat="1">
@@ -23325,7 +23441,7 @@
       <c r="AA221" s="39"/>
       <c r="AB221" s="39"/>
       <c r="AC221" s="39"/>
-      <c r="AD221" s="66"/>
+      <c r="AD221" s="23"/>
       <c r="AF221" s="39"/>
     </row>
     <row r="222" spans="16:32" s="21" customFormat="1">
@@ -23342,7 +23458,7 @@
       <c r="AA222" s="23"/>
       <c r="AB222" s="23"/>
       <c r="AC222" s="23"/>
-      <c r="AD222" s="66"/>
+      <c r="AD222" s="23"/>
       <c r="AF222" s="39"/>
     </row>
     <row r="223" spans="16:32" s="21" customFormat="1">
@@ -23360,7 +23476,7 @@
       <c r="AA223" s="39"/>
       <c r="AB223" s="39"/>
       <c r="AC223" s="39"/>
-      <c r="AD223" s="66"/>
+      <c r="AD223" s="23"/>
       <c r="AF223" s="39"/>
     </row>
     <row r="224" spans="16:32" s="21" customFormat="1">
@@ -23377,7 +23493,7 @@
       <c r="AA224" s="23"/>
       <c r="AB224" s="23"/>
       <c r="AC224" s="23"/>
-      <c r="AD224" s="66"/>
+      <c r="AD224" s="23"/>
       <c r="AF224" s="39"/>
     </row>
     <row r="225" spans="16:32" s="21" customFormat="1">
@@ -23394,7 +23510,7 @@
       <c r="AA225" s="39"/>
       <c r="AB225" s="39"/>
       <c r="AC225" s="39"/>
-      <c r="AD225" s="66"/>
+      <c r="AD225" s="23"/>
       <c r="AF225" s="39"/>
     </row>
     <row r="226" spans="16:32" s="21" customFormat="1">
@@ -23411,7 +23527,7 @@
       <c r="AA226" s="39"/>
       <c r="AB226" s="39"/>
       <c r="AC226" s="39"/>
-      <c r="AD226" s="66"/>
+      <c r="AD226" s="23"/>
       <c r="AF226" s="39"/>
     </row>
     <row r="227" spans="16:32" s="21" customFormat="1">
@@ -23428,7 +23544,7 @@
       <c r="AA227" s="23"/>
       <c r="AB227" s="23"/>
       <c r="AC227" s="23"/>
-      <c r="AD227" s="66"/>
+      <c r="AD227" s="23"/>
       <c r="AF227" s="39"/>
     </row>
     <row r="228" spans="16:32" s="21" customFormat="1">
@@ -23446,7 +23562,7 @@
       <c r="AA228" s="39"/>
       <c r="AB228" s="39"/>
       <c r="AC228" s="39"/>
-      <c r="AD228" s="66"/>
+      <c r="AD228" s="23"/>
       <c r="AF228" s="39"/>
     </row>
     <row r="229" spans="16:32" s="21" customFormat="1">
@@ -23463,7 +23579,7 @@
       <c r="AA229" s="39"/>
       <c r="AB229" s="39"/>
       <c r="AC229" s="39"/>
-      <c r="AD229" s="66"/>
+      <c r="AD229" s="23"/>
       <c r="AF229" s="39"/>
     </row>
     <row r="230" spans="16:32" s="21" customFormat="1">
@@ -23480,7 +23596,7 @@
       <c r="AA230" s="39"/>
       <c r="AB230" s="39"/>
       <c r="AC230" s="39"/>
-      <c r="AD230" s="66"/>
+      <c r="AD230" s="23"/>
       <c r="AF230" s="39"/>
     </row>
     <row r="231" spans="16:32" s="21" customFormat="1">
@@ -23497,7 +23613,7 @@
       <c r="AA231" s="23"/>
       <c r="AB231" s="23"/>
       <c r="AC231" s="23"/>
-      <c r="AD231" s="66"/>
+      <c r="AD231" s="23"/>
       <c r="AF231" s="39"/>
     </row>
     <row r="232" spans="16:32" s="21" customFormat="1">
@@ -23514,7 +23630,7 @@
       <c r="AA232" s="39"/>
       <c r="AB232" s="39"/>
       <c r="AC232" s="39"/>
-      <c r="AD232" s="66"/>
+      <c r="AD232" s="23"/>
       <c r="AF232" s="39"/>
     </row>
     <row r="233" spans="16:32" s="21" customFormat="1">
@@ -23531,7 +23647,7 @@
       <c r="AA233" s="39"/>
       <c r="AB233" s="39"/>
       <c r="AC233" s="39"/>
-      <c r="AD233" s="66"/>
+      <c r="AD233" s="23"/>
       <c r="AF233" s="39"/>
     </row>
     <row r="234" spans="16:32" s="21" customFormat="1">
@@ -23548,7 +23664,7 @@
       <c r="AA234" s="39"/>
       <c r="AB234" s="39"/>
       <c r="AC234" s="39"/>
-      <c r="AD234" s="66"/>
+      <c r="AD234" s="23"/>
       <c r="AF234" s="39"/>
     </row>
     <row r="235" spans="16:32" s="21" customFormat="1">
@@ -23565,7 +23681,7 @@
       <c r="AA235" s="39"/>
       <c r="AB235" s="39"/>
       <c r="AC235" s="39"/>
-      <c r="AD235" s="66"/>
+      <c r="AD235" s="23"/>
       <c r="AF235" s="39"/>
     </row>
     <row r="236" spans="16:32" s="21" customFormat="1">
@@ -23582,7 +23698,7 @@
       <c r="AA236" s="39"/>
       <c r="AB236" s="39"/>
       <c r="AC236" s="39"/>
-      <c r="AD236" s="66"/>
+      <c r="AD236" s="23"/>
       <c r="AF236" s="39"/>
     </row>
     <row r="237" spans="16:32" s="21" customFormat="1">
@@ -23599,7 +23715,7 @@
       <c r="AA237" s="23"/>
       <c r="AB237" s="23"/>
       <c r="AC237" s="23"/>
-      <c r="AD237" s="66"/>
+      <c r="AD237" s="23"/>
       <c r="AF237" s="39"/>
     </row>
     <row r="238" spans="16:32" s="21" customFormat="1">
@@ -23616,7 +23732,7 @@
       <c r="AA238" s="23"/>
       <c r="AB238" s="23"/>
       <c r="AC238" s="23"/>
-      <c r="AD238" s="66"/>
+      <c r="AD238" s="23"/>
       <c r="AF238" s="39"/>
     </row>
     <row r="239" spans="16:32" s="21" customFormat="1">
@@ -23634,7 +23750,7 @@
       <c r="AA239" s="39"/>
       <c r="AB239" s="39"/>
       <c r="AC239" s="39"/>
-      <c r="AD239" s="66"/>
+      <c r="AD239" s="23"/>
       <c r="AF239" s="39"/>
     </row>
     <row r="240" spans="16:32" s="21" customFormat="1">
@@ -23651,7 +23767,7 @@
       <c r="AA240" s="39"/>
       <c r="AB240" s="39"/>
       <c r="AC240" s="39"/>
-      <c r="AD240" s="66"/>
+      <c r="AD240" s="23"/>
       <c r="AF240" s="39"/>
     </row>
     <row r="241" spans="16:32" s="21" customFormat="1">
@@ -23668,7 +23784,7 @@
       <c r="AA241" s="23"/>
       <c r="AB241" s="23"/>
       <c r="AC241" s="23"/>
-      <c r="AD241" s="66"/>
+      <c r="AD241" s="23"/>
       <c r="AF241" s="39"/>
     </row>
     <row r="242" spans="16:32" s="21" customFormat="1">
@@ -23686,7 +23802,7 @@
       <c r="AA242" s="39"/>
       <c r="AB242" s="39"/>
       <c r="AC242" s="39"/>
-      <c r="AD242" s="66"/>
+      <c r="AD242" s="23"/>
       <c r="AF242" s="39"/>
     </row>
     <row r="243" spans="16:32" s="21" customFormat="1">
@@ -23703,7 +23819,7 @@
       <c r="AA243" s="39"/>
       <c r="AB243" s="39"/>
       <c r="AC243" s="39"/>
-      <c r="AD243" s="66"/>
+      <c r="AD243" s="23"/>
       <c r="AF243" s="39"/>
     </row>
     <row r="244" spans="16:32" s="21" customFormat="1">
@@ -23720,7 +23836,7 @@
       <c r="AA244" s="23"/>
       <c r="AB244" s="23"/>
       <c r="AC244" s="23"/>
-      <c r="AD244" s="66"/>
+      <c r="AD244" s="23"/>
       <c r="AF244" s="39"/>
     </row>
     <row r="245" spans="16:32" s="21" customFormat="1">
@@ -23738,7 +23854,7 @@
       <c r="AA245" s="39"/>
       <c r="AB245" s="39"/>
       <c r="AC245" s="39"/>
-      <c r="AD245" s="66"/>
+      <c r="AD245" s="23"/>
       <c r="AF245" s="39"/>
     </row>
     <row r="246" spans="16:32" s="21" customFormat="1">
@@ -23756,7 +23872,7 @@
       <c r="AA246" s="39"/>
       <c r="AB246" s="39"/>
       <c r="AC246" s="39"/>
-      <c r="AD246" s="66"/>
+      <c r="AD246" s="23"/>
       <c r="AF246" s="39"/>
     </row>
     <row r="247" spans="16:32" s="21" customFormat="1">
@@ -23773,7 +23889,7 @@
       <c r="AA247" s="39"/>
       <c r="AB247" s="39"/>
       <c r="AC247" s="39"/>
-      <c r="AD247" s="66"/>
+      <c r="AD247" s="23"/>
       <c r="AF247" s="39"/>
     </row>
     <row r="248" spans="16:32" s="21" customFormat="1">
@@ -23790,7 +23906,7 @@
       <c r="AA248" s="23"/>
       <c r="AB248" s="23"/>
       <c r="AC248" s="23"/>
-      <c r="AD248" s="66"/>
+      <c r="AD248" s="23"/>
       <c r="AF248" s="39"/>
     </row>
     <row r="249" spans="16:32" s="21" customFormat="1">
@@ -23808,7 +23924,7 @@
       <c r="AA249" s="39"/>
       <c r="AB249" s="39"/>
       <c r="AC249" s="39"/>
-      <c r="AD249" s="66"/>
+      <c r="AD249" s="23"/>
       <c r="AF249" s="39"/>
     </row>
     <row r="250" spans="16:32" s="21" customFormat="1">
@@ -23825,7 +23941,7 @@
       <c r="AA250" s="23"/>
       <c r="AB250" s="23"/>
       <c r="AC250" s="23"/>
-      <c r="AD250" s="66"/>
+      <c r="AD250" s="23"/>
       <c r="AF250" s="39"/>
     </row>
     <row r="251" spans="16:32" s="21" customFormat="1">
@@ -23842,7 +23958,7 @@
       <c r="AA251" s="39"/>
       <c r="AB251" s="39"/>
       <c r="AC251" s="39"/>
-      <c r="AD251" s="66"/>
+      <c r="AD251" s="23"/>
       <c r="AF251" s="39"/>
     </row>
     <row r="252" spans="16:32" s="21" customFormat="1">
@@ -23859,7 +23975,7 @@
       <c r="AA252" s="39"/>
       <c r="AB252" s="39"/>
       <c r="AC252" s="39"/>
-      <c r="AD252" s="66"/>
+      <c r="AD252" s="23"/>
       <c r="AF252" s="39"/>
     </row>
     <row r="253" spans="16:32" s="21" customFormat="1">
@@ -23876,7 +23992,7 @@
       <c r="AA253" s="39"/>
       <c r="AB253" s="39"/>
       <c r="AC253" s="39"/>
-      <c r="AD253" s="66"/>
+      <c r="AD253" s="23"/>
       <c r="AF253" s="39"/>
     </row>
     <row r="254" spans="16:32" s="21" customFormat="1">
@@ -23893,7 +24009,7 @@
       <c r="AA254" s="39"/>
       <c r="AB254" s="39"/>
       <c r="AC254" s="39"/>
-      <c r="AD254" s="66"/>
+      <c r="AD254" s="23"/>
       <c r="AF254" s="39"/>
     </row>
     <row r="255" spans="16:32" s="21" customFormat="1">
@@ -23910,7 +24026,7 @@
       <c r="AA255" s="39"/>
       <c r="AB255" s="39"/>
       <c r="AC255" s="39"/>
-      <c r="AD255" s="66"/>
+      <c r="AD255" s="23"/>
       <c r="AF255" s="39"/>
     </row>
     <row r="256" spans="16:32" s="21" customFormat="1">
@@ -23927,7 +24043,7 @@
       <c r="AA256" s="39"/>
       <c r="AB256" s="39"/>
       <c r="AC256" s="39"/>
-      <c r="AD256" s="66"/>
+      <c r="AD256" s="23"/>
       <c r="AF256" s="39"/>
     </row>
     <row r="257" spans="16:32" s="21" customFormat="1">
@@ -23944,7 +24060,7 @@
       <c r="AA257" s="39"/>
       <c r="AB257" s="39"/>
       <c r="AC257" s="39"/>
-      <c r="AD257" s="66"/>
+      <c r="AD257" s="23"/>
       <c r="AF257" s="39"/>
     </row>
     <row r="258" spans="16:32" s="21" customFormat="1">
@@ -23961,7 +24077,7 @@
       <c r="AA258" s="23"/>
       <c r="AB258" s="23"/>
       <c r="AC258" s="23"/>
-      <c r="AD258" s="66"/>
+      <c r="AD258" s="23"/>
       <c r="AF258" s="39"/>
     </row>
     <row r="259" spans="16:32" s="21" customFormat="1">
@@ -23978,7 +24094,7 @@
       <c r="AA259" s="39"/>
       <c r="AB259" s="39"/>
       <c r="AC259" s="39"/>
-      <c r="AD259" s="66"/>
+      <c r="AD259" s="23"/>
       <c r="AF259" s="39"/>
     </row>
     <row r="260" spans="16:32" s="21" customFormat="1">
@@ -23995,7 +24111,7 @@
       <c r="AA260" s="39"/>
       <c r="AB260" s="39"/>
       <c r="AC260" s="39"/>
-      <c r="AD260" s="66"/>
+      <c r="AD260" s="23"/>
       <c r="AF260" s="39"/>
     </row>
     <row r="261" spans="16:32" s="21" customFormat="1">
@@ -24012,7 +24128,7 @@
       <c r="AA261" s="39"/>
       <c r="AB261" s="39"/>
       <c r="AC261" s="39"/>
-      <c r="AD261" s="66"/>
+      <c r="AD261" s="23"/>
       <c r="AF261" s="39"/>
     </row>
     <row r="262" spans="16:32" s="21" customFormat="1">
@@ -24029,7 +24145,7 @@
       <c r="AA262" s="39"/>
       <c r="AB262" s="39"/>
       <c r="AC262" s="39"/>
-      <c r="AD262" s="66"/>
+      <c r="AD262" s="23"/>
       <c r="AF262" s="39"/>
     </row>
     <row r="263" spans="16:32" s="21" customFormat="1">
@@ -24046,7 +24162,7 @@
       <c r="AA263" s="23"/>
       <c r="AB263" s="23"/>
       <c r="AC263" s="23"/>
-      <c r="AD263" s="66"/>
+      <c r="AD263" s="23"/>
       <c r="AF263" s="39"/>
     </row>
     <row r="264" spans="16:32" s="21" customFormat="1">
@@ -24064,7 +24180,7 @@
       <c r="AA264" s="39"/>
       <c r="AB264" s="39"/>
       <c r="AC264" s="39"/>
-      <c r="AD264" s="66"/>
+      <c r="AD264" s="23"/>
       <c r="AF264" s="39"/>
     </row>
     <row r="265" spans="16:32" s="21" customFormat="1">
@@ -24081,7 +24197,7 @@
       <c r="AA265" s="39"/>
       <c r="AB265" s="39"/>
       <c r="AC265" s="39"/>
-      <c r="AD265" s="66"/>
+      <c r="AD265" s="23"/>
       <c r="AF265" s="39"/>
     </row>
     <row r="266" spans="16:32" s="21" customFormat="1">
@@ -24098,7 +24214,7 @@
       <c r="AA266" s="39"/>
       <c r="AB266" s="39"/>
       <c r="AC266" s="39"/>
-      <c r="AD266" s="66"/>
+      <c r="AD266" s="23"/>
       <c r="AF266" s="39"/>
     </row>
     <row r="267" spans="16:32" s="21" customFormat="1">
@@ -24115,7 +24231,7 @@
       <c r="AA267" s="23"/>
       <c r="AB267" s="23"/>
       <c r="AC267" s="23"/>
-      <c r="AD267" s="66"/>
+      <c r="AD267" s="23"/>
       <c r="AF267" s="39"/>
     </row>
     <row r="268" spans="16:32" s="21" customFormat="1">
@@ -24133,7 +24249,7 @@
       <c r="AA268" s="39"/>
       <c r="AB268" s="39"/>
       <c r="AC268" s="39"/>
-      <c r="AD268" s="66"/>
+      <c r="AD268" s="23"/>
       <c r="AF268" s="39"/>
     </row>
     <row r="269" spans="16:32" s="21" customFormat="1">
@@ -24150,7 +24266,7 @@
       <c r="AA269" s="39"/>
       <c r="AB269" s="39"/>
       <c r="AC269" s="39"/>
-      <c r="AD269" s="66"/>
+      <c r="AD269" s="23"/>
       <c r="AF269" s="39"/>
     </row>
     <row r="270" spans="16:32">
@@ -24167,7 +24283,7 @@
       <c r="AA270" s="39"/>
       <c r="AB270" s="39"/>
       <c r="AC270" s="39"/>
-      <c r="AD270" s="66"/>
+      <c r="AD270" s="23"/>
       <c r="AF270" s="39"/>
     </row>
     <row r="271" spans="16:32" s="21" customFormat="1">
@@ -24184,7 +24300,7 @@
       <c r="AA271" s="39"/>
       <c r="AB271" s="39"/>
       <c r="AC271" s="39"/>
-      <c r="AD271" s="66"/>
+      <c r="AD271" s="23"/>
       <c r="AF271" s="39"/>
     </row>
     <row r="272" spans="16:32" s="21" customFormat="1">
@@ -24201,7 +24317,7 @@
       <c r="AA272" s="23"/>
       <c r="AB272" s="23"/>
       <c r="AC272" s="23"/>
-      <c r="AD272" s="66"/>
+      <c r="AD272" s="23"/>
       <c r="AF272" s="39"/>
     </row>
     <row r="273" spans="16:32" s="21" customFormat="1">
@@ -24218,7 +24334,7 @@
       <c r="AA273" s="39"/>
       <c r="AB273" s="39"/>
       <c r="AC273" s="39"/>
-      <c r="AD273" s="66"/>
+      <c r="AD273" s="23"/>
       <c r="AF273" s="39"/>
     </row>
     <row r="274" spans="16:32" s="21" customFormat="1">
@@ -24236,7 +24352,7 @@
       <c r="AA274" s="39"/>
       <c r="AB274" s="39"/>
       <c r="AC274" s="39"/>
-      <c r="AD274" s="66"/>
+      <c r="AD274" s="23"/>
       <c r="AF274" s="39"/>
     </row>
     <row r="275" spans="16:32" s="21" customFormat="1">
@@ -24253,7 +24369,7 @@
       <c r="AA275" s="23"/>
       <c r="AB275" s="23"/>
       <c r="AC275" s="23"/>
-      <c r="AD275" s="66"/>
+      <c r="AD275" s="23"/>
       <c r="AF275" s="39"/>
     </row>
     <row r="276" spans="16:32" s="21" customFormat="1">
@@ -24270,7 +24386,7 @@
       <c r="AA276" s="23"/>
       <c r="AB276" s="23"/>
       <c r="AC276" s="23"/>
-      <c r="AD276" s="66"/>
+      <c r="AD276" s="23"/>
       <c r="AF276" s="39"/>
     </row>
     <row r="277" spans="16:32" s="21" customFormat="1">
@@ -24288,7 +24404,7 @@
       <c r="AA277" s="39"/>
       <c r="AB277" s="39"/>
       <c r="AC277" s="39"/>
-      <c r="AD277" s="66"/>
+      <c r="AD277" s="23"/>
       <c r="AF277" s="39"/>
     </row>
     <row r="278" spans="16:32" s="21" customFormat="1">
@@ -24305,7 +24421,7 @@
       <c r="AA278" s="39"/>
       <c r="AB278" s="39"/>
       <c r="AC278" s="39"/>
-      <c r="AD278" s="66"/>
+      <c r="AD278" s="23"/>
       <c r="AF278" s="39"/>
     </row>
     <row r="279" spans="16:32" s="21" customFormat="1">
@@ -24322,7 +24438,7 @@
       <c r="AA279" s="39"/>
       <c r="AB279" s="39"/>
       <c r="AC279" s="39"/>
-      <c r="AD279" s="66"/>
+      <c r="AD279" s="23"/>
       <c r="AF279" s="39"/>
     </row>
     <row r="280" spans="16:32" s="21" customFormat="1">
@@ -24339,7 +24455,7 @@
       <c r="AA280" s="39"/>
       <c r="AB280" s="39"/>
       <c r="AC280" s="39"/>
-      <c r="AD280" s="66"/>
+      <c r="AD280" s="23"/>
       <c r="AF280" s="39"/>
     </row>
     <row r="281" spans="16:32" s="21" customFormat="1">
@@ -24356,7 +24472,7 @@
       <c r="AA281" s="39"/>
       <c r="AB281" s="39"/>
       <c r="AC281" s="39"/>
-      <c r="AD281" s="66"/>
+      <c r="AD281" s="23"/>
       <c r="AF281" s="39"/>
     </row>
     <row r="282" spans="16:32" s="21" customFormat="1">
@@ -24373,7 +24489,7 @@
       <c r="AA282" s="39"/>
       <c r="AB282" s="39"/>
       <c r="AC282" s="39"/>
-      <c r="AD282" s="66"/>
+      <c r="AD282" s="23"/>
       <c r="AF282" s="39"/>
     </row>
     <row r="283" spans="16:32" s="21" customFormat="1">
@@ -24390,7 +24506,7 @@
       <c r="AA283" s="39"/>
       <c r="AB283" s="39"/>
       <c r="AC283" s="39"/>
-      <c r="AD283" s="66"/>
+      <c r="AD283" s="23"/>
       <c r="AF283" s="39"/>
     </row>
     <row r="284" spans="16:32" s="21" customFormat="1">
@@ -24407,7 +24523,7 @@
       <c r="AA284" s="39"/>
       <c r="AB284" s="39"/>
       <c r="AC284" s="39"/>
-      <c r="AD284" s="66"/>
+      <c r="AD284" s="23"/>
       <c r="AF284" s="39"/>
     </row>
     <row r="285" spans="16:32" s="21" customFormat="1">
@@ -24424,7 +24540,7 @@
       <c r="AA285" s="23"/>
       <c r="AB285" s="23"/>
       <c r="AC285" s="23"/>
-      <c r="AD285" s="66"/>
+      <c r="AD285" s="23"/>
       <c r="AF285" s="39"/>
     </row>
     <row r="286" spans="16:32" s="21" customFormat="1">
@@ -24442,7 +24558,7 @@
       <c r="AA286" s="39"/>
       <c r="AB286" s="39"/>
       <c r="AC286" s="39"/>
-      <c r="AD286" s="66"/>
+      <c r="AD286" s="23"/>
       <c r="AF286" s="39"/>
     </row>
     <row r="287" spans="16:32" s="21" customFormat="1">
@@ -24459,7 +24575,7 @@
       <c r="AA287" s="39"/>
       <c r="AB287" s="39"/>
       <c r="AC287" s="39"/>
-      <c r="AD287" s="66"/>
+      <c r="AD287" s="23"/>
       <c r="AF287" s="39"/>
     </row>
     <row r="288" spans="16:32" s="21" customFormat="1">
@@ -24476,7 +24592,7 @@
       <c r="AA288" s="23"/>
       <c r="AB288" s="23"/>
       <c r="AC288" s="23"/>
-      <c r="AD288" s="66"/>
+      <c r="AD288" s="23"/>
       <c r="AF288" s="39"/>
     </row>
     <row r="289" spans="16:32" s="21" customFormat="1">
@@ -24493,7 +24609,7 @@
       <c r="AA289" s="39"/>
       <c r="AB289" s="39"/>
       <c r="AC289" s="39"/>
-      <c r="AD289" s="66"/>
+      <c r="AD289" s="23"/>
       <c r="AF289" s="39"/>
     </row>
     <row r="290" spans="16:32" s="21" customFormat="1">
@@ -24510,7 +24626,7 @@
       <c r="AA290" s="39"/>
       <c r="AB290" s="39"/>
       <c r="AC290" s="39"/>
-      <c r="AD290" s="66"/>
+      <c r="AD290" s="23"/>
       <c r="AF290" s="39"/>
     </row>
     <row r="291" spans="16:32" s="21" customFormat="1">
@@ -24527,7 +24643,7 @@
       <c r="AA291" s="39"/>
       <c r="AB291" s="39"/>
       <c r="AC291" s="39"/>
-      <c r="AD291" s="66"/>
+      <c r="AD291" s="23"/>
       <c r="AF291" s="39"/>
     </row>
     <row r="292" spans="16:32" s="21" customFormat="1">
@@ -24544,7 +24660,7 @@
       <c r="AA292" s="39"/>
       <c r="AB292" s="39"/>
       <c r="AC292" s="39"/>
-      <c r="AD292" s="64"/>
+      <c r="AD292" s="22"/>
     </row>
     <row r="293" spans="16:32" s="21" customFormat="1">
       <c r="Q293" s="23"/>
@@ -24560,7 +24676,7 @@
       <c r="AA293" s="39"/>
       <c r="AB293" s="39"/>
       <c r="AC293" s="39"/>
-      <c r="AD293" s="64"/>
+      <c r="AD293" s="22"/>
     </row>
     <row r="294" spans="16:32" s="21" customFormat="1">
       <c r="Q294" s="23"/>
@@ -24576,7 +24692,7 @@
       <c r="AA294" s="39"/>
       <c r="AB294" s="39"/>
       <c r="AC294" s="39"/>
-      <c r="AD294" s="64"/>
+      <c r="AD294" s="22"/>
     </row>
     <row r="295" spans="16:32" s="21" customFormat="1">
       <c r="Q295" s="23"/>
@@ -24592,7 +24708,7 @@
       <c r="AA295" s="39"/>
       <c r="AB295" s="39"/>
       <c r="AC295" s="39"/>
-      <c r="AD295" s="64"/>
+      <c r="AD295" s="22"/>
     </row>
     <row r="296" spans="16:32" s="21" customFormat="1">
       <c r="P296" s="22"/>
@@ -24609,7 +24725,7 @@
       <c r="AA296" s="39"/>
       <c r="AB296" s="39"/>
       <c r="AC296" s="39"/>
-      <c r="AD296" s="64"/>
+      <c r="AD296" s="22"/>
     </row>
     <row r="297" spans="16:32" s="21" customFormat="1">
       <c r="Q297" s="23"/>
@@ -24625,7 +24741,7 @@
       <c r="AA297" s="23"/>
       <c r="AB297" s="23"/>
       <c r="AC297" s="23"/>
-      <c r="AD297" s="64"/>
+      <c r="AD297" s="22"/>
     </row>
     <row r="298" spans="16:32" s="21" customFormat="1">
       <c r="Q298" s="23"/>
@@ -24641,7 +24757,7 @@
       <c r="AA298" s="39"/>
       <c r="AB298" s="39"/>
       <c r="AC298" s="39"/>
-      <c r="AD298" s="64"/>
+      <c r="AD298" s="22"/>
     </row>
     <row r="299" spans="16:32" s="21" customFormat="1">
       <c r="Q299" s="23"/>
@@ -24657,7 +24773,7 @@
       <c r="AA299" s="39"/>
       <c r="AB299" s="39"/>
       <c r="AC299" s="39"/>
-      <c r="AD299" s="64"/>
+      <c r="AD299" s="22"/>
     </row>
     <row r="300" spans="16:32" s="21" customFormat="1">
       <c r="Q300" s="23"/>
@@ -24673,7 +24789,7 @@
       <c r="AA300" s="39"/>
       <c r="AB300" s="39"/>
       <c r="AC300" s="39"/>
-      <c r="AD300" s="64"/>
+      <c r="AD300" s="22"/>
     </row>
     <row r="301" spans="16:32" s="21" customFormat="1">
       <c r="Q301" s="23"/>
@@ -24689,7 +24805,7 @@
       <c r="AA301" s="39"/>
       <c r="AB301" s="39"/>
       <c r="AC301" s="39"/>
-      <c r="AD301" s="64"/>
+      <c r="AD301" s="22"/>
     </row>
     <row r="302" spans="16:32" s="21" customFormat="1">
       <c r="Q302" s="23"/>
@@ -24705,7 +24821,7 @@
       <c r="AA302" s="39"/>
       <c r="AB302" s="39"/>
       <c r="AC302" s="39"/>
-      <c r="AD302" s="64"/>
+      <c r="AD302" s="22"/>
     </row>
     <row r="303" spans="16:32" s="21" customFormat="1">
       <c r="Q303" s="23"/>
@@ -24721,7 +24837,7 @@
       <c r="AA303" s="39"/>
       <c r="AB303" s="39"/>
       <c r="AC303" s="39"/>
-      <c r="AD303" s="64"/>
+      <c r="AD303" s="22"/>
     </row>
     <row r="304" spans="16:32" s="21" customFormat="1">
       <c r="Q304" s="23"/>
@@ -24737,7 +24853,7 @@
       <c r="AA304" s="39"/>
       <c r="AB304" s="39"/>
       <c r="AC304" s="39"/>
-      <c r="AD304" s="64"/>
+      <c r="AD304" s="22"/>
     </row>
     <row r="305" spans="16:30" s="21" customFormat="1">
       <c r="Q305" s="23"/>
@@ -24753,7 +24869,7 @@
       <c r="AA305" s="23"/>
       <c r="AB305" s="23"/>
       <c r="AC305" s="23"/>
-      <c r="AD305" s="64"/>
+      <c r="AD305" s="22"/>
     </row>
     <row r="306" spans="16:30" s="21" customFormat="1">
       <c r="P306" s="22"/>
@@ -24770,7 +24886,7 @@
       <c r="AA306" s="39"/>
       <c r="AB306" s="39"/>
       <c r="AC306" s="39"/>
-      <c r="AD306" s="64"/>
+      <c r="AD306" s="22"/>
     </row>
     <row r="307" spans="16:30" s="21" customFormat="1">
       <c r="Q307" s="23"/>
@@ -24786,7 +24902,7 @@
       <c r="AA307" s="39"/>
       <c r="AB307" s="39"/>
       <c r="AC307" s="39"/>
-      <c r="AD307" s="64"/>
+      <c r="AD307" s="22"/>
     </row>
     <row r="308" spans="16:30" s="21" customFormat="1">
       <c r="Q308" s="23"/>
@@ -24802,7 +24918,7 @@
       <c r="AA308" s="23"/>
       <c r="AB308" s="23"/>
       <c r="AC308" s="23"/>
-      <c r="AD308" s="64"/>
+      <c r="AD308" s="22"/>
     </row>
     <row r="309" spans="16:30" s="21" customFormat="1">
       <c r="Q309" s="23"/>
@@ -24818,7 +24934,7 @@
       <c r="AA309" s="39"/>
       <c r="AB309" s="39"/>
       <c r="AC309" s="39"/>
-      <c r="AD309" s="64"/>
+      <c r="AD309" s="22"/>
     </row>
     <row r="310" spans="16:30" s="21" customFormat="1">
       <c r="Q310" s="23"/>
@@ -24834,7 +24950,7 @@
       <c r="AA310" s="39"/>
       <c r="AB310" s="39"/>
       <c r="AC310" s="39"/>
-      <c r="AD310" s="64"/>
+      <c r="AD310" s="22"/>
     </row>
     <row r="311" spans="16:30" s="21" customFormat="1">
       <c r="Q311" s="23"/>
@@ -24850,7 +24966,7 @@
       <c r="AA311" s="39"/>
       <c r="AB311" s="39"/>
       <c r="AC311" s="39"/>
-      <c r="AD311" s="64"/>
+      <c r="AD311" s="22"/>
     </row>
     <row r="312" spans="16:30" s="21" customFormat="1">
       <c r="Q312" s="23"/>
@@ -24866,7 +24982,7 @@
       <c r="AA312" s="39"/>
       <c r="AB312" s="39"/>
       <c r="AC312" s="39"/>
-      <c r="AD312" s="64"/>
+      <c r="AD312" s="22"/>
     </row>
     <row r="313" spans="16:30" s="21" customFormat="1">
       <c r="P313" s="22"/>
@@ -24883,7 +24999,7 @@
       <c r="AA313" s="39"/>
       <c r="AB313" s="39"/>
       <c r="AC313" s="39"/>
-      <c r="AD313" s="64"/>
+      <c r="AD313" s="22"/>
     </row>
     <row r="314" spans="16:30" s="21" customFormat="1">
       <c r="Q314" s="23"/>
@@ -24899,7 +25015,7 @@
       <c r="AA314" s="39"/>
       <c r="AB314" s="39"/>
       <c r="AC314" s="39"/>
-      <c r="AD314" s="64"/>
+      <c r="AD314" s="22"/>
     </row>
     <row r="315" spans="16:30" s="21" customFormat="1">
       <c r="Q315" s="23"/>
@@ -24915,7 +25031,7 @@
       <c r="AA315" s="39"/>
       <c r="AB315" s="39"/>
       <c r="AC315" s="39"/>
-      <c r="AD315" s="64"/>
+      <c r="AD315" s="22"/>
     </row>
     <row r="316" spans="16:30" s="21" customFormat="1">
       <c r="Q316" s="23"/>
@@ -24931,7 +25047,7 @@
       <c r="AA316" s="39"/>
       <c r="AB316" s="39"/>
       <c r="AC316" s="39"/>
-      <c r="AD316" s="64"/>
+      <c r="AD316" s="22"/>
     </row>
     <row r="317" spans="16:30" s="21" customFormat="1">
       <c r="Q317" s="23"/>
@@ -24947,7 +25063,7 @@
       <c r="AA317" s="39"/>
       <c r="AB317" s="39"/>
       <c r="AC317" s="39"/>
-      <c r="AD317" s="64"/>
+      <c r="AD317" s="22"/>
     </row>
     <row r="318" spans="16:30" s="21" customFormat="1">
       <c r="Q318" s="23"/>
@@ -24963,7 +25079,7 @@
       <c r="AA318" s="39"/>
       <c r="AB318" s="39"/>
       <c r="AC318" s="39"/>
-      <c r="AD318" s="64"/>
+      <c r="AD318" s="22"/>
     </row>
     <row r="319" spans="16:30" s="21" customFormat="1">
       <c r="Q319" s="23"/>
@@ -24979,7 +25095,7 @@
       <c r="AA319" s="39"/>
       <c r="AB319" s="39"/>
       <c r="AC319" s="39"/>
-      <c r="AD319" s="64"/>
+      <c r="AD319" s="22"/>
     </row>
     <row r="320" spans="16:30" s="21" customFormat="1">
       <c r="Q320" s="39"/>
@@ -24995,7 +25111,7 @@
       <c r="AA320" s="39"/>
       <c r="AB320" s="39"/>
       <c r="AC320" s="39"/>
-      <c r="AD320" s="64"/>
+      <c r="AD320" s="22"/>
     </row>
     <row r="321" spans="16:30" s="21" customFormat="1">
       <c r="Q321" s="23"/>
@@ -25011,7 +25127,7 @@
       <c r="AA321" s="39"/>
       <c r="AB321" s="39"/>
       <c r="AC321" s="39"/>
-      <c r="AD321" s="64"/>
+      <c r="AD321" s="22"/>
     </row>
     <row r="322" spans="16:30" s="21" customFormat="1">
       <c r="Q322" s="39"/>
@@ -25027,7 +25143,7 @@
       <c r="AA322" s="39"/>
       <c r="AB322" s="39"/>
       <c r="AC322" s="39"/>
-      <c r="AD322" s="64"/>
+      <c r="AD322" s="22"/>
     </row>
     <row r="323" spans="16:30" s="21" customFormat="1">
       <c r="Q323" s="23"/>
@@ -25043,7 +25159,7 @@
       <c r="AA323" s="39"/>
       <c r="AB323" s="39"/>
       <c r="AC323" s="39"/>
-      <c r="AD323" s="64"/>
+      <c r="AD323" s="22"/>
     </row>
     <row r="324" spans="16:30" s="21" customFormat="1">
       <c r="Q324" s="23"/>
@@ -25059,7 +25175,7 @@
       <c r="AA324" s="23"/>
       <c r="AB324" s="23"/>
       <c r="AC324" s="23"/>
-      <c r="AD324" s="64"/>
+      <c r="AD324" s="22"/>
     </row>
     <row r="325" spans="16:30" s="21" customFormat="1">
       <c r="Q325" s="23"/>
@@ -25075,7 +25191,7 @@
       <c r="AA325" s="39"/>
       <c r="AB325" s="39"/>
       <c r="AC325" s="39"/>
-      <c r="AD325" s="64"/>
+      <c r="AD325" s="22"/>
     </row>
     <row r="326" spans="16:30" s="21" customFormat="1">
       <c r="Q326" s="23"/>
@@ -25091,7 +25207,7 @@
       <c r="AA326" s="39"/>
       <c r="AB326" s="39"/>
       <c r="AC326" s="39"/>
-      <c r="AD326" s="64"/>
+      <c r="AD326" s="22"/>
     </row>
     <row r="327" spans="16:30" s="21" customFormat="1">
       <c r="P327" s="22"/>
@@ -25108,7 +25224,7 @@
       <c r="AA327" s="39"/>
       <c r="AB327" s="39"/>
       <c r="AC327" s="39"/>
-      <c r="AD327" s="64"/>
+      <c r="AD327" s="22"/>
     </row>
     <row r="328" spans="16:30" s="21" customFormat="1">
       <c r="P328" s="22"/>
@@ -25125,7 +25241,7 @@
       <c r="AA328" s="39"/>
       <c r="AB328" s="39"/>
       <c r="AC328" s="39"/>
-      <c r="AD328" s="64"/>
+      <c r="AD328" s="22"/>
     </row>
     <row r="329" spans="16:30" s="21" customFormat="1">
       <c r="P329" s="22"/>
@@ -25142,7 +25258,7 @@
       <c r="AA329" s="39"/>
       <c r="AB329" s="39"/>
       <c r="AC329" s="39"/>
-      <c r="AD329" s="64"/>
+      <c r="AD329" s="22"/>
     </row>
     <row r="330" spans="16:30" s="21" customFormat="1">
       <c r="Q330" s="23"/>
@@ -25158,7 +25274,7 @@
       <c r="AA330" s="23"/>
       <c r="AB330" s="23"/>
       <c r="AC330" s="23"/>
-      <c r="AD330" s="64"/>
+      <c r="AD330" s="22"/>
     </row>
     <row r="331" spans="16:30" s="21" customFormat="1">
       <c r="Q331" s="23"/>
@@ -25174,7 +25290,7 @@
       <c r="AA331" s="39"/>
       <c r="AB331" s="39"/>
       <c r="AC331" s="39"/>
-      <c r="AD331" s="64"/>
+      <c r="AD331" s="22"/>
     </row>
     <row r="332" spans="16:30" s="21" customFormat="1">
       <c r="Q332" s="23"/>
@@ -25190,7 +25306,7 @@
       <c r="AA332" s="39"/>
       <c r="AB332" s="39"/>
       <c r="AC332" s="39"/>
-      <c r="AD332" s="64"/>
+      <c r="AD332" s="22"/>
     </row>
     <row r="333" spans="16:30" s="21" customFormat="1">
       <c r="Q333" s="23"/>
@@ -25206,7 +25322,7 @@
       <c r="AA333" s="39"/>
       <c r="AB333" s="39"/>
       <c r="AC333" s="39"/>
-      <c r="AD333" s="64"/>
+      <c r="AD333" s="22"/>
     </row>
     <row r="334" spans="16:30" s="21" customFormat="1">
       <c r="Q334" s="23"/>
@@ -25222,7 +25338,7 @@
       <c r="AA334" s="39"/>
       <c r="AB334" s="39"/>
       <c r="AC334" s="39"/>
-      <c r="AD334" s="64"/>
+      <c r="AD334" s="22"/>
     </row>
     <row r="335" spans="16:30" s="21" customFormat="1">
       <c r="Q335" s="23"/>
@@ -25238,7 +25354,7 @@
       <c r="AA335" s="39"/>
       <c r="AB335" s="39"/>
       <c r="AC335" s="39"/>
-      <c r="AD335" s="64"/>
+      <c r="AD335" s="22"/>
     </row>
     <row r="336" spans="16:30" s="21" customFormat="1">
       <c r="Q336" s="23"/>
@@ -25254,7 +25370,7 @@
       <c r="AA336" s="39"/>
       <c r="AB336" s="39"/>
       <c r="AC336" s="39"/>
-      <c r="AD336" s="64"/>
+      <c r="AD336" s="22"/>
     </row>
     <row r="337" spans="17:30" s="21" customFormat="1">
       <c r="Q337" s="23"/>
@@ -25270,7 +25386,7 @@
       <c r="AA337" s="39"/>
       <c r="AB337" s="39"/>
       <c r="AC337" s="39"/>
-      <c r="AD337" s="64"/>
+      <c r="AD337" s="22"/>
     </row>
     <row r="338" spans="17:30" s="21" customFormat="1">
       <c r="Q338" s="23"/>
@@ -25286,7 +25402,7 @@
       <c r="AA338" s="39"/>
       <c r="AB338" s="39"/>
       <c r="AC338" s="39"/>
-      <c r="AD338" s="64"/>
+      <c r="AD338" s="22"/>
     </row>
     <row r="339" spans="17:30" s="21" customFormat="1">
       <c r="Q339" s="23"/>
@@ -25302,7 +25418,7 @@
       <c r="AA339" s="39"/>
       <c r="AB339" s="39"/>
       <c r="AC339" s="39"/>
-      <c r="AD339" s="64"/>
+      <c r="AD339" s="22"/>
     </row>
     <row r="340" spans="17:30" s="21" customFormat="1">
       <c r="Q340" s="23"/>
@@ -25318,7 +25434,7 @@
       <c r="AA340" s="39"/>
       <c r="AB340" s="39"/>
       <c r="AC340" s="39"/>
-      <c r="AD340" s="64"/>
+      <c r="AD340" s="22"/>
     </row>
     <row r="341" spans="17:30" s="21" customFormat="1">
       <c r="Q341" s="39"/>
@@ -25334,7 +25450,7 @@
       <c r="AA341" s="39"/>
       <c r="AB341" s="39"/>
       <c r="AC341" s="39"/>
-      <c r="AD341" s="64"/>
+      <c r="AD341" s="22"/>
     </row>
     <row r="342" spans="17:30" s="21" customFormat="1">
       <c r="Q342" s="23"/>
@@ -25350,7 +25466,7 @@
       <c r="AA342" s="39"/>
       <c r="AB342" s="39"/>
       <c r="AC342" s="39"/>
-      <c r="AD342" s="64"/>
+      <c r="AD342" s="22"/>
     </row>
     <row r="343" spans="17:30" s="21" customFormat="1">
       <c r="Q343" s="39"/>
@@ -25366,7 +25482,7 @@
       <c r="AA343" s="39"/>
       <c r="AB343" s="39"/>
       <c r="AC343" s="39"/>
-      <c r="AD343" s="64"/>
+      <c r="AD343" s="22"/>
     </row>
     <row r="344" spans="17:30" s="21" customFormat="1">
       <c r="Q344" s="23"/>
@@ -25382,7 +25498,7 @@
       <c r="AA344" s="39"/>
       <c r="AB344" s="39"/>
       <c r="AC344" s="39"/>
-      <c r="AD344" s="64"/>
+      <c r="AD344" s="22"/>
     </row>
     <row r="345" spans="17:30" s="21" customFormat="1">
       <c r="Q345" s="23"/>
@@ -25398,7 +25514,7 @@
       <c r="AA345" s="23"/>
       <c r="AB345" s="23"/>
       <c r="AC345" s="23"/>
-      <c r="AD345" s="64"/>
+      <c r="AD345" s="22"/>
     </row>
     <row r="346" spans="17:30" s="21" customFormat="1">
       <c r="Q346" s="23"/>
@@ -25414,7 +25530,7 @@
       <c r="AA346" s="39"/>
       <c r="AB346" s="39"/>
       <c r="AC346" s="39"/>
-      <c r="AD346" s="64"/>
+      <c r="AD346" s="22"/>
     </row>
     <row r="347" spans="17:30" s="21" customFormat="1">
       <c r="Q347" s="23"/>
@@ -25430,7 +25546,7 @@
       <c r="AA347" s="39"/>
       <c r="AB347" s="39"/>
       <c r="AC347" s="39"/>
-      <c r="AD347" s="64"/>
+      <c r="AD347" s="22"/>
     </row>
     <row r="348" spans="17:30" s="21" customFormat="1">
       <c r="Q348" s="23"/>
@@ -25446,7 +25562,7 @@
       <c r="AA348" s="23"/>
       <c r="AB348" s="23"/>
       <c r="AC348" s="23"/>
-      <c r="AD348" s="64"/>
+      <c r="AD348" s="22"/>
     </row>
     <row r="349" spans="17:30" s="21" customFormat="1">
       <c r="Q349" s="23"/>
@@ -25462,7 +25578,7 @@
       <c r="AA349" s="39"/>
       <c r="AB349" s="39"/>
       <c r="AC349" s="39"/>
-      <c r="AD349" s="64"/>
+      <c r="AD349" s="22"/>
     </row>
     <row r="350" spans="17:30" s="21" customFormat="1">
       <c r="Q350" s="23"/>
@@ -25478,7 +25594,7 @@
       <c r="AA350" s="39"/>
       <c r="AB350" s="39"/>
       <c r="AC350" s="39"/>
-      <c r="AD350" s="64"/>
+      <c r="AD350" s="22"/>
     </row>
     <row r="351" spans="17:30" s="21" customFormat="1">
       <c r="Q351" s="23"/>
@@ -25494,7 +25610,7 @@
       <c r="AA351" s="39"/>
       <c r="AB351" s="39"/>
       <c r="AC351" s="39"/>
-      <c r="AD351" s="64"/>
+      <c r="AD351" s="22"/>
     </row>
     <row r="352" spans="17:30" s="21" customFormat="1">
       <c r="Q352" s="23"/>
@@ -25510,7 +25626,7 @@
       <c r="AA352" s="39"/>
       <c r="AB352" s="39"/>
       <c r="AC352" s="39"/>
-      <c r="AD352" s="64"/>
+      <c r="AD352" s="22"/>
     </row>
     <row r="353" spans="17:30" s="21" customFormat="1">
       <c r="Q353" s="23"/>
@@ -25526,7 +25642,7 @@
       <c r="AA353" s="39"/>
       <c r="AB353" s="39"/>
       <c r="AC353" s="39"/>
-      <c r="AD353" s="64"/>
+      <c r="AD353" s="22"/>
     </row>
     <row r="354" spans="17:30" s="21" customFormat="1">
       <c r="Q354" s="39"/>
@@ -25542,7 +25658,7 @@
       <c r="AA354" s="39"/>
       <c r="AB354" s="39"/>
       <c r="AC354" s="39"/>
-      <c r="AD354" s="64"/>
+      <c r="AD354" s="22"/>
     </row>
     <row r="355" spans="17:30" s="21" customFormat="1">
       <c r="Q355" s="23"/>
@@ -25558,7 +25674,7 @@
       <c r="AA355" s="39"/>
       <c r="AB355" s="39"/>
       <c r="AC355" s="39"/>
-      <c r="AD355" s="64"/>
+      <c r="AD355" s="22"/>
     </row>
     <row r="356" spans="17:30" s="21" customFormat="1">
       <c r="Q356" s="23"/>
@@ -25574,7 +25690,7 @@
       <c r="AA356" s="39"/>
       <c r="AB356" s="39"/>
       <c r="AC356" s="39"/>
-      <c r="AD356" s="64"/>
+      <c r="AD356" s="22"/>
     </row>
     <row r="357" spans="17:30" s="21" customFormat="1">
       <c r="Q357" s="23"/>
@@ -25590,7 +25706,7 @@
       <c r="AA357" s="23"/>
       <c r="AB357" s="23"/>
       <c r="AC357" s="23"/>
-      <c r="AD357" s="64"/>
+      <c r="AD357" s="22"/>
     </row>
     <row r="358" spans="17:30" s="21" customFormat="1">
       <c r="Q358" s="23"/>
@@ -25606,7 +25722,7 @@
       <c r="AA358" s="39"/>
       <c r="AB358" s="39"/>
       <c r="AC358" s="39"/>
-      <c r="AD358" s="64"/>
+      <c r="AD358" s="22"/>
     </row>
     <row r="359" spans="17:30" s="21" customFormat="1">
       <c r="Q359" s="23"/>
@@ -25622,7 +25738,7 @@
       <c r="AA359" s="39"/>
       <c r="AB359" s="39"/>
       <c r="AC359" s="39"/>
-      <c r="AD359" s="64"/>
+      <c r="AD359" s="22"/>
     </row>
     <row r="360" spans="17:30" s="21" customFormat="1">
       <c r="Q360" s="23"/>
@@ -25638,7 +25754,7 @@
       <c r="AA360" s="39"/>
       <c r="AB360" s="39"/>
       <c r="AC360" s="39"/>
-      <c r="AD360" s="64"/>
+      <c r="AD360" s="22"/>
     </row>
     <row r="361" spans="17:30" s="21" customFormat="1">
       <c r="Q361" s="23"/>
@@ -25654,7 +25770,7 @@
       <c r="AA361" s="39"/>
       <c r="AB361" s="39"/>
       <c r="AC361" s="39"/>
-      <c r="AD361" s="64"/>
+      <c r="AD361" s="22"/>
     </row>
     <row r="362" spans="17:30" s="21" customFormat="1">
       <c r="Q362" s="23"/>
@@ -25670,7 +25786,7 @@
       <c r="AA362" s="39"/>
       <c r="AB362" s="39"/>
       <c r="AC362" s="39"/>
-      <c r="AD362" s="64"/>
+      <c r="AD362" s="22"/>
     </row>
     <row r="363" spans="17:30" s="21" customFormat="1">
       <c r="Q363" s="23"/>
@@ -25686,7 +25802,7 @@
       <c r="AA363" s="39"/>
       <c r="AB363" s="39"/>
       <c r="AC363" s="39"/>
-      <c r="AD363" s="64"/>
+      <c r="AD363" s="22"/>
     </row>
     <row r="364" spans="17:30" s="21" customFormat="1">
       <c r="Q364" s="23"/>
@@ -25702,7 +25818,7 @@
       <c r="AA364" s="39"/>
       <c r="AB364" s="39"/>
       <c r="AC364" s="39"/>
-      <c r="AD364" s="64"/>
+      <c r="AD364" s="22"/>
     </row>
     <row r="365" spans="17:30" s="21" customFormat="1">
       <c r="Q365" s="39"/>
@@ -25718,7 +25834,7 @@
       <c r="AA365" s="39"/>
       <c r="AB365" s="39"/>
       <c r="AC365" s="39"/>
-      <c r="AD365" s="64"/>
+      <c r="AD365" s="22"/>
     </row>
     <row r="366" spans="17:30" s="21" customFormat="1">
       <c r="Q366" s="23"/>
@@ -25734,7 +25850,7 @@
       <c r="AA366" s="39"/>
       <c r="AB366" s="39"/>
       <c r="AC366" s="39"/>
-      <c r="AD366" s="64"/>
+      <c r="AD366" s="22"/>
     </row>
     <row r="367" spans="17:30" s="21" customFormat="1">
       <c r="Q367" s="23"/>
@@ -25750,7 +25866,7 @@
       <c r="AA367" s="39"/>
       <c r="AB367" s="39"/>
       <c r="AC367" s="39"/>
-      <c r="AD367" s="64"/>
+      <c r="AD367" s="22"/>
     </row>
     <row r="368" spans="17:30" s="21" customFormat="1">
       <c r="Q368" s="23"/>
@@ -25766,7 +25882,7 @@
       <c r="AA368" s="39"/>
       <c r="AB368" s="39"/>
       <c r="AC368" s="39"/>
-      <c r="AD368" s="64"/>
+      <c r="AD368" s="22"/>
     </row>
     <row r="369" spans="17:30" s="21" customFormat="1">
       <c r="Q369" s="23"/>
@@ -25782,7 +25898,7 @@
       <c r="AA369" s="39"/>
       <c r="AB369" s="39"/>
       <c r="AC369" s="39"/>
-      <c r="AD369" s="64"/>
+      <c r="AD369" s="22"/>
     </row>
     <row r="370" spans="17:30" s="21" customFormat="1">
       <c r="Q370" s="23"/>
@@ -25798,7 +25914,7 @@
       <c r="AA370" s="39"/>
       <c r="AB370" s="39"/>
       <c r="AC370" s="39"/>
-      <c r="AD370" s="64"/>
+      <c r="AD370" s="22"/>
     </row>
     <row r="371" spans="17:30" s="21" customFormat="1">
       <c r="Q371" s="23"/>
@@ -25814,7 +25930,7 @@
       <c r="AA371" s="39"/>
       <c r="AB371" s="39"/>
       <c r="AC371" s="39"/>
-      <c r="AD371" s="64"/>
+      <c r="AD371" s="22"/>
     </row>
     <row r="372" spans="17:30" s="21" customFormat="1">
       <c r="Q372" s="23"/>
@@ -25830,7 +25946,7 @@
       <c r="AA372" s="39"/>
       <c r="AB372" s="39"/>
       <c r="AC372" s="39"/>
-      <c r="AD372" s="64"/>
+      <c r="AD372" s="22"/>
     </row>
     <row r="373" spans="17:30" s="21" customFormat="1">
       <c r="Q373" s="23"/>
@@ -25846,7 +25962,7 @@
       <c r="AA373" s="39"/>
       <c r="AB373" s="39"/>
       <c r="AC373" s="39"/>
-      <c r="AD373" s="64"/>
+      <c r="AD373" s="22"/>
     </row>
     <row r="374" spans="17:30" s="21" customFormat="1">
       <c r="Q374" s="23"/>
@@ -25862,7 +25978,7 @@
       <c r="AA374" s="39"/>
       <c r="AB374" s="39"/>
       <c r="AC374" s="39"/>
-      <c r="AD374" s="64"/>
+      <c r="AD374" s="22"/>
     </row>
     <row r="375" spans="17:30" s="21" customFormat="1">
       <c r="Q375" s="23"/>
@@ -25878,7 +25994,7 @@
       <c r="AA375" s="39"/>
       <c r="AB375" s="39"/>
       <c r="AC375" s="39"/>
-      <c r="AD375" s="64"/>
+      <c r="AD375" s="22"/>
     </row>
     <row r="376" spans="17:30" s="21" customFormat="1">
       <c r="Q376" s="23"/>
@@ -25894,7 +26010,7 @@
       <c r="AA376" s="39"/>
       <c r="AB376" s="39"/>
       <c r="AC376" s="39"/>
-      <c r="AD376" s="64"/>
+      <c r="AD376" s="22"/>
     </row>
     <row r="377" spans="17:30" s="21" customFormat="1">
       <c r="Q377" s="23"/>
@@ -25910,7 +26026,7 @@
       <c r="AA377" s="39"/>
       <c r="AB377" s="39"/>
       <c r="AC377" s="39"/>
-      <c r="AD377" s="64"/>
+      <c r="AD377" s="22"/>
     </row>
     <row r="378" spans="17:30" s="21" customFormat="1">
       <c r="Q378" s="23"/>
@@ -25926,7 +26042,7 @@
       <c r="AA378" s="39"/>
       <c r="AB378" s="39"/>
       <c r="AC378" s="39"/>
-      <c r="AD378" s="64"/>
+      <c r="AD378" s="22"/>
     </row>
     <row r="379" spans="17:30" s="21" customFormat="1">
       <c r="Q379" s="23"/>
@@ -25942,7 +26058,7 @@
       <c r="AA379" s="39"/>
       <c r="AB379" s="39"/>
       <c r="AC379" s="39"/>
-      <c r="AD379" s="64"/>
+      <c r="AD379" s="22"/>
     </row>
     <row r="380" spans="17:30" s="21" customFormat="1">
       <c r="Q380" s="23"/>
@@ -25958,7 +26074,7 @@
       <c r="AA380" s="39"/>
       <c r="AB380" s="39"/>
       <c r="AC380" s="39"/>
-      <c r="AD380" s="64"/>
+      <c r="AD380" s="22"/>
     </row>
     <row r="381" spans="17:30" s="21" customFormat="1">
       <c r="Q381" s="23"/>
@@ -25974,7 +26090,7 @@
       <c r="AA381" s="39"/>
       <c r="AB381" s="39"/>
       <c r="AC381" s="39"/>
-      <c r="AD381" s="64"/>
+      <c r="AD381" s="22"/>
     </row>
     <row r="382" spans="17:30" s="21" customFormat="1">
       <c r="Q382" s="39"/>
@@ -25990,7 +26106,7 @@
       <c r="AA382" s="39"/>
       <c r="AB382" s="39"/>
       <c r="AC382" s="39"/>
-      <c r="AD382" s="64"/>
+      <c r="AD382" s="22"/>
     </row>
     <row r="383" spans="17:30" s="21" customFormat="1">
       <c r="Q383" s="23"/>
@@ -26006,7 +26122,7 @@
       <c r="AA383" s="39"/>
       <c r="AB383" s="39"/>
       <c r="AC383" s="39"/>
-      <c r="AD383" s="64"/>
+      <c r="AD383" s="22"/>
     </row>
     <row r="384" spans="17:30" s="21" customFormat="1">
       <c r="Q384" s="23"/>
@@ -26022,7 +26138,7 @@
       <c r="AA384" s="23"/>
       <c r="AB384" s="23"/>
       <c r="AC384" s="23"/>
-      <c r="AD384" s="64"/>
+      <c r="AD384" s="22"/>
     </row>
     <row r="385" spans="17:30" s="21" customFormat="1">
       <c r="Q385" s="23"/>
@@ -26038,7 +26154,7 @@
       <c r="AA385" s="23"/>
       <c r="AB385" s="23"/>
       <c r="AC385" s="23"/>
-      <c r="AD385" s="64"/>
+      <c r="AD385" s="22"/>
     </row>
     <row r="386" spans="17:30" s="21" customFormat="1">
       <c r="Q386" s="23"/>
@@ -26054,7 +26170,7 @@
       <c r="AA386" s="39"/>
       <c r="AB386" s="39"/>
       <c r="AC386" s="39"/>
-      <c r="AD386" s="64"/>
+      <c r="AD386" s="22"/>
     </row>
     <row r="387" spans="17:30" s="21" customFormat="1">
       <c r="Q387" s="23"/>
@@ -26070,7 +26186,7 @@
       <c r="AA387" s="39"/>
       <c r="AB387" s="39"/>
       <c r="AC387" s="39"/>
-      <c r="AD387" s="64"/>
+      <c r="AD387" s="22"/>
     </row>
     <row r="388" spans="17:30" s="21" customFormat="1">
       <c r="Q388" s="23"/>
@@ -26086,7 +26202,7 @@
       <c r="AA388" s="39"/>
       <c r="AB388" s="39"/>
       <c r="AC388" s="39"/>
-      <c r="AD388" s="64"/>
+      <c r="AD388" s="22"/>
     </row>
     <row r="389" spans="17:30" s="21" customFormat="1">
       <c r="Q389" s="23"/>
@@ -26102,7 +26218,7 @@
       <c r="AA389" s="39"/>
       <c r="AB389" s="39"/>
       <c r="AC389" s="39"/>
-      <c r="AD389" s="64"/>
+      <c r="AD389" s="22"/>
     </row>
     <row r="390" spans="17:30" s="21" customFormat="1">
       <c r="Q390" s="23"/>
@@ -26118,7 +26234,7 @@
       <c r="AA390" s="39"/>
       <c r="AB390" s="39"/>
       <c r="AC390" s="39"/>
-      <c r="AD390" s="64"/>
+      <c r="AD390" s="22"/>
     </row>
     <row r="391" spans="17:30" s="21" customFormat="1">
       <c r="Q391" s="23"/>
@@ -26134,7 +26250,7 @@
       <c r="AA391" s="39"/>
       <c r="AB391" s="39"/>
       <c r="AC391" s="39"/>
-      <c r="AD391" s="64"/>
+      <c r="AD391" s="22"/>
     </row>
     <row r="392" spans="17:30" s="21" customFormat="1">
       <c r="Q392" s="23"/>
@@ -26150,7 +26266,7 @@
       <c r="AA392" s="39"/>
       <c r="AB392" s="39"/>
       <c r="AC392" s="39"/>
-      <c r="AD392" s="64"/>
+      <c r="AD392" s="22"/>
     </row>
     <row r="393" spans="17:30" s="21" customFormat="1">
       <c r="Q393" s="23"/>
@@ -26166,7 +26282,7 @@
       <c r="AA393" s="39"/>
       <c r="AB393" s="39"/>
       <c r="AC393" s="39"/>
-      <c r="AD393" s="64"/>
+      <c r="AD393" s="22"/>
     </row>
     <row r="394" spans="17:30" s="21" customFormat="1">
       <c r="Q394" s="23"/>
@@ -26182,7 +26298,7 @@
       <c r="AA394" s="39"/>
       <c r="AB394" s="39"/>
       <c r="AC394" s="39"/>
-      <c r="AD394" s="64"/>
+      <c r="AD394" s="22"/>
     </row>
     <row r="395" spans="17:30" s="21" customFormat="1">
       <c r="Q395" s="23"/>
@@ -26198,7 +26314,7 @@
       <c r="AA395" s="39"/>
       <c r="AB395" s="39"/>
       <c r="AC395" s="39"/>
-      <c r="AD395" s="64"/>
+      <c r="AD395" s="22"/>
     </row>
     <row r="396" spans="17:30" s="21" customFormat="1">
       <c r="Q396" s="23"/>
@@ -26214,7 +26330,7 @@
       <c r="AA396" s="39"/>
       <c r="AB396" s="39"/>
       <c r="AC396" s="39"/>
-      <c r="AD396" s="64"/>
+      <c r="AD396" s="22"/>
     </row>
     <row r="397" spans="17:30" s="21" customFormat="1">
       <c r="Q397" s="23"/>
@@ -26230,7 +26346,7 @@
       <c r="AA397" s="39"/>
       <c r="AB397" s="39"/>
       <c r="AC397" s="39"/>
-      <c r="AD397" s="64"/>
+      <c r="AD397" s="22"/>
     </row>
     <row r="398" spans="17:30" s="21" customFormat="1">
       <c r="Q398" s="39"/>
@@ -26246,7 +26362,7 @@
       <c r="AA398" s="39"/>
       <c r="AB398" s="39"/>
       <c r="AC398" s="39"/>
-      <c r="AD398" s="64"/>
+      <c r="AD398" s="22"/>
     </row>
     <row r="399" spans="17:30" s="21" customFormat="1">
       <c r="Q399" s="23"/>
@@ -26262,7 +26378,7 @@
       <c r="AA399" s="39"/>
       <c r="AB399" s="39"/>
       <c r="AC399" s="39"/>
-      <c r="AD399" s="64"/>
+      <c r="AD399" s="22"/>
     </row>
     <row r="400" spans="17:30" s="21" customFormat="1">
       <c r="Q400" s="23"/>
@@ -26278,7 +26394,7 @@
       <c r="AA400" s="23"/>
       <c r="AB400" s="23"/>
       <c r="AC400" s="23"/>
-      <c r="AD400" s="64"/>
+      <c r="AD400" s="22"/>
     </row>
     <row r="401" spans="17:30" s="21" customFormat="1">
       <c r="Q401" s="23"/>
@@ -26294,7 +26410,7 @@
       <c r="AA401" s="39"/>
       <c r="AB401" s="39"/>
       <c r="AC401" s="39"/>
-      <c r="AD401" s="64"/>
+      <c r="AD401" s="22"/>
     </row>
     <row r="402" spans="17:30" s="21" customFormat="1">
       <c r="Q402" s="23"/>
@@ -26310,7 +26426,7 @@
       <c r="AA402" s="39"/>
       <c r="AB402" s="39"/>
       <c r="AC402" s="39"/>
-      <c r="AD402" s="64"/>
+      <c r="AD402" s="22"/>
     </row>
     <row r="403" spans="17:30" s="21" customFormat="1">
       <c r="Q403" s="23"/>
@@ -26326,7 +26442,7 @@
       <c r="AA403" s="39"/>
       <c r="AB403" s="39"/>
       <c r="AC403" s="39"/>
-      <c r="AD403" s="64"/>
+      <c r="AD403" s="22"/>
     </row>
     <row r="404" spans="17:30" s="21" customFormat="1">
       <c r="Q404" s="23"/>
@@ -26342,7 +26458,7 @@
       <c r="AA404" s="39"/>
       <c r="AB404" s="39"/>
       <c r="AC404" s="39"/>
-      <c r="AD404" s="64"/>
+      <c r="AD404" s="22"/>
     </row>
     <row r="405" spans="17:30" s="21" customFormat="1">
       <c r="Q405" s="23"/>
@@ -26358,7 +26474,7 @@
       <c r="AA405" s="39"/>
       <c r="AB405" s="39"/>
       <c r="AC405" s="39"/>
-      <c r="AD405" s="64"/>
+      <c r="AD405" s="22"/>
     </row>
     <row r="406" spans="17:30" s="21" customFormat="1">
       <c r="Q406" s="23"/>
@@ -26374,7 +26490,7 @@
       <c r="AA406" s="23"/>
       <c r="AB406" s="23"/>
       <c r="AC406" s="23"/>
-      <c r="AD406" s="64"/>
+      <c r="AD406" s="22"/>
     </row>
     <row r="407" spans="17:30" s="21" customFormat="1">
       <c r="Q407" s="23"/>
@@ -26390,7 +26506,7 @@
       <c r="AA407" s="39"/>
       <c r="AB407" s="39"/>
       <c r="AC407" s="39"/>
-      <c r="AD407" s="64"/>
+      <c r="AD407" s="22"/>
     </row>
     <row r="408" spans="17:30" s="21" customFormat="1">
       <c r="Q408" s="23"/>
@@ -26406,7 +26522,7 @@
       <c r="AA408" s="39"/>
       <c r="AB408" s="39"/>
       <c r="AC408" s="39"/>
-      <c r="AD408" s="64"/>
+      <c r="AD408" s="22"/>
     </row>
     <row r="409" spans="17:30" s="21" customFormat="1">
       <c r="Q409" s="23"/>
@@ -26422,7 +26538,7 @@
       <c r="AA409" s="39"/>
       <c r="AB409" s="39"/>
       <c r="AC409" s="39"/>
-      <c r="AD409" s="64"/>
+      <c r="AD409" s="22"/>
     </row>
     <row r="410" spans="17:30" s="21" customFormat="1">
       <c r="Q410" s="23"/>
@@ -26438,7 +26554,7 @@
       <c r="AA410" s="39"/>
       <c r="AB410" s="39"/>
       <c r="AC410" s="39"/>
-      <c r="AD410" s="64"/>
+      <c r="AD410" s="22"/>
     </row>
     <row r="411" spans="17:30" s="21" customFormat="1">
       <c r="Q411" s="23"/>
@@ -26454,7 +26570,7 @@
       <c r="AA411" s="39"/>
       <c r="AB411" s="39"/>
       <c r="AC411" s="39"/>
-      <c r="AD411" s="64"/>
+      <c r="AD411" s="22"/>
     </row>
     <row r="412" spans="17:30" s="21" customFormat="1">
       <c r="Q412" s="23"/>
@@ -26470,7 +26586,7 @@
       <c r="AA412" s="39"/>
       <c r="AB412" s="39"/>
       <c r="AC412" s="39"/>
-      <c r="AD412" s="64"/>
+      <c r="AD412" s="22"/>
     </row>
     <row r="413" spans="17:30" s="21" customFormat="1">
       <c r="Q413" s="23"/>
@@ -26486,7 +26602,7 @@
       <c r="AA413" s="39"/>
       <c r="AB413" s="39"/>
       <c r="AC413" s="39"/>
-      <c r="AD413" s="64"/>
+      <c r="AD413" s="22"/>
     </row>
     <row r="414" spans="17:30" s="21" customFormat="1">
       <c r="Q414" s="23"/>
@@ -26502,7 +26618,7 @@
       <c r="AA414" s="39"/>
       <c r="AB414" s="39"/>
       <c r="AC414" s="39"/>
-      <c r="AD414" s="64"/>
+      <c r="AD414" s="22"/>
     </row>
     <row r="415" spans="17:30" s="21" customFormat="1">
       <c r="Q415" s="23"/>
@@ -26518,7 +26634,7 @@
       <c r="AA415" s="39"/>
       <c r="AB415" s="39"/>
       <c r="AC415" s="39"/>
-      <c r="AD415" s="64"/>
+      <c r="AD415" s="22"/>
     </row>
     <row r="416" spans="17:30" s="21" customFormat="1">
       <c r="Q416" s="23"/>
@@ -26534,7 +26650,7 @@
       <c r="AA416" s="39"/>
       <c r="AB416" s="39"/>
       <c r="AC416" s="39"/>
-      <c r="AD416" s="64"/>
+      <c r="AD416" s="22"/>
     </row>
     <row r="417" spans="17:30" s="21" customFormat="1">
       <c r="Q417" s="23"/>
@@ -26550,7 +26666,7 @@
       <c r="AA417" s="39"/>
       <c r="AB417" s="39"/>
       <c r="AC417" s="39"/>
-      <c r="AD417" s="64"/>
+      <c r="AD417" s="22"/>
     </row>
     <row r="418" spans="17:30" s="21" customFormat="1">
       <c r="Q418" s="23"/>
@@ -26566,7 +26682,7 @@
       <c r="AA418" s="39"/>
       <c r="AB418" s="39"/>
       <c r="AC418" s="39"/>
-      <c r="AD418" s="64"/>
+      <c r="AD418" s="22"/>
     </row>
     <row r="419" spans="17:30" s="21" customFormat="1">
       <c r="Q419" s="39"/>
@@ -26582,7 +26698,7 @@
       <c r="AA419" s="39"/>
       <c r="AB419" s="39"/>
       <c r="AC419" s="39"/>
-      <c r="AD419" s="64"/>
+      <c r="AD419" s="22"/>
     </row>
     <row r="420" spans="17:30" s="21" customFormat="1">
       <c r="Q420" s="23"/>
@@ -26598,7 +26714,7 @@
       <c r="AA420" s="39"/>
       <c r="AB420" s="39"/>
       <c r="AC420" s="39"/>
-      <c r="AD420" s="64"/>
+      <c r="AD420" s="22"/>
     </row>
     <row r="421" spans="17:30" s="21" customFormat="1">
       <c r="Q421" s="23"/>
@@ -26614,7 +26730,7 @@
       <c r="AA421" s="23"/>
       <c r="AB421" s="23"/>
       <c r="AC421" s="23"/>
-      <c r="AD421" s="64"/>
+      <c r="AD421" s="22"/>
     </row>
     <row r="422" spans="17:30" s="21" customFormat="1">
       <c r="Q422" s="23"/>
@@ -26630,7 +26746,7 @@
       <c r="AA422" s="39"/>
       <c r="AB422" s="39"/>
       <c r="AC422" s="39"/>
-      <c r="AD422" s="64"/>
+      <c r="AD422" s="22"/>
     </row>
     <row r="423" spans="17:30" s="21" customFormat="1">
       <c r="Q423" s="23"/>
@@ -26646,7 +26762,7 @@
       <c r="AA423" s="39"/>
       <c r="AB423" s="39"/>
       <c r="AC423" s="39"/>
-      <c r="AD423" s="64"/>
+      <c r="AD423" s="22"/>
     </row>
     <row r="424" spans="17:30" s="21" customFormat="1">
       <c r="Q424" s="23"/>
@@ -26662,7 +26778,7 @@
       <c r="AA424" s="39"/>
       <c r="AB424" s="39"/>
       <c r="AC424" s="39"/>
-      <c r="AD424" s="64"/>
+      <c r="AD424" s="22"/>
     </row>
     <row r="425" spans="17:30" s="21" customFormat="1">
       <c r="Q425" s="39"/>
@@ -26678,7 +26794,7 @@
       <c r="AA425" s="39"/>
       <c r="AB425" s="39"/>
       <c r="AC425" s="39"/>
-      <c r="AD425" s="64"/>
+      <c r="AD425" s="22"/>
     </row>
     <row r="426" spans="17:30" s="21" customFormat="1">
       <c r="Q426" s="23"/>
@@ -26694,7 +26810,7 @@
       <c r="AA426" s="39"/>
       <c r="AB426" s="39"/>
       <c r="AC426" s="39"/>
-      <c r="AD426" s="64"/>
+      <c r="AD426" s="22"/>
     </row>
     <row r="427" spans="17:30" s="21" customFormat="1">
       <c r="Q427" s="39"/>
@@ -26710,7 +26826,7 @@
       <c r="AA427" s="39"/>
       <c r="AB427" s="39"/>
       <c r="AC427" s="39"/>
-      <c r="AD427" s="64"/>
+      <c r="AD427" s="22"/>
     </row>
     <row r="428" spans="17:30" s="21" customFormat="1">
       <c r="Q428" s="23"/>
@@ -26726,7 +26842,7 @@
       <c r="AA428" s="39"/>
       <c r="AB428" s="39"/>
       <c r="AC428" s="39"/>
-      <c r="AD428" s="64"/>
+      <c r="AD428" s="22"/>
     </row>
     <row r="429" spans="17:30" s="21" customFormat="1">
       <c r="Q429" s="39"/>
@@ -26742,7 +26858,7 @@
       <c r="AA429" s="39"/>
       <c r="AB429" s="39"/>
       <c r="AC429" s="39"/>
-      <c r="AD429" s="64"/>
+      <c r="AD429" s="22"/>
     </row>
     <row r="430" spans="17:30" s="21" customFormat="1">
       <c r="Q430" s="23"/>
@@ -26758,7 +26874,7 @@
       <c r="AA430" s="39"/>
       <c r="AB430" s="39"/>
       <c r="AC430" s="39"/>
-      <c r="AD430" s="64"/>
+      <c r="AD430" s="22"/>
     </row>
     <row r="431" spans="17:30" s="21" customFormat="1">
       <c r="Q431" s="23"/>
@@ -26774,7 +26890,7 @@
       <c r="AA431" s="23"/>
       <c r="AB431" s="23"/>
       <c r="AC431" s="23"/>
-      <c r="AD431" s="64"/>
+      <c r="AD431" s="22"/>
     </row>
     <row r="432" spans="17:30" s="21" customFormat="1">
       <c r="Q432" s="23"/>
@@ -26790,7 +26906,7 @@
       <c r="AA432" s="39"/>
       <c r="AB432" s="39"/>
       <c r="AC432" s="39"/>
-      <c r="AD432" s="64"/>
+      <c r="AD432" s="22"/>
     </row>
     <row r="433" spans="17:30" s="21" customFormat="1">
       <c r="Q433" s="23"/>
@@ -26806,7 +26922,7 @@
       <c r="AA433" s="39"/>
       <c r="AB433" s="39"/>
       <c r="AC433" s="39"/>
-      <c r="AD433" s="64"/>
+      <c r="AD433" s="22"/>
     </row>
     <row r="434" spans="17:30" s="21" customFormat="1">
       <c r="Q434" s="23"/>
@@ -26822,7 +26938,7 @@
       <c r="AA434" s="39"/>
       <c r="AB434" s="39"/>
       <c r="AC434" s="39"/>
-      <c r="AD434" s="64"/>
+      <c r="AD434" s="22"/>
     </row>
     <row r="435" spans="17:30" s="21" customFormat="1">
       <c r="Q435" s="23"/>
@@ -26838,7 +26954,7 @@
       <c r="AA435" s="39"/>
       <c r="AB435" s="39"/>
       <c r="AC435" s="39"/>
-      <c r="AD435" s="64"/>
+      <c r="AD435" s="22"/>
     </row>
     <row r="436" spans="17:30" s="21" customFormat="1">
       <c r="Q436" s="39"/>
@@ -26854,7 +26970,7 @@
       <c r="AA436" s="39"/>
       <c r="AB436" s="39"/>
       <c r="AC436" s="39"/>
-      <c r="AD436" s="64"/>
+      <c r="AD436" s="22"/>
     </row>
     <row r="437" spans="17:30" s="21" customFormat="1">
       <c r="Q437" s="23"/>
@@ -26870,7 +26986,7 @@
       <c r="AA437" s="23"/>
       <c r="AB437" s="23"/>
       <c r="AC437" s="23"/>
-      <c r="AD437" s="64"/>
+      <c r="AD437" s="22"/>
     </row>
     <row r="438" spans="17:30" s="21" customFormat="1">
       <c r="Q438" s="23"/>
@@ -26886,7 +27002,7 @@
       <c r="AA438" s="39"/>
       <c r="AB438" s="39"/>
       <c r="AC438" s="39"/>
-      <c r="AD438" s="64"/>
+      <c r="AD438" s="22"/>
     </row>
     <row r="439" spans="17:30" s="21" customFormat="1">
       <c r="Q439" s="23"/>
@@ -26902,7 +27018,7 @@
       <c r="AA439" s="39"/>
       <c r="AB439" s="39"/>
       <c r="AC439" s="39"/>
-      <c r="AD439" s="64"/>
+      <c r="AD439" s="22"/>
     </row>
     <row r="440" spans="17:30" s="21" customFormat="1">
       <c r="Q440" s="23"/>
@@ -26918,7 +27034,7 @@
       <c r="AA440" s="23"/>
       <c r="AB440" s="23"/>
       <c r="AC440" s="23"/>
-      <c r="AD440" s="64"/>
+      <c r="AD440" s="22"/>
     </row>
     <row r="441" spans="17:30" s="21" customFormat="1">
       <c r="Q441" s="23"/>
@@ -26934,7 +27050,7 @@
       <c r="AA441" s="39"/>
       <c r="AB441" s="39"/>
       <c r="AC441" s="39"/>
-      <c r="AD441" s="64"/>
+      <c r="AD441" s="22"/>
     </row>
     <row r="442" spans="17:30" s="21" customFormat="1">
       <c r="Q442" s="23"/>
@@ -26950,7 +27066,7 @@
       <c r="AA442" s="39"/>
       <c r="AB442" s="39"/>
       <c r="AC442" s="39"/>
-      <c r="AD442" s="64"/>
+      <c r="AD442" s="22"/>
     </row>
     <row r="443" spans="17:30" s="21" customFormat="1">
       <c r="Q443" s="23"/>
@@ -26966,7 +27082,7 @@
       <c r="AA443" s="39"/>
       <c r="AB443" s="39"/>
       <c r="AC443" s="39"/>
-      <c r="AD443" s="64"/>
+      <c r="AD443" s="22"/>
     </row>
     <row r="444" spans="17:30" s="21" customFormat="1">
       <c r="Q444" s="23"/>
@@ -26982,7 +27098,7 @@
       <c r="AA444" s="39"/>
       <c r="AB444" s="39"/>
       <c r="AC444" s="39"/>
-      <c r="AD444" s="64"/>
+      <c r="AD444" s="22"/>
     </row>
     <row r="445" spans="17:30" s="21" customFormat="1">
       <c r="Q445" s="23"/>
@@ -26998,7 +27114,7 @@
       <c r="AA445" s="39"/>
       <c r="AB445" s="39"/>
       <c r="AC445" s="39"/>
-      <c r="AD445" s="64"/>
+      <c r="AD445" s="22"/>
     </row>
     <row r="446" spans="17:30" s="21" customFormat="1">
       <c r="Q446" s="23"/>
@@ -27014,7 +27130,7 @@
       <c r="AA446" s="39"/>
       <c r="AB446" s="39"/>
       <c r="AC446" s="39"/>
-      <c r="AD446" s="64"/>
+      <c r="AD446" s="22"/>
     </row>
     <row r="447" spans="17:30" s="21" customFormat="1">
       <c r="Q447" s="23"/>
@@ -27030,7 +27146,7 @@
       <c r="AA447" s="39"/>
       <c r="AB447" s="39"/>
       <c r="AC447" s="39"/>
-      <c r="AD447" s="64"/>
+      <c r="AD447" s="22"/>
     </row>
     <row r="448" spans="17:30" s="21" customFormat="1">
       <c r="Q448" s="23"/>
@@ -27046,7 +27162,7 @@
       <c r="AA448" s="39"/>
       <c r="AB448" s="39"/>
       <c r="AC448" s="39"/>
-      <c r="AD448" s="64"/>
+      <c r="AD448" s="22"/>
     </row>
     <row r="449" spans="17:30" s="21" customFormat="1">
       <c r="Q449" s="39"/>
@@ -27062,7 +27178,7 @@
       <c r="AA449" s="39"/>
       <c r="AB449" s="39"/>
       <c r="AC449" s="39"/>
-      <c r="AD449" s="64"/>
+      <c r="AD449" s="22"/>
     </row>
     <row r="450" spans="17:30" s="21" customFormat="1">
       <c r="Q450" s="23"/>
@@ -27078,7 +27194,7 @@
       <c r="AA450" s="39"/>
       <c r="AB450" s="39"/>
       <c r="AC450" s="39"/>
-      <c r="AD450" s="64"/>
+      <c r="AD450" s="22"/>
     </row>
     <row r="451" spans="17:30" s="21" customFormat="1">
       <c r="Q451" s="23"/>
@@ -27094,7 +27210,7 @@
       <c r="AA451" s="23"/>
       <c r="AB451" s="23"/>
       <c r="AC451" s="23"/>
-      <c r="AD451" s="64"/>
+      <c r="AD451" s="22"/>
     </row>
     <row r="452" spans="17:30" s="21" customFormat="1">
       <c r="Q452" s="23"/>
@@ -27110,7 +27226,7 @@
       <c r="AA452" s="39"/>
       <c r="AB452" s="39"/>
       <c r="AC452" s="39"/>
-      <c r="AD452" s="64"/>
+      <c r="AD452" s="22"/>
     </row>
     <row r="453" spans="17:30" s="21" customFormat="1">
       <c r="Q453" s="23"/>
@@ -27126,7 +27242,7 @@
       <c r="AA453" s="23"/>
       <c r="AB453" s="23"/>
       <c r="AC453" s="23"/>
-      <c r="AD453" s="64"/>
+      <c r="AD453" s="22"/>
     </row>
     <row r="454" spans="17:30" s="21" customFormat="1">
       <c r="Q454" s="23"/>
@@ -27142,7 +27258,7 @@
       <c r="AA454" s="39"/>
       <c r="AB454" s="39"/>
       <c r="AC454" s="39"/>
-      <c r="AD454" s="64"/>
+      <c r="AD454" s="22"/>
     </row>
     <row r="455" spans="17:30" s="21" customFormat="1">
       <c r="Q455" s="23"/>
@@ -27158,7 +27274,7 @@
       <c r="AA455" s="39"/>
       <c r="AB455" s="39"/>
       <c r="AC455" s="39"/>
-      <c r="AD455" s="64"/>
+      <c r="AD455" s="22"/>
     </row>
     <row r="456" spans="17:30" s="21" customFormat="1">
       <c r="Q456" s="23"/>
@@ -27174,7 +27290,7 @@
       <c r="AA456" s="39"/>
       <c r="AB456" s="39"/>
       <c r="AC456" s="39"/>
-      <c r="AD456" s="64"/>
+      <c r="AD456" s="22"/>
     </row>
     <row r="457" spans="17:30" s="21" customFormat="1">
       <c r="Q457" s="23"/>
@@ -27190,7 +27306,7 @@
       <c r="AA457" s="39"/>
       <c r="AB457" s="39"/>
       <c r="AC457" s="39"/>
-      <c r="AD457" s="64"/>
+      <c r="AD457" s="22"/>
     </row>
     <row r="458" spans="17:30" s="21" customFormat="1">
       <c r="Q458" s="39"/>
@@ -27206,7 +27322,7 @@
       <c r="AA458" s="39"/>
       <c r="AB458" s="39"/>
       <c r="AC458" s="39"/>
-      <c r="AD458" s="64"/>
+      <c r="AD458" s="22"/>
     </row>
     <row r="459" spans="17:30" s="21" customFormat="1">
       <c r="Q459" s="23"/>
@@ -27222,7 +27338,7 @@
       <c r="AA459" s="39"/>
       <c r="AB459" s="39"/>
       <c r="AC459" s="39"/>
-      <c r="AD459" s="64"/>
+      <c r="AD459" s="22"/>
     </row>
     <row r="460" spans="17:30" s="21" customFormat="1">
       <c r="Q460" s="23"/>
@@ -27238,7 +27354,7 @@
       <c r="AA460" s="39"/>
       <c r="AB460" s="39"/>
       <c r="AC460" s="39"/>
-      <c r="AD460" s="64"/>
+      <c r="AD460" s="22"/>
     </row>
     <row r="461" spans="17:30" s="21" customFormat="1">
       <c r="Q461" s="23"/>
@@ -27254,7 +27370,7 @@
       <c r="AA461" s="39"/>
       <c r="AB461" s="39"/>
       <c r="AC461" s="39"/>
-      <c r="AD461" s="64"/>
+      <c r="AD461" s="22"/>
     </row>
     <row r="462" spans="17:30" s="21" customFormat="1">
       <c r="Q462" s="23"/>
@@ -27270,7 +27386,7 @@
       <c r="AA462" s="39"/>
       <c r="AB462" s="39"/>
       <c r="AC462" s="39"/>
-      <c r="AD462" s="64"/>
+      <c r="AD462" s="22"/>
     </row>
     <row r="463" spans="17:30" s="21" customFormat="1">
       <c r="Q463" s="23"/>
@@ -27286,7 +27402,7 @@
       <c r="AA463" s="39"/>
       <c r="AB463" s="39"/>
       <c r="AC463" s="39"/>
-      <c r="AD463" s="64"/>
+      <c r="AD463" s="22"/>
     </row>
     <row r="464" spans="17:30" s="21" customFormat="1">
       <c r="Q464" s="23"/>
@@ -27302,7 +27418,7 @@
       <c r="AA464" s="39"/>
       <c r="AB464" s="39"/>
       <c r="AC464" s="39"/>
-      <c r="AD464" s="64"/>
+      <c r="AD464" s="22"/>
     </row>
     <row r="465" spans="17:30" s="21" customFormat="1">
       <c r="Q465" s="39"/>
@@ -27318,7 +27434,7 @@
       <c r="AA465" s="39"/>
       <c r="AB465" s="39"/>
       <c r="AC465" s="39"/>
-      <c r="AD465" s="64"/>
+      <c r="AD465" s="22"/>
     </row>
     <row r="466" spans="17:30" s="21" customFormat="1">
       <c r="Q466" s="23"/>
@@ -27334,7 +27450,7 @@
       <c r="AA466" s="39"/>
       <c r="AB466" s="39"/>
       <c r="AC466" s="39"/>
-      <c r="AD466" s="64"/>
+      <c r="AD466" s="22"/>
     </row>
     <row r="467" spans="17:30" s="21" customFormat="1">
       <c r="Q467" s="23"/>
@@ -27350,7 +27466,7 @@
       <c r="AA467" s="23"/>
       <c r="AB467" s="23"/>
       <c r="AC467" s="23"/>
-      <c r="AD467" s="64"/>
+      <c r="AD467" s="22"/>
     </row>
     <row r="468" spans="17:30" s="21" customFormat="1">
       <c r="Q468" s="23"/>
@@ -27366,7 +27482,7 @@
       <c r="AA468" s="39"/>
       <c r="AB468" s="39"/>
       <c r="AC468" s="39"/>
-      <c r="AD468" s="64"/>
+      <c r="AD468" s="22"/>
     </row>
     <row r="469" spans="17:30" s="21" customFormat="1">
       <c r="Q469" s="23"/>
@@ -27382,7 +27498,7 @@
       <c r="AA469" s="23"/>
       <c r="AB469" s="23"/>
       <c r="AC469" s="23"/>
-      <c r="AD469" s="64"/>
+      <c r="AD469" s="22"/>
     </row>
     <row r="470" spans="17:30" s="21" customFormat="1">
       <c r="Q470" s="23"/>
@@ -27398,7 +27514,7 @@
       <c r="AA470" s="39"/>
       <c r="AB470" s="39"/>
       <c r="AC470" s="39"/>
-      <c r="AD470" s="64"/>
+      <c r="AD470" s="22"/>
     </row>
     <row r="471" spans="17:30" s="21" customFormat="1">
       <c r="Q471" s="23"/>
@@ -27414,7 +27530,7 @@
       <c r="AA471" s="39"/>
       <c r="AB471" s="39"/>
       <c r="AC471" s="39"/>
-      <c r="AD471" s="64"/>
+      <c r="AD471" s="22"/>
     </row>
     <row r="472" spans="17:30" s="21" customFormat="1">
       <c r="Q472" s="23"/>
@@ -27430,7 +27546,7 @@
       <c r="AA472" s="39"/>
       <c r="AB472" s="39"/>
       <c r="AC472" s="39"/>
-      <c r="AD472" s="64"/>
+      <c r="AD472" s="22"/>
     </row>
     <row r="473" spans="17:30" s="21" customFormat="1">
       <c r="Q473" s="23"/>
@@ -27446,7 +27562,7 @@
       <c r="AA473" s="23"/>
       <c r="AB473" s="23"/>
       <c r="AC473" s="23"/>
-      <c r="AD473" s="64"/>
+      <c r="AD473" s="22"/>
     </row>
     <row r="474" spans="17:30" s="21" customFormat="1">
       <c r="Q474" s="23"/>
@@ -27462,7 +27578,7 @@
       <c r="AA474" s="39"/>
       <c r="AB474" s="39"/>
       <c r="AC474" s="39"/>
-      <c r="AD474" s="64"/>
+      <c r="AD474" s="22"/>
     </row>
     <row r="475" spans="17:30" s="21" customFormat="1">
       <c r="Q475" s="23"/>
@@ -27478,7 +27594,7 @@
       <c r="AA475" s="23"/>
       <c r="AB475" s="23"/>
       <c r="AC475" s="23"/>
-      <c r="AD475" s="64"/>
+      <c r="AD475" s="22"/>
     </row>
     <row r="476" spans="17:30" s="21" customFormat="1">
       <c r="Q476" s="23"/>
@@ -27494,7 +27610,7 @@
       <c r="AA476" s="39"/>
       <c r="AB476" s="39"/>
       <c r="AC476" s="39"/>
-      <c r="AD476" s="64"/>
+      <c r="AD476" s="22"/>
     </row>
     <row r="477" spans="17:30" s="21" customFormat="1">
       <c r="Q477" s="23"/>
@@ -27510,7 +27626,7 @@
       <c r="AA477" s="39"/>
       <c r="AB477" s="39"/>
       <c r="AC477" s="39"/>
-      <c r="AD477" s="64"/>
+      <c r="AD477" s="22"/>
     </row>
     <row r="478" spans="17:30" s="21" customFormat="1">
       <c r="Q478" s="23"/>
@@ -27526,7 +27642,7 @@
       <c r="AA478" s="39"/>
       <c r="AB478" s="39"/>
       <c r="AC478" s="39"/>
-      <c r="AD478" s="64"/>
+      <c r="AD478" s="22"/>
     </row>
     <row r="479" spans="17:30" s="21" customFormat="1">
       <c r="Q479" s="23"/>
@@ -27542,7 +27658,7 @@
       <c r="AA479" s="39"/>
       <c r="AB479" s="39"/>
       <c r="AC479" s="39"/>
-      <c r="AD479" s="64"/>
+      <c r="AD479" s="22"/>
     </row>
     <row r="480" spans="17:30" s="21" customFormat="1">
       <c r="Q480" s="23"/>
@@ -27558,7 +27674,7 @@
       <c r="AA480" s="39"/>
       <c r="AB480" s="39"/>
       <c r="AC480" s="39"/>
-      <c r="AD480" s="64"/>
+      <c r="AD480" s="22"/>
     </row>
     <row r="481" spans="17:32" s="21" customFormat="1">
       <c r="Q481" s="23"/>
@@ -27574,7 +27690,7 @@
       <c r="AA481" s="23"/>
       <c r="AB481" s="23"/>
       <c r="AC481" s="23"/>
-      <c r="AD481" s="64"/>
+      <c r="AD481" s="22"/>
     </row>
     <row r="482" spans="17:32" s="21" customFormat="1">
       <c r="Q482" s="23"/>
@@ -27590,7 +27706,7 @@
       <c r="AA482" s="23"/>
       <c r="AB482" s="23"/>
       <c r="AC482" s="23"/>
-      <c r="AD482" s="64"/>
+      <c r="AD482" s="22"/>
       <c r="AF482" s="22"/>
     </row>
     <row r="483" spans="17:32" s="21" customFormat="1">
@@ -27607,7 +27723,7 @@
       <c r="AA483" s="39"/>
       <c r="AB483" s="39"/>
       <c r="AC483" s="39"/>
-      <c r="AD483" s="64"/>
+      <c r="AD483" s="22"/>
     </row>
     <row r="484" spans="17:32" s="21" customFormat="1">
       <c r="Q484" s="23"/>
@@ -27623,7 +27739,7 @@
       <c r="AA484" s="23"/>
       <c r="AB484" s="23"/>
       <c r="AC484" s="23"/>
-      <c r="AD484" s="64"/>
+      <c r="AD484" s="22"/>
       <c r="AF484" s="22"/>
     </row>
     <row r="485" spans="17:32" s="21" customFormat="1">
@@ -27640,7 +27756,7 @@
       <c r="AA485" s="23"/>
       <c r="AB485" s="23"/>
       <c r="AC485" s="23"/>
-      <c r="AD485" s="64"/>
+      <c r="AD485" s="22"/>
       <c r="AF485" s="22"/>
     </row>
     <row r="486" spans="17:32" s="21" customFormat="1">
@@ -27657,7 +27773,7 @@
       <c r="AA486" s="39"/>
       <c r="AB486" s="39"/>
       <c r="AC486" s="39"/>
-      <c r="AD486" s="64"/>
+      <c r="AD486" s="22"/>
     </row>
     <row r="487" spans="17:32" s="21" customFormat="1">
       <c r="Q487" s="23"/>
@@ -27673,7 +27789,7 @@
       <c r="AA487" s="39"/>
       <c r="AB487" s="39"/>
       <c r="AC487" s="39"/>
-      <c r="AD487" s="64"/>
+      <c r="AD487" s="22"/>
     </row>
     <row r="488" spans="17:32" s="21" customFormat="1">
       <c r="Q488" s="39"/>
@@ -27689,7 +27805,7 @@
       <c r="AA488" s="39"/>
       <c r="AB488" s="39"/>
       <c r="AC488" s="39"/>
-      <c r="AD488" s="64"/>
+      <c r="AD488" s="22"/>
     </row>
     <row r="489" spans="17:32" s="21" customFormat="1">
       <c r="Q489" s="23"/>
@@ -27705,7 +27821,7 @@
       <c r="AA489" s="39"/>
       <c r="AB489" s="39"/>
       <c r="AC489" s="39"/>
-      <c r="AD489" s="64"/>
+      <c r="AD489" s="22"/>
     </row>
     <row r="490" spans="17:32" s="21" customFormat="1">
       <c r="Q490" s="23"/>
@@ -27721,7 +27837,7 @@
       <c r="AA490" s="23"/>
       <c r="AB490" s="23"/>
       <c r="AC490" s="23"/>
-      <c r="AD490" s="64"/>
+      <c r="AD490" s="22"/>
       <c r="AF490" s="22"/>
     </row>
     <row r="491" spans="17:32" s="21" customFormat="1">
@@ -27738,7 +27854,7 @@
       <c r="AA491" s="39"/>
       <c r="AB491" s="39"/>
       <c r="AC491" s="39"/>
-      <c r="AD491" s="64"/>
+      <c r="AD491" s="22"/>
     </row>
     <row r="492" spans="17:32" s="21" customFormat="1">
       <c r="Q492" s="23"/>
@@ -27754,7 +27870,7 @@
       <c r="AA492" s="23"/>
       <c r="AB492" s="23"/>
       <c r="AC492" s="23"/>
-      <c r="AD492" s="64"/>
+      <c r="AD492" s="22"/>
     </row>
     <row r="493" spans="17:32" s="21" customFormat="1">
       <c r="Q493" s="23"/>
@@ -27770,7 +27886,7 @@
       <c r="AA493" s="23"/>
       <c r="AB493" s="23"/>
       <c r="AC493" s="23"/>
-      <c r="AD493" s="64"/>
+      <c r="AD493" s="22"/>
       <c r="AF493" s="22"/>
     </row>
     <row r="494" spans="17:32" s="21" customFormat="1">
@@ -27787,7 +27903,7 @@
       <c r="AA494" s="39"/>
       <c r="AB494" s="39"/>
       <c r="AC494" s="39"/>
-      <c r="AD494" s="64"/>
+      <c r="AD494" s="22"/>
     </row>
     <row r="495" spans="17:32" s="21" customFormat="1">
       <c r="Q495" s="39"/>
@@ -27803,7 +27919,7 @@
       <c r="AA495" s="39"/>
       <c r="AB495" s="39"/>
       <c r="AC495" s="39"/>
-      <c r="AD495" s="64"/>
+      <c r="AD495" s="22"/>
     </row>
     <row r="496" spans="17:32" s="21" customFormat="1">
       <c r="Q496" s="39"/>
@@ -27819,7 +27935,7 @@
       <c r="AA496" s="39"/>
       <c r="AB496" s="39"/>
       <c r="AC496" s="39"/>
-      <c r="AD496" s="64"/>
+      <c r="AD496" s="22"/>
     </row>
     <row r="497" spans="17:32" s="21" customFormat="1">
       <c r="Q497" s="23"/>
@@ -27835,7 +27951,7 @@
       <c r="AA497" s="39"/>
       <c r="AB497" s="39"/>
       <c r="AC497" s="39"/>
-      <c r="AD497" s="64"/>
+      <c r="AD497" s="22"/>
     </row>
     <row r="498" spans="17:32" s="21" customFormat="1">
       <c r="Q498" s="23"/>
@@ -27851,7 +27967,7 @@
       <c r="AA498" s="39"/>
       <c r="AB498" s="39"/>
       <c r="AC498" s="39"/>
-      <c r="AD498" s="64"/>
+      <c r="AD498" s="22"/>
     </row>
     <row r="499" spans="17:32" s="21" customFormat="1">
       <c r="Q499" s="23"/>
@@ -27867,7 +27983,7 @@
       <c r="AA499" s="23"/>
       <c r="AB499" s="23"/>
       <c r="AC499" s="23"/>
-      <c r="AD499" s="64"/>
+      <c r="AD499" s="22"/>
     </row>
     <row r="500" spans="17:32" s="21" customFormat="1">
       <c r="Q500" s="23"/>
@@ -27883,7 +27999,7 @@
       <c r="AA500" s="23"/>
       <c r="AB500" s="23"/>
       <c r="AC500" s="23"/>
-      <c r="AD500" s="64"/>
+      <c r="AD500" s="22"/>
       <c r="AF500" s="22"/>
     </row>
     <row r="501" spans="17:32" s="21" customFormat="1">
@@ -27900,7 +28016,7 @@
       <c r="AA501" s="39"/>
       <c r="AB501" s="39"/>
       <c r="AC501" s="39"/>
-      <c r="AD501" s="64"/>
+      <c r="AD501" s="22"/>
     </row>
     <row r="502" spans="17:32" s="21" customFormat="1">
       <c r="Q502" s="23"/>
@@ -27916,7 +28032,7 @@
       <c r="AA502" s="39"/>
       <c r="AB502" s="39"/>
       <c r="AC502" s="39"/>
-      <c r="AD502" s="64"/>
+      <c r="AD502" s="22"/>
     </row>
     <row r="503" spans="17:32" s="21" customFormat="1">
       <c r="Q503" s="23"/>
@@ -27932,7 +28048,7 @@
       <c r="AA503" s="39"/>
       <c r="AB503" s="39"/>
       <c r="AC503" s="39"/>
-      <c r="AD503" s="64"/>
+      <c r="AD503" s="22"/>
     </row>
     <row r="504" spans="17:32" s="21" customFormat="1">
       <c r="Q504" s="23"/>
@@ -27948,7 +28064,7 @@
       <c r="AA504" s="39"/>
       <c r="AB504" s="39"/>
       <c r="AC504" s="39"/>
-      <c r="AD504" s="64"/>
+      <c r="AD504" s="22"/>
     </row>
     <row r="505" spans="17:32" s="21" customFormat="1">
       <c r="Q505" s="23"/>
@@ -27964,7 +28080,7 @@
       <c r="AA505" s="39"/>
       <c r="AB505" s="39"/>
       <c r="AC505" s="39"/>
-      <c r="AD505" s="64"/>
+      <c r="AD505" s="22"/>
     </row>
     <row r="506" spans="17:32" s="21" customFormat="1">
       <c r="Q506" s="23"/>
@@ -27980,7 +28096,7 @@
       <c r="AA506" s="23"/>
       <c r="AB506" s="23"/>
       <c r="AC506" s="23"/>
-      <c r="AD506" s="64"/>
+      <c r="AD506" s="22"/>
     </row>
     <row r="507" spans="17:32" s="21" customFormat="1">
       <c r="Q507" s="23"/>
@@ -27996,7 +28112,7 @@
       <c r="AA507" s="23"/>
       <c r="AB507" s="23"/>
       <c r="AC507" s="23"/>
-      <c r="AD507" s="64"/>
+      <c r="AD507" s="22"/>
       <c r="AF507" s="22"/>
     </row>
     <row r="508" spans="17:32" s="21" customFormat="1">
@@ -28013,7 +28129,7 @@
       <c r="AA508" s="39"/>
       <c r="AB508" s="39"/>
       <c r="AC508" s="39"/>
-      <c r="AD508" s="64"/>
+      <c r="AD508" s="22"/>
     </row>
     <row r="509" spans="17:32" s="21" customFormat="1">
       <c r="Q509" s="39"/>
@@ -28029,7 +28145,7 @@
       <c r="AA509" s="39"/>
       <c r="AB509" s="39"/>
       <c r="AC509" s="39"/>
-      <c r="AD509" s="64"/>
+      <c r="AD509" s="22"/>
     </row>
     <row r="510" spans="17:32" s="21" customFormat="1">
       <c r="Q510" s="23"/>
@@ -28045,7 +28161,7 @@
       <c r="AA510" s="23"/>
       <c r="AB510" s="23"/>
       <c r="AC510" s="23"/>
-      <c r="AD510" s="64"/>
+      <c r="AD510" s="22"/>
       <c r="AF510" s="22"/>
     </row>
     <row r="511" spans="17:32" s="21" customFormat="1">
@@ -28062,7 +28178,7 @@
       <c r="AA511" s="39"/>
       <c r="AB511" s="39"/>
       <c r="AC511" s="39"/>
-      <c r="AD511" s="64"/>
+      <c r="AD511" s="22"/>
     </row>
     <row r="512" spans="17:32" s="21" customFormat="1">
       <c r="Q512" s="23"/>
@@ -28078,7 +28194,7 @@
       <c r="AA512" s="39"/>
       <c r="AB512" s="39"/>
       <c r="AC512" s="39"/>
-      <c r="AD512" s="64"/>
+      <c r="AD512" s="22"/>
     </row>
     <row r="513" spans="17:32" s="21" customFormat="1">
       <c r="Q513" s="23"/>
@@ -28094,7 +28210,7 @@
       <c r="AA513" s="39"/>
       <c r="AB513" s="39"/>
       <c r="AC513" s="39"/>
-      <c r="AD513" s="64"/>
+      <c r="AD513" s="22"/>
     </row>
     <row r="514" spans="17:32" s="21" customFormat="1">
       <c r="Q514" s="23"/>
@@ -28110,7 +28226,7 @@
       <c r="AA514" s="23"/>
       <c r="AB514" s="23"/>
       <c r="AC514" s="23"/>
-      <c r="AD514" s="64"/>
+      <c r="AD514" s="22"/>
     </row>
     <row r="515" spans="17:32" s="21" customFormat="1">
       <c r="Q515" s="23"/>
@@ -28126,7 +28242,7 @@
       <c r="AA515" s="23"/>
       <c r="AB515" s="23"/>
       <c r="AC515" s="23"/>
-      <c r="AD515" s="64"/>
+      <c r="AD515" s="22"/>
       <c r="AF515" s="22"/>
     </row>
     <row r="516" spans="17:32" s="21" customFormat="1">
@@ -28143,7 +28259,7 @@
       <c r="AA516" s="39"/>
       <c r="AB516" s="39"/>
       <c r="AC516" s="39"/>
-      <c r="AD516" s="64"/>
+      <c r="AD516" s="22"/>
     </row>
     <row r="517" spans="17:32" s="21" customFormat="1">
       <c r="Q517" s="23"/>
@@ -28159,7 +28275,7 @@
       <c r="AA517" s="39"/>
       <c r="AB517" s="39"/>
       <c r="AC517" s="39"/>
-      <c r="AD517" s="64"/>
+      <c r="AD517" s="22"/>
     </row>
     <row r="518" spans="17:32" s="21" customFormat="1">
       <c r="Q518" s="23"/>
@@ -28175,7 +28291,7 @@
       <c r="AA518" s="39"/>
       <c r="AB518" s="39"/>
       <c r="AC518" s="39"/>
-      <c r="AD518" s="64"/>
+      <c r="AD518" s="22"/>
     </row>
     <row r="519" spans="17:32" s="21" customFormat="1">
       <c r="Q519" s="23"/>
@@ -28191,7 +28307,7 @@
       <c r="AA519" s="39"/>
       <c r="AB519" s="39"/>
       <c r="AC519" s="39"/>
-      <c r="AD519" s="64"/>
+      <c r="AD519" s="22"/>
     </row>
     <row r="520" spans="17:32" s="21" customFormat="1">
       <c r="Q520" s="23"/>
@@ -28207,7 +28323,7 @@
       <c r="AA520" s="39"/>
       <c r="AB520" s="39"/>
       <c r="AC520" s="39"/>
-      <c r="AD520" s="64"/>
+      <c r="AD520" s="22"/>
     </row>
     <row r="521" spans="17:32" s="21" customFormat="1">
       <c r="Q521" s="23"/>
@@ -28223,7 +28339,7 @@
       <c r="AA521" s="23"/>
       <c r="AB521" s="23"/>
       <c r="AC521" s="23"/>
-      <c r="AD521" s="64"/>
+      <c r="AD521" s="22"/>
     </row>
     <row r="522" spans="17:32" s="21" customFormat="1">
       <c r="Q522" s="23"/>
@@ -28239,7 +28355,7 @@
       <c r="AA522" s="23"/>
       <c r="AB522" s="23"/>
       <c r="AC522" s="23"/>
-      <c r="AD522" s="64"/>
+      <c r="AD522" s="22"/>
       <c r="AF522" s="22"/>
     </row>
     <row r="523" spans="17:32" s="21" customFormat="1">
@@ -28256,7 +28372,7 @@
       <c r="AA523" s="39"/>
       <c r="AB523" s="39"/>
       <c r="AC523" s="39"/>
-      <c r="AD523" s="64"/>
+      <c r="AD523" s="22"/>
     </row>
     <row r="524" spans="17:32" s="21" customFormat="1">
       <c r="Q524" s="39"/>
@@ -28272,7 +28388,7 @@
       <c r="AA524" s="39"/>
       <c r="AB524" s="39"/>
       <c r="AC524" s="39"/>
-      <c r="AD524" s="64"/>
+      <c r="AD524" s="22"/>
     </row>
     <row r="525" spans="17:32" s="21" customFormat="1">
       <c r="Q525" s="23"/>
@@ -28288,7 +28404,7 @@
       <c r="AA525" s="23"/>
       <c r="AB525" s="23"/>
       <c r="AC525" s="23"/>
-      <c r="AD525" s="64"/>
+      <c r="AD525" s="22"/>
       <c r="AF525" s="22"/>
     </row>
     <row r="526" spans="17:32" s="21" customFormat="1">
@@ -28305,7 +28421,7 @@
       <c r="AA526" s="39"/>
       <c r="AB526" s="39"/>
       <c r="AC526" s="39"/>
-      <c r="AD526" s="64"/>
+      <c r="AD526" s="22"/>
     </row>
     <row r="527" spans="17:32" s="21" customFormat="1">
       <c r="Q527" s="23"/>
@@ -28321,7 +28437,7 @@
       <c r="AA527" s="39"/>
       <c r="AB527" s="39"/>
       <c r="AC527" s="39"/>
-      <c r="AD527" s="64"/>
+      <c r="AD527" s="22"/>
     </row>
     <row r="528" spans="17:32" s="21" customFormat="1">
       <c r="Q528" s="23"/>
@@ -28337,7 +28453,7 @@
       <c r="AA528" s="39"/>
       <c r="AB528" s="39"/>
       <c r="AC528" s="39"/>
-      <c r="AD528" s="64"/>
+      <c r="AD528" s="22"/>
     </row>
     <row r="529" spans="9:32" s="21" customFormat="1">
       <c r="Q529" s="23"/>
@@ -28353,7 +28469,7 @@
       <c r="AA529" s="39"/>
       <c r="AB529" s="39"/>
       <c r="AC529" s="39"/>
-      <c r="AD529" s="64"/>
+      <c r="AD529" s="22"/>
     </row>
     <row r="530" spans="9:32" s="21" customFormat="1">
       <c r="Q530" s="39"/>
@@ -28369,7 +28485,7 @@
       <c r="AA530" s="23"/>
       <c r="AB530" s="23"/>
       <c r="AC530" s="23"/>
-      <c r="AD530" s="64"/>
+      <c r="AD530" s="22"/>
       <c r="AF530" s="22"/>
     </row>
     <row r="531" spans="9:32" s="21" customFormat="1">
@@ -28386,7 +28502,7 @@
       <c r="AA531" s="23"/>
       <c r="AB531" s="23"/>
       <c r="AC531" s="23"/>
-      <c r="AD531" s="64"/>
+      <c r="AD531" s="22"/>
       <c r="AF531" s="22"/>
     </row>
     <row r="532" spans="9:32" s="21" customFormat="1">
@@ -28403,7 +28519,7 @@
       <c r="AA532" s="23"/>
       <c r="AB532" s="23"/>
       <c r="AC532" s="23"/>
-      <c r="AD532" s="64"/>
+      <c r="AD532" s="22"/>
     </row>
     <row r="533" spans="9:32" s="21" customFormat="1">
       <c r="Q533" s="23"/>
@@ -28419,7 +28535,7 @@
       <c r="AA533" s="23"/>
       <c r="AB533" s="23"/>
       <c r="AC533" s="23"/>
-      <c r="AD533" s="64"/>
+      <c r="AD533" s="22"/>
     </row>
     <row r="534" spans="9:32" s="21" customFormat="1">
       <c r="Q534" s="23"/>
@@ -28435,7 +28551,7 @@
       <c r="AA534" s="23"/>
       <c r="AB534" s="23"/>
       <c r="AC534" s="23"/>
-      <c r="AD534" s="64"/>
+      <c r="AD534" s="22"/>
     </row>
     <row r="535" spans="9:32" s="21" customFormat="1">
       <c r="Q535" s="23"/>
@@ -28451,7 +28567,7 @@
       <c r="AA535" s="39"/>
       <c r="AB535" s="39"/>
       <c r="AC535" s="39"/>
-      <c r="AD535" s="64"/>
+      <c r="AD535" s="22"/>
     </row>
     <row r="536" spans="9:32" s="21" customFormat="1">
       <c r="Q536" s="23"/>
@@ -28467,7 +28583,7 @@
       <c r="AA536" s="39"/>
       <c r="AB536" s="39"/>
       <c r="AC536" s="39"/>
-      <c r="AD536" s="64"/>
+      <c r="AD536" s="22"/>
     </row>
     <row r="537" spans="9:32" s="21" customFormat="1">
       <c r="Q537" s="23"/>
@@ -28483,7 +28599,7 @@
       <c r="AA537" s="23"/>
       <c r="AB537" s="23"/>
       <c r="AC537" s="23"/>
-      <c r="AD537" s="64"/>
+      <c r="AD537" s="22"/>
       <c r="AF537" s="22"/>
     </row>
     <row r="538" spans="9:32" s="21" customFormat="1">
@@ -28502,7 +28618,7 @@
       <c r="AA538" s="39"/>
       <c r="AB538" s="39"/>
       <c r="AC538" s="39"/>
-      <c r="AD538" s="64"/>
+      <c r="AD538" s="22"/>
     </row>
     <row r="539" spans="9:32" s="21" customFormat="1">
       <c r="I539" s="35"/>
@@ -28521,7 +28637,7 @@
       <c r="AA539" s="39"/>
       <c r="AB539" s="39"/>
       <c r="AC539" s="39"/>
-      <c r="AD539" s="64"/>
+      <c r="AD539" s="22"/>
     </row>
     <row r="540" spans="9:32" s="21" customFormat="1">
       <c r="Q540" s="39"/>
@@ -28537,7 +28653,7 @@
       <c r="AA540" s="39"/>
       <c r="AB540" s="39"/>
       <c r="AC540" s="39"/>
-      <c r="AD540" s="64"/>
+      <c r="AD540" s="22"/>
     </row>
     <row r="541" spans="9:32" s="21" customFormat="1">
       <c r="Q541" s="23"/>
@@ -28553,7 +28669,7 @@
       <c r="AA541" s="23"/>
       <c r="AB541" s="23"/>
       <c r="AC541" s="23"/>
-      <c r="AD541" s="64"/>
+      <c r="AD541" s="22"/>
     </row>
     <row r="542" spans="9:32" s="21" customFormat="1">
       <c r="Q542" s="23"/>
@@ -28569,7 +28685,7 @@
       <c r="AA542" s="23"/>
       <c r="AB542" s="23"/>
       <c r="AC542" s="23"/>
-      <c r="AD542" s="64"/>
+      <c r="AD542" s="22"/>
       <c r="AF542" s="22"/>
     </row>
     <row r="543" spans="9:32" s="21" customFormat="1">
@@ -28586,7 +28702,7 @@
       <c r="AA543" s="39"/>
       <c r="AB543" s="39"/>
       <c r="AC543" s="39"/>
-      <c r="AD543" s="64"/>
+      <c r="AD543" s="22"/>
     </row>
     <row r="544" spans="9:32" s="21" customFormat="1">
       <c r="Q544" s="23"/>
@@ -28602,7 +28718,7 @@
       <c r="AA544" s="39"/>
       <c r="AB544" s="39"/>
       <c r="AC544" s="39"/>
-      <c r="AD544" s="64"/>
+      <c r="AD544" s="22"/>
     </row>
     <row r="545" spans="16:32" s="21" customFormat="1">
       <c r="Q545" s="23"/>
@@ -28618,7 +28734,7 @@
       <c r="AA545" s="39"/>
       <c r="AB545" s="39"/>
       <c r="AC545" s="39"/>
-      <c r="AD545" s="64"/>
+      <c r="AD545" s="22"/>
     </row>
     <row r="546" spans="16:32" s="21" customFormat="1">
       <c r="Q546" s="23"/>
@@ -28634,7 +28750,7 @@
       <c r="AA546" s="39"/>
       <c r="AB546" s="39"/>
       <c r="AC546" s="39"/>
-      <c r="AD546" s="64"/>
+      <c r="AD546" s="22"/>
     </row>
     <row r="547" spans="16:32" s="21" customFormat="1">
       <c r="Q547" s="23"/>
@@ -28650,7 +28766,7 @@
       <c r="AA547" s="39"/>
       <c r="AB547" s="39"/>
       <c r="AC547" s="39"/>
-      <c r="AD547" s="64"/>
+      <c r="AD547" s="22"/>
     </row>
     <row r="548" spans="16:32" s="21" customFormat="1">
       <c r="Q548" s="39"/>
@@ -28666,7 +28782,7 @@
       <c r="AA548" s="39"/>
       <c r="AB548" s="39"/>
       <c r="AC548" s="39"/>
-      <c r="AD548" s="64"/>
+      <c r="AD548" s="22"/>
     </row>
     <row r="549" spans="16:32" s="21" customFormat="1">
       <c r="Q549" s="23"/>
@@ -28682,7 +28798,7 @@
       <c r="AA549" s="23"/>
       <c r="AB549" s="23"/>
       <c r="AC549" s="23"/>
-      <c r="AD549" s="64"/>
+      <c r="AD549" s="22"/>
       <c r="AF549" s="22"/>
     </row>
     <row r="550" spans="16:32" s="21" customFormat="1">
@@ -28699,7 +28815,7 @@
       <c r="AA550" s="39"/>
       <c r="AB550" s="39"/>
       <c r="AC550" s="39"/>
-      <c r="AD550" s="64"/>
+      <c r="AD550" s="22"/>
     </row>
     <row r="551" spans="16:32" s="21" customFormat="1">
       <c r="Q551" s="23"/>
@@ -28715,7 +28831,7 @@
       <c r="AA551" s="39"/>
       <c r="AB551" s="39"/>
       <c r="AC551" s="39"/>
-      <c r="AD551" s="64"/>
+      <c r="AD551" s="22"/>
     </row>
     <row r="552" spans="16:32" s="21" customFormat="1">
       <c r="Q552" s="23"/>
@@ -28731,7 +28847,7 @@
       <c r="AA552" s="39"/>
       <c r="AB552" s="39"/>
       <c r="AC552" s="39"/>
-      <c r="AD552" s="64"/>
+      <c r="AD552" s="22"/>
     </row>
     <row r="553" spans="16:32" s="21" customFormat="1">
       <c r="P553" s="22"/>
@@ -28747,7 +28863,7 @@
       <c r="Z553" s="39"/>
       <c r="AA553" s="39"/>
       <c r="AB553" s="39"/>
-      <c r="AD553" s="64"/>
+      <c r="AD553" s="22"/>
     </row>
     <row r="554" spans="16:32" s="21" customFormat="1">
       <c r="Q554" s="23"/>
@@ -28763,7 +28879,7 @@
       <c r="AA554" s="39"/>
       <c r="AB554" s="39"/>
       <c r="AC554" s="39"/>
-      <c r="AD554" s="64"/>
+      <c r="AD554" s="22"/>
     </row>
     <row r="555" spans="16:32" s="21" customFormat="1">
       <c r="Q555" s="23"/>
@@ -28779,7 +28895,7 @@
       <c r="AA555" s="39"/>
       <c r="AB555" s="39"/>
       <c r="AC555" s="39"/>
-      <c r="AD555" s="64"/>
+      <c r="AD555" s="22"/>
     </row>
     <row r="556" spans="16:32" s="21" customFormat="1">
       <c r="Q556" s="23"/>
@@ -28795,7 +28911,7 @@
       <c r="AA556" s="39"/>
       <c r="AB556" s="39"/>
       <c r="AC556" s="39"/>
-      <c r="AD556" s="64"/>
+      <c r="AD556" s="22"/>
     </row>
     <row r="557" spans="16:32" s="21" customFormat="1">
       <c r="Q557" s="23"/>
@@ -28811,7 +28927,7 @@
       <c r="AA557" s="23"/>
       <c r="AB557" s="23"/>
       <c r="AC557" s="23"/>
-      <c r="AD557" s="64"/>
+      <c r="AD557" s="22"/>
     </row>
     <row r="558" spans="16:32" s="21" customFormat="1">
       <c r="Q558" s="23"/>
@@ -28827,7 +28943,7 @@
       <c r="AA558" s="23"/>
       <c r="AB558" s="23"/>
       <c r="AC558" s="23"/>
-      <c r="AD558" s="64"/>
+      <c r="AD558" s="22"/>
     </row>
     <row r="559" spans="16:32" s="21" customFormat="1">
       <c r="Q559" s="23"/>
@@ -28843,7 +28959,7 @@
       <c r="AA559" s="23"/>
       <c r="AB559" s="23"/>
       <c r="AC559" s="23"/>
-      <c r="AD559" s="64"/>
+      <c r="AD559" s="22"/>
       <c r="AF559" s="22"/>
     </row>
     <row r="560" spans="16:32" s="21" customFormat="1">
@@ -28860,7 +28976,7 @@
       <c r="AA560" s="39"/>
       <c r="AB560" s="39"/>
       <c r="AC560" s="39"/>
-      <c r="AD560" s="64"/>
+      <c r="AD560" s="22"/>
     </row>
     <row r="561" spans="9:30" s="21" customFormat="1">
       <c r="Q561" s="23"/>
@@ -28876,7 +28992,7 @@
       <c r="AA561" s="39"/>
       <c r="AB561" s="39"/>
       <c r="AC561" s="39"/>
-      <c r="AD561" s="64"/>
+      <c r="AD561" s="22"/>
     </row>
     <row r="562" spans="9:30" s="21" customFormat="1">
       <c r="Q562" s="23"/>
@@ -28892,7 +29008,7 @@
       <c r="AA562" s="39"/>
       <c r="AB562" s="39"/>
       <c r="AC562" s="39"/>
-      <c r="AD562" s="64"/>
+      <c r="AD562" s="22"/>
     </row>
     <row r="563" spans="9:30" s="21" customFormat="1">
       <c r="Q563" s="23"/>
@@ -28908,7 +29024,7 @@
       <c r="AA563" s="39"/>
       <c r="AB563" s="39"/>
       <c r="AC563" s="39"/>
-      <c r="AD563" s="64"/>
+      <c r="AD563" s="22"/>
     </row>
     <row r="564" spans="9:30" s="21" customFormat="1">
       <c r="Q564" s="23"/>
@@ -28924,7 +29040,7 @@
       <c r="AA564" s="39"/>
       <c r="AB564" s="39"/>
       <c r="AC564" s="39"/>
-      <c r="AD564" s="64"/>
+      <c r="AD564" s="22"/>
     </row>
     <row r="565" spans="9:30" s="21" customFormat="1">
       <c r="Q565" s="39"/>
@@ -28940,7 +29056,7 @@
       <c r="AA565" s="39"/>
       <c r="AB565" s="39"/>
       <c r="AC565" s="39"/>
-      <c r="AD565" s="64"/>
+      <c r="AD565" s="22"/>
     </row>
     <row r="566" spans="9:30" s="21" customFormat="1">
       <c r="Q566" s="23"/>
@@ -28956,7 +29072,7 @@
       <c r="AA566" s="39"/>
       <c r="AB566" s="39"/>
       <c r="AC566" s="39"/>
-      <c r="AD566" s="64"/>
+      <c r="AD566" s="22"/>
     </row>
     <row r="567" spans="9:30" s="21" customFormat="1">
       <c r="Q567" s="23"/>
@@ -28972,7 +29088,7 @@
       <c r="AA567" s="39"/>
       <c r="AB567" s="39"/>
       <c r="AC567" s="39"/>
-      <c r="AD567" s="64"/>
+      <c r="AD567" s="22"/>
     </row>
     <row r="568" spans="9:30" s="21" customFormat="1">
       <c r="J568" s="1"/>
@@ -28990,7 +29106,7 @@
       <c r="AA568" s="39"/>
       <c r="AB568" s="39"/>
       <c r="AC568" s="39"/>
-      <c r="AD568" s="64"/>
+      <c r="AD568" s="22"/>
     </row>
     <row r="569" spans="9:30">
       <c r="J569" s="35"/>
@@ -34933,10 +35049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO244"/>
+  <dimension ref="A1:AO243"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181"/>
+    <sheetView topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H183" sqref="H183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -38602,12 +38718,23 @@
       </c>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="10"/>
-      <c r="B175" s="10"/>
+      <c r="A175" s="9">
+        <v>1</v>
+      </c>
+      <c r="B175" s="11">
+        <v>2</v>
+      </c>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
+      <c r="G175" s="11">
+        <v>2</v>
+      </c>
+      <c r="H175" s="10"/>
+      <c r="I175" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:22">
       <c r="A176" s="10"/>
@@ -38806,7 +38933,6 @@
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
-      <c r="E200" s="10"/>
       <c r="F200" s="10"/>
     </row>
     <row r="201" spans="1:6">
@@ -38814,7 +38940,6 @@
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
       <c r="F201" s="10"/>
     </row>
     <row r="202" spans="1:6">
@@ -38906,7 +39031,7 @@
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
-      <c r="F214" s="10"/>
+      <c r="F214" s="18"/>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="10"/>
@@ -38920,7 +39045,6 @@
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
       <c r="D216" s="10"/>
-      <c r="F216" s="18"/>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="10"/>
@@ -38954,6 +39078,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
       <c r="C222" s="10"/>
       <c r="D222" s="10"/>
     </row>
@@ -39042,9 +39167,6 @@
     </row>
     <row r="243" spans="3:3">
       <c r="C243" s="10"/>
-    </row>
-    <row r="244" spans="3:3">
-      <c r="C244" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -39057,8 +39179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="H183" sqref="H183"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="M181" sqref="M181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43567,18 +43689,54 @@
       </c>
     </row>
     <row r="175" spans="1:19" customFormat="1">
-      <c r="A175" s="35"/>
-      <c r="B175" s="35"/>
-      <c r="C175" s="35"/>
+      <c r="A175" s="21">
+        <v>1</v>
+      </c>
+      <c r="B175" s="21">
+        <v>4</v>
+      </c>
+      <c r="C175" s="21">
+        <v>1</v>
+      </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
+      <c r="F175" s="1">
+        <v>0</v>
+      </c>
+      <c r="G175" s="1">
+        <v>2</v>
+      </c>
+      <c r="H175" s="1">
+        <v>2</v>
+      </c>
+      <c r="I175" s="1">
+        <v>1</v>
+      </c>
+      <c r="J175" s="1">
+        <v>0</v>
+      </c>
+      <c r="K175" s="1">
+        <v>1</v>
+      </c>
       <c r="L175" s="1"/>
+      <c r="N175" s="1">
+        <v>1</v>
+      </c>
+      <c r="O175" s="1">
+        <v>1</v>
+      </c>
+      <c r="P175" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q175" s="1">
+        <v>5</v>
+      </c>
+      <c r="R175" s="1">
+        <v>7</v>
+      </c>
+      <c r="S175" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="182" spans="14:19" customFormat="1">
       <c r="N182" s="18"/>
@@ -43613,10 +43771,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN174"/>
+  <dimension ref="A100:AN175"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="V180" sqref="V180"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -47008,6 +47166,47 @@
         <v>5</v>
       </c>
     </row>
+    <row r="175" spans="1:19">
+      <c r="B175" s="9">
+        <v>1</v>
+      </c>
+      <c r="E175" s="9">
+        <v>1</v>
+      </c>
+      <c r="G175" s="9">
+        <v>1</v>
+      </c>
+      <c r="H175" s="9">
+        <v>1</v>
+      </c>
+      <c r="I175" s="9">
+        <v>1</v>
+      </c>
+      <c r="J175" s="9">
+        <v>1</v>
+      </c>
+      <c r="L175" s="16">
+        <v>0</v>
+      </c>
+      <c r="M175" s="16">
+        <v>2</v>
+      </c>
+      <c r="N175" s="16">
+        <v>5</v>
+      </c>
+      <c r="O175" s="16">
+        <v>7</v>
+      </c>
+      <c r="P175" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q175" s="16">
+        <v>9</v>
+      </c>
+      <c r="S175" s="16">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47020,7 +47219,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -47244,7 +47443,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="18">
         <v>15</v>
@@ -47379,10 +47578,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="19">
         <v>6</v>
@@ -47485,7 +47684,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="18">
         <v>1</v>
@@ -47494,7 +47693,7 @@
         <v>21</v>
       </c>
       <c r="M10" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -47503,7 +47702,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -47511,7 +47710,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
@@ -47520,7 +47719,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -47535,18 +47734,18 @@
         <v>12</v>
       </c>
       <c r="O11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
       <c r="G12" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="18">
         <v>19</v>
@@ -47571,6 +47770,9 @@
       <c r="K13" s="18">
         <v>14</v>
       </c>
+      <c r="L13" s="18">
+        <v>0</v>
+      </c>
       <c r="N13" s="18">
         <v>0</v>
       </c>
@@ -47580,18 +47782,18 @@
         <v>29</v>
       </c>
       <c r="I14" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K14" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N14" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/demos/cp/cp.xlsx
+++ b/demos/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
     <sheet name="Sheet7" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +113,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO104"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF71" sqref="AF71"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5601,7 +5606,7 @@
         <v>3</v>
       </c>
       <c r="P47" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q47" s="7">
         <v>7</v>
@@ -5729,7 +5734,7 @@
       <c r="Y48" s="7">
         <v>0</v>
       </c>
-      <c r="Z48" s="7">
+      <c r="Z48" s="25">
         <v>13</v>
       </c>
       <c r="AA48" s="7">
@@ -5828,7 +5833,7 @@
       <c r="Y49" s="7">
         <v>2</v>
       </c>
-      <c r="Z49" s="7">
+      <c r="Z49" s="25">
         <v>4</v>
       </c>
       <c r="AA49" s="7">
@@ -5927,7 +5932,7 @@
       <c r="Y50" s="7">
         <v>3</v>
       </c>
-      <c r="Z50" s="7">
+      <c r="Z50" s="25">
         <v>0</v>
       </c>
       <c r="AA50" s="7">
@@ -6376,7 +6381,9 @@
       <c r="I55" s="7">
         <v>13</v>
       </c>
-      <c r="J55" s="7"/>
+      <c r="J55" s="7">
+        <v>1</v>
+      </c>
       <c r="K55" s="7">
         <v>2</v>
       </c>
@@ -6447,7 +6454,7 @@
     </row>
     <row r="56" spans="1:33" s="25" customFormat="1">
       <c r="A56" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B56" s="7">
         <v>0</v>
@@ -6475,7 +6482,7 @@
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L56" s="7">
         <v>6</v>
@@ -6509,7 +6516,7 @@
         <v>5</v>
       </c>
       <c r="W56" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X56" s="7">
         <v>3</v>
@@ -6620,10 +6627,10 @@
         <v>1</v>
       </c>
       <c r="AD57" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE57" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF57" s="7">
         <v>2</v>
@@ -6677,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S58" s="7">
         <v>3</v>
@@ -6724,7 +6731,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D59" s="7">
         <v>6</v>
@@ -6735,7 +6742,7 @@
       <c r="F59" s="7">
         <v>8</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="25">
         <v>4</v>
       </c>
       <c r="H59" s="7">
@@ -6811,7 +6818,7 @@
       <c r="F60" s="7">
         <v>2</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="25">
         <v>9</v>
       </c>
       <c r="H60" s="7">
@@ -6839,7 +6846,7 @@
         <v>3</v>
       </c>
       <c r="T60" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U60" s="7">
         <v>1</v>
@@ -6869,7 +6876,7 @@
         <v>3</v>
       </c>
       <c r="AG60" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
@@ -6887,11 +6894,11 @@
       <c r="F61" s="7">
         <v>3</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="25">
         <v>5</v>
       </c>
       <c r="H61" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" s="7">
         <v>0</v>
@@ -6936,7 +6943,7 @@
         <v>8</v>
       </c>
       <c r="AA61" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB61" s="7">
         <v>12</v>
@@ -6975,13 +6982,13 @@
       <c r="J62" s="3"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
       </c>
       <c r="N62" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O62" s="7">
         <v>4</v>
@@ -7016,7 +7023,7 @@
         <v>12</v>
       </c>
       <c r="AC62" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD62" s="7"/>
       <c r="AE62" s="3"/>
@@ -7045,7 +7052,7 @@
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -7066,7 +7073,9 @@
         <v>1</v>
       </c>
       <c r="T63" s="3"/>
-      <c r="U63" s="4"/>
+      <c r="U63" s="4">
+        <v>0</v>
+      </c>
       <c r="V63" s="4">
         <v>0</v>
       </c>
@@ -7075,7 +7084,7 @@
         <v>3</v>
       </c>
       <c r="Y63" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z63" s="4">
         <v>12</v>
@@ -7087,7 +7096,7 @@
       <c r="AD63" s="7"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG63" s="5"/>
     </row>
@@ -7108,7 +7117,9 @@
         <v>0</v>
       </c>
       <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
       <c r="K64" s="3"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4">
@@ -7127,7 +7138,9 @@
         <v>0</v>
       </c>
       <c r="T64" s="7"/>
-      <c r="U64" s="38"/>
+      <c r="U64" s="40">
+        <v>0</v>
+      </c>
       <c r="V64" s="4">
         <v>4</v>
       </c>
@@ -7149,7 +7162,7 @@
     </row>
     <row r="65" spans="1:33">
       <c r="B65" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="7">
@@ -7158,7 +7171,9 @@
       <c r="E65" s="4">
         <v>0</v>
       </c>
-      <c r="F65" s="7"/>
+      <c r="F65" s="7">
+        <v>1</v>
+      </c>
       <c r="G65" s="2">
         <v>4</v>
       </c>
@@ -7210,6 +7225,9 @@
         <v>2</v>
       </c>
       <c r="F66" s="4"/>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="3"/>
@@ -7226,7 +7244,7 @@
       </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T66" s="3"/>
       <c r="U66" s="4"/>
@@ -7242,7 +7260,7 @@
         <v>4</v>
       </c>
       <c r="AB66" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AD66" s="4"/>
       <c r="AE66" s="3"/>
@@ -7257,6 +7275,9 @@
         <v>17</v>
       </c>
       <c r="F67" s="4"/>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="K67" s="3"/>
@@ -7266,7 +7287,7 @@
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
@@ -7281,9 +7302,11 @@
       </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z67" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="Z67" s="4">
+        <v>1</v>
+      </c>
       <c r="AB67" s="12"/>
       <c r="AD67" s="4"/>
       <c r="AE67" s="3"/>
@@ -7315,7 +7338,7 @@
       <c r="T68" s="3"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
@@ -7350,7 +7373,9 @@
       <c r="S69" s="4"/>
       <c r="T69" s="3"/>
       <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
+      <c r="V69" s="4">
+        <v>0</v>
+      </c>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
       <c r="Z69" s="4"/>
@@ -7366,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F70" s="7"/>
       <c r="H70" s="4"/>
@@ -7440,13 +7465,13 @@
       <c r="J72" s="3"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
@@ -7470,11 +7495,15 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
+      <c r="Q73" s="4">
+        <v>0</v>
+      </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
       <c r="T73" s="3"/>
@@ -7521,7 +7550,9 @@
     <row r="75" spans="1:33">
       <c r="A75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="3"/>
+      <c r="D75" s="3">
+        <v>1</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="H75" s="4"/>
       <c r="J75" s="3"/>
@@ -8013,8 +8044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H181" sqref="H181"/>
+    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I183" sqref="I183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -21080,7 +21111,7 @@
         <v>1</v>
       </c>
       <c r="V160" s="20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W160" s="20"/>
       <c r="X160" s="19">
@@ -21174,7 +21205,7 @@
         <v>3</v>
       </c>
       <c r="S161" s="20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T161" s="19">
         <v>0</v>
@@ -21183,7 +21214,7 @@
         <v>10</v>
       </c>
       <c r="V161" s="20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W161" s="20"/>
       <c r="X161" s="19">
@@ -21272,7 +21303,7 @@
         <v>2</v>
       </c>
       <c r="S162" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T162" s="19">
         <v>2</v>
@@ -21480,7 +21511,7 @@
         <v>8</v>
       </c>
       <c r="U164" s="20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V164" s="19">
         <v>4</v>
@@ -21492,17 +21523,19 @@
       <c r="Y164" s="19">
         <v>2</v>
       </c>
-      <c r="Z164" s="22">
-        <v>4</v>
-      </c>
-      <c r="AA164" s="22">
-        <v>5</v>
-      </c>
-      <c r="AB164" s="22">
+      <c r="Z164" s="19">
+        <v>4</v>
+      </c>
+      <c r="AA164" s="19">
+        <v>5</v>
+      </c>
+      <c r="AB164" s="19">
         <v>8</v>
       </c>
       <c r="AC164" s="20"/>
-      <c r="AD164" s="20"/>
+      <c r="AD164" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="AF164" s="39"/>
       <c r="AH164" s="21">
         <v>0</v>
@@ -21667,7 +21700,7 @@
       </c>
       <c r="P166" s="22"/>
       <c r="Q166" s="20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R166" s="19">
         <v>8</v>
@@ -21701,7 +21734,9 @@
         <v>8</v>
       </c>
       <c r="AC166" s="20"/>
-      <c r="AD166" s="20"/>
+      <c r="AD166" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="AF166" s="39"/>
       <c r="AH166" s="21">
         <v>0</v>
@@ -21767,7 +21802,7 @@
       </c>
       <c r="P167" s="22"/>
       <c r="Q167" s="23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R167" s="22">
         <v>0</v>
@@ -21801,7 +21836,9 @@
         <v>5</v>
       </c>
       <c r="AC167" s="23"/>
-      <c r="AD167" s="23"/>
+      <c r="AD167" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="AF167" s="39"/>
       <c r="AH167" s="21">
         <v>0</v>
@@ -21975,7 +22012,7 @@
         <v>0</v>
       </c>
       <c r="R169" s="23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S169" s="22">
         <v>3</v>
@@ -21984,7 +22021,7 @@
         <v>2</v>
       </c>
       <c r="U169" s="23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V169" s="22">
         <v>2</v>
@@ -22004,7 +22041,9 @@
       </c>
       <c r="AB169" s="23"/>
       <c r="AC169" s="23"/>
-      <c r="AD169" s="23"/>
+      <c r="AD169" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="AF169" s="39"/>
       <c r="AH169" s="21">
         <v>0</v>
@@ -22076,7 +22115,7 @@
         <v>2</v>
       </c>
       <c r="R170" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S170" s="22">
         <v>0</v>
@@ -22107,7 +22146,9 @@
         <v>3</v>
       </c>
       <c r="AC170" s="23"/>
-      <c r="AD170" s="23"/>
+      <c r="AD170" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="AF170" s="39"/>
       <c r="AH170" s="21">
         <v>0</v>
@@ -22172,13 +22213,13 @@
         <v>20</v>
       </c>
       <c r="P171" s="22"/>
-      <c r="Q171" s="20">
-        <v>4</v>
-      </c>
-      <c r="R171" s="20">
-        <v>4</v>
-      </c>
-      <c r="S171" s="20">
+      <c r="Q171" s="19">
+        <v>4</v>
+      </c>
+      <c r="R171" s="19">
+        <v>4</v>
+      </c>
+      <c r="S171" s="19">
         <v>4</v>
       </c>
       <c r="T171" s="19">
@@ -22187,7 +22228,7 @@
       <c r="U171" s="19">
         <v>2</v>
       </c>
-      <c r="V171" s="20">
+      <c r="V171" s="19">
         <v>4</v>
       </c>
       <c r="W171" s="20"/>
@@ -22197,10 +22238,18 @@
       <c r="Y171" s="19">
         <v>2</v>
       </c>
-      <c r="Z171" s="20"/>
-      <c r="AA171" s="20"/>
-      <c r="AB171" s="20"/>
-      <c r="AC171" s="20"/>
+      <c r="Z171" s="19">
+        <v>4</v>
+      </c>
+      <c r="AA171" s="19">
+        <v>4</v>
+      </c>
+      <c r="AB171" s="19">
+        <v>4</v>
+      </c>
+      <c r="AC171" s="19">
+        <v>4</v>
+      </c>
       <c r="AD171" s="20"/>
       <c r="AF171" s="39"/>
       <c r="AH171" s="21">
@@ -22266,23 +22315,23 @@
         <v>10</v>
       </c>
       <c r="P172" s="22"/>
-      <c r="Q172" s="23">
-        <v>3</v>
+      <c r="Q172" s="22">
+        <v>4</v>
       </c>
       <c r="R172" s="22">
         <v>1</v>
       </c>
       <c r="S172" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T172" s="22">
         <v>0</v>
       </c>
       <c r="U172" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V172" s="23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W172" s="23"/>
       <c r="X172" s="22">
@@ -22291,7 +22340,9 @@
       <c r="Y172" s="19">
         <v>1</v>
       </c>
-      <c r="Z172" s="23"/>
+      <c r="Z172" s="19">
+        <v>4</v>
+      </c>
       <c r="AA172" s="23"/>
       <c r="AB172" s="23"/>
       <c r="AC172" s="23"/>
@@ -22358,7 +22409,7 @@
       </c>
       <c r="P173" s="22"/>
       <c r="Q173" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R173" s="22">
         <v>1</v>
@@ -22367,12 +22418,12 @@
         <v>1</v>
       </c>
       <c r="T173" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U173" s="23">
-        <v>2</v>
-      </c>
-      <c r="V173" s="23">
+        <v>4</v>
+      </c>
+      <c r="V173" s="22">
         <v>2</v>
       </c>
       <c r="W173" s="23"/>
@@ -22382,7 +22433,9 @@
       <c r="Y173" s="22">
         <v>1</v>
       </c>
-      <c r="Z173" s="23"/>
+      <c r="Z173" s="19">
+        <v>2</v>
+      </c>
       <c r="AA173" s="23"/>
       <c r="AB173" s="23"/>
       <c r="AC173" s="23"/>
@@ -22454,29 +22507,31 @@
         <v>14</v>
       </c>
       <c r="P174" s="22"/>
-      <c r="Q174" s="23">
-        <v>1</v>
+      <c r="Q174" s="22">
+        <v>2</v>
       </c>
       <c r="R174" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S174" s="22">
         <v>0</v>
       </c>
       <c r="T174" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U174" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V174" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W174" s="23"/>
       <c r="X174" s="21">
         <v>0</v>
       </c>
-      <c r="Y174" s="39"/>
+      <c r="Y174" s="16">
+        <v>2</v>
+      </c>
       <c r="Z174" s="23"/>
       <c r="AA174" s="23"/>
       <c r="AB174" s="23"/>
@@ -22547,27 +22602,33 @@
       </c>
       <c r="P175" s="22"/>
       <c r="Q175" s="20">
-        <v>0</v>
-      </c>
-      <c r="R175" s="20">
+        <v>2</v>
+      </c>
+      <c r="R175" s="19">
         <v>0</v>
       </c>
       <c r="S175" s="20">
-        <v>0</v>
-      </c>
-      <c r="T175" s="20">
-        <v>0</v>
-      </c>
-      <c r="U175" s="20">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="T175" s="19">
+        <v>1</v>
+      </c>
+      <c r="U175" s="19">
+        <v>1</v>
       </c>
       <c r="V175" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W175" s="20"/>
-      <c r="X175" s="15"/>
-      <c r="Y175" s="15"/>
-      <c r="Z175" s="20"/>
+      <c r="X175" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y175" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z175" s="19">
+        <v>1</v>
+      </c>
       <c r="AA175" s="20"/>
       <c r="AB175" s="20"/>
       <c r="AC175" s="20"/>
@@ -22596,31 +22657,149 @@
       </c>
     </row>
     <row r="176" spans="1:43" s="21" customFormat="1">
+      <c r="A176" s="21">
+        <v>4</v>
+      </c>
+      <c r="B176" s="21">
+        <v>4</v>
+      </c>
+      <c r="C176" s="21">
+        <v>4</v>
+      </c>
+      <c r="D176" s="21">
+        <v>0</v>
+      </c>
+      <c r="E176" s="21">
+        <v>2</v>
+      </c>
+      <c r="F176" s="21">
+        <v>4</v>
+      </c>
+      <c r="I176" s="21">
+        <v>0</v>
+      </c>
+      <c r="J176" s="21">
+        <v>2</v>
+      </c>
+      <c r="K176" s="21">
+        <v>4</v>
+ 